--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="80">
   <si>
     <t>№ п/п</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Парфенков Александр Алексеевич</t>
+  </si>
+  <si>
+    <t>в</t>
   </si>
 </sst>
 </file>
@@ -1747,6 +1750,78 @@
     <xf numFmtId="4" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1798,24 +1873,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1854,60 +1911,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1940,7 +1943,91 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2456,21 +2543,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="226" t="s">
+      <c r="CU1" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="226"/>
-      <c r="CW1" s="226"/>
-      <c r="CX1" s="226"/>
-      <c r="CY1" s="226"/>
-      <c r="CZ1" s="226"/>
-      <c r="DA1" s="226"/>
-      <c r="DB1" s="226"/>
-      <c r="DC1" s="226"/>
-      <c r="DD1" s="226"/>
-      <c r="DE1" s="226"/>
-      <c r="DF1" s="226"/>
-      <c r="DG1" s="226"/>
+      <c r="CV1" s="250"/>
+      <c r="CW1" s="250"/>
+      <c r="CX1" s="250"/>
+      <c r="CY1" s="250"/>
+      <c r="CZ1" s="250"/>
+      <c r="DA1" s="250"/>
+      <c r="DB1" s="250"/>
+      <c r="DC1" s="250"/>
+      <c r="DD1" s="250"/>
+      <c r="DE1" s="250"/>
+      <c r="DF1" s="250"/>
+      <c r="DG1" s="250"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -2571,241 +2658,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="227" t="s">
+      <c r="CU2" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="227"/>
-      <c r="CW2" s="227"/>
-      <c r="CX2" s="227"/>
-      <c r="CY2" s="227"/>
-      <c r="CZ2" s="227"/>
-      <c r="DA2" s="227"/>
-      <c r="DB2" s="227"/>
-      <c r="DC2" s="227"/>
-      <c r="DD2" s="227"/>
-      <c r="DE2" s="227"/>
-      <c r="DF2" s="227"/>
-      <c r="DG2" s="227"/>
+      <c r="CV2" s="251"/>
+      <c r="CW2" s="251"/>
+      <c r="CX2" s="251"/>
+      <c r="CY2" s="251"/>
+      <c r="CZ2" s="251"/>
+      <c r="DA2" s="251"/>
+      <c r="DB2" s="251"/>
+      <c r="DC2" s="251"/>
+      <c r="DD2" s="251"/>
+      <c r="DE2" s="251"/>
+      <c r="DF2" s="251"/>
+      <c r="DG2" s="251"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="228"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="228"/>
-      <c r="AC3" s="228"/>
-      <c r="AD3" s="228"/>
-      <c r="AE3" s="228"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="228"/>
-      <c r="AH3" s="228"/>
-      <c r="AI3" s="228"/>
-      <c r="AJ3" s="228"/>
-      <c r="AK3" s="228"/>
-      <c r="AL3" s="228"/>
-      <c r="AM3" s="228"/>
-      <c r="AN3" s="228"/>
-      <c r="AO3" s="228"/>
-      <c r="AP3" s="228"/>
-      <c r="AQ3" s="228"/>
-      <c r="AR3" s="228"/>
-      <c r="AS3" s="228"/>
-      <c r="AT3" s="228"/>
-      <c r="AU3" s="228"/>
-      <c r="AV3" s="228"/>
-      <c r="AW3" s="228"/>
-      <c r="AX3" s="228"/>
-      <c r="AY3" s="228"/>
-      <c r="AZ3" s="228"/>
-      <c r="BA3" s="228"/>
-      <c r="BB3" s="228"/>
-      <c r="BC3" s="228"/>
-      <c r="BD3" s="228"/>
-      <c r="BE3" s="228"/>
-      <c r="BF3" s="228"/>
-      <c r="BG3" s="228"/>
-      <c r="BH3" s="228"/>
-      <c r="BI3" s="228"/>
-      <c r="BJ3" s="228"/>
-      <c r="BK3" s="228"/>
-      <c r="BL3" s="228"/>
-      <c r="BM3" s="228"/>
-      <c r="BN3" s="228"/>
-      <c r="BO3" s="228"/>
-      <c r="BP3" s="228"/>
-      <c r="BQ3" s="228"/>
-      <c r="BR3" s="228"/>
-      <c r="BS3" s="228"/>
-      <c r="BT3" s="228"/>
-      <c r="BU3" s="228"/>
-      <c r="BV3" s="228"/>
-      <c r="BW3" s="228"/>
-      <c r="BX3" s="228"/>
-      <c r="BY3" s="228"/>
-      <c r="BZ3" s="228"/>
-      <c r="CA3" s="228"/>
-      <c r="CB3" s="228"/>
-      <c r="CC3" s="228"/>
-      <c r="CD3" s="228"/>
-      <c r="CE3" s="228"/>
-      <c r="CF3" s="228"/>
-      <c r="CG3" s="228"/>
-      <c r="CH3" s="228"/>
-      <c r="CI3" s="228"/>
-      <c r="CJ3" s="228"/>
-      <c r="CK3" s="228"/>
-      <c r="CL3" s="228"/>
-      <c r="CM3" s="228"/>
-      <c r="CN3" s="228"/>
-      <c r="CO3" s="228"/>
-      <c r="CP3" s="228"/>
-      <c r="CQ3" s="228"/>
-      <c r="CR3" s="228"/>
-      <c r="CS3" s="228"/>
-      <c r="CT3" s="228"/>
-      <c r="CU3" s="228"/>
-      <c r="CV3" s="229" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="252"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="252"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="252"/>
+      <c r="W3" s="252"/>
+      <c r="X3" s="252"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="252"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="252"/>
+      <c r="AD3" s="252"/>
+      <c r="AE3" s="252"/>
+      <c r="AF3" s="252"/>
+      <c r="AG3" s="252"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="252"/>
+      <c r="AJ3" s="252"/>
+      <c r="AK3" s="252"/>
+      <c r="AL3" s="252"/>
+      <c r="AM3" s="252"/>
+      <c r="AN3" s="252"/>
+      <c r="AO3" s="252"/>
+      <c r="AP3" s="252"/>
+      <c r="AQ3" s="252"/>
+      <c r="AR3" s="252"/>
+      <c r="AS3" s="252"/>
+      <c r="AT3" s="252"/>
+      <c r="AU3" s="252"/>
+      <c r="AV3" s="252"/>
+      <c r="AW3" s="252"/>
+      <c r="AX3" s="252"/>
+      <c r="AY3" s="252"/>
+      <c r="AZ3" s="252"/>
+      <c r="BA3" s="252"/>
+      <c r="BB3" s="252"/>
+      <c r="BC3" s="252"/>
+      <c r="BD3" s="252"/>
+      <c r="BE3" s="252"/>
+      <c r="BF3" s="252"/>
+      <c r="BG3" s="252"/>
+      <c r="BH3" s="252"/>
+      <c r="BI3" s="252"/>
+      <c r="BJ3" s="252"/>
+      <c r="BK3" s="252"/>
+      <c r="BL3" s="252"/>
+      <c r="BM3" s="252"/>
+      <c r="BN3" s="252"/>
+      <c r="BO3" s="252"/>
+      <c r="BP3" s="252"/>
+      <c r="BQ3" s="252"/>
+      <c r="BR3" s="252"/>
+      <c r="BS3" s="252"/>
+      <c r="BT3" s="252"/>
+      <c r="BU3" s="252"/>
+      <c r="BV3" s="252"/>
+      <c r="BW3" s="252"/>
+      <c r="BX3" s="252"/>
+      <c r="BY3" s="252"/>
+      <c r="BZ3" s="252"/>
+      <c r="CA3" s="252"/>
+      <c r="CB3" s="252"/>
+      <c r="CC3" s="252"/>
+      <c r="CD3" s="252"/>
+      <c r="CE3" s="252"/>
+      <c r="CF3" s="252"/>
+      <c r="CG3" s="252"/>
+      <c r="CH3" s="252"/>
+      <c r="CI3" s="252"/>
+      <c r="CJ3" s="252"/>
+      <c r="CK3" s="252"/>
+      <c r="CL3" s="252"/>
+      <c r="CM3" s="252"/>
+      <c r="CN3" s="252"/>
+      <c r="CO3" s="252"/>
+      <c r="CP3" s="252"/>
+      <c r="CQ3" s="252"/>
+      <c r="CR3" s="252"/>
+      <c r="CS3" s="252"/>
+      <c r="CT3" s="252"/>
+      <c r="CU3" s="252"/>
+      <c r="CV3" s="253" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="229"/>
-      <c r="CX3" s="229"/>
-      <c r="CY3" s="229"/>
-      <c r="CZ3" s="229"/>
-      <c r="DA3" s="229"/>
-      <c r="DB3" s="229"/>
-      <c r="DC3" s="229"/>
-      <c r="DD3" s="229"/>
-      <c r="DE3" s="229"/>
-      <c r="DF3" s="229"/>
-      <c r="DG3" s="229"/>
+      <c r="CW3" s="253"/>
+      <c r="CX3" s="253"/>
+      <c r="CY3" s="253"/>
+      <c r="CZ3" s="253"/>
+      <c r="DA3" s="253"/>
+      <c r="DB3" s="253"/>
+      <c r="DC3" s="253"/>
+      <c r="DD3" s="253"/>
+      <c r="DE3" s="253"/>
+      <c r="DF3" s="253"/>
+      <c r="DG3" s="253"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="242"/>
-      <c r="U4" s="242"/>
-      <c r="V4" s="242"/>
-      <c r="W4" s="242"/>
-      <c r="X4" s="242"/>
-      <c r="Y4" s="242"/>
-      <c r="Z4" s="242"/>
-      <c r="AA4" s="242"/>
-      <c r="AB4" s="242"/>
-      <c r="AC4" s="242"/>
-      <c r="AD4" s="242"/>
-      <c r="AE4" s="242"/>
-      <c r="AF4" s="242"/>
-      <c r="AG4" s="242"/>
-      <c r="AH4" s="242"/>
-      <c r="AI4" s="242"/>
-      <c r="AJ4" s="242"/>
-      <c r="AK4" s="242"/>
-      <c r="AL4" s="242"/>
-      <c r="AM4" s="242"/>
-      <c r="AN4" s="242"/>
-      <c r="AO4" s="242"/>
-      <c r="AP4" s="242"/>
-      <c r="AQ4" s="242"/>
-      <c r="AR4" s="242"/>
-      <c r="AS4" s="242"/>
-      <c r="AT4" s="242"/>
-      <c r="AU4" s="242"/>
-      <c r="AV4" s="242"/>
-      <c r="AW4" s="242"/>
-      <c r="AX4" s="242"/>
-      <c r="AY4" s="242"/>
-      <c r="AZ4" s="242"/>
-      <c r="BA4" s="242"/>
-      <c r="BB4" s="242"/>
-      <c r="BC4" s="242"/>
-      <c r="BD4" s="242"/>
-      <c r="BE4" s="242"/>
-      <c r="BF4" s="242"/>
-      <c r="BG4" s="242"/>
-      <c r="BH4" s="242"/>
-      <c r="BI4" s="242"/>
-      <c r="BJ4" s="242"/>
-      <c r="BK4" s="242"/>
-      <c r="BL4" s="242"/>
-      <c r="BM4" s="242"/>
-      <c r="BN4" s="242"/>
-      <c r="BO4" s="242"/>
-      <c r="BP4" s="242"/>
-      <c r="BQ4" s="242"/>
-      <c r="BR4" s="242"/>
-      <c r="BS4" s="242"/>
-      <c r="BT4" s="242"/>
-      <c r="BU4" s="242"/>
-      <c r="BV4" s="242"/>
-      <c r="BW4" s="242"/>
-      <c r="BX4" s="242"/>
-      <c r="BY4" s="242"/>
-      <c r="BZ4" s="242"/>
-      <c r="CA4" s="242"/>
-      <c r="CB4" s="242"/>
-      <c r="CC4" s="242"/>
-      <c r="CD4" s="242"/>
-      <c r="CE4" s="242"/>
-      <c r="CF4" s="242"/>
-      <c r="CG4" s="242"/>
-      <c r="CH4" s="242"/>
-      <c r="CI4" s="242"/>
-      <c r="CJ4" s="242"/>
-      <c r="CK4" s="242"/>
-      <c r="CL4" s="242"/>
-      <c r="CM4" s="242"/>
-      <c r="CN4" s="242"/>
-      <c r="CO4" s="242"/>
-      <c r="CP4" s="242"/>
-      <c r="CQ4" s="242"/>
-      <c r="CR4" s="242"/>
-      <c r="CS4" s="242"/>
-      <c r="CT4" s="242"/>
-      <c r="CU4" s="242"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="260"/>
+      <c r="U4" s="260"/>
+      <c r="V4" s="260"/>
+      <c r="W4" s="260"/>
+      <c r="X4" s="260"/>
+      <c r="Y4" s="260"/>
+      <c r="Z4" s="260"/>
+      <c r="AA4" s="260"/>
+      <c r="AB4" s="260"/>
+      <c r="AC4" s="260"/>
+      <c r="AD4" s="260"/>
+      <c r="AE4" s="260"/>
+      <c r="AF4" s="260"/>
+      <c r="AG4" s="260"/>
+      <c r="AH4" s="260"/>
+      <c r="AI4" s="260"/>
+      <c r="AJ4" s="260"/>
+      <c r="AK4" s="260"/>
+      <c r="AL4" s="260"/>
+      <c r="AM4" s="260"/>
+      <c r="AN4" s="260"/>
+      <c r="AO4" s="260"/>
+      <c r="AP4" s="260"/>
+      <c r="AQ4" s="260"/>
+      <c r="AR4" s="260"/>
+      <c r="AS4" s="260"/>
+      <c r="AT4" s="260"/>
+      <c r="AU4" s="260"/>
+      <c r="AV4" s="260"/>
+      <c r="AW4" s="260"/>
+      <c r="AX4" s="260"/>
+      <c r="AY4" s="260"/>
+      <c r="AZ4" s="260"/>
+      <c r="BA4" s="260"/>
+      <c r="BB4" s="260"/>
+      <c r="BC4" s="260"/>
+      <c r="BD4" s="260"/>
+      <c r="BE4" s="260"/>
+      <c r="BF4" s="260"/>
+      <c r="BG4" s="260"/>
+      <c r="BH4" s="260"/>
+      <c r="BI4" s="260"/>
+      <c r="BJ4" s="260"/>
+      <c r="BK4" s="260"/>
+      <c r="BL4" s="260"/>
+      <c r="BM4" s="260"/>
+      <c r="BN4" s="260"/>
+      <c r="BO4" s="260"/>
+      <c r="BP4" s="260"/>
+      <c r="BQ4" s="260"/>
+      <c r="BR4" s="260"/>
+      <c r="BS4" s="260"/>
+      <c r="BT4" s="260"/>
+      <c r="BU4" s="260"/>
+      <c r="BV4" s="260"/>
+      <c r="BW4" s="260"/>
+      <c r="BX4" s="260"/>
+      <c r="BY4" s="260"/>
+      <c r="BZ4" s="260"/>
+      <c r="CA4" s="260"/>
+      <c r="CB4" s="260"/>
+      <c r="CC4" s="260"/>
+      <c r="CD4" s="260"/>
+      <c r="CE4" s="260"/>
+      <c r="CF4" s="260"/>
+      <c r="CG4" s="260"/>
+      <c r="CH4" s="260"/>
+      <c r="CI4" s="260"/>
+      <c r="CJ4" s="260"/>
+      <c r="CK4" s="260"/>
+      <c r="CL4" s="260"/>
+      <c r="CM4" s="260"/>
+      <c r="CN4" s="260"/>
+      <c r="CO4" s="260"/>
+      <c r="CP4" s="260"/>
+      <c r="CQ4" s="260"/>
+      <c r="CR4" s="260"/>
+      <c r="CS4" s="260"/>
+      <c r="CT4" s="260"/>
+      <c r="CU4" s="260"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -2935,433 +3022,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="246" t="s">
+      <c r="A6" s="261" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="264" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="249" t="s">
+      <c r="C6" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="223" t="s">
+      <c r="D6" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="223" t="s">
+      <c r="E6" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="268" t="s">
+      <c r="G6" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="268"/>
-      <c r="N6" s="268"/>
-      <c r="O6" s="268"/>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="268"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="268"/>
-      <c r="T6" s="268"/>
-      <c r="U6" s="268"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="268"/>
-      <c r="X6" s="268"/>
-      <c r="Y6" s="268"/>
-      <c r="Z6" s="268"/>
-      <c r="AA6" s="268"/>
-      <c r="AB6" s="268"/>
-      <c r="AC6" s="268"/>
-      <c r="AD6" s="268"/>
-      <c r="AE6" s="268"/>
-      <c r="AF6" s="268"/>
-      <c r="AG6" s="268"/>
-      <c r="AH6" s="268"/>
-      <c r="AI6" s="268"/>
-      <c r="AJ6" s="268"/>
-      <c r="AK6" s="268"/>
-      <c r="AL6" s="268"/>
-      <c r="AM6" s="268"/>
-      <c r="AN6" s="268"/>
-      <c r="AO6" s="268"/>
-      <c r="AP6" s="268"/>
-      <c r="AQ6" s="268"/>
-      <c r="AR6" s="268"/>
-      <c r="AS6" s="268"/>
-      <c r="AT6" s="268"/>
-      <c r="AU6" s="268"/>
-      <c r="AV6" s="268"/>
-      <c r="AW6" s="268"/>
-      <c r="AX6" s="268"/>
-      <c r="AY6" s="268"/>
-      <c r="AZ6" s="268"/>
-      <c r="BA6" s="268"/>
-      <c r="BB6" s="268"/>
-      <c r="BC6" s="268"/>
-      <c r="BD6" s="268"/>
-      <c r="BE6" s="268"/>
-      <c r="BF6" s="268"/>
-      <c r="BG6" s="268"/>
-      <c r="BH6" s="268"/>
-      <c r="BI6" s="268"/>
-      <c r="BJ6" s="268"/>
-      <c r="BK6" s="268"/>
-      <c r="BL6" s="268"/>
-      <c r="BM6" s="268"/>
-      <c r="BN6" s="268"/>
-      <c r="BO6" s="268"/>
-      <c r="BP6" s="268"/>
-      <c r="BQ6" s="268"/>
-      <c r="BR6" s="268"/>
-      <c r="BS6" s="268"/>
-      <c r="BT6" s="268"/>
-      <c r="BU6" s="268"/>
-      <c r="BV6" s="268"/>
-      <c r="BW6" s="268"/>
-      <c r="BX6" s="268"/>
-      <c r="BY6" s="268"/>
-      <c r="BZ6" s="268"/>
-      <c r="CA6" s="268"/>
-      <c r="CB6" s="268"/>
-      <c r="CC6" s="268"/>
-      <c r="CD6" s="268"/>
-      <c r="CE6" s="268"/>
-      <c r="CF6" s="268"/>
-      <c r="CG6" s="268"/>
-      <c r="CH6" s="268"/>
-      <c r="CI6" s="268"/>
-      <c r="CJ6" s="268"/>
-      <c r="CK6" s="268"/>
-      <c r="CL6" s="268"/>
-      <c r="CM6" s="268"/>
-      <c r="CN6" s="268"/>
-      <c r="CO6" s="268"/>
-      <c r="CP6" s="268"/>
-      <c r="CQ6" s="268"/>
-      <c r="CR6" s="268"/>
-      <c r="CS6" s="268"/>
-      <c r="CT6" s="268"/>
-      <c r="CU6" s="268"/>
-      <c r="CV6" s="230" t="s">
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="240"/>
+      <c r="V6" s="240"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="240"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="240"/>
+      <c r="AB6" s="240"/>
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
+      <c r="AG6" s="240"/>
+      <c r="AH6" s="240"/>
+      <c r="AI6" s="240"/>
+      <c r="AJ6" s="240"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="240"/>
+      <c r="AM6" s="240"/>
+      <c r="AN6" s="240"/>
+      <c r="AO6" s="240"/>
+      <c r="AP6" s="240"/>
+      <c r="AQ6" s="240"/>
+      <c r="AR6" s="240"/>
+      <c r="AS6" s="240"/>
+      <c r="AT6" s="240"/>
+      <c r="AU6" s="240"/>
+      <c r="AV6" s="240"/>
+      <c r="AW6" s="240"/>
+      <c r="AX6" s="240"/>
+      <c r="AY6" s="240"/>
+      <c r="AZ6" s="240"/>
+      <c r="BA6" s="240"/>
+      <c r="BB6" s="240"/>
+      <c r="BC6" s="240"/>
+      <c r="BD6" s="240"/>
+      <c r="BE6" s="240"/>
+      <c r="BF6" s="240"/>
+      <c r="BG6" s="240"/>
+      <c r="BH6" s="240"/>
+      <c r="BI6" s="240"/>
+      <c r="BJ6" s="240"/>
+      <c r="BK6" s="240"/>
+      <c r="BL6" s="240"/>
+      <c r="BM6" s="240"/>
+      <c r="BN6" s="240"/>
+      <c r="BO6" s="240"/>
+      <c r="BP6" s="240"/>
+      <c r="BQ6" s="240"/>
+      <c r="BR6" s="240"/>
+      <c r="BS6" s="240"/>
+      <c r="BT6" s="240"/>
+      <c r="BU6" s="240"/>
+      <c r="BV6" s="240"/>
+      <c r="BW6" s="240"/>
+      <c r="BX6" s="240"/>
+      <c r="BY6" s="240"/>
+      <c r="BZ6" s="240"/>
+      <c r="CA6" s="240"/>
+      <c r="CB6" s="240"/>
+      <c r="CC6" s="240"/>
+      <c r="CD6" s="240"/>
+      <c r="CE6" s="240"/>
+      <c r="CF6" s="240"/>
+      <c r="CG6" s="240"/>
+      <c r="CH6" s="240"/>
+      <c r="CI6" s="240"/>
+      <c r="CJ6" s="240"/>
+      <c r="CK6" s="240"/>
+      <c r="CL6" s="240"/>
+      <c r="CM6" s="240"/>
+      <c r="CN6" s="240"/>
+      <c r="CO6" s="240"/>
+      <c r="CP6" s="240"/>
+      <c r="CQ6" s="240"/>
+      <c r="CR6" s="240"/>
+      <c r="CS6" s="240"/>
+      <c r="CT6" s="240"/>
+      <c r="CU6" s="240"/>
+      <c r="CV6" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="231"/>
-      <c r="CX6" s="230" t="s">
+      <c r="CW6" s="255"/>
+      <c r="CX6" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="234"/>
-      <c r="CZ6" s="234"/>
-      <c r="DA6" s="234"/>
-      <c r="DB6" s="234"/>
-      <c r="DC6" s="234"/>
-      <c r="DD6" s="234"/>
-      <c r="DE6" s="234"/>
-      <c r="DF6" s="234"/>
-      <c r="DG6" s="234"/>
-      <c r="DH6" s="258" t="s">
+      <c r="CY6" s="258"/>
+      <c r="CZ6" s="258"/>
+      <c r="DA6" s="258"/>
+      <c r="DB6" s="258"/>
+      <c r="DC6" s="258"/>
+      <c r="DD6" s="258"/>
+      <c r="DE6" s="258"/>
+      <c r="DF6" s="258"/>
+      <c r="DG6" s="258"/>
+      <c r="DH6" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="261" t="s">
+      <c r="DI6" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="219" t="s">
+      <c r="DJ6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="219"/>
-      <c r="DL6" s="219"/>
-      <c r="DM6" s="219"/>
-      <c r="DN6" s="219"/>
-      <c r="DO6" s="220"/>
+      <c r="DK6" s="243"/>
+      <c r="DL6" s="243"/>
+      <c r="DM6" s="243"/>
+      <c r="DN6" s="243"/>
+      <c r="DO6" s="244"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="244"/>
-      <c r="B7" s="247"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="253"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="269"/>
-      <c r="P7" s="269"/>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="269"/>
-      <c r="U7" s="269"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="269"/>
-      <c r="AJ7" s="269"/>
-      <c r="AK7" s="269"/>
-      <c r="AL7" s="269"/>
-      <c r="AM7" s="269"/>
-      <c r="AN7" s="269"/>
-      <c r="AO7" s="269"/>
-      <c r="AP7" s="269"/>
-      <c r="AQ7" s="269"/>
-      <c r="AR7" s="269"/>
-      <c r="AS7" s="269"/>
-      <c r="AT7" s="269"/>
-      <c r="AU7" s="269"/>
-      <c r="AV7" s="269"/>
-      <c r="AW7" s="269"/>
-      <c r="AX7" s="269"/>
-      <c r="AY7" s="269"/>
-      <c r="AZ7" s="269"/>
-      <c r="BA7" s="269"/>
-      <c r="BB7" s="269"/>
-      <c r="BC7" s="269"/>
-      <c r="BD7" s="269"/>
-      <c r="BE7" s="269"/>
-      <c r="BF7" s="269"/>
-      <c r="BG7" s="269"/>
-      <c r="BH7" s="269"/>
-      <c r="BI7" s="269"/>
-      <c r="BJ7" s="269"/>
-      <c r="BK7" s="269"/>
-      <c r="BL7" s="269"/>
-      <c r="BM7" s="269"/>
-      <c r="BN7" s="269"/>
-      <c r="BO7" s="270"/>
-      <c r="BP7" s="270"/>
-      <c r="BQ7" s="270"/>
-      <c r="BR7" s="269"/>
-      <c r="BS7" s="269"/>
-      <c r="BT7" s="269"/>
-      <c r="BU7" s="269"/>
-      <c r="BV7" s="269"/>
-      <c r="BW7" s="269"/>
-      <c r="BX7" s="269"/>
-      <c r="BY7" s="269"/>
-      <c r="BZ7" s="269"/>
-      <c r="CA7" s="269"/>
-      <c r="CB7" s="269"/>
-      <c r="CC7" s="269"/>
-      <c r="CD7" s="269"/>
-      <c r="CE7" s="269"/>
-      <c r="CF7" s="269"/>
-      <c r="CG7" s="269"/>
-      <c r="CH7" s="269"/>
-      <c r="CI7" s="269"/>
-      <c r="CJ7" s="269"/>
-      <c r="CK7" s="269"/>
-      <c r="CL7" s="269"/>
-      <c r="CM7" s="269"/>
-      <c r="CN7" s="269"/>
-      <c r="CO7" s="269"/>
-      <c r="CP7" s="269"/>
-      <c r="CQ7" s="269"/>
-      <c r="CR7" s="269"/>
-      <c r="CS7" s="269"/>
-      <c r="CT7" s="269"/>
-      <c r="CU7" s="269"/>
-      <c r="CV7" s="232"/>
-      <c r="CW7" s="233"/>
-      <c r="CX7" s="232"/>
-      <c r="CY7" s="235"/>
-      <c r="CZ7" s="235"/>
-      <c r="DA7" s="235"/>
-      <c r="DB7" s="235"/>
-      <c r="DC7" s="235"/>
-      <c r="DD7" s="235"/>
-      <c r="DE7" s="235"/>
-      <c r="DF7" s="235"/>
-      <c r="DG7" s="235"/>
-      <c r="DH7" s="259"/>
-      <c r="DI7" s="262"/>
-      <c r="DJ7" s="221"/>
-      <c r="DK7" s="221"/>
-      <c r="DL7" s="221"/>
-      <c r="DM7" s="221"/>
-      <c r="DN7" s="221"/>
-      <c r="DO7" s="222"/>
+      <c r="A7" s="262"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="241"/>
+      <c r="P7" s="241"/>
+      <c r="Q7" s="241"/>
+      <c r="R7" s="241"/>
+      <c r="S7" s="241"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="241"/>
+      <c r="V7" s="241"/>
+      <c r="W7" s="241"/>
+      <c r="X7" s="241"/>
+      <c r="Y7" s="241"/>
+      <c r="Z7" s="241"/>
+      <c r="AA7" s="241"/>
+      <c r="AB7" s="241"/>
+      <c r="AC7" s="241"/>
+      <c r="AD7" s="241"/>
+      <c r="AE7" s="241"/>
+      <c r="AF7" s="241"/>
+      <c r="AG7" s="241"/>
+      <c r="AH7" s="241"/>
+      <c r="AI7" s="241"/>
+      <c r="AJ7" s="241"/>
+      <c r="AK7" s="241"/>
+      <c r="AL7" s="241"/>
+      <c r="AM7" s="241"/>
+      <c r="AN7" s="241"/>
+      <c r="AO7" s="241"/>
+      <c r="AP7" s="241"/>
+      <c r="AQ7" s="241"/>
+      <c r="AR7" s="241"/>
+      <c r="AS7" s="241"/>
+      <c r="AT7" s="241"/>
+      <c r="AU7" s="241"/>
+      <c r="AV7" s="241"/>
+      <c r="AW7" s="241"/>
+      <c r="AX7" s="241"/>
+      <c r="AY7" s="241"/>
+      <c r="AZ7" s="241"/>
+      <c r="BA7" s="241"/>
+      <c r="BB7" s="241"/>
+      <c r="BC7" s="241"/>
+      <c r="BD7" s="241"/>
+      <c r="BE7" s="241"/>
+      <c r="BF7" s="241"/>
+      <c r="BG7" s="241"/>
+      <c r="BH7" s="241"/>
+      <c r="BI7" s="241"/>
+      <c r="BJ7" s="241"/>
+      <c r="BK7" s="241"/>
+      <c r="BL7" s="241"/>
+      <c r="BM7" s="241"/>
+      <c r="BN7" s="241"/>
+      <c r="BO7" s="242"/>
+      <c r="BP7" s="242"/>
+      <c r="BQ7" s="242"/>
+      <c r="BR7" s="241"/>
+      <c r="BS7" s="241"/>
+      <c r="BT7" s="241"/>
+      <c r="BU7" s="241"/>
+      <c r="BV7" s="241"/>
+      <c r="BW7" s="241"/>
+      <c r="BX7" s="241"/>
+      <c r="BY7" s="241"/>
+      <c r="BZ7" s="241"/>
+      <c r="CA7" s="241"/>
+      <c r="CB7" s="241"/>
+      <c r="CC7" s="241"/>
+      <c r="CD7" s="241"/>
+      <c r="CE7" s="241"/>
+      <c r="CF7" s="241"/>
+      <c r="CG7" s="241"/>
+      <c r="CH7" s="241"/>
+      <c r="CI7" s="241"/>
+      <c r="CJ7" s="241"/>
+      <c r="CK7" s="241"/>
+      <c r="CL7" s="241"/>
+      <c r="CM7" s="241"/>
+      <c r="CN7" s="241"/>
+      <c r="CO7" s="241"/>
+      <c r="CP7" s="241"/>
+      <c r="CQ7" s="241"/>
+      <c r="CR7" s="241"/>
+      <c r="CS7" s="241"/>
+      <c r="CT7" s="241"/>
+      <c r="CU7" s="241"/>
+      <c r="CV7" s="256"/>
+      <c r="CW7" s="257"/>
+      <c r="CX7" s="256"/>
+      <c r="CY7" s="259"/>
+      <c r="CZ7" s="259"/>
+      <c r="DA7" s="259"/>
+      <c r="DB7" s="259"/>
+      <c r="DC7" s="259"/>
+      <c r="DD7" s="259"/>
+      <c r="DE7" s="259"/>
+      <c r="DF7" s="259"/>
+      <c r="DG7" s="259"/>
+      <c r="DH7" s="231"/>
+      <c r="DI7" s="234"/>
+      <c r="DJ7" s="245"/>
+      <c r="DK7" s="245"/>
+      <c r="DL7" s="245"/>
+      <c r="DM7" s="245"/>
+      <c r="DN7" s="245"/>
+      <c r="DO7" s="246"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="245"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="272">
+      <c r="A8" s="263"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="229">
         <v>1</v>
       </c>
-      <c r="H8" s="240"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="255">
+      <c r="H8" s="221"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="220">
         <v>2</v>
       </c>
-      <c r="K8" s="240"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="236">
+      <c r="K8" s="221"/>
+      <c r="L8" s="222"/>
+      <c r="M8" s="225">
         <v>3</v>
       </c>
-      <c r="N8" s="237"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="236">
+      <c r="N8" s="226"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="225">
         <v>4</v>
       </c>
-      <c r="Q8" s="237"/>
-      <c r="R8" s="238"/>
-      <c r="S8" s="255">
+      <c r="Q8" s="226"/>
+      <c r="R8" s="228"/>
+      <c r="S8" s="220">
         <v>5</v>
       </c>
-      <c r="T8" s="240"/>
-      <c r="U8" s="241"/>
-      <c r="V8" s="255">
+      <c r="T8" s="221"/>
+      <c r="U8" s="224"/>
+      <c r="V8" s="220">
         <v>6</v>
       </c>
-      <c r="W8" s="240"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="255">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="240"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="255">
+      <c r="W8" s="221"/>
+      <c r="X8" s="222"/>
+      <c r="Y8" s="220">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="221"/>
+      <c r="AA8" s="222"/>
+      <c r="AB8" s="220">
         <v>8</v>
       </c>
-      <c r="AC8" s="240"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="255">
+      <c r="AC8" s="221"/>
+      <c r="AD8" s="222"/>
+      <c r="AE8" s="220">
         <v>9</v>
       </c>
-      <c r="AF8" s="240"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="236">
+      <c r="AF8" s="221"/>
+      <c r="AG8" s="224"/>
+      <c r="AH8" s="225">
         <v>10</v>
       </c>
-      <c r="AI8" s="237"/>
-      <c r="AJ8" s="238"/>
-      <c r="AK8" s="236">
+      <c r="AI8" s="226"/>
+      <c r="AJ8" s="228"/>
+      <c r="AK8" s="225">
         <v>11</v>
       </c>
-      <c r="AL8" s="237"/>
-      <c r="AM8" s="238"/>
-      <c r="AN8" s="239">
+      <c r="AL8" s="226"/>
+      <c r="AM8" s="228"/>
+      <c r="AN8" s="223">
         <v>12</v>
       </c>
-      <c r="AO8" s="240"/>
-      <c r="AP8" s="241"/>
-      <c r="AQ8" s="255">
+      <c r="AO8" s="221"/>
+      <c r="AP8" s="224"/>
+      <c r="AQ8" s="220">
         <v>13</v>
       </c>
-      <c r="AR8" s="240"/>
-      <c r="AS8" s="256"/>
-      <c r="AT8" s="239">
+      <c r="AR8" s="221"/>
+      <c r="AS8" s="222"/>
+      <c r="AT8" s="223">
         <v>14</v>
       </c>
-      <c r="AU8" s="240"/>
-      <c r="AV8" s="256"/>
-      <c r="AW8" s="255">
+      <c r="AU8" s="221"/>
+      <c r="AV8" s="222"/>
+      <c r="AW8" s="220">
         <v>15</v>
       </c>
-      <c r="AX8" s="240"/>
-      <c r="AY8" s="256"/>
-      <c r="AZ8" s="255">
+      <c r="AX8" s="221"/>
+      <c r="AY8" s="222"/>
+      <c r="AZ8" s="220">
         <v>16</v>
       </c>
-      <c r="BA8" s="240"/>
-      <c r="BB8" s="256"/>
-      <c r="BC8" s="236">
+      <c r="BA8" s="221"/>
+      <c r="BB8" s="222"/>
+      <c r="BC8" s="225">
         <v>17</v>
       </c>
-      <c r="BD8" s="237"/>
-      <c r="BE8" s="257"/>
-      <c r="BF8" s="236">
+      <c r="BD8" s="226"/>
+      <c r="BE8" s="227"/>
+      <c r="BF8" s="225">
         <v>18</v>
       </c>
-      <c r="BG8" s="237"/>
-      <c r="BH8" s="238"/>
-      <c r="BI8" s="239">
+      <c r="BG8" s="226"/>
+      <c r="BH8" s="228"/>
+      <c r="BI8" s="223">
         <v>19</v>
       </c>
-      <c r="BJ8" s="240"/>
-      <c r="BK8" s="241"/>
-      <c r="BL8" s="255">
+      <c r="BJ8" s="221"/>
+      <c r="BK8" s="224"/>
+      <c r="BL8" s="220">
         <v>20</v>
       </c>
-      <c r="BM8" s="240"/>
-      <c r="BN8" s="256"/>
-      <c r="BO8" s="255">
+      <c r="BM8" s="221"/>
+      <c r="BN8" s="222"/>
+      <c r="BO8" s="220">
         <v>21</v>
       </c>
-      <c r="BP8" s="240"/>
-      <c r="BQ8" s="256"/>
-      <c r="BR8" s="255">
+      <c r="BP8" s="221"/>
+      <c r="BQ8" s="222"/>
+      <c r="BR8" s="220">
         <v>22</v>
       </c>
-      <c r="BS8" s="240"/>
-      <c r="BT8" s="256"/>
-      <c r="BU8" s="239">
+      <c r="BS8" s="221"/>
+      <c r="BT8" s="222"/>
+      <c r="BU8" s="223">
         <v>23</v>
       </c>
-      <c r="BV8" s="240"/>
-      <c r="BW8" s="241"/>
-      <c r="BX8" s="236">
+      <c r="BV8" s="221"/>
+      <c r="BW8" s="224"/>
+      <c r="BX8" s="225">
         <v>24</v>
       </c>
-      <c r="BY8" s="237"/>
-      <c r="BZ8" s="238"/>
-      <c r="CA8" s="267">
+      <c r="BY8" s="226"/>
+      <c r="BZ8" s="228"/>
+      <c r="CA8" s="239">
         <v>25</v>
       </c>
-      <c r="CB8" s="237"/>
-      <c r="CC8" s="257"/>
-      <c r="CD8" s="255">
+      <c r="CB8" s="226"/>
+      <c r="CC8" s="227"/>
+      <c r="CD8" s="220">
         <v>26</v>
       </c>
-      <c r="CE8" s="240"/>
-      <c r="CF8" s="256"/>
-      <c r="CG8" s="239">
+      <c r="CE8" s="221"/>
+      <c r="CF8" s="222"/>
+      <c r="CG8" s="223">
         <v>27</v>
       </c>
-      <c r="CH8" s="240"/>
-      <c r="CI8" s="241"/>
-      <c r="CJ8" s="255">
+      <c r="CH8" s="221"/>
+      <c r="CI8" s="224"/>
+      <c r="CJ8" s="220">
         <v>28</v>
       </c>
-      <c r="CK8" s="240"/>
-      <c r="CL8" s="256"/>
-      <c r="CM8" s="255">
+      <c r="CK8" s="221"/>
+      <c r="CL8" s="222"/>
+      <c r="CM8" s="220">
         <v>29</v>
       </c>
-      <c r="CN8" s="240"/>
-      <c r="CO8" s="256"/>
-      <c r="CP8" s="255">
+      <c r="CN8" s="221"/>
+      <c r="CO8" s="222"/>
+      <c r="CP8" s="220">
         <v>30</v>
       </c>
-      <c r="CQ8" s="240"/>
-      <c r="CR8" s="256"/>
-      <c r="CS8" s="264">
+      <c r="CQ8" s="221"/>
+      <c r="CR8" s="222"/>
+      <c r="CS8" s="236">
         <v>31</v>
       </c>
-      <c r="CT8" s="265"/>
-      <c r="CU8" s="266"/>
+      <c r="CT8" s="237"/>
+      <c r="CU8" s="238"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -3398,8 +3485,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="260"/>
-      <c r="DI8" s="263"/>
+      <c r="DH8" s="232"/>
+      <c r="DI8" s="235"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9168,45 +9255,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="271"/>
-      <c r="I33" s="271"/>
-      <c r="J33" s="271"/>
-      <c r="K33" s="271"/>
-      <c r="L33" s="271"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="271"/>
-      <c r="O33" s="271"/>
-      <c r="P33" s="271"/>
-      <c r="Q33" s="271"/>
-      <c r="R33" s="271"/>
-      <c r="S33" s="271"/>
-      <c r="T33" s="271"/>
-      <c r="U33" s="271"/>
-      <c r="V33" s="271"/>
-      <c r="W33" s="271"/>
-      <c r="X33" s="271"/>
-      <c r="Y33" s="271"/>
-      <c r="Z33" s="271"/>
-      <c r="AA33" s="271"/>
-      <c r="AB33" s="271"/>
-      <c r="AC33" s="271"/>
-      <c r="AD33" s="271"/>
-      <c r="AE33" s="271"/>
-      <c r="AF33" s="271"/>
-      <c r="AG33" s="271"/>
-      <c r="AH33" s="271"/>
-      <c r="AI33" s="271"/>
-      <c r="AJ33" s="271"/>
-      <c r="AK33" s="271"/>
-      <c r="AL33" s="271"/>
-      <c r="AM33" s="271"/>
-      <c r="AN33" s="271"/>
-      <c r="AO33" s="271"/>
-      <c r="AP33" s="271"/>
-      <c r="AQ33" s="271"/>
-      <c r="AR33" s="271"/>
-      <c r="AS33" s="271"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
+      <c r="N33" s="219"/>
+      <c r="O33" s="219"/>
+      <c r="P33" s="219"/>
+      <c r="Q33" s="219"/>
+      <c r="R33" s="219"/>
+      <c r="S33" s="219"/>
+      <c r="T33" s="219"/>
+      <c r="U33" s="219"/>
+      <c r="V33" s="219"/>
+      <c r="W33" s="219"/>
+      <c r="X33" s="219"/>
+      <c r="Y33" s="219"/>
+      <c r="Z33" s="219"/>
+      <c r="AA33" s="219"/>
+      <c r="AB33" s="219"/>
+      <c r="AC33" s="219"/>
+      <c r="AD33" s="219"/>
+      <c r="AE33" s="219"/>
+      <c r="AF33" s="219"/>
+      <c r="AG33" s="219"/>
+      <c r="AH33" s="219"/>
+      <c r="AI33" s="219"/>
+      <c r="AJ33" s="219"/>
+      <c r="AK33" s="219"/>
+      <c r="AL33" s="219"/>
+      <c r="AM33" s="219"/>
+      <c r="AN33" s="219"/>
+      <c r="AO33" s="219"/>
+      <c r="AP33" s="219"/>
+      <c r="AQ33" s="219"/>
+      <c r="AR33" s="219"/>
+      <c r="AS33" s="219"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -9511,45 +9598,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="271"/>
-      <c r="H37" s="271"/>
-      <c r="I37" s="271"/>
-      <c r="J37" s="271"/>
-      <c r="K37" s="271"/>
-      <c r="L37" s="271"/>
-      <c r="M37" s="271"/>
-      <c r="N37" s="271"/>
-      <c r="O37" s="271"/>
-      <c r="P37" s="271"/>
-      <c r="Q37" s="271"/>
-      <c r="R37" s="271"/>
-      <c r="S37" s="271"/>
-      <c r="T37" s="271"/>
-      <c r="U37" s="271"/>
-      <c r="V37" s="271"/>
-      <c r="W37" s="271"/>
-      <c r="X37" s="271"/>
-      <c r="Y37" s="271"/>
-      <c r="Z37" s="271"/>
-      <c r="AA37" s="271"/>
-      <c r="AB37" s="271"/>
-      <c r="AC37" s="271"/>
-      <c r="AD37" s="271"/>
-      <c r="AE37" s="271"/>
-      <c r="AF37" s="271"/>
-      <c r="AG37" s="271"/>
-      <c r="AH37" s="271"/>
-      <c r="AI37" s="271"/>
-      <c r="AJ37" s="271"/>
-      <c r="AK37" s="271"/>
-      <c r="AL37" s="271"/>
-      <c r="AM37" s="271"/>
-      <c r="AN37" s="271"/>
-      <c r="AO37" s="271"/>
-      <c r="AP37" s="271"/>
-      <c r="AQ37" s="271"/>
-      <c r="AR37" s="271"/>
-      <c r="AS37" s="271"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
+      <c r="K37" s="219"/>
+      <c r="L37" s="219"/>
+      <c r="M37" s="219"/>
+      <c r="N37" s="219"/>
+      <c r="O37" s="219"/>
+      <c r="P37" s="219"/>
+      <c r="Q37" s="219"/>
+      <c r="R37" s="219"/>
+      <c r="S37" s="219"/>
+      <c r="T37" s="219"/>
+      <c r="U37" s="219"/>
+      <c r="V37" s="219"/>
+      <c r="W37" s="219"/>
+      <c r="X37" s="219"/>
+      <c r="Y37" s="219"/>
+      <c r="Z37" s="219"/>
+      <c r="AA37" s="219"/>
+      <c r="AB37" s="219"/>
+      <c r="AC37" s="219"/>
+      <c r="AD37" s="219"/>
+      <c r="AE37" s="219"/>
+      <c r="AF37" s="219"/>
+      <c r="AG37" s="219"/>
+      <c r="AH37" s="219"/>
+      <c r="AI37" s="219"/>
+      <c r="AJ37" s="219"/>
+      <c r="AK37" s="219"/>
+      <c r="AL37" s="219"/>
+      <c r="AM37" s="219"/>
+      <c r="AN37" s="219"/>
+      <c r="AO37" s="219"/>
+      <c r="AP37" s="219"/>
+      <c r="AQ37" s="219"/>
+      <c r="AR37" s="219"/>
+      <c r="AS37" s="219"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -11050,19 +11137,27 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DJ6:DO7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DH6:DH8"/>
     <mergeCell ref="DI6:DI8"/>
     <mergeCell ref="BU8:BW8"/>
@@ -11079,27 +11174,19 @@
     <mergeCell ref="AW8:AY8"/>
     <mergeCell ref="BF8:BH8"/>
     <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DJ6:DO7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -11128,7 +11215,7 @@
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
+      <selection pane="bottomRight" activeCell="AQ21" sqref="AQ21:BB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11295,21 +11382,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="226" t="s">
+      <c r="CU1" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="226"/>
-      <c r="CW1" s="226"/>
-      <c r="CX1" s="226"/>
-      <c r="CY1" s="226"/>
-      <c r="CZ1" s="226"/>
-      <c r="DA1" s="226"/>
-      <c r="DB1" s="226"/>
-      <c r="DC1" s="226"/>
-      <c r="DD1" s="226"/>
-      <c r="DE1" s="226"/>
-      <c r="DF1" s="226"/>
-      <c r="DG1" s="226"/>
+      <c r="CV1" s="250"/>
+      <c r="CW1" s="250"/>
+      <c r="CX1" s="250"/>
+      <c r="CY1" s="250"/>
+      <c r="CZ1" s="250"/>
+      <c r="DA1" s="250"/>
+      <c r="DB1" s="250"/>
+      <c r="DC1" s="250"/>
+      <c r="DD1" s="250"/>
+      <c r="DE1" s="250"/>
+      <c r="DF1" s="250"/>
+      <c r="DG1" s="250"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -11410,241 +11497,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="227" t="s">
+      <c r="CU2" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="227"/>
-      <c r="CW2" s="227"/>
-      <c r="CX2" s="227"/>
-      <c r="CY2" s="227"/>
-      <c r="CZ2" s="227"/>
-      <c r="DA2" s="227"/>
-      <c r="DB2" s="227"/>
-      <c r="DC2" s="227"/>
-      <c r="DD2" s="227"/>
-      <c r="DE2" s="227"/>
-      <c r="DF2" s="227"/>
-      <c r="DG2" s="227"/>
+      <c r="CV2" s="251"/>
+      <c r="CW2" s="251"/>
+      <c r="CX2" s="251"/>
+      <c r="CY2" s="251"/>
+      <c r="CZ2" s="251"/>
+      <c r="DA2" s="251"/>
+      <c r="DB2" s="251"/>
+      <c r="DC2" s="251"/>
+      <c r="DD2" s="251"/>
+      <c r="DE2" s="251"/>
+      <c r="DF2" s="251"/>
+      <c r="DG2" s="251"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="228"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="228"/>
-      <c r="AC3" s="228"/>
-      <c r="AD3" s="228"/>
-      <c r="AE3" s="228"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="228"/>
-      <c r="AH3" s="228"/>
-      <c r="AI3" s="228"/>
-      <c r="AJ3" s="228"/>
-      <c r="AK3" s="228"/>
-      <c r="AL3" s="228"/>
-      <c r="AM3" s="228"/>
-      <c r="AN3" s="228"/>
-      <c r="AO3" s="228"/>
-      <c r="AP3" s="228"/>
-      <c r="AQ3" s="228"/>
-      <c r="AR3" s="228"/>
-      <c r="AS3" s="228"/>
-      <c r="AT3" s="228"/>
-      <c r="AU3" s="228"/>
-      <c r="AV3" s="228"/>
-      <c r="AW3" s="228"/>
-      <c r="AX3" s="228"/>
-      <c r="AY3" s="228"/>
-      <c r="AZ3" s="228"/>
-      <c r="BA3" s="228"/>
-      <c r="BB3" s="228"/>
-      <c r="BC3" s="228"/>
-      <c r="BD3" s="228"/>
-      <c r="BE3" s="228"/>
-      <c r="BF3" s="228"/>
-      <c r="BG3" s="228"/>
-      <c r="BH3" s="228"/>
-      <c r="BI3" s="228"/>
-      <c r="BJ3" s="228"/>
-      <c r="BK3" s="228"/>
-      <c r="BL3" s="228"/>
-      <c r="BM3" s="228"/>
-      <c r="BN3" s="228"/>
-      <c r="BO3" s="228"/>
-      <c r="BP3" s="228"/>
-      <c r="BQ3" s="228"/>
-      <c r="BR3" s="228"/>
-      <c r="BS3" s="228"/>
-      <c r="BT3" s="228"/>
-      <c r="BU3" s="228"/>
-      <c r="BV3" s="228"/>
-      <c r="BW3" s="228"/>
-      <c r="BX3" s="228"/>
-      <c r="BY3" s="228"/>
-      <c r="BZ3" s="228"/>
-      <c r="CA3" s="228"/>
-      <c r="CB3" s="228"/>
-      <c r="CC3" s="228"/>
-      <c r="CD3" s="228"/>
-      <c r="CE3" s="228"/>
-      <c r="CF3" s="228"/>
-      <c r="CG3" s="228"/>
-      <c r="CH3" s="228"/>
-      <c r="CI3" s="228"/>
-      <c r="CJ3" s="228"/>
-      <c r="CK3" s="228"/>
-      <c r="CL3" s="228"/>
-      <c r="CM3" s="228"/>
-      <c r="CN3" s="228"/>
-      <c r="CO3" s="228"/>
-      <c r="CP3" s="228"/>
-      <c r="CQ3" s="228"/>
-      <c r="CR3" s="228"/>
-      <c r="CS3" s="228"/>
-      <c r="CT3" s="228"/>
-      <c r="CU3" s="228"/>
-      <c r="CV3" s="229" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="252"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="252"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="252"/>
+      <c r="W3" s="252"/>
+      <c r="X3" s="252"/>
+      <c r="Y3" s="252"/>
+      <c r="Z3" s="252"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="252"/>
+      <c r="AD3" s="252"/>
+      <c r="AE3" s="252"/>
+      <c r="AF3" s="252"/>
+      <c r="AG3" s="252"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="252"/>
+      <c r="AJ3" s="252"/>
+      <c r="AK3" s="252"/>
+      <c r="AL3" s="252"/>
+      <c r="AM3" s="252"/>
+      <c r="AN3" s="252"/>
+      <c r="AO3" s="252"/>
+      <c r="AP3" s="252"/>
+      <c r="AQ3" s="252"/>
+      <c r="AR3" s="252"/>
+      <c r="AS3" s="252"/>
+      <c r="AT3" s="252"/>
+      <c r="AU3" s="252"/>
+      <c r="AV3" s="252"/>
+      <c r="AW3" s="252"/>
+      <c r="AX3" s="252"/>
+      <c r="AY3" s="252"/>
+      <c r="AZ3" s="252"/>
+      <c r="BA3" s="252"/>
+      <c r="BB3" s="252"/>
+      <c r="BC3" s="252"/>
+      <c r="BD3" s="252"/>
+      <c r="BE3" s="252"/>
+      <c r="BF3" s="252"/>
+      <c r="BG3" s="252"/>
+      <c r="BH3" s="252"/>
+      <c r="BI3" s="252"/>
+      <c r="BJ3" s="252"/>
+      <c r="BK3" s="252"/>
+      <c r="BL3" s="252"/>
+      <c r="BM3" s="252"/>
+      <c r="BN3" s="252"/>
+      <c r="BO3" s="252"/>
+      <c r="BP3" s="252"/>
+      <c r="BQ3" s="252"/>
+      <c r="BR3" s="252"/>
+      <c r="BS3" s="252"/>
+      <c r="BT3" s="252"/>
+      <c r="BU3" s="252"/>
+      <c r="BV3" s="252"/>
+      <c r="BW3" s="252"/>
+      <c r="BX3" s="252"/>
+      <c r="BY3" s="252"/>
+      <c r="BZ3" s="252"/>
+      <c r="CA3" s="252"/>
+      <c r="CB3" s="252"/>
+      <c r="CC3" s="252"/>
+      <c r="CD3" s="252"/>
+      <c r="CE3" s="252"/>
+      <c r="CF3" s="252"/>
+      <c r="CG3" s="252"/>
+      <c r="CH3" s="252"/>
+      <c r="CI3" s="252"/>
+      <c r="CJ3" s="252"/>
+      <c r="CK3" s="252"/>
+      <c r="CL3" s="252"/>
+      <c r="CM3" s="252"/>
+      <c r="CN3" s="252"/>
+      <c r="CO3" s="252"/>
+      <c r="CP3" s="252"/>
+      <c r="CQ3" s="252"/>
+      <c r="CR3" s="252"/>
+      <c r="CS3" s="252"/>
+      <c r="CT3" s="252"/>
+      <c r="CU3" s="252"/>
+      <c r="CV3" s="253" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="229"/>
-      <c r="CX3" s="229"/>
-      <c r="CY3" s="229"/>
-      <c r="CZ3" s="229"/>
-      <c r="DA3" s="229"/>
-      <c r="DB3" s="229"/>
-      <c r="DC3" s="229"/>
-      <c r="DD3" s="229"/>
-      <c r="DE3" s="229"/>
-      <c r="DF3" s="229"/>
-      <c r="DG3" s="229"/>
+      <c r="CW3" s="253"/>
+      <c r="CX3" s="253"/>
+      <c r="CY3" s="253"/>
+      <c r="CZ3" s="253"/>
+      <c r="DA3" s="253"/>
+      <c r="DB3" s="253"/>
+      <c r="DC3" s="253"/>
+      <c r="DD3" s="253"/>
+      <c r="DE3" s="253"/>
+      <c r="DF3" s="253"/>
+      <c r="DG3" s="253"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="242"/>
-      <c r="U4" s="242"/>
-      <c r="V4" s="242"/>
-      <c r="W4" s="242"/>
-      <c r="X4" s="242"/>
-      <c r="Y4" s="242"/>
-      <c r="Z4" s="242"/>
-      <c r="AA4" s="242"/>
-      <c r="AB4" s="242"/>
-      <c r="AC4" s="242"/>
-      <c r="AD4" s="242"/>
-      <c r="AE4" s="242"/>
-      <c r="AF4" s="242"/>
-      <c r="AG4" s="242"/>
-      <c r="AH4" s="242"/>
-      <c r="AI4" s="242"/>
-      <c r="AJ4" s="242"/>
-      <c r="AK4" s="242"/>
-      <c r="AL4" s="242"/>
-      <c r="AM4" s="242"/>
-      <c r="AN4" s="242"/>
-      <c r="AO4" s="242"/>
-      <c r="AP4" s="242"/>
-      <c r="AQ4" s="242"/>
-      <c r="AR4" s="242"/>
-      <c r="AS4" s="242"/>
-      <c r="AT4" s="242"/>
-      <c r="AU4" s="242"/>
-      <c r="AV4" s="242"/>
-      <c r="AW4" s="242"/>
-      <c r="AX4" s="242"/>
-      <c r="AY4" s="242"/>
-      <c r="AZ4" s="242"/>
-      <c r="BA4" s="242"/>
-      <c r="BB4" s="242"/>
-      <c r="BC4" s="242"/>
-      <c r="BD4" s="242"/>
-      <c r="BE4" s="242"/>
-      <c r="BF4" s="242"/>
-      <c r="BG4" s="242"/>
-      <c r="BH4" s="242"/>
-      <c r="BI4" s="242"/>
-      <c r="BJ4" s="242"/>
-      <c r="BK4" s="242"/>
-      <c r="BL4" s="242"/>
-      <c r="BM4" s="242"/>
-      <c r="BN4" s="242"/>
-      <c r="BO4" s="242"/>
-      <c r="BP4" s="242"/>
-      <c r="BQ4" s="242"/>
-      <c r="BR4" s="242"/>
-      <c r="BS4" s="242"/>
-      <c r="BT4" s="242"/>
-      <c r="BU4" s="242"/>
-      <c r="BV4" s="242"/>
-      <c r="BW4" s="242"/>
-      <c r="BX4" s="242"/>
-      <c r="BY4" s="242"/>
-      <c r="BZ4" s="242"/>
-      <c r="CA4" s="242"/>
-      <c r="CB4" s="242"/>
-      <c r="CC4" s="242"/>
-      <c r="CD4" s="242"/>
-      <c r="CE4" s="242"/>
-      <c r="CF4" s="242"/>
-      <c r="CG4" s="242"/>
-      <c r="CH4" s="242"/>
-      <c r="CI4" s="242"/>
-      <c r="CJ4" s="242"/>
-      <c r="CK4" s="242"/>
-      <c r="CL4" s="242"/>
-      <c r="CM4" s="242"/>
-      <c r="CN4" s="242"/>
-      <c r="CO4" s="242"/>
-      <c r="CP4" s="242"/>
-      <c r="CQ4" s="242"/>
-      <c r="CR4" s="242"/>
-      <c r="CS4" s="242"/>
-      <c r="CT4" s="242"/>
-      <c r="CU4" s="242"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="260"/>
+      <c r="U4" s="260"/>
+      <c r="V4" s="260"/>
+      <c r="W4" s="260"/>
+      <c r="X4" s="260"/>
+      <c r="Y4" s="260"/>
+      <c r="Z4" s="260"/>
+      <c r="AA4" s="260"/>
+      <c r="AB4" s="260"/>
+      <c r="AC4" s="260"/>
+      <c r="AD4" s="260"/>
+      <c r="AE4" s="260"/>
+      <c r="AF4" s="260"/>
+      <c r="AG4" s="260"/>
+      <c r="AH4" s="260"/>
+      <c r="AI4" s="260"/>
+      <c r="AJ4" s="260"/>
+      <c r="AK4" s="260"/>
+      <c r="AL4" s="260"/>
+      <c r="AM4" s="260"/>
+      <c r="AN4" s="260"/>
+      <c r="AO4" s="260"/>
+      <c r="AP4" s="260"/>
+      <c r="AQ4" s="260"/>
+      <c r="AR4" s="260"/>
+      <c r="AS4" s="260"/>
+      <c r="AT4" s="260"/>
+      <c r="AU4" s="260"/>
+      <c r="AV4" s="260"/>
+      <c r="AW4" s="260"/>
+      <c r="AX4" s="260"/>
+      <c r="AY4" s="260"/>
+      <c r="AZ4" s="260"/>
+      <c r="BA4" s="260"/>
+      <c r="BB4" s="260"/>
+      <c r="BC4" s="260"/>
+      <c r="BD4" s="260"/>
+      <c r="BE4" s="260"/>
+      <c r="BF4" s="260"/>
+      <c r="BG4" s="260"/>
+      <c r="BH4" s="260"/>
+      <c r="BI4" s="260"/>
+      <c r="BJ4" s="260"/>
+      <c r="BK4" s="260"/>
+      <c r="BL4" s="260"/>
+      <c r="BM4" s="260"/>
+      <c r="BN4" s="260"/>
+      <c r="BO4" s="260"/>
+      <c r="BP4" s="260"/>
+      <c r="BQ4" s="260"/>
+      <c r="BR4" s="260"/>
+      <c r="BS4" s="260"/>
+      <c r="BT4" s="260"/>
+      <c r="BU4" s="260"/>
+      <c r="BV4" s="260"/>
+      <c r="BW4" s="260"/>
+      <c r="BX4" s="260"/>
+      <c r="BY4" s="260"/>
+      <c r="BZ4" s="260"/>
+      <c r="CA4" s="260"/>
+      <c r="CB4" s="260"/>
+      <c r="CC4" s="260"/>
+      <c r="CD4" s="260"/>
+      <c r="CE4" s="260"/>
+      <c r="CF4" s="260"/>
+      <c r="CG4" s="260"/>
+      <c r="CH4" s="260"/>
+      <c r="CI4" s="260"/>
+      <c r="CJ4" s="260"/>
+      <c r="CK4" s="260"/>
+      <c r="CL4" s="260"/>
+      <c r="CM4" s="260"/>
+      <c r="CN4" s="260"/>
+      <c r="CO4" s="260"/>
+      <c r="CP4" s="260"/>
+      <c r="CQ4" s="260"/>
+      <c r="CR4" s="260"/>
+      <c r="CS4" s="260"/>
+      <c r="CT4" s="260"/>
+      <c r="CU4" s="260"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -11774,288 +11861,288 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="246" t="s">
+      <c r="A6" s="261" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="264" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="249" t="s">
+      <c r="C6" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="223" t="s">
+      <c r="D6" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="223" t="s">
+      <c r="E6" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="268" t="s">
+      <c r="G6" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="268"/>
-      <c r="N6" s="268"/>
-      <c r="O6" s="268"/>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="268"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="268"/>
-      <c r="T6" s="268"/>
-      <c r="U6" s="268"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="268"/>
-      <c r="X6" s="268"/>
-      <c r="Y6" s="268"/>
-      <c r="Z6" s="268"/>
-      <c r="AA6" s="268"/>
-      <c r="AB6" s="268"/>
-      <c r="AC6" s="268"/>
-      <c r="AD6" s="268"/>
-      <c r="AE6" s="268"/>
-      <c r="AF6" s="268"/>
-      <c r="AG6" s="268"/>
-      <c r="AH6" s="268"/>
-      <c r="AI6" s="268"/>
-      <c r="AJ6" s="268"/>
-      <c r="AK6" s="268"/>
-      <c r="AL6" s="268"/>
-      <c r="AM6" s="268"/>
-      <c r="AN6" s="268"/>
-      <c r="AO6" s="268"/>
-      <c r="AP6" s="268"/>
-      <c r="AQ6" s="268"/>
-      <c r="AR6" s="268"/>
-      <c r="AS6" s="268"/>
-      <c r="AT6" s="268"/>
-      <c r="AU6" s="268"/>
-      <c r="AV6" s="268"/>
-      <c r="AW6" s="268"/>
-      <c r="AX6" s="268"/>
-      <c r="AY6" s="268"/>
-      <c r="AZ6" s="268"/>
-      <c r="BA6" s="268"/>
-      <c r="BB6" s="268"/>
-      <c r="BC6" s="268"/>
-      <c r="BD6" s="268"/>
-      <c r="BE6" s="268"/>
-      <c r="BF6" s="268"/>
-      <c r="BG6" s="268"/>
-      <c r="BH6" s="268"/>
-      <c r="BI6" s="268"/>
-      <c r="BJ6" s="268"/>
-      <c r="BK6" s="268"/>
-      <c r="BL6" s="268"/>
-      <c r="BM6" s="268"/>
-      <c r="BN6" s="268"/>
-      <c r="BO6" s="268"/>
-      <c r="BP6" s="268"/>
-      <c r="BQ6" s="268"/>
-      <c r="BR6" s="268"/>
-      <c r="BS6" s="268"/>
-      <c r="BT6" s="268"/>
-      <c r="BU6" s="268"/>
-      <c r="BV6" s="268"/>
-      <c r="BW6" s="268"/>
-      <c r="BX6" s="268"/>
-      <c r="BY6" s="268"/>
-      <c r="BZ6" s="268"/>
-      <c r="CA6" s="268"/>
-      <c r="CB6" s="268"/>
-      <c r="CC6" s="268"/>
-      <c r="CD6" s="268"/>
-      <c r="CE6" s="268"/>
-      <c r="CF6" s="268"/>
-      <c r="CG6" s="268"/>
-      <c r="CH6" s="268"/>
-      <c r="CI6" s="268"/>
-      <c r="CJ6" s="268"/>
-      <c r="CK6" s="268"/>
-      <c r="CL6" s="268"/>
-      <c r="CM6" s="268"/>
-      <c r="CN6" s="268"/>
-      <c r="CO6" s="268"/>
-      <c r="CP6" s="268"/>
-      <c r="CQ6" s="268"/>
-      <c r="CR6" s="268"/>
-      <c r="CS6" s="268"/>
-      <c r="CT6" s="268"/>
-      <c r="CU6" s="268"/>
-      <c r="CV6" s="230" t="s">
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="240"/>
+      <c r="V6" s="240"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="240"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="240"/>
+      <c r="AB6" s="240"/>
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
+      <c r="AG6" s="240"/>
+      <c r="AH6" s="240"/>
+      <c r="AI6" s="240"/>
+      <c r="AJ6" s="240"/>
+      <c r="AK6" s="240"/>
+      <c r="AL6" s="240"/>
+      <c r="AM6" s="240"/>
+      <c r="AN6" s="240"/>
+      <c r="AO6" s="240"/>
+      <c r="AP6" s="240"/>
+      <c r="AQ6" s="240"/>
+      <c r="AR6" s="240"/>
+      <c r="AS6" s="240"/>
+      <c r="AT6" s="240"/>
+      <c r="AU6" s="240"/>
+      <c r="AV6" s="240"/>
+      <c r="AW6" s="240"/>
+      <c r="AX6" s="240"/>
+      <c r="AY6" s="240"/>
+      <c r="AZ6" s="240"/>
+      <c r="BA6" s="240"/>
+      <c r="BB6" s="240"/>
+      <c r="BC6" s="240"/>
+      <c r="BD6" s="240"/>
+      <c r="BE6" s="240"/>
+      <c r="BF6" s="240"/>
+      <c r="BG6" s="240"/>
+      <c r="BH6" s="240"/>
+      <c r="BI6" s="240"/>
+      <c r="BJ6" s="240"/>
+      <c r="BK6" s="240"/>
+      <c r="BL6" s="240"/>
+      <c r="BM6" s="240"/>
+      <c r="BN6" s="240"/>
+      <c r="BO6" s="240"/>
+      <c r="BP6" s="240"/>
+      <c r="BQ6" s="240"/>
+      <c r="BR6" s="240"/>
+      <c r="BS6" s="240"/>
+      <c r="BT6" s="240"/>
+      <c r="BU6" s="240"/>
+      <c r="BV6" s="240"/>
+      <c r="BW6" s="240"/>
+      <c r="BX6" s="240"/>
+      <c r="BY6" s="240"/>
+      <c r="BZ6" s="240"/>
+      <c r="CA6" s="240"/>
+      <c r="CB6" s="240"/>
+      <c r="CC6" s="240"/>
+      <c r="CD6" s="240"/>
+      <c r="CE6" s="240"/>
+      <c r="CF6" s="240"/>
+      <c r="CG6" s="240"/>
+      <c r="CH6" s="240"/>
+      <c r="CI6" s="240"/>
+      <c r="CJ6" s="240"/>
+      <c r="CK6" s="240"/>
+      <c r="CL6" s="240"/>
+      <c r="CM6" s="240"/>
+      <c r="CN6" s="240"/>
+      <c r="CO6" s="240"/>
+      <c r="CP6" s="240"/>
+      <c r="CQ6" s="240"/>
+      <c r="CR6" s="240"/>
+      <c r="CS6" s="240"/>
+      <c r="CT6" s="240"/>
+      <c r="CU6" s="240"/>
+      <c r="CV6" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="231"/>
-      <c r="CX6" s="230" t="s">
+      <c r="CW6" s="255"/>
+      <c r="CX6" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="234"/>
-      <c r="CZ6" s="234"/>
-      <c r="DA6" s="234"/>
-      <c r="DB6" s="234"/>
-      <c r="DC6" s="234"/>
-      <c r="DD6" s="234"/>
-      <c r="DE6" s="234"/>
-      <c r="DF6" s="234"/>
-      <c r="DG6" s="234"/>
-      <c r="DH6" s="258" t="s">
+      <c r="CY6" s="258"/>
+      <c r="CZ6" s="258"/>
+      <c r="DA6" s="258"/>
+      <c r="DB6" s="258"/>
+      <c r="DC6" s="258"/>
+      <c r="DD6" s="258"/>
+      <c r="DE6" s="258"/>
+      <c r="DF6" s="258"/>
+      <c r="DG6" s="258"/>
+      <c r="DH6" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="261" t="s">
+      <c r="DI6" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="219" t="s">
+      <c r="DJ6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="219"/>
-      <c r="DL6" s="219"/>
-      <c r="DM6" s="219"/>
-      <c r="DN6" s="219"/>
-      <c r="DO6" s="220"/>
+      <c r="DK6" s="243"/>
+      <c r="DL6" s="243"/>
+      <c r="DM6" s="243"/>
+      <c r="DN6" s="243"/>
+      <c r="DO6" s="244"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="244"/>
-      <c r="B7" s="247"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="253"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="269"/>
-      <c r="P7" s="269"/>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="269"/>
-      <c r="U7" s="269"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="269"/>
-      <c r="AJ7" s="269"/>
-      <c r="AK7" s="269"/>
-      <c r="AL7" s="269"/>
-      <c r="AM7" s="269"/>
-      <c r="AN7" s="269"/>
-      <c r="AO7" s="269"/>
-      <c r="AP7" s="269"/>
-      <c r="AQ7" s="269"/>
-      <c r="AR7" s="269"/>
-      <c r="AS7" s="269"/>
-      <c r="AT7" s="269"/>
-      <c r="AU7" s="269"/>
-      <c r="AV7" s="269"/>
-      <c r="AW7" s="269"/>
-      <c r="AX7" s="269"/>
-      <c r="AY7" s="269"/>
-      <c r="AZ7" s="269"/>
-      <c r="BA7" s="269"/>
-      <c r="BB7" s="269"/>
-      <c r="BC7" s="269"/>
-      <c r="BD7" s="269"/>
-      <c r="BE7" s="269"/>
-      <c r="BF7" s="269"/>
-      <c r="BG7" s="269"/>
-      <c r="BH7" s="269"/>
-      <c r="BI7" s="269"/>
-      <c r="BJ7" s="269"/>
-      <c r="BK7" s="269"/>
-      <c r="BL7" s="269"/>
-      <c r="BM7" s="269"/>
-      <c r="BN7" s="269"/>
-      <c r="BO7" s="270"/>
-      <c r="BP7" s="270"/>
-      <c r="BQ7" s="270"/>
-      <c r="BR7" s="269"/>
-      <c r="BS7" s="269"/>
-      <c r="BT7" s="269"/>
-      <c r="BU7" s="269"/>
-      <c r="BV7" s="269"/>
-      <c r="BW7" s="269"/>
-      <c r="BX7" s="269"/>
-      <c r="BY7" s="269"/>
-      <c r="BZ7" s="269"/>
-      <c r="CA7" s="269"/>
-      <c r="CB7" s="269"/>
-      <c r="CC7" s="269"/>
-      <c r="CD7" s="269"/>
-      <c r="CE7" s="269"/>
-      <c r="CF7" s="269"/>
-      <c r="CG7" s="269"/>
-      <c r="CH7" s="269"/>
-      <c r="CI7" s="269"/>
-      <c r="CJ7" s="269"/>
-      <c r="CK7" s="269"/>
-      <c r="CL7" s="269"/>
-      <c r="CM7" s="269"/>
-      <c r="CN7" s="269"/>
-      <c r="CO7" s="269"/>
-      <c r="CP7" s="269"/>
-      <c r="CQ7" s="269"/>
-      <c r="CR7" s="269"/>
-      <c r="CS7" s="269"/>
-      <c r="CT7" s="269"/>
-      <c r="CU7" s="269"/>
-      <c r="CV7" s="232"/>
-      <c r="CW7" s="233"/>
-      <c r="CX7" s="232"/>
-      <c r="CY7" s="235"/>
-      <c r="CZ7" s="235"/>
-      <c r="DA7" s="235"/>
-      <c r="DB7" s="235"/>
-      <c r="DC7" s="235"/>
-      <c r="DD7" s="235"/>
-      <c r="DE7" s="235"/>
-      <c r="DF7" s="235"/>
-      <c r="DG7" s="235"/>
-      <c r="DH7" s="259"/>
-      <c r="DI7" s="262"/>
-      <c r="DJ7" s="221"/>
-      <c r="DK7" s="221"/>
-      <c r="DL7" s="221"/>
-      <c r="DM7" s="221"/>
-      <c r="DN7" s="221"/>
-      <c r="DO7" s="222"/>
+      <c r="A7" s="262"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="241"/>
+      <c r="P7" s="241"/>
+      <c r="Q7" s="241"/>
+      <c r="R7" s="241"/>
+      <c r="S7" s="241"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="241"/>
+      <c r="V7" s="241"/>
+      <c r="W7" s="241"/>
+      <c r="X7" s="241"/>
+      <c r="Y7" s="241"/>
+      <c r="Z7" s="241"/>
+      <c r="AA7" s="241"/>
+      <c r="AB7" s="241"/>
+      <c r="AC7" s="241"/>
+      <c r="AD7" s="241"/>
+      <c r="AE7" s="241"/>
+      <c r="AF7" s="241"/>
+      <c r="AG7" s="241"/>
+      <c r="AH7" s="241"/>
+      <c r="AI7" s="241"/>
+      <c r="AJ7" s="241"/>
+      <c r="AK7" s="241"/>
+      <c r="AL7" s="241"/>
+      <c r="AM7" s="241"/>
+      <c r="AN7" s="241"/>
+      <c r="AO7" s="241"/>
+      <c r="AP7" s="241"/>
+      <c r="AQ7" s="241"/>
+      <c r="AR7" s="241"/>
+      <c r="AS7" s="241"/>
+      <c r="AT7" s="241"/>
+      <c r="AU7" s="241"/>
+      <c r="AV7" s="241"/>
+      <c r="AW7" s="241"/>
+      <c r="AX7" s="241"/>
+      <c r="AY7" s="241"/>
+      <c r="AZ7" s="241"/>
+      <c r="BA7" s="241"/>
+      <c r="BB7" s="241"/>
+      <c r="BC7" s="241"/>
+      <c r="BD7" s="241"/>
+      <c r="BE7" s="241"/>
+      <c r="BF7" s="241"/>
+      <c r="BG7" s="241"/>
+      <c r="BH7" s="241"/>
+      <c r="BI7" s="241"/>
+      <c r="BJ7" s="241"/>
+      <c r="BK7" s="241"/>
+      <c r="BL7" s="241"/>
+      <c r="BM7" s="241"/>
+      <c r="BN7" s="241"/>
+      <c r="BO7" s="242"/>
+      <c r="BP7" s="242"/>
+      <c r="BQ7" s="242"/>
+      <c r="BR7" s="241"/>
+      <c r="BS7" s="241"/>
+      <c r="BT7" s="241"/>
+      <c r="BU7" s="241"/>
+      <c r="BV7" s="241"/>
+      <c r="BW7" s="241"/>
+      <c r="BX7" s="241"/>
+      <c r="BY7" s="241"/>
+      <c r="BZ7" s="241"/>
+      <c r="CA7" s="241"/>
+      <c r="CB7" s="241"/>
+      <c r="CC7" s="241"/>
+      <c r="CD7" s="241"/>
+      <c r="CE7" s="241"/>
+      <c r="CF7" s="241"/>
+      <c r="CG7" s="241"/>
+      <c r="CH7" s="241"/>
+      <c r="CI7" s="241"/>
+      <c r="CJ7" s="241"/>
+      <c r="CK7" s="241"/>
+      <c r="CL7" s="241"/>
+      <c r="CM7" s="241"/>
+      <c r="CN7" s="241"/>
+      <c r="CO7" s="241"/>
+      <c r="CP7" s="241"/>
+      <c r="CQ7" s="241"/>
+      <c r="CR7" s="241"/>
+      <c r="CS7" s="241"/>
+      <c r="CT7" s="241"/>
+      <c r="CU7" s="241"/>
+      <c r="CV7" s="256"/>
+      <c r="CW7" s="257"/>
+      <c r="CX7" s="256"/>
+      <c r="CY7" s="259"/>
+      <c r="CZ7" s="259"/>
+      <c r="DA7" s="259"/>
+      <c r="DB7" s="259"/>
+      <c r="DC7" s="259"/>
+      <c r="DD7" s="259"/>
+      <c r="DE7" s="259"/>
+      <c r="DF7" s="259"/>
+      <c r="DG7" s="259"/>
+      <c r="DH7" s="231"/>
+      <c r="DI7" s="234"/>
+      <c r="DJ7" s="245"/>
+      <c r="DK7" s="245"/>
+      <c r="DL7" s="245"/>
+      <c r="DM7" s="245"/>
+      <c r="DN7" s="245"/>
+      <c r="DO7" s="246"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="245"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="254"/>
+      <c r="A8" s="263"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="272"/>
       <c r="G8" s="278">
         <v>1</v>
       </c>
-      <c r="H8" s="237"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="255">
+      <c r="H8" s="226"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="220">
         <v>2</v>
       </c>
-      <c r="K8" s="240"/>
-      <c r="L8" s="256"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="222"/>
       <c r="M8" s="273">
         <v>3</v>
       </c>
@@ -12076,16 +12163,16 @@
       </c>
       <c r="W8" s="274"/>
       <c r="X8" s="275"/>
-      <c r="Y8" s="236">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="237"/>
-      <c r="AA8" s="238"/>
-      <c r="AB8" s="236">
+      <c r="Y8" s="225">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="226"/>
+      <c r="AA8" s="228"/>
+      <c r="AB8" s="225">
         <v>8</v>
       </c>
-      <c r="AC8" s="237"/>
-      <c r="AD8" s="238"/>
+      <c r="AC8" s="226"/>
+      <c r="AD8" s="228"/>
       <c r="AE8" s="273">
         <v>9</v>
       </c>
@@ -12111,16 +12198,16 @@
       </c>
       <c r="AR8" s="274"/>
       <c r="AS8" s="275"/>
-      <c r="AT8" s="267">
+      <c r="AT8" s="239">
         <v>14</v>
       </c>
-      <c r="AU8" s="237"/>
-      <c r="AV8" s="238"/>
-      <c r="AW8" s="236">
+      <c r="AU8" s="226"/>
+      <c r="AV8" s="228"/>
+      <c r="AW8" s="225">
         <v>15</v>
       </c>
-      <c r="AX8" s="237"/>
-      <c r="AY8" s="238"/>
+      <c r="AX8" s="226"/>
+      <c r="AY8" s="228"/>
       <c r="AZ8" s="273">
         <v>16</v>
       </c>
@@ -12146,16 +12233,16 @@
       </c>
       <c r="BM8" s="274"/>
       <c r="BN8" s="275"/>
-      <c r="BO8" s="236">
+      <c r="BO8" s="225">
         <v>21</v>
       </c>
-      <c r="BP8" s="237"/>
-      <c r="BQ8" s="238"/>
-      <c r="BR8" s="236">
+      <c r="BP8" s="226"/>
+      <c r="BQ8" s="228"/>
+      <c r="BR8" s="225">
         <v>22</v>
       </c>
-      <c r="BS8" s="237"/>
-      <c r="BT8" s="238"/>
+      <c r="BS8" s="226"/>
+      <c r="BT8" s="228"/>
       <c r="BU8" s="276">
         <v>23</v>
       </c>
@@ -12181,16 +12268,16 @@
       </c>
       <c r="CH8" s="274"/>
       <c r="CI8" s="277"/>
-      <c r="CJ8" s="236">
+      <c r="CJ8" s="225">
         <v>28</v>
       </c>
-      <c r="CK8" s="237"/>
-      <c r="CL8" s="238"/>
-      <c r="CM8" s="236">
+      <c r="CK8" s="226"/>
+      <c r="CL8" s="228"/>
+      <c r="CM8" s="225">
         <v>29</v>
       </c>
-      <c r="CN8" s="237"/>
-      <c r="CO8" s="238"/>
+      <c r="CN8" s="226"/>
+      <c r="CO8" s="228"/>
       <c r="CP8" s="273">
         <v>30</v>
       </c>
@@ -12235,8 +12322,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="260"/>
-      <c r="DI8" s="263"/>
+      <c r="DH8" s="232"/>
+      <c r="DI8" s="235"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -12670,34 +12757,54 @@
       </c>
       <c r="U10" s="174"/>
       <c r="V10" s="175"/>
-      <c r="W10" s="173"/>
+      <c r="W10" s="173">
+        <v>8</v>
+      </c>
       <c r="X10" s="174"/>
       <c r="Y10" s="175"/>
-      <c r="Z10" s="173"/>
+      <c r="Z10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="AA10" s="174"/>
       <c r="AB10" s="175"/>
-      <c r="AC10" s="173"/>
+      <c r="AC10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="AD10" s="174"/>
       <c r="AE10" s="175"/>
-      <c r="AF10" s="173"/>
+      <c r="AF10" s="173">
+        <v>8</v>
+      </c>
       <c r="AG10" s="174"/>
       <c r="AH10" s="175"/>
-      <c r="AI10" s="173"/>
+      <c r="AI10" s="173">
+        <v>8</v>
+      </c>
       <c r="AJ10" s="174"/>
       <c r="AK10" s="175"/>
-      <c r="AL10" s="173"/>
+      <c r="AL10" s="173">
+        <v>8</v>
+      </c>
       <c r="AM10" s="174"/>
       <c r="AN10" s="175"/>
-      <c r="AO10" s="173"/>
+      <c r="AO10" s="173">
+        <v>8</v>
+      </c>
       <c r="AP10" s="174"/>
       <c r="AQ10" s="175"/>
-      <c r="AR10" s="173"/>
+      <c r="AR10" s="173">
+        <v>8</v>
+      </c>
       <c r="AS10" s="174"/>
       <c r="AT10" s="175"/>
-      <c r="AU10" s="173"/>
+      <c r="AU10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="AV10" s="174"/>
       <c r="AW10" s="175"/>
-      <c r="AX10" s="173"/>
+      <c r="AX10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="AY10" s="174"/>
       <c r="AZ10" s="175"/>
       <c r="BA10" s="173"/>
@@ -12749,7 +12856,7 @@
       <c r="CU10" s="174"/>
       <c r="CV10" s="177">
         <f t="shared" ref="CV10:CV23" si="0">IF(SUM(G10:I10)&gt;=1,1,0)+IF(SUM(J10:L10)&gt;=1,1,0)+IF(SUM(M10:O10)&gt;=1,1,0)+IF(SUM(P10:R10)&gt;=1,1,0)+IF(SUM(S10:U10)&gt;=1,1,0)+IF(SUM(V10:X10)&gt;=1,1,0)+IF(SUM(Y10:AA10)&gt;=1,1,0)+IF(SUM(AB10:AD10)&gt;=1,1,0)+IF(SUM(AE10:AG10)&gt;=1,1,0)+IF(SUM(AH10:AJ10)&gt;=1,1,0)+IF(SUM(AK10:AM10)&gt;=1,1,0)+IF(SUM(AN10:AP10)&gt;=1,1,0)+IF(SUM(AQ10:AS10)&gt;=1,1,0)+IF(SUM(AT10:AV10)&gt;=1,1,0)+IF(SUM(AW10:AY10)&gt;=1,1,0)+IF(SUM(AZ10:BB10)&gt;=1,1,0)+IF(SUM(BC10:BE10)&gt;=1,1,0)+IF(SUM(BF10:BH10)&gt;=1,1,0)+IF(SUM(BI10:BK10)&gt;=1,1,0)+IF(SUM(BL10:BN10)&gt;=1,1,0)+IF(SUM(BO10:BQ10)&gt;=1,1,0)+IF(SUM(BR10:BT10)&gt;=1,1,0)+IF(SUM(BU10:BW10)&gt;=1,1,0)+IF(SUM(BX10:BZ10)&gt;=1,1,0)+IF(SUM(CA10:CC10)&gt;=1,1,0)+IF(SUM(CD10:CF10)&gt;=1,1,0)+IF(SUM(CG10:CI10)&gt;=1,1,0)+IF(SUM(CJ10:CL10)&gt;=1,1,0)+IF(SUM(CM10:CO10)&gt;=1,1,0)+IF(SUM(CP10:CR10)&gt;=1,1,0)+IF(SUM(CS10:CU10)&gt;=1,1,0)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CW10" s="178">
         <f t="shared" ref="CW10:CW23" si="1">IF(CK10="К",1,0)+IF(CN10="К",1,0)+IF(CQ10="К",1,0)+IF(CT10="К",1,0)+IF(CH10="К",1,0)+IF(H10="К",1,0)+IF(K10="К",1,0)+IF(N10="К",1,0)+IF(Q10="К",1,0)+IF(T10="К",1,0)+IF(W10="К",1,0)+IF(Z10="К",1,0)+IF(AC10="К",1,0)+IF(AF10="К",1,0)+IF(AI10="К",1,0)+IF(AL10="К",1,0)+IF(AO10="К",1,0)+IF(AR10="К",1,0)+IF(AU10="К",1,0)+IF(AX10="К",1,0)+IF(BA10="К",1,0)+IF(BD10="К",1,0)+IF(BG10="К",1,0)+IF(BJ10="К",1,0)+IF(BM10="К",1,0)+IF(BP10="К",1,0)+IF(BS10="К",1,0)+IF(BV10="К",1,0)+IF(BY10="К",1,0)+IF(CB10="К",1,0)+IF(CE10="К",1,0)</f>
@@ -12797,15 +12904,15 @@
       </c>
       <c r="DH10" s="178">
         <f t="shared" ref="DH10:DH22" si="12">IF(CQ10="В",1,0)+IF(CT10="В",1,0)+IF(H10="В",1,0)+IF(K10="В",1,0)+IF(N10="В",1,0)+IF(Q10="В",1,0)+IF(T10="В",1,0)+IF(W10="В",1,0)+IF(Z10="В",1,0)+IF(AC10="В",1,0)+IF(AF10="В",1,0)+IF(AI10="В",1,0)+IF(AL10="В",1,0)+IF(AO10="В",1,0)+IF(AR10="В",1,0)+IF(AU10="В",1,0)+IF(AX10="В",1,0)+IF(BA10="В",1,0)+IF(BD10="В",1,0)+IF(BG10="В",1,0)+IF(BJ10="В",1,0)+IF(BM10="В",1,0)+IF(BP10="В",1,0)+IF(BS10="В",1,0)+IF(BV10="В",1,0)+IF(BY10="В",1,0)+IF(CB10="В",1,0)+IF(CE10="В",1,0)+IF(CH10="В",1,0)+IF(CK10="В",1,0)+IF(CN10="В",1,0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DI10" s="178">
         <f t="shared" ref="DI10:DI22" si="13">SUM(CV10:DH10)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DJ10" s="170">
         <f>SUM(G10:CU10)</f>
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="DK10" s="170">
         <v>0</v>
@@ -12829,7 +12936,7 @@
       </c>
       <c r="DS10" s="32">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DT10" s="32">
         <f t="shared" si="16"/>
@@ -14581,29 +14688,47 @@
         <v>11.25</v>
       </c>
       <c r="AG17" s="183"/>
-      <c r="AH17" s="187"/>
-      <c r="AI17" s="182"/>
-      <c r="AJ17" s="183"/>
-      <c r="AK17" s="187"/>
-      <c r="AL17" s="182"/>
-      <c r="AM17" s="183"/>
-      <c r="AN17" s="187"/>
+      <c r="AH17" s="184"/>
+      <c r="AI17" s="185"/>
+      <c r="AJ17" s="183">
+        <v>4</v>
+      </c>
+      <c r="AK17" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="AL17" s="185"/>
+      <c r="AM17" s="183">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AO17" s="182"/>
       <c r="AP17" s="183"/>
       <c r="AQ17" s="187"/>
-      <c r="AR17" s="182"/>
+      <c r="AR17" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AS17" s="183"/>
       <c r="AT17" s="187"/>
-      <c r="AU17" s="182"/>
+      <c r="AU17" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AV17" s="183"/>
       <c r="AW17" s="187"/>
-      <c r="AX17" s="182"/>
+      <c r="AX17" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AY17" s="183"/>
       <c r="AZ17" s="187"/>
-      <c r="BA17" s="182"/>
+      <c r="BA17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BB17" s="183"/>
       <c r="BC17" s="187"/>
-      <c r="BD17" s="182"/>
+      <c r="BD17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BE17" s="183"/>
       <c r="BF17" s="187"/>
       <c r="BG17" s="182"/>
@@ -14649,7 +14774,7 @@
       <c r="CU17" s="183"/>
       <c r="CV17" s="168">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CW17" s="79">
         <f t="shared" si="1"/>
@@ -14697,15 +14822,15 @@
       </c>
       <c r="DH17" s="80">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DI17" s="80">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="DJ17" s="70">
         <f t="shared" si="24"/>
-        <v>56.25</v>
+        <v>101.25</v>
       </c>
       <c r="DK17" s="69">
         <v>0</v>
@@ -14714,14 +14839,14 @@
       <c r="DM17" s="75"/>
       <c r="DN17" s="71">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="DO17" s="72">
         <v>0</v>
       </c>
       <c r="DQ17" s="32">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DR17" s="32">
         <f t="shared" si="16"/>
@@ -14765,19 +14890,19 @@
       </c>
       <c r="EB17" s="32">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="EC17" s="32">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EE17" s="152">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EF17" s="152">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14845,29 +14970,47 @@
         <v>7</v>
       </c>
       <c r="AG18" s="183"/>
-      <c r="AH18" s="187"/>
-      <c r="AI18" s="182"/>
-      <c r="AJ18" s="183"/>
+      <c r="AH18" s="184"/>
+      <c r="AI18" s="185">
+        <v>11.25</v>
+      </c>
+      <c r="AJ18" s="186"/>
       <c r="AK18" s="187"/>
-      <c r="AL18" s="182"/>
+      <c r="AL18" s="185">
+        <v>11.25</v>
+      </c>
       <c r="AM18" s="183"/>
       <c r="AN18" s="187"/>
       <c r="AO18" s="182"/>
-      <c r="AP18" s="183"/>
-      <c r="AQ18" s="187"/>
+      <c r="AP18" s="183">
+        <v>4</v>
+      </c>
+      <c r="AQ18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AR18" s="182"/>
-      <c r="AS18" s="183"/>
-      <c r="AT18" s="187"/>
+      <c r="AS18" s="183">
+        <v>4</v>
+      </c>
+      <c r="AT18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AU18" s="182"/>
       <c r="AV18" s="183"/>
       <c r="AW18" s="187"/>
-      <c r="AX18" s="182"/>
+      <c r="AX18" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AY18" s="183"/>
       <c r="AZ18" s="187"/>
-      <c r="BA18" s="182"/>
+      <c r="BA18" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="BB18" s="183"/>
       <c r="BC18" s="187"/>
-      <c r="BD18" s="182"/>
+      <c r="BD18" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="BE18" s="183"/>
       <c r="BF18" s="187"/>
       <c r="BG18" s="182"/>
@@ -14913,7 +15056,7 @@
       <c r="CU18" s="183"/>
       <c r="CV18" s="168">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CW18" s="79">
         <f>IF(CK18="К",1,0)+IF(CN18="К",1,0)+IF(CQ18="К",1,0)+IF(CT18="К",1,0)+IF(CH18="К",1,0)+IF(H18="К",1,0)+IF(K18="К",1,0)+IF(N18="К",1,0)+IF(Q18="К",1,0)+IF(T18="К",1,0)+IF(W18="К",1,0)+IF(Z18="К",1,0)+IF(AC18="К",1,0)+IF(AF18="К",1,0)+IF(AI18="К",1,0)+IF(AL18="К",1,0)+IF(AO18="К",1,0)+IF(AR18="К",1,0)+IF(AU18="К",1,0)+IF(AX18="К",1,0)+IF(BA18="К",1,0)+IF(BD18="К",1,0)+IF(BG18="К",1,0)+IF(BJ18="К",1,0)+IF(BM18="К",1,0)+IF(BP18="К",1,0)+IF(BS18="К",1,0)+IF(BV18="К",1,0)+IF(BY18="К",1,0)+IF(CB18="К",1,0)+IF(CE18="К",1,0)</f>
@@ -14961,15 +15104,15 @@
       </c>
       <c r="DH18" s="80">
         <f>IF(CQ18="В",1,0)+IF(CT18="В",1,0)+IF(H18="В",1,0)+IF(K18="В",1,0)+IF(N18="В",1,0)+IF(Q18="В",1,0)+IF(T18="В",1,0)+IF(W18="В",1,0)+IF(Z18="В",1,0)+IF(AC18="В",1,0)+IF(AF18="В",1,0)+IF(AI18="В",1,0)+IF(AL18="В",1,0)+IF(AO18="В",1,0)+IF(AR18="В",1,0)+IF(AU18="В",1,0)+IF(AX18="В",1,0)+IF(BA18="В",1,0)+IF(BD18="В",1,0)+IF(BG18="В",1,0)+IF(BJ18="В",1,0)+IF(BM18="В",1,0)+IF(BP18="В",1,0)+IF(BS18="В",1,0)+IF(BV18="В",1,0)+IF(BY18="В",1,0)+IF(CB18="В",1,0)+IF(CE18="В",1,0)+IF(CH18="В",1,0)+IF(CK18="В",1,0)+IF(CN18="В",1,0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DI18" s="80">
         <f>SUM(CV18:DH18)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="DJ18" s="70">
         <f t="shared" si="24"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="DK18" s="69">
         <v>0</v>
@@ -14978,14 +15121,14 @@
       <c r="DM18" s="75"/>
       <c r="DN18" s="71">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="DO18" s="72">
         <v>0</v>
       </c>
       <c r="DQ18" s="32">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DR18" s="32">
         <f t="shared" si="16"/>
@@ -15029,19 +15172,19 @@
       </c>
       <c r="EB18" s="32">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EC18" s="32">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EE18" s="152">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EF18" s="152">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15109,29 +15252,47 @@
         <v>7</v>
       </c>
       <c r="AG19" s="183"/>
-      <c r="AH19" s="187"/>
-      <c r="AI19" s="182"/>
-      <c r="AJ19" s="183"/>
+      <c r="AH19" s="184"/>
+      <c r="AI19" s="185">
+        <v>11.25</v>
+      </c>
+      <c r="AJ19" s="186"/>
       <c r="AK19" s="187"/>
-      <c r="AL19" s="182"/>
+      <c r="AL19" s="185">
+        <v>11.25</v>
+      </c>
       <c r="AM19" s="183"/>
       <c r="AN19" s="187"/>
       <c r="AO19" s="182"/>
-      <c r="AP19" s="183"/>
-      <c r="AQ19" s="187"/>
+      <c r="AP19" s="183">
+        <v>4</v>
+      </c>
+      <c r="AQ19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AR19" s="182"/>
-      <c r="AS19" s="183"/>
-      <c r="AT19" s="187"/>
+      <c r="AS19" s="183">
+        <v>4</v>
+      </c>
+      <c r="AT19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AU19" s="182"/>
       <c r="AV19" s="183"/>
       <c r="AW19" s="187"/>
-      <c r="AX19" s="182"/>
+      <c r="AX19" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AY19" s="183"/>
       <c r="AZ19" s="187"/>
-      <c r="BA19" s="182"/>
+      <c r="BA19" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="BB19" s="183"/>
       <c r="BC19" s="187"/>
-      <c r="BD19" s="182"/>
+      <c r="BD19" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="BE19" s="183"/>
       <c r="BF19" s="187"/>
       <c r="BG19" s="182"/>
@@ -15177,7 +15338,7 @@
       <c r="CU19" s="183"/>
       <c r="CV19" s="168">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CW19" s="79">
         <f>IF(CK19="К",1,0)+IF(CN19="К",1,0)+IF(CQ19="К",1,0)+IF(CT19="К",1,0)+IF(CH19="К",1,0)+IF(H19="К",1,0)+IF(K19="К",1,0)+IF(N19="К",1,0)+IF(Q19="К",1,0)+IF(T19="К",1,0)+IF(W19="К",1,0)+IF(Z19="К",1,0)+IF(AC19="К",1,0)+IF(AF19="К",1,0)+IF(AI19="К",1,0)+IF(AL19="К",1,0)+IF(AO19="К",1,0)+IF(AR19="К",1,0)+IF(AU19="К",1,0)+IF(AX19="К",1,0)+IF(BA19="К",1,0)+IF(BD19="К",1,0)+IF(BG19="К",1,0)+IF(BJ19="К",1,0)+IF(BM19="К",1,0)+IF(BP19="К",1,0)+IF(BS19="К",1,0)+IF(BV19="К",1,0)+IF(BY19="К",1,0)+IF(CB19="К",1,0)+IF(CE19="К",1,0)</f>
@@ -15225,15 +15386,15 @@
       </c>
       <c r="DH19" s="80">
         <f>IF(CQ19="В",1,0)+IF(CT19="В",1,0)+IF(H19="В",1,0)+IF(K19="В",1,0)+IF(N19="В",1,0)+IF(Q19="В",1,0)+IF(T19="В",1,0)+IF(W19="В",1,0)+IF(Z19="В",1,0)+IF(AC19="В",1,0)+IF(AF19="В",1,0)+IF(AI19="В",1,0)+IF(AL19="В",1,0)+IF(AO19="В",1,0)+IF(AR19="В",1,0)+IF(AU19="В",1,0)+IF(AX19="В",1,0)+IF(BA19="В",1,0)+IF(BD19="В",1,0)+IF(BG19="В",1,0)+IF(BJ19="В",1,0)+IF(BM19="В",1,0)+IF(BP19="В",1,0)+IF(BS19="В",1,0)+IF(BV19="В",1,0)+IF(BY19="В",1,0)+IF(CB19="В",1,0)+IF(CE19="В",1,0)+IF(CH19="В",1,0)+IF(CK19="В",1,0)+IF(CN19="В",1,0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DI19" s="80">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="DJ19" s="70">
         <f t="shared" si="24"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="DK19" s="69">
         <v>0</v>
@@ -15242,14 +15403,14 @@
       <c r="DM19" s="69"/>
       <c r="DN19" s="71">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="DO19" s="72">
         <v>0</v>
       </c>
       <c r="DQ19" s="32">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DR19" s="32">
         <f t="shared" si="16"/>
@@ -15293,19 +15454,19 @@
       </c>
       <c r="EB19" s="32">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EC19" s="32">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EE19" s="152">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EF19" s="152">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15377,16 +15538,24 @@
       </c>
       <c r="AJ20" s="183"/>
       <c r="AK20" s="187"/>
-      <c r="AL20" s="182"/>
+      <c r="AL20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AM20" s="183"/>
       <c r="AN20" s="187"/>
-      <c r="AO20" s="182"/>
+      <c r="AO20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AP20" s="183"/>
       <c r="AQ20" s="187"/>
-      <c r="AR20" s="182"/>
+      <c r="AR20" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AS20" s="183"/>
       <c r="AT20" s="187"/>
-      <c r="AU20" s="182"/>
+      <c r="AU20" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AV20" s="183"/>
       <c r="AW20" s="187"/>
       <c r="AX20" s="182"/>
@@ -15441,7 +15610,7 @@
       <c r="CU20" s="183"/>
       <c r="CV20" s="168">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CW20" s="79">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
@@ -15489,15 +15658,15 @@
       </c>
       <c r="DH20" s="80">
         <f>IF(CQ20="В",1,0)+IF(CT20="В",1,0)+IF(H20="В",1,0)+IF(K20="В",1,0)+IF(N20="В",1,0)+IF(Q20="В",1,0)+IF(T20="В",1,0)+IF(W20="В",1,0)+IF(Z20="В",1,0)+IF(AC20="В",1,0)+IF(AF20="В",1,0)+IF(AI20="В",1,0)+IF(AL20="В",1,0)+IF(AO20="В",1,0)+IF(AR20="В",1,0)+IF(AU20="В",1,0)+IF(AX20="В",1,0)+IF(BA20="В",1,0)+IF(BD20="В",1,0)+IF(BG20="В",1,0)+IF(BJ20="В",1,0)+IF(BM20="В",1,0)+IF(BP20="В",1,0)+IF(BS20="В",1,0)+IF(BV20="В",1,0)+IF(BY20="В",1,0)+IF(CB20="В",1,0)+IF(CE20="В",1,0)+IF(CH20="В",1,0)+IF(CK20="В",1,0)+IF(CN20="В",1,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DI20" s="80">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="DJ20" s="70">
         <f t="shared" si="24"/>
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="DK20" s="69">
         <v>0</v>
@@ -15557,7 +15726,7 @@
       </c>
       <c r="EB20" s="32">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EC20" s="32">
         <f t="shared" si="23"/>
@@ -15636,25 +15805,39 @@
       </c>
       <c r="AG21" s="183"/>
       <c r="AH21" s="187"/>
-      <c r="AI21" s="182"/>
+      <c r="AI21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AJ21" s="183"/>
       <c r="AK21" s="187"/>
-      <c r="AL21" s="182"/>
+      <c r="AL21" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AM21" s="183"/>
       <c r="AN21" s="187"/>
-      <c r="AO21" s="182"/>
+      <c r="AO21" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AP21" s="183"/>
       <c r="AQ21" s="187"/>
-      <c r="AR21" s="182"/>
+      <c r="AR21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AS21" s="183"/>
       <c r="AT21" s="187"/>
-      <c r="AU21" s="182"/>
+      <c r="AU21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AV21" s="183"/>
       <c r="AW21" s="187"/>
-      <c r="AX21" s="182"/>
+      <c r="AX21" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AY21" s="183"/>
       <c r="AZ21" s="187"/>
-      <c r="BA21" s="182"/>
+      <c r="BA21" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="BB21" s="183"/>
       <c r="BC21" s="187"/>
       <c r="BD21" s="182"/>
@@ -15703,7 +15886,7 @@
       <c r="CU21" s="183"/>
       <c r="CV21" s="168">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CW21" s="79">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
@@ -15751,15 +15934,15 @@
       </c>
       <c r="DH21" s="80">
         <f>IF(CQ21="В",1,0)+IF(CT21="В",1,0)+IF(H21="В",1,0)+IF(K21="В",1,0)+IF(N21="В",1,0)+IF(Q21="В",1,0)+IF(T21="В",1,0)+IF(W21="В",1,0)+IF(Z21="В",1,0)+IF(AC21="В",1,0)+IF(AF21="В",1,0)+IF(AI21="В",1,0)+IF(AL21="В",1,0)+IF(AO21="В",1,0)+IF(AR21="В",1,0)+IF(AU21="В",1,0)+IF(AX21="В",1,0)+IF(BA21="В",1,0)+IF(BD21="В",1,0)+IF(BG21="В",1,0)+IF(BJ21="В",1,0)+IF(BM21="В",1,0)+IF(BP21="В",1,0)+IF(BS21="В",1,0)+IF(BV21="В",1,0)+IF(BY21="В",1,0)+IF(CB21="В",1,0)+IF(CE21="В",1,0)+IF(CH21="В",1,0)+IF(CK21="В",1,0)+IF(CN21="В",1,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DI21" s="80">
         <f>SUM(CV21:DH21)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="DJ21" s="70">
         <f t="shared" si="24"/>
-        <v>56.25</v>
+        <v>90</v>
       </c>
       <c r="DK21" s="69">
         <v>0</v>
@@ -15819,7 +16002,7 @@
       </c>
       <c r="EB21" s="32">
         <f>IF(Q21=11.25,1,0)+IF(T21=11.25,1,0)+IF(W21=11.25,1,0)+IF(Z21=11.25,1,0)+IF(AC21=11.25,1,0)+IF(AF21=11.25,1,0)+IF(AI21=11.25,1,0)+IF(AL21=11.25,1,0)+IF(AO21=11.25,1,0)+IF(AR21=11.25,1,0)+IF(AU21=11.25,1,0)+IF(AX21=11.25,1,0)+IF(BA21=11.25,1,0)+IF(BD21=11.25,1,0)+IF(BG21=11.25,1,0)+IF(BJ21=11.25,1,0)+IF(BM21=11.25,1,0)+IF(BP21=11.25,1,0)+IF(BS21=11.25,1,0)+IF(BV21=11.25,1,0)+IF(BY21=11.25,1,0)+IF(CB21=11.25,1,0)+IF(CE21=11.25,1,0)+IF(CH21=11.25,1,0)+IF(CK21=11.25,1,0)+IF(CN21=11.25,1,0)+IF(CQ21=11.25,1,0)+IF(CT21=11.25,1,0)+IF(H21=11.25,1,0)+IF(K21=11.25,1,0)+IF(N21=11.25,1,0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="EC21" s="32">
         <f t="shared" si="23"/>
@@ -15908,16 +16091,24 @@
       </c>
       <c r="AM22" s="183"/>
       <c r="AN22" s="187"/>
-      <c r="AO22" s="182"/>
+      <c r="AO22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AP22" s="183"/>
       <c r="AQ22" s="187"/>
-      <c r="AR22" s="182"/>
+      <c r="AR22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AS22" s="183"/>
       <c r="AT22" s="187"/>
-      <c r="AU22" s="182"/>
+      <c r="AU22" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AV22" s="183"/>
       <c r="AW22" s="187"/>
-      <c r="AX22" s="182"/>
+      <c r="AX22" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AY22" s="183"/>
       <c r="AZ22" s="187"/>
       <c r="BA22" s="182"/>
@@ -15969,7 +16160,7 @@
       <c r="CU22" s="183"/>
       <c r="CV22" s="168">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CW22" s="79">
         <f t="shared" si="1"/>
@@ -16017,15 +16208,15 @@
       </c>
       <c r="DH22" s="80">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DI22" s="80">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="DJ22" s="70">
         <f t="shared" si="24"/>
-        <v>56.25</v>
+        <v>78.75</v>
       </c>
       <c r="DK22" s="69">
         <v>0</v>
@@ -16085,7 +16276,7 @@
       </c>
       <c r="EB22" s="32">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EC22" s="32">
         <f t="shared" si="23"/>
@@ -16164,16 +16355,24 @@
       </c>
       <c r="AG23" s="183"/>
       <c r="AH23" s="187"/>
-      <c r="AI23" s="182"/>
+      <c r="AI23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AJ23" s="183"/>
       <c r="AK23" s="187"/>
-      <c r="AL23" s="182"/>
+      <c r="AL23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AM23" s="183"/>
       <c r="AN23" s="187"/>
-      <c r="AO23" s="182"/>
+      <c r="AO23" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AP23" s="183"/>
       <c r="AQ23" s="187"/>
-      <c r="AR23" s="182"/>
+      <c r="AR23" s="182" t="s">
+        <v>7</v>
+      </c>
       <c r="AS23" s="183"/>
       <c r="AT23" s="187"/>
       <c r="AU23" s="182"/>
@@ -16231,7 +16430,7 @@
       <c r="CU23" s="183"/>
       <c r="CV23" s="168">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CW23" s="79">
         <f t="shared" si="1"/>
@@ -16279,15 +16478,15 @@
       </c>
       <c r="DH23" s="80">
         <f>IF(CQ23="В",1,0)+IF(CT23="В",1,0)+IF(H23="В",1,0)+IF(K23="В",1,0)+IF(N23="В",1,0)+IF(Q23="В",1,0)+IF(T23="В",1,0)+IF(W23="В",1,0)+IF(Z23="В",1,0)+IF(AC23="В",1,0)+IF(AF23="В",1,0)+IF(AI23="В",1,0)+IF(AL23="В",1,0)+IF(AO23="В",1,0)+IF(AR23="В",1,0)+IF(AU23="В",1,0)+IF(AX23="В",1,0)+IF(BA23="В",1,0)+IF(BD23="В",1,0)+IF(BG23="В",1,0)+IF(BJ23="В",1,0)+IF(BM23="В",1,0)+IF(BP23="В",1,0)+IF(BS23="В",1,0)+IF(BV23="В",1,0)+IF(BY23="В",1,0)+IF(CB23="В",1,0)+IF(CE23="В",1,0)+IF(CH23="В",1,0)+IF(CK23="В",1,0)+IF(CN23="В",1,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DI23" s="80">
         <f>SUM(CV23:DH23)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="DJ23" s="70">
         <f t="shared" si="24"/>
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="DK23" s="70">
         <v>8</v>
@@ -16347,7 +16546,7 @@
       </c>
       <c r="EB23" s="32">
         <f>IF(Q23=11.25,1,0)+IF(T23=11.25,1,0)+IF(W23=11.25,1,0)+IF(Z23=11.25,1,0)+IF(AC23=11.25,1,0)+IF(AF23=11.25,1,0)+IF(AI23=11.25,1,0)+IF(AL23=11.25,1,0)+IF(AO23=11.25,1,0)+IF(AR23=11.25,1,0)+IF(AU23=11.25,1,0)+IF(AX23=11.25,1,0)+IF(BA23=11.25,1,0)+IF(BD23=11.25,1,0)+IF(BG23=11.25,1,0)+IF(BJ23=11.25,1,0)+IF(BM23=11.25,1,0)+IF(BP23=11.25,1,0)+IF(BS23=11.25,1,0)+IF(BV23=11.25,1,0)+IF(BY23=11.25,1,0)+IF(CB23=11.25,1,0)+IF(CE23=11.25,1,0)+IF(CH23=11.25,1,0)+IF(CK23=11.25,1,0)+IF(CN23=11.25,1,0)+IF(CQ23=11.25,1,0)+IF(CT23=11.25,1,0)+IF(H23=11.25,1,0)+IF(K23=11.25,1,0)+IF(N23=11.25,1,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EC23" s="32">
         <f t="shared" si="23"/>
@@ -16464,7 +16663,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -16512,15 +16711,15 @@
       </c>
       <c r="DH24" s="81">
         <f t="shared" si="28"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>654</v>
+        <v>938.25</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -16536,7 +16735,7 @@
       </c>
       <c r="DN24" s="77">
         <f t="shared" si="28"/>
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="DO24" s="77">
         <f t="shared" si="28"/>
@@ -16995,45 +17194,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="271"/>
-      <c r="I31" s="271"/>
-      <c r="J31" s="271"/>
-      <c r="K31" s="271"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="271"/>
-      <c r="O31" s="271"/>
-      <c r="P31" s="271"/>
-      <c r="Q31" s="271"/>
-      <c r="R31" s="271"/>
-      <c r="S31" s="271"/>
-      <c r="T31" s="271"/>
-      <c r="U31" s="271"/>
-      <c r="V31" s="271"/>
-      <c r="W31" s="271"/>
-      <c r="X31" s="271"/>
-      <c r="Y31" s="271"/>
-      <c r="Z31" s="271"/>
-      <c r="AA31" s="271"/>
-      <c r="AB31" s="271"/>
-      <c r="AC31" s="271"/>
-      <c r="AD31" s="271"/>
-      <c r="AE31" s="271"/>
-      <c r="AF31" s="271"/>
-      <c r="AG31" s="271"/>
-      <c r="AH31" s="271"/>
-      <c r="AI31" s="271"/>
-      <c r="AJ31" s="271"/>
-      <c r="AK31" s="271"/>
-      <c r="AL31" s="271"/>
-      <c r="AM31" s="271"/>
-      <c r="AN31" s="271"/>
-      <c r="AO31" s="271"/>
-      <c r="AP31" s="271"/>
-      <c r="AQ31" s="271"/>
-      <c r="AR31" s="271"/>
-      <c r="AS31" s="271"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="219"/>
+      <c r="L31" s="219"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="219"/>
+      <c r="O31" s="219"/>
+      <c r="P31" s="219"/>
+      <c r="Q31" s="219"/>
+      <c r="R31" s="219"/>
+      <c r="S31" s="219"/>
+      <c r="T31" s="219"/>
+      <c r="U31" s="219"/>
+      <c r="V31" s="219"/>
+      <c r="W31" s="219"/>
+      <c r="X31" s="219"/>
+      <c r="Y31" s="219"/>
+      <c r="Z31" s="219"/>
+      <c r="AA31" s="219"/>
+      <c r="AB31" s="219"/>
+      <c r="AC31" s="219"/>
+      <c r="AD31" s="219"/>
+      <c r="AE31" s="219"/>
+      <c r="AF31" s="219"/>
+      <c r="AG31" s="219"/>
+      <c r="AH31" s="219"/>
+      <c r="AI31" s="219"/>
+      <c r="AJ31" s="219"/>
+      <c r="AK31" s="219"/>
+      <c r="AL31" s="219"/>
+      <c r="AM31" s="219"/>
+      <c r="AN31" s="219"/>
+      <c r="AO31" s="219"/>
+      <c r="AP31" s="219"/>
+      <c r="AQ31" s="219"/>
+      <c r="AR31" s="219"/>
+      <c r="AS31" s="219"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -17338,45 +17537,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="271"/>
-      <c r="H35" s="271"/>
-      <c r="I35" s="271"/>
-      <c r="J35" s="271"/>
-      <c r="K35" s="271"/>
-      <c r="L35" s="271"/>
-      <c r="M35" s="271"/>
-      <c r="N35" s="271"/>
-      <c r="O35" s="271"/>
-      <c r="P35" s="271"/>
-      <c r="Q35" s="271"/>
-      <c r="R35" s="271"/>
-      <c r="S35" s="271"/>
-      <c r="T35" s="271"/>
-      <c r="U35" s="271"/>
-      <c r="V35" s="271"/>
-      <c r="W35" s="271"/>
-      <c r="X35" s="271"/>
-      <c r="Y35" s="271"/>
-      <c r="Z35" s="271"/>
-      <c r="AA35" s="271"/>
-      <c r="AB35" s="271"/>
-      <c r="AC35" s="271"/>
-      <c r="AD35" s="271"/>
-      <c r="AE35" s="271"/>
-      <c r="AF35" s="271"/>
-      <c r="AG35" s="271"/>
-      <c r="AH35" s="271"/>
-      <c r="AI35" s="271"/>
-      <c r="AJ35" s="271"/>
-      <c r="AK35" s="271"/>
-      <c r="AL35" s="271"/>
-      <c r="AM35" s="271"/>
-      <c r="AN35" s="271"/>
-      <c r="AO35" s="271"/>
-      <c r="AP35" s="271"/>
-      <c r="AQ35" s="271"/>
-      <c r="AR35" s="271"/>
-      <c r="AS35" s="271"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="219"/>
+      <c r="N35" s="219"/>
+      <c r="O35" s="219"/>
+      <c r="P35" s="219"/>
+      <c r="Q35" s="219"/>
+      <c r="R35" s="219"/>
+      <c r="S35" s="219"/>
+      <c r="T35" s="219"/>
+      <c r="U35" s="219"/>
+      <c r="V35" s="219"/>
+      <c r="W35" s="219"/>
+      <c r="X35" s="219"/>
+      <c r="Y35" s="219"/>
+      <c r="Z35" s="219"/>
+      <c r="AA35" s="219"/>
+      <c r="AB35" s="219"/>
+      <c r="AC35" s="219"/>
+      <c r="AD35" s="219"/>
+      <c r="AE35" s="219"/>
+      <c r="AF35" s="219"/>
+      <c r="AG35" s="219"/>
+      <c r="AH35" s="219"/>
+      <c r="AI35" s="219"/>
+      <c r="AJ35" s="219"/>
+      <c r="AK35" s="219"/>
+      <c r="AL35" s="219"/>
+      <c r="AM35" s="219"/>
+      <c r="AN35" s="219"/>
+      <c r="AO35" s="219"/>
+      <c r="AP35" s="219"/>
+      <c r="AQ35" s="219"/>
+      <c r="AR35" s="219"/>
+      <c r="AS35" s="219"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -19534,29 +19733,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -19573,23 +19760,35 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="80">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1750,167 +1750,167 @@
     <xf numFmtId="4" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1943,119 +1943,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2543,21 +2431,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="250" t="s">
+      <c r="CU1" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="250"/>
-      <c r="CW1" s="250"/>
-      <c r="CX1" s="250"/>
-      <c r="CY1" s="250"/>
-      <c r="CZ1" s="250"/>
-      <c r="DA1" s="250"/>
-      <c r="DB1" s="250"/>
-      <c r="DC1" s="250"/>
-      <c r="DD1" s="250"/>
-      <c r="DE1" s="250"/>
-      <c r="DF1" s="250"/>
-      <c r="DG1" s="250"/>
+      <c r="CV1" s="226"/>
+      <c r="CW1" s="226"/>
+      <c r="CX1" s="226"/>
+      <c r="CY1" s="226"/>
+      <c r="CZ1" s="226"/>
+      <c r="DA1" s="226"/>
+      <c r="DB1" s="226"/>
+      <c r="DC1" s="226"/>
+      <c r="DD1" s="226"/>
+      <c r="DE1" s="226"/>
+      <c r="DF1" s="226"/>
+      <c r="DG1" s="226"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -2658,241 +2546,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="251" t="s">
+      <c r="CU2" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="251"/>
-      <c r="CW2" s="251"/>
-      <c r="CX2" s="251"/>
-      <c r="CY2" s="251"/>
-      <c r="CZ2" s="251"/>
-      <c r="DA2" s="251"/>
-      <c r="DB2" s="251"/>
-      <c r="DC2" s="251"/>
-      <c r="DD2" s="251"/>
-      <c r="DE2" s="251"/>
-      <c r="DF2" s="251"/>
-      <c r="DG2" s="251"/>
+      <c r="CV2" s="227"/>
+      <c r="CW2" s="227"/>
+      <c r="CX2" s="227"/>
+      <c r="CY2" s="227"/>
+      <c r="CZ2" s="227"/>
+      <c r="DA2" s="227"/>
+      <c r="DB2" s="227"/>
+      <c r="DC2" s="227"/>
+      <c r="DD2" s="227"/>
+      <c r="DE2" s="227"/>
+      <c r="DF2" s="227"/>
+      <c r="DG2" s="227"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="252"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="252"/>
-      <c r="AD3" s="252"/>
-      <c r="AE3" s="252"/>
-      <c r="AF3" s="252"/>
-      <c r="AG3" s="252"/>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="252"/>
-      <c r="AJ3" s="252"/>
-      <c r="AK3" s="252"/>
-      <c r="AL3" s="252"/>
-      <c r="AM3" s="252"/>
-      <c r="AN3" s="252"/>
-      <c r="AO3" s="252"/>
-      <c r="AP3" s="252"/>
-      <c r="AQ3" s="252"/>
-      <c r="AR3" s="252"/>
-      <c r="AS3" s="252"/>
-      <c r="AT3" s="252"/>
-      <c r="AU3" s="252"/>
-      <c r="AV3" s="252"/>
-      <c r="AW3" s="252"/>
-      <c r="AX3" s="252"/>
-      <c r="AY3" s="252"/>
-      <c r="AZ3" s="252"/>
-      <c r="BA3" s="252"/>
-      <c r="BB3" s="252"/>
-      <c r="BC3" s="252"/>
-      <c r="BD3" s="252"/>
-      <c r="BE3" s="252"/>
-      <c r="BF3" s="252"/>
-      <c r="BG3" s="252"/>
-      <c r="BH3" s="252"/>
-      <c r="BI3" s="252"/>
-      <c r="BJ3" s="252"/>
-      <c r="BK3" s="252"/>
-      <c r="BL3" s="252"/>
-      <c r="BM3" s="252"/>
-      <c r="BN3" s="252"/>
-      <c r="BO3" s="252"/>
-      <c r="BP3" s="252"/>
-      <c r="BQ3" s="252"/>
-      <c r="BR3" s="252"/>
-      <c r="BS3" s="252"/>
-      <c r="BT3" s="252"/>
-      <c r="BU3" s="252"/>
-      <c r="BV3" s="252"/>
-      <c r="BW3" s="252"/>
-      <c r="BX3" s="252"/>
-      <c r="BY3" s="252"/>
-      <c r="BZ3" s="252"/>
-      <c r="CA3" s="252"/>
-      <c r="CB3" s="252"/>
-      <c r="CC3" s="252"/>
-      <c r="CD3" s="252"/>
-      <c r="CE3" s="252"/>
-      <c r="CF3" s="252"/>
-      <c r="CG3" s="252"/>
-      <c r="CH3" s="252"/>
-      <c r="CI3" s="252"/>
-      <c r="CJ3" s="252"/>
-      <c r="CK3" s="252"/>
-      <c r="CL3" s="252"/>
-      <c r="CM3" s="252"/>
-      <c r="CN3" s="252"/>
-      <c r="CO3" s="252"/>
-      <c r="CP3" s="252"/>
-      <c r="CQ3" s="252"/>
-      <c r="CR3" s="252"/>
-      <c r="CS3" s="252"/>
-      <c r="CT3" s="252"/>
-      <c r="CU3" s="252"/>
-      <c r="CV3" s="253" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="228"/>
+      <c r="AH3" s="228"/>
+      <c r="AI3" s="228"/>
+      <c r="AJ3" s="228"/>
+      <c r="AK3" s="228"/>
+      <c r="AL3" s="228"/>
+      <c r="AM3" s="228"/>
+      <c r="AN3" s="228"/>
+      <c r="AO3" s="228"/>
+      <c r="AP3" s="228"/>
+      <c r="AQ3" s="228"/>
+      <c r="AR3" s="228"/>
+      <c r="AS3" s="228"/>
+      <c r="AT3" s="228"/>
+      <c r="AU3" s="228"/>
+      <c r="AV3" s="228"/>
+      <c r="AW3" s="228"/>
+      <c r="AX3" s="228"/>
+      <c r="AY3" s="228"/>
+      <c r="AZ3" s="228"/>
+      <c r="BA3" s="228"/>
+      <c r="BB3" s="228"/>
+      <c r="BC3" s="228"/>
+      <c r="BD3" s="228"/>
+      <c r="BE3" s="228"/>
+      <c r="BF3" s="228"/>
+      <c r="BG3" s="228"/>
+      <c r="BH3" s="228"/>
+      <c r="BI3" s="228"/>
+      <c r="BJ3" s="228"/>
+      <c r="BK3" s="228"/>
+      <c r="BL3" s="228"/>
+      <c r="BM3" s="228"/>
+      <c r="BN3" s="228"/>
+      <c r="BO3" s="228"/>
+      <c r="BP3" s="228"/>
+      <c r="BQ3" s="228"/>
+      <c r="BR3" s="228"/>
+      <c r="BS3" s="228"/>
+      <c r="BT3" s="228"/>
+      <c r="BU3" s="228"/>
+      <c r="BV3" s="228"/>
+      <c r="BW3" s="228"/>
+      <c r="BX3" s="228"/>
+      <c r="BY3" s="228"/>
+      <c r="BZ3" s="228"/>
+      <c r="CA3" s="228"/>
+      <c r="CB3" s="228"/>
+      <c r="CC3" s="228"/>
+      <c r="CD3" s="228"/>
+      <c r="CE3" s="228"/>
+      <c r="CF3" s="228"/>
+      <c r="CG3" s="228"/>
+      <c r="CH3" s="228"/>
+      <c r="CI3" s="228"/>
+      <c r="CJ3" s="228"/>
+      <c r="CK3" s="228"/>
+      <c r="CL3" s="228"/>
+      <c r="CM3" s="228"/>
+      <c r="CN3" s="228"/>
+      <c r="CO3" s="228"/>
+      <c r="CP3" s="228"/>
+      <c r="CQ3" s="228"/>
+      <c r="CR3" s="228"/>
+      <c r="CS3" s="228"/>
+      <c r="CT3" s="228"/>
+      <c r="CU3" s="228"/>
+      <c r="CV3" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="253"/>
-      <c r="CX3" s="253"/>
-      <c r="CY3" s="253"/>
-      <c r="CZ3" s="253"/>
-      <c r="DA3" s="253"/>
-      <c r="DB3" s="253"/>
-      <c r="DC3" s="253"/>
-      <c r="DD3" s="253"/>
-      <c r="DE3" s="253"/>
-      <c r="DF3" s="253"/>
-      <c r="DG3" s="253"/>
+      <c r="CW3" s="229"/>
+      <c r="CX3" s="229"/>
+      <c r="CY3" s="229"/>
+      <c r="CZ3" s="229"/>
+      <c r="DA3" s="229"/>
+      <c r="DB3" s="229"/>
+      <c r="DC3" s="229"/>
+      <c r="DD3" s="229"/>
+      <c r="DE3" s="229"/>
+      <c r="DF3" s="229"/>
+      <c r="DG3" s="229"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="242" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="260"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="260"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="260"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="260"/>
-      <c r="AG4" s="260"/>
-      <c r="AH4" s="260"/>
-      <c r="AI4" s="260"/>
-      <c r="AJ4" s="260"/>
-      <c r="AK4" s="260"/>
-      <c r="AL4" s="260"/>
-      <c r="AM4" s="260"/>
-      <c r="AN4" s="260"/>
-      <c r="AO4" s="260"/>
-      <c r="AP4" s="260"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="260"/>
-      <c r="AV4" s="260"/>
-      <c r="AW4" s="260"/>
-      <c r="AX4" s="260"/>
-      <c r="AY4" s="260"/>
-      <c r="AZ4" s="260"/>
-      <c r="BA4" s="260"/>
-      <c r="BB4" s="260"/>
-      <c r="BC4" s="260"/>
-      <c r="BD4" s="260"/>
-      <c r="BE4" s="260"/>
-      <c r="BF4" s="260"/>
-      <c r="BG4" s="260"/>
-      <c r="BH4" s="260"/>
-      <c r="BI4" s="260"/>
-      <c r="BJ4" s="260"/>
-      <c r="BK4" s="260"/>
-      <c r="BL4" s="260"/>
-      <c r="BM4" s="260"/>
-      <c r="BN4" s="260"/>
-      <c r="BO4" s="260"/>
-      <c r="BP4" s="260"/>
-      <c r="BQ4" s="260"/>
-      <c r="BR4" s="260"/>
-      <c r="BS4" s="260"/>
-      <c r="BT4" s="260"/>
-      <c r="BU4" s="260"/>
-      <c r="BV4" s="260"/>
-      <c r="BW4" s="260"/>
-      <c r="BX4" s="260"/>
-      <c r="BY4" s="260"/>
-      <c r="BZ4" s="260"/>
-      <c r="CA4" s="260"/>
-      <c r="CB4" s="260"/>
-      <c r="CC4" s="260"/>
-      <c r="CD4" s="260"/>
-      <c r="CE4" s="260"/>
-      <c r="CF4" s="260"/>
-      <c r="CG4" s="260"/>
-      <c r="CH4" s="260"/>
-      <c r="CI4" s="260"/>
-      <c r="CJ4" s="260"/>
-      <c r="CK4" s="260"/>
-      <c r="CL4" s="260"/>
-      <c r="CM4" s="260"/>
-      <c r="CN4" s="260"/>
-      <c r="CO4" s="260"/>
-      <c r="CP4" s="260"/>
-      <c r="CQ4" s="260"/>
-      <c r="CR4" s="260"/>
-      <c r="CS4" s="260"/>
-      <c r="CT4" s="260"/>
-      <c r="CU4" s="260"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="242"/>
+      <c r="U4" s="242"/>
+      <c r="V4" s="242"/>
+      <c r="W4" s="242"/>
+      <c r="X4" s="242"/>
+      <c r="Y4" s="242"/>
+      <c r="Z4" s="242"/>
+      <c r="AA4" s="242"/>
+      <c r="AB4" s="242"/>
+      <c r="AC4" s="242"/>
+      <c r="AD4" s="242"/>
+      <c r="AE4" s="242"/>
+      <c r="AF4" s="242"/>
+      <c r="AG4" s="242"/>
+      <c r="AH4" s="242"/>
+      <c r="AI4" s="242"/>
+      <c r="AJ4" s="242"/>
+      <c r="AK4" s="242"/>
+      <c r="AL4" s="242"/>
+      <c r="AM4" s="242"/>
+      <c r="AN4" s="242"/>
+      <c r="AO4" s="242"/>
+      <c r="AP4" s="242"/>
+      <c r="AQ4" s="242"/>
+      <c r="AR4" s="242"/>
+      <c r="AS4" s="242"/>
+      <c r="AT4" s="242"/>
+      <c r="AU4" s="242"/>
+      <c r="AV4" s="242"/>
+      <c r="AW4" s="242"/>
+      <c r="AX4" s="242"/>
+      <c r="AY4" s="242"/>
+      <c r="AZ4" s="242"/>
+      <c r="BA4" s="242"/>
+      <c r="BB4" s="242"/>
+      <c r="BC4" s="242"/>
+      <c r="BD4" s="242"/>
+      <c r="BE4" s="242"/>
+      <c r="BF4" s="242"/>
+      <c r="BG4" s="242"/>
+      <c r="BH4" s="242"/>
+      <c r="BI4" s="242"/>
+      <c r="BJ4" s="242"/>
+      <c r="BK4" s="242"/>
+      <c r="BL4" s="242"/>
+      <c r="BM4" s="242"/>
+      <c r="BN4" s="242"/>
+      <c r="BO4" s="242"/>
+      <c r="BP4" s="242"/>
+      <c r="BQ4" s="242"/>
+      <c r="BR4" s="242"/>
+      <c r="BS4" s="242"/>
+      <c r="BT4" s="242"/>
+      <c r="BU4" s="242"/>
+      <c r="BV4" s="242"/>
+      <c r="BW4" s="242"/>
+      <c r="BX4" s="242"/>
+      <c r="BY4" s="242"/>
+      <c r="BZ4" s="242"/>
+      <c r="CA4" s="242"/>
+      <c r="CB4" s="242"/>
+      <c r="CC4" s="242"/>
+      <c r="CD4" s="242"/>
+      <c r="CE4" s="242"/>
+      <c r="CF4" s="242"/>
+      <c r="CG4" s="242"/>
+      <c r="CH4" s="242"/>
+      <c r="CI4" s="242"/>
+      <c r="CJ4" s="242"/>
+      <c r="CK4" s="242"/>
+      <c r="CL4" s="242"/>
+      <c r="CM4" s="242"/>
+      <c r="CN4" s="242"/>
+      <c r="CO4" s="242"/>
+      <c r="CP4" s="242"/>
+      <c r="CQ4" s="242"/>
+      <c r="CR4" s="242"/>
+      <c r="CS4" s="242"/>
+      <c r="CT4" s="242"/>
+      <c r="CU4" s="242"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -3022,433 +2910,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="261" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="264" t="s">
+      <c r="A6" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="267" t="s">
+      <c r="C6" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="247" t="s">
+      <c r="E6" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="270" t="s">
+      <c r="F6" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="240" t="s">
+      <c r="G6" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="240"/>
-      <c r="M6" s="240"/>
-      <c r="N6" s="240"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="240"/>
-      <c r="S6" s="240"/>
-      <c r="T6" s="240"/>
-      <c r="U6" s="240"/>
-      <c r="V6" s="240"/>
-      <c r="W6" s="240"/>
-      <c r="X6" s="240"/>
-      <c r="Y6" s="240"/>
-      <c r="Z6" s="240"/>
-      <c r="AA6" s="240"/>
-      <c r="AB6" s="240"/>
-      <c r="AC6" s="240"/>
-      <c r="AD6" s="240"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="240"/>
-      <c r="AG6" s="240"/>
-      <c r="AH6" s="240"/>
-      <c r="AI6" s="240"/>
-      <c r="AJ6" s="240"/>
-      <c r="AK6" s="240"/>
-      <c r="AL6" s="240"/>
-      <c r="AM6" s="240"/>
-      <c r="AN6" s="240"/>
-      <c r="AO6" s="240"/>
-      <c r="AP6" s="240"/>
-      <c r="AQ6" s="240"/>
-      <c r="AR6" s="240"/>
-      <c r="AS6" s="240"/>
-      <c r="AT6" s="240"/>
-      <c r="AU6" s="240"/>
-      <c r="AV6" s="240"/>
-      <c r="AW6" s="240"/>
-      <c r="AX6" s="240"/>
-      <c r="AY6" s="240"/>
-      <c r="AZ6" s="240"/>
-      <c r="BA6" s="240"/>
-      <c r="BB6" s="240"/>
-      <c r="BC6" s="240"/>
-      <c r="BD6" s="240"/>
-      <c r="BE6" s="240"/>
-      <c r="BF6" s="240"/>
-      <c r="BG6" s="240"/>
-      <c r="BH6" s="240"/>
-      <c r="BI6" s="240"/>
-      <c r="BJ6" s="240"/>
-      <c r="BK6" s="240"/>
-      <c r="BL6" s="240"/>
-      <c r="BM6" s="240"/>
-      <c r="BN6" s="240"/>
-      <c r="BO6" s="240"/>
-      <c r="BP6" s="240"/>
-      <c r="BQ6" s="240"/>
-      <c r="BR6" s="240"/>
-      <c r="BS6" s="240"/>
-      <c r="BT6" s="240"/>
-      <c r="BU6" s="240"/>
-      <c r="BV6" s="240"/>
-      <c r="BW6" s="240"/>
-      <c r="BX6" s="240"/>
-      <c r="BY6" s="240"/>
-      <c r="BZ6" s="240"/>
-      <c r="CA6" s="240"/>
-      <c r="CB6" s="240"/>
-      <c r="CC6" s="240"/>
-      <c r="CD6" s="240"/>
-      <c r="CE6" s="240"/>
-      <c r="CF6" s="240"/>
-      <c r="CG6" s="240"/>
-      <c r="CH6" s="240"/>
-      <c r="CI6" s="240"/>
-      <c r="CJ6" s="240"/>
-      <c r="CK6" s="240"/>
-      <c r="CL6" s="240"/>
-      <c r="CM6" s="240"/>
-      <c r="CN6" s="240"/>
-      <c r="CO6" s="240"/>
-      <c r="CP6" s="240"/>
-      <c r="CQ6" s="240"/>
-      <c r="CR6" s="240"/>
-      <c r="CS6" s="240"/>
-      <c r="CT6" s="240"/>
-      <c r="CU6" s="240"/>
-      <c r="CV6" s="254" t="s">
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="268"/>
+      <c r="N6" s="268"/>
+      <c r="O6" s="268"/>
+      <c r="P6" s="268"/>
+      <c r="Q6" s="268"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="268"/>
+      <c r="T6" s="268"/>
+      <c r="U6" s="268"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="268"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="268"/>
+      <c r="Z6" s="268"/>
+      <c r="AA6" s="268"/>
+      <c r="AB6" s="268"/>
+      <c r="AC6" s="268"/>
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="268"/>
+      <c r="AF6" s="268"/>
+      <c r="AG6" s="268"/>
+      <c r="AH6" s="268"/>
+      <c r="AI6" s="268"/>
+      <c r="AJ6" s="268"/>
+      <c r="AK6" s="268"/>
+      <c r="AL6" s="268"/>
+      <c r="AM6" s="268"/>
+      <c r="AN6" s="268"/>
+      <c r="AO6" s="268"/>
+      <c r="AP6" s="268"/>
+      <c r="AQ6" s="268"/>
+      <c r="AR6" s="268"/>
+      <c r="AS6" s="268"/>
+      <c r="AT6" s="268"/>
+      <c r="AU6" s="268"/>
+      <c r="AV6" s="268"/>
+      <c r="AW6" s="268"/>
+      <c r="AX6" s="268"/>
+      <c r="AY6" s="268"/>
+      <c r="AZ6" s="268"/>
+      <c r="BA6" s="268"/>
+      <c r="BB6" s="268"/>
+      <c r="BC6" s="268"/>
+      <c r="BD6" s="268"/>
+      <c r="BE6" s="268"/>
+      <c r="BF6" s="268"/>
+      <c r="BG6" s="268"/>
+      <c r="BH6" s="268"/>
+      <c r="BI6" s="268"/>
+      <c r="BJ6" s="268"/>
+      <c r="BK6" s="268"/>
+      <c r="BL6" s="268"/>
+      <c r="BM6" s="268"/>
+      <c r="BN6" s="268"/>
+      <c r="BO6" s="268"/>
+      <c r="BP6" s="268"/>
+      <c r="BQ6" s="268"/>
+      <c r="BR6" s="268"/>
+      <c r="BS6" s="268"/>
+      <c r="BT6" s="268"/>
+      <c r="BU6" s="268"/>
+      <c r="BV6" s="268"/>
+      <c r="BW6" s="268"/>
+      <c r="BX6" s="268"/>
+      <c r="BY6" s="268"/>
+      <c r="BZ6" s="268"/>
+      <c r="CA6" s="268"/>
+      <c r="CB6" s="268"/>
+      <c r="CC6" s="268"/>
+      <c r="CD6" s="268"/>
+      <c r="CE6" s="268"/>
+      <c r="CF6" s="268"/>
+      <c r="CG6" s="268"/>
+      <c r="CH6" s="268"/>
+      <c r="CI6" s="268"/>
+      <c r="CJ6" s="268"/>
+      <c r="CK6" s="268"/>
+      <c r="CL6" s="268"/>
+      <c r="CM6" s="268"/>
+      <c r="CN6" s="268"/>
+      <c r="CO6" s="268"/>
+      <c r="CP6" s="268"/>
+      <c r="CQ6" s="268"/>
+      <c r="CR6" s="268"/>
+      <c r="CS6" s="268"/>
+      <c r="CT6" s="268"/>
+      <c r="CU6" s="268"/>
+      <c r="CV6" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="255"/>
-      <c r="CX6" s="254" t="s">
+      <c r="CW6" s="231"/>
+      <c r="CX6" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="258"/>
-      <c r="CZ6" s="258"/>
-      <c r="DA6" s="258"/>
-      <c r="DB6" s="258"/>
-      <c r="DC6" s="258"/>
-      <c r="DD6" s="258"/>
-      <c r="DE6" s="258"/>
-      <c r="DF6" s="258"/>
-      <c r="DG6" s="258"/>
-      <c r="DH6" s="230" t="s">
+      <c r="CY6" s="234"/>
+      <c r="CZ6" s="234"/>
+      <c r="DA6" s="234"/>
+      <c r="DB6" s="234"/>
+      <c r="DC6" s="234"/>
+      <c r="DD6" s="234"/>
+      <c r="DE6" s="234"/>
+      <c r="DF6" s="234"/>
+      <c r="DG6" s="234"/>
+      <c r="DH6" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="233" t="s">
+      <c r="DI6" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="243" t="s">
+      <c r="DJ6" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="243"/>
-      <c r="DL6" s="243"/>
-      <c r="DM6" s="243"/>
-      <c r="DN6" s="243"/>
-      <c r="DO6" s="244"/>
+      <c r="DK6" s="219"/>
+      <c r="DL6" s="219"/>
+      <c r="DM6" s="219"/>
+      <c r="DN6" s="219"/>
+      <c r="DO6" s="220"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="262"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="241"/>
-      <c r="N7" s="241"/>
-      <c r="O7" s="241"/>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="241"/>
-      <c r="R7" s="241"/>
-      <c r="S7" s="241"/>
-      <c r="T7" s="241"/>
-      <c r="U7" s="241"/>
-      <c r="V7" s="241"/>
-      <c r="W7" s="241"/>
-      <c r="X7" s="241"/>
-      <c r="Y7" s="241"/>
-      <c r="Z7" s="241"/>
-      <c r="AA7" s="241"/>
-      <c r="AB7" s="241"/>
-      <c r="AC7" s="241"/>
-      <c r="AD7" s="241"/>
-      <c r="AE7" s="241"/>
-      <c r="AF7" s="241"/>
-      <c r="AG7" s="241"/>
-      <c r="AH7" s="241"/>
-      <c r="AI7" s="241"/>
-      <c r="AJ7" s="241"/>
-      <c r="AK7" s="241"/>
-      <c r="AL7" s="241"/>
-      <c r="AM7" s="241"/>
-      <c r="AN7" s="241"/>
-      <c r="AO7" s="241"/>
-      <c r="AP7" s="241"/>
-      <c r="AQ7" s="241"/>
-      <c r="AR7" s="241"/>
-      <c r="AS7" s="241"/>
-      <c r="AT7" s="241"/>
-      <c r="AU7" s="241"/>
-      <c r="AV7" s="241"/>
-      <c r="AW7" s="241"/>
-      <c r="AX7" s="241"/>
-      <c r="AY7" s="241"/>
-      <c r="AZ7" s="241"/>
-      <c r="BA7" s="241"/>
-      <c r="BB7" s="241"/>
-      <c r="BC7" s="241"/>
-      <c r="BD7" s="241"/>
-      <c r="BE7" s="241"/>
-      <c r="BF7" s="241"/>
-      <c r="BG7" s="241"/>
-      <c r="BH7" s="241"/>
-      <c r="BI7" s="241"/>
-      <c r="BJ7" s="241"/>
-      <c r="BK7" s="241"/>
-      <c r="BL7" s="241"/>
-      <c r="BM7" s="241"/>
-      <c r="BN7" s="241"/>
-      <c r="BO7" s="242"/>
-      <c r="BP7" s="242"/>
-      <c r="BQ7" s="242"/>
-      <c r="BR7" s="241"/>
-      <c r="BS7" s="241"/>
-      <c r="BT7" s="241"/>
-      <c r="BU7" s="241"/>
-      <c r="BV7" s="241"/>
-      <c r="BW7" s="241"/>
-      <c r="BX7" s="241"/>
-      <c r="BY7" s="241"/>
-      <c r="BZ7" s="241"/>
-      <c r="CA7" s="241"/>
-      <c r="CB7" s="241"/>
-      <c r="CC7" s="241"/>
-      <c r="CD7" s="241"/>
-      <c r="CE7" s="241"/>
-      <c r="CF7" s="241"/>
-      <c r="CG7" s="241"/>
-      <c r="CH7" s="241"/>
-      <c r="CI7" s="241"/>
-      <c r="CJ7" s="241"/>
-      <c r="CK7" s="241"/>
-      <c r="CL7" s="241"/>
-      <c r="CM7" s="241"/>
-      <c r="CN7" s="241"/>
-      <c r="CO7" s="241"/>
-      <c r="CP7" s="241"/>
-      <c r="CQ7" s="241"/>
-      <c r="CR7" s="241"/>
-      <c r="CS7" s="241"/>
-      <c r="CT7" s="241"/>
-      <c r="CU7" s="241"/>
-      <c r="CV7" s="256"/>
-      <c r="CW7" s="257"/>
-      <c r="CX7" s="256"/>
-      <c r="CY7" s="259"/>
-      <c r="CZ7" s="259"/>
-      <c r="DA7" s="259"/>
-      <c r="DB7" s="259"/>
-      <c r="DC7" s="259"/>
-      <c r="DD7" s="259"/>
-      <c r="DE7" s="259"/>
-      <c r="DF7" s="259"/>
-      <c r="DG7" s="259"/>
-      <c r="DH7" s="231"/>
-      <c r="DI7" s="234"/>
-      <c r="DJ7" s="245"/>
-      <c r="DK7" s="245"/>
-      <c r="DL7" s="245"/>
-      <c r="DM7" s="245"/>
-      <c r="DN7" s="245"/>
-      <c r="DO7" s="246"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="269"/>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="269"/>
+      <c r="Q7" s="269"/>
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="269"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="269"/>
+      <c r="AJ7" s="269"/>
+      <c r="AK7" s="269"/>
+      <c r="AL7" s="269"/>
+      <c r="AM7" s="269"/>
+      <c r="AN7" s="269"/>
+      <c r="AO7" s="269"/>
+      <c r="AP7" s="269"/>
+      <c r="AQ7" s="269"/>
+      <c r="AR7" s="269"/>
+      <c r="AS7" s="269"/>
+      <c r="AT7" s="269"/>
+      <c r="AU7" s="269"/>
+      <c r="AV7" s="269"/>
+      <c r="AW7" s="269"/>
+      <c r="AX7" s="269"/>
+      <c r="AY7" s="269"/>
+      <c r="AZ7" s="269"/>
+      <c r="BA7" s="269"/>
+      <c r="BB7" s="269"/>
+      <c r="BC7" s="269"/>
+      <c r="BD7" s="269"/>
+      <c r="BE7" s="269"/>
+      <c r="BF7" s="269"/>
+      <c r="BG7" s="269"/>
+      <c r="BH7" s="269"/>
+      <c r="BI7" s="269"/>
+      <c r="BJ7" s="269"/>
+      <c r="BK7" s="269"/>
+      <c r="BL7" s="269"/>
+      <c r="BM7" s="269"/>
+      <c r="BN7" s="269"/>
+      <c r="BO7" s="270"/>
+      <c r="BP7" s="270"/>
+      <c r="BQ7" s="270"/>
+      <c r="BR7" s="269"/>
+      <c r="BS7" s="269"/>
+      <c r="BT7" s="269"/>
+      <c r="BU7" s="269"/>
+      <c r="BV7" s="269"/>
+      <c r="BW7" s="269"/>
+      <c r="BX7" s="269"/>
+      <c r="BY7" s="269"/>
+      <c r="BZ7" s="269"/>
+      <c r="CA7" s="269"/>
+      <c r="CB7" s="269"/>
+      <c r="CC7" s="269"/>
+      <c r="CD7" s="269"/>
+      <c r="CE7" s="269"/>
+      <c r="CF7" s="269"/>
+      <c r="CG7" s="269"/>
+      <c r="CH7" s="269"/>
+      <c r="CI7" s="269"/>
+      <c r="CJ7" s="269"/>
+      <c r="CK7" s="269"/>
+      <c r="CL7" s="269"/>
+      <c r="CM7" s="269"/>
+      <c r="CN7" s="269"/>
+      <c r="CO7" s="269"/>
+      <c r="CP7" s="269"/>
+      <c r="CQ7" s="269"/>
+      <c r="CR7" s="269"/>
+      <c r="CS7" s="269"/>
+      <c r="CT7" s="269"/>
+      <c r="CU7" s="269"/>
+      <c r="CV7" s="232"/>
+      <c r="CW7" s="233"/>
+      <c r="CX7" s="232"/>
+      <c r="CY7" s="235"/>
+      <c r="CZ7" s="235"/>
+      <c r="DA7" s="235"/>
+      <c r="DB7" s="235"/>
+      <c r="DC7" s="235"/>
+      <c r="DD7" s="235"/>
+      <c r="DE7" s="235"/>
+      <c r="DF7" s="235"/>
+      <c r="DG7" s="235"/>
+      <c r="DH7" s="259"/>
+      <c r="DI7" s="262"/>
+      <c r="DJ7" s="221"/>
+      <c r="DK7" s="221"/>
+      <c r="DL7" s="221"/>
+      <c r="DM7" s="221"/>
+      <c r="DN7" s="221"/>
+      <c r="DO7" s="222"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="263"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="269"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="229">
+      <c r="A8" s="245"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="272">
         <v>1</v>
       </c>
-      <c r="H8" s="221"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="220">
+      <c r="H8" s="240"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="255">
         <v>2</v>
       </c>
-      <c r="K8" s="221"/>
-      <c r="L8" s="222"/>
-      <c r="M8" s="225">
+      <c r="K8" s="240"/>
+      <c r="L8" s="256"/>
+      <c r="M8" s="236">
         <v>3</v>
       </c>
-      <c r="N8" s="226"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="225">
+      <c r="N8" s="237"/>
+      <c r="O8" s="257"/>
+      <c r="P8" s="236">
         <v>4</v>
       </c>
-      <c r="Q8" s="226"/>
-      <c r="R8" s="228"/>
-      <c r="S8" s="220">
+      <c r="Q8" s="237"/>
+      <c r="R8" s="238"/>
+      <c r="S8" s="255">
         <v>5</v>
       </c>
-      <c r="T8" s="221"/>
-      <c r="U8" s="224"/>
-      <c r="V8" s="220">
+      <c r="T8" s="240"/>
+      <c r="U8" s="241"/>
+      <c r="V8" s="255">
         <v>6</v>
       </c>
-      <c r="W8" s="221"/>
-      <c r="X8" s="222"/>
-      <c r="Y8" s="220">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="221"/>
-      <c r="AA8" s="222"/>
-      <c r="AB8" s="220">
+      <c r="W8" s="240"/>
+      <c r="X8" s="256"/>
+      <c r="Y8" s="255">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="240"/>
+      <c r="AA8" s="256"/>
+      <c r="AB8" s="255">
         <v>8</v>
       </c>
-      <c r="AC8" s="221"/>
-      <c r="AD8" s="222"/>
-      <c r="AE8" s="220">
+      <c r="AC8" s="240"/>
+      <c r="AD8" s="256"/>
+      <c r="AE8" s="255">
         <v>9</v>
       </c>
-      <c r="AF8" s="221"/>
-      <c r="AG8" s="224"/>
-      <c r="AH8" s="225">
+      <c r="AF8" s="240"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="236">
         <v>10</v>
       </c>
-      <c r="AI8" s="226"/>
-      <c r="AJ8" s="228"/>
-      <c r="AK8" s="225">
+      <c r="AI8" s="237"/>
+      <c r="AJ8" s="238"/>
+      <c r="AK8" s="236">
         <v>11</v>
       </c>
-      <c r="AL8" s="226"/>
-      <c r="AM8" s="228"/>
-      <c r="AN8" s="223">
+      <c r="AL8" s="237"/>
+      <c r="AM8" s="238"/>
+      <c r="AN8" s="239">
         <v>12</v>
       </c>
-      <c r="AO8" s="221"/>
-      <c r="AP8" s="224"/>
-      <c r="AQ8" s="220">
+      <c r="AO8" s="240"/>
+      <c r="AP8" s="241"/>
+      <c r="AQ8" s="255">
         <v>13</v>
       </c>
-      <c r="AR8" s="221"/>
-      <c r="AS8" s="222"/>
-      <c r="AT8" s="223">
+      <c r="AR8" s="240"/>
+      <c r="AS8" s="256"/>
+      <c r="AT8" s="239">
         <v>14</v>
       </c>
-      <c r="AU8" s="221"/>
-      <c r="AV8" s="222"/>
-      <c r="AW8" s="220">
+      <c r="AU8" s="240"/>
+      <c r="AV8" s="256"/>
+      <c r="AW8" s="255">
         <v>15</v>
       </c>
-      <c r="AX8" s="221"/>
-      <c r="AY8" s="222"/>
-      <c r="AZ8" s="220">
+      <c r="AX8" s="240"/>
+      <c r="AY8" s="256"/>
+      <c r="AZ8" s="255">
         <v>16</v>
       </c>
-      <c r="BA8" s="221"/>
-      <c r="BB8" s="222"/>
-      <c r="BC8" s="225">
+      <c r="BA8" s="240"/>
+      <c r="BB8" s="256"/>
+      <c r="BC8" s="236">
         <v>17</v>
       </c>
-      <c r="BD8" s="226"/>
-      <c r="BE8" s="227"/>
-      <c r="BF8" s="225">
+      <c r="BD8" s="237"/>
+      <c r="BE8" s="257"/>
+      <c r="BF8" s="236">
         <v>18</v>
       </c>
-      <c r="BG8" s="226"/>
-      <c r="BH8" s="228"/>
-      <c r="BI8" s="223">
+      <c r="BG8" s="237"/>
+      <c r="BH8" s="238"/>
+      <c r="BI8" s="239">
         <v>19</v>
       </c>
-      <c r="BJ8" s="221"/>
-      <c r="BK8" s="224"/>
-      <c r="BL8" s="220">
+      <c r="BJ8" s="240"/>
+      <c r="BK8" s="241"/>
+      <c r="BL8" s="255">
         <v>20</v>
       </c>
-      <c r="BM8" s="221"/>
-      <c r="BN8" s="222"/>
-      <c r="BO8" s="220">
+      <c r="BM8" s="240"/>
+      <c r="BN8" s="256"/>
+      <c r="BO8" s="255">
         <v>21</v>
       </c>
-      <c r="BP8" s="221"/>
-      <c r="BQ8" s="222"/>
-      <c r="BR8" s="220">
+      <c r="BP8" s="240"/>
+      <c r="BQ8" s="256"/>
+      <c r="BR8" s="255">
         <v>22</v>
       </c>
-      <c r="BS8" s="221"/>
-      <c r="BT8" s="222"/>
-      <c r="BU8" s="223">
+      <c r="BS8" s="240"/>
+      <c r="BT8" s="256"/>
+      <c r="BU8" s="239">
         <v>23</v>
       </c>
-      <c r="BV8" s="221"/>
-      <c r="BW8" s="224"/>
-      <c r="BX8" s="225">
+      <c r="BV8" s="240"/>
+      <c r="BW8" s="241"/>
+      <c r="BX8" s="236">
         <v>24</v>
       </c>
-      <c r="BY8" s="226"/>
-      <c r="BZ8" s="228"/>
-      <c r="CA8" s="239">
+      <c r="BY8" s="237"/>
+      <c r="BZ8" s="238"/>
+      <c r="CA8" s="267">
         <v>25</v>
       </c>
-      <c r="CB8" s="226"/>
-      <c r="CC8" s="227"/>
-      <c r="CD8" s="220">
+      <c r="CB8" s="237"/>
+      <c r="CC8" s="257"/>
+      <c r="CD8" s="255">
         <v>26</v>
       </c>
-      <c r="CE8" s="221"/>
-      <c r="CF8" s="222"/>
-      <c r="CG8" s="223">
+      <c r="CE8" s="240"/>
+      <c r="CF8" s="256"/>
+      <c r="CG8" s="239">
         <v>27</v>
       </c>
-      <c r="CH8" s="221"/>
-      <c r="CI8" s="224"/>
-      <c r="CJ8" s="220">
+      <c r="CH8" s="240"/>
+      <c r="CI8" s="241"/>
+      <c r="CJ8" s="255">
         <v>28</v>
       </c>
-      <c r="CK8" s="221"/>
-      <c r="CL8" s="222"/>
-      <c r="CM8" s="220">
+      <c r="CK8" s="240"/>
+      <c r="CL8" s="256"/>
+      <c r="CM8" s="255">
         <v>29</v>
       </c>
-      <c r="CN8" s="221"/>
-      <c r="CO8" s="222"/>
-      <c r="CP8" s="220">
+      <c r="CN8" s="240"/>
+      <c r="CO8" s="256"/>
+      <c r="CP8" s="255">
         <v>30</v>
       </c>
-      <c r="CQ8" s="221"/>
-      <c r="CR8" s="222"/>
-      <c r="CS8" s="236">
+      <c r="CQ8" s="240"/>
+      <c r="CR8" s="256"/>
+      <c r="CS8" s="264">
         <v>31</v>
       </c>
-      <c r="CT8" s="237"/>
-      <c r="CU8" s="238"/>
+      <c r="CT8" s="265"/>
+      <c r="CU8" s="266"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -3485,8 +3373,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="232"/>
-      <c r="DI8" s="235"/>
+      <c r="DH8" s="260"/>
+      <c r="DI8" s="263"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9255,45 +9143,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="219"/>
-      <c r="N33" s="219"/>
-      <c r="O33" s="219"/>
-      <c r="P33" s="219"/>
-      <c r="Q33" s="219"/>
-      <c r="R33" s="219"/>
-      <c r="S33" s="219"/>
-      <c r="T33" s="219"/>
-      <c r="U33" s="219"/>
-      <c r="V33" s="219"/>
-      <c r="W33" s="219"/>
-      <c r="X33" s="219"/>
-      <c r="Y33" s="219"/>
-      <c r="Z33" s="219"/>
-      <c r="AA33" s="219"/>
-      <c r="AB33" s="219"/>
-      <c r="AC33" s="219"/>
-      <c r="AD33" s="219"/>
-      <c r="AE33" s="219"/>
-      <c r="AF33" s="219"/>
-      <c r="AG33" s="219"/>
-      <c r="AH33" s="219"/>
-      <c r="AI33" s="219"/>
-      <c r="AJ33" s="219"/>
-      <c r="AK33" s="219"/>
-      <c r="AL33" s="219"/>
-      <c r="AM33" s="219"/>
-      <c r="AN33" s="219"/>
-      <c r="AO33" s="219"/>
-      <c r="AP33" s="219"/>
-      <c r="AQ33" s="219"/>
-      <c r="AR33" s="219"/>
-      <c r="AS33" s="219"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="271"/>
+      <c r="I33" s="271"/>
+      <c r="J33" s="271"/>
+      <c r="K33" s="271"/>
+      <c r="L33" s="271"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="271"/>
+      <c r="O33" s="271"/>
+      <c r="P33" s="271"/>
+      <c r="Q33" s="271"/>
+      <c r="R33" s="271"/>
+      <c r="S33" s="271"/>
+      <c r="T33" s="271"/>
+      <c r="U33" s="271"/>
+      <c r="V33" s="271"/>
+      <c r="W33" s="271"/>
+      <c r="X33" s="271"/>
+      <c r="Y33" s="271"/>
+      <c r="Z33" s="271"/>
+      <c r="AA33" s="271"/>
+      <c r="AB33" s="271"/>
+      <c r="AC33" s="271"/>
+      <c r="AD33" s="271"/>
+      <c r="AE33" s="271"/>
+      <c r="AF33" s="271"/>
+      <c r="AG33" s="271"/>
+      <c r="AH33" s="271"/>
+      <c r="AI33" s="271"/>
+      <c r="AJ33" s="271"/>
+      <c r="AK33" s="271"/>
+      <c r="AL33" s="271"/>
+      <c r="AM33" s="271"/>
+      <c r="AN33" s="271"/>
+      <c r="AO33" s="271"/>
+      <c r="AP33" s="271"/>
+      <c r="AQ33" s="271"/>
+      <c r="AR33" s="271"/>
+      <c r="AS33" s="271"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -9598,45 +9486,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="219"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="219"/>
-      <c r="M37" s="219"/>
-      <c r="N37" s="219"/>
-      <c r="O37" s="219"/>
-      <c r="P37" s="219"/>
-      <c r="Q37" s="219"/>
-      <c r="R37" s="219"/>
-      <c r="S37" s="219"/>
-      <c r="T37" s="219"/>
-      <c r="U37" s="219"/>
-      <c r="V37" s="219"/>
-      <c r="W37" s="219"/>
-      <c r="X37" s="219"/>
-      <c r="Y37" s="219"/>
-      <c r="Z37" s="219"/>
-      <c r="AA37" s="219"/>
-      <c r="AB37" s="219"/>
-      <c r="AC37" s="219"/>
-      <c r="AD37" s="219"/>
-      <c r="AE37" s="219"/>
-      <c r="AF37" s="219"/>
-      <c r="AG37" s="219"/>
-      <c r="AH37" s="219"/>
-      <c r="AI37" s="219"/>
-      <c r="AJ37" s="219"/>
-      <c r="AK37" s="219"/>
-      <c r="AL37" s="219"/>
-      <c r="AM37" s="219"/>
-      <c r="AN37" s="219"/>
-      <c r="AO37" s="219"/>
-      <c r="AP37" s="219"/>
-      <c r="AQ37" s="219"/>
-      <c r="AR37" s="219"/>
-      <c r="AS37" s="219"/>
+      <c r="G37" s="271"/>
+      <c r="H37" s="271"/>
+      <c r="I37" s="271"/>
+      <c r="J37" s="271"/>
+      <c r="K37" s="271"/>
+      <c r="L37" s="271"/>
+      <c r="M37" s="271"/>
+      <c r="N37" s="271"/>
+      <c r="O37" s="271"/>
+      <c r="P37" s="271"/>
+      <c r="Q37" s="271"/>
+      <c r="R37" s="271"/>
+      <c r="S37" s="271"/>
+      <c r="T37" s="271"/>
+      <c r="U37" s="271"/>
+      <c r="V37" s="271"/>
+      <c r="W37" s="271"/>
+      <c r="X37" s="271"/>
+      <c r="Y37" s="271"/>
+      <c r="Z37" s="271"/>
+      <c r="AA37" s="271"/>
+      <c r="AB37" s="271"/>
+      <c r="AC37" s="271"/>
+      <c r="AD37" s="271"/>
+      <c r="AE37" s="271"/>
+      <c r="AF37" s="271"/>
+      <c r="AG37" s="271"/>
+      <c r="AH37" s="271"/>
+      <c r="AI37" s="271"/>
+      <c r="AJ37" s="271"/>
+      <c r="AK37" s="271"/>
+      <c r="AL37" s="271"/>
+      <c r="AM37" s="271"/>
+      <c r="AN37" s="271"/>
+      <c r="AO37" s="271"/>
+      <c r="AP37" s="271"/>
+      <c r="AQ37" s="271"/>
+      <c r="AR37" s="271"/>
+      <c r="AS37" s="271"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -11137,6 +11025,40 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="DI6:DI8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="CU1:DG1"/>
@@ -11153,40 +11075,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="DI6:DI8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -11211,11 +11099,11 @@
   <dimension ref="A1:EF87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CQ10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AQ21" sqref="AQ21:BB21"/>
+      <selection pane="bottomRight" activeCell="DI10" sqref="DI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11382,21 +11270,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="250" t="s">
+      <c r="CU1" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="250"/>
-      <c r="CW1" s="250"/>
-      <c r="CX1" s="250"/>
-      <c r="CY1" s="250"/>
-      <c r="CZ1" s="250"/>
-      <c r="DA1" s="250"/>
-      <c r="DB1" s="250"/>
-      <c r="DC1" s="250"/>
-      <c r="DD1" s="250"/>
-      <c r="DE1" s="250"/>
-      <c r="DF1" s="250"/>
-      <c r="DG1" s="250"/>
+      <c r="CV1" s="226"/>
+      <c r="CW1" s="226"/>
+      <c r="CX1" s="226"/>
+      <c r="CY1" s="226"/>
+      <c r="CZ1" s="226"/>
+      <c r="DA1" s="226"/>
+      <c r="DB1" s="226"/>
+      <c r="DC1" s="226"/>
+      <c r="DD1" s="226"/>
+      <c r="DE1" s="226"/>
+      <c r="DF1" s="226"/>
+      <c r="DG1" s="226"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -11497,241 +11385,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="251" t="s">
+      <c r="CU2" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="251"/>
-      <c r="CW2" s="251"/>
-      <c r="CX2" s="251"/>
-      <c r="CY2" s="251"/>
-      <c r="CZ2" s="251"/>
-      <c r="DA2" s="251"/>
-      <c r="DB2" s="251"/>
-      <c r="DC2" s="251"/>
-      <c r="DD2" s="251"/>
-      <c r="DE2" s="251"/>
-      <c r="DF2" s="251"/>
-      <c r="DG2" s="251"/>
+      <c r="CV2" s="227"/>
+      <c r="CW2" s="227"/>
+      <c r="CX2" s="227"/>
+      <c r="CY2" s="227"/>
+      <c r="CZ2" s="227"/>
+      <c r="DA2" s="227"/>
+      <c r="DB2" s="227"/>
+      <c r="DC2" s="227"/>
+      <c r="DD2" s="227"/>
+      <c r="DE2" s="227"/>
+      <c r="DF2" s="227"/>
+      <c r="DG2" s="227"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="252"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="252"/>
-      <c r="Z3" s="252"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="252"/>
-      <c r="AD3" s="252"/>
-      <c r="AE3" s="252"/>
-      <c r="AF3" s="252"/>
-      <c r="AG3" s="252"/>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="252"/>
-      <c r="AJ3" s="252"/>
-      <c r="AK3" s="252"/>
-      <c r="AL3" s="252"/>
-      <c r="AM3" s="252"/>
-      <c r="AN3" s="252"/>
-      <c r="AO3" s="252"/>
-      <c r="AP3" s="252"/>
-      <c r="AQ3" s="252"/>
-      <c r="AR3" s="252"/>
-      <c r="AS3" s="252"/>
-      <c r="AT3" s="252"/>
-      <c r="AU3" s="252"/>
-      <c r="AV3" s="252"/>
-      <c r="AW3" s="252"/>
-      <c r="AX3" s="252"/>
-      <c r="AY3" s="252"/>
-      <c r="AZ3" s="252"/>
-      <c r="BA3" s="252"/>
-      <c r="BB3" s="252"/>
-      <c r="BC3" s="252"/>
-      <c r="BD3" s="252"/>
-      <c r="BE3" s="252"/>
-      <c r="BF3" s="252"/>
-      <c r="BG3" s="252"/>
-      <c r="BH3" s="252"/>
-      <c r="BI3" s="252"/>
-      <c r="BJ3" s="252"/>
-      <c r="BK3" s="252"/>
-      <c r="BL3" s="252"/>
-      <c r="BM3" s="252"/>
-      <c r="BN3" s="252"/>
-      <c r="BO3" s="252"/>
-      <c r="BP3" s="252"/>
-      <c r="BQ3" s="252"/>
-      <c r="BR3" s="252"/>
-      <c r="BS3" s="252"/>
-      <c r="BT3" s="252"/>
-      <c r="BU3" s="252"/>
-      <c r="BV3" s="252"/>
-      <c r="BW3" s="252"/>
-      <c r="BX3" s="252"/>
-      <c r="BY3" s="252"/>
-      <c r="BZ3" s="252"/>
-      <c r="CA3" s="252"/>
-      <c r="CB3" s="252"/>
-      <c r="CC3" s="252"/>
-      <c r="CD3" s="252"/>
-      <c r="CE3" s="252"/>
-      <c r="CF3" s="252"/>
-      <c r="CG3" s="252"/>
-      <c r="CH3" s="252"/>
-      <c r="CI3" s="252"/>
-      <c r="CJ3" s="252"/>
-      <c r="CK3" s="252"/>
-      <c r="CL3" s="252"/>
-      <c r="CM3" s="252"/>
-      <c r="CN3" s="252"/>
-      <c r="CO3" s="252"/>
-      <c r="CP3" s="252"/>
-      <c r="CQ3" s="252"/>
-      <c r="CR3" s="252"/>
-      <c r="CS3" s="252"/>
-      <c r="CT3" s="252"/>
-      <c r="CU3" s="252"/>
-      <c r="CV3" s="253" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="228"/>
+      <c r="AH3" s="228"/>
+      <c r="AI3" s="228"/>
+      <c r="AJ3" s="228"/>
+      <c r="AK3" s="228"/>
+      <c r="AL3" s="228"/>
+      <c r="AM3" s="228"/>
+      <c r="AN3" s="228"/>
+      <c r="AO3" s="228"/>
+      <c r="AP3" s="228"/>
+      <c r="AQ3" s="228"/>
+      <c r="AR3" s="228"/>
+      <c r="AS3" s="228"/>
+      <c r="AT3" s="228"/>
+      <c r="AU3" s="228"/>
+      <c r="AV3" s="228"/>
+      <c r="AW3" s="228"/>
+      <c r="AX3" s="228"/>
+      <c r="AY3" s="228"/>
+      <c r="AZ3" s="228"/>
+      <c r="BA3" s="228"/>
+      <c r="BB3" s="228"/>
+      <c r="BC3" s="228"/>
+      <c r="BD3" s="228"/>
+      <c r="BE3" s="228"/>
+      <c r="BF3" s="228"/>
+      <c r="BG3" s="228"/>
+      <c r="BH3" s="228"/>
+      <c r="BI3" s="228"/>
+      <c r="BJ3" s="228"/>
+      <c r="BK3" s="228"/>
+      <c r="BL3" s="228"/>
+      <c r="BM3" s="228"/>
+      <c r="BN3" s="228"/>
+      <c r="BO3" s="228"/>
+      <c r="BP3" s="228"/>
+      <c r="BQ3" s="228"/>
+      <c r="BR3" s="228"/>
+      <c r="BS3" s="228"/>
+      <c r="BT3" s="228"/>
+      <c r="BU3" s="228"/>
+      <c r="BV3" s="228"/>
+      <c r="BW3" s="228"/>
+      <c r="BX3" s="228"/>
+      <c r="BY3" s="228"/>
+      <c r="BZ3" s="228"/>
+      <c r="CA3" s="228"/>
+      <c r="CB3" s="228"/>
+      <c r="CC3" s="228"/>
+      <c r="CD3" s="228"/>
+      <c r="CE3" s="228"/>
+      <c r="CF3" s="228"/>
+      <c r="CG3" s="228"/>
+      <c r="CH3" s="228"/>
+      <c r="CI3" s="228"/>
+      <c r="CJ3" s="228"/>
+      <c r="CK3" s="228"/>
+      <c r="CL3" s="228"/>
+      <c r="CM3" s="228"/>
+      <c r="CN3" s="228"/>
+      <c r="CO3" s="228"/>
+      <c r="CP3" s="228"/>
+      <c r="CQ3" s="228"/>
+      <c r="CR3" s="228"/>
+      <c r="CS3" s="228"/>
+      <c r="CT3" s="228"/>
+      <c r="CU3" s="228"/>
+      <c r="CV3" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="253"/>
-      <c r="CX3" s="253"/>
-      <c r="CY3" s="253"/>
-      <c r="CZ3" s="253"/>
-      <c r="DA3" s="253"/>
-      <c r="DB3" s="253"/>
-      <c r="DC3" s="253"/>
-      <c r="DD3" s="253"/>
-      <c r="DE3" s="253"/>
-      <c r="DF3" s="253"/>
-      <c r="DG3" s="253"/>
+      <c r="CW3" s="229"/>
+      <c r="CX3" s="229"/>
+      <c r="CY3" s="229"/>
+      <c r="CZ3" s="229"/>
+      <c r="DA3" s="229"/>
+      <c r="DB3" s="229"/>
+      <c r="DC3" s="229"/>
+      <c r="DD3" s="229"/>
+      <c r="DE3" s="229"/>
+      <c r="DF3" s="229"/>
+      <c r="DG3" s="229"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="260"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="260"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="260"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="260"/>
-      <c r="AG4" s="260"/>
-      <c r="AH4" s="260"/>
-      <c r="AI4" s="260"/>
-      <c r="AJ4" s="260"/>
-      <c r="AK4" s="260"/>
-      <c r="AL4" s="260"/>
-      <c r="AM4" s="260"/>
-      <c r="AN4" s="260"/>
-      <c r="AO4" s="260"/>
-      <c r="AP4" s="260"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="260"/>
-      <c r="AV4" s="260"/>
-      <c r="AW4" s="260"/>
-      <c r="AX4" s="260"/>
-      <c r="AY4" s="260"/>
-      <c r="AZ4" s="260"/>
-      <c r="BA4" s="260"/>
-      <c r="BB4" s="260"/>
-      <c r="BC4" s="260"/>
-      <c r="BD4" s="260"/>
-      <c r="BE4" s="260"/>
-      <c r="BF4" s="260"/>
-      <c r="BG4" s="260"/>
-      <c r="BH4" s="260"/>
-      <c r="BI4" s="260"/>
-      <c r="BJ4" s="260"/>
-      <c r="BK4" s="260"/>
-      <c r="BL4" s="260"/>
-      <c r="BM4" s="260"/>
-      <c r="BN4" s="260"/>
-      <c r="BO4" s="260"/>
-      <c r="BP4" s="260"/>
-      <c r="BQ4" s="260"/>
-      <c r="BR4" s="260"/>
-      <c r="BS4" s="260"/>
-      <c r="BT4" s="260"/>
-      <c r="BU4" s="260"/>
-      <c r="BV4" s="260"/>
-      <c r="BW4" s="260"/>
-      <c r="BX4" s="260"/>
-      <c r="BY4" s="260"/>
-      <c r="BZ4" s="260"/>
-      <c r="CA4" s="260"/>
-      <c r="CB4" s="260"/>
-      <c r="CC4" s="260"/>
-      <c r="CD4" s="260"/>
-      <c r="CE4" s="260"/>
-      <c r="CF4" s="260"/>
-      <c r="CG4" s="260"/>
-      <c r="CH4" s="260"/>
-      <c r="CI4" s="260"/>
-      <c r="CJ4" s="260"/>
-      <c r="CK4" s="260"/>
-      <c r="CL4" s="260"/>
-      <c r="CM4" s="260"/>
-      <c r="CN4" s="260"/>
-      <c r="CO4" s="260"/>
-      <c r="CP4" s="260"/>
-      <c r="CQ4" s="260"/>
-      <c r="CR4" s="260"/>
-      <c r="CS4" s="260"/>
-      <c r="CT4" s="260"/>
-      <c r="CU4" s="260"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="242"/>
+      <c r="U4" s="242"/>
+      <c r="V4" s="242"/>
+      <c r="W4" s="242"/>
+      <c r="X4" s="242"/>
+      <c r="Y4" s="242"/>
+      <c r="Z4" s="242"/>
+      <c r="AA4" s="242"/>
+      <c r="AB4" s="242"/>
+      <c r="AC4" s="242"/>
+      <c r="AD4" s="242"/>
+      <c r="AE4" s="242"/>
+      <c r="AF4" s="242"/>
+      <c r="AG4" s="242"/>
+      <c r="AH4" s="242"/>
+      <c r="AI4" s="242"/>
+      <c r="AJ4" s="242"/>
+      <c r="AK4" s="242"/>
+      <c r="AL4" s="242"/>
+      <c r="AM4" s="242"/>
+      <c r="AN4" s="242"/>
+      <c r="AO4" s="242"/>
+      <c r="AP4" s="242"/>
+      <c r="AQ4" s="242"/>
+      <c r="AR4" s="242"/>
+      <c r="AS4" s="242"/>
+      <c r="AT4" s="242"/>
+      <c r="AU4" s="242"/>
+      <c r="AV4" s="242"/>
+      <c r="AW4" s="242"/>
+      <c r="AX4" s="242"/>
+      <c r="AY4" s="242"/>
+      <c r="AZ4" s="242"/>
+      <c r="BA4" s="242"/>
+      <c r="BB4" s="242"/>
+      <c r="BC4" s="242"/>
+      <c r="BD4" s="242"/>
+      <c r="BE4" s="242"/>
+      <c r="BF4" s="242"/>
+      <c r="BG4" s="242"/>
+      <c r="BH4" s="242"/>
+      <c r="BI4" s="242"/>
+      <c r="BJ4" s="242"/>
+      <c r="BK4" s="242"/>
+      <c r="BL4" s="242"/>
+      <c r="BM4" s="242"/>
+      <c r="BN4" s="242"/>
+      <c r="BO4" s="242"/>
+      <c r="BP4" s="242"/>
+      <c r="BQ4" s="242"/>
+      <c r="BR4" s="242"/>
+      <c r="BS4" s="242"/>
+      <c r="BT4" s="242"/>
+      <c r="BU4" s="242"/>
+      <c r="BV4" s="242"/>
+      <c r="BW4" s="242"/>
+      <c r="BX4" s="242"/>
+      <c r="BY4" s="242"/>
+      <c r="BZ4" s="242"/>
+      <c r="CA4" s="242"/>
+      <c r="CB4" s="242"/>
+      <c r="CC4" s="242"/>
+      <c r="CD4" s="242"/>
+      <c r="CE4" s="242"/>
+      <c r="CF4" s="242"/>
+      <c r="CG4" s="242"/>
+      <c r="CH4" s="242"/>
+      <c r="CI4" s="242"/>
+      <c r="CJ4" s="242"/>
+      <c r="CK4" s="242"/>
+      <c r="CL4" s="242"/>
+      <c r="CM4" s="242"/>
+      <c r="CN4" s="242"/>
+      <c r="CO4" s="242"/>
+      <c r="CP4" s="242"/>
+      <c r="CQ4" s="242"/>
+      <c r="CR4" s="242"/>
+      <c r="CS4" s="242"/>
+      <c r="CT4" s="242"/>
+      <c r="CU4" s="242"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -11861,288 +11749,288 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="261" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="264" t="s">
+      <c r="A6" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="267" t="s">
+      <c r="C6" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="247" t="s">
+      <c r="E6" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="270" t="s">
+      <c r="F6" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="240" t="s">
+      <c r="G6" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="240"/>
-      <c r="M6" s="240"/>
-      <c r="N6" s="240"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="240"/>
-      <c r="S6" s="240"/>
-      <c r="T6" s="240"/>
-      <c r="U6" s="240"/>
-      <c r="V6" s="240"/>
-      <c r="W6" s="240"/>
-      <c r="X6" s="240"/>
-      <c r="Y6" s="240"/>
-      <c r="Z6" s="240"/>
-      <c r="AA6" s="240"/>
-      <c r="AB6" s="240"/>
-      <c r="AC6" s="240"/>
-      <c r="AD6" s="240"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="240"/>
-      <c r="AG6" s="240"/>
-      <c r="AH6" s="240"/>
-      <c r="AI6" s="240"/>
-      <c r="AJ6" s="240"/>
-      <c r="AK6" s="240"/>
-      <c r="AL6" s="240"/>
-      <c r="AM6" s="240"/>
-      <c r="AN6" s="240"/>
-      <c r="AO6" s="240"/>
-      <c r="AP6" s="240"/>
-      <c r="AQ6" s="240"/>
-      <c r="AR6" s="240"/>
-      <c r="AS6" s="240"/>
-      <c r="AT6" s="240"/>
-      <c r="AU6" s="240"/>
-      <c r="AV6" s="240"/>
-      <c r="AW6" s="240"/>
-      <c r="AX6" s="240"/>
-      <c r="AY6" s="240"/>
-      <c r="AZ6" s="240"/>
-      <c r="BA6" s="240"/>
-      <c r="BB6" s="240"/>
-      <c r="BC6" s="240"/>
-      <c r="BD6" s="240"/>
-      <c r="BE6" s="240"/>
-      <c r="BF6" s="240"/>
-      <c r="BG6" s="240"/>
-      <c r="BH6" s="240"/>
-      <c r="BI6" s="240"/>
-      <c r="BJ6" s="240"/>
-      <c r="BK6" s="240"/>
-      <c r="BL6" s="240"/>
-      <c r="BM6" s="240"/>
-      <c r="BN6" s="240"/>
-      <c r="BO6" s="240"/>
-      <c r="BP6" s="240"/>
-      <c r="BQ6" s="240"/>
-      <c r="BR6" s="240"/>
-      <c r="BS6" s="240"/>
-      <c r="BT6" s="240"/>
-      <c r="BU6" s="240"/>
-      <c r="BV6" s="240"/>
-      <c r="BW6" s="240"/>
-      <c r="BX6" s="240"/>
-      <c r="BY6" s="240"/>
-      <c r="BZ6" s="240"/>
-      <c r="CA6" s="240"/>
-      <c r="CB6" s="240"/>
-      <c r="CC6" s="240"/>
-      <c r="CD6" s="240"/>
-      <c r="CE6" s="240"/>
-      <c r="CF6" s="240"/>
-      <c r="CG6" s="240"/>
-      <c r="CH6" s="240"/>
-      <c r="CI6" s="240"/>
-      <c r="CJ6" s="240"/>
-      <c r="CK6" s="240"/>
-      <c r="CL6" s="240"/>
-      <c r="CM6" s="240"/>
-      <c r="CN6" s="240"/>
-      <c r="CO6" s="240"/>
-      <c r="CP6" s="240"/>
-      <c r="CQ6" s="240"/>
-      <c r="CR6" s="240"/>
-      <c r="CS6" s="240"/>
-      <c r="CT6" s="240"/>
-      <c r="CU6" s="240"/>
-      <c r="CV6" s="254" t="s">
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="268"/>
+      <c r="N6" s="268"/>
+      <c r="O6" s="268"/>
+      <c r="P6" s="268"/>
+      <c r="Q6" s="268"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="268"/>
+      <c r="T6" s="268"/>
+      <c r="U6" s="268"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="268"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="268"/>
+      <c r="Z6" s="268"/>
+      <c r="AA6" s="268"/>
+      <c r="AB6" s="268"/>
+      <c r="AC6" s="268"/>
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="268"/>
+      <c r="AF6" s="268"/>
+      <c r="AG6" s="268"/>
+      <c r="AH6" s="268"/>
+      <c r="AI6" s="268"/>
+      <c r="AJ6" s="268"/>
+      <c r="AK6" s="268"/>
+      <c r="AL6" s="268"/>
+      <c r="AM6" s="268"/>
+      <c r="AN6" s="268"/>
+      <c r="AO6" s="268"/>
+      <c r="AP6" s="268"/>
+      <c r="AQ6" s="268"/>
+      <c r="AR6" s="268"/>
+      <c r="AS6" s="268"/>
+      <c r="AT6" s="268"/>
+      <c r="AU6" s="268"/>
+      <c r="AV6" s="268"/>
+      <c r="AW6" s="268"/>
+      <c r="AX6" s="268"/>
+      <c r="AY6" s="268"/>
+      <c r="AZ6" s="268"/>
+      <c r="BA6" s="268"/>
+      <c r="BB6" s="268"/>
+      <c r="BC6" s="268"/>
+      <c r="BD6" s="268"/>
+      <c r="BE6" s="268"/>
+      <c r="BF6" s="268"/>
+      <c r="BG6" s="268"/>
+      <c r="BH6" s="268"/>
+      <c r="BI6" s="268"/>
+      <c r="BJ6" s="268"/>
+      <c r="BK6" s="268"/>
+      <c r="BL6" s="268"/>
+      <c r="BM6" s="268"/>
+      <c r="BN6" s="268"/>
+      <c r="BO6" s="268"/>
+      <c r="BP6" s="268"/>
+      <c r="BQ6" s="268"/>
+      <c r="BR6" s="268"/>
+      <c r="BS6" s="268"/>
+      <c r="BT6" s="268"/>
+      <c r="BU6" s="268"/>
+      <c r="BV6" s="268"/>
+      <c r="BW6" s="268"/>
+      <c r="BX6" s="268"/>
+      <c r="BY6" s="268"/>
+      <c r="BZ6" s="268"/>
+      <c r="CA6" s="268"/>
+      <c r="CB6" s="268"/>
+      <c r="CC6" s="268"/>
+      <c r="CD6" s="268"/>
+      <c r="CE6" s="268"/>
+      <c r="CF6" s="268"/>
+      <c r="CG6" s="268"/>
+      <c r="CH6" s="268"/>
+      <c r="CI6" s="268"/>
+      <c r="CJ6" s="268"/>
+      <c r="CK6" s="268"/>
+      <c r="CL6" s="268"/>
+      <c r="CM6" s="268"/>
+      <c r="CN6" s="268"/>
+      <c r="CO6" s="268"/>
+      <c r="CP6" s="268"/>
+      <c r="CQ6" s="268"/>
+      <c r="CR6" s="268"/>
+      <c r="CS6" s="268"/>
+      <c r="CT6" s="268"/>
+      <c r="CU6" s="268"/>
+      <c r="CV6" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="255"/>
-      <c r="CX6" s="254" t="s">
+      <c r="CW6" s="231"/>
+      <c r="CX6" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="258"/>
-      <c r="CZ6" s="258"/>
-      <c r="DA6" s="258"/>
-      <c r="DB6" s="258"/>
-      <c r="DC6" s="258"/>
-      <c r="DD6" s="258"/>
-      <c r="DE6" s="258"/>
-      <c r="DF6" s="258"/>
-      <c r="DG6" s="258"/>
-      <c r="DH6" s="230" t="s">
+      <c r="CY6" s="234"/>
+      <c r="CZ6" s="234"/>
+      <c r="DA6" s="234"/>
+      <c r="DB6" s="234"/>
+      <c r="DC6" s="234"/>
+      <c r="DD6" s="234"/>
+      <c r="DE6" s="234"/>
+      <c r="DF6" s="234"/>
+      <c r="DG6" s="234"/>
+      <c r="DH6" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="233" t="s">
+      <c r="DI6" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="243" t="s">
+      <c r="DJ6" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="243"/>
-      <c r="DL6" s="243"/>
-      <c r="DM6" s="243"/>
-      <c r="DN6" s="243"/>
-      <c r="DO6" s="244"/>
+      <c r="DK6" s="219"/>
+      <c r="DL6" s="219"/>
+      <c r="DM6" s="219"/>
+      <c r="DN6" s="219"/>
+      <c r="DO6" s="220"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="262"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="241"/>
-      <c r="N7" s="241"/>
-      <c r="O7" s="241"/>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="241"/>
-      <c r="R7" s="241"/>
-      <c r="S7" s="241"/>
-      <c r="T7" s="241"/>
-      <c r="U7" s="241"/>
-      <c r="V7" s="241"/>
-      <c r="W7" s="241"/>
-      <c r="X7" s="241"/>
-      <c r="Y7" s="241"/>
-      <c r="Z7" s="241"/>
-      <c r="AA7" s="241"/>
-      <c r="AB7" s="241"/>
-      <c r="AC7" s="241"/>
-      <c r="AD7" s="241"/>
-      <c r="AE7" s="241"/>
-      <c r="AF7" s="241"/>
-      <c r="AG7" s="241"/>
-      <c r="AH7" s="241"/>
-      <c r="AI7" s="241"/>
-      <c r="AJ7" s="241"/>
-      <c r="AK7" s="241"/>
-      <c r="AL7" s="241"/>
-      <c r="AM7" s="241"/>
-      <c r="AN7" s="241"/>
-      <c r="AO7" s="241"/>
-      <c r="AP7" s="241"/>
-      <c r="AQ7" s="241"/>
-      <c r="AR7" s="241"/>
-      <c r="AS7" s="241"/>
-      <c r="AT7" s="241"/>
-      <c r="AU7" s="241"/>
-      <c r="AV7" s="241"/>
-      <c r="AW7" s="241"/>
-      <c r="AX7" s="241"/>
-      <c r="AY7" s="241"/>
-      <c r="AZ7" s="241"/>
-      <c r="BA7" s="241"/>
-      <c r="BB7" s="241"/>
-      <c r="BC7" s="241"/>
-      <c r="BD7" s="241"/>
-      <c r="BE7" s="241"/>
-      <c r="BF7" s="241"/>
-      <c r="BG7" s="241"/>
-      <c r="BH7" s="241"/>
-      <c r="BI7" s="241"/>
-      <c r="BJ7" s="241"/>
-      <c r="BK7" s="241"/>
-      <c r="BL7" s="241"/>
-      <c r="BM7" s="241"/>
-      <c r="BN7" s="241"/>
-      <c r="BO7" s="242"/>
-      <c r="BP7" s="242"/>
-      <c r="BQ7" s="242"/>
-      <c r="BR7" s="241"/>
-      <c r="BS7" s="241"/>
-      <c r="BT7" s="241"/>
-      <c r="BU7" s="241"/>
-      <c r="BV7" s="241"/>
-      <c r="BW7" s="241"/>
-      <c r="BX7" s="241"/>
-      <c r="BY7" s="241"/>
-      <c r="BZ7" s="241"/>
-      <c r="CA7" s="241"/>
-      <c r="CB7" s="241"/>
-      <c r="CC7" s="241"/>
-      <c r="CD7" s="241"/>
-      <c r="CE7" s="241"/>
-      <c r="CF7" s="241"/>
-      <c r="CG7" s="241"/>
-      <c r="CH7" s="241"/>
-      <c r="CI7" s="241"/>
-      <c r="CJ7" s="241"/>
-      <c r="CK7" s="241"/>
-      <c r="CL7" s="241"/>
-      <c r="CM7" s="241"/>
-      <c r="CN7" s="241"/>
-      <c r="CO7" s="241"/>
-      <c r="CP7" s="241"/>
-      <c r="CQ7" s="241"/>
-      <c r="CR7" s="241"/>
-      <c r="CS7" s="241"/>
-      <c r="CT7" s="241"/>
-      <c r="CU7" s="241"/>
-      <c r="CV7" s="256"/>
-      <c r="CW7" s="257"/>
-      <c r="CX7" s="256"/>
-      <c r="CY7" s="259"/>
-      <c r="CZ7" s="259"/>
-      <c r="DA7" s="259"/>
-      <c r="DB7" s="259"/>
-      <c r="DC7" s="259"/>
-      <c r="DD7" s="259"/>
-      <c r="DE7" s="259"/>
-      <c r="DF7" s="259"/>
-      <c r="DG7" s="259"/>
-      <c r="DH7" s="231"/>
-      <c r="DI7" s="234"/>
-      <c r="DJ7" s="245"/>
-      <c r="DK7" s="245"/>
-      <c r="DL7" s="245"/>
-      <c r="DM7" s="245"/>
-      <c r="DN7" s="245"/>
-      <c r="DO7" s="246"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="269"/>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="269"/>
+      <c r="Q7" s="269"/>
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="269"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="269"/>
+      <c r="AJ7" s="269"/>
+      <c r="AK7" s="269"/>
+      <c r="AL7" s="269"/>
+      <c r="AM7" s="269"/>
+      <c r="AN7" s="269"/>
+      <c r="AO7" s="269"/>
+      <c r="AP7" s="269"/>
+      <c r="AQ7" s="269"/>
+      <c r="AR7" s="269"/>
+      <c r="AS7" s="269"/>
+      <c r="AT7" s="269"/>
+      <c r="AU7" s="269"/>
+      <c r="AV7" s="269"/>
+      <c r="AW7" s="269"/>
+      <c r="AX7" s="269"/>
+      <c r="AY7" s="269"/>
+      <c r="AZ7" s="269"/>
+      <c r="BA7" s="269"/>
+      <c r="BB7" s="269"/>
+      <c r="BC7" s="269"/>
+      <c r="BD7" s="269"/>
+      <c r="BE7" s="269"/>
+      <c r="BF7" s="269"/>
+      <c r="BG7" s="269"/>
+      <c r="BH7" s="269"/>
+      <c r="BI7" s="269"/>
+      <c r="BJ7" s="269"/>
+      <c r="BK7" s="269"/>
+      <c r="BL7" s="269"/>
+      <c r="BM7" s="269"/>
+      <c r="BN7" s="269"/>
+      <c r="BO7" s="270"/>
+      <c r="BP7" s="270"/>
+      <c r="BQ7" s="270"/>
+      <c r="BR7" s="269"/>
+      <c r="BS7" s="269"/>
+      <c r="BT7" s="269"/>
+      <c r="BU7" s="269"/>
+      <c r="BV7" s="269"/>
+      <c r="BW7" s="269"/>
+      <c r="BX7" s="269"/>
+      <c r="BY7" s="269"/>
+      <c r="BZ7" s="269"/>
+      <c r="CA7" s="269"/>
+      <c r="CB7" s="269"/>
+      <c r="CC7" s="269"/>
+      <c r="CD7" s="269"/>
+      <c r="CE7" s="269"/>
+      <c r="CF7" s="269"/>
+      <c r="CG7" s="269"/>
+      <c r="CH7" s="269"/>
+      <c r="CI7" s="269"/>
+      <c r="CJ7" s="269"/>
+      <c r="CK7" s="269"/>
+      <c r="CL7" s="269"/>
+      <c r="CM7" s="269"/>
+      <c r="CN7" s="269"/>
+      <c r="CO7" s="269"/>
+      <c r="CP7" s="269"/>
+      <c r="CQ7" s="269"/>
+      <c r="CR7" s="269"/>
+      <c r="CS7" s="269"/>
+      <c r="CT7" s="269"/>
+      <c r="CU7" s="269"/>
+      <c r="CV7" s="232"/>
+      <c r="CW7" s="233"/>
+      <c r="CX7" s="232"/>
+      <c r="CY7" s="235"/>
+      <c r="CZ7" s="235"/>
+      <c r="DA7" s="235"/>
+      <c r="DB7" s="235"/>
+      <c r="DC7" s="235"/>
+      <c r="DD7" s="235"/>
+      <c r="DE7" s="235"/>
+      <c r="DF7" s="235"/>
+      <c r="DG7" s="235"/>
+      <c r="DH7" s="259"/>
+      <c r="DI7" s="262"/>
+      <c r="DJ7" s="221"/>
+      <c r="DK7" s="221"/>
+      <c r="DL7" s="221"/>
+      <c r="DM7" s="221"/>
+      <c r="DN7" s="221"/>
+      <c r="DO7" s="222"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="263"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="269"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="272"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="254"/>
       <c r="G8" s="278">
         <v>1</v>
       </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="220">
+      <c r="H8" s="237"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="255">
         <v>2</v>
       </c>
-      <c r="K8" s="221"/>
-      <c r="L8" s="222"/>
+      <c r="K8" s="240"/>
+      <c r="L8" s="256"/>
       <c r="M8" s="273">
         <v>3</v>
       </c>
@@ -12163,16 +12051,16 @@
       </c>
       <c r="W8" s="274"/>
       <c r="X8" s="275"/>
-      <c r="Y8" s="225">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="226"/>
-      <c r="AA8" s="228"/>
-      <c r="AB8" s="225">
+      <c r="Y8" s="236">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="237"/>
+      <c r="AA8" s="238"/>
+      <c r="AB8" s="236">
         <v>8</v>
       </c>
-      <c r="AC8" s="226"/>
-      <c r="AD8" s="228"/>
+      <c r="AC8" s="237"/>
+      <c r="AD8" s="238"/>
       <c r="AE8" s="273">
         <v>9</v>
       </c>
@@ -12198,16 +12086,16 @@
       </c>
       <c r="AR8" s="274"/>
       <c r="AS8" s="275"/>
-      <c r="AT8" s="239">
+      <c r="AT8" s="267">
         <v>14</v>
       </c>
-      <c r="AU8" s="226"/>
-      <c r="AV8" s="228"/>
-      <c r="AW8" s="225">
+      <c r="AU8" s="237"/>
+      <c r="AV8" s="238"/>
+      <c r="AW8" s="236">
         <v>15</v>
       </c>
-      <c r="AX8" s="226"/>
-      <c r="AY8" s="228"/>
+      <c r="AX8" s="237"/>
+      <c r="AY8" s="238"/>
       <c r="AZ8" s="273">
         <v>16</v>
       </c>
@@ -12233,16 +12121,16 @@
       </c>
       <c r="BM8" s="274"/>
       <c r="BN8" s="275"/>
-      <c r="BO8" s="225">
+      <c r="BO8" s="236">
         <v>21</v>
       </c>
-      <c r="BP8" s="226"/>
-      <c r="BQ8" s="228"/>
-      <c r="BR8" s="225">
+      <c r="BP8" s="237"/>
+      <c r="BQ8" s="238"/>
+      <c r="BR8" s="236">
         <v>22</v>
       </c>
-      <c r="BS8" s="226"/>
-      <c r="BT8" s="228"/>
+      <c r="BS8" s="237"/>
+      <c r="BT8" s="238"/>
       <c r="BU8" s="276">
         <v>23</v>
       </c>
@@ -12268,16 +12156,16 @@
       </c>
       <c r="CH8" s="274"/>
       <c r="CI8" s="277"/>
-      <c r="CJ8" s="225">
+      <c r="CJ8" s="236">
         <v>28</v>
       </c>
-      <c r="CK8" s="226"/>
-      <c r="CL8" s="228"/>
-      <c r="CM8" s="225">
+      <c r="CK8" s="237"/>
+      <c r="CL8" s="238"/>
+      <c r="CM8" s="236">
         <v>29</v>
       </c>
-      <c r="CN8" s="226"/>
-      <c r="CO8" s="228"/>
+      <c r="CN8" s="237"/>
+      <c r="CO8" s="238"/>
       <c r="CP8" s="273">
         <v>30</v>
       </c>
@@ -12322,8 +12210,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="232"/>
-      <c r="DI8" s="235"/>
+      <c r="DH8" s="260"/>
+      <c r="DI8" s="263"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -12807,10 +12695,14 @@
       </c>
       <c r="AY10" s="174"/>
       <c r="AZ10" s="175"/>
-      <c r="BA10" s="173"/>
+      <c r="BA10" s="173">
+        <v>8</v>
+      </c>
       <c r="BB10" s="174"/>
       <c r="BC10" s="175"/>
-      <c r="BD10" s="173"/>
+      <c r="BD10" s="173">
+        <v>8</v>
+      </c>
       <c r="BE10" s="174"/>
       <c r="BF10" s="175"/>
       <c r="BG10" s="173"/>
@@ -12856,7 +12748,7 @@
       <c r="CU10" s="174"/>
       <c r="CV10" s="177">
         <f t="shared" ref="CV10:CV23" si="0">IF(SUM(G10:I10)&gt;=1,1,0)+IF(SUM(J10:L10)&gt;=1,1,0)+IF(SUM(M10:O10)&gt;=1,1,0)+IF(SUM(P10:R10)&gt;=1,1,0)+IF(SUM(S10:U10)&gt;=1,1,0)+IF(SUM(V10:X10)&gt;=1,1,0)+IF(SUM(Y10:AA10)&gt;=1,1,0)+IF(SUM(AB10:AD10)&gt;=1,1,0)+IF(SUM(AE10:AG10)&gt;=1,1,0)+IF(SUM(AH10:AJ10)&gt;=1,1,0)+IF(SUM(AK10:AM10)&gt;=1,1,0)+IF(SUM(AN10:AP10)&gt;=1,1,0)+IF(SUM(AQ10:AS10)&gt;=1,1,0)+IF(SUM(AT10:AV10)&gt;=1,1,0)+IF(SUM(AW10:AY10)&gt;=1,1,0)+IF(SUM(AZ10:BB10)&gt;=1,1,0)+IF(SUM(BC10:BE10)&gt;=1,1,0)+IF(SUM(BF10:BH10)&gt;=1,1,0)+IF(SUM(BI10:BK10)&gt;=1,1,0)+IF(SUM(BL10:BN10)&gt;=1,1,0)+IF(SUM(BO10:BQ10)&gt;=1,1,0)+IF(SUM(BR10:BT10)&gt;=1,1,0)+IF(SUM(BU10:BW10)&gt;=1,1,0)+IF(SUM(BX10:BZ10)&gt;=1,1,0)+IF(SUM(CA10:CC10)&gt;=1,1,0)+IF(SUM(CD10:CF10)&gt;=1,1,0)+IF(SUM(CG10:CI10)&gt;=1,1,0)+IF(SUM(CJ10:CL10)&gt;=1,1,0)+IF(SUM(CM10:CO10)&gt;=1,1,0)+IF(SUM(CP10:CR10)&gt;=1,1,0)+IF(SUM(CS10:CU10)&gt;=1,1,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CW10" s="178">
         <f t="shared" ref="CW10:CW23" si="1">IF(CK10="К",1,0)+IF(CN10="К",1,0)+IF(CQ10="К",1,0)+IF(CT10="К",1,0)+IF(CH10="К",1,0)+IF(H10="К",1,0)+IF(K10="К",1,0)+IF(N10="К",1,0)+IF(Q10="К",1,0)+IF(T10="К",1,0)+IF(W10="К",1,0)+IF(Z10="К",1,0)+IF(AC10="К",1,0)+IF(AF10="К",1,0)+IF(AI10="К",1,0)+IF(AL10="К",1,0)+IF(AO10="К",1,0)+IF(AR10="К",1,0)+IF(AU10="К",1,0)+IF(AX10="К",1,0)+IF(BA10="К",1,0)+IF(BD10="К",1,0)+IF(BG10="К",1,0)+IF(BJ10="К",1,0)+IF(BM10="К",1,0)+IF(BP10="К",1,0)+IF(BS10="К",1,0)+IF(BV10="К",1,0)+IF(BY10="К",1,0)+IF(CB10="К",1,0)+IF(CE10="К",1,0)</f>
@@ -12908,11 +12800,11 @@
       </c>
       <c r="DI10" s="178">
         <f t="shared" ref="DI10:DI22" si="13">SUM(CV10:DH10)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="DJ10" s="170">
         <f>SUM(G10:CU10)</f>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="DK10" s="170">
         <v>0</v>
@@ -12936,7 +12828,7 @@
       </c>
       <c r="DS10" s="32">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DT10" s="32">
         <f t="shared" si="16"/>
@@ -13066,11 +12958,19 @@
       <c r="AS11" s="183"/>
       <c r="AT11" s="187"/>
       <c r="AU11" s="182"/>
-      <c r="AV11" s="183"/>
-      <c r="AW11" s="187"/>
+      <c r="AV11" s="183">
+        <v>4</v>
+      </c>
+      <c r="AW11" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AX11" s="182"/>
-      <c r="AY11" s="183"/>
-      <c r="AZ11" s="187"/>
+      <c r="AY11" s="183">
+        <v>4</v>
+      </c>
+      <c r="AZ11" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BA11" s="182"/>
       <c r="BB11" s="183"/>
       <c r="BC11" s="187"/>
@@ -13120,7 +13020,7 @@
       <c r="CU11" s="183"/>
       <c r="CV11" s="188">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CW11" s="189">
         <f t="shared" si="1"/>
@@ -13172,11 +13072,11 @@
       </c>
       <c r="DI11" s="189">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="DJ11" s="190">
         <f t="shared" ref="DJ11:DJ23" si="24">SUM(G11:CU11)</f>
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="DK11" s="190">
         <v>0</v>
@@ -13185,14 +13085,14 @@
       <c r="DM11" s="190"/>
       <c r="DN11" s="191">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="DO11" s="171">
         <v>0</v>
       </c>
       <c r="DQ11" s="32">
         <f>IF(I11=4,1,0)+IF(U11=4,1,0)+IF(X11=4,1,0)+IF(AA11=4,1,0)+IF(AD11=4,1,0)+IF(AG11=4,1,0)+IF(AJ11=4,1,0)+IF(AM11=4,1,0)+IF(AP11=4,1,0)+IF(AS11=4,1,0)+IF(AV11=4,1,0)+IF(AY11=4,1,0)+IF(BB11=4,1,0)+IF(BE11=4,1,0)+IF(BH11=4,1,0)+IF(BK11=4,1,0)+IF(BN11=4,1,0)+IF(BQ11=4,1,0)+IF(BT11=4,1,0)+IF(BW11=4,1,0)+IF(BZ11=4,1,0)+IF(CC11=4,1,0)+IF(CF11=4,1,0)+IF(CI11=4,1,0)+IF(CL11=4,1,0)+IF(CO11=4,1,0)+IF(CR11=4,1,0)+IF(CU11=4,1,0)+IF(L11=4,1,0)+IF(O11=4,1,0)+IF(R11=4,1,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DR11" s="32">
         <f t="shared" si="16"/>
@@ -13240,15 +13140,15 @@
       </c>
       <c r="EC11" s="32">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EE11" s="152">
         <f>COUNTIF(G11:CU11, "4")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EF11" s="152">
         <f>COUNTIF(G11:CU11, "7,25")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:136" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13339,10 +13239,14 @@
       </c>
       <c r="AS12" s="205"/>
       <c r="AT12" s="206"/>
-      <c r="AU12" s="204"/>
+      <c r="AU12" s="204">
+        <v>11.25</v>
+      </c>
       <c r="AV12" s="205"/>
       <c r="AW12" s="206"/>
-      <c r="AX12" s="204"/>
+      <c r="AX12" s="204">
+        <v>11.25</v>
+      </c>
       <c r="AY12" s="205"/>
       <c r="AZ12" s="206"/>
       <c r="BA12" s="204"/>
@@ -13394,7 +13298,7 @@
       <c r="CU12" s="205"/>
       <c r="CV12" s="209">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CW12" s="210">
         <f t="shared" si="1"/>
@@ -13446,11 +13350,11 @@
       </c>
       <c r="DI12" s="210">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DJ12" s="212">
         <f t="shared" si="24"/>
-        <v>63.5</v>
+        <v>86</v>
       </c>
       <c r="DK12" s="213">
         <v>0</v>
@@ -13510,7 +13414,7 @@
       </c>
       <c r="EB12" s="32">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EC12" s="32">
         <f t="shared" si="23"/>
@@ -13613,10 +13517,14 @@
       </c>
       <c r="AS13" s="205"/>
       <c r="AT13" s="206"/>
-      <c r="AU13" s="204"/>
+      <c r="AU13" s="204">
+        <v>11.25</v>
+      </c>
       <c r="AV13" s="205"/>
       <c r="AW13" s="206"/>
-      <c r="AX13" s="204"/>
+      <c r="AX13" s="204">
+        <v>11.25</v>
+      </c>
       <c r="AY13" s="205"/>
       <c r="AZ13" s="206"/>
       <c r="BA13" s="204"/>
@@ -13668,7 +13576,7 @@
       <c r="CU13" s="205"/>
       <c r="CV13" s="216">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CW13" s="210">
         <f>IF(CK13="К",1,0)+IF(CN13="К",1,0)+IF(CQ13="К",1,0)+IF(CT13="К",1,0)+IF(CH13="К",1,0)+IF(H13="К",1,0)+IF(K13="К",1,0)+IF(N13="К",1,0)+IF(Q13="К",1,0)+IF(T13="К",1,0)+IF(W13="К",1,0)+IF(Z13="К",1,0)+IF(AC13="К",1,0)+IF(AF13="К",1,0)+IF(AI13="К",1,0)+IF(AL13="К",1,0)+IF(AO13="К",1,0)+IF(AR13="К",1,0)+IF(AU13="К",1,0)+IF(AX13="К",1,0)+IF(BA13="К",1,0)+IF(BD13="К",1,0)+IF(BG13="К",1,0)+IF(BJ13="К",1,0)+IF(BM13="К",1,0)+IF(BP13="К",1,0)+IF(BS13="К",1,0)+IF(BV13="К",1,0)+IF(BY13="К",1,0)+IF(CB13="К",1,0)+IF(CE13="К",1,0)</f>
@@ -13720,11 +13628,11 @@
       </c>
       <c r="DI13" s="210">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DJ13" s="212">
         <f t="shared" si="24"/>
-        <v>63.5</v>
+        <v>86</v>
       </c>
       <c r="DK13" s="217">
         <v>0</v>
@@ -13784,7 +13692,7 @@
       </c>
       <c r="EB13" s="32">
         <f>IF(Q13=11.25,1,0)+IF(T13=11.25,1,0)+IF(W13=11.25,1,0)+IF(Z13=11.25,1,0)+IF(AC13=11.25,1,0)+IF(AF13=11.25,1,0)+IF(AI13=11.25,1,0)+IF(AL13=11.25,1,0)+IF(AO13=11.25,1,0)+IF(AR13=11.25,1,0)+IF(AU13=11.25,1,0)+IF(AX13=11.25,1,0)+IF(BA13=11.25,1,0)+IF(BD13=11.25,1,0)+IF(BG13=11.25,1,0)+IF(BJ13=11.25,1,0)+IF(BM13=11.25,1,0)+IF(BP13=11.25,1,0)+IF(BS13=11.25,1,0)+IF(BV13=11.25,1,0)+IF(BY13=11.25,1,0)+IF(CB13=11.25,1,0)+IF(CE13=11.25,1,0)+IF(CH13=11.25,1,0)+IF(CK13=11.25,1,0)+IF(CN13=11.25,1,0)+IF(CQ13=11.25,1,0)+IF(CT13=11.25,1,0)+IF(H13=11.25,1,0)+IF(K13=11.25,1,0)+IF(N13=11.25,1,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EC13" s="32">
         <f>IF(S13=7.25,1,0)+IF(V13=7.25,1,0)+IF(Y13=7.25,1,0)+IF(AB13=7.25,1,0)+IF(AE13=7.25,1,0)+IF(AH13=7.25,1,0)+IF(AK13=7.25,1,0)+IF(AN13=7.25,1,0)+IF(AQ13=7.25,1,0)+IF(AT13=7.25,1,0)+IF(AW13=7.25,1,0)+IF(AZ13=7.25,1,0)+IF(BC13=7.25,1,0)+IF(BF13=7.25,1,0)+IF(BI13=7.25,1,0)+IF(BL13=7.25,1,0)+IF(BO13=7.25,1,0)+IF(BR13=7.25,1,0)+IF(BU13=7.25,1,0)+IF(BX13=7.25,1,0)+IF(CA13=7.25,1,0)+IF(CD13=7.25,1,0)+IF(CG13=7.25,1,0)+IF(CJ13=7.25,1,0)+IF(CM13=7.25,1,0)+IF(CP13=7.25,1,0)+IF(CS13=7.25,1,0)+IF(G13=7.25,1,0)+IF(J13=7.25,1,0)+IF(M13=7.25,1,0)+IF(P13=7.25,1,0)</f>
@@ -13884,11 +13792,19 @@
       <c r="AS14" s="183"/>
       <c r="AT14" s="187"/>
       <c r="AU14" s="182"/>
-      <c r="AV14" s="183"/>
-      <c r="AW14" s="187"/>
+      <c r="AV14" s="183">
+        <v>4</v>
+      </c>
+      <c r="AW14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AX14" s="182"/>
-      <c r="AY14" s="183"/>
-      <c r="AZ14" s="187"/>
+      <c r="AY14" s="183">
+        <v>4</v>
+      </c>
+      <c r="AZ14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BA14" s="182"/>
       <c r="BB14" s="183"/>
       <c r="BC14" s="187"/>
@@ -13938,7 +13854,7 @@
       <c r="CU14" s="183"/>
       <c r="CV14" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW14" s="79">
         <f t="shared" si="1"/>
@@ -13990,11 +13906,11 @@
       </c>
       <c r="DI14" s="80">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="DJ14" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="DK14" s="69">
         <v>0</v>
@@ -14003,14 +13919,14 @@
       <c r="DM14" s="75"/>
       <c r="DN14" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DO14" s="72">
         <v>0</v>
       </c>
       <c r="DQ14" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DR14" s="32">
         <f t="shared" si="16"/>
@@ -14058,15 +13974,15 @@
       </c>
       <c r="EC14" s="32">
         <f>IF(S14=7.25,1,0)+IF(V14=7.25,1,0)+IF(Y14=7.25,1,0)+IF(AB14=7.25,1,0)+IF(AE14=7.25,1,0)+IF(AH14=7.25,1,0)+IF(AK14=7.25,1,0)+IF(AN14=7.25,1,0)+IF(AQ14=7.25,1,0)+IF(AT14=7.25,1,0)+IF(AW14=7.25,1,0)+IF(AZ14=7.25,1,0)+IF(BC14=7.25,1,0)+IF(BF14=7.25,1,0)+IF(BI14=7.25,1,0)+IF(BL14=7.25,1,0)+IF(BO14=7.25,1,0)+IF(BR14=7.25,1,0)+IF(BU14=7.25,1,0)+IF(BX14=7.25,1,0)+IF(CA14=7.25,1,0)+IF(CD14=7.25,1,0)+IF(CG14=7.25,1,0)+IF(CJ14=7.25,1,0)+IF(CM14=7.25,1,0)+IF(CP14=7.25,1,0)+IF(CS14=7.25,1,0)+IF(G14=7.25,1,0)+IF(J14=7.25,1,0)+IF(M14=7.25,1,0)+IF(P14=7.25,1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE14" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EF14" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14437,13 +14353,19 @@
       </c>
       <c r="AS16" s="183"/>
       <c r="AT16" s="184"/>
-      <c r="AU16" s="185"/>
+      <c r="AU16" s="185" t="s">
+        <v>79</v>
+      </c>
       <c r="AV16" s="186"/>
       <c r="AW16" s="187"/>
-      <c r="AX16" s="185"/>
+      <c r="AX16" s="185" t="s">
+        <v>79</v>
+      </c>
       <c r="AY16" s="183"/>
       <c r="AZ16" s="187"/>
-      <c r="BA16" s="182"/>
+      <c r="BA16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BB16" s="183"/>
       <c r="BC16" s="187"/>
       <c r="BD16" s="182"/>
@@ -14492,7 +14414,7 @@
       <c r="CU16" s="183"/>
       <c r="CV16" s="168">
         <f>IF(SUM(G16:I16)&gt;=1,1,0)+IF(SUM(J16:L16)&gt;=1,1,0)+IF(SUM(M16:O16)&gt;=1,1,0)+IF(SUM(P16:R16)&gt;=1,1,0)+IF(SUM(S16:U16)&gt;=1,1,0)+IF(SUM(V16:X16)&gt;=1,1,0)+IF(SUM(Y16:AA16)&gt;=1,1,0)+IF(SUM(AB16:AD16)&gt;=1,1,0)+IF(SUM(AE16:AG16)&gt;=1,1,0)+IF(SUM(AH16:AJ16)&gt;=1,1,0)+IF(SUM(AK16:AM16)&gt;=1,1,0)+IF(SUM(AN16:AP16)&gt;=1,1,0)+IF(SUM(AQ16:AS16)&gt;=1,1,0)+IF(SUM(AT16:AV16)&gt;=1,1,0)+IF(SUM(AW16:AY16)&gt;=1,1,0)+IF(SUM(AZ16:BB16)&gt;=1,1,0)+IF(SUM(BC16:BE16)&gt;=1,1,0)+IF(SUM(BF16:BH16)&gt;=1,1,0)+IF(SUM(BI16:BK16)&gt;=1,1,0)+IF(SUM(BL16:BN16)&gt;=1,1,0)+IF(SUM(BO16:BQ16)&gt;=1,1,0)+IF(SUM(BR16:BT16)&gt;=1,1,0)+IF(SUM(BU16:BW16)&gt;=1,1,0)+IF(SUM(BX16:BZ16)&gt;=1,1,0)+IF(SUM(CA16:CC16)&gt;=1,1,0)+IF(SUM(CD16:CF16)&gt;=1,1,0)+IF(SUM(CG16:CI16)&gt;=1,1,0)+IF(SUM(CJ16:CL16)&gt;=1,1,0)+IF(SUM(CM16:CO16)&gt;=1,1,0)+IF(SUM(CP16:CR16)&gt;=1,1,0)+IF(SUM(CS16:CU16)&gt;=1,1,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW16" s="79">
         <f t="shared" si="1"/>
@@ -14540,15 +14462,15 @@
       </c>
       <c r="DH16" s="80">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DI16" s="80">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="DJ16" s="70">
         <f t="shared" si="24"/>
-        <v>78.75</v>
+        <v>90</v>
       </c>
       <c r="DK16" s="69">
         <v>0</v>
@@ -14608,7 +14530,7 @@
       </c>
       <c r="EB16" s="32">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="EC16" s="32">
         <f t="shared" si="23"/>
@@ -15558,10 +15480,14 @@
       </c>
       <c r="AV20" s="183"/>
       <c r="AW20" s="187"/>
-      <c r="AX20" s="182"/>
+      <c r="AX20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AY20" s="183"/>
       <c r="AZ20" s="187"/>
-      <c r="BA20" s="182"/>
+      <c r="BA20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BB20" s="183"/>
       <c r="BC20" s="187"/>
       <c r="BD20" s="182"/>
@@ -15610,7 +15536,7 @@
       <c r="CU20" s="183"/>
       <c r="CV20" s="168">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CW20" s="79">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
@@ -15662,11 +15588,11 @@
       </c>
       <c r="DI20" s="80">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DJ20" s="70">
         <f t="shared" si="24"/>
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="DK20" s="69">
         <v>0</v>
@@ -15726,7 +15652,7 @@
       </c>
       <c r="EB20" s="32">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EC20" s="32">
         <f t="shared" si="23"/>
@@ -16111,7 +16037,9 @@
       </c>
       <c r="AY22" s="183"/>
       <c r="AZ22" s="187"/>
-      <c r="BA22" s="182"/>
+      <c r="BA22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BB22" s="183"/>
       <c r="BC22" s="187"/>
       <c r="BD22" s="182"/>
@@ -16160,7 +16088,7 @@
       <c r="CU22" s="183"/>
       <c r="CV22" s="168">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW22" s="79">
         <f t="shared" si="1"/>
@@ -16212,11 +16140,11 @@
       </c>
       <c r="DI22" s="80">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DJ22" s="70">
         <f t="shared" si="24"/>
-        <v>78.75</v>
+        <v>90</v>
       </c>
       <c r="DK22" s="69">
         <v>0</v>
@@ -16276,7 +16204,7 @@
       </c>
       <c r="EB22" s="32">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="EC22" s="32">
         <f t="shared" si="23"/>
@@ -16375,16 +16303,24 @@
       </c>
       <c r="AS23" s="183"/>
       <c r="AT23" s="187"/>
-      <c r="AU23" s="182"/>
+      <c r="AU23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AV23" s="183"/>
       <c r="AW23" s="187"/>
-      <c r="AX23" s="182"/>
+      <c r="AX23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AY23" s="183"/>
       <c r="AZ23" s="187"/>
-      <c r="BA23" s="182"/>
+      <c r="BA23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BB23" s="183"/>
       <c r="BC23" s="187"/>
-      <c r="BD23" s="182"/>
+      <c r="BD23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BE23" s="183"/>
       <c r="BF23" s="187"/>
       <c r="BG23" s="182"/>
@@ -16430,7 +16366,7 @@
       <c r="CU23" s="183"/>
       <c r="CV23" s="168">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CW23" s="79">
         <f t="shared" si="1"/>
@@ -16478,15 +16414,15 @@
       </c>
       <c r="DH23" s="80">
         <f>IF(CQ23="В",1,0)+IF(CT23="В",1,0)+IF(H23="В",1,0)+IF(K23="В",1,0)+IF(N23="В",1,0)+IF(Q23="В",1,0)+IF(T23="В",1,0)+IF(W23="В",1,0)+IF(Z23="В",1,0)+IF(AC23="В",1,0)+IF(AF23="В",1,0)+IF(AI23="В",1,0)+IF(AL23="В",1,0)+IF(AO23="В",1,0)+IF(AR23="В",1,0)+IF(AU23="В",1,0)+IF(AX23="В",1,0)+IF(BA23="В",1,0)+IF(BD23="В",1,0)+IF(BG23="В",1,0)+IF(BJ23="В",1,0)+IF(BM23="В",1,0)+IF(BP23="В",1,0)+IF(BS23="В",1,0)+IF(BV23="В",1,0)+IF(BY23="В",1,0)+IF(CB23="В",1,0)+IF(CE23="В",1,0)+IF(CH23="В",1,0)+IF(CK23="В",1,0)+IF(CN23="В",1,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="DI23" s="80">
         <f>SUM(CV23:DH23)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="DJ23" s="70">
         <f t="shared" si="24"/>
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="DK23" s="70">
         <v>8</v>
@@ -16546,7 +16482,7 @@
       </c>
       <c r="EB23" s="32">
         <f>IF(Q23=11.25,1,0)+IF(T23=11.25,1,0)+IF(W23=11.25,1,0)+IF(Z23=11.25,1,0)+IF(AC23=11.25,1,0)+IF(AF23=11.25,1,0)+IF(AI23=11.25,1,0)+IF(AL23=11.25,1,0)+IF(AO23=11.25,1,0)+IF(AR23=11.25,1,0)+IF(AU23=11.25,1,0)+IF(AX23=11.25,1,0)+IF(BA23=11.25,1,0)+IF(BD23=11.25,1,0)+IF(BG23=11.25,1,0)+IF(BJ23=11.25,1,0)+IF(BM23=11.25,1,0)+IF(BP23=11.25,1,0)+IF(BS23=11.25,1,0)+IF(BV23=11.25,1,0)+IF(BY23=11.25,1,0)+IF(CB23=11.25,1,0)+IF(CE23=11.25,1,0)+IF(CH23=11.25,1,0)+IF(CK23=11.25,1,0)+IF(CN23=11.25,1,0)+IF(CQ23=11.25,1,0)+IF(CT23=11.25,1,0)+IF(H23=11.25,1,0)+IF(K23=11.25,1,0)+IF(N23=11.25,1,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EC23" s="32">
         <f t="shared" si="23"/>
@@ -16663,7 +16599,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -16711,15 +16647,15 @@
       </c>
       <c r="DH24" s="81">
         <f t="shared" si="28"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>938.25</v>
+        <v>1111.75</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -16735,7 +16671,7 @@
       </c>
       <c r="DN24" s="77">
         <f t="shared" si="28"/>
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="DO24" s="77">
         <f t="shared" si="28"/>
@@ -17194,45 +17130,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="219"/>
-      <c r="O31" s="219"/>
-      <c r="P31" s="219"/>
-      <c r="Q31" s="219"/>
-      <c r="R31" s="219"/>
-      <c r="S31" s="219"/>
-      <c r="T31" s="219"/>
-      <c r="U31" s="219"/>
-      <c r="V31" s="219"/>
-      <c r="W31" s="219"/>
-      <c r="X31" s="219"/>
-      <c r="Y31" s="219"/>
-      <c r="Z31" s="219"/>
-      <c r="AA31" s="219"/>
-      <c r="AB31" s="219"/>
-      <c r="AC31" s="219"/>
-      <c r="AD31" s="219"/>
-      <c r="AE31" s="219"/>
-      <c r="AF31" s="219"/>
-      <c r="AG31" s="219"/>
-      <c r="AH31" s="219"/>
-      <c r="AI31" s="219"/>
-      <c r="AJ31" s="219"/>
-      <c r="AK31" s="219"/>
-      <c r="AL31" s="219"/>
-      <c r="AM31" s="219"/>
-      <c r="AN31" s="219"/>
-      <c r="AO31" s="219"/>
-      <c r="AP31" s="219"/>
-      <c r="AQ31" s="219"/>
-      <c r="AR31" s="219"/>
-      <c r="AS31" s="219"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="271"/>
+      <c r="I31" s="271"/>
+      <c r="J31" s="271"/>
+      <c r="K31" s="271"/>
+      <c r="L31" s="271"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="271"/>
+      <c r="O31" s="271"/>
+      <c r="P31" s="271"/>
+      <c r="Q31" s="271"/>
+      <c r="R31" s="271"/>
+      <c r="S31" s="271"/>
+      <c r="T31" s="271"/>
+      <c r="U31" s="271"/>
+      <c r="V31" s="271"/>
+      <c r="W31" s="271"/>
+      <c r="X31" s="271"/>
+      <c r="Y31" s="271"/>
+      <c r="Z31" s="271"/>
+      <c r="AA31" s="271"/>
+      <c r="AB31" s="271"/>
+      <c r="AC31" s="271"/>
+      <c r="AD31" s="271"/>
+      <c r="AE31" s="271"/>
+      <c r="AF31" s="271"/>
+      <c r="AG31" s="271"/>
+      <c r="AH31" s="271"/>
+      <c r="AI31" s="271"/>
+      <c r="AJ31" s="271"/>
+      <c r="AK31" s="271"/>
+      <c r="AL31" s="271"/>
+      <c r="AM31" s="271"/>
+      <c r="AN31" s="271"/>
+      <c r="AO31" s="271"/>
+      <c r="AP31" s="271"/>
+      <c r="AQ31" s="271"/>
+      <c r="AR31" s="271"/>
+      <c r="AS31" s="271"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -17537,45 +17473,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="219"/>
-      <c r="M35" s="219"/>
-      <c r="N35" s="219"/>
-      <c r="O35" s="219"/>
-      <c r="P35" s="219"/>
-      <c r="Q35" s="219"/>
-      <c r="R35" s="219"/>
-      <c r="S35" s="219"/>
-      <c r="T35" s="219"/>
-      <c r="U35" s="219"/>
-      <c r="V35" s="219"/>
-      <c r="W35" s="219"/>
-      <c r="X35" s="219"/>
-      <c r="Y35" s="219"/>
-      <c r="Z35" s="219"/>
-      <c r="AA35" s="219"/>
-      <c r="AB35" s="219"/>
-      <c r="AC35" s="219"/>
-      <c r="AD35" s="219"/>
-      <c r="AE35" s="219"/>
-      <c r="AF35" s="219"/>
-      <c r="AG35" s="219"/>
-      <c r="AH35" s="219"/>
-      <c r="AI35" s="219"/>
-      <c r="AJ35" s="219"/>
-      <c r="AK35" s="219"/>
-      <c r="AL35" s="219"/>
-      <c r="AM35" s="219"/>
-      <c r="AN35" s="219"/>
-      <c r="AO35" s="219"/>
-      <c r="AP35" s="219"/>
-      <c r="AQ35" s="219"/>
-      <c r="AR35" s="219"/>
-      <c r="AS35" s="219"/>
+      <c r="G35" s="271"/>
+      <c r="H35" s="271"/>
+      <c r="I35" s="271"/>
+      <c r="J35" s="271"/>
+      <c r="K35" s="271"/>
+      <c r="L35" s="271"/>
+      <c r="M35" s="271"/>
+      <c r="N35" s="271"/>
+      <c r="O35" s="271"/>
+      <c r="P35" s="271"/>
+      <c r="Q35" s="271"/>
+      <c r="R35" s="271"/>
+      <c r="S35" s="271"/>
+      <c r="T35" s="271"/>
+      <c r="U35" s="271"/>
+      <c r="V35" s="271"/>
+      <c r="W35" s="271"/>
+      <c r="X35" s="271"/>
+      <c r="Y35" s="271"/>
+      <c r="Z35" s="271"/>
+      <c r="AA35" s="271"/>
+      <c r="AB35" s="271"/>
+      <c r="AC35" s="271"/>
+      <c r="AD35" s="271"/>
+      <c r="AE35" s="271"/>
+      <c r="AF35" s="271"/>
+      <c r="AG35" s="271"/>
+      <c r="AH35" s="271"/>
+      <c r="AI35" s="271"/>
+      <c r="AJ35" s="271"/>
+      <c r="AK35" s="271"/>
+      <c r="AL35" s="271"/>
+      <c r="AM35" s="271"/>
+      <c r="AN35" s="271"/>
+      <c r="AO35" s="271"/>
+      <c r="AP35" s="271"/>
+      <c r="AQ35" s="271"/>
+      <c r="AR35" s="271"/>
+      <c r="AS35" s="271"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -19733,17 +19669,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -19760,35 +19708,23 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="81">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1758,78 +1758,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1881,6 +1809,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1920,6 +1866,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1954,21 +1954,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -1980,20 +1966,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2050,6 +2022,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2540,21 +2582,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="251" t="s">
+      <c r="CU1" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="251"/>
-      <c r="CW1" s="251"/>
-      <c r="CX1" s="251"/>
-      <c r="CY1" s="251"/>
-      <c r="CZ1" s="251"/>
-      <c r="DA1" s="251"/>
-      <c r="DB1" s="251"/>
-      <c r="DC1" s="251"/>
-      <c r="DD1" s="251"/>
-      <c r="DE1" s="251"/>
-      <c r="DF1" s="251"/>
-      <c r="DG1" s="251"/>
+      <c r="CV1" s="227"/>
+      <c r="CW1" s="227"/>
+      <c r="CX1" s="227"/>
+      <c r="CY1" s="227"/>
+      <c r="CZ1" s="227"/>
+      <c r="DA1" s="227"/>
+      <c r="DB1" s="227"/>
+      <c r="DC1" s="227"/>
+      <c r="DD1" s="227"/>
+      <c r="DE1" s="227"/>
+      <c r="DF1" s="227"/>
+      <c r="DG1" s="227"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -2655,241 +2697,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="252" t="s">
+      <c r="CU2" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="252"/>
-      <c r="CW2" s="252"/>
-      <c r="CX2" s="252"/>
-      <c r="CY2" s="252"/>
-      <c r="CZ2" s="252"/>
-      <c r="DA2" s="252"/>
-      <c r="DB2" s="252"/>
-      <c r="DC2" s="252"/>
-      <c r="DD2" s="252"/>
-      <c r="DE2" s="252"/>
-      <c r="DF2" s="252"/>
-      <c r="DG2" s="252"/>
+      <c r="CV2" s="228"/>
+      <c r="CW2" s="228"/>
+      <c r="CX2" s="228"/>
+      <c r="CY2" s="228"/>
+      <c r="CZ2" s="228"/>
+      <c r="DA2" s="228"/>
+      <c r="DB2" s="228"/>
+      <c r="DC2" s="228"/>
+      <c r="DD2" s="228"/>
+      <c r="DE2" s="228"/>
+      <c r="DF2" s="228"/>
+      <c r="DG2" s="228"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="253"/>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="253"/>
-      <c r="AG3" s="253"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="253"/>
-      <c r="AM3" s="253"/>
-      <c r="AN3" s="253"/>
-      <c r="AO3" s="253"/>
-      <c r="AP3" s="253"/>
-      <c r="AQ3" s="253"/>
-      <c r="AR3" s="253"/>
-      <c r="AS3" s="253"/>
-      <c r="AT3" s="253"/>
-      <c r="AU3" s="253"/>
-      <c r="AV3" s="253"/>
-      <c r="AW3" s="253"/>
-      <c r="AX3" s="253"/>
-      <c r="AY3" s="253"/>
-      <c r="AZ3" s="253"/>
-      <c r="BA3" s="253"/>
-      <c r="BB3" s="253"/>
-      <c r="BC3" s="253"/>
-      <c r="BD3" s="253"/>
-      <c r="BE3" s="253"/>
-      <c r="BF3" s="253"/>
-      <c r="BG3" s="253"/>
-      <c r="BH3" s="253"/>
-      <c r="BI3" s="253"/>
-      <c r="BJ3" s="253"/>
-      <c r="BK3" s="253"/>
-      <c r="BL3" s="253"/>
-      <c r="BM3" s="253"/>
-      <c r="BN3" s="253"/>
-      <c r="BO3" s="253"/>
-      <c r="BP3" s="253"/>
-      <c r="BQ3" s="253"/>
-      <c r="BR3" s="253"/>
-      <c r="BS3" s="253"/>
-      <c r="BT3" s="253"/>
-      <c r="BU3" s="253"/>
-      <c r="BV3" s="253"/>
-      <c r="BW3" s="253"/>
-      <c r="BX3" s="253"/>
-      <c r="BY3" s="253"/>
-      <c r="BZ3" s="253"/>
-      <c r="CA3" s="253"/>
-      <c r="CB3" s="253"/>
-      <c r="CC3" s="253"/>
-      <c r="CD3" s="253"/>
-      <c r="CE3" s="253"/>
-      <c r="CF3" s="253"/>
-      <c r="CG3" s="253"/>
-      <c r="CH3" s="253"/>
-      <c r="CI3" s="253"/>
-      <c r="CJ3" s="253"/>
-      <c r="CK3" s="253"/>
-      <c r="CL3" s="253"/>
-      <c r="CM3" s="253"/>
-      <c r="CN3" s="253"/>
-      <c r="CO3" s="253"/>
-      <c r="CP3" s="253"/>
-      <c r="CQ3" s="253"/>
-      <c r="CR3" s="253"/>
-      <c r="CS3" s="253"/>
-      <c r="CT3" s="253"/>
-      <c r="CU3" s="253"/>
-      <c r="CV3" s="254" t="s">
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="229"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="229"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="229"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="229"/>
+      <c r="AL3" s="229"/>
+      <c r="AM3" s="229"/>
+      <c r="AN3" s="229"/>
+      <c r="AO3" s="229"/>
+      <c r="AP3" s="229"/>
+      <c r="AQ3" s="229"/>
+      <c r="AR3" s="229"/>
+      <c r="AS3" s="229"/>
+      <c r="AT3" s="229"/>
+      <c r="AU3" s="229"/>
+      <c r="AV3" s="229"/>
+      <c r="AW3" s="229"/>
+      <c r="AX3" s="229"/>
+      <c r="AY3" s="229"/>
+      <c r="AZ3" s="229"/>
+      <c r="BA3" s="229"/>
+      <c r="BB3" s="229"/>
+      <c r="BC3" s="229"/>
+      <c r="BD3" s="229"/>
+      <c r="BE3" s="229"/>
+      <c r="BF3" s="229"/>
+      <c r="BG3" s="229"/>
+      <c r="BH3" s="229"/>
+      <c r="BI3" s="229"/>
+      <c r="BJ3" s="229"/>
+      <c r="BK3" s="229"/>
+      <c r="BL3" s="229"/>
+      <c r="BM3" s="229"/>
+      <c r="BN3" s="229"/>
+      <c r="BO3" s="229"/>
+      <c r="BP3" s="229"/>
+      <c r="BQ3" s="229"/>
+      <c r="BR3" s="229"/>
+      <c r="BS3" s="229"/>
+      <c r="BT3" s="229"/>
+      <c r="BU3" s="229"/>
+      <c r="BV3" s="229"/>
+      <c r="BW3" s="229"/>
+      <c r="BX3" s="229"/>
+      <c r="BY3" s="229"/>
+      <c r="BZ3" s="229"/>
+      <c r="CA3" s="229"/>
+      <c r="CB3" s="229"/>
+      <c r="CC3" s="229"/>
+      <c r="CD3" s="229"/>
+      <c r="CE3" s="229"/>
+      <c r="CF3" s="229"/>
+      <c r="CG3" s="229"/>
+      <c r="CH3" s="229"/>
+      <c r="CI3" s="229"/>
+      <c r="CJ3" s="229"/>
+      <c r="CK3" s="229"/>
+      <c r="CL3" s="229"/>
+      <c r="CM3" s="229"/>
+      <c r="CN3" s="229"/>
+      <c r="CO3" s="229"/>
+      <c r="CP3" s="229"/>
+      <c r="CQ3" s="229"/>
+      <c r="CR3" s="229"/>
+      <c r="CS3" s="229"/>
+      <c r="CT3" s="229"/>
+      <c r="CU3" s="229"/>
+      <c r="CV3" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="254"/>
-      <c r="CX3" s="254"/>
-      <c r="CY3" s="254"/>
-      <c r="CZ3" s="254"/>
-      <c r="DA3" s="254"/>
-      <c r="DB3" s="254"/>
-      <c r="DC3" s="254"/>
-      <c r="DD3" s="254"/>
-      <c r="DE3" s="254"/>
-      <c r="DF3" s="254"/>
-      <c r="DG3" s="254"/>
+      <c r="CW3" s="230"/>
+      <c r="CX3" s="230"/>
+      <c r="CY3" s="230"/>
+      <c r="CZ3" s="230"/>
+      <c r="DA3" s="230"/>
+      <c r="DB3" s="230"/>
+      <c r="DC3" s="230"/>
+      <c r="DD3" s="230"/>
+      <c r="DE3" s="230"/>
+      <c r="DF3" s="230"/>
+      <c r="DG3" s="230"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="261"/>
-      <c r="AE4" s="261"/>
-      <c r="AF4" s="261"/>
-      <c r="AG4" s="261"/>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="261"/>
-      <c r="AK4" s="261"/>
-      <c r="AL4" s="261"/>
-      <c r="AM4" s="261"/>
-      <c r="AN4" s="261"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="261"/>
-      <c r="AQ4" s="261"/>
-      <c r="AR4" s="261"/>
-      <c r="AS4" s="261"/>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="261"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="261"/>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="261"/>
-      <c r="AZ4" s="261"/>
-      <c r="BA4" s="261"/>
-      <c r="BB4" s="261"/>
-      <c r="BC4" s="261"/>
-      <c r="BD4" s="261"/>
-      <c r="BE4" s="261"/>
-      <c r="BF4" s="261"/>
-      <c r="BG4" s="261"/>
-      <c r="BH4" s="261"/>
-      <c r="BI4" s="261"/>
-      <c r="BJ4" s="261"/>
-      <c r="BK4" s="261"/>
-      <c r="BL4" s="261"/>
-      <c r="BM4" s="261"/>
-      <c r="BN4" s="261"/>
-      <c r="BO4" s="261"/>
-      <c r="BP4" s="261"/>
-      <c r="BQ4" s="261"/>
-      <c r="BR4" s="261"/>
-      <c r="BS4" s="261"/>
-      <c r="BT4" s="261"/>
-      <c r="BU4" s="261"/>
-      <c r="BV4" s="261"/>
-      <c r="BW4" s="261"/>
-      <c r="BX4" s="261"/>
-      <c r="BY4" s="261"/>
-      <c r="BZ4" s="261"/>
-      <c r="CA4" s="261"/>
-      <c r="CB4" s="261"/>
-      <c r="CC4" s="261"/>
-      <c r="CD4" s="261"/>
-      <c r="CE4" s="261"/>
-      <c r="CF4" s="261"/>
-      <c r="CG4" s="261"/>
-      <c r="CH4" s="261"/>
-      <c r="CI4" s="261"/>
-      <c r="CJ4" s="261"/>
-      <c r="CK4" s="261"/>
-      <c r="CL4" s="261"/>
-      <c r="CM4" s="261"/>
-      <c r="CN4" s="261"/>
-      <c r="CO4" s="261"/>
-      <c r="CP4" s="261"/>
-      <c r="CQ4" s="261"/>
-      <c r="CR4" s="261"/>
-      <c r="CS4" s="261"/>
-      <c r="CT4" s="261"/>
-      <c r="CU4" s="261"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="243"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
+      <c r="U4" s="243"/>
+      <c r="V4" s="243"/>
+      <c r="W4" s="243"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="243"/>
+      <c r="AE4" s="243"/>
+      <c r="AF4" s="243"/>
+      <c r="AG4" s="243"/>
+      <c r="AH4" s="243"/>
+      <c r="AI4" s="243"/>
+      <c r="AJ4" s="243"/>
+      <c r="AK4" s="243"/>
+      <c r="AL4" s="243"/>
+      <c r="AM4" s="243"/>
+      <c r="AN4" s="243"/>
+      <c r="AO4" s="243"/>
+      <c r="AP4" s="243"/>
+      <c r="AQ4" s="243"/>
+      <c r="AR4" s="243"/>
+      <c r="AS4" s="243"/>
+      <c r="AT4" s="243"/>
+      <c r="AU4" s="243"/>
+      <c r="AV4" s="243"/>
+      <c r="AW4" s="243"/>
+      <c r="AX4" s="243"/>
+      <c r="AY4" s="243"/>
+      <c r="AZ4" s="243"/>
+      <c r="BA4" s="243"/>
+      <c r="BB4" s="243"/>
+      <c r="BC4" s="243"/>
+      <c r="BD4" s="243"/>
+      <c r="BE4" s="243"/>
+      <c r="BF4" s="243"/>
+      <c r="BG4" s="243"/>
+      <c r="BH4" s="243"/>
+      <c r="BI4" s="243"/>
+      <c r="BJ4" s="243"/>
+      <c r="BK4" s="243"/>
+      <c r="BL4" s="243"/>
+      <c r="BM4" s="243"/>
+      <c r="BN4" s="243"/>
+      <c r="BO4" s="243"/>
+      <c r="BP4" s="243"/>
+      <c r="BQ4" s="243"/>
+      <c r="BR4" s="243"/>
+      <c r="BS4" s="243"/>
+      <c r="BT4" s="243"/>
+      <c r="BU4" s="243"/>
+      <c r="BV4" s="243"/>
+      <c r="BW4" s="243"/>
+      <c r="BX4" s="243"/>
+      <c r="BY4" s="243"/>
+      <c r="BZ4" s="243"/>
+      <c r="CA4" s="243"/>
+      <c r="CB4" s="243"/>
+      <c r="CC4" s="243"/>
+      <c r="CD4" s="243"/>
+      <c r="CE4" s="243"/>
+      <c r="CF4" s="243"/>
+      <c r="CG4" s="243"/>
+      <c r="CH4" s="243"/>
+      <c r="CI4" s="243"/>
+      <c r="CJ4" s="243"/>
+      <c r="CK4" s="243"/>
+      <c r="CL4" s="243"/>
+      <c r="CM4" s="243"/>
+      <c r="CN4" s="243"/>
+      <c r="CO4" s="243"/>
+      <c r="CP4" s="243"/>
+      <c r="CQ4" s="243"/>
+      <c r="CR4" s="243"/>
+      <c r="CS4" s="243"/>
+      <c r="CT4" s="243"/>
+      <c r="CU4" s="243"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -3019,433 +3061,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="265" t="s">
+      <c r="A6" s="244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="248" t="s">
+      <c r="E6" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="241" t="s">
+      <c r="G6" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="241"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="241"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="241"/>
-      <c r="AH6" s="241"/>
-      <c r="AI6" s="241"/>
-      <c r="AJ6" s="241"/>
-      <c r="AK6" s="241"/>
-      <c r="AL6" s="241"/>
-      <c r="AM6" s="241"/>
-      <c r="AN6" s="241"/>
-      <c r="AO6" s="241"/>
-      <c r="AP6" s="241"/>
-      <c r="AQ6" s="241"/>
-      <c r="AR6" s="241"/>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="241"/>
-      <c r="BB6" s="241"/>
-      <c r="BC6" s="241"/>
-      <c r="BD6" s="241"/>
-      <c r="BE6" s="241"/>
-      <c r="BF6" s="241"/>
-      <c r="BG6" s="241"/>
-      <c r="BH6" s="241"/>
-      <c r="BI6" s="241"/>
-      <c r="BJ6" s="241"/>
-      <c r="BK6" s="241"/>
-      <c r="BL6" s="241"/>
-      <c r="BM6" s="241"/>
-      <c r="BN6" s="241"/>
-      <c r="BO6" s="241"/>
-      <c r="BP6" s="241"/>
-      <c r="BQ6" s="241"/>
-      <c r="BR6" s="241"/>
-      <c r="BS6" s="241"/>
-      <c r="BT6" s="241"/>
-      <c r="BU6" s="241"/>
-      <c r="BV6" s="241"/>
-      <c r="BW6" s="241"/>
-      <c r="BX6" s="241"/>
-      <c r="BY6" s="241"/>
-      <c r="BZ6" s="241"/>
-      <c r="CA6" s="241"/>
-      <c r="CB6" s="241"/>
-      <c r="CC6" s="241"/>
-      <c r="CD6" s="241"/>
-      <c r="CE6" s="241"/>
-      <c r="CF6" s="241"/>
-      <c r="CG6" s="241"/>
-      <c r="CH6" s="241"/>
-      <c r="CI6" s="241"/>
-      <c r="CJ6" s="241"/>
-      <c r="CK6" s="241"/>
-      <c r="CL6" s="241"/>
-      <c r="CM6" s="241"/>
-      <c r="CN6" s="241"/>
-      <c r="CO6" s="241"/>
-      <c r="CP6" s="241"/>
-      <c r="CQ6" s="241"/>
-      <c r="CR6" s="241"/>
-      <c r="CS6" s="241"/>
-      <c r="CT6" s="241"/>
-      <c r="CU6" s="241"/>
-      <c r="CV6" s="255" t="s">
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="269"/>
+      <c r="Q6" s="269"/>
+      <c r="R6" s="269"/>
+      <c r="S6" s="269"/>
+      <c r="T6" s="269"/>
+      <c r="U6" s="269"/>
+      <c r="V6" s="269"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="269"/>
+      <c r="AI6" s="269"/>
+      <c r="AJ6" s="269"/>
+      <c r="AK6" s="269"/>
+      <c r="AL6" s="269"/>
+      <c r="AM6" s="269"/>
+      <c r="AN6" s="269"/>
+      <c r="AO6" s="269"/>
+      <c r="AP6" s="269"/>
+      <c r="AQ6" s="269"/>
+      <c r="AR6" s="269"/>
+      <c r="AS6" s="269"/>
+      <c r="AT6" s="269"/>
+      <c r="AU6" s="269"/>
+      <c r="AV6" s="269"/>
+      <c r="AW6" s="269"/>
+      <c r="AX6" s="269"/>
+      <c r="AY6" s="269"/>
+      <c r="AZ6" s="269"/>
+      <c r="BA6" s="269"/>
+      <c r="BB6" s="269"/>
+      <c r="BC6" s="269"/>
+      <c r="BD6" s="269"/>
+      <c r="BE6" s="269"/>
+      <c r="BF6" s="269"/>
+      <c r="BG6" s="269"/>
+      <c r="BH6" s="269"/>
+      <c r="BI6" s="269"/>
+      <c r="BJ6" s="269"/>
+      <c r="BK6" s="269"/>
+      <c r="BL6" s="269"/>
+      <c r="BM6" s="269"/>
+      <c r="BN6" s="269"/>
+      <c r="BO6" s="269"/>
+      <c r="BP6" s="269"/>
+      <c r="BQ6" s="269"/>
+      <c r="BR6" s="269"/>
+      <c r="BS6" s="269"/>
+      <c r="BT6" s="269"/>
+      <c r="BU6" s="269"/>
+      <c r="BV6" s="269"/>
+      <c r="BW6" s="269"/>
+      <c r="BX6" s="269"/>
+      <c r="BY6" s="269"/>
+      <c r="BZ6" s="269"/>
+      <c r="CA6" s="269"/>
+      <c r="CB6" s="269"/>
+      <c r="CC6" s="269"/>
+      <c r="CD6" s="269"/>
+      <c r="CE6" s="269"/>
+      <c r="CF6" s="269"/>
+      <c r="CG6" s="269"/>
+      <c r="CH6" s="269"/>
+      <c r="CI6" s="269"/>
+      <c r="CJ6" s="269"/>
+      <c r="CK6" s="269"/>
+      <c r="CL6" s="269"/>
+      <c r="CM6" s="269"/>
+      <c r="CN6" s="269"/>
+      <c r="CO6" s="269"/>
+      <c r="CP6" s="269"/>
+      <c r="CQ6" s="269"/>
+      <c r="CR6" s="269"/>
+      <c r="CS6" s="269"/>
+      <c r="CT6" s="269"/>
+      <c r="CU6" s="269"/>
+      <c r="CV6" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="256"/>
-      <c r="CX6" s="255" t="s">
+      <c r="CW6" s="232"/>
+      <c r="CX6" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="259"/>
-      <c r="CZ6" s="259"/>
-      <c r="DA6" s="259"/>
-      <c r="DB6" s="259"/>
-      <c r="DC6" s="259"/>
-      <c r="DD6" s="259"/>
-      <c r="DE6" s="259"/>
-      <c r="DF6" s="259"/>
-      <c r="DG6" s="259"/>
-      <c r="DH6" s="231" t="s">
+      <c r="CY6" s="235"/>
+      <c r="CZ6" s="235"/>
+      <c r="DA6" s="235"/>
+      <c r="DB6" s="235"/>
+      <c r="DC6" s="235"/>
+      <c r="DD6" s="235"/>
+      <c r="DE6" s="235"/>
+      <c r="DF6" s="235"/>
+      <c r="DG6" s="235"/>
+      <c r="DH6" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="234" t="s">
+      <c r="DI6" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="244" t="s">
+      <c r="DJ6" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="244"/>
-      <c r="DL6" s="244"/>
-      <c r="DM6" s="244"/>
-      <c r="DN6" s="244"/>
-      <c r="DO6" s="245"/>
+      <c r="DK6" s="220"/>
+      <c r="DL6" s="220"/>
+      <c r="DM6" s="220"/>
+      <c r="DN6" s="220"/>
+      <c r="DO6" s="221"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="263"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="242"/>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="242"/>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-      <c r="V7" s="242"/>
-      <c r="W7" s="242"/>
-      <c r="X7" s="242"/>
-      <c r="Y7" s="242"/>
-      <c r="Z7" s="242"/>
-      <c r="AA7" s="242"/>
-      <c r="AB7" s="242"/>
-      <c r="AC7" s="242"/>
-      <c r="AD7" s="242"/>
-      <c r="AE7" s="242"/>
-      <c r="AF7" s="242"/>
-      <c r="AG7" s="242"/>
-      <c r="AH7" s="242"/>
-      <c r="AI7" s="242"/>
-      <c r="AJ7" s="242"/>
-      <c r="AK7" s="242"/>
-      <c r="AL7" s="242"/>
-      <c r="AM7" s="242"/>
-      <c r="AN7" s="242"/>
-      <c r="AO7" s="242"/>
-      <c r="AP7" s="242"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="242"/>
-      <c r="AS7" s="242"/>
-      <c r="AT7" s="242"/>
-      <c r="AU7" s="242"/>
-      <c r="AV7" s="242"/>
-      <c r="AW7" s="242"/>
-      <c r="AX7" s="242"/>
-      <c r="AY7" s="242"/>
-      <c r="AZ7" s="242"/>
-      <c r="BA7" s="242"/>
-      <c r="BB7" s="242"/>
-      <c r="BC7" s="242"/>
-      <c r="BD7" s="242"/>
-      <c r="BE7" s="242"/>
-      <c r="BF7" s="242"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="242"/>
-      <c r="BI7" s="242"/>
-      <c r="BJ7" s="242"/>
-      <c r="BK7" s="242"/>
-      <c r="BL7" s="242"/>
-      <c r="BM7" s="242"/>
-      <c r="BN7" s="242"/>
-      <c r="BO7" s="243"/>
-      <c r="BP7" s="243"/>
-      <c r="BQ7" s="243"/>
-      <c r="BR7" s="242"/>
-      <c r="BS7" s="242"/>
-      <c r="BT7" s="242"/>
-      <c r="BU7" s="242"/>
-      <c r="BV7" s="242"/>
-      <c r="BW7" s="242"/>
-      <c r="BX7" s="242"/>
-      <c r="BY7" s="242"/>
-      <c r="BZ7" s="242"/>
-      <c r="CA7" s="242"/>
-      <c r="CB7" s="242"/>
-      <c r="CC7" s="242"/>
-      <c r="CD7" s="242"/>
-      <c r="CE7" s="242"/>
-      <c r="CF7" s="242"/>
-      <c r="CG7" s="242"/>
-      <c r="CH7" s="242"/>
-      <c r="CI7" s="242"/>
-      <c r="CJ7" s="242"/>
-      <c r="CK7" s="242"/>
-      <c r="CL7" s="242"/>
-      <c r="CM7" s="242"/>
-      <c r="CN7" s="242"/>
-      <c r="CO7" s="242"/>
-      <c r="CP7" s="242"/>
-      <c r="CQ7" s="242"/>
-      <c r="CR7" s="242"/>
-      <c r="CS7" s="242"/>
-      <c r="CT7" s="242"/>
-      <c r="CU7" s="242"/>
-      <c r="CV7" s="257"/>
-      <c r="CW7" s="258"/>
-      <c r="CX7" s="257"/>
-      <c r="CY7" s="260"/>
-      <c r="CZ7" s="260"/>
-      <c r="DA7" s="260"/>
-      <c r="DB7" s="260"/>
-      <c r="DC7" s="260"/>
-      <c r="DD7" s="260"/>
-      <c r="DE7" s="260"/>
-      <c r="DF7" s="260"/>
-      <c r="DG7" s="260"/>
-      <c r="DH7" s="232"/>
-      <c r="DI7" s="235"/>
-      <c r="DJ7" s="246"/>
-      <c r="DK7" s="246"/>
-      <c r="DL7" s="246"/>
-      <c r="DM7" s="246"/>
-      <c r="DN7" s="246"/>
-      <c r="DO7" s="247"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="270"/>
+      <c r="S7" s="270"/>
+      <c r="T7" s="270"/>
+      <c r="U7" s="270"/>
+      <c r="V7" s="270"/>
+      <c r="W7" s="270"/>
+      <c r="X7" s="270"/>
+      <c r="Y7" s="270"/>
+      <c r="Z7" s="270"/>
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="270"/>
+      <c r="AC7" s="270"/>
+      <c r="AD7" s="270"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="270"/>
+      <c r="AG7" s="270"/>
+      <c r="AH7" s="270"/>
+      <c r="AI7" s="270"/>
+      <c r="AJ7" s="270"/>
+      <c r="AK7" s="270"/>
+      <c r="AL7" s="270"/>
+      <c r="AM7" s="270"/>
+      <c r="AN7" s="270"/>
+      <c r="AO7" s="270"/>
+      <c r="AP7" s="270"/>
+      <c r="AQ7" s="270"/>
+      <c r="AR7" s="270"/>
+      <c r="AS7" s="270"/>
+      <c r="AT7" s="270"/>
+      <c r="AU7" s="270"/>
+      <c r="AV7" s="270"/>
+      <c r="AW7" s="270"/>
+      <c r="AX7" s="270"/>
+      <c r="AY7" s="270"/>
+      <c r="AZ7" s="270"/>
+      <c r="BA7" s="270"/>
+      <c r="BB7" s="270"/>
+      <c r="BC7" s="270"/>
+      <c r="BD7" s="270"/>
+      <c r="BE7" s="270"/>
+      <c r="BF7" s="270"/>
+      <c r="BG7" s="270"/>
+      <c r="BH7" s="270"/>
+      <c r="BI7" s="270"/>
+      <c r="BJ7" s="270"/>
+      <c r="BK7" s="270"/>
+      <c r="BL7" s="270"/>
+      <c r="BM7" s="270"/>
+      <c r="BN7" s="270"/>
+      <c r="BO7" s="271"/>
+      <c r="BP7" s="271"/>
+      <c r="BQ7" s="271"/>
+      <c r="BR7" s="270"/>
+      <c r="BS7" s="270"/>
+      <c r="BT7" s="270"/>
+      <c r="BU7" s="270"/>
+      <c r="BV7" s="270"/>
+      <c r="BW7" s="270"/>
+      <c r="BX7" s="270"/>
+      <c r="BY7" s="270"/>
+      <c r="BZ7" s="270"/>
+      <c r="CA7" s="270"/>
+      <c r="CB7" s="270"/>
+      <c r="CC7" s="270"/>
+      <c r="CD7" s="270"/>
+      <c r="CE7" s="270"/>
+      <c r="CF7" s="270"/>
+      <c r="CG7" s="270"/>
+      <c r="CH7" s="270"/>
+      <c r="CI7" s="270"/>
+      <c r="CJ7" s="270"/>
+      <c r="CK7" s="270"/>
+      <c r="CL7" s="270"/>
+      <c r="CM7" s="270"/>
+      <c r="CN7" s="270"/>
+      <c r="CO7" s="270"/>
+      <c r="CP7" s="270"/>
+      <c r="CQ7" s="270"/>
+      <c r="CR7" s="270"/>
+      <c r="CS7" s="270"/>
+      <c r="CT7" s="270"/>
+      <c r="CU7" s="270"/>
+      <c r="CV7" s="233"/>
+      <c r="CW7" s="234"/>
+      <c r="CX7" s="233"/>
+      <c r="CY7" s="236"/>
+      <c r="CZ7" s="236"/>
+      <c r="DA7" s="236"/>
+      <c r="DB7" s="236"/>
+      <c r="DC7" s="236"/>
+      <c r="DD7" s="236"/>
+      <c r="DE7" s="236"/>
+      <c r="DF7" s="236"/>
+      <c r="DG7" s="236"/>
+      <c r="DH7" s="260"/>
+      <c r="DI7" s="263"/>
+      <c r="DJ7" s="222"/>
+      <c r="DK7" s="222"/>
+      <c r="DL7" s="222"/>
+      <c r="DM7" s="222"/>
+      <c r="DN7" s="222"/>
+      <c r="DO7" s="223"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="264"/>
-      <c r="B8" s="267"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="230">
+      <c r="A8" s="246"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="273">
         <v>1</v>
       </c>
-      <c r="H8" s="222"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="221">
+      <c r="H8" s="241"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="256">
         <v>2</v>
       </c>
-      <c r="K8" s="222"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="226">
+      <c r="K8" s="241"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="237">
         <v>3</v>
       </c>
-      <c r="N8" s="227"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="226">
+      <c r="N8" s="238"/>
+      <c r="O8" s="258"/>
+      <c r="P8" s="237">
         <v>4</v>
       </c>
-      <c r="Q8" s="227"/>
-      <c r="R8" s="229"/>
-      <c r="S8" s="221">
+      <c r="Q8" s="238"/>
+      <c r="R8" s="239"/>
+      <c r="S8" s="256">
         <v>5</v>
       </c>
-      <c r="T8" s="222"/>
-      <c r="U8" s="225"/>
-      <c r="V8" s="221">
+      <c r="T8" s="241"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="256">
         <v>6</v>
       </c>
-      <c r="W8" s="222"/>
-      <c r="X8" s="223"/>
-      <c r="Y8" s="221">
+      <c r="W8" s="241"/>
+      <c r="X8" s="257"/>
+      <c r="Y8" s="256">
         <v>7</v>
       </c>
-      <c r="Z8" s="222"/>
-      <c r="AA8" s="223"/>
-      <c r="AB8" s="221">
+      <c r="Z8" s="241"/>
+      <c r="AA8" s="257"/>
+      <c r="AB8" s="256">
         <v>8</v>
       </c>
-      <c r="AC8" s="222"/>
-      <c r="AD8" s="223"/>
-      <c r="AE8" s="221">
+      <c r="AC8" s="241"/>
+      <c r="AD8" s="257"/>
+      <c r="AE8" s="256">
         <v>9</v>
       </c>
-      <c r="AF8" s="222"/>
-      <c r="AG8" s="225"/>
-      <c r="AH8" s="226">
+      <c r="AF8" s="241"/>
+      <c r="AG8" s="242"/>
+      <c r="AH8" s="237">
         <v>10</v>
       </c>
-      <c r="AI8" s="227"/>
-      <c r="AJ8" s="229"/>
-      <c r="AK8" s="226">
+      <c r="AI8" s="238"/>
+      <c r="AJ8" s="239"/>
+      <c r="AK8" s="237">
         <v>11</v>
       </c>
-      <c r="AL8" s="227"/>
-      <c r="AM8" s="229"/>
-      <c r="AN8" s="224">
+      <c r="AL8" s="238"/>
+      <c r="AM8" s="239"/>
+      <c r="AN8" s="240">
         <v>12</v>
       </c>
-      <c r="AO8" s="222"/>
-      <c r="AP8" s="225"/>
-      <c r="AQ8" s="221">
+      <c r="AO8" s="241"/>
+      <c r="AP8" s="242"/>
+      <c r="AQ8" s="256">
         <v>13</v>
       </c>
-      <c r="AR8" s="222"/>
-      <c r="AS8" s="223"/>
-      <c r="AT8" s="224">
+      <c r="AR8" s="241"/>
+      <c r="AS8" s="257"/>
+      <c r="AT8" s="240">
         <v>14</v>
       </c>
-      <c r="AU8" s="222"/>
-      <c r="AV8" s="223"/>
-      <c r="AW8" s="221">
+      <c r="AU8" s="241"/>
+      <c r="AV8" s="257"/>
+      <c r="AW8" s="256">
         <v>15</v>
       </c>
-      <c r="AX8" s="222"/>
-      <c r="AY8" s="223"/>
-      <c r="AZ8" s="221">
+      <c r="AX8" s="241"/>
+      <c r="AY8" s="257"/>
+      <c r="AZ8" s="256">
         <v>16</v>
       </c>
-      <c r="BA8" s="222"/>
-      <c r="BB8" s="223"/>
-      <c r="BC8" s="226">
+      <c r="BA8" s="241"/>
+      <c r="BB8" s="257"/>
+      <c r="BC8" s="237">
         <v>17</v>
       </c>
-      <c r="BD8" s="227"/>
-      <c r="BE8" s="228"/>
-      <c r="BF8" s="226">
+      <c r="BD8" s="238"/>
+      <c r="BE8" s="258"/>
+      <c r="BF8" s="237">
         <v>18</v>
       </c>
-      <c r="BG8" s="227"/>
-      <c r="BH8" s="229"/>
-      <c r="BI8" s="224">
+      <c r="BG8" s="238"/>
+      <c r="BH8" s="239"/>
+      <c r="BI8" s="240">
         <v>19</v>
       </c>
-      <c r="BJ8" s="222"/>
-      <c r="BK8" s="225"/>
-      <c r="BL8" s="221">
+      <c r="BJ8" s="241"/>
+      <c r="BK8" s="242"/>
+      <c r="BL8" s="256">
         <v>20</v>
       </c>
-      <c r="BM8" s="222"/>
-      <c r="BN8" s="223"/>
-      <c r="BO8" s="221">
+      <c r="BM8" s="241"/>
+      <c r="BN8" s="257"/>
+      <c r="BO8" s="256">
         <v>21</v>
       </c>
-      <c r="BP8" s="222"/>
-      <c r="BQ8" s="223"/>
-      <c r="BR8" s="221">
+      <c r="BP8" s="241"/>
+      <c r="BQ8" s="257"/>
+      <c r="BR8" s="256">
         <v>22</v>
       </c>
-      <c r="BS8" s="222"/>
-      <c r="BT8" s="223"/>
-      <c r="BU8" s="224">
+      <c r="BS8" s="241"/>
+      <c r="BT8" s="257"/>
+      <c r="BU8" s="240">
         <v>23</v>
       </c>
-      <c r="BV8" s="222"/>
-      <c r="BW8" s="225"/>
-      <c r="BX8" s="226">
+      <c r="BV8" s="241"/>
+      <c r="BW8" s="242"/>
+      <c r="BX8" s="237">
         <v>24</v>
       </c>
-      <c r="BY8" s="227"/>
-      <c r="BZ8" s="229"/>
-      <c r="CA8" s="240">
+      <c r="BY8" s="238"/>
+      <c r="BZ8" s="239"/>
+      <c r="CA8" s="268">
         <v>25</v>
       </c>
-      <c r="CB8" s="227"/>
-      <c r="CC8" s="228"/>
-      <c r="CD8" s="221">
+      <c r="CB8" s="238"/>
+      <c r="CC8" s="258"/>
+      <c r="CD8" s="256">
         <v>26</v>
       </c>
-      <c r="CE8" s="222"/>
-      <c r="CF8" s="223"/>
-      <c r="CG8" s="224">
+      <c r="CE8" s="241"/>
+      <c r="CF8" s="257"/>
+      <c r="CG8" s="240">
         <v>27</v>
       </c>
-      <c r="CH8" s="222"/>
-      <c r="CI8" s="225"/>
-      <c r="CJ8" s="221">
+      <c r="CH8" s="241"/>
+      <c r="CI8" s="242"/>
+      <c r="CJ8" s="256">
         <v>28</v>
       </c>
-      <c r="CK8" s="222"/>
-      <c r="CL8" s="223"/>
-      <c r="CM8" s="221">
+      <c r="CK8" s="241"/>
+      <c r="CL8" s="257"/>
+      <c r="CM8" s="256">
         <v>29</v>
       </c>
-      <c r="CN8" s="222"/>
-      <c r="CO8" s="223"/>
-      <c r="CP8" s="221">
+      <c r="CN8" s="241"/>
+      <c r="CO8" s="257"/>
+      <c r="CP8" s="256">
         <v>30</v>
       </c>
-      <c r="CQ8" s="222"/>
-      <c r="CR8" s="223"/>
-      <c r="CS8" s="237">
+      <c r="CQ8" s="241"/>
+      <c r="CR8" s="257"/>
+      <c r="CS8" s="265">
         <v>31</v>
       </c>
-      <c r="CT8" s="238"/>
-      <c r="CU8" s="239"/>
+      <c r="CT8" s="266"/>
+      <c r="CU8" s="267"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -3482,8 +3524,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="233"/>
-      <c r="DI8" s="236"/>
+      <c r="DH8" s="261"/>
+      <c r="DI8" s="264"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9252,45 +9294,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="220"/>
-      <c r="N33" s="220"/>
-      <c r="O33" s="220"/>
-      <c r="P33" s="220"/>
-      <c r="Q33" s="220"/>
-      <c r="R33" s="220"/>
-      <c r="S33" s="220"/>
-      <c r="T33" s="220"/>
-      <c r="U33" s="220"/>
-      <c r="V33" s="220"/>
-      <c r="W33" s="220"/>
-      <c r="X33" s="220"/>
-      <c r="Y33" s="220"/>
-      <c r="Z33" s="220"/>
-      <c r="AA33" s="220"/>
-      <c r="AB33" s="220"/>
-      <c r="AC33" s="220"/>
-      <c r="AD33" s="220"/>
-      <c r="AE33" s="220"/>
-      <c r="AF33" s="220"/>
-      <c r="AG33" s="220"/>
-      <c r="AH33" s="220"/>
-      <c r="AI33" s="220"/>
-      <c r="AJ33" s="220"/>
-      <c r="AK33" s="220"/>
-      <c r="AL33" s="220"/>
-      <c r="AM33" s="220"/>
-      <c r="AN33" s="220"/>
-      <c r="AO33" s="220"/>
-      <c r="AP33" s="220"/>
-      <c r="AQ33" s="220"/>
-      <c r="AR33" s="220"/>
-      <c r="AS33" s="220"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="272"/>
+      <c r="I33" s="272"/>
+      <c r="J33" s="272"/>
+      <c r="K33" s="272"/>
+      <c r="L33" s="272"/>
+      <c r="M33" s="272"/>
+      <c r="N33" s="272"/>
+      <c r="O33" s="272"/>
+      <c r="P33" s="272"/>
+      <c r="Q33" s="272"/>
+      <c r="R33" s="272"/>
+      <c r="S33" s="272"/>
+      <c r="T33" s="272"/>
+      <c r="U33" s="272"/>
+      <c r="V33" s="272"/>
+      <c r="W33" s="272"/>
+      <c r="X33" s="272"/>
+      <c r="Y33" s="272"/>
+      <c r="Z33" s="272"/>
+      <c r="AA33" s="272"/>
+      <c r="AB33" s="272"/>
+      <c r="AC33" s="272"/>
+      <c r="AD33" s="272"/>
+      <c r="AE33" s="272"/>
+      <c r="AF33" s="272"/>
+      <c r="AG33" s="272"/>
+      <c r="AH33" s="272"/>
+      <c r="AI33" s="272"/>
+      <c r="AJ33" s="272"/>
+      <c r="AK33" s="272"/>
+      <c r="AL33" s="272"/>
+      <c r="AM33" s="272"/>
+      <c r="AN33" s="272"/>
+      <c r="AO33" s="272"/>
+      <c r="AP33" s="272"/>
+      <c r="AQ33" s="272"/>
+      <c r="AR33" s="272"/>
+      <c r="AS33" s="272"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -9595,45 +9637,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="220"/>
-      <c r="J37" s="220"/>
-      <c r="K37" s="220"/>
-      <c r="L37" s="220"/>
-      <c r="M37" s="220"/>
-      <c r="N37" s="220"/>
-      <c r="O37" s="220"/>
-      <c r="P37" s="220"/>
-      <c r="Q37" s="220"/>
-      <c r="R37" s="220"/>
-      <c r="S37" s="220"/>
-      <c r="T37" s="220"/>
-      <c r="U37" s="220"/>
-      <c r="V37" s="220"/>
-      <c r="W37" s="220"/>
-      <c r="X37" s="220"/>
-      <c r="Y37" s="220"/>
-      <c r="Z37" s="220"/>
-      <c r="AA37" s="220"/>
-      <c r="AB37" s="220"/>
-      <c r="AC37" s="220"/>
-      <c r="AD37" s="220"/>
-      <c r="AE37" s="220"/>
-      <c r="AF37" s="220"/>
-      <c r="AG37" s="220"/>
-      <c r="AH37" s="220"/>
-      <c r="AI37" s="220"/>
-      <c r="AJ37" s="220"/>
-      <c r="AK37" s="220"/>
-      <c r="AL37" s="220"/>
-      <c r="AM37" s="220"/>
-      <c r="AN37" s="220"/>
-      <c r="AO37" s="220"/>
-      <c r="AP37" s="220"/>
-      <c r="AQ37" s="220"/>
-      <c r="AR37" s="220"/>
-      <c r="AS37" s="220"/>
+      <c r="G37" s="272"/>
+      <c r="H37" s="272"/>
+      <c r="I37" s="272"/>
+      <c r="J37" s="272"/>
+      <c r="K37" s="272"/>
+      <c r="L37" s="272"/>
+      <c r="M37" s="272"/>
+      <c r="N37" s="272"/>
+      <c r="O37" s="272"/>
+      <c r="P37" s="272"/>
+      <c r="Q37" s="272"/>
+      <c r="R37" s="272"/>
+      <c r="S37" s="272"/>
+      <c r="T37" s="272"/>
+      <c r="U37" s="272"/>
+      <c r="V37" s="272"/>
+      <c r="W37" s="272"/>
+      <c r="X37" s="272"/>
+      <c r="Y37" s="272"/>
+      <c r="Z37" s="272"/>
+      <c r="AA37" s="272"/>
+      <c r="AB37" s="272"/>
+      <c r="AC37" s="272"/>
+      <c r="AD37" s="272"/>
+      <c r="AE37" s="272"/>
+      <c r="AF37" s="272"/>
+      <c r="AG37" s="272"/>
+      <c r="AH37" s="272"/>
+      <c r="AI37" s="272"/>
+      <c r="AJ37" s="272"/>
+      <c r="AK37" s="272"/>
+      <c r="AL37" s="272"/>
+      <c r="AM37" s="272"/>
+      <c r="AN37" s="272"/>
+      <c r="AO37" s="272"/>
+      <c r="AP37" s="272"/>
+      <c r="AQ37" s="272"/>
+      <c r="AR37" s="272"/>
+      <c r="AS37" s="272"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -11134,6 +11176,40 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="DI6:DI8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="CU1:DG1"/>
@@ -11150,40 +11226,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="DI6:DI8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -11208,11 +11250,11 @@
   <dimension ref="A1:EF87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AX10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AT17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="BV11" sqref="BV11"/>
+      <selection pane="bottomRight" activeCell="CQ24" sqref="CQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11379,21 +11421,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="251" t="s">
+      <c r="CU1" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="251"/>
-      <c r="CW1" s="251"/>
-      <c r="CX1" s="251"/>
-      <c r="CY1" s="251"/>
-      <c r="CZ1" s="251"/>
-      <c r="DA1" s="251"/>
-      <c r="DB1" s="251"/>
-      <c r="DC1" s="251"/>
-      <c r="DD1" s="251"/>
-      <c r="DE1" s="251"/>
-      <c r="DF1" s="251"/>
-      <c r="DG1" s="251"/>
+      <c r="CV1" s="227"/>
+      <c r="CW1" s="227"/>
+      <c r="CX1" s="227"/>
+      <c r="CY1" s="227"/>
+      <c r="CZ1" s="227"/>
+      <c r="DA1" s="227"/>
+      <c r="DB1" s="227"/>
+      <c r="DC1" s="227"/>
+      <c r="DD1" s="227"/>
+      <c r="DE1" s="227"/>
+      <c r="DF1" s="227"/>
+      <c r="DG1" s="227"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -11494,241 +11536,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="252" t="s">
+      <c r="CU2" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="252"/>
-      <c r="CW2" s="252"/>
-      <c r="CX2" s="252"/>
-      <c r="CY2" s="252"/>
-      <c r="CZ2" s="252"/>
-      <c r="DA2" s="252"/>
-      <c r="DB2" s="252"/>
-      <c r="DC2" s="252"/>
-      <c r="DD2" s="252"/>
-      <c r="DE2" s="252"/>
-      <c r="DF2" s="252"/>
-      <c r="DG2" s="252"/>
+      <c r="CV2" s="228"/>
+      <c r="CW2" s="228"/>
+      <c r="CX2" s="228"/>
+      <c r="CY2" s="228"/>
+      <c r="CZ2" s="228"/>
+      <c r="DA2" s="228"/>
+      <c r="DB2" s="228"/>
+      <c r="DC2" s="228"/>
+      <c r="DD2" s="228"/>
+      <c r="DE2" s="228"/>
+      <c r="DF2" s="228"/>
+      <c r="DG2" s="228"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="253"/>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="253"/>
-      <c r="AG3" s="253"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="253"/>
-      <c r="AM3" s="253"/>
-      <c r="AN3" s="253"/>
-      <c r="AO3" s="253"/>
-      <c r="AP3" s="253"/>
-      <c r="AQ3" s="253"/>
-      <c r="AR3" s="253"/>
-      <c r="AS3" s="253"/>
-      <c r="AT3" s="253"/>
-      <c r="AU3" s="253"/>
-      <c r="AV3" s="253"/>
-      <c r="AW3" s="253"/>
-      <c r="AX3" s="253"/>
-      <c r="AY3" s="253"/>
-      <c r="AZ3" s="253"/>
-      <c r="BA3" s="253"/>
-      <c r="BB3" s="253"/>
-      <c r="BC3" s="253"/>
-      <c r="BD3" s="253"/>
-      <c r="BE3" s="253"/>
-      <c r="BF3" s="253"/>
-      <c r="BG3" s="253"/>
-      <c r="BH3" s="253"/>
-      <c r="BI3" s="253"/>
-      <c r="BJ3" s="253"/>
-      <c r="BK3" s="253"/>
-      <c r="BL3" s="253"/>
-      <c r="BM3" s="253"/>
-      <c r="BN3" s="253"/>
-      <c r="BO3" s="253"/>
-      <c r="BP3" s="253"/>
-      <c r="BQ3" s="253"/>
-      <c r="BR3" s="253"/>
-      <c r="BS3" s="253"/>
-      <c r="BT3" s="253"/>
-      <c r="BU3" s="253"/>
-      <c r="BV3" s="253"/>
-      <c r="BW3" s="253"/>
-      <c r="BX3" s="253"/>
-      <c r="BY3" s="253"/>
-      <c r="BZ3" s="253"/>
-      <c r="CA3" s="253"/>
-      <c r="CB3" s="253"/>
-      <c r="CC3" s="253"/>
-      <c r="CD3" s="253"/>
-      <c r="CE3" s="253"/>
-      <c r="CF3" s="253"/>
-      <c r="CG3" s="253"/>
-      <c r="CH3" s="253"/>
-      <c r="CI3" s="253"/>
-      <c r="CJ3" s="253"/>
-      <c r="CK3" s="253"/>
-      <c r="CL3" s="253"/>
-      <c r="CM3" s="253"/>
-      <c r="CN3" s="253"/>
-      <c r="CO3" s="253"/>
-      <c r="CP3" s="253"/>
-      <c r="CQ3" s="253"/>
-      <c r="CR3" s="253"/>
-      <c r="CS3" s="253"/>
-      <c r="CT3" s="253"/>
-      <c r="CU3" s="253"/>
-      <c r="CV3" s="254" t="s">
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="229"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="229"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="229"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="229"/>
+      <c r="AL3" s="229"/>
+      <c r="AM3" s="229"/>
+      <c r="AN3" s="229"/>
+      <c r="AO3" s="229"/>
+      <c r="AP3" s="229"/>
+      <c r="AQ3" s="229"/>
+      <c r="AR3" s="229"/>
+      <c r="AS3" s="229"/>
+      <c r="AT3" s="229"/>
+      <c r="AU3" s="229"/>
+      <c r="AV3" s="229"/>
+      <c r="AW3" s="229"/>
+      <c r="AX3" s="229"/>
+      <c r="AY3" s="229"/>
+      <c r="AZ3" s="229"/>
+      <c r="BA3" s="229"/>
+      <c r="BB3" s="229"/>
+      <c r="BC3" s="229"/>
+      <c r="BD3" s="229"/>
+      <c r="BE3" s="229"/>
+      <c r="BF3" s="229"/>
+      <c r="BG3" s="229"/>
+      <c r="BH3" s="229"/>
+      <c r="BI3" s="229"/>
+      <c r="BJ3" s="229"/>
+      <c r="BK3" s="229"/>
+      <c r="BL3" s="229"/>
+      <c r="BM3" s="229"/>
+      <c r="BN3" s="229"/>
+      <c r="BO3" s="229"/>
+      <c r="BP3" s="229"/>
+      <c r="BQ3" s="229"/>
+      <c r="BR3" s="229"/>
+      <c r="BS3" s="229"/>
+      <c r="BT3" s="229"/>
+      <c r="BU3" s="229"/>
+      <c r="BV3" s="229"/>
+      <c r="BW3" s="229"/>
+      <c r="BX3" s="229"/>
+      <c r="BY3" s="229"/>
+      <c r="BZ3" s="229"/>
+      <c r="CA3" s="229"/>
+      <c r="CB3" s="229"/>
+      <c r="CC3" s="229"/>
+      <c r="CD3" s="229"/>
+      <c r="CE3" s="229"/>
+      <c r="CF3" s="229"/>
+      <c r="CG3" s="229"/>
+      <c r="CH3" s="229"/>
+      <c r="CI3" s="229"/>
+      <c r="CJ3" s="229"/>
+      <c r="CK3" s="229"/>
+      <c r="CL3" s="229"/>
+      <c r="CM3" s="229"/>
+      <c r="CN3" s="229"/>
+      <c r="CO3" s="229"/>
+      <c r="CP3" s="229"/>
+      <c r="CQ3" s="229"/>
+      <c r="CR3" s="229"/>
+      <c r="CS3" s="229"/>
+      <c r="CT3" s="229"/>
+      <c r="CU3" s="229"/>
+      <c r="CV3" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="254"/>
-      <c r="CX3" s="254"/>
-      <c r="CY3" s="254"/>
-      <c r="CZ3" s="254"/>
-      <c r="DA3" s="254"/>
-      <c r="DB3" s="254"/>
-      <c r="DC3" s="254"/>
-      <c r="DD3" s="254"/>
-      <c r="DE3" s="254"/>
-      <c r="DF3" s="254"/>
-      <c r="DG3" s="254"/>
+      <c r="CW3" s="230"/>
+      <c r="CX3" s="230"/>
+      <c r="CY3" s="230"/>
+      <c r="CZ3" s="230"/>
+      <c r="DA3" s="230"/>
+      <c r="DB3" s="230"/>
+      <c r="DC3" s="230"/>
+      <c r="DD3" s="230"/>
+      <c r="DE3" s="230"/>
+      <c r="DF3" s="230"/>
+      <c r="DG3" s="230"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="261"/>
-      <c r="AE4" s="261"/>
-      <c r="AF4" s="261"/>
-      <c r="AG4" s="261"/>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="261"/>
-      <c r="AK4" s="261"/>
-      <c r="AL4" s="261"/>
-      <c r="AM4" s="261"/>
-      <c r="AN4" s="261"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="261"/>
-      <c r="AQ4" s="261"/>
-      <c r="AR4" s="261"/>
-      <c r="AS4" s="261"/>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="261"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="261"/>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="261"/>
-      <c r="AZ4" s="261"/>
-      <c r="BA4" s="261"/>
-      <c r="BB4" s="261"/>
-      <c r="BC4" s="261"/>
-      <c r="BD4" s="261"/>
-      <c r="BE4" s="261"/>
-      <c r="BF4" s="261"/>
-      <c r="BG4" s="261"/>
-      <c r="BH4" s="261"/>
-      <c r="BI4" s="261"/>
-      <c r="BJ4" s="261"/>
-      <c r="BK4" s="261"/>
-      <c r="BL4" s="261"/>
-      <c r="BM4" s="261"/>
-      <c r="BN4" s="261"/>
-      <c r="BO4" s="261"/>
-      <c r="BP4" s="261"/>
-      <c r="BQ4" s="261"/>
-      <c r="BR4" s="261"/>
-      <c r="BS4" s="261"/>
-      <c r="BT4" s="261"/>
-      <c r="BU4" s="261"/>
-      <c r="BV4" s="261"/>
-      <c r="BW4" s="261"/>
-      <c r="BX4" s="261"/>
-      <c r="BY4" s="261"/>
-      <c r="BZ4" s="261"/>
-      <c r="CA4" s="261"/>
-      <c r="CB4" s="261"/>
-      <c r="CC4" s="261"/>
-      <c r="CD4" s="261"/>
-      <c r="CE4" s="261"/>
-      <c r="CF4" s="261"/>
-      <c r="CG4" s="261"/>
-      <c r="CH4" s="261"/>
-      <c r="CI4" s="261"/>
-      <c r="CJ4" s="261"/>
-      <c r="CK4" s="261"/>
-      <c r="CL4" s="261"/>
-      <c r="CM4" s="261"/>
-      <c r="CN4" s="261"/>
-      <c r="CO4" s="261"/>
-      <c r="CP4" s="261"/>
-      <c r="CQ4" s="261"/>
-      <c r="CR4" s="261"/>
-      <c r="CS4" s="261"/>
-      <c r="CT4" s="261"/>
-      <c r="CU4" s="261"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="243"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
+      <c r="U4" s="243"/>
+      <c r="V4" s="243"/>
+      <c r="W4" s="243"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="243"/>
+      <c r="AE4" s="243"/>
+      <c r="AF4" s="243"/>
+      <c r="AG4" s="243"/>
+      <c r="AH4" s="243"/>
+      <c r="AI4" s="243"/>
+      <c r="AJ4" s="243"/>
+      <c r="AK4" s="243"/>
+      <c r="AL4" s="243"/>
+      <c r="AM4" s="243"/>
+      <c r="AN4" s="243"/>
+      <c r="AO4" s="243"/>
+      <c r="AP4" s="243"/>
+      <c r="AQ4" s="243"/>
+      <c r="AR4" s="243"/>
+      <c r="AS4" s="243"/>
+      <c r="AT4" s="243"/>
+      <c r="AU4" s="243"/>
+      <c r="AV4" s="243"/>
+      <c r="AW4" s="243"/>
+      <c r="AX4" s="243"/>
+      <c r="AY4" s="243"/>
+      <c r="AZ4" s="243"/>
+      <c r="BA4" s="243"/>
+      <c r="BB4" s="243"/>
+      <c r="BC4" s="243"/>
+      <c r="BD4" s="243"/>
+      <c r="BE4" s="243"/>
+      <c r="BF4" s="243"/>
+      <c r="BG4" s="243"/>
+      <c r="BH4" s="243"/>
+      <c r="BI4" s="243"/>
+      <c r="BJ4" s="243"/>
+      <c r="BK4" s="243"/>
+      <c r="BL4" s="243"/>
+      <c r="BM4" s="243"/>
+      <c r="BN4" s="243"/>
+      <c r="BO4" s="243"/>
+      <c r="BP4" s="243"/>
+      <c r="BQ4" s="243"/>
+      <c r="BR4" s="243"/>
+      <c r="BS4" s="243"/>
+      <c r="BT4" s="243"/>
+      <c r="BU4" s="243"/>
+      <c r="BV4" s="243"/>
+      <c r="BW4" s="243"/>
+      <c r="BX4" s="243"/>
+      <c r="BY4" s="243"/>
+      <c r="BZ4" s="243"/>
+      <c r="CA4" s="243"/>
+      <c r="CB4" s="243"/>
+      <c r="CC4" s="243"/>
+      <c r="CD4" s="243"/>
+      <c r="CE4" s="243"/>
+      <c r="CF4" s="243"/>
+      <c r="CG4" s="243"/>
+      <c r="CH4" s="243"/>
+      <c r="CI4" s="243"/>
+      <c r="CJ4" s="243"/>
+      <c r="CK4" s="243"/>
+      <c r="CL4" s="243"/>
+      <c r="CM4" s="243"/>
+      <c r="CN4" s="243"/>
+      <c r="CO4" s="243"/>
+      <c r="CP4" s="243"/>
+      <c r="CQ4" s="243"/>
+      <c r="CR4" s="243"/>
+      <c r="CS4" s="243"/>
+      <c r="CT4" s="243"/>
+      <c r="CU4" s="243"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -11858,288 +11900,288 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="265" t="s">
+      <c r="A6" s="244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="248" t="s">
+      <c r="E6" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="241" t="s">
+      <c r="G6" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="241"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="241"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="241"/>
-      <c r="AH6" s="241"/>
-      <c r="AI6" s="241"/>
-      <c r="AJ6" s="241"/>
-      <c r="AK6" s="241"/>
-      <c r="AL6" s="241"/>
-      <c r="AM6" s="241"/>
-      <c r="AN6" s="241"/>
-      <c r="AO6" s="241"/>
-      <c r="AP6" s="241"/>
-      <c r="AQ6" s="241"/>
-      <c r="AR6" s="241"/>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="241"/>
-      <c r="BB6" s="241"/>
-      <c r="BC6" s="241"/>
-      <c r="BD6" s="241"/>
-      <c r="BE6" s="241"/>
-      <c r="BF6" s="241"/>
-      <c r="BG6" s="241"/>
-      <c r="BH6" s="241"/>
-      <c r="BI6" s="241"/>
-      <c r="BJ6" s="241"/>
-      <c r="BK6" s="241"/>
-      <c r="BL6" s="241"/>
-      <c r="BM6" s="241"/>
-      <c r="BN6" s="241"/>
-      <c r="BO6" s="241"/>
-      <c r="BP6" s="241"/>
-      <c r="BQ6" s="241"/>
-      <c r="BR6" s="241"/>
-      <c r="BS6" s="241"/>
-      <c r="BT6" s="241"/>
-      <c r="BU6" s="241"/>
-      <c r="BV6" s="241"/>
-      <c r="BW6" s="241"/>
-      <c r="BX6" s="241"/>
-      <c r="BY6" s="241"/>
-      <c r="BZ6" s="241"/>
-      <c r="CA6" s="241"/>
-      <c r="CB6" s="241"/>
-      <c r="CC6" s="241"/>
-      <c r="CD6" s="241"/>
-      <c r="CE6" s="241"/>
-      <c r="CF6" s="241"/>
-      <c r="CG6" s="241"/>
-      <c r="CH6" s="241"/>
-      <c r="CI6" s="241"/>
-      <c r="CJ6" s="241"/>
-      <c r="CK6" s="241"/>
-      <c r="CL6" s="241"/>
-      <c r="CM6" s="241"/>
-      <c r="CN6" s="241"/>
-      <c r="CO6" s="241"/>
-      <c r="CP6" s="241"/>
-      <c r="CQ6" s="241"/>
-      <c r="CR6" s="241"/>
-      <c r="CS6" s="241"/>
-      <c r="CT6" s="241"/>
-      <c r="CU6" s="241"/>
-      <c r="CV6" s="255" t="s">
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="269"/>
+      <c r="Q6" s="269"/>
+      <c r="R6" s="269"/>
+      <c r="S6" s="269"/>
+      <c r="T6" s="269"/>
+      <c r="U6" s="269"/>
+      <c r="V6" s="269"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="269"/>
+      <c r="AI6" s="269"/>
+      <c r="AJ6" s="269"/>
+      <c r="AK6" s="269"/>
+      <c r="AL6" s="269"/>
+      <c r="AM6" s="269"/>
+      <c r="AN6" s="269"/>
+      <c r="AO6" s="269"/>
+      <c r="AP6" s="269"/>
+      <c r="AQ6" s="269"/>
+      <c r="AR6" s="269"/>
+      <c r="AS6" s="269"/>
+      <c r="AT6" s="269"/>
+      <c r="AU6" s="269"/>
+      <c r="AV6" s="269"/>
+      <c r="AW6" s="269"/>
+      <c r="AX6" s="269"/>
+      <c r="AY6" s="269"/>
+      <c r="AZ6" s="269"/>
+      <c r="BA6" s="269"/>
+      <c r="BB6" s="269"/>
+      <c r="BC6" s="269"/>
+      <c r="BD6" s="269"/>
+      <c r="BE6" s="269"/>
+      <c r="BF6" s="269"/>
+      <c r="BG6" s="269"/>
+      <c r="BH6" s="269"/>
+      <c r="BI6" s="269"/>
+      <c r="BJ6" s="269"/>
+      <c r="BK6" s="269"/>
+      <c r="BL6" s="269"/>
+      <c r="BM6" s="269"/>
+      <c r="BN6" s="269"/>
+      <c r="BO6" s="269"/>
+      <c r="BP6" s="269"/>
+      <c r="BQ6" s="269"/>
+      <c r="BR6" s="269"/>
+      <c r="BS6" s="269"/>
+      <c r="BT6" s="269"/>
+      <c r="BU6" s="269"/>
+      <c r="BV6" s="269"/>
+      <c r="BW6" s="269"/>
+      <c r="BX6" s="269"/>
+      <c r="BY6" s="269"/>
+      <c r="BZ6" s="269"/>
+      <c r="CA6" s="269"/>
+      <c r="CB6" s="269"/>
+      <c r="CC6" s="269"/>
+      <c r="CD6" s="269"/>
+      <c r="CE6" s="269"/>
+      <c r="CF6" s="269"/>
+      <c r="CG6" s="269"/>
+      <c r="CH6" s="269"/>
+      <c r="CI6" s="269"/>
+      <c r="CJ6" s="269"/>
+      <c r="CK6" s="269"/>
+      <c r="CL6" s="269"/>
+      <c r="CM6" s="269"/>
+      <c r="CN6" s="269"/>
+      <c r="CO6" s="269"/>
+      <c r="CP6" s="269"/>
+      <c r="CQ6" s="269"/>
+      <c r="CR6" s="269"/>
+      <c r="CS6" s="269"/>
+      <c r="CT6" s="269"/>
+      <c r="CU6" s="269"/>
+      <c r="CV6" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="256"/>
-      <c r="CX6" s="255" t="s">
+      <c r="CW6" s="232"/>
+      <c r="CX6" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="259"/>
-      <c r="CZ6" s="259"/>
-      <c r="DA6" s="259"/>
-      <c r="DB6" s="259"/>
-      <c r="DC6" s="259"/>
-      <c r="DD6" s="259"/>
-      <c r="DE6" s="259"/>
-      <c r="DF6" s="259"/>
-      <c r="DG6" s="259"/>
-      <c r="DH6" s="231" t="s">
+      <c r="CY6" s="235"/>
+      <c r="CZ6" s="235"/>
+      <c r="DA6" s="235"/>
+      <c r="DB6" s="235"/>
+      <c r="DC6" s="235"/>
+      <c r="DD6" s="235"/>
+      <c r="DE6" s="235"/>
+      <c r="DF6" s="235"/>
+      <c r="DG6" s="235"/>
+      <c r="DH6" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="234" t="s">
+      <c r="DI6" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="244" t="s">
+      <c r="DJ6" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="244"/>
-      <c r="DL6" s="244"/>
-      <c r="DM6" s="244"/>
-      <c r="DN6" s="244"/>
-      <c r="DO6" s="245"/>
+      <c r="DK6" s="220"/>
+      <c r="DL6" s="220"/>
+      <c r="DM6" s="220"/>
+      <c r="DN6" s="220"/>
+      <c r="DO6" s="221"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="263"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="242"/>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="242"/>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-      <c r="V7" s="242"/>
-      <c r="W7" s="242"/>
-      <c r="X7" s="242"/>
-      <c r="Y7" s="242"/>
-      <c r="Z7" s="242"/>
-      <c r="AA7" s="242"/>
-      <c r="AB7" s="242"/>
-      <c r="AC7" s="242"/>
-      <c r="AD7" s="242"/>
-      <c r="AE7" s="242"/>
-      <c r="AF7" s="242"/>
-      <c r="AG7" s="242"/>
-      <c r="AH7" s="242"/>
-      <c r="AI7" s="242"/>
-      <c r="AJ7" s="242"/>
-      <c r="AK7" s="242"/>
-      <c r="AL7" s="242"/>
-      <c r="AM7" s="242"/>
-      <c r="AN7" s="242"/>
-      <c r="AO7" s="242"/>
-      <c r="AP7" s="242"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="242"/>
-      <c r="AS7" s="242"/>
-      <c r="AT7" s="242"/>
-      <c r="AU7" s="242"/>
-      <c r="AV7" s="242"/>
-      <c r="AW7" s="242"/>
-      <c r="AX7" s="242"/>
-      <c r="AY7" s="242"/>
-      <c r="AZ7" s="242"/>
-      <c r="BA7" s="242"/>
-      <c r="BB7" s="242"/>
-      <c r="BC7" s="242"/>
-      <c r="BD7" s="242"/>
-      <c r="BE7" s="242"/>
-      <c r="BF7" s="242"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="242"/>
-      <c r="BI7" s="242"/>
-      <c r="BJ7" s="242"/>
-      <c r="BK7" s="242"/>
-      <c r="BL7" s="242"/>
-      <c r="BM7" s="242"/>
-      <c r="BN7" s="242"/>
-      <c r="BO7" s="243"/>
-      <c r="BP7" s="243"/>
-      <c r="BQ7" s="243"/>
-      <c r="BR7" s="242"/>
-      <c r="BS7" s="242"/>
-      <c r="BT7" s="242"/>
-      <c r="BU7" s="242"/>
-      <c r="BV7" s="242"/>
-      <c r="BW7" s="242"/>
-      <c r="BX7" s="242"/>
-      <c r="BY7" s="242"/>
-      <c r="BZ7" s="242"/>
-      <c r="CA7" s="242"/>
-      <c r="CB7" s="242"/>
-      <c r="CC7" s="242"/>
-      <c r="CD7" s="242"/>
-      <c r="CE7" s="242"/>
-      <c r="CF7" s="242"/>
-      <c r="CG7" s="242"/>
-      <c r="CH7" s="242"/>
-      <c r="CI7" s="242"/>
-      <c r="CJ7" s="242"/>
-      <c r="CK7" s="242"/>
-      <c r="CL7" s="242"/>
-      <c r="CM7" s="242"/>
-      <c r="CN7" s="242"/>
-      <c r="CO7" s="242"/>
-      <c r="CP7" s="242"/>
-      <c r="CQ7" s="242"/>
-      <c r="CR7" s="242"/>
-      <c r="CS7" s="242"/>
-      <c r="CT7" s="242"/>
-      <c r="CU7" s="242"/>
-      <c r="CV7" s="257"/>
-      <c r="CW7" s="258"/>
-      <c r="CX7" s="257"/>
-      <c r="CY7" s="260"/>
-      <c r="CZ7" s="260"/>
-      <c r="DA7" s="260"/>
-      <c r="DB7" s="260"/>
-      <c r="DC7" s="260"/>
-      <c r="DD7" s="260"/>
-      <c r="DE7" s="260"/>
-      <c r="DF7" s="260"/>
-      <c r="DG7" s="260"/>
-      <c r="DH7" s="232"/>
-      <c r="DI7" s="235"/>
-      <c r="DJ7" s="246"/>
-      <c r="DK7" s="246"/>
-      <c r="DL7" s="246"/>
-      <c r="DM7" s="246"/>
-      <c r="DN7" s="246"/>
-      <c r="DO7" s="247"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="270"/>
+      <c r="S7" s="270"/>
+      <c r="T7" s="270"/>
+      <c r="U7" s="270"/>
+      <c r="V7" s="270"/>
+      <c r="W7" s="270"/>
+      <c r="X7" s="270"/>
+      <c r="Y7" s="270"/>
+      <c r="Z7" s="270"/>
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="270"/>
+      <c r="AC7" s="270"/>
+      <c r="AD7" s="270"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="270"/>
+      <c r="AG7" s="270"/>
+      <c r="AH7" s="270"/>
+      <c r="AI7" s="270"/>
+      <c r="AJ7" s="270"/>
+      <c r="AK7" s="270"/>
+      <c r="AL7" s="270"/>
+      <c r="AM7" s="270"/>
+      <c r="AN7" s="270"/>
+      <c r="AO7" s="270"/>
+      <c r="AP7" s="270"/>
+      <c r="AQ7" s="270"/>
+      <c r="AR7" s="270"/>
+      <c r="AS7" s="270"/>
+      <c r="AT7" s="270"/>
+      <c r="AU7" s="270"/>
+      <c r="AV7" s="270"/>
+      <c r="AW7" s="270"/>
+      <c r="AX7" s="270"/>
+      <c r="AY7" s="270"/>
+      <c r="AZ7" s="270"/>
+      <c r="BA7" s="270"/>
+      <c r="BB7" s="270"/>
+      <c r="BC7" s="270"/>
+      <c r="BD7" s="270"/>
+      <c r="BE7" s="270"/>
+      <c r="BF7" s="270"/>
+      <c r="BG7" s="270"/>
+      <c r="BH7" s="270"/>
+      <c r="BI7" s="270"/>
+      <c r="BJ7" s="270"/>
+      <c r="BK7" s="270"/>
+      <c r="BL7" s="270"/>
+      <c r="BM7" s="270"/>
+      <c r="BN7" s="270"/>
+      <c r="BO7" s="271"/>
+      <c r="BP7" s="271"/>
+      <c r="BQ7" s="271"/>
+      <c r="BR7" s="270"/>
+      <c r="BS7" s="270"/>
+      <c r="BT7" s="270"/>
+      <c r="BU7" s="270"/>
+      <c r="BV7" s="270"/>
+      <c r="BW7" s="270"/>
+      <c r="BX7" s="270"/>
+      <c r="BY7" s="270"/>
+      <c r="BZ7" s="270"/>
+      <c r="CA7" s="270"/>
+      <c r="CB7" s="270"/>
+      <c r="CC7" s="270"/>
+      <c r="CD7" s="270"/>
+      <c r="CE7" s="270"/>
+      <c r="CF7" s="270"/>
+      <c r="CG7" s="270"/>
+      <c r="CH7" s="270"/>
+      <c r="CI7" s="270"/>
+      <c r="CJ7" s="270"/>
+      <c r="CK7" s="270"/>
+      <c r="CL7" s="270"/>
+      <c r="CM7" s="270"/>
+      <c r="CN7" s="270"/>
+      <c r="CO7" s="270"/>
+      <c r="CP7" s="270"/>
+      <c r="CQ7" s="270"/>
+      <c r="CR7" s="270"/>
+      <c r="CS7" s="270"/>
+      <c r="CT7" s="270"/>
+      <c r="CU7" s="270"/>
+      <c r="CV7" s="233"/>
+      <c r="CW7" s="234"/>
+      <c r="CX7" s="233"/>
+      <c r="CY7" s="236"/>
+      <c r="CZ7" s="236"/>
+      <c r="DA7" s="236"/>
+      <c r="DB7" s="236"/>
+      <c r="DC7" s="236"/>
+      <c r="DD7" s="236"/>
+      <c r="DE7" s="236"/>
+      <c r="DF7" s="236"/>
+      <c r="DG7" s="236"/>
+      <c r="DH7" s="260"/>
+      <c r="DI7" s="263"/>
+      <c r="DJ7" s="222"/>
+      <c r="DK7" s="222"/>
+      <c r="DL7" s="222"/>
+      <c r="DM7" s="222"/>
+      <c r="DN7" s="222"/>
+      <c r="DO7" s="223"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="264"/>
-      <c r="B8" s="267"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="273"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="255"/>
       <c r="G8" s="279">
         <v>1</v>
       </c>
-      <c r="H8" s="227"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="221">
+      <c r="H8" s="238"/>
+      <c r="I8" s="239"/>
+      <c r="J8" s="256">
         <v>2</v>
       </c>
-      <c r="K8" s="222"/>
-      <c r="L8" s="223"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="257"/>
       <c r="M8" s="274">
         <v>3</v>
       </c>
@@ -12160,16 +12202,16 @@
       </c>
       <c r="W8" s="275"/>
       <c r="X8" s="276"/>
-      <c r="Y8" s="226">
+      <c r="Y8" s="237">
         <v>7</v>
       </c>
-      <c r="Z8" s="227"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="226">
+      <c r="Z8" s="238"/>
+      <c r="AA8" s="239"/>
+      <c r="AB8" s="237">
         <v>8</v>
       </c>
-      <c r="AC8" s="227"/>
-      <c r="AD8" s="229"/>
+      <c r="AC8" s="238"/>
+      <c r="AD8" s="239"/>
       <c r="AE8" s="274">
         <v>9</v>
       </c>
@@ -12195,16 +12237,16 @@
       </c>
       <c r="AR8" s="275"/>
       <c r="AS8" s="276"/>
-      <c r="AT8" s="240">
+      <c r="AT8" s="268">
         <v>14</v>
       </c>
-      <c r="AU8" s="227"/>
-      <c r="AV8" s="229"/>
-      <c r="AW8" s="226">
+      <c r="AU8" s="238"/>
+      <c r="AV8" s="239"/>
+      <c r="AW8" s="237">
         <v>15</v>
       </c>
-      <c r="AX8" s="227"/>
-      <c r="AY8" s="229"/>
+      <c r="AX8" s="238"/>
+      <c r="AY8" s="239"/>
       <c r="AZ8" s="274">
         <v>16</v>
       </c>
@@ -12230,16 +12272,16 @@
       </c>
       <c r="BM8" s="275"/>
       <c r="BN8" s="276"/>
-      <c r="BO8" s="226">
+      <c r="BO8" s="237">
         <v>21</v>
       </c>
-      <c r="BP8" s="227"/>
-      <c r="BQ8" s="229"/>
-      <c r="BR8" s="226">
+      <c r="BP8" s="238"/>
+      <c r="BQ8" s="239"/>
+      <c r="BR8" s="237">
         <v>22</v>
       </c>
-      <c r="BS8" s="227"/>
-      <c r="BT8" s="229"/>
+      <c r="BS8" s="238"/>
+      <c r="BT8" s="239"/>
       <c r="BU8" s="277">
         <v>23</v>
       </c>
@@ -12265,16 +12307,16 @@
       </c>
       <c r="CH8" s="275"/>
       <c r="CI8" s="278"/>
-      <c r="CJ8" s="226">
+      <c r="CJ8" s="237">
         <v>28</v>
       </c>
-      <c r="CK8" s="227"/>
-      <c r="CL8" s="229"/>
-      <c r="CM8" s="226">
+      <c r="CK8" s="238"/>
+      <c r="CL8" s="239"/>
+      <c r="CM8" s="237">
         <v>29</v>
       </c>
-      <c r="CN8" s="227"/>
-      <c r="CO8" s="229"/>
+      <c r="CN8" s="238"/>
+      <c r="CO8" s="239"/>
       <c r="CP8" s="274">
         <v>30</v>
       </c>
@@ -12319,8 +12361,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="233"/>
-      <c r="DI8" s="236"/>
+      <c r="DH8" s="261"/>
+      <c r="DI8" s="264"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -12824,44 +12866,66 @@
       </c>
       <c r="BK10" s="174"/>
       <c r="BL10" s="175"/>
-      <c r="BM10" s="173"/>
+      <c r="BM10" s="173">
+        <v>8</v>
+      </c>
       <c r="BN10" s="174"/>
       <c r="BO10" s="175"/>
-      <c r="BP10" s="173"/>
+      <c r="BP10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ10" s="174"/>
       <c r="BR10" s="175"/>
-      <c r="BS10" s="173"/>
+      <c r="BS10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="BT10" s="174"/>
       <c r="BU10" s="175"/>
-      <c r="BV10" s="173"/>
+      <c r="BV10" s="173">
+        <v>8</v>
+      </c>
       <c r="BW10" s="174"/>
       <c r="BX10" s="175"/>
-      <c r="BY10" s="173"/>
+      <c r="BY10" s="173">
+        <v>8</v>
+      </c>
       <c r="BZ10" s="174"/>
       <c r="CA10" s="175"/>
-      <c r="CB10" s="173"/>
+      <c r="CB10" s="173">
+        <v>8</v>
+      </c>
       <c r="CC10" s="174"/>
       <c r="CD10" s="175"/>
-      <c r="CE10" s="173"/>
+      <c r="CE10" s="173">
+        <v>8</v>
+      </c>
       <c r="CF10" s="174"/>
       <c r="CG10" s="175"/>
-      <c r="CH10" s="173"/>
+      <c r="CH10" s="173">
+        <v>8</v>
+      </c>
       <c r="CI10" s="174"/>
       <c r="CJ10" s="175"/>
-      <c r="CK10" s="173"/>
+      <c r="CK10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="CL10" s="174"/>
       <c r="CM10" s="175"/>
-      <c r="CN10" s="173"/>
+      <c r="CN10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="CO10" s="174"/>
       <c r="CP10" s="175"/>
-      <c r="CQ10" s="173"/>
+      <c r="CQ10" s="173">
+        <v>8</v>
+      </c>
       <c r="CR10" s="174"/>
       <c r="CS10" s="175"/>
       <c r="CT10" s="173"/>
       <c r="CU10" s="174"/>
       <c r="CV10" s="177">
         <f t="shared" ref="CV10:CV23" si="0">IF(SUM(G10:I10)&gt;=1,1,0)+IF(SUM(J10:L10)&gt;=1,1,0)+IF(SUM(M10:O10)&gt;=1,1,0)+IF(SUM(P10:R10)&gt;=1,1,0)+IF(SUM(S10:U10)&gt;=1,1,0)+IF(SUM(V10:X10)&gt;=1,1,0)+IF(SUM(Y10:AA10)&gt;=1,1,0)+IF(SUM(AB10:AD10)&gt;=1,1,0)+IF(SUM(AE10:AG10)&gt;=1,1,0)+IF(SUM(AH10:AJ10)&gt;=1,1,0)+IF(SUM(AK10:AM10)&gt;=1,1,0)+IF(SUM(AN10:AP10)&gt;=1,1,0)+IF(SUM(AQ10:AS10)&gt;=1,1,0)+IF(SUM(AT10:AV10)&gt;=1,1,0)+IF(SUM(AW10:AY10)&gt;=1,1,0)+IF(SUM(AZ10:BB10)&gt;=1,1,0)+IF(SUM(BC10:BE10)&gt;=1,1,0)+IF(SUM(BF10:BH10)&gt;=1,1,0)+IF(SUM(BI10:BK10)&gt;=1,1,0)+IF(SUM(BL10:BN10)&gt;=1,1,0)+IF(SUM(BO10:BQ10)&gt;=1,1,0)+IF(SUM(BR10:BT10)&gt;=1,1,0)+IF(SUM(BU10:BW10)&gt;=1,1,0)+IF(SUM(BX10:BZ10)&gt;=1,1,0)+IF(SUM(CA10:CC10)&gt;=1,1,0)+IF(SUM(CD10:CF10)&gt;=1,1,0)+IF(SUM(CG10:CI10)&gt;=1,1,0)+IF(SUM(CJ10:CL10)&gt;=1,1,0)+IF(SUM(CM10:CO10)&gt;=1,1,0)+IF(SUM(CP10:CR10)&gt;=1,1,0)+IF(SUM(CS10:CU10)&gt;=1,1,0)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="CW10" s="178">
         <f t="shared" ref="CW10:CW23" si="1">IF(CK10="К",1,0)+IF(CN10="К",1,0)+IF(CQ10="К",1,0)+IF(CT10="К",1,0)+IF(CH10="К",1,0)+IF(H10="К",1,0)+IF(K10="К",1,0)+IF(N10="К",1,0)+IF(Q10="К",1,0)+IF(T10="К",1,0)+IF(W10="К",1,0)+IF(Z10="К",1,0)+IF(AC10="К",1,0)+IF(AF10="К",1,0)+IF(AI10="К",1,0)+IF(AL10="К",1,0)+IF(AO10="К",1,0)+IF(AR10="К",1,0)+IF(AU10="К",1,0)+IF(AX10="К",1,0)+IF(BA10="К",1,0)+IF(BD10="К",1,0)+IF(BG10="К",1,0)+IF(BJ10="К",1,0)+IF(BM10="К",1,0)+IF(BP10="К",1,0)+IF(BS10="К",1,0)+IF(BV10="К",1,0)+IF(BY10="К",1,0)+IF(CB10="К",1,0)+IF(CE10="К",1,0)</f>
@@ -12909,15 +12973,15 @@
       </c>
       <c r="DH10" s="178">
         <f t="shared" ref="DH10:DH22" si="12">IF(CQ10="В",1,0)+IF(CT10="В",1,0)+IF(H10="В",1,0)+IF(K10="В",1,0)+IF(N10="В",1,0)+IF(Q10="В",1,0)+IF(T10="В",1,0)+IF(W10="В",1,0)+IF(Z10="В",1,0)+IF(AC10="В",1,0)+IF(AF10="В",1,0)+IF(AI10="В",1,0)+IF(AL10="В",1,0)+IF(AO10="В",1,0)+IF(AR10="В",1,0)+IF(AU10="В",1,0)+IF(AX10="В",1,0)+IF(BA10="В",1,0)+IF(BD10="В",1,0)+IF(BG10="В",1,0)+IF(BJ10="В",1,0)+IF(BM10="В",1,0)+IF(BP10="В",1,0)+IF(BS10="В",1,0)+IF(BV10="В",1,0)+IF(BY10="В",1,0)+IF(CB10="В",1,0)+IF(CE10="В",1,0)+IF(CH10="В",1,0)+IF(CK10="В",1,0)+IF(CN10="В",1,0)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DI10" s="178">
         <f t="shared" ref="DI10:DI22" si="13">SUM(CV10:DH10)</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="DJ10" s="170">
         <f>SUM(G10:CU10)</f>
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="DK10" s="170">
         <v>0</v>
@@ -12941,7 +13005,7 @@
       </c>
       <c r="DS10" s="32">
         <f t="shared" si="16"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="DT10" s="32">
         <f t="shared" si="16"/>
@@ -13423,39 +13487,59 @@
         <v>79</v>
       </c>
       <c r="BQ12" s="205"/>
-      <c r="BR12" s="206"/>
-      <c r="BS12" s="204"/>
-      <c r="BT12" s="205"/>
-      <c r="BU12" s="206"/>
-      <c r="BV12" s="204"/>
-      <c r="BW12" s="205"/>
-      <c r="BX12" s="206"/>
-      <c r="BY12" s="204"/>
-      <c r="BZ12" s="205"/>
-      <c r="CA12" s="206"/>
-      <c r="CB12" s="204"/>
-      <c r="CC12" s="205"/>
-      <c r="CD12" s="206"/>
-      <c r="CE12" s="204"/>
-      <c r="CF12" s="205"/>
-      <c r="CG12" s="206"/>
-      <c r="CH12" s="204"/>
-      <c r="CI12" s="205"/>
-      <c r="CJ12" s="206"/>
-      <c r="CK12" s="204"/>
-      <c r="CL12" s="205"/>
-      <c r="CM12" s="206"/>
-      <c r="CN12" s="204"/>
-      <c r="CO12" s="205"/>
-      <c r="CP12" s="206"/>
-      <c r="CQ12" s="204"/>
-      <c r="CR12" s="205"/>
+      <c r="BR12" s="187"/>
+      <c r="BS12" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="BT12" s="183"/>
+      <c r="BU12" s="187"/>
+      <c r="BV12" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="BW12" s="183"/>
+      <c r="BX12" s="187"/>
+      <c r="BY12" s="182"/>
+      <c r="BZ12" s="183">
+        <v>4</v>
+      </c>
+      <c r="CA12" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="CB12" s="182"/>
+      <c r="CC12" s="183">
+        <v>4</v>
+      </c>
+      <c r="CD12" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="CE12" s="182"/>
+      <c r="CF12" s="183"/>
+      <c r="CG12" s="187"/>
+      <c r="CH12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="CI12" s="183"/>
+      <c r="CJ12" s="187"/>
+      <c r="CK12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL12" s="183"/>
+      <c r="CM12" s="187"/>
+      <c r="CN12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="CO12" s="183"/>
+      <c r="CP12" s="187"/>
+      <c r="CQ12" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="CR12" s="183"/>
       <c r="CS12" s="206"/>
       <c r="CT12" s="204"/>
       <c r="CU12" s="205"/>
       <c r="CV12" s="209">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="CW12" s="210">
         <f t="shared" si="1"/>
@@ -13503,15 +13587,15 @@
       </c>
       <c r="DH12" s="210">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DI12" s="210">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="DJ12" s="212">
         <f t="shared" si="24"/>
-        <v>108.5</v>
+        <v>164.75</v>
       </c>
       <c r="DK12" s="213">
         <v>0</v>
@@ -13520,14 +13604,14 @@
       <c r="DM12" s="213"/>
       <c r="DN12" s="214">
         <f t="shared" si="14"/>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="DO12" s="215">
         <v>0</v>
       </c>
       <c r="DQ12" s="32">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DR12" s="32">
         <f t="shared" si="16"/>
@@ -13571,19 +13655,19 @@
       </c>
       <c r="EB12" s="32">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="EC12" s="32">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EE12" s="152">
         <f t="shared" ref="EE12:EE23" si="26">COUNTIF(G12:CU12, "4")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EF12" s="152">
         <f t="shared" ref="EF12:EF23" si="27">COUNTIF(G12:CU12, "7,25")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:136" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14012,44 +14096,68 @@
       </c>
       <c r="BK14" s="183"/>
       <c r="BL14" s="187"/>
-      <c r="BM14" s="182"/>
+      <c r="BM14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BN14" s="183"/>
       <c r="BO14" s="187"/>
-      <c r="BP14" s="182"/>
+      <c r="BP14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BQ14" s="183"/>
       <c r="BR14" s="187"/>
       <c r="BS14" s="182"/>
-      <c r="BT14" s="183"/>
-      <c r="BU14" s="187"/>
+      <c r="BT14" s="183">
+        <v>4</v>
+      </c>
+      <c r="BU14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BV14" s="182"/>
-      <c r="BW14" s="183"/>
-      <c r="BX14" s="187"/>
+      <c r="BW14" s="183">
+        <v>4</v>
+      </c>
+      <c r="BX14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BY14" s="182"/>
       <c r="BZ14" s="183"/>
       <c r="CA14" s="187"/>
-      <c r="CB14" s="182"/>
+      <c r="CB14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC14" s="183"/>
       <c r="CD14" s="187"/>
-      <c r="CE14" s="182"/>
+      <c r="CE14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CF14" s="183"/>
       <c r="CG14" s="187"/>
-      <c r="CH14" s="182"/>
+      <c r="CH14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CI14" s="183"/>
       <c r="CJ14" s="187"/>
-      <c r="CK14" s="182"/>
+      <c r="CK14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CL14" s="183"/>
       <c r="CM14" s="187"/>
-      <c r="CN14" s="182"/>
+      <c r="CN14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CO14" s="183"/>
       <c r="CP14" s="187"/>
       <c r="CQ14" s="182"/>
-      <c r="CR14" s="183"/>
+      <c r="CR14" s="183">
+        <v>4</v>
+      </c>
       <c r="CS14" s="187"/>
       <c r="CT14" s="182"/>
       <c r="CU14" s="183"/>
       <c r="CV14" s="168">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="CW14" s="79">
         <f t="shared" si="1"/>
@@ -14097,15 +14205,15 @@
       </c>
       <c r="DH14" s="80">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DI14" s="80">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="DJ14" s="70">
         <f t="shared" si="24"/>
-        <v>22.5</v>
+        <v>94</v>
       </c>
       <c r="DK14" s="69">
         <v>0</v>
@@ -14114,14 +14222,14 @@
       <c r="DM14" s="75"/>
       <c r="DN14" s="71">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="DO14" s="72">
         <v>0</v>
       </c>
       <c r="DQ14" s="32">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DR14" s="32">
         <f t="shared" si="16"/>
@@ -14165,19 +14273,19 @@
       </c>
       <c r="EB14" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EC14" s="32">
         <f>IF(S14=7.25,1,0)+IF(V14=7.25,1,0)+IF(Y14=7.25,1,0)+IF(AB14=7.25,1,0)+IF(AE14=7.25,1,0)+IF(AH14=7.25,1,0)+IF(AK14=7.25,1,0)+IF(AN14=7.25,1,0)+IF(AQ14=7.25,1,0)+IF(AT14=7.25,1,0)+IF(AW14=7.25,1,0)+IF(AZ14=7.25,1,0)+IF(BC14=7.25,1,0)+IF(BF14=7.25,1,0)+IF(BI14=7.25,1,0)+IF(BL14=7.25,1,0)+IF(BO14=7.25,1,0)+IF(BR14=7.25,1,0)+IF(BU14=7.25,1,0)+IF(BX14=7.25,1,0)+IF(CA14=7.25,1,0)+IF(CD14=7.25,1,0)+IF(CG14=7.25,1,0)+IF(CJ14=7.25,1,0)+IF(CM14=7.25,1,0)+IF(CP14=7.25,1,0)+IF(CS14=7.25,1,0)+IF(G14=7.25,1,0)+IF(J14=7.25,1,0)+IF(M14=7.25,1,0)+IF(P14=7.25,1,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EE14" s="152">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="EF14" s="152">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14299,41 +14407,63 @@
       </c>
       <c r="BN15" s="183"/>
       <c r="BO15" s="187"/>
-      <c r="BP15" s="182"/>
+      <c r="BP15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BQ15" s="183"/>
       <c r="BR15" s="187"/>
       <c r="BS15" s="182"/>
-      <c r="BT15" s="183"/>
-      <c r="BU15" s="187"/>
+      <c r="BT15" s="183">
+        <v>4</v>
+      </c>
+      <c r="BU15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BV15" s="182"/>
-      <c r="BW15" s="183"/>
-      <c r="BX15" s="187"/>
+      <c r="BW15" s="183">
+        <v>4</v>
+      </c>
+      <c r="BX15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BY15" s="182"/>
       <c r="BZ15" s="183"/>
       <c r="CA15" s="187"/>
-      <c r="CB15" s="182"/>
+      <c r="CB15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC15" s="183"/>
       <c r="CD15" s="187"/>
-      <c r="CE15" s="182"/>
+      <c r="CE15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CF15" s="183"/>
       <c r="CG15" s="187"/>
-      <c r="CH15" s="182"/>
+      <c r="CH15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CI15" s="183"/>
       <c r="CJ15" s="187"/>
-      <c r="CK15" s="182"/>
+      <c r="CK15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CL15" s="183"/>
       <c r="CM15" s="187"/>
-      <c r="CN15" s="182"/>
+      <c r="CN15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CO15" s="183"/>
       <c r="CP15" s="187"/>
       <c r="CQ15" s="182"/>
-      <c r="CR15" s="183"/>
+      <c r="CR15" s="183">
+        <v>4</v>
+      </c>
       <c r="CS15" s="187"/>
       <c r="CT15" s="182"/>
       <c r="CU15" s="183"/>
       <c r="CV15" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CW15" s="79">
         <f>IF(CK15="К",1,0)+IF(CN15="К",1,0)+IF(CQ15="К",1,0)+IF(CT15="К",1,0)+IF(CH15="К",1,0)+IF(H15="К",1,0)+IF(K15="К",1,0)+IF(N15="К",1,0)+IF(Q15="К",1,0)+IF(T15="К",1,0)+IF(W15="К",1,0)+IF(Z15="К",1,0)+IF(AC15="К",1,0)+IF(AF15="К",1,0)+IF(AI15="К",1,0)+IF(AL15="К",1,0)+IF(AO15="К",1,0)+IF(AR15="К",1,0)+IF(AU15="К",1,0)+IF(AX15="К",1,0)+IF(BA15="К",1,0)+IF(BD15="К",1,0)+IF(BG15="К",1,0)+IF(BJ15="К",1,0)+IF(BM15="К",1,0)+IF(BP15="К",1,0)+IF(BS15="К",1,0)+IF(BV15="К",1,0)+IF(BY15="К",1,0)+IF(CB15="К",1,0)+IF(CE15="К",1,0)</f>
@@ -14381,15 +14511,15 @@
       </c>
       <c r="DH15" s="80">
         <f>IF(CQ15="В",1,0)+IF(CT15="В",1,0)+IF(H15="В",1,0)+IF(K15="В",1,0)+IF(N15="В",1,0)+IF(Q15="В",1,0)+IF(T15="В",1,0)+IF(W15="В",1,0)+IF(Z15="В",1,0)+IF(AC15="В",1,0)+IF(AF15="В",1,0)+IF(AI15="В",1,0)+IF(AL15="В",1,0)+IF(AO15="В",1,0)+IF(AR15="В",1,0)+IF(AU15="В",1,0)+IF(AX15="В",1,0)+IF(BA15="В",1,0)+IF(BD15="В",1,0)+IF(BG15="В",1,0)+IF(BJ15="В",1,0)+IF(BM15="В",1,0)+IF(BP15="В",1,0)+IF(BS15="В",1,0)+IF(BV15="В",1,0)+IF(BY15="В",1,0)+IF(CB15="В",1,0)+IF(CE15="В",1,0)+IF(CH15="В",1,0)+IF(CK15="В",1,0)+IF(CN15="В",1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DI15" s="80">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="DJ15" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>60.25</v>
       </c>
       <c r="DK15" s="69">
         <v>0</v>
@@ -14398,14 +14528,14 @@
       <c r="DM15" s="75"/>
       <c r="DN15" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="DO15" s="72">
         <v>0</v>
       </c>
       <c r="DQ15" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DR15" s="32">
         <f t="shared" si="16"/>
@@ -14449,19 +14579,19 @@
       </c>
       <c r="EB15" s="32">
         <f>IF(Q15=11.25,1,0)+IF(T15=11.25,1,0)+IF(W15=11.25,1,0)+IF(Z15=11.25,1,0)+IF(AC15=11.25,1,0)+IF(AF15=11.25,1,0)+IF(AI15=11.25,1,0)+IF(AL15=11.25,1,0)+IF(AO15=11.25,1,0)+IF(AR15=11.25,1,0)+IF(AU15=11.25,1,0)+IF(AX15=11.25,1,0)+IF(BA15=11.25,1,0)+IF(BD15=11.25,1,0)+IF(BG15=11.25,1,0)+IF(BJ15=11.25,1,0)+IF(BM15=11.25,1,0)+IF(BP15=11.25,1,0)+IF(BS15=11.25,1,0)+IF(BV15=11.25,1,0)+IF(BY15=11.25,1,0)+IF(CB15=11.25,1,0)+IF(CE15=11.25,1,0)+IF(CH15=11.25,1,0)+IF(CK15=11.25,1,0)+IF(CN15=11.25,1,0)+IF(CQ15=11.25,1,0)+IF(CT15=11.25,1,0)+IF(H15=11.25,1,0)+IF(K15=11.25,1,0)+IF(N15=11.25,1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EC15" s="32">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE15" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF15" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14600,32 +14730,48 @@
       </c>
       <c r="BW16" s="183"/>
       <c r="BX16" s="187"/>
-      <c r="BY16" s="182"/>
+      <c r="BY16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BZ16" s="183"/>
       <c r="CA16" s="187"/>
-      <c r="CB16" s="182"/>
+      <c r="CB16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CC16" s="183"/>
       <c r="CD16" s="187"/>
       <c r="CE16" s="182"/>
-      <c r="CF16" s="183"/>
-      <c r="CG16" s="187"/>
+      <c r="CF16" s="183">
+        <v>4</v>
+      </c>
+      <c r="CG16" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CH16" s="182"/>
-      <c r="CI16" s="183"/>
-      <c r="CJ16" s="187"/>
+      <c r="CI16" s="183">
+        <v>4</v>
+      </c>
+      <c r="CJ16" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CK16" s="182"/>
       <c r="CL16" s="183"/>
       <c r="CM16" s="187"/>
-      <c r="CN16" s="182"/>
+      <c r="CN16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CO16" s="183"/>
       <c r="CP16" s="187"/>
-      <c r="CQ16" s="182"/>
+      <c r="CQ16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CR16" s="183"/>
       <c r="CS16" s="187"/>
       <c r="CT16" s="182"/>
       <c r="CU16" s="183"/>
       <c r="CV16" s="168">
         <f>IF(SUM(G16:I16)&gt;=1,1,0)+IF(SUM(J16:L16)&gt;=1,1,0)+IF(SUM(M16:O16)&gt;=1,1,0)+IF(SUM(P16:R16)&gt;=1,1,0)+IF(SUM(S16:U16)&gt;=1,1,0)+IF(SUM(V16:X16)&gt;=1,1,0)+IF(SUM(Y16:AA16)&gt;=1,1,0)+IF(SUM(AB16:AD16)&gt;=1,1,0)+IF(SUM(AE16:AG16)&gt;=1,1,0)+IF(SUM(AH16:AJ16)&gt;=1,1,0)+IF(SUM(AK16:AM16)&gt;=1,1,0)+IF(SUM(AN16:AP16)&gt;=1,1,0)+IF(SUM(AQ16:AS16)&gt;=1,1,0)+IF(SUM(AT16:AV16)&gt;=1,1,0)+IF(SUM(AW16:AY16)&gt;=1,1,0)+IF(SUM(AZ16:BB16)&gt;=1,1,0)+IF(SUM(BC16:BE16)&gt;=1,1,0)+IF(SUM(BF16:BH16)&gt;=1,1,0)+IF(SUM(BI16:BK16)&gt;=1,1,0)+IF(SUM(BL16:BN16)&gt;=1,1,0)+IF(SUM(BO16:BQ16)&gt;=1,1,0)+IF(SUM(BR16:BT16)&gt;=1,1,0)+IF(SUM(BU16:BW16)&gt;=1,1,0)+IF(SUM(BX16:BZ16)&gt;=1,1,0)+IF(SUM(CA16:CC16)&gt;=1,1,0)+IF(SUM(CD16:CF16)&gt;=1,1,0)+IF(SUM(CG16:CI16)&gt;=1,1,0)+IF(SUM(CJ16:CL16)&gt;=1,1,0)+IF(SUM(CM16:CO16)&gt;=1,1,0)+IF(SUM(CP16:CR16)&gt;=1,1,0)+IF(SUM(CS16:CU16)&gt;=1,1,0)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="CW16" s="79">
         <f t="shared" si="1"/>
@@ -14673,15 +14819,15 @@
       </c>
       <c r="DH16" s="80">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DI16" s="80">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="DJ16" s="70">
         <f t="shared" si="24"/>
-        <v>123.75</v>
+        <v>168.75</v>
       </c>
       <c r="DK16" s="69">
         <v>0</v>
@@ -14690,14 +14836,14 @@
       <c r="DM16" s="75"/>
       <c r="DN16" s="71">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="DO16" s="72">
         <v>0</v>
       </c>
       <c r="DQ16" s="32">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DR16" s="32">
         <f t="shared" si="16"/>
@@ -14741,19 +14887,19 @@
       </c>
       <c r="EB16" s="32">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="EC16" s="32">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EE16" s="152">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EF16" s="152">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14896,32 +15042,48 @@
       </c>
       <c r="BW17" s="183"/>
       <c r="BX17" s="187"/>
-      <c r="BY17" s="182"/>
+      <c r="BY17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BZ17" s="183"/>
       <c r="CA17" s="187"/>
-      <c r="CB17" s="182"/>
+      <c r="CB17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CC17" s="183"/>
       <c r="CD17" s="187"/>
       <c r="CE17" s="182"/>
-      <c r="CF17" s="183"/>
-      <c r="CG17" s="187"/>
+      <c r="CF17" s="183">
+        <v>4</v>
+      </c>
+      <c r="CG17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CH17" s="182"/>
-      <c r="CI17" s="183"/>
-      <c r="CJ17" s="187"/>
+      <c r="CI17" s="183">
+        <v>4</v>
+      </c>
+      <c r="CJ17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CK17" s="182"/>
       <c r="CL17" s="183"/>
       <c r="CM17" s="187"/>
-      <c r="CN17" s="182"/>
+      <c r="CN17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CO17" s="183"/>
       <c r="CP17" s="187"/>
-      <c r="CQ17" s="182"/>
+      <c r="CQ17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CR17" s="183"/>
       <c r="CS17" s="187"/>
       <c r="CT17" s="182"/>
       <c r="CU17" s="183"/>
       <c r="CV17" s="168">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="CW17" s="79">
         <f t="shared" si="1"/>
@@ -14969,15 +15131,15 @@
       </c>
       <c r="DH17" s="80">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DI17" s="80">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="DJ17" s="70">
         <f t="shared" si="24"/>
-        <v>123.75</v>
+        <v>168.75</v>
       </c>
       <c r="DK17" s="69">
         <v>0</v>
@@ -14986,14 +15148,14 @@
       <c r="DM17" s="75"/>
       <c r="DN17" s="71">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="DO17" s="72">
         <v>0</v>
       </c>
       <c r="DQ17" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DR17" s="32">
         <f t="shared" si="16"/>
@@ -15037,19 +15199,19 @@
       </c>
       <c r="EB17" s="32">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EC17" s="32">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EE17" s="152">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EF17" s="152">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15171,35 +15333,61 @@
       <c r="BK18" s="183"/>
       <c r="BL18" s="187"/>
       <c r="BM18" s="182"/>
-      <c r="BN18" s="183"/>
-      <c r="BO18" s="187"/>
+      <c r="BN18" s="183">
+        <v>4</v>
+      </c>
+      <c r="BO18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BP18" s="182"/>
-      <c r="BQ18" s="183"/>
-      <c r="BR18" s="187"/>
+      <c r="BQ18" s="183">
+        <v>4</v>
+      </c>
+      <c r="BR18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BS18" s="182"/>
       <c r="BT18" s="183"/>
       <c r="BU18" s="187"/>
-      <c r="BV18" s="182"/>
+      <c r="BV18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BW18" s="183"/>
       <c r="BX18" s="187"/>
-      <c r="BY18" s="182"/>
+      <c r="BY18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BZ18" s="183"/>
       <c r="CA18" s="187"/>
-      <c r="CB18" s="182"/>
+      <c r="CB18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC18" s="183"/>
       <c r="CD18" s="187"/>
-      <c r="CE18" s="182"/>
+      <c r="CE18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CF18" s="183"/>
       <c r="CG18" s="187"/>
-      <c r="CH18" s="182"/>
+      <c r="CH18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CI18" s="183"/>
       <c r="CJ18" s="187"/>
       <c r="CK18" s="182"/>
-      <c r="CL18" s="183"/>
-      <c r="CM18" s="187"/>
+      <c r="CL18" s="183">
+        <v>4</v>
+      </c>
+      <c r="CM18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CN18" s="182"/>
-      <c r="CO18" s="183"/>
-      <c r="CP18" s="187"/>
+      <c r="CO18" s="183">
+        <v>4</v>
+      </c>
+      <c r="CP18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CQ18" s="182"/>
       <c r="CR18" s="183"/>
       <c r="CS18" s="187"/>
@@ -15207,7 +15395,7 @@
       <c r="CU18" s="183"/>
       <c r="CV18" s="168">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="CW18" s="79">
         <f>IF(CK18="К",1,0)+IF(CN18="К",1,0)+IF(CQ18="К",1,0)+IF(CT18="К",1,0)+IF(CH18="К",1,0)+IF(H18="К",1,0)+IF(K18="К",1,0)+IF(N18="К",1,0)+IF(Q18="К",1,0)+IF(T18="К",1,0)+IF(W18="К",1,0)+IF(Z18="К",1,0)+IF(AC18="К",1,0)+IF(AF18="К",1,0)+IF(AI18="К",1,0)+IF(AL18="К",1,0)+IF(AO18="К",1,0)+IF(AR18="К",1,0)+IF(AU18="К",1,0)+IF(AX18="К",1,0)+IF(BA18="К",1,0)+IF(BD18="К",1,0)+IF(BG18="К",1,0)+IF(BJ18="К",1,0)+IF(BM18="К",1,0)+IF(BP18="К",1,0)+IF(BS18="К",1,0)+IF(BV18="К",1,0)+IF(BY18="К",1,0)+IF(CB18="К",1,0)+IF(CE18="К",1,0)</f>
@@ -15255,15 +15443,15 @@
       </c>
       <c r="DH18" s="80">
         <f>IF(CQ18="В",1,0)+IF(CT18="В",1,0)+IF(H18="В",1,0)+IF(K18="В",1,0)+IF(N18="В",1,0)+IF(Q18="В",1,0)+IF(T18="В",1,0)+IF(W18="В",1,0)+IF(Z18="В",1,0)+IF(AC18="В",1,0)+IF(AF18="В",1,0)+IF(AI18="В",1,0)+IF(AL18="В",1,0)+IF(AO18="В",1,0)+IF(AR18="В",1,0)+IF(AU18="В",1,0)+IF(AX18="В",1,0)+IF(BA18="В",1,0)+IF(BD18="В",1,0)+IF(BG18="В",1,0)+IF(BJ18="В",1,0)+IF(BM18="В",1,0)+IF(BP18="В",1,0)+IF(BS18="В",1,0)+IF(BV18="В",1,0)+IF(BY18="В",1,0)+IF(CB18="В",1,0)+IF(CE18="В",1,0)+IF(CH18="В",1,0)+IF(CK18="В",1,0)+IF(CN18="В",1,0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="DI18" s="80">
         <f>SUM(CV18:DH18)</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="DJ18" s="70">
         <f t="shared" si="24"/>
-        <v>112.5</v>
+        <v>180</v>
       </c>
       <c r="DK18" s="69">
         <v>0</v>
@@ -15272,14 +15460,14 @@
       <c r="DM18" s="75"/>
       <c r="DN18" s="71">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="DO18" s="72">
         <v>0</v>
       </c>
       <c r="DQ18" s="32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DR18" s="32">
         <f t="shared" si="16"/>
@@ -15323,19 +15511,19 @@
       </c>
       <c r="EB18" s="32">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EC18" s="32">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="EE18" s="152">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="EF18" s="152">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15457,35 +15645,61 @@
       <c r="BK19" s="183"/>
       <c r="BL19" s="187"/>
       <c r="BM19" s="182"/>
-      <c r="BN19" s="183"/>
-      <c r="BO19" s="187"/>
+      <c r="BN19" s="183">
+        <v>4</v>
+      </c>
+      <c r="BO19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BP19" s="182"/>
-      <c r="BQ19" s="183"/>
-      <c r="BR19" s="187"/>
+      <c r="BQ19" s="183">
+        <v>4</v>
+      </c>
+      <c r="BR19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BS19" s="182"/>
       <c r="BT19" s="183"/>
       <c r="BU19" s="187"/>
-      <c r="BV19" s="182"/>
+      <c r="BV19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BW19" s="183"/>
       <c r="BX19" s="187"/>
-      <c r="BY19" s="182"/>
+      <c r="BY19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BZ19" s="183"/>
       <c r="CA19" s="187"/>
-      <c r="CB19" s="182"/>
+      <c r="CB19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC19" s="183"/>
       <c r="CD19" s="187"/>
-      <c r="CE19" s="182"/>
+      <c r="CE19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CF19" s="183"/>
       <c r="CG19" s="187"/>
-      <c r="CH19" s="182"/>
+      <c r="CH19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CI19" s="183"/>
       <c r="CJ19" s="187"/>
       <c r="CK19" s="182"/>
-      <c r="CL19" s="183"/>
-      <c r="CM19" s="187"/>
+      <c r="CL19" s="183">
+        <v>4</v>
+      </c>
+      <c r="CM19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CN19" s="182"/>
-      <c r="CO19" s="183"/>
-      <c r="CP19" s="187"/>
+      <c r="CO19" s="183">
+        <v>4</v>
+      </c>
+      <c r="CP19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CQ19" s="182"/>
       <c r="CR19" s="183"/>
       <c r="CS19" s="187"/>
@@ -15493,7 +15707,7 @@
       <c r="CU19" s="183"/>
       <c r="CV19" s="168">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="CW19" s="79">
         <f>IF(CK19="К",1,0)+IF(CN19="К",1,0)+IF(CQ19="К",1,0)+IF(CT19="К",1,0)+IF(CH19="К",1,0)+IF(H19="К",1,0)+IF(K19="К",1,0)+IF(N19="К",1,0)+IF(Q19="К",1,0)+IF(T19="К",1,0)+IF(W19="К",1,0)+IF(Z19="К",1,0)+IF(AC19="К",1,0)+IF(AF19="К",1,0)+IF(AI19="К",1,0)+IF(AL19="К",1,0)+IF(AO19="К",1,0)+IF(AR19="К",1,0)+IF(AU19="К",1,0)+IF(AX19="К",1,0)+IF(BA19="К",1,0)+IF(BD19="К",1,0)+IF(BG19="К",1,0)+IF(BJ19="К",1,0)+IF(BM19="К",1,0)+IF(BP19="К",1,0)+IF(BS19="К",1,0)+IF(BV19="К",1,0)+IF(BY19="К",1,0)+IF(CB19="К",1,0)+IF(CE19="К",1,0)</f>
@@ -15541,15 +15755,15 @@
       </c>
       <c r="DH19" s="80">
         <f>IF(CQ19="В",1,0)+IF(CT19="В",1,0)+IF(H19="В",1,0)+IF(K19="В",1,0)+IF(N19="В",1,0)+IF(Q19="В",1,0)+IF(T19="В",1,0)+IF(W19="В",1,0)+IF(Z19="В",1,0)+IF(AC19="В",1,0)+IF(AF19="В",1,0)+IF(AI19="В",1,0)+IF(AL19="В",1,0)+IF(AO19="В",1,0)+IF(AR19="В",1,0)+IF(AU19="В",1,0)+IF(AX19="В",1,0)+IF(BA19="В",1,0)+IF(BD19="В",1,0)+IF(BG19="В",1,0)+IF(BJ19="В",1,0)+IF(BM19="В",1,0)+IF(BP19="В",1,0)+IF(BS19="В",1,0)+IF(BV19="В",1,0)+IF(BY19="В",1,0)+IF(CB19="В",1,0)+IF(CE19="В",1,0)+IF(CH19="В",1,0)+IF(CK19="В",1,0)+IF(CN19="В",1,0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="DI19" s="80">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="DJ19" s="70">
         <f t="shared" si="24"/>
-        <v>112.5</v>
+        <v>180</v>
       </c>
       <c r="DK19" s="69">
         <v>0</v>
@@ -15558,14 +15772,14 @@
       <c r="DM19" s="69"/>
       <c r="DN19" s="71">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="DO19" s="72">
         <v>0</v>
       </c>
       <c r="DQ19" s="32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DR19" s="32">
         <f t="shared" si="16"/>
@@ -15609,19 +15823,19 @@
       </c>
       <c r="EB19" s="32">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EC19" s="32">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="EE19" s="152">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="EF19" s="152">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15738,44 +15952,66 @@
       </c>
       <c r="BK20" s="183"/>
       <c r="BL20" s="187"/>
-      <c r="BM20" s="182"/>
+      <c r="BM20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BN20" s="183"/>
       <c r="BO20" s="187"/>
-      <c r="BP20" s="182"/>
+      <c r="BP20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ20" s="183"/>
       <c r="BR20" s="187"/>
-      <c r="BS20" s="182"/>
+      <c r="BS20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BT20" s="183"/>
       <c r="BU20" s="187"/>
-      <c r="BV20" s="182"/>
+      <c r="BV20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BW20" s="183"/>
       <c r="BX20" s="187"/>
-      <c r="BY20" s="182"/>
+      <c r="BY20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BZ20" s="183"/>
       <c r="CA20" s="187"/>
-      <c r="CB20" s="182"/>
+      <c r="CB20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC20" s="183"/>
       <c r="CD20" s="187"/>
-      <c r="CE20" s="182"/>
+      <c r="CE20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CF20" s="183"/>
       <c r="CG20" s="187"/>
-      <c r="CH20" s="182"/>
+      <c r="CH20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CI20" s="183"/>
       <c r="CJ20" s="187"/>
-      <c r="CK20" s="182"/>
+      <c r="CK20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CL20" s="183"/>
       <c r="CM20" s="187"/>
-      <c r="CN20" s="182"/>
+      <c r="CN20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CO20" s="183"/>
       <c r="CP20" s="187"/>
-      <c r="CQ20" s="182"/>
+      <c r="CQ20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CR20" s="183"/>
       <c r="CS20" s="187"/>
       <c r="CT20" s="182"/>
       <c r="CU20" s="183"/>
       <c r="CV20" s="168">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CW20" s="79">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
@@ -15823,15 +16059,15 @@
       </c>
       <c r="DH20" s="80">
         <f>IF(CQ20="В",1,0)+IF(CT20="В",1,0)+IF(H20="В",1,0)+IF(K20="В",1,0)+IF(N20="В",1,0)+IF(Q20="В",1,0)+IF(T20="В",1,0)+IF(W20="В",1,0)+IF(Z20="В",1,0)+IF(AC20="В",1,0)+IF(AF20="В",1,0)+IF(AI20="В",1,0)+IF(AL20="В",1,0)+IF(AO20="В",1,0)+IF(AR20="В",1,0)+IF(AU20="В",1,0)+IF(AX20="В",1,0)+IF(BA20="В",1,0)+IF(BD20="В",1,0)+IF(BG20="В",1,0)+IF(BJ20="В",1,0)+IF(BM20="В",1,0)+IF(BP20="В",1,0)+IF(BS20="В",1,0)+IF(BV20="В",1,0)+IF(BY20="В",1,0)+IF(CB20="В",1,0)+IF(CE20="В",1,0)+IF(CH20="В",1,0)+IF(CK20="В",1,0)+IF(CN20="В",1,0)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="DI20" s="80">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="DJ20" s="70">
         <f t="shared" si="24"/>
-        <v>101.25</v>
+        <v>157.5</v>
       </c>
       <c r="DK20" s="69">
         <v>0</v>
@@ -15891,7 +16127,7 @@
       </c>
       <c r="EB20" s="32">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="EC20" s="32">
         <f t="shared" si="23"/>
@@ -16045,29 +16281,41 @@
       </c>
       <c r="BZ21" s="183"/>
       <c r="CA21" s="187"/>
-      <c r="CB21" s="182"/>
+      <c r="CB21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CC21" s="183"/>
       <c r="CD21" s="187"/>
-      <c r="CE21" s="182"/>
+      <c r="CE21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CF21" s="183"/>
       <c r="CG21" s="187"/>
-      <c r="CH21" s="182"/>
+      <c r="CH21" s="182">
+        <v>4</v>
+      </c>
       <c r="CI21" s="183"/>
       <c r="CJ21" s="187"/>
-      <c r="CK21" s="182"/>
+      <c r="CK21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CL21" s="183"/>
       <c r="CM21" s="187"/>
-      <c r="CN21" s="182"/>
+      <c r="CN21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CO21" s="183"/>
       <c r="CP21" s="187"/>
-      <c r="CQ21" s="182"/>
+      <c r="CQ21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CR21" s="183"/>
       <c r="CS21" s="187"/>
       <c r="CT21" s="182"/>
       <c r="CU21" s="183"/>
       <c r="CV21" s="168">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="CW21" s="79">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
@@ -16115,15 +16363,15 @@
       </c>
       <c r="DH21" s="80">
         <f>IF(CQ21="В",1,0)+IF(CT21="В",1,0)+IF(H21="В",1,0)+IF(K21="В",1,0)+IF(N21="В",1,0)+IF(Q21="В",1,0)+IF(T21="В",1,0)+IF(W21="В",1,0)+IF(Z21="В",1,0)+IF(AC21="В",1,0)+IF(AF21="В",1,0)+IF(AI21="В",1,0)+IF(AL21="В",1,0)+IF(AO21="В",1,0)+IF(AR21="В",1,0)+IF(AU21="В",1,0)+IF(AX21="В",1,0)+IF(BA21="В",1,0)+IF(BD21="В",1,0)+IF(BG21="В",1,0)+IF(BJ21="В",1,0)+IF(BM21="В",1,0)+IF(BP21="В",1,0)+IF(BS21="В",1,0)+IF(BV21="В",1,0)+IF(BY21="В",1,0)+IF(CB21="В",1,0)+IF(CE21="В",1,0)+IF(CH21="В",1,0)+IF(CK21="В",1,0)+IF(CN21="В",1,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DI21" s="80">
         <f>SUM(CV21:DH21)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="DJ21" s="70">
         <f t="shared" si="24"/>
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="DK21" s="69">
         <v>0</v>
@@ -16183,7 +16431,7 @@
       </c>
       <c r="EB21" s="32">
         <f>IF(Q21=11.25,1,0)+IF(T21=11.25,1,0)+IF(W21=11.25,1,0)+IF(Z21=11.25,1,0)+IF(AC21=11.25,1,0)+IF(AF21=11.25,1,0)+IF(AI21=11.25,1,0)+IF(AL21=11.25,1,0)+IF(AO21=11.25,1,0)+IF(AR21=11.25,1,0)+IF(AU21=11.25,1,0)+IF(AX21=11.25,1,0)+IF(BA21=11.25,1,0)+IF(BD21=11.25,1,0)+IF(BG21=11.25,1,0)+IF(BJ21=11.25,1,0)+IF(BM21=11.25,1,0)+IF(BP21=11.25,1,0)+IF(BS21=11.25,1,0)+IF(BV21=11.25,1,0)+IF(BY21=11.25,1,0)+IF(CB21=11.25,1,0)+IF(CE21=11.25,1,0)+IF(CH21=11.25,1,0)+IF(CK21=11.25,1,0)+IF(CN21=11.25,1,0)+IF(CQ21=11.25,1,0)+IF(CT21=11.25,1,0)+IF(H21=11.25,1,0)+IF(K21=11.25,1,0)+IF(N21=11.25,1,0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="EC21" s="32">
         <f t="shared" si="23"/>
@@ -16191,7 +16439,7 @@
       </c>
       <c r="EE21" s="152">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="EF21" s="152">
         <f t="shared" si="27"/>
@@ -16312,44 +16560,66 @@
       </c>
       <c r="BK22" s="183"/>
       <c r="BL22" s="187"/>
-      <c r="BM22" s="182"/>
+      <c r="BM22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BN22" s="183"/>
       <c r="BO22" s="187"/>
-      <c r="BP22" s="182"/>
+      <c r="BP22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ22" s="183"/>
       <c r="BR22" s="187"/>
-      <c r="BS22" s="182"/>
+      <c r="BS22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BT22" s="183"/>
       <c r="BU22" s="187"/>
-      <c r="BV22" s="182"/>
+      <c r="BV22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BW22" s="183"/>
       <c r="BX22" s="187"/>
-      <c r="BY22" s="182"/>
+      <c r="BY22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BZ22" s="183"/>
       <c r="CA22" s="187"/>
-      <c r="CB22" s="182"/>
+      <c r="CB22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC22" s="183"/>
       <c r="CD22" s="187"/>
-      <c r="CE22" s="182"/>
+      <c r="CE22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CF22" s="183"/>
       <c r="CG22" s="187"/>
-      <c r="CH22" s="182"/>
+      <c r="CH22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CI22" s="183"/>
       <c r="CJ22" s="187"/>
-      <c r="CK22" s="182"/>
+      <c r="CK22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CL22" s="183"/>
       <c r="CM22" s="187"/>
-      <c r="CN22" s="182"/>
+      <c r="CN22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CO22" s="183"/>
       <c r="CP22" s="187"/>
-      <c r="CQ22" s="182"/>
+      <c r="CQ22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CR22" s="183"/>
       <c r="CS22" s="187"/>
       <c r="CT22" s="182"/>
       <c r="CU22" s="183"/>
       <c r="CV22" s="168">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CW22" s="79">
         <f t="shared" si="1"/>
@@ -16397,15 +16667,15 @@
       </c>
       <c r="DH22" s="80">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="DI22" s="80">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="DJ22" s="70">
         <f t="shared" si="24"/>
-        <v>101.25</v>
+        <v>157.5</v>
       </c>
       <c r="DK22" s="69">
         <v>0</v>
@@ -16465,7 +16735,7 @@
       </c>
       <c r="EB22" s="32">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="EC22" s="32">
         <f t="shared" si="23"/>
@@ -16594,44 +16864,66 @@
       </c>
       <c r="BK23" s="183"/>
       <c r="BL23" s="187"/>
-      <c r="BM23" s="182"/>
+      <c r="BM23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BN23" s="183"/>
       <c r="BO23" s="187"/>
-      <c r="BP23" s="182"/>
+      <c r="BP23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ23" s="183"/>
       <c r="BR23" s="187"/>
-      <c r="BS23" s="182"/>
+      <c r="BS23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BT23" s="183"/>
       <c r="BU23" s="187"/>
-      <c r="BV23" s="182"/>
+      <c r="BV23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BW23" s="183"/>
       <c r="BX23" s="187"/>
-      <c r="BY23" s="182"/>
+      <c r="BY23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BZ23" s="183"/>
       <c r="CA23" s="187"/>
-      <c r="CB23" s="182"/>
+      <c r="CB23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC23" s="183"/>
       <c r="CD23" s="187"/>
-      <c r="CE23" s="182"/>
+      <c r="CE23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CF23" s="183"/>
       <c r="CG23" s="187"/>
-      <c r="CH23" s="182"/>
+      <c r="CH23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CI23" s="183"/>
       <c r="CJ23" s="187"/>
-      <c r="CK23" s="182"/>
+      <c r="CK23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CL23" s="183"/>
       <c r="CM23" s="187"/>
-      <c r="CN23" s="182"/>
+      <c r="CN23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CO23" s="183"/>
       <c r="CP23" s="187"/>
-      <c r="CQ23" s="182"/>
+      <c r="CQ23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CR23" s="183"/>
       <c r="CS23" s="187"/>
       <c r="CT23" s="182"/>
       <c r="CU23" s="183"/>
       <c r="CV23" s="168">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CW23" s="79">
         <f t="shared" si="1"/>
@@ -16679,15 +16971,15 @@
       </c>
       <c r="DH23" s="80">
         <f>IF(CQ23="В",1,0)+IF(CT23="В",1,0)+IF(H23="В",1,0)+IF(K23="В",1,0)+IF(N23="В",1,0)+IF(Q23="В",1,0)+IF(T23="В",1,0)+IF(W23="В",1,0)+IF(Z23="В",1,0)+IF(AC23="В",1,0)+IF(AF23="В",1,0)+IF(AI23="В",1,0)+IF(AL23="В",1,0)+IF(AO23="В",1,0)+IF(AR23="В",1,0)+IF(AU23="В",1,0)+IF(AX23="В",1,0)+IF(BA23="В",1,0)+IF(BD23="В",1,0)+IF(BG23="В",1,0)+IF(BJ23="В",1,0)+IF(BM23="В",1,0)+IF(BP23="В",1,0)+IF(BS23="В",1,0)+IF(BV23="В",1,0)+IF(BY23="В",1,0)+IF(CB23="В",1,0)+IF(CE23="В",1,0)+IF(CH23="В",1,0)+IF(CK23="В",1,0)+IF(CN23="В",1,0)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="DI23" s="80">
         <f>SUM(CV23:DH23)</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="DJ23" s="70">
         <f t="shared" si="24"/>
-        <v>112.5</v>
+        <v>168.75</v>
       </c>
       <c r="DK23" s="70">
         <v>8</v>
@@ -16747,7 +17039,7 @@
       </c>
       <c r="EB23" s="32">
         <f>IF(Q23=11.25,1,0)+IF(T23=11.25,1,0)+IF(W23=11.25,1,0)+IF(Z23=11.25,1,0)+IF(AC23=11.25,1,0)+IF(AF23=11.25,1,0)+IF(AI23=11.25,1,0)+IF(AL23=11.25,1,0)+IF(AO23=11.25,1,0)+IF(AR23=11.25,1,0)+IF(AU23=11.25,1,0)+IF(AX23=11.25,1,0)+IF(BA23=11.25,1,0)+IF(BD23=11.25,1,0)+IF(BG23=11.25,1,0)+IF(BJ23=11.25,1,0)+IF(BM23=11.25,1,0)+IF(BP23=11.25,1,0)+IF(BS23=11.25,1,0)+IF(BV23=11.25,1,0)+IF(BY23=11.25,1,0)+IF(CB23=11.25,1,0)+IF(CE23=11.25,1,0)+IF(CH23=11.25,1,0)+IF(CK23=11.25,1,0)+IF(CN23=11.25,1,0)+IF(CQ23=11.25,1,0)+IF(CT23=11.25,1,0)+IF(H23=11.25,1,0)+IF(K23=11.25,1,0)+IF(N23=11.25,1,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="EC23" s="32">
         <f t="shared" si="23"/>
@@ -16864,7 +17156,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -16912,15 +17204,15 @@
       </c>
       <c r="DH24" s="81">
         <f t="shared" si="28"/>
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>1447.5</v>
+        <v>2134.25</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -16936,7 +17228,7 @@
       </c>
       <c r="DN24" s="77">
         <f t="shared" si="28"/>
-        <v>284</v>
+        <v>432</v>
       </c>
       <c r="DO24" s="77">
         <f t="shared" si="28"/>
@@ -17395,45 +17687,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="220"/>
-      <c r="R31" s="220"/>
-      <c r="S31" s="220"/>
-      <c r="T31" s="220"/>
-      <c r="U31" s="220"/>
-      <c r="V31" s="220"/>
-      <c r="W31" s="220"/>
-      <c r="X31" s="220"/>
-      <c r="Y31" s="220"/>
-      <c r="Z31" s="220"/>
-      <c r="AA31" s="220"/>
-      <c r="AB31" s="220"/>
-      <c r="AC31" s="220"/>
-      <c r="AD31" s="220"/>
-      <c r="AE31" s="220"/>
-      <c r="AF31" s="220"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="220"/>
-      <c r="AI31" s="220"/>
-      <c r="AJ31" s="220"/>
-      <c r="AK31" s="220"/>
-      <c r="AL31" s="220"/>
-      <c r="AM31" s="220"/>
-      <c r="AN31" s="220"/>
-      <c r="AO31" s="220"/>
-      <c r="AP31" s="220"/>
-      <c r="AQ31" s="220"/>
-      <c r="AR31" s="220"/>
-      <c r="AS31" s="220"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="272"/>
+      <c r="I31" s="272"/>
+      <c r="J31" s="272"/>
+      <c r="K31" s="272"/>
+      <c r="L31" s="272"/>
+      <c r="M31" s="272"/>
+      <c r="N31" s="272"/>
+      <c r="O31" s="272"/>
+      <c r="P31" s="272"/>
+      <c r="Q31" s="272"/>
+      <c r="R31" s="272"/>
+      <c r="S31" s="272"/>
+      <c r="T31" s="272"/>
+      <c r="U31" s="272"/>
+      <c r="V31" s="272"/>
+      <c r="W31" s="272"/>
+      <c r="X31" s="272"/>
+      <c r="Y31" s="272"/>
+      <c r="Z31" s="272"/>
+      <c r="AA31" s="272"/>
+      <c r="AB31" s="272"/>
+      <c r="AC31" s="272"/>
+      <c r="AD31" s="272"/>
+      <c r="AE31" s="272"/>
+      <c r="AF31" s="272"/>
+      <c r="AG31" s="272"/>
+      <c r="AH31" s="272"/>
+      <c r="AI31" s="272"/>
+      <c r="AJ31" s="272"/>
+      <c r="AK31" s="272"/>
+      <c r="AL31" s="272"/>
+      <c r="AM31" s="272"/>
+      <c r="AN31" s="272"/>
+      <c r="AO31" s="272"/>
+      <c r="AP31" s="272"/>
+      <c r="AQ31" s="272"/>
+      <c r="AR31" s="272"/>
+      <c r="AS31" s="272"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -17738,45 +18030,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="220"/>
-      <c r="M35" s="220"/>
-      <c r="N35" s="220"/>
-      <c r="O35" s="220"/>
-      <c r="P35" s="220"/>
-      <c r="Q35" s="220"/>
-      <c r="R35" s="220"/>
-      <c r="S35" s="220"/>
-      <c r="T35" s="220"/>
-      <c r="U35" s="220"/>
-      <c r="V35" s="220"/>
-      <c r="W35" s="220"/>
-      <c r="X35" s="220"/>
-      <c r="Y35" s="220"/>
-      <c r="Z35" s="220"/>
-      <c r="AA35" s="220"/>
-      <c r="AB35" s="220"/>
-      <c r="AC35" s="220"/>
-      <c r="AD35" s="220"/>
-      <c r="AE35" s="220"/>
-      <c r="AF35" s="220"/>
-      <c r="AG35" s="220"/>
-      <c r="AH35" s="220"/>
-      <c r="AI35" s="220"/>
-      <c r="AJ35" s="220"/>
-      <c r="AK35" s="220"/>
-      <c r="AL35" s="220"/>
-      <c r="AM35" s="220"/>
-      <c r="AN35" s="220"/>
-      <c r="AO35" s="220"/>
-      <c r="AP35" s="220"/>
-      <c r="AQ35" s="220"/>
-      <c r="AR35" s="220"/>
-      <c r="AS35" s="220"/>
+      <c r="G35" s="272"/>
+      <c r="H35" s="272"/>
+      <c r="I35" s="272"/>
+      <c r="J35" s="272"/>
+      <c r="K35" s="272"/>
+      <c r="L35" s="272"/>
+      <c r="M35" s="272"/>
+      <c r="N35" s="272"/>
+      <c r="O35" s="272"/>
+      <c r="P35" s="272"/>
+      <c r="Q35" s="272"/>
+      <c r="R35" s="272"/>
+      <c r="S35" s="272"/>
+      <c r="T35" s="272"/>
+      <c r="U35" s="272"/>
+      <c r="V35" s="272"/>
+      <c r="W35" s="272"/>
+      <c r="X35" s="272"/>
+      <c r="Y35" s="272"/>
+      <c r="Z35" s="272"/>
+      <c r="AA35" s="272"/>
+      <c r="AB35" s="272"/>
+      <c r="AC35" s="272"/>
+      <c r="AD35" s="272"/>
+      <c r="AE35" s="272"/>
+      <c r="AF35" s="272"/>
+      <c r="AG35" s="272"/>
+      <c r="AH35" s="272"/>
+      <c r="AI35" s="272"/>
+      <c r="AJ35" s="272"/>
+      <c r="AK35" s="272"/>
+      <c r="AL35" s="272"/>
+      <c r="AM35" s="272"/>
+      <c r="AN35" s="272"/>
+      <c r="AO35" s="272"/>
+      <c r="AP35" s="272"/>
+      <c r="AQ35" s="272"/>
+      <c r="AR35" s="272"/>
+      <c r="AS35" s="272"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -19934,17 +20226,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -19961,35 +20265,23 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20186,21 +20478,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="251" t="s">
+      <c r="CU1" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="251"/>
-      <c r="CW1" s="251"/>
-      <c r="CX1" s="251"/>
-      <c r="CY1" s="251"/>
-      <c r="CZ1" s="251"/>
-      <c r="DA1" s="251"/>
-      <c r="DB1" s="251"/>
-      <c r="DC1" s="251"/>
-      <c r="DD1" s="251"/>
-      <c r="DE1" s="251"/>
-      <c r="DF1" s="251"/>
-      <c r="DG1" s="251"/>
+      <c r="CV1" s="227"/>
+      <c r="CW1" s="227"/>
+      <c r="CX1" s="227"/>
+      <c r="CY1" s="227"/>
+      <c r="CZ1" s="227"/>
+      <c r="DA1" s="227"/>
+      <c r="DB1" s="227"/>
+      <c r="DC1" s="227"/>
+      <c r="DD1" s="227"/>
+      <c r="DE1" s="227"/>
+      <c r="DF1" s="227"/>
+      <c r="DG1" s="227"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -20301,241 +20593,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="252" t="s">
+      <c r="CU2" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="252"/>
-      <c r="CW2" s="252"/>
-      <c r="CX2" s="252"/>
-      <c r="CY2" s="252"/>
-      <c r="CZ2" s="252"/>
-      <c r="DA2" s="252"/>
-      <c r="DB2" s="252"/>
-      <c r="DC2" s="252"/>
-      <c r="DD2" s="252"/>
-      <c r="DE2" s="252"/>
-      <c r="DF2" s="252"/>
-      <c r="DG2" s="252"/>
+      <c r="CV2" s="228"/>
+      <c r="CW2" s="228"/>
+      <c r="CX2" s="228"/>
+      <c r="CY2" s="228"/>
+      <c r="CZ2" s="228"/>
+      <c r="DA2" s="228"/>
+      <c r="DB2" s="228"/>
+      <c r="DC2" s="228"/>
+      <c r="DD2" s="228"/>
+      <c r="DE2" s="228"/>
+      <c r="DF2" s="228"/>
+      <c r="DG2" s="228"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="253"/>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="253"/>
-      <c r="AG3" s="253"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="253"/>
-      <c r="AM3" s="253"/>
-      <c r="AN3" s="253"/>
-      <c r="AO3" s="253"/>
-      <c r="AP3" s="253"/>
-      <c r="AQ3" s="253"/>
-      <c r="AR3" s="253"/>
-      <c r="AS3" s="253"/>
-      <c r="AT3" s="253"/>
-      <c r="AU3" s="253"/>
-      <c r="AV3" s="253"/>
-      <c r="AW3" s="253"/>
-      <c r="AX3" s="253"/>
-      <c r="AY3" s="253"/>
-      <c r="AZ3" s="253"/>
-      <c r="BA3" s="253"/>
-      <c r="BB3" s="253"/>
-      <c r="BC3" s="253"/>
-      <c r="BD3" s="253"/>
-      <c r="BE3" s="253"/>
-      <c r="BF3" s="253"/>
-      <c r="BG3" s="253"/>
-      <c r="BH3" s="253"/>
-      <c r="BI3" s="253"/>
-      <c r="BJ3" s="253"/>
-      <c r="BK3" s="253"/>
-      <c r="BL3" s="253"/>
-      <c r="BM3" s="253"/>
-      <c r="BN3" s="253"/>
-      <c r="BO3" s="253"/>
-      <c r="BP3" s="253"/>
-      <c r="BQ3" s="253"/>
-      <c r="BR3" s="253"/>
-      <c r="BS3" s="253"/>
-      <c r="BT3" s="253"/>
-      <c r="BU3" s="253"/>
-      <c r="BV3" s="253"/>
-      <c r="BW3" s="253"/>
-      <c r="BX3" s="253"/>
-      <c r="BY3" s="253"/>
-      <c r="BZ3" s="253"/>
-      <c r="CA3" s="253"/>
-      <c r="CB3" s="253"/>
-      <c r="CC3" s="253"/>
-      <c r="CD3" s="253"/>
-      <c r="CE3" s="253"/>
-      <c r="CF3" s="253"/>
-      <c r="CG3" s="253"/>
-      <c r="CH3" s="253"/>
-      <c r="CI3" s="253"/>
-      <c r="CJ3" s="253"/>
-      <c r="CK3" s="253"/>
-      <c r="CL3" s="253"/>
-      <c r="CM3" s="253"/>
-      <c r="CN3" s="253"/>
-      <c r="CO3" s="253"/>
-      <c r="CP3" s="253"/>
-      <c r="CQ3" s="253"/>
-      <c r="CR3" s="253"/>
-      <c r="CS3" s="253"/>
-      <c r="CT3" s="253"/>
-      <c r="CU3" s="253"/>
-      <c r="CV3" s="254" t="s">
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="229"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="229"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="229"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="229"/>
+      <c r="AL3" s="229"/>
+      <c r="AM3" s="229"/>
+      <c r="AN3" s="229"/>
+      <c r="AO3" s="229"/>
+      <c r="AP3" s="229"/>
+      <c r="AQ3" s="229"/>
+      <c r="AR3" s="229"/>
+      <c r="AS3" s="229"/>
+      <c r="AT3" s="229"/>
+      <c r="AU3" s="229"/>
+      <c r="AV3" s="229"/>
+      <c r="AW3" s="229"/>
+      <c r="AX3" s="229"/>
+      <c r="AY3" s="229"/>
+      <c r="AZ3" s="229"/>
+      <c r="BA3" s="229"/>
+      <c r="BB3" s="229"/>
+      <c r="BC3" s="229"/>
+      <c r="BD3" s="229"/>
+      <c r="BE3" s="229"/>
+      <c r="BF3" s="229"/>
+      <c r="BG3" s="229"/>
+      <c r="BH3" s="229"/>
+      <c r="BI3" s="229"/>
+      <c r="BJ3" s="229"/>
+      <c r="BK3" s="229"/>
+      <c r="BL3" s="229"/>
+      <c r="BM3" s="229"/>
+      <c r="BN3" s="229"/>
+      <c r="BO3" s="229"/>
+      <c r="BP3" s="229"/>
+      <c r="BQ3" s="229"/>
+      <c r="BR3" s="229"/>
+      <c r="BS3" s="229"/>
+      <c r="BT3" s="229"/>
+      <c r="BU3" s="229"/>
+      <c r="BV3" s="229"/>
+      <c r="BW3" s="229"/>
+      <c r="BX3" s="229"/>
+      <c r="BY3" s="229"/>
+      <c r="BZ3" s="229"/>
+      <c r="CA3" s="229"/>
+      <c r="CB3" s="229"/>
+      <c r="CC3" s="229"/>
+      <c r="CD3" s="229"/>
+      <c r="CE3" s="229"/>
+      <c r="CF3" s="229"/>
+      <c r="CG3" s="229"/>
+      <c r="CH3" s="229"/>
+      <c r="CI3" s="229"/>
+      <c r="CJ3" s="229"/>
+      <c r="CK3" s="229"/>
+      <c r="CL3" s="229"/>
+      <c r="CM3" s="229"/>
+      <c r="CN3" s="229"/>
+      <c r="CO3" s="229"/>
+      <c r="CP3" s="229"/>
+      <c r="CQ3" s="229"/>
+      <c r="CR3" s="229"/>
+      <c r="CS3" s="229"/>
+      <c r="CT3" s="229"/>
+      <c r="CU3" s="229"/>
+      <c r="CV3" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="254"/>
-      <c r="CX3" s="254"/>
-      <c r="CY3" s="254"/>
-      <c r="CZ3" s="254"/>
-      <c r="DA3" s="254"/>
-      <c r="DB3" s="254"/>
-      <c r="DC3" s="254"/>
-      <c r="DD3" s="254"/>
-      <c r="DE3" s="254"/>
-      <c r="DF3" s="254"/>
-      <c r="DG3" s="254"/>
+      <c r="CW3" s="230"/>
+      <c r="CX3" s="230"/>
+      <c r="CY3" s="230"/>
+      <c r="CZ3" s="230"/>
+      <c r="DA3" s="230"/>
+      <c r="DB3" s="230"/>
+      <c r="DC3" s="230"/>
+      <c r="DD3" s="230"/>
+      <c r="DE3" s="230"/>
+      <c r="DF3" s="230"/>
+      <c r="DG3" s="230"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="261"/>
-      <c r="AE4" s="261"/>
-      <c r="AF4" s="261"/>
-      <c r="AG4" s="261"/>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="261"/>
-      <c r="AK4" s="261"/>
-      <c r="AL4" s="261"/>
-      <c r="AM4" s="261"/>
-      <c r="AN4" s="261"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="261"/>
-      <c r="AQ4" s="261"/>
-      <c r="AR4" s="261"/>
-      <c r="AS4" s="261"/>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="261"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="261"/>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="261"/>
-      <c r="AZ4" s="261"/>
-      <c r="BA4" s="261"/>
-      <c r="BB4" s="261"/>
-      <c r="BC4" s="261"/>
-      <c r="BD4" s="261"/>
-      <c r="BE4" s="261"/>
-      <c r="BF4" s="261"/>
-      <c r="BG4" s="261"/>
-      <c r="BH4" s="261"/>
-      <c r="BI4" s="261"/>
-      <c r="BJ4" s="261"/>
-      <c r="BK4" s="261"/>
-      <c r="BL4" s="261"/>
-      <c r="BM4" s="261"/>
-      <c r="BN4" s="261"/>
-      <c r="BO4" s="261"/>
-      <c r="BP4" s="261"/>
-      <c r="BQ4" s="261"/>
-      <c r="BR4" s="261"/>
-      <c r="BS4" s="261"/>
-      <c r="BT4" s="261"/>
-      <c r="BU4" s="261"/>
-      <c r="BV4" s="261"/>
-      <c r="BW4" s="261"/>
-      <c r="BX4" s="261"/>
-      <c r="BY4" s="261"/>
-      <c r="BZ4" s="261"/>
-      <c r="CA4" s="261"/>
-      <c r="CB4" s="261"/>
-      <c r="CC4" s="261"/>
-      <c r="CD4" s="261"/>
-      <c r="CE4" s="261"/>
-      <c r="CF4" s="261"/>
-      <c r="CG4" s="261"/>
-      <c r="CH4" s="261"/>
-      <c r="CI4" s="261"/>
-      <c r="CJ4" s="261"/>
-      <c r="CK4" s="261"/>
-      <c r="CL4" s="261"/>
-      <c r="CM4" s="261"/>
-      <c r="CN4" s="261"/>
-      <c r="CO4" s="261"/>
-      <c r="CP4" s="261"/>
-      <c r="CQ4" s="261"/>
-      <c r="CR4" s="261"/>
-      <c r="CS4" s="261"/>
-      <c r="CT4" s="261"/>
-      <c r="CU4" s="261"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="243"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
+      <c r="U4" s="243"/>
+      <c r="V4" s="243"/>
+      <c r="W4" s="243"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="243"/>
+      <c r="AE4" s="243"/>
+      <c r="AF4" s="243"/>
+      <c r="AG4" s="243"/>
+      <c r="AH4" s="243"/>
+      <c r="AI4" s="243"/>
+      <c r="AJ4" s="243"/>
+      <c r="AK4" s="243"/>
+      <c r="AL4" s="243"/>
+      <c r="AM4" s="243"/>
+      <c r="AN4" s="243"/>
+      <c r="AO4" s="243"/>
+      <c r="AP4" s="243"/>
+      <c r="AQ4" s="243"/>
+      <c r="AR4" s="243"/>
+      <c r="AS4" s="243"/>
+      <c r="AT4" s="243"/>
+      <c r="AU4" s="243"/>
+      <c r="AV4" s="243"/>
+      <c r="AW4" s="243"/>
+      <c r="AX4" s="243"/>
+      <c r="AY4" s="243"/>
+      <c r="AZ4" s="243"/>
+      <c r="BA4" s="243"/>
+      <c r="BB4" s="243"/>
+      <c r="BC4" s="243"/>
+      <c r="BD4" s="243"/>
+      <c r="BE4" s="243"/>
+      <c r="BF4" s="243"/>
+      <c r="BG4" s="243"/>
+      <c r="BH4" s="243"/>
+      <c r="BI4" s="243"/>
+      <c r="BJ4" s="243"/>
+      <c r="BK4" s="243"/>
+      <c r="BL4" s="243"/>
+      <c r="BM4" s="243"/>
+      <c r="BN4" s="243"/>
+      <c r="BO4" s="243"/>
+      <c r="BP4" s="243"/>
+      <c r="BQ4" s="243"/>
+      <c r="BR4" s="243"/>
+      <c r="BS4" s="243"/>
+      <c r="BT4" s="243"/>
+      <c r="BU4" s="243"/>
+      <c r="BV4" s="243"/>
+      <c r="BW4" s="243"/>
+      <c r="BX4" s="243"/>
+      <c r="BY4" s="243"/>
+      <c r="BZ4" s="243"/>
+      <c r="CA4" s="243"/>
+      <c r="CB4" s="243"/>
+      <c r="CC4" s="243"/>
+      <c r="CD4" s="243"/>
+      <c r="CE4" s="243"/>
+      <c r="CF4" s="243"/>
+      <c r="CG4" s="243"/>
+      <c r="CH4" s="243"/>
+      <c r="CI4" s="243"/>
+      <c r="CJ4" s="243"/>
+      <c r="CK4" s="243"/>
+      <c r="CL4" s="243"/>
+      <c r="CM4" s="243"/>
+      <c r="CN4" s="243"/>
+      <c r="CO4" s="243"/>
+      <c r="CP4" s="243"/>
+      <c r="CQ4" s="243"/>
+      <c r="CR4" s="243"/>
+      <c r="CS4" s="243"/>
+      <c r="CT4" s="243"/>
+      <c r="CU4" s="243"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -20665,278 +20957,278 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="265" t="s">
+      <c r="A6" s="244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="248" t="s">
+      <c r="E6" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="241" t="s">
+      <c r="G6" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="241"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="241"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="241"/>
-      <c r="AH6" s="241"/>
-      <c r="AI6" s="241"/>
-      <c r="AJ6" s="241"/>
-      <c r="AK6" s="241"/>
-      <c r="AL6" s="241"/>
-      <c r="AM6" s="241"/>
-      <c r="AN6" s="241"/>
-      <c r="AO6" s="241"/>
-      <c r="AP6" s="241"/>
-      <c r="AQ6" s="241"/>
-      <c r="AR6" s="241"/>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="241"/>
-      <c r="BB6" s="241"/>
-      <c r="BC6" s="241"/>
-      <c r="BD6" s="241"/>
-      <c r="BE6" s="241"/>
-      <c r="BF6" s="241"/>
-      <c r="BG6" s="241"/>
-      <c r="BH6" s="241"/>
-      <c r="BI6" s="241"/>
-      <c r="BJ6" s="241"/>
-      <c r="BK6" s="241"/>
-      <c r="BL6" s="241"/>
-      <c r="BM6" s="241"/>
-      <c r="BN6" s="241"/>
-      <c r="BO6" s="241"/>
-      <c r="BP6" s="241"/>
-      <c r="BQ6" s="241"/>
-      <c r="BR6" s="241"/>
-      <c r="BS6" s="241"/>
-      <c r="BT6" s="241"/>
-      <c r="BU6" s="241"/>
-      <c r="BV6" s="241"/>
-      <c r="BW6" s="241"/>
-      <c r="BX6" s="241"/>
-      <c r="BY6" s="241"/>
-      <c r="BZ6" s="241"/>
-      <c r="CA6" s="241"/>
-      <c r="CB6" s="241"/>
-      <c r="CC6" s="241"/>
-      <c r="CD6" s="241"/>
-      <c r="CE6" s="241"/>
-      <c r="CF6" s="241"/>
-      <c r="CG6" s="241"/>
-      <c r="CH6" s="241"/>
-      <c r="CI6" s="241"/>
-      <c r="CJ6" s="241"/>
-      <c r="CK6" s="241"/>
-      <c r="CL6" s="241"/>
-      <c r="CM6" s="241"/>
-      <c r="CN6" s="241"/>
-      <c r="CO6" s="241"/>
-      <c r="CP6" s="241"/>
-      <c r="CQ6" s="241"/>
-      <c r="CR6" s="241"/>
-      <c r="CS6" s="241"/>
-      <c r="CT6" s="241"/>
-      <c r="CU6" s="241"/>
-      <c r="CV6" s="255" t="s">
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="269"/>
+      <c r="Q6" s="269"/>
+      <c r="R6" s="269"/>
+      <c r="S6" s="269"/>
+      <c r="T6" s="269"/>
+      <c r="U6" s="269"/>
+      <c r="V6" s="269"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="269"/>
+      <c r="AI6" s="269"/>
+      <c r="AJ6" s="269"/>
+      <c r="AK6" s="269"/>
+      <c r="AL6" s="269"/>
+      <c r="AM6" s="269"/>
+      <c r="AN6" s="269"/>
+      <c r="AO6" s="269"/>
+      <c r="AP6" s="269"/>
+      <c r="AQ6" s="269"/>
+      <c r="AR6" s="269"/>
+      <c r="AS6" s="269"/>
+      <c r="AT6" s="269"/>
+      <c r="AU6" s="269"/>
+      <c r="AV6" s="269"/>
+      <c r="AW6" s="269"/>
+      <c r="AX6" s="269"/>
+      <c r="AY6" s="269"/>
+      <c r="AZ6" s="269"/>
+      <c r="BA6" s="269"/>
+      <c r="BB6" s="269"/>
+      <c r="BC6" s="269"/>
+      <c r="BD6" s="269"/>
+      <c r="BE6" s="269"/>
+      <c r="BF6" s="269"/>
+      <c r="BG6" s="269"/>
+      <c r="BH6" s="269"/>
+      <c r="BI6" s="269"/>
+      <c r="BJ6" s="269"/>
+      <c r="BK6" s="269"/>
+      <c r="BL6" s="269"/>
+      <c r="BM6" s="269"/>
+      <c r="BN6" s="269"/>
+      <c r="BO6" s="269"/>
+      <c r="BP6" s="269"/>
+      <c r="BQ6" s="269"/>
+      <c r="BR6" s="269"/>
+      <c r="BS6" s="269"/>
+      <c r="BT6" s="269"/>
+      <c r="BU6" s="269"/>
+      <c r="BV6" s="269"/>
+      <c r="BW6" s="269"/>
+      <c r="BX6" s="269"/>
+      <c r="BY6" s="269"/>
+      <c r="BZ6" s="269"/>
+      <c r="CA6" s="269"/>
+      <c r="CB6" s="269"/>
+      <c r="CC6" s="269"/>
+      <c r="CD6" s="269"/>
+      <c r="CE6" s="269"/>
+      <c r="CF6" s="269"/>
+      <c r="CG6" s="269"/>
+      <c r="CH6" s="269"/>
+      <c r="CI6" s="269"/>
+      <c r="CJ6" s="269"/>
+      <c r="CK6" s="269"/>
+      <c r="CL6" s="269"/>
+      <c r="CM6" s="269"/>
+      <c r="CN6" s="269"/>
+      <c r="CO6" s="269"/>
+      <c r="CP6" s="269"/>
+      <c r="CQ6" s="269"/>
+      <c r="CR6" s="269"/>
+      <c r="CS6" s="269"/>
+      <c r="CT6" s="269"/>
+      <c r="CU6" s="269"/>
+      <c r="CV6" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="256"/>
-      <c r="CX6" s="255" t="s">
+      <c r="CW6" s="232"/>
+      <c r="CX6" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="259"/>
-      <c r="CZ6" s="259"/>
-      <c r="DA6" s="259"/>
-      <c r="DB6" s="259"/>
-      <c r="DC6" s="259"/>
-      <c r="DD6" s="259"/>
-      <c r="DE6" s="259"/>
-      <c r="DF6" s="259"/>
-      <c r="DG6" s="259"/>
-      <c r="DH6" s="231" t="s">
+      <c r="CY6" s="235"/>
+      <c r="CZ6" s="235"/>
+      <c r="DA6" s="235"/>
+      <c r="DB6" s="235"/>
+      <c r="DC6" s="235"/>
+      <c r="DD6" s="235"/>
+      <c r="DE6" s="235"/>
+      <c r="DF6" s="235"/>
+      <c r="DG6" s="235"/>
+      <c r="DH6" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="234" t="s">
+      <c r="DI6" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="244" t="s">
+      <c r="DJ6" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="244"/>
-      <c r="DL6" s="244"/>
-      <c r="DM6" s="244"/>
-      <c r="DN6" s="244"/>
-      <c r="DO6" s="245"/>
+      <c r="DK6" s="220"/>
+      <c r="DL6" s="220"/>
+      <c r="DM6" s="220"/>
+      <c r="DN6" s="220"/>
+      <c r="DO6" s="221"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="263"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="242"/>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="242"/>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-      <c r="V7" s="242"/>
-      <c r="W7" s="242"/>
-      <c r="X7" s="242"/>
-      <c r="Y7" s="242"/>
-      <c r="Z7" s="242"/>
-      <c r="AA7" s="242"/>
-      <c r="AB7" s="242"/>
-      <c r="AC7" s="242"/>
-      <c r="AD7" s="242"/>
-      <c r="AE7" s="242"/>
-      <c r="AF7" s="242"/>
-      <c r="AG7" s="242"/>
-      <c r="AH7" s="242"/>
-      <c r="AI7" s="242"/>
-      <c r="AJ7" s="242"/>
-      <c r="AK7" s="242"/>
-      <c r="AL7" s="242"/>
-      <c r="AM7" s="242"/>
-      <c r="AN7" s="242"/>
-      <c r="AO7" s="242"/>
-      <c r="AP7" s="242"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="242"/>
-      <c r="AS7" s="242"/>
-      <c r="AT7" s="242"/>
-      <c r="AU7" s="242"/>
-      <c r="AV7" s="242"/>
-      <c r="AW7" s="242"/>
-      <c r="AX7" s="242"/>
-      <c r="AY7" s="242"/>
-      <c r="AZ7" s="242"/>
-      <c r="BA7" s="242"/>
-      <c r="BB7" s="242"/>
-      <c r="BC7" s="242"/>
-      <c r="BD7" s="242"/>
-      <c r="BE7" s="242"/>
-      <c r="BF7" s="242"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="242"/>
-      <c r="BI7" s="242"/>
-      <c r="BJ7" s="242"/>
-      <c r="BK7" s="242"/>
-      <c r="BL7" s="242"/>
-      <c r="BM7" s="242"/>
-      <c r="BN7" s="242"/>
-      <c r="BO7" s="243"/>
-      <c r="BP7" s="243"/>
-      <c r="BQ7" s="243"/>
-      <c r="BR7" s="242"/>
-      <c r="BS7" s="242"/>
-      <c r="BT7" s="242"/>
-      <c r="BU7" s="242"/>
-      <c r="BV7" s="242"/>
-      <c r="BW7" s="242"/>
-      <c r="BX7" s="242"/>
-      <c r="BY7" s="242"/>
-      <c r="BZ7" s="242"/>
-      <c r="CA7" s="242"/>
-      <c r="CB7" s="242"/>
-      <c r="CC7" s="242"/>
-      <c r="CD7" s="242"/>
-      <c r="CE7" s="242"/>
-      <c r="CF7" s="242"/>
-      <c r="CG7" s="242"/>
-      <c r="CH7" s="242"/>
-      <c r="CI7" s="242"/>
-      <c r="CJ7" s="242"/>
-      <c r="CK7" s="242"/>
-      <c r="CL7" s="242"/>
-      <c r="CM7" s="242"/>
-      <c r="CN7" s="242"/>
-      <c r="CO7" s="242"/>
-      <c r="CP7" s="242"/>
-      <c r="CQ7" s="242"/>
-      <c r="CR7" s="242"/>
-      <c r="CS7" s="242"/>
-      <c r="CT7" s="242"/>
-      <c r="CU7" s="242"/>
-      <c r="CV7" s="257"/>
-      <c r="CW7" s="258"/>
-      <c r="CX7" s="257"/>
-      <c r="CY7" s="260"/>
-      <c r="CZ7" s="260"/>
-      <c r="DA7" s="260"/>
-      <c r="DB7" s="260"/>
-      <c r="DC7" s="260"/>
-      <c r="DD7" s="260"/>
-      <c r="DE7" s="260"/>
-      <c r="DF7" s="260"/>
-      <c r="DG7" s="260"/>
-      <c r="DH7" s="232"/>
-      <c r="DI7" s="235"/>
-      <c r="DJ7" s="246"/>
-      <c r="DK7" s="246"/>
-      <c r="DL7" s="246"/>
-      <c r="DM7" s="246"/>
-      <c r="DN7" s="246"/>
-      <c r="DO7" s="247"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="270"/>
+      <c r="S7" s="270"/>
+      <c r="T7" s="270"/>
+      <c r="U7" s="270"/>
+      <c r="V7" s="270"/>
+      <c r="W7" s="270"/>
+      <c r="X7" s="270"/>
+      <c r="Y7" s="270"/>
+      <c r="Z7" s="270"/>
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="270"/>
+      <c r="AC7" s="270"/>
+      <c r="AD7" s="270"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="270"/>
+      <c r="AG7" s="270"/>
+      <c r="AH7" s="270"/>
+      <c r="AI7" s="270"/>
+      <c r="AJ7" s="270"/>
+      <c r="AK7" s="270"/>
+      <c r="AL7" s="270"/>
+      <c r="AM7" s="270"/>
+      <c r="AN7" s="270"/>
+      <c r="AO7" s="270"/>
+      <c r="AP7" s="270"/>
+      <c r="AQ7" s="270"/>
+      <c r="AR7" s="270"/>
+      <c r="AS7" s="270"/>
+      <c r="AT7" s="270"/>
+      <c r="AU7" s="270"/>
+      <c r="AV7" s="270"/>
+      <c r="AW7" s="270"/>
+      <c r="AX7" s="270"/>
+      <c r="AY7" s="270"/>
+      <c r="AZ7" s="270"/>
+      <c r="BA7" s="270"/>
+      <c r="BB7" s="270"/>
+      <c r="BC7" s="270"/>
+      <c r="BD7" s="270"/>
+      <c r="BE7" s="270"/>
+      <c r="BF7" s="270"/>
+      <c r="BG7" s="270"/>
+      <c r="BH7" s="270"/>
+      <c r="BI7" s="270"/>
+      <c r="BJ7" s="270"/>
+      <c r="BK7" s="270"/>
+      <c r="BL7" s="270"/>
+      <c r="BM7" s="270"/>
+      <c r="BN7" s="270"/>
+      <c r="BO7" s="271"/>
+      <c r="BP7" s="271"/>
+      <c r="BQ7" s="271"/>
+      <c r="BR7" s="270"/>
+      <c r="BS7" s="270"/>
+      <c r="BT7" s="270"/>
+      <c r="BU7" s="270"/>
+      <c r="BV7" s="270"/>
+      <c r="BW7" s="270"/>
+      <c r="BX7" s="270"/>
+      <c r="BY7" s="270"/>
+      <c r="BZ7" s="270"/>
+      <c r="CA7" s="270"/>
+      <c r="CB7" s="270"/>
+      <c r="CC7" s="270"/>
+      <c r="CD7" s="270"/>
+      <c r="CE7" s="270"/>
+      <c r="CF7" s="270"/>
+      <c r="CG7" s="270"/>
+      <c r="CH7" s="270"/>
+      <c r="CI7" s="270"/>
+      <c r="CJ7" s="270"/>
+      <c r="CK7" s="270"/>
+      <c r="CL7" s="270"/>
+      <c r="CM7" s="270"/>
+      <c r="CN7" s="270"/>
+      <c r="CO7" s="270"/>
+      <c r="CP7" s="270"/>
+      <c r="CQ7" s="270"/>
+      <c r="CR7" s="270"/>
+      <c r="CS7" s="270"/>
+      <c r="CT7" s="270"/>
+      <c r="CU7" s="270"/>
+      <c r="CV7" s="233"/>
+      <c r="CW7" s="234"/>
+      <c r="CX7" s="233"/>
+      <c r="CY7" s="236"/>
+      <c r="CZ7" s="236"/>
+      <c r="DA7" s="236"/>
+      <c r="DB7" s="236"/>
+      <c r="DC7" s="236"/>
+      <c r="DD7" s="236"/>
+      <c r="DE7" s="236"/>
+      <c r="DF7" s="236"/>
+      <c r="DG7" s="236"/>
+      <c r="DH7" s="260"/>
+      <c r="DI7" s="263"/>
+      <c r="DJ7" s="222"/>
+      <c r="DK7" s="222"/>
+      <c r="DL7" s="222"/>
+      <c r="DM7" s="222"/>
+      <c r="DN7" s="222"/>
+      <c r="DO7" s="223"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="264"/>
-      <c r="B8" s="267"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="273"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="255"/>
       <c r="G8" s="283">
         <v>1</v>
       </c>
@@ -20957,16 +21249,16 @@
       </c>
       <c r="Q8" s="275"/>
       <c r="R8" s="276"/>
-      <c r="S8" s="226">
+      <c r="S8" s="237">
         <v>5</v>
       </c>
-      <c r="T8" s="227"/>
-      <c r="U8" s="228"/>
-      <c r="V8" s="226">
+      <c r="T8" s="238"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="237">
         <v>6</v>
       </c>
-      <c r="W8" s="227"/>
-      <c r="X8" s="229"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="239"/>
       <c r="Y8" s="274">
         <v>7</v>
       </c>
@@ -20992,16 +21284,16 @@
       </c>
       <c r="AL8" s="275"/>
       <c r="AM8" s="276"/>
-      <c r="AN8" s="240">
+      <c r="AN8" s="268">
         <v>12</v>
       </c>
-      <c r="AO8" s="227"/>
-      <c r="AP8" s="228"/>
-      <c r="AQ8" s="226">
+      <c r="AO8" s="238"/>
+      <c r="AP8" s="258"/>
+      <c r="AQ8" s="237">
         <v>13</v>
       </c>
-      <c r="AR8" s="227"/>
-      <c r="AS8" s="229"/>
+      <c r="AR8" s="238"/>
+      <c r="AS8" s="239"/>
       <c r="AT8" s="277">
         <v>14</v>
       </c>
@@ -21027,16 +21319,16 @@
       </c>
       <c r="BG8" s="275"/>
       <c r="BH8" s="276"/>
-      <c r="BI8" s="240">
+      <c r="BI8" s="268">
         <v>19</v>
       </c>
-      <c r="BJ8" s="227"/>
-      <c r="BK8" s="228"/>
-      <c r="BL8" s="226">
+      <c r="BJ8" s="238"/>
+      <c r="BK8" s="258"/>
+      <c r="BL8" s="237">
         <v>20</v>
       </c>
-      <c r="BM8" s="227"/>
-      <c r="BN8" s="229"/>
+      <c r="BM8" s="238"/>
+      <c r="BN8" s="239"/>
       <c r="BO8" s="274">
         <v>21</v>
       </c>
@@ -21062,16 +21354,16 @@
       </c>
       <c r="CB8" s="275"/>
       <c r="CC8" s="278"/>
-      <c r="CD8" s="226">
+      <c r="CD8" s="237">
         <v>26</v>
       </c>
-      <c r="CE8" s="227"/>
-      <c r="CF8" s="229"/>
-      <c r="CG8" s="240">
+      <c r="CE8" s="238"/>
+      <c r="CF8" s="239"/>
+      <c r="CG8" s="268">
         <v>27</v>
       </c>
-      <c r="CH8" s="227"/>
-      <c r="CI8" s="228"/>
+      <c r="CH8" s="238"/>
+      <c r="CI8" s="258"/>
       <c r="CJ8" s="274">
         <v>28</v>
       </c>
@@ -21128,8 +21420,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="233"/>
-      <c r="DI8" s="236"/>
+      <c r="DH8" s="261"/>
+      <c r="DI8" s="264"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -25634,45 +25926,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="220"/>
-      <c r="R31" s="220"/>
-      <c r="S31" s="220"/>
-      <c r="T31" s="220"/>
-      <c r="U31" s="220"/>
-      <c r="V31" s="220"/>
-      <c r="W31" s="220"/>
-      <c r="X31" s="220"/>
-      <c r="Y31" s="220"/>
-      <c r="Z31" s="220"/>
-      <c r="AA31" s="220"/>
-      <c r="AB31" s="220"/>
-      <c r="AC31" s="220"/>
-      <c r="AD31" s="220"/>
-      <c r="AE31" s="220"/>
-      <c r="AF31" s="220"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="220"/>
-      <c r="AI31" s="220"/>
-      <c r="AJ31" s="220"/>
-      <c r="AK31" s="220"/>
-      <c r="AL31" s="220"/>
-      <c r="AM31" s="220"/>
-      <c r="AN31" s="220"/>
-      <c r="AO31" s="220"/>
-      <c r="AP31" s="220"/>
-      <c r="AQ31" s="220"/>
-      <c r="AR31" s="220"/>
-      <c r="AS31" s="220"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="272"/>
+      <c r="I31" s="272"/>
+      <c r="J31" s="272"/>
+      <c r="K31" s="272"/>
+      <c r="L31" s="272"/>
+      <c r="M31" s="272"/>
+      <c r="N31" s="272"/>
+      <c r="O31" s="272"/>
+      <c r="P31" s="272"/>
+      <c r="Q31" s="272"/>
+      <c r="R31" s="272"/>
+      <c r="S31" s="272"/>
+      <c r="T31" s="272"/>
+      <c r="U31" s="272"/>
+      <c r="V31" s="272"/>
+      <c r="W31" s="272"/>
+      <c r="X31" s="272"/>
+      <c r="Y31" s="272"/>
+      <c r="Z31" s="272"/>
+      <c r="AA31" s="272"/>
+      <c r="AB31" s="272"/>
+      <c r="AC31" s="272"/>
+      <c r="AD31" s="272"/>
+      <c r="AE31" s="272"/>
+      <c r="AF31" s="272"/>
+      <c r="AG31" s="272"/>
+      <c r="AH31" s="272"/>
+      <c r="AI31" s="272"/>
+      <c r="AJ31" s="272"/>
+      <c r="AK31" s="272"/>
+      <c r="AL31" s="272"/>
+      <c r="AM31" s="272"/>
+      <c r="AN31" s="272"/>
+      <c r="AO31" s="272"/>
+      <c r="AP31" s="272"/>
+      <c r="AQ31" s="272"/>
+      <c r="AR31" s="272"/>
+      <c r="AS31" s="272"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -25977,45 +26269,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="220"/>
-      <c r="M35" s="220"/>
-      <c r="N35" s="220"/>
-      <c r="O35" s="220"/>
-      <c r="P35" s="220"/>
-      <c r="Q35" s="220"/>
-      <c r="R35" s="220"/>
-      <c r="S35" s="220"/>
-      <c r="T35" s="220"/>
-      <c r="U35" s="220"/>
-      <c r="V35" s="220"/>
-      <c r="W35" s="220"/>
-      <c r="X35" s="220"/>
-      <c r="Y35" s="220"/>
-      <c r="Z35" s="220"/>
-      <c r="AA35" s="220"/>
-      <c r="AB35" s="220"/>
-      <c r="AC35" s="220"/>
-      <c r="AD35" s="220"/>
-      <c r="AE35" s="220"/>
-      <c r="AF35" s="220"/>
-      <c r="AG35" s="220"/>
-      <c r="AH35" s="220"/>
-      <c r="AI35" s="220"/>
-      <c r="AJ35" s="220"/>
-      <c r="AK35" s="220"/>
-      <c r="AL35" s="220"/>
-      <c r="AM35" s="220"/>
-      <c r="AN35" s="220"/>
-      <c r="AO35" s="220"/>
-      <c r="AP35" s="220"/>
-      <c r="AQ35" s="220"/>
-      <c r="AR35" s="220"/>
-      <c r="AS35" s="220"/>
+      <c r="G35" s="272"/>
+      <c r="H35" s="272"/>
+      <c r="I35" s="272"/>
+      <c r="J35" s="272"/>
+      <c r="K35" s="272"/>
+      <c r="L35" s="272"/>
+      <c r="M35" s="272"/>
+      <c r="N35" s="272"/>
+      <c r="O35" s="272"/>
+      <c r="P35" s="272"/>
+      <c r="Q35" s="272"/>
+      <c r="R35" s="272"/>
+      <c r="S35" s="272"/>
+      <c r="T35" s="272"/>
+      <c r="U35" s="272"/>
+      <c r="V35" s="272"/>
+      <c r="W35" s="272"/>
+      <c r="X35" s="272"/>
+      <c r="Y35" s="272"/>
+      <c r="Z35" s="272"/>
+      <c r="AA35" s="272"/>
+      <c r="AB35" s="272"/>
+      <c r="AC35" s="272"/>
+      <c r="AD35" s="272"/>
+      <c r="AE35" s="272"/>
+      <c r="AF35" s="272"/>
+      <c r="AG35" s="272"/>
+      <c r="AH35" s="272"/>
+      <c r="AI35" s="272"/>
+      <c r="AJ35" s="272"/>
+      <c r="AK35" s="272"/>
+      <c r="AL35" s="272"/>
+      <c r="AM35" s="272"/>
+      <c r="AN35" s="272"/>
+      <c r="AO35" s="272"/>
+      <c r="AP35" s="272"/>
+      <c r="AQ35" s="272"/>
+      <c r="AR35" s="272"/>
+      <c r="AS35" s="272"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -28173,26 +28465,25 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -28203,48 +28494,49 @@
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
     <mergeCell ref="DI6:DI8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU10 G12:CU23 BC11:CU11">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AD11">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:BB11">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE11)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="81">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1141,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1758,6 +1758,78 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1809,24 +1881,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1866,60 +1920,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1950,109 +1950,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -2582,21 +2517,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="227" t="s">
+      <c r="CU1" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="227"/>
-      <c r="CW1" s="227"/>
-      <c r="CX1" s="227"/>
-      <c r="CY1" s="227"/>
-      <c r="CZ1" s="227"/>
-      <c r="DA1" s="227"/>
-      <c r="DB1" s="227"/>
-      <c r="DC1" s="227"/>
-      <c r="DD1" s="227"/>
-      <c r="DE1" s="227"/>
-      <c r="DF1" s="227"/>
-      <c r="DG1" s="227"/>
+      <c r="CV1" s="251"/>
+      <c r="CW1" s="251"/>
+      <c r="CX1" s="251"/>
+      <c r="CY1" s="251"/>
+      <c r="CZ1" s="251"/>
+      <c r="DA1" s="251"/>
+      <c r="DB1" s="251"/>
+      <c r="DC1" s="251"/>
+      <c r="DD1" s="251"/>
+      <c r="DE1" s="251"/>
+      <c r="DF1" s="251"/>
+      <c r="DG1" s="251"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -2697,241 +2632,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="228" t="s">
+      <c r="CU2" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="228"/>
-      <c r="CW2" s="228"/>
-      <c r="CX2" s="228"/>
-      <c r="CY2" s="228"/>
-      <c r="CZ2" s="228"/>
-      <c r="DA2" s="228"/>
-      <c r="DB2" s="228"/>
-      <c r="DC2" s="228"/>
-      <c r="DD2" s="228"/>
-      <c r="DE2" s="228"/>
-      <c r="DF2" s="228"/>
-      <c r="DG2" s="228"/>
+      <c r="CV2" s="252"/>
+      <c r="CW2" s="252"/>
+      <c r="CX2" s="252"/>
+      <c r="CY2" s="252"/>
+      <c r="CZ2" s="252"/>
+      <c r="DA2" s="252"/>
+      <c r="DB2" s="252"/>
+      <c r="DC2" s="252"/>
+      <c r="DD2" s="252"/>
+      <c r="DE2" s="252"/>
+      <c r="DF2" s="252"/>
+      <c r="DG2" s="252"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="229"/>
-      <c r="AB3" s="229"/>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="229"/>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="229"/>
-      <c r="AL3" s="229"/>
-      <c r="AM3" s="229"/>
-      <c r="AN3" s="229"/>
-      <c r="AO3" s="229"/>
-      <c r="AP3" s="229"/>
-      <c r="AQ3" s="229"/>
-      <c r="AR3" s="229"/>
-      <c r="AS3" s="229"/>
-      <c r="AT3" s="229"/>
-      <c r="AU3" s="229"/>
-      <c r="AV3" s="229"/>
-      <c r="AW3" s="229"/>
-      <c r="AX3" s="229"/>
-      <c r="AY3" s="229"/>
-      <c r="AZ3" s="229"/>
-      <c r="BA3" s="229"/>
-      <c r="BB3" s="229"/>
-      <c r="BC3" s="229"/>
-      <c r="BD3" s="229"/>
-      <c r="BE3" s="229"/>
-      <c r="BF3" s="229"/>
-      <c r="BG3" s="229"/>
-      <c r="BH3" s="229"/>
-      <c r="BI3" s="229"/>
-      <c r="BJ3" s="229"/>
-      <c r="BK3" s="229"/>
-      <c r="BL3" s="229"/>
-      <c r="BM3" s="229"/>
-      <c r="BN3" s="229"/>
-      <c r="BO3" s="229"/>
-      <c r="BP3" s="229"/>
-      <c r="BQ3" s="229"/>
-      <c r="BR3" s="229"/>
-      <c r="BS3" s="229"/>
-      <c r="BT3" s="229"/>
-      <c r="BU3" s="229"/>
-      <c r="BV3" s="229"/>
-      <c r="BW3" s="229"/>
-      <c r="BX3" s="229"/>
-      <c r="BY3" s="229"/>
-      <c r="BZ3" s="229"/>
-      <c r="CA3" s="229"/>
-      <c r="CB3" s="229"/>
-      <c r="CC3" s="229"/>
-      <c r="CD3" s="229"/>
-      <c r="CE3" s="229"/>
-      <c r="CF3" s="229"/>
-      <c r="CG3" s="229"/>
-      <c r="CH3" s="229"/>
-      <c r="CI3" s="229"/>
-      <c r="CJ3" s="229"/>
-      <c r="CK3" s="229"/>
-      <c r="CL3" s="229"/>
-      <c r="CM3" s="229"/>
-      <c r="CN3" s="229"/>
-      <c r="CO3" s="229"/>
-      <c r="CP3" s="229"/>
-      <c r="CQ3" s="229"/>
-      <c r="CR3" s="229"/>
-      <c r="CS3" s="229"/>
-      <c r="CT3" s="229"/>
-      <c r="CU3" s="229"/>
-      <c r="CV3" s="230" t="s">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="253"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="253"/>
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="253"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="253"/>
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="253"/>
+      <c r="AG3" s="253"/>
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="253"/>
+      <c r="AJ3" s="253"/>
+      <c r="AK3" s="253"/>
+      <c r="AL3" s="253"/>
+      <c r="AM3" s="253"/>
+      <c r="AN3" s="253"/>
+      <c r="AO3" s="253"/>
+      <c r="AP3" s="253"/>
+      <c r="AQ3" s="253"/>
+      <c r="AR3" s="253"/>
+      <c r="AS3" s="253"/>
+      <c r="AT3" s="253"/>
+      <c r="AU3" s="253"/>
+      <c r="AV3" s="253"/>
+      <c r="AW3" s="253"/>
+      <c r="AX3" s="253"/>
+      <c r="AY3" s="253"/>
+      <c r="AZ3" s="253"/>
+      <c r="BA3" s="253"/>
+      <c r="BB3" s="253"/>
+      <c r="BC3" s="253"/>
+      <c r="BD3" s="253"/>
+      <c r="BE3" s="253"/>
+      <c r="BF3" s="253"/>
+      <c r="BG3" s="253"/>
+      <c r="BH3" s="253"/>
+      <c r="BI3" s="253"/>
+      <c r="BJ3" s="253"/>
+      <c r="BK3" s="253"/>
+      <c r="BL3" s="253"/>
+      <c r="BM3" s="253"/>
+      <c r="BN3" s="253"/>
+      <c r="BO3" s="253"/>
+      <c r="BP3" s="253"/>
+      <c r="BQ3" s="253"/>
+      <c r="BR3" s="253"/>
+      <c r="BS3" s="253"/>
+      <c r="BT3" s="253"/>
+      <c r="BU3" s="253"/>
+      <c r="BV3" s="253"/>
+      <c r="BW3" s="253"/>
+      <c r="BX3" s="253"/>
+      <c r="BY3" s="253"/>
+      <c r="BZ3" s="253"/>
+      <c r="CA3" s="253"/>
+      <c r="CB3" s="253"/>
+      <c r="CC3" s="253"/>
+      <c r="CD3" s="253"/>
+      <c r="CE3" s="253"/>
+      <c r="CF3" s="253"/>
+      <c r="CG3" s="253"/>
+      <c r="CH3" s="253"/>
+      <c r="CI3" s="253"/>
+      <c r="CJ3" s="253"/>
+      <c r="CK3" s="253"/>
+      <c r="CL3" s="253"/>
+      <c r="CM3" s="253"/>
+      <c r="CN3" s="253"/>
+      <c r="CO3" s="253"/>
+      <c r="CP3" s="253"/>
+      <c r="CQ3" s="253"/>
+      <c r="CR3" s="253"/>
+      <c r="CS3" s="253"/>
+      <c r="CT3" s="253"/>
+      <c r="CU3" s="253"/>
+      <c r="CV3" s="254" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="230"/>
-      <c r="CX3" s="230"/>
-      <c r="CY3" s="230"/>
-      <c r="CZ3" s="230"/>
-      <c r="DA3" s="230"/>
-      <c r="DB3" s="230"/>
-      <c r="DC3" s="230"/>
-      <c r="DD3" s="230"/>
-      <c r="DE3" s="230"/>
-      <c r="DF3" s="230"/>
-      <c r="DG3" s="230"/>
+      <c r="CW3" s="254"/>
+      <c r="CX3" s="254"/>
+      <c r="CY3" s="254"/>
+      <c r="CZ3" s="254"/>
+      <c r="DA3" s="254"/>
+      <c r="DB3" s="254"/>
+      <c r="DC3" s="254"/>
+      <c r="DD3" s="254"/>
+      <c r="DE3" s="254"/>
+      <c r="DF3" s="254"/>
+      <c r="DG3" s="254"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="243"/>
-      <c r="N4" s="243"/>
-      <c r="O4" s="243"/>
-      <c r="P4" s="243"/>
-      <c r="Q4" s="243"/>
-      <c r="R4" s="243"/>
-      <c r="S4" s="243"/>
-      <c r="T4" s="243"/>
-      <c r="U4" s="243"/>
-      <c r="V4" s="243"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="243"/>
-      <c r="AE4" s="243"/>
-      <c r="AF4" s="243"/>
-      <c r="AG4" s="243"/>
-      <c r="AH4" s="243"/>
-      <c r="AI4" s="243"/>
-      <c r="AJ4" s="243"/>
-      <c r="AK4" s="243"/>
-      <c r="AL4" s="243"/>
-      <c r="AM4" s="243"/>
-      <c r="AN4" s="243"/>
-      <c r="AO4" s="243"/>
-      <c r="AP4" s="243"/>
-      <c r="AQ4" s="243"/>
-      <c r="AR4" s="243"/>
-      <c r="AS4" s="243"/>
-      <c r="AT4" s="243"/>
-      <c r="AU4" s="243"/>
-      <c r="AV4" s="243"/>
-      <c r="AW4" s="243"/>
-      <c r="AX4" s="243"/>
-      <c r="AY4" s="243"/>
-      <c r="AZ4" s="243"/>
-      <c r="BA4" s="243"/>
-      <c r="BB4" s="243"/>
-      <c r="BC4" s="243"/>
-      <c r="BD4" s="243"/>
-      <c r="BE4" s="243"/>
-      <c r="BF4" s="243"/>
-      <c r="BG4" s="243"/>
-      <c r="BH4" s="243"/>
-      <c r="BI4" s="243"/>
-      <c r="BJ4" s="243"/>
-      <c r="BK4" s="243"/>
-      <c r="BL4" s="243"/>
-      <c r="BM4" s="243"/>
-      <c r="BN4" s="243"/>
-      <c r="BO4" s="243"/>
-      <c r="BP4" s="243"/>
-      <c r="BQ4" s="243"/>
-      <c r="BR4" s="243"/>
-      <c r="BS4" s="243"/>
-      <c r="BT4" s="243"/>
-      <c r="BU4" s="243"/>
-      <c r="BV4" s="243"/>
-      <c r="BW4" s="243"/>
-      <c r="BX4" s="243"/>
-      <c r="BY4" s="243"/>
-      <c r="BZ4" s="243"/>
-      <c r="CA4" s="243"/>
-      <c r="CB4" s="243"/>
-      <c r="CC4" s="243"/>
-      <c r="CD4" s="243"/>
-      <c r="CE4" s="243"/>
-      <c r="CF4" s="243"/>
-      <c r="CG4" s="243"/>
-      <c r="CH4" s="243"/>
-      <c r="CI4" s="243"/>
-      <c r="CJ4" s="243"/>
-      <c r="CK4" s="243"/>
-      <c r="CL4" s="243"/>
-      <c r="CM4" s="243"/>
-      <c r="CN4" s="243"/>
-      <c r="CO4" s="243"/>
-      <c r="CP4" s="243"/>
-      <c r="CQ4" s="243"/>
-      <c r="CR4" s="243"/>
-      <c r="CS4" s="243"/>
-      <c r="CT4" s="243"/>
-      <c r="CU4" s="243"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="261"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="261"/>
+      <c r="Y4" s="261"/>
+      <c r="Z4" s="261"/>
+      <c r="AA4" s="261"/>
+      <c r="AB4" s="261"/>
+      <c r="AC4" s="261"/>
+      <c r="AD4" s="261"/>
+      <c r="AE4" s="261"/>
+      <c r="AF4" s="261"/>
+      <c r="AG4" s="261"/>
+      <c r="AH4" s="261"/>
+      <c r="AI4" s="261"/>
+      <c r="AJ4" s="261"/>
+      <c r="AK4" s="261"/>
+      <c r="AL4" s="261"/>
+      <c r="AM4" s="261"/>
+      <c r="AN4" s="261"/>
+      <c r="AO4" s="261"/>
+      <c r="AP4" s="261"/>
+      <c r="AQ4" s="261"/>
+      <c r="AR4" s="261"/>
+      <c r="AS4" s="261"/>
+      <c r="AT4" s="261"/>
+      <c r="AU4" s="261"/>
+      <c r="AV4" s="261"/>
+      <c r="AW4" s="261"/>
+      <c r="AX4" s="261"/>
+      <c r="AY4" s="261"/>
+      <c r="AZ4" s="261"/>
+      <c r="BA4" s="261"/>
+      <c r="BB4" s="261"/>
+      <c r="BC4" s="261"/>
+      <c r="BD4" s="261"/>
+      <c r="BE4" s="261"/>
+      <c r="BF4" s="261"/>
+      <c r="BG4" s="261"/>
+      <c r="BH4" s="261"/>
+      <c r="BI4" s="261"/>
+      <c r="BJ4" s="261"/>
+      <c r="BK4" s="261"/>
+      <c r="BL4" s="261"/>
+      <c r="BM4" s="261"/>
+      <c r="BN4" s="261"/>
+      <c r="BO4" s="261"/>
+      <c r="BP4" s="261"/>
+      <c r="BQ4" s="261"/>
+      <c r="BR4" s="261"/>
+      <c r="BS4" s="261"/>
+      <c r="BT4" s="261"/>
+      <c r="BU4" s="261"/>
+      <c r="BV4" s="261"/>
+      <c r="BW4" s="261"/>
+      <c r="BX4" s="261"/>
+      <c r="BY4" s="261"/>
+      <c r="BZ4" s="261"/>
+      <c r="CA4" s="261"/>
+      <c r="CB4" s="261"/>
+      <c r="CC4" s="261"/>
+      <c r="CD4" s="261"/>
+      <c r="CE4" s="261"/>
+      <c r="CF4" s="261"/>
+      <c r="CG4" s="261"/>
+      <c r="CH4" s="261"/>
+      <c r="CI4" s="261"/>
+      <c r="CJ4" s="261"/>
+      <c r="CK4" s="261"/>
+      <c r="CL4" s="261"/>
+      <c r="CM4" s="261"/>
+      <c r="CN4" s="261"/>
+      <c r="CO4" s="261"/>
+      <c r="CP4" s="261"/>
+      <c r="CQ4" s="261"/>
+      <c r="CR4" s="261"/>
+      <c r="CS4" s="261"/>
+      <c r="CT4" s="261"/>
+      <c r="CU4" s="261"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -3061,433 +2996,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="247" t="s">
+      <c r="A6" s="262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="253" t="s">
+      <c r="F6" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="269" t="s">
+      <c r="G6" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="269"/>
-      <c r="P6" s="269"/>
-      <c r="Q6" s="269"/>
-      <c r="R6" s="269"/>
-      <c r="S6" s="269"/>
-      <c r="T6" s="269"/>
-      <c r="U6" s="269"/>
-      <c r="V6" s="269"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
-      <c r="AA6" s="269"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="269"/>
-      <c r="AE6" s="269"/>
-      <c r="AF6" s="269"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="269"/>
-      <c r="AI6" s="269"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="269"/>
-      <c r="AN6" s="269"/>
-      <c r="AO6" s="269"/>
-      <c r="AP6" s="269"/>
-      <c r="AQ6" s="269"/>
-      <c r="AR6" s="269"/>
-      <c r="AS6" s="269"/>
-      <c r="AT6" s="269"/>
-      <c r="AU6" s="269"/>
-      <c r="AV6" s="269"/>
-      <c r="AW6" s="269"/>
-      <c r="AX6" s="269"/>
-      <c r="AY6" s="269"/>
-      <c r="AZ6" s="269"/>
-      <c r="BA6" s="269"/>
-      <c r="BB6" s="269"/>
-      <c r="BC6" s="269"/>
-      <c r="BD6" s="269"/>
-      <c r="BE6" s="269"/>
-      <c r="BF6" s="269"/>
-      <c r="BG6" s="269"/>
-      <c r="BH6" s="269"/>
-      <c r="BI6" s="269"/>
-      <c r="BJ6" s="269"/>
-      <c r="BK6" s="269"/>
-      <c r="BL6" s="269"/>
-      <c r="BM6" s="269"/>
-      <c r="BN6" s="269"/>
-      <c r="BO6" s="269"/>
-      <c r="BP6" s="269"/>
-      <c r="BQ6" s="269"/>
-      <c r="BR6" s="269"/>
-      <c r="BS6" s="269"/>
-      <c r="BT6" s="269"/>
-      <c r="BU6" s="269"/>
-      <c r="BV6" s="269"/>
-      <c r="BW6" s="269"/>
-      <c r="BX6" s="269"/>
-      <c r="BY6" s="269"/>
-      <c r="BZ6" s="269"/>
-      <c r="CA6" s="269"/>
-      <c r="CB6" s="269"/>
-      <c r="CC6" s="269"/>
-      <c r="CD6" s="269"/>
-      <c r="CE6" s="269"/>
-      <c r="CF6" s="269"/>
-      <c r="CG6" s="269"/>
-      <c r="CH6" s="269"/>
-      <c r="CI6" s="269"/>
-      <c r="CJ6" s="269"/>
-      <c r="CK6" s="269"/>
-      <c r="CL6" s="269"/>
-      <c r="CM6" s="269"/>
-      <c r="CN6" s="269"/>
-      <c r="CO6" s="269"/>
-      <c r="CP6" s="269"/>
-      <c r="CQ6" s="269"/>
-      <c r="CR6" s="269"/>
-      <c r="CS6" s="269"/>
-      <c r="CT6" s="269"/>
-      <c r="CU6" s="269"/>
-      <c r="CV6" s="231" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="241"/>
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
+      <c r="V6" s="241"/>
+      <c r="W6" s="241"/>
+      <c r="X6" s="241"/>
+      <c r="Y6" s="241"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="241"/>
+      <c r="AE6" s="241"/>
+      <c r="AF6" s="241"/>
+      <c r="AG6" s="241"/>
+      <c r="AH6" s="241"/>
+      <c r="AI6" s="241"/>
+      <c r="AJ6" s="241"/>
+      <c r="AK6" s="241"/>
+      <c r="AL6" s="241"/>
+      <c r="AM6" s="241"/>
+      <c r="AN6" s="241"/>
+      <c r="AO6" s="241"/>
+      <c r="AP6" s="241"/>
+      <c r="AQ6" s="241"/>
+      <c r="AR6" s="241"/>
+      <c r="AS6" s="241"/>
+      <c r="AT6" s="241"/>
+      <c r="AU6" s="241"/>
+      <c r="AV6" s="241"/>
+      <c r="AW6" s="241"/>
+      <c r="AX6" s="241"/>
+      <c r="AY6" s="241"/>
+      <c r="AZ6" s="241"/>
+      <c r="BA6" s="241"/>
+      <c r="BB6" s="241"/>
+      <c r="BC6" s="241"/>
+      <c r="BD6" s="241"/>
+      <c r="BE6" s="241"/>
+      <c r="BF6" s="241"/>
+      <c r="BG6" s="241"/>
+      <c r="BH6" s="241"/>
+      <c r="BI6" s="241"/>
+      <c r="BJ6" s="241"/>
+      <c r="BK6" s="241"/>
+      <c r="BL6" s="241"/>
+      <c r="BM6" s="241"/>
+      <c r="BN6" s="241"/>
+      <c r="BO6" s="241"/>
+      <c r="BP6" s="241"/>
+      <c r="BQ6" s="241"/>
+      <c r="BR6" s="241"/>
+      <c r="BS6" s="241"/>
+      <c r="BT6" s="241"/>
+      <c r="BU6" s="241"/>
+      <c r="BV6" s="241"/>
+      <c r="BW6" s="241"/>
+      <c r="BX6" s="241"/>
+      <c r="BY6" s="241"/>
+      <c r="BZ6" s="241"/>
+      <c r="CA6" s="241"/>
+      <c r="CB6" s="241"/>
+      <c r="CC6" s="241"/>
+      <c r="CD6" s="241"/>
+      <c r="CE6" s="241"/>
+      <c r="CF6" s="241"/>
+      <c r="CG6" s="241"/>
+      <c r="CH6" s="241"/>
+      <c r="CI6" s="241"/>
+      <c r="CJ6" s="241"/>
+      <c r="CK6" s="241"/>
+      <c r="CL6" s="241"/>
+      <c r="CM6" s="241"/>
+      <c r="CN6" s="241"/>
+      <c r="CO6" s="241"/>
+      <c r="CP6" s="241"/>
+      <c r="CQ6" s="241"/>
+      <c r="CR6" s="241"/>
+      <c r="CS6" s="241"/>
+      <c r="CT6" s="241"/>
+      <c r="CU6" s="241"/>
+      <c r="CV6" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="232"/>
-      <c r="CX6" s="231" t="s">
+      <c r="CW6" s="256"/>
+      <c r="CX6" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="235"/>
-      <c r="CZ6" s="235"/>
-      <c r="DA6" s="235"/>
-      <c r="DB6" s="235"/>
-      <c r="DC6" s="235"/>
-      <c r="DD6" s="235"/>
-      <c r="DE6" s="235"/>
-      <c r="DF6" s="235"/>
-      <c r="DG6" s="235"/>
-      <c r="DH6" s="259" t="s">
+      <c r="CY6" s="259"/>
+      <c r="CZ6" s="259"/>
+      <c r="DA6" s="259"/>
+      <c r="DB6" s="259"/>
+      <c r="DC6" s="259"/>
+      <c r="DD6" s="259"/>
+      <c r="DE6" s="259"/>
+      <c r="DF6" s="259"/>
+      <c r="DG6" s="259"/>
+      <c r="DH6" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="262" t="s">
+      <c r="DI6" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="220" t="s">
+      <c r="DJ6" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="220"/>
-      <c r="DL6" s="220"/>
-      <c r="DM6" s="220"/>
-      <c r="DN6" s="220"/>
-      <c r="DO6" s="221"/>
+      <c r="DK6" s="244"/>
+      <c r="DL6" s="244"/>
+      <c r="DM6" s="244"/>
+      <c r="DN6" s="244"/>
+      <c r="DO6" s="245"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="270"/>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="270"/>
-      <c r="X7" s="270"/>
-      <c r="Y7" s="270"/>
-      <c r="Z7" s="270"/>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="270"/>
-      <c r="AC7" s="270"/>
-      <c r="AD7" s="270"/>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="270"/>
-      <c r="AG7" s="270"/>
-      <c r="AH7" s="270"/>
-      <c r="AI7" s="270"/>
-      <c r="AJ7" s="270"/>
-      <c r="AK7" s="270"/>
-      <c r="AL7" s="270"/>
-      <c r="AM7" s="270"/>
-      <c r="AN7" s="270"/>
-      <c r="AO7" s="270"/>
-      <c r="AP7" s="270"/>
-      <c r="AQ7" s="270"/>
-      <c r="AR7" s="270"/>
-      <c r="AS7" s="270"/>
-      <c r="AT7" s="270"/>
-      <c r="AU7" s="270"/>
-      <c r="AV7" s="270"/>
-      <c r="AW7" s="270"/>
-      <c r="AX7" s="270"/>
-      <c r="AY7" s="270"/>
-      <c r="AZ7" s="270"/>
-      <c r="BA7" s="270"/>
-      <c r="BB7" s="270"/>
-      <c r="BC7" s="270"/>
-      <c r="BD7" s="270"/>
-      <c r="BE7" s="270"/>
-      <c r="BF7" s="270"/>
-      <c r="BG7" s="270"/>
-      <c r="BH7" s="270"/>
-      <c r="BI7" s="270"/>
-      <c r="BJ7" s="270"/>
-      <c r="BK7" s="270"/>
-      <c r="BL7" s="270"/>
-      <c r="BM7" s="270"/>
-      <c r="BN7" s="270"/>
-      <c r="BO7" s="271"/>
-      <c r="BP7" s="271"/>
-      <c r="BQ7" s="271"/>
-      <c r="BR7" s="270"/>
-      <c r="BS7" s="270"/>
-      <c r="BT7" s="270"/>
-      <c r="BU7" s="270"/>
-      <c r="BV7" s="270"/>
-      <c r="BW7" s="270"/>
-      <c r="BX7" s="270"/>
-      <c r="BY7" s="270"/>
-      <c r="BZ7" s="270"/>
-      <c r="CA7" s="270"/>
-      <c r="CB7" s="270"/>
-      <c r="CC7" s="270"/>
-      <c r="CD7" s="270"/>
-      <c r="CE7" s="270"/>
-      <c r="CF7" s="270"/>
-      <c r="CG7" s="270"/>
-      <c r="CH7" s="270"/>
-      <c r="CI7" s="270"/>
-      <c r="CJ7" s="270"/>
-      <c r="CK7" s="270"/>
-      <c r="CL7" s="270"/>
-      <c r="CM7" s="270"/>
-      <c r="CN7" s="270"/>
-      <c r="CO7" s="270"/>
-      <c r="CP7" s="270"/>
-      <c r="CQ7" s="270"/>
-      <c r="CR7" s="270"/>
-      <c r="CS7" s="270"/>
-      <c r="CT7" s="270"/>
-      <c r="CU7" s="270"/>
-      <c r="CV7" s="233"/>
-      <c r="CW7" s="234"/>
-      <c r="CX7" s="233"/>
-      <c r="CY7" s="236"/>
-      <c r="CZ7" s="236"/>
-      <c r="DA7" s="236"/>
-      <c r="DB7" s="236"/>
-      <c r="DC7" s="236"/>
-      <c r="DD7" s="236"/>
-      <c r="DE7" s="236"/>
-      <c r="DF7" s="236"/>
-      <c r="DG7" s="236"/>
-      <c r="DH7" s="260"/>
-      <c r="DI7" s="263"/>
-      <c r="DJ7" s="222"/>
-      <c r="DK7" s="222"/>
-      <c r="DL7" s="222"/>
-      <c r="DM7" s="222"/>
-      <c r="DN7" s="222"/>
-      <c r="DO7" s="223"/>
+      <c r="A7" s="263"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
+      <c r="N7" s="242"/>
+      <c r="O7" s="242"/>
+      <c r="P7" s="242"/>
+      <c r="Q7" s="242"/>
+      <c r="R7" s="242"/>
+      <c r="S7" s="242"/>
+      <c r="T7" s="242"/>
+      <c r="U7" s="242"/>
+      <c r="V7" s="242"/>
+      <c r="W7" s="242"/>
+      <c r="X7" s="242"/>
+      <c r="Y7" s="242"/>
+      <c r="Z7" s="242"/>
+      <c r="AA7" s="242"/>
+      <c r="AB7" s="242"/>
+      <c r="AC7" s="242"/>
+      <c r="AD7" s="242"/>
+      <c r="AE7" s="242"/>
+      <c r="AF7" s="242"/>
+      <c r="AG7" s="242"/>
+      <c r="AH7" s="242"/>
+      <c r="AI7" s="242"/>
+      <c r="AJ7" s="242"/>
+      <c r="AK7" s="242"/>
+      <c r="AL7" s="242"/>
+      <c r="AM7" s="242"/>
+      <c r="AN7" s="242"/>
+      <c r="AO7" s="242"/>
+      <c r="AP7" s="242"/>
+      <c r="AQ7" s="242"/>
+      <c r="AR7" s="242"/>
+      <c r="AS7" s="242"/>
+      <c r="AT7" s="242"/>
+      <c r="AU7" s="242"/>
+      <c r="AV7" s="242"/>
+      <c r="AW7" s="242"/>
+      <c r="AX7" s="242"/>
+      <c r="AY7" s="242"/>
+      <c r="AZ7" s="242"/>
+      <c r="BA7" s="242"/>
+      <c r="BB7" s="242"/>
+      <c r="BC7" s="242"/>
+      <c r="BD7" s="242"/>
+      <c r="BE7" s="242"/>
+      <c r="BF7" s="242"/>
+      <c r="BG7" s="242"/>
+      <c r="BH7" s="242"/>
+      <c r="BI7" s="242"/>
+      <c r="BJ7" s="242"/>
+      <c r="BK7" s="242"/>
+      <c r="BL7" s="242"/>
+      <c r="BM7" s="242"/>
+      <c r="BN7" s="242"/>
+      <c r="BO7" s="243"/>
+      <c r="BP7" s="243"/>
+      <c r="BQ7" s="243"/>
+      <c r="BR7" s="242"/>
+      <c r="BS7" s="242"/>
+      <c r="BT7" s="242"/>
+      <c r="BU7" s="242"/>
+      <c r="BV7" s="242"/>
+      <c r="BW7" s="242"/>
+      <c r="BX7" s="242"/>
+      <c r="BY7" s="242"/>
+      <c r="BZ7" s="242"/>
+      <c r="CA7" s="242"/>
+      <c r="CB7" s="242"/>
+      <c r="CC7" s="242"/>
+      <c r="CD7" s="242"/>
+      <c r="CE7" s="242"/>
+      <c r="CF7" s="242"/>
+      <c r="CG7" s="242"/>
+      <c r="CH7" s="242"/>
+      <c r="CI7" s="242"/>
+      <c r="CJ7" s="242"/>
+      <c r="CK7" s="242"/>
+      <c r="CL7" s="242"/>
+      <c r="CM7" s="242"/>
+      <c r="CN7" s="242"/>
+      <c r="CO7" s="242"/>
+      <c r="CP7" s="242"/>
+      <c r="CQ7" s="242"/>
+      <c r="CR7" s="242"/>
+      <c r="CS7" s="242"/>
+      <c r="CT7" s="242"/>
+      <c r="CU7" s="242"/>
+      <c r="CV7" s="257"/>
+      <c r="CW7" s="258"/>
+      <c r="CX7" s="257"/>
+      <c r="CY7" s="260"/>
+      <c r="CZ7" s="260"/>
+      <c r="DA7" s="260"/>
+      <c r="DB7" s="260"/>
+      <c r="DC7" s="260"/>
+      <c r="DD7" s="260"/>
+      <c r="DE7" s="260"/>
+      <c r="DF7" s="260"/>
+      <c r="DG7" s="260"/>
+      <c r="DH7" s="232"/>
+      <c r="DI7" s="235"/>
+      <c r="DJ7" s="246"/>
+      <c r="DK7" s="246"/>
+      <c r="DL7" s="246"/>
+      <c r="DM7" s="246"/>
+      <c r="DN7" s="246"/>
+      <c r="DO7" s="247"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="246"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="273">
+      <c r="A8" s="264"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="230">
         <v>1</v>
       </c>
-      <c r="H8" s="241"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="256">
+      <c r="H8" s="222"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="221">
         <v>2</v>
       </c>
-      <c r="K8" s="241"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="237">
+      <c r="K8" s="222"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="226">
         <v>3</v>
       </c>
-      <c r="N8" s="238"/>
-      <c r="O8" s="258"/>
-      <c r="P8" s="237">
+      <c r="N8" s="227"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="226">
         <v>4</v>
       </c>
-      <c r="Q8" s="238"/>
-      <c r="R8" s="239"/>
-      <c r="S8" s="256">
+      <c r="Q8" s="227"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="221">
         <v>5</v>
       </c>
-      <c r="T8" s="241"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="256">
+      <c r="T8" s="222"/>
+      <c r="U8" s="225"/>
+      <c r="V8" s="221">
         <v>6</v>
       </c>
-      <c r="W8" s="241"/>
-      <c r="X8" s="257"/>
-      <c r="Y8" s="256">
+      <c r="W8" s="222"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="221">
         <v>7</v>
       </c>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="257"/>
-      <c r="AB8" s="256">
+      <c r="Z8" s="222"/>
+      <c r="AA8" s="223"/>
+      <c r="AB8" s="221">
         <v>8</v>
       </c>
-      <c r="AC8" s="241"/>
-      <c r="AD8" s="257"/>
-      <c r="AE8" s="256">
+      <c r="AC8" s="222"/>
+      <c r="AD8" s="223"/>
+      <c r="AE8" s="221">
         <v>9</v>
       </c>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="242"/>
-      <c r="AH8" s="237">
+      <c r="AF8" s="222"/>
+      <c r="AG8" s="225"/>
+      <c r="AH8" s="226">
         <v>10</v>
       </c>
-      <c r="AI8" s="238"/>
-      <c r="AJ8" s="239"/>
-      <c r="AK8" s="237">
+      <c r="AI8" s="227"/>
+      <c r="AJ8" s="229"/>
+      <c r="AK8" s="226">
         <v>11</v>
       </c>
-      <c r="AL8" s="238"/>
-      <c r="AM8" s="239"/>
-      <c r="AN8" s="240">
+      <c r="AL8" s="227"/>
+      <c r="AM8" s="229"/>
+      <c r="AN8" s="224">
         <v>12</v>
       </c>
-      <c r="AO8" s="241"/>
-      <c r="AP8" s="242"/>
-      <c r="AQ8" s="256">
+      <c r="AO8" s="222"/>
+      <c r="AP8" s="225"/>
+      <c r="AQ8" s="221">
         <v>13</v>
       </c>
-      <c r="AR8" s="241"/>
-      <c r="AS8" s="257"/>
-      <c r="AT8" s="240">
+      <c r="AR8" s="222"/>
+      <c r="AS8" s="223"/>
+      <c r="AT8" s="224">
         <v>14</v>
       </c>
-      <c r="AU8" s="241"/>
-      <c r="AV8" s="257"/>
-      <c r="AW8" s="256">
+      <c r="AU8" s="222"/>
+      <c r="AV8" s="223"/>
+      <c r="AW8" s="221">
         <v>15</v>
       </c>
-      <c r="AX8" s="241"/>
-      <c r="AY8" s="257"/>
-      <c r="AZ8" s="256">
+      <c r="AX8" s="222"/>
+      <c r="AY8" s="223"/>
+      <c r="AZ8" s="221">
         <v>16</v>
       </c>
-      <c r="BA8" s="241"/>
-      <c r="BB8" s="257"/>
-      <c r="BC8" s="237">
+      <c r="BA8" s="222"/>
+      <c r="BB8" s="223"/>
+      <c r="BC8" s="226">
         <v>17</v>
       </c>
-      <c r="BD8" s="238"/>
-      <c r="BE8" s="258"/>
-      <c r="BF8" s="237">
+      <c r="BD8" s="227"/>
+      <c r="BE8" s="228"/>
+      <c r="BF8" s="226">
         <v>18</v>
       </c>
-      <c r="BG8" s="238"/>
-      <c r="BH8" s="239"/>
-      <c r="BI8" s="240">
+      <c r="BG8" s="227"/>
+      <c r="BH8" s="229"/>
+      <c r="BI8" s="224">
         <v>19</v>
       </c>
-      <c r="BJ8" s="241"/>
-      <c r="BK8" s="242"/>
-      <c r="BL8" s="256">
+      <c r="BJ8" s="222"/>
+      <c r="BK8" s="225"/>
+      <c r="BL8" s="221">
         <v>20</v>
       </c>
-      <c r="BM8" s="241"/>
-      <c r="BN8" s="257"/>
-      <c r="BO8" s="256">
+      <c r="BM8" s="222"/>
+      <c r="BN8" s="223"/>
+      <c r="BO8" s="221">
         <v>21</v>
       </c>
-      <c r="BP8" s="241"/>
-      <c r="BQ8" s="257"/>
-      <c r="BR8" s="256">
+      <c r="BP8" s="222"/>
+      <c r="BQ8" s="223"/>
+      <c r="BR8" s="221">
         <v>22</v>
       </c>
-      <c r="BS8" s="241"/>
-      <c r="BT8" s="257"/>
-      <c r="BU8" s="240">
+      <c r="BS8" s="222"/>
+      <c r="BT8" s="223"/>
+      <c r="BU8" s="224">
         <v>23</v>
       </c>
-      <c r="BV8" s="241"/>
-      <c r="BW8" s="242"/>
-      <c r="BX8" s="237">
+      <c r="BV8" s="222"/>
+      <c r="BW8" s="225"/>
+      <c r="BX8" s="226">
         <v>24</v>
       </c>
-      <c r="BY8" s="238"/>
-      <c r="BZ8" s="239"/>
-      <c r="CA8" s="268">
+      <c r="BY8" s="227"/>
+      <c r="BZ8" s="229"/>
+      <c r="CA8" s="240">
         <v>25</v>
       </c>
-      <c r="CB8" s="238"/>
-      <c r="CC8" s="258"/>
-      <c r="CD8" s="256">
+      <c r="CB8" s="227"/>
+      <c r="CC8" s="228"/>
+      <c r="CD8" s="221">
         <v>26</v>
       </c>
-      <c r="CE8" s="241"/>
-      <c r="CF8" s="257"/>
-      <c r="CG8" s="240">
+      <c r="CE8" s="222"/>
+      <c r="CF8" s="223"/>
+      <c r="CG8" s="224">
         <v>27</v>
       </c>
-      <c r="CH8" s="241"/>
-      <c r="CI8" s="242"/>
-      <c r="CJ8" s="256">
+      <c r="CH8" s="222"/>
+      <c r="CI8" s="225"/>
+      <c r="CJ8" s="221">
         <v>28</v>
       </c>
-      <c r="CK8" s="241"/>
-      <c r="CL8" s="257"/>
-      <c r="CM8" s="256">
+      <c r="CK8" s="222"/>
+      <c r="CL8" s="223"/>
+      <c r="CM8" s="221">
         <v>29</v>
       </c>
-      <c r="CN8" s="241"/>
-      <c r="CO8" s="257"/>
-      <c r="CP8" s="256">
+      <c r="CN8" s="222"/>
+      <c r="CO8" s="223"/>
+      <c r="CP8" s="221">
         <v>30</v>
       </c>
-      <c r="CQ8" s="241"/>
-      <c r="CR8" s="257"/>
-      <c r="CS8" s="265">
+      <c r="CQ8" s="222"/>
+      <c r="CR8" s="223"/>
+      <c r="CS8" s="237">
         <v>31</v>
       </c>
-      <c r="CT8" s="266"/>
-      <c r="CU8" s="267"/>
+      <c r="CT8" s="238"/>
+      <c r="CU8" s="239"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -3524,8 +3459,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="261"/>
-      <c r="DI8" s="264"/>
+      <c r="DH8" s="233"/>
+      <c r="DI8" s="236"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9294,45 +9229,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="272"/>
-      <c r="I33" s="272"/>
-      <c r="J33" s="272"/>
-      <c r="K33" s="272"/>
-      <c r="L33" s="272"/>
-      <c r="M33" s="272"/>
-      <c r="N33" s="272"/>
-      <c r="O33" s="272"/>
-      <c r="P33" s="272"/>
-      <c r="Q33" s="272"/>
-      <c r="R33" s="272"/>
-      <c r="S33" s="272"/>
-      <c r="T33" s="272"/>
-      <c r="U33" s="272"/>
-      <c r="V33" s="272"/>
-      <c r="W33" s="272"/>
-      <c r="X33" s="272"/>
-      <c r="Y33" s="272"/>
-      <c r="Z33" s="272"/>
-      <c r="AA33" s="272"/>
-      <c r="AB33" s="272"/>
-      <c r="AC33" s="272"/>
-      <c r="AD33" s="272"/>
-      <c r="AE33" s="272"/>
-      <c r="AF33" s="272"/>
-      <c r="AG33" s="272"/>
-      <c r="AH33" s="272"/>
-      <c r="AI33" s="272"/>
-      <c r="AJ33" s="272"/>
-      <c r="AK33" s="272"/>
-      <c r="AL33" s="272"/>
-      <c r="AM33" s="272"/>
-      <c r="AN33" s="272"/>
-      <c r="AO33" s="272"/>
-      <c r="AP33" s="272"/>
-      <c r="AQ33" s="272"/>
-      <c r="AR33" s="272"/>
-      <c r="AS33" s="272"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="220"/>
+      <c r="N33" s="220"/>
+      <c r="O33" s="220"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="220"/>
+      <c r="S33" s="220"/>
+      <c r="T33" s="220"/>
+      <c r="U33" s="220"/>
+      <c r="V33" s="220"/>
+      <c r="W33" s="220"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="220"/>
+      <c r="Z33" s="220"/>
+      <c r="AA33" s="220"/>
+      <c r="AB33" s="220"/>
+      <c r="AC33" s="220"/>
+      <c r="AD33" s="220"/>
+      <c r="AE33" s="220"/>
+      <c r="AF33" s="220"/>
+      <c r="AG33" s="220"/>
+      <c r="AH33" s="220"/>
+      <c r="AI33" s="220"/>
+      <c r="AJ33" s="220"/>
+      <c r="AK33" s="220"/>
+      <c r="AL33" s="220"/>
+      <c r="AM33" s="220"/>
+      <c r="AN33" s="220"/>
+      <c r="AO33" s="220"/>
+      <c r="AP33" s="220"/>
+      <c r="AQ33" s="220"/>
+      <c r="AR33" s="220"/>
+      <c r="AS33" s="220"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -9637,45 +9572,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="272"/>
-      <c r="H37" s="272"/>
-      <c r="I37" s="272"/>
-      <c r="J37" s="272"/>
-      <c r="K37" s="272"/>
-      <c r="L37" s="272"/>
-      <c r="M37" s="272"/>
-      <c r="N37" s="272"/>
-      <c r="O37" s="272"/>
-      <c r="P37" s="272"/>
-      <c r="Q37" s="272"/>
-      <c r="R37" s="272"/>
-      <c r="S37" s="272"/>
-      <c r="T37" s="272"/>
-      <c r="U37" s="272"/>
-      <c r="V37" s="272"/>
-      <c r="W37" s="272"/>
-      <c r="X37" s="272"/>
-      <c r="Y37" s="272"/>
-      <c r="Z37" s="272"/>
-      <c r="AA37" s="272"/>
-      <c r="AB37" s="272"/>
-      <c r="AC37" s="272"/>
-      <c r="AD37" s="272"/>
-      <c r="AE37" s="272"/>
-      <c r="AF37" s="272"/>
-      <c r="AG37" s="272"/>
-      <c r="AH37" s="272"/>
-      <c r="AI37" s="272"/>
-      <c r="AJ37" s="272"/>
-      <c r="AK37" s="272"/>
-      <c r="AL37" s="272"/>
-      <c r="AM37" s="272"/>
-      <c r="AN37" s="272"/>
-      <c r="AO37" s="272"/>
-      <c r="AP37" s="272"/>
-      <c r="AQ37" s="272"/>
-      <c r="AR37" s="272"/>
-      <c r="AS37" s="272"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="220"/>
+      <c r="K37" s="220"/>
+      <c r="L37" s="220"/>
+      <c r="M37" s="220"/>
+      <c r="N37" s="220"/>
+      <c r="O37" s="220"/>
+      <c r="P37" s="220"/>
+      <c r="Q37" s="220"/>
+      <c r="R37" s="220"/>
+      <c r="S37" s="220"/>
+      <c r="T37" s="220"/>
+      <c r="U37" s="220"/>
+      <c r="V37" s="220"/>
+      <c r="W37" s="220"/>
+      <c r="X37" s="220"/>
+      <c r="Y37" s="220"/>
+      <c r="Z37" s="220"/>
+      <c r="AA37" s="220"/>
+      <c r="AB37" s="220"/>
+      <c r="AC37" s="220"/>
+      <c r="AD37" s="220"/>
+      <c r="AE37" s="220"/>
+      <c r="AF37" s="220"/>
+      <c r="AG37" s="220"/>
+      <c r="AH37" s="220"/>
+      <c r="AI37" s="220"/>
+      <c r="AJ37" s="220"/>
+      <c r="AK37" s="220"/>
+      <c r="AL37" s="220"/>
+      <c r="AM37" s="220"/>
+      <c r="AN37" s="220"/>
+      <c r="AO37" s="220"/>
+      <c r="AP37" s="220"/>
+      <c r="AQ37" s="220"/>
+      <c r="AR37" s="220"/>
+      <c r="AS37" s="220"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -11176,19 +11111,27 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DJ6:DO7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DH6:DH8"/>
     <mergeCell ref="DI6:DI8"/>
     <mergeCell ref="BU8:BW8"/>
@@ -11205,27 +11148,19 @@
     <mergeCell ref="AW8:AY8"/>
     <mergeCell ref="BF8:BH8"/>
     <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DJ6:DO7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -11250,11 +11185,11 @@
   <dimension ref="A1:EF87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AT17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CC10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="CQ24" sqref="CQ24"/>
+      <selection pane="bottomRight" activeCell="CV12" sqref="CV12:DO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11284,7 +11219,7 @@
     <col min="97" max="99" width="2.44140625" style="123" customWidth="1"/>
     <col min="100" max="100" width="4.5546875" style="5" customWidth="1"/>
     <col min="101" max="101" width="3.109375" style="5" customWidth="1"/>
-    <col min="102" max="102" width="3.44140625" style="5" customWidth="1"/>
+    <col min="102" max="102" width="3.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="3.33203125" style="5" customWidth="1"/>
     <col min="104" max="104" width="4" style="5" customWidth="1"/>
     <col min="105" max="105" width="3.33203125" style="5" customWidth="1"/>
@@ -11421,21 +11356,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="227" t="s">
+      <c r="CU1" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="227"/>
-      <c r="CW1" s="227"/>
-      <c r="CX1" s="227"/>
-      <c r="CY1" s="227"/>
-      <c r="CZ1" s="227"/>
-      <c r="DA1" s="227"/>
-      <c r="DB1" s="227"/>
-      <c r="DC1" s="227"/>
-      <c r="DD1" s="227"/>
-      <c r="DE1" s="227"/>
-      <c r="DF1" s="227"/>
-      <c r="DG1" s="227"/>
+      <c r="CV1" s="251"/>
+      <c r="CW1" s="251"/>
+      <c r="CX1" s="251"/>
+      <c r="CY1" s="251"/>
+      <c r="CZ1" s="251"/>
+      <c r="DA1" s="251"/>
+      <c r="DB1" s="251"/>
+      <c r="DC1" s="251"/>
+      <c r="DD1" s="251"/>
+      <c r="DE1" s="251"/>
+      <c r="DF1" s="251"/>
+      <c r="DG1" s="251"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -11536,241 +11471,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="228" t="s">
+      <c r="CU2" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="228"/>
-      <c r="CW2" s="228"/>
-      <c r="CX2" s="228"/>
-      <c r="CY2" s="228"/>
-      <c r="CZ2" s="228"/>
-      <c r="DA2" s="228"/>
-      <c r="DB2" s="228"/>
-      <c r="DC2" s="228"/>
-      <c r="DD2" s="228"/>
-      <c r="DE2" s="228"/>
-      <c r="DF2" s="228"/>
-      <c r="DG2" s="228"/>
+      <c r="CV2" s="252"/>
+      <c r="CW2" s="252"/>
+      <c r="CX2" s="252"/>
+      <c r="CY2" s="252"/>
+      <c r="CZ2" s="252"/>
+      <c r="DA2" s="252"/>
+      <c r="DB2" s="252"/>
+      <c r="DC2" s="252"/>
+      <c r="DD2" s="252"/>
+      <c r="DE2" s="252"/>
+      <c r="DF2" s="252"/>
+      <c r="DG2" s="252"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="229"/>
-      <c r="AB3" s="229"/>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="229"/>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="229"/>
-      <c r="AL3" s="229"/>
-      <c r="AM3" s="229"/>
-      <c r="AN3" s="229"/>
-      <c r="AO3" s="229"/>
-      <c r="AP3" s="229"/>
-      <c r="AQ3" s="229"/>
-      <c r="AR3" s="229"/>
-      <c r="AS3" s="229"/>
-      <c r="AT3" s="229"/>
-      <c r="AU3" s="229"/>
-      <c r="AV3" s="229"/>
-      <c r="AW3" s="229"/>
-      <c r="AX3" s="229"/>
-      <c r="AY3" s="229"/>
-      <c r="AZ3" s="229"/>
-      <c r="BA3" s="229"/>
-      <c r="BB3" s="229"/>
-      <c r="BC3" s="229"/>
-      <c r="BD3" s="229"/>
-      <c r="BE3" s="229"/>
-      <c r="BF3" s="229"/>
-      <c r="BG3" s="229"/>
-      <c r="BH3" s="229"/>
-      <c r="BI3" s="229"/>
-      <c r="BJ3" s="229"/>
-      <c r="BK3" s="229"/>
-      <c r="BL3" s="229"/>
-      <c r="BM3" s="229"/>
-      <c r="BN3" s="229"/>
-      <c r="BO3" s="229"/>
-      <c r="BP3" s="229"/>
-      <c r="BQ3" s="229"/>
-      <c r="BR3" s="229"/>
-      <c r="BS3" s="229"/>
-      <c r="BT3" s="229"/>
-      <c r="BU3" s="229"/>
-      <c r="BV3" s="229"/>
-      <c r="BW3" s="229"/>
-      <c r="BX3" s="229"/>
-      <c r="BY3" s="229"/>
-      <c r="BZ3" s="229"/>
-      <c r="CA3" s="229"/>
-      <c r="CB3" s="229"/>
-      <c r="CC3" s="229"/>
-      <c r="CD3" s="229"/>
-      <c r="CE3" s="229"/>
-      <c r="CF3" s="229"/>
-      <c r="CG3" s="229"/>
-      <c r="CH3" s="229"/>
-      <c r="CI3" s="229"/>
-      <c r="CJ3" s="229"/>
-      <c r="CK3" s="229"/>
-      <c r="CL3" s="229"/>
-      <c r="CM3" s="229"/>
-      <c r="CN3" s="229"/>
-      <c r="CO3" s="229"/>
-      <c r="CP3" s="229"/>
-      <c r="CQ3" s="229"/>
-      <c r="CR3" s="229"/>
-      <c r="CS3" s="229"/>
-      <c r="CT3" s="229"/>
-      <c r="CU3" s="229"/>
-      <c r="CV3" s="230" t="s">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="253"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="253"/>
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="253"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="253"/>
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="253"/>
+      <c r="AG3" s="253"/>
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="253"/>
+      <c r="AJ3" s="253"/>
+      <c r="AK3" s="253"/>
+      <c r="AL3" s="253"/>
+      <c r="AM3" s="253"/>
+      <c r="AN3" s="253"/>
+      <c r="AO3" s="253"/>
+      <c r="AP3" s="253"/>
+      <c r="AQ3" s="253"/>
+      <c r="AR3" s="253"/>
+      <c r="AS3" s="253"/>
+      <c r="AT3" s="253"/>
+      <c r="AU3" s="253"/>
+      <c r="AV3" s="253"/>
+      <c r="AW3" s="253"/>
+      <c r="AX3" s="253"/>
+      <c r="AY3" s="253"/>
+      <c r="AZ3" s="253"/>
+      <c r="BA3" s="253"/>
+      <c r="BB3" s="253"/>
+      <c r="BC3" s="253"/>
+      <c r="BD3" s="253"/>
+      <c r="BE3" s="253"/>
+      <c r="BF3" s="253"/>
+      <c r="BG3" s="253"/>
+      <c r="BH3" s="253"/>
+      <c r="BI3" s="253"/>
+      <c r="BJ3" s="253"/>
+      <c r="BK3" s="253"/>
+      <c r="BL3" s="253"/>
+      <c r="BM3" s="253"/>
+      <c r="BN3" s="253"/>
+      <c r="BO3" s="253"/>
+      <c r="BP3" s="253"/>
+      <c r="BQ3" s="253"/>
+      <c r="BR3" s="253"/>
+      <c r="BS3" s="253"/>
+      <c r="BT3" s="253"/>
+      <c r="BU3" s="253"/>
+      <c r="BV3" s="253"/>
+      <c r="BW3" s="253"/>
+      <c r="BX3" s="253"/>
+      <c r="BY3" s="253"/>
+      <c r="BZ3" s="253"/>
+      <c r="CA3" s="253"/>
+      <c r="CB3" s="253"/>
+      <c r="CC3" s="253"/>
+      <c r="CD3" s="253"/>
+      <c r="CE3" s="253"/>
+      <c r="CF3" s="253"/>
+      <c r="CG3" s="253"/>
+      <c r="CH3" s="253"/>
+      <c r="CI3" s="253"/>
+      <c r="CJ3" s="253"/>
+      <c r="CK3" s="253"/>
+      <c r="CL3" s="253"/>
+      <c r="CM3" s="253"/>
+      <c r="CN3" s="253"/>
+      <c r="CO3" s="253"/>
+      <c r="CP3" s="253"/>
+      <c r="CQ3" s="253"/>
+      <c r="CR3" s="253"/>
+      <c r="CS3" s="253"/>
+      <c r="CT3" s="253"/>
+      <c r="CU3" s="253"/>
+      <c r="CV3" s="254" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="230"/>
-      <c r="CX3" s="230"/>
-      <c r="CY3" s="230"/>
-      <c r="CZ3" s="230"/>
-      <c r="DA3" s="230"/>
-      <c r="DB3" s="230"/>
-      <c r="DC3" s="230"/>
-      <c r="DD3" s="230"/>
-      <c r="DE3" s="230"/>
-      <c r="DF3" s="230"/>
-      <c r="DG3" s="230"/>
+      <c r="CW3" s="254"/>
+      <c r="CX3" s="254"/>
+      <c r="CY3" s="254"/>
+      <c r="CZ3" s="254"/>
+      <c r="DA3" s="254"/>
+      <c r="DB3" s="254"/>
+      <c r="DC3" s="254"/>
+      <c r="DD3" s="254"/>
+      <c r="DE3" s="254"/>
+      <c r="DF3" s="254"/>
+      <c r="DG3" s="254"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="243"/>
-      <c r="N4" s="243"/>
-      <c r="O4" s="243"/>
-      <c r="P4" s="243"/>
-      <c r="Q4" s="243"/>
-      <c r="R4" s="243"/>
-      <c r="S4" s="243"/>
-      <c r="T4" s="243"/>
-      <c r="U4" s="243"/>
-      <c r="V4" s="243"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="243"/>
-      <c r="AE4" s="243"/>
-      <c r="AF4" s="243"/>
-      <c r="AG4" s="243"/>
-      <c r="AH4" s="243"/>
-      <c r="AI4" s="243"/>
-      <c r="AJ4" s="243"/>
-      <c r="AK4" s="243"/>
-      <c r="AL4" s="243"/>
-      <c r="AM4" s="243"/>
-      <c r="AN4" s="243"/>
-      <c r="AO4" s="243"/>
-      <c r="AP4" s="243"/>
-      <c r="AQ4" s="243"/>
-      <c r="AR4" s="243"/>
-      <c r="AS4" s="243"/>
-      <c r="AT4" s="243"/>
-      <c r="AU4" s="243"/>
-      <c r="AV4" s="243"/>
-      <c r="AW4" s="243"/>
-      <c r="AX4" s="243"/>
-      <c r="AY4" s="243"/>
-      <c r="AZ4" s="243"/>
-      <c r="BA4" s="243"/>
-      <c r="BB4" s="243"/>
-      <c r="BC4" s="243"/>
-      <c r="BD4" s="243"/>
-      <c r="BE4" s="243"/>
-      <c r="BF4" s="243"/>
-      <c r="BG4" s="243"/>
-      <c r="BH4" s="243"/>
-      <c r="BI4" s="243"/>
-      <c r="BJ4" s="243"/>
-      <c r="BK4" s="243"/>
-      <c r="BL4" s="243"/>
-      <c r="BM4" s="243"/>
-      <c r="BN4" s="243"/>
-      <c r="BO4" s="243"/>
-      <c r="BP4" s="243"/>
-      <c r="BQ4" s="243"/>
-      <c r="BR4" s="243"/>
-      <c r="BS4" s="243"/>
-      <c r="BT4" s="243"/>
-      <c r="BU4" s="243"/>
-      <c r="BV4" s="243"/>
-      <c r="BW4" s="243"/>
-      <c r="BX4" s="243"/>
-      <c r="BY4" s="243"/>
-      <c r="BZ4" s="243"/>
-      <c r="CA4" s="243"/>
-      <c r="CB4" s="243"/>
-      <c r="CC4" s="243"/>
-      <c r="CD4" s="243"/>
-      <c r="CE4" s="243"/>
-      <c r="CF4" s="243"/>
-      <c r="CG4" s="243"/>
-      <c r="CH4" s="243"/>
-      <c r="CI4" s="243"/>
-      <c r="CJ4" s="243"/>
-      <c r="CK4" s="243"/>
-      <c r="CL4" s="243"/>
-      <c r="CM4" s="243"/>
-      <c r="CN4" s="243"/>
-      <c r="CO4" s="243"/>
-      <c r="CP4" s="243"/>
-      <c r="CQ4" s="243"/>
-      <c r="CR4" s="243"/>
-      <c r="CS4" s="243"/>
-      <c r="CT4" s="243"/>
-      <c r="CU4" s="243"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="261"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="261"/>
+      <c r="Y4" s="261"/>
+      <c r="Z4" s="261"/>
+      <c r="AA4" s="261"/>
+      <c r="AB4" s="261"/>
+      <c r="AC4" s="261"/>
+      <c r="AD4" s="261"/>
+      <c r="AE4" s="261"/>
+      <c r="AF4" s="261"/>
+      <c r="AG4" s="261"/>
+      <c r="AH4" s="261"/>
+      <c r="AI4" s="261"/>
+      <c r="AJ4" s="261"/>
+      <c r="AK4" s="261"/>
+      <c r="AL4" s="261"/>
+      <c r="AM4" s="261"/>
+      <c r="AN4" s="261"/>
+      <c r="AO4" s="261"/>
+      <c r="AP4" s="261"/>
+      <c r="AQ4" s="261"/>
+      <c r="AR4" s="261"/>
+      <c r="AS4" s="261"/>
+      <c r="AT4" s="261"/>
+      <c r="AU4" s="261"/>
+      <c r="AV4" s="261"/>
+      <c r="AW4" s="261"/>
+      <c r="AX4" s="261"/>
+      <c r="AY4" s="261"/>
+      <c r="AZ4" s="261"/>
+      <c r="BA4" s="261"/>
+      <c r="BB4" s="261"/>
+      <c r="BC4" s="261"/>
+      <c r="BD4" s="261"/>
+      <c r="BE4" s="261"/>
+      <c r="BF4" s="261"/>
+      <c r="BG4" s="261"/>
+      <c r="BH4" s="261"/>
+      <c r="BI4" s="261"/>
+      <c r="BJ4" s="261"/>
+      <c r="BK4" s="261"/>
+      <c r="BL4" s="261"/>
+      <c r="BM4" s="261"/>
+      <c r="BN4" s="261"/>
+      <c r="BO4" s="261"/>
+      <c r="BP4" s="261"/>
+      <c r="BQ4" s="261"/>
+      <c r="BR4" s="261"/>
+      <c r="BS4" s="261"/>
+      <c r="BT4" s="261"/>
+      <c r="BU4" s="261"/>
+      <c r="BV4" s="261"/>
+      <c r="BW4" s="261"/>
+      <c r="BX4" s="261"/>
+      <c r="BY4" s="261"/>
+      <c r="BZ4" s="261"/>
+      <c r="CA4" s="261"/>
+      <c r="CB4" s="261"/>
+      <c r="CC4" s="261"/>
+      <c r="CD4" s="261"/>
+      <c r="CE4" s="261"/>
+      <c r="CF4" s="261"/>
+      <c r="CG4" s="261"/>
+      <c r="CH4" s="261"/>
+      <c r="CI4" s="261"/>
+      <c r="CJ4" s="261"/>
+      <c r="CK4" s="261"/>
+      <c r="CL4" s="261"/>
+      <c r="CM4" s="261"/>
+      <c r="CN4" s="261"/>
+      <c r="CO4" s="261"/>
+      <c r="CP4" s="261"/>
+      <c r="CQ4" s="261"/>
+      <c r="CR4" s="261"/>
+      <c r="CS4" s="261"/>
+      <c r="CT4" s="261"/>
+      <c r="CU4" s="261"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -11900,288 +11835,288 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="247" t="s">
+      <c r="A6" s="262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="253" t="s">
+      <c r="F6" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="269" t="s">
+      <c r="G6" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="269"/>
-      <c r="P6" s="269"/>
-      <c r="Q6" s="269"/>
-      <c r="R6" s="269"/>
-      <c r="S6" s="269"/>
-      <c r="T6" s="269"/>
-      <c r="U6" s="269"/>
-      <c r="V6" s="269"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
-      <c r="AA6" s="269"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="269"/>
-      <c r="AE6" s="269"/>
-      <c r="AF6" s="269"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="269"/>
-      <c r="AI6" s="269"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="269"/>
-      <c r="AN6" s="269"/>
-      <c r="AO6" s="269"/>
-      <c r="AP6" s="269"/>
-      <c r="AQ6" s="269"/>
-      <c r="AR6" s="269"/>
-      <c r="AS6" s="269"/>
-      <c r="AT6" s="269"/>
-      <c r="AU6" s="269"/>
-      <c r="AV6" s="269"/>
-      <c r="AW6" s="269"/>
-      <c r="AX6" s="269"/>
-      <c r="AY6" s="269"/>
-      <c r="AZ6" s="269"/>
-      <c r="BA6" s="269"/>
-      <c r="BB6" s="269"/>
-      <c r="BC6" s="269"/>
-      <c r="BD6" s="269"/>
-      <c r="BE6" s="269"/>
-      <c r="BF6" s="269"/>
-      <c r="BG6" s="269"/>
-      <c r="BH6" s="269"/>
-      <c r="BI6" s="269"/>
-      <c r="BJ6" s="269"/>
-      <c r="BK6" s="269"/>
-      <c r="BL6" s="269"/>
-      <c r="BM6" s="269"/>
-      <c r="BN6" s="269"/>
-      <c r="BO6" s="269"/>
-      <c r="BP6" s="269"/>
-      <c r="BQ6" s="269"/>
-      <c r="BR6" s="269"/>
-      <c r="BS6" s="269"/>
-      <c r="BT6" s="269"/>
-      <c r="BU6" s="269"/>
-      <c r="BV6" s="269"/>
-      <c r="BW6" s="269"/>
-      <c r="BX6" s="269"/>
-      <c r="BY6" s="269"/>
-      <c r="BZ6" s="269"/>
-      <c r="CA6" s="269"/>
-      <c r="CB6" s="269"/>
-      <c r="CC6" s="269"/>
-      <c r="CD6" s="269"/>
-      <c r="CE6" s="269"/>
-      <c r="CF6" s="269"/>
-      <c r="CG6" s="269"/>
-      <c r="CH6" s="269"/>
-      <c r="CI6" s="269"/>
-      <c r="CJ6" s="269"/>
-      <c r="CK6" s="269"/>
-      <c r="CL6" s="269"/>
-      <c r="CM6" s="269"/>
-      <c r="CN6" s="269"/>
-      <c r="CO6" s="269"/>
-      <c r="CP6" s="269"/>
-      <c r="CQ6" s="269"/>
-      <c r="CR6" s="269"/>
-      <c r="CS6" s="269"/>
-      <c r="CT6" s="269"/>
-      <c r="CU6" s="269"/>
-      <c r="CV6" s="231" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="241"/>
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
+      <c r="V6" s="241"/>
+      <c r="W6" s="241"/>
+      <c r="X6" s="241"/>
+      <c r="Y6" s="241"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="241"/>
+      <c r="AE6" s="241"/>
+      <c r="AF6" s="241"/>
+      <c r="AG6" s="241"/>
+      <c r="AH6" s="241"/>
+      <c r="AI6" s="241"/>
+      <c r="AJ6" s="241"/>
+      <c r="AK6" s="241"/>
+      <c r="AL6" s="241"/>
+      <c r="AM6" s="241"/>
+      <c r="AN6" s="241"/>
+      <c r="AO6" s="241"/>
+      <c r="AP6" s="241"/>
+      <c r="AQ6" s="241"/>
+      <c r="AR6" s="241"/>
+      <c r="AS6" s="241"/>
+      <c r="AT6" s="241"/>
+      <c r="AU6" s="241"/>
+      <c r="AV6" s="241"/>
+      <c r="AW6" s="241"/>
+      <c r="AX6" s="241"/>
+      <c r="AY6" s="241"/>
+      <c r="AZ6" s="241"/>
+      <c r="BA6" s="241"/>
+      <c r="BB6" s="241"/>
+      <c r="BC6" s="241"/>
+      <c r="BD6" s="241"/>
+      <c r="BE6" s="241"/>
+      <c r="BF6" s="241"/>
+      <c r="BG6" s="241"/>
+      <c r="BH6" s="241"/>
+      <c r="BI6" s="241"/>
+      <c r="BJ6" s="241"/>
+      <c r="BK6" s="241"/>
+      <c r="BL6" s="241"/>
+      <c r="BM6" s="241"/>
+      <c r="BN6" s="241"/>
+      <c r="BO6" s="241"/>
+      <c r="BP6" s="241"/>
+      <c r="BQ6" s="241"/>
+      <c r="BR6" s="241"/>
+      <c r="BS6" s="241"/>
+      <c r="BT6" s="241"/>
+      <c r="BU6" s="241"/>
+      <c r="BV6" s="241"/>
+      <c r="BW6" s="241"/>
+      <c r="BX6" s="241"/>
+      <c r="BY6" s="241"/>
+      <c r="BZ6" s="241"/>
+      <c r="CA6" s="241"/>
+      <c r="CB6" s="241"/>
+      <c r="CC6" s="241"/>
+      <c r="CD6" s="241"/>
+      <c r="CE6" s="241"/>
+      <c r="CF6" s="241"/>
+      <c r="CG6" s="241"/>
+      <c r="CH6" s="241"/>
+      <c r="CI6" s="241"/>
+      <c r="CJ6" s="241"/>
+      <c r="CK6" s="241"/>
+      <c r="CL6" s="241"/>
+      <c r="CM6" s="241"/>
+      <c r="CN6" s="241"/>
+      <c r="CO6" s="241"/>
+      <c r="CP6" s="241"/>
+      <c r="CQ6" s="241"/>
+      <c r="CR6" s="241"/>
+      <c r="CS6" s="241"/>
+      <c r="CT6" s="241"/>
+      <c r="CU6" s="241"/>
+      <c r="CV6" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="232"/>
-      <c r="CX6" s="231" t="s">
+      <c r="CW6" s="256"/>
+      <c r="CX6" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="235"/>
-      <c r="CZ6" s="235"/>
-      <c r="DA6" s="235"/>
-      <c r="DB6" s="235"/>
-      <c r="DC6" s="235"/>
-      <c r="DD6" s="235"/>
-      <c r="DE6" s="235"/>
-      <c r="DF6" s="235"/>
-      <c r="DG6" s="235"/>
-      <c r="DH6" s="259" t="s">
+      <c r="CY6" s="259"/>
+      <c r="CZ6" s="259"/>
+      <c r="DA6" s="259"/>
+      <c r="DB6" s="259"/>
+      <c r="DC6" s="259"/>
+      <c r="DD6" s="259"/>
+      <c r="DE6" s="259"/>
+      <c r="DF6" s="259"/>
+      <c r="DG6" s="259"/>
+      <c r="DH6" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="262" t="s">
+      <c r="DI6" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="220" t="s">
+      <c r="DJ6" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="220"/>
-      <c r="DL6" s="220"/>
-      <c r="DM6" s="220"/>
-      <c r="DN6" s="220"/>
-      <c r="DO6" s="221"/>
+      <c r="DK6" s="244"/>
+      <c r="DL6" s="244"/>
+      <c r="DM6" s="244"/>
+      <c r="DN6" s="244"/>
+      <c r="DO6" s="245"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="270"/>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="270"/>
-      <c r="X7" s="270"/>
-      <c r="Y7" s="270"/>
-      <c r="Z7" s="270"/>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="270"/>
-      <c r="AC7" s="270"/>
-      <c r="AD7" s="270"/>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="270"/>
-      <c r="AG7" s="270"/>
-      <c r="AH7" s="270"/>
-      <c r="AI7" s="270"/>
-      <c r="AJ7" s="270"/>
-      <c r="AK7" s="270"/>
-      <c r="AL7" s="270"/>
-      <c r="AM7" s="270"/>
-      <c r="AN7" s="270"/>
-      <c r="AO7" s="270"/>
-      <c r="AP7" s="270"/>
-      <c r="AQ7" s="270"/>
-      <c r="AR7" s="270"/>
-      <c r="AS7" s="270"/>
-      <c r="AT7" s="270"/>
-      <c r="AU7" s="270"/>
-      <c r="AV7" s="270"/>
-      <c r="AW7" s="270"/>
-      <c r="AX7" s="270"/>
-      <c r="AY7" s="270"/>
-      <c r="AZ7" s="270"/>
-      <c r="BA7" s="270"/>
-      <c r="BB7" s="270"/>
-      <c r="BC7" s="270"/>
-      <c r="BD7" s="270"/>
-      <c r="BE7" s="270"/>
-      <c r="BF7" s="270"/>
-      <c r="BG7" s="270"/>
-      <c r="BH7" s="270"/>
-      <c r="BI7" s="270"/>
-      <c r="BJ7" s="270"/>
-      <c r="BK7" s="270"/>
-      <c r="BL7" s="270"/>
-      <c r="BM7" s="270"/>
-      <c r="BN7" s="270"/>
-      <c r="BO7" s="271"/>
-      <c r="BP7" s="271"/>
-      <c r="BQ7" s="271"/>
-      <c r="BR7" s="270"/>
-      <c r="BS7" s="270"/>
-      <c r="BT7" s="270"/>
-      <c r="BU7" s="270"/>
-      <c r="BV7" s="270"/>
-      <c r="BW7" s="270"/>
-      <c r="BX7" s="270"/>
-      <c r="BY7" s="270"/>
-      <c r="BZ7" s="270"/>
-      <c r="CA7" s="270"/>
-      <c r="CB7" s="270"/>
-      <c r="CC7" s="270"/>
-      <c r="CD7" s="270"/>
-      <c r="CE7" s="270"/>
-      <c r="CF7" s="270"/>
-      <c r="CG7" s="270"/>
-      <c r="CH7" s="270"/>
-      <c r="CI7" s="270"/>
-      <c r="CJ7" s="270"/>
-      <c r="CK7" s="270"/>
-      <c r="CL7" s="270"/>
-      <c r="CM7" s="270"/>
-      <c r="CN7" s="270"/>
-      <c r="CO7" s="270"/>
-      <c r="CP7" s="270"/>
-      <c r="CQ7" s="270"/>
-      <c r="CR7" s="270"/>
-      <c r="CS7" s="270"/>
-      <c r="CT7" s="270"/>
-      <c r="CU7" s="270"/>
-      <c r="CV7" s="233"/>
-      <c r="CW7" s="234"/>
-      <c r="CX7" s="233"/>
-      <c r="CY7" s="236"/>
-      <c r="CZ7" s="236"/>
-      <c r="DA7" s="236"/>
-      <c r="DB7" s="236"/>
-      <c r="DC7" s="236"/>
-      <c r="DD7" s="236"/>
-      <c r="DE7" s="236"/>
-      <c r="DF7" s="236"/>
-      <c r="DG7" s="236"/>
-      <c r="DH7" s="260"/>
-      <c r="DI7" s="263"/>
-      <c r="DJ7" s="222"/>
-      <c r="DK7" s="222"/>
-      <c r="DL7" s="222"/>
-      <c r="DM7" s="222"/>
-      <c r="DN7" s="222"/>
-      <c r="DO7" s="223"/>
+      <c r="A7" s="263"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
+      <c r="N7" s="242"/>
+      <c r="O7" s="242"/>
+      <c r="P7" s="242"/>
+      <c r="Q7" s="242"/>
+      <c r="R7" s="242"/>
+      <c r="S7" s="242"/>
+      <c r="T7" s="242"/>
+      <c r="U7" s="242"/>
+      <c r="V7" s="242"/>
+      <c r="W7" s="242"/>
+      <c r="X7" s="242"/>
+      <c r="Y7" s="242"/>
+      <c r="Z7" s="242"/>
+      <c r="AA7" s="242"/>
+      <c r="AB7" s="242"/>
+      <c r="AC7" s="242"/>
+      <c r="AD7" s="242"/>
+      <c r="AE7" s="242"/>
+      <c r="AF7" s="242"/>
+      <c r="AG7" s="242"/>
+      <c r="AH7" s="242"/>
+      <c r="AI7" s="242"/>
+      <c r="AJ7" s="242"/>
+      <c r="AK7" s="242"/>
+      <c r="AL7" s="242"/>
+      <c r="AM7" s="242"/>
+      <c r="AN7" s="242"/>
+      <c r="AO7" s="242"/>
+      <c r="AP7" s="242"/>
+      <c r="AQ7" s="242"/>
+      <c r="AR7" s="242"/>
+      <c r="AS7" s="242"/>
+      <c r="AT7" s="242"/>
+      <c r="AU7" s="242"/>
+      <c r="AV7" s="242"/>
+      <c r="AW7" s="242"/>
+      <c r="AX7" s="242"/>
+      <c r="AY7" s="242"/>
+      <c r="AZ7" s="242"/>
+      <c r="BA7" s="242"/>
+      <c r="BB7" s="242"/>
+      <c r="BC7" s="242"/>
+      <c r="BD7" s="242"/>
+      <c r="BE7" s="242"/>
+      <c r="BF7" s="242"/>
+      <c r="BG7" s="242"/>
+      <c r="BH7" s="242"/>
+      <c r="BI7" s="242"/>
+      <c r="BJ7" s="242"/>
+      <c r="BK7" s="242"/>
+      <c r="BL7" s="242"/>
+      <c r="BM7" s="242"/>
+      <c r="BN7" s="242"/>
+      <c r="BO7" s="243"/>
+      <c r="BP7" s="243"/>
+      <c r="BQ7" s="243"/>
+      <c r="BR7" s="242"/>
+      <c r="BS7" s="242"/>
+      <c r="BT7" s="242"/>
+      <c r="BU7" s="242"/>
+      <c r="BV7" s="242"/>
+      <c r="BW7" s="242"/>
+      <c r="BX7" s="242"/>
+      <c r="BY7" s="242"/>
+      <c r="BZ7" s="242"/>
+      <c r="CA7" s="242"/>
+      <c r="CB7" s="242"/>
+      <c r="CC7" s="242"/>
+      <c r="CD7" s="242"/>
+      <c r="CE7" s="242"/>
+      <c r="CF7" s="242"/>
+      <c r="CG7" s="242"/>
+      <c r="CH7" s="242"/>
+      <c r="CI7" s="242"/>
+      <c r="CJ7" s="242"/>
+      <c r="CK7" s="242"/>
+      <c r="CL7" s="242"/>
+      <c r="CM7" s="242"/>
+      <c r="CN7" s="242"/>
+      <c r="CO7" s="242"/>
+      <c r="CP7" s="242"/>
+      <c r="CQ7" s="242"/>
+      <c r="CR7" s="242"/>
+      <c r="CS7" s="242"/>
+      <c r="CT7" s="242"/>
+      <c r="CU7" s="242"/>
+      <c r="CV7" s="257"/>
+      <c r="CW7" s="258"/>
+      <c r="CX7" s="257"/>
+      <c r="CY7" s="260"/>
+      <c r="CZ7" s="260"/>
+      <c r="DA7" s="260"/>
+      <c r="DB7" s="260"/>
+      <c r="DC7" s="260"/>
+      <c r="DD7" s="260"/>
+      <c r="DE7" s="260"/>
+      <c r="DF7" s="260"/>
+      <c r="DG7" s="260"/>
+      <c r="DH7" s="232"/>
+      <c r="DI7" s="235"/>
+      <c r="DJ7" s="246"/>
+      <c r="DK7" s="246"/>
+      <c r="DL7" s="246"/>
+      <c r="DM7" s="246"/>
+      <c r="DN7" s="246"/>
+      <c r="DO7" s="247"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="246"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="255"/>
+      <c r="A8" s="264"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="273"/>
       <c r="G8" s="279">
         <v>1</v>
       </c>
-      <c r="H8" s="238"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="256">
+      <c r="H8" s="227"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="221">
         <v>2</v>
       </c>
-      <c r="K8" s="241"/>
-      <c r="L8" s="257"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="223"/>
       <c r="M8" s="274">
         <v>3</v>
       </c>
@@ -12202,16 +12137,16 @@
       </c>
       <c r="W8" s="275"/>
       <c r="X8" s="276"/>
-      <c r="Y8" s="237">
+      <c r="Y8" s="226">
         <v>7</v>
       </c>
-      <c r="Z8" s="238"/>
-      <c r="AA8" s="239"/>
-      <c r="AB8" s="237">
+      <c r="Z8" s="227"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="226">
         <v>8</v>
       </c>
-      <c r="AC8" s="238"/>
-      <c r="AD8" s="239"/>
+      <c r="AC8" s="227"/>
+      <c r="AD8" s="229"/>
       <c r="AE8" s="274">
         <v>9</v>
       </c>
@@ -12237,16 +12172,16 @@
       </c>
       <c r="AR8" s="275"/>
       <c r="AS8" s="276"/>
-      <c r="AT8" s="268">
+      <c r="AT8" s="240">
         <v>14</v>
       </c>
-      <c r="AU8" s="238"/>
-      <c r="AV8" s="239"/>
-      <c r="AW8" s="237">
+      <c r="AU8" s="227"/>
+      <c r="AV8" s="229"/>
+      <c r="AW8" s="226">
         <v>15</v>
       </c>
-      <c r="AX8" s="238"/>
-      <c r="AY8" s="239"/>
+      <c r="AX8" s="227"/>
+      <c r="AY8" s="229"/>
       <c r="AZ8" s="274">
         <v>16</v>
       </c>
@@ -12272,16 +12207,16 @@
       </c>
       <c r="BM8" s="275"/>
       <c r="BN8" s="276"/>
-      <c r="BO8" s="237">
+      <c r="BO8" s="226">
         <v>21</v>
       </c>
-      <c r="BP8" s="238"/>
-      <c r="BQ8" s="239"/>
-      <c r="BR8" s="237">
+      <c r="BP8" s="227"/>
+      <c r="BQ8" s="229"/>
+      <c r="BR8" s="226">
         <v>22</v>
       </c>
-      <c r="BS8" s="238"/>
-      <c r="BT8" s="239"/>
+      <c r="BS8" s="227"/>
+      <c r="BT8" s="229"/>
       <c r="BU8" s="277">
         <v>23</v>
       </c>
@@ -12307,16 +12242,16 @@
       </c>
       <c r="CH8" s="275"/>
       <c r="CI8" s="278"/>
-      <c r="CJ8" s="237">
+      <c r="CJ8" s="226">
         <v>28</v>
       </c>
-      <c r="CK8" s="238"/>
-      <c r="CL8" s="239"/>
-      <c r="CM8" s="237">
+      <c r="CK8" s="227"/>
+      <c r="CL8" s="229"/>
+      <c r="CM8" s="226">
         <v>29</v>
       </c>
-      <c r="CN8" s="238"/>
-      <c r="CO8" s="239"/>
+      <c r="CN8" s="227"/>
+      <c r="CO8" s="229"/>
       <c r="CP8" s="274">
         <v>30</v>
       </c>
@@ -12361,8 +12296,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="261"/>
-      <c r="DI8" s="264"/>
+      <c r="DH8" s="233"/>
+      <c r="DI8" s="236"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -12923,55 +12858,55 @@
       <c r="CS10" s="175"/>
       <c r="CT10" s="173"/>
       <c r="CU10" s="174"/>
-      <c r="CV10" s="177">
+      <c r="CV10" s="289">
         <f t="shared" ref="CV10:CV23" si="0">IF(SUM(G10:I10)&gt;=1,1,0)+IF(SUM(J10:L10)&gt;=1,1,0)+IF(SUM(M10:O10)&gt;=1,1,0)+IF(SUM(P10:R10)&gt;=1,1,0)+IF(SUM(S10:U10)&gt;=1,1,0)+IF(SUM(V10:X10)&gt;=1,1,0)+IF(SUM(Y10:AA10)&gt;=1,1,0)+IF(SUM(AB10:AD10)&gt;=1,1,0)+IF(SUM(AE10:AG10)&gt;=1,1,0)+IF(SUM(AH10:AJ10)&gt;=1,1,0)+IF(SUM(AK10:AM10)&gt;=1,1,0)+IF(SUM(AN10:AP10)&gt;=1,1,0)+IF(SUM(AQ10:AS10)&gt;=1,1,0)+IF(SUM(AT10:AV10)&gt;=1,1,0)+IF(SUM(AW10:AY10)&gt;=1,1,0)+IF(SUM(AZ10:BB10)&gt;=1,1,0)+IF(SUM(BC10:BE10)&gt;=1,1,0)+IF(SUM(BF10:BH10)&gt;=1,1,0)+IF(SUM(BI10:BK10)&gt;=1,1,0)+IF(SUM(BL10:BN10)&gt;=1,1,0)+IF(SUM(BO10:BQ10)&gt;=1,1,0)+IF(SUM(BR10:BT10)&gt;=1,1,0)+IF(SUM(BU10:BW10)&gt;=1,1,0)+IF(SUM(BX10:BZ10)&gt;=1,1,0)+IF(SUM(CA10:CC10)&gt;=1,1,0)+IF(SUM(CD10:CF10)&gt;=1,1,0)+IF(SUM(CG10:CI10)&gt;=1,1,0)+IF(SUM(CJ10:CL10)&gt;=1,1,0)+IF(SUM(CM10:CO10)&gt;=1,1,0)+IF(SUM(CP10:CR10)&gt;=1,1,0)+IF(SUM(CS10:CU10)&gt;=1,1,0)</f>
         <v>21</v>
       </c>
-      <c r="CW10" s="178">
+      <c r="CW10" s="284">
         <f t="shared" ref="CW10:CW23" si="1">IF(CK10="К",1,0)+IF(CN10="К",1,0)+IF(CQ10="К",1,0)+IF(CT10="К",1,0)+IF(CH10="К",1,0)+IF(H10="К",1,0)+IF(K10="К",1,0)+IF(N10="К",1,0)+IF(Q10="К",1,0)+IF(T10="К",1,0)+IF(W10="К",1,0)+IF(Z10="К",1,0)+IF(AC10="К",1,0)+IF(AF10="К",1,0)+IF(AI10="К",1,0)+IF(AL10="К",1,0)+IF(AO10="К",1,0)+IF(AR10="К",1,0)+IF(AU10="К",1,0)+IF(AX10="К",1,0)+IF(BA10="К",1,0)+IF(BD10="К",1,0)+IF(BG10="К",1,0)+IF(BJ10="К",1,0)+IF(BM10="К",1,0)+IF(BP10="К",1,0)+IF(BS10="К",1,0)+IF(BV10="К",1,0)+IF(BY10="К",1,0)+IF(CB10="К",1,0)+IF(CE10="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX10" s="178">
+      <c r="CX10" s="284">
         <f t="shared" ref="CX10:CX23" si="2">IF(CN10="О",1,0)+IF(CQ10="О",1,0)+IF(CT10="О",1,0)+IF(H10="О",1,0)+IF(K10="О",1,0)+IF(N10="О",1,0)+IF(Q10="О",1,0)+IF(T10="О",1,0)+IF(W10="О",1,0)+IF(Z10="О",1,0)+IF(AC10="О",1,0)+IF(AF10="О",1,0)+IF(AI10="О",1,0)+IF(AL10="О",1,0)+IF(AO10="О",1,0)+IF(AR10="О",1,0)+IF(AU10="О",1,0)+IF(AX10="О",1,0)+IF(BA10="О",1,0)+IF(BD10="О",1,0)+IF(BG10="О",1,0)+IF(BJ10="О",1,0)+IF(BM10="О",1,0)+IF(BP10="О",1,0)+IF(BS10="О",1,0)+IF(BV10="О",1,0)+IF(BY10="О",1,0)+IF(CB10="О",1,0)+IF(CE10="О",1,0)+IF(CH10="О",1,0)+IF(CK10="О",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CY10" s="178">
+      <c r="CY10" s="284">
         <f t="shared" ref="CY10:CY23" si="3">IF(CN10="Р",1,0)+IF(CQ10="Р",1,0)+IF(CT10="Р",1,0)+IF(H10="Р",1,0)+IF(K10="Р",1,0)+IF(N10="Р",1,0)+IF(Q10="Р",1,0)+IF(T10="Р",1,0)+IF(W10="Р",1,0)+IF(Z10="Р",1,0)+IF(AC10="Р",1,0)+IF(AF10="Р",1,0)+IF(AI10="Р",1,0)+IF(AL10="Р",1,0)+IF(AO10="Р",1,0)+IF(AR10="Р",1,0)+IF(AU10="Р",1,0)+IF(AX10="Р",1,0)+IF(BA10="Р",1,0)+IF(BD10="Р",1,0)+IF(BG10="Р",1,0)+IF(BJ10="Р",1,0)+IF(BM10="Р",1,0)+IF(BP10="Р",1,0)+IF(BS10="Р",1,0)+IF(BV10="Р",1,0)+IF(BY10="Р",1,0)+IF(CB10="Р",1,0)+IF(CE10="Р",1,0)+IF(CH10="Р",1,0)+IF(CK10="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ10" s="178">
+      <c r="CZ10" s="284">
         <f t="shared" ref="CZ10:CZ23" si="4">IF(CN10="Б",1,0)+IF(CQ10="Б",1,0)+IF(CT10="Б",1,0)+IF(H10="Б",1,0)+IF(K10="Б",1,0)+IF(N10="Б",1,0)+IF(Q10="Б",1,0)+IF(T10="Б",1,0)+IF(W10="Б",1,0)+IF(Z10="Б",1,0)+IF(AC10="Б",1,0)+IF(AF10="Б",1,0)+IF(AI10="Б",1,0)+IF(AL10="Б",1,0)+IF(AO10="Б",1,0)+IF(AR10="Б",1,0)+IF(AU10="Б",1,0)+IF(AX10="Б",1,0)+IF(BA10="Б",1,0)+IF(BD10="Б",1,0)+IF(BG10="Б",1,0)+IF(BJ10="Б",1,0)+IF(BM10="Б",1,0)+IF(BP10="Б",1,0)+IF(BS10="Б",1,0)+IF(BV10="Б",1,0)+IF(BY10="Б",1,0)+IF(CB10="Б",1,0)+IF(CE10="Б",1,0)+IF(CH10="Б",1,0)+IF(CK10="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA10" s="178">
+      <c r="DA10" s="284">
         <f t="shared" ref="DA10:DA23" si="5">IF(CN10="А",1,0)+IF(CQ10="А",1,0)+IF(CT10="А",1,0)+IF(H10="А",1,0)+IF(K10="А",1,0)+IF(N10="А",1,0)+IF(Q10="А",1,0)+IF(T10="А",1,0)+IF(W10="А",1,0)+IF(Z10="А",1,0)+IF(AC10="А",1,0)+IF(AF10="А",1,0)+IF(AI10="А",1,0)+IF(AL10="А",1,0)+IF(AO10="А",1,0)+IF(AR10="А",1,0)+IF(AU10="А",1,0)+IF(AX10="А",1,0)+IF(BA10="А",1,0)+IF(BD10="А",1,0)+IF(BG10="А",1,0)+IF(BJ10="А",1,0)+IF(BM10="А",1,0)+IF(BP10="А",1,0)+IF(BS10="А",1,0)+IF(BV10="А",1,0)+IF(BY10="А",1,0)+IF(CB10="А",1,0)+IF(CE10="А",1,0)+IF(CH10="А",1,0)+IF(CK10="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB10" s="178">
+      <c r="DB10" s="284">
         <f t="shared" ref="DB10:DB23" si="6">IF(CN10="П",1,0)+IF(CQ10="П",1,0)+IF(CT10="П",1,0)+IF(H10="П",1,0)+IF(K10="П",1,0)+IF(N10="П",1,0)+IF(Q10="П",1,0)+IF(T10="П",1,0)+IF(W10="П",1,0)+IF(Z10="П",1,0)+IF(AC10="П",1,0)+IF(AF10="П",1,0)+IF(AI10="П",1,0)+IF(AL10="П",1,0)+IF(AO10="П",1,0)+IF(AR10="П",1,0)+IF(AU10="П",1,0)+IF(AX10="П",1,0)+IF(BA10="П",1,0)+IF(BD10="П",1,0)+IF(BG10="П",1,0)+IF(BJ10="П",1,0)+IF(BM10="П",1,0)+IF(BP10="П",1,0)+IF(BS10="П",1,0)+IF(BV10="П",1,0)+IF(BY10="П",1,0)+IF(CB10="П",1,0)+IF(CE10="П",1,0)+IF(CH10="П",1,0)+IF(CK10="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC10" s="178">
+      <c r="DC10" s="284">
         <f t="shared" ref="DC10:DC23" si="7">IF(CN10="У",1,0)+IF(CQ10="У",1,0)+IF(CT10="У",1,0)+IF(H10="У",1,0)+IF(K10="У",1,0)+IF(N10="У",1,0)+IF(Q10="У",1,0)+IF(T10="У",1,0)+IF(W10="У",1,0)+IF(Z10="У",1,0)+IF(AC10="У",1,0)+IF(AF10="У",1,0)+IF(AI10="У",1,0)+IF(AL10="У",1,0)+IF(AO10="У",1,0)+IF(AR10="У",1,0)+IF(AU10="У",1,0)+IF(AX10="У",1,0)+IF(BA10="У",1,0)+IF(BD10="У",1,0)+IF(BG10="У",1,0)+IF(BJ10="У",1,0)+IF(BM10="У",1,0)+IF(BP10="У",1,0)+IF(BS10="У",1,0)+IF(BV10="У",1,0)+IF(BY10="У",1,0)+IF(CB10="У",1,0)+IF(CE10="У",1,0)+IF(CH10="У",1,0)+IF(CK10="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD10" s="178">
+      <c r="DD10" s="284">
         <f t="shared" ref="DD10:DD23" si="8">IF(CN10="Г",1,0)+IF(CQ10="Г",1,0)+IF(CT10="Г",1,0)+IF(H10="Г",1,0)+IF(K10="Г",1,0)+IF(N10="Г",1,0)+IF(Q10="Г",1,0)+IF(T10="Г",1,0)+IF(W10="Г",1,0)+IF(Z10="Г",1,0)+IF(AC10="Г",1,0)+IF(AF10="Г",1,0)+IF(AI10="Г",1,0)+IF(AL10="Г",1,0)+IF(AO10="Г",1,0)+IF(AR10="Г",1,0)+IF(AU10="Г",1,0)+IF(AX10="Г",1,0)+IF(BA10="Г",1,0)+IF(BD10="Г",1,0)+IF(BG10="Г",1,0)+IF(BJ10="Г",1,0)+IF(BM10="Г",1,0)+IF(BP10="Г",1,0)+IF(BS10="Г",1,0)+IF(BV10="Г",1,0)+IF(BY10="Г",1,0)+IF(CB10="Г",1,0)+IF(CE10="Г",1,0)+IF(CH10="Г",1,0)+IF(CK10="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE10" s="178">
+      <c r="DE10" s="284">
         <f t="shared" ref="DE10:DE22" si="9">IF(CQ10="ОЧ",1,0)+IF(CT10="ОЧ",1,0)+IF(H10="ОЧ",1,0)+IF(K10="ОЧ",1,0)+IF(N10="ОЧ",1,0)+IF(Q10="ОЧ",1,0)+IF(T10="ОЧ",1,0)+IF(W10="ОЧ",1,0)+IF(Z10="ОЧ",1,0)+IF(AC10="ОЧ",1,0)+IF(AF10="ОЧ",1,0)+IF(AI10="ОЧ",1,0)+IF(AL10="ОЧ",1,0)+IF(AO10="ОЧ",1,0)+IF(AR10="ОЧ",1,0)+IF(AU10="ОЧ",1,0)+IF(AX10="ОЧ",1,0)+IF(BA10="ОЧ",1,0)+IF(BD10="ОЧ",1,0)+IF(BG10="ОЧ",1,0)+IF(BJ10="ОЧ",1,0)+IF(BM10="ОЧ",1,0)+IF(BP10="ОЧ",1,0)+IF(BS10="ОЧ",1,0)+IF(BV10="ОЧ",1,0)+IF(BY10="ОЧ",1,0)+IF(CB10="ОЧ",1,0)+IF(CE10="ОЧ",1,0)+IF(CH10="ОЧ",1,0)+IF(CK10="ОЧ",1,0)+IF(CN10="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF10" s="178">
+      <c r="DF10" s="284">
         <f t="shared" ref="DF10:DF22" si="10">IF(CQ10="Т",1,0)+IF(CT10="Т",1,0)+IF(K10="Т",1,0)+IF(H10="Т",1,0)+IF(N10="Т",1,0)+IF(Q10="Т",1,0)+IF(T10="Т",1,0)+IF(W10="Т",1,0)+IF(Z10="Т",1,0)+IF(AC10="Т",1,0)+IF(AF10="Т",1,0)+IF(AI10="Т",1,0)+IF(AL10="Т",1,0)+IF(AO10="Т",1,0)+IF(AR10="Т",1,0)+IF(AU10="Т",1,0)+IF(AX10="Т",1,0)+IF(BA10="Т",1,0)+IF(BD10="Т",1,0)+IF(BG10="Т",1,0)+IF(BJ10="Т",1,0)+IF(BM10="Т",1,0)+IF(BP10="Т",1,0)+IF(BS10="Т",1,0)+IF(BV10="Т",1,0)+IF(BY10="Т",1,0)+IF(CB10="Т",1,0)+IF(CE10="Т",1,0)+IF(CH10="Т",1,0)+IF(CK10="Т",1,0)+IF(CN10="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG10" s="178">
+      <c r="DG10" s="284">
         <f t="shared" ref="DG10:DG22" si="11">IF(CT10="Пр",1,0)+IF(H10="Пр",1,0)+IF(K10="Пр",1,0)+IF(N10="Пр",1,0)+IF(Q10="Пр",1,0)+IF(T10="Пр",1,0)+IF(W10="Пр",1,0)+IF(Z10="Пр",1,0)+IF(AC10="Пр",1,0)+IF(AF10="Пр",1,0)+IF(AI10="Пр",1,0)+IF(AL10="Пр",1,0)+IF(AO10="Пр",1,0)+IF(AR10="Пр",1,0)+IF(AU10="Пр",1,0)+IF(AX10="Пр",1,0)+IF(BA10="Пр",1,0)+IF(BD10="Пр",1,0)+IF(BG10="Пр",1,0)+IF(BJ10="Пр",1,0)+IF(BM10="Пр",1,0)+IF(BP10="Пр",1,0)+IF(BS10="Пр",1,0)+IF(BV10="Пр",1,0)+IF(BY10="Пр",1,0)+IF(CB10="Пр",1,0)+IF(CE10="Пр",1,0)+IF(CH10="Пр",1,0)+IF(CK10="Пр",1,0)+IF(CN10="Пр",1,0)+IF(CQ10="Пр",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH10" s="178">
+      <c r="DH10" s="284">
         <f t="shared" ref="DH10:DH22" si="12">IF(CQ10="В",1,0)+IF(CT10="В",1,0)+IF(H10="В",1,0)+IF(K10="В",1,0)+IF(N10="В",1,0)+IF(Q10="В",1,0)+IF(T10="В",1,0)+IF(W10="В",1,0)+IF(Z10="В",1,0)+IF(AC10="В",1,0)+IF(AF10="В",1,0)+IF(AI10="В",1,0)+IF(AL10="В",1,0)+IF(AO10="В",1,0)+IF(AR10="В",1,0)+IF(AU10="В",1,0)+IF(AX10="В",1,0)+IF(BA10="В",1,0)+IF(BD10="В",1,0)+IF(BG10="В",1,0)+IF(BJ10="В",1,0)+IF(BM10="В",1,0)+IF(BP10="В",1,0)+IF(BS10="В",1,0)+IF(BV10="В",1,0)+IF(BY10="В",1,0)+IF(CB10="В",1,0)+IF(CE10="В",1,0)+IF(CH10="В",1,0)+IF(CK10="В",1,0)+IF(CN10="В",1,0)</f>
         <v>9</v>
       </c>
@@ -13225,55 +13160,55 @@
       <c r="CS11" s="187"/>
       <c r="CT11" s="182"/>
       <c r="CU11" s="183"/>
-      <c r="CV11" s="188">
+      <c r="CV11" s="290">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="CW11" s="189">
+      <c r="CW11" s="285">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX11" s="189">
+      <c r="CX11" s="285">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY11" s="189">
+      <c r="CY11" s="285">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ11" s="189">
+      <c r="CZ11" s="285">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA11" s="189">
+      <c r="DA11" s="285">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB11" s="189">
+      <c r="DB11" s="285">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC11" s="189">
+      <c r="DC11" s="285">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD11" s="189">
+      <c r="DD11" s="285">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE11" s="189">
+      <c r="DE11" s="285">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF11" s="189">
+      <c r="DF11" s="285">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG11" s="189">
+      <c r="DG11" s="285">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH11" s="189">
+      <c r="DH11" s="285">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -13376,117 +13311,117 @@
       <c r="F12" s="195">
         <v>1</v>
       </c>
-      <c r="G12" s="203">
+      <c r="G12" s="181">
         <v>7.25</v>
       </c>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205">
+      <c r="H12" s="182"/>
+      <c r="I12" s="183">
         <v>4</v>
       </c>
-      <c r="J12" s="206">
+      <c r="J12" s="187">
         <v>7.25</v>
       </c>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="206"/>
-      <c r="N12" s="207" t="s">
+      <c r="K12" s="185"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="205"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="204" t="s">
+      <c r="O12" s="183"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="205"/>
-      <c r="S12" s="206"/>
-      <c r="T12" s="204" t="s">
+      <c r="R12" s="183"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="205"/>
-      <c r="V12" s="206"/>
-      <c r="W12" s="204">
+      <c r="U12" s="183"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="182">
         <v>11.25</v>
       </c>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="206"/>
-      <c r="Z12" s="204">
+      <c r="X12" s="183"/>
+      <c r="Y12" s="187"/>
+      <c r="Z12" s="182">
         <v>11.25</v>
       </c>
-      <c r="AA12" s="205"/>
-      <c r="AB12" s="206"/>
-      <c r="AC12" s="204"/>
-      <c r="AD12" s="205">
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="183">
         <v>4</v>
       </c>
-      <c r="AE12" s="206">
+      <c r="AE12" s="187">
         <v>7.25</v>
       </c>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="205">
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="183">
         <v>4</v>
       </c>
-      <c r="AH12" s="206">
+      <c r="AH12" s="187">
         <v>7.25</v>
       </c>
-      <c r="AI12" s="204"/>
-      <c r="AJ12" s="205"/>
-      <c r="AK12" s="206"/>
-      <c r="AL12" s="204" t="s">
+      <c r="AI12" s="182"/>
+      <c r="AJ12" s="183"/>
+      <c r="AK12" s="187"/>
+      <c r="AL12" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="AM12" s="205"/>
-      <c r="AN12" s="206"/>
-      <c r="AO12" s="204" t="s">
+      <c r="AM12" s="183"/>
+      <c r="AN12" s="187"/>
+      <c r="AO12" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="AP12" s="205"/>
-      <c r="AQ12" s="206"/>
-      <c r="AR12" s="204" t="s">
+      <c r="AP12" s="183"/>
+      <c r="AQ12" s="187"/>
+      <c r="AR12" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="AS12" s="205"/>
-      <c r="AT12" s="206"/>
-      <c r="AU12" s="204">
+      <c r="AS12" s="183"/>
+      <c r="AT12" s="187"/>
+      <c r="AU12" s="182">
         <v>11.25</v>
       </c>
-      <c r="AV12" s="205"/>
-      <c r="AW12" s="206"/>
-      <c r="AX12" s="204">
+      <c r="AV12" s="183"/>
+      <c r="AW12" s="187"/>
+      <c r="AX12" s="182">
         <v>11.25</v>
       </c>
-      <c r="AY12" s="205"/>
-      <c r="AZ12" s="206"/>
-      <c r="BA12" s="204"/>
-      <c r="BB12" s="205">
+      <c r="AY12" s="183"/>
+      <c r="AZ12" s="187"/>
+      <c r="BA12" s="182"/>
+      <c r="BB12" s="183">
         <v>4</v>
       </c>
-      <c r="BC12" s="206">
+      <c r="BC12" s="187">
         <v>7.25</v>
       </c>
-      <c r="BD12" s="204"/>
-      <c r="BE12" s="205">
+      <c r="BD12" s="182"/>
+      <c r="BE12" s="183">
         <v>4</v>
       </c>
-      <c r="BF12" s="206">
+      <c r="BF12" s="187">
         <v>7.25</v>
       </c>
-      <c r="BG12" s="204"/>
-      <c r="BH12" s="205"/>
-      <c r="BI12" s="206"/>
-      <c r="BJ12" s="204" t="s">
+      <c r="BG12" s="182"/>
+      <c r="BH12" s="183"/>
+      <c r="BI12" s="187"/>
+      <c r="BJ12" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="BK12" s="205"/>
-      <c r="BL12" s="206"/>
-      <c r="BM12" s="204" t="s">
+      <c r="BK12" s="183"/>
+      <c r="BL12" s="187"/>
+      <c r="BM12" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="BN12" s="205"/>
-      <c r="BO12" s="206"/>
-      <c r="BP12" s="204" t="s">
+      <c r="BN12" s="183"/>
+      <c r="BO12" s="187"/>
+      <c r="BP12" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="BQ12" s="205"/>
+      <c r="BQ12" s="183"/>
       <c r="BR12" s="187"/>
       <c r="BS12" s="182">
         <v>11.25</v>
@@ -13534,79 +13469,79 @@
         <v>11.25</v>
       </c>
       <c r="CR12" s="183"/>
-      <c r="CS12" s="206"/>
-      <c r="CT12" s="204"/>
-      <c r="CU12" s="205"/>
-      <c r="CV12" s="209">
+      <c r="CS12" s="187"/>
+      <c r="CT12" s="182"/>
+      <c r="CU12" s="183"/>
+      <c r="CV12" s="292">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="CW12" s="210">
+      <c r="CW12" s="286">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX12" s="211">
+      <c r="CX12" s="286">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY12" s="210">
+      <c r="CY12" s="286">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ12" s="210">
+      <c r="CZ12" s="286">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA12" s="210">
+      <c r="DA12" s="286">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB12" s="210">
+      <c r="DB12" s="286">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC12" s="210">
+      <c r="DC12" s="286">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD12" s="210">
+      <c r="DD12" s="286">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE12" s="210">
+      <c r="DE12" s="286">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF12" s="210">
+      <c r="DF12" s="286">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG12" s="210">
+      <c r="DG12" s="286">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH12" s="210">
+      <c r="DH12" s="286">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="DI12" s="210">
+      <c r="DI12" s="80">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="DJ12" s="212">
+      <c r="DJ12" s="70">
         <f t="shared" si="24"/>
         <v>164.75</v>
       </c>
-      <c r="DK12" s="213">
-        <v>0</v>
-      </c>
-      <c r="DL12" s="213"/>
-      <c r="DM12" s="213"/>
-      <c r="DN12" s="214">
+      <c r="DK12" s="293">
+        <v>0</v>
+      </c>
+      <c r="DL12" s="293"/>
+      <c r="DM12" s="293"/>
+      <c r="DN12" s="294">
         <f t="shared" si="14"/>
         <v>62</v>
       </c>
-      <c r="DO12" s="215">
+      <c r="DO12" s="72">
         <v>0</v>
       </c>
       <c r="DQ12" s="32">
@@ -13688,235 +13623,235 @@
       <c r="F13" s="195">
         <v>1</v>
       </c>
-      <c r="G13" s="203">
+      <c r="G13" s="181">
         <v>7.25</v>
       </c>
-      <c r="H13" s="204"/>
-      <c r="I13" s="205">
+      <c r="H13" s="182"/>
+      <c r="I13" s="183">
         <v>4</v>
       </c>
-      <c r="J13" s="206">
+      <c r="J13" s="187">
         <v>7.25</v>
       </c>
-      <c r="K13" s="207"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="206"/>
-      <c r="N13" s="207" t="s">
+      <c r="K13" s="185"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="205"/>
-      <c r="P13" s="206"/>
-      <c r="Q13" s="204" t="s">
+      <c r="O13" s="183"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="205"/>
-      <c r="S13" s="206"/>
-      <c r="T13" s="204" t="s">
+      <c r="R13" s="183"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="U13" s="205"/>
-      <c r="V13" s="206"/>
-      <c r="W13" s="204">
+      <c r="U13" s="183"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="182">
         <v>11.25</v>
       </c>
-      <c r="X13" s="205"/>
-      <c r="Y13" s="206"/>
-      <c r="Z13" s="204">
+      <c r="X13" s="183"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="182">
         <v>11.25</v>
       </c>
-      <c r="AA13" s="205"/>
-      <c r="AB13" s="206"/>
-      <c r="AC13" s="204"/>
-      <c r="AD13" s="205">
+      <c r="AA13" s="183"/>
+      <c r="AB13" s="187"/>
+      <c r="AC13" s="182"/>
+      <c r="AD13" s="183">
         <v>4</v>
       </c>
-      <c r="AE13" s="206">
+      <c r="AE13" s="187">
         <v>7.25</v>
       </c>
-      <c r="AF13" s="204"/>
-      <c r="AG13" s="205">
+      <c r="AF13" s="182"/>
+      <c r="AG13" s="183">
         <v>4</v>
       </c>
-      <c r="AH13" s="206">
+      <c r="AH13" s="187">
         <v>7.25</v>
       </c>
-      <c r="AI13" s="204"/>
-      <c r="AJ13" s="205"/>
-      <c r="AK13" s="206"/>
-      <c r="AL13" s="204" t="s">
+      <c r="AI13" s="182"/>
+      <c r="AJ13" s="183"/>
+      <c r="AK13" s="187"/>
+      <c r="AL13" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="AM13" s="205"/>
-      <c r="AN13" s="206"/>
-      <c r="AO13" s="204" t="s">
+      <c r="AM13" s="183"/>
+      <c r="AN13" s="187"/>
+      <c r="AO13" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="AP13" s="205"/>
-      <c r="AQ13" s="206"/>
-      <c r="AR13" s="204" t="s">
+      <c r="AP13" s="183"/>
+      <c r="AQ13" s="187"/>
+      <c r="AR13" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="AS13" s="205"/>
-      <c r="AT13" s="206"/>
-      <c r="AU13" s="204">
+      <c r="AS13" s="183"/>
+      <c r="AT13" s="187"/>
+      <c r="AU13" s="182">
         <v>11.25</v>
       </c>
-      <c r="AV13" s="205"/>
-      <c r="AW13" s="206"/>
-      <c r="AX13" s="204">
+      <c r="AV13" s="183"/>
+      <c r="AW13" s="187"/>
+      <c r="AX13" s="182">
         <v>11.25</v>
       </c>
-      <c r="AY13" s="205"/>
-      <c r="AZ13" s="206"/>
-      <c r="BA13" s="204"/>
-      <c r="BB13" s="205">
+      <c r="AY13" s="183"/>
+      <c r="AZ13" s="187"/>
+      <c r="BA13" s="182"/>
+      <c r="BB13" s="183">
         <v>4</v>
       </c>
-      <c r="BC13" s="206">
+      <c r="BC13" s="187">
         <v>7.25</v>
       </c>
-      <c r="BD13" s="204"/>
-      <c r="BE13" s="205">
+      <c r="BD13" s="182"/>
+      <c r="BE13" s="183">
         <v>4</v>
       </c>
-      <c r="BF13" s="206">
+      <c r="BF13" s="187">
         <v>7.25</v>
       </c>
-      <c r="BG13" s="204"/>
-      <c r="BH13" s="205"/>
-      <c r="BI13" s="206"/>
-      <c r="BJ13" s="204" t="s">
+      <c r="BG13" s="182"/>
+      <c r="BH13" s="183"/>
+      <c r="BI13" s="187"/>
+      <c r="BJ13" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="BK13" s="205"/>
-      <c r="BL13" s="206"/>
-      <c r="BM13" s="204" t="s">
+      <c r="BK13" s="183"/>
+      <c r="BL13" s="187"/>
+      <c r="BM13" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="BN13" s="205"/>
-      <c r="BO13" s="206"/>
-      <c r="BP13" s="204" t="s">
+      <c r="BN13" s="183"/>
+      <c r="BO13" s="187"/>
+      <c r="BP13" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="BQ13" s="205"/>
-      <c r="BR13" s="206"/>
-      <c r="BS13" s="204" t="s">
+      <c r="BQ13" s="183"/>
+      <c r="BR13" s="187"/>
+      <c r="BS13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="BT13" s="205"/>
-      <c r="BU13" s="206"/>
-      <c r="BV13" s="204" t="s">
+      <c r="BT13" s="183"/>
+      <c r="BU13" s="187"/>
+      <c r="BV13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="BW13" s="205"/>
-      <c r="BX13" s="206"/>
-      <c r="BY13" s="204" t="s">
+      <c r="BW13" s="183"/>
+      <c r="BX13" s="187"/>
+      <c r="BY13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="BZ13" s="205"/>
-      <c r="CA13" s="206"/>
-      <c r="CB13" s="204" t="s">
+      <c r="BZ13" s="183"/>
+      <c r="CA13" s="187"/>
+      <c r="CB13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="CC13" s="205"/>
-      <c r="CD13" s="206"/>
-      <c r="CE13" s="204" t="s">
+      <c r="CC13" s="183"/>
+      <c r="CD13" s="187"/>
+      <c r="CE13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="CF13" s="205"/>
-      <c r="CG13" s="206"/>
-      <c r="CH13" s="204" t="s">
+      <c r="CF13" s="183"/>
+      <c r="CG13" s="187"/>
+      <c r="CH13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="CI13" s="205"/>
-      <c r="CJ13" s="206"/>
-      <c r="CK13" s="204" t="s">
+      <c r="CI13" s="183"/>
+      <c r="CJ13" s="187"/>
+      <c r="CK13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="CL13" s="205"/>
-      <c r="CM13" s="206"/>
-      <c r="CN13" s="204" t="s">
+      <c r="CL13" s="183"/>
+      <c r="CM13" s="187"/>
+      <c r="CN13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="CO13" s="205"/>
-      <c r="CP13" s="206"/>
-      <c r="CQ13" s="204" t="s">
+      <c r="CO13" s="183"/>
+      <c r="CP13" s="187"/>
+      <c r="CQ13" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="CR13" s="205"/>
-      <c r="CS13" s="206"/>
-      <c r="CT13" s="204"/>
-      <c r="CU13" s="205"/>
-      <c r="CV13" s="216">
+      <c r="CR13" s="183"/>
+      <c r="CS13" s="187"/>
+      <c r="CT13" s="182"/>
+      <c r="CU13" s="183"/>
+      <c r="CV13" s="291">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="CW13" s="210">
+      <c r="CW13" s="286">
         <f>IF(CK13="К",1,0)+IF(CN13="К",1,0)+IF(CQ13="К",1,0)+IF(CT13="К",1,0)+IF(CH13="К",1,0)+IF(H13="К",1,0)+IF(K13="К",1,0)+IF(N13="К",1,0)+IF(Q13="К",1,0)+IF(T13="К",1,0)+IF(W13="К",1,0)+IF(Z13="К",1,0)+IF(AC13="К",1,0)+IF(AF13="К",1,0)+IF(AI13="К",1,0)+IF(AL13="К",1,0)+IF(AO13="К",1,0)+IF(AR13="К",1,0)+IF(AU13="К",1,0)+IF(AX13="К",1,0)+IF(BA13="К",1,0)+IF(BD13="К",1,0)+IF(BG13="К",1,0)+IF(BJ13="К",1,0)+IF(BM13="К",1,0)+IF(BP13="К",1,0)+IF(BS13="К",1,0)+IF(BV13="К",1,0)+IF(BY13="К",1,0)+IF(CB13="К",1,0)+IF(CE13="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX13" s="210">
+      <c r="CX13" s="286">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="CY13" s="210">
+      <c r="CY13" s="286">
         <f>IF(CN13="Р",1,0)+IF(CQ13="Р",1,0)+IF(CT13="Р",1,0)+IF(H13="Р",1,0)+IF(K13="Р",1,0)+IF(N13="Р",1,0)+IF(Q13="Р",1,0)+IF(T13="Р",1,0)+IF(W13="Р",1,0)+IF(Z13="Р",1,0)+IF(AC13="Р",1,0)+IF(AF13="Р",1,0)+IF(AI13="Р",1,0)+IF(AL13="Р",1,0)+IF(AO13="Р",1,0)+IF(AR13="Р",1,0)+IF(AU13="Р",1,0)+IF(AX13="Р",1,0)+IF(BA13="Р",1,0)+IF(BD13="Р",1,0)+IF(BG13="Р",1,0)+IF(BJ13="Р",1,0)+IF(BM13="Р",1,0)+IF(BP13="Р",1,0)+IF(BS13="Р",1,0)+IF(BV13="Р",1,0)+IF(BY13="Р",1,0)+IF(CB13="Р",1,0)+IF(CE13="Р",1,0)+IF(CH13="Р",1,0)+IF(CK13="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ13" s="210">
+      <c r="CZ13" s="286">
         <f>IF(CN13="Б",1,0)+IF(CQ13="Б",1,0)+IF(CT13="Б",1,0)+IF(H13="Б",1,0)+IF(K13="Б",1,0)+IF(N13="Б",1,0)+IF(Q13="Б",1,0)+IF(T13="Б",1,0)+IF(W13="Б",1,0)+IF(Z13="Б",1,0)+IF(AC13="Б",1,0)+IF(AF13="Б",1,0)+IF(AI13="Б",1,0)+IF(AL13="Б",1,0)+IF(AO13="Б",1,0)+IF(AR13="Б",1,0)+IF(AU13="Б",1,0)+IF(AX13="Б",1,0)+IF(BA13="Б",1,0)+IF(BD13="Б",1,0)+IF(BG13="Б",1,0)+IF(BJ13="Б",1,0)+IF(BM13="Б",1,0)+IF(BP13="Б",1,0)+IF(BS13="Б",1,0)+IF(BV13="Б",1,0)+IF(BY13="Б",1,0)+IF(CB13="Б",1,0)+IF(CE13="Б",1,0)+IF(CH13="Б",1,0)+IF(CK13="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA13" s="210">
+      <c r="DA13" s="286">
         <f>IF(CN13="А",1,0)+IF(CQ13="А",1,0)+IF(CT13="А",1,0)+IF(H13="А",1,0)+IF(K13="А",1,0)+IF(N13="А",1,0)+IF(Q13="А",1,0)+IF(T13="А",1,0)+IF(W13="А",1,0)+IF(Z13="А",1,0)+IF(AC13="А",1,0)+IF(AF13="А",1,0)+IF(AI13="А",1,0)+IF(AL13="А",1,0)+IF(AO13="А",1,0)+IF(AR13="А",1,0)+IF(AU13="А",1,0)+IF(AX13="А",1,0)+IF(BA13="А",1,0)+IF(BD13="А",1,0)+IF(BG13="А",1,0)+IF(BJ13="А",1,0)+IF(BM13="А",1,0)+IF(BP13="А",1,0)+IF(BS13="А",1,0)+IF(BV13="А",1,0)+IF(BY13="А",1,0)+IF(CB13="А",1,0)+IF(CE13="А",1,0)+IF(CH13="А",1,0)+IF(CK13="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB13" s="210">
+      <c r="DB13" s="286">
         <f>IF(CN13="П",1,0)+IF(CQ13="П",1,0)+IF(CT13="П",1,0)+IF(H13="П",1,0)+IF(K13="П",1,0)+IF(N13="П",1,0)+IF(Q13="П",1,0)+IF(T13="П",1,0)+IF(W13="П",1,0)+IF(Z13="П",1,0)+IF(AC13="П",1,0)+IF(AF13="П",1,0)+IF(AI13="П",1,0)+IF(AL13="П",1,0)+IF(AO13="П",1,0)+IF(AR13="П",1,0)+IF(AU13="П",1,0)+IF(AX13="П",1,0)+IF(BA13="П",1,0)+IF(BD13="П",1,0)+IF(BG13="П",1,0)+IF(BJ13="П",1,0)+IF(BM13="П",1,0)+IF(BP13="П",1,0)+IF(BS13="П",1,0)+IF(BV13="П",1,0)+IF(BY13="П",1,0)+IF(CB13="П",1,0)+IF(CE13="П",1,0)+IF(CH13="П",1,0)+IF(CK13="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC13" s="210">
+      <c r="DC13" s="286">
         <f>IF(CN13="У",1,0)+IF(CQ13="У",1,0)+IF(CT13="У",1,0)+IF(H13="У",1,0)+IF(K13="У",1,0)+IF(N13="У",1,0)+IF(Q13="У",1,0)+IF(T13="У",1,0)+IF(W13="У",1,0)+IF(Z13="У",1,0)+IF(AC13="У",1,0)+IF(AF13="У",1,0)+IF(AI13="У",1,0)+IF(AL13="У",1,0)+IF(AO13="У",1,0)+IF(AR13="У",1,0)+IF(AU13="У",1,0)+IF(AX13="У",1,0)+IF(BA13="У",1,0)+IF(BD13="У",1,0)+IF(BG13="У",1,0)+IF(BJ13="У",1,0)+IF(BM13="У",1,0)+IF(BP13="У",1,0)+IF(BS13="У",1,0)+IF(BV13="У",1,0)+IF(BY13="У",1,0)+IF(CB13="У",1,0)+IF(CE13="У",1,0)+IF(CH13="У",1,0)+IF(CK13="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD13" s="210">
+      <c r="DD13" s="286">
         <f>IF(CN13="Г",1,0)+IF(CQ13="Г",1,0)+IF(CT13="Г",1,0)+IF(H13="Г",1,0)+IF(K13="Г",1,0)+IF(N13="Г",1,0)+IF(Q13="Г",1,0)+IF(T13="Г",1,0)+IF(W13="Г",1,0)+IF(Z13="Г",1,0)+IF(AC13="Г",1,0)+IF(AF13="Г",1,0)+IF(AI13="Г",1,0)+IF(AL13="Г",1,0)+IF(AO13="Г",1,0)+IF(AR13="Г",1,0)+IF(AU13="Г",1,0)+IF(AX13="Г",1,0)+IF(BA13="Г",1,0)+IF(BD13="Г",1,0)+IF(BG13="Г",1,0)+IF(BJ13="Г",1,0)+IF(BM13="Г",1,0)+IF(BP13="Г",1,0)+IF(BS13="Г",1,0)+IF(BV13="Г",1,0)+IF(BY13="Г",1,0)+IF(CB13="Г",1,0)+IF(CE13="Г",1,0)+IF(CH13="Г",1,0)+IF(CK13="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE13" s="210">
+      <c r="DE13" s="286">
         <f>IF(CQ13="ОЧ",1,0)+IF(CT13="ОЧ",1,0)+IF(H13="ОЧ",1,0)+IF(K13="ОЧ",1,0)+IF(N13="ОЧ",1,0)+IF(Q13="ОЧ",1,0)+IF(T13="ОЧ",1,0)+IF(W13="ОЧ",1,0)+IF(Z13="ОЧ",1,0)+IF(AC13="ОЧ",1,0)+IF(AF13="ОЧ",1,0)+IF(AI13="ОЧ",1,0)+IF(AL13="ОЧ",1,0)+IF(AO13="ОЧ",1,0)+IF(AR13="ОЧ",1,0)+IF(AU13="ОЧ",1,0)+IF(AX13="ОЧ",1,0)+IF(BA13="ОЧ",1,0)+IF(BD13="ОЧ",1,0)+IF(BG13="ОЧ",1,0)+IF(BJ13="ОЧ",1,0)+IF(BM13="ОЧ",1,0)+IF(BP13="ОЧ",1,0)+IF(BS13="ОЧ",1,0)+IF(BV13="ОЧ",1,0)+IF(BY13="ОЧ",1,0)+IF(CB13="ОЧ",1,0)+IF(CE13="ОЧ",1,0)+IF(CH13="ОЧ",1,0)+IF(CK13="ОЧ",1,0)+IF(CN13="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF13" s="210">
+      <c r="DF13" s="286">
         <f>IF(CQ13="Т",1,0)+IF(CT13="Т",1,0)+IF(K13="Т",1,0)+IF(H13="Т",1,0)+IF(N13="Т",1,0)+IF(Q13="Т",1,0)+IF(T13="Т",1,0)+IF(W13="Т",1,0)+IF(Z13="Т",1,0)+IF(AC13="Т",1,0)+IF(AF13="Т",1,0)+IF(AI13="Т",1,0)+IF(AL13="Т",1,0)+IF(AO13="Т",1,0)+IF(AR13="Т",1,0)+IF(AU13="Т",1,0)+IF(AX13="Т",1,0)+IF(BA13="Т",1,0)+IF(BD13="Т",1,0)+IF(BG13="Т",1,0)+IF(BJ13="Т",1,0)+IF(BM13="Т",1,0)+IF(BP13="Т",1,0)+IF(BS13="Т",1,0)+IF(BV13="Т",1,0)+IF(BY13="Т",1,0)+IF(CB13="Т",1,0)+IF(CE13="Т",1,0)+IF(CH13="Т",1,0)+IF(CK13="Т",1,0)+IF(CN13="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG13" s="210">
+      <c r="DG13" s="286">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH13" s="210">
+      <c r="DH13" s="286">
         <f>IF(CQ13="В",1,0)+IF(CT13="В",1,0)+IF(H13="В",1,0)+IF(K13="В",1,0)+IF(N13="В",1,0)+IF(Q13="В",1,0)+IF(T13="В",1,0)+IF(W13="В",1,0)+IF(Z13="В",1,0)+IF(AC13="В",1,0)+IF(AF13="В",1,0)+IF(AI13="В",1,0)+IF(AL13="В",1,0)+IF(AO13="В",1,0)+IF(AR13="В",1,0)+IF(AU13="В",1,0)+IF(AX13="В",1,0)+IF(BA13="В",1,0)+IF(BD13="В",1,0)+IF(BG13="В",1,0)+IF(BJ13="В",1,0)+IF(BM13="В",1,0)+IF(BP13="В",1,0)+IF(BS13="В",1,0)+IF(BV13="В",1,0)+IF(BY13="В",1,0)+IF(CB13="В",1,0)+IF(CE13="В",1,0)+IF(CH13="В",1,0)+IF(CK13="В",1,0)+IF(CN13="В",1,0)</f>
         <v>9</v>
       </c>
-      <c r="DI13" s="210">
+      <c r="DI13" s="80">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="DJ13" s="212">
+      <c r="DJ13" s="70">
         <f t="shared" si="24"/>
         <v>108.5</v>
       </c>
-      <c r="DK13" s="217">
-        <v>0</v>
-      </c>
-      <c r="DL13" s="217"/>
-      <c r="DM13" s="217"/>
-      <c r="DN13" s="218">
+      <c r="DK13" s="69">
+        <v>0</v>
+      </c>
+      <c r="DL13" s="69"/>
+      <c r="DM13" s="69"/>
+      <c r="DN13" s="71">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="DO13" s="215">
+      <c r="DO13" s="72">
         <v>0</v>
       </c>
       <c r="DQ13" s="32">
@@ -14155,55 +14090,55 @@
       <c r="CS14" s="187"/>
       <c r="CT14" s="182"/>
       <c r="CU14" s="183"/>
-      <c r="CV14" s="168">
+      <c r="CV14" s="291">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="CW14" s="79">
+      <c r="CW14" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX14" s="144">
+      <c r="CX14" s="286">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="CY14" s="79">
+      <c r="CY14" s="287">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ14" s="79">
+      <c r="CZ14" s="287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA14" s="79">
+      <c r="DA14" s="287">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB14" s="79">
+      <c r="DB14" s="287">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC14" s="79">
+      <c r="DC14" s="287">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD14" s="79">
+      <c r="DD14" s="287">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE14" s="79">
+      <c r="DE14" s="287">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF14" s="79">
+      <c r="DF14" s="287">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG14" s="79">
+      <c r="DG14" s="287">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH14" s="80">
+      <c r="DH14" s="286">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
@@ -14461,55 +14396,55 @@
       <c r="CS15" s="187"/>
       <c r="CT15" s="182"/>
       <c r="CU15" s="183"/>
-      <c r="CV15" s="168">
+      <c r="CV15" s="291">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="CW15" s="79">
+      <c r="CW15" s="287">
         <f>IF(CK15="К",1,0)+IF(CN15="К",1,0)+IF(CQ15="К",1,0)+IF(CT15="К",1,0)+IF(CH15="К",1,0)+IF(H15="К",1,0)+IF(K15="К",1,0)+IF(N15="К",1,0)+IF(Q15="К",1,0)+IF(T15="К",1,0)+IF(W15="К",1,0)+IF(Z15="К",1,0)+IF(AC15="К",1,0)+IF(AF15="К",1,0)+IF(AI15="К",1,0)+IF(AL15="К",1,0)+IF(AO15="К",1,0)+IF(AR15="К",1,0)+IF(AU15="К",1,0)+IF(AX15="К",1,0)+IF(BA15="К",1,0)+IF(BD15="К",1,0)+IF(BG15="К",1,0)+IF(BJ15="К",1,0)+IF(BM15="К",1,0)+IF(BP15="К",1,0)+IF(BS15="К",1,0)+IF(BV15="К",1,0)+IF(BY15="К",1,0)+IF(CB15="К",1,0)+IF(CE15="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX15" s="79">
+      <c r="CX15" s="287">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="CY15" s="79">
+      <c r="CY15" s="287">
         <f>IF(CN15="Р",1,0)+IF(CQ15="Р",1,0)+IF(CT15="Р",1,0)+IF(H15="Р",1,0)+IF(K15="Р",1,0)+IF(N15="Р",1,0)+IF(Q15="Р",1,0)+IF(T15="Р",1,0)+IF(W15="Р",1,0)+IF(Z15="Р",1,0)+IF(AC15="Р",1,0)+IF(AF15="Р",1,0)+IF(AI15="Р",1,0)+IF(AL15="Р",1,0)+IF(AO15="Р",1,0)+IF(AR15="Р",1,0)+IF(AU15="Р",1,0)+IF(AX15="Р",1,0)+IF(BA15="Р",1,0)+IF(BD15="Р",1,0)+IF(BG15="Р",1,0)+IF(BJ15="Р",1,0)+IF(BM15="Р",1,0)+IF(BP15="Р",1,0)+IF(BS15="Р",1,0)+IF(BV15="Р",1,0)+IF(BY15="Р",1,0)+IF(CB15="Р",1,0)+IF(CE15="Р",1,0)+IF(CH15="Р",1,0)+IF(CK15="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ15" s="79">
+      <c r="CZ15" s="287">
         <f>IF(CN15="Б",1,0)+IF(CQ15="Б",1,0)+IF(CT15="Б",1,0)+IF(H15="Б",1,0)+IF(K15="Б",1,0)+IF(N15="Б",1,0)+IF(Q15="Б",1,0)+IF(T15="Б",1,0)+IF(W15="Б",1,0)+IF(Z15="Б",1,0)+IF(AC15="Б",1,0)+IF(AF15="Б",1,0)+IF(AI15="Б",1,0)+IF(AL15="Б",1,0)+IF(AO15="Б",1,0)+IF(AR15="Б",1,0)+IF(AU15="Б",1,0)+IF(AX15="Б",1,0)+IF(BA15="Б",1,0)+IF(BD15="Б",1,0)+IF(BG15="Б",1,0)+IF(BJ15="Б",1,0)+IF(BM15="Б",1,0)+IF(BP15="Б",1,0)+IF(BS15="Б",1,0)+IF(BV15="Б",1,0)+IF(BY15="Б",1,0)+IF(CB15="Б",1,0)+IF(CE15="Б",1,0)+IF(CH15="Б",1,0)+IF(CK15="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA15" s="79">
+      <c r="DA15" s="287">
         <f>IF(CN15="А",1,0)+IF(CQ15="А",1,0)+IF(CT15="А",1,0)+IF(H15="А",1,0)+IF(K15="А",1,0)+IF(N15="А",1,0)+IF(Q15="А",1,0)+IF(T15="А",1,0)+IF(W15="А",1,0)+IF(Z15="А",1,0)+IF(AC15="А",1,0)+IF(AF15="А",1,0)+IF(AI15="А",1,0)+IF(AL15="А",1,0)+IF(AO15="А",1,0)+IF(AR15="А",1,0)+IF(AU15="А",1,0)+IF(AX15="А",1,0)+IF(BA15="А",1,0)+IF(BD15="А",1,0)+IF(BG15="А",1,0)+IF(BJ15="А",1,0)+IF(BM15="А",1,0)+IF(BP15="А",1,0)+IF(BS15="А",1,0)+IF(BV15="А",1,0)+IF(BY15="А",1,0)+IF(CB15="А",1,0)+IF(CE15="А",1,0)+IF(CH15="А",1,0)+IF(CK15="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB15" s="79">
+      <c r="DB15" s="287">
         <f>IF(CN15="П",1,0)+IF(CQ15="П",1,0)+IF(CT15="П",1,0)+IF(H15="П",1,0)+IF(K15="П",1,0)+IF(N15="П",1,0)+IF(Q15="П",1,0)+IF(T15="П",1,0)+IF(W15="П",1,0)+IF(Z15="П",1,0)+IF(AC15="П",1,0)+IF(AF15="П",1,0)+IF(AI15="П",1,0)+IF(AL15="П",1,0)+IF(AO15="П",1,0)+IF(AR15="П",1,0)+IF(AU15="П",1,0)+IF(AX15="П",1,0)+IF(BA15="П",1,0)+IF(BD15="П",1,0)+IF(BG15="П",1,0)+IF(BJ15="П",1,0)+IF(BM15="П",1,0)+IF(BP15="П",1,0)+IF(BS15="П",1,0)+IF(BV15="П",1,0)+IF(BY15="П",1,0)+IF(CB15="П",1,0)+IF(CE15="П",1,0)+IF(CH15="П",1,0)+IF(CK15="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC15" s="79">
+      <c r="DC15" s="287">
         <f>IF(CN15="У",1,0)+IF(CQ15="У",1,0)+IF(CT15="У",1,0)+IF(H15="У",1,0)+IF(K15="У",1,0)+IF(N15="У",1,0)+IF(Q15="У",1,0)+IF(T15="У",1,0)+IF(W15="У",1,0)+IF(Z15="У",1,0)+IF(AC15="У",1,0)+IF(AF15="У",1,0)+IF(AI15="У",1,0)+IF(AL15="У",1,0)+IF(AO15="У",1,0)+IF(AR15="У",1,0)+IF(AU15="У",1,0)+IF(AX15="У",1,0)+IF(BA15="У",1,0)+IF(BD15="У",1,0)+IF(BG15="У",1,0)+IF(BJ15="У",1,0)+IF(BM15="У",1,0)+IF(BP15="У",1,0)+IF(BS15="У",1,0)+IF(BV15="У",1,0)+IF(BY15="У",1,0)+IF(CB15="У",1,0)+IF(CE15="У",1,0)+IF(CH15="У",1,0)+IF(CK15="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD15" s="79">
+      <c r="DD15" s="287">
         <f>IF(CN15="Г",1,0)+IF(CQ15="Г",1,0)+IF(CT15="Г",1,0)+IF(H15="Г",1,0)+IF(K15="Г",1,0)+IF(N15="Г",1,0)+IF(Q15="Г",1,0)+IF(T15="Г",1,0)+IF(W15="Г",1,0)+IF(Z15="Г",1,0)+IF(AC15="Г",1,0)+IF(AF15="Г",1,0)+IF(AI15="Г",1,0)+IF(AL15="Г",1,0)+IF(AO15="Г",1,0)+IF(AR15="Г",1,0)+IF(AU15="Г",1,0)+IF(AX15="Г",1,0)+IF(BA15="Г",1,0)+IF(BD15="Г",1,0)+IF(BG15="Г",1,0)+IF(BJ15="Г",1,0)+IF(BM15="Г",1,0)+IF(BP15="Г",1,0)+IF(BS15="Г",1,0)+IF(BV15="Г",1,0)+IF(BY15="Г",1,0)+IF(CB15="Г",1,0)+IF(CE15="Г",1,0)+IF(CH15="Г",1,0)+IF(CK15="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE15" s="79">
+      <c r="DE15" s="287">
         <f>IF(CQ15="ОЧ",1,0)+IF(CT15="ОЧ",1,0)+IF(H15="ОЧ",1,0)+IF(K15="ОЧ",1,0)+IF(N15="ОЧ",1,0)+IF(Q15="ОЧ",1,0)+IF(T15="ОЧ",1,0)+IF(W15="ОЧ",1,0)+IF(Z15="ОЧ",1,0)+IF(AC15="ОЧ",1,0)+IF(AF15="ОЧ",1,0)+IF(AI15="ОЧ",1,0)+IF(AL15="ОЧ",1,0)+IF(AO15="ОЧ",1,0)+IF(AR15="ОЧ",1,0)+IF(AU15="ОЧ",1,0)+IF(AX15="ОЧ",1,0)+IF(BA15="ОЧ",1,0)+IF(BD15="ОЧ",1,0)+IF(BG15="ОЧ",1,0)+IF(BJ15="ОЧ",1,0)+IF(BM15="ОЧ",1,0)+IF(BP15="ОЧ",1,0)+IF(BS15="ОЧ",1,0)+IF(BV15="ОЧ",1,0)+IF(BY15="ОЧ",1,0)+IF(CB15="ОЧ",1,0)+IF(CE15="ОЧ",1,0)+IF(CH15="ОЧ",1,0)+IF(CK15="ОЧ",1,0)+IF(CN15="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF15" s="79">
+      <c r="DF15" s="287">
         <f>IF(CQ15="Т",1,0)+IF(CT15="Т",1,0)+IF(K15="Т",1,0)+IF(H15="Т",1,0)+IF(N15="Т",1,0)+IF(Q15="Т",1,0)+IF(T15="Т",1,0)+IF(W15="Т",1,0)+IF(Z15="Т",1,0)+IF(AC15="Т",1,0)+IF(AF15="Т",1,0)+IF(AI15="Т",1,0)+IF(AL15="Т",1,0)+IF(AO15="Т",1,0)+IF(AR15="Т",1,0)+IF(AU15="Т",1,0)+IF(AX15="Т",1,0)+IF(BA15="Т",1,0)+IF(BD15="Т",1,0)+IF(BG15="Т",1,0)+IF(BJ15="Т",1,0)+IF(BM15="Т",1,0)+IF(BP15="Т",1,0)+IF(BS15="Т",1,0)+IF(BV15="Т",1,0)+IF(BY15="Т",1,0)+IF(CB15="Т",1,0)+IF(CE15="Т",1,0)+IF(CH15="Т",1,0)+IF(CK15="Т",1,0)+IF(CN15="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG15" s="79">
+      <c r="DG15" s="287">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH15" s="80">
+      <c r="DH15" s="286">
         <f>IF(CQ15="В",1,0)+IF(CT15="В",1,0)+IF(H15="В",1,0)+IF(K15="В",1,0)+IF(N15="В",1,0)+IF(Q15="В",1,0)+IF(T15="В",1,0)+IF(W15="В",1,0)+IF(Z15="В",1,0)+IF(AC15="В",1,0)+IF(AF15="В",1,0)+IF(AI15="В",1,0)+IF(AL15="В",1,0)+IF(AO15="В",1,0)+IF(AR15="В",1,0)+IF(AU15="В",1,0)+IF(AX15="В",1,0)+IF(BA15="В",1,0)+IF(BD15="В",1,0)+IF(BG15="В",1,0)+IF(BJ15="В",1,0)+IF(BM15="В",1,0)+IF(BP15="В",1,0)+IF(BS15="В",1,0)+IF(BV15="В",1,0)+IF(BY15="В",1,0)+IF(CB15="В",1,0)+IF(CE15="В",1,0)+IF(CH15="В",1,0)+IF(CK15="В",1,0)+IF(CN15="В",1,0)</f>
         <v>3</v>
       </c>
@@ -14769,55 +14704,55 @@
       <c r="CS16" s="187"/>
       <c r="CT16" s="182"/>
       <c r="CU16" s="183"/>
-      <c r="CV16" s="168">
+      <c r="CV16" s="291">
         <f>IF(SUM(G16:I16)&gt;=1,1,0)+IF(SUM(J16:L16)&gt;=1,1,0)+IF(SUM(M16:O16)&gt;=1,1,0)+IF(SUM(P16:R16)&gt;=1,1,0)+IF(SUM(S16:U16)&gt;=1,1,0)+IF(SUM(V16:X16)&gt;=1,1,0)+IF(SUM(Y16:AA16)&gt;=1,1,0)+IF(SUM(AB16:AD16)&gt;=1,1,0)+IF(SUM(AE16:AG16)&gt;=1,1,0)+IF(SUM(AH16:AJ16)&gt;=1,1,0)+IF(SUM(AK16:AM16)&gt;=1,1,0)+IF(SUM(AN16:AP16)&gt;=1,1,0)+IF(SUM(AQ16:AS16)&gt;=1,1,0)+IF(SUM(AT16:AV16)&gt;=1,1,0)+IF(SUM(AW16:AY16)&gt;=1,1,0)+IF(SUM(AZ16:BB16)&gt;=1,1,0)+IF(SUM(BC16:BE16)&gt;=1,1,0)+IF(SUM(BF16:BH16)&gt;=1,1,0)+IF(SUM(BI16:BK16)&gt;=1,1,0)+IF(SUM(BL16:BN16)&gt;=1,1,0)+IF(SUM(BO16:BQ16)&gt;=1,1,0)+IF(SUM(BR16:BT16)&gt;=1,1,0)+IF(SUM(BU16:BW16)&gt;=1,1,0)+IF(SUM(BX16:BZ16)&gt;=1,1,0)+IF(SUM(CA16:CC16)&gt;=1,1,0)+IF(SUM(CD16:CF16)&gt;=1,1,0)+IF(SUM(CG16:CI16)&gt;=1,1,0)+IF(SUM(CJ16:CL16)&gt;=1,1,0)+IF(SUM(CM16:CO16)&gt;=1,1,0)+IF(SUM(CP16:CR16)&gt;=1,1,0)+IF(SUM(CS16:CU16)&gt;=1,1,0)</f>
         <v>17</v>
       </c>
-      <c r="CW16" s="79">
+      <c r="CW16" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX16" s="143">
+      <c r="CX16" s="288">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY16" s="79">
+      <c r="CY16" s="287">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ16" s="79">
+      <c r="CZ16" s="287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA16" s="79">
+      <c r="DA16" s="287">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB16" s="79">
+      <c r="DB16" s="287">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC16" s="79">
+      <c r="DC16" s="287">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD16" s="79">
+      <c r="DD16" s="287">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE16" s="79">
+      <c r="DE16" s="287">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF16" s="79">
+      <c r="DF16" s="287">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG16" s="79">
+      <c r="DG16" s="287">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH16" s="80">
+      <c r="DH16" s="286">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -15081,55 +15016,55 @@
       <c r="CS17" s="187"/>
       <c r="CT17" s="182"/>
       <c r="CU17" s="183"/>
-      <c r="CV17" s="168">
+      <c r="CV17" s="291">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="CW17" s="79">
+      <c r="CW17" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX17" s="143">
+      <c r="CX17" s="288">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY17" s="79">
+      <c r="CY17" s="287">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ17" s="79">
+      <c r="CZ17" s="287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA17" s="79">
+      <c r="DA17" s="287">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB17" s="79">
+      <c r="DB17" s="287">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC17" s="79">
+      <c r="DC17" s="287">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD17" s="79">
+      <c r="DD17" s="287">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE17" s="79">
+      <c r="DE17" s="287">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF17" s="79">
+      <c r="DF17" s="287">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG17" s="79">
+      <c r="DG17" s="287">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH17" s="80">
+      <c r="DH17" s="286">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
@@ -15393,55 +15328,55 @@
       <c r="CS18" s="187"/>
       <c r="CT18" s="182"/>
       <c r="CU18" s="183"/>
-      <c r="CV18" s="168">
+      <c r="CV18" s="291">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="CW18" s="79">
+      <c r="CW18" s="287">
         <f>IF(CK18="К",1,0)+IF(CN18="К",1,0)+IF(CQ18="К",1,0)+IF(CT18="К",1,0)+IF(CH18="К",1,0)+IF(H18="К",1,0)+IF(K18="К",1,0)+IF(N18="К",1,0)+IF(Q18="К",1,0)+IF(T18="К",1,0)+IF(W18="К",1,0)+IF(Z18="К",1,0)+IF(AC18="К",1,0)+IF(AF18="К",1,0)+IF(AI18="К",1,0)+IF(AL18="К",1,0)+IF(AO18="К",1,0)+IF(AR18="К",1,0)+IF(AU18="К",1,0)+IF(AX18="К",1,0)+IF(BA18="К",1,0)+IF(BD18="К",1,0)+IF(BG18="К",1,0)+IF(BJ18="К",1,0)+IF(BM18="К",1,0)+IF(BP18="К",1,0)+IF(BS18="К",1,0)+IF(BV18="К",1,0)+IF(BY18="К",1,0)+IF(CB18="К",1,0)+IF(CE18="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX18" s="79">
+      <c r="CX18" s="287">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY18" s="79">
+      <c r="CY18" s="287">
         <f>IF(CN18="Р",1,0)+IF(CQ18="Р",1,0)+IF(CT18="Р",1,0)+IF(H18="Р",1,0)+IF(K18="Р",1,0)+IF(N18="Р",1,0)+IF(Q18="Р",1,0)+IF(T18="Р",1,0)+IF(W18="Р",1,0)+IF(Z18="Р",1,0)+IF(AC18="Р",1,0)+IF(AF18="Р",1,0)+IF(AI18="Р",1,0)+IF(AL18="Р",1,0)+IF(AO18="Р",1,0)+IF(AR18="Р",1,0)+IF(AU18="Р",1,0)+IF(AX18="Р",1,0)+IF(BA18="Р",1,0)+IF(BD18="Р",1,0)+IF(BG18="Р",1,0)+IF(BJ18="Р",1,0)+IF(BM18="Р",1,0)+IF(BP18="Р",1,0)+IF(BS18="Р",1,0)+IF(BV18="Р",1,0)+IF(BY18="Р",1,0)+IF(CB18="Р",1,0)+IF(CE18="Р",1,0)+IF(CH18="Р",1,0)+IF(CK18="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ18" s="79">
+      <c r="CZ18" s="287">
         <f>IF(CN18="Б",1,0)+IF(CQ18="Б",1,0)+IF(CT18="Б",1,0)+IF(H18="Б",1,0)+IF(K18="Б",1,0)+IF(N18="Б",1,0)+IF(Q18="Б",1,0)+IF(T18="Б",1,0)+IF(W18="Б",1,0)+IF(Z18="Б",1,0)+IF(AC18="Б",1,0)+IF(AF18="Б",1,0)+IF(AI18="Б",1,0)+IF(AL18="Б",1,0)+IF(AO18="Б",1,0)+IF(AR18="Б",1,0)+IF(AU18="Б",1,0)+IF(AX18="Б",1,0)+IF(BA18="Б",1,0)+IF(BD18="Б",1,0)+IF(BG18="Б",1,0)+IF(BJ18="Б",1,0)+IF(BM18="Б",1,0)+IF(BP18="Б",1,0)+IF(BS18="Б",1,0)+IF(BV18="Б",1,0)+IF(BY18="Б",1,0)+IF(CB18="Б",1,0)+IF(CE18="Б",1,0)+IF(CH18="Б",1,0)+IF(CK18="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA18" s="79">
+      <c r="DA18" s="287">
         <f>IF(CN18="А",1,0)+IF(CQ18="А",1,0)+IF(CT18="А",1,0)+IF(H18="А",1,0)+IF(K18="А",1,0)+IF(N18="А",1,0)+IF(Q18="А",1,0)+IF(T18="А",1,0)+IF(W18="А",1,0)+IF(Z18="А",1,0)+IF(AC18="А",1,0)+IF(AF18="А",1,0)+IF(AI18="А",1,0)+IF(AL18="А",1,0)+IF(AO18="А",1,0)+IF(AR18="А",1,0)+IF(AU18="А",1,0)+IF(AX18="А",1,0)+IF(BA18="А",1,0)+IF(BD18="А",1,0)+IF(BG18="А",1,0)+IF(BJ18="А",1,0)+IF(BM18="А",1,0)+IF(BP18="А",1,0)+IF(BS18="А",1,0)+IF(BV18="А",1,0)+IF(BY18="А",1,0)+IF(CB18="А",1,0)+IF(CE18="А",1,0)+IF(CH18="А",1,0)+IF(CK18="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB18" s="79">
+      <c r="DB18" s="287">
         <f>IF(CN18="П",1,0)+IF(CQ18="П",1,0)+IF(CT18="П",1,0)+IF(H18="П",1,0)+IF(K18="П",1,0)+IF(N18="П",1,0)+IF(Q18="П",1,0)+IF(T18="П",1,0)+IF(W18="П",1,0)+IF(Z18="П",1,0)+IF(AC18="П",1,0)+IF(AF18="П",1,0)+IF(AI18="П",1,0)+IF(AL18="П",1,0)+IF(AO18="П",1,0)+IF(AR18="П",1,0)+IF(AU18="П",1,0)+IF(AX18="П",1,0)+IF(BA18="П",1,0)+IF(BD18="П",1,0)+IF(BG18="П",1,0)+IF(BJ18="П",1,0)+IF(BM18="П",1,0)+IF(BP18="П",1,0)+IF(BS18="П",1,0)+IF(BV18="П",1,0)+IF(BY18="П",1,0)+IF(CB18="П",1,0)+IF(CE18="П",1,0)+IF(CH18="П",1,0)+IF(CK18="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC18" s="79">
+      <c r="DC18" s="287">
         <f>IF(CN18="У",1,0)+IF(CQ18="У",1,0)+IF(CT18="У",1,0)+IF(H18="У",1,0)+IF(K18="У",1,0)+IF(N18="У",1,0)+IF(Q18="У",1,0)+IF(T18="У",1,0)+IF(W18="У",1,0)+IF(Z18="У",1,0)+IF(AC18="У",1,0)+IF(AF18="У",1,0)+IF(AI18="У",1,0)+IF(AL18="У",1,0)+IF(AO18="У",1,0)+IF(AR18="У",1,0)+IF(AU18="У",1,0)+IF(AX18="У",1,0)+IF(BA18="У",1,0)+IF(BD18="У",1,0)+IF(BG18="У",1,0)+IF(BJ18="У",1,0)+IF(BM18="У",1,0)+IF(BP18="У",1,0)+IF(BS18="У",1,0)+IF(BV18="У",1,0)+IF(BY18="У",1,0)+IF(CB18="У",1,0)+IF(CE18="У",1,0)+IF(CH18="У",1,0)+IF(CK18="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD18" s="79">
+      <c r="DD18" s="287">
         <f>IF(CN18="Г",1,0)+IF(CQ18="Г",1,0)+IF(CT18="Г",1,0)+IF(H18="Г",1,0)+IF(K18="Г",1,0)+IF(N18="Г",1,0)+IF(Q18="Г",1,0)+IF(T18="Г",1,0)+IF(W18="Г",1,0)+IF(Z18="Г",1,0)+IF(AC18="Г",1,0)+IF(AF18="Г",1,0)+IF(AI18="Г",1,0)+IF(AL18="Г",1,0)+IF(AO18="Г",1,0)+IF(AR18="Г",1,0)+IF(AU18="Г",1,0)+IF(AX18="Г",1,0)+IF(BA18="Г",1,0)+IF(BD18="Г",1,0)+IF(BG18="Г",1,0)+IF(BJ18="Г",1,0)+IF(BM18="Г",1,0)+IF(BP18="Г",1,0)+IF(BS18="Г",1,0)+IF(BV18="Г",1,0)+IF(BY18="Г",1,0)+IF(CB18="Г",1,0)+IF(CE18="Г",1,0)+IF(CH18="Г",1,0)+IF(CK18="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE18" s="79">
+      <c r="DE18" s="287">
         <f>IF(CQ18="ОЧ",1,0)+IF(CT18="ОЧ",1,0)+IF(H18="ОЧ",1,0)+IF(K18="ОЧ",1,0)+IF(N18="ОЧ",1,0)+IF(Q18="ОЧ",1,0)+IF(T18="ОЧ",1,0)+IF(W18="ОЧ",1,0)+IF(Z18="ОЧ",1,0)+IF(AC18="ОЧ",1,0)+IF(AF18="ОЧ",1,0)+IF(AI18="ОЧ",1,0)+IF(AL18="ОЧ",1,0)+IF(AO18="ОЧ",1,0)+IF(AR18="ОЧ",1,0)+IF(AU18="ОЧ",1,0)+IF(AX18="ОЧ",1,0)+IF(BA18="ОЧ",1,0)+IF(BD18="ОЧ",1,0)+IF(BG18="ОЧ",1,0)+IF(BJ18="ОЧ",1,0)+IF(BM18="ОЧ",1,0)+IF(BP18="ОЧ",1,0)+IF(BS18="ОЧ",1,0)+IF(BV18="ОЧ",1,0)+IF(BY18="ОЧ",1,0)+IF(CB18="ОЧ",1,0)+IF(CE18="ОЧ",1,0)+IF(CH18="ОЧ",1,0)+IF(CK18="ОЧ",1,0)+IF(CN18="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF18" s="79">
+      <c r="DF18" s="287">
         <f>IF(CQ18="Т",1,0)+IF(CT18="Т",1,0)+IF(K18="Т",1,0)+IF(H18="Т",1,0)+IF(N18="Т",1,0)+IF(Q18="Т",1,0)+IF(T18="Т",1,0)+IF(W18="Т",1,0)+IF(Z18="Т",1,0)+IF(AC18="Т",1,0)+IF(AF18="Т",1,0)+IF(AI18="Т",1,0)+IF(AL18="Т",1,0)+IF(AO18="Т",1,0)+IF(AR18="Т",1,0)+IF(AU18="Т",1,0)+IF(AX18="Т",1,0)+IF(BA18="Т",1,0)+IF(BD18="Т",1,0)+IF(BG18="Т",1,0)+IF(BJ18="Т",1,0)+IF(BM18="Т",1,0)+IF(BP18="Т",1,0)+IF(BS18="Т",1,0)+IF(BV18="Т",1,0)+IF(BY18="Т",1,0)+IF(CB18="Т",1,0)+IF(CE18="Т",1,0)+IF(CH18="Т",1,0)+IF(CK18="Т",1,0)+IF(CN18="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG18" s="79">
+      <c r="DG18" s="287">
         <f>IF(CT18="Пр",1,0)+IF(H18="Пр",1,0)+IF(K18="Пр",1,0)+IF(N18="Пр",1,0)+IF(Q18="Пр",1,0)+IF(T18="Пр",1,0)+IF(W18="Пр",1,0)+IF(Z18="Пр",1,0)+IF(AC18="Пр",1,0)+IF(AF18="Пр",1,0)+IF(AI18="Пр",1,0)+IF(AL18="Пр",1,0)+IF(AO18="Пр",1,0)+IF(AR18="Пр",1,0)+IF(AU18="Пр",1,0)+IF(AX18="Пр",1,0)+IF(BA18="Пр",1,0)+IF(BD18="Пр",1,0)+IF(BG18="Пр",1,0)+IF(BJ18="Пр",1,0)+IF(BM18="Пр",1,0)+IF(BP18="Пр",1,0)+IF(BS18="Пр",1,0)+IF(BV18="Пр",1,0)+IF(BY18="Пр",1,0)+IF(CB18="Пр",1,0)+IF(CE18="Пр",1,0)+IF(CH18="Пр",1,0)+IF(CK18="Пр",1,0)+IF(CN18="Пр",1,0)+IF(CQ18="Пр",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH18" s="80">
+      <c r="DH18" s="286">
         <f>IF(CQ18="В",1,0)+IF(CT18="В",1,0)+IF(H18="В",1,0)+IF(K18="В",1,0)+IF(N18="В",1,0)+IF(Q18="В",1,0)+IF(T18="В",1,0)+IF(W18="В",1,0)+IF(Z18="В",1,0)+IF(AC18="В",1,0)+IF(AF18="В",1,0)+IF(AI18="В",1,0)+IF(AL18="В",1,0)+IF(AO18="В",1,0)+IF(AR18="В",1,0)+IF(AU18="В",1,0)+IF(AX18="В",1,0)+IF(BA18="В",1,0)+IF(BD18="В",1,0)+IF(BG18="В",1,0)+IF(BJ18="В",1,0)+IF(BM18="В",1,0)+IF(BP18="В",1,0)+IF(BS18="В",1,0)+IF(BV18="В",1,0)+IF(BY18="В",1,0)+IF(CB18="В",1,0)+IF(CE18="В",1,0)+IF(CH18="В",1,0)+IF(CK18="В",1,0)+IF(CN18="В",1,0)</f>
         <v>10</v>
       </c>
@@ -15705,55 +15640,55 @@
       <c r="CS19" s="187"/>
       <c r="CT19" s="182"/>
       <c r="CU19" s="183"/>
-      <c r="CV19" s="168">
+      <c r="CV19" s="291">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="CW19" s="79">
+      <c r="CW19" s="287">
         <f>IF(CK19="К",1,0)+IF(CN19="К",1,0)+IF(CQ19="К",1,0)+IF(CT19="К",1,0)+IF(CH19="К",1,0)+IF(H19="К",1,0)+IF(K19="К",1,0)+IF(N19="К",1,0)+IF(Q19="К",1,0)+IF(T19="К",1,0)+IF(W19="К",1,0)+IF(Z19="К",1,0)+IF(AC19="К",1,0)+IF(AF19="К",1,0)+IF(AI19="К",1,0)+IF(AL19="К",1,0)+IF(AO19="К",1,0)+IF(AR19="К",1,0)+IF(AU19="К",1,0)+IF(AX19="К",1,0)+IF(BA19="К",1,0)+IF(BD19="К",1,0)+IF(BG19="К",1,0)+IF(BJ19="К",1,0)+IF(BM19="К",1,0)+IF(BP19="К",1,0)+IF(BS19="К",1,0)+IF(BV19="К",1,0)+IF(BY19="К",1,0)+IF(CB19="К",1,0)+IF(CE19="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX19" s="144">
+      <c r="CX19" s="286">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY19" s="79">
+      <c r="CY19" s="287">
         <f>IF(CN19="Р",1,0)+IF(CQ19="Р",1,0)+IF(CT19="Р",1,0)+IF(H19="Р",1,0)+IF(K19="Р",1,0)+IF(N19="Р",1,0)+IF(Q19="Р",1,0)+IF(T19="Р",1,0)+IF(W19="Р",1,0)+IF(Z19="Р",1,0)+IF(AC19="Р",1,0)+IF(AF19="Р",1,0)+IF(AI19="Р",1,0)+IF(AL19="Р",1,0)+IF(AO19="Р",1,0)+IF(AR19="Р",1,0)+IF(AU19="Р",1,0)+IF(AX19="Р",1,0)+IF(BA19="Р",1,0)+IF(BD19="Р",1,0)+IF(BG19="Р",1,0)+IF(BJ19="Р",1,0)+IF(BM19="Р",1,0)+IF(BP19="Р",1,0)+IF(BS19="Р",1,0)+IF(BV19="Р",1,0)+IF(BY19="Р",1,0)+IF(CB19="Р",1,0)+IF(CE19="Р",1,0)+IF(CH19="Р",1,0)+IF(CK19="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ19" s="79">
+      <c r="CZ19" s="287">
         <f>IF(CN19="Б",1,0)+IF(CQ19="Б",1,0)+IF(CT19="Б",1,0)+IF(H19="Б",1,0)+IF(K19="Б",1,0)+IF(N19="Б",1,0)+IF(Q19="Б",1,0)+IF(T19="Б",1,0)+IF(W19="Б",1,0)+IF(Z19="Б",1,0)+IF(AC19="Б",1,0)+IF(AF19="Б",1,0)+IF(AI19="Б",1,0)+IF(AL19="Б",1,0)+IF(AO19="Б",1,0)+IF(AR19="Б",1,0)+IF(AU19="Б",1,0)+IF(AX19="Б",1,0)+IF(BA19="Б",1,0)+IF(BD19="Б",1,0)+IF(BG19="Б",1,0)+IF(BJ19="Б",1,0)+IF(BM19="Б",1,0)+IF(BP19="Б",1,0)+IF(BS19="Б",1,0)+IF(BV19="Б",1,0)+IF(BY19="Б",1,0)+IF(CB19="Б",1,0)+IF(CE19="Б",1,0)+IF(CH19="Б",1,0)+IF(CK19="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA19" s="79">
+      <c r="DA19" s="287">
         <f>IF(CN19="А",1,0)+IF(CQ19="А",1,0)+IF(CT19="А",1,0)+IF(H19="А",1,0)+IF(K19="А",1,0)+IF(N19="А",1,0)+IF(Q19="А",1,0)+IF(T19="А",1,0)+IF(W19="А",1,0)+IF(Z19="А",1,0)+IF(AC19="А",1,0)+IF(AF19="А",1,0)+IF(AI19="А",1,0)+IF(AL19="А",1,0)+IF(AO19="А",1,0)+IF(AR19="А",1,0)+IF(AU19="А",1,0)+IF(AX19="А",1,0)+IF(BA19="А",1,0)+IF(BD19="А",1,0)+IF(BG19="А",1,0)+IF(BJ19="А",1,0)+IF(BM19="А",1,0)+IF(BP19="А",1,0)+IF(BS19="А",1,0)+IF(BV19="А",1,0)+IF(BY19="А",1,0)+IF(CB19="А",1,0)+IF(CE19="А",1,0)+IF(CH19="А",1,0)+IF(CK19="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB19" s="79">
+      <c r="DB19" s="287">
         <f>IF(CN19="П",1,0)+IF(CQ19="П",1,0)+IF(CT19="П",1,0)+IF(H19="П",1,0)+IF(K19="П",1,0)+IF(N19="П",1,0)+IF(Q19="П",1,0)+IF(T19="П",1,0)+IF(W19="П",1,0)+IF(Z19="П",1,0)+IF(AC19="П",1,0)+IF(AF19="П",1,0)+IF(AI19="П",1,0)+IF(AL19="П",1,0)+IF(AO19="П",1,0)+IF(AR19="П",1,0)+IF(AU19="П",1,0)+IF(AX19="П",1,0)+IF(BA19="П",1,0)+IF(BD19="П",1,0)+IF(BG19="П",1,0)+IF(BJ19="П",1,0)+IF(BM19="П",1,0)+IF(BP19="П",1,0)+IF(BS19="П",1,0)+IF(BV19="П",1,0)+IF(BY19="П",1,0)+IF(CB19="П",1,0)+IF(CE19="П",1,0)+IF(CH19="П",1,0)+IF(CK19="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC19" s="79">
+      <c r="DC19" s="287">
         <f>IF(CN19="У",1,0)+IF(CQ19="У",1,0)+IF(CT19="У",1,0)+IF(H19="У",1,0)+IF(K19="У",1,0)+IF(N19="У",1,0)+IF(Q19="У",1,0)+IF(T19="У",1,0)+IF(W19="У",1,0)+IF(Z19="У",1,0)+IF(AC19="У",1,0)+IF(AF19="У",1,0)+IF(AI19="У",1,0)+IF(AL19="У",1,0)+IF(AO19="У",1,0)+IF(AR19="У",1,0)+IF(AU19="У",1,0)+IF(AX19="У",1,0)+IF(BA19="У",1,0)+IF(BD19="У",1,0)+IF(BG19="У",1,0)+IF(BJ19="У",1,0)+IF(BM19="У",1,0)+IF(BP19="У",1,0)+IF(BS19="У",1,0)+IF(BV19="У",1,0)+IF(BY19="У",1,0)+IF(CB19="У",1,0)+IF(CE19="У",1,0)+IF(CH19="У",1,0)+IF(CK19="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD19" s="79">
+      <c r="DD19" s="287">
         <f>IF(CN19="Г",1,0)+IF(CQ19="Г",1,0)+IF(CT19="Г",1,0)+IF(H19="Г",1,0)+IF(K19="Г",1,0)+IF(N19="Г",1,0)+IF(Q19="Г",1,0)+IF(T19="Г",1,0)+IF(W19="Г",1,0)+IF(Z19="Г",1,0)+IF(AC19="Г",1,0)+IF(AF19="Г",1,0)+IF(AI19="Г",1,0)+IF(AL19="Г",1,0)+IF(AO19="Г",1,0)+IF(AR19="Г",1,0)+IF(AU19="Г",1,0)+IF(AX19="Г",1,0)+IF(BA19="Г",1,0)+IF(BD19="Г",1,0)+IF(BG19="Г",1,0)+IF(BJ19="Г",1,0)+IF(BM19="Г",1,0)+IF(BP19="Г",1,0)+IF(BS19="Г",1,0)+IF(BV19="Г",1,0)+IF(BY19="Г",1,0)+IF(CB19="Г",1,0)+IF(CE19="Г",1,0)+IF(CH19="Г",1,0)+IF(CK19="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE19" s="79">
+      <c r="DE19" s="287">
         <f>IF(CQ19="ОЧ",1,0)+IF(CT19="ОЧ",1,0)+IF(H19="ОЧ",1,0)+IF(K19="ОЧ",1,0)+IF(N19="ОЧ",1,0)+IF(Q19="ОЧ",1,0)+IF(T19="ОЧ",1,0)+IF(W19="ОЧ",1,0)+IF(Z19="ОЧ",1,0)+IF(AC19="ОЧ",1,0)+IF(AF19="ОЧ",1,0)+IF(AI19="ОЧ",1,0)+IF(AL19="ОЧ",1,0)+IF(AO19="ОЧ",1,0)+IF(AR19="ОЧ",1,0)+IF(AU19="ОЧ",1,0)+IF(AX19="ОЧ",1,0)+IF(BA19="ОЧ",1,0)+IF(BD19="ОЧ",1,0)+IF(BG19="ОЧ",1,0)+IF(BJ19="ОЧ",1,0)+IF(BM19="ОЧ",1,0)+IF(BP19="ОЧ",1,0)+IF(BS19="ОЧ",1,0)+IF(BV19="ОЧ",1,0)+IF(BY19="ОЧ",1,0)+IF(CB19="ОЧ",1,0)+IF(CE19="ОЧ",1,0)+IF(CH19="ОЧ",1,0)+IF(CK19="ОЧ",1,0)+IF(CN19="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF19" s="79">
+      <c r="DF19" s="287">
         <f>IF(CQ19="Т",1,0)+IF(CT19="Т",1,0)+IF(K19="Т",1,0)+IF(H19="Т",1,0)+IF(N19="Т",1,0)+IF(Q19="Т",1,0)+IF(T19="Т",1,0)+IF(W19="Т",1,0)+IF(Z19="Т",1,0)+IF(AC19="Т",1,0)+IF(AF19="Т",1,0)+IF(AI19="Т",1,0)+IF(AL19="Т",1,0)+IF(AO19="Т",1,0)+IF(AR19="Т",1,0)+IF(AU19="Т",1,0)+IF(AX19="Т",1,0)+IF(BA19="Т",1,0)+IF(BD19="Т",1,0)+IF(BG19="Т",1,0)+IF(BJ19="Т",1,0)+IF(BM19="Т",1,0)+IF(BP19="Т",1,0)+IF(BS19="Т",1,0)+IF(BV19="Т",1,0)+IF(BY19="Т",1,0)+IF(CB19="Т",1,0)+IF(CE19="Т",1,0)+IF(CH19="Т",1,0)+IF(CK19="Т",1,0)+IF(CN19="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG19" s="79">
+      <c r="DG19" s="287">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH19" s="80">
+      <c r="DH19" s="286">
         <f>IF(CQ19="В",1,0)+IF(CT19="В",1,0)+IF(H19="В",1,0)+IF(K19="В",1,0)+IF(N19="В",1,0)+IF(Q19="В",1,0)+IF(T19="В",1,0)+IF(W19="В",1,0)+IF(Z19="В",1,0)+IF(AC19="В",1,0)+IF(AF19="В",1,0)+IF(AI19="В",1,0)+IF(AL19="В",1,0)+IF(AO19="В",1,0)+IF(AR19="В",1,0)+IF(AU19="В",1,0)+IF(AX19="В",1,0)+IF(BA19="В",1,0)+IF(BD19="В",1,0)+IF(BG19="В",1,0)+IF(BJ19="В",1,0)+IF(BM19="В",1,0)+IF(BP19="В",1,0)+IF(BS19="В",1,0)+IF(BV19="В",1,0)+IF(BY19="В",1,0)+IF(CB19="В",1,0)+IF(CE19="В",1,0)+IF(CH19="В",1,0)+IF(CK19="В",1,0)+IF(CN19="В",1,0)</f>
         <v>10</v>
       </c>
@@ -16009,55 +15944,55 @@
       <c r="CS20" s="187"/>
       <c r="CT20" s="182"/>
       <c r="CU20" s="183"/>
-      <c r="CV20" s="168">
+      <c r="CV20" s="291">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="CW20" s="79">
+      <c r="CW20" s="287">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX20" s="144">
+      <c r="CX20" s="286">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY20" s="79">
+      <c r="CY20" s="287">
         <f>IF(CN20="Р",1,0)+IF(CQ20="Р",1,0)+IF(CT20="Р",1,0)+IF(H20="Р",1,0)+IF(K20="Р",1,0)+IF(N20="Р",1,0)+IF(Q20="Р",1,0)+IF(T20="Р",1,0)+IF(W20="Р",1,0)+IF(Z20="Р",1,0)+IF(AC20="Р",1,0)+IF(AF20="Р",1,0)+IF(AI20="Р",1,0)+IF(AL20="Р",1,0)+IF(AO20="Р",1,0)+IF(AR20="Р",1,0)+IF(AU20="Р",1,0)+IF(AX20="Р",1,0)+IF(BA20="Р",1,0)+IF(BD20="Р",1,0)+IF(BG20="Р",1,0)+IF(BJ20="Р",1,0)+IF(BM20="Р",1,0)+IF(BP20="Р",1,0)+IF(BS20="Р",1,0)+IF(BV20="Р",1,0)+IF(BY20="Р",1,0)+IF(CB20="Р",1,0)+IF(CE20="Р",1,0)+IF(CH20="Р",1,0)+IF(CK20="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ20" s="79">
+      <c r="CZ20" s="287">
         <f>IF(CN20="Б",1,0)+IF(CQ20="Б",1,0)+IF(CT20="Б",1,0)+IF(H20="Б",1,0)+IF(K20="Б",1,0)+IF(N20="Б",1,0)+IF(Q20="Б",1,0)+IF(T20="Б",1,0)+IF(W20="Б",1,0)+IF(Z20="Б",1,0)+IF(AC20="Б",1,0)+IF(AF20="Б",1,0)+IF(AI20="Б",1,0)+IF(AL20="Б",1,0)+IF(AO20="Б",1,0)+IF(AR20="Б",1,0)+IF(AU20="Б",1,0)+IF(AX20="Б",1,0)+IF(BA20="Б",1,0)+IF(BD20="Б",1,0)+IF(BG20="Б",1,0)+IF(BJ20="Б",1,0)+IF(BM20="Б",1,0)+IF(BP20="Б",1,0)+IF(BS20="Б",1,0)+IF(BV20="Б",1,0)+IF(BY20="Б",1,0)+IF(CB20="Б",1,0)+IF(CE20="Б",1,0)+IF(CH20="Б",1,0)+IF(CK20="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA20" s="79">
+      <c r="DA20" s="287">
         <f>IF(CN20="А",1,0)+IF(CQ20="А",1,0)+IF(CT20="А",1,0)+IF(H20="А",1,0)+IF(K20="А",1,0)+IF(N20="А",1,0)+IF(Q20="А",1,0)+IF(T20="А",1,0)+IF(W20="А",1,0)+IF(Z20="А",1,0)+IF(AC20="А",1,0)+IF(AF20="А",1,0)+IF(AI20="А",1,0)+IF(AL20="А",1,0)+IF(AO20="А",1,0)+IF(AR20="А",1,0)+IF(AU20="А",1,0)+IF(AX20="А",1,0)+IF(BA20="А",1,0)+IF(BD20="А",1,0)+IF(BG20="А",1,0)+IF(BJ20="А",1,0)+IF(BM20="А",1,0)+IF(BP20="А",1,0)+IF(BS20="А",1,0)+IF(BV20="А",1,0)+IF(BY20="А",1,0)+IF(CB20="А",1,0)+IF(CE20="А",1,0)+IF(CH20="А",1,0)+IF(CK20="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB20" s="79">
+      <c r="DB20" s="287">
         <f>IF(CN20="П",1,0)+IF(CQ20="П",1,0)+IF(CT20="П",1,0)+IF(H20="П",1,0)+IF(K20="П",1,0)+IF(N20="П",1,0)+IF(Q20="П",1,0)+IF(T20="П",1,0)+IF(W20="П",1,0)+IF(Z20="П",1,0)+IF(AC20="П",1,0)+IF(AF20="П",1,0)+IF(AI20="П",1,0)+IF(AL20="П",1,0)+IF(AO20="П",1,0)+IF(AR20="П",1,0)+IF(AU20="П",1,0)+IF(AX20="П",1,0)+IF(BA20="П",1,0)+IF(BD20="П",1,0)+IF(BG20="П",1,0)+IF(BJ20="П",1,0)+IF(BM20="П",1,0)+IF(BP20="П",1,0)+IF(BS20="П",1,0)+IF(BV20="П",1,0)+IF(BY20="П",1,0)+IF(CB20="П",1,0)+IF(CE20="П",1,0)+IF(CH20="П",1,0)+IF(CK20="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC20" s="79">
+      <c r="DC20" s="287">
         <f>IF(CN20="У",1,0)+IF(CQ20="У",1,0)+IF(CT20="У",1,0)+IF(H20="У",1,0)+IF(K20="У",1,0)+IF(N20="У",1,0)+IF(Q20="У",1,0)+IF(T20="У",1,0)+IF(W20="У",1,0)+IF(Z20="У",1,0)+IF(AC20="У",1,0)+IF(AF20="У",1,0)+IF(AI20="У",1,0)+IF(AL20="У",1,0)+IF(AO20="У",1,0)+IF(AR20="У",1,0)+IF(AU20="У",1,0)+IF(AX20="У",1,0)+IF(BA20="У",1,0)+IF(BD20="У",1,0)+IF(BG20="У",1,0)+IF(BJ20="У",1,0)+IF(BM20="У",1,0)+IF(BP20="У",1,0)+IF(BS20="У",1,0)+IF(BV20="У",1,0)+IF(BY20="У",1,0)+IF(CB20="У",1,0)+IF(CE20="У",1,0)+IF(CH20="У",1,0)+IF(CK20="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD20" s="79">
+      <c r="DD20" s="287">
         <f>IF(CN20="Г",1,0)+IF(CQ20="Г",1,0)+IF(CT20="Г",1,0)+IF(H20="Г",1,0)+IF(K20="Г",1,0)+IF(N20="Г",1,0)+IF(Q20="Г",1,0)+IF(T20="Г",1,0)+IF(W20="Г",1,0)+IF(Z20="Г",1,0)+IF(AC20="Г",1,0)+IF(AF20="Г",1,0)+IF(AI20="Г",1,0)+IF(AL20="Г",1,0)+IF(AO20="Г",1,0)+IF(AR20="Г",1,0)+IF(AU20="Г",1,0)+IF(AX20="Г",1,0)+IF(BA20="Г",1,0)+IF(BD20="Г",1,0)+IF(BG20="Г",1,0)+IF(BJ20="Г",1,0)+IF(BM20="Г",1,0)+IF(BP20="Г",1,0)+IF(BS20="Г",1,0)+IF(BV20="Г",1,0)+IF(BY20="Г",1,0)+IF(CB20="Г",1,0)+IF(CE20="Г",1,0)+IF(CH20="Г",1,0)+IF(CK20="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE20" s="79">
+      <c r="DE20" s="287">
         <f>IF(CQ20="ОЧ",1,0)+IF(CT20="ОЧ",1,0)+IF(H20="ОЧ",1,0)+IF(K20="ОЧ",1,0)+IF(N20="ОЧ",1,0)+IF(Q20="ОЧ",1,0)+IF(T20="ОЧ",1,0)+IF(W20="ОЧ",1,0)+IF(Z20="ОЧ",1,0)+IF(AC20="ОЧ",1,0)+IF(AF20="ОЧ",1,0)+IF(AI20="ОЧ",1,0)+IF(AL20="ОЧ",1,0)+IF(AO20="ОЧ",1,0)+IF(AR20="ОЧ",1,0)+IF(AU20="ОЧ",1,0)+IF(AX20="ОЧ",1,0)+IF(BA20="ОЧ",1,0)+IF(BD20="ОЧ",1,0)+IF(BG20="ОЧ",1,0)+IF(BJ20="ОЧ",1,0)+IF(BM20="ОЧ",1,0)+IF(BP20="ОЧ",1,0)+IF(BS20="ОЧ",1,0)+IF(BV20="ОЧ",1,0)+IF(BY20="ОЧ",1,0)+IF(CB20="ОЧ",1,0)+IF(CE20="ОЧ",1,0)+IF(CH20="ОЧ",1,0)+IF(CK20="ОЧ",1,0)+IF(CN20="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF20" s="79">
+      <c r="DF20" s="287">
         <f>IF(CQ20="Т",1,0)+IF(CT20="Т",1,0)+IF(K20="Т",1,0)+IF(H20="Т",1,0)+IF(N20="Т",1,0)+IF(Q20="Т",1,0)+IF(T20="Т",1,0)+IF(W20="Т",1,0)+IF(Z20="Т",1,0)+IF(AC20="Т",1,0)+IF(AF20="Т",1,0)+IF(AI20="Т",1,0)+IF(AL20="Т",1,0)+IF(AO20="Т",1,0)+IF(AR20="Т",1,0)+IF(AU20="Т",1,0)+IF(AX20="Т",1,0)+IF(BA20="Т",1,0)+IF(BD20="Т",1,0)+IF(BG20="Т",1,0)+IF(BJ20="Т",1,0)+IF(BM20="Т",1,0)+IF(BP20="Т",1,0)+IF(BS20="Т",1,0)+IF(BV20="Т",1,0)+IF(BY20="Т",1,0)+IF(CB20="Т",1,0)+IF(CE20="Т",1,0)+IF(CH20="Т",1,0)+IF(CK20="Т",1,0)+IF(CN20="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG20" s="79">
+      <c r="DG20" s="287">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH20" s="80">
+      <c r="DH20" s="286">
         <f>IF(CQ20="В",1,0)+IF(CT20="В",1,0)+IF(H20="В",1,0)+IF(K20="В",1,0)+IF(N20="В",1,0)+IF(Q20="В",1,0)+IF(T20="В",1,0)+IF(W20="В",1,0)+IF(Z20="В",1,0)+IF(AC20="В",1,0)+IF(AF20="В",1,0)+IF(AI20="В",1,0)+IF(AL20="В",1,0)+IF(AO20="В",1,0)+IF(AR20="В",1,0)+IF(AU20="В",1,0)+IF(AX20="В",1,0)+IF(BA20="В",1,0)+IF(BD20="В",1,0)+IF(BG20="В",1,0)+IF(BJ20="В",1,0)+IF(BM20="В",1,0)+IF(BP20="В",1,0)+IF(BS20="В",1,0)+IF(BV20="В",1,0)+IF(BY20="В",1,0)+IF(CB20="В",1,0)+IF(CE20="В",1,0)+IF(CH20="В",1,0)+IF(CK20="В",1,0)+IF(CN20="В",1,0)</f>
         <v>16</v>
       </c>
@@ -16313,55 +16248,55 @@
       <c r="CS21" s="187"/>
       <c r="CT21" s="182"/>
       <c r="CU21" s="183"/>
-      <c r="CV21" s="168">
+      <c r="CV21" s="291">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="CW21" s="79">
+      <c r="CW21" s="287">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX21" s="79">
+      <c r="CX21" s="287">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY21" s="79">
+      <c r="CY21" s="287">
         <f>IF(CN21="Р",1,0)+IF(CQ21="Р",1,0)+IF(CT21="Р",1,0)+IF(H21="Р",1,0)+IF(K21="Р",1,0)+IF(N21="Р",1,0)+IF(Q21="Р",1,0)+IF(T21="Р",1,0)+IF(W21="Р",1,0)+IF(Z21="Р",1,0)+IF(AC21="Р",1,0)+IF(AF21="Р",1,0)+IF(AI21="Р",1,0)+IF(AL21="Р",1,0)+IF(AO21="Р",1,0)+IF(AR21="Р",1,0)+IF(AU21="Р",1,0)+IF(AX21="Р",1,0)+IF(BA21="Р",1,0)+IF(BD21="Р",1,0)+IF(BG21="Р",1,0)+IF(BJ21="Р",1,0)+IF(BM21="Р",1,0)+IF(BP21="Р",1,0)+IF(BS21="Р",1,0)+IF(BV21="Р",1,0)+IF(BY21="Р",1,0)+IF(CB21="Р",1,0)+IF(CE21="Р",1,0)+IF(CH21="Р",1,0)+IF(CK21="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ21" s="79">
+      <c r="CZ21" s="287">
         <f>IF(CN21="Б",1,0)+IF(CQ21="Б",1,0)+IF(CT21="Б",1,0)+IF(H21="Б",1,0)+IF(K21="Б",1,0)+IF(N21="Б",1,0)+IF(Q21="Б",1,0)+IF(T21="Б",1,0)+IF(W21="Б",1,0)+IF(Z21="Б",1,0)+IF(AC21="Б",1,0)+IF(AF21="Б",1,0)+IF(AI21="Б",1,0)+IF(AL21="Б",1,0)+IF(AO21="Б",1,0)+IF(AR21="Б",1,0)+IF(AU21="Б",1,0)+IF(AX21="Б",1,0)+IF(BA21="Б",1,0)+IF(BD21="Б",1,0)+IF(BG21="Б",1,0)+IF(BJ21="Б",1,0)+IF(BM21="Б",1,0)+IF(BP21="Б",1,0)+IF(BS21="Б",1,0)+IF(BV21="Б",1,0)+IF(BY21="Б",1,0)+IF(CB21="Б",1,0)+IF(CE21="Б",1,0)+IF(CH21="Б",1,0)+IF(CK21="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA21" s="79">
+      <c r="DA21" s="287">
         <f>IF(CN21="А",1,0)+IF(CQ21="А",1,0)+IF(CT21="А",1,0)+IF(H21="А",1,0)+IF(K21="А",1,0)+IF(N21="А",1,0)+IF(Q21="А",1,0)+IF(T21="А",1,0)+IF(W21="А",1,0)+IF(Z21="А",1,0)+IF(AC21="А",1,0)+IF(AF21="А",1,0)+IF(AI21="А",1,0)+IF(AL21="А",1,0)+IF(AO21="А",1,0)+IF(AR21="А",1,0)+IF(AU21="А",1,0)+IF(AX21="А",1,0)+IF(BA21="А",1,0)+IF(BD21="А",1,0)+IF(BG21="А",1,0)+IF(BJ21="А",1,0)+IF(BM21="А",1,0)+IF(BP21="А",1,0)+IF(BS21="А",1,0)+IF(BV21="А",1,0)+IF(BY21="А",1,0)+IF(CB21="А",1,0)+IF(CE21="А",1,0)+IF(CH21="А",1,0)+IF(CK21="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB21" s="79">
+      <c r="DB21" s="287">
         <f>IF(CN21="П",1,0)+IF(CQ21="П",1,0)+IF(CT21="П",1,0)+IF(H21="П",1,0)+IF(K21="П",1,0)+IF(N21="П",1,0)+IF(Q21="П",1,0)+IF(T21="П",1,0)+IF(W21="П",1,0)+IF(Z21="П",1,0)+IF(AC21="П",1,0)+IF(AF21="П",1,0)+IF(AI21="П",1,0)+IF(AL21="П",1,0)+IF(AO21="П",1,0)+IF(AR21="П",1,0)+IF(AU21="П",1,0)+IF(AX21="П",1,0)+IF(BA21="П",1,0)+IF(BD21="П",1,0)+IF(BG21="П",1,0)+IF(BJ21="П",1,0)+IF(BM21="П",1,0)+IF(BP21="П",1,0)+IF(BS21="П",1,0)+IF(BV21="П",1,0)+IF(BY21="П",1,0)+IF(CB21="П",1,0)+IF(CE21="П",1,0)+IF(CH21="П",1,0)+IF(CK21="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC21" s="79">
+      <c r="DC21" s="287">
         <f>IF(CN21="У",1,0)+IF(CQ21="У",1,0)+IF(CT21="У",1,0)+IF(H21="У",1,0)+IF(K21="У",1,0)+IF(N21="У",1,0)+IF(Q21="У",1,0)+IF(T21="У",1,0)+IF(W21="У",1,0)+IF(Z21="У",1,0)+IF(AC21="У",1,0)+IF(AF21="У",1,0)+IF(AI21="У",1,0)+IF(AL21="У",1,0)+IF(AO21="У",1,0)+IF(AR21="У",1,0)+IF(AU21="У",1,0)+IF(AX21="У",1,0)+IF(BA21="У",1,0)+IF(BD21="У",1,0)+IF(BG21="У",1,0)+IF(BJ21="У",1,0)+IF(BM21="У",1,0)+IF(BP21="У",1,0)+IF(BS21="У",1,0)+IF(BV21="У",1,0)+IF(BY21="У",1,0)+IF(CB21="У",1,0)+IF(CE21="У",1,0)+IF(CH21="У",1,0)+IF(CK21="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD21" s="79">
+      <c r="DD21" s="287">
         <f>IF(CN21="Г",1,0)+IF(CQ21="Г",1,0)+IF(CT21="Г",1,0)+IF(H21="Г",1,0)+IF(K21="Г",1,0)+IF(N21="Г",1,0)+IF(Q21="Г",1,0)+IF(T21="Г",1,0)+IF(W21="Г",1,0)+IF(Z21="Г",1,0)+IF(AC21="Г",1,0)+IF(AF21="Г",1,0)+IF(AI21="Г",1,0)+IF(AL21="Г",1,0)+IF(AO21="Г",1,0)+IF(AR21="Г",1,0)+IF(AU21="Г",1,0)+IF(AX21="Г",1,0)+IF(BA21="Г",1,0)+IF(BD21="Г",1,0)+IF(BG21="Г",1,0)+IF(BJ21="Г",1,0)+IF(BM21="Г",1,0)+IF(BP21="Г",1,0)+IF(BS21="Г",1,0)+IF(BV21="Г",1,0)+IF(BY21="Г",1,0)+IF(CB21="Г",1,0)+IF(CE21="Г",1,0)+IF(CH21="Г",1,0)+IF(CK21="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE21" s="79">
+      <c r="DE21" s="287">
         <f>IF(CQ21="ОЧ",1,0)+IF(CT21="ОЧ",1,0)+IF(H21="ОЧ",1,0)+IF(K21="ОЧ",1,0)+IF(N21="ОЧ",1,0)+IF(Q21="ОЧ",1,0)+IF(T21="ОЧ",1,0)+IF(W21="ОЧ",1,0)+IF(Z21="ОЧ",1,0)+IF(AC21="ОЧ",1,0)+IF(AF21="ОЧ",1,0)+IF(AI21="ОЧ",1,0)+IF(AL21="ОЧ",1,0)+IF(AO21="ОЧ",1,0)+IF(AR21="ОЧ",1,0)+IF(AU21="ОЧ",1,0)+IF(AX21="ОЧ",1,0)+IF(BA21="ОЧ",1,0)+IF(BD21="ОЧ",1,0)+IF(BG21="ОЧ",1,0)+IF(BJ21="ОЧ",1,0)+IF(BM21="ОЧ",1,0)+IF(BP21="ОЧ",1,0)+IF(BS21="ОЧ",1,0)+IF(BV21="ОЧ",1,0)+IF(BY21="ОЧ",1,0)+IF(CB21="ОЧ",1,0)+IF(CE21="ОЧ",1,0)+IF(CH21="ОЧ",1,0)+IF(CK21="ОЧ",1,0)+IF(CN21="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF21" s="79">
+      <c r="DF21" s="287">
         <f>IF(CQ21="Т",1,0)+IF(CT21="Т",1,0)+IF(K21="Т",1,0)+IF(H21="Т",1,0)+IF(N21="Т",1,0)+IF(Q21="Т",1,0)+IF(T21="Т",1,0)+IF(W21="Т",1,0)+IF(Z21="Т",1,0)+IF(AC21="Т",1,0)+IF(AF21="Т",1,0)+IF(AI21="Т",1,0)+IF(AL21="Т",1,0)+IF(AO21="Т",1,0)+IF(AR21="Т",1,0)+IF(AU21="Т",1,0)+IF(AX21="Т",1,0)+IF(BA21="Т",1,0)+IF(BD21="Т",1,0)+IF(BG21="Т",1,0)+IF(BJ21="Т",1,0)+IF(BM21="Т",1,0)+IF(BP21="Т",1,0)+IF(BS21="Т",1,0)+IF(BV21="Т",1,0)+IF(BY21="Т",1,0)+IF(CB21="Т",1,0)+IF(CE21="Т",1,0)+IF(CH21="Т",1,0)+IF(CK21="Т",1,0)+IF(CN21="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG21" s="79">
+      <c r="DG21" s="287">
         <f>IF(CT21="Пр",1,0)+IF(H21="Пр",1,0)+IF(K21="Пр",1,0)+IF(N21="Пр",1,0)+IF(Q21="Пр",1,0)+IF(T21="Пр",1,0)+IF(W21="Пр",1,0)+IF(Z21="Пр",1,0)+IF(AC21="Пр",1,0)+IF(AF21="Пр",1,0)+IF(AI21="Пр",1,0)+IF(AL21="Пр",1,0)+IF(AO21="Пр",1,0)+IF(AR21="Пр",1,0)+IF(AU21="Пр",1,0)+IF(AX21="Пр",1,0)+IF(BA21="Пр",1,0)+IF(BD21="Пр",1,0)+IF(BG21="Пр",1,0)+IF(BJ21="Пр",1,0)+IF(BM21="Пр",1,0)+IF(BP21="Пр",1,0)+IF(BS21="Пр",1,0)+IF(BV21="Пр",1,0)+IF(BY21="Пр",1,0)+IF(CB21="Пр",1,0)+IF(CE21="Пр",1,0)+IF(CH21="Пр",1,0)+IF(CK21="Пр",1,0)+IF(CN21="Пр",1,0)+IF(CQ21="Пр",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH21" s="80">
+      <c r="DH21" s="286">
         <f>IF(CQ21="В",1,0)+IF(CT21="В",1,0)+IF(H21="В",1,0)+IF(K21="В",1,0)+IF(N21="В",1,0)+IF(Q21="В",1,0)+IF(T21="В",1,0)+IF(W21="В",1,0)+IF(Z21="В",1,0)+IF(AC21="В",1,0)+IF(AF21="В",1,0)+IF(AI21="В",1,0)+IF(AL21="В",1,0)+IF(AO21="В",1,0)+IF(AR21="В",1,0)+IF(AU21="В",1,0)+IF(AX21="В",1,0)+IF(BA21="В",1,0)+IF(BD21="В",1,0)+IF(BG21="В",1,0)+IF(BJ21="В",1,0)+IF(BM21="В",1,0)+IF(BP21="В",1,0)+IF(BS21="В",1,0)+IF(BV21="В",1,0)+IF(BY21="В",1,0)+IF(CB21="В",1,0)+IF(CE21="В",1,0)+IF(CH21="В",1,0)+IF(CK21="В",1,0)+IF(CN21="В",1,0)</f>
         <v>9</v>
       </c>
@@ -16565,8 +16500,8 @@
       </c>
       <c r="BN22" s="183"/>
       <c r="BO22" s="187"/>
-      <c r="BP22" s="182" t="s">
-        <v>79</v>
+      <c r="BP22" s="182">
+        <v>11.25</v>
       </c>
       <c r="BQ22" s="183"/>
       <c r="BR22" s="187"/>
@@ -16617,57 +16552,57 @@
       <c r="CS22" s="187"/>
       <c r="CT22" s="182"/>
       <c r="CU22" s="183"/>
-      <c r="CV22" s="168">
+      <c r="CV22" s="291">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="CW22" s="79">
+        <v>15</v>
+      </c>
+      <c r="CW22" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX22" s="144">
+      <c r="CX22" s="286">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY22" s="79">
+      <c r="CY22" s="287">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ22" s="79">
+      <c r="CZ22" s="287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA22" s="79">
+      <c r="DA22" s="287">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB22" s="79">
+      <c r="DB22" s="287">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC22" s="79">
+      <c r="DC22" s="287">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD22" s="79">
+      <c r="DD22" s="287">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE22" s="79">
+      <c r="DE22" s="287">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF22" s="79">
+      <c r="DF22" s="287">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG22" s="79">
+      <c r="DG22" s="287">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH22" s="80">
+      <c r="DH22" s="286">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DI22" s="80">
         <f t="shared" si="13"/>
@@ -16675,7 +16610,7 @@
       </c>
       <c r="DJ22" s="70">
         <f t="shared" si="24"/>
-        <v>157.5</v>
+        <v>168.75</v>
       </c>
       <c r="DK22" s="69">
         <v>0</v>
@@ -16735,7 +16670,7 @@
       </c>
       <c r="EB22" s="32">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="EC22" s="32">
         <f t="shared" si="23"/>
@@ -16921,55 +16856,55 @@
       <c r="CS23" s="187"/>
       <c r="CT23" s="182"/>
       <c r="CU23" s="183"/>
-      <c r="CV23" s="168">
+      <c r="CV23" s="291">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="CW23" s="79">
+      <c r="CW23" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX23" s="144">
+      <c r="CX23" s="286">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY23" s="79">
+      <c r="CY23" s="287">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ23" s="79">
+      <c r="CZ23" s="287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA23" s="79">
+      <c r="DA23" s="287">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB23" s="79">
+      <c r="DB23" s="287">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC23" s="79">
+      <c r="DC23" s="287">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD23" s="79">
+      <c r="DD23" s="287">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE23" s="80">
+      <c r="DE23" s="286">
         <f>IF(CQ23="ОЧ",1,0)+IF(CT23="ОЧ",1,0)+IF(H23="ОЧ",1,0)+IF(K23="ОЧ",1,0)+IF(N23="ОЧ",1,0)+IF(Q23="ОЧ",1,0)+IF(T23="ОЧ",1,0)+IF(W23="ОЧ",1,0)+IF(Z23="ОЧ",1,0)+IF(AC23="ОЧ",1,0)+IF(AF23="ОЧ",1,0)+IF(AI23="ОЧ",1,0)+IF(AL23="ОЧ",1,0)+IF(AO23="ОЧ",1,0)+IF(AR23="ОЧ",1,0)+IF(AU23="ОЧ",1,0)+IF(AX23="ОЧ",1,0)+IF(BA23="ОЧ",1,0)+IF(BD23="ОЧ",1,0)+IF(BG23="ОЧ",1,0)+IF(BJ23="ОЧ",1,0)+IF(BM23="ОЧ",1,0)+IF(BP23="ОЧ",1,0)+IF(BS23="ОЧ",1,0)+IF(BV23="ОЧ",1,0)+IF(BY23="ОЧ",1,0)+IF(CB23="ОЧ",1,0)+IF(CE23="ОЧ",1,0)+IF(CH23="ОЧ",1,0)+IF(CK23="ОЧ",1,0)+IF(CN23="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF23" s="80">
+      <c r="DF23" s="286">
         <f>IF(CQ23="Т",1,0)+IF(CT23="Т",1,0)+IF(K23="Т",1,0)+IF(H23="Т",1,0)+IF(N23="Т",1,0)+IF(Q23="Т",1,0)+IF(T23="Т",1,0)+IF(W23="Т",1,0)+IF(Z23="Т",1,0)+IF(AC23="Т",1,0)+IF(AF23="Т",1,0)+IF(AI23="Т",1,0)+IF(AL23="Т",1,0)+IF(AO23="Т",1,0)+IF(AR23="Т",1,0)+IF(AU23="Т",1,0)+IF(AX23="Т",1,0)+IF(BA23="Т",1,0)+IF(BD23="Т",1,0)+IF(BG23="Т",1,0)+IF(BJ23="Т",1,0)+IF(BM23="Т",1,0)+IF(BP23="Т",1,0)+IF(BS23="Т",1,0)+IF(BV23="Т",1,0)+IF(BY23="Т",1,0)+IF(CB23="Т",1,0)+IF(CE23="Т",1,0)+IF(CH23="Т",1,0)+IF(CK23="Т",1,0)+IF(CN23="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG23" s="80">
+      <c r="DG23" s="286">
         <f>IF(CT23="Пр",1,0)+IF(H23="Пр",1,0)+IF(K23="Пр",1,0)+IF(N23="Пр",1,0)+IF(Q23="Пр",1,0)+IF(T23="Пр",1,0)+IF(W23="Пр",1,0)+IF(Z23="Пр",1,0)+IF(AC23="Пр",1,0)+IF(AF23="Пр",1,0)+IF(AI23="Пр",1,0)+IF(AL23="Пр",1,0)+IF(AO23="Пр",1,0)+IF(AR23="Пр",1,0)+IF(AU23="Пр",1,0)+IF(AX23="Пр",1,0)+IF(BA23="Пр",1,0)+IF(BD23="Пр",1,0)+IF(BG23="Пр",1,0)+IF(BJ23="Пр",1,0)+IF(BM23="Пр",1,0)+IF(BP23="Пр",1,0)+IF(BS23="Пр",1,0)+IF(BV23="Пр",1,0)+IF(BY23="Пр",1,0)+IF(CB23="Пр",1,0)+IF(CE23="Пр",1,0)+IF(CH23="Пр",1,0)+IF(CK23="Пр",1,0)+IF(CN23="Пр",1,0)+IF(CQ23="Пр",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH23" s="80">
+      <c r="DH23" s="286">
         <f>IF(CQ23="В",1,0)+IF(CT23="В",1,0)+IF(H23="В",1,0)+IF(K23="В",1,0)+IF(N23="В",1,0)+IF(Q23="В",1,0)+IF(T23="В",1,0)+IF(W23="В",1,0)+IF(Z23="В",1,0)+IF(AC23="В",1,0)+IF(AF23="В",1,0)+IF(AI23="В",1,0)+IF(AL23="В",1,0)+IF(AO23="В",1,0)+IF(AR23="В",1,0)+IF(AU23="В",1,0)+IF(AX23="В",1,0)+IF(BA23="В",1,0)+IF(BD23="В",1,0)+IF(BG23="В",1,0)+IF(BJ23="В",1,0)+IF(BM23="В",1,0)+IF(BP23="В",1,0)+IF(BS23="В",1,0)+IF(BV23="В",1,0)+IF(BY23="В",1,0)+IF(CB23="В",1,0)+IF(CE23="В",1,0)+IF(CH23="В",1,0)+IF(CK23="В",1,0)+IF(CN23="В",1,0)</f>
         <v>15</v>
       </c>
@@ -17156,7 +17091,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -17204,7 +17139,7 @@
       </c>
       <c r="DH24" s="81">
         <f t="shared" si="28"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
@@ -17212,7 +17147,7 @@
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>2134.25</v>
+        <v>2145.5</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -17687,45 +17622,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="272"/>
-      <c r="I31" s="272"/>
-      <c r="J31" s="272"/>
-      <c r="K31" s="272"/>
-      <c r="L31" s="272"/>
-      <c r="M31" s="272"/>
-      <c r="N31" s="272"/>
-      <c r="O31" s="272"/>
-      <c r="P31" s="272"/>
-      <c r="Q31" s="272"/>
-      <c r="R31" s="272"/>
-      <c r="S31" s="272"/>
-      <c r="T31" s="272"/>
-      <c r="U31" s="272"/>
-      <c r="V31" s="272"/>
-      <c r="W31" s="272"/>
-      <c r="X31" s="272"/>
-      <c r="Y31" s="272"/>
-      <c r="Z31" s="272"/>
-      <c r="AA31" s="272"/>
-      <c r="AB31" s="272"/>
-      <c r="AC31" s="272"/>
-      <c r="AD31" s="272"/>
-      <c r="AE31" s="272"/>
-      <c r="AF31" s="272"/>
-      <c r="AG31" s="272"/>
-      <c r="AH31" s="272"/>
-      <c r="AI31" s="272"/>
-      <c r="AJ31" s="272"/>
-      <c r="AK31" s="272"/>
-      <c r="AL31" s="272"/>
-      <c r="AM31" s="272"/>
-      <c r="AN31" s="272"/>
-      <c r="AO31" s="272"/>
-      <c r="AP31" s="272"/>
-      <c r="AQ31" s="272"/>
-      <c r="AR31" s="272"/>
-      <c r="AS31" s="272"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="220"/>
+      <c r="N31" s="220"/>
+      <c r="O31" s="220"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="220"/>
+      <c r="S31" s="220"/>
+      <c r="T31" s="220"/>
+      <c r="U31" s="220"/>
+      <c r="V31" s="220"/>
+      <c r="W31" s="220"/>
+      <c r="X31" s="220"/>
+      <c r="Y31" s="220"/>
+      <c r="Z31" s="220"/>
+      <c r="AA31" s="220"/>
+      <c r="AB31" s="220"/>
+      <c r="AC31" s="220"/>
+      <c r="AD31" s="220"/>
+      <c r="AE31" s="220"/>
+      <c r="AF31" s="220"/>
+      <c r="AG31" s="220"/>
+      <c r="AH31" s="220"/>
+      <c r="AI31" s="220"/>
+      <c r="AJ31" s="220"/>
+      <c r="AK31" s="220"/>
+      <c r="AL31" s="220"/>
+      <c r="AM31" s="220"/>
+      <c r="AN31" s="220"/>
+      <c r="AO31" s="220"/>
+      <c r="AP31" s="220"/>
+      <c r="AQ31" s="220"/>
+      <c r="AR31" s="220"/>
+      <c r="AS31" s="220"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -18030,45 +17965,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="272"/>
-      <c r="H35" s="272"/>
-      <c r="I35" s="272"/>
-      <c r="J35" s="272"/>
-      <c r="K35" s="272"/>
-      <c r="L35" s="272"/>
-      <c r="M35" s="272"/>
-      <c r="N35" s="272"/>
-      <c r="O35" s="272"/>
-      <c r="P35" s="272"/>
-      <c r="Q35" s="272"/>
-      <c r="R35" s="272"/>
-      <c r="S35" s="272"/>
-      <c r="T35" s="272"/>
-      <c r="U35" s="272"/>
-      <c r="V35" s="272"/>
-      <c r="W35" s="272"/>
-      <c r="X35" s="272"/>
-      <c r="Y35" s="272"/>
-      <c r="Z35" s="272"/>
-      <c r="AA35" s="272"/>
-      <c r="AB35" s="272"/>
-      <c r="AC35" s="272"/>
-      <c r="AD35" s="272"/>
-      <c r="AE35" s="272"/>
-      <c r="AF35" s="272"/>
-      <c r="AG35" s="272"/>
-      <c r="AH35" s="272"/>
-      <c r="AI35" s="272"/>
-      <c r="AJ35" s="272"/>
-      <c r="AK35" s="272"/>
-      <c r="AL35" s="272"/>
-      <c r="AM35" s="272"/>
-      <c r="AN35" s="272"/>
-      <c r="AO35" s="272"/>
-      <c r="AP35" s="272"/>
-      <c r="AQ35" s="272"/>
-      <c r="AR35" s="272"/>
-      <c r="AS35" s="272"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
+      <c r="K35" s="220"/>
+      <c r="L35" s="220"/>
+      <c r="M35" s="220"/>
+      <c r="N35" s="220"/>
+      <c r="O35" s="220"/>
+      <c r="P35" s="220"/>
+      <c r="Q35" s="220"/>
+      <c r="R35" s="220"/>
+      <c r="S35" s="220"/>
+      <c r="T35" s="220"/>
+      <c r="U35" s="220"/>
+      <c r="V35" s="220"/>
+      <c r="W35" s="220"/>
+      <c r="X35" s="220"/>
+      <c r="Y35" s="220"/>
+      <c r="Z35" s="220"/>
+      <c r="AA35" s="220"/>
+      <c r="AB35" s="220"/>
+      <c r="AC35" s="220"/>
+      <c r="AD35" s="220"/>
+      <c r="AE35" s="220"/>
+      <c r="AF35" s="220"/>
+      <c r="AG35" s="220"/>
+      <c r="AH35" s="220"/>
+      <c r="AI35" s="220"/>
+      <c r="AJ35" s="220"/>
+      <c r="AK35" s="220"/>
+      <c r="AL35" s="220"/>
+      <c r="AM35" s="220"/>
+      <c r="AN35" s="220"/>
+      <c r="AO35" s="220"/>
+      <c r="AP35" s="220"/>
+      <c r="AQ35" s="220"/>
+      <c r="AR35" s="220"/>
+      <c r="AS35" s="220"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -20226,29 +20161,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -20265,23 +20188,35 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20478,21 +20413,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="227" t="s">
+      <c r="CU1" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="227"/>
-      <c r="CW1" s="227"/>
-      <c r="CX1" s="227"/>
-      <c r="CY1" s="227"/>
-      <c r="CZ1" s="227"/>
-      <c r="DA1" s="227"/>
-      <c r="DB1" s="227"/>
-      <c r="DC1" s="227"/>
-      <c r="DD1" s="227"/>
-      <c r="DE1" s="227"/>
-      <c r="DF1" s="227"/>
-      <c r="DG1" s="227"/>
+      <c r="CV1" s="251"/>
+      <c r="CW1" s="251"/>
+      <c r="CX1" s="251"/>
+      <c r="CY1" s="251"/>
+      <c r="CZ1" s="251"/>
+      <c r="DA1" s="251"/>
+      <c r="DB1" s="251"/>
+      <c r="DC1" s="251"/>
+      <c r="DD1" s="251"/>
+      <c r="DE1" s="251"/>
+      <c r="DF1" s="251"/>
+      <c r="DG1" s="251"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -20593,241 +20528,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="228" t="s">
+      <c r="CU2" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="228"/>
-      <c r="CW2" s="228"/>
-      <c r="CX2" s="228"/>
-      <c r="CY2" s="228"/>
-      <c r="CZ2" s="228"/>
-      <c r="DA2" s="228"/>
-      <c r="DB2" s="228"/>
-      <c r="DC2" s="228"/>
-      <c r="DD2" s="228"/>
-      <c r="DE2" s="228"/>
-      <c r="DF2" s="228"/>
-      <c r="DG2" s="228"/>
+      <c r="CV2" s="252"/>
+      <c r="CW2" s="252"/>
+      <c r="CX2" s="252"/>
+      <c r="CY2" s="252"/>
+      <c r="CZ2" s="252"/>
+      <c r="DA2" s="252"/>
+      <c r="DB2" s="252"/>
+      <c r="DC2" s="252"/>
+      <c r="DD2" s="252"/>
+      <c r="DE2" s="252"/>
+      <c r="DF2" s="252"/>
+      <c r="DG2" s="252"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="229"/>
-      <c r="AB3" s="229"/>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="229"/>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="229"/>
-      <c r="AL3" s="229"/>
-      <c r="AM3" s="229"/>
-      <c r="AN3" s="229"/>
-      <c r="AO3" s="229"/>
-      <c r="AP3" s="229"/>
-      <c r="AQ3" s="229"/>
-      <c r="AR3" s="229"/>
-      <c r="AS3" s="229"/>
-      <c r="AT3" s="229"/>
-      <c r="AU3" s="229"/>
-      <c r="AV3" s="229"/>
-      <c r="AW3" s="229"/>
-      <c r="AX3" s="229"/>
-      <c r="AY3" s="229"/>
-      <c r="AZ3" s="229"/>
-      <c r="BA3" s="229"/>
-      <c r="BB3" s="229"/>
-      <c r="BC3" s="229"/>
-      <c r="BD3" s="229"/>
-      <c r="BE3" s="229"/>
-      <c r="BF3" s="229"/>
-      <c r="BG3" s="229"/>
-      <c r="BH3" s="229"/>
-      <c r="BI3" s="229"/>
-      <c r="BJ3" s="229"/>
-      <c r="BK3" s="229"/>
-      <c r="BL3" s="229"/>
-      <c r="BM3" s="229"/>
-      <c r="BN3" s="229"/>
-      <c r="BO3" s="229"/>
-      <c r="BP3" s="229"/>
-      <c r="BQ3" s="229"/>
-      <c r="BR3" s="229"/>
-      <c r="BS3" s="229"/>
-      <c r="BT3" s="229"/>
-      <c r="BU3" s="229"/>
-      <c r="BV3" s="229"/>
-      <c r="BW3" s="229"/>
-      <c r="BX3" s="229"/>
-      <c r="BY3" s="229"/>
-      <c r="BZ3" s="229"/>
-      <c r="CA3" s="229"/>
-      <c r="CB3" s="229"/>
-      <c r="CC3" s="229"/>
-      <c r="CD3" s="229"/>
-      <c r="CE3" s="229"/>
-      <c r="CF3" s="229"/>
-      <c r="CG3" s="229"/>
-      <c r="CH3" s="229"/>
-      <c r="CI3" s="229"/>
-      <c r="CJ3" s="229"/>
-      <c r="CK3" s="229"/>
-      <c r="CL3" s="229"/>
-      <c r="CM3" s="229"/>
-      <c r="CN3" s="229"/>
-      <c r="CO3" s="229"/>
-      <c r="CP3" s="229"/>
-      <c r="CQ3" s="229"/>
-      <c r="CR3" s="229"/>
-      <c r="CS3" s="229"/>
-      <c r="CT3" s="229"/>
-      <c r="CU3" s="229"/>
-      <c r="CV3" s="230" t="s">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="253"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="253"/>
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="253"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="253"/>
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="253"/>
+      <c r="AG3" s="253"/>
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="253"/>
+      <c r="AJ3" s="253"/>
+      <c r="AK3" s="253"/>
+      <c r="AL3" s="253"/>
+      <c r="AM3" s="253"/>
+      <c r="AN3" s="253"/>
+      <c r="AO3" s="253"/>
+      <c r="AP3" s="253"/>
+      <c r="AQ3" s="253"/>
+      <c r="AR3" s="253"/>
+      <c r="AS3" s="253"/>
+      <c r="AT3" s="253"/>
+      <c r="AU3" s="253"/>
+      <c r="AV3" s="253"/>
+      <c r="AW3" s="253"/>
+      <c r="AX3" s="253"/>
+      <c r="AY3" s="253"/>
+      <c r="AZ3" s="253"/>
+      <c r="BA3" s="253"/>
+      <c r="BB3" s="253"/>
+      <c r="BC3" s="253"/>
+      <c r="BD3" s="253"/>
+      <c r="BE3" s="253"/>
+      <c r="BF3" s="253"/>
+      <c r="BG3" s="253"/>
+      <c r="BH3" s="253"/>
+      <c r="BI3" s="253"/>
+      <c r="BJ3" s="253"/>
+      <c r="BK3" s="253"/>
+      <c r="BL3" s="253"/>
+      <c r="BM3" s="253"/>
+      <c r="BN3" s="253"/>
+      <c r="BO3" s="253"/>
+      <c r="BP3" s="253"/>
+      <c r="BQ3" s="253"/>
+      <c r="BR3" s="253"/>
+      <c r="BS3" s="253"/>
+      <c r="BT3" s="253"/>
+      <c r="BU3" s="253"/>
+      <c r="BV3" s="253"/>
+      <c r="BW3" s="253"/>
+      <c r="BX3" s="253"/>
+      <c r="BY3" s="253"/>
+      <c r="BZ3" s="253"/>
+      <c r="CA3" s="253"/>
+      <c r="CB3" s="253"/>
+      <c r="CC3" s="253"/>
+      <c r="CD3" s="253"/>
+      <c r="CE3" s="253"/>
+      <c r="CF3" s="253"/>
+      <c r="CG3" s="253"/>
+      <c r="CH3" s="253"/>
+      <c r="CI3" s="253"/>
+      <c r="CJ3" s="253"/>
+      <c r="CK3" s="253"/>
+      <c r="CL3" s="253"/>
+      <c r="CM3" s="253"/>
+      <c r="CN3" s="253"/>
+      <c r="CO3" s="253"/>
+      <c r="CP3" s="253"/>
+      <c r="CQ3" s="253"/>
+      <c r="CR3" s="253"/>
+      <c r="CS3" s="253"/>
+      <c r="CT3" s="253"/>
+      <c r="CU3" s="253"/>
+      <c r="CV3" s="254" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="230"/>
-      <c r="CX3" s="230"/>
-      <c r="CY3" s="230"/>
-      <c r="CZ3" s="230"/>
-      <c r="DA3" s="230"/>
-      <c r="DB3" s="230"/>
-      <c r="DC3" s="230"/>
-      <c r="DD3" s="230"/>
-      <c r="DE3" s="230"/>
-      <c r="DF3" s="230"/>
-      <c r="DG3" s="230"/>
+      <c r="CW3" s="254"/>
+      <c r="CX3" s="254"/>
+      <c r="CY3" s="254"/>
+      <c r="CZ3" s="254"/>
+      <c r="DA3" s="254"/>
+      <c r="DB3" s="254"/>
+      <c r="DC3" s="254"/>
+      <c r="DD3" s="254"/>
+      <c r="DE3" s="254"/>
+      <c r="DF3" s="254"/>
+      <c r="DG3" s="254"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="243"/>
-      <c r="N4" s="243"/>
-      <c r="O4" s="243"/>
-      <c r="P4" s="243"/>
-      <c r="Q4" s="243"/>
-      <c r="R4" s="243"/>
-      <c r="S4" s="243"/>
-      <c r="T4" s="243"/>
-      <c r="U4" s="243"/>
-      <c r="V4" s="243"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="243"/>
-      <c r="AE4" s="243"/>
-      <c r="AF4" s="243"/>
-      <c r="AG4" s="243"/>
-      <c r="AH4" s="243"/>
-      <c r="AI4" s="243"/>
-      <c r="AJ4" s="243"/>
-      <c r="AK4" s="243"/>
-      <c r="AL4" s="243"/>
-      <c r="AM4" s="243"/>
-      <c r="AN4" s="243"/>
-      <c r="AO4" s="243"/>
-      <c r="AP4" s="243"/>
-      <c r="AQ4" s="243"/>
-      <c r="AR4" s="243"/>
-      <c r="AS4" s="243"/>
-      <c r="AT4" s="243"/>
-      <c r="AU4" s="243"/>
-      <c r="AV4" s="243"/>
-      <c r="AW4" s="243"/>
-      <c r="AX4" s="243"/>
-      <c r="AY4" s="243"/>
-      <c r="AZ4" s="243"/>
-      <c r="BA4" s="243"/>
-      <c r="BB4" s="243"/>
-      <c r="BC4" s="243"/>
-      <c r="BD4" s="243"/>
-      <c r="BE4" s="243"/>
-      <c r="BF4" s="243"/>
-      <c r="BG4" s="243"/>
-      <c r="BH4" s="243"/>
-      <c r="BI4" s="243"/>
-      <c r="BJ4" s="243"/>
-      <c r="BK4" s="243"/>
-      <c r="BL4" s="243"/>
-      <c r="BM4" s="243"/>
-      <c r="BN4" s="243"/>
-      <c r="BO4" s="243"/>
-      <c r="BP4" s="243"/>
-      <c r="BQ4" s="243"/>
-      <c r="BR4" s="243"/>
-      <c r="BS4" s="243"/>
-      <c r="BT4" s="243"/>
-      <c r="BU4" s="243"/>
-      <c r="BV4" s="243"/>
-      <c r="BW4" s="243"/>
-      <c r="BX4" s="243"/>
-      <c r="BY4" s="243"/>
-      <c r="BZ4" s="243"/>
-      <c r="CA4" s="243"/>
-      <c r="CB4" s="243"/>
-      <c r="CC4" s="243"/>
-      <c r="CD4" s="243"/>
-      <c r="CE4" s="243"/>
-      <c r="CF4" s="243"/>
-      <c r="CG4" s="243"/>
-      <c r="CH4" s="243"/>
-      <c r="CI4" s="243"/>
-      <c r="CJ4" s="243"/>
-      <c r="CK4" s="243"/>
-      <c r="CL4" s="243"/>
-      <c r="CM4" s="243"/>
-      <c r="CN4" s="243"/>
-      <c r="CO4" s="243"/>
-      <c r="CP4" s="243"/>
-      <c r="CQ4" s="243"/>
-      <c r="CR4" s="243"/>
-      <c r="CS4" s="243"/>
-      <c r="CT4" s="243"/>
-      <c r="CU4" s="243"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="261"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="261"/>
+      <c r="Y4" s="261"/>
+      <c r="Z4" s="261"/>
+      <c r="AA4" s="261"/>
+      <c r="AB4" s="261"/>
+      <c r="AC4" s="261"/>
+      <c r="AD4" s="261"/>
+      <c r="AE4" s="261"/>
+      <c r="AF4" s="261"/>
+      <c r="AG4" s="261"/>
+      <c r="AH4" s="261"/>
+      <c r="AI4" s="261"/>
+      <c r="AJ4" s="261"/>
+      <c r="AK4" s="261"/>
+      <c r="AL4" s="261"/>
+      <c r="AM4" s="261"/>
+      <c r="AN4" s="261"/>
+      <c r="AO4" s="261"/>
+      <c r="AP4" s="261"/>
+      <c r="AQ4" s="261"/>
+      <c r="AR4" s="261"/>
+      <c r="AS4" s="261"/>
+      <c r="AT4" s="261"/>
+      <c r="AU4" s="261"/>
+      <c r="AV4" s="261"/>
+      <c r="AW4" s="261"/>
+      <c r="AX4" s="261"/>
+      <c r="AY4" s="261"/>
+      <c r="AZ4" s="261"/>
+      <c r="BA4" s="261"/>
+      <c r="BB4" s="261"/>
+      <c r="BC4" s="261"/>
+      <c r="BD4" s="261"/>
+      <c r="BE4" s="261"/>
+      <c r="BF4" s="261"/>
+      <c r="BG4" s="261"/>
+      <c r="BH4" s="261"/>
+      <c r="BI4" s="261"/>
+      <c r="BJ4" s="261"/>
+      <c r="BK4" s="261"/>
+      <c r="BL4" s="261"/>
+      <c r="BM4" s="261"/>
+      <c r="BN4" s="261"/>
+      <c r="BO4" s="261"/>
+      <c r="BP4" s="261"/>
+      <c r="BQ4" s="261"/>
+      <c r="BR4" s="261"/>
+      <c r="BS4" s="261"/>
+      <c r="BT4" s="261"/>
+      <c r="BU4" s="261"/>
+      <c r="BV4" s="261"/>
+      <c r="BW4" s="261"/>
+      <c r="BX4" s="261"/>
+      <c r="BY4" s="261"/>
+      <c r="BZ4" s="261"/>
+      <c r="CA4" s="261"/>
+      <c r="CB4" s="261"/>
+      <c r="CC4" s="261"/>
+      <c r="CD4" s="261"/>
+      <c r="CE4" s="261"/>
+      <c r="CF4" s="261"/>
+      <c r="CG4" s="261"/>
+      <c r="CH4" s="261"/>
+      <c r="CI4" s="261"/>
+      <c r="CJ4" s="261"/>
+      <c r="CK4" s="261"/>
+      <c r="CL4" s="261"/>
+      <c r="CM4" s="261"/>
+      <c r="CN4" s="261"/>
+      <c r="CO4" s="261"/>
+      <c r="CP4" s="261"/>
+      <c r="CQ4" s="261"/>
+      <c r="CR4" s="261"/>
+      <c r="CS4" s="261"/>
+      <c r="CT4" s="261"/>
+      <c r="CU4" s="261"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -20957,278 +20892,278 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="247" t="s">
+      <c r="A6" s="262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="253" t="s">
+      <c r="F6" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="269" t="s">
+      <c r="G6" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="269"/>
-      <c r="P6" s="269"/>
-      <c r="Q6" s="269"/>
-      <c r="R6" s="269"/>
-      <c r="S6" s="269"/>
-      <c r="T6" s="269"/>
-      <c r="U6" s="269"/>
-      <c r="V6" s="269"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
-      <c r="AA6" s="269"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="269"/>
-      <c r="AE6" s="269"/>
-      <c r="AF6" s="269"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="269"/>
-      <c r="AI6" s="269"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="269"/>
-      <c r="AN6" s="269"/>
-      <c r="AO6" s="269"/>
-      <c r="AP6" s="269"/>
-      <c r="AQ6" s="269"/>
-      <c r="AR6" s="269"/>
-      <c r="AS6" s="269"/>
-      <c r="AT6" s="269"/>
-      <c r="AU6" s="269"/>
-      <c r="AV6" s="269"/>
-      <c r="AW6" s="269"/>
-      <c r="AX6" s="269"/>
-      <c r="AY6" s="269"/>
-      <c r="AZ6" s="269"/>
-      <c r="BA6" s="269"/>
-      <c r="BB6" s="269"/>
-      <c r="BC6" s="269"/>
-      <c r="BD6" s="269"/>
-      <c r="BE6" s="269"/>
-      <c r="BF6" s="269"/>
-      <c r="BG6" s="269"/>
-      <c r="BH6" s="269"/>
-      <c r="BI6" s="269"/>
-      <c r="BJ6" s="269"/>
-      <c r="BK6" s="269"/>
-      <c r="BL6" s="269"/>
-      <c r="BM6" s="269"/>
-      <c r="BN6" s="269"/>
-      <c r="BO6" s="269"/>
-      <c r="BP6" s="269"/>
-      <c r="BQ6" s="269"/>
-      <c r="BR6" s="269"/>
-      <c r="BS6" s="269"/>
-      <c r="BT6" s="269"/>
-      <c r="BU6" s="269"/>
-      <c r="BV6" s="269"/>
-      <c r="BW6" s="269"/>
-      <c r="BX6" s="269"/>
-      <c r="BY6" s="269"/>
-      <c r="BZ6" s="269"/>
-      <c r="CA6" s="269"/>
-      <c r="CB6" s="269"/>
-      <c r="CC6" s="269"/>
-      <c r="CD6" s="269"/>
-      <c r="CE6" s="269"/>
-      <c r="CF6" s="269"/>
-      <c r="CG6" s="269"/>
-      <c r="CH6" s="269"/>
-      <c r="CI6" s="269"/>
-      <c r="CJ6" s="269"/>
-      <c r="CK6" s="269"/>
-      <c r="CL6" s="269"/>
-      <c r="CM6" s="269"/>
-      <c r="CN6" s="269"/>
-      <c r="CO6" s="269"/>
-      <c r="CP6" s="269"/>
-      <c r="CQ6" s="269"/>
-      <c r="CR6" s="269"/>
-      <c r="CS6" s="269"/>
-      <c r="CT6" s="269"/>
-      <c r="CU6" s="269"/>
-      <c r="CV6" s="231" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="241"/>
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
+      <c r="V6" s="241"/>
+      <c r="W6" s="241"/>
+      <c r="X6" s="241"/>
+      <c r="Y6" s="241"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="241"/>
+      <c r="AE6" s="241"/>
+      <c r="AF6" s="241"/>
+      <c r="AG6" s="241"/>
+      <c r="AH6" s="241"/>
+      <c r="AI6" s="241"/>
+      <c r="AJ6" s="241"/>
+      <c r="AK6" s="241"/>
+      <c r="AL6" s="241"/>
+      <c r="AM6" s="241"/>
+      <c r="AN6" s="241"/>
+      <c r="AO6" s="241"/>
+      <c r="AP6" s="241"/>
+      <c r="AQ6" s="241"/>
+      <c r="AR6" s="241"/>
+      <c r="AS6" s="241"/>
+      <c r="AT6" s="241"/>
+      <c r="AU6" s="241"/>
+      <c r="AV6" s="241"/>
+      <c r="AW6" s="241"/>
+      <c r="AX6" s="241"/>
+      <c r="AY6" s="241"/>
+      <c r="AZ6" s="241"/>
+      <c r="BA6" s="241"/>
+      <c r="BB6" s="241"/>
+      <c r="BC6" s="241"/>
+      <c r="BD6" s="241"/>
+      <c r="BE6" s="241"/>
+      <c r="BF6" s="241"/>
+      <c r="BG6" s="241"/>
+      <c r="BH6" s="241"/>
+      <c r="BI6" s="241"/>
+      <c r="BJ6" s="241"/>
+      <c r="BK6" s="241"/>
+      <c r="BL6" s="241"/>
+      <c r="BM6" s="241"/>
+      <c r="BN6" s="241"/>
+      <c r="BO6" s="241"/>
+      <c r="BP6" s="241"/>
+      <c r="BQ6" s="241"/>
+      <c r="BR6" s="241"/>
+      <c r="BS6" s="241"/>
+      <c r="BT6" s="241"/>
+      <c r="BU6" s="241"/>
+      <c r="BV6" s="241"/>
+      <c r="BW6" s="241"/>
+      <c r="BX6" s="241"/>
+      <c r="BY6" s="241"/>
+      <c r="BZ6" s="241"/>
+      <c r="CA6" s="241"/>
+      <c r="CB6" s="241"/>
+      <c r="CC6" s="241"/>
+      <c r="CD6" s="241"/>
+      <c r="CE6" s="241"/>
+      <c r="CF6" s="241"/>
+      <c r="CG6" s="241"/>
+      <c r="CH6" s="241"/>
+      <c r="CI6" s="241"/>
+      <c r="CJ6" s="241"/>
+      <c r="CK6" s="241"/>
+      <c r="CL6" s="241"/>
+      <c r="CM6" s="241"/>
+      <c r="CN6" s="241"/>
+      <c r="CO6" s="241"/>
+      <c r="CP6" s="241"/>
+      <c r="CQ6" s="241"/>
+      <c r="CR6" s="241"/>
+      <c r="CS6" s="241"/>
+      <c r="CT6" s="241"/>
+      <c r="CU6" s="241"/>
+      <c r="CV6" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="232"/>
-      <c r="CX6" s="231" t="s">
+      <c r="CW6" s="256"/>
+      <c r="CX6" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="235"/>
-      <c r="CZ6" s="235"/>
-      <c r="DA6" s="235"/>
-      <c r="DB6" s="235"/>
-      <c r="DC6" s="235"/>
-      <c r="DD6" s="235"/>
-      <c r="DE6" s="235"/>
-      <c r="DF6" s="235"/>
-      <c r="DG6" s="235"/>
-      <c r="DH6" s="259" t="s">
+      <c r="CY6" s="259"/>
+      <c r="CZ6" s="259"/>
+      <c r="DA6" s="259"/>
+      <c r="DB6" s="259"/>
+      <c r="DC6" s="259"/>
+      <c r="DD6" s="259"/>
+      <c r="DE6" s="259"/>
+      <c r="DF6" s="259"/>
+      <c r="DG6" s="259"/>
+      <c r="DH6" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="262" t="s">
+      <c r="DI6" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="220" t="s">
+      <c r="DJ6" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="220"/>
-      <c r="DL6" s="220"/>
-      <c r="DM6" s="220"/>
-      <c r="DN6" s="220"/>
-      <c r="DO6" s="221"/>
+      <c r="DK6" s="244"/>
+      <c r="DL6" s="244"/>
+      <c r="DM6" s="244"/>
+      <c r="DN6" s="244"/>
+      <c r="DO6" s="245"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="270"/>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="270"/>
-      <c r="X7" s="270"/>
-      <c r="Y7" s="270"/>
-      <c r="Z7" s="270"/>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="270"/>
-      <c r="AC7" s="270"/>
-      <c r="AD7" s="270"/>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="270"/>
-      <c r="AG7" s="270"/>
-      <c r="AH7" s="270"/>
-      <c r="AI7" s="270"/>
-      <c r="AJ7" s="270"/>
-      <c r="AK7" s="270"/>
-      <c r="AL7" s="270"/>
-      <c r="AM7" s="270"/>
-      <c r="AN7" s="270"/>
-      <c r="AO7" s="270"/>
-      <c r="AP7" s="270"/>
-      <c r="AQ7" s="270"/>
-      <c r="AR7" s="270"/>
-      <c r="AS7" s="270"/>
-      <c r="AT7" s="270"/>
-      <c r="AU7" s="270"/>
-      <c r="AV7" s="270"/>
-      <c r="AW7" s="270"/>
-      <c r="AX7" s="270"/>
-      <c r="AY7" s="270"/>
-      <c r="AZ7" s="270"/>
-      <c r="BA7" s="270"/>
-      <c r="BB7" s="270"/>
-      <c r="BC7" s="270"/>
-      <c r="BD7" s="270"/>
-      <c r="BE7" s="270"/>
-      <c r="BF7" s="270"/>
-      <c r="BG7" s="270"/>
-      <c r="BH7" s="270"/>
-      <c r="BI7" s="270"/>
-      <c r="BJ7" s="270"/>
-      <c r="BK7" s="270"/>
-      <c r="BL7" s="270"/>
-      <c r="BM7" s="270"/>
-      <c r="BN7" s="270"/>
-      <c r="BO7" s="271"/>
-      <c r="BP7" s="271"/>
-      <c r="BQ7" s="271"/>
-      <c r="BR7" s="270"/>
-      <c r="BS7" s="270"/>
-      <c r="BT7" s="270"/>
-      <c r="BU7" s="270"/>
-      <c r="BV7" s="270"/>
-      <c r="BW7" s="270"/>
-      <c r="BX7" s="270"/>
-      <c r="BY7" s="270"/>
-      <c r="BZ7" s="270"/>
-      <c r="CA7" s="270"/>
-      <c r="CB7" s="270"/>
-      <c r="CC7" s="270"/>
-      <c r="CD7" s="270"/>
-      <c r="CE7" s="270"/>
-      <c r="CF7" s="270"/>
-      <c r="CG7" s="270"/>
-      <c r="CH7" s="270"/>
-      <c r="CI7" s="270"/>
-      <c r="CJ7" s="270"/>
-      <c r="CK7" s="270"/>
-      <c r="CL7" s="270"/>
-      <c r="CM7" s="270"/>
-      <c r="CN7" s="270"/>
-      <c r="CO7" s="270"/>
-      <c r="CP7" s="270"/>
-      <c r="CQ7" s="270"/>
-      <c r="CR7" s="270"/>
-      <c r="CS7" s="270"/>
-      <c r="CT7" s="270"/>
-      <c r="CU7" s="270"/>
-      <c r="CV7" s="233"/>
-      <c r="CW7" s="234"/>
-      <c r="CX7" s="233"/>
-      <c r="CY7" s="236"/>
-      <c r="CZ7" s="236"/>
-      <c r="DA7" s="236"/>
-      <c r="DB7" s="236"/>
-      <c r="DC7" s="236"/>
-      <c r="DD7" s="236"/>
-      <c r="DE7" s="236"/>
-      <c r="DF7" s="236"/>
-      <c r="DG7" s="236"/>
-      <c r="DH7" s="260"/>
-      <c r="DI7" s="263"/>
-      <c r="DJ7" s="222"/>
-      <c r="DK7" s="222"/>
-      <c r="DL7" s="222"/>
-      <c r="DM7" s="222"/>
-      <c r="DN7" s="222"/>
-      <c r="DO7" s="223"/>
+      <c r="A7" s="263"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
+      <c r="N7" s="242"/>
+      <c r="O7" s="242"/>
+      <c r="P7" s="242"/>
+      <c r="Q7" s="242"/>
+      <c r="R7" s="242"/>
+      <c r="S7" s="242"/>
+      <c r="T7" s="242"/>
+      <c r="U7" s="242"/>
+      <c r="V7" s="242"/>
+      <c r="W7" s="242"/>
+      <c r="X7" s="242"/>
+      <c r="Y7" s="242"/>
+      <c r="Z7" s="242"/>
+      <c r="AA7" s="242"/>
+      <c r="AB7" s="242"/>
+      <c r="AC7" s="242"/>
+      <c r="AD7" s="242"/>
+      <c r="AE7" s="242"/>
+      <c r="AF7" s="242"/>
+      <c r="AG7" s="242"/>
+      <c r="AH7" s="242"/>
+      <c r="AI7" s="242"/>
+      <c r="AJ7" s="242"/>
+      <c r="AK7" s="242"/>
+      <c r="AL7" s="242"/>
+      <c r="AM7" s="242"/>
+      <c r="AN7" s="242"/>
+      <c r="AO7" s="242"/>
+      <c r="AP7" s="242"/>
+      <c r="AQ7" s="242"/>
+      <c r="AR7" s="242"/>
+      <c r="AS7" s="242"/>
+      <c r="AT7" s="242"/>
+      <c r="AU7" s="242"/>
+      <c r="AV7" s="242"/>
+      <c r="AW7" s="242"/>
+      <c r="AX7" s="242"/>
+      <c r="AY7" s="242"/>
+      <c r="AZ7" s="242"/>
+      <c r="BA7" s="242"/>
+      <c r="BB7" s="242"/>
+      <c r="BC7" s="242"/>
+      <c r="BD7" s="242"/>
+      <c r="BE7" s="242"/>
+      <c r="BF7" s="242"/>
+      <c r="BG7" s="242"/>
+      <c r="BH7" s="242"/>
+      <c r="BI7" s="242"/>
+      <c r="BJ7" s="242"/>
+      <c r="BK7" s="242"/>
+      <c r="BL7" s="242"/>
+      <c r="BM7" s="242"/>
+      <c r="BN7" s="242"/>
+      <c r="BO7" s="243"/>
+      <c r="BP7" s="243"/>
+      <c r="BQ7" s="243"/>
+      <c r="BR7" s="242"/>
+      <c r="BS7" s="242"/>
+      <c r="BT7" s="242"/>
+      <c r="BU7" s="242"/>
+      <c r="BV7" s="242"/>
+      <c r="BW7" s="242"/>
+      <c r="BX7" s="242"/>
+      <c r="BY7" s="242"/>
+      <c r="BZ7" s="242"/>
+      <c r="CA7" s="242"/>
+      <c r="CB7" s="242"/>
+      <c r="CC7" s="242"/>
+      <c r="CD7" s="242"/>
+      <c r="CE7" s="242"/>
+      <c r="CF7" s="242"/>
+      <c r="CG7" s="242"/>
+      <c r="CH7" s="242"/>
+      <c r="CI7" s="242"/>
+      <c r="CJ7" s="242"/>
+      <c r="CK7" s="242"/>
+      <c r="CL7" s="242"/>
+      <c r="CM7" s="242"/>
+      <c r="CN7" s="242"/>
+      <c r="CO7" s="242"/>
+      <c r="CP7" s="242"/>
+      <c r="CQ7" s="242"/>
+      <c r="CR7" s="242"/>
+      <c r="CS7" s="242"/>
+      <c r="CT7" s="242"/>
+      <c r="CU7" s="242"/>
+      <c r="CV7" s="257"/>
+      <c r="CW7" s="258"/>
+      <c r="CX7" s="257"/>
+      <c r="CY7" s="260"/>
+      <c r="CZ7" s="260"/>
+      <c r="DA7" s="260"/>
+      <c r="DB7" s="260"/>
+      <c r="DC7" s="260"/>
+      <c r="DD7" s="260"/>
+      <c r="DE7" s="260"/>
+      <c r="DF7" s="260"/>
+      <c r="DG7" s="260"/>
+      <c r="DH7" s="232"/>
+      <c r="DI7" s="235"/>
+      <c r="DJ7" s="246"/>
+      <c r="DK7" s="246"/>
+      <c r="DL7" s="246"/>
+      <c r="DM7" s="246"/>
+      <c r="DN7" s="246"/>
+      <c r="DO7" s="247"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="246"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="255"/>
+      <c r="A8" s="264"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="273"/>
       <c r="G8" s="283">
         <v>1</v>
       </c>
@@ -21249,16 +21184,16 @@
       </c>
       <c r="Q8" s="275"/>
       <c r="R8" s="276"/>
-      <c r="S8" s="237">
+      <c r="S8" s="226">
         <v>5</v>
       </c>
-      <c r="T8" s="238"/>
-      <c r="U8" s="258"/>
-      <c r="V8" s="237">
+      <c r="T8" s="227"/>
+      <c r="U8" s="228"/>
+      <c r="V8" s="226">
         <v>6</v>
       </c>
-      <c r="W8" s="238"/>
-      <c r="X8" s="239"/>
+      <c r="W8" s="227"/>
+      <c r="X8" s="229"/>
       <c r="Y8" s="274">
         <v>7</v>
       </c>
@@ -21284,16 +21219,16 @@
       </c>
       <c r="AL8" s="275"/>
       <c r="AM8" s="276"/>
-      <c r="AN8" s="268">
+      <c r="AN8" s="240">
         <v>12</v>
       </c>
-      <c r="AO8" s="238"/>
-      <c r="AP8" s="258"/>
-      <c r="AQ8" s="237">
+      <c r="AO8" s="227"/>
+      <c r="AP8" s="228"/>
+      <c r="AQ8" s="226">
         <v>13</v>
       </c>
-      <c r="AR8" s="238"/>
-      <c r="AS8" s="239"/>
+      <c r="AR8" s="227"/>
+      <c r="AS8" s="229"/>
       <c r="AT8" s="277">
         <v>14</v>
       </c>
@@ -21319,16 +21254,16 @@
       </c>
       <c r="BG8" s="275"/>
       <c r="BH8" s="276"/>
-      <c r="BI8" s="268">
+      <c r="BI8" s="240">
         <v>19</v>
       </c>
-      <c r="BJ8" s="238"/>
-      <c r="BK8" s="258"/>
-      <c r="BL8" s="237">
+      <c r="BJ8" s="227"/>
+      <c r="BK8" s="228"/>
+      <c r="BL8" s="226">
         <v>20</v>
       </c>
-      <c r="BM8" s="238"/>
-      <c r="BN8" s="239"/>
+      <c r="BM8" s="227"/>
+      <c r="BN8" s="229"/>
       <c r="BO8" s="274">
         <v>21</v>
       </c>
@@ -21354,16 +21289,16 @@
       </c>
       <c r="CB8" s="275"/>
       <c r="CC8" s="278"/>
-      <c r="CD8" s="237">
+      <c r="CD8" s="226">
         <v>26</v>
       </c>
-      <c r="CE8" s="238"/>
-      <c r="CF8" s="239"/>
-      <c r="CG8" s="268">
+      <c r="CE8" s="227"/>
+      <c r="CF8" s="229"/>
+      <c r="CG8" s="240">
         <v>27</v>
       </c>
-      <c r="CH8" s="238"/>
-      <c r="CI8" s="258"/>
+      <c r="CH8" s="227"/>
+      <c r="CI8" s="228"/>
       <c r="CJ8" s="274">
         <v>28</v>
       </c>
@@ -21420,8 +21355,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="261"/>
-      <c r="DI8" s="264"/>
+      <c r="DH8" s="233"/>
+      <c r="DI8" s="236"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -25926,45 +25861,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="272"/>
-      <c r="I31" s="272"/>
-      <c r="J31" s="272"/>
-      <c r="K31" s="272"/>
-      <c r="L31" s="272"/>
-      <c r="M31" s="272"/>
-      <c r="N31" s="272"/>
-      <c r="O31" s="272"/>
-      <c r="P31" s="272"/>
-      <c r="Q31" s="272"/>
-      <c r="R31" s="272"/>
-      <c r="S31" s="272"/>
-      <c r="T31" s="272"/>
-      <c r="U31" s="272"/>
-      <c r="V31" s="272"/>
-      <c r="W31" s="272"/>
-      <c r="X31" s="272"/>
-      <c r="Y31" s="272"/>
-      <c r="Z31" s="272"/>
-      <c r="AA31" s="272"/>
-      <c r="AB31" s="272"/>
-      <c r="AC31" s="272"/>
-      <c r="AD31" s="272"/>
-      <c r="AE31" s="272"/>
-      <c r="AF31" s="272"/>
-      <c r="AG31" s="272"/>
-      <c r="AH31" s="272"/>
-      <c r="AI31" s="272"/>
-      <c r="AJ31" s="272"/>
-      <c r="AK31" s="272"/>
-      <c r="AL31" s="272"/>
-      <c r="AM31" s="272"/>
-      <c r="AN31" s="272"/>
-      <c r="AO31" s="272"/>
-      <c r="AP31" s="272"/>
-      <c r="AQ31" s="272"/>
-      <c r="AR31" s="272"/>
-      <c r="AS31" s="272"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="220"/>
+      <c r="N31" s="220"/>
+      <c r="O31" s="220"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="220"/>
+      <c r="S31" s="220"/>
+      <c r="T31" s="220"/>
+      <c r="U31" s="220"/>
+      <c r="V31" s="220"/>
+      <c r="W31" s="220"/>
+      <c r="X31" s="220"/>
+      <c r="Y31" s="220"/>
+      <c r="Z31" s="220"/>
+      <c r="AA31" s="220"/>
+      <c r="AB31" s="220"/>
+      <c r="AC31" s="220"/>
+      <c r="AD31" s="220"/>
+      <c r="AE31" s="220"/>
+      <c r="AF31" s="220"/>
+      <c r="AG31" s="220"/>
+      <c r="AH31" s="220"/>
+      <c r="AI31" s="220"/>
+      <c r="AJ31" s="220"/>
+      <c r="AK31" s="220"/>
+      <c r="AL31" s="220"/>
+      <c r="AM31" s="220"/>
+      <c r="AN31" s="220"/>
+      <c r="AO31" s="220"/>
+      <c r="AP31" s="220"/>
+      <c r="AQ31" s="220"/>
+      <c r="AR31" s="220"/>
+      <c r="AS31" s="220"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -26269,45 +26204,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="272"/>
-      <c r="H35" s="272"/>
-      <c r="I35" s="272"/>
-      <c r="J35" s="272"/>
-      <c r="K35" s="272"/>
-      <c r="L35" s="272"/>
-      <c r="M35" s="272"/>
-      <c r="N35" s="272"/>
-      <c r="O35" s="272"/>
-      <c r="P35" s="272"/>
-      <c r="Q35" s="272"/>
-      <c r="R35" s="272"/>
-      <c r="S35" s="272"/>
-      <c r="T35" s="272"/>
-      <c r="U35" s="272"/>
-      <c r="V35" s="272"/>
-      <c r="W35" s="272"/>
-      <c r="X35" s="272"/>
-      <c r="Y35" s="272"/>
-      <c r="Z35" s="272"/>
-      <c r="AA35" s="272"/>
-      <c r="AB35" s="272"/>
-      <c r="AC35" s="272"/>
-      <c r="AD35" s="272"/>
-      <c r="AE35" s="272"/>
-      <c r="AF35" s="272"/>
-      <c r="AG35" s="272"/>
-      <c r="AH35" s="272"/>
-      <c r="AI35" s="272"/>
-      <c r="AJ35" s="272"/>
-      <c r="AK35" s="272"/>
-      <c r="AL35" s="272"/>
-      <c r="AM35" s="272"/>
-      <c r="AN35" s="272"/>
-      <c r="AO35" s="272"/>
-      <c r="AP35" s="272"/>
-      <c r="AQ35" s="272"/>
-      <c r="AR35" s="272"/>
-      <c r="AS35" s="272"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
+      <c r="K35" s="220"/>
+      <c r="L35" s="220"/>
+      <c r="M35" s="220"/>
+      <c r="N35" s="220"/>
+      <c r="O35" s="220"/>
+      <c r="P35" s="220"/>
+      <c r="Q35" s="220"/>
+      <c r="R35" s="220"/>
+      <c r="S35" s="220"/>
+      <c r="T35" s="220"/>
+      <c r="U35" s="220"/>
+      <c r="V35" s="220"/>
+      <c r="W35" s="220"/>
+      <c r="X35" s="220"/>
+      <c r="Y35" s="220"/>
+      <c r="Z35" s="220"/>
+      <c r="AA35" s="220"/>
+      <c r="AB35" s="220"/>
+      <c r="AC35" s="220"/>
+      <c r="AD35" s="220"/>
+      <c r="AE35" s="220"/>
+      <c r="AF35" s="220"/>
+      <c r="AG35" s="220"/>
+      <c r="AH35" s="220"/>
+      <c r="AI35" s="220"/>
+      <c r="AJ35" s="220"/>
+      <c r="AK35" s="220"/>
+      <c r="AL35" s="220"/>
+      <c r="AM35" s="220"/>
+      <c r="AN35" s="220"/>
+      <c r="AO35" s="220"/>
+      <c r="AP35" s="220"/>
+      <c r="AQ35" s="220"/>
+      <c r="AR35" s="220"/>
+      <c r="AS35" s="220"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -28465,25 +28400,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -28500,43 +28427,51 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="BR8:BT8"/>
     <mergeCell ref="BU8:BW8"/>
     <mergeCell ref="BX8:BZ8"/>
     <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU10 G12:CU23 BC11:CU11">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AD11">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:BB11">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE11)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11592" tabRatio="722" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11592" tabRatio="722" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="АВГУСТ" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="83">
   <si>
     <t>№ п/п</t>
   </si>
@@ -282,6 +282,25 @@
   </si>
   <si>
     <t>о</t>
+  </si>
+  <si>
+    <r>
+      <t>Начальник участка ремонта форм  _______________        ___________</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Гавриленко А.Д.</t>
+    </r>
+  </si>
+  <si>
+    <t>а</t>
   </si>
 </sst>
 </file>
@@ -1758,76 +1777,37 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1881,6 +1861,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1920,6 +1918,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1950,44 +2002,690 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="105">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2517,21 +3215,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="251" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="251"/>
-      <c r="CW1" s="251"/>
-      <c r="CX1" s="251"/>
-      <c r="CY1" s="251"/>
-      <c r="CZ1" s="251"/>
-      <c r="DA1" s="251"/>
-      <c r="DB1" s="251"/>
-      <c r="DC1" s="251"/>
-      <c r="DD1" s="251"/>
-      <c r="DE1" s="251"/>
-      <c r="DF1" s="251"/>
-      <c r="DG1" s="251"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -2632,241 +3330,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="252" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="252"/>
-      <c r="CW2" s="252"/>
-      <c r="CX2" s="252"/>
-      <c r="CY2" s="252"/>
-      <c r="CZ2" s="252"/>
-      <c r="DA2" s="252"/>
-      <c r="DB2" s="252"/>
-      <c r="DC2" s="252"/>
-      <c r="DD2" s="252"/>
-      <c r="DE2" s="252"/>
-      <c r="DF2" s="252"/>
-      <c r="DG2" s="252"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="253"/>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="253"/>
-      <c r="AG3" s="253"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="253"/>
-      <c r="AM3" s="253"/>
-      <c r="AN3" s="253"/>
-      <c r="AO3" s="253"/>
-      <c r="AP3" s="253"/>
-      <c r="AQ3" s="253"/>
-      <c r="AR3" s="253"/>
-      <c r="AS3" s="253"/>
-      <c r="AT3" s="253"/>
-      <c r="AU3" s="253"/>
-      <c r="AV3" s="253"/>
-      <c r="AW3" s="253"/>
-      <c r="AX3" s="253"/>
-      <c r="AY3" s="253"/>
-      <c r="AZ3" s="253"/>
-      <c r="BA3" s="253"/>
-      <c r="BB3" s="253"/>
-      <c r="BC3" s="253"/>
-      <c r="BD3" s="253"/>
-      <c r="BE3" s="253"/>
-      <c r="BF3" s="253"/>
-      <c r="BG3" s="253"/>
-      <c r="BH3" s="253"/>
-      <c r="BI3" s="253"/>
-      <c r="BJ3" s="253"/>
-      <c r="BK3" s="253"/>
-      <c r="BL3" s="253"/>
-      <c r="BM3" s="253"/>
-      <c r="BN3" s="253"/>
-      <c r="BO3" s="253"/>
-      <c r="BP3" s="253"/>
-      <c r="BQ3" s="253"/>
-      <c r="BR3" s="253"/>
-      <c r="BS3" s="253"/>
-      <c r="BT3" s="253"/>
-      <c r="BU3" s="253"/>
-      <c r="BV3" s="253"/>
-      <c r="BW3" s="253"/>
-      <c r="BX3" s="253"/>
-      <c r="BY3" s="253"/>
-      <c r="BZ3" s="253"/>
-      <c r="CA3" s="253"/>
-      <c r="CB3" s="253"/>
-      <c r="CC3" s="253"/>
-      <c r="CD3" s="253"/>
-      <c r="CE3" s="253"/>
-      <c r="CF3" s="253"/>
-      <c r="CG3" s="253"/>
-      <c r="CH3" s="253"/>
-      <c r="CI3" s="253"/>
-      <c r="CJ3" s="253"/>
-      <c r="CK3" s="253"/>
-      <c r="CL3" s="253"/>
-      <c r="CM3" s="253"/>
-      <c r="CN3" s="253"/>
-      <c r="CO3" s="253"/>
-      <c r="CP3" s="253"/>
-      <c r="CQ3" s="253"/>
-      <c r="CR3" s="253"/>
-      <c r="CS3" s="253"/>
-      <c r="CT3" s="253"/>
-      <c r="CU3" s="253"/>
-      <c r="CV3" s="254" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="254"/>
-      <c r="CX3" s="254"/>
-      <c r="CY3" s="254"/>
-      <c r="CZ3" s="254"/>
-      <c r="DA3" s="254"/>
-      <c r="DB3" s="254"/>
-      <c r="DC3" s="254"/>
-      <c r="DD3" s="254"/>
-      <c r="DE3" s="254"/>
-      <c r="DF3" s="254"/>
-      <c r="DG3" s="254"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="254" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="261"/>
-      <c r="AE4" s="261"/>
-      <c r="AF4" s="261"/>
-      <c r="AG4" s="261"/>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="261"/>
-      <c r="AK4" s="261"/>
-      <c r="AL4" s="261"/>
-      <c r="AM4" s="261"/>
-      <c r="AN4" s="261"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="261"/>
-      <c r="AQ4" s="261"/>
-      <c r="AR4" s="261"/>
-      <c r="AS4" s="261"/>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="261"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="261"/>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="261"/>
-      <c r="AZ4" s="261"/>
-      <c r="BA4" s="261"/>
-      <c r="BB4" s="261"/>
-      <c r="BC4" s="261"/>
-      <c r="BD4" s="261"/>
-      <c r="BE4" s="261"/>
-      <c r="BF4" s="261"/>
-      <c r="BG4" s="261"/>
-      <c r="BH4" s="261"/>
-      <c r="BI4" s="261"/>
-      <c r="BJ4" s="261"/>
-      <c r="BK4" s="261"/>
-      <c r="BL4" s="261"/>
-      <c r="BM4" s="261"/>
-      <c r="BN4" s="261"/>
-      <c r="BO4" s="261"/>
-      <c r="BP4" s="261"/>
-      <c r="BQ4" s="261"/>
-      <c r="BR4" s="261"/>
-      <c r="BS4" s="261"/>
-      <c r="BT4" s="261"/>
-      <c r="BU4" s="261"/>
-      <c r="BV4" s="261"/>
-      <c r="BW4" s="261"/>
-      <c r="BX4" s="261"/>
-      <c r="BY4" s="261"/>
-      <c r="BZ4" s="261"/>
-      <c r="CA4" s="261"/>
-      <c r="CB4" s="261"/>
-      <c r="CC4" s="261"/>
-      <c r="CD4" s="261"/>
-      <c r="CE4" s="261"/>
-      <c r="CF4" s="261"/>
-      <c r="CG4" s="261"/>
-      <c r="CH4" s="261"/>
-      <c r="CI4" s="261"/>
-      <c r="CJ4" s="261"/>
-      <c r="CK4" s="261"/>
-      <c r="CL4" s="261"/>
-      <c r="CM4" s="261"/>
-      <c r="CN4" s="261"/>
-      <c r="CO4" s="261"/>
-      <c r="CP4" s="261"/>
-      <c r="CQ4" s="261"/>
-      <c r="CR4" s="261"/>
-      <c r="CS4" s="261"/>
-      <c r="CT4" s="261"/>
-      <c r="CU4" s="261"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -2996,433 +3694,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="265" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="248" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="241" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="241"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="241"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="241"/>
-      <c r="AH6" s="241"/>
-      <c r="AI6" s="241"/>
-      <c r="AJ6" s="241"/>
-      <c r="AK6" s="241"/>
-      <c r="AL6" s="241"/>
-      <c r="AM6" s="241"/>
-      <c r="AN6" s="241"/>
-      <c r="AO6" s="241"/>
-      <c r="AP6" s="241"/>
-      <c r="AQ6" s="241"/>
-      <c r="AR6" s="241"/>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="241"/>
-      <c r="BB6" s="241"/>
-      <c r="BC6" s="241"/>
-      <c r="BD6" s="241"/>
-      <c r="BE6" s="241"/>
-      <c r="BF6" s="241"/>
-      <c r="BG6" s="241"/>
-      <c r="BH6" s="241"/>
-      <c r="BI6" s="241"/>
-      <c r="BJ6" s="241"/>
-      <c r="BK6" s="241"/>
-      <c r="BL6" s="241"/>
-      <c r="BM6" s="241"/>
-      <c r="BN6" s="241"/>
-      <c r="BO6" s="241"/>
-      <c r="BP6" s="241"/>
-      <c r="BQ6" s="241"/>
-      <c r="BR6" s="241"/>
-      <c r="BS6" s="241"/>
-      <c r="BT6" s="241"/>
-      <c r="BU6" s="241"/>
-      <c r="BV6" s="241"/>
-      <c r="BW6" s="241"/>
-      <c r="BX6" s="241"/>
-      <c r="BY6" s="241"/>
-      <c r="BZ6" s="241"/>
-      <c r="CA6" s="241"/>
-      <c r="CB6" s="241"/>
-      <c r="CC6" s="241"/>
-      <c r="CD6" s="241"/>
-      <c r="CE6" s="241"/>
-      <c r="CF6" s="241"/>
-      <c r="CG6" s="241"/>
-      <c r="CH6" s="241"/>
-      <c r="CI6" s="241"/>
-      <c r="CJ6" s="241"/>
-      <c r="CK6" s="241"/>
-      <c r="CL6" s="241"/>
-      <c r="CM6" s="241"/>
-      <c r="CN6" s="241"/>
-      <c r="CO6" s="241"/>
-      <c r="CP6" s="241"/>
-      <c r="CQ6" s="241"/>
-      <c r="CR6" s="241"/>
-      <c r="CS6" s="241"/>
-      <c r="CT6" s="241"/>
-      <c r="CU6" s="241"/>
-      <c r="CV6" s="255" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="256"/>
-      <c r="CX6" s="255" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="259"/>
-      <c r="CZ6" s="259"/>
-      <c r="DA6" s="259"/>
-      <c r="DB6" s="259"/>
-      <c r="DC6" s="259"/>
-      <c r="DD6" s="259"/>
-      <c r="DE6" s="259"/>
-      <c r="DF6" s="259"/>
-      <c r="DG6" s="259"/>
-      <c r="DH6" s="231" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="234" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="244" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="244"/>
-      <c r="DL6" s="244"/>
-      <c r="DM6" s="244"/>
-      <c r="DN6" s="244"/>
-      <c r="DO6" s="245"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="263"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="242"/>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="242"/>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-      <c r="V7" s="242"/>
-      <c r="W7" s="242"/>
-      <c r="X7" s="242"/>
-      <c r="Y7" s="242"/>
-      <c r="Z7" s="242"/>
-      <c r="AA7" s="242"/>
-      <c r="AB7" s="242"/>
-      <c r="AC7" s="242"/>
-      <c r="AD7" s="242"/>
-      <c r="AE7" s="242"/>
-      <c r="AF7" s="242"/>
-      <c r="AG7" s="242"/>
-      <c r="AH7" s="242"/>
-      <c r="AI7" s="242"/>
-      <c r="AJ7" s="242"/>
-      <c r="AK7" s="242"/>
-      <c r="AL7" s="242"/>
-      <c r="AM7" s="242"/>
-      <c r="AN7" s="242"/>
-      <c r="AO7" s="242"/>
-      <c r="AP7" s="242"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="242"/>
-      <c r="AS7" s="242"/>
-      <c r="AT7" s="242"/>
-      <c r="AU7" s="242"/>
-      <c r="AV7" s="242"/>
-      <c r="AW7" s="242"/>
-      <c r="AX7" s="242"/>
-      <c r="AY7" s="242"/>
-      <c r="AZ7" s="242"/>
-      <c r="BA7" s="242"/>
-      <c r="BB7" s="242"/>
-      <c r="BC7" s="242"/>
-      <c r="BD7" s="242"/>
-      <c r="BE7" s="242"/>
-      <c r="BF7" s="242"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="242"/>
-      <c r="BI7" s="242"/>
-      <c r="BJ7" s="242"/>
-      <c r="BK7" s="242"/>
-      <c r="BL7" s="242"/>
-      <c r="BM7" s="242"/>
-      <c r="BN7" s="242"/>
-      <c r="BO7" s="243"/>
-      <c r="BP7" s="243"/>
-      <c r="BQ7" s="243"/>
-      <c r="BR7" s="242"/>
-      <c r="BS7" s="242"/>
-      <c r="BT7" s="242"/>
-      <c r="BU7" s="242"/>
-      <c r="BV7" s="242"/>
-      <c r="BW7" s="242"/>
-      <c r="BX7" s="242"/>
-      <c r="BY7" s="242"/>
-      <c r="BZ7" s="242"/>
-      <c r="CA7" s="242"/>
-      <c r="CB7" s="242"/>
-      <c r="CC7" s="242"/>
-      <c r="CD7" s="242"/>
-      <c r="CE7" s="242"/>
-      <c r="CF7" s="242"/>
-      <c r="CG7" s="242"/>
-      <c r="CH7" s="242"/>
-      <c r="CI7" s="242"/>
-      <c r="CJ7" s="242"/>
-      <c r="CK7" s="242"/>
-      <c r="CL7" s="242"/>
-      <c r="CM7" s="242"/>
-      <c r="CN7" s="242"/>
-      <c r="CO7" s="242"/>
-      <c r="CP7" s="242"/>
-      <c r="CQ7" s="242"/>
-      <c r="CR7" s="242"/>
-      <c r="CS7" s="242"/>
-      <c r="CT7" s="242"/>
-      <c r="CU7" s="242"/>
-      <c r="CV7" s="257"/>
-      <c r="CW7" s="258"/>
-      <c r="CX7" s="257"/>
-      <c r="CY7" s="260"/>
-      <c r="CZ7" s="260"/>
-      <c r="DA7" s="260"/>
-      <c r="DB7" s="260"/>
-      <c r="DC7" s="260"/>
-      <c r="DD7" s="260"/>
-      <c r="DE7" s="260"/>
-      <c r="DF7" s="260"/>
-      <c r="DG7" s="260"/>
-      <c r="DH7" s="232"/>
-      <c r="DI7" s="235"/>
-      <c r="DJ7" s="246"/>
-      <c r="DK7" s="246"/>
-      <c r="DL7" s="246"/>
-      <c r="DM7" s="246"/>
-      <c r="DN7" s="246"/>
-      <c r="DO7" s="247"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="264"/>
-      <c r="B8" s="267"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="230">
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="284">
         <v>1</v>
       </c>
-      <c r="H8" s="222"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="221">
+      <c r="H8" s="252"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="267">
         <v>2</v>
       </c>
-      <c r="K8" s="222"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="226">
+      <c r="K8" s="252"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="248">
         <v>3</v>
       </c>
-      <c r="N8" s="227"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="226">
+      <c r="N8" s="249"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="248">
         <v>4</v>
       </c>
-      <c r="Q8" s="227"/>
-      <c r="R8" s="229"/>
-      <c r="S8" s="221">
+      <c r="Q8" s="249"/>
+      <c r="R8" s="250"/>
+      <c r="S8" s="267">
         <v>5</v>
       </c>
-      <c r="T8" s="222"/>
-      <c r="U8" s="225"/>
-      <c r="V8" s="221">
+      <c r="T8" s="252"/>
+      <c r="U8" s="253"/>
+      <c r="V8" s="267">
         <v>6</v>
       </c>
-      <c r="W8" s="222"/>
-      <c r="X8" s="223"/>
-      <c r="Y8" s="221">
+      <c r="W8" s="252"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="267">
         <v>7</v>
       </c>
-      <c r="Z8" s="222"/>
-      <c r="AA8" s="223"/>
-      <c r="AB8" s="221">
+      <c r="Z8" s="252"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="267">
         <v>8</v>
       </c>
-      <c r="AC8" s="222"/>
-      <c r="AD8" s="223"/>
-      <c r="AE8" s="221">
+      <c r="AC8" s="252"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="267">
         <v>9</v>
       </c>
-      <c r="AF8" s="222"/>
-      <c r="AG8" s="225"/>
-      <c r="AH8" s="226">
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="253"/>
+      <c r="AH8" s="248">
         <v>10</v>
       </c>
-      <c r="AI8" s="227"/>
-      <c r="AJ8" s="229"/>
-      <c r="AK8" s="226">
+      <c r="AI8" s="249"/>
+      <c r="AJ8" s="250"/>
+      <c r="AK8" s="248">
         <v>11</v>
       </c>
-      <c r="AL8" s="227"/>
-      <c r="AM8" s="229"/>
-      <c r="AN8" s="224">
+      <c r="AL8" s="249"/>
+      <c r="AM8" s="250"/>
+      <c r="AN8" s="251">
         <v>12</v>
       </c>
-      <c r="AO8" s="222"/>
-      <c r="AP8" s="225"/>
-      <c r="AQ8" s="221">
+      <c r="AO8" s="252"/>
+      <c r="AP8" s="253"/>
+      <c r="AQ8" s="267">
         <v>13</v>
       </c>
-      <c r="AR8" s="222"/>
-      <c r="AS8" s="223"/>
-      <c r="AT8" s="224">
+      <c r="AR8" s="252"/>
+      <c r="AS8" s="268"/>
+      <c r="AT8" s="251">
         <v>14</v>
       </c>
-      <c r="AU8" s="222"/>
-      <c r="AV8" s="223"/>
-      <c r="AW8" s="221">
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="268"/>
+      <c r="AW8" s="267">
         <v>15</v>
       </c>
-      <c r="AX8" s="222"/>
-      <c r="AY8" s="223"/>
-      <c r="AZ8" s="221">
+      <c r="AX8" s="252"/>
+      <c r="AY8" s="268"/>
+      <c r="AZ8" s="267">
         <v>16</v>
       </c>
-      <c r="BA8" s="222"/>
-      <c r="BB8" s="223"/>
-      <c r="BC8" s="226">
+      <c r="BA8" s="252"/>
+      <c r="BB8" s="268"/>
+      <c r="BC8" s="248">
         <v>17</v>
       </c>
-      <c r="BD8" s="227"/>
-      <c r="BE8" s="228"/>
-      <c r="BF8" s="226">
+      <c r="BD8" s="249"/>
+      <c r="BE8" s="269"/>
+      <c r="BF8" s="248">
         <v>18</v>
       </c>
-      <c r="BG8" s="227"/>
-      <c r="BH8" s="229"/>
-      <c r="BI8" s="224">
+      <c r="BG8" s="249"/>
+      <c r="BH8" s="250"/>
+      <c r="BI8" s="251">
         <v>19</v>
       </c>
-      <c r="BJ8" s="222"/>
-      <c r="BK8" s="225"/>
-      <c r="BL8" s="221">
+      <c r="BJ8" s="252"/>
+      <c r="BK8" s="253"/>
+      <c r="BL8" s="267">
         <v>20</v>
       </c>
-      <c r="BM8" s="222"/>
-      <c r="BN8" s="223"/>
-      <c r="BO8" s="221">
+      <c r="BM8" s="252"/>
+      <c r="BN8" s="268"/>
+      <c r="BO8" s="267">
         <v>21</v>
       </c>
-      <c r="BP8" s="222"/>
-      <c r="BQ8" s="223"/>
-      <c r="BR8" s="221">
+      <c r="BP8" s="252"/>
+      <c r="BQ8" s="268"/>
+      <c r="BR8" s="267">
         <v>22</v>
       </c>
-      <c r="BS8" s="222"/>
-      <c r="BT8" s="223"/>
-      <c r="BU8" s="224">
+      <c r="BS8" s="252"/>
+      <c r="BT8" s="268"/>
+      <c r="BU8" s="251">
         <v>23</v>
       </c>
-      <c r="BV8" s="222"/>
-      <c r="BW8" s="225"/>
-      <c r="BX8" s="226">
+      <c r="BV8" s="252"/>
+      <c r="BW8" s="253"/>
+      <c r="BX8" s="248">
         <v>24</v>
       </c>
-      <c r="BY8" s="227"/>
-      <c r="BZ8" s="229"/>
-      <c r="CA8" s="240">
+      <c r="BY8" s="249"/>
+      <c r="BZ8" s="250"/>
+      <c r="CA8" s="279">
         <v>25</v>
       </c>
-      <c r="CB8" s="227"/>
-      <c r="CC8" s="228"/>
-      <c r="CD8" s="221">
+      <c r="CB8" s="249"/>
+      <c r="CC8" s="269"/>
+      <c r="CD8" s="267">
         <v>26</v>
       </c>
-      <c r="CE8" s="222"/>
-      <c r="CF8" s="223"/>
-      <c r="CG8" s="224">
+      <c r="CE8" s="252"/>
+      <c r="CF8" s="268"/>
+      <c r="CG8" s="251">
         <v>27</v>
       </c>
-      <c r="CH8" s="222"/>
-      <c r="CI8" s="225"/>
-      <c r="CJ8" s="221">
+      <c r="CH8" s="252"/>
+      <c r="CI8" s="253"/>
+      <c r="CJ8" s="267">
         <v>28</v>
       </c>
-      <c r="CK8" s="222"/>
-      <c r="CL8" s="223"/>
-      <c r="CM8" s="221">
+      <c r="CK8" s="252"/>
+      <c r="CL8" s="268"/>
+      <c r="CM8" s="267">
         <v>29</v>
       </c>
-      <c r="CN8" s="222"/>
-      <c r="CO8" s="223"/>
-      <c r="CP8" s="221">
+      <c r="CN8" s="252"/>
+      <c r="CO8" s="268"/>
+      <c r="CP8" s="267">
         <v>30</v>
       </c>
-      <c r="CQ8" s="222"/>
-      <c r="CR8" s="223"/>
-      <c r="CS8" s="237">
+      <c r="CQ8" s="252"/>
+      <c r="CR8" s="268"/>
+      <c r="CS8" s="276">
         <v>31</v>
       </c>
-      <c r="CT8" s="238"/>
-      <c r="CU8" s="239"/>
+      <c r="CT8" s="277"/>
+      <c r="CU8" s="278"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -3459,8 +4157,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="233"/>
-      <c r="DI8" s="236"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9229,45 +9927,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="220"/>
-      <c r="N33" s="220"/>
-      <c r="O33" s="220"/>
-      <c r="P33" s="220"/>
-      <c r="Q33" s="220"/>
-      <c r="R33" s="220"/>
-      <c r="S33" s="220"/>
-      <c r="T33" s="220"/>
-      <c r="U33" s="220"/>
-      <c r="V33" s="220"/>
-      <c r="W33" s="220"/>
-      <c r="X33" s="220"/>
-      <c r="Y33" s="220"/>
-      <c r="Z33" s="220"/>
-      <c r="AA33" s="220"/>
-      <c r="AB33" s="220"/>
-      <c r="AC33" s="220"/>
-      <c r="AD33" s="220"/>
-      <c r="AE33" s="220"/>
-      <c r="AF33" s="220"/>
-      <c r="AG33" s="220"/>
-      <c r="AH33" s="220"/>
-      <c r="AI33" s="220"/>
-      <c r="AJ33" s="220"/>
-      <c r="AK33" s="220"/>
-      <c r="AL33" s="220"/>
-      <c r="AM33" s="220"/>
-      <c r="AN33" s="220"/>
-      <c r="AO33" s="220"/>
-      <c r="AP33" s="220"/>
-      <c r="AQ33" s="220"/>
-      <c r="AR33" s="220"/>
-      <c r="AS33" s="220"/>
+      <c r="G33" s="283"/>
+      <c r="H33" s="283"/>
+      <c r="I33" s="283"/>
+      <c r="J33" s="283"/>
+      <c r="K33" s="283"/>
+      <c r="L33" s="283"/>
+      <c r="M33" s="283"/>
+      <c r="N33" s="283"/>
+      <c r="O33" s="283"/>
+      <c r="P33" s="283"/>
+      <c r="Q33" s="283"/>
+      <c r="R33" s="283"/>
+      <c r="S33" s="283"/>
+      <c r="T33" s="283"/>
+      <c r="U33" s="283"/>
+      <c r="V33" s="283"/>
+      <c r="W33" s="283"/>
+      <c r="X33" s="283"/>
+      <c r="Y33" s="283"/>
+      <c r="Z33" s="283"/>
+      <c r="AA33" s="283"/>
+      <c r="AB33" s="283"/>
+      <c r="AC33" s="283"/>
+      <c r="AD33" s="283"/>
+      <c r="AE33" s="283"/>
+      <c r="AF33" s="283"/>
+      <c r="AG33" s="283"/>
+      <c r="AH33" s="283"/>
+      <c r="AI33" s="283"/>
+      <c r="AJ33" s="283"/>
+      <c r="AK33" s="283"/>
+      <c r="AL33" s="283"/>
+      <c r="AM33" s="283"/>
+      <c r="AN33" s="283"/>
+      <c r="AO33" s="283"/>
+      <c r="AP33" s="283"/>
+      <c r="AQ33" s="283"/>
+      <c r="AR33" s="283"/>
+      <c r="AS33" s="283"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -9572,45 +10270,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="220"/>
-      <c r="J37" s="220"/>
-      <c r="K37" s="220"/>
-      <c r="L37" s="220"/>
-      <c r="M37" s="220"/>
-      <c r="N37" s="220"/>
-      <c r="O37" s="220"/>
-      <c r="P37" s="220"/>
-      <c r="Q37" s="220"/>
-      <c r="R37" s="220"/>
-      <c r="S37" s="220"/>
-      <c r="T37" s="220"/>
-      <c r="U37" s="220"/>
-      <c r="V37" s="220"/>
-      <c r="W37" s="220"/>
-      <c r="X37" s="220"/>
-      <c r="Y37" s="220"/>
-      <c r="Z37" s="220"/>
-      <c r="AA37" s="220"/>
-      <c r="AB37" s="220"/>
-      <c r="AC37" s="220"/>
-      <c r="AD37" s="220"/>
-      <c r="AE37" s="220"/>
-      <c r="AF37" s="220"/>
-      <c r="AG37" s="220"/>
-      <c r="AH37" s="220"/>
-      <c r="AI37" s="220"/>
-      <c r="AJ37" s="220"/>
-      <c r="AK37" s="220"/>
-      <c r="AL37" s="220"/>
-      <c r="AM37" s="220"/>
-      <c r="AN37" s="220"/>
-      <c r="AO37" s="220"/>
-      <c r="AP37" s="220"/>
-      <c r="AQ37" s="220"/>
-      <c r="AR37" s="220"/>
-      <c r="AS37" s="220"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="283"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="283"/>
+      <c r="M37" s="283"/>
+      <c r="N37" s="283"/>
+      <c r="O37" s="283"/>
+      <c r="P37" s="283"/>
+      <c r="Q37" s="283"/>
+      <c r="R37" s="283"/>
+      <c r="S37" s="283"/>
+      <c r="T37" s="283"/>
+      <c r="U37" s="283"/>
+      <c r="V37" s="283"/>
+      <c r="W37" s="283"/>
+      <c r="X37" s="283"/>
+      <c r="Y37" s="283"/>
+      <c r="Z37" s="283"/>
+      <c r="AA37" s="283"/>
+      <c r="AB37" s="283"/>
+      <c r="AC37" s="283"/>
+      <c r="AD37" s="283"/>
+      <c r="AE37" s="283"/>
+      <c r="AF37" s="283"/>
+      <c r="AG37" s="283"/>
+      <c r="AH37" s="283"/>
+      <c r="AI37" s="283"/>
+      <c r="AJ37" s="283"/>
+      <c r="AK37" s="283"/>
+      <c r="AL37" s="283"/>
+      <c r="AM37" s="283"/>
+      <c r="AN37" s="283"/>
+      <c r="AO37" s="283"/>
+      <c r="AP37" s="283"/>
+      <c r="AQ37" s="283"/>
+      <c r="AR37" s="283"/>
+      <c r="AS37" s="283"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -11111,6 +11809,40 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="DI6:DI8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="CU1:DG1"/>
@@ -11127,40 +11859,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="DI6:DI8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -11184,12 +11882,12 @@
   </sheetPr>
   <dimension ref="A1:EF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CC10" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="BM22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="CV12" sqref="CV12:DO13"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11356,21 +12054,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="251" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="251"/>
-      <c r="CW1" s="251"/>
-      <c r="CX1" s="251"/>
-      <c r="CY1" s="251"/>
-      <c r="CZ1" s="251"/>
-      <c r="DA1" s="251"/>
-      <c r="DB1" s="251"/>
-      <c r="DC1" s="251"/>
-      <c r="DD1" s="251"/>
-      <c r="DE1" s="251"/>
-      <c r="DF1" s="251"/>
-      <c r="DG1" s="251"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -11471,241 +12169,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="252" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="252"/>
-      <c r="CW2" s="252"/>
-      <c r="CX2" s="252"/>
-      <c r="CY2" s="252"/>
-      <c r="CZ2" s="252"/>
-      <c r="DA2" s="252"/>
-      <c r="DB2" s="252"/>
-      <c r="DC2" s="252"/>
-      <c r="DD2" s="252"/>
-      <c r="DE2" s="252"/>
-      <c r="DF2" s="252"/>
-      <c r="DG2" s="252"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="253"/>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="253"/>
-      <c r="AG3" s="253"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="253"/>
-      <c r="AM3" s="253"/>
-      <c r="AN3" s="253"/>
-      <c r="AO3" s="253"/>
-      <c r="AP3" s="253"/>
-      <c r="AQ3" s="253"/>
-      <c r="AR3" s="253"/>
-      <c r="AS3" s="253"/>
-      <c r="AT3" s="253"/>
-      <c r="AU3" s="253"/>
-      <c r="AV3" s="253"/>
-      <c r="AW3" s="253"/>
-      <c r="AX3" s="253"/>
-      <c r="AY3" s="253"/>
-      <c r="AZ3" s="253"/>
-      <c r="BA3" s="253"/>
-      <c r="BB3" s="253"/>
-      <c r="BC3" s="253"/>
-      <c r="BD3" s="253"/>
-      <c r="BE3" s="253"/>
-      <c r="BF3" s="253"/>
-      <c r="BG3" s="253"/>
-      <c r="BH3" s="253"/>
-      <c r="BI3" s="253"/>
-      <c r="BJ3" s="253"/>
-      <c r="BK3" s="253"/>
-      <c r="BL3" s="253"/>
-      <c r="BM3" s="253"/>
-      <c r="BN3" s="253"/>
-      <c r="BO3" s="253"/>
-      <c r="BP3" s="253"/>
-      <c r="BQ3" s="253"/>
-      <c r="BR3" s="253"/>
-      <c r="BS3" s="253"/>
-      <c r="BT3" s="253"/>
-      <c r="BU3" s="253"/>
-      <c r="BV3" s="253"/>
-      <c r="BW3" s="253"/>
-      <c r="BX3" s="253"/>
-      <c r="BY3" s="253"/>
-      <c r="BZ3" s="253"/>
-      <c r="CA3" s="253"/>
-      <c r="CB3" s="253"/>
-      <c r="CC3" s="253"/>
-      <c r="CD3" s="253"/>
-      <c r="CE3" s="253"/>
-      <c r="CF3" s="253"/>
-      <c r="CG3" s="253"/>
-      <c r="CH3" s="253"/>
-      <c r="CI3" s="253"/>
-      <c r="CJ3" s="253"/>
-      <c r="CK3" s="253"/>
-      <c r="CL3" s="253"/>
-      <c r="CM3" s="253"/>
-      <c r="CN3" s="253"/>
-      <c r="CO3" s="253"/>
-      <c r="CP3" s="253"/>
-      <c r="CQ3" s="253"/>
-      <c r="CR3" s="253"/>
-      <c r="CS3" s="253"/>
-      <c r="CT3" s="253"/>
-      <c r="CU3" s="253"/>
-      <c r="CV3" s="254" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="254"/>
-      <c r="CX3" s="254"/>
-      <c r="CY3" s="254"/>
-      <c r="CZ3" s="254"/>
-      <c r="DA3" s="254"/>
-      <c r="DB3" s="254"/>
-      <c r="DC3" s="254"/>
-      <c r="DD3" s="254"/>
-      <c r="DE3" s="254"/>
-      <c r="DF3" s="254"/>
-      <c r="DG3" s="254"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="261"/>
-      <c r="AE4" s="261"/>
-      <c r="AF4" s="261"/>
-      <c r="AG4" s="261"/>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="261"/>
-      <c r="AK4" s="261"/>
-      <c r="AL4" s="261"/>
-      <c r="AM4" s="261"/>
-      <c r="AN4" s="261"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="261"/>
-      <c r="AQ4" s="261"/>
-      <c r="AR4" s="261"/>
-      <c r="AS4" s="261"/>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="261"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="261"/>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="261"/>
-      <c r="AZ4" s="261"/>
-      <c r="BA4" s="261"/>
-      <c r="BB4" s="261"/>
-      <c r="BC4" s="261"/>
-      <c r="BD4" s="261"/>
-      <c r="BE4" s="261"/>
-      <c r="BF4" s="261"/>
-      <c r="BG4" s="261"/>
-      <c r="BH4" s="261"/>
-      <c r="BI4" s="261"/>
-      <c r="BJ4" s="261"/>
-      <c r="BK4" s="261"/>
-      <c r="BL4" s="261"/>
-      <c r="BM4" s="261"/>
-      <c r="BN4" s="261"/>
-      <c r="BO4" s="261"/>
-      <c r="BP4" s="261"/>
-      <c r="BQ4" s="261"/>
-      <c r="BR4" s="261"/>
-      <c r="BS4" s="261"/>
-      <c r="BT4" s="261"/>
-      <c r="BU4" s="261"/>
-      <c r="BV4" s="261"/>
-      <c r="BW4" s="261"/>
-      <c r="BX4" s="261"/>
-      <c r="BY4" s="261"/>
-      <c r="BZ4" s="261"/>
-      <c r="CA4" s="261"/>
-      <c r="CB4" s="261"/>
-      <c r="CC4" s="261"/>
-      <c r="CD4" s="261"/>
-      <c r="CE4" s="261"/>
-      <c r="CF4" s="261"/>
-      <c r="CG4" s="261"/>
-      <c r="CH4" s="261"/>
-      <c r="CI4" s="261"/>
-      <c r="CJ4" s="261"/>
-      <c r="CK4" s="261"/>
-      <c r="CL4" s="261"/>
-      <c r="CM4" s="261"/>
-      <c r="CN4" s="261"/>
-      <c r="CO4" s="261"/>
-      <c r="CP4" s="261"/>
-      <c r="CQ4" s="261"/>
-      <c r="CR4" s="261"/>
-      <c r="CS4" s="261"/>
-      <c r="CT4" s="261"/>
-      <c r="CU4" s="261"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -11835,431 +12533,431 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="265" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="248" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="241" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="241"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="241"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="241"/>
-      <c r="AH6" s="241"/>
-      <c r="AI6" s="241"/>
-      <c r="AJ6" s="241"/>
-      <c r="AK6" s="241"/>
-      <c r="AL6" s="241"/>
-      <c r="AM6" s="241"/>
-      <c r="AN6" s="241"/>
-      <c r="AO6" s="241"/>
-      <c r="AP6" s="241"/>
-      <c r="AQ6" s="241"/>
-      <c r="AR6" s="241"/>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="241"/>
-      <c r="BB6" s="241"/>
-      <c r="BC6" s="241"/>
-      <c r="BD6" s="241"/>
-      <c r="BE6" s="241"/>
-      <c r="BF6" s="241"/>
-      <c r="BG6" s="241"/>
-      <c r="BH6" s="241"/>
-      <c r="BI6" s="241"/>
-      <c r="BJ6" s="241"/>
-      <c r="BK6" s="241"/>
-      <c r="BL6" s="241"/>
-      <c r="BM6" s="241"/>
-      <c r="BN6" s="241"/>
-      <c r="BO6" s="241"/>
-      <c r="BP6" s="241"/>
-      <c r="BQ6" s="241"/>
-      <c r="BR6" s="241"/>
-      <c r="BS6" s="241"/>
-      <c r="BT6" s="241"/>
-      <c r="BU6" s="241"/>
-      <c r="BV6" s="241"/>
-      <c r="BW6" s="241"/>
-      <c r="BX6" s="241"/>
-      <c r="BY6" s="241"/>
-      <c r="BZ6" s="241"/>
-      <c r="CA6" s="241"/>
-      <c r="CB6" s="241"/>
-      <c r="CC6" s="241"/>
-      <c r="CD6" s="241"/>
-      <c r="CE6" s="241"/>
-      <c r="CF6" s="241"/>
-      <c r="CG6" s="241"/>
-      <c r="CH6" s="241"/>
-      <c r="CI6" s="241"/>
-      <c r="CJ6" s="241"/>
-      <c r="CK6" s="241"/>
-      <c r="CL6" s="241"/>
-      <c r="CM6" s="241"/>
-      <c r="CN6" s="241"/>
-      <c r="CO6" s="241"/>
-      <c r="CP6" s="241"/>
-      <c r="CQ6" s="241"/>
-      <c r="CR6" s="241"/>
-      <c r="CS6" s="241"/>
-      <c r="CT6" s="241"/>
-      <c r="CU6" s="241"/>
-      <c r="CV6" s="255" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="256"/>
-      <c r="CX6" s="255" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="259"/>
-      <c r="CZ6" s="259"/>
-      <c r="DA6" s="259"/>
-      <c r="DB6" s="259"/>
-      <c r="DC6" s="259"/>
-      <c r="DD6" s="259"/>
-      <c r="DE6" s="259"/>
-      <c r="DF6" s="259"/>
-      <c r="DG6" s="259"/>
-      <c r="DH6" s="231" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="234" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="244" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="244"/>
-      <c r="DL6" s="244"/>
-      <c r="DM6" s="244"/>
-      <c r="DN6" s="244"/>
-      <c r="DO6" s="245"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="263"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="242"/>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="242"/>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-      <c r="V7" s="242"/>
-      <c r="W7" s="242"/>
-      <c r="X7" s="242"/>
-      <c r="Y7" s="242"/>
-      <c r="Z7" s="242"/>
-      <c r="AA7" s="242"/>
-      <c r="AB7" s="242"/>
-      <c r="AC7" s="242"/>
-      <c r="AD7" s="242"/>
-      <c r="AE7" s="242"/>
-      <c r="AF7" s="242"/>
-      <c r="AG7" s="242"/>
-      <c r="AH7" s="242"/>
-      <c r="AI7" s="242"/>
-      <c r="AJ7" s="242"/>
-      <c r="AK7" s="242"/>
-      <c r="AL7" s="242"/>
-      <c r="AM7" s="242"/>
-      <c r="AN7" s="242"/>
-      <c r="AO7" s="242"/>
-      <c r="AP7" s="242"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="242"/>
-      <c r="AS7" s="242"/>
-      <c r="AT7" s="242"/>
-      <c r="AU7" s="242"/>
-      <c r="AV7" s="242"/>
-      <c r="AW7" s="242"/>
-      <c r="AX7" s="242"/>
-      <c r="AY7" s="242"/>
-      <c r="AZ7" s="242"/>
-      <c r="BA7" s="242"/>
-      <c r="BB7" s="242"/>
-      <c r="BC7" s="242"/>
-      <c r="BD7" s="242"/>
-      <c r="BE7" s="242"/>
-      <c r="BF7" s="242"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="242"/>
-      <c r="BI7" s="242"/>
-      <c r="BJ7" s="242"/>
-      <c r="BK7" s="242"/>
-      <c r="BL7" s="242"/>
-      <c r="BM7" s="242"/>
-      <c r="BN7" s="242"/>
-      <c r="BO7" s="243"/>
-      <c r="BP7" s="243"/>
-      <c r="BQ7" s="243"/>
-      <c r="BR7" s="242"/>
-      <c r="BS7" s="242"/>
-      <c r="BT7" s="242"/>
-      <c r="BU7" s="242"/>
-      <c r="BV7" s="242"/>
-      <c r="BW7" s="242"/>
-      <c r="BX7" s="242"/>
-      <c r="BY7" s="242"/>
-      <c r="BZ7" s="242"/>
-      <c r="CA7" s="242"/>
-      <c r="CB7" s="242"/>
-      <c r="CC7" s="242"/>
-      <c r="CD7" s="242"/>
-      <c r="CE7" s="242"/>
-      <c r="CF7" s="242"/>
-      <c r="CG7" s="242"/>
-      <c r="CH7" s="242"/>
-      <c r="CI7" s="242"/>
-      <c r="CJ7" s="242"/>
-      <c r="CK7" s="242"/>
-      <c r="CL7" s="242"/>
-      <c r="CM7" s="242"/>
-      <c r="CN7" s="242"/>
-      <c r="CO7" s="242"/>
-      <c r="CP7" s="242"/>
-      <c r="CQ7" s="242"/>
-      <c r="CR7" s="242"/>
-      <c r="CS7" s="242"/>
-      <c r="CT7" s="242"/>
-      <c r="CU7" s="242"/>
-      <c r="CV7" s="257"/>
-      <c r="CW7" s="258"/>
-      <c r="CX7" s="257"/>
-      <c r="CY7" s="260"/>
-      <c r="CZ7" s="260"/>
-      <c r="DA7" s="260"/>
-      <c r="DB7" s="260"/>
-      <c r="DC7" s="260"/>
-      <c r="DD7" s="260"/>
-      <c r="DE7" s="260"/>
-      <c r="DF7" s="260"/>
-      <c r="DG7" s="260"/>
-      <c r="DH7" s="232"/>
-      <c r="DI7" s="235"/>
-      <c r="DJ7" s="246"/>
-      <c r="DK7" s="246"/>
-      <c r="DL7" s="246"/>
-      <c r="DM7" s="246"/>
-      <c r="DN7" s="246"/>
-      <c r="DO7" s="247"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="264"/>
-      <c r="B8" s="267"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="279">
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="290">
         <v>1</v>
       </c>
-      <c r="H8" s="227"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="221">
+      <c r="H8" s="249"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="267">
         <v>2</v>
       </c>
-      <c r="K8" s="222"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="274">
+      <c r="K8" s="252"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="285">
         <v>3</v>
       </c>
-      <c r="N8" s="275"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="274">
+      <c r="N8" s="286"/>
+      <c r="O8" s="289"/>
+      <c r="P8" s="285">
         <v>4</v>
       </c>
-      <c r="Q8" s="275"/>
-      <c r="R8" s="276"/>
-      <c r="S8" s="274">
+      <c r="Q8" s="286"/>
+      <c r="R8" s="287"/>
+      <c r="S8" s="285">
         <v>5</v>
       </c>
-      <c r="T8" s="275"/>
-      <c r="U8" s="278"/>
-      <c r="V8" s="274">
+      <c r="T8" s="286"/>
+      <c r="U8" s="289"/>
+      <c r="V8" s="285">
         <v>6</v>
       </c>
-      <c r="W8" s="275"/>
-      <c r="X8" s="276"/>
-      <c r="Y8" s="226">
+      <c r="W8" s="286"/>
+      <c r="X8" s="287"/>
+      <c r="Y8" s="248">
         <v>7</v>
       </c>
-      <c r="Z8" s="227"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="226">
+      <c r="Z8" s="249"/>
+      <c r="AA8" s="250"/>
+      <c r="AB8" s="248">
         <v>8</v>
       </c>
-      <c r="AC8" s="227"/>
-      <c r="AD8" s="229"/>
-      <c r="AE8" s="274">
+      <c r="AC8" s="249"/>
+      <c r="AD8" s="250"/>
+      <c r="AE8" s="285">
         <v>9</v>
       </c>
-      <c r="AF8" s="275"/>
-      <c r="AG8" s="278"/>
-      <c r="AH8" s="274">
+      <c r="AF8" s="286"/>
+      <c r="AG8" s="289"/>
+      <c r="AH8" s="285">
         <v>10</v>
       </c>
-      <c r="AI8" s="275"/>
-      <c r="AJ8" s="276"/>
-      <c r="AK8" s="274">
+      <c r="AI8" s="286"/>
+      <c r="AJ8" s="287"/>
+      <c r="AK8" s="285">
         <v>11</v>
       </c>
-      <c r="AL8" s="275"/>
-      <c r="AM8" s="276"/>
-      <c r="AN8" s="277">
+      <c r="AL8" s="286"/>
+      <c r="AM8" s="287"/>
+      <c r="AN8" s="288">
         <v>12</v>
       </c>
-      <c r="AO8" s="275"/>
-      <c r="AP8" s="278"/>
-      <c r="AQ8" s="274">
+      <c r="AO8" s="286"/>
+      <c r="AP8" s="289"/>
+      <c r="AQ8" s="285">
         <v>13</v>
       </c>
-      <c r="AR8" s="275"/>
-      <c r="AS8" s="276"/>
-      <c r="AT8" s="240">
+      <c r="AR8" s="286"/>
+      <c r="AS8" s="287"/>
+      <c r="AT8" s="279">
         <v>14</v>
       </c>
-      <c r="AU8" s="227"/>
-      <c r="AV8" s="229"/>
-      <c r="AW8" s="226">
+      <c r="AU8" s="249"/>
+      <c r="AV8" s="250"/>
+      <c r="AW8" s="248">
         <v>15</v>
       </c>
-      <c r="AX8" s="227"/>
-      <c r="AY8" s="229"/>
-      <c r="AZ8" s="274">
+      <c r="AX8" s="249"/>
+      <c r="AY8" s="250"/>
+      <c r="AZ8" s="285">
         <v>16</v>
       </c>
-      <c r="BA8" s="275"/>
-      <c r="BB8" s="276"/>
-      <c r="BC8" s="274">
+      <c r="BA8" s="286"/>
+      <c r="BB8" s="287"/>
+      <c r="BC8" s="285">
         <v>17</v>
       </c>
-      <c r="BD8" s="275"/>
-      <c r="BE8" s="278"/>
-      <c r="BF8" s="274">
+      <c r="BD8" s="286"/>
+      <c r="BE8" s="289"/>
+      <c r="BF8" s="285">
         <v>18</v>
       </c>
-      <c r="BG8" s="275"/>
-      <c r="BH8" s="276"/>
-      <c r="BI8" s="277">
+      <c r="BG8" s="286"/>
+      <c r="BH8" s="287"/>
+      <c r="BI8" s="288">
         <v>19</v>
       </c>
-      <c r="BJ8" s="275"/>
-      <c r="BK8" s="278"/>
-      <c r="BL8" s="274">
+      <c r="BJ8" s="286"/>
+      <c r="BK8" s="289"/>
+      <c r="BL8" s="285">
         <v>20</v>
       </c>
-      <c r="BM8" s="275"/>
-      <c r="BN8" s="276"/>
-      <c r="BO8" s="226">
+      <c r="BM8" s="286"/>
+      <c r="BN8" s="287"/>
+      <c r="BO8" s="248">
         <v>21</v>
       </c>
-      <c r="BP8" s="227"/>
-      <c r="BQ8" s="229"/>
-      <c r="BR8" s="226">
+      <c r="BP8" s="249"/>
+      <c r="BQ8" s="250"/>
+      <c r="BR8" s="248">
         <v>22</v>
       </c>
-      <c r="BS8" s="227"/>
-      <c r="BT8" s="229"/>
-      <c r="BU8" s="277">
+      <c r="BS8" s="249"/>
+      <c r="BT8" s="250"/>
+      <c r="BU8" s="288">
         <v>23</v>
       </c>
-      <c r="BV8" s="275"/>
-      <c r="BW8" s="278"/>
-      <c r="BX8" s="274">
+      <c r="BV8" s="286"/>
+      <c r="BW8" s="289"/>
+      <c r="BX8" s="285">
         <v>24</v>
       </c>
-      <c r="BY8" s="275"/>
-      <c r="BZ8" s="276"/>
-      <c r="CA8" s="277">
+      <c r="BY8" s="286"/>
+      <c r="BZ8" s="287"/>
+      <c r="CA8" s="288">
         <v>25</v>
       </c>
-      <c r="CB8" s="275"/>
-      <c r="CC8" s="278"/>
-      <c r="CD8" s="274">
+      <c r="CB8" s="286"/>
+      <c r="CC8" s="289"/>
+      <c r="CD8" s="285">
         <v>26</v>
       </c>
-      <c r="CE8" s="275"/>
-      <c r="CF8" s="276"/>
-      <c r="CG8" s="277">
+      <c r="CE8" s="286"/>
+      <c r="CF8" s="287"/>
+      <c r="CG8" s="288">
         <v>27</v>
       </c>
-      <c r="CH8" s="275"/>
-      <c r="CI8" s="278"/>
-      <c r="CJ8" s="226">
+      <c r="CH8" s="286"/>
+      <c r="CI8" s="289"/>
+      <c r="CJ8" s="248">
         <v>28</v>
       </c>
-      <c r="CK8" s="227"/>
-      <c r="CL8" s="229"/>
-      <c r="CM8" s="226">
+      <c r="CK8" s="249"/>
+      <c r="CL8" s="250"/>
+      <c r="CM8" s="248">
         <v>29</v>
       </c>
-      <c r="CN8" s="227"/>
-      <c r="CO8" s="229"/>
-      <c r="CP8" s="274">
+      <c r="CN8" s="249"/>
+      <c r="CO8" s="250"/>
+      <c r="CP8" s="285">
         <v>30</v>
       </c>
-      <c r="CQ8" s="275"/>
-      <c r="CR8" s="276"/>
-      <c r="CS8" s="280"/>
-      <c r="CT8" s="281"/>
-      <c r="CU8" s="282"/>
+      <c r="CQ8" s="286"/>
+      <c r="CR8" s="287"/>
+      <c r="CS8" s="291"/>
+      <c r="CT8" s="292"/>
+      <c r="CU8" s="293"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -12296,8 +12994,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="233"/>
-      <c r="DI8" s="236"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -12858,55 +13556,55 @@
       <c r="CS10" s="175"/>
       <c r="CT10" s="173"/>
       <c r="CU10" s="174"/>
-      <c r="CV10" s="289">
+      <c r="CV10" s="225">
         <f t="shared" ref="CV10:CV23" si="0">IF(SUM(G10:I10)&gt;=1,1,0)+IF(SUM(J10:L10)&gt;=1,1,0)+IF(SUM(M10:O10)&gt;=1,1,0)+IF(SUM(P10:R10)&gt;=1,1,0)+IF(SUM(S10:U10)&gt;=1,1,0)+IF(SUM(V10:X10)&gt;=1,1,0)+IF(SUM(Y10:AA10)&gt;=1,1,0)+IF(SUM(AB10:AD10)&gt;=1,1,0)+IF(SUM(AE10:AG10)&gt;=1,1,0)+IF(SUM(AH10:AJ10)&gt;=1,1,0)+IF(SUM(AK10:AM10)&gt;=1,1,0)+IF(SUM(AN10:AP10)&gt;=1,1,0)+IF(SUM(AQ10:AS10)&gt;=1,1,0)+IF(SUM(AT10:AV10)&gt;=1,1,0)+IF(SUM(AW10:AY10)&gt;=1,1,0)+IF(SUM(AZ10:BB10)&gt;=1,1,0)+IF(SUM(BC10:BE10)&gt;=1,1,0)+IF(SUM(BF10:BH10)&gt;=1,1,0)+IF(SUM(BI10:BK10)&gt;=1,1,0)+IF(SUM(BL10:BN10)&gt;=1,1,0)+IF(SUM(BO10:BQ10)&gt;=1,1,0)+IF(SUM(BR10:BT10)&gt;=1,1,0)+IF(SUM(BU10:BW10)&gt;=1,1,0)+IF(SUM(BX10:BZ10)&gt;=1,1,0)+IF(SUM(CA10:CC10)&gt;=1,1,0)+IF(SUM(CD10:CF10)&gt;=1,1,0)+IF(SUM(CG10:CI10)&gt;=1,1,0)+IF(SUM(CJ10:CL10)&gt;=1,1,0)+IF(SUM(CM10:CO10)&gt;=1,1,0)+IF(SUM(CP10:CR10)&gt;=1,1,0)+IF(SUM(CS10:CU10)&gt;=1,1,0)</f>
         <v>21</v>
       </c>
-      <c r="CW10" s="284">
+      <c r="CW10" s="220">
         <f t="shared" ref="CW10:CW23" si="1">IF(CK10="К",1,0)+IF(CN10="К",1,0)+IF(CQ10="К",1,0)+IF(CT10="К",1,0)+IF(CH10="К",1,0)+IF(H10="К",1,0)+IF(K10="К",1,0)+IF(N10="К",1,0)+IF(Q10="К",1,0)+IF(T10="К",1,0)+IF(W10="К",1,0)+IF(Z10="К",1,0)+IF(AC10="К",1,0)+IF(AF10="К",1,0)+IF(AI10="К",1,0)+IF(AL10="К",1,0)+IF(AO10="К",1,0)+IF(AR10="К",1,0)+IF(AU10="К",1,0)+IF(AX10="К",1,0)+IF(BA10="К",1,0)+IF(BD10="К",1,0)+IF(BG10="К",1,0)+IF(BJ10="К",1,0)+IF(BM10="К",1,0)+IF(BP10="К",1,0)+IF(BS10="К",1,0)+IF(BV10="К",1,0)+IF(BY10="К",1,0)+IF(CB10="К",1,0)+IF(CE10="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX10" s="284">
+      <c r="CX10" s="220">
         <f t="shared" ref="CX10:CX23" si="2">IF(CN10="О",1,0)+IF(CQ10="О",1,0)+IF(CT10="О",1,0)+IF(H10="О",1,0)+IF(K10="О",1,0)+IF(N10="О",1,0)+IF(Q10="О",1,0)+IF(T10="О",1,0)+IF(W10="О",1,0)+IF(Z10="О",1,0)+IF(AC10="О",1,0)+IF(AF10="О",1,0)+IF(AI10="О",1,0)+IF(AL10="О",1,0)+IF(AO10="О",1,0)+IF(AR10="О",1,0)+IF(AU10="О",1,0)+IF(AX10="О",1,0)+IF(BA10="О",1,0)+IF(BD10="О",1,0)+IF(BG10="О",1,0)+IF(BJ10="О",1,0)+IF(BM10="О",1,0)+IF(BP10="О",1,0)+IF(BS10="О",1,0)+IF(BV10="О",1,0)+IF(BY10="О",1,0)+IF(CB10="О",1,0)+IF(CE10="О",1,0)+IF(CH10="О",1,0)+IF(CK10="О",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CY10" s="284">
+      <c r="CY10" s="220">
         <f t="shared" ref="CY10:CY23" si="3">IF(CN10="Р",1,0)+IF(CQ10="Р",1,0)+IF(CT10="Р",1,0)+IF(H10="Р",1,0)+IF(K10="Р",1,0)+IF(N10="Р",1,0)+IF(Q10="Р",1,0)+IF(T10="Р",1,0)+IF(W10="Р",1,0)+IF(Z10="Р",1,0)+IF(AC10="Р",1,0)+IF(AF10="Р",1,0)+IF(AI10="Р",1,0)+IF(AL10="Р",1,0)+IF(AO10="Р",1,0)+IF(AR10="Р",1,0)+IF(AU10="Р",1,0)+IF(AX10="Р",1,0)+IF(BA10="Р",1,0)+IF(BD10="Р",1,0)+IF(BG10="Р",1,0)+IF(BJ10="Р",1,0)+IF(BM10="Р",1,0)+IF(BP10="Р",1,0)+IF(BS10="Р",1,0)+IF(BV10="Р",1,0)+IF(BY10="Р",1,0)+IF(CB10="Р",1,0)+IF(CE10="Р",1,0)+IF(CH10="Р",1,0)+IF(CK10="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ10" s="284">
+      <c r="CZ10" s="220">
         <f t="shared" ref="CZ10:CZ23" si="4">IF(CN10="Б",1,0)+IF(CQ10="Б",1,0)+IF(CT10="Б",1,0)+IF(H10="Б",1,0)+IF(K10="Б",1,0)+IF(N10="Б",1,0)+IF(Q10="Б",1,0)+IF(T10="Б",1,0)+IF(W10="Б",1,0)+IF(Z10="Б",1,0)+IF(AC10="Б",1,0)+IF(AF10="Б",1,0)+IF(AI10="Б",1,0)+IF(AL10="Б",1,0)+IF(AO10="Б",1,0)+IF(AR10="Б",1,0)+IF(AU10="Б",1,0)+IF(AX10="Б",1,0)+IF(BA10="Б",1,0)+IF(BD10="Б",1,0)+IF(BG10="Б",1,0)+IF(BJ10="Б",1,0)+IF(BM10="Б",1,0)+IF(BP10="Б",1,0)+IF(BS10="Б",1,0)+IF(BV10="Б",1,0)+IF(BY10="Б",1,0)+IF(CB10="Б",1,0)+IF(CE10="Б",1,0)+IF(CH10="Б",1,0)+IF(CK10="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA10" s="284">
+      <c r="DA10" s="220">
         <f t="shared" ref="DA10:DA23" si="5">IF(CN10="А",1,0)+IF(CQ10="А",1,0)+IF(CT10="А",1,0)+IF(H10="А",1,0)+IF(K10="А",1,0)+IF(N10="А",1,0)+IF(Q10="А",1,0)+IF(T10="А",1,0)+IF(W10="А",1,0)+IF(Z10="А",1,0)+IF(AC10="А",1,0)+IF(AF10="А",1,0)+IF(AI10="А",1,0)+IF(AL10="А",1,0)+IF(AO10="А",1,0)+IF(AR10="А",1,0)+IF(AU10="А",1,0)+IF(AX10="А",1,0)+IF(BA10="А",1,0)+IF(BD10="А",1,0)+IF(BG10="А",1,0)+IF(BJ10="А",1,0)+IF(BM10="А",1,0)+IF(BP10="А",1,0)+IF(BS10="А",1,0)+IF(BV10="А",1,0)+IF(BY10="А",1,0)+IF(CB10="А",1,0)+IF(CE10="А",1,0)+IF(CH10="А",1,0)+IF(CK10="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB10" s="284">
+      <c r="DB10" s="220">
         <f t="shared" ref="DB10:DB23" si="6">IF(CN10="П",1,0)+IF(CQ10="П",1,0)+IF(CT10="П",1,0)+IF(H10="П",1,0)+IF(K10="П",1,0)+IF(N10="П",1,0)+IF(Q10="П",1,0)+IF(T10="П",1,0)+IF(W10="П",1,0)+IF(Z10="П",1,0)+IF(AC10="П",1,0)+IF(AF10="П",1,0)+IF(AI10="П",1,0)+IF(AL10="П",1,0)+IF(AO10="П",1,0)+IF(AR10="П",1,0)+IF(AU10="П",1,0)+IF(AX10="П",1,0)+IF(BA10="П",1,0)+IF(BD10="П",1,0)+IF(BG10="П",1,0)+IF(BJ10="П",1,0)+IF(BM10="П",1,0)+IF(BP10="П",1,0)+IF(BS10="П",1,0)+IF(BV10="П",1,0)+IF(BY10="П",1,0)+IF(CB10="П",1,0)+IF(CE10="П",1,0)+IF(CH10="П",1,0)+IF(CK10="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC10" s="284">
+      <c r="DC10" s="220">
         <f t="shared" ref="DC10:DC23" si="7">IF(CN10="У",1,0)+IF(CQ10="У",1,0)+IF(CT10="У",1,0)+IF(H10="У",1,0)+IF(K10="У",1,0)+IF(N10="У",1,0)+IF(Q10="У",1,0)+IF(T10="У",1,0)+IF(W10="У",1,0)+IF(Z10="У",1,0)+IF(AC10="У",1,0)+IF(AF10="У",1,0)+IF(AI10="У",1,0)+IF(AL10="У",1,0)+IF(AO10="У",1,0)+IF(AR10="У",1,0)+IF(AU10="У",1,0)+IF(AX10="У",1,0)+IF(BA10="У",1,0)+IF(BD10="У",1,0)+IF(BG10="У",1,0)+IF(BJ10="У",1,0)+IF(BM10="У",1,0)+IF(BP10="У",1,0)+IF(BS10="У",1,0)+IF(BV10="У",1,0)+IF(BY10="У",1,0)+IF(CB10="У",1,0)+IF(CE10="У",1,0)+IF(CH10="У",1,0)+IF(CK10="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD10" s="284">
+      <c r="DD10" s="220">
         <f t="shared" ref="DD10:DD23" si="8">IF(CN10="Г",1,0)+IF(CQ10="Г",1,0)+IF(CT10="Г",1,0)+IF(H10="Г",1,0)+IF(K10="Г",1,0)+IF(N10="Г",1,0)+IF(Q10="Г",1,0)+IF(T10="Г",1,0)+IF(W10="Г",1,0)+IF(Z10="Г",1,0)+IF(AC10="Г",1,0)+IF(AF10="Г",1,0)+IF(AI10="Г",1,0)+IF(AL10="Г",1,0)+IF(AO10="Г",1,0)+IF(AR10="Г",1,0)+IF(AU10="Г",1,0)+IF(AX10="Г",1,0)+IF(BA10="Г",1,0)+IF(BD10="Г",1,0)+IF(BG10="Г",1,0)+IF(BJ10="Г",1,0)+IF(BM10="Г",1,0)+IF(BP10="Г",1,0)+IF(BS10="Г",1,0)+IF(BV10="Г",1,0)+IF(BY10="Г",1,0)+IF(CB10="Г",1,0)+IF(CE10="Г",1,0)+IF(CH10="Г",1,0)+IF(CK10="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE10" s="284">
+      <c r="DE10" s="220">
         <f t="shared" ref="DE10:DE22" si="9">IF(CQ10="ОЧ",1,0)+IF(CT10="ОЧ",1,0)+IF(H10="ОЧ",1,0)+IF(K10="ОЧ",1,0)+IF(N10="ОЧ",1,0)+IF(Q10="ОЧ",1,0)+IF(T10="ОЧ",1,0)+IF(W10="ОЧ",1,0)+IF(Z10="ОЧ",1,0)+IF(AC10="ОЧ",1,0)+IF(AF10="ОЧ",1,0)+IF(AI10="ОЧ",1,0)+IF(AL10="ОЧ",1,0)+IF(AO10="ОЧ",1,0)+IF(AR10="ОЧ",1,0)+IF(AU10="ОЧ",1,0)+IF(AX10="ОЧ",1,0)+IF(BA10="ОЧ",1,0)+IF(BD10="ОЧ",1,0)+IF(BG10="ОЧ",1,0)+IF(BJ10="ОЧ",1,0)+IF(BM10="ОЧ",1,0)+IF(BP10="ОЧ",1,0)+IF(BS10="ОЧ",1,0)+IF(BV10="ОЧ",1,0)+IF(BY10="ОЧ",1,0)+IF(CB10="ОЧ",1,0)+IF(CE10="ОЧ",1,0)+IF(CH10="ОЧ",1,0)+IF(CK10="ОЧ",1,0)+IF(CN10="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF10" s="284">
+      <c r="DF10" s="220">
         <f t="shared" ref="DF10:DF22" si="10">IF(CQ10="Т",1,0)+IF(CT10="Т",1,0)+IF(K10="Т",1,0)+IF(H10="Т",1,0)+IF(N10="Т",1,0)+IF(Q10="Т",1,0)+IF(T10="Т",1,0)+IF(W10="Т",1,0)+IF(Z10="Т",1,0)+IF(AC10="Т",1,0)+IF(AF10="Т",1,0)+IF(AI10="Т",1,0)+IF(AL10="Т",1,0)+IF(AO10="Т",1,0)+IF(AR10="Т",1,0)+IF(AU10="Т",1,0)+IF(AX10="Т",1,0)+IF(BA10="Т",1,0)+IF(BD10="Т",1,0)+IF(BG10="Т",1,0)+IF(BJ10="Т",1,0)+IF(BM10="Т",1,0)+IF(BP10="Т",1,0)+IF(BS10="Т",1,0)+IF(BV10="Т",1,0)+IF(BY10="Т",1,0)+IF(CB10="Т",1,0)+IF(CE10="Т",1,0)+IF(CH10="Т",1,0)+IF(CK10="Т",1,0)+IF(CN10="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG10" s="284">
+      <c r="DG10" s="220">
         <f t="shared" ref="DG10:DG22" si="11">IF(CT10="Пр",1,0)+IF(H10="Пр",1,0)+IF(K10="Пр",1,0)+IF(N10="Пр",1,0)+IF(Q10="Пр",1,0)+IF(T10="Пр",1,0)+IF(W10="Пр",1,0)+IF(Z10="Пр",1,0)+IF(AC10="Пр",1,0)+IF(AF10="Пр",1,0)+IF(AI10="Пр",1,0)+IF(AL10="Пр",1,0)+IF(AO10="Пр",1,0)+IF(AR10="Пр",1,0)+IF(AU10="Пр",1,0)+IF(AX10="Пр",1,0)+IF(BA10="Пр",1,0)+IF(BD10="Пр",1,0)+IF(BG10="Пр",1,0)+IF(BJ10="Пр",1,0)+IF(BM10="Пр",1,0)+IF(BP10="Пр",1,0)+IF(BS10="Пр",1,0)+IF(BV10="Пр",1,0)+IF(BY10="Пр",1,0)+IF(CB10="Пр",1,0)+IF(CE10="Пр",1,0)+IF(CH10="Пр",1,0)+IF(CK10="Пр",1,0)+IF(CN10="Пр",1,0)+IF(CQ10="Пр",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH10" s="284">
+      <c r="DH10" s="220">
         <f t="shared" ref="DH10:DH22" si="12">IF(CQ10="В",1,0)+IF(CT10="В",1,0)+IF(H10="В",1,0)+IF(K10="В",1,0)+IF(N10="В",1,0)+IF(Q10="В",1,0)+IF(T10="В",1,0)+IF(W10="В",1,0)+IF(Z10="В",1,0)+IF(AC10="В",1,0)+IF(AF10="В",1,0)+IF(AI10="В",1,0)+IF(AL10="В",1,0)+IF(AO10="В",1,0)+IF(AR10="В",1,0)+IF(AU10="В",1,0)+IF(AX10="В",1,0)+IF(BA10="В",1,0)+IF(BD10="В",1,0)+IF(BG10="В",1,0)+IF(BJ10="В",1,0)+IF(BM10="В",1,0)+IF(BP10="В",1,0)+IF(BS10="В",1,0)+IF(BV10="В",1,0)+IF(BY10="В",1,0)+IF(CB10="В",1,0)+IF(CE10="В",1,0)+IF(CH10="В",1,0)+IF(CK10="В",1,0)+IF(CN10="В",1,0)</f>
         <v>9</v>
       </c>
@@ -13160,55 +13858,55 @@
       <c r="CS11" s="187"/>
       <c r="CT11" s="182"/>
       <c r="CU11" s="183"/>
-      <c r="CV11" s="290">
+      <c r="CV11" s="226">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="CW11" s="285">
+      <c r="CW11" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX11" s="285">
+      <c r="CX11" s="221">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY11" s="285">
+      <c r="CY11" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ11" s="285">
+      <c r="CZ11" s="221">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA11" s="285">
+      <c r="DA11" s="221">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB11" s="285">
+      <c r="DB11" s="221">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC11" s="285">
+      <c r="DC11" s="221">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD11" s="285">
+      <c r="DD11" s="221">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE11" s="285">
+      <c r="DE11" s="221">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF11" s="285">
+      <c r="DF11" s="221">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG11" s="285">
+      <c r="DG11" s="221">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH11" s="285">
+      <c r="DH11" s="221">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -13472,55 +14170,55 @@
       <c r="CS12" s="187"/>
       <c r="CT12" s="182"/>
       <c r="CU12" s="183"/>
-      <c r="CV12" s="292">
+      <c r="CV12" s="228">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="CW12" s="286">
+      <c r="CW12" s="222">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX12" s="286">
+      <c r="CX12" s="222">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY12" s="286">
+      <c r="CY12" s="222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ12" s="286">
+      <c r="CZ12" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA12" s="286">
+      <c r="DA12" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB12" s="286">
+      <c r="DB12" s="222">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC12" s="286">
+      <c r="DC12" s="222">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD12" s="286">
+      <c r="DD12" s="222">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE12" s="286">
+      <c r="DE12" s="222">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF12" s="286">
+      <c r="DF12" s="222">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG12" s="286">
+      <c r="DG12" s="222">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH12" s="286">
+      <c r="DH12" s="222">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -13532,12 +14230,12 @@
         <f t="shared" si="24"/>
         <v>164.75</v>
       </c>
-      <c r="DK12" s="293">
-        <v>0</v>
-      </c>
-      <c r="DL12" s="293"/>
-      <c r="DM12" s="293"/>
-      <c r="DN12" s="294">
+      <c r="DK12" s="229">
+        <v>0</v>
+      </c>
+      <c r="DL12" s="229"/>
+      <c r="DM12" s="229"/>
+      <c r="DN12" s="230">
         <f t="shared" si="14"/>
         <v>62</v>
       </c>
@@ -13782,55 +14480,55 @@
       <c r="CS13" s="187"/>
       <c r="CT13" s="182"/>
       <c r="CU13" s="183"/>
-      <c r="CV13" s="291">
+      <c r="CV13" s="227">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="CW13" s="286">
+      <c r="CW13" s="222">
         <f>IF(CK13="К",1,0)+IF(CN13="К",1,0)+IF(CQ13="К",1,0)+IF(CT13="К",1,0)+IF(CH13="К",1,0)+IF(H13="К",1,0)+IF(K13="К",1,0)+IF(N13="К",1,0)+IF(Q13="К",1,0)+IF(T13="К",1,0)+IF(W13="К",1,0)+IF(Z13="К",1,0)+IF(AC13="К",1,0)+IF(AF13="К",1,0)+IF(AI13="К",1,0)+IF(AL13="К",1,0)+IF(AO13="К",1,0)+IF(AR13="К",1,0)+IF(AU13="К",1,0)+IF(AX13="К",1,0)+IF(BA13="К",1,0)+IF(BD13="К",1,0)+IF(BG13="К",1,0)+IF(BJ13="К",1,0)+IF(BM13="К",1,0)+IF(BP13="К",1,0)+IF(BS13="К",1,0)+IF(BV13="К",1,0)+IF(BY13="К",1,0)+IF(CB13="К",1,0)+IF(CE13="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX13" s="286">
+      <c r="CX13" s="222">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="CY13" s="286">
+      <c r="CY13" s="222">
         <f>IF(CN13="Р",1,0)+IF(CQ13="Р",1,0)+IF(CT13="Р",1,0)+IF(H13="Р",1,0)+IF(K13="Р",1,0)+IF(N13="Р",1,0)+IF(Q13="Р",1,0)+IF(T13="Р",1,0)+IF(W13="Р",1,0)+IF(Z13="Р",1,0)+IF(AC13="Р",1,0)+IF(AF13="Р",1,0)+IF(AI13="Р",1,0)+IF(AL13="Р",1,0)+IF(AO13="Р",1,0)+IF(AR13="Р",1,0)+IF(AU13="Р",1,0)+IF(AX13="Р",1,0)+IF(BA13="Р",1,0)+IF(BD13="Р",1,0)+IF(BG13="Р",1,0)+IF(BJ13="Р",1,0)+IF(BM13="Р",1,0)+IF(BP13="Р",1,0)+IF(BS13="Р",1,0)+IF(BV13="Р",1,0)+IF(BY13="Р",1,0)+IF(CB13="Р",1,0)+IF(CE13="Р",1,0)+IF(CH13="Р",1,0)+IF(CK13="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ13" s="286">
+      <c r="CZ13" s="222">
         <f>IF(CN13="Б",1,0)+IF(CQ13="Б",1,0)+IF(CT13="Б",1,0)+IF(H13="Б",1,0)+IF(K13="Б",1,0)+IF(N13="Б",1,0)+IF(Q13="Б",1,0)+IF(T13="Б",1,0)+IF(W13="Б",1,0)+IF(Z13="Б",1,0)+IF(AC13="Б",1,0)+IF(AF13="Б",1,0)+IF(AI13="Б",1,0)+IF(AL13="Б",1,0)+IF(AO13="Б",1,0)+IF(AR13="Б",1,0)+IF(AU13="Б",1,0)+IF(AX13="Б",1,0)+IF(BA13="Б",1,0)+IF(BD13="Б",1,0)+IF(BG13="Б",1,0)+IF(BJ13="Б",1,0)+IF(BM13="Б",1,0)+IF(BP13="Б",1,0)+IF(BS13="Б",1,0)+IF(BV13="Б",1,0)+IF(BY13="Б",1,0)+IF(CB13="Б",1,0)+IF(CE13="Б",1,0)+IF(CH13="Б",1,0)+IF(CK13="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA13" s="286">
+      <c r="DA13" s="222">
         <f>IF(CN13="А",1,0)+IF(CQ13="А",1,0)+IF(CT13="А",1,0)+IF(H13="А",1,0)+IF(K13="А",1,0)+IF(N13="А",1,0)+IF(Q13="А",1,0)+IF(T13="А",1,0)+IF(W13="А",1,0)+IF(Z13="А",1,0)+IF(AC13="А",1,0)+IF(AF13="А",1,0)+IF(AI13="А",1,0)+IF(AL13="А",1,0)+IF(AO13="А",1,0)+IF(AR13="А",1,0)+IF(AU13="А",1,0)+IF(AX13="А",1,0)+IF(BA13="А",1,0)+IF(BD13="А",1,0)+IF(BG13="А",1,0)+IF(BJ13="А",1,0)+IF(BM13="А",1,0)+IF(BP13="А",1,0)+IF(BS13="А",1,0)+IF(BV13="А",1,0)+IF(BY13="А",1,0)+IF(CB13="А",1,0)+IF(CE13="А",1,0)+IF(CH13="А",1,0)+IF(CK13="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB13" s="286">
+      <c r="DB13" s="222">
         <f>IF(CN13="П",1,0)+IF(CQ13="П",1,0)+IF(CT13="П",1,0)+IF(H13="П",1,0)+IF(K13="П",1,0)+IF(N13="П",1,0)+IF(Q13="П",1,0)+IF(T13="П",1,0)+IF(W13="П",1,0)+IF(Z13="П",1,0)+IF(AC13="П",1,0)+IF(AF13="П",1,0)+IF(AI13="П",1,0)+IF(AL13="П",1,0)+IF(AO13="П",1,0)+IF(AR13="П",1,0)+IF(AU13="П",1,0)+IF(AX13="П",1,0)+IF(BA13="П",1,0)+IF(BD13="П",1,0)+IF(BG13="П",1,0)+IF(BJ13="П",1,0)+IF(BM13="П",1,0)+IF(BP13="П",1,0)+IF(BS13="П",1,0)+IF(BV13="П",1,0)+IF(BY13="П",1,0)+IF(CB13="П",1,0)+IF(CE13="П",1,0)+IF(CH13="П",1,0)+IF(CK13="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC13" s="286">
+      <c r="DC13" s="222">
         <f>IF(CN13="У",1,0)+IF(CQ13="У",1,0)+IF(CT13="У",1,0)+IF(H13="У",1,0)+IF(K13="У",1,0)+IF(N13="У",1,0)+IF(Q13="У",1,0)+IF(T13="У",1,0)+IF(W13="У",1,0)+IF(Z13="У",1,0)+IF(AC13="У",1,0)+IF(AF13="У",1,0)+IF(AI13="У",1,0)+IF(AL13="У",1,0)+IF(AO13="У",1,0)+IF(AR13="У",1,0)+IF(AU13="У",1,0)+IF(AX13="У",1,0)+IF(BA13="У",1,0)+IF(BD13="У",1,0)+IF(BG13="У",1,0)+IF(BJ13="У",1,0)+IF(BM13="У",1,0)+IF(BP13="У",1,0)+IF(BS13="У",1,0)+IF(BV13="У",1,0)+IF(BY13="У",1,0)+IF(CB13="У",1,0)+IF(CE13="У",1,0)+IF(CH13="У",1,0)+IF(CK13="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD13" s="286">
+      <c r="DD13" s="222">
         <f>IF(CN13="Г",1,0)+IF(CQ13="Г",1,0)+IF(CT13="Г",1,0)+IF(H13="Г",1,0)+IF(K13="Г",1,0)+IF(N13="Г",1,0)+IF(Q13="Г",1,0)+IF(T13="Г",1,0)+IF(W13="Г",1,0)+IF(Z13="Г",1,0)+IF(AC13="Г",1,0)+IF(AF13="Г",1,0)+IF(AI13="Г",1,0)+IF(AL13="Г",1,0)+IF(AO13="Г",1,0)+IF(AR13="Г",1,0)+IF(AU13="Г",1,0)+IF(AX13="Г",1,0)+IF(BA13="Г",1,0)+IF(BD13="Г",1,0)+IF(BG13="Г",1,0)+IF(BJ13="Г",1,0)+IF(BM13="Г",1,0)+IF(BP13="Г",1,0)+IF(BS13="Г",1,0)+IF(BV13="Г",1,0)+IF(BY13="Г",1,0)+IF(CB13="Г",1,0)+IF(CE13="Г",1,0)+IF(CH13="Г",1,0)+IF(CK13="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE13" s="286">
+      <c r="DE13" s="222">
         <f>IF(CQ13="ОЧ",1,0)+IF(CT13="ОЧ",1,0)+IF(H13="ОЧ",1,0)+IF(K13="ОЧ",1,0)+IF(N13="ОЧ",1,0)+IF(Q13="ОЧ",1,0)+IF(T13="ОЧ",1,0)+IF(W13="ОЧ",1,0)+IF(Z13="ОЧ",1,0)+IF(AC13="ОЧ",1,0)+IF(AF13="ОЧ",1,0)+IF(AI13="ОЧ",1,0)+IF(AL13="ОЧ",1,0)+IF(AO13="ОЧ",1,0)+IF(AR13="ОЧ",1,0)+IF(AU13="ОЧ",1,0)+IF(AX13="ОЧ",1,0)+IF(BA13="ОЧ",1,0)+IF(BD13="ОЧ",1,0)+IF(BG13="ОЧ",1,0)+IF(BJ13="ОЧ",1,0)+IF(BM13="ОЧ",1,0)+IF(BP13="ОЧ",1,0)+IF(BS13="ОЧ",1,0)+IF(BV13="ОЧ",1,0)+IF(BY13="ОЧ",1,0)+IF(CB13="ОЧ",1,0)+IF(CE13="ОЧ",1,0)+IF(CH13="ОЧ",1,0)+IF(CK13="ОЧ",1,0)+IF(CN13="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF13" s="286">
+      <c r="DF13" s="222">
         <f>IF(CQ13="Т",1,0)+IF(CT13="Т",1,0)+IF(K13="Т",1,0)+IF(H13="Т",1,0)+IF(N13="Т",1,0)+IF(Q13="Т",1,0)+IF(T13="Т",1,0)+IF(W13="Т",1,0)+IF(Z13="Т",1,0)+IF(AC13="Т",1,0)+IF(AF13="Т",1,0)+IF(AI13="Т",1,0)+IF(AL13="Т",1,0)+IF(AO13="Т",1,0)+IF(AR13="Т",1,0)+IF(AU13="Т",1,0)+IF(AX13="Т",1,0)+IF(BA13="Т",1,0)+IF(BD13="Т",1,0)+IF(BG13="Т",1,0)+IF(BJ13="Т",1,0)+IF(BM13="Т",1,0)+IF(BP13="Т",1,0)+IF(BS13="Т",1,0)+IF(BV13="Т",1,0)+IF(BY13="Т",1,0)+IF(CB13="Т",1,0)+IF(CE13="Т",1,0)+IF(CH13="Т",1,0)+IF(CK13="Т",1,0)+IF(CN13="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG13" s="286">
+      <c r="DG13" s="222">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH13" s="286">
+      <c r="DH13" s="222">
         <f>IF(CQ13="В",1,0)+IF(CT13="В",1,0)+IF(H13="В",1,0)+IF(K13="В",1,0)+IF(N13="В",1,0)+IF(Q13="В",1,0)+IF(T13="В",1,0)+IF(W13="В",1,0)+IF(Z13="В",1,0)+IF(AC13="В",1,0)+IF(AF13="В",1,0)+IF(AI13="В",1,0)+IF(AL13="В",1,0)+IF(AO13="В",1,0)+IF(AR13="В",1,0)+IF(AU13="В",1,0)+IF(AX13="В",1,0)+IF(BA13="В",1,0)+IF(BD13="В",1,0)+IF(BG13="В",1,0)+IF(BJ13="В",1,0)+IF(BM13="В",1,0)+IF(BP13="В",1,0)+IF(BS13="В",1,0)+IF(BV13="В",1,0)+IF(BY13="В",1,0)+IF(CB13="В",1,0)+IF(CE13="В",1,0)+IF(CH13="В",1,0)+IF(CK13="В",1,0)+IF(CN13="В",1,0)</f>
         <v>9</v>
       </c>
@@ -14090,55 +14788,55 @@
       <c r="CS14" s="187"/>
       <c r="CT14" s="182"/>
       <c r="CU14" s="183"/>
-      <c r="CV14" s="291">
+      <c r="CV14" s="227">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="CW14" s="287">
+      <c r="CW14" s="223">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX14" s="286">
+      <c r="CX14" s="222">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="CY14" s="287">
+      <c r="CY14" s="223">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ14" s="287">
+      <c r="CZ14" s="223">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA14" s="287">
+      <c r="DA14" s="223">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB14" s="287">
+      <c r="DB14" s="223">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC14" s="287">
+      <c r="DC14" s="223">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD14" s="287">
+      <c r="DD14" s="223">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE14" s="287">
+      <c r="DE14" s="223">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF14" s="287">
+      <c r="DF14" s="223">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG14" s="287">
+      <c r="DG14" s="223">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH14" s="286">
+      <c r="DH14" s="222">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
@@ -14396,55 +15094,55 @@
       <c r="CS15" s="187"/>
       <c r="CT15" s="182"/>
       <c r="CU15" s="183"/>
-      <c r="CV15" s="291">
+      <c r="CV15" s="227">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="CW15" s="287">
+      <c r="CW15" s="223">
         <f>IF(CK15="К",1,0)+IF(CN15="К",1,0)+IF(CQ15="К",1,0)+IF(CT15="К",1,0)+IF(CH15="К",1,0)+IF(H15="К",1,0)+IF(K15="К",1,0)+IF(N15="К",1,0)+IF(Q15="К",1,0)+IF(T15="К",1,0)+IF(W15="К",1,0)+IF(Z15="К",1,0)+IF(AC15="К",1,0)+IF(AF15="К",1,0)+IF(AI15="К",1,0)+IF(AL15="К",1,0)+IF(AO15="К",1,0)+IF(AR15="К",1,0)+IF(AU15="К",1,0)+IF(AX15="К",1,0)+IF(BA15="К",1,0)+IF(BD15="К",1,0)+IF(BG15="К",1,0)+IF(BJ15="К",1,0)+IF(BM15="К",1,0)+IF(BP15="К",1,0)+IF(BS15="К",1,0)+IF(BV15="К",1,0)+IF(BY15="К",1,0)+IF(CB15="К",1,0)+IF(CE15="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX15" s="287">
+      <c r="CX15" s="223">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="CY15" s="287">
+      <c r="CY15" s="223">
         <f>IF(CN15="Р",1,0)+IF(CQ15="Р",1,0)+IF(CT15="Р",1,0)+IF(H15="Р",1,0)+IF(K15="Р",1,0)+IF(N15="Р",1,0)+IF(Q15="Р",1,0)+IF(T15="Р",1,0)+IF(W15="Р",1,0)+IF(Z15="Р",1,0)+IF(AC15="Р",1,0)+IF(AF15="Р",1,0)+IF(AI15="Р",1,0)+IF(AL15="Р",1,0)+IF(AO15="Р",1,0)+IF(AR15="Р",1,0)+IF(AU15="Р",1,0)+IF(AX15="Р",1,0)+IF(BA15="Р",1,0)+IF(BD15="Р",1,0)+IF(BG15="Р",1,0)+IF(BJ15="Р",1,0)+IF(BM15="Р",1,0)+IF(BP15="Р",1,0)+IF(BS15="Р",1,0)+IF(BV15="Р",1,0)+IF(BY15="Р",1,0)+IF(CB15="Р",1,0)+IF(CE15="Р",1,0)+IF(CH15="Р",1,0)+IF(CK15="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ15" s="287">
+      <c r="CZ15" s="223">
         <f>IF(CN15="Б",1,0)+IF(CQ15="Б",1,0)+IF(CT15="Б",1,0)+IF(H15="Б",1,0)+IF(K15="Б",1,0)+IF(N15="Б",1,0)+IF(Q15="Б",1,0)+IF(T15="Б",1,0)+IF(W15="Б",1,0)+IF(Z15="Б",1,0)+IF(AC15="Б",1,0)+IF(AF15="Б",1,0)+IF(AI15="Б",1,0)+IF(AL15="Б",1,0)+IF(AO15="Б",1,0)+IF(AR15="Б",1,0)+IF(AU15="Б",1,0)+IF(AX15="Б",1,0)+IF(BA15="Б",1,0)+IF(BD15="Б",1,0)+IF(BG15="Б",1,0)+IF(BJ15="Б",1,0)+IF(BM15="Б",1,0)+IF(BP15="Б",1,0)+IF(BS15="Б",1,0)+IF(BV15="Б",1,0)+IF(BY15="Б",1,0)+IF(CB15="Б",1,0)+IF(CE15="Б",1,0)+IF(CH15="Б",1,0)+IF(CK15="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA15" s="287">
+      <c r="DA15" s="223">
         <f>IF(CN15="А",1,0)+IF(CQ15="А",1,0)+IF(CT15="А",1,0)+IF(H15="А",1,0)+IF(K15="А",1,0)+IF(N15="А",1,0)+IF(Q15="А",1,0)+IF(T15="А",1,0)+IF(W15="А",1,0)+IF(Z15="А",1,0)+IF(AC15="А",1,0)+IF(AF15="А",1,0)+IF(AI15="А",1,0)+IF(AL15="А",1,0)+IF(AO15="А",1,0)+IF(AR15="А",1,0)+IF(AU15="А",1,0)+IF(AX15="А",1,0)+IF(BA15="А",1,0)+IF(BD15="А",1,0)+IF(BG15="А",1,0)+IF(BJ15="А",1,0)+IF(BM15="А",1,0)+IF(BP15="А",1,0)+IF(BS15="А",1,0)+IF(BV15="А",1,0)+IF(BY15="А",1,0)+IF(CB15="А",1,0)+IF(CE15="А",1,0)+IF(CH15="А",1,0)+IF(CK15="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB15" s="287">
+      <c r="DB15" s="223">
         <f>IF(CN15="П",1,0)+IF(CQ15="П",1,0)+IF(CT15="П",1,0)+IF(H15="П",1,0)+IF(K15="П",1,0)+IF(N15="П",1,0)+IF(Q15="П",1,0)+IF(T15="П",1,0)+IF(W15="П",1,0)+IF(Z15="П",1,0)+IF(AC15="П",1,0)+IF(AF15="П",1,0)+IF(AI15="П",1,0)+IF(AL15="П",1,0)+IF(AO15="П",1,0)+IF(AR15="П",1,0)+IF(AU15="П",1,0)+IF(AX15="П",1,0)+IF(BA15="П",1,0)+IF(BD15="П",1,0)+IF(BG15="П",1,0)+IF(BJ15="П",1,0)+IF(BM15="П",1,0)+IF(BP15="П",1,0)+IF(BS15="П",1,0)+IF(BV15="П",1,0)+IF(BY15="П",1,0)+IF(CB15="П",1,0)+IF(CE15="П",1,0)+IF(CH15="П",1,0)+IF(CK15="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC15" s="287">
+      <c r="DC15" s="223">
         <f>IF(CN15="У",1,0)+IF(CQ15="У",1,0)+IF(CT15="У",1,0)+IF(H15="У",1,0)+IF(K15="У",1,0)+IF(N15="У",1,0)+IF(Q15="У",1,0)+IF(T15="У",1,0)+IF(W15="У",1,0)+IF(Z15="У",1,0)+IF(AC15="У",1,0)+IF(AF15="У",1,0)+IF(AI15="У",1,0)+IF(AL15="У",1,0)+IF(AO15="У",1,0)+IF(AR15="У",1,0)+IF(AU15="У",1,0)+IF(AX15="У",1,0)+IF(BA15="У",1,0)+IF(BD15="У",1,0)+IF(BG15="У",1,0)+IF(BJ15="У",1,0)+IF(BM15="У",1,0)+IF(BP15="У",1,0)+IF(BS15="У",1,0)+IF(BV15="У",1,0)+IF(BY15="У",1,0)+IF(CB15="У",1,0)+IF(CE15="У",1,0)+IF(CH15="У",1,0)+IF(CK15="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD15" s="287">
+      <c r="DD15" s="223">
         <f>IF(CN15="Г",1,0)+IF(CQ15="Г",1,0)+IF(CT15="Г",1,0)+IF(H15="Г",1,0)+IF(K15="Г",1,0)+IF(N15="Г",1,0)+IF(Q15="Г",1,0)+IF(T15="Г",1,0)+IF(W15="Г",1,0)+IF(Z15="Г",1,0)+IF(AC15="Г",1,0)+IF(AF15="Г",1,0)+IF(AI15="Г",1,0)+IF(AL15="Г",1,0)+IF(AO15="Г",1,0)+IF(AR15="Г",1,0)+IF(AU15="Г",1,0)+IF(AX15="Г",1,0)+IF(BA15="Г",1,0)+IF(BD15="Г",1,0)+IF(BG15="Г",1,0)+IF(BJ15="Г",1,0)+IF(BM15="Г",1,0)+IF(BP15="Г",1,0)+IF(BS15="Г",1,0)+IF(BV15="Г",1,0)+IF(BY15="Г",1,0)+IF(CB15="Г",1,0)+IF(CE15="Г",1,0)+IF(CH15="Г",1,0)+IF(CK15="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE15" s="287">
+      <c r="DE15" s="223">
         <f>IF(CQ15="ОЧ",1,0)+IF(CT15="ОЧ",1,0)+IF(H15="ОЧ",1,0)+IF(K15="ОЧ",1,0)+IF(N15="ОЧ",1,0)+IF(Q15="ОЧ",1,0)+IF(T15="ОЧ",1,0)+IF(W15="ОЧ",1,0)+IF(Z15="ОЧ",1,0)+IF(AC15="ОЧ",1,0)+IF(AF15="ОЧ",1,0)+IF(AI15="ОЧ",1,0)+IF(AL15="ОЧ",1,0)+IF(AO15="ОЧ",1,0)+IF(AR15="ОЧ",1,0)+IF(AU15="ОЧ",1,0)+IF(AX15="ОЧ",1,0)+IF(BA15="ОЧ",1,0)+IF(BD15="ОЧ",1,0)+IF(BG15="ОЧ",1,0)+IF(BJ15="ОЧ",1,0)+IF(BM15="ОЧ",1,0)+IF(BP15="ОЧ",1,0)+IF(BS15="ОЧ",1,0)+IF(BV15="ОЧ",1,0)+IF(BY15="ОЧ",1,0)+IF(CB15="ОЧ",1,0)+IF(CE15="ОЧ",1,0)+IF(CH15="ОЧ",1,0)+IF(CK15="ОЧ",1,0)+IF(CN15="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF15" s="287">
+      <c r="DF15" s="223">
         <f>IF(CQ15="Т",1,0)+IF(CT15="Т",1,0)+IF(K15="Т",1,0)+IF(H15="Т",1,0)+IF(N15="Т",1,0)+IF(Q15="Т",1,0)+IF(T15="Т",1,0)+IF(W15="Т",1,0)+IF(Z15="Т",1,0)+IF(AC15="Т",1,0)+IF(AF15="Т",1,0)+IF(AI15="Т",1,0)+IF(AL15="Т",1,0)+IF(AO15="Т",1,0)+IF(AR15="Т",1,0)+IF(AU15="Т",1,0)+IF(AX15="Т",1,0)+IF(BA15="Т",1,0)+IF(BD15="Т",1,0)+IF(BG15="Т",1,0)+IF(BJ15="Т",1,0)+IF(BM15="Т",1,0)+IF(BP15="Т",1,0)+IF(BS15="Т",1,0)+IF(BV15="Т",1,0)+IF(BY15="Т",1,0)+IF(CB15="Т",1,0)+IF(CE15="Т",1,0)+IF(CH15="Т",1,0)+IF(CK15="Т",1,0)+IF(CN15="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG15" s="287">
+      <c r="DG15" s="223">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH15" s="286">
+      <c r="DH15" s="222">
         <f>IF(CQ15="В",1,0)+IF(CT15="В",1,0)+IF(H15="В",1,0)+IF(K15="В",1,0)+IF(N15="В",1,0)+IF(Q15="В",1,0)+IF(T15="В",1,0)+IF(W15="В",1,0)+IF(Z15="В",1,0)+IF(AC15="В",1,0)+IF(AF15="В",1,0)+IF(AI15="В",1,0)+IF(AL15="В",1,0)+IF(AO15="В",1,0)+IF(AR15="В",1,0)+IF(AU15="В",1,0)+IF(AX15="В",1,0)+IF(BA15="В",1,0)+IF(BD15="В",1,0)+IF(BG15="В",1,0)+IF(BJ15="В",1,0)+IF(BM15="В",1,0)+IF(BP15="В",1,0)+IF(BS15="В",1,0)+IF(BV15="В",1,0)+IF(BY15="В",1,0)+IF(CB15="В",1,0)+IF(CE15="В",1,0)+IF(CH15="В",1,0)+IF(CK15="В",1,0)+IF(CN15="В",1,0)</f>
         <v>3</v>
       </c>
@@ -14704,55 +15402,55 @@
       <c r="CS16" s="187"/>
       <c r="CT16" s="182"/>
       <c r="CU16" s="183"/>
-      <c r="CV16" s="291">
+      <c r="CV16" s="227">
         <f>IF(SUM(G16:I16)&gt;=1,1,0)+IF(SUM(J16:L16)&gt;=1,1,0)+IF(SUM(M16:O16)&gt;=1,1,0)+IF(SUM(P16:R16)&gt;=1,1,0)+IF(SUM(S16:U16)&gt;=1,1,0)+IF(SUM(V16:X16)&gt;=1,1,0)+IF(SUM(Y16:AA16)&gt;=1,1,0)+IF(SUM(AB16:AD16)&gt;=1,1,0)+IF(SUM(AE16:AG16)&gt;=1,1,0)+IF(SUM(AH16:AJ16)&gt;=1,1,0)+IF(SUM(AK16:AM16)&gt;=1,1,0)+IF(SUM(AN16:AP16)&gt;=1,1,0)+IF(SUM(AQ16:AS16)&gt;=1,1,0)+IF(SUM(AT16:AV16)&gt;=1,1,0)+IF(SUM(AW16:AY16)&gt;=1,1,0)+IF(SUM(AZ16:BB16)&gt;=1,1,0)+IF(SUM(BC16:BE16)&gt;=1,1,0)+IF(SUM(BF16:BH16)&gt;=1,1,0)+IF(SUM(BI16:BK16)&gt;=1,1,0)+IF(SUM(BL16:BN16)&gt;=1,1,0)+IF(SUM(BO16:BQ16)&gt;=1,1,0)+IF(SUM(BR16:BT16)&gt;=1,1,0)+IF(SUM(BU16:BW16)&gt;=1,1,0)+IF(SUM(BX16:BZ16)&gt;=1,1,0)+IF(SUM(CA16:CC16)&gt;=1,1,0)+IF(SUM(CD16:CF16)&gt;=1,1,0)+IF(SUM(CG16:CI16)&gt;=1,1,0)+IF(SUM(CJ16:CL16)&gt;=1,1,0)+IF(SUM(CM16:CO16)&gt;=1,1,0)+IF(SUM(CP16:CR16)&gt;=1,1,0)+IF(SUM(CS16:CU16)&gt;=1,1,0)</f>
         <v>17</v>
       </c>
-      <c r="CW16" s="287">
+      <c r="CW16" s="223">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX16" s="288">
+      <c r="CX16" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY16" s="287">
+      <c r="CY16" s="223">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ16" s="287">
+      <c r="CZ16" s="223">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA16" s="287">
+      <c r="DA16" s="223">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB16" s="287">
+      <c r="DB16" s="223">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC16" s="287">
+      <c r="DC16" s="223">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD16" s="287">
+      <c r="DD16" s="223">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE16" s="287">
+      <c r="DE16" s="223">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF16" s="287">
+      <c r="DF16" s="223">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG16" s="287">
+      <c r="DG16" s="223">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH16" s="286">
+      <c r="DH16" s="222">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -15016,55 +15714,55 @@
       <c r="CS17" s="187"/>
       <c r="CT17" s="182"/>
       <c r="CU17" s="183"/>
-      <c r="CV17" s="291">
+      <c r="CV17" s="227">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="CW17" s="287">
+      <c r="CW17" s="223">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX17" s="288">
+      <c r="CX17" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY17" s="287">
+      <c r="CY17" s="223">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ17" s="287">
+      <c r="CZ17" s="223">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA17" s="287">
+      <c r="DA17" s="223">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB17" s="287">
+      <c r="DB17" s="223">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC17" s="287">
+      <c r="DC17" s="223">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD17" s="287">
+      <c r="DD17" s="223">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE17" s="287">
+      <c r="DE17" s="223">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF17" s="287">
+      <c r="DF17" s="223">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG17" s="287">
+      <c r="DG17" s="223">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH17" s="286">
+      <c r="DH17" s="222">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
@@ -15328,55 +16026,55 @@
       <c r="CS18" s="187"/>
       <c r="CT18" s="182"/>
       <c r="CU18" s="183"/>
-      <c r="CV18" s="291">
+      <c r="CV18" s="227">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="CW18" s="287">
+      <c r="CW18" s="223">
         <f>IF(CK18="К",1,0)+IF(CN18="К",1,0)+IF(CQ18="К",1,0)+IF(CT18="К",1,0)+IF(CH18="К",1,0)+IF(H18="К",1,0)+IF(K18="К",1,0)+IF(N18="К",1,0)+IF(Q18="К",1,0)+IF(T18="К",1,0)+IF(W18="К",1,0)+IF(Z18="К",1,0)+IF(AC18="К",1,0)+IF(AF18="К",1,0)+IF(AI18="К",1,0)+IF(AL18="К",1,0)+IF(AO18="К",1,0)+IF(AR18="К",1,0)+IF(AU18="К",1,0)+IF(AX18="К",1,0)+IF(BA18="К",1,0)+IF(BD18="К",1,0)+IF(BG18="К",1,0)+IF(BJ18="К",1,0)+IF(BM18="К",1,0)+IF(BP18="К",1,0)+IF(BS18="К",1,0)+IF(BV18="К",1,0)+IF(BY18="К",1,0)+IF(CB18="К",1,0)+IF(CE18="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX18" s="287">
+      <c r="CX18" s="223">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY18" s="287">
+      <c r="CY18" s="223">
         <f>IF(CN18="Р",1,0)+IF(CQ18="Р",1,0)+IF(CT18="Р",1,0)+IF(H18="Р",1,0)+IF(K18="Р",1,0)+IF(N18="Р",1,0)+IF(Q18="Р",1,0)+IF(T18="Р",1,0)+IF(W18="Р",1,0)+IF(Z18="Р",1,0)+IF(AC18="Р",1,0)+IF(AF18="Р",1,0)+IF(AI18="Р",1,0)+IF(AL18="Р",1,0)+IF(AO18="Р",1,0)+IF(AR18="Р",1,0)+IF(AU18="Р",1,0)+IF(AX18="Р",1,0)+IF(BA18="Р",1,0)+IF(BD18="Р",1,0)+IF(BG18="Р",1,0)+IF(BJ18="Р",1,0)+IF(BM18="Р",1,0)+IF(BP18="Р",1,0)+IF(BS18="Р",1,0)+IF(BV18="Р",1,0)+IF(BY18="Р",1,0)+IF(CB18="Р",1,0)+IF(CE18="Р",1,0)+IF(CH18="Р",1,0)+IF(CK18="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ18" s="287">
+      <c r="CZ18" s="223">
         <f>IF(CN18="Б",1,0)+IF(CQ18="Б",1,0)+IF(CT18="Б",1,0)+IF(H18="Б",1,0)+IF(K18="Б",1,0)+IF(N18="Б",1,0)+IF(Q18="Б",1,0)+IF(T18="Б",1,0)+IF(W18="Б",1,0)+IF(Z18="Б",1,0)+IF(AC18="Б",1,0)+IF(AF18="Б",1,0)+IF(AI18="Б",1,0)+IF(AL18="Б",1,0)+IF(AO18="Б",1,0)+IF(AR18="Б",1,0)+IF(AU18="Б",1,0)+IF(AX18="Б",1,0)+IF(BA18="Б",1,0)+IF(BD18="Б",1,0)+IF(BG18="Б",1,0)+IF(BJ18="Б",1,0)+IF(BM18="Б",1,0)+IF(BP18="Б",1,0)+IF(BS18="Б",1,0)+IF(BV18="Б",1,0)+IF(BY18="Б",1,0)+IF(CB18="Б",1,0)+IF(CE18="Б",1,0)+IF(CH18="Б",1,0)+IF(CK18="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA18" s="287">
+      <c r="DA18" s="223">
         <f>IF(CN18="А",1,0)+IF(CQ18="А",1,0)+IF(CT18="А",1,0)+IF(H18="А",1,0)+IF(K18="А",1,0)+IF(N18="А",1,0)+IF(Q18="А",1,0)+IF(T18="А",1,0)+IF(W18="А",1,0)+IF(Z18="А",1,0)+IF(AC18="А",1,0)+IF(AF18="А",1,0)+IF(AI18="А",1,0)+IF(AL18="А",1,0)+IF(AO18="А",1,0)+IF(AR18="А",1,0)+IF(AU18="А",1,0)+IF(AX18="А",1,0)+IF(BA18="А",1,0)+IF(BD18="А",1,0)+IF(BG18="А",1,0)+IF(BJ18="А",1,0)+IF(BM18="А",1,0)+IF(BP18="А",1,0)+IF(BS18="А",1,0)+IF(BV18="А",1,0)+IF(BY18="А",1,0)+IF(CB18="А",1,0)+IF(CE18="А",1,0)+IF(CH18="А",1,0)+IF(CK18="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB18" s="287">
+      <c r="DB18" s="223">
         <f>IF(CN18="П",1,0)+IF(CQ18="П",1,0)+IF(CT18="П",1,0)+IF(H18="П",1,0)+IF(K18="П",1,0)+IF(N18="П",1,0)+IF(Q18="П",1,0)+IF(T18="П",1,0)+IF(W18="П",1,0)+IF(Z18="П",1,0)+IF(AC18="П",1,0)+IF(AF18="П",1,0)+IF(AI18="П",1,0)+IF(AL18="П",1,0)+IF(AO18="П",1,0)+IF(AR18="П",1,0)+IF(AU18="П",1,0)+IF(AX18="П",1,0)+IF(BA18="П",1,0)+IF(BD18="П",1,0)+IF(BG18="П",1,0)+IF(BJ18="П",1,0)+IF(BM18="П",1,0)+IF(BP18="П",1,0)+IF(BS18="П",1,0)+IF(BV18="П",1,0)+IF(BY18="П",1,0)+IF(CB18="П",1,0)+IF(CE18="П",1,0)+IF(CH18="П",1,0)+IF(CK18="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC18" s="287">
+      <c r="DC18" s="223">
         <f>IF(CN18="У",1,0)+IF(CQ18="У",1,0)+IF(CT18="У",1,0)+IF(H18="У",1,0)+IF(K18="У",1,0)+IF(N18="У",1,0)+IF(Q18="У",1,0)+IF(T18="У",1,0)+IF(W18="У",1,0)+IF(Z18="У",1,0)+IF(AC18="У",1,0)+IF(AF18="У",1,0)+IF(AI18="У",1,0)+IF(AL18="У",1,0)+IF(AO18="У",1,0)+IF(AR18="У",1,0)+IF(AU18="У",1,0)+IF(AX18="У",1,0)+IF(BA18="У",1,0)+IF(BD18="У",1,0)+IF(BG18="У",1,0)+IF(BJ18="У",1,0)+IF(BM18="У",1,0)+IF(BP18="У",1,0)+IF(BS18="У",1,0)+IF(BV18="У",1,0)+IF(BY18="У",1,0)+IF(CB18="У",1,0)+IF(CE18="У",1,0)+IF(CH18="У",1,0)+IF(CK18="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD18" s="287">
+      <c r="DD18" s="223">
         <f>IF(CN18="Г",1,0)+IF(CQ18="Г",1,0)+IF(CT18="Г",1,0)+IF(H18="Г",1,0)+IF(K18="Г",1,0)+IF(N18="Г",1,0)+IF(Q18="Г",1,0)+IF(T18="Г",1,0)+IF(W18="Г",1,0)+IF(Z18="Г",1,0)+IF(AC18="Г",1,0)+IF(AF18="Г",1,0)+IF(AI18="Г",1,0)+IF(AL18="Г",1,0)+IF(AO18="Г",1,0)+IF(AR18="Г",1,0)+IF(AU18="Г",1,0)+IF(AX18="Г",1,0)+IF(BA18="Г",1,0)+IF(BD18="Г",1,0)+IF(BG18="Г",1,0)+IF(BJ18="Г",1,0)+IF(BM18="Г",1,0)+IF(BP18="Г",1,0)+IF(BS18="Г",1,0)+IF(BV18="Г",1,0)+IF(BY18="Г",1,0)+IF(CB18="Г",1,0)+IF(CE18="Г",1,0)+IF(CH18="Г",1,0)+IF(CK18="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE18" s="287">
+      <c r="DE18" s="223">
         <f>IF(CQ18="ОЧ",1,0)+IF(CT18="ОЧ",1,0)+IF(H18="ОЧ",1,0)+IF(K18="ОЧ",1,0)+IF(N18="ОЧ",1,0)+IF(Q18="ОЧ",1,0)+IF(T18="ОЧ",1,0)+IF(W18="ОЧ",1,0)+IF(Z18="ОЧ",1,0)+IF(AC18="ОЧ",1,0)+IF(AF18="ОЧ",1,0)+IF(AI18="ОЧ",1,0)+IF(AL18="ОЧ",1,0)+IF(AO18="ОЧ",1,0)+IF(AR18="ОЧ",1,0)+IF(AU18="ОЧ",1,0)+IF(AX18="ОЧ",1,0)+IF(BA18="ОЧ",1,0)+IF(BD18="ОЧ",1,0)+IF(BG18="ОЧ",1,0)+IF(BJ18="ОЧ",1,0)+IF(BM18="ОЧ",1,0)+IF(BP18="ОЧ",1,0)+IF(BS18="ОЧ",1,0)+IF(BV18="ОЧ",1,0)+IF(BY18="ОЧ",1,0)+IF(CB18="ОЧ",1,0)+IF(CE18="ОЧ",1,0)+IF(CH18="ОЧ",1,0)+IF(CK18="ОЧ",1,0)+IF(CN18="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF18" s="287">
+      <c r="DF18" s="223">
         <f>IF(CQ18="Т",1,0)+IF(CT18="Т",1,0)+IF(K18="Т",1,0)+IF(H18="Т",1,0)+IF(N18="Т",1,0)+IF(Q18="Т",1,0)+IF(T18="Т",1,0)+IF(W18="Т",1,0)+IF(Z18="Т",1,0)+IF(AC18="Т",1,0)+IF(AF18="Т",1,0)+IF(AI18="Т",1,0)+IF(AL18="Т",1,0)+IF(AO18="Т",1,0)+IF(AR18="Т",1,0)+IF(AU18="Т",1,0)+IF(AX18="Т",1,0)+IF(BA18="Т",1,0)+IF(BD18="Т",1,0)+IF(BG18="Т",1,0)+IF(BJ18="Т",1,0)+IF(BM18="Т",1,0)+IF(BP18="Т",1,0)+IF(BS18="Т",1,0)+IF(BV18="Т",1,0)+IF(BY18="Т",1,0)+IF(CB18="Т",1,0)+IF(CE18="Т",1,0)+IF(CH18="Т",1,0)+IF(CK18="Т",1,0)+IF(CN18="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG18" s="287">
+      <c r="DG18" s="223">
         <f>IF(CT18="Пр",1,0)+IF(H18="Пр",1,0)+IF(K18="Пр",1,0)+IF(N18="Пр",1,0)+IF(Q18="Пр",1,0)+IF(T18="Пр",1,0)+IF(W18="Пр",1,0)+IF(Z18="Пр",1,0)+IF(AC18="Пр",1,0)+IF(AF18="Пр",1,0)+IF(AI18="Пр",1,0)+IF(AL18="Пр",1,0)+IF(AO18="Пр",1,0)+IF(AR18="Пр",1,0)+IF(AU18="Пр",1,0)+IF(AX18="Пр",1,0)+IF(BA18="Пр",1,0)+IF(BD18="Пр",1,0)+IF(BG18="Пр",1,0)+IF(BJ18="Пр",1,0)+IF(BM18="Пр",1,0)+IF(BP18="Пр",1,0)+IF(BS18="Пр",1,0)+IF(BV18="Пр",1,0)+IF(BY18="Пр",1,0)+IF(CB18="Пр",1,0)+IF(CE18="Пр",1,0)+IF(CH18="Пр",1,0)+IF(CK18="Пр",1,0)+IF(CN18="Пр",1,0)+IF(CQ18="Пр",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH18" s="286">
+      <c r="DH18" s="222">
         <f>IF(CQ18="В",1,0)+IF(CT18="В",1,0)+IF(H18="В",1,0)+IF(K18="В",1,0)+IF(N18="В",1,0)+IF(Q18="В",1,0)+IF(T18="В",1,0)+IF(W18="В",1,0)+IF(Z18="В",1,0)+IF(AC18="В",1,0)+IF(AF18="В",1,0)+IF(AI18="В",1,0)+IF(AL18="В",1,0)+IF(AO18="В",1,0)+IF(AR18="В",1,0)+IF(AU18="В",1,0)+IF(AX18="В",1,0)+IF(BA18="В",1,0)+IF(BD18="В",1,0)+IF(BG18="В",1,0)+IF(BJ18="В",1,0)+IF(BM18="В",1,0)+IF(BP18="В",1,0)+IF(BS18="В",1,0)+IF(BV18="В",1,0)+IF(BY18="В",1,0)+IF(CB18="В",1,0)+IF(CE18="В",1,0)+IF(CH18="В",1,0)+IF(CK18="В",1,0)+IF(CN18="В",1,0)</f>
         <v>10</v>
       </c>
@@ -15640,55 +16338,55 @@
       <c r="CS19" s="187"/>
       <c r="CT19" s="182"/>
       <c r="CU19" s="183"/>
-      <c r="CV19" s="291">
+      <c r="CV19" s="227">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="CW19" s="287">
+      <c r="CW19" s="223">
         <f>IF(CK19="К",1,0)+IF(CN19="К",1,0)+IF(CQ19="К",1,0)+IF(CT19="К",1,0)+IF(CH19="К",1,0)+IF(H19="К",1,0)+IF(K19="К",1,0)+IF(N19="К",1,0)+IF(Q19="К",1,0)+IF(T19="К",1,0)+IF(W19="К",1,0)+IF(Z19="К",1,0)+IF(AC19="К",1,0)+IF(AF19="К",1,0)+IF(AI19="К",1,0)+IF(AL19="К",1,0)+IF(AO19="К",1,0)+IF(AR19="К",1,0)+IF(AU19="К",1,0)+IF(AX19="К",1,0)+IF(BA19="К",1,0)+IF(BD19="К",1,0)+IF(BG19="К",1,0)+IF(BJ19="К",1,0)+IF(BM19="К",1,0)+IF(BP19="К",1,0)+IF(BS19="К",1,0)+IF(BV19="К",1,0)+IF(BY19="К",1,0)+IF(CB19="К",1,0)+IF(CE19="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX19" s="286">
+      <c r="CX19" s="222">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY19" s="287">
+      <c r="CY19" s="223">
         <f>IF(CN19="Р",1,0)+IF(CQ19="Р",1,0)+IF(CT19="Р",1,0)+IF(H19="Р",1,0)+IF(K19="Р",1,0)+IF(N19="Р",1,0)+IF(Q19="Р",1,0)+IF(T19="Р",1,0)+IF(W19="Р",1,0)+IF(Z19="Р",1,0)+IF(AC19="Р",1,0)+IF(AF19="Р",1,0)+IF(AI19="Р",1,0)+IF(AL19="Р",1,0)+IF(AO19="Р",1,0)+IF(AR19="Р",1,0)+IF(AU19="Р",1,0)+IF(AX19="Р",1,0)+IF(BA19="Р",1,0)+IF(BD19="Р",1,0)+IF(BG19="Р",1,0)+IF(BJ19="Р",1,0)+IF(BM19="Р",1,0)+IF(BP19="Р",1,0)+IF(BS19="Р",1,0)+IF(BV19="Р",1,0)+IF(BY19="Р",1,0)+IF(CB19="Р",1,0)+IF(CE19="Р",1,0)+IF(CH19="Р",1,0)+IF(CK19="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ19" s="287">
+      <c r="CZ19" s="223">
         <f>IF(CN19="Б",1,0)+IF(CQ19="Б",1,0)+IF(CT19="Б",1,0)+IF(H19="Б",1,0)+IF(K19="Б",1,0)+IF(N19="Б",1,0)+IF(Q19="Б",1,0)+IF(T19="Б",1,0)+IF(W19="Б",1,0)+IF(Z19="Б",1,0)+IF(AC19="Б",1,0)+IF(AF19="Б",1,0)+IF(AI19="Б",1,0)+IF(AL19="Б",1,0)+IF(AO19="Б",1,0)+IF(AR19="Б",1,0)+IF(AU19="Б",1,0)+IF(AX19="Б",1,0)+IF(BA19="Б",1,0)+IF(BD19="Б",1,0)+IF(BG19="Б",1,0)+IF(BJ19="Б",1,0)+IF(BM19="Б",1,0)+IF(BP19="Б",1,0)+IF(BS19="Б",1,0)+IF(BV19="Б",1,0)+IF(BY19="Б",1,0)+IF(CB19="Б",1,0)+IF(CE19="Б",1,0)+IF(CH19="Б",1,0)+IF(CK19="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA19" s="287">
+      <c r="DA19" s="223">
         <f>IF(CN19="А",1,0)+IF(CQ19="А",1,0)+IF(CT19="А",1,0)+IF(H19="А",1,0)+IF(K19="А",1,0)+IF(N19="А",1,0)+IF(Q19="А",1,0)+IF(T19="А",1,0)+IF(W19="А",1,0)+IF(Z19="А",1,0)+IF(AC19="А",1,0)+IF(AF19="А",1,0)+IF(AI19="А",1,0)+IF(AL19="А",1,0)+IF(AO19="А",1,0)+IF(AR19="А",1,0)+IF(AU19="А",1,0)+IF(AX19="А",1,0)+IF(BA19="А",1,0)+IF(BD19="А",1,0)+IF(BG19="А",1,0)+IF(BJ19="А",1,0)+IF(BM19="А",1,0)+IF(BP19="А",1,0)+IF(BS19="А",1,0)+IF(BV19="А",1,0)+IF(BY19="А",1,0)+IF(CB19="А",1,0)+IF(CE19="А",1,0)+IF(CH19="А",1,0)+IF(CK19="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB19" s="287">
+      <c r="DB19" s="223">
         <f>IF(CN19="П",1,0)+IF(CQ19="П",1,0)+IF(CT19="П",1,0)+IF(H19="П",1,0)+IF(K19="П",1,0)+IF(N19="П",1,0)+IF(Q19="П",1,0)+IF(T19="П",1,0)+IF(W19="П",1,0)+IF(Z19="П",1,0)+IF(AC19="П",1,0)+IF(AF19="П",1,0)+IF(AI19="П",1,0)+IF(AL19="П",1,0)+IF(AO19="П",1,0)+IF(AR19="П",1,0)+IF(AU19="П",1,0)+IF(AX19="П",1,0)+IF(BA19="П",1,0)+IF(BD19="П",1,0)+IF(BG19="П",1,0)+IF(BJ19="П",1,0)+IF(BM19="П",1,0)+IF(BP19="П",1,0)+IF(BS19="П",1,0)+IF(BV19="П",1,0)+IF(BY19="П",1,0)+IF(CB19="П",1,0)+IF(CE19="П",1,0)+IF(CH19="П",1,0)+IF(CK19="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC19" s="287">
+      <c r="DC19" s="223">
         <f>IF(CN19="У",1,0)+IF(CQ19="У",1,0)+IF(CT19="У",1,0)+IF(H19="У",1,0)+IF(K19="У",1,0)+IF(N19="У",1,0)+IF(Q19="У",1,0)+IF(T19="У",1,0)+IF(W19="У",1,0)+IF(Z19="У",1,0)+IF(AC19="У",1,0)+IF(AF19="У",1,0)+IF(AI19="У",1,0)+IF(AL19="У",1,0)+IF(AO19="У",1,0)+IF(AR19="У",1,0)+IF(AU19="У",1,0)+IF(AX19="У",1,0)+IF(BA19="У",1,0)+IF(BD19="У",1,0)+IF(BG19="У",1,0)+IF(BJ19="У",1,0)+IF(BM19="У",1,0)+IF(BP19="У",1,0)+IF(BS19="У",1,0)+IF(BV19="У",1,0)+IF(BY19="У",1,0)+IF(CB19="У",1,0)+IF(CE19="У",1,0)+IF(CH19="У",1,0)+IF(CK19="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD19" s="287">
+      <c r="DD19" s="223">
         <f>IF(CN19="Г",1,0)+IF(CQ19="Г",1,0)+IF(CT19="Г",1,0)+IF(H19="Г",1,0)+IF(K19="Г",1,0)+IF(N19="Г",1,0)+IF(Q19="Г",1,0)+IF(T19="Г",1,0)+IF(W19="Г",1,0)+IF(Z19="Г",1,0)+IF(AC19="Г",1,0)+IF(AF19="Г",1,0)+IF(AI19="Г",1,0)+IF(AL19="Г",1,0)+IF(AO19="Г",1,0)+IF(AR19="Г",1,0)+IF(AU19="Г",1,0)+IF(AX19="Г",1,0)+IF(BA19="Г",1,0)+IF(BD19="Г",1,0)+IF(BG19="Г",1,0)+IF(BJ19="Г",1,0)+IF(BM19="Г",1,0)+IF(BP19="Г",1,0)+IF(BS19="Г",1,0)+IF(BV19="Г",1,0)+IF(BY19="Г",1,0)+IF(CB19="Г",1,0)+IF(CE19="Г",1,0)+IF(CH19="Г",1,0)+IF(CK19="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE19" s="287">
+      <c r="DE19" s="223">
         <f>IF(CQ19="ОЧ",1,0)+IF(CT19="ОЧ",1,0)+IF(H19="ОЧ",1,0)+IF(K19="ОЧ",1,0)+IF(N19="ОЧ",1,0)+IF(Q19="ОЧ",1,0)+IF(T19="ОЧ",1,0)+IF(W19="ОЧ",1,0)+IF(Z19="ОЧ",1,0)+IF(AC19="ОЧ",1,0)+IF(AF19="ОЧ",1,0)+IF(AI19="ОЧ",1,0)+IF(AL19="ОЧ",1,0)+IF(AO19="ОЧ",1,0)+IF(AR19="ОЧ",1,0)+IF(AU19="ОЧ",1,0)+IF(AX19="ОЧ",1,0)+IF(BA19="ОЧ",1,0)+IF(BD19="ОЧ",1,0)+IF(BG19="ОЧ",1,0)+IF(BJ19="ОЧ",1,0)+IF(BM19="ОЧ",1,0)+IF(BP19="ОЧ",1,0)+IF(BS19="ОЧ",1,0)+IF(BV19="ОЧ",1,0)+IF(BY19="ОЧ",1,0)+IF(CB19="ОЧ",1,0)+IF(CE19="ОЧ",1,0)+IF(CH19="ОЧ",1,0)+IF(CK19="ОЧ",1,0)+IF(CN19="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF19" s="287">
+      <c r="DF19" s="223">
         <f>IF(CQ19="Т",1,0)+IF(CT19="Т",1,0)+IF(K19="Т",1,0)+IF(H19="Т",1,0)+IF(N19="Т",1,0)+IF(Q19="Т",1,0)+IF(T19="Т",1,0)+IF(W19="Т",1,0)+IF(Z19="Т",1,0)+IF(AC19="Т",1,0)+IF(AF19="Т",1,0)+IF(AI19="Т",1,0)+IF(AL19="Т",1,0)+IF(AO19="Т",1,0)+IF(AR19="Т",1,0)+IF(AU19="Т",1,0)+IF(AX19="Т",1,0)+IF(BA19="Т",1,0)+IF(BD19="Т",1,0)+IF(BG19="Т",1,0)+IF(BJ19="Т",1,0)+IF(BM19="Т",1,0)+IF(BP19="Т",1,0)+IF(BS19="Т",1,0)+IF(BV19="Т",1,0)+IF(BY19="Т",1,0)+IF(CB19="Т",1,0)+IF(CE19="Т",1,0)+IF(CH19="Т",1,0)+IF(CK19="Т",1,0)+IF(CN19="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG19" s="287">
+      <c r="DG19" s="223">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH19" s="286">
+      <c r="DH19" s="222">
         <f>IF(CQ19="В",1,0)+IF(CT19="В",1,0)+IF(H19="В",1,0)+IF(K19="В",1,0)+IF(N19="В",1,0)+IF(Q19="В",1,0)+IF(T19="В",1,0)+IF(W19="В",1,0)+IF(Z19="В",1,0)+IF(AC19="В",1,0)+IF(AF19="В",1,0)+IF(AI19="В",1,0)+IF(AL19="В",1,0)+IF(AO19="В",1,0)+IF(AR19="В",1,0)+IF(AU19="В",1,0)+IF(AX19="В",1,0)+IF(BA19="В",1,0)+IF(BD19="В",1,0)+IF(BG19="В",1,0)+IF(BJ19="В",1,0)+IF(BM19="В",1,0)+IF(BP19="В",1,0)+IF(BS19="В",1,0)+IF(BV19="В",1,0)+IF(BY19="В",1,0)+IF(CB19="В",1,0)+IF(CE19="В",1,0)+IF(CH19="В",1,0)+IF(CK19="В",1,0)+IF(CN19="В",1,0)</f>
         <v>10</v>
       </c>
@@ -15944,55 +16642,55 @@
       <c r="CS20" s="187"/>
       <c r="CT20" s="182"/>
       <c r="CU20" s="183"/>
-      <c r="CV20" s="291">
+      <c r="CV20" s="227">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="CW20" s="287">
+      <c r="CW20" s="223">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX20" s="286">
+      <c r="CX20" s="222">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY20" s="287">
+      <c r="CY20" s="223">
         <f>IF(CN20="Р",1,0)+IF(CQ20="Р",1,0)+IF(CT20="Р",1,0)+IF(H20="Р",1,0)+IF(K20="Р",1,0)+IF(N20="Р",1,0)+IF(Q20="Р",1,0)+IF(T20="Р",1,0)+IF(W20="Р",1,0)+IF(Z20="Р",1,0)+IF(AC20="Р",1,0)+IF(AF20="Р",1,0)+IF(AI20="Р",1,0)+IF(AL20="Р",1,0)+IF(AO20="Р",1,0)+IF(AR20="Р",1,0)+IF(AU20="Р",1,0)+IF(AX20="Р",1,0)+IF(BA20="Р",1,0)+IF(BD20="Р",1,0)+IF(BG20="Р",1,0)+IF(BJ20="Р",1,0)+IF(BM20="Р",1,0)+IF(BP20="Р",1,0)+IF(BS20="Р",1,0)+IF(BV20="Р",1,0)+IF(BY20="Р",1,0)+IF(CB20="Р",1,0)+IF(CE20="Р",1,0)+IF(CH20="Р",1,0)+IF(CK20="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ20" s="287">
+      <c r="CZ20" s="223">
         <f>IF(CN20="Б",1,0)+IF(CQ20="Б",1,0)+IF(CT20="Б",1,0)+IF(H20="Б",1,0)+IF(K20="Б",1,0)+IF(N20="Б",1,0)+IF(Q20="Б",1,0)+IF(T20="Б",1,0)+IF(W20="Б",1,0)+IF(Z20="Б",1,0)+IF(AC20="Б",1,0)+IF(AF20="Б",1,0)+IF(AI20="Б",1,0)+IF(AL20="Б",1,0)+IF(AO20="Б",1,0)+IF(AR20="Б",1,0)+IF(AU20="Б",1,0)+IF(AX20="Б",1,0)+IF(BA20="Б",1,0)+IF(BD20="Б",1,0)+IF(BG20="Б",1,0)+IF(BJ20="Б",1,0)+IF(BM20="Б",1,0)+IF(BP20="Б",1,0)+IF(BS20="Б",1,0)+IF(BV20="Б",1,0)+IF(BY20="Б",1,0)+IF(CB20="Б",1,0)+IF(CE20="Б",1,0)+IF(CH20="Б",1,0)+IF(CK20="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA20" s="287">
+      <c r="DA20" s="223">
         <f>IF(CN20="А",1,0)+IF(CQ20="А",1,0)+IF(CT20="А",1,0)+IF(H20="А",1,0)+IF(K20="А",1,0)+IF(N20="А",1,0)+IF(Q20="А",1,0)+IF(T20="А",1,0)+IF(W20="А",1,0)+IF(Z20="А",1,0)+IF(AC20="А",1,0)+IF(AF20="А",1,0)+IF(AI20="А",1,0)+IF(AL20="А",1,0)+IF(AO20="А",1,0)+IF(AR20="А",1,0)+IF(AU20="А",1,0)+IF(AX20="А",1,0)+IF(BA20="А",1,0)+IF(BD20="А",1,0)+IF(BG20="А",1,0)+IF(BJ20="А",1,0)+IF(BM20="А",1,0)+IF(BP20="А",1,0)+IF(BS20="А",1,0)+IF(BV20="А",1,0)+IF(BY20="А",1,0)+IF(CB20="А",1,0)+IF(CE20="А",1,0)+IF(CH20="А",1,0)+IF(CK20="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB20" s="287">
+      <c r="DB20" s="223">
         <f>IF(CN20="П",1,0)+IF(CQ20="П",1,0)+IF(CT20="П",1,0)+IF(H20="П",1,0)+IF(K20="П",1,0)+IF(N20="П",1,0)+IF(Q20="П",1,0)+IF(T20="П",1,0)+IF(W20="П",1,0)+IF(Z20="П",1,0)+IF(AC20="П",1,0)+IF(AF20="П",1,0)+IF(AI20="П",1,0)+IF(AL20="П",1,0)+IF(AO20="П",1,0)+IF(AR20="П",1,0)+IF(AU20="П",1,0)+IF(AX20="П",1,0)+IF(BA20="П",1,0)+IF(BD20="П",1,0)+IF(BG20="П",1,0)+IF(BJ20="П",1,0)+IF(BM20="П",1,0)+IF(BP20="П",1,0)+IF(BS20="П",1,0)+IF(BV20="П",1,0)+IF(BY20="П",1,0)+IF(CB20="П",1,0)+IF(CE20="П",1,0)+IF(CH20="П",1,0)+IF(CK20="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC20" s="287">
+      <c r="DC20" s="223">
         <f>IF(CN20="У",1,0)+IF(CQ20="У",1,0)+IF(CT20="У",1,0)+IF(H20="У",1,0)+IF(K20="У",1,0)+IF(N20="У",1,0)+IF(Q20="У",1,0)+IF(T20="У",1,0)+IF(W20="У",1,0)+IF(Z20="У",1,0)+IF(AC20="У",1,0)+IF(AF20="У",1,0)+IF(AI20="У",1,0)+IF(AL20="У",1,0)+IF(AO20="У",1,0)+IF(AR20="У",1,0)+IF(AU20="У",1,0)+IF(AX20="У",1,0)+IF(BA20="У",1,0)+IF(BD20="У",1,0)+IF(BG20="У",1,0)+IF(BJ20="У",1,0)+IF(BM20="У",1,0)+IF(BP20="У",1,0)+IF(BS20="У",1,0)+IF(BV20="У",1,0)+IF(BY20="У",1,0)+IF(CB20="У",1,0)+IF(CE20="У",1,0)+IF(CH20="У",1,0)+IF(CK20="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD20" s="287">
+      <c r="DD20" s="223">
         <f>IF(CN20="Г",1,0)+IF(CQ20="Г",1,0)+IF(CT20="Г",1,0)+IF(H20="Г",1,0)+IF(K20="Г",1,0)+IF(N20="Г",1,0)+IF(Q20="Г",1,0)+IF(T20="Г",1,0)+IF(W20="Г",1,0)+IF(Z20="Г",1,0)+IF(AC20="Г",1,0)+IF(AF20="Г",1,0)+IF(AI20="Г",1,0)+IF(AL20="Г",1,0)+IF(AO20="Г",1,0)+IF(AR20="Г",1,0)+IF(AU20="Г",1,0)+IF(AX20="Г",1,0)+IF(BA20="Г",1,0)+IF(BD20="Г",1,0)+IF(BG20="Г",1,0)+IF(BJ20="Г",1,0)+IF(BM20="Г",1,0)+IF(BP20="Г",1,0)+IF(BS20="Г",1,0)+IF(BV20="Г",1,0)+IF(BY20="Г",1,0)+IF(CB20="Г",1,0)+IF(CE20="Г",1,0)+IF(CH20="Г",1,0)+IF(CK20="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE20" s="287">
+      <c r="DE20" s="223">
         <f>IF(CQ20="ОЧ",1,0)+IF(CT20="ОЧ",1,0)+IF(H20="ОЧ",1,0)+IF(K20="ОЧ",1,0)+IF(N20="ОЧ",1,0)+IF(Q20="ОЧ",1,0)+IF(T20="ОЧ",1,0)+IF(W20="ОЧ",1,0)+IF(Z20="ОЧ",1,0)+IF(AC20="ОЧ",1,0)+IF(AF20="ОЧ",1,0)+IF(AI20="ОЧ",1,0)+IF(AL20="ОЧ",1,0)+IF(AO20="ОЧ",1,0)+IF(AR20="ОЧ",1,0)+IF(AU20="ОЧ",1,0)+IF(AX20="ОЧ",1,0)+IF(BA20="ОЧ",1,0)+IF(BD20="ОЧ",1,0)+IF(BG20="ОЧ",1,0)+IF(BJ20="ОЧ",1,0)+IF(BM20="ОЧ",1,0)+IF(BP20="ОЧ",1,0)+IF(BS20="ОЧ",1,0)+IF(BV20="ОЧ",1,0)+IF(BY20="ОЧ",1,0)+IF(CB20="ОЧ",1,0)+IF(CE20="ОЧ",1,0)+IF(CH20="ОЧ",1,0)+IF(CK20="ОЧ",1,0)+IF(CN20="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF20" s="287">
+      <c r="DF20" s="223">
         <f>IF(CQ20="Т",1,0)+IF(CT20="Т",1,0)+IF(K20="Т",1,0)+IF(H20="Т",1,0)+IF(N20="Т",1,0)+IF(Q20="Т",1,0)+IF(T20="Т",1,0)+IF(W20="Т",1,0)+IF(Z20="Т",1,0)+IF(AC20="Т",1,0)+IF(AF20="Т",1,0)+IF(AI20="Т",1,0)+IF(AL20="Т",1,0)+IF(AO20="Т",1,0)+IF(AR20="Т",1,0)+IF(AU20="Т",1,0)+IF(AX20="Т",1,0)+IF(BA20="Т",1,0)+IF(BD20="Т",1,0)+IF(BG20="Т",1,0)+IF(BJ20="Т",1,0)+IF(BM20="Т",1,0)+IF(BP20="Т",1,0)+IF(BS20="Т",1,0)+IF(BV20="Т",1,0)+IF(BY20="Т",1,0)+IF(CB20="Т",1,0)+IF(CE20="Т",1,0)+IF(CH20="Т",1,0)+IF(CK20="Т",1,0)+IF(CN20="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG20" s="287">
+      <c r="DG20" s="223">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH20" s="286">
+      <c r="DH20" s="222">
         <f>IF(CQ20="В",1,0)+IF(CT20="В",1,0)+IF(H20="В",1,0)+IF(K20="В",1,0)+IF(N20="В",1,0)+IF(Q20="В",1,0)+IF(T20="В",1,0)+IF(W20="В",1,0)+IF(Z20="В",1,0)+IF(AC20="В",1,0)+IF(AF20="В",1,0)+IF(AI20="В",1,0)+IF(AL20="В",1,0)+IF(AO20="В",1,0)+IF(AR20="В",1,0)+IF(AU20="В",1,0)+IF(AX20="В",1,0)+IF(BA20="В",1,0)+IF(BD20="В",1,0)+IF(BG20="В",1,0)+IF(BJ20="В",1,0)+IF(BM20="В",1,0)+IF(BP20="В",1,0)+IF(BS20="В",1,0)+IF(BV20="В",1,0)+IF(BY20="В",1,0)+IF(CB20="В",1,0)+IF(CE20="В",1,0)+IF(CH20="В",1,0)+IF(CK20="В",1,0)+IF(CN20="В",1,0)</f>
         <v>16</v>
       </c>
@@ -16248,55 +16946,55 @@
       <c r="CS21" s="187"/>
       <c r="CT21" s="182"/>
       <c r="CU21" s="183"/>
-      <c r="CV21" s="291">
+      <c r="CV21" s="227">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="CW21" s="287">
+      <c r="CW21" s="223">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX21" s="287">
+      <c r="CX21" s="223">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY21" s="287">
+      <c r="CY21" s="223">
         <f>IF(CN21="Р",1,0)+IF(CQ21="Р",1,0)+IF(CT21="Р",1,0)+IF(H21="Р",1,0)+IF(K21="Р",1,0)+IF(N21="Р",1,0)+IF(Q21="Р",1,0)+IF(T21="Р",1,0)+IF(W21="Р",1,0)+IF(Z21="Р",1,0)+IF(AC21="Р",1,0)+IF(AF21="Р",1,0)+IF(AI21="Р",1,0)+IF(AL21="Р",1,0)+IF(AO21="Р",1,0)+IF(AR21="Р",1,0)+IF(AU21="Р",1,0)+IF(AX21="Р",1,0)+IF(BA21="Р",1,0)+IF(BD21="Р",1,0)+IF(BG21="Р",1,0)+IF(BJ21="Р",1,0)+IF(BM21="Р",1,0)+IF(BP21="Р",1,0)+IF(BS21="Р",1,0)+IF(BV21="Р",1,0)+IF(BY21="Р",1,0)+IF(CB21="Р",1,0)+IF(CE21="Р",1,0)+IF(CH21="Р",1,0)+IF(CK21="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ21" s="287">
+      <c r="CZ21" s="223">
         <f>IF(CN21="Б",1,0)+IF(CQ21="Б",1,0)+IF(CT21="Б",1,0)+IF(H21="Б",1,0)+IF(K21="Б",1,0)+IF(N21="Б",1,0)+IF(Q21="Б",1,0)+IF(T21="Б",1,0)+IF(W21="Б",1,0)+IF(Z21="Б",1,0)+IF(AC21="Б",1,0)+IF(AF21="Б",1,0)+IF(AI21="Б",1,0)+IF(AL21="Б",1,0)+IF(AO21="Б",1,0)+IF(AR21="Б",1,0)+IF(AU21="Б",1,0)+IF(AX21="Б",1,0)+IF(BA21="Б",1,0)+IF(BD21="Б",1,0)+IF(BG21="Б",1,0)+IF(BJ21="Б",1,0)+IF(BM21="Б",1,0)+IF(BP21="Б",1,0)+IF(BS21="Б",1,0)+IF(BV21="Б",1,0)+IF(BY21="Б",1,0)+IF(CB21="Б",1,0)+IF(CE21="Б",1,0)+IF(CH21="Б",1,0)+IF(CK21="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA21" s="287">
+      <c r="DA21" s="223">
         <f>IF(CN21="А",1,0)+IF(CQ21="А",1,0)+IF(CT21="А",1,0)+IF(H21="А",1,0)+IF(K21="А",1,0)+IF(N21="А",1,0)+IF(Q21="А",1,0)+IF(T21="А",1,0)+IF(W21="А",1,0)+IF(Z21="А",1,0)+IF(AC21="А",1,0)+IF(AF21="А",1,0)+IF(AI21="А",1,0)+IF(AL21="А",1,0)+IF(AO21="А",1,0)+IF(AR21="А",1,0)+IF(AU21="А",1,0)+IF(AX21="А",1,0)+IF(BA21="А",1,0)+IF(BD21="А",1,0)+IF(BG21="А",1,0)+IF(BJ21="А",1,0)+IF(BM21="А",1,0)+IF(BP21="А",1,0)+IF(BS21="А",1,0)+IF(BV21="А",1,0)+IF(BY21="А",1,0)+IF(CB21="А",1,0)+IF(CE21="А",1,0)+IF(CH21="А",1,0)+IF(CK21="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB21" s="287">
+      <c r="DB21" s="223">
         <f>IF(CN21="П",1,0)+IF(CQ21="П",1,0)+IF(CT21="П",1,0)+IF(H21="П",1,0)+IF(K21="П",1,0)+IF(N21="П",1,0)+IF(Q21="П",1,0)+IF(T21="П",1,0)+IF(W21="П",1,0)+IF(Z21="П",1,0)+IF(AC21="П",1,0)+IF(AF21="П",1,0)+IF(AI21="П",1,0)+IF(AL21="П",1,0)+IF(AO21="П",1,0)+IF(AR21="П",1,0)+IF(AU21="П",1,0)+IF(AX21="П",1,0)+IF(BA21="П",1,0)+IF(BD21="П",1,0)+IF(BG21="П",1,0)+IF(BJ21="П",1,0)+IF(BM21="П",1,0)+IF(BP21="П",1,0)+IF(BS21="П",1,0)+IF(BV21="П",1,0)+IF(BY21="П",1,0)+IF(CB21="П",1,0)+IF(CE21="П",1,0)+IF(CH21="П",1,0)+IF(CK21="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC21" s="287">
+      <c r="DC21" s="223">
         <f>IF(CN21="У",1,0)+IF(CQ21="У",1,0)+IF(CT21="У",1,0)+IF(H21="У",1,0)+IF(K21="У",1,0)+IF(N21="У",1,0)+IF(Q21="У",1,0)+IF(T21="У",1,0)+IF(W21="У",1,0)+IF(Z21="У",1,0)+IF(AC21="У",1,0)+IF(AF21="У",1,0)+IF(AI21="У",1,0)+IF(AL21="У",1,0)+IF(AO21="У",1,0)+IF(AR21="У",1,0)+IF(AU21="У",1,0)+IF(AX21="У",1,0)+IF(BA21="У",1,0)+IF(BD21="У",1,0)+IF(BG21="У",1,0)+IF(BJ21="У",1,0)+IF(BM21="У",1,0)+IF(BP21="У",1,0)+IF(BS21="У",1,0)+IF(BV21="У",1,0)+IF(BY21="У",1,0)+IF(CB21="У",1,0)+IF(CE21="У",1,0)+IF(CH21="У",1,0)+IF(CK21="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD21" s="287">
+      <c r="DD21" s="223">
         <f>IF(CN21="Г",1,0)+IF(CQ21="Г",1,0)+IF(CT21="Г",1,0)+IF(H21="Г",1,0)+IF(K21="Г",1,0)+IF(N21="Г",1,0)+IF(Q21="Г",1,0)+IF(T21="Г",1,0)+IF(W21="Г",1,0)+IF(Z21="Г",1,0)+IF(AC21="Г",1,0)+IF(AF21="Г",1,0)+IF(AI21="Г",1,0)+IF(AL21="Г",1,0)+IF(AO21="Г",1,0)+IF(AR21="Г",1,0)+IF(AU21="Г",1,0)+IF(AX21="Г",1,0)+IF(BA21="Г",1,0)+IF(BD21="Г",1,0)+IF(BG21="Г",1,0)+IF(BJ21="Г",1,0)+IF(BM21="Г",1,0)+IF(BP21="Г",1,0)+IF(BS21="Г",1,0)+IF(BV21="Г",1,0)+IF(BY21="Г",1,0)+IF(CB21="Г",1,0)+IF(CE21="Г",1,0)+IF(CH21="Г",1,0)+IF(CK21="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE21" s="287">
+      <c r="DE21" s="223">
         <f>IF(CQ21="ОЧ",1,0)+IF(CT21="ОЧ",1,0)+IF(H21="ОЧ",1,0)+IF(K21="ОЧ",1,0)+IF(N21="ОЧ",1,0)+IF(Q21="ОЧ",1,0)+IF(T21="ОЧ",1,0)+IF(W21="ОЧ",1,0)+IF(Z21="ОЧ",1,0)+IF(AC21="ОЧ",1,0)+IF(AF21="ОЧ",1,0)+IF(AI21="ОЧ",1,0)+IF(AL21="ОЧ",1,0)+IF(AO21="ОЧ",1,0)+IF(AR21="ОЧ",1,0)+IF(AU21="ОЧ",1,0)+IF(AX21="ОЧ",1,0)+IF(BA21="ОЧ",1,0)+IF(BD21="ОЧ",1,0)+IF(BG21="ОЧ",1,0)+IF(BJ21="ОЧ",1,0)+IF(BM21="ОЧ",1,0)+IF(BP21="ОЧ",1,0)+IF(BS21="ОЧ",1,0)+IF(BV21="ОЧ",1,0)+IF(BY21="ОЧ",1,0)+IF(CB21="ОЧ",1,0)+IF(CE21="ОЧ",1,0)+IF(CH21="ОЧ",1,0)+IF(CK21="ОЧ",1,0)+IF(CN21="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF21" s="287">
+      <c r="DF21" s="223">
         <f>IF(CQ21="Т",1,0)+IF(CT21="Т",1,0)+IF(K21="Т",1,0)+IF(H21="Т",1,0)+IF(N21="Т",1,0)+IF(Q21="Т",1,0)+IF(T21="Т",1,0)+IF(W21="Т",1,0)+IF(Z21="Т",1,0)+IF(AC21="Т",1,0)+IF(AF21="Т",1,0)+IF(AI21="Т",1,0)+IF(AL21="Т",1,0)+IF(AO21="Т",1,0)+IF(AR21="Т",1,0)+IF(AU21="Т",1,0)+IF(AX21="Т",1,0)+IF(BA21="Т",1,0)+IF(BD21="Т",1,0)+IF(BG21="Т",1,0)+IF(BJ21="Т",1,0)+IF(BM21="Т",1,0)+IF(BP21="Т",1,0)+IF(BS21="Т",1,0)+IF(BV21="Т",1,0)+IF(BY21="Т",1,0)+IF(CB21="Т",1,0)+IF(CE21="Т",1,0)+IF(CH21="Т",1,0)+IF(CK21="Т",1,0)+IF(CN21="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG21" s="287">
+      <c r="DG21" s="223">
         <f>IF(CT21="Пр",1,0)+IF(H21="Пр",1,0)+IF(K21="Пр",1,0)+IF(N21="Пр",1,0)+IF(Q21="Пр",1,0)+IF(T21="Пр",1,0)+IF(W21="Пр",1,0)+IF(Z21="Пр",1,0)+IF(AC21="Пр",1,0)+IF(AF21="Пр",1,0)+IF(AI21="Пр",1,0)+IF(AL21="Пр",1,0)+IF(AO21="Пр",1,0)+IF(AR21="Пр",1,0)+IF(AU21="Пр",1,0)+IF(AX21="Пр",1,0)+IF(BA21="Пр",1,0)+IF(BD21="Пр",1,0)+IF(BG21="Пр",1,0)+IF(BJ21="Пр",1,0)+IF(BM21="Пр",1,0)+IF(BP21="Пр",1,0)+IF(BS21="Пр",1,0)+IF(BV21="Пр",1,0)+IF(BY21="Пр",1,0)+IF(CB21="Пр",1,0)+IF(CE21="Пр",1,0)+IF(CH21="Пр",1,0)+IF(CK21="Пр",1,0)+IF(CN21="Пр",1,0)+IF(CQ21="Пр",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH21" s="286">
+      <c r="DH21" s="222">
         <f>IF(CQ21="В",1,0)+IF(CT21="В",1,0)+IF(H21="В",1,0)+IF(K21="В",1,0)+IF(N21="В",1,0)+IF(Q21="В",1,0)+IF(T21="В",1,0)+IF(W21="В",1,0)+IF(Z21="В",1,0)+IF(AC21="В",1,0)+IF(AF21="В",1,0)+IF(AI21="В",1,0)+IF(AL21="В",1,0)+IF(AO21="В",1,0)+IF(AR21="В",1,0)+IF(AU21="В",1,0)+IF(AX21="В",1,0)+IF(BA21="В",1,0)+IF(BD21="В",1,0)+IF(BG21="В",1,0)+IF(BJ21="В",1,0)+IF(BM21="В",1,0)+IF(BP21="В",1,0)+IF(BS21="В",1,0)+IF(BV21="В",1,0)+IF(BY21="В",1,0)+IF(CB21="В",1,0)+IF(CE21="В",1,0)+IF(CH21="В",1,0)+IF(CK21="В",1,0)+IF(CN21="В",1,0)</f>
         <v>9</v>
       </c>
@@ -16510,8 +17208,8 @@
       </c>
       <c r="BT22" s="183"/>
       <c r="BU22" s="187"/>
-      <c r="BV22" s="182">
-        <v>11.25</v>
+      <c r="BV22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="BW22" s="183"/>
       <c r="BX22" s="187"/>
@@ -16520,8 +17218,8 @@
       </c>
       <c r="BZ22" s="183"/>
       <c r="CA22" s="187"/>
-      <c r="CB22" s="182" t="s">
-        <v>79</v>
+      <c r="CB22" s="182">
+        <v>11.25</v>
       </c>
       <c r="CC22" s="183"/>
       <c r="CD22" s="187"/>
@@ -16530,8 +17228,8 @@
       </c>
       <c r="CF22" s="183"/>
       <c r="CG22" s="187"/>
-      <c r="CH22" s="182">
-        <v>11.25</v>
+      <c r="CH22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="CI22" s="183"/>
       <c r="CJ22" s="187"/>
@@ -16540,8 +17238,8 @@
       </c>
       <c r="CL22" s="183"/>
       <c r="CM22" s="187"/>
-      <c r="CN22" s="182" t="s">
-        <v>79</v>
+      <c r="CN22" s="182">
+        <v>11.25</v>
       </c>
       <c r="CO22" s="183"/>
       <c r="CP22" s="187"/>
@@ -16552,55 +17250,55 @@
       <c r="CS22" s="187"/>
       <c r="CT22" s="182"/>
       <c r="CU22" s="183"/>
-      <c r="CV22" s="291">
+      <c r="CV22" s="227">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="CW22" s="287">
+      <c r="CW22" s="223">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX22" s="286">
+      <c r="CX22" s="222">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY22" s="287">
+      <c r="CY22" s="223">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ22" s="287">
+      <c r="CZ22" s="223">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA22" s="287">
+      <c r="DA22" s="223">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB22" s="287">
+      <c r="DB22" s="223">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC22" s="287">
+      <c r="DC22" s="223">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD22" s="287">
+      <c r="DD22" s="223">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE22" s="287">
+      <c r="DE22" s="223">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF22" s="287">
+      <c r="DF22" s="223">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG22" s="287">
+      <c r="DG22" s="223">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="DH22" s="286">
+      <c r="DH22" s="222">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
@@ -16856,55 +17554,55 @@
       <c r="CS23" s="187"/>
       <c r="CT23" s="182"/>
       <c r="CU23" s="183"/>
-      <c r="CV23" s="291">
+      <c r="CV23" s="227">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="CW23" s="287">
+      <c r="CW23" s="223">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX23" s="286">
+      <c r="CX23" s="222">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY23" s="287">
+      <c r="CY23" s="223">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ23" s="287">
+      <c r="CZ23" s="223">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA23" s="287">
+      <c r="DA23" s="223">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB23" s="287">
+      <c r="DB23" s="223">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC23" s="287">
+      <c r="DC23" s="223">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD23" s="287">
+      <c r="DD23" s="223">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE23" s="286">
+      <c r="DE23" s="222">
         <f>IF(CQ23="ОЧ",1,0)+IF(CT23="ОЧ",1,0)+IF(H23="ОЧ",1,0)+IF(K23="ОЧ",1,0)+IF(N23="ОЧ",1,0)+IF(Q23="ОЧ",1,0)+IF(T23="ОЧ",1,0)+IF(W23="ОЧ",1,0)+IF(Z23="ОЧ",1,0)+IF(AC23="ОЧ",1,0)+IF(AF23="ОЧ",1,0)+IF(AI23="ОЧ",1,0)+IF(AL23="ОЧ",1,0)+IF(AO23="ОЧ",1,0)+IF(AR23="ОЧ",1,0)+IF(AU23="ОЧ",1,0)+IF(AX23="ОЧ",1,0)+IF(BA23="ОЧ",1,0)+IF(BD23="ОЧ",1,0)+IF(BG23="ОЧ",1,0)+IF(BJ23="ОЧ",1,0)+IF(BM23="ОЧ",1,0)+IF(BP23="ОЧ",1,0)+IF(BS23="ОЧ",1,0)+IF(BV23="ОЧ",1,0)+IF(BY23="ОЧ",1,0)+IF(CB23="ОЧ",1,0)+IF(CE23="ОЧ",1,0)+IF(CH23="ОЧ",1,0)+IF(CK23="ОЧ",1,0)+IF(CN23="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF23" s="286">
+      <c r="DF23" s="222">
         <f>IF(CQ23="Т",1,0)+IF(CT23="Т",1,0)+IF(K23="Т",1,0)+IF(H23="Т",1,0)+IF(N23="Т",1,0)+IF(Q23="Т",1,0)+IF(T23="Т",1,0)+IF(W23="Т",1,0)+IF(Z23="Т",1,0)+IF(AC23="Т",1,0)+IF(AF23="Т",1,0)+IF(AI23="Т",1,0)+IF(AL23="Т",1,0)+IF(AO23="Т",1,0)+IF(AR23="Т",1,0)+IF(AU23="Т",1,0)+IF(AX23="Т",1,0)+IF(BA23="Т",1,0)+IF(BD23="Т",1,0)+IF(BG23="Т",1,0)+IF(BJ23="Т",1,0)+IF(BM23="Т",1,0)+IF(BP23="Т",1,0)+IF(BS23="Т",1,0)+IF(BV23="Т",1,0)+IF(BY23="Т",1,0)+IF(CB23="Т",1,0)+IF(CE23="Т",1,0)+IF(CH23="Т",1,0)+IF(CK23="Т",1,0)+IF(CN23="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG23" s="286">
+      <c r="DG23" s="222">
         <f>IF(CT23="Пр",1,0)+IF(H23="Пр",1,0)+IF(K23="Пр",1,0)+IF(N23="Пр",1,0)+IF(Q23="Пр",1,0)+IF(T23="Пр",1,0)+IF(W23="Пр",1,0)+IF(Z23="Пр",1,0)+IF(AC23="Пр",1,0)+IF(AF23="Пр",1,0)+IF(AI23="Пр",1,0)+IF(AL23="Пр",1,0)+IF(AO23="Пр",1,0)+IF(AR23="Пр",1,0)+IF(AU23="Пр",1,0)+IF(AX23="Пр",1,0)+IF(BA23="Пр",1,0)+IF(BD23="Пр",1,0)+IF(BG23="Пр",1,0)+IF(BJ23="Пр",1,0)+IF(BM23="Пр",1,0)+IF(BP23="Пр",1,0)+IF(BS23="Пр",1,0)+IF(BV23="Пр",1,0)+IF(BY23="Пр",1,0)+IF(CB23="Пр",1,0)+IF(CE23="Пр",1,0)+IF(CH23="Пр",1,0)+IF(CK23="Пр",1,0)+IF(CN23="Пр",1,0)+IF(CQ23="Пр",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH23" s="286">
+      <c r="DH23" s="222">
         <f>IF(CQ23="В",1,0)+IF(CT23="В",1,0)+IF(H23="В",1,0)+IF(K23="В",1,0)+IF(N23="В",1,0)+IF(Q23="В",1,0)+IF(T23="В",1,0)+IF(W23="В",1,0)+IF(Z23="В",1,0)+IF(AC23="В",1,0)+IF(AF23="В",1,0)+IF(AI23="В",1,0)+IF(AL23="В",1,0)+IF(AO23="В",1,0)+IF(AR23="В",1,0)+IF(AU23="В",1,0)+IF(AX23="В",1,0)+IF(BA23="В",1,0)+IF(BD23="В",1,0)+IF(BG23="В",1,0)+IF(BJ23="В",1,0)+IF(BM23="В",1,0)+IF(BP23="В",1,0)+IF(BS23="В",1,0)+IF(BV23="В",1,0)+IF(BY23="В",1,0)+IF(CB23="В",1,0)+IF(CE23="В",1,0)+IF(CH23="В",1,0)+IF(CK23="В",1,0)+IF(CN23="В",1,0)</f>
         <v>15</v>
       </c>
@@ -17622,45 +18320,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="220"/>
-      <c r="R31" s="220"/>
-      <c r="S31" s="220"/>
-      <c r="T31" s="220"/>
-      <c r="U31" s="220"/>
-      <c r="V31" s="220"/>
-      <c r="W31" s="220"/>
-      <c r="X31" s="220"/>
-      <c r="Y31" s="220"/>
-      <c r="Z31" s="220"/>
-      <c r="AA31" s="220"/>
-      <c r="AB31" s="220"/>
-      <c r="AC31" s="220"/>
-      <c r="AD31" s="220"/>
-      <c r="AE31" s="220"/>
-      <c r="AF31" s="220"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="220"/>
-      <c r="AI31" s="220"/>
-      <c r="AJ31" s="220"/>
-      <c r="AK31" s="220"/>
-      <c r="AL31" s="220"/>
-      <c r="AM31" s="220"/>
-      <c r="AN31" s="220"/>
-      <c r="AO31" s="220"/>
-      <c r="AP31" s="220"/>
-      <c r="AQ31" s="220"/>
-      <c r="AR31" s="220"/>
-      <c r="AS31" s="220"/>
+      <c r="G31" s="283"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="283"/>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="283"/>
+      <c r="Q31" s="283"/>
+      <c r="R31" s="283"/>
+      <c r="S31" s="283"/>
+      <c r="T31" s="283"/>
+      <c r="U31" s="283"/>
+      <c r="V31" s="283"/>
+      <c r="W31" s="283"/>
+      <c r="X31" s="283"/>
+      <c r="Y31" s="283"/>
+      <c r="Z31" s="283"/>
+      <c r="AA31" s="283"/>
+      <c r="AB31" s="283"/>
+      <c r="AC31" s="283"/>
+      <c r="AD31" s="283"/>
+      <c r="AE31" s="283"/>
+      <c r="AF31" s="283"/>
+      <c r="AG31" s="283"/>
+      <c r="AH31" s="283"/>
+      <c r="AI31" s="283"/>
+      <c r="AJ31" s="283"/>
+      <c r="AK31" s="283"/>
+      <c r="AL31" s="283"/>
+      <c r="AM31" s="283"/>
+      <c r="AN31" s="283"/>
+      <c r="AO31" s="283"/>
+      <c r="AP31" s="283"/>
+      <c r="AQ31" s="283"/>
+      <c r="AR31" s="283"/>
+      <c r="AS31" s="283"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -17965,45 +18663,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="220"/>
-      <c r="M35" s="220"/>
-      <c r="N35" s="220"/>
-      <c r="O35" s="220"/>
-      <c r="P35" s="220"/>
-      <c r="Q35" s="220"/>
-      <c r="R35" s="220"/>
-      <c r="S35" s="220"/>
-      <c r="T35" s="220"/>
-      <c r="U35" s="220"/>
-      <c r="V35" s="220"/>
-      <c r="W35" s="220"/>
-      <c r="X35" s="220"/>
-      <c r="Y35" s="220"/>
-      <c r="Z35" s="220"/>
-      <c r="AA35" s="220"/>
-      <c r="AB35" s="220"/>
-      <c r="AC35" s="220"/>
-      <c r="AD35" s="220"/>
-      <c r="AE35" s="220"/>
-      <c r="AF35" s="220"/>
-      <c r="AG35" s="220"/>
-      <c r="AH35" s="220"/>
-      <c r="AI35" s="220"/>
-      <c r="AJ35" s="220"/>
-      <c r="AK35" s="220"/>
-      <c r="AL35" s="220"/>
-      <c r="AM35" s="220"/>
-      <c r="AN35" s="220"/>
-      <c r="AO35" s="220"/>
-      <c r="AP35" s="220"/>
-      <c r="AQ35" s="220"/>
-      <c r="AR35" s="220"/>
-      <c r="AS35" s="220"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="283"/>
+      <c r="I35" s="283"/>
+      <c r="J35" s="283"/>
+      <c r="K35" s="283"/>
+      <c r="L35" s="283"/>
+      <c r="M35" s="283"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="283"/>
+      <c r="P35" s="283"/>
+      <c r="Q35" s="283"/>
+      <c r="R35" s="283"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="283"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
+      <c r="W35" s="283"/>
+      <c r="X35" s="283"/>
+      <c r="Y35" s="283"/>
+      <c r="Z35" s="283"/>
+      <c r="AA35" s="283"/>
+      <c r="AB35" s="283"/>
+      <c r="AC35" s="283"/>
+      <c r="AD35" s="283"/>
+      <c r="AE35" s="283"/>
+      <c r="AF35" s="283"/>
+      <c r="AG35" s="283"/>
+      <c r="AH35" s="283"/>
+      <c r="AI35" s="283"/>
+      <c r="AJ35" s="283"/>
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="283"/>
+      <c r="AO35" s="283"/>
+      <c r="AP35" s="283"/>
+      <c r="AQ35" s="283"/>
+      <c r="AR35" s="283"/>
+      <c r="AS35" s="283"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -20161,17 +20859,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -20188,35 +20898,23 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="104" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20241,12 +20939,12 @@
   </sheetPr>
   <dimension ref="A1:EF87"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AE11" sqref="AE11:BB11"/>
+      <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20413,21 +21111,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="251" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="251"/>
-      <c r="CW1" s="251"/>
-      <c r="CX1" s="251"/>
-      <c r="CY1" s="251"/>
-      <c r="CZ1" s="251"/>
-      <c r="DA1" s="251"/>
-      <c r="DB1" s="251"/>
-      <c r="DC1" s="251"/>
-      <c r="DD1" s="251"/>
-      <c r="DE1" s="251"/>
-      <c r="DF1" s="251"/>
-      <c r="DG1" s="251"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -20528,241 +21226,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="252" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="252"/>
-      <c r="CW2" s="252"/>
-      <c r="CX2" s="252"/>
-      <c r="CY2" s="252"/>
-      <c r="CZ2" s="252"/>
-      <c r="DA2" s="252"/>
-      <c r="DB2" s="252"/>
-      <c r="DC2" s="252"/>
-      <c r="DD2" s="252"/>
-      <c r="DE2" s="252"/>
-      <c r="DF2" s="252"/>
-      <c r="DG2" s="252"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="253"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
-      <c r="AA3" s="253"/>
-      <c r="AB3" s="253"/>
-      <c r="AC3" s="253"/>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="253"/>
-      <c r="AG3" s="253"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="253"/>
-      <c r="AM3" s="253"/>
-      <c r="AN3" s="253"/>
-      <c r="AO3" s="253"/>
-      <c r="AP3" s="253"/>
-      <c r="AQ3" s="253"/>
-      <c r="AR3" s="253"/>
-      <c r="AS3" s="253"/>
-      <c r="AT3" s="253"/>
-      <c r="AU3" s="253"/>
-      <c r="AV3" s="253"/>
-      <c r="AW3" s="253"/>
-      <c r="AX3" s="253"/>
-      <c r="AY3" s="253"/>
-      <c r="AZ3" s="253"/>
-      <c r="BA3" s="253"/>
-      <c r="BB3" s="253"/>
-      <c r="BC3" s="253"/>
-      <c r="BD3" s="253"/>
-      <c r="BE3" s="253"/>
-      <c r="BF3" s="253"/>
-      <c r="BG3" s="253"/>
-      <c r="BH3" s="253"/>
-      <c r="BI3" s="253"/>
-      <c r="BJ3" s="253"/>
-      <c r="BK3" s="253"/>
-      <c r="BL3" s="253"/>
-      <c r="BM3" s="253"/>
-      <c r="BN3" s="253"/>
-      <c r="BO3" s="253"/>
-      <c r="BP3" s="253"/>
-      <c r="BQ3" s="253"/>
-      <c r="BR3" s="253"/>
-      <c r="BS3" s="253"/>
-      <c r="BT3" s="253"/>
-      <c r="BU3" s="253"/>
-      <c r="BV3" s="253"/>
-      <c r="BW3" s="253"/>
-      <c r="BX3" s="253"/>
-      <c r="BY3" s="253"/>
-      <c r="BZ3" s="253"/>
-      <c r="CA3" s="253"/>
-      <c r="CB3" s="253"/>
-      <c r="CC3" s="253"/>
-      <c r="CD3" s="253"/>
-      <c r="CE3" s="253"/>
-      <c r="CF3" s="253"/>
-      <c r="CG3" s="253"/>
-      <c r="CH3" s="253"/>
-      <c r="CI3" s="253"/>
-      <c r="CJ3" s="253"/>
-      <c r="CK3" s="253"/>
-      <c r="CL3" s="253"/>
-      <c r="CM3" s="253"/>
-      <c r="CN3" s="253"/>
-      <c r="CO3" s="253"/>
-      <c r="CP3" s="253"/>
-      <c r="CQ3" s="253"/>
-      <c r="CR3" s="253"/>
-      <c r="CS3" s="253"/>
-      <c r="CT3" s="253"/>
-      <c r="CU3" s="253"/>
-      <c r="CV3" s="254" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="254"/>
-      <c r="CX3" s="254"/>
-      <c r="CY3" s="254"/>
-      <c r="CZ3" s="254"/>
-      <c r="DA3" s="254"/>
-      <c r="DB3" s="254"/>
-      <c r="DC3" s="254"/>
-      <c r="DD3" s="254"/>
-      <c r="DE3" s="254"/>
-      <c r="DF3" s="254"/>
-      <c r="DG3" s="254"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="261"/>
-      <c r="AE4" s="261"/>
-      <c r="AF4" s="261"/>
-      <c r="AG4" s="261"/>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="261"/>
-      <c r="AK4" s="261"/>
-      <c r="AL4" s="261"/>
-      <c r="AM4" s="261"/>
-      <c r="AN4" s="261"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="261"/>
-      <c r="AQ4" s="261"/>
-      <c r="AR4" s="261"/>
-      <c r="AS4" s="261"/>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="261"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="261"/>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="261"/>
-      <c r="AZ4" s="261"/>
-      <c r="BA4" s="261"/>
-      <c r="BB4" s="261"/>
-      <c r="BC4" s="261"/>
-      <c r="BD4" s="261"/>
-      <c r="BE4" s="261"/>
-      <c r="BF4" s="261"/>
-      <c r="BG4" s="261"/>
-      <c r="BH4" s="261"/>
-      <c r="BI4" s="261"/>
-      <c r="BJ4" s="261"/>
-      <c r="BK4" s="261"/>
-      <c r="BL4" s="261"/>
-      <c r="BM4" s="261"/>
-      <c r="BN4" s="261"/>
-      <c r="BO4" s="261"/>
-      <c r="BP4" s="261"/>
-      <c r="BQ4" s="261"/>
-      <c r="BR4" s="261"/>
-      <c r="BS4" s="261"/>
-      <c r="BT4" s="261"/>
-      <c r="BU4" s="261"/>
-      <c r="BV4" s="261"/>
-      <c r="BW4" s="261"/>
-      <c r="BX4" s="261"/>
-      <c r="BY4" s="261"/>
-      <c r="BZ4" s="261"/>
-      <c r="CA4" s="261"/>
-      <c r="CB4" s="261"/>
-      <c r="CC4" s="261"/>
-      <c r="CD4" s="261"/>
-      <c r="CE4" s="261"/>
-      <c r="CF4" s="261"/>
-      <c r="CG4" s="261"/>
-      <c r="CH4" s="261"/>
-      <c r="CI4" s="261"/>
-      <c r="CJ4" s="261"/>
-      <c r="CK4" s="261"/>
-      <c r="CL4" s="261"/>
-      <c r="CM4" s="261"/>
-      <c r="CN4" s="261"/>
-      <c r="CO4" s="261"/>
-      <c r="CP4" s="261"/>
-      <c r="CQ4" s="261"/>
-      <c r="CR4" s="261"/>
-      <c r="CS4" s="261"/>
-      <c r="CT4" s="261"/>
-      <c r="CU4" s="261"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -20892,433 +21590,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="265" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="248" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="241" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="241"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="241"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
-      <c r="AE6" s="241"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="241"/>
-      <c r="AH6" s="241"/>
-      <c r="AI6" s="241"/>
-      <c r="AJ6" s="241"/>
-      <c r="AK6" s="241"/>
-      <c r="AL6" s="241"/>
-      <c r="AM6" s="241"/>
-      <c r="AN6" s="241"/>
-      <c r="AO6" s="241"/>
-      <c r="AP6" s="241"/>
-      <c r="AQ6" s="241"/>
-      <c r="AR6" s="241"/>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="241"/>
-      <c r="BB6" s="241"/>
-      <c r="BC6" s="241"/>
-      <c r="BD6" s="241"/>
-      <c r="BE6" s="241"/>
-      <c r="BF6" s="241"/>
-      <c r="BG6" s="241"/>
-      <c r="BH6" s="241"/>
-      <c r="BI6" s="241"/>
-      <c r="BJ6" s="241"/>
-      <c r="BK6" s="241"/>
-      <c r="BL6" s="241"/>
-      <c r="BM6" s="241"/>
-      <c r="BN6" s="241"/>
-      <c r="BO6" s="241"/>
-      <c r="BP6" s="241"/>
-      <c r="BQ6" s="241"/>
-      <c r="BR6" s="241"/>
-      <c r="BS6" s="241"/>
-      <c r="BT6" s="241"/>
-      <c r="BU6" s="241"/>
-      <c r="BV6" s="241"/>
-      <c r="BW6" s="241"/>
-      <c r="BX6" s="241"/>
-      <c r="BY6" s="241"/>
-      <c r="BZ6" s="241"/>
-      <c r="CA6" s="241"/>
-      <c r="CB6" s="241"/>
-      <c r="CC6" s="241"/>
-      <c r="CD6" s="241"/>
-      <c r="CE6" s="241"/>
-      <c r="CF6" s="241"/>
-      <c r="CG6" s="241"/>
-      <c r="CH6" s="241"/>
-      <c r="CI6" s="241"/>
-      <c r="CJ6" s="241"/>
-      <c r="CK6" s="241"/>
-      <c r="CL6" s="241"/>
-      <c r="CM6" s="241"/>
-      <c r="CN6" s="241"/>
-      <c r="CO6" s="241"/>
-      <c r="CP6" s="241"/>
-      <c r="CQ6" s="241"/>
-      <c r="CR6" s="241"/>
-      <c r="CS6" s="241"/>
-      <c r="CT6" s="241"/>
-      <c r="CU6" s="241"/>
-      <c r="CV6" s="255" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="256"/>
-      <c r="CX6" s="255" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="259"/>
-      <c r="CZ6" s="259"/>
-      <c r="DA6" s="259"/>
-      <c r="DB6" s="259"/>
-      <c r="DC6" s="259"/>
-      <c r="DD6" s="259"/>
-      <c r="DE6" s="259"/>
-      <c r="DF6" s="259"/>
-      <c r="DG6" s="259"/>
-      <c r="DH6" s="231" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="234" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="244" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="244"/>
-      <c r="DL6" s="244"/>
-      <c r="DM6" s="244"/>
-      <c r="DN6" s="244"/>
-      <c r="DO6" s="245"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="263"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="242"/>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="242"/>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-      <c r="V7" s="242"/>
-      <c r="W7" s="242"/>
-      <c r="X7" s="242"/>
-      <c r="Y7" s="242"/>
-      <c r="Z7" s="242"/>
-      <c r="AA7" s="242"/>
-      <c r="AB7" s="242"/>
-      <c r="AC7" s="242"/>
-      <c r="AD7" s="242"/>
-      <c r="AE7" s="242"/>
-      <c r="AF7" s="242"/>
-      <c r="AG7" s="242"/>
-      <c r="AH7" s="242"/>
-      <c r="AI7" s="242"/>
-      <c r="AJ7" s="242"/>
-      <c r="AK7" s="242"/>
-      <c r="AL7" s="242"/>
-      <c r="AM7" s="242"/>
-      <c r="AN7" s="242"/>
-      <c r="AO7" s="242"/>
-      <c r="AP7" s="242"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="242"/>
-      <c r="AS7" s="242"/>
-      <c r="AT7" s="242"/>
-      <c r="AU7" s="242"/>
-      <c r="AV7" s="242"/>
-      <c r="AW7" s="242"/>
-      <c r="AX7" s="242"/>
-      <c r="AY7" s="242"/>
-      <c r="AZ7" s="242"/>
-      <c r="BA7" s="242"/>
-      <c r="BB7" s="242"/>
-      <c r="BC7" s="242"/>
-      <c r="BD7" s="242"/>
-      <c r="BE7" s="242"/>
-      <c r="BF7" s="242"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="242"/>
-      <c r="BI7" s="242"/>
-      <c r="BJ7" s="242"/>
-      <c r="BK7" s="242"/>
-      <c r="BL7" s="242"/>
-      <c r="BM7" s="242"/>
-      <c r="BN7" s="242"/>
-      <c r="BO7" s="243"/>
-      <c r="BP7" s="243"/>
-      <c r="BQ7" s="243"/>
-      <c r="BR7" s="242"/>
-      <c r="BS7" s="242"/>
-      <c r="BT7" s="242"/>
-      <c r="BU7" s="242"/>
-      <c r="BV7" s="242"/>
-      <c r="BW7" s="242"/>
-      <c r="BX7" s="242"/>
-      <c r="BY7" s="242"/>
-      <c r="BZ7" s="242"/>
-      <c r="CA7" s="242"/>
-      <c r="CB7" s="242"/>
-      <c r="CC7" s="242"/>
-      <c r="CD7" s="242"/>
-      <c r="CE7" s="242"/>
-      <c r="CF7" s="242"/>
-      <c r="CG7" s="242"/>
-      <c r="CH7" s="242"/>
-      <c r="CI7" s="242"/>
-      <c r="CJ7" s="242"/>
-      <c r="CK7" s="242"/>
-      <c r="CL7" s="242"/>
-      <c r="CM7" s="242"/>
-      <c r="CN7" s="242"/>
-      <c r="CO7" s="242"/>
-      <c r="CP7" s="242"/>
-      <c r="CQ7" s="242"/>
-      <c r="CR7" s="242"/>
-      <c r="CS7" s="242"/>
-      <c r="CT7" s="242"/>
-      <c r="CU7" s="242"/>
-      <c r="CV7" s="257"/>
-      <c r="CW7" s="258"/>
-      <c r="CX7" s="257"/>
-      <c r="CY7" s="260"/>
-      <c r="CZ7" s="260"/>
-      <c r="DA7" s="260"/>
-      <c r="DB7" s="260"/>
-      <c r="DC7" s="260"/>
-      <c r="DD7" s="260"/>
-      <c r="DE7" s="260"/>
-      <c r="DF7" s="260"/>
-      <c r="DG7" s="260"/>
-      <c r="DH7" s="232"/>
-      <c r="DI7" s="235"/>
-      <c r="DJ7" s="246"/>
-      <c r="DK7" s="246"/>
-      <c r="DL7" s="246"/>
-      <c r="DM7" s="246"/>
-      <c r="DN7" s="246"/>
-      <c r="DO7" s="247"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="264"/>
-      <c r="B8" s="267"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="283">
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="294">
         <v>1</v>
       </c>
-      <c r="H8" s="275"/>
-      <c r="I8" s="276"/>
-      <c r="J8" s="274">
+      <c r="H8" s="286"/>
+      <c r="I8" s="287"/>
+      <c r="J8" s="285">
         <v>2</v>
       </c>
-      <c r="K8" s="275"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="274">
+      <c r="K8" s="286"/>
+      <c r="L8" s="287"/>
+      <c r="M8" s="285">
         <v>3</v>
       </c>
-      <c r="N8" s="275"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="274">
+      <c r="N8" s="286"/>
+      <c r="O8" s="289"/>
+      <c r="P8" s="285">
         <v>4</v>
       </c>
-      <c r="Q8" s="275"/>
-      <c r="R8" s="276"/>
-      <c r="S8" s="226">
+      <c r="Q8" s="286"/>
+      <c r="R8" s="287"/>
+      <c r="S8" s="248">
         <v>5</v>
       </c>
-      <c r="T8" s="227"/>
-      <c r="U8" s="228"/>
-      <c r="V8" s="226">
+      <c r="T8" s="249"/>
+      <c r="U8" s="269"/>
+      <c r="V8" s="248">
         <v>6</v>
       </c>
-      <c r="W8" s="227"/>
-      <c r="X8" s="229"/>
-      <c r="Y8" s="274">
+      <c r="W8" s="249"/>
+      <c r="X8" s="250"/>
+      <c r="Y8" s="285">
         <v>7</v>
       </c>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="276"/>
-      <c r="AB8" s="274">
+      <c r="Z8" s="286"/>
+      <c r="AA8" s="287"/>
+      <c r="AB8" s="285">
         <v>8</v>
       </c>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="276"/>
-      <c r="AE8" s="274">
+      <c r="AC8" s="286"/>
+      <c r="AD8" s="287"/>
+      <c r="AE8" s="285">
         <v>9</v>
       </c>
-      <c r="AF8" s="275"/>
-      <c r="AG8" s="278"/>
-      <c r="AH8" s="274">
+      <c r="AF8" s="286"/>
+      <c r="AG8" s="289"/>
+      <c r="AH8" s="285">
         <v>10</v>
       </c>
-      <c r="AI8" s="275"/>
-      <c r="AJ8" s="276"/>
-      <c r="AK8" s="274">
+      <c r="AI8" s="286"/>
+      <c r="AJ8" s="287"/>
+      <c r="AK8" s="285">
         <v>11</v>
       </c>
-      <c r="AL8" s="275"/>
-      <c r="AM8" s="276"/>
-      <c r="AN8" s="240">
+      <c r="AL8" s="286"/>
+      <c r="AM8" s="287"/>
+      <c r="AN8" s="279">
         <v>12</v>
       </c>
-      <c r="AO8" s="227"/>
-      <c r="AP8" s="228"/>
-      <c r="AQ8" s="226">
+      <c r="AO8" s="249"/>
+      <c r="AP8" s="269"/>
+      <c r="AQ8" s="248">
         <v>13</v>
       </c>
-      <c r="AR8" s="227"/>
-      <c r="AS8" s="229"/>
-      <c r="AT8" s="277">
+      <c r="AR8" s="249"/>
+      <c r="AS8" s="250"/>
+      <c r="AT8" s="288">
         <v>14</v>
       </c>
-      <c r="AU8" s="275"/>
-      <c r="AV8" s="276"/>
-      <c r="AW8" s="274">
+      <c r="AU8" s="286"/>
+      <c r="AV8" s="287"/>
+      <c r="AW8" s="285">
         <v>15</v>
       </c>
-      <c r="AX8" s="275"/>
-      <c r="AY8" s="276"/>
-      <c r="AZ8" s="274">
+      <c r="AX8" s="286"/>
+      <c r="AY8" s="287"/>
+      <c r="AZ8" s="285">
         <v>16</v>
       </c>
-      <c r="BA8" s="275"/>
-      <c r="BB8" s="276"/>
-      <c r="BC8" s="274">
+      <c r="BA8" s="286"/>
+      <c r="BB8" s="287"/>
+      <c r="BC8" s="285">
         <v>17</v>
       </c>
-      <c r="BD8" s="275"/>
-      <c r="BE8" s="278"/>
-      <c r="BF8" s="274">
+      <c r="BD8" s="286"/>
+      <c r="BE8" s="289"/>
+      <c r="BF8" s="285">
         <v>18</v>
       </c>
-      <c r="BG8" s="275"/>
-      <c r="BH8" s="276"/>
-      <c r="BI8" s="240">
+      <c r="BG8" s="286"/>
+      <c r="BH8" s="287"/>
+      <c r="BI8" s="279">
         <v>19</v>
       </c>
-      <c r="BJ8" s="227"/>
-      <c r="BK8" s="228"/>
-      <c r="BL8" s="226">
+      <c r="BJ8" s="249"/>
+      <c r="BK8" s="269"/>
+      <c r="BL8" s="248">
         <v>20</v>
       </c>
-      <c r="BM8" s="227"/>
-      <c r="BN8" s="229"/>
-      <c r="BO8" s="274">
+      <c r="BM8" s="249"/>
+      <c r="BN8" s="250"/>
+      <c r="BO8" s="285">
         <v>21</v>
       </c>
-      <c r="BP8" s="275"/>
-      <c r="BQ8" s="276"/>
-      <c r="BR8" s="274">
+      <c r="BP8" s="286"/>
+      <c r="BQ8" s="287"/>
+      <c r="BR8" s="285">
         <v>22</v>
       </c>
-      <c r="BS8" s="275"/>
-      <c r="BT8" s="276"/>
-      <c r="BU8" s="277">
+      <c r="BS8" s="286"/>
+      <c r="BT8" s="287"/>
+      <c r="BU8" s="288">
         <v>23</v>
       </c>
-      <c r="BV8" s="275"/>
-      <c r="BW8" s="278"/>
-      <c r="BX8" s="274">
+      <c r="BV8" s="286"/>
+      <c r="BW8" s="289"/>
+      <c r="BX8" s="285">
         <v>24</v>
       </c>
-      <c r="BY8" s="275"/>
-      <c r="BZ8" s="276"/>
-      <c r="CA8" s="277">
+      <c r="BY8" s="286"/>
+      <c r="BZ8" s="287"/>
+      <c r="CA8" s="288">
         <v>25</v>
       </c>
-      <c r="CB8" s="275"/>
-      <c r="CC8" s="278"/>
-      <c r="CD8" s="226">
+      <c r="CB8" s="286"/>
+      <c r="CC8" s="289"/>
+      <c r="CD8" s="248">
         <v>26</v>
       </c>
-      <c r="CE8" s="227"/>
-      <c r="CF8" s="229"/>
-      <c r="CG8" s="240">
+      <c r="CE8" s="249"/>
+      <c r="CF8" s="250"/>
+      <c r="CG8" s="279">
         <v>27</v>
       </c>
-      <c r="CH8" s="227"/>
-      <c r="CI8" s="228"/>
-      <c r="CJ8" s="274">
+      <c r="CH8" s="249"/>
+      <c r="CI8" s="269"/>
+      <c r="CJ8" s="285">
         <v>28</v>
       </c>
-      <c r="CK8" s="275"/>
-      <c r="CL8" s="276"/>
-      <c r="CM8" s="274">
+      <c r="CK8" s="286"/>
+      <c r="CL8" s="287"/>
+      <c r="CM8" s="285">
         <v>29</v>
       </c>
-      <c r="CN8" s="275"/>
-      <c r="CO8" s="276"/>
-      <c r="CP8" s="274">
+      <c r="CN8" s="286"/>
+      <c r="CO8" s="287"/>
+      <c r="CP8" s="285">
         <v>30</v>
       </c>
-      <c r="CQ8" s="275"/>
-      <c r="CR8" s="276"/>
-      <c r="CS8" s="280">
+      <c r="CQ8" s="286"/>
+      <c r="CR8" s="287"/>
+      <c r="CS8" s="291">
         <v>31</v>
       </c>
-      <c r="CT8" s="281"/>
-      <c r="CU8" s="282"/>
+      <c r="CT8" s="292"/>
+      <c r="CU8" s="293"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -21355,8 +22053,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="233"/>
-      <c r="DI8" s="236"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -21771,43 +22469,69 @@
         <v>56</v>
       </c>
       <c r="G10" s="172"/>
-      <c r="H10" s="173"/>
+      <c r="H10" s="173">
+        <v>8</v>
+      </c>
       <c r="I10" s="174"/>
       <c r="J10" s="175"/>
-      <c r="K10" s="173"/>
+      <c r="K10" s="173">
+        <v>8</v>
+      </c>
       <c r="L10" s="174"/>
       <c r="M10" s="175"/>
-      <c r="N10" s="176"/>
+      <c r="N10" s="176">
+        <v>8</v>
+      </c>
       <c r="O10" s="174"/>
       <c r="P10" s="175"/>
-      <c r="Q10" s="173"/>
+      <c r="Q10" s="173">
+        <v>8</v>
+      </c>
       <c r="R10" s="174"/>
       <c r="S10" s="175"/>
-      <c r="T10" s="173"/>
+      <c r="T10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="U10" s="174"/>
       <c r="V10" s="175"/>
-      <c r="W10" s="173"/>
+      <c r="W10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="X10" s="174"/>
       <c r="Y10" s="175"/>
-      <c r="Z10" s="173"/>
+      <c r="Z10" s="173">
+        <v>8</v>
+      </c>
       <c r="AA10" s="174"/>
       <c r="AB10" s="175"/>
-      <c r="AC10" s="173"/>
+      <c r="AC10" s="173">
+        <v>8</v>
+      </c>
       <c r="AD10" s="174"/>
       <c r="AE10" s="175"/>
-      <c r="AF10" s="173"/>
+      <c r="AF10" s="173" t="s">
+        <v>82</v>
+      </c>
       <c r="AG10" s="174"/>
       <c r="AH10" s="175"/>
-      <c r="AI10" s="173"/>
+      <c r="AI10" s="173" t="s">
+        <v>82</v>
+      </c>
       <c r="AJ10" s="174"/>
       <c r="AK10" s="175"/>
-      <c r="AL10" s="173"/>
+      <c r="AL10" s="173" t="s">
+        <v>82</v>
+      </c>
       <c r="AM10" s="174"/>
       <c r="AN10" s="175"/>
-      <c r="AO10" s="173"/>
+      <c r="AO10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="AP10" s="174"/>
       <c r="AQ10" s="175"/>
-      <c r="AR10" s="173"/>
+      <c r="AR10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="AS10" s="174"/>
       <c r="AT10" s="175"/>
       <c r="AU10" s="173"/>
@@ -21865,7 +22589,7 @@
       <c r="CU10" s="174"/>
       <c r="CV10" s="177">
         <f t="shared" ref="CV10:CV23" si="0">IF(SUM(G10:I10)&gt;=1,1,0)+IF(SUM(J10:L10)&gt;=1,1,0)+IF(SUM(M10:O10)&gt;=1,1,0)+IF(SUM(P10:R10)&gt;=1,1,0)+IF(SUM(S10:U10)&gt;=1,1,0)+IF(SUM(V10:X10)&gt;=1,1,0)+IF(SUM(Y10:AA10)&gt;=1,1,0)+IF(SUM(AB10:AD10)&gt;=1,1,0)+IF(SUM(AE10:AG10)&gt;=1,1,0)+IF(SUM(AH10:AJ10)&gt;=1,1,0)+IF(SUM(AK10:AM10)&gt;=1,1,0)+IF(SUM(AN10:AP10)&gt;=1,1,0)+IF(SUM(AQ10:AS10)&gt;=1,1,0)+IF(SUM(AT10:AV10)&gt;=1,1,0)+IF(SUM(AW10:AY10)&gt;=1,1,0)+IF(SUM(AZ10:BB10)&gt;=1,1,0)+IF(SUM(BC10:BE10)&gt;=1,1,0)+IF(SUM(BF10:BH10)&gt;=1,1,0)+IF(SUM(BI10:BK10)&gt;=1,1,0)+IF(SUM(BL10:BN10)&gt;=1,1,0)+IF(SUM(BO10:BQ10)&gt;=1,1,0)+IF(SUM(BR10:BT10)&gt;=1,1,0)+IF(SUM(BU10:BW10)&gt;=1,1,0)+IF(SUM(BX10:BZ10)&gt;=1,1,0)+IF(SUM(CA10:CC10)&gt;=1,1,0)+IF(SUM(CD10:CF10)&gt;=1,1,0)+IF(SUM(CG10:CI10)&gt;=1,1,0)+IF(SUM(CJ10:CL10)&gt;=1,1,0)+IF(SUM(CM10:CO10)&gt;=1,1,0)+IF(SUM(CP10:CR10)&gt;=1,1,0)+IF(SUM(CS10:CU10)&gt;=1,1,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CW10" s="178">
         <f t="shared" ref="CW10:CW23" si="1">IF(CK10="К",1,0)+IF(CN10="К",1,0)+IF(CQ10="К",1,0)+IF(CT10="К",1,0)+IF(CH10="К",1,0)+IF(H10="К",1,0)+IF(K10="К",1,0)+IF(N10="К",1,0)+IF(Q10="К",1,0)+IF(T10="К",1,0)+IF(W10="К",1,0)+IF(Z10="К",1,0)+IF(AC10="К",1,0)+IF(AF10="К",1,0)+IF(AI10="К",1,0)+IF(AL10="К",1,0)+IF(AO10="К",1,0)+IF(AR10="К",1,0)+IF(AU10="К",1,0)+IF(AX10="К",1,0)+IF(BA10="К",1,0)+IF(BD10="К",1,0)+IF(BG10="К",1,0)+IF(BJ10="К",1,0)+IF(BM10="К",1,0)+IF(BP10="К",1,0)+IF(BS10="К",1,0)+IF(BV10="К",1,0)+IF(BY10="К",1,0)+IF(CB10="К",1,0)+IF(CE10="К",1,0)</f>
@@ -21885,7 +22609,7 @@
       </c>
       <c r="DA10" s="178">
         <f t="shared" ref="DA10:DA23" si="5">IF(CN10="А",1,0)+IF(CQ10="А",1,0)+IF(CT10="А",1,0)+IF(H10="А",1,0)+IF(K10="А",1,0)+IF(N10="А",1,0)+IF(Q10="А",1,0)+IF(T10="А",1,0)+IF(W10="А",1,0)+IF(Z10="А",1,0)+IF(AC10="А",1,0)+IF(AF10="А",1,0)+IF(AI10="А",1,0)+IF(AL10="А",1,0)+IF(AO10="А",1,0)+IF(AR10="А",1,0)+IF(AU10="А",1,0)+IF(AX10="А",1,0)+IF(BA10="А",1,0)+IF(BD10="А",1,0)+IF(BG10="А",1,0)+IF(BJ10="А",1,0)+IF(BM10="А",1,0)+IF(BP10="А",1,0)+IF(BS10="А",1,0)+IF(BV10="А",1,0)+IF(BY10="А",1,0)+IF(CB10="А",1,0)+IF(CE10="А",1,0)+IF(CH10="А",1,0)+IF(CK10="А",1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DB10" s="178">
         <f t="shared" ref="DB10:DB23" si="6">IF(CN10="П",1,0)+IF(CQ10="П",1,0)+IF(CT10="П",1,0)+IF(H10="П",1,0)+IF(K10="П",1,0)+IF(N10="П",1,0)+IF(Q10="П",1,0)+IF(T10="П",1,0)+IF(W10="П",1,0)+IF(Z10="П",1,0)+IF(AC10="П",1,0)+IF(AF10="П",1,0)+IF(AI10="П",1,0)+IF(AL10="П",1,0)+IF(AO10="П",1,0)+IF(AR10="П",1,0)+IF(AU10="П",1,0)+IF(AX10="П",1,0)+IF(BA10="П",1,0)+IF(BD10="П",1,0)+IF(BG10="П",1,0)+IF(BJ10="П",1,0)+IF(BM10="П",1,0)+IF(BP10="П",1,0)+IF(BS10="П",1,0)+IF(BV10="П",1,0)+IF(BY10="П",1,0)+IF(CB10="П",1,0)+IF(CE10="П",1,0)+IF(CH10="П",1,0)+IF(CK10="П",1,0)</f>
@@ -21913,15 +22637,15 @@
       </c>
       <c r="DH10" s="178">
         <f t="shared" ref="DH10:DH22" si="12">IF(CQ10="В",1,0)+IF(CT10="В",1,0)+IF(H10="В",1,0)+IF(K10="В",1,0)+IF(N10="В",1,0)+IF(Q10="В",1,0)+IF(T10="В",1,0)+IF(W10="В",1,0)+IF(Z10="В",1,0)+IF(AC10="В",1,0)+IF(AF10="В",1,0)+IF(AI10="В",1,0)+IF(AL10="В",1,0)+IF(AO10="В",1,0)+IF(AR10="В",1,0)+IF(AU10="В",1,0)+IF(AX10="В",1,0)+IF(BA10="В",1,0)+IF(BD10="В",1,0)+IF(BG10="В",1,0)+IF(BJ10="В",1,0)+IF(BM10="В",1,0)+IF(BP10="В",1,0)+IF(BS10="В",1,0)+IF(BV10="В",1,0)+IF(BY10="В",1,0)+IF(CB10="В",1,0)+IF(CE10="В",1,0)+IF(CH10="В",1,0)+IF(CK10="В",1,0)+IF(CN10="В",1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DI10" s="178">
         <f t="shared" ref="DI10:DI22" si="13">SUM(CV10:DH10)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="DJ10" s="170">
         <f>SUM(G10:CU10)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="DK10" s="170">
         <v>0</v>
@@ -21945,7 +22669,7 @@
       </c>
       <c r="DS10" s="32">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DT10" s="32">
         <f t="shared" si="16"/>
@@ -22286,54 +23010,90 @@
       <c r="F12" s="195">
         <v>1</v>
       </c>
-      <c r="G12" s="203"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="206"/>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="206"/>
-      <c r="N12" s="207"/>
-      <c r="O12" s="205"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="206"/>
-      <c r="T12" s="204"/>
-      <c r="U12" s="205"/>
-      <c r="V12" s="206"/>
-      <c r="W12" s="204"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="206"/>
-      <c r="Z12" s="204"/>
-      <c r="AA12" s="205"/>
-      <c r="AB12" s="206"/>
-      <c r="AC12" s="204"/>
-      <c r="AD12" s="205"/>
-      <c r="AE12" s="206"/>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="205"/>
-      <c r="AH12" s="206"/>
-      <c r="AI12" s="204"/>
-      <c r="AJ12" s="205"/>
-      <c r="AK12" s="206"/>
-      <c r="AL12" s="204"/>
-      <c r="AM12" s="205"/>
-      <c r="AN12" s="206"/>
-      <c r="AO12" s="204"/>
-      <c r="AP12" s="205"/>
-      <c r="AQ12" s="206"/>
-      <c r="AR12" s="204"/>
-      <c r="AS12" s="205"/>
-      <c r="AT12" s="206"/>
-      <c r="AU12" s="204"/>
-      <c r="AV12" s="205"/>
-      <c r="AW12" s="206"/>
-      <c r="AX12" s="204"/>
-      <c r="AY12" s="205"/>
-      <c r="AZ12" s="206"/>
-      <c r="BA12" s="204"/>
-      <c r="BB12" s="205"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="I12" s="183"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="183">
+        <v>4</v>
+      </c>
+      <c r="M12" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="N12" s="182"/>
+      <c r="O12" s="183">
+        <v>4</v>
+      </c>
+      <c r="P12" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" s="183"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="187"/>
+      <c r="Z12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="187"/>
+      <c r="AF12" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="AG12" s="183"/>
+      <c r="AH12" s="187"/>
+      <c r="AI12" s="182"/>
+      <c r="AJ12" s="183">
+        <v>4</v>
+      </c>
+      <c r="AK12" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="AL12" s="182"/>
+      <c r="AM12" s="183">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="AO12" s="182"/>
+      <c r="AP12" s="183"/>
+      <c r="AQ12" s="187"/>
+      <c r="AR12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS12" s="183"/>
+      <c r="AT12" s="187"/>
+      <c r="AU12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV12" s="183"/>
+      <c r="AW12" s="187"/>
+      <c r="AX12" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY12" s="183"/>
+      <c r="AZ12" s="187"/>
+      <c r="BA12" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="BB12" s="183"/>
       <c r="BC12" s="206"/>
       <c r="BD12" s="204"/>
       <c r="BE12" s="205"/>
@@ -22381,7 +23141,7 @@
       <c r="CU12" s="205"/>
       <c r="CV12" s="209">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CW12" s="210">
         <f t="shared" si="1"/>
@@ -22429,15 +23189,15 @@
       </c>
       <c r="DH12" s="210">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DI12" s="210">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DJ12" s="212">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DK12" s="213">
         <v>0</v>
@@ -22446,14 +23206,14 @@
       <c r="DM12" s="213"/>
       <c r="DN12" s="214">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="DO12" s="215">
         <v>0</v>
       </c>
       <c r="DQ12" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DR12" s="32">
         <f t="shared" si="16"/>
@@ -22497,19 +23257,19 @@
       </c>
       <c r="EB12" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EC12" s="32">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EE12" s="152">
         <f t="shared" ref="EE12:EE23" si="26">COUNTIF(G12:CU12, "4")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EF12" s="152">
         <f t="shared" ref="EF12:EF23" si="27">COUNTIF(G12:CU12, "7,25")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:136" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22806,47 +23566,79 @@
       <c r="F14" s="41">
         <v>2</v>
       </c>
-      <c r="G14" s="181"/>
+      <c r="G14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="H14" s="182"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="185"/>
-      <c r="L14" s="186"/>
+      <c r="I14" s="183">
+        <v>4</v>
+      </c>
+      <c r="J14" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="K14" s="182"/>
+      <c r="L14" s="183"/>
       <c r="M14" s="187"/>
-      <c r="N14" s="185"/>
+      <c r="N14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="O14" s="183"/>
       <c r="P14" s="187"/>
-      <c r="Q14" s="182"/>
+      <c r="Q14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="R14" s="183"/>
       <c r="S14" s="187"/>
-      <c r="T14" s="182"/>
+      <c r="T14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="U14" s="183"/>
       <c r="V14" s="187"/>
-      <c r="W14" s="182"/>
+      <c r="W14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="X14" s="183"/>
       <c r="Y14" s="187"/>
-      <c r="Z14" s="182"/>
+      <c r="Z14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AA14" s="183"/>
       <c r="AB14" s="187"/>
       <c r="AC14" s="182"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="187"/>
+      <c r="AD14" s="183">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AF14" s="182"/>
-      <c r="AG14" s="183"/>
-      <c r="AH14" s="187"/>
+      <c r="AG14" s="183">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AI14" s="182"/>
       <c r="AJ14" s="183"/>
       <c r="AK14" s="187"/>
-      <c r="AL14" s="182"/>
+      <c r="AL14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AM14" s="183"/>
       <c r="AN14" s="187"/>
-      <c r="AO14" s="182"/>
+      <c r="AO14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AP14" s="183"/>
       <c r="AQ14" s="187"/>
-      <c r="AR14" s="182"/>
+      <c r="AR14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AS14" s="183"/>
       <c r="AT14" s="187"/>
-      <c r="AU14" s="182"/>
+      <c r="AU14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AV14" s="183"/>
       <c r="AW14" s="187"/>
       <c r="AX14" s="182"/>
@@ -22901,7 +23693,7 @@
       <c r="CU14" s="183"/>
       <c r="CV14" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CW14" s="79">
         <f t="shared" si="1"/>
@@ -22949,15 +23741,15 @@
       </c>
       <c r="DH14" s="80">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DI14" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="DJ14" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="DK14" s="69">
         <v>0</v>
@@ -22966,14 +23758,14 @@
       <c r="DM14" s="75"/>
       <c r="DN14" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="DO14" s="72">
         <v>0</v>
       </c>
       <c r="DQ14" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DR14" s="32">
         <f t="shared" si="16"/>
@@ -23017,19 +23809,19 @@
       </c>
       <c r="EB14" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EC14" s="32">
         <f>IF(S14=7.25,1,0)+IF(V14=7.25,1,0)+IF(Y14=7.25,1,0)+IF(AB14=7.25,1,0)+IF(AE14=7.25,1,0)+IF(AH14=7.25,1,0)+IF(AK14=7.25,1,0)+IF(AN14=7.25,1,0)+IF(AQ14=7.25,1,0)+IF(AT14=7.25,1,0)+IF(AW14=7.25,1,0)+IF(AZ14=7.25,1,0)+IF(BC14=7.25,1,0)+IF(BF14=7.25,1,0)+IF(BI14=7.25,1,0)+IF(BL14=7.25,1,0)+IF(BO14=7.25,1,0)+IF(BR14=7.25,1,0)+IF(BU14=7.25,1,0)+IF(BX14=7.25,1,0)+IF(CA14=7.25,1,0)+IF(CD14=7.25,1,0)+IF(CG14=7.25,1,0)+IF(CJ14=7.25,1,0)+IF(CM14=7.25,1,0)+IF(CP14=7.25,1,0)+IF(CS14=7.25,1,0)+IF(G14=7.25,1,0)+IF(J14=7.25,1,0)+IF(M14=7.25,1,0)+IF(P14=7.25,1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EE14" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF14" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23050,47 +23842,79 @@
       <c r="F15" s="41">
         <v>2</v>
       </c>
-      <c r="G15" s="181"/>
+      <c r="G15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="H15" s="182"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="186"/>
+      <c r="I15" s="183">
+        <v>4</v>
+      </c>
+      <c r="J15" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="K15" s="182"/>
+      <c r="L15" s="183"/>
       <c r="M15" s="187"/>
-      <c r="N15" s="185"/>
+      <c r="N15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="O15" s="183"/>
       <c r="P15" s="187"/>
-      <c r="Q15" s="182"/>
+      <c r="Q15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="R15" s="183"/>
       <c r="S15" s="187"/>
-      <c r="T15" s="182"/>
+      <c r="T15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="U15" s="183"/>
       <c r="V15" s="187"/>
-      <c r="W15" s="182"/>
+      <c r="W15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="X15" s="183"/>
       <c r="Y15" s="187"/>
-      <c r="Z15" s="182"/>
+      <c r="Z15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AA15" s="183"/>
       <c r="AB15" s="187"/>
       <c r="AC15" s="182"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="187"/>
+      <c r="AD15" s="183">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AF15" s="182"/>
-      <c r="AG15" s="183"/>
-      <c r="AH15" s="187"/>
+      <c r="AG15" s="183">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AI15" s="182"/>
       <c r="AJ15" s="183"/>
       <c r="AK15" s="187"/>
-      <c r="AL15" s="182"/>
+      <c r="AL15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AM15" s="183"/>
       <c r="AN15" s="187"/>
-      <c r="AO15" s="182"/>
+      <c r="AO15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AP15" s="183"/>
       <c r="AQ15" s="187"/>
-      <c r="AR15" s="182"/>
+      <c r="AR15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AS15" s="183"/>
       <c r="AT15" s="187"/>
-      <c r="AU15" s="182"/>
+      <c r="AU15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AV15" s="183"/>
       <c r="AW15" s="187"/>
       <c r="AX15" s="182"/>
@@ -23145,7 +23969,7 @@
       <c r="CU15" s="183"/>
       <c r="CV15" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CW15" s="79">
         <f>IF(CK15="К",1,0)+IF(CN15="К",1,0)+IF(CQ15="К",1,0)+IF(CT15="К",1,0)+IF(CH15="К",1,0)+IF(H15="К",1,0)+IF(K15="К",1,0)+IF(N15="К",1,0)+IF(Q15="К",1,0)+IF(T15="К",1,0)+IF(W15="К",1,0)+IF(Z15="К",1,0)+IF(AC15="К",1,0)+IF(AF15="К",1,0)+IF(AI15="К",1,0)+IF(AL15="К",1,0)+IF(AO15="К",1,0)+IF(AR15="К",1,0)+IF(AU15="К",1,0)+IF(AX15="К",1,0)+IF(BA15="К",1,0)+IF(BD15="К",1,0)+IF(BG15="К",1,0)+IF(BJ15="К",1,0)+IF(BM15="К",1,0)+IF(BP15="К",1,0)+IF(BS15="К",1,0)+IF(BV15="К",1,0)+IF(BY15="К",1,0)+IF(CB15="К",1,0)+IF(CE15="К",1,0)</f>
@@ -23193,15 +24017,15 @@
       </c>
       <c r="DH15" s="80">
         <f>IF(CQ15="В",1,0)+IF(CT15="В",1,0)+IF(H15="В",1,0)+IF(K15="В",1,0)+IF(N15="В",1,0)+IF(Q15="В",1,0)+IF(T15="В",1,0)+IF(W15="В",1,0)+IF(Z15="В",1,0)+IF(AC15="В",1,0)+IF(AF15="В",1,0)+IF(AI15="В",1,0)+IF(AL15="В",1,0)+IF(AO15="В",1,0)+IF(AR15="В",1,0)+IF(AU15="В",1,0)+IF(AX15="В",1,0)+IF(BA15="В",1,0)+IF(BD15="В",1,0)+IF(BG15="В",1,0)+IF(BJ15="В",1,0)+IF(BM15="В",1,0)+IF(BP15="В",1,0)+IF(BS15="В",1,0)+IF(BV15="В",1,0)+IF(BY15="В",1,0)+IF(CB15="В",1,0)+IF(CE15="В",1,0)+IF(CH15="В",1,0)+IF(CK15="В",1,0)+IF(CN15="В",1,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DI15" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="DJ15" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="DK15" s="69">
         <v>0</v>
@@ -23210,14 +24034,14 @@
       <c r="DM15" s="75"/>
       <c r="DN15" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="DO15" s="72">
         <v>0</v>
       </c>
       <c r="DQ15" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DR15" s="32">
         <f t="shared" si="16"/>
@@ -23261,19 +24085,19 @@
       </c>
       <c r="EB15" s="32">
         <f>IF(Q15=11.25,1,0)+IF(T15=11.25,1,0)+IF(W15=11.25,1,0)+IF(Z15=11.25,1,0)+IF(AC15=11.25,1,0)+IF(AF15=11.25,1,0)+IF(AI15=11.25,1,0)+IF(AL15=11.25,1,0)+IF(AO15=11.25,1,0)+IF(AR15=11.25,1,0)+IF(AU15=11.25,1,0)+IF(AX15=11.25,1,0)+IF(BA15=11.25,1,0)+IF(BD15=11.25,1,0)+IF(BG15=11.25,1,0)+IF(BJ15=11.25,1,0)+IF(BM15=11.25,1,0)+IF(BP15=11.25,1,0)+IF(BS15=11.25,1,0)+IF(BV15=11.25,1,0)+IF(BY15=11.25,1,0)+IF(CB15=11.25,1,0)+IF(CE15=11.25,1,0)+IF(CH15=11.25,1,0)+IF(CK15=11.25,1,0)+IF(CN15=11.25,1,0)+IF(CQ15=11.25,1,0)+IF(CT15=11.25,1,0)+IF(H15=11.25,1,0)+IF(K15=11.25,1,0)+IF(N15=11.25,1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EC15" s="32">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EE15" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF15" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23295,55 +24119,93 @@
         <v>3</v>
       </c>
       <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
+      <c r="H16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="186"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="L16" s="183"/>
       <c r="M16" s="187"/>
-      <c r="N16" s="185"/>
+      <c r="N16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="O16" s="183"/>
       <c r="P16" s="187"/>
       <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="181"/>
+      <c r="R16" s="183">
+        <v>4</v>
+      </c>
+      <c r="S16" s="187">
+        <v>7.25</v>
+      </c>
       <c r="T16" s="182"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="184"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="186"/>
+      <c r="U16" s="183">
+        <v>4</v>
+      </c>
+      <c r="V16" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="W16" s="182"/>
+      <c r="X16" s="183"/>
       <c r="Y16" s="187"/>
-      <c r="Z16" s="185"/>
+      <c r="Z16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AA16" s="183"/>
       <c r="AB16" s="187"/>
-      <c r="AC16" s="182"/>
+      <c r="AC16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AD16" s="183"/>
-      <c r="AE16" s="181"/>
-      <c r="AF16" s="182"/>
+      <c r="AE16" s="187"/>
+      <c r="AF16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AG16" s="183"/>
-      <c r="AH16" s="184"/>
-      <c r="AI16" s="185"/>
-      <c r="AJ16" s="186"/>
+      <c r="AH16" s="187"/>
+      <c r="AI16" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="AJ16" s="183"/>
       <c r="AK16" s="187"/>
-      <c r="AL16" s="185"/>
+      <c r="AL16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AM16" s="183"/>
       <c r="AN16" s="187"/>
       <c r="AO16" s="182"/>
-      <c r="AP16" s="183"/>
-      <c r="AQ16" s="181"/>
+      <c r="AP16" s="183">
+        <v>4</v>
+      </c>
+      <c r="AQ16" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AR16" s="182"/>
-      <c r="AS16" s="183"/>
-      <c r="AT16" s="184"/>
-      <c r="AU16" s="185"/>
-      <c r="AV16" s="186"/>
+      <c r="AS16" s="183">
+        <v>4</v>
+      </c>
+      <c r="AT16" s="187">
+        <v>7.25</v>
+      </c>
+      <c r="AU16" s="182"/>
+      <c r="AV16" s="183"/>
       <c r="AW16" s="187"/>
-      <c r="AX16" s="185"/>
+      <c r="AX16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AY16" s="183"/>
       <c r="AZ16" s="187"/>
-      <c r="BA16" s="182"/>
+      <c r="BA16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BB16" s="183"/>
       <c r="BC16" s="187"/>
-      <c r="BD16" s="182"/>
+      <c r="BD16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BE16" s="183"/>
       <c r="BF16" s="187"/>
       <c r="BG16" s="182"/>
@@ -23389,7 +24251,7 @@
       <c r="CU16" s="183"/>
       <c r="CV16" s="168">
         <f>IF(SUM(G16:I16)&gt;=1,1,0)+IF(SUM(J16:L16)&gt;=1,1,0)+IF(SUM(M16:O16)&gt;=1,1,0)+IF(SUM(P16:R16)&gt;=1,1,0)+IF(SUM(S16:U16)&gt;=1,1,0)+IF(SUM(V16:X16)&gt;=1,1,0)+IF(SUM(Y16:AA16)&gt;=1,1,0)+IF(SUM(AB16:AD16)&gt;=1,1,0)+IF(SUM(AE16:AG16)&gt;=1,1,0)+IF(SUM(AH16:AJ16)&gt;=1,1,0)+IF(SUM(AK16:AM16)&gt;=1,1,0)+IF(SUM(AN16:AP16)&gt;=1,1,0)+IF(SUM(AQ16:AS16)&gt;=1,1,0)+IF(SUM(AT16:AV16)&gt;=1,1,0)+IF(SUM(AW16:AY16)&gt;=1,1,0)+IF(SUM(AZ16:BB16)&gt;=1,1,0)+IF(SUM(BC16:BE16)&gt;=1,1,0)+IF(SUM(BF16:BH16)&gt;=1,1,0)+IF(SUM(BI16:BK16)&gt;=1,1,0)+IF(SUM(BL16:BN16)&gt;=1,1,0)+IF(SUM(BO16:BQ16)&gt;=1,1,0)+IF(SUM(BR16:BT16)&gt;=1,1,0)+IF(SUM(BU16:BW16)&gt;=1,1,0)+IF(SUM(BX16:BZ16)&gt;=1,1,0)+IF(SUM(CA16:CC16)&gt;=1,1,0)+IF(SUM(CD16:CF16)&gt;=1,1,0)+IF(SUM(CG16:CI16)&gt;=1,1,0)+IF(SUM(CJ16:CL16)&gt;=1,1,0)+IF(SUM(CM16:CO16)&gt;=1,1,0)+IF(SUM(CP16:CR16)&gt;=1,1,0)+IF(SUM(CS16:CU16)&gt;=1,1,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CW16" s="79">
         <f t="shared" si="1"/>
@@ -23437,15 +24299,15 @@
       </c>
       <c r="DH16" s="80">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DI16" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="DJ16" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DK16" s="69">
         <v>0</v>
@@ -23454,14 +24316,14 @@
       <c r="DM16" s="75"/>
       <c r="DN16" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="DO16" s="72">
         <v>0</v>
       </c>
       <c r="DQ16" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DR16" s="32">
         <f t="shared" si="16"/>
@@ -23505,19 +24367,19 @@
       </c>
       <c r="EB16" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EC16" s="32">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EE16" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EF16" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23539,55 +24401,93 @@
         <v>3</v>
       </c>
       <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
+      <c r="H17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="185"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="L17" s="183"/>
       <c r="M17" s="187"/>
-      <c r="N17" s="185"/>
+      <c r="N17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="O17" s="183"/>
       <c r="P17" s="187"/>
       <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="187"/>
+      <c r="R17" s="183">
+        <v>4</v>
+      </c>
+      <c r="S17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="T17" s="182"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="187"/>
+      <c r="U17" s="183">
+        <v>4</v>
+      </c>
+      <c r="V17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="W17" s="182"/>
       <c r="X17" s="183"/>
       <c r="Y17" s="187"/>
-      <c r="Z17" s="182"/>
+      <c r="Z17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AA17" s="183"/>
       <c r="AB17" s="187"/>
-      <c r="AC17" s="182"/>
+      <c r="AC17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AD17" s="183"/>
       <c r="AE17" s="187"/>
-      <c r="AF17" s="182"/>
+      <c r="AF17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AG17" s="183"/>
-      <c r="AH17" s="184"/>
-      <c r="AI17" s="185"/>
+      <c r="AH17" s="187"/>
+      <c r="AI17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AJ17" s="183"/>
       <c r="AK17" s="187"/>
-      <c r="AL17" s="185"/>
+      <c r="AL17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AM17" s="183"/>
       <c r="AN17" s="187"/>
       <c r="AO17" s="182"/>
-      <c r="AP17" s="183"/>
-      <c r="AQ17" s="187"/>
+      <c r="AP17" s="183">
+        <v>4</v>
+      </c>
+      <c r="AQ17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AR17" s="182"/>
-      <c r="AS17" s="183"/>
-      <c r="AT17" s="187"/>
+      <c r="AS17" s="183">
+        <v>4</v>
+      </c>
+      <c r="AT17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AU17" s="182"/>
       <c r="AV17" s="183"/>
       <c r="AW17" s="187"/>
-      <c r="AX17" s="182"/>
+      <c r="AX17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AY17" s="183"/>
       <c r="AZ17" s="187"/>
-      <c r="BA17" s="182"/>
+      <c r="BA17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BB17" s="183"/>
       <c r="BC17" s="187"/>
-      <c r="BD17" s="182"/>
+      <c r="BD17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BE17" s="183"/>
       <c r="BF17" s="187"/>
       <c r="BG17" s="182"/>
@@ -23633,7 +24533,7 @@
       <c r="CU17" s="183"/>
       <c r="CV17" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CW17" s="79">
         <f t="shared" si="1"/>
@@ -23681,15 +24581,15 @@
       </c>
       <c r="DH17" s="80">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DI17" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="DJ17" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DK17" s="69">
         <v>0</v>
@@ -23698,14 +24598,14 @@
       <c r="DM17" s="75"/>
       <c r="DN17" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="DO17" s="72">
         <v>0</v>
       </c>
       <c r="DQ17" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DR17" s="32">
         <f t="shared" si="16"/>
@@ -23749,19 +24649,19 @@
       </c>
       <c r="EB17" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EC17" s="32">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EE17" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EF17" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23782,62 +24682,104 @@
       <c r="F18" s="41">
         <v>4</v>
       </c>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="186"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="183"/>
       <c r="M18" s="187"/>
-      <c r="N18" s="185"/>
+      <c r="N18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="O18" s="183"/>
       <c r="P18" s="187"/>
-      <c r="Q18" s="182"/>
+      <c r="Q18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="R18" s="183"/>
       <c r="S18" s="187"/>
-      <c r="T18" s="182"/>
+      <c r="T18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="U18" s="183"/>
       <c r="V18" s="187"/>
       <c r="W18" s="182"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="187"/>
+      <c r="X18" s="183">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="Z18" s="182"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="187"/>
+      <c r="AA18" s="183">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AC18" s="182"/>
       <c r="AD18" s="183"/>
       <c r="AE18" s="187"/>
-      <c r="AF18" s="182"/>
+      <c r="AF18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AG18" s="183"/>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="185"/>
-      <c r="AJ18" s="186"/>
+      <c r="AH18" s="187"/>
+      <c r="AI18" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ18" s="183"/>
       <c r="AK18" s="187"/>
-      <c r="AL18" s="185"/>
+      <c r="AL18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AM18" s="183"/>
       <c r="AN18" s="187"/>
-      <c r="AO18" s="182"/>
+      <c r="AO18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AP18" s="183"/>
       <c r="AQ18" s="187"/>
-      <c r="AR18" s="182"/>
+      <c r="AR18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AS18" s="183"/>
       <c r="AT18" s="187"/>
       <c r="AU18" s="182"/>
-      <c r="AV18" s="183"/>
-      <c r="AW18" s="187"/>
+      <c r="AV18" s="183">
+        <v>4</v>
+      </c>
+      <c r="AW18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AX18" s="182"/>
-      <c r="AY18" s="183"/>
-      <c r="AZ18" s="187"/>
+      <c r="AY18" s="183">
+        <v>4</v>
+      </c>
+      <c r="AZ18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BA18" s="182"/>
       <c r="BB18" s="183"/>
       <c r="BC18" s="187"/>
-      <c r="BD18" s="182"/>
+      <c r="BD18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BE18" s="183"/>
       <c r="BF18" s="187"/>
-      <c r="BG18" s="182"/>
+      <c r="BG18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BH18" s="183"/>
       <c r="BI18" s="187"/>
-      <c r="BJ18" s="182"/>
+      <c r="BJ18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BK18" s="183"/>
       <c r="BL18" s="187"/>
       <c r="BM18" s="182"/>
@@ -23877,7 +24819,7 @@
       <c r="CU18" s="183"/>
       <c r="CV18" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CW18" s="79">
         <f>IF(CK18="К",1,0)+IF(CN18="К",1,0)+IF(CQ18="К",1,0)+IF(CT18="К",1,0)+IF(CH18="К",1,0)+IF(H18="К",1,0)+IF(K18="К",1,0)+IF(N18="К",1,0)+IF(Q18="К",1,0)+IF(T18="К",1,0)+IF(W18="К",1,0)+IF(Z18="К",1,0)+IF(AC18="К",1,0)+IF(AF18="К",1,0)+IF(AI18="К",1,0)+IF(AL18="К",1,0)+IF(AO18="К",1,0)+IF(AR18="К",1,0)+IF(AU18="К",1,0)+IF(AX18="К",1,0)+IF(BA18="К",1,0)+IF(BD18="К",1,0)+IF(BG18="К",1,0)+IF(BJ18="К",1,0)+IF(BM18="К",1,0)+IF(BP18="К",1,0)+IF(BS18="К",1,0)+IF(BV18="К",1,0)+IF(BY18="К",1,0)+IF(CB18="К",1,0)+IF(CE18="К",1,0)</f>
@@ -23925,15 +24867,15 @@
       </c>
       <c r="DH18" s="80">
         <f>IF(CQ18="В",1,0)+IF(CT18="В",1,0)+IF(H18="В",1,0)+IF(K18="В",1,0)+IF(N18="В",1,0)+IF(Q18="В",1,0)+IF(T18="В",1,0)+IF(W18="В",1,0)+IF(Z18="В",1,0)+IF(AC18="В",1,0)+IF(AF18="В",1,0)+IF(AI18="В",1,0)+IF(AL18="В",1,0)+IF(AO18="В",1,0)+IF(AR18="В",1,0)+IF(AU18="В",1,0)+IF(AX18="В",1,0)+IF(BA18="В",1,0)+IF(BD18="В",1,0)+IF(BG18="В",1,0)+IF(BJ18="В",1,0)+IF(BM18="В",1,0)+IF(BP18="В",1,0)+IF(BS18="В",1,0)+IF(BV18="В",1,0)+IF(BY18="В",1,0)+IF(CB18="В",1,0)+IF(CE18="В",1,0)+IF(CH18="В",1,0)+IF(CK18="В",1,0)+IF(CN18="В",1,0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DI18" s="80">
         <f>SUM(CV18:DH18)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="DJ18" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DK18" s="69">
         <v>0</v>
@@ -23942,14 +24884,14 @@
       <c r="DM18" s="75"/>
       <c r="DN18" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="DO18" s="72">
         <v>0</v>
       </c>
       <c r="DQ18" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DR18" s="32">
         <f t="shared" si="16"/>
@@ -23993,19 +24935,19 @@
       </c>
       <c r="EB18" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EC18" s="32">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EE18" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EF18" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24026,62 +24968,104 @@
       <c r="F19" s="41">
         <v>4</v>
       </c>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="186"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="183"/>
       <c r="M19" s="187"/>
-      <c r="N19" s="185"/>
+      <c r="N19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="O19" s="183"/>
       <c r="P19" s="187"/>
-      <c r="Q19" s="182"/>
+      <c r="Q19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="R19" s="183"/>
       <c r="S19" s="187"/>
-      <c r="T19" s="182"/>
+      <c r="T19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="U19" s="183"/>
       <c r="V19" s="187"/>
       <c r="W19" s="182"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="187"/>
+      <c r="X19" s="183">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="Z19" s="182"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="187"/>
+      <c r="AA19" s="183">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AC19" s="182"/>
       <c r="AD19" s="183"/>
       <c r="AE19" s="187"/>
-      <c r="AF19" s="182"/>
+      <c r="AF19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AG19" s="183"/>
-      <c r="AH19" s="184"/>
-      <c r="AI19" s="185"/>
-      <c r="AJ19" s="186"/>
+      <c r="AH19" s="187"/>
+      <c r="AI19" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ19" s="183"/>
       <c r="AK19" s="187"/>
-      <c r="AL19" s="185"/>
+      <c r="AL19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AM19" s="183"/>
       <c r="AN19" s="187"/>
-      <c r="AO19" s="182"/>
+      <c r="AO19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AP19" s="183"/>
       <c r="AQ19" s="187"/>
-      <c r="AR19" s="182"/>
+      <c r="AR19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AS19" s="183"/>
       <c r="AT19" s="187"/>
       <c r="AU19" s="182"/>
-      <c r="AV19" s="183"/>
-      <c r="AW19" s="187"/>
+      <c r="AV19" s="183">
+        <v>4</v>
+      </c>
+      <c r="AW19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="AX19" s="182"/>
-      <c r="AY19" s="183"/>
-      <c r="AZ19" s="187"/>
+      <c r="AY19" s="183">
+        <v>4</v>
+      </c>
+      <c r="AZ19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BA19" s="182"/>
       <c r="BB19" s="183"/>
       <c r="BC19" s="187"/>
-      <c r="BD19" s="182"/>
+      <c r="BD19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BE19" s="183"/>
       <c r="BF19" s="187"/>
-      <c r="BG19" s="182"/>
+      <c r="BG19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BH19" s="183"/>
       <c r="BI19" s="187"/>
-      <c r="BJ19" s="182"/>
+      <c r="BJ19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BK19" s="183"/>
       <c r="BL19" s="187"/>
       <c r="BM19" s="182"/>
@@ -24121,7 +25105,7 @@
       <c r="CU19" s="183"/>
       <c r="CV19" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CW19" s="79">
         <f>IF(CK19="К",1,0)+IF(CN19="К",1,0)+IF(CQ19="К",1,0)+IF(CT19="К",1,0)+IF(CH19="К",1,0)+IF(H19="К",1,0)+IF(K19="К",1,0)+IF(N19="К",1,0)+IF(Q19="К",1,0)+IF(T19="К",1,0)+IF(W19="К",1,0)+IF(Z19="К",1,0)+IF(AC19="К",1,0)+IF(AF19="К",1,0)+IF(AI19="К",1,0)+IF(AL19="К",1,0)+IF(AO19="К",1,0)+IF(AR19="К",1,0)+IF(AU19="К",1,0)+IF(AX19="К",1,0)+IF(BA19="К",1,0)+IF(BD19="К",1,0)+IF(BG19="К",1,0)+IF(BJ19="К",1,0)+IF(BM19="К",1,0)+IF(BP19="К",1,0)+IF(BS19="К",1,0)+IF(BV19="К",1,0)+IF(BY19="К",1,0)+IF(CB19="К",1,0)+IF(CE19="К",1,0)</f>
@@ -24169,15 +25153,15 @@
       </c>
       <c r="DH19" s="80">
         <f>IF(CQ19="В",1,0)+IF(CT19="В",1,0)+IF(H19="В",1,0)+IF(K19="В",1,0)+IF(N19="В",1,0)+IF(Q19="В",1,0)+IF(T19="В",1,0)+IF(W19="В",1,0)+IF(Z19="В",1,0)+IF(AC19="В",1,0)+IF(AF19="В",1,0)+IF(AI19="В",1,0)+IF(AL19="В",1,0)+IF(AO19="В",1,0)+IF(AR19="В",1,0)+IF(AU19="В",1,0)+IF(AX19="В",1,0)+IF(BA19="В",1,0)+IF(BD19="В",1,0)+IF(BG19="В",1,0)+IF(BJ19="В",1,0)+IF(BM19="В",1,0)+IF(BP19="В",1,0)+IF(BS19="В",1,0)+IF(BV19="В",1,0)+IF(BY19="В",1,0)+IF(CB19="В",1,0)+IF(CE19="В",1,0)+IF(CH19="В",1,0)+IF(CK19="В",1,0)+IF(CN19="В",1,0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DI19" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="DJ19" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DK19" s="69">
         <v>0</v>
@@ -24186,14 +25170,14 @@
       <c r="DM19" s="69"/>
       <c r="DN19" s="71">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="DO19" s="72">
         <v>0</v>
       </c>
       <c r="DQ19" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DR19" s="32">
         <f t="shared" si="16"/>
@@ -24237,19 +25221,19 @@
       </c>
       <c r="EB19" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EC19" s="32">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EE19" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EF19" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24270,53 +25254,85 @@
       <c r="F20" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="185"/>
-      <c r="L20" s="186"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="L20" s="183"/>
       <c r="M20" s="187"/>
-      <c r="N20" s="185"/>
+      <c r="N20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="O20" s="183"/>
       <c r="P20" s="187"/>
-      <c r="Q20" s="182"/>
+      <c r="Q20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="R20" s="183"/>
       <c r="S20" s="187"/>
-      <c r="T20" s="182"/>
+      <c r="T20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="U20" s="183"/>
       <c r="V20" s="187"/>
-      <c r="W20" s="182"/>
+      <c r="W20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="X20" s="183"/>
       <c r="Y20" s="187"/>
-      <c r="Z20" s="182"/>
+      <c r="Z20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AA20" s="183"/>
       <c r="AB20" s="187"/>
-      <c r="AC20" s="182"/>
+      <c r="AC20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AD20" s="183"/>
       <c r="AE20" s="187"/>
-      <c r="AF20" s="182"/>
+      <c r="AF20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AG20" s="183"/>
       <c r="AH20" s="187"/>
-      <c r="AI20" s="182"/>
+      <c r="AI20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AJ20" s="183"/>
       <c r="AK20" s="187"/>
-      <c r="AL20" s="182"/>
+      <c r="AL20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AM20" s="183"/>
       <c r="AN20" s="187"/>
-      <c r="AO20" s="182"/>
+      <c r="AO20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AP20" s="183"/>
       <c r="AQ20" s="187"/>
-      <c r="AR20" s="182"/>
+      <c r="AR20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AS20" s="183"/>
       <c r="AT20" s="187"/>
-      <c r="AU20" s="182"/>
+      <c r="AU20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AV20" s="183"/>
       <c r="AW20" s="187"/>
-      <c r="AX20" s="182"/>
+      <c r="AX20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AY20" s="183"/>
       <c r="AZ20" s="187"/>
-      <c r="BA20" s="182"/>
+      <c r="BA20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BB20" s="183"/>
       <c r="BC20" s="187"/>
       <c r="BD20" s="182"/>
@@ -24365,7 +25381,7 @@
       <c r="CU20" s="183"/>
       <c r="CV20" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CW20" s="79">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
@@ -24413,15 +25429,15 @@
       </c>
       <c r="DH20" s="80">
         <f>IF(CQ20="В",1,0)+IF(CT20="В",1,0)+IF(H20="В",1,0)+IF(K20="В",1,0)+IF(N20="В",1,0)+IF(Q20="В",1,0)+IF(T20="В",1,0)+IF(W20="В",1,0)+IF(Z20="В",1,0)+IF(AC20="В",1,0)+IF(AF20="В",1,0)+IF(AI20="В",1,0)+IF(AL20="В",1,0)+IF(AO20="В",1,0)+IF(AR20="В",1,0)+IF(AU20="В",1,0)+IF(AX20="В",1,0)+IF(BA20="В",1,0)+IF(BD20="В",1,0)+IF(BG20="В",1,0)+IF(BJ20="В",1,0)+IF(BM20="В",1,0)+IF(BP20="В",1,0)+IF(BS20="В",1,0)+IF(BV20="В",1,0)+IF(BY20="В",1,0)+IF(CB20="В",1,0)+IF(CE20="В",1,0)+IF(CH20="В",1,0)+IF(CK20="В",1,0)+IF(CN20="В",1,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DI20" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DJ20" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DK20" s="69">
         <v>0</v>
@@ -24481,7 +25497,7 @@
       </c>
       <c r="EB20" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="EC20" s="32">
         <f t="shared" si="23"/>
@@ -24514,50 +25530,80 @@
       <c r="F21" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="186"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="183"/>
       <c r="M21" s="187"/>
-      <c r="N21" s="185"/>
+      <c r="N21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="O21" s="183"/>
       <c r="P21" s="187"/>
-      <c r="Q21" s="182"/>
+      <c r="Q21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="R21" s="183"/>
       <c r="S21" s="187"/>
-      <c r="T21" s="182"/>
+      <c r="T21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="U21" s="183"/>
       <c r="V21" s="187"/>
-      <c r="W21" s="182"/>
+      <c r="W21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="X21" s="183"/>
       <c r="Y21" s="187"/>
-      <c r="Z21" s="182"/>
+      <c r="Z21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AA21" s="183"/>
       <c r="AB21" s="187"/>
-      <c r="AC21" s="182"/>
+      <c r="AC21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AD21" s="183"/>
       <c r="AE21" s="187"/>
-      <c r="AF21" s="182"/>
+      <c r="AF21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AG21" s="183"/>
       <c r="AH21" s="187"/>
-      <c r="AI21" s="182"/>
+      <c r="AI21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AJ21" s="183"/>
       <c r="AK21" s="187"/>
-      <c r="AL21" s="182"/>
+      <c r="AL21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AM21" s="183"/>
       <c r="AN21" s="187"/>
-      <c r="AO21" s="182"/>
+      <c r="AO21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AP21" s="183"/>
       <c r="AQ21" s="187"/>
-      <c r="AR21" s="182"/>
+      <c r="AR21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AS21" s="183"/>
       <c r="AT21" s="187"/>
-      <c r="AU21" s="182"/>
+      <c r="AU21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AV21" s="183"/>
       <c r="AW21" s="187"/>
-      <c r="AX21" s="182"/>
+      <c r="AX21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AY21" s="183"/>
       <c r="AZ21" s="187"/>
       <c r="BA21" s="182"/>
@@ -24609,7 +25655,7 @@
       <c r="CU21" s="183"/>
       <c r="CV21" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CW21" s="79">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
@@ -24657,15 +25703,15 @@
       </c>
       <c r="DH21" s="80">
         <f>IF(CQ21="В",1,0)+IF(CT21="В",1,0)+IF(H21="В",1,0)+IF(K21="В",1,0)+IF(N21="В",1,0)+IF(Q21="В",1,0)+IF(T21="В",1,0)+IF(W21="В",1,0)+IF(Z21="В",1,0)+IF(AC21="В",1,0)+IF(AF21="В",1,0)+IF(AI21="В",1,0)+IF(AL21="В",1,0)+IF(AO21="В",1,0)+IF(AR21="В",1,0)+IF(AU21="В",1,0)+IF(AX21="В",1,0)+IF(BA21="В",1,0)+IF(BD21="В",1,0)+IF(BG21="В",1,0)+IF(BJ21="В",1,0)+IF(BM21="В",1,0)+IF(BP21="В",1,0)+IF(BS21="В",1,0)+IF(BV21="В",1,0)+IF(BY21="В",1,0)+IF(CB21="В",1,0)+IF(CE21="В",1,0)+IF(CH21="В",1,0)+IF(CK21="В",1,0)+IF(CN21="В",1,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DI21" s="80">
         <f>SUM(CV21:DH21)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="DJ21" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="DK21" s="69">
         <v>0</v>
@@ -24725,7 +25771,7 @@
       </c>
       <c r="EB21" s="32">
         <f>IF(Q21=11.25,1,0)+IF(T21=11.25,1,0)+IF(W21=11.25,1,0)+IF(Z21=11.25,1,0)+IF(AC21=11.25,1,0)+IF(AF21=11.25,1,0)+IF(AI21=11.25,1,0)+IF(AL21=11.25,1,0)+IF(AO21=11.25,1,0)+IF(AR21=11.25,1,0)+IF(AU21=11.25,1,0)+IF(AX21=11.25,1,0)+IF(BA21=11.25,1,0)+IF(BD21=11.25,1,0)+IF(BG21=11.25,1,0)+IF(BJ21=11.25,1,0)+IF(BM21=11.25,1,0)+IF(BP21=11.25,1,0)+IF(BS21=11.25,1,0)+IF(BV21=11.25,1,0)+IF(BY21=11.25,1,0)+IF(CB21=11.25,1,0)+IF(CE21=11.25,1,0)+IF(CH21=11.25,1,0)+IF(CK21=11.25,1,0)+IF(CN21=11.25,1,0)+IF(CQ21=11.25,1,0)+IF(CT21=11.25,1,0)+IF(H21=11.25,1,0)+IF(K21=11.25,1,0)+IF(N21=11.25,1,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="EC21" s="32">
         <f t="shared" si="23"/>
@@ -24758,47 +25804,75 @@
       <c r="F22" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="181"/>
-      <c r="H22" s="182"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="186"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="183"/>
       <c r="M22" s="187"/>
-      <c r="N22" s="185"/>
+      <c r="N22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="O22" s="183"/>
       <c r="P22" s="187"/>
-      <c r="Q22" s="182"/>
+      <c r="Q22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="R22" s="183"/>
       <c r="S22" s="187"/>
-      <c r="T22" s="182"/>
+      <c r="T22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="U22" s="183"/>
       <c r="V22" s="187"/>
-      <c r="W22" s="182"/>
+      <c r="W22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="X22" s="183"/>
       <c r="Y22" s="187"/>
-      <c r="Z22" s="182"/>
+      <c r="Z22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AA22" s="183"/>
       <c r="AB22" s="187"/>
-      <c r="AC22" s="182"/>
+      <c r="AC22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AD22" s="183"/>
       <c r="AE22" s="187"/>
-      <c r="AF22" s="182"/>
+      <c r="AF22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AG22" s="183"/>
       <c r="AH22" s="187"/>
-      <c r="AI22" s="182"/>
+      <c r="AI22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AJ22" s="183"/>
       <c r="AK22" s="187"/>
-      <c r="AL22" s="182"/>
+      <c r="AL22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AM22" s="183"/>
       <c r="AN22" s="187"/>
-      <c r="AO22" s="182"/>
+      <c r="AO22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AP22" s="183"/>
       <c r="AQ22" s="187"/>
-      <c r="AR22" s="182"/>
+      <c r="AR22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AS22" s="183"/>
       <c r="AT22" s="187"/>
-      <c r="AU22" s="182"/>
+      <c r="AU22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AV22" s="183"/>
       <c r="AW22" s="187"/>
       <c r="AX22" s="182"/>
@@ -24853,7 +25927,7 @@
       <c r="CU22" s="183"/>
       <c r="CV22" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CW22" s="79">
         <f t="shared" si="1"/>
@@ -24901,15 +25975,15 @@
       </c>
       <c r="DH22" s="80">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DI22" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="DJ22" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="DK22" s="69">
         <v>0</v>
@@ -24969,7 +26043,7 @@
       </c>
       <c r="EB22" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="EC22" s="32">
         <f t="shared" si="23"/>
@@ -25002,53 +26076,85 @@
       <c r="F23" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="181"/>
-      <c r="H23" s="182"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="186"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="183"/>
       <c r="M23" s="187"/>
-      <c r="N23" s="185"/>
+      <c r="N23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="O23" s="183"/>
       <c r="P23" s="187"/>
-      <c r="Q23" s="182"/>
+      <c r="Q23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="R23" s="183"/>
       <c r="S23" s="187"/>
-      <c r="T23" s="182"/>
+      <c r="T23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="U23" s="183"/>
       <c r="V23" s="187"/>
-      <c r="W23" s="182"/>
+      <c r="W23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="X23" s="183"/>
       <c r="Y23" s="187"/>
-      <c r="Z23" s="182"/>
+      <c r="Z23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AA23" s="183"/>
       <c r="AB23" s="187"/>
-      <c r="AC23" s="182"/>
+      <c r="AC23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AD23" s="183"/>
       <c r="AE23" s="187"/>
-      <c r="AF23" s="182"/>
+      <c r="AF23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AG23" s="183"/>
       <c r="AH23" s="187"/>
-      <c r="AI23" s="182"/>
+      <c r="AI23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AJ23" s="183"/>
       <c r="AK23" s="187"/>
-      <c r="AL23" s="182"/>
+      <c r="AL23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AM23" s="183"/>
       <c r="AN23" s="187"/>
-      <c r="AO23" s="182"/>
+      <c r="AO23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AP23" s="183"/>
       <c r="AQ23" s="187"/>
-      <c r="AR23" s="182"/>
+      <c r="AR23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AS23" s="183"/>
       <c r="AT23" s="187"/>
-      <c r="AU23" s="182"/>
+      <c r="AU23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AV23" s="183"/>
       <c r="AW23" s="187"/>
-      <c r="AX23" s="182"/>
+      <c r="AX23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="AY23" s="183"/>
       <c r="AZ23" s="187"/>
-      <c r="BA23" s="182"/>
+      <c r="BA23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BB23" s="183"/>
       <c r="BC23" s="187"/>
       <c r="BD23" s="182"/>
@@ -25097,7 +26203,7 @@
       <c r="CU23" s="183"/>
       <c r="CV23" s="168">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CW23" s="79">
         <f t="shared" si="1"/>
@@ -25145,15 +26251,15 @@
       </c>
       <c r="DH23" s="80">
         <f>IF(CQ23="В",1,0)+IF(CT23="В",1,0)+IF(H23="В",1,0)+IF(K23="В",1,0)+IF(N23="В",1,0)+IF(Q23="В",1,0)+IF(T23="В",1,0)+IF(W23="В",1,0)+IF(Z23="В",1,0)+IF(AC23="В",1,0)+IF(AF23="В",1,0)+IF(AI23="В",1,0)+IF(AL23="В",1,0)+IF(AO23="В",1,0)+IF(AR23="В",1,0)+IF(AU23="В",1,0)+IF(AX23="В",1,0)+IF(BA23="В",1,0)+IF(BD23="В",1,0)+IF(BG23="В",1,0)+IF(BJ23="В",1,0)+IF(BM23="В",1,0)+IF(BP23="В",1,0)+IF(BS23="В",1,0)+IF(BV23="В",1,0)+IF(BY23="В",1,0)+IF(CB23="В",1,0)+IF(CE23="В",1,0)+IF(CH23="В",1,0)+IF(CK23="В",1,0)+IF(CN23="В",1,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DI23" s="80">
         <f>SUM(CV23:DH23)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DJ23" s="70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DK23" s="70">
         <v>8</v>
@@ -25213,7 +26319,7 @@
       </c>
       <c r="EB23" s="32">
         <f>IF(Q23=11.25,1,0)+IF(T23=11.25,1,0)+IF(W23=11.25,1,0)+IF(Z23=11.25,1,0)+IF(AC23=11.25,1,0)+IF(AF23=11.25,1,0)+IF(AI23=11.25,1,0)+IF(AL23=11.25,1,0)+IF(AO23=11.25,1,0)+IF(AR23=11.25,1,0)+IF(AU23=11.25,1,0)+IF(AX23=11.25,1,0)+IF(BA23=11.25,1,0)+IF(BD23=11.25,1,0)+IF(BG23=11.25,1,0)+IF(BJ23=11.25,1,0)+IF(BM23=11.25,1,0)+IF(BP23=11.25,1,0)+IF(BS23=11.25,1,0)+IF(BV23=11.25,1,0)+IF(BY23=11.25,1,0)+IF(CB23=11.25,1,0)+IF(CE23=11.25,1,0)+IF(CH23=11.25,1,0)+IF(CK23=11.25,1,0)+IF(CN23=11.25,1,0)+IF(CQ23=11.25,1,0)+IF(CT23=11.25,1,0)+IF(H23=11.25,1,0)+IF(K23=11.25,1,0)+IF(N23=11.25,1,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="EC23" s="32">
         <f t="shared" si="23"/>
@@ -25330,7 +26436,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -25350,7 +26456,7 @@
       </c>
       <c r="DA24" s="81">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DB24" s="81">
         <f t="shared" si="28"/>
@@ -25378,15 +26484,15 @@
       </c>
       <c r="DH24" s="81">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>90</v>
+        <v>1075</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -25402,7 +26508,7 @@
       </c>
       <c r="DN24" s="77">
         <f t="shared" si="28"/>
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="DO24" s="77">
         <f t="shared" si="28"/>
@@ -25497,7 +26603,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="51" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52"/>
@@ -25861,45 +26967,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="220"/>
-      <c r="R31" s="220"/>
-      <c r="S31" s="220"/>
-      <c r="T31" s="220"/>
-      <c r="U31" s="220"/>
-      <c r="V31" s="220"/>
-      <c r="W31" s="220"/>
-      <c r="X31" s="220"/>
-      <c r="Y31" s="220"/>
-      <c r="Z31" s="220"/>
-      <c r="AA31" s="220"/>
-      <c r="AB31" s="220"/>
-      <c r="AC31" s="220"/>
-      <c r="AD31" s="220"/>
-      <c r="AE31" s="220"/>
-      <c r="AF31" s="220"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="220"/>
-      <c r="AI31" s="220"/>
-      <c r="AJ31" s="220"/>
-      <c r="AK31" s="220"/>
-      <c r="AL31" s="220"/>
-      <c r="AM31" s="220"/>
-      <c r="AN31" s="220"/>
-      <c r="AO31" s="220"/>
-      <c r="AP31" s="220"/>
-      <c r="AQ31" s="220"/>
-      <c r="AR31" s="220"/>
-      <c r="AS31" s="220"/>
+      <c r="G31" s="283"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="283"/>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="283"/>
+      <c r="Q31" s="283"/>
+      <c r="R31" s="283"/>
+      <c r="S31" s="283"/>
+      <c r="T31" s="283"/>
+      <c r="U31" s="283"/>
+      <c r="V31" s="283"/>
+      <c r="W31" s="283"/>
+      <c r="X31" s="283"/>
+      <c r="Y31" s="283"/>
+      <c r="Z31" s="283"/>
+      <c r="AA31" s="283"/>
+      <c r="AB31" s="283"/>
+      <c r="AC31" s="283"/>
+      <c r="AD31" s="283"/>
+      <c r="AE31" s="283"/>
+      <c r="AF31" s="283"/>
+      <c r="AG31" s="283"/>
+      <c r="AH31" s="283"/>
+      <c r="AI31" s="283"/>
+      <c r="AJ31" s="283"/>
+      <c r="AK31" s="283"/>
+      <c r="AL31" s="283"/>
+      <c r="AM31" s="283"/>
+      <c r="AN31" s="283"/>
+      <c r="AO31" s="283"/>
+      <c r="AP31" s="283"/>
+      <c r="AQ31" s="283"/>
+      <c r="AR31" s="283"/>
+      <c r="AS31" s="283"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -26204,45 +27310,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="220"/>
-      <c r="M35" s="220"/>
-      <c r="N35" s="220"/>
-      <c r="O35" s="220"/>
-      <c r="P35" s="220"/>
-      <c r="Q35" s="220"/>
-      <c r="R35" s="220"/>
-      <c r="S35" s="220"/>
-      <c r="T35" s="220"/>
-      <c r="U35" s="220"/>
-      <c r="V35" s="220"/>
-      <c r="W35" s="220"/>
-      <c r="X35" s="220"/>
-      <c r="Y35" s="220"/>
-      <c r="Z35" s="220"/>
-      <c r="AA35" s="220"/>
-      <c r="AB35" s="220"/>
-      <c r="AC35" s="220"/>
-      <c r="AD35" s="220"/>
-      <c r="AE35" s="220"/>
-      <c r="AF35" s="220"/>
-      <c r="AG35" s="220"/>
-      <c r="AH35" s="220"/>
-      <c r="AI35" s="220"/>
-      <c r="AJ35" s="220"/>
-      <c r="AK35" s="220"/>
-      <c r="AL35" s="220"/>
-      <c r="AM35" s="220"/>
-      <c r="AN35" s="220"/>
-      <c r="AO35" s="220"/>
-      <c r="AP35" s="220"/>
-      <c r="AQ35" s="220"/>
-      <c r="AR35" s="220"/>
-      <c r="AS35" s="220"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="283"/>
+      <c r="I35" s="283"/>
+      <c r="J35" s="283"/>
+      <c r="K35" s="283"/>
+      <c r="L35" s="283"/>
+      <c r="M35" s="283"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="283"/>
+      <c r="P35" s="283"/>
+      <c r="Q35" s="283"/>
+      <c r="R35" s="283"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="283"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
+      <c r="W35" s="283"/>
+      <c r="X35" s="283"/>
+      <c r="Y35" s="283"/>
+      <c r="Z35" s="283"/>
+      <c r="AA35" s="283"/>
+      <c r="AB35" s="283"/>
+      <c r="AC35" s="283"/>
+      <c r="AD35" s="283"/>
+      <c r="AE35" s="283"/>
+      <c r="AF35" s="283"/>
+      <c r="AG35" s="283"/>
+      <c r="AH35" s="283"/>
+      <c r="AI35" s="283"/>
+      <c r="AJ35" s="283"/>
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="283"/>
+      <c r="AO35" s="283"/>
+      <c r="AP35" s="283"/>
+      <c r="AQ35" s="283"/>
+      <c r="AR35" s="283"/>
+      <c r="AS35" s="283"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -28400,17 +29506,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -28427,52 +29545,282 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:CU10 G12:CU23 BC11:CU11">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="О">
+  <conditionalFormatting sqref="G10:CU10 G13:CU13 BC11:CU12 AE23:CU23 AW14:CU15 G16:G17 AK16:CU17 AE20:CU20 AB21:CU21 AK22:CU22 AQ18:CU19">
+    <cfRule type="containsText" dxfId="102" priority="65" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="101" priority="66" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AD11">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="100" priority="63" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="99" priority="64" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:BB11">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="98" priority="61" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="97" priority="62" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:AD12">
+    <cfRule type="containsText" dxfId="96" priority="59" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="60" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12:BB12">
+    <cfRule type="containsText" dxfId="94" priority="57" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AE12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="58" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AE12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:X14">
+    <cfRule type="containsText" dxfId="92" priority="55" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="56" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14:AV14">
+    <cfRule type="containsText" dxfId="90" priority="53" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",Y14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="54" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",Y14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:X15">
+    <cfRule type="containsText" dxfId="88" priority="51" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="52" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15:AV15">
+    <cfRule type="containsText" dxfId="86" priority="49" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",Y15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="50" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",Y15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:L16">
+    <cfRule type="containsText" dxfId="84" priority="47" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",H16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="48" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",H16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:AJ16">
+    <cfRule type="containsText" dxfId="82" priority="45" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",M16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="46" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",M16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:L17">
+    <cfRule type="containsText" dxfId="80" priority="43" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",H17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="44" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",H17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:AJ17">
+    <cfRule type="containsText" dxfId="78" priority="41" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="42" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",M17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:R18">
+    <cfRule type="containsText" dxfId="76" priority="39" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="40" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:AP18">
+    <cfRule type="containsText" dxfId="74" priority="37" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",S18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="38" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",S18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:R19">
+    <cfRule type="containsText" dxfId="72" priority="35" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="36" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:AP19">
+    <cfRule type="containsText" dxfId="70" priority="33" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",S19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="34" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",S19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:AD20">
+    <cfRule type="containsText" dxfId="68" priority="31" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="32" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:AA21">
+    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="30" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:AJ22">
+    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:AD23">
+    <cfRule type="containsText" dxfId="62" priority="25" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="26" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="containsText" dxfId="60" priority="24" operator="containsText" text="а">
+      <formula>NOT(ISERROR(SEARCH("а",AF10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:CU23">
+    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="а">
+      <formula>NOT(ISERROR(SEARCH("а",G10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK16:BE16">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AK16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="22" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AK16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK17:BE17">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AK17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="20" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AK17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20:AP20">
+    <cfRule type="containsText" dxfId="48" priority="17" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AE20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="18" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AE20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ20:BB20">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AQ20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AQ20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB21:AM21">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AB21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AB21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN21:AY21">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AN21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AN21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22:AV22">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23:AP23">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AE23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AE23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23:BB23">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AQ23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AQ23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ18:BK18">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AQ18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AQ18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ19:BK19">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AQ19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AQ19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -1810,6 +1810,78 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1861,24 +1933,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1918,60 +1972,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2006,7 +2006,35 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2087,13 +2115,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2102,13 +2123,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2143,7 +2157,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2178,7 +2199,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2207,188 +2235,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3215,21 +3061,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="238" t="s">
+      <c r="CU1" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="238"/>
-      <c r="CW1" s="238"/>
-      <c r="CX1" s="238"/>
-      <c r="CY1" s="238"/>
-      <c r="CZ1" s="238"/>
-      <c r="DA1" s="238"/>
-      <c r="DB1" s="238"/>
-      <c r="DC1" s="238"/>
-      <c r="DD1" s="238"/>
-      <c r="DE1" s="238"/>
-      <c r="DF1" s="238"/>
-      <c r="DG1" s="238"/>
+      <c r="CV1" s="262"/>
+      <c r="CW1" s="262"/>
+      <c r="CX1" s="262"/>
+      <c r="CY1" s="262"/>
+      <c r="CZ1" s="262"/>
+      <c r="DA1" s="262"/>
+      <c r="DB1" s="262"/>
+      <c r="DC1" s="262"/>
+      <c r="DD1" s="262"/>
+      <c r="DE1" s="262"/>
+      <c r="DF1" s="262"/>
+      <c r="DG1" s="262"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -3330,241 +3176,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="239" t="s">
+      <c r="CU2" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="239"/>
-      <c r="CW2" s="239"/>
-      <c r="CX2" s="239"/>
-      <c r="CY2" s="239"/>
-      <c r="CZ2" s="239"/>
-      <c r="DA2" s="239"/>
-      <c r="DB2" s="239"/>
-      <c r="DC2" s="239"/>
-      <c r="DD2" s="239"/>
-      <c r="DE2" s="239"/>
-      <c r="DF2" s="239"/>
-      <c r="DG2" s="239"/>
+      <c r="CV2" s="263"/>
+      <c r="CW2" s="263"/>
+      <c r="CX2" s="263"/>
+      <c r="CY2" s="263"/>
+      <c r="CZ2" s="263"/>
+      <c r="DA2" s="263"/>
+      <c r="DB2" s="263"/>
+      <c r="DC2" s="263"/>
+      <c r="DD2" s="263"/>
+      <c r="DE2" s="263"/>
+      <c r="DF2" s="263"/>
+      <c r="DG2" s="263"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240"/>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240"/>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
-      <c r="AX3" s="240"/>
-      <c r="AY3" s="240"/>
-      <c r="AZ3" s="240"/>
-      <c r="BA3" s="240"/>
-      <c r="BB3" s="240"/>
-      <c r="BC3" s="240"/>
-      <c r="BD3" s="240"/>
-      <c r="BE3" s="240"/>
-      <c r="BF3" s="240"/>
-      <c r="BG3" s="240"/>
-      <c r="BH3" s="240"/>
-      <c r="BI3" s="240"/>
-      <c r="BJ3" s="240"/>
-      <c r="BK3" s="240"/>
-      <c r="BL3" s="240"/>
-      <c r="BM3" s="240"/>
-      <c r="BN3" s="240"/>
-      <c r="BO3" s="240"/>
-      <c r="BP3" s="240"/>
-      <c r="BQ3" s="240"/>
-      <c r="BR3" s="240"/>
-      <c r="BS3" s="240"/>
-      <c r="BT3" s="240"/>
-      <c r="BU3" s="240"/>
-      <c r="BV3" s="240"/>
-      <c r="BW3" s="240"/>
-      <c r="BX3" s="240"/>
-      <c r="BY3" s="240"/>
-      <c r="BZ3" s="240"/>
-      <c r="CA3" s="240"/>
-      <c r="CB3" s="240"/>
-      <c r="CC3" s="240"/>
-      <c r="CD3" s="240"/>
-      <c r="CE3" s="240"/>
-      <c r="CF3" s="240"/>
-      <c r="CG3" s="240"/>
-      <c r="CH3" s="240"/>
-      <c r="CI3" s="240"/>
-      <c r="CJ3" s="240"/>
-      <c r="CK3" s="240"/>
-      <c r="CL3" s="240"/>
-      <c r="CM3" s="240"/>
-      <c r="CN3" s="240"/>
-      <c r="CO3" s="240"/>
-      <c r="CP3" s="240"/>
-      <c r="CQ3" s="240"/>
-      <c r="CR3" s="240"/>
-      <c r="CS3" s="240"/>
-      <c r="CT3" s="240"/>
-      <c r="CU3" s="240"/>
-      <c r="CV3" s="241" t="s">
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="264"/>
+      <c r="AJ3" s="264"/>
+      <c r="AK3" s="264"/>
+      <c r="AL3" s="264"/>
+      <c r="AM3" s="264"/>
+      <c r="AN3" s="264"/>
+      <c r="AO3" s="264"/>
+      <c r="AP3" s="264"/>
+      <c r="AQ3" s="264"/>
+      <c r="AR3" s="264"/>
+      <c r="AS3" s="264"/>
+      <c r="AT3" s="264"/>
+      <c r="AU3" s="264"/>
+      <c r="AV3" s="264"/>
+      <c r="AW3" s="264"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="264"/>
+      <c r="AZ3" s="264"/>
+      <c r="BA3" s="264"/>
+      <c r="BB3" s="264"/>
+      <c r="BC3" s="264"/>
+      <c r="BD3" s="264"/>
+      <c r="BE3" s="264"/>
+      <c r="BF3" s="264"/>
+      <c r="BG3" s="264"/>
+      <c r="BH3" s="264"/>
+      <c r="BI3" s="264"/>
+      <c r="BJ3" s="264"/>
+      <c r="BK3" s="264"/>
+      <c r="BL3" s="264"/>
+      <c r="BM3" s="264"/>
+      <c r="BN3" s="264"/>
+      <c r="BO3" s="264"/>
+      <c r="BP3" s="264"/>
+      <c r="BQ3" s="264"/>
+      <c r="BR3" s="264"/>
+      <c r="BS3" s="264"/>
+      <c r="BT3" s="264"/>
+      <c r="BU3" s="264"/>
+      <c r="BV3" s="264"/>
+      <c r="BW3" s="264"/>
+      <c r="BX3" s="264"/>
+      <c r="BY3" s="264"/>
+      <c r="BZ3" s="264"/>
+      <c r="CA3" s="264"/>
+      <c r="CB3" s="264"/>
+      <c r="CC3" s="264"/>
+      <c r="CD3" s="264"/>
+      <c r="CE3" s="264"/>
+      <c r="CF3" s="264"/>
+      <c r="CG3" s="264"/>
+      <c r="CH3" s="264"/>
+      <c r="CI3" s="264"/>
+      <c r="CJ3" s="264"/>
+      <c r="CK3" s="264"/>
+      <c r="CL3" s="264"/>
+      <c r="CM3" s="264"/>
+      <c r="CN3" s="264"/>
+      <c r="CO3" s="264"/>
+      <c r="CP3" s="264"/>
+      <c r="CQ3" s="264"/>
+      <c r="CR3" s="264"/>
+      <c r="CS3" s="264"/>
+      <c r="CT3" s="264"/>
+      <c r="CU3" s="264"/>
+      <c r="CV3" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="241"/>
-      <c r="CX3" s="241"/>
-      <c r="CY3" s="241"/>
-      <c r="CZ3" s="241"/>
-      <c r="DA3" s="241"/>
-      <c r="DB3" s="241"/>
-      <c r="DC3" s="241"/>
-      <c r="DD3" s="241"/>
-      <c r="DE3" s="241"/>
-      <c r="DF3" s="241"/>
-      <c r="DG3" s="241"/>
+      <c r="CW3" s="265"/>
+      <c r="CX3" s="265"/>
+      <c r="CY3" s="265"/>
+      <c r="CZ3" s="265"/>
+      <c r="DA3" s="265"/>
+      <c r="DB3" s="265"/>
+      <c r="DC3" s="265"/>
+      <c r="DD3" s="265"/>
+      <c r="DE3" s="265"/>
+      <c r="DF3" s="265"/>
+      <c r="DG3" s="265"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="254"/>
-      <c r="Z4" s="254"/>
-      <c r="AA4" s="254"/>
-      <c r="AB4" s="254"/>
-      <c r="AC4" s="254"/>
-      <c r="AD4" s="254"/>
-      <c r="AE4" s="254"/>
-      <c r="AF4" s="254"/>
-      <c r="AG4" s="254"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="254"/>
-      <c r="AK4" s="254"/>
-      <c r="AL4" s="254"/>
-      <c r="AM4" s="254"/>
-      <c r="AN4" s="254"/>
-      <c r="AO4" s="254"/>
-      <c r="AP4" s="254"/>
-      <c r="AQ4" s="254"/>
-      <c r="AR4" s="254"/>
-      <c r="AS4" s="254"/>
-      <c r="AT4" s="254"/>
-      <c r="AU4" s="254"/>
-      <c r="AV4" s="254"/>
-      <c r="AW4" s="254"/>
-      <c r="AX4" s="254"/>
-      <c r="AY4" s="254"/>
-      <c r="AZ4" s="254"/>
-      <c r="BA4" s="254"/>
-      <c r="BB4" s="254"/>
-      <c r="BC4" s="254"/>
-      <c r="BD4" s="254"/>
-      <c r="BE4" s="254"/>
-      <c r="BF4" s="254"/>
-      <c r="BG4" s="254"/>
-      <c r="BH4" s="254"/>
-      <c r="BI4" s="254"/>
-      <c r="BJ4" s="254"/>
-      <c r="BK4" s="254"/>
-      <c r="BL4" s="254"/>
-      <c r="BM4" s="254"/>
-      <c r="BN4" s="254"/>
-      <c r="BO4" s="254"/>
-      <c r="BP4" s="254"/>
-      <c r="BQ4" s="254"/>
-      <c r="BR4" s="254"/>
-      <c r="BS4" s="254"/>
-      <c r="BT4" s="254"/>
-      <c r="BU4" s="254"/>
-      <c r="BV4" s="254"/>
-      <c r="BW4" s="254"/>
-      <c r="BX4" s="254"/>
-      <c r="BY4" s="254"/>
-      <c r="BZ4" s="254"/>
-      <c r="CA4" s="254"/>
-      <c r="CB4" s="254"/>
-      <c r="CC4" s="254"/>
-      <c r="CD4" s="254"/>
-      <c r="CE4" s="254"/>
-      <c r="CF4" s="254"/>
-      <c r="CG4" s="254"/>
-      <c r="CH4" s="254"/>
-      <c r="CI4" s="254"/>
-      <c r="CJ4" s="254"/>
-      <c r="CK4" s="254"/>
-      <c r="CL4" s="254"/>
-      <c r="CM4" s="254"/>
-      <c r="CN4" s="254"/>
-      <c r="CO4" s="254"/>
-      <c r="CP4" s="254"/>
-      <c r="CQ4" s="254"/>
-      <c r="CR4" s="254"/>
-      <c r="CS4" s="254"/>
-      <c r="CT4" s="254"/>
-      <c r="CU4" s="254"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="272"/>
+      <c r="AJ4" s="272"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="272"/>
+      <c r="AP4" s="272"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="272"/>
+      <c r="AV4" s="272"/>
+      <c r="AW4" s="272"/>
+      <c r="AX4" s="272"/>
+      <c r="AY4" s="272"/>
+      <c r="AZ4" s="272"/>
+      <c r="BA4" s="272"/>
+      <c r="BB4" s="272"/>
+      <c r="BC4" s="272"/>
+      <c r="BD4" s="272"/>
+      <c r="BE4" s="272"/>
+      <c r="BF4" s="272"/>
+      <c r="BG4" s="272"/>
+      <c r="BH4" s="272"/>
+      <c r="BI4" s="272"/>
+      <c r="BJ4" s="272"/>
+      <c r="BK4" s="272"/>
+      <c r="BL4" s="272"/>
+      <c r="BM4" s="272"/>
+      <c r="BN4" s="272"/>
+      <c r="BO4" s="272"/>
+      <c r="BP4" s="272"/>
+      <c r="BQ4" s="272"/>
+      <c r="BR4" s="272"/>
+      <c r="BS4" s="272"/>
+      <c r="BT4" s="272"/>
+      <c r="BU4" s="272"/>
+      <c r="BV4" s="272"/>
+      <c r="BW4" s="272"/>
+      <c r="BX4" s="272"/>
+      <c r="BY4" s="272"/>
+      <c r="BZ4" s="272"/>
+      <c r="CA4" s="272"/>
+      <c r="CB4" s="272"/>
+      <c r="CC4" s="272"/>
+      <c r="CD4" s="272"/>
+      <c r="CE4" s="272"/>
+      <c r="CF4" s="272"/>
+      <c r="CG4" s="272"/>
+      <c r="CH4" s="272"/>
+      <c r="CI4" s="272"/>
+      <c r="CJ4" s="272"/>
+      <c r="CK4" s="272"/>
+      <c r="CL4" s="272"/>
+      <c r="CM4" s="272"/>
+      <c r="CN4" s="272"/>
+      <c r="CO4" s="272"/>
+      <c r="CP4" s="272"/>
+      <c r="CQ4" s="272"/>
+      <c r="CR4" s="272"/>
+      <c r="CS4" s="272"/>
+      <c r="CT4" s="272"/>
+      <c r="CU4" s="272"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -3694,433 +3540,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="258" t="s">
+      <c r="A6" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="235" t="s">
+      <c r="D6" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="280" t="s">
+      <c r="G6" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="280"/>
-      <c r="AF6" s="280"/>
-      <c r="AG6" s="280"/>
-      <c r="AH6" s="280"/>
-      <c r="AI6" s="280"/>
-      <c r="AJ6" s="280"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="280"/>
-      <c r="AM6" s="280"/>
-      <c r="AN6" s="280"/>
-      <c r="AO6" s="280"/>
-      <c r="AP6" s="280"/>
-      <c r="AQ6" s="280"/>
-      <c r="AR6" s="280"/>
-      <c r="AS6" s="280"/>
-      <c r="AT6" s="280"/>
-      <c r="AU6" s="280"/>
-      <c r="AV6" s="280"/>
-      <c r="AW6" s="280"/>
-      <c r="AX6" s="280"/>
-      <c r="AY6" s="280"/>
-      <c r="AZ6" s="280"/>
-      <c r="BA6" s="280"/>
-      <c r="BB6" s="280"/>
-      <c r="BC6" s="280"/>
-      <c r="BD6" s="280"/>
-      <c r="BE6" s="280"/>
-      <c r="BF6" s="280"/>
-      <c r="BG6" s="280"/>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="280"/>
-      <c r="BM6" s="280"/>
-      <c r="BN6" s="280"/>
-      <c r="BO6" s="280"/>
-      <c r="BP6" s="280"/>
-      <c r="BQ6" s="280"/>
-      <c r="BR6" s="280"/>
-      <c r="BS6" s="280"/>
-      <c r="BT6" s="280"/>
-      <c r="BU6" s="280"/>
-      <c r="BV6" s="280"/>
-      <c r="BW6" s="280"/>
-      <c r="BX6" s="280"/>
-      <c r="BY6" s="280"/>
-      <c r="BZ6" s="280"/>
-      <c r="CA6" s="280"/>
-      <c r="CB6" s="280"/>
-      <c r="CC6" s="280"/>
-      <c r="CD6" s="280"/>
-      <c r="CE6" s="280"/>
-      <c r="CF6" s="280"/>
-      <c r="CG6" s="280"/>
-      <c r="CH6" s="280"/>
-      <c r="CI6" s="280"/>
-      <c r="CJ6" s="280"/>
-      <c r="CK6" s="280"/>
-      <c r="CL6" s="280"/>
-      <c r="CM6" s="280"/>
-      <c r="CN6" s="280"/>
-      <c r="CO6" s="280"/>
-      <c r="CP6" s="280"/>
-      <c r="CQ6" s="280"/>
-      <c r="CR6" s="280"/>
-      <c r="CS6" s="280"/>
-      <c r="CT6" s="280"/>
-      <c r="CU6" s="280"/>
-      <c r="CV6" s="242" t="s">
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="252"/>
+      <c r="X6" s="252"/>
+      <c r="Y6" s="252"/>
+      <c r="Z6" s="252"/>
+      <c r="AA6" s="252"/>
+      <c r="AB6" s="252"/>
+      <c r="AC6" s="252"/>
+      <c r="AD6" s="252"/>
+      <c r="AE6" s="252"/>
+      <c r="AF6" s="252"/>
+      <c r="AG6" s="252"/>
+      <c r="AH6" s="252"/>
+      <c r="AI6" s="252"/>
+      <c r="AJ6" s="252"/>
+      <c r="AK6" s="252"/>
+      <c r="AL6" s="252"/>
+      <c r="AM6" s="252"/>
+      <c r="AN6" s="252"/>
+      <c r="AO6" s="252"/>
+      <c r="AP6" s="252"/>
+      <c r="AQ6" s="252"/>
+      <c r="AR6" s="252"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="252"/>
+      <c r="AU6" s="252"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
+      <c r="AX6" s="252"/>
+      <c r="AY6" s="252"/>
+      <c r="AZ6" s="252"/>
+      <c r="BA6" s="252"/>
+      <c r="BB6" s="252"/>
+      <c r="BC6" s="252"/>
+      <c r="BD6" s="252"/>
+      <c r="BE6" s="252"/>
+      <c r="BF6" s="252"/>
+      <c r="BG6" s="252"/>
+      <c r="BH6" s="252"/>
+      <c r="BI6" s="252"/>
+      <c r="BJ6" s="252"/>
+      <c r="BK6" s="252"/>
+      <c r="BL6" s="252"/>
+      <c r="BM6" s="252"/>
+      <c r="BN6" s="252"/>
+      <c r="BO6" s="252"/>
+      <c r="BP6" s="252"/>
+      <c r="BQ6" s="252"/>
+      <c r="BR6" s="252"/>
+      <c r="BS6" s="252"/>
+      <c r="BT6" s="252"/>
+      <c r="BU6" s="252"/>
+      <c r="BV6" s="252"/>
+      <c r="BW6" s="252"/>
+      <c r="BX6" s="252"/>
+      <c r="BY6" s="252"/>
+      <c r="BZ6" s="252"/>
+      <c r="CA6" s="252"/>
+      <c r="CB6" s="252"/>
+      <c r="CC6" s="252"/>
+      <c r="CD6" s="252"/>
+      <c r="CE6" s="252"/>
+      <c r="CF6" s="252"/>
+      <c r="CG6" s="252"/>
+      <c r="CH6" s="252"/>
+      <c r="CI6" s="252"/>
+      <c r="CJ6" s="252"/>
+      <c r="CK6" s="252"/>
+      <c r="CL6" s="252"/>
+      <c r="CM6" s="252"/>
+      <c r="CN6" s="252"/>
+      <c r="CO6" s="252"/>
+      <c r="CP6" s="252"/>
+      <c r="CQ6" s="252"/>
+      <c r="CR6" s="252"/>
+      <c r="CS6" s="252"/>
+      <c r="CT6" s="252"/>
+      <c r="CU6" s="252"/>
+      <c r="CV6" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="243"/>
-      <c r="CX6" s="242" t="s">
+      <c r="CW6" s="267"/>
+      <c r="CX6" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="246"/>
-      <c r="CZ6" s="246"/>
-      <c r="DA6" s="246"/>
-      <c r="DB6" s="246"/>
-      <c r="DC6" s="246"/>
-      <c r="DD6" s="246"/>
-      <c r="DE6" s="246"/>
-      <c r="DF6" s="246"/>
-      <c r="DG6" s="246"/>
-      <c r="DH6" s="270" t="s">
+      <c r="CY6" s="270"/>
+      <c r="CZ6" s="270"/>
+      <c r="DA6" s="270"/>
+      <c r="DB6" s="270"/>
+      <c r="DC6" s="270"/>
+      <c r="DD6" s="270"/>
+      <c r="DE6" s="270"/>
+      <c r="DF6" s="270"/>
+      <c r="DG6" s="270"/>
+      <c r="DH6" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="273" t="s">
+      <c r="DI6" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="231" t="s">
+      <c r="DJ6" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="231"/>
-      <c r="DL6" s="231"/>
-      <c r="DM6" s="231"/>
-      <c r="DN6" s="231"/>
-      <c r="DO6" s="232"/>
+      <c r="DK6" s="255"/>
+      <c r="DL6" s="255"/>
+      <c r="DM6" s="255"/>
+      <c r="DN6" s="255"/>
+      <c r="DO6" s="256"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="281"/>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-      <c r="AM7" s="281"/>
-      <c r="AN7" s="281"/>
-      <c r="AO7" s="281"/>
-      <c r="AP7" s="281"/>
-      <c r="AQ7" s="281"/>
-      <c r="AR7" s="281"/>
-      <c r="AS7" s="281"/>
-      <c r="AT7" s="281"/>
-      <c r="AU7" s="281"/>
-      <c r="AV7" s="281"/>
-      <c r="AW7" s="281"/>
-      <c r="AX7" s="281"/>
-      <c r="AY7" s="281"/>
-      <c r="AZ7" s="281"/>
-      <c r="BA7" s="281"/>
-      <c r="BB7" s="281"/>
-      <c r="BC7" s="281"/>
-      <c r="BD7" s="281"/>
-      <c r="BE7" s="281"/>
-      <c r="BF7" s="281"/>
-      <c r="BG7" s="281"/>
-      <c r="BH7" s="281"/>
-      <c r="BI7" s="281"/>
-      <c r="BJ7" s="281"/>
-      <c r="BK7" s="281"/>
-      <c r="BL7" s="281"/>
-      <c r="BM7" s="281"/>
-      <c r="BN7" s="281"/>
-      <c r="BO7" s="282"/>
-      <c r="BP7" s="282"/>
-      <c r="BQ7" s="282"/>
-      <c r="BR7" s="281"/>
-      <c r="BS7" s="281"/>
-      <c r="BT7" s="281"/>
-      <c r="BU7" s="281"/>
-      <c r="BV7" s="281"/>
-      <c r="BW7" s="281"/>
-      <c r="BX7" s="281"/>
-      <c r="BY7" s="281"/>
-      <c r="BZ7" s="281"/>
-      <c r="CA7" s="281"/>
-      <c r="CB7" s="281"/>
-      <c r="CC7" s="281"/>
-      <c r="CD7" s="281"/>
-      <c r="CE7" s="281"/>
-      <c r="CF7" s="281"/>
-      <c r="CG7" s="281"/>
-      <c r="CH7" s="281"/>
-      <c r="CI7" s="281"/>
-      <c r="CJ7" s="281"/>
-      <c r="CK7" s="281"/>
-      <c r="CL7" s="281"/>
-      <c r="CM7" s="281"/>
-      <c r="CN7" s="281"/>
-      <c r="CO7" s="281"/>
-      <c r="CP7" s="281"/>
-      <c r="CQ7" s="281"/>
-      <c r="CR7" s="281"/>
-      <c r="CS7" s="281"/>
-      <c r="CT7" s="281"/>
-      <c r="CU7" s="281"/>
-      <c r="CV7" s="244"/>
-      <c r="CW7" s="245"/>
-      <c r="CX7" s="244"/>
-      <c r="CY7" s="247"/>
-      <c r="CZ7" s="247"/>
-      <c r="DA7" s="247"/>
-      <c r="DB7" s="247"/>
-      <c r="DC7" s="247"/>
-      <c r="DD7" s="247"/>
-      <c r="DE7" s="247"/>
-      <c r="DF7" s="247"/>
-      <c r="DG7" s="247"/>
-      <c r="DH7" s="271"/>
-      <c r="DI7" s="274"/>
-      <c r="DJ7" s="233"/>
-      <c r="DK7" s="233"/>
-      <c r="DL7" s="233"/>
-      <c r="DM7" s="233"/>
-      <c r="DN7" s="233"/>
-      <c r="DO7" s="234"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="253"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="253"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="253"/>
+      <c r="AP7" s="253"/>
+      <c r="AQ7" s="253"/>
+      <c r="AR7" s="253"/>
+      <c r="AS7" s="253"/>
+      <c r="AT7" s="253"/>
+      <c r="AU7" s="253"/>
+      <c r="AV7" s="253"/>
+      <c r="AW7" s="253"/>
+      <c r="AX7" s="253"/>
+      <c r="AY7" s="253"/>
+      <c r="AZ7" s="253"/>
+      <c r="BA7" s="253"/>
+      <c r="BB7" s="253"/>
+      <c r="BC7" s="253"/>
+      <c r="BD7" s="253"/>
+      <c r="BE7" s="253"/>
+      <c r="BF7" s="253"/>
+      <c r="BG7" s="253"/>
+      <c r="BH7" s="253"/>
+      <c r="BI7" s="253"/>
+      <c r="BJ7" s="253"/>
+      <c r="BK7" s="253"/>
+      <c r="BL7" s="253"/>
+      <c r="BM7" s="253"/>
+      <c r="BN7" s="253"/>
+      <c r="BO7" s="254"/>
+      <c r="BP7" s="254"/>
+      <c r="BQ7" s="254"/>
+      <c r="BR7" s="253"/>
+      <c r="BS7" s="253"/>
+      <c r="BT7" s="253"/>
+      <c r="BU7" s="253"/>
+      <c r="BV7" s="253"/>
+      <c r="BW7" s="253"/>
+      <c r="BX7" s="253"/>
+      <c r="BY7" s="253"/>
+      <c r="BZ7" s="253"/>
+      <c r="CA7" s="253"/>
+      <c r="CB7" s="253"/>
+      <c r="CC7" s="253"/>
+      <c r="CD7" s="253"/>
+      <c r="CE7" s="253"/>
+      <c r="CF7" s="253"/>
+      <c r="CG7" s="253"/>
+      <c r="CH7" s="253"/>
+      <c r="CI7" s="253"/>
+      <c r="CJ7" s="253"/>
+      <c r="CK7" s="253"/>
+      <c r="CL7" s="253"/>
+      <c r="CM7" s="253"/>
+      <c r="CN7" s="253"/>
+      <c r="CO7" s="253"/>
+      <c r="CP7" s="253"/>
+      <c r="CQ7" s="253"/>
+      <c r="CR7" s="253"/>
+      <c r="CS7" s="253"/>
+      <c r="CT7" s="253"/>
+      <c r="CU7" s="253"/>
+      <c r="CV7" s="268"/>
+      <c r="CW7" s="269"/>
+      <c r="CX7" s="268"/>
+      <c r="CY7" s="271"/>
+      <c r="CZ7" s="271"/>
+      <c r="DA7" s="271"/>
+      <c r="DB7" s="271"/>
+      <c r="DC7" s="271"/>
+      <c r="DD7" s="271"/>
+      <c r="DE7" s="271"/>
+      <c r="DF7" s="271"/>
+      <c r="DG7" s="271"/>
+      <c r="DH7" s="243"/>
+      <c r="DI7" s="246"/>
+      <c r="DJ7" s="257"/>
+      <c r="DK7" s="257"/>
+      <c r="DL7" s="257"/>
+      <c r="DM7" s="257"/>
+      <c r="DN7" s="257"/>
+      <c r="DO7" s="258"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="257"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="284">
+      <c r="A8" s="275"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="281"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="241">
         <v>1</v>
       </c>
-      <c r="H8" s="252"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="267">
+      <c r="H8" s="233"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="232">
         <v>2</v>
       </c>
-      <c r="K8" s="252"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="248">
+      <c r="K8" s="233"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="237">
         <v>3</v>
       </c>
-      <c r="N8" s="249"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="248">
+      <c r="N8" s="238"/>
+      <c r="O8" s="239"/>
+      <c r="P8" s="237">
         <v>4</v>
       </c>
-      <c r="Q8" s="249"/>
-      <c r="R8" s="250"/>
-      <c r="S8" s="267">
+      <c r="Q8" s="238"/>
+      <c r="R8" s="240"/>
+      <c r="S8" s="232">
         <v>5</v>
       </c>
-      <c r="T8" s="252"/>
-      <c r="U8" s="253"/>
-      <c r="V8" s="267">
+      <c r="T8" s="233"/>
+      <c r="U8" s="236"/>
+      <c r="V8" s="232">
         <v>6</v>
       </c>
-      <c r="W8" s="252"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="267">
+      <c r="W8" s="233"/>
+      <c r="X8" s="234"/>
+      <c r="Y8" s="232">
         <v>7</v>
       </c>
-      <c r="Z8" s="252"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="267">
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="234"/>
+      <c r="AB8" s="232">
         <v>8</v>
       </c>
-      <c r="AC8" s="252"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="267">
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="234"/>
+      <c r="AE8" s="232">
         <v>9</v>
       </c>
-      <c r="AF8" s="252"/>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="248">
+      <c r="AF8" s="233"/>
+      <c r="AG8" s="236"/>
+      <c r="AH8" s="237">
         <v>10</v>
       </c>
-      <c r="AI8" s="249"/>
-      <c r="AJ8" s="250"/>
-      <c r="AK8" s="248">
+      <c r="AI8" s="238"/>
+      <c r="AJ8" s="240"/>
+      <c r="AK8" s="237">
         <v>11</v>
       </c>
-      <c r="AL8" s="249"/>
-      <c r="AM8" s="250"/>
-      <c r="AN8" s="251">
+      <c r="AL8" s="238"/>
+      <c r="AM8" s="240"/>
+      <c r="AN8" s="235">
         <v>12</v>
       </c>
-      <c r="AO8" s="252"/>
-      <c r="AP8" s="253"/>
-      <c r="AQ8" s="267">
+      <c r="AO8" s="233"/>
+      <c r="AP8" s="236"/>
+      <c r="AQ8" s="232">
         <v>13</v>
       </c>
-      <c r="AR8" s="252"/>
-      <c r="AS8" s="268"/>
-      <c r="AT8" s="251">
+      <c r="AR8" s="233"/>
+      <c r="AS8" s="234"/>
+      <c r="AT8" s="235">
         <v>14</v>
       </c>
-      <c r="AU8" s="252"/>
-      <c r="AV8" s="268"/>
-      <c r="AW8" s="267">
+      <c r="AU8" s="233"/>
+      <c r="AV8" s="234"/>
+      <c r="AW8" s="232">
         <v>15</v>
       </c>
-      <c r="AX8" s="252"/>
-      <c r="AY8" s="268"/>
-      <c r="AZ8" s="267">
+      <c r="AX8" s="233"/>
+      <c r="AY8" s="234"/>
+      <c r="AZ8" s="232">
         <v>16</v>
       </c>
-      <c r="BA8" s="252"/>
-      <c r="BB8" s="268"/>
-      <c r="BC8" s="248">
+      <c r="BA8" s="233"/>
+      <c r="BB8" s="234"/>
+      <c r="BC8" s="237">
         <v>17</v>
       </c>
-      <c r="BD8" s="249"/>
-      <c r="BE8" s="269"/>
-      <c r="BF8" s="248">
+      <c r="BD8" s="238"/>
+      <c r="BE8" s="239"/>
+      <c r="BF8" s="237">
         <v>18</v>
       </c>
-      <c r="BG8" s="249"/>
-      <c r="BH8" s="250"/>
-      <c r="BI8" s="251">
+      <c r="BG8" s="238"/>
+      <c r="BH8" s="240"/>
+      <c r="BI8" s="235">
         <v>19</v>
       </c>
-      <c r="BJ8" s="252"/>
-      <c r="BK8" s="253"/>
-      <c r="BL8" s="267">
+      <c r="BJ8" s="233"/>
+      <c r="BK8" s="236"/>
+      <c r="BL8" s="232">
         <v>20</v>
       </c>
-      <c r="BM8" s="252"/>
-      <c r="BN8" s="268"/>
-      <c r="BO8" s="267">
+      <c r="BM8" s="233"/>
+      <c r="BN8" s="234"/>
+      <c r="BO8" s="232">
         <v>21</v>
       </c>
-      <c r="BP8" s="252"/>
-      <c r="BQ8" s="268"/>
-      <c r="BR8" s="267">
+      <c r="BP8" s="233"/>
+      <c r="BQ8" s="234"/>
+      <c r="BR8" s="232">
         <v>22</v>
       </c>
-      <c r="BS8" s="252"/>
-      <c r="BT8" s="268"/>
-      <c r="BU8" s="251">
+      <c r="BS8" s="233"/>
+      <c r="BT8" s="234"/>
+      <c r="BU8" s="235">
         <v>23</v>
       </c>
-      <c r="BV8" s="252"/>
-      <c r="BW8" s="253"/>
-      <c r="BX8" s="248">
+      <c r="BV8" s="233"/>
+      <c r="BW8" s="236"/>
+      <c r="BX8" s="237">
         <v>24</v>
       </c>
-      <c r="BY8" s="249"/>
-      <c r="BZ8" s="250"/>
-      <c r="CA8" s="279">
+      <c r="BY8" s="238"/>
+      <c r="BZ8" s="240"/>
+      <c r="CA8" s="251">
         <v>25</v>
       </c>
-      <c r="CB8" s="249"/>
-      <c r="CC8" s="269"/>
-      <c r="CD8" s="267">
+      <c r="CB8" s="238"/>
+      <c r="CC8" s="239"/>
+      <c r="CD8" s="232">
         <v>26</v>
       </c>
-      <c r="CE8" s="252"/>
-      <c r="CF8" s="268"/>
-      <c r="CG8" s="251">
+      <c r="CE8" s="233"/>
+      <c r="CF8" s="234"/>
+      <c r="CG8" s="235">
         <v>27</v>
       </c>
-      <c r="CH8" s="252"/>
-      <c r="CI8" s="253"/>
-      <c r="CJ8" s="267">
+      <c r="CH8" s="233"/>
+      <c r="CI8" s="236"/>
+      <c r="CJ8" s="232">
         <v>28</v>
       </c>
-      <c r="CK8" s="252"/>
-      <c r="CL8" s="268"/>
-      <c r="CM8" s="267">
+      <c r="CK8" s="233"/>
+      <c r="CL8" s="234"/>
+      <c r="CM8" s="232">
         <v>29</v>
       </c>
-      <c r="CN8" s="252"/>
-      <c r="CO8" s="268"/>
-      <c r="CP8" s="267">
+      <c r="CN8" s="233"/>
+      <c r="CO8" s="234"/>
+      <c r="CP8" s="232">
         <v>30</v>
       </c>
-      <c r="CQ8" s="252"/>
-      <c r="CR8" s="268"/>
-      <c r="CS8" s="276">
+      <c r="CQ8" s="233"/>
+      <c r="CR8" s="234"/>
+      <c r="CS8" s="248">
         <v>31</v>
       </c>
-      <c r="CT8" s="277"/>
-      <c r="CU8" s="278"/>
+      <c r="CT8" s="249"/>
+      <c r="CU8" s="250"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -4157,8 +4003,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="272"/>
-      <c r="DI8" s="275"/>
+      <c r="DH8" s="244"/>
+      <c r="DI8" s="247"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9927,45 +9773,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="283"/>
-      <c r="H33" s="283"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="283"/>
-      <c r="K33" s="283"/>
-      <c r="L33" s="283"/>
-      <c r="M33" s="283"/>
-      <c r="N33" s="283"/>
-      <c r="O33" s="283"/>
-      <c r="P33" s="283"/>
-      <c r="Q33" s="283"/>
-      <c r="R33" s="283"/>
-      <c r="S33" s="283"/>
-      <c r="T33" s="283"/>
-      <c r="U33" s="283"/>
-      <c r="V33" s="283"/>
-      <c r="W33" s="283"/>
-      <c r="X33" s="283"/>
-      <c r="Y33" s="283"/>
-      <c r="Z33" s="283"/>
-      <c r="AA33" s="283"/>
-      <c r="AB33" s="283"/>
-      <c r="AC33" s="283"/>
-      <c r="AD33" s="283"/>
-      <c r="AE33" s="283"/>
-      <c r="AF33" s="283"/>
-      <c r="AG33" s="283"/>
-      <c r="AH33" s="283"/>
-      <c r="AI33" s="283"/>
-      <c r="AJ33" s="283"/>
-      <c r="AK33" s="283"/>
-      <c r="AL33" s="283"/>
-      <c r="AM33" s="283"/>
-      <c r="AN33" s="283"/>
-      <c r="AO33" s="283"/>
-      <c r="AP33" s="283"/>
-      <c r="AQ33" s="283"/>
-      <c r="AR33" s="283"/>
-      <c r="AS33" s="283"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="231"/>
+      <c r="M33" s="231"/>
+      <c r="N33" s="231"/>
+      <c r="O33" s="231"/>
+      <c r="P33" s="231"/>
+      <c r="Q33" s="231"/>
+      <c r="R33" s="231"/>
+      <c r="S33" s="231"/>
+      <c r="T33" s="231"/>
+      <c r="U33" s="231"/>
+      <c r="V33" s="231"/>
+      <c r="W33" s="231"/>
+      <c r="X33" s="231"/>
+      <c r="Y33" s="231"/>
+      <c r="Z33" s="231"/>
+      <c r="AA33" s="231"/>
+      <c r="AB33" s="231"/>
+      <c r="AC33" s="231"/>
+      <c r="AD33" s="231"/>
+      <c r="AE33" s="231"/>
+      <c r="AF33" s="231"/>
+      <c r="AG33" s="231"/>
+      <c r="AH33" s="231"/>
+      <c r="AI33" s="231"/>
+      <c r="AJ33" s="231"/>
+      <c r="AK33" s="231"/>
+      <c r="AL33" s="231"/>
+      <c r="AM33" s="231"/>
+      <c r="AN33" s="231"/>
+      <c r="AO33" s="231"/>
+      <c r="AP33" s="231"/>
+      <c r="AQ33" s="231"/>
+      <c r="AR33" s="231"/>
+      <c r="AS33" s="231"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -10270,45 +10116,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="283"/>
-      <c r="H37" s="283"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="283"/>
-      <c r="K37" s="283"/>
-      <c r="L37" s="283"/>
-      <c r="M37" s="283"/>
-      <c r="N37" s="283"/>
-      <c r="O37" s="283"/>
-      <c r="P37" s="283"/>
-      <c r="Q37" s="283"/>
-      <c r="R37" s="283"/>
-      <c r="S37" s="283"/>
-      <c r="T37" s="283"/>
-      <c r="U37" s="283"/>
-      <c r="V37" s="283"/>
-      <c r="W37" s="283"/>
-      <c r="X37" s="283"/>
-      <c r="Y37" s="283"/>
-      <c r="Z37" s="283"/>
-      <c r="AA37" s="283"/>
-      <c r="AB37" s="283"/>
-      <c r="AC37" s="283"/>
-      <c r="AD37" s="283"/>
-      <c r="AE37" s="283"/>
-      <c r="AF37" s="283"/>
-      <c r="AG37" s="283"/>
-      <c r="AH37" s="283"/>
-      <c r="AI37" s="283"/>
-      <c r="AJ37" s="283"/>
-      <c r="AK37" s="283"/>
-      <c r="AL37" s="283"/>
-      <c r="AM37" s="283"/>
-      <c r="AN37" s="283"/>
-      <c r="AO37" s="283"/>
-      <c r="AP37" s="283"/>
-      <c r="AQ37" s="283"/>
-      <c r="AR37" s="283"/>
-      <c r="AS37" s="283"/>
+      <c r="G37" s="231"/>
+      <c r="H37" s="231"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="231"/>
+      <c r="K37" s="231"/>
+      <c r="L37" s="231"/>
+      <c r="M37" s="231"/>
+      <c r="N37" s="231"/>
+      <c r="O37" s="231"/>
+      <c r="P37" s="231"/>
+      <c r="Q37" s="231"/>
+      <c r="R37" s="231"/>
+      <c r="S37" s="231"/>
+      <c r="T37" s="231"/>
+      <c r="U37" s="231"/>
+      <c r="V37" s="231"/>
+      <c r="W37" s="231"/>
+      <c r="X37" s="231"/>
+      <c r="Y37" s="231"/>
+      <c r="Z37" s="231"/>
+      <c r="AA37" s="231"/>
+      <c r="AB37" s="231"/>
+      <c r="AC37" s="231"/>
+      <c r="AD37" s="231"/>
+      <c r="AE37" s="231"/>
+      <c r="AF37" s="231"/>
+      <c r="AG37" s="231"/>
+      <c r="AH37" s="231"/>
+      <c r="AI37" s="231"/>
+      <c r="AJ37" s="231"/>
+      <c r="AK37" s="231"/>
+      <c r="AL37" s="231"/>
+      <c r="AM37" s="231"/>
+      <c r="AN37" s="231"/>
+      <c r="AO37" s="231"/>
+      <c r="AP37" s="231"/>
+      <c r="AQ37" s="231"/>
+      <c r="AR37" s="231"/>
+      <c r="AS37" s="231"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -11809,19 +11655,27 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DJ6:DO7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DH6:DH8"/>
     <mergeCell ref="DI6:DI8"/>
     <mergeCell ref="BU8:BW8"/>
@@ -11838,27 +11692,19 @@
     <mergeCell ref="AW8:AY8"/>
     <mergeCell ref="BF8:BH8"/>
     <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DJ6:DO7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -11883,7 +11729,7 @@
   <dimension ref="A1:EF87"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BM22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BM16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -12054,21 +11900,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="238" t="s">
+      <c r="CU1" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="238"/>
-      <c r="CW1" s="238"/>
-      <c r="CX1" s="238"/>
-      <c r="CY1" s="238"/>
-      <c r="CZ1" s="238"/>
-      <c r="DA1" s="238"/>
-      <c r="DB1" s="238"/>
-      <c r="DC1" s="238"/>
-      <c r="DD1" s="238"/>
-      <c r="DE1" s="238"/>
-      <c r="DF1" s="238"/>
-      <c r="DG1" s="238"/>
+      <c r="CV1" s="262"/>
+      <c r="CW1" s="262"/>
+      <c r="CX1" s="262"/>
+      <c r="CY1" s="262"/>
+      <c r="CZ1" s="262"/>
+      <c r="DA1" s="262"/>
+      <c r="DB1" s="262"/>
+      <c r="DC1" s="262"/>
+      <c r="DD1" s="262"/>
+      <c r="DE1" s="262"/>
+      <c r="DF1" s="262"/>
+      <c r="DG1" s="262"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -12169,241 +12015,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="239" t="s">
+      <c r="CU2" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="239"/>
-      <c r="CW2" s="239"/>
-      <c r="CX2" s="239"/>
-      <c r="CY2" s="239"/>
-      <c r="CZ2" s="239"/>
-      <c r="DA2" s="239"/>
-      <c r="DB2" s="239"/>
-      <c r="DC2" s="239"/>
-      <c r="DD2" s="239"/>
-      <c r="DE2" s="239"/>
-      <c r="DF2" s="239"/>
-      <c r="DG2" s="239"/>
+      <c r="CV2" s="263"/>
+      <c r="CW2" s="263"/>
+      <c r="CX2" s="263"/>
+      <c r="CY2" s="263"/>
+      <c r="CZ2" s="263"/>
+      <c r="DA2" s="263"/>
+      <c r="DB2" s="263"/>
+      <c r="DC2" s="263"/>
+      <c r="DD2" s="263"/>
+      <c r="DE2" s="263"/>
+      <c r="DF2" s="263"/>
+      <c r="DG2" s="263"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240"/>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240"/>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
-      <c r="AX3" s="240"/>
-      <c r="AY3" s="240"/>
-      <c r="AZ3" s="240"/>
-      <c r="BA3" s="240"/>
-      <c r="BB3" s="240"/>
-      <c r="BC3" s="240"/>
-      <c r="BD3" s="240"/>
-      <c r="BE3" s="240"/>
-      <c r="BF3" s="240"/>
-      <c r="BG3" s="240"/>
-      <c r="BH3" s="240"/>
-      <c r="BI3" s="240"/>
-      <c r="BJ3" s="240"/>
-      <c r="BK3" s="240"/>
-      <c r="BL3" s="240"/>
-      <c r="BM3" s="240"/>
-      <c r="BN3" s="240"/>
-      <c r="BO3" s="240"/>
-      <c r="BP3" s="240"/>
-      <c r="BQ3" s="240"/>
-      <c r="BR3" s="240"/>
-      <c r="BS3" s="240"/>
-      <c r="BT3" s="240"/>
-      <c r="BU3" s="240"/>
-      <c r="BV3" s="240"/>
-      <c r="BW3" s="240"/>
-      <c r="BX3" s="240"/>
-      <c r="BY3" s="240"/>
-      <c r="BZ3" s="240"/>
-      <c r="CA3" s="240"/>
-      <c r="CB3" s="240"/>
-      <c r="CC3" s="240"/>
-      <c r="CD3" s="240"/>
-      <c r="CE3" s="240"/>
-      <c r="CF3" s="240"/>
-      <c r="CG3" s="240"/>
-      <c r="CH3" s="240"/>
-      <c r="CI3" s="240"/>
-      <c r="CJ3" s="240"/>
-      <c r="CK3" s="240"/>
-      <c r="CL3" s="240"/>
-      <c r="CM3" s="240"/>
-      <c r="CN3" s="240"/>
-      <c r="CO3" s="240"/>
-      <c r="CP3" s="240"/>
-      <c r="CQ3" s="240"/>
-      <c r="CR3" s="240"/>
-      <c r="CS3" s="240"/>
-      <c r="CT3" s="240"/>
-      <c r="CU3" s="240"/>
-      <c r="CV3" s="241" t="s">
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="264"/>
+      <c r="AJ3" s="264"/>
+      <c r="AK3" s="264"/>
+      <c r="AL3" s="264"/>
+      <c r="AM3" s="264"/>
+      <c r="AN3" s="264"/>
+      <c r="AO3" s="264"/>
+      <c r="AP3" s="264"/>
+      <c r="AQ3" s="264"/>
+      <c r="AR3" s="264"/>
+      <c r="AS3" s="264"/>
+      <c r="AT3" s="264"/>
+      <c r="AU3" s="264"/>
+      <c r="AV3" s="264"/>
+      <c r="AW3" s="264"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="264"/>
+      <c r="AZ3" s="264"/>
+      <c r="BA3" s="264"/>
+      <c r="BB3" s="264"/>
+      <c r="BC3" s="264"/>
+      <c r="BD3" s="264"/>
+      <c r="BE3" s="264"/>
+      <c r="BF3" s="264"/>
+      <c r="BG3" s="264"/>
+      <c r="BH3" s="264"/>
+      <c r="BI3" s="264"/>
+      <c r="BJ3" s="264"/>
+      <c r="BK3" s="264"/>
+      <c r="BL3" s="264"/>
+      <c r="BM3" s="264"/>
+      <c r="BN3" s="264"/>
+      <c r="BO3" s="264"/>
+      <c r="BP3" s="264"/>
+      <c r="BQ3" s="264"/>
+      <c r="BR3" s="264"/>
+      <c r="BS3" s="264"/>
+      <c r="BT3" s="264"/>
+      <c r="BU3" s="264"/>
+      <c r="BV3" s="264"/>
+      <c r="BW3" s="264"/>
+      <c r="BX3" s="264"/>
+      <c r="BY3" s="264"/>
+      <c r="BZ3" s="264"/>
+      <c r="CA3" s="264"/>
+      <c r="CB3" s="264"/>
+      <c r="CC3" s="264"/>
+      <c r="CD3" s="264"/>
+      <c r="CE3" s="264"/>
+      <c r="CF3" s="264"/>
+      <c r="CG3" s="264"/>
+      <c r="CH3" s="264"/>
+      <c r="CI3" s="264"/>
+      <c r="CJ3" s="264"/>
+      <c r="CK3" s="264"/>
+      <c r="CL3" s="264"/>
+      <c r="CM3" s="264"/>
+      <c r="CN3" s="264"/>
+      <c r="CO3" s="264"/>
+      <c r="CP3" s="264"/>
+      <c r="CQ3" s="264"/>
+      <c r="CR3" s="264"/>
+      <c r="CS3" s="264"/>
+      <c r="CT3" s="264"/>
+      <c r="CU3" s="264"/>
+      <c r="CV3" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="241"/>
-      <c r="CX3" s="241"/>
-      <c r="CY3" s="241"/>
-      <c r="CZ3" s="241"/>
-      <c r="DA3" s="241"/>
-      <c r="DB3" s="241"/>
-      <c r="DC3" s="241"/>
-      <c r="DD3" s="241"/>
-      <c r="DE3" s="241"/>
-      <c r="DF3" s="241"/>
-      <c r="DG3" s="241"/>
+      <c r="CW3" s="265"/>
+      <c r="CX3" s="265"/>
+      <c r="CY3" s="265"/>
+      <c r="CZ3" s="265"/>
+      <c r="DA3" s="265"/>
+      <c r="DB3" s="265"/>
+      <c r="DC3" s="265"/>
+      <c r="DD3" s="265"/>
+      <c r="DE3" s="265"/>
+      <c r="DF3" s="265"/>
+      <c r="DG3" s="265"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="254"/>
-      <c r="Z4" s="254"/>
-      <c r="AA4" s="254"/>
-      <c r="AB4" s="254"/>
-      <c r="AC4" s="254"/>
-      <c r="AD4" s="254"/>
-      <c r="AE4" s="254"/>
-      <c r="AF4" s="254"/>
-      <c r="AG4" s="254"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="254"/>
-      <c r="AK4" s="254"/>
-      <c r="AL4" s="254"/>
-      <c r="AM4" s="254"/>
-      <c r="AN4" s="254"/>
-      <c r="AO4" s="254"/>
-      <c r="AP4" s="254"/>
-      <c r="AQ4" s="254"/>
-      <c r="AR4" s="254"/>
-      <c r="AS4" s="254"/>
-      <c r="AT4" s="254"/>
-      <c r="AU4" s="254"/>
-      <c r="AV4" s="254"/>
-      <c r="AW4" s="254"/>
-      <c r="AX4" s="254"/>
-      <c r="AY4" s="254"/>
-      <c r="AZ4" s="254"/>
-      <c r="BA4" s="254"/>
-      <c r="BB4" s="254"/>
-      <c r="BC4" s="254"/>
-      <c r="BD4" s="254"/>
-      <c r="BE4" s="254"/>
-      <c r="BF4" s="254"/>
-      <c r="BG4" s="254"/>
-      <c r="BH4" s="254"/>
-      <c r="BI4" s="254"/>
-      <c r="BJ4" s="254"/>
-      <c r="BK4" s="254"/>
-      <c r="BL4" s="254"/>
-      <c r="BM4" s="254"/>
-      <c r="BN4" s="254"/>
-      <c r="BO4" s="254"/>
-      <c r="BP4" s="254"/>
-      <c r="BQ4" s="254"/>
-      <c r="BR4" s="254"/>
-      <c r="BS4" s="254"/>
-      <c r="BT4" s="254"/>
-      <c r="BU4" s="254"/>
-      <c r="BV4" s="254"/>
-      <c r="BW4" s="254"/>
-      <c r="BX4" s="254"/>
-      <c r="BY4" s="254"/>
-      <c r="BZ4" s="254"/>
-      <c r="CA4" s="254"/>
-      <c r="CB4" s="254"/>
-      <c r="CC4" s="254"/>
-      <c r="CD4" s="254"/>
-      <c r="CE4" s="254"/>
-      <c r="CF4" s="254"/>
-      <c r="CG4" s="254"/>
-      <c r="CH4" s="254"/>
-      <c r="CI4" s="254"/>
-      <c r="CJ4" s="254"/>
-      <c r="CK4" s="254"/>
-      <c r="CL4" s="254"/>
-      <c r="CM4" s="254"/>
-      <c r="CN4" s="254"/>
-      <c r="CO4" s="254"/>
-      <c r="CP4" s="254"/>
-      <c r="CQ4" s="254"/>
-      <c r="CR4" s="254"/>
-      <c r="CS4" s="254"/>
-      <c r="CT4" s="254"/>
-      <c r="CU4" s="254"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="272"/>
+      <c r="AJ4" s="272"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="272"/>
+      <c r="AP4" s="272"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="272"/>
+      <c r="AV4" s="272"/>
+      <c r="AW4" s="272"/>
+      <c r="AX4" s="272"/>
+      <c r="AY4" s="272"/>
+      <c r="AZ4" s="272"/>
+      <c r="BA4" s="272"/>
+      <c r="BB4" s="272"/>
+      <c r="BC4" s="272"/>
+      <c r="BD4" s="272"/>
+      <c r="BE4" s="272"/>
+      <c r="BF4" s="272"/>
+      <c r="BG4" s="272"/>
+      <c r="BH4" s="272"/>
+      <c r="BI4" s="272"/>
+      <c r="BJ4" s="272"/>
+      <c r="BK4" s="272"/>
+      <c r="BL4" s="272"/>
+      <c r="BM4" s="272"/>
+      <c r="BN4" s="272"/>
+      <c r="BO4" s="272"/>
+      <c r="BP4" s="272"/>
+      <c r="BQ4" s="272"/>
+      <c r="BR4" s="272"/>
+      <c r="BS4" s="272"/>
+      <c r="BT4" s="272"/>
+      <c r="BU4" s="272"/>
+      <c r="BV4" s="272"/>
+      <c r="BW4" s="272"/>
+      <c r="BX4" s="272"/>
+      <c r="BY4" s="272"/>
+      <c r="BZ4" s="272"/>
+      <c r="CA4" s="272"/>
+      <c r="CB4" s="272"/>
+      <c r="CC4" s="272"/>
+      <c r="CD4" s="272"/>
+      <c r="CE4" s="272"/>
+      <c r="CF4" s="272"/>
+      <c r="CG4" s="272"/>
+      <c r="CH4" s="272"/>
+      <c r="CI4" s="272"/>
+      <c r="CJ4" s="272"/>
+      <c r="CK4" s="272"/>
+      <c r="CL4" s="272"/>
+      <c r="CM4" s="272"/>
+      <c r="CN4" s="272"/>
+      <c r="CO4" s="272"/>
+      <c r="CP4" s="272"/>
+      <c r="CQ4" s="272"/>
+      <c r="CR4" s="272"/>
+      <c r="CS4" s="272"/>
+      <c r="CT4" s="272"/>
+      <c r="CU4" s="272"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -12533,288 +12379,288 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="258" t="s">
+      <c r="A6" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="235" t="s">
+      <c r="D6" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="280" t="s">
+      <c r="G6" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="280"/>
-      <c r="AF6" s="280"/>
-      <c r="AG6" s="280"/>
-      <c r="AH6" s="280"/>
-      <c r="AI6" s="280"/>
-      <c r="AJ6" s="280"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="280"/>
-      <c r="AM6" s="280"/>
-      <c r="AN6" s="280"/>
-      <c r="AO6" s="280"/>
-      <c r="AP6" s="280"/>
-      <c r="AQ6" s="280"/>
-      <c r="AR6" s="280"/>
-      <c r="AS6" s="280"/>
-      <c r="AT6" s="280"/>
-      <c r="AU6" s="280"/>
-      <c r="AV6" s="280"/>
-      <c r="AW6" s="280"/>
-      <c r="AX6" s="280"/>
-      <c r="AY6" s="280"/>
-      <c r="AZ6" s="280"/>
-      <c r="BA6" s="280"/>
-      <c r="BB6" s="280"/>
-      <c r="BC6" s="280"/>
-      <c r="BD6" s="280"/>
-      <c r="BE6" s="280"/>
-      <c r="BF6" s="280"/>
-      <c r="BG6" s="280"/>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="280"/>
-      <c r="BM6" s="280"/>
-      <c r="BN6" s="280"/>
-      <c r="BO6" s="280"/>
-      <c r="BP6" s="280"/>
-      <c r="BQ6" s="280"/>
-      <c r="BR6" s="280"/>
-      <c r="BS6" s="280"/>
-      <c r="BT6" s="280"/>
-      <c r="BU6" s="280"/>
-      <c r="BV6" s="280"/>
-      <c r="BW6" s="280"/>
-      <c r="BX6" s="280"/>
-      <c r="BY6" s="280"/>
-      <c r="BZ6" s="280"/>
-      <c r="CA6" s="280"/>
-      <c r="CB6" s="280"/>
-      <c r="CC6" s="280"/>
-      <c r="CD6" s="280"/>
-      <c r="CE6" s="280"/>
-      <c r="CF6" s="280"/>
-      <c r="CG6" s="280"/>
-      <c r="CH6" s="280"/>
-      <c r="CI6" s="280"/>
-      <c r="CJ6" s="280"/>
-      <c r="CK6" s="280"/>
-      <c r="CL6" s="280"/>
-      <c r="CM6" s="280"/>
-      <c r="CN6" s="280"/>
-      <c r="CO6" s="280"/>
-      <c r="CP6" s="280"/>
-      <c r="CQ6" s="280"/>
-      <c r="CR6" s="280"/>
-      <c r="CS6" s="280"/>
-      <c r="CT6" s="280"/>
-      <c r="CU6" s="280"/>
-      <c r="CV6" s="242" t="s">
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="252"/>
+      <c r="X6" s="252"/>
+      <c r="Y6" s="252"/>
+      <c r="Z6" s="252"/>
+      <c r="AA6" s="252"/>
+      <c r="AB6" s="252"/>
+      <c r="AC6" s="252"/>
+      <c r="AD6" s="252"/>
+      <c r="AE6" s="252"/>
+      <c r="AF6" s="252"/>
+      <c r="AG6" s="252"/>
+      <c r="AH6" s="252"/>
+      <c r="AI6" s="252"/>
+      <c r="AJ6" s="252"/>
+      <c r="AK6" s="252"/>
+      <c r="AL6" s="252"/>
+      <c r="AM6" s="252"/>
+      <c r="AN6" s="252"/>
+      <c r="AO6" s="252"/>
+      <c r="AP6" s="252"/>
+      <c r="AQ6" s="252"/>
+      <c r="AR6" s="252"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="252"/>
+      <c r="AU6" s="252"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
+      <c r="AX6" s="252"/>
+      <c r="AY6" s="252"/>
+      <c r="AZ6" s="252"/>
+      <c r="BA6" s="252"/>
+      <c r="BB6" s="252"/>
+      <c r="BC6" s="252"/>
+      <c r="BD6" s="252"/>
+      <c r="BE6" s="252"/>
+      <c r="BF6" s="252"/>
+      <c r="BG6" s="252"/>
+      <c r="BH6" s="252"/>
+      <c r="BI6" s="252"/>
+      <c r="BJ6" s="252"/>
+      <c r="BK6" s="252"/>
+      <c r="BL6" s="252"/>
+      <c r="BM6" s="252"/>
+      <c r="BN6" s="252"/>
+      <c r="BO6" s="252"/>
+      <c r="BP6" s="252"/>
+      <c r="BQ6" s="252"/>
+      <c r="BR6" s="252"/>
+      <c r="BS6" s="252"/>
+      <c r="BT6" s="252"/>
+      <c r="BU6" s="252"/>
+      <c r="BV6" s="252"/>
+      <c r="BW6" s="252"/>
+      <c r="BX6" s="252"/>
+      <c r="BY6" s="252"/>
+      <c r="BZ6" s="252"/>
+      <c r="CA6" s="252"/>
+      <c r="CB6" s="252"/>
+      <c r="CC6" s="252"/>
+      <c r="CD6" s="252"/>
+      <c r="CE6" s="252"/>
+      <c r="CF6" s="252"/>
+      <c r="CG6" s="252"/>
+      <c r="CH6" s="252"/>
+      <c r="CI6" s="252"/>
+      <c r="CJ6" s="252"/>
+      <c r="CK6" s="252"/>
+      <c r="CL6" s="252"/>
+      <c r="CM6" s="252"/>
+      <c r="CN6" s="252"/>
+      <c r="CO6" s="252"/>
+      <c r="CP6" s="252"/>
+      <c r="CQ6" s="252"/>
+      <c r="CR6" s="252"/>
+      <c r="CS6" s="252"/>
+      <c r="CT6" s="252"/>
+      <c r="CU6" s="252"/>
+      <c r="CV6" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="243"/>
-      <c r="CX6" s="242" t="s">
+      <c r="CW6" s="267"/>
+      <c r="CX6" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="246"/>
-      <c r="CZ6" s="246"/>
-      <c r="DA6" s="246"/>
-      <c r="DB6" s="246"/>
-      <c r="DC6" s="246"/>
-      <c r="DD6" s="246"/>
-      <c r="DE6" s="246"/>
-      <c r="DF6" s="246"/>
-      <c r="DG6" s="246"/>
-      <c r="DH6" s="270" t="s">
+      <c r="CY6" s="270"/>
+      <c r="CZ6" s="270"/>
+      <c r="DA6" s="270"/>
+      <c r="DB6" s="270"/>
+      <c r="DC6" s="270"/>
+      <c r="DD6" s="270"/>
+      <c r="DE6" s="270"/>
+      <c r="DF6" s="270"/>
+      <c r="DG6" s="270"/>
+      <c r="DH6" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="273" t="s">
+      <c r="DI6" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="231" t="s">
+      <c r="DJ6" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="231"/>
-      <c r="DL6" s="231"/>
-      <c r="DM6" s="231"/>
-      <c r="DN6" s="231"/>
-      <c r="DO6" s="232"/>
+      <c r="DK6" s="255"/>
+      <c r="DL6" s="255"/>
+      <c r="DM6" s="255"/>
+      <c r="DN6" s="255"/>
+      <c r="DO6" s="256"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="281"/>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-      <c r="AM7" s="281"/>
-      <c r="AN7" s="281"/>
-      <c r="AO7" s="281"/>
-      <c r="AP7" s="281"/>
-      <c r="AQ7" s="281"/>
-      <c r="AR7" s="281"/>
-      <c r="AS7" s="281"/>
-      <c r="AT7" s="281"/>
-      <c r="AU7" s="281"/>
-      <c r="AV7" s="281"/>
-      <c r="AW7" s="281"/>
-      <c r="AX7" s="281"/>
-      <c r="AY7" s="281"/>
-      <c r="AZ7" s="281"/>
-      <c r="BA7" s="281"/>
-      <c r="BB7" s="281"/>
-      <c r="BC7" s="281"/>
-      <c r="BD7" s="281"/>
-      <c r="BE7" s="281"/>
-      <c r="BF7" s="281"/>
-      <c r="BG7" s="281"/>
-      <c r="BH7" s="281"/>
-      <c r="BI7" s="281"/>
-      <c r="BJ7" s="281"/>
-      <c r="BK7" s="281"/>
-      <c r="BL7" s="281"/>
-      <c r="BM7" s="281"/>
-      <c r="BN7" s="281"/>
-      <c r="BO7" s="282"/>
-      <c r="BP7" s="282"/>
-      <c r="BQ7" s="282"/>
-      <c r="BR7" s="281"/>
-      <c r="BS7" s="281"/>
-      <c r="BT7" s="281"/>
-      <c r="BU7" s="281"/>
-      <c r="BV7" s="281"/>
-      <c r="BW7" s="281"/>
-      <c r="BX7" s="281"/>
-      <c r="BY7" s="281"/>
-      <c r="BZ7" s="281"/>
-      <c r="CA7" s="281"/>
-      <c r="CB7" s="281"/>
-      <c r="CC7" s="281"/>
-      <c r="CD7" s="281"/>
-      <c r="CE7" s="281"/>
-      <c r="CF7" s="281"/>
-      <c r="CG7" s="281"/>
-      <c r="CH7" s="281"/>
-      <c r="CI7" s="281"/>
-      <c r="CJ7" s="281"/>
-      <c r="CK7" s="281"/>
-      <c r="CL7" s="281"/>
-      <c r="CM7" s="281"/>
-      <c r="CN7" s="281"/>
-      <c r="CO7" s="281"/>
-      <c r="CP7" s="281"/>
-      <c r="CQ7" s="281"/>
-      <c r="CR7" s="281"/>
-      <c r="CS7" s="281"/>
-      <c r="CT7" s="281"/>
-      <c r="CU7" s="281"/>
-      <c r="CV7" s="244"/>
-      <c r="CW7" s="245"/>
-      <c r="CX7" s="244"/>
-      <c r="CY7" s="247"/>
-      <c r="CZ7" s="247"/>
-      <c r="DA7" s="247"/>
-      <c r="DB7" s="247"/>
-      <c r="DC7" s="247"/>
-      <c r="DD7" s="247"/>
-      <c r="DE7" s="247"/>
-      <c r="DF7" s="247"/>
-      <c r="DG7" s="247"/>
-      <c r="DH7" s="271"/>
-      <c r="DI7" s="274"/>
-      <c r="DJ7" s="233"/>
-      <c r="DK7" s="233"/>
-      <c r="DL7" s="233"/>
-      <c r="DM7" s="233"/>
-      <c r="DN7" s="233"/>
-      <c r="DO7" s="234"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="253"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="253"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="253"/>
+      <c r="AP7" s="253"/>
+      <c r="AQ7" s="253"/>
+      <c r="AR7" s="253"/>
+      <c r="AS7" s="253"/>
+      <c r="AT7" s="253"/>
+      <c r="AU7" s="253"/>
+      <c r="AV7" s="253"/>
+      <c r="AW7" s="253"/>
+      <c r="AX7" s="253"/>
+      <c r="AY7" s="253"/>
+      <c r="AZ7" s="253"/>
+      <c r="BA7" s="253"/>
+      <c r="BB7" s="253"/>
+      <c r="BC7" s="253"/>
+      <c r="BD7" s="253"/>
+      <c r="BE7" s="253"/>
+      <c r="BF7" s="253"/>
+      <c r="BG7" s="253"/>
+      <c r="BH7" s="253"/>
+      <c r="BI7" s="253"/>
+      <c r="BJ7" s="253"/>
+      <c r="BK7" s="253"/>
+      <c r="BL7" s="253"/>
+      <c r="BM7" s="253"/>
+      <c r="BN7" s="253"/>
+      <c r="BO7" s="254"/>
+      <c r="BP7" s="254"/>
+      <c r="BQ7" s="254"/>
+      <c r="BR7" s="253"/>
+      <c r="BS7" s="253"/>
+      <c r="BT7" s="253"/>
+      <c r="BU7" s="253"/>
+      <c r="BV7" s="253"/>
+      <c r="BW7" s="253"/>
+      <c r="BX7" s="253"/>
+      <c r="BY7" s="253"/>
+      <c r="BZ7" s="253"/>
+      <c r="CA7" s="253"/>
+      <c r="CB7" s="253"/>
+      <c r="CC7" s="253"/>
+      <c r="CD7" s="253"/>
+      <c r="CE7" s="253"/>
+      <c r="CF7" s="253"/>
+      <c r="CG7" s="253"/>
+      <c r="CH7" s="253"/>
+      <c r="CI7" s="253"/>
+      <c r="CJ7" s="253"/>
+      <c r="CK7" s="253"/>
+      <c r="CL7" s="253"/>
+      <c r="CM7" s="253"/>
+      <c r="CN7" s="253"/>
+      <c r="CO7" s="253"/>
+      <c r="CP7" s="253"/>
+      <c r="CQ7" s="253"/>
+      <c r="CR7" s="253"/>
+      <c r="CS7" s="253"/>
+      <c r="CT7" s="253"/>
+      <c r="CU7" s="253"/>
+      <c r="CV7" s="268"/>
+      <c r="CW7" s="269"/>
+      <c r="CX7" s="268"/>
+      <c r="CY7" s="271"/>
+      <c r="CZ7" s="271"/>
+      <c r="DA7" s="271"/>
+      <c r="DB7" s="271"/>
+      <c r="DC7" s="271"/>
+      <c r="DD7" s="271"/>
+      <c r="DE7" s="271"/>
+      <c r="DF7" s="271"/>
+      <c r="DG7" s="271"/>
+      <c r="DH7" s="243"/>
+      <c r="DI7" s="246"/>
+      <c r="DJ7" s="257"/>
+      <c r="DK7" s="257"/>
+      <c r="DL7" s="257"/>
+      <c r="DM7" s="257"/>
+      <c r="DN7" s="257"/>
+      <c r="DO7" s="258"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="257"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="266"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="281"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="284"/>
       <c r="G8" s="290">
         <v>1</v>
       </c>
-      <c r="H8" s="249"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="267">
+      <c r="H8" s="238"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="232">
         <v>2</v>
       </c>
-      <c r="K8" s="252"/>
-      <c r="L8" s="268"/>
+      <c r="K8" s="233"/>
+      <c r="L8" s="234"/>
       <c r="M8" s="285">
         <v>3</v>
       </c>
@@ -12835,16 +12681,16 @@
       </c>
       <c r="W8" s="286"/>
       <c r="X8" s="287"/>
-      <c r="Y8" s="248">
+      <c r="Y8" s="237">
         <v>7</v>
       </c>
-      <c r="Z8" s="249"/>
-      <c r="AA8" s="250"/>
-      <c r="AB8" s="248">
+      <c r="Z8" s="238"/>
+      <c r="AA8" s="240"/>
+      <c r="AB8" s="237">
         <v>8</v>
       </c>
-      <c r="AC8" s="249"/>
-      <c r="AD8" s="250"/>
+      <c r="AC8" s="238"/>
+      <c r="AD8" s="240"/>
       <c r="AE8" s="285">
         <v>9</v>
       </c>
@@ -12870,16 +12716,16 @@
       </c>
       <c r="AR8" s="286"/>
       <c r="AS8" s="287"/>
-      <c r="AT8" s="279">
+      <c r="AT8" s="251">
         <v>14</v>
       </c>
-      <c r="AU8" s="249"/>
-      <c r="AV8" s="250"/>
-      <c r="AW8" s="248">
+      <c r="AU8" s="238"/>
+      <c r="AV8" s="240"/>
+      <c r="AW8" s="237">
         <v>15</v>
       </c>
-      <c r="AX8" s="249"/>
-      <c r="AY8" s="250"/>
+      <c r="AX8" s="238"/>
+      <c r="AY8" s="240"/>
       <c r="AZ8" s="285">
         <v>16</v>
       </c>
@@ -12905,16 +12751,16 @@
       </c>
       <c r="BM8" s="286"/>
       <c r="BN8" s="287"/>
-      <c r="BO8" s="248">
+      <c r="BO8" s="237">
         <v>21</v>
       </c>
-      <c r="BP8" s="249"/>
-      <c r="BQ8" s="250"/>
-      <c r="BR8" s="248">
+      <c r="BP8" s="238"/>
+      <c r="BQ8" s="240"/>
+      <c r="BR8" s="237">
         <v>22</v>
       </c>
-      <c r="BS8" s="249"/>
-      <c r="BT8" s="250"/>
+      <c r="BS8" s="238"/>
+      <c r="BT8" s="240"/>
       <c r="BU8" s="288">
         <v>23</v>
       </c>
@@ -12940,16 +12786,16 @@
       </c>
       <c r="CH8" s="286"/>
       <c r="CI8" s="289"/>
-      <c r="CJ8" s="248">
+      <c r="CJ8" s="237">
         <v>28</v>
       </c>
-      <c r="CK8" s="249"/>
-      <c r="CL8" s="250"/>
-      <c r="CM8" s="248">
+      <c r="CK8" s="238"/>
+      <c r="CL8" s="240"/>
+      <c r="CM8" s="237">
         <v>29</v>
       </c>
-      <c r="CN8" s="249"/>
-      <c r="CO8" s="250"/>
+      <c r="CN8" s="238"/>
+      <c r="CO8" s="240"/>
       <c r="CP8" s="285">
         <v>30</v>
       </c>
@@ -12994,8 +12840,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="272"/>
-      <c r="DI8" s="275"/>
+      <c r="DH8" s="244"/>
+      <c r="DI8" s="247"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -18320,45 +18166,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="283"/>
-      <c r="H31" s="283"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="283"/>
-      <c r="K31" s="283"/>
-      <c r="L31" s="283"/>
-      <c r="M31" s="283"/>
-      <c r="N31" s="283"/>
-      <c r="O31" s="283"/>
-      <c r="P31" s="283"/>
-      <c r="Q31" s="283"/>
-      <c r="R31" s="283"/>
-      <c r="S31" s="283"/>
-      <c r="T31" s="283"/>
-      <c r="U31" s="283"/>
-      <c r="V31" s="283"/>
-      <c r="W31" s="283"/>
-      <c r="X31" s="283"/>
-      <c r="Y31" s="283"/>
-      <c r="Z31" s="283"/>
-      <c r="AA31" s="283"/>
-      <c r="AB31" s="283"/>
-      <c r="AC31" s="283"/>
-      <c r="AD31" s="283"/>
-      <c r="AE31" s="283"/>
-      <c r="AF31" s="283"/>
-      <c r="AG31" s="283"/>
-      <c r="AH31" s="283"/>
-      <c r="AI31" s="283"/>
-      <c r="AJ31" s="283"/>
-      <c r="AK31" s="283"/>
-      <c r="AL31" s="283"/>
-      <c r="AM31" s="283"/>
-      <c r="AN31" s="283"/>
-      <c r="AO31" s="283"/>
-      <c r="AP31" s="283"/>
-      <c r="AQ31" s="283"/>
-      <c r="AR31" s="283"/>
-      <c r="AS31" s="283"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="231"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="231"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231"/>
+      <c r="W31" s="231"/>
+      <c r="X31" s="231"/>
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231"/>
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231"/>
+      <c r="AC31" s="231"/>
+      <c r="AD31" s="231"/>
+      <c r="AE31" s="231"/>
+      <c r="AF31" s="231"/>
+      <c r="AG31" s="231"/>
+      <c r="AH31" s="231"/>
+      <c r="AI31" s="231"/>
+      <c r="AJ31" s="231"/>
+      <c r="AK31" s="231"/>
+      <c r="AL31" s="231"/>
+      <c r="AM31" s="231"/>
+      <c r="AN31" s="231"/>
+      <c r="AO31" s="231"/>
+      <c r="AP31" s="231"/>
+      <c r="AQ31" s="231"/>
+      <c r="AR31" s="231"/>
+      <c r="AS31" s="231"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -18663,45 +18509,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="283"/>
-      <c r="H35" s="283"/>
-      <c r="I35" s="283"/>
-      <c r="J35" s="283"/>
-      <c r="K35" s="283"/>
-      <c r="L35" s="283"/>
-      <c r="M35" s="283"/>
-      <c r="N35" s="283"/>
-      <c r="O35" s="283"/>
-      <c r="P35" s="283"/>
-      <c r="Q35" s="283"/>
-      <c r="R35" s="283"/>
-      <c r="S35" s="283"/>
-      <c r="T35" s="283"/>
-      <c r="U35" s="283"/>
-      <c r="V35" s="283"/>
-      <c r="W35" s="283"/>
-      <c r="X35" s="283"/>
-      <c r="Y35" s="283"/>
-      <c r="Z35" s="283"/>
-      <c r="AA35" s="283"/>
-      <c r="AB35" s="283"/>
-      <c r="AC35" s="283"/>
-      <c r="AD35" s="283"/>
-      <c r="AE35" s="283"/>
-      <c r="AF35" s="283"/>
-      <c r="AG35" s="283"/>
-      <c r="AH35" s="283"/>
-      <c r="AI35" s="283"/>
-      <c r="AJ35" s="283"/>
-      <c r="AK35" s="283"/>
-      <c r="AL35" s="283"/>
-      <c r="AM35" s="283"/>
-      <c r="AN35" s="283"/>
-      <c r="AO35" s="283"/>
-      <c r="AP35" s="283"/>
-      <c r="AQ35" s="283"/>
-      <c r="AR35" s="283"/>
-      <c r="AS35" s="283"/>
+      <c r="G35" s="231"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="231"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="231"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="231"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="231"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="231"/>
+      <c r="T35" s="231"/>
+      <c r="U35" s="231"/>
+      <c r="V35" s="231"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="231"/>
+      <c r="Y35" s="231"/>
+      <c r="Z35" s="231"/>
+      <c r="AA35" s="231"/>
+      <c r="AB35" s="231"/>
+      <c r="AC35" s="231"/>
+      <c r="AD35" s="231"/>
+      <c r="AE35" s="231"/>
+      <c r="AF35" s="231"/>
+      <c r="AG35" s="231"/>
+      <c r="AH35" s="231"/>
+      <c r="AI35" s="231"/>
+      <c r="AJ35" s="231"/>
+      <c r="AK35" s="231"/>
+      <c r="AL35" s="231"/>
+      <c r="AM35" s="231"/>
+      <c r="AN35" s="231"/>
+      <c r="AO35" s="231"/>
+      <c r="AP35" s="231"/>
+      <c r="AQ35" s="231"/>
+      <c r="AR35" s="231"/>
+      <c r="AS35" s="231"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -20859,29 +20705,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -20898,23 +20732,35 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="104" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="81" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20940,11 +20786,11 @@
   <dimension ref="A1:EF87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
+      <selection pane="bottomRight" activeCell="AY22" sqref="AY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21111,21 +20957,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="238" t="s">
+      <c r="CU1" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="238"/>
-      <c r="CW1" s="238"/>
-      <c r="CX1" s="238"/>
-      <c r="CY1" s="238"/>
-      <c r="CZ1" s="238"/>
-      <c r="DA1" s="238"/>
-      <c r="DB1" s="238"/>
-      <c r="DC1" s="238"/>
-      <c r="DD1" s="238"/>
-      <c r="DE1" s="238"/>
-      <c r="DF1" s="238"/>
-      <c r="DG1" s="238"/>
+      <c r="CV1" s="262"/>
+      <c r="CW1" s="262"/>
+      <c r="CX1" s="262"/>
+      <c r="CY1" s="262"/>
+      <c r="CZ1" s="262"/>
+      <c r="DA1" s="262"/>
+      <c r="DB1" s="262"/>
+      <c r="DC1" s="262"/>
+      <c r="DD1" s="262"/>
+      <c r="DE1" s="262"/>
+      <c r="DF1" s="262"/>
+      <c r="DG1" s="262"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -21226,241 +21072,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="239" t="s">
+      <c r="CU2" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="239"/>
-      <c r="CW2" s="239"/>
-      <c r="CX2" s="239"/>
-      <c r="CY2" s="239"/>
-      <c r="CZ2" s="239"/>
-      <c r="DA2" s="239"/>
-      <c r="DB2" s="239"/>
-      <c r="DC2" s="239"/>
-      <c r="DD2" s="239"/>
-      <c r="DE2" s="239"/>
-      <c r="DF2" s="239"/>
-      <c r="DG2" s="239"/>
+      <c r="CV2" s="263"/>
+      <c r="CW2" s="263"/>
+      <c r="CX2" s="263"/>
+      <c r="CY2" s="263"/>
+      <c r="CZ2" s="263"/>
+      <c r="DA2" s="263"/>
+      <c r="DB2" s="263"/>
+      <c r="DC2" s="263"/>
+      <c r="DD2" s="263"/>
+      <c r="DE2" s="263"/>
+      <c r="DF2" s="263"/>
+      <c r="DG2" s="263"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240"/>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240"/>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
-      <c r="AX3" s="240"/>
-      <c r="AY3" s="240"/>
-      <c r="AZ3" s="240"/>
-      <c r="BA3" s="240"/>
-      <c r="BB3" s="240"/>
-      <c r="BC3" s="240"/>
-      <c r="BD3" s="240"/>
-      <c r="BE3" s="240"/>
-      <c r="BF3" s="240"/>
-      <c r="BG3" s="240"/>
-      <c r="BH3" s="240"/>
-      <c r="BI3" s="240"/>
-      <c r="BJ3" s="240"/>
-      <c r="BK3" s="240"/>
-      <c r="BL3" s="240"/>
-      <c r="BM3" s="240"/>
-      <c r="BN3" s="240"/>
-      <c r="BO3" s="240"/>
-      <c r="BP3" s="240"/>
-      <c r="BQ3" s="240"/>
-      <c r="BR3" s="240"/>
-      <c r="BS3" s="240"/>
-      <c r="BT3" s="240"/>
-      <c r="BU3" s="240"/>
-      <c r="BV3" s="240"/>
-      <c r="BW3" s="240"/>
-      <c r="BX3" s="240"/>
-      <c r="BY3" s="240"/>
-      <c r="BZ3" s="240"/>
-      <c r="CA3" s="240"/>
-      <c r="CB3" s="240"/>
-      <c r="CC3" s="240"/>
-      <c r="CD3" s="240"/>
-      <c r="CE3" s="240"/>
-      <c r="CF3" s="240"/>
-      <c r="CG3" s="240"/>
-      <c r="CH3" s="240"/>
-      <c r="CI3" s="240"/>
-      <c r="CJ3" s="240"/>
-      <c r="CK3" s="240"/>
-      <c r="CL3" s="240"/>
-      <c r="CM3" s="240"/>
-      <c r="CN3" s="240"/>
-      <c r="CO3" s="240"/>
-      <c r="CP3" s="240"/>
-      <c r="CQ3" s="240"/>
-      <c r="CR3" s="240"/>
-      <c r="CS3" s="240"/>
-      <c r="CT3" s="240"/>
-      <c r="CU3" s="240"/>
-      <c r="CV3" s="241" t="s">
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="264"/>
+      <c r="AJ3" s="264"/>
+      <c r="AK3" s="264"/>
+      <c r="AL3" s="264"/>
+      <c r="AM3" s="264"/>
+      <c r="AN3" s="264"/>
+      <c r="AO3" s="264"/>
+      <c r="AP3" s="264"/>
+      <c r="AQ3" s="264"/>
+      <c r="AR3" s="264"/>
+      <c r="AS3" s="264"/>
+      <c r="AT3" s="264"/>
+      <c r="AU3" s="264"/>
+      <c r="AV3" s="264"/>
+      <c r="AW3" s="264"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="264"/>
+      <c r="AZ3" s="264"/>
+      <c r="BA3" s="264"/>
+      <c r="BB3" s="264"/>
+      <c r="BC3" s="264"/>
+      <c r="BD3" s="264"/>
+      <c r="BE3" s="264"/>
+      <c r="BF3" s="264"/>
+      <c r="BG3" s="264"/>
+      <c r="BH3" s="264"/>
+      <c r="BI3" s="264"/>
+      <c r="BJ3" s="264"/>
+      <c r="BK3" s="264"/>
+      <c r="BL3" s="264"/>
+      <c r="BM3" s="264"/>
+      <c r="BN3" s="264"/>
+      <c r="BO3" s="264"/>
+      <c r="BP3" s="264"/>
+      <c r="BQ3" s="264"/>
+      <c r="BR3" s="264"/>
+      <c r="BS3" s="264"/>
+      <c r="BT3" s="264"/>
+      <c r="BU3" s="264"/>
+      <c r="BV3" s="264"/>
+      <c r="BW3" s="264"/>
+      <c r="BX3" s="264"/>
+      <c r="BY3" s="264"/>
+      <c r="BZ3" s="264"/>
+      <c r="CA3" s="264"/>
+      <c r="CB3" s="264"/>
+      <c r="CC3" s="264"/>
+      <c r="CD3" s="264"/>
+      <c r="CE3" s="264"/>
+      <c r="CF3" s="264"/>
+      <c r="CG3" s="264"/>
+      <c r="CH3" s="264"/>
+      <c r="CI3" s="264"/>
+      <c r="CJ3" s="264"/>
+      <c r="CK3" s="264"/>
+      <c r="CL3" s="264"/>
+      <c r="CM3" s="264"/>
+      <c r="CN3" s="264"/>
+      <c r="CO3" s="264"/>
+      <c r="CP3" s="264"/>
+      <c r="CQ3" s="264"/>
+      <c r="CR3" s="264"/>
+      <c r="CS3" s="264"/>
+      <c r="CT3" s="264"/>
+      <c r="CU3" s="264"/>
+      <c r="CV3" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="241"/>
-      <c r="CX3" s="241"/>
-      <c r="CY3" s="241"/>
-      <c r="CZ3" s="241"/>
-      <c r="DA3" s="241"/>
-      <c r="DB3" s="241"/>
-      <c r="DC3" s="241"/>
-      <c r="DD3" s="241"/>
-      <c r="DE3" s="241"/>
-      <c r="DF3" s="241"/>
-      <c r="DG3" s="241"/>
+      <c r="CW3" s="265"/>
+      <c r="CX3" s="265"/>
+      <c r="CY3" s="265"/>
+      <c r="CZ3" s="265"/>
+      <c r="DA3" s="265"/>
+      <c r="DB3" s="265"/>
+      <c r="DC3" s="265"/>
+      <c r="DD3" s="265"/>
+      <c r="DE3" s="265"/>
+      <c r="DF3" s="265"/>
+      <c r="DG3" s="265"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="254"/>
-      <c r="Z4" s="254"/>
-      <c r="AA4" s="254"/>
-      <c r="AB4" s="254"/>
-      <c r="AC4" s="254"/>
-      <c r="AD4" s="254"/>
-      <c r="AE4" s="254"/>
-      <c r="AF4" s="254"/>
-      <c r="AG4" s="254"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="254"/>
-      <c r="AK4" s="254"/>
-      <c r="AL4" s="254"/>
-      <c r="AM4" s="254"/>
-      <c r="AN4" s="254"/>
-      <c r="AO4" s="254"/>
-      <c r="AP4" s="254"/>
-      <c r="AQ4" s="254"/>
-      <c r="AR4" s="254"/>
-      <c r="AS4" s="254"/>
-      <c r="AT4" s="254"/>
-      <c r="AU4" s="254"/>
-      <c r="AV4" s="254"/>
-      <c r="AW4" s="254"/>
-      <c r="AX4" s="254"/>
-      <c r="AY4" s="254"/>
-      <c r="AZ4" s="254"/>
-      <c r="BA4" s="254"/>
-      <c r="BB4" s="254"/>
-      <c r="BC4" s="254"/>
-      <c r="BD4" s="254"/>
-      <c r="BE4" s="254"/>
-      <c r="BF4" s="254"/>
-      <c r="BG4" s="254"/>
-      <c r="BH4" s="254"/>
-      <c r="BI4" s="254"/>
-      <c r="BJ4" s="254"/>
-      <c r="BK4" s="254"/>
-      <c r="BL4" s="254"/>
-      <c r="BM4" s="254"/>
-      <c r="BN4" s="254"/>
-      <c r="BO4" s="254"/>
-      <c r="BP4" s="254"/>
-      <c r="BQ4" s="254"/>
-      <c r="BR4" s="254"/>
-      <c r="BS4" s="254"/>
-      <c r="BT4" s="254"/>
-      <c r="BU4" s="254"/>
-      <c r="BV4" s="254"/>
-      <c r="BW4" s="254"/>
-      <c r="BX4" s="254"/>
-      <c r="BY4" s="254"/>
-      <c r="BZ4" s="254"/>
-      <c r="CA4" s="254"/>
-      <c r="CB4" s="254"/>
-      <c r="CC4" s="254"/>
-      <c r="CD4" s="254"/>
-      <c r="CE4" s="254"/>
-      <c r="CF4" s="254"/>
-      <c r="CG4" s="254"/>
-      <c r="CH4" s="254"/>
-      <c r="CI4" s="254"/>
-      <c r="CJ4" s="254"/>
-      <c r="CK4" s="254"/>
-      <c r="CL4" s="254"/>
-      <c r="CM4" s="254"/>
-      <c r="CN4" s="254"/>
-      <c r="CO4" s="254"/>
-      <c r="CP4" s="254"/>
-      <c r="CQ4" s="254"/>
-      <c r="CR4" s="254"/>
-      <c r="CS4" s="254"/>
-      <c r="CT4" s="254"/>
-      <c r="CU4" s="254"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="272"/>
+      <c r="AJ4" s="272"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="272"/>
+      <c r="AP4" s="272"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="272"/>
+      <c r="AV4" s="272"/>
+      <c r="AW4" s="272"/>
+      <c r="AX4" s="272"/>
+      <c r="AY4" s="272"/>
+      <c r="AZ4" s="272"/>
+      <c r="BA4" s="272"/>
+      <c r="BB4" s="272"/>
+      <c r="BC4" s="272"/>
+      <c r="BD4" s="272"/>
+      <c r="BE4" s="272"/>
+      <c r="BF4" s="272"/>
+      <c r="BG4" s="272"/>
+      <c r="BH4" s="272"/>
+      <c r="BI4" s="272"/>
+      <c r="BJ4" s="272"/>
+      <c r="BK4" s="272"/>
+      <c r="BL4" s="272"/>
+      <c r="BM4" s="272"/>
+      <c r="BN4" s="272"/>
+      <c r="BO4" s="272"/>
+      <c r="BP4" s="272"/>
+      <c r="BQ4" s="272"/>
+      <c r="BR4" s="272"/>
+      <c r="BS4" s="272"/>
+      <c r="BT4" s="272"/>
+      <c r="BU4" s="272"/>
+      <c r="BV4" s="272"/>
+      <c r="BW4" s="272"/>
+      <c r="BX4" s="272"/>
+      <c r="BY4" s="272"/>
+      <c r="BZ4" s="272"/>
+      <c r="CA4" s="272"/>
+      <c r="CB4" s="272"/>
+      <c r="CC4" s="272"/>
+      <c r="CD4" s="272"/>
+      <c r="CE4" s="272"/>
+      <c r="CF4" s="272"/>
+      <c r="CG4" s="272"/>
+      <c r="CH4" s="272"/>
+      <c r="CI4" s="272"/>
+      <c r="CJ4" s="272"/>
+      <c r="CK4" s="272"/>
+      <c r="CL4" s="272"/>
+      <c r="CM4" s="272"/>
+      <c r="CN4" s="272"/>
+      <c r="CO4" s="272"/>
+      <c r="CP4" s="272"/>
+      <c r="CQ4" s="272"/>
+      <c r="CR4" s="272"/>
+      <c r="CS4" s="272"/>
+      <c r="CT4" s="272"/>
+      <c r="CU4" s="272"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -21590,278 +21436,278 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="258" t="s">
+      <c r="A6" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="235" t="s">
+      <c r="D6" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="280" t="s">
+      <c r="G6" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="280"/>
-      <c r="AF6" s="280"/>
-      <c r="AG6" s="280"/>
-      <c r="AH6" s="280"/>
-      <c r="AI6" s="280"/>
-      <c r="AJ6" s="280"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="280"/>
-      <c r="AM6" s="280"/>
-      <c r="AN6" s="280"/>
-      <c r="AO6" s="280"/>
-      <c r="AP6" s="280"/>
-      <c r="AQ6" s="280"/>
-      <c r="AR6" s="280"/>
-      <c r="AS6" s="280"/>
-      <c r="AT6" s="280"/>
-      <c r="AU6" s="280"/>
-      <c r="AV6" s="280"/>
-      <c r="AW6" s="280"/>
-      <c r="AX6" s="280"/>
-      <c r="AY6" s="280"/>
-      <c r="AZ6" s="280"/>
-      <c r="BA6" s="280"/>
-      <c r="BB6" s="280"/>
-      <c r="BC6" s="280"/>
-      <c r="BD6" s="280"/>
-      <c r="BE6" s="280"/>
-      <c r="BF6" s="280"/>
-      <c r="BG6" s="280"/>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="280"/>
-      <c r="BM6" s="280"/>
-      <c r="BN6" s="280"/>
-      <c r="BO6" s="280"/>
-      <c r="BP6" s="280"/>
-      <c r="BQ6" s="280"/>
-      <c r="BR6" s="280"/>
-      <c r="BS6" s="280"/>
-      <c r="BT6" s="280"/>
-      <c r="BU6" s="280"/>
-      <c r="BV6" s="280"/>
-      <c r="BW6" s="280"/>
-      <c r="BX6" s="280"/>
-      <c r="BY6" s="280"/>
-      <c r="BZ6" s="280"/>
-      <c r="CA6" s="280"/>
-      <c r="CB6" s="280"/>
-      <c r="CC6" s="280"/>
-      <c r="CD6" s="280"/>
-      <c r="CE6" s="280"/>
-      <c r="CF6" s="280"/>
-      <c r="CG6" s="280"/>
-      <c r="CH6" s="280"/>
-      <c r="CI6" s="280"/>
-      <c r="CJ6" s="280"/>
-      <c r="CK6" s="280"/>
-      <c r="CL6" s="280"/>
-      <c r="CM6" s="280"/>
-      <c r="CN6" s="280"/>
-      <c r="CO6" s="280"/>
-      <c r="CP6" s="280"/>
-      <c r="CQ6" s="280"/>
-      <c r="CR6" s="280"/>
-      <c r="CS6" s="280"/>
-      <c r="CT6" s="280"/>
-      <c r="CU6" s="280"/>
-      <c r="CV6" s="242" t="s">
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="252"/>
+      <c r="X6" s="252"/>
+      <c r="Y6" s="252"/>
+      <c r="Z6" s="252"/>
+      <c r="AA6" s="252"/>
+      <c r="AB6" s="252"/>
+      <c r="AC6" s="252"/>
+      <c r="AD6" s="252"/>
+      <c r="AE6" s="252"/>
+      <c r="AF6" s="252"/>
+      <c r="AG6" s="252"/>
+      <c r="AH6" s="252"/>
+      <c r="AI6" s="252"/>
+      <c r="AJ6" s="252"/>
+      <c r="AK6" s="252"/>
+      <c r="AL6" s="252"/>
+      <c r="AM6" s="252"/>
+      <c r="AN6" s="252"/>
+      <c r="AO6" s="252"/>
+      <c r="AP6" s="252"/>
+      <c r="AQ6" s="252"/>
+      <c r="AR6" s="252"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="252"/>
+      <c r="AU6" s="252"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
+      <c r="AX6" s="252"/>
+      <c r="AY6" s="252"/>
+      <c r="AZ6" s="252"/>
+      <c r="BA6" s="252"/>
+      <c r="BB6" s="252"/>
+      <c r="BC6" s="252"/>
+      <c r="BD6" s="252"/>
+      <c r="BE6" s="252"/>
+      <c r="BF6" s="252"/>
+      <c r="BG6" s="252"/>
+      <c r="BH6" s="252"/>
+      <c r="BI6" s="252"/>
+      <c r="BJ6" s="252"/>
+      <c r="BK6" s="252"/>
+      <c r="BL6" s="252"/>
+      <c r="BM6" s="252"/>
+      <c r="BN6" s="252"/>
+      <c r="BO6" s="252"/>
+      <c r="BP6" s="252"/>
+      <c r="BQ6" s="252"/>
+      <c r="BR6" s="252"/>
+      <c r="BS6" s="252"/>
+      <c r="BT6" s="252"/>
+      <c r="BU6" s="252"/>
+      <c r="BV6" s="252"/>
+      <c r="BW6" s="252"/>
+      <c r="BX6" s="252"/>
+      <c r="BY6" s="252"/>
+      <c r="BZ6" s="252"/>
+      <c r="CA6" s="252"/>
+      <c r="CB6" s="252"/>
+      <c r="CC6" s="252"/>
+      <c r="CD6" s="252"/>
+      <c r="CE6" s="252"/>
+      <c r="CF6" s="252"/>
+      <c r="CG6" s="252"/>
+      <c r="CH6" s="252"/>
+      <c r="CI6" s="252"/>
+      <c r="CJ6" s="252"/>
+      <c r="CK6" s="252"/>
+      <c r="CL6" s="252"/>
+      <c r="CM6" s="252"/>
+      <c r="CN6" s="252"/>
+      <c r="CO6" s="252"/>
+      <c r="CP6" s="252"/>
+      <c r="CQ6" s="252"/>
+      <c r="CR6" s="252"/>
+      <c r="CS6" s="252"/>
+      <c r="CT6" s="252"/>
+      <c r="CU6" s="252"/>
+      <c r="CV6" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="243"/>
-      <c r="CX6" s="242" t="s">
+      <c r="CW6" s="267"/>
+      <c r="CX6" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="246"/>
-      <c r="CZ6" s="246"/>
-      <c r="DA6" s="246"/>
-      <c r="DB6" s="246"/>
-      <c r="DC6" s="246"/>
-      <c r="DD6" s="246"/>
-      <c r="DE6" s="246"/>
-      <c r="DF6" s="246"/>
-      <c r="DG6" s="246"/>
-      <c r="DH6" s="270" t="s">
+      <c r="CY6" s="270"/>
+      <c r="CZ6" s="270"/>
+      <c r="DA6" s="270"/>
+      <c r="DB6" s="270"/>
+      <c r="DC6" s="270"/>
+      <c r="DD6" s="270"/>
+      <c r="DE6" s="270"/>
+      <c r="DF6" s="270"/>
+      <c r="DG6" s="270"/>
+      <c r="DH6" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="273" t="s">
+      <c r="DI6" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="231" t="s">
+      <c r="DJ6" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="231"/>
-      <c r="DL6" s="231"/>
-      <c r="DM6" s="231"/>
-      <c r="DN6" s="231"/>
-      <c r="DO6" s="232"/>
+      <c r="DK6" s="255"/>
+      <c r="DL6" s="255"/>
+      <c r="DM6" s="255"/>
+      <c r="DN6" s="255"/>
+      <c r="DO6" s="256"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="281"/>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-      <c r="AM7" s="281"/>
-      <c r="AN7" s="281"/>
-      <c r="AO7" s="281"/>
-      <c r="AP7" s="281"/>
-      <c r="AQ7" s="281"/>
-      <c r="AR7" s="281"/>
-      <c r="AS7" s="281"/>
-      <c r="AT7" s="281"/>
-      <c r="AU7" s="281"/>
-      <c r="AV7" s="281"/>
-      <c r="AW7" s="281"/>
-      <c r="AX7" s="281"/>
-      <c r="AY7" s="281"/>
-      <c r="AZ7" s="281"/>
-      <c r="BA7" s="281"/>
-      <c r="BB7" s="281"/>
-      <c r="BC7" s="281"/>
-      <c r="BD7" s="281"/>
-      <c r="BE7" s="281"/>
-      <c r="BF7" s="281"/>
-      <c r="BG7" s="281"/>
-      <c r="BH7" s="281"/>
-      <c r="BI7" s="281"/>
-      <c r="BJ7" s="281"/>
-      <c r="BK7" s="281"/>
-      <c r="BL7" s="281"/>
-      <c r="BM7" s="281"/>
-      <c r="BN7" s="281"/>
-      <c r="BO7" s="282"/>
-      <c r="BP7" s="282"/>
-      <c r="BQ7" s="282"/>
-      <c r="BR7" s="281"/>
-      <c r="BS7" s="281"/>
-      <c r="BT7" s="281"/>
-      <c r="BU7" s="281"/>
-      <c r="BV7" s="281"/>
-      <c r="BW7" s="281"/>
-      <c r="BX7" s="281"/>
-      <c r="BY7" s="281"/>
-      <c r="BZ7" s="281"/>
-      <c r="CA7" s="281"/>
-      <c r="CB7" s="281"/>
-      <c r="CC7" s="281"/>
-      <c r="CD7" s="281"/>
-      <c r="CE7" s="281"/>
-      <c r="CF7" s="281"/>
-      <c r="CG7" s="281"/>
-      <c r="CH7" s="281"/>
-      <c r="CI7" s="281"/>
-      <c r="CJ7" s="281"/>
-      <c r="CK7" s="281"/>
-      <c r="CL7" s="281"/>
-      <c r="CM7" s="281"/>
-      <c r="CN7" s="281"/>
-      <c r="CO7" s="281"/>
-      <c r="CP7" s="281"/>
-      <c r="CQ7" s="281"/>
-      <c r="CR7" s="281"/>
-      <c r="CS7" s="281"/>
-      <c r="CT7" s="281"/>
-      <c r="CU7" s="281"/>
-      <c r="CV7" s="244"/>
-      <c r="CW7" s="245"/>
-      <c r="CX7" s="244"/>
-      <c r="CY7" s="247"/>
-      <c r="CZ7" s="247"/>
-      <c r="DA7" s="247"/>
-      <c r="DB7" s="247"/>
-      <c r="DC7" s="247"/>
-      <c r="DD7" s="247"/>
-      <c r="DE7" s="247"/>
-      <c r="DF7" s="247"/>
-      <c r="DG7" s="247"/>
-      <c r="DH7" s="271"/>
-      <c r="DI7" s="274"/>
-      <c r="DJ7" s="233"/>
-      <c r="DK7" s="233"/>
-      <c r="DL7" s="233"/>
-      <c r="DM7" s="233"/>
-      <c r="DN7" s="233"/>
-      <c r="DO7" s="234"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="253"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="253"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="253"/>
+      <c r="AP7" s="253"/>
+      <c r="AQ7" s="253"/>
+      <c r="AR7" s="253"/>
+      <c r="AS7" s="253"/>
+      <c r="AT7" s="253"/>
+      <c r="AU7" s="253"/>
+      <c r="AV7" s="253"/>
+      <c r="AW7" s="253"/>
+      <c r="AX7" s="253"/>
+      <c r="AY7" s="253"/>
+      <c r="AZ7" s="253"/>
+      <c r="BA7" s="253"/>
+      <c r="BB7" s="253"/>
+      <c r="BC7" s="253"/>
+      <c r="BD7" s="253"/>
+      <c r="BE7" s="253"/>
+      <c r="BF7" s="253"/>
+      <c r="BG7" s="253"/>
+      <c r="BH7" s="253"/>
+      <c r="BI7" s="253"/>
+      <c r="BJ7" s="253"/>
+      <c r="BK7" s="253"/>
+      <c r="BL7" s="253"/>
+      <c r="BM7" s="253"/>
+      <c r="BN7" s="253"/>
+      <c r="BO7" s="254"/>
+      <c r="BP7" s="254"/>
+      <c r="BQ7" s="254"/>
+      <c r="BR7" s="253"/>
+      <c r="BS7" s="253"/>
+      <c r="BT7" s="253"/>
+      <c r="BU7" s="253"/>
+      <c r="BV7" s="253"/>
+      <c r="BW7" s="253"/>
+      <c r="BX7" s="253"/>
+      <c r="BY7" s="253"/>
+      <c r="BZ7" s="253"/>
+      <c r="CA7" s="253"/>
+      <c r="CB7" s="253"/>
+      <c r="CC7" s="253"/>
+      <c r="CD7" s="253"/>
+      <c r="CE7" s="253"/>
+      <c r="CF7" s="253"/>
+      <c r="CG7" s="253"/>
+      <c r="CH7" s="253"/>
+      <c r="CI7" s="253"/>
+      <c r="CJ7" s="253"/>
+      <c r="CK7" s="253"/>
+      <c r="CL7" s="253"/>
+      <c r="CM7" s="253"/>
+      <c r="CN7" s="253"/>
+      <c r="CO7" s="253"/>
+      <c r="CP7" s="253"/>
+      <c r="CQ7" s="253"/>
+      <c r="CR7" s="253"/>
+      <c r="CS7" s="253"/>
+      <c r="CT7" s="253"/>
+      <c r="CU7" s="253"/>
+      <c r="CV7" s="268"/>
+      <c r="CW7" s="269"/>
+      <c r="CX7" s="268"/>
+      <c r="CY7" s="271"/>
+      <c r="CZ7" s="271"/>
+      <c r="DA7" s="271"/>
+      <c r="DB7" s="271"/>
+      <c r="DC7" s="271"/>
+      <c r="DD7" s="271"/>
+      <c r="DE7" s="271"/>
+      <c r="DF7" s="271"/>
+      <c r="DG7" s="271"/>
+      <c r="DH7" s="243"/>
+      <c r="DI7" s="246"/>
+      <c r="DJ7" s="257"/>
+      <c r="DK7" s="257"/>
+      <c r="DL7" s="257"/>
+      <c r="DM7" s="257"/>
+      <c r="DN7" s="257"/>
+      <c r="DO7" s="258"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="257"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="266"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="281"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="284"/>
       <c r="G8" s="294">
         <v>1</v>
       </c>
@@ -21882,16 +21728,16 @@
       </c>
       <c r="Q8" s="286"/>
       <c r="R8" s="287"/>
-      <c r="S8" s="248">
+      <c r="S8" s="237">
         <v>5</v>
       </c>
-      <c r="T8" s="249"/>
-      <c r="U8" s="269"/>
-      <c r="V8" s="248">
+      <c r="T8" s="238"/>
+      <c r="U8" s="239"/>
+      <c r="V8" s="237">
         <v>6</v>
       </c>
-      <c r="W8" s="249"/>
-      <c r="X8" s="250"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="240"/>
       <c r="Y8" s="285">
         <v>7</v>
       </c>
@@ -21917,16 +21763,16 @@
       </c>
       <c r="AL8" s="286"/>
       <c r="AM8" s="287"/>
-      <c r="AN8" s="279">
+      <c r="AN8" s="251">
         <v>12</v>
       </c>
-      <c r="AO8" s="249"/>
-      <c r="AP8" s="269"/>
-      <c r="AQ8" s="248">
+      <c r="AO8" s="238"/>
+      <c r="AP8" s="239"/>
+      <c r="AQ8" s="237">
         <v>13</v>
       </c>
-      <c r="AR8" s="249"/>
-      <c r="AS8" s="250"/>
+      <c r="AR8" s="238"/>
+      <c r="AS8" s="240"/>
       <c r="AT8" s="288">
         <v>14</v>
       </c>
@@ -21952,16 +21798,16 @@
       </c>
       <c r="BG8" s="286"/>
       <c r="BH8" s="287"/>
-      <c r="BI8" s="279">
+      <c r="BI8" s="251">
         <v>19</v>
       </c>
-      <c r="BJ8" s="249"/>
-      <c r="BK8" s="269"/>
-      <c r="BL8" s="248">
+      <c r="BJ8" s="238"/>
+      <c r="BK8" s="239"/>
+      <c r="BL8" s="237">
         <v>20</v>
       </c>
-      <c r="BM8" s="249"/>
-      <c r="BN8" s="250"/>
+      <c r="BM8" s="238"/>
+      <c r="BN8" s="240"/>
       <c r="BO8" s="285">
         <v>21</v>
       </c>
@@ -21987,16 +21833,16 @@
       </c>
       <c r="CB8" s="286"/>
       <c r="CC8" s="289"/>
-      <c r="CD8" s="248">
+      <c r="CD8" s="237">
         <v>26</v>
       </c>
-      <c r="CE8" s="249"/>
-      <c r="CF8" s="250"/>
-      <c r="CG8" s="279">
+      <c r="CE8" s="238"/>
+      <c r="CF8" s="240"/>
+      <c r="CG8" s="251">
         <v>27</v>
       </c>
-      <c r="CH8" s="249"/>
-      <c r="CI8" s="269"/>
+      <c r="CH8" s="238"/>
+      <c r="CI8" s="239"/>
       <c r="CJ8" s="285">
         <v>28</v>
       </c>
@@ -22053,8 +21899,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="272"/>
-      <c r="DI8" s="275"/>
+      <c r="DH8" s="244"/>
+      <c r="DI8" s="247"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -25805,77 +25651,79 @@
         <v>56</v>
       </c>
       <c r="G22" s="187"/>
-      <c r="H22" s="182">
-        <v>11.25</v>
+      <c r="H22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="I22" s="183"/>
       <c r="J22" s="187"/>
-      <c r="K22" s="182" t="s">
-        <v>79</v>
+      <c r="K22" s="182">
+        <v>11.25</v>
       </c>
       <c r="L22" s="183"/>
       <c r="M22" s="187"/>
-      <c r="N22" s="182" t="s">
-        <v>79</v>
+      <c r="N22" s="182">
+        <v>11.25</v>
       </c>
       <c r="O22" s="183"/>
       <c r="P22" s="187"/>
-      <c r="Q22" s="182">
-        <v>11.25</v>
+      <c r="Q22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="R22" s="183"/>
       <c r="S22" s="187"/>
-      <c r="T22" s="182">
-        <v>11.25</v>
+      <c r="T22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="U22" s="183"/>
       <c r="V22" s="187"/>
-      <c r="W22" s="182" t="s">
-        <v>79</v>
+      <c r="W22" s="182">
+        <v>11.25</v>
       </c>
       <c r="X22" s="183"/>
       <c r="Y22" s="187"/>
-      <c r="Z22" s="182" t="s">
-        <v>79</v>
+      <c r="Z22" s="182">
+        <v>11.25</v>
       </c>
       <c r="AA22" s="183"/>
       <c r="AB22" s="187"/>
-      <c r="AC22" s="182">
-        <v>11.25</v>
+      <c r="AC22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="AD22" s="183"/>
       <c r="AE22" s="187"/>
-      <c r="AF22" s="182">
-        <v>11.25</v>
+      <c r="AF22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="AG22" s="183"/>
       <c r="AH22" s="187"/>
-      <c r="AI22" s="182" t="s">
-        <v>79</v>
+      <c r="AI22" s="182">
+        <v>11.25</v>
       </c>
       <c r="AJ22" s="183"/>
       <c r="AK22" s="187"/>
-      <c r="AL22" s="182" t="s">
-        <v>79</v>
+      <c r="AL22" s="182">
+        <v>11.25</v>
       </c>
       <c r="AM22" s="183"/>
       <c r="AN22" s="187"/>
-      <c r="AO22" s="182">
-        <v>11.25</v>
+      <c r="AO22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="AP22" s="183"/>
       <c r="AQ22" s="187"/>
-      <c r="AR22" s="182">
-        <v>11.25</v>
+      <c r="AR22" s="182" t="s">
+        <v>79</v>
       </c>
       <c r="AS22" s="183"/>
       <c r="AT22" s="187"/>
-      <c r="AU22" s="182" t="s">
-        <v>79</v>
+      <c r="AU22" s="182">
+        <v>11.25</v>
       </c>
       <c r="AV22" s="183"/>
       <c r="AW22" s="187"/>
-      <c r="AX22" s="182"/>
+      <c r="AX22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AY22" s="183"/>
       <c r="AZ22" s="187"/>
       <c r="BA22" s="182"/>
@@ -25927,7 +25775,7 @@
       <c r="CU22" s="183"/>
       <c r="CV22" s="168">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW22" s="79">
         <f t="shared" si="1"/>
@@ -25979,11 +25827,11 @@
       </c>
       <c r="DI22" s="80">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DJ22" s="70">
         <f t="shared" si="24"/>
-        <v>78.75</v>
+        <v>90</v>
       </c>
       <c r="DK22" s="69">
         <v>0</v>
@@ -26043,7 +25891,7 @@
       </c>
       <c r="EB22" s="32">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="EC22" s="32">
         <f t="shared" si="23"/>
@@ -26436,7 +26284,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -26488,11 +26336,11 @@
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>1075</v>
+        <v>1086.25</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -26967,45 +26815,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="283"/>
-      <c r="H31" s="283"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="283"/>
-      <c r="K31" s="283"/>
-      <c r="L31" s="283"/>
-      <c r="M31" s="283"/>
-      <c r="N31" s="283"/>
-      <c r="O31" s="283"/>
-      <c r="P31" s="283"/>
-      <c r="Q31" s="283"/>
-      <c r="R31" s="283"/>
-      <c r="S31" s="283"/>
-      <c r="T31" s="283"/>
-      <c r="U31" s="283"/>
-      <c r="V31" s="283"/>
-      <c r="W31" s="283"/>
-      <c r="X31" s="283"/>
-      <c r="Y31" s="283"/>
-      <c r="Z31" s="283"/>
-      <c r="AA31" s="283"/>
-      <c r="AB31" s="283"/>
-      <c r="AC31" s="283"/>
-      <c r="AD31" s="283"/>
-      <c r="AE31" s="283"/>
-      <c r="AF31" s="283"/>
-      <c r="AG31" s="283"/>
-      <c r="AH31" s="283"/>
-      <c r="AI31" s="283"/>
-      <c r="AJ31" s="283"/>
-      <c r="AK31" s="283"/>
-      <c r="AL31" s="283"/>
-      <c r="AM31" s="283"/>
-      <c r="AN31" s="283"/>
-      <c r="AO31" s="283"/>
-      <c r="AP31" s="283"/>
-      <c r="AQ31" s="283"/>
-      <c r="AR31" s="283"/>
-      <c r="AS31" s="283"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="231"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="231"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231"/>
+      <c r="W31" s="231"/>
+      <c r="X31" s="231"/>
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231"/>
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231"/>
+      <c r="AC31" s="231"/>
+      <c r="AD31" s="231"/>
+      <c r="AE31" s="231"/>
+      <c r="AF31" s="231"/>
+      <c r="AG31" s="231"/>
+      <c r="AH31" s="231"/>
+      <c r="AI31" s="231"/>
+      <c r="AJ31" s="231"/>
+      <c r="AK31" s="231"/>
+      <c r="AL31" s="231"/>
+      <c r="AM31" s="231"/>
+      <c r="AN31" s="231"/>
+      <c r="AO31" s="231"/>
+      <c r="AP31" s="231"/>
+      <c r="AQ31" s="231"/>
+      <c r="AR31" s="231"/>
+      <c r="AS31" s="231"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -27310,45 +27158,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="283"/>
-      <c r="H35" s="283"/>
-      <c r="I35" s="283"/>
-      <c r="J35" s="283"/>
-      <c r="K35" s="283"/>
-      <c r="L35" s="283"/>
-      <c r="M35" s="283"/>
-      <c r="N35" s="283"/>
-      <c r="O35" s="283"/>
-      <c r="P35" s="283"/>
-      <c r="Q35" s="283"/>
-      <c r="R35" s="283"/>
-      <c r="S35" s="283"/>
-      <c r="T35" s="283"/>
-      <c r="U35" s="283"/>
-      <c r="V35" s="283"/>
-      <c r="W35" s="283"/>
-      <c r="X35" s="283"/>
-      <c r="Y35" s="283"/>
-      <c r="Z35" s="283"/>
-      <c r="AA35" s="283"/>
-      <c r="AB35" s="283"/>
-      <c r="AC35" s="283"/>
-      <c r="AD35" s="283"/>
-      <c r="AE35" s="283"/>
-      <c r="AF35" s="283"/>
-      <c r="AG35" s="283"/>
-      <c r="AH35" s="283"/>
-      <c r="AI35" s="283"/>
-      <c r="AJ35" s="283"/>
-      <c r="AK35" s="283"/>
-      <c r="AL35" s="283"/>
-      <c r="AM35" s="283"/>
-      <c r="AN35" s="283"/>
-      <c r="AO35" s="283"/>
-      <c r="AP35" s="283"/>
-      <c r="AQ35" s="283"/>
-      <c r="AR35" s="283"/>
-      <c r="AS35" s="283"/>
+      <c r="G35" s="231"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="231"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="231"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="231"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="231"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="231"/>
+      <c r="T35" s="231"/>
+      <c r="U35" s="231"/>
+      <c r="V35" s="231"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="231"/>
+      <c r="Y35" s="231"/>
+      <c r="Z35" s="231"/>
+      <c r="AA35" s="231"/>
+      <c r="AB35" s="231"/>
+      <c r="AC35" s="231"/>
+      <c r="AD35" s="231"/>
+      <c r="AE35" s="231"/>
+      <c r="AF35" s="231"/>
+      <c r="AG35" s="231"/>
+      <c r="AH35" s="231"/>
+      <c r="AI35" s="231"/>
+      <c r="AJ35" s="231"/>
+      <c r="AK35" s="231"/>
+      <c r="AL35" s="231"/>
+      <c r="AM35" s="231"/>
+      <c r="AN35" s="231"/>
+      <c r="AO35" s="231"/>
+      <c r="AP35" s="231"/>
+      <c r="AQ35" s="231"/>
+      <c r="AR35" s="231"/>
+      <c r="AS35" s="231"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -29506,29 +29354,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -29545,282 +29381,318 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:CU10 G13:CU13 BC11:CU12 AE23:CU23 AW14:CU15 G16:G17 AK16:CU17 AE20:CU20 AB21:CU21 AK22:CU22 AQ18:CU19">
-    <cfRule type="containsText" dxfId="102" priority="65" operator="containsText" text="О">
+  <conditionalFormatting sqref="G10:CU10 G13:CU13 BC11:CU12 AE23:CU23 AW14:CU15 G16:G17 AK16:CU17 AE20:CU20 AB21:CU21 AQ18:CU19 Y22:CU22">
+    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="66" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="79" priority="72" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AD11">
-    <cfRule type="containsText" dxfId="100" priority="63" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="64" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="77" priority="70" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:BB11">
-    <cfRule type="containsText" dxfId="98" priority="61" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="76" priority="67" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="62" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="75" priority="68" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:AD12">
-    <cfRule type="containsText" dxfId="96" priority="59" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="74" priority="65" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="60" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="73" priority="66" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:BB12">
-    <cfRule type="containsText" dxfId="94" priority="57" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="72" priority="63" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="58" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="71" priority="64" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:X14">
-    <cfRule type="containsText" dxfId="92" priority="55" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="70" priority="61" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="56" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="69" priority="62" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AV14">
-    <cfRule type="containsText" dxfId="90" priority="53" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="68" priority="59" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="54" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="67" priority="60" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:X15">
-    <cfRule type="containsText" dxfId="88" priority="51" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="66" priority="57" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="52" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="65" priority="58" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AV15">
-    <cfRule type="containsText" dxfId="86" priority="49" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="64" priority="55" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="50" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="63" priority="56" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:L16">
-    <cfRule type="containsText" dxfId="84" priority="47" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="62" priority="53" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="48" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="61" priority="54" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:AJ16">
-    <cfRule type="containsText" dxfId="82" priority="45" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="60" priority="51" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",M16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="46" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",M16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:L17">
-    <cfRule type="containsText" dxfId="80" priority="43" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",H17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="44" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="57" priority="50" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",H17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:AJ17">
-    <cfRule type="containsText" dxfId="78" priority="41" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="56" priority="47" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="42" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="55" priority="48" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",M17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:R18">
-    <cfRule type="containsText" dxfId="76" priority="39" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="54" priority="45" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="40" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="53" priority="46" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:AP18">
-    <cfRule type="containsText" dxfId="74" priority="37" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",S18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="38" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="51" priority="44" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",S18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:R19">
-    <cfRule type="containsText" dxfId="72" priority="35" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="50" priority="41" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="36" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="49" priority="42" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:AP19">
-    <cfRule type="containsText" dxfId="70" priority="33" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="48" priority="39" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",S19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="34" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",S19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:AD20">
-    <cfRule type="containsText" dxfId="68" priority="31" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="32" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="45" priority="38" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:AA21">
-    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="30" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="43" priority="36" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:AJ22">
-    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:AD23">
-    <cfRule type="containsText" dxfId="62" priority="25" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="26" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="containsText" dxfId="60" priority="24" operator="containsText" text="а">
+    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="а">
       <formula>NOT(ISERROR(SEARCH("а",AF10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="а">
+    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="а">
       <formula>NOT(ISERROR(SEARCH("а",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:BE16">
-    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="22" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK17:BE17">
-    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="20" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20:AP20">
-    <cfRule type="containsText" dxfId="48" priority="17" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="18" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20:BB20">
-    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:AM21">
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AB21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AB21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21:AY21">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AN21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AN21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AV22">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23:AP23">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ23:BB23">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18:BK18">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:BK19">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ19)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AQ19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:X22">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22:AJ22">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",Y22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",Y22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22:AV22">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="в">
-      <formula>NOT(ISERROR(SEARCH("в",AQ19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="83">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1810,78 +1810,6 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1933,6 +1861,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1972,6 +1918,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2006,7 +2006,105 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="195">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2067,6 +2165,692 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3061,21 +3845,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="262" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="262"/>
-      <c r="CW1" s="262"/>
-      <c r="CX1" s="262"/>
-      <c r="CY1" s="262"/>
-      <c r="CZ1" s="262"/>
-      <c r="DA1" s="262"/>
-      <c r="DB1" s="262"/>
-      <c r="DC1" s="262"/>
-      <c r="DD1" s="262"/>
-      <c r="DE1" s="262"/>
-      <c r="DF1" s="262"/>
-      <c r="DG1" s="262"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -3176,241 +3960,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="263" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="263"/>
-      <c r="CW2" s="263"/>
-      <c r="CX2" s="263"/>
-      <c r="CY2" s="263"/>
-      <c r="CZ2" s="263"/>
-      <c r="DA2" s="263"/>
-      <c r="DB2" s="263"/>
-      <c r="DC2" s="263"/>
-      <c r="DD2" s="263"/>
-      <c r="DE2" s="263"/>
-      <c r="DF2" s="263"/>
-      <c r="DG2" s="263"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="264"/>
-      <c r="AK3" s="264"/>
-      <c r="AL3" s="264"/>
-      <c r="AM3" s="264"/>
-      <c r="AN3" s="264"/>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="264"/>
-      <c r="AQ3" s="264"/>
-      <c r="AR3" s="264"/>
-      <c r="AS3" s="264"/>
-      <c r="AT3" s="264"/>
-      <c r="AU3" s="264"/>
-      <c r="AV3" s="264"/>
-      <c r="AW3" s="264"/>
-      <c r="AX3" s="264"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="264"/>
-      <c r="BC3" s="264"/>
-      <c r="BD3" s="264"/>
-      <c r="BE3" s="264"/>
-      <c r="BF3" s="264"/>
-      <c r="BG3" s="264"/>
-      <c r="BH3" s="264"/>
-      <c r="BI3" s="264"/>
-      <c r="BJ3" s="264"/>
-      <c r="BK3" s="264"/>
-      <c r="BL3" s="264"/>
-      <c r="BM3" s="264"/>
-      <c r="BN3" s="264"/>
-      <c r="BO3" s="264"/>
-      <c r="BP3" s="264"/>
-      <c r="BQ3" s="264"/>
-      <c r="BR3" s="264"/>
-      <c r="BS3" s="264"/>
-      <c r="BT3" s="264"/>
-      <c r="BU3" s="264"/>
-      <c r="BV3" s="264"/>
-      <c r="BW3" s="264"/>
-      <c r="BX3" s="264"/>
-      <c r="BY3" s="264"/>
-      <c r="BZ3" s="264"/>
-      <c r="CA3" s="264"/>
-      <c r="CB3" s="264"/>
-      <c r="CC3" s="264"/>
-      <c r="CD3" s="264"/>
-      <c r="CE3" s="264"/>
-      <c r="CF3" s="264"/>
-      <c r="CG3" s="264"/>
-      <c r="CH3" s="264"/>
-      <c r="CI3" s="264"/>
-      <c r="CJ3" s="264"/>
-      <c r="CK3" s="264"/>
-      <c r="CL3" s="264"/>
-      <c r="CM3" s="264"/>
-      <c r="CN3" s="264"/>
-      <c r="CO3" s="264"/>
-      <c r="CP3" s="264"/>
-      <c r="CQ3" s="264"/>
-      <c r="CR3" s="264"/>
-      <c r="CS3" s="264"/>
-      <c r="CT3" s="264"/>
-      <c r="CU3" s="264"/>
-      <c r="CV3" s="265" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="265"/>
-      <c r="CX3" s="265"/>
-      <c r="CY3" s="265"/>
-      <c r="CZ3" s="265"/>
-      <c r="DA3" s="265"/>
-      <c r="DB3" s="265"/>
-      <c r="DC3" s="265"/>
-      <c r="DD3" s="265"/>
-      <c r="DE3" s="265"/>
-      <c r="DF3" s="265"/>
-      <c r="DG3" s="265"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="254" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
-      <c r="U4" s="272"/>
-      <c r="V4" s="272"/>
-      <c r="W4" s="272"/>
-      <c r="X4" s="272"/>
-      <c r="Y4" s="272"/>
-      <c r="Z4" s="272"/>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="272"/>
-      <c r="AC4" s="272"/>
-      <c r="AD4" s="272"/>
-      <c r="AE4" s="272"/>
-      <c r="AF4" s="272"/>
-      <c r="AG4" s="272"/>
-      <c r="AH4" s="272"/>
-      <c r="AI4" s="272"/>
-      <c r="AJ4" s="272"/>
-      <c r="AK4" s="272"/>
-      <c r="AL4" s="272"/>
-      <c r="AM4" s="272"/>
-      <c r="AN4" s="272"/>
-      <c r="AO4" s="272"/>
-      <c r="AP4" s="272"/>
-      <c r="AQ4" s="272"/>
-      <c r="AR4" s="272"/>
-      <c r="AS4" s="272"/>
-      <c r="AT4" s="272"/>
-      <c r="AU4" s="272"/>
-      <c r="AV4" s="272"/>
-      <c r="AW4" s="272"/>
-      <c r="AX4" s="272"/>
-      <c r="AY4" s="272"/>
-      <c r="AZ4" s="272"/>
-      <c r="BA4" s="272"/>
-      <c r="BB4" s="272"/>
-      <c r="BC4" s="272"/>
-      <c r="BD4" s="272"/>
-      <c r="BE4" s="272"/>
-      <c r="BF4" s="272"/>
-      <c r="BG4" s="272"/>
-      <c r="BH4" s="272"/>
-      <c r="BI4" s="272"/>
-      <c r="BJ4" s="272"/>
-      <c r="BK4" s="272"/>
-      <c r="BL4" s="272"/>
-      <c r="BM4" s="272"/>
-      <c r="BN4" s="272"/>
-      <c r="BO4" s="272"/>
-      <c r="BP4" s="272"/>
-      <c r="BQ4" s="272"/>
-      <c r="BR4" s="272"/>
-      <c r="BS4" s="272"/>
-      <c r="BT4" s="272"/>
-      <c r="BU4" s="272"/>
-      <c r="BV4" s="272"/>
-      <c r="BW4" s="272"/>
-      <c r="BX4" s="272"/>
-      <c r="BY4" s="272"/>
-      <c r="BZ4" s="272"/>
-      <c r="CA4" s="272"/>
-      <c r="CB4" s="272"/>
-      <c r="CC4" s="272"/>
-      <c r="CD4" s="272"/>
-      <c r="CE4" s="272"/>
-      <c r="CF4" s="272"/>
-      <c r="CG4" s="272"/>
-      <c r="CH4" s="272"/>
-      <c r="CI4" s="272"/>
-      <c r="CJ4" s="272"/>
-      <c r="CK4" s="272"/>
-      <c r="CL4" s="272"/>
-      <c r="CM4" s="272"/>
-      <c r="CN4" s="272"/>
-      <c r="CO4" s="272"/>
-      <c r="CP4" s="272"/>
-      <c r="CQ4" s="272"/>
-      <c r="CR4" s="272"/>
-      <c r="CS4" s="272"/>
-      <c r="CT4" s="272"/>
-      <c r="CU4" s="272"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -3540,433 +4324,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="276" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="279" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="282" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
-      <c r="Y6" s="252"/>
-      <c r="Z6" s="252"/>
-      <c r="AA6" s="252"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="252"/>
-      <c r="AD6" s="252"/>
-      <c r="AE6" s="252"/>
-      <c r="AF6" s="252"/>
-      <c r="AG6" s="252"/>
-      <c r="AH6" s="252"/>
-      <c r="AI6" s="252"/>
-      <c r="AJ6" s="252"/>
-      <c r="AK6" s="252"/>
-      <c r="AL6" s="252"/>
-      <c r="AM6" s="252"/>
-      <c r="AN6" s="252"/>
-      <c r="AO6" s="252"/>
-      <c r="AP6" s="252"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="252"/>
-      <c r="AT6" s="252"/>
-      <c r="AU6" s="252"/>
-      <c r="AV6" s="252"/>
-      <c r="AW6" s="252"/>
-      <c r="AX6" s="252"/>
-      <c r="AY6" s="252"/>
-      <c r="AZ6" s="252"/>
-      <c r="BA6" s="252"/>
-      <c r="BB6" s="252"/>
-      <c r="BC6" s="252"/>
-      <c r="BD6" s="252"/>
-      <c r="BE6" s="252"/>
-      <c r="BF6" s="252"/>
-      <c r="BG6" s="252"/>
-      <c r="BH6" s="252"/>
-      <c r="BI6" s="252"/>
-      <c r="BJ6" s="252"/>
-      <c r="BK6" s="252"/>
-      <c r="BL6" s="252"/>
-      <c r="BM6" s="252"/>
-      <c r="BN6" s="252"/>
-      <c r="BO6" s="252"/>
-      <c r="BP6" s="252"/>
-      <c r="BQ6" s="252"/>
-      <c r="BR6" s="252"/>
-      <c r="BS6" s="252"/>
-      <c r="BT6" s="252"/>
-      <c r="BU6" s="252"/>
-      <c r="BV6" s="252"/>
-      <c r="BW6" s="252"/>
-      <c r="BX6" s="252"/>
-      <c r="BY6" s="252"/>
-      <c r="BZ6" s="252"/>
-      <c r="CA6" s="252"/>
-      <c r="CB6" s="252"/>
-      <c r="CC6" s="252"/>
-      <c r="CD6" s="252"/>
-      <c r="CE6" s="252"/>
-      <c r="CF6" s="252"/>
-      <c r="CG6" s="252"/>
-      <c r="CH6" s="252"/>
-      <c r="CI6" s="252"/>
-      <c r="CJ6" s="252"/>
-      <c r="CK6" s="252"/>
-      <c r="CL6" s="252"/>
-      <c r="CM6" s="252"/>
-      <c r="CN6" s="252"/>
-      <c r="CO6" s="252"/>
-      <c r="CP6" s="252"/>
-      <c r="CQ6" s="252"/>
-      <c r="CR6" s="252"/>
-      <c r="CS6" s="252"/>
-      <c r="CT6" s="252"/>
-      <c r="CU6" s="252"/>
-      <c r="CV6" s="266" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="267"/>
-      <c r="CX6" s="266" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="270"/>
-      <c r="CZ6" s="270"/>
-      <c r="DA6" s="270"/>
-      <c r="DB6" s="270"/>
-      <c r="DC6" s="270"/>
-      <c r="DD6" s="270"/>
-      <c r="DE6" s="270"/>
-      <c r="DF6" s="270"/>
-      <c r="DG6" s="270"/>
-      <c r="DH6" s="242" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="245" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="255" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="255"/>
-      <c r="DL6" s="255"/>
-      <c r="DM6" s="255"/>
-      <c r="DN6" s="255"/>
-      <c r="DO6" s="256"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="274"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="253"/>
-      <c r="AB7" s="253"/>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="253"/>
-      <c r="AG7" s="253"/>
-      <c r="AH7" s="253"/>
-      <c r="AI7" s="253"/>
-      <c r="AJ7" s="253"/>
-      <c r="AK7" s="253"/>
-      <c r="AL7" s="253"/>
-      <c r="AM7" s="253"/>
-      <c r="AN7" s="253"/>
-      <c r="AO7" s="253"/>
-      <c r="AP7" s="253"/>
-      <c r="AQ7" s="253"/>
-      <c r="AR7" s="253"/>
-      <c r="AS7" s="253"/>
-      <c r="AT7" s="253"/>
-      <c r="AU7" s="253"/>
-      <c r="AV7" s="253"/>
-      <c r="AW7" s="253"/>
-      <c r="AX7" s="253"/>
-      <c r="AY7" s="253"/>
-      <c r="AZ7" s="253"/>
-      <c r="BA7" s="253"/>
-      <c r="BB7" s="253"/>
-      <c r="BC7" s="253"/>
-      <c r="BD7" s="253"/>
-      <c r="BE7" s="253"/>
-      <c r="BF7" s="253"/>
-      <c r="BG7" s="253"/>
-      <c r="BH7" s="253"/>
-      <c r="BI7" s="253"/>
-      <c r="BJ7" s="253"/>
-      <c r="BK7" s="253"/>
-      <c r="BL7" s="253"/>
-      <c r="BM7" s="253"/>
-      <c r="BN7" s="253"/>
-      <c r="BO7" s="254"/>
-      <c r="BP7" s="254"/>
-      <c r="BQ7" s="254"/>
-      <c r="BR7" s="253"/>
-      <c r="BS7" s="253"/>
-      <c r="BT7" s="253"/>
-      <c r="BU7" s="253"/>
-      <c r="BV7" s="253"/>
-      <c r="BW7" s="253"/>
-      <c r="BX7" s="253"/>
-      <c r="BY7" s="253"/>
-      <c r="BZ7" s="253"/>
-      <c r="CA7" s="253"/>
-      <c r="CB7" s="253"/>
-      <c r="CC7" s="253"/>
-      <c r="CD7" s="253"/>
-      <c r="CE7" s="253"/>
-      <c r="CF7" s="253"/>
-      <c r="CG7" s="253"/>
-      <c r="CH7" s="253"/>
-      <c r="CI7" s="253"/>
-      <c r="CJ7" s="253"/>
-      <c r="CK7" s="253"/>
-      <c r="CL7" s="253"/>
-      <c r="CM7" s="253"/>
-      <c r="CN7" s="253"/>
-      <c r="CO7" s="253"/>
-      <c r="CP7" s="253"/>
-      <c r="CQ7" s="253"/>
-      <c r="CR7" s="253"/>
-      <c r="CS7" s="253"/>
-      <c r="CT7" s="253"/>
-      <c r="CU7" s="253"/>
-      <c r="CV7" s="268"/>
-      <c r="CW7" s="269"/>
-      <c r="CX7" s="268"/>
-      <c r="CY7" s="271"/>
-      <c r="CZ7" s="271"/>
-      <c r="DA7" s="271"/>
-      <c r="DB7" s="271"/>
-      <c r="DC7" s="271"/>
-      <c r="DD7" s="271"/>
-      <c r="DE7" s="271"/>
-      <c r="DF7" s="271"/>
-      <c r="DG7" s="271"/>
-      <c r="DH7" s="243"/>
-      <c r="DI7" s="246"/>
-      <c r="DJ7" s="257"/>
-      <c r="DK7" s="257"/>
-      <c r="DL7" s="257"/>
-      <c r="DM7" s="257"/>
-      <c r="DN7" s="257"/>
-      <c r="DO7" s="258"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="275"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="241">
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="284">
         <v>1</v>
       </c>
-      <c r="H8" s="233"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="232">
+      <c r="H8" s="252"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="267">
         <v>2</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="237">
+      <c r="K8" s="252"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="248">
         <v>3</v>
       </c>
-      <c r="N8" s="238"/>
-      <c r="O8" s="239"/>
-      <c r="P8" s="237">
+      <c r="N8" s="249"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="248">
         <v>4</v>
       </c>
-      <c r="Q8" s="238"/>
-      <c r="R8" s="240"/>
-      <c r="S8" s="232">
+      <c r="Q8" s="249"/>
+      <c r="R8" s="250"/>
+      <c r="S8" s="267">
         <v>5</v>
       </c>
-      <c r="T8" s="233"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="232">
+      <c r="T8" s="252"/>
+      <c r="U8" s="253"/>
+      <c r="V8" s="267">
         <v>6</v>
       </c>
-      <c r="W8" s="233"/>
-      <c r="X8" s="234"/>
-      <c r="Y8" s="232">
+      <c r="W8" s="252"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="267">
         <v>7</v>
       </c>
-      <c r="Z8" s="233"/>
-      <c r="AA8" s="234"/>
-      <c r="AB8" s="232">
+      <c r="Z8" s="252"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="267">
         <v>8</v>
       </c>
-      <c r="AC8" s="233"/>
-      <c r="AD8" s="234"/>
-      <c r="AE8" s="232">
+      <c r="AC8" s="252"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="267">
         <v>9</v>
       </c>
-      <c r="AF8" s="233"/>
-      <c r="AG8" s="236"/>
-      <c r="AH8" s="237">
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="253"/>
+      <c r="AH8" s="248">
         <v>10</v>
       </c>
-      <c r="AI8" s="238"/>
-      <c r="AJ8" s="240"/>
-      <c r="AK8" s="237">
+      <c r="AI8" s="249"/>
+      <c r="AJ8" s="250"/>
+      <c r="AK8" s="248">
         <v>11</v>
       </c>
-      <c r="AL8" s="238"/>
-      <c r="AM8" s="240"/>
-      <c r="AN8" s="235">
+      <c r="AL8" s="249"/>
+      <c r="AM8" s="250"/>
+      <c r="AN8" s="251">
         <v>12</v>
       </c>
-      <c r="AO8" s="233"/>
-      <c r="AP8" s="236"/>
-      <c r="AQ8" s="232">
+      <c r="AO8" s="252"/>
+      <c r="AP8" s="253"/>
+      <c r="AQ8" s="267">
         <v>13</v>
       </c>
-      <c r="AR8" s="233"/>
-      <c r="AS8" s="234"/>
-      <c r="AT8" s="235">
+      <c r="AR8" s="252"/>
+      <c r="AS8" s="268"/>
+      <c r="AT8" s="251">
         <v>14</v>
       </c>
-      <c r="AU8" s="233"/>
-      <c r="AV8" s="234"/>
-      <c r="AW8" s="232">
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="268"/>
+      <c r="AW8" s="267">
         <v>15</v>
       </c>
-      <c r="AX8" s="233"/>
-      <c r="AY8" s="234"/>
-      <c r="AZ8" s="232">
+      <c r="AX8" s="252"/>
+      <c r="AY8" s="268"/>
+      <c r="AZ8" s="267">
         <v>16</v>
       </c>
-      <c r="BA8" s="233"/>
-      <c r="BB8" s="234"/>
-      <c r="BC8" s="237">
+      <c r="BA8" s="252"/>
+      <c r="BB8" s="268"/>
+      <c r="BC8" s="248">
         <v>17</v>
       </c>
-      <c r="BD8" s="238"/>
-      <c r="BE8" s="239"/>
-      <c r="BF8" s="237">
+      <c r="BD8" s="249"/>
+      <c r="BE8" s="269"/>
+      <c r="BF8" s="248">
         <v>18</v>
       </c>
-      <c r="BG8" s="238"/>
-      <c r="BH8" s="240"/>
-      <c r="BI8" s="235">
+      <c r="BG8" s="249"/>
+      <c r="BH8" s="250"/>
+      <c r="BI8" s="251">
         <v>19</v>
       </c>
-      <c r="BJ8" s="233"/>
-      <c r="BK8" s="236"/>
-      <c r="BL8" s="232">
+      <c r="BJ8" s="252"/>
+      <c r="BK8" s="253"/>
+      <c r="BL8" s="267">
         <v>20</v>
       </c>
-      <c r="BM8" s="233"/>
-      <c r="BN8" s="234"/>
-      <c r="BO8" s="232">
+      <c r="BM8" s="252"/>
+      <c r="BN8" s="268"/>
+      <c r="BO8" s="267">
         <v>21</v>
       </c>
-      <c r="BP8" s="233"/>
-      <c r="BQ8" s="234"/>
-      <c r="BR8" s="232">
+      <c r="BP8" s="252"/>
+      <c r="BQ8" s="268"/>
+      <c r="BR8" s="267">
         <v>22</v>
       </c>
-      <c r="BS8" s="233"/>
-      <c r="BT8" s="234"/>
-      <c r="BU8" s="235">
+      <c r="BS8" s="252"/>
+      <c r="BT8" s="268"/>
+      <c r="BU8" s="251">
         <v>23</v>
       </c>
-      <c r="BV8" s="233"/>
-      <c r="BW8" s="236"/>
-      <c r="BX8" s="237">
+      <c r="BV8" s="252"/>
+      <c r="BW8" s="253"/>
+      <c r="BX8" s="248">
         <v>24</v>
       </c>
-      <c r="BY8" s="238"/>
-      <c r="BZ8" s="240"/>
-      <c r="CA8" s="251">
+      <c r="BY8" s="249"/>
+      <c r="BZ8" s="250"/>
+      <c r="CA8" s="279">
         <v>25</v>
       </c>
-      <c r="CB8" s="238"/>
-      <c r="CC8" s="239"/>
-      <c r="CD8" s="232">
+      <c r="CB8" s="249"/>
+      <c r="CC8" s="269"/>
+      <c r="CD8" s="267">
         <v>26</v>
       </c>
-      <c r="CE8" s="233"/>
-      <c r="CF8" s="234"/>
-      <c r="CG8" s="235">
+      <c r="CE8" s="252"/>
+      <c r="CF8" s="268"/>
+      <c r="CG8" s="251">
         <v>27</v>
       </c>
-      <c r="CH8" s="233"/>
-      <c r="CI8" s="236"/>
-      <c r="CJ8" s="232">
+      <c r="CH8" s="252"/>
+      <c r="CI8" s="253"/>
+      <c r="CJ8" s="267">
         <v>28</v>
       </c>
-      <c r="CK8" s="233"/>
-      <c r="CL8" s="234"/>
-      <c r="CM8" s="232">
+      <c r="CK8" s="252"/>
+      <c r="CL8" s="268"/>
+      <c r="CM8" s="267">
         <v>29</v>
       </c>
-      <c r="CN8" s="233"/>
-      <c r="CO8" s="234"/>
-      <c r="CP8" s="232">
+      <c r="CN8" s="252"/>
+      <c r="CO8" s="268"/>
+      <c r="CP8" s="267">
         <v>30</v>
       </c>
-      <c r="CQ8" s="233"/>
-      <c r="CR8" s="234"/>
-      <c r="CS8" s="248">
+      <c r="CQ8" s="252"/>
+      <c r="CR8" s="268"/>
+      <c r="CS8" s="276">
         <v>31</v>
       </c>
-      <c r="CT8" s="249"/>
-      <c r="CU8" s="250"/>
+      <c r="CT8" s="277"/>
+      <c r="CU8" s="278"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -4003,8 +4787,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="244"/>
-      <c r="DI8" s="247"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9773,45 +10557,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="231"/>
-      <c r="L33" s="231"/>
-      <c r="M33" s="231"/>
-      <c r="N33" s="231"/>
-      <c r="O33" s="231"/>
-      <c r="P33" s="231"/>
-      <c r="Q33" s="231"/>
-      <c r="R33" s="231"/>
-      <c r="S33" s="231"/>
-      <c r="T33" s="231"/>
-      <c r="U33" s="231"/>
-      <c r="V33" s="231"/>
-      <c r="W33" s="231"/>
-      <c r="X33" s="231"/>
-      <c r="Y33" s="231"/>
-      <c r="Z33" s="231"/>
-      <c r="AA33" s="231"/>
-      <c r="AB33" s="231"/>
-      <c r="AC33" s="231"/>
-      <c r="AD33" s="231"/>
-      <c r="AE33" s="231"/>
-      <c r="AF33" s="231"/>
-      <c r="AG33" s="231"/>
-      <c r="AH33" s="231"/>
-      <c r="AI33" s="231"/>
-      <c r="AJ33" s="231"/>
-      <c r="AK33" s="231"/>
-      <c r="AL33" s="231"/>
-      <c r="AM33" s="231"/>
-      <c r="AN33" s="231"/>
-      <c r="AO33" s="231"/>
-      <c r="AP33" s="231"/>
-      <c r="AQ33" s="231"/>
-      <c r="AR33" s="231"/>
-      <c r="AS33" s="231"/>
+      <c r="G33" s="283"/>
+      <c r="H33" s="283"/>
+      <c r="I33" s="283"/>
+      <c r="J33" s="283"/>
+      <c r="K33" s="283"/>
+      <c r="L33" s="283"/>
+      <c r="M33" s="283"/>
+      <c r="N33" s="283"/>
+      <c r="O33" s="283"/>
+      <c r="P33" s="283"/>
+      <c r="Q33" s="283"/>
+      <c r="R33" s="283"/>
+      <c r="S33" s="283"/>
+      <c r="T33" s="283"/>
+      <c r="U33" s="283"/>
+      <c r="V33" s="283"/>
+      <c r="W33" s="283"/>
+      <c r="X33" s="283"/>
+      <c r="Y33" s="283"/>
+      <c r="Z33" s="283"/>
+      <c r="AA33" s="283"/>
+      <c r="AB33" s="283"/>
+      <c r="AC33" s="283"/>
+      <c r="AD33" s="283"/>
+      <c r="AE33" s="283"/>
+      <c r="AF33" s="283"/>
+      <c r="AG33" s="283"/>
+      <c r="AH33" s="283"/>
+      <c r="AI33" s="283"/>
+      <c r="AJ33" s="283"/>
+      <c r="AK33" s="283"/>
+      <c r="AL33" s="283"/>
+      <c r="AM33" s="283"/>
+      <c r="AN33" s="283"/>
+      <c r="AO33" s="283"/>
+      <c r="AP33" s="283"/>
+      <c r="AQ33" s="283"/>
+      <c r="AR33" s="283"/>
+      <c r="AS33" s="283"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -10116,45 +10900,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="231"/>
-      <c r="H37" s="231"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="231"/>
-      <c r="K37" s="231"/>
-      <c r="L37" s="231"/>
-      <c r="M37" s="231"/>
-      <c r="N37" s="231"/>
-      <c r="O37" s="231"/>
-      <c r="P37" s="231"/>
-      <c r="Q37" s="231"/>
-      <c r="R37" s="231"/>
-      <c r="S37" s="231"/>
-      <c r="T37" s="231"/>
-      <c r="U37" s="231"/>
-      <c r="V37" s="231"/>
-      <c r="W37" s="231"/>
-      <c r="X37" s="231"/>
-      <c r="Y37" s="231"/>
-      <c r="Z37" s="231"/>
-      <c r="AA37" s="231"/>
-      <c r="AB37" s="231"/>
-      <c r="AC37" s="231"/>
-      <c r="AD37" s="231"/>
-      <c r="AE37" s="231"/>
-      <c r="AF37" s="231"/>
-      <c r="AG37" s="231"/>
-      <c r="AH37" s="231"/>
-      <c r="AI37" s="231"/>
-      <c r="AJ37" s="231"/>
-      <c r="AK37" s="231"/>
-      <c r="AL37" s="231"/>
-      <c r="AM37" s="231"/>
-      <c r="AN37" s="231"/>
-      <c r="AO37" s="231"/>
-      <c r="AP37" s="231"/>
-      <c r="AQ37" s="231"/>
-      <c r="AR37" s="231"/>
-      <c r="AS37" s="231"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="283"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="283"/>
+      <c r="M37" s="283"/>
+      <c r="N37" s="283"/>
+      <c r="O37" s="283"/>
+      <c r="P37" s="283"/>
+      <c r="Q37" s="283"/>
+      <c r="R37" s="283"/>
+      <c r="S37" s="283"/>
+      <c r="T37" s="283"/>
+      <c r="U37" s="283"/>
+      <c r="V37" s="283"/>
+      <c r="W37" s="283"/>
+      <c r="X37" s="283"/>
+      <c r="Y37" s="283"/>
+      <c r="Z37" s="283"/>
+      <c r="AA37" s="283"/>
+      <c r="AB37" s="283"/>
+      <c r="AC37" s="283"/>
+      <c r="AD37" s="283"/>
+      <c r="AE37" s="283"/>
+      <c r="AF37" s="283"/>
+      <c r="AG37" s="283"/>
+      <c r="AH37" s="283"/>
+      <c r="AI37" s="283"/>
+      <c r="AJ37" s="283"/>
+      <c r="AK37" s="283"/>
+      <c r="AL37" s="283"/>
+      <c r="AM37" s="283"/>
+      <c r="AN37" s="283"/>
+      <c r="AO37" s="283"/>
+      <c r="AP37" s="283"/>
+      <c r="AQ37" s="283"/>
+      <c r="AR37" s="283"/>
+      <c r="AS37" s="283"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -11655,6 +12439,40 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="DI6:DI8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="CU1:DG1"/>
@@ -11671,40 +12489,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="DI6:DI8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -11900,21 +12684,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="262" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="262"/>
-      <c r="CW1" s="262"/>
-      <c r="CX1" s="262"/>
-      <c r="CY1" s="262"/>
-      <c r="CZ1" s="262"/>
-      <c r="DA1" s="262"/>
-      <c r="DB1" s="262"/>
-      <c r="DC1" s="262"/>
-      <c r="DD1" s="262"/>
-      <c r="DE1" s="262"/>
-      <c r="DF1" s="262"/>
-      <c r="DG1" s="262"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -12015,241 +12799,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="263" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="263"/>
-      <c r="CW2" s="263"/>
-      <c r="CX2" s="263"/>
-      <c r="CY2" s="263"/>
-      <c r="CZ2" s="263"/>
-      <c r="DA2" s="263"/>
-      <c r="DB2" s="263"/>
-      <c r="DC2" s="263"/>
-      <c r="DD2" s="263"/>
-      <c r="DE2" s="263"/>
-      <c r="DF2" s="263"/>
-      <c r="DG2" s="263"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="264"/>
-      <c r="AK3" s="264"/>
-      <c r="AL3" s="264"/>
-      <c r="AM3" s="264"/>
-      <c r="AN3" s="264"/>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="264"/>
-      <c r="AQ3" s="264"/>
-      <c r="AR3" s="264"/>
-      <c r="AS3" s="264"/>
-      <c r="AT3" s="264"/>
-      <c r="AU3" s="264"/>
-      <c r="AV3" s="264"/>
-      <c r="AW3" s="264"/>
-      <c r="AX3" s="264"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="264"/>
-      <c r="BC3" s="264"/>
-      <c r="BD3" s="264"/>
-      <c r="BE3" s="264"/>
-      <c r="BF3" s="264"/>
-      <c r="BG3" s="264"/>
-      <c r="BH3" s="264"/>
-      <c r="BI3" s="264"/>
-      <c r="BJ3" s="264"/>
-      <c r="BK3" s="264"/>
-      <c r="BL3" s="264"/>
-      <c r="BM3" s="264"/>
-      <c r="BN3" s="264"/>
-      <c r="BO3" s="264"/>
-      <c r="BP3" s="264"/>
-      <c r="BQ3" s="264"/>
-      <c r="BR3" s="264"/>
-      <c r="BS3" s="264"/>
-      <c r="BT3" s="264"/>
-      <c r="BU3" s="264"/>
-      <c r="BV3" s="264"/>
-      <c r="BW3" s="264"/>
-      <c r="BX3" s="264"/>
-      <c r="BY3" s="264"/>
-      <c r="BZ3" s="264"/>
-      <c r="CA3" s="264"/>
-      <c r="CB3" s="264"/>
-      <c r="CC3" s="264"/>
-      <c r="CD3" s="264"/>
-      <c r="CE3" s="264"/>
-      <c r="CF3" s="264"/>
-      <c r="CG3" s="264"/>
-      <c r="CH3" s="264"/>
-      <c r="CI3" s="264"/>
-      <c r="CJ3" s="264"/>
-      <c r="CK3" s="264"/>
-      <c r="CL3" s="264"/>
-      <c r="CM3" s="264"/>
-      <c r="CN3" s="264"/>
-      <c r="CO3" s="264"/>
-      <c r="CP3" s="264"/>
-      <c r="CQ3" s="264"/>
-      <c r="CR3" s="264"/>
-      <c r="CS3" s="264"/>
-      <c r="CT3" s="264"/>
-      <c r="CU3" s="264"/>
-      <c r="CV3" s="265" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="265"/>
-      <c r="CX3" s="265"/>
-      <c r="CY3" s="265"/>
-      <c r="CZ3" s="265"/>
-      <c r="DA3" s="265"/>
-      <c r="DB3" s="265"/>
-      <c r="DC3" s="265"/>
-      <c r="DD3" s="265"/>
-      <c r="DE3" s="265"/>
-      <c r="DF3" s="265"/>
-      <c r="DG3" s="265"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
-      <c r="U4" s="272"/>
-      <c r="V4" s="272"/>
-      <c r="W4" s="272"/>
-      <c r="X4" s="272"/>
-      <c r="Y4" s="272"/>
-      <c r="Z4" s="272"/>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="272"/>
-      <c r="AC4" s="272"/>
-      <c r="AD4" s="272"/>
-      <c r="AE4" s="272"/>
-      <c r="AF4" s="272"/>
-      <c r="AG4" s="272"/>
-      <c r="AH4" s="272"/>
-      <c r="AI4" s="272"/>
-      <c r="AJ4" s="272"/>
-      <c r="AK4" s="272"/>
-      <c r="AL4" s="272"/>
-      <c r="AM4" s="272"/>
-      <c r="AN4" s="272"/>
-      <c r="AO4" s="272"/>
-      <c r="AP4" s="272"/>
-      <c r="AQ4" s="272"/>
-      <c r="AR4" s="272"/>
-      <c r="AS4" s="272"/>
-      <c r="AT4" s="272"/>
-      <c r="AU4" s="272"/>
-      <c r="AV4" s="272"/>
-      <c r="AW4" s="272"/>
-      <c r="AX4" s="272"/>
-      <c r="AY4" s="272"/>
-      <c r="AZ4" s="272"/>
-      <c r="BA4" s="272"/>
-      <c r="BB4" s="272"/>
-      <c r="BC4" s="272"/>
-      <c r="BD4" s="272"/>
-      <c r="BE4" s="272"/>
-      <c r="BF4" s="272"/>
-      <c r="BG4" s="272"/>
-      <c r="BH4" s="272"/>
-      <c r="BI4" s="272"/>
-      <c r="BJ4" s="272"/>
-      <c r="BK4" s="272"/>
-      <c r="BL4" s="272"/>
-      <c r="BM4" s="272"/>
-      <c r="BN4" s="272"/>
-      <c r="BO4" s="272"/>
-      <c r="BP4" s="272"/>
-      <c r="BQ4" s="272"/>
-      <c r="BR4" s="272"/>
-      <c r="BS4" s="272"/>
-      <c r="BT4" s="272"/>
-      <c r="BU4" s="272"/>
-      <c r="BV4" s="272"/>
-      <c r="BW4" s="272"/>
-      <c r="BX4" s="272"/>
-      <c r="BY4" s="272"/>
-      <c r="BZ4" s="272"/>
-      <c r="CA4" s="272"/>
-      <c r="CB4" s="272"/>
-      <c r="CC4" s="272"/>
-      <c r="CD4" s="272"/>
-      <c r="CE4" s="272"/>
-      <c r="CF4" s="272"/>
-      <c r="CG4" s="272"/>
-      <c r="CH4" s="272"/>
-      <c r="CI4" s="272"/>
-      <c r="CJ4" s="272"/>
-      <c r="CK4" s="272"/>
-      <c r="CL4" s="272"/>
-      <c r="CM4" s="272"/>
-      <c r="CN4" s="272"/>
-      <c r="CO4" s="272"/>
-      <c r="CP4" s="272"/>
-      <c r="CQ4" s="272"/>
-      <c r="CR4" s="272"/>
-      <c r="CS4" s="272"/>
-      <c r="CT4" s="272"/>
-      <c r="CU4" s="272"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -12379,288 +13163,288 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="276" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="279" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="282" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
-      <c r="Y6" s="252"/>
-      <c r="Z6" s="252"/>
-      <c r="AA6" s="252"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="252"/>
-      <c r="AD6" s="252"/>
-      <c r="AE6" s="252"/>
-      <c r="AF6" s="252"/>
-      <c r="AG6" s="252"/>
-      <c r="AH6" s="252"/>
-      <c r="AI6" s="252"/>
-      <c r="AJ6" s="252"/>
-      <c r="AK6" s="252"/>
-      <c r="AL6" s="252"/>
-      <c r="AM6" s="252"/>
-      <c r="AN6" s="252"/>
-      <c r="AO6" s="252"/>
-      <c r="AP6" s="252"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="252"/>
-      <c r="AT6" s="252"/>
-      <c r="AU6" s="252"/>
-      <c r="AV6" s="252"/>
-      <c r="AW6" s="252"/>
-      <c r="AX6" s="252"/>
-      <c r="AY6" s="252"/>
-      <c r="AZ6" s="252"/>
-      <c r="BA6" s="252"/>
-      <c r="BB6" s="252"/>
-      <c r="BC6" s="252"/>
-      <c r="BD6" s="252"/>
-      <c r="BE6" s="252"/>
-      <c r="BF6" s="252"/>
-      <c r="BG6" s="252"/>
-      <c r="BH6" s="252"/>
-      <c r="BI6" s="252"/>
-      <c r="BJ6" s="252"/>
-      <c r="BK6" s="252"/>
-      <c r="BL6" s="252"/>
-      <c r="BM6" s="252"/>
-      <c r="BN6" s="252"/>
-      <c r="BO6" s="252"/>
-      <c r="BP6" s="252"/>
-      <c r="BQ6" s="252"/>
-      <c r="BR6" s="252"/>
-      <c r="BS6" s="252"/>
-      <c r="BT6" s="252"/>
-      <c r="BU6" s="252"/>
-      <c r="BV6" s="252"/>
-      <c r="BW6" s="252"/>
-      <c r="BX6" s="252"/>
-      <c r="BY6" s="252"/>
-      <c r="BZ6" s="252"/>
-      <c r="CA6" s="252"/>
-      <c r="CB6" s="252"/>
-      <c r="CC6" s="252"/>
-      <c r="CD6" s="252"/>
-      <c r="CE6" s="252"/>
-      <c r="CF6" s="252"/>
-      <c r="CG6" s="252"/>
-      <c r="CH6" s="252"/>
-      <c r="CI6" s="252"/>
-      <c r="CJ6" s="252"/>
-      <c r="CK6" s="252"/>
-      <c r="CL6" s="252"/>
-      <c r="CM6" s="252"/>
-      <c r="CN6" s="252"/>
-      <c r="CO6" s="252"/>
-      <c r="CP6" s="252"/>
-      <c r="CQ6" s="252"/>
-      <c r="CR6" s="252"/>
-      <c r="CS6" s="252"/>
-      <c r="CT6" s="252"/>
-      <c r="CU6" s="252"/>
-      <c r="CV6" s="266" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="267"/>
-      <c r="CX6" s="266" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="270"/>
-      <c r="CZ6" s="270"/>
-      <c r="DA6" s="270"/>
-      <c r="DB6" s="270"/>
-      <c r="DC6" s="270"/>
-      <c r="DD6" s="270"/>
-      <c r="DE6" s="270"/>
-      <c r="DF6" s="270"/>
-      <c r="DG6" s="270"/>
-      <c r="DH6" s="242" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="245" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="255" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="255"/>
-      <c r="DL6" s="255"/>
-      <c r="DM6" s="255"/>
-      <c r="DN6" s="255"/>
-      <c r="DO6" s="256"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="274"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="253"/>
-      <c r="AB7" s="253"/>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="253"/>
-      <c r="AG7" s="253"/>
-      <c r="AH7" s="253"/>
-      <c r="AI7" s="253"/>
-      <c r="AJ7" s="253"/>
-      <c r="AK7" s="253"/>
-      <c r="AL7" s="253"/>
-      <c r="AM7" s="253"/>
-      <c r="AN7" s="253"/>
-      <c r="AO7" s="253"/>
-      <c r="AP7" s="253"/>
-      <c r="AQ7" s="253"/>
-      <c r="AR7" s="253"/>
-      <c r="AS7" s="253"/>
-      <c r="AT7" s="253"/>
-      <c r="AU7" s="253"/>
-      <c r="AV7" s="253"/>
-      <c r="AW7" s="253"/>
-      <c r="AX7" s="253"/>
-      <c r="AY7" s="253"/>
-      <c r="AZ7" s="253"/>
-      <c r="BA7" s="253"/>
-      <c r="BB7" s="253"/>
-      <c r="BC7" s="253"/>
-      <c r="BD7" s="253"/>
-      <c r="BE7" s="253"/>
-      <c r="BF7" s="253"/>
-      <c r="BG7" s="253"/>
-      <c r="BH7" s="253"/>
-      <c r="BI7" s="253"/>
-      <c r="BJ7" s="253"/>
-      <c r="BK7" s="253"/>
-      <c r="BL7" s="253"/>
-      <c r="BM7" s="253"/>
-      <c r="BN7" s="253"/>
-      <c r="BO7" s="254"/>
-      <c r="BP7" s="254"/>
-      <c r="BQ7" s="254"/>
-      <c r="BR7" s="253"/>
-      <c r="BS7" s="253"/>
-      <c r="BT7" s="253"/>
-      <c r="BU7" s="253"/>
-      <c r="BV7" s="253"/>
-      <c r="BW7" s="253"/>
-      <c r="BX7" s="253"/>
-      <c r="BY7" s="253"/>
-      <c r="BZ7" s="253"/>
-      <c r="CA7" s="253"/>
-      <c r="CB7" s="253"/>
-      <c r="CC7" s="253"/>
-      <c r="CD7" s="253"/>
-      <c r="CE7" s="253"/>
-      <c r="CF7" s="253"/>
-      <c r="CG7" s="253"/>
-      <c r="CH7" s="253"/>
-      <c r="CI7" s="253"/>
-      <c r="CJ7" s="253"/>
-      <c r="CK7" s="253"/>
-      <c r="CL7" s="253"/>
-      <c r="CM7" s="253"/>
-      <c r="CN7" s="253"/>
-      <c r="CO7" s="253"/>
-      <c r="CP7" s="253"/>
-      <c r="CQ7" s="253"/>
-      <c r="CR7" s="253"/>
-      <c r="CS7" s="253"/>
-      <c r="CT7" s="253"/>
-      <c r="CU7" s="253"/>
-      <c r="CV7" s="268"/>
-      <c r="CW7" s="269"/>
-      <c r="CX7" s="268"/>
-      <c r="CY7" s="271"/>
-      <c r="CZ7" s="271"/>
-      <c r="DA7" s="271"/>
-      <c r="DB7" s="271"/>
-      <c r="DC7" s="271"/>
-      <c r="DD7" s="271"/>
-      <c r="DE7" s="271"/>
-      <c r="DF7" s="271"/>
-      <c r="DG7" s="271"/>
-      <c r="DH7" s="243"/>
-      <c r="DI7" s="246"/>
-      <c r="DJ7" s="257"/>
-      <c r="DK7" s="257"/>
-      <c r="DL7" s="257"/>
-      <c r="DM7" s="257"/>
-      <c r="DN7" s="257"/>
-      <c r="DO7" s="258"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="275"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="284"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
       <c r="G8" s="290">
         <v>1</v>
       </c>
-      <c r="H8" s="238"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="232">
+      <c r="H8" s="249"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="267">
         <v>2</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="234"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="268"/>
       <c r="M8" s="285">
         <v>3</v>
       </c>
@@ -12681,16 +13465,16 @@
       </c>
       <c r="W8" s="286"/>
       <c r="X8" s="287"/>
-      <c r="Y8" s="237">
+      <c r="Y8" s="248">
         <v>7</v>
       </c>
-      <c r="Z8" s="238"/>
-      <c r="AA8" s="240"/>
-      <c r="AB8" s="237">
+      <c r="Z8" s="249"/>
+      <c r="AA8" s="250"/>
+      <c r="AB8" s="248">
         <v>8</v>
       </c>
-      <c r="AC8" s="238"/>
-      <c r="AD8" s="240"/>
+      <c r="AC8" s="249"/>
+      <c r="AD8" s="250"/>
       <c r="AE8" s="285">
         <v>9</v>
       </c>
@@ -12716,16 +13500,16 @@
       </c>
       <c r="AR8" s="286"/>
       <c r="AS8" s="287"/>
-      <c r="AT8" s="251">
+      <c r="AT8" s="279">
         <v>14</v>
       </c>
-      <c r="AU8" s="238"/>
-      <c r="AV8" s="240"/>
-      <c r="AW8" s="237">
+      <c r="AU8" s="249"/>
+      <c r="AV8" s="250"/>
+      <c r="AW8" s="248">
         <v>15</v>
       </c>
-      <c r="AX8" s="238"/>
-      <c r="AY8" s="240"/>
+      <c r="AX8" s="249"/>
+      <c r="AY8" s="250"/>
       <c r="AZ8" s="285">
         <v>16</v>
       </c>
@@ -12751,16 +13535,16 @@
       </c>
       <c r="BM8" s="286"/>
       <c r="BN8" s="287"/>
-      <c r="BO8" s="237">
+      <c r="BO8" s="248">
         <v>21</v>
       </c>
-      <c r="BP8" s="238"/>
-      <c r="BQ8" s="240"/>
-      <c r="BR8" s="237">
+      <c r="BP8" s="249"/>
+      <c r="BQ8" s="250"/>
+      <c r="BR8" s="248">
         <v>22</v>
       </c>
-      <c r="BS8" s="238"/>
-      <c r="BT8" s="240"/>
+      <c r="BS8" s="249"/>
+      <c r="BT8" s="250"/>
       <c r="BU8" s="288">
         <v>23</v>
       </c>
@@ -12786,16 +13570,16 @@
       </c>
       <c r="CH8" s="286"/>
       <c r="CI8" s="289"/>
-      <c r="CJ8" s="237">
+      <c r="CJ8" s="248">
         <v>28</v>
       </c>
-      <c r="CK8" s="238"/>
-      <c r="CL8" s="240"/>
-      <c r="CM8" s="237">
+      <c r="CK8" s="249"/>
+      <c r="CL8" s="250"/>
+      <c r="CM8" s="248">
         <v>29</v>
       </c>
-      <c r="CN8" s="238"/>
-      <c r="CO8" s="240"/>
+      <c r="CN8" s="249"/>
+      <c r="CO8" s="250"/>
       <c r="CP8" s="285">
         <v>30</v>
       </c>
@@ -12840,8 +13624,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="244"/>
-      <c r="DI8" s="247"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -18166,45 +18950,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="231"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
-      <c r="O31" s="231"/>
-      <c r="P31" s="231"/>
-      <c r="Q31" s="231"/>
-      <c r="R31" s="231"/>
-      <c r="S31" s="231"/>
-      <c r="T31" s="231"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="231"/>
-      <c r="W31" s="231"/>
-      <c r="X31" s="231"/>
-      <c r="Y31" s="231"/>
-      <c r="Z31" s="231"/>
-      <c r="AA31" s="231"/>
-      <c r="AB31" s="231"/>
-      <c r="AC31" s="231"/>
-      <c r="AD31" s="231"/>
-      <c r="AE31" s="231"/>
-      <c r="AF31" s="231"/>
-      <c r="AG31" s="231"/>
-      <c r="AH31" s="231"/>
-      <c r="AI31" s="231"/>
-      <c r="AJ31" s="231"/>
-      <c r="AK31" s="231"/>
-      <c r="AL31" s="231"/>
-      <c r="AM31" s="231"/>
-      <c r="AN31" s="231"/>
-      <c r="AO31" s="231"/>
-      <c r="AP31" s="231"/>
-      <c r="AQ31" s="231"/>
-      <c r="AR31" s="231"/>
-      <c r="AS31" s="231"/>
+      <c r="G31" s="283"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="283"/>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="283"/>
+      <c r="Q31" s="283"/>
+      <c r="R31" s="283"/>
+      <c r="S31" s="283"/>
+      <c r="T31" s="283"/>
+      <c r="U31" s="283"/>
+      <c r="V31" s="283"/>
+      <c r="W31" s="283"/>
+      <c r="X31" s="283"/>
+      <c r="Y31" s="283"/>
+      <c r="Z31" s="283"/>
+      <c r="AA31" s="283"/>
+      <c r="AB31" s="283"/>
+      <c r="AC31" s="283"/>
+      <c r="AD31" s="283"/>
+      <c r="AE31" s="283"/>
+      <c r="AF31" s="283"/>
+      <c r="AG31" s="283"/>
+      <c r="AH31" s="283"/>
+      <c r="AI31" s="283"/>
+      <c r="AJ31" s="283"/>
+      <c r="AK31" s="283"/>
+      <c r="AL31" s="283"/>
+      <c r="AM31" s="283"/>
+      <c r="AN31" s="283"/>
+      <c r="AO31" s="283"/>
+      <c r="AP31" s="283"/>
+      <c r="AQ31" s="283"/>
+      <c r="AR31" s="283"/>
+      <c r="AS31" s="283"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -18509,45 +19293,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
-      <c r="Q35" s="231"/>
-      <c r="R35" s="231"/>
-      <c r="S35" s="231"/>
-      <c r="T35" s="231"/>
-      <c r="U35" s="231"/>
-      <c r="V35" s="231"/>
-      <c r="W35" s="231"/>
-      <c r="X35" s="231"/>
-      <c r="Y35" s="231"/>
-      <c r="Z35" s="231"/>
-      <c r="AA35" s="231"/>
-      <c r="AB35" s="231"/>
-      <c r="AC35" s="231"/>
-      <c r="AD35" s="231"/>
-      <c r="AE35" s="231"/>
-      <c r="AF35" s="231"/>
-      <c r="AG35" s="231"/>
-      <c r="AH35" s="231"/>
-      <c r="AI35" s="231"/>
-      <c r="AJ35" s="231"/>
-      <c r="AK35" s="231"/>
-      <c r="AL35" s="231"/>
-      <c r="AM35" s="231"/>
-      <c r="AN35" s="231"/>
-      <c r="AO35" s="231"/>
-      <c r="AP35" s="231"/>
-      <c r="AQ35" s="231"/>
-      <c r="AR35" s="231"/>
-      <c r="AS35" s="231"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="283"/>
+      <c r="I35" s="283"/>
+      <c r="J35" s="283"/>
+      <c r="K35" s="283"/>
+      <c r="L35" s="283"/>
+      <c r="M35" s="283"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="283"/>
+      <c r="P35" s="283"/>
+      <c r="Q35" s="283"/>
+      <c r="R35" s="283"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="283"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
+      <c r="W35" s="283"/>
+      <c r="X35" s="283"/>
+      <c r="Y35" s="283"/>
+      <c r="Z35" s="283"/>
+      <c r="AA35" s="283"/>
+      <c r="AB35" s="283"/>
+      <c r="AC35" s="283"/>
+      <c r="AD35" s="283"/>
+      <c r="AE35" s="283"/>
+      <c r="AF35" s="283"/>
+      <c r="AG35" s="283"/>
+      <c r="AH35" s="283"/>
+      <c r="AI35" s="283"/>
+      <c r="AJ35" s="283"/>
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="283"/>
+      <c r="AO35" s="283"/>
+      <c r="AP35" s="283"/>
+      <c r="AQ35" s="283"/>
+      <c r="AR35" s="283"/>
+      <c r="AS35" s="283"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -20705,17 +21489,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -20732,35 +21528,23 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="194" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="193" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20786,11 +21570,11 @@
   <dimension ref="A1:EF87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="Z16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AY22" sqref="AY22"/>
+      <selection pane="bottomRight" activeCell="BK18" sqref="BK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20957,21 +21741,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="262" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="262"/>
-      <c r="CW1" s="262"/>
-      <c r="CX1" s="262"/>
-      <c r="CY1" s="262"/>
-      <c r="CZ1" s="262"/>
-      <c r="DA1" s="262"/>
-      <c r="DB1" s="262"/>
-      <c r="DC1" s="262"/>
-      <c r="DD1" s="262"/>
-      <c r="DE1" s="262"/>
-      <c r="DF1" s="262"/>
-      <c r="DG1" s="262"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -21072,241 +21856,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="263" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="263"/>
-      <c r="CW2" s="263"/>
-      <c r="CX2" s="263"/>
-      <c r="CY2" s="263"/>
-      <c r="CZ2" s="263"/>
-      <c r="DA2" s="263"/>
-      <c r="DB2" s="263"/>
-      <c r="DC2" s="263"/>
-      <c r="DD2" s="263"/>
-      <c r="DE2" s="263"/>
-      <c r="DF2" s="263"/>
-      <c r="DG2" s="263"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="264"/>
-      <c r="AK3" s="264"/>
-      <c r="AL3" s="264"/>
-      <c r="AM3" s="264"/>
-      <c r="AN3" s="264"/>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="264"/>
-      <c r="AQ3" s="264"/>
-      <c r="AR3" s="264"/>
-      <c r="AS3" s="264"/>
-      <c r="AT3" s="264"/>
-      <c r="AU3" s="264"/>
-      <c r="AV3" s="264"/>
-      <c r="AW3" s="264"/>
-      <c r="AX3" s="264"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="264"/>
-      <c r="BC3" s="264"/>
-      <c r="BD3" s="264"/>
-      <c r="BE3" s="264"/>
-      <c r="BF3" s="264"/>
-      <c r="BG3" s="264"/>
-      <c r="BH3" s="264"/>
-      <c r="BI3" s="264"/>
-      <c r="BJ3" s="264"/>
-      <c r="BK3" s="264"/>
-      <c r="BL3" s="264"/>
-      <c r="BM3" s="264"/>
-      <c r="BN3" s="264"/>
-      <c r="BO3" s="264"/>
-      <c r="BP3" s="264"/>
-      <c r="BQ3" s="264"/>
-      <c r="BR3" s="264"/>
-      <c r="BS3" s="264"/>
-      <c r="BT3" s="264"/>
-      <c r="BU3" s="264"/>
-      <c r="BV3" s="264"/>
-      <c r="BW3" s="264"/>
-      <c r="BX3" s="264"/>
-      <c r="BY3" s="264"/>
-      <c r="BZ3" s="264"/>
-      <c r="CA3" s="264"/>
-      <c r="CB3" s="264"/>
-      <c r="CC3" s="264"/>
-      <c r="CD3" s="264"/>
-      <c r="CE3" s="264"/>
-      <c r="CF3" s="264"/>
-      <c r="CG3" s="264"/>
-      <c r="CH3" s="264"/>
-      <c r="CI3" s="264"/>
-      <c r="CJ3" s="264"/>
-      <c r="CK3" s="264"/>
-      <c r="CL3" s="264"/>
-      <c r="CM3" s="264"/>
-      <c r="CN3" s="264"/>
-      <c r="CO3" s="264"/>
-      <c r="CP3" s="264"/>
-      <c r="CQ3" s="264"/>
-      <c r="CR3" s="264"/>
-      <c r="CS3" s="264"/>
-      <c r="CT3" s="264"/>
-      <c r="CU3" s="264"/>
-      <c r="CV3" s="265" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="265"/>
-      <c r="CX3" s="265"/>
-      <c r="CY3" s="265"/>
-      <c r="CZ3" s="265"/>
-      <c r="DA3" s="265"/>
-      <c r="DB3" s="265"/>
-      <c r="DC3" s="265"/>
-      <c r="DD3" s="265"/>
-      <c r="DE3" s="265"/>
-      <c r="DF3" s="265"/>
-      <c r="DG3" s="265"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
-      <c r="U4" s="272"/>
-      <c r="V4" s="272"/>
-      <c r="W4" s="272"/>
-      <c r="X4" s="272"/>
-      <c r="Y4" s="272"/>
-      <c r="Z4" s="272"/>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="272"/>
-      <c r="AC4" s="272"/>
-      <c r="AD4" s="272"/>
-      <c r="AE4" s="272"/>
-      <c r="AF4" s="272"/>
-      <c r="AG4" s="272"/>
-      <c r="AH4" s="272"/>
-      <c r="AI4" s="272"/>
-      <c r="AJ4" s="272"/>
-      <c r="AK4" s="272"/>
-      <c r="AL4" s="272"/>
-      <c r="AM4" s="272"/>
-      <c r="AN4" s="272"/>
-      <c r="AO4" s="272"/>
-      <c r="AP4" s="272"/>
-      <c r="AQ4" s="272"/>
-      <c r="AR4" s="272"/>
-      <c r="AS4" s="272"/>
-      <c r="AT4" s="272"/>
-      <c r="AU4" s="272"/>
-      <c r="AV4" s="272"/>
-      <c r="AW4" s="272"/>
-      <c r="AX4" s="272"/>
-      <c r="AY4" s="272"/>
-      <c r="AZ4" s="272"/>
-      <c r="BA4" s="272"/>
-      <c r="BB4" s="272"/>
-      <c r="BC4" s="272"/>
-      <c r="BD4" s="272"/>
-      <c r="BE4" s="272"/>
-      <c r="BF4" s="272"/>
-      <c r="BG4" s="272"/>
-      <c r="BH4" s="272"/>
-      <c r="BI4" s="272"/>
-      <c r="BJ4" s="272"/>
-      <c r="BK4" s="272"/>
-      <c r="BL4" s="272"/>
-      <c r="BM4" s="272"/>
-      <c r="BN4" s="272"/>
-      <c r="BO4" s="272"/>
-      <c r="BP4" s="272"/>
-      <c r="BQ4" s="272"/>
-      <c r="BR4" s="272"/>
-      <c r="BS4" s="272"/>
-      <c r="BT4" s="272"/>
-      <c r="BU4" s="272"/>
-      <c r="BV4" s="272"/>
-      <c r="BW4" s="272"/>
-      <c r="BX4" s="272"/>
-      <c r="BY4" s="272"/>
-      <c r="BZ4" s="272"/>
-      <c r="CA4" s="272"/>
-      <c r="CB4" s="272"/>
-      <c r="CC4" s="272"/>
-      <c r="CD4" s="272"/>
-      <c r="CE4" s="272"/>
-      <c r="CF4" s="272"/>
-      <c r="CG4" s="272"/>
-      <c r="CH4" s="272"/>
-      <c r="CI4" s="272"/>
-      <c r="CJ4" s="272"/>
-      <c r="CK4" s="272"/>
-      <c r="CL4" s="272"/>
-      <c r="CM4" s="272"/>
-      <c r="CN4" s="272"/>
-      <c r="CO4" s="272"/>
-      <c r="CP4" s="272"/>
-      <c r="CQ4" s="272"/>
-      <c r="CR4" s="272"/>
-      <c r="CS4" s="272"/>
-      <c r="CT4" s="272"/>
-      <c r="CU4" s="272"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -21436,278 +22220,278 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="276" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="279" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="282" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
-      <c r="Y6" s="252"/>
-      <c r="Z6" s="252"/>
-      <c r="AA6" s="252"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="252"/>
-      <c r="AD6" s="252"/>
-      <c r="AE6" s="252"/>
-      <c r="AF6" s="252"/>
-      <c r="AG6" s="252"/>
-      <c r="AH6" s="252"/>
-      <c r="AI6" s="252"/>
-      <c r="AJ6" s="252"/>
-      <c r="AK6" s="252"/>
-      <c r="AL6" s="252"/>
-      <c r="AM6" s="252"/>
-      <c r="AN6" s="252"/>
-      <c r="AO6" s="252"/>
-      <c r="AP6" s="252"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="252"/>
-      <c r="AT6" s="252"/>
-      <c r="AU6" s="252"/>
-      <c r="AV6" s="252"/>
-      <c r="AW6" s="252"/>
-      <c r="AX6" s="252"/>
-      <c r="AY6" s="252"/>
-      <c r="AZ6" s="252"/>
-      <c r="BA6" s="252"/>
-      <c r="BB6" s="252"/>
-      <c r="BC6" s="252"/>
-      <c r="BD6" s="252"/>
-      <c r="BE6" s="252"/>
-      <c r="BF6" s="252"/>
-      <c r="BG6" s="252"/>
-      <c r="BH6" s="252"/>
-      <c r="BI6" s="252"/>
-      <c r="BJ6" s="252"/>
-      <c r="BK6" s="252"/>
-      <c r="BL6" s="252"/>
-      <c r="BM6" s="252"/>
-      <c r="BN6" s="252"/>
-      <c r="BO6" s="252"/>
-      <c r="BP6" s="252"/>
-      <c r="BQ6" s="252"/>
-      <c r="BR6" s="252"/>
-      <c r="BS6" s="252"/>
-      <c r="BT6" s="252"/>
-      <c r="BU6" s="252"/>
-      <c r="BV6" s="252"/>
-      <c r="BW6" s="252"/>
-      <c r="BX6" s="252"/>
-      <c r="BY6" s="252"/>
-      <c r="BZ6" s="252"/>
-      <c r="CA6" s="252"/>
-      <c r="CB6" s="252"/>
-      <c r="CC6" s="252"/>
-      <c r="CD6" s="252"/>
-      <c r="CE6" s="252"/>
-      <c r="CF6" s="252"/>
-      <c r="CG6" s="252"/>
-      <c r="CH6" s="252"/>
-      <c r="CI6" s="252"/>
-      <c r="CJ6" s="252"/>
-      <c r="CK6" s="252"/>
-      <c r="CL6" s="252"/>
-      <c r="CM6" s="252"/>
-      <c r="CN6" s="252"/>
-      <c r="CO6" s="252"/>
-      <c r="CP6" s="252"/>
-      <c r="CQ6" s="252"/>
-      <c r="CR6" s="252"/>
-      <c r="CS6" s="252"/>
-      <c r="CT6" s="252"/>
-      <c r="CU6" s="252"/>
-      <c r="CV6" s="266" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="267"/>
-      <c r="CX6" s="266" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="270"/>
-      <c r="CZ6" s="270"/>
-      <c r="DA6" s="270"/>
-      <c r="DB6" s="270"/>
-      <c r="DC6" s="270"/>
-      <c r="DD6" s="270"/>
-      <c r="DE6" s="270"/>
-      <c r="DF6" s="270"/>
-      <c r="DG6" s="270"/>
-      <c r="DH6" s="242" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="245" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="255" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="255"/>
-      <c r="DL6" s="255"/>
-      <c r="DM6" s="255"/>
-      <c r="DN6" s="255"/>
-      <c r="DO6" s="256"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="274"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="253"/>
-      <c r="AB7" s="253"/>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="253"/>
-      <c r="AG7" s="253"/>
-      <c r="AH7" s="253"/>
-      <c r="AI7" s="253"/>
-      <c r="AJ7" s="253"/>
-      <c r="AK7" s="253"/>
-      <c r="AL7" s="253"/>
-      <c r="AM7" s="253"/>
-      <c r="AN7" s="253"/>
-      <c r="AO7" s="253"/>
-      <c r="AP7" s="253"/>
-      <c r="AQ7" s="253"/>
-      <c r="AR7" s="253"/>
-      <c r="AS7" s="253"/>
-      <c r="AT7" s="253"/>
-      <c r="AU7" s="253"/>
-      <c r="AV7" s="253"/>
-      <c r="AW7" s="253"/>
-      <c r="AX7" s="253"/>
-      <c r="AY7" s="253"/>
-      <c r="AZ7" s="253"/>
-      <c r="BA7" s="253"/>
-      <c r="BB7" s="253"/>
-      <c r="BC7" s="253"/>
-      <c r="BD7" s="253"/>
-      <c r="BE7" s="253"/>
-      <c r="BF7" s="253"/>
-      <c r="BG7" s="253"/>
-      <c r="BH7" s="253"/>
-      <c r="BI7" s="253"/>
-      <c r="BJ7" s="253"/>
-      <c r="BK7" s="253"/>
-      <c r="BL7" s="253"/>
-      <c r="BM7" s="253"/>
-      <c r="BN7" s="253"/>
-      <c r="BO7" s="254"/>
-      <c r="BP7" s="254"/>
-      <c r="BQ7" s="254"/>
-      <c r="BR7" s="253"/>
-      <c r="BS7" s="253"/>
-      <c r="BT7" s="253"/>
-      <c r="BU7" s="253"/>
-      <c r="BV7" s="253"/>
-      <c r="BW7" s="253"/>
-      <c r="BX7" s="253"/>
-      <c r="BY7" s="253"/>
-      <c r="BZ7" s="253"/>
-      <c r="CA7" s="253"/>
-      <c r="CB7" s="253"/>
-      <c r="CC7" s="253"/>
-      <c r="CD7" s="253"/>
-      <c r="CE7" s="253"/>
-      <c r="CF7" s="253"/>
-      <c r="CG7" s="253"/>
-      <c r="CH7" s="253"/>
-      <c r="CI7" s="253"/>
-      <c r="CJ7" s="253"/>
-      <c r="CK7" s="253"/>
-      <c r="CL7" s="253"/>
-      <c r="CM7" s="253"/>
-      <c r="CN7" s="253"/>
-      <c r="CO7" s="253"/>
-      <c r="CP7" s="253"/>
-      <c r="CQ7" s="253"/>
-      <c r="CR7" s="253"/>
-      <c r="CS7" s="253"/>
-      <c r="CT7" s="253"/>
-      <c r="CU7" s="253"/>
-      <c r="CV7" s="268"/>
-      <c r="CW7" s="269"/>
-      <c r="CX7" s="268"/>
-      <c r="CY7" s="271"/>
-      <c r="CZ7" s="271"/>
-      <c r="DA7" s="271"/>
-      <c r="DB7" s="271"/>
-      <c r="DC7" s="271"/>
-      <c r="DD7" s="271"/>
-      <c r="DE7" s="271"/>
-      <c r="DF7" s="271"/>
-      <c r="DG7" s="271"/>
-      <c r="DH7" s="243"/>
-      <c r="DI7" s="246"/>
-      <c r="DJ7" s="257"/>
-      <c r="DK7" s="257"/>
-      <c r="DL7" s="257"/>
-      <c r="DM7" s="257"/>
-      <c r="DN7" s="257"/>
-      <c r="DO7" s="258"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="275"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="284"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
       <c r="G8" s="294">
         <v>1</v>
       </c>
@@ -21728,16 +22512,16 @@
       </c>
       <c r="Q8" s="286"/>
       <c r="R8" s="287"/>
-      <c r="S8" s="237">
+      <c r="S8" s="248">
         <v>5</v>
       </c>
-      <c r="T8" s="238"/>
-      <c r="U8" s="239"/>
-      <c r="V8" s="237">
+      <c r="T8" s="249"/>
+      <c r="U8" s="269"/>
+      <c r="V8" s="248">
         <v>6</v>
       </c>
-      <c r="W8" s="238"/>
-      <c r="X8" s="240"/>
+      <c r="W8" s="249"/>
+      <c r="X8" s="250"/>
       <c r="Y8" s="285">
         <v>7</v>
       </c>
@@ -21763,16 +22547,16 @@
       </c>
       <c r="AL8" s="286"/>
       <c r="AM8" s="287"/>
-      <c r="AN8" s="251">
+      <c r="AN8" s="279">
         <v>12</v>
       </c>
-      <c r="AO8" s="238"/>
-      <c r="AP8" s="239"/>
-      <c r="AQ8" s="237">
+      <c r="AO8" s="249"/>
+      <c r="AP8" s="269"/>
+      <c r="AQ8" s="248">
         <v>13</v>
       </c>
-      <c r="AR8" s="238"/>
-      <c r="AS8" s="240"/>
+      <c r="AR8" s="249"/>
+      <c r="AS8" s="250"/>
       <c r="AT8" s="288">
         <v>14</v>
       </c>
@@ -21798,16 +22582,16 @@
       </c>
       <c r="BG8" s="286"/>
       <c r="BH8" s="287"/>
-      <c r="BI8" s="251">
+      <c r="BI8" s="279">
         <v>19</v>
       </c>
-      <c r="BJ8" s="238"/>
-      <c r="BK8" s="239"/>
-      <c r="BL8" s="237">
+      <c r="BJ8" s="249"/>
+      <c r="BK8" s="269"/>
+      <c r="BL8" s="248">
         <v>20</v>
       </c>
-      <c r="BM8" s="238"/>
-      <c r="BN8" s="240"/>
+      <c r="BM8" s="249"/>
+      <c r="BN8" s="250"/>
       <c r="BO8" s="285">
         <v>21</v>
       </c>
@@ -21833,16 +22617,16 @@
       </c>
       <c r="CB8" s="286"/>
       <c r="CC8" s="289"/>
-      <c r="CD8" s="237">
+      <c r="CD8" s="248">
         <v>26</v>
       </c>
-      <c r="CE8" s="238"/>
-      <c r="CF8" s="240"/>
-      <c r="CG8" s="251">
+      <c r="CE8" s="249"/>
+      <c r="CF8" s="250"/>
+      <c r="CG8" s="279">
         <v>27</v>
       </c>
-      <c r="CH8" s="238"/>
-      <c r="CI8" s="239"/>
+      <c r="CH8" s="249"/>
+      <c r="CI8" s="269"/>
       <c r="CJ8" s="285">
         <v>28</v>
       </c>
@@ -21899,8 +22683,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="244"/>
-      <c r="DI8" s="247"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -22380,25 +23164,39 @@
       </c>
       <c r="AS10" s="174"/>
       <c r="AT10" s="175"/>
-      <c r="AU10" s="173"/>
+      <c r="AU10" s="173">
+        <v>8</v>
+      </c>
       <c r="AV10" s="174"/>
       <c r="AW10" s="175"/>
-      <c r="AX10" s="173"/>
+      <c r="AX10" s="173">
+        <v>8</v>
+      </c>
       <c r="AY10" s="174"/>
       <c r="AZ10" s="175"/>
-      <c r="BA10" s="173"/>
+      <c r="BA10" s="173">
+        <v>8</v>
+      </c>
       <c r="BB10" s="174"/>
       <c r="BC10" s="175"/>
-      <c r="BD10" s="173"/>
+      <c r="BD10" s="173">
+        <v>8</v>
+      </c>
       <c r="BE10" s="174"/>
       <c r="BF10" s="175"/>
-      <c r="BG10" s="173"/>
+      <c r="BG10" s="173">
+        <v>8</v>
+      </c>
       <c r="BH10" s="174"/>
       <c r="BI10" s="175"/>
-      <c r="BJ10" s="173"/>
+      <c r="BJ10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="BK10" s="174"/>
       <c r="BL10" s="175"/>
-      <c r="BM10" s="173"/>
+      <c r="BM10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="BN10" s="174"/>
       <c r="BO10" s="175"/>
       <c r="BP10" s="173"/>
@@ -22435,7 +23233,7 @@
       <c r="CU10" s="174"/>
       <c r="CV10" s="177">
         <f t="shared" ref="CV10:CV23" si="0">IF(SUM(G10:I10)&gt;=1,1,0)+IF(SUM(J10:L10)&gt;=1,1,0)+IF(SUM(M10:O10)&gt;=1,1,0)+IF(SUM(P10:R10)&gt;=1,1,0)+IF(SUM(S10:U10)&gt;=1,1,0)+IF(SUM(V10:X10)&gt;=1,1,0)+IF(SUM(Y10:AA10)&gt;=1,1,0)+IF(SUM(AB10:AD10)&gt;=1,1,0)+IF(SUM(AE10:AG10)&gt;=1,1,0)+IF(SUM(AH10:AJ10)&gt;=1,1,0)+IF(SUM(AK10:AM10)&gt;=1,1,0)+IF(SUM(AN10:AP10)&gt;=1,1,0)+IF(SUM(AQ10:AS10)&gt;=1,1,0)+IF(SUM(AT10:AV10)&gt;=1,1,0)+IF(SUM(AW10:AY10)&gt;=1,1,0)+IF(SUM(AZ10:BB10)&gt;=1,1,0)+IF(SUM(BC10:BE10)&gt;=1,1,0)+IF(SUM(BF10:BH10)&gt;=1,1,0)+IF(SUM(BI10:BK10)&gt;=1,1,0)+IF(SUM(BL10:BN10)&gt;=1,1,0)+IF(SUM(BO10:BQ10)&gt;=1,1,0)+IF(SUM(BR10:BT10)&gt;=1,1,0)+IF(SUM(BU10:BW10)&gt;=1,1,0)+IF(SUM(BX10:BZ10)&gt;=1,1,0)+IF(SUM(CA10:CC10)&gt;=1,1,0)+IF(SUM(CD10:CF10)&gt;=1,1,0)+IF(SUM(CG10:CI10)&gt;=1,1,0)+IF(SUM(CJ10:CL10)&gt;=1,1,0)+IF(SUM(CM10:CO10)&gt;=1,1,0)+IF(SUM(CP10:CR10)&gt;=1,1,0)+IF(SUM(CS10:CU10)&gt;=1,1,0)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CW10" s="178">
         <f t="shared" ref="CW10:CW23" si="1">IF(CK10="К",1,0)+IF(CN10="К",1,0)+IF(CQ10="К",1,0)+IF(CT10="К",1,0)+IF(CH10="К",1,0)+IF(H10="К",1,0)+IF(K10="К",1,0)+IF(N10="К",1,0)+IF(Q10="К",1,0)+IF(T10="К",1,0)+IF(W10="К",1,0)+IF(Z10="К",1,0)+IF(AC10="К",1,0)+IF(AF10="К",1,0)+IF(AI10="К",1,0)+IF(AL10="К",1,0)+IF(AO10="К",1,0)+IF(AR10="К",1,0)+IF(AU10="К",1,0)+IF(AX10="К",1,0)+IF(BA10="К",1,0)+IF(BD10="К",1,0)+IF(BG10="К",1,0)+IF(BJ10="К",1,0)+IF(BM10="К",1,0)+IF(BP10="К",1,0)+IF(BS10="К",1,0)+IF(BV10="К",1,0)+IF(BY10="К",1,0)+IF(CB10="К",1,0)+IF(CE10="К",1,0)</f>
@@ -22483,15 +23281,15 @@
       </c>
       <c r="DH10" s="178">
         <f t="shared" ref="DH10:DH22" si="12">IF(CQ10="В",1,0)+IF(CT10="В",1,0)+IF(H10="В",1,0)+IF(K10="В",1,0)+IF(N10="В",1,0)+IF(Q10="В",1,0)+IF(T10="В",1,0)+IF(W10="В",1,0)+IF(Z10="В",1,0)+IF(AC10="В",1,0)+IF(AF10="В",1,0)+IF(AI10="В",1,0)+IF(AL10="В",1,0)+IF(AO10="В",1,0)+IF(AR10="В",1,0)+IF(AU10="В",1,0)+IF(AX10="В",1,0)+IF(BA10="В",1,0)+IF(BD10="В",1,0)+IF(BG10="В",1,0)+IF(BJ10="В",1,0)+IF(BM10="В",1,0)+IF(BP10="В",1,0)+IF(BS10="В",1,0)+IF(BV10="В",1,0)+IF(BY10="В",1,0)+IF(CB10="В",1,0)+IF(CE10="В",1,0)+IF(CH10="В",1,0)+IF(CK10="В",1,0)+IF(CN10="В",1,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DI10" s="178">
         <f t="shared" ref="DI10:DI22" si="13">SUM(CV10:DH10)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="DJ10" s="170">
         <f>SUM(G10:CU10)</f>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="DK10" s="170">
         <v>0</v>
@@ -22515,7 +23313,7 @@
       </c>
       <c r="DS10" s="32">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="DT10" s="32">
         <f t="shared" si="16"/>
@@ -22661,16 +23459,24 @@
       </c>
       <c r="BB11" s="183"/>
       <c r="BC11" s="187"/>
-      <c r="BD11" s="182"/>
+      <c r="BD11" s="182">
+        <v>8</v>
+      </c>
       <c r="BE11" s="183"/>
       <c r="BF11" s="187"/>
-      <c r="BG11" s="182"/>
+      <c r="BG11" s="182">
+        <v>8</v>
+      </c>
       <c r="BH11" s="183"/>
       <c r="BI11" s="187"/>
-      <c r="BJ11" s="182"/>
+      <c r="BJ11" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BK11" s="183"/>
       <c r="BL11" s="187"/>
-      <c r="BM11" s="182"/>
+      <c r="BM11" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BN11" s="183"/>
       <c r="BO11" s="187"/>
       <c r="BP11" s="182"/>
@@ -22707,7 +23513,7 @@
       <c r="CU11" s="183"/>
       <c r="CV11" s="188">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CW11" s="189">
         <f t="shared" si="1"/>
@@ -22755,15 +23561,15 @@
       </c>
       <c r="DH11" s="189">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DI11" s="189">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="DJ11" s="190">
         <f t="shared" ref="DJ11:DJ23" si="24">SUM(G11:CU11)</f>
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="DK11" s="190">
         <v>0</v>
@@ -22787,7 +23593,7 @@
       </c>
       <c r="DS11" s="32">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DT11" s="32">
         <f t="shared" si="16"/>
@@ -22941,25 +23747,41 @@
       </c>
       <c r="BB12" s="183"/>
       <c r="BC12" s="206"/>
-      <c r="BD12" s="204"/>
+      <c r="BD12" s="204">
+        <v>11.25</v>
+      </c>
       <c r="BE12" s="205"/>
       <c r="BF12" s="206"/>
       <c r="BG12" s="204"/>
-      <c r="BH12" s="205"/>
-      <c r="BI12" s="206"/>
+      <c r="BH12" s="205">
+        <v>4</v>
+      </c>
+      <c r="BI12" s="206">
+        <v>7.25</v>
+      </c>
       <c r="BJ12" s="204"/>
-      <c r="BK12" s="205"/>
-      <c r="BL12" s="206"/>
+      <c r="BK12" s="205">
+        <v>4</v>
+      </c>
+      <c r="BL12" s="206">
+        <v>7.25</v>
+      </c>
       <c r="BM12" s="204"/>
       <c r="BN12" s="205"/>
       <c r="BO12" s="206"/>
-      <c r="BP12" s="204"/>
+      <c r="BP12" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ12" s="205"/>
       <c r="BR12" s="206"/>
-      <c r="BS12" s="204"/>
+      <c r="BS12" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="BT12" s="205"/>
       <c r="BU12" s="206"/>
-      <c r="BV12" s="204"/>
+      <c r="BV12" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="BW12" s="205"/>
       <c r="BX12" s="206"/>
       <c r="BY12" s="204"/>
@@ -22987,7 +23809,7 @@
       <c r="CU12" s="205"/>
       <c r="CV12" s="209">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CW12" s="210">
         <f t="shared" si="1"/>
@@ -23035,15 +23857,15 @@
       </c>
       <c r="DH12" s="210">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="DI12" s="210">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="DJ12" s="212">
         <f t="shared" si="24"/>
-        <v>90</v>
+        <v>123.75</v>
       </c>
       <c r="DK12" s="213">
         <v>0</v>
@@ -23052,14 +23874,14 @@
       <c r="DM12" s="213"/>
       <c r="DN12" s="214">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="DO12" s="215">
         <v>0</v>
       </c>
       <c r="DQ12" s="32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DR12" s="32">
         <f t="shared" si="16"/>
@@ -23103,19 +23925,19 @@
       </c>
       <c r="EB12" s="32">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="EC12" s="32">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EE12" s="152">
         <f t="shared" ref="EE12:EE23" si="26">COUNTIF(G12:CU12, "4")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EF12" s="152">
         <f t="shared" ref="EF12:EF23" si="27">COUNTIF(G12:CU12, "7,25")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:136" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23217,25 +24039,41 @@
       </c>
       <c r="BB13" s="205"/>
       <c r="BC13" s="206"/>
-      <c r="BD13" s="204"/>
+      <c r="BD13" s="204">
+        <v>11.25</v>
+      </c>
       <c r="BE13" s="205"/>
       <c r="BF13" s="206"/>
       <c r="BG13" s="204"/>
-      <c r="BH13" s="205"/>
-      <c r="BI13" s="206"/>
+      <c r="BH13" s="205">
+        <v>4</v>
+      </c>
+      <c r="BI13" s="206">
+        <v>7.25</v>
+      </c>
       <c r="BJ13" s="204"/>
-      <c r="BK13" s="205"/>
-      <c r="BL13" s="206"/>
+      <c r="BK13" s="205">
+        <v>4</v>
+      </c>
+      <c r="BL13" s="206">
+        <v>7.25</v>
+      </c>
       <c r="BM13" s="204"/>
       <c r="BN13" s="205"/>
       <c r="BO13" s="206"/>
-      <c r="BP13" s="204"/>
+      <c r="BP13" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ13" s="205"/>
       <c r="BR13" s="206"/>
-      <c r="BS13" s="204"/>
+      <c r="BS13" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="BT13" s="205"/>
       <c r="BU13" s="206"/>
-      <c r="BV13" s="204"/>
+      <c r="BV13" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="BW13" s="205"/>
       <c r="BX13" s="206"/>
       <c r="BY13" s="204"/>
@@ -23263,7 +24101,7 @@
       <c r="CU13" s="205"/>
       <c r="CV13" s="216">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW13" s="210">
         <f>IF(CK13="К",1,0)+IF(CN13="К",1,0)+IF(CQ13="К",1,0)+IF(CT13="К",1,0)+IF(CH13="К",1,0)+IF(H13="К",1,0)+IF(K13="К",1,0)+IF(N13="К",1,0)+IF(Q13="К",1,0)+IF(T13="К",1,0)+IF(W13="К",1,0)+IF(Z13="К",1,0)+IF(AC13="К",1,0)+IF(AF13="К",1,0)+IF(AI13="К",1,0)+IF(AL13="К",1,0)+IF(AO13="К",1,0)+IF(AR13="К",1,0)+IF(AU13="К",1,0)+IF(AX13="К",1,0)+IF(BA13="К",1,0)+IF(BD13="К",1,0)+IF(BG13="К",1,0)+IF(BJ13="К",1,0)+IF(BM13="К",1,0)+IF(BP13="К",1,0)+IF(BS13="К",1,0)+IF(BV13="К",1,0)+IF(BY13="К",1,0)+IF(CB13="К",1,0)+IF(CE13="К",1,0)</f>
@@ -23311,15 +24149,15 @@
       </c>
       <c r="DH13" s="210">
         <f>IF(CQ13="В",1,0)+IF(CT13="В",1,0)+IF(H13="В",1,0)+IF(K13="В",1,0)+IF(N13="В",1,0)+IF(Q13="В",1,0)+IF(T13="В",1,0)+IF(W13="В",1,0)+IF(Z13="В",1,0)+IF(AC13="В",1,0)+IF(AF13="В",1,0)+IF(AI13="В",1,0)+IF(AL13="В",1,0)+IF(AO13="В",1,0)+IF(AR13="В",1,0)+IF(AU13="В",1,0)+IF(AX13="В",1,0)+IF(BA13="В",1,0)+IF(BD13="В",1,0)+IF(BG13="В",1,0)+IF(BJ13="В",1,0)+IF(BM13="В",1,0)+IF(BP13="В",1,0)+IF(BS13="В",1,0)+IF(BV13="В",1,0)+IF(BY13="В",1,0)+IF(CB13="В",1,0)+IF(CE13="В",1,0)+IF(CH13="В",1,0)+IF(CK13="В",1,0)+IF(CN13="В",1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DI13" s="210">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="DJ13" s="212">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="DK13" s="217">
         <v>0</v>
@@ -23328,14 +24166,14 @@
       <c r="DM13" s="217"/>
       <c r="DN13" s="218">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DO13" s="215">
         <v>0</v>
       </c>
       <c r="DQ13" s="32">
         <f>IF(I13=4,1,0)+IF(U13=4,1,0)+IF(X13=4,1,0)+IF(AA13=4,1,0)+IF(AD13=4,1,0)+IF(AG13=4,1,0)+IF(AJ13=4,1,0)+IF(AM13=4,1,0)+IF(AP13=4,1,0)+IF(AS13=4,1,0)+IF(AV13=4,1,0)+IF(AY13=4,1,0)+IF(BB13=4,1,0)+IF(BE13=4,1,0)+IF(BH13=4,1,0)+IF(BK13=4,1,0)+IF(BN13=4,1,0)+IF(BQ13=4,1,0)+IF(BT13=4,1,0)+IF(BW13=4,1,0)+IF(BZ13=4,1,0)+IF(CC13=4,1,0)+IF(CF13=4,1,0)+IF(CI13=4,1,0)+IF(CL13=4,1,0)+IF(CO13=4,1,0)+IF(CR13=4,1,0)+IF(CU13=4,1,0)+IF(L13=4,1,0)+IF(O13=4,1,0)+IF(R13=4,1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DR13" s="32">
         <f t="shared" si="16"/>
@@ -23379,19 +24217,19 @@
       </c>
       <c r="EB13" s="32">
         <f>IF(Q13=11.25,1,0)+IF(T13=11.25,1,0)+IF(W13=11.25,1,0)+IF(Z13=11.25,1,0)+IF(AC13=11.25,1,0)+IF(AF13=11.25,1,0)+IF(AI13=11.25,1,0)+IF(AL13=11.25,1,0)+IF(AO13=11.25,1,0)+IF(AR13=11.25,1,0)+IF(AU13=11.25,1,0)+IF(AX13=11.25,1,0)+IF(BA13=11.25,1,0)+IF(BD13=11.25,1,0)+IF(BG13=11.25,1,0)+IF(BJ13=11.25,1,0)+IF(BM13=11.25,1,0)+IF(BP13=11.25,1,0)+IF(BS13=11.25,1,0)+IF(BV13=11.25,1,0)+IF(BY13=11.25,1,0)+IF(CB13=11.25,1,0)+IF(CE13=11.25,1,0)+IF(CH13=11.25,1,0)+IF(CK13=11.25,1,0)+IF(CN13=11.25,1,0)+IF(CQ13=11.25,1,0)+IF(CT13=11.25,1,0)+IF(H13=11.25,1,0)+IF(K13=11.25,1,0)+IF(N13=11.25,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC13" s="32">
         <f>IF(S13=7.25,1,0)+IF(V13=7.25,1,0)+IF(Y13=7.25,1,0)+IF(AB13=7.25,1,0)+IF(AE13=7.25,1,0)+IF(AH13=7.25,1,0)+IF(AK13=7.25,1,0)+IF(AN13=7.25,1,0)+IF(AQ13=7.25,1,0)+IF(AT13=7.25,1,0)+IF(AW13=7.25,1,0)+IF(AZ13=7.25,1,0)+IF(BC13=7.25,1,0)+IF(BF13=7.25,1,0)+IF(BI13=7.25,1,0)+IF(BL13=7.25,1,0)+IF(BO13=7.25,1,0)+IF(BR13=7.25,1,0)+IF(BU13=7.25,1,0)+IF(BX13=7.25,1,0)+IF(CA13=7.25,1,0)+IF(CD13=7.25,1,0)+IF(CG13=7.25,1,0)+IF(CJ13=7.25,1,0)+IF(CM13=7.25,1,0)+IF(CP13=7.25,1,0)+IF(CS13=7.25,1,0)+IF(G13=7.25,1,0)+IF(J13=7.25,1,0)+IF(M13=7.25,1,0)+IF(P13=7.25,1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE13" s="152">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EF13" s="152">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23487,28 +24325,46 @@
       </c>
       <c r="AV14" s="183"/>
       <c r="AW14" s="187"/>
-      <c r="AX14" s="182"/>
+      <c r="AX14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AY14" s="183"/>
       <c r="AZ14" s="187"/>
       <c r="BA14" s="182"/>
-      <c r="BB14" s="183"/>
-      <c r="BC14" s="187"/>
+      <c r="BB14" s="183">
+        <v>4</v>
+      </c>
+      <c r="BC14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BD14" s="182"/>
-      <c r="BE14" s="183"/>
-      <c r="BF14" s="187"/>
+      <c r="BE14" s="183">
+        <v>4</v>
+      </c>
+      <c r="BF14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BG14" s="182"/>
       <c r="BH14" s="183"/>
       <c r="BI14" s="187"/>
-      <c r="BJ14" s="182"/>
+      <c r="BJ14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BK14" s="183"/>
       <c r="BL14" s="187"/>
-      <c r="BM14" s="182"/>
+      <c r="BM14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BN14" s="183"/>
       <c r="BO14" s="187"/>
-      <c r="BP14" s="182"/>
+      <c r="BP14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ14" s="183"/>
       <c r="BR14" s="187"/>
-      <c r="BS14" s="182"/>
+      <c r="BS14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BT14" s="183"/>
       <c r="BU14" s="187"/>
       <c r="BV14" s="182"/>
@@ -23539,7 +24395,7 @@
       <c r="CU14" s="183"/>
       <c r="CV14" s="168">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="CW14" s="79">
         <f t="shared" si="1"/>
@@ -23587,15 +24443,15 @@
       </c>
       <c r="DH14" s="80">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="DI14" s="80">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="DJ14" s="70">
         <f t="shared" si="24"/>
-        <v>74.75</v>
+        <v>119.75</v>
       </c>
       <c r="DK14" s="69">
         <v>0</v>
@@ -23604,14 +24460,14 @@
       <c r="DM14" s="75"/>
       <c r="DN14" s="71">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="DO14" s="72">
         <v>0</v>
       </c>
       <c r="DQ14" s="32">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DR14" s="32">
         <f t="shared" si="16"/>
@@ -23655,19 +24511,19 @@
       </c>
       <c r="EB14" s="32">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="EC14" s="32">
         <f>IF(S14=7.25,1,0)+IF(V14=7.25,1,0)+IF(Y14=7.25,1,0)+IF(AB14=7.25,1,0)+IF(AE14=7.25,1,0)+IF(AH14=7.25,1,0)+IF(AK14=7.25,1,0)+IF(AN14=7.25,1,0)+IF(AQ14=7.25,1,0)+IF(AT14=7.25,1,0)+IF(AW14=7.25,1,0)+IF(AZ14=7.25,1,0)+IF(BC14=7.25,1,0)+IF(BF14=7.25,1,0)+IF(BI14=7.25,1,0)+IF(BL14=7.25,1,0)+IF(BO14=7.25,1,0)+IF(BR14=7.25,1,0)+IF(BU14=7.25,1,0)+IF(BX14=7.25,1,0)+IF(CA14=7.25,1,0)+IF(CD14=7.25,1,0)+IF(CG14=7.25,1,0)+IF(CJ14=7.25,1,0)+IF(CM14=7.25,1,0)+IF(CP14=7.25,1,0)+IF(CS14=7.25,1,0)+IF(G14=7.25,1,0)+IF(J14=7.25,1,0)+IF(M14=7.25,1,0)+IF(P14=7.25,1,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EE14" s="152">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="EF14" s="152">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23763,28 +24619,46 @@
       </c>
       <c r="AV15" s="183"/>
       <c r="AW15" s="187"/>
-      <c r="AX15" s="182"/>
+      <c r="AX15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="AY15" s="183"/>
       <c r="AZ15" s="187"/>
       <c r="BA15" s="182"/>
-      <c r="BB15" s="183"/>
-      <c r="BC15" s="187"/>
+      <c r="BB15" s="183">
+        <v>4</v>
+      </c>
+      <c r="BC15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BD15" s="182"/>
-      <c r="BE15" s="183"/>
-      <c r="BF15" s="187"/>
+      <c r="BE15" s="183">
+        <v>4</v>
+      </c>
+      <c r="BF15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BG15" s="182"/>
       <c r="BH15" s="183"/>
       <c r="BI15" s="187"/>
-      <c r="BJ15" s="182"/>
+      <c r="BJ15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BK15" s="183"/>
       <c r="BL15" s="187"/>
-      <c r="BM15" s="182"/>
+      <c r="BM15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BN15" s="183"/>
       <c r="BO15" s="187"/>
-      <c r="BP15" s="182"/>
+      <c r="BP15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ15" s="183"/>
       <c r="BR15" s="187"/>
-      <c r="BS15" s="182"/>
+      <c r="BS15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BT15" s="183"/>
       <c r="BU15" s="187"/>
       <c r="BV15" s="182"/>
@@ -23815,7 +24689,7 @@
       <c r="CU15" s="183"/>
       <c r="CV15" s="168">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="CW15" s="79">
         <f>IF(CK15="К",1,0)+IF(CN15="К",1,0)+IF(CQ15="К",1,0)+IF(CT15="К",1,0)+IF(CH15="К",1,0)+IF(H15="К",1,0)+IF(K15="К",1,0)+IF(N15="К",1,0)+IF(Q15="К",1,0)+IF(T15="К",1,0)+IF(W15="К",1,0)+IF(Z15="К",1,0)+IF(AC15="К",1,0)+IF(AF15="К",1,0)+IF(AI15="К",1,0)+IF(AL15="К",1,0)+IF(AO15="К",1,0)+IF(AR15="К",1,0)+IF(AU15="К",1,0)+IF(AX15="К",1,0)+IF(BA15="К",1,0)+IF(BD15="К",1,0)+IF(BG15="К",1,0)+IF(BJ15="К",1,0)+IF(BM15="К",1,0)+IF(BP15="К",1,0)+IF(BS15="К",1,0)+IF(BV15="К",1,0)+IF(BY15="К",1,0)+IF(CB15="К",1,0)+IF(CE15="К",1,0)</f>
@@ -23863,15 +24737,15 @@
       </c>
       <c r="DH15" s="80">
         <f>IF(CQ15="В",1,0)+IF(CT15="В",1,0)+IF(H15="В",1,0)+IF(K15="В",1,0)+IF(N15="В",1,0)+IF(Q15="В",1,0)+IF(T15="В",1,0)+IF(W15="В",1,0)+IF(Z15="В",1,0)+IF(AC15="В",1,0)+IF(AF15="В",1,0)+IF(AI15="В",1,0)+IF(AL15="В",1,0)+IF(AO15="В",1,0)+IF(AR15="В",1,0)+IF(AU15="В",1,0)+IF(AX15="В",1,0)+IF(BA15="В",1,0)+IF(BD15="В",1,0)+IF(BG15="В",1,0)+IF(BJ15="В",1,0)+IF(BM15="В",1,0)+IF(BP15="В",1,0)+IF(BS15="В",1,0)+IF(BV15="В",1,0)+IF(BY15="В",1,0)+IF(CB15="В",1,0)+IF(CE15="В",1,0)+IF(CH15="В",1,0)+IF(CK15="В",1,0)+IF(CN15="В",1,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="DI15" s="80">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="DJ15" s="70">
         <f t="shared" si="24"/>
-        <v>74.75</v>
+        <v>119.75</v>
       </c>
       <c r="DK15" s="69">
         <v>0</v>
@@ -23880,14 +24754,14 @@
       <c r="DM15" s="75"/>
       <c r="DN15" s="71">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="DO15" s="72">
         <v>0</v>
       </c>
       <c r="DQ15" s="32">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DR15" s="32">
         <f t="shared" si="16"/>
@@ -23931,19 +24805,19 @@
       </c>
       <c r="EB15" s="32">
         <f>IF(Q15=11.25,1,0)+IF(T15=11.25,1,0)+IF(W15=11.25,1,0)+IF(Z15=11.25,1,0)+IF(AC15=11.25,1,0)+IF(AF15=11.25,1,0)+IF(AI15=11.25,1,0)+IF(AL15=11.25,1,0)+IF(AO15=11.25,1,0)+IF(AR15=11.25,1,0)+IF(AU15=11.25,1,0)+IF(AX15=11.25,1,0)+IF(BA15=11.25,1,0)+IF(BD15=11.25,1,0)+IF(BG15=11.25,1,0)+IF(BJ15=11.25,1,0)+IF(BM15=11.25,1,0)+IF(BP15=11.25,1,0)+IF(BS15=11.25,1,0)+IF(BV15=11.25,1,0)+IF(BY15=11.25,1,0)+IF(CB15=11.25,1,0)+IF(CE15=11.25,1,0)+IF(CH15=11.25,1,0)+IF(CK15=11.25,1,0)+IF(CN15=11.25,1,0)+IF(CQ15=11.25,1,0)+IF(CT15=11.25,1,0)+IF(H15=11.25,1,0)+IF(K15=11.25,1,0)+IF(N15=11.25,1,0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="EC15" s="32">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EE15" s="152">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="EF15" s="152">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24054,28 +24928,46 @@
       </c>
       <c r="BE16" s="183"/>
       <c r="BF16" s="187"/>
-      <c r="BG16" s="182"/>
+      <c r="BG16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BH16" s="183"/>
       <c r="BI16" s="187"/>
-      <c r="BJ16" s="182"/>
+      <c r="BJ16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BK16" s="183"/>
       <c r="BL16" s="187"/>
       <c r="BM16" s="182"/>
-      <c r="BN16" s="183"/>
-      <c r="BO16" s="187"/>
+      <c r="BN16" s="183">
+        <v>4</v>
+      </c>
+      <c r="BO16" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BP16" s="182"/>
-      <c r="BQ16" s="183"/>
-      <c r="BR16" s="187"/>
+      <c r="BQ16" s="183">
+        <v>4</v>
+      </c>
+      <c r="BR16" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BS16" s="182"/>
       <c r="BT16" s="183"/>
       <c r="BU16" s="187"/>
-      <c r="BV16" s="182"/>
+      <c r="BV16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BW16" s="183"/>
       <c r="BX16" s="187"/>
-      <c r="BY16" s="182"/>
+      <c r="BY16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BZ16" s="183"/>
       <c r="CA16" s="187"/>
-      <c r="CB16" s="182"/>
+      <c r="CB16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC16" s="183"/>
       <c r="CD16" s="187"/>
       <c r="CE16" s="182"/>
@@ -24097,7 +24989,7 @@
       <c r="CU16" s="183"/>
       <c r="CV16" s="168">
         <f>IF(SUM(G16:I16)&gt;=1,1,0)+IF(SUM(J16:L16)&gt;=1,1,0)+IF(SUM(M16:O16)&gt;=1,1,0)+IF(SUM(P16:R16)&gt;=1,1,0)+IF(SUM(S16:U16)&gt;=1,1,0)+IF(SUM(V16:X16)&gt;=1,1,0)+IF(SUM(Y16:AA16)&gt;=1,1,0)+IF(SUM(AB16:AD16)&gt;=1,1,0)+IF(SUM(AE16:AG16)&gt;=1,1,0)+IF(SUM(AH16:AJ16)&gt;=1,1,0)+IF(SUM(AK16:AM16)&gt;=1,1,0)+IF(SUM(AN16:AP16)&gt;=1,1,0)+IF(SUM(AQ16:AS16)&gt;=1,1,0)+IF(SUM(AT16:AV16)&gt;=1,1,0)+IF(SUM(AW16:AY16)&gt;=1,1,0)+IF(SUM(AZ16:BB16)&gt;=1,1,0)+IF(SUM(BC16:BE16)&gt;=1,1,0)+IF(SUM(BF16:BH16)&gt;=1,1,0)+IF(SUM(BI16:BK16)&gt;=1,1,0)+IF(SUM(BL16:BN16)&gt;=1,1,0)+IF(SUM(BO16:BQ16)&gt;=1,1,0)+IF(SUM(BR16:BT16)&gt;=1,1,0)+IF(SUM(BU16:BW16)&gt;=1,1,0)+IF(SUM(BX16:BZ16)&gt;=1,1,0)+IF(SUM(CA16:CC16)&gt;=1,1,0)+IF(SUM(CD16:CF16)&gt;=1,1,0)+IF(SUM(CG16:CI16)&gt;=1,1,0)+IF(SUM(CJ16:CL16)&gt;=1,1,0)+IF(SUM(CM16:CO16)&gt;=1,1,0)+IF(SUM(CP16:CR16)&gt;=1,1,0)+IF(SUM(CS16:CU16)&gt;=1,1,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CW16" s="79">
         <f t="shared" si="1"/>
@@ -24145,15 +25037,15 @@
       </c>
       <c r="DH16" s="80">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="DI16" s="80">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="DJ16" s="70">
         <f t="shared" si="24"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="DK16" s="69">
         <v>0</v>
@@ -24162,14 +25054,14 @@
       <c r="DM16" s="75"/>
       <c r="DN16" s="71">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="DO16" s="72">
         <v>0</v>
       </c>
       <c r="DQ16" s="32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DR16" s="32">
         <f t="shared" si="16"/>
@@ -24213,19 +25105,19 @@
       </c>
       <c r="EB16" s="32">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EC16" s="32">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EE16" s="152">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EF16" s="152">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24336,28 +25228,46 @@
       </c>
       <c r="BE17" s="183"/>
       <c r="BF17" s="187"/>
-      <c r="BG17" s="182"/>
+      <c r="BG17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BH17" s="183"/>
       <c r="BI17" s="187"/>
-      <c r="BJ17" s="182"/>
+      <c r="BJ17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BK17" s="183"/>
       <c r="BL17" s="187"/>
       <c r="BM17" s="182"/>
-      <c r="BN17" s="183"/>
-      <c r="BO17" s="187"/>
+      <c r="BN17" s="183">
+        <v>4</v>
+      </c>
+      <c r="BO17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BP17" s="182"/>
-      <c r="BQ17" s="183"/>
-      <c r="BR17" s="187"/>
+      <c r="BQ17" s="183">
+        <v>4</v>
+      </c>
+      <c r="BR17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BS17" s="182"/>
       <c r="BT17" s="183"/>
       <c r="BU17" s="187"/>
-      <c r="BV17" s="182"/>
+      <c r="BV17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BW17" s="183"/>
       <c r="BX17" s="187"/>
-      <c r="BY17" s="182"/>
+      <c r="BY17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BZ17" s="183"/>
       <c r="CA17" s="187"/>
-      <c r="CB17" s="182"/>
+      <c r="CB17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC17" s="183"/>
       <c r="CD17" s="187"/>
       <c r="CE17" s="182"/>
@@ -24379,7 +25289,7 @@
       <c r="CU17" s="183"/>
       <c r="CV17" s="168">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CW17" s="79">
         <f t="shared" si="1"/>
@@ -24427,15 +25337,15 @@
       </c>
       <c r="DH17" s="80">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="DI17" s="80">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="DJ17" s="70">
         <f t="shared" si="24"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="DK17" s="69">
         <v>0</v>
@@ -24444,14 +25354,14 @@
       <c r="DM17" s="75"/>
       <c r="DN17" s="71">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="DO17" s="72">
         <v>0</v>
       </c>
       <c r="DQ17" s="32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DR17" s="32">
         <f t="shared" si="16"/>
@@ -24495,19 +25405,19 @@
       </c>
       <c r="EB17" s="32">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EC17" s="32">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EE17" s="152">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EF17" s="152">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24628,28 +25538,46 @@
       </c>
       <c r="BK18" s="183"/>
       <c r="BL18" s="187"/>
-      <c r="BM18" s="182"/>
+      <c r="BM18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BN18" s="183"/>
       <c r="BO18" s="187"/>
-      <c r="BP18" s="182"/>
+      <c r="BP18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BQ18" s="183"/>
       <c r="BR18" s="187"/>
       <c r="BS18" s="182"/>
-      <c r="BT18" s="183"/>
-      <c r="BU18" s="187"/>
+      <c r="BT18" s="183">
+        <v>4</v>
+      </c>
+      <c r="BU18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BV18" s="182"/>
-      <c r="BW18" s="183"/>
-      <c r="BX18" s="187"/>
+      <c r="BW18" s="183">
+        <v>4</v>
+      </c>
+      <c r="BX18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BY18" s="182"/>
       <c r="BZ18" s="183"/>
       <c r="CA18" s="187"/>
-      <c r="CB18" s="182"/>
+      <c r="CB18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC18" s="183"/>
       <c r="CD18" s="187"/>
-      <c r="CE18" s="182"/>
+      <c r="CE18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CF18" s="183"/>
       <c r="CG18" s="187"/>
-      <c r="CH18" s="182"/>
+      <c r="CH18" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CI18" s="183"/>
       <c r="CJ18" s="187"/>
       <c r="CK18" s="182"/>
@@ -24665,7 +25593,7 @@
       <c r="CU18" s="183"/>
       <c r="CV18" s="168">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CW18" s="79">
         <f>IF(CK18="К",1,0)+IF(CN18="К",1,0)+IF(CQ18="К",1,0)+IF(CT18="К",1,0)+IF(CH18="К",1,0)+IF(H18="К",1,0)+IF(K18="К",1,0)+IF(N18="К",1,0)+IF(Q18="К",1,0)+IF(T18="К",1,0)+IF(W18="К",1,0)+IF(Z18="К",1,0)+IF(AC18="К",1,0)+IF(AF18="К",1,0)+IF(AI18="К",1,0)+IF(AL18="К",1,0)+IF(AO18="К",1,0)+IF(AR18="К",1,0)+IF(AU18="К",1,0)+IF(AX18="К",1,0)+IF(BA18="К",1,0)+IF(BD18="К",1,0)+IF(BG18="К",1,0)+IF(BJ18="К",1,0)+IF(BM18="К",1,0)+IF(BP18="К",1,0)+IF(BS18="К",1,0)+IF(BV18="К",1,0)+IF(BY18="К",1,0)+IF(CB18="К",1,0)+IF(CE18="К",1,0)</f>
@@ -24713,15 +25641,15 @@
       </c>
       <c r="DH18" s="80">
         <f>IF(CQ18="В",1,0)+IF(CT18="В",1,0)+IF(H18="В",1,0)+IF(K18="В",1,0)+IF(N18="В",1,0)+IF(Q18="В",1,0)+IF(T18="В",1,0)+IF(W18="В",1,0)+IF(Z18="В",1,0)+IF(AC18="В",1,0)+IF(AF18="В",1,0)+IF(AI18="В",1,0)+IF(AL18="В",1,0)+IF(AO18="В",1,0)+IF(AR18="В",1,0)+IF(AU18="В",1,0)+IF(AX18="В",1,0)+IF(BA18="В",1,0)+IF(BD18="В",1,0)+IF(BG18="В",1,0)+IF(BJ18="В",1,0)+IF(BM18="В",1,0)+IF(BP18="В",1,0)+IF(BS18="В",1,0)+IF(BV18="В",1,0)+IF(BY18="В",1,0)+IF(CB18="В",1,0)+IF(CE18="В",1,0)+IF(CH18="В",1,0)+IF(CK18="В",1,0)+IF(CN18="В",1,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DI18" s="80">
         <f>SUM(CV18:DH18)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="DJ18" s="70">
         <f t="shared" si="24"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="DK18" s="69">
         <v>0</v>
@@ -24730,14 +25658,14 @@
       <c r="DM18" s="75"/>
       <c r="DN18" s="71">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="DO18" s="72">
         <v>0</v>
       </c>
       <c r="DQ18" s="32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DR18" s="32">
         <f t="shared" si="16"/>
@@ -24781,19 +25709,19 @@
       </c>
       <c r="EB18" s="32">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EC18" s="32">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EE18" s="152">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EF18" s="152">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24914,28 +25842,46 @@
       </c>
       <c r="BK19" s="183"/>
       <c r="BL19" s="187"/>
-      <c r="BM19" s="182"/>
+      <c r="BM19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BN19" s="183"/>
       <c r="BO19" s="187"/>
-      <c r="BP19" s="182"/>
+      <c r="BP19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BQ19" s="183"/>
       <c r="BR19" s="187"/>
       <c r="BS19" s="182"/>
-      <c r="BT19" s="183"/>
-      <c r="BU19" s="187"/>
+      <c r="BT19" s="183">
+        <v>4</v>
+      </c>
+      <c r="BU19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BV19" s="182"/>
-      <c r="BW19" s="183"/>
-      <c r="BX19" s="187"/>
+      <c r="BW19" s="183">
+        <v>4</v>
+      </c>
+      <c r="BX19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="BY19" s="182"/>
       <c r="BZ19" s="183"/>
       <c r="CA19" s="187"/>
-      <c r="CB19" s="182"/>
+      <c r="CB19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC19" s="183"/>
       <c r="CD19" s="187"/>
-      <c r="CE19" s="182"/>
+      <c r="CE19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CF19" s="183"/>
       <c r="CG19" s="187"/>
-      <c r="CH19" s="182"/>
+      <c r="CH19" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CI19" s="183"/>
       <c r="CJ19" s="187"/>
       <c r="CK19" s="182"/>
@@ -24951,7 +25897,7 @@
       <c r="CU19" s="183"/>
       <c r="CV19" s="168">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CW19" s="79">
         <f>IF(CK19="К",1,0)+IF(CN19="К",1,0)+IF(CQ19="К",1,0)+IF(CT19="К",1,0)+IF(CH19="К",1,0)+IF(H19="К",1,0)+IF(K19="К",1,0)+IF(N19="К",1,0)+IF(Q19="К",1,0)+IF(T19="К",1,0)+IF(W19="К",1,0)+IF(Z19="К",1,0)+IF(AC19="К",1,0)+IF(AF19="К",1,0)+IF(AI19="К",1,0)+IF(AL19="К",1,0)+IF(AO19="К",1,0)+IF(AR19="К",1,0)+IF(AU19="К",1,0)+IF(AX19="К",1,0)+IF(BA19="К",1,0)+IF(BD19="К",1,0)+IF(BG19="К",1,0)+IF(BJ19="К",1,0)+IF(BM19="К",1,0)+IF(BP19="К",1,0)+IF(BS19="К",1,0)+IF(BV19="К",1,0)+IF(BY19="К",1,0)+IF(CB19="К",1,0)+IF(CE19="К",1,0)</f>
@@ -24999,15 +25945,15 @@
       </c>
       <c r="DH19" s="80">
         <f>IF(CQ19="В",1,0)+IF(CT19="В",1,0)+IF(H19="В",1,0)+IF(K19="В",1,0)+IF(N19="В",1,0)+IF(Q19="В",1,0)+IF(T19="В",1,0)+IF(W19="В",1,0)+IF(Z19="В",1,0)+IF(AC19="В",1,0)+IF(AF19="В",1,0)+IF(AI19="В",1,0)+IF(AL19="В",1,0)+IF(AO19="В",1,0)+IF(AR19="В",1,0)+IF(AU19="В",1,0)+IF(AX19="В",1,0)+IF(BA19="В",1,0)+IF(BD19="В",1,0)+IF(BG19="В",1,0)+IF(BJ19="В",1,0)+IF(BM19="В",1,0)+IF(BP19="В",1,0)+IF(BS19="В",1,0)+IF(BV19="В",1,0)+IF(BY19="В",1,0)+IF(CB19="В",1,0)+IF(CE19="В",1,0)+IF(CH19="В",1,0)+IF(CK19="В",1,0)+IF(CN19="В",1,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DI19" s="80">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="DJ19" s="70">
         <f t="shared" si="24"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="DK19" s="69">
         <v>0</v>
@@ -25016,14 +25962,14 @@
       <c r="DM19" s="69"/>
       <c r="DN19" s="71">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="DO19" s="72">
         <v>0</v>
       </c>
       <c r="DQ19" s="32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DR19" s="32">
         <f t="shared" si="16"/>
@@ -25067,19 +26013,19 @@
       </c>
       <c r="EB19" s="32">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EC19" s="32">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EE19" s="152">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="EF19" s="152">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25181,28 +26127,44 @@
       </c>
       <c r="BB20" s="183"/>
       <c r="BC20" s="187"/>
-      <c r="BD20" s="182"/>
+      <c r="BD20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BE20" s="183"/>
       <c r="BF20" s="187"/>
-      <c r="BG20" s="182"/>
+      <c r="BG20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BH20" s="183"/>
       <c r="BI20" s="187"/>
-      <c r="BJ20" s="182"/>
+      <c r="BJ20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BK20" s="183"/>
       <c r="BL20" s="187"/>
-      <c r="BM20" s="182"/>
+      <c r="BM20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BN20" s="183"/>
       <c r="BO20" s="187"/>
-      <c r="BP20" s="182"/>
+      <c r="BP20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BQ20" s="183"/>
       <c r="BR20" s="187"/>
-      <c r="BS20" s="182"/>
+      <c r="BS20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BT20" s="183"/>
       <c r="BU20" s="187"/>
-      <c r="BV20" s="182"/>
+      <c r="BV20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BW20" s="183"/>
       <c r="BX20" s="187"/>
-      <c r="BY20" s="182"/>
+      <c r="BY20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BZ20" s="183"/>
       <c r="CA20" s="187"/>
       <c r="CB20" s="182"/>
@@ -25227,7 +26189,7 @@
       <c r="CU20" s="183"/>
       <c r="CV20" s="168">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CW20" s="79">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
@@ -25275,15 +26237,15 @@
       </c>
       <c r="DH20" s="80">
         <f>IF(CQ20="В",1,0)+IF(CT20="В",1,0)+IF(H20="В",1,0)+IF(K20="В",1,0)+IF(N20="В",1,0)+IF(Q20="В",1,0)+IF(T20="В",1,0)+IF(W20="В",1,0)+IF(Z20="В",1,0)+IF(AC20="В",1,0)+IF(AF20="В",1,0)+IF(AI20="В",1,0)+IF(AL20="В",1,0)+IF(AO20="В",1,0)+IF(AR20="В",1,0)+IF(AU20="В",1,0)+IF(AX20="В",1,0)+IF(BA20="В",1,0)+IF(BD20="В",1,0)+IF(BG20="В",1,0)+IF(BJ20="В",1,0)+IF(BM20="В",1,0)+IF(BP20="В",1,0)+IF(BS20="В",1,0)+IF(BV20="В",1,0)+IF(BY20="В",1,0)+IF(CB20="В",1,0)+IF(CE20="В",1,0)+IF(CH20="В",1,0)+IF(CK20="В",1,0)+IF(CN20="В",1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="DI20" s="80">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="DJ20" s="70">
         <f t="shared" si="24"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="DK20" s="69">
         <v>0</v>
@@ -25343,7 +26305,7 @@
       </c>
       <c r="EB20" s="32">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="EC20" s="32">
         <f t="shared" si="23"/>
@@ -25452,28 +26414,44 @@
       </c>
       <c r="AY21" s="183"/>
       <c r="AZ21" s="187"/>
-      <c r="BA21" s="182"/>
+      <c r="BA21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BB21" s="183"/>
       <c r="BC21" s="187"/>
-      <c r="BD21" s="182"/>
+      <c r="BD21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BE21" s="183"/>
       <c r="BF21" s="187"/>
-      <c r="BG21" s="182"/>
+      <c r="BG21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BH21" s="183"/>
       <c r="BI21" s="187"/>
-      <c r="BJ21" s="182"/>
+      <c r="BJ21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BK21" s="183"/>
       <c r="BL21" s="187"/>
-      <c r="BM21" s="182"/>
+      <c r="BM21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BN21" s="183"/>
       <c r="BO21" s="187"/>
-      <c r="BP21" s="182"/>
+      <c r="BP21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ21" s="183"/>
       <c r="BR21" s="187"/>
-      <c r="BS21" s="182"/>
+      <c r="BS21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BT21" s="183"/>
       <c r="BU21" s="187"/>
-      <c r="BV21" s="182"/>
+      <c r="BV21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BW21" s="183"/>
       <c r="BX21" s="187"/>
       <c r="BY21" s="182"/>
@@ -25501,7 +26479,7 @@
       <c r="CU21" s="183"/>
       <c r="CV21" s="168">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CW21" s="79">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
@@ -25549,15 +26527,15 @@
       </c>
       <c r="DH21" s="80">
         <f>IF(CQ21="В",1,0)+IF(CT21="В",1,0)+IF(H21="В",1,0)+IF(K21="В",1,0)+IF(N21="В",1,0)+IF(Q21="В",1,0)+IF(T21="В",1,0)+IF(W21="В",1,0)+IF(Z21="В",1,0)+IF(AC21="В",1,0)+IF(AF21="В",1,0)+IF(AI21="В",1,0)+IF(AL21="В",1,0)+IF(AO21="В",1,0)+IF(AR21="В",1,0)+IF(AU21="В",1,0)+IF(AX21="В",1,0)+IF(BA21="В",1,0)+IF(BD21="В",1,0)+IF(BG21="В",1,0)+IF(BJ21="В",1,0)+IF(BM21="В",1,0)+IF(BP21="В",1,0)+IF(BS21="В",1,0)+IF(BV21="В",1,0)+IF(BY21="В",1,0)+IF(CB21="В",1,0)+IF(CE21="В",1,0)+IF(CH21="В",1,0)+IF(CK21="В",1,0)+IF(CN21="В",1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="DI21" s="80">
         <f>SUM(CV21:DH21)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="DJ21" s="70">
         <f t="shared" si="24"/>
-        <v>78.75</v>
+        <v>123.75</v>
       </c>
       <c r="DK21" s="69">
         <v>0</v>
@@ -25617,7 +26595,7 @@
       </c>
       <c r="EB21" s="32">
         <f>IF(Q21=11.25,1,0)+IF(T21=11.25,1,0)+IF(W21=11.25,1,0)+IF(Z21=11.25,1,0)+IF(AC21=11.25,1,0)+IF(AF21=11.25,1,0)+IF(AI21=11.25,1,0)+IF(AL21=11.25,1,0)+IF(AO21=11.25,1,0)+IF(AR21=11.25,1,0)+IF(AU21=11.25,1,0)+IF(AX21=11.25,1,0)+IF(BA21=11.25,1,0)+IF(BD21=11.25,1,0)+IF(BG21=11.25,1,0)+IF(BJ21=11.25,1,0)+IF(BM21=11.25,1,0)+IF(BP21=11.25,1,0)+IF(BS21=11.25,1,0)+IF(BV21=11.25,1,0)+IF(BY21=11.25,1,0)+IF(CB21=11.25,1,0)+IF(CE21=11.25,1,0)+IF(CH21=11.25,1,0)+IF(CK21=11.25,1,0)+IF(CN21=11.25,1,0)+IF(CQ21=11.25,1,0)+IF(CT21=11.25,1,0)+IF(H21=11.25,1,0)+IF(K21=11.25,1,0)+IF(N21=11.25,1,0)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="EC21" s="32">
         <f t="shared" si="23"/>
@@ -25726,28 +26704,44 @@
       </c>
       <c r="AY22" s="183"/>
       <c r="AZ22" s="187"/>
-      <c r="BA22" s="182"/>
+      <c r="BA22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BB22" s="183"/>
       <c r="BC22" s="187"/>
-      <c r="BD22" s="182"/>
+      <c r="BD22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BE22" s="183"/>
       <c r="BF22" s="187"/>
-      <c r="BG22" s="182"/>
+      <c r="BG22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BH22" s="183"/>
       <c r="BI22" s="187"/>
-      <c r="BJ22" s="182"/>
+      <c r="BJ22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BK22" s="183"/>
       <c r="BL22" s="187"/>
-      <c r="BM22" s="182"/>
+      <c r="BM22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BN22" s="183"/>
       <c r="BO22" s="187"/>
-      <c r="BP22" s="182"/>
+      <c r="BP22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BQ22" s="183"/>
       <c r="BR22" s="187"/>
-      <c r="BS22" s="182"/>
+      <c r="BS22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BT22" s="183"/>
       <c r="BU22" s="187"/>
-      <c r="BV22" s="182"/>
+      <c r="BV22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BW22" s="183"/>
       <c r="BX22" s="187"/>
       <c r="BY22" s="182"/>
@@ -25775,7 +26769,7 @@
       <c r="CU22" s="183"/>
       <c r="CV22" s="168">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CW22" s="79">
         <f t="shared" si="1"/>
@@ -25823,15 +26817,15 @@
       </c>
       <c r="DH22" s="80">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="DI22" s="80">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="DJ22" s="70">
         <f t="shared" si="24"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="DK22" s="69">
         <v>0</v>
@@ -25891,7 +26885,7 @@
       </c>
       <c r="EB22" s="32">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="EC22" s="32">
         <f t="shared" si="23"/>
@@ -26005,28 +26999,44 @@
       </c>
       <c r="BB23" s="183"/>
       <c r="BC23" s="187"/>
-      <c r="BD23" s="182"/>
+      <c r="BD23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BE23" s="183"/>
       <c r="BF23" s="187"/>
-      <c r="BG23" s="182"/>
+      <c r="BG23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BH23" s="183"/>
       <c r="BI23" s="187"/>
-      <c r="BJ23" s="182"/>
+      <c r="BJ23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BK23" s="183"/>
       <c r="BL23" s="187"/>
-      <c r="BM23" s="182"/>
+      <c r="BM23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BN23" s="183"/>
       <c r="BO23" s="187"/>
-      <c r="BP23" s="182"/>
+      <c r="BP23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BQ23" s="183"/>
       <c r="BR23" s="187"/>
-      <c r="BS23" s="182"/>
+      <c r="BS23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BT23" s="183"/>
       <c r="BU23" s="187"/>
-      <c r="BV23" s="182"/>
+      <c r="BV23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BW23" s="183"/>
       <c r="BX23" s="187"/>
-      <c r="BY23" s="182"/>
+      <c r="BY23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BZ23" s="183"/>
       <c r="CA23" s="187"/>
       <c r="CB23" s="182"/>
@@ -26051,7 +27061,7 @@
       <c r="CU23" s="183"/>
       <c r="CV23" s="168">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CW23" s="79">
         <f t="shared" si="1"/>
@@ -26099,15 +27109,15 @@
       </c>
       <c r="DH23" s="80">
         <f>IF(CQ23="В",1,0)+IF(CT23="В",1,0)+IF(H23="В",1,0)+IF(K23="В",1,0)+IF(N23="В",1,0)+IF(Q23="В",1,0)+IF(T23="В",1,0)+IF(W23="В",1,0)+IF(Z23="В",1,0)+IF(AC23="В",1,0)+IF(AF23="В",1,0)+IF(AI23="В",1,0)+IF(AL23="В",1,0)+IF(AO23="В",1,0)+IF(AR23="В",1,0)+IF(AU23="В",1,0)+IF(AX23="В",1,0)+IF(BA23="В",1,0)+IF(BD23="В",1,0)+IF(BG23="В",1,0)+IF(BJ23="В",1,0)+IF(BM23="В",1,0)+IF(BP23="В",1,0)+IF(BS23="В",1,0)+IF(BV23="В",1,0)+IF(BY23="В",1,0)+IF(CB23="В",1,0)+IF(CE23="В",1,0)+IF(CH23="В",1,0)+IF(CK23="В",1,0)+IF(CN23="В",1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="DI23" s="80">
         <f>SUM(CV23:DH23)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="DJ23" s="70">
         <f t="shared" si="24"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="DK23" s="70">
         <v>8</v>
@@ -26167,7 +27177,7 @@
       </c>
       <c r="EB23" s="32">
         <f>IF(Q23=11.25,1,0)+IF(T23=11.25,1,0)+IF(W23=11.25,1,0)+IF(Z23=11.25,1,0)+IF(AC23=11.25,1,0)+IF(AF23=11.25,1,0)+IF(AI23=11.25,1,0)+IF(AL23=11.25,1,0)+IF(AO23=11.25,1,0)+IF(AR23=11.25,1,0)+IF(AU23=11.25,1,0)+IF(AX23=11.25,1,0)+IF(BA23=11.25,1,0)+IF(BD23=11.25,1,0)+IF(BG23=11.25,1,0)+IF(BJ23=11.25,1,0)+IF(BM23=11.25,1,0)+IF(BP23=11.25,1,0)+IF(BS23=11.25,1,0)+IF(BV23=11.25,1,0)+IF(BY23=11.25,1,0)+IF(CB23=11.25,1,0)+IF(CE23=11.25,1,0)+IF(CH23=11.25,1,0)+IF(CK23=11.25,1,0)+IF(CN23=11.25,1,0)+IF(CQ23=11.25,1,0)+IF(CT23=11.25,1,0)+IF(H23=11.25,1,0)+IF(K23=11.25,1,0)+IF(N23=11.25,1,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="EC23" s="32">
         <f t="shared" si="23"/>
@@ -26284,7 +27294,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -26332,15 +27342,15 @@
       </c>
       <c r="DH24" s="81">
         <f t="shared" si="28"/>
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>1086.25</v>
+        <v>1659.75</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -26356,7 +27366,7 @@
       </c>
       <c r="DN24" s="77">
         <f t="shared" si="28"/>
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="DO24" s="77">
         <f t="shared" si="28"/>
@@ -26815,45 +27825,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="231"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
-      <c r="O31" s="231"/>
-      <c r="P31" s="231"/>
-      <c r="Q31" s="231"/>
-      <c r="R31" s="231"/>
-      <c r="S31" s="231"/>
-      <c r="T31" s="231"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="231"/>
-      <c r="W31" s="231"/>
-      <c r="X31" s="231"/>
-      <c r="Y31" s="231"/>
-      <c r="Z31" s="231"/>
-      <c r="AA31" s="231"/>
-      <c r="AB31" s="231"/>
-      <c r="AC31" s="231"/>
-      <c r="AD31" s="231"/>
-      <c r="AE31" s="231"/>
-      <c r="AF31" s="231"/>
-      <c r="AG31" s="231"/>
-      <c r="AH31" s="231"/>
-      <c r="AI31" s="231"/>
-      <c r="AJ31" s="231"/>
-      <c r="AK31" s="231"/>
-      <c r="AL31" s="231"/>
-      <c r="AM31" s="231"/>
-      <c r="AN31" s="231"/>
-      <c r="AO31" s="231"/>
-      <c r="AP31" s="231"/>
-      <c r="AQ31" s="231"/>
-      <c r="AR31" s="231"/>
-      <c r="AS31" s="231"/>
+      <c r="G31" s="283"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="283"/>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="283"/>
+      <c r="Q31" s="283"/>
+      <c r="R31" s="283"/>
+      <c r="S31" s="283"/>
+      <c r="T31" s="283"/>
+      <c r="U31" s="283"/>
+      <c r="V31" s="283"/>
+      <c r="W31" s="283"/>
+      <c r="X31" s="283"/>
+      <c r="Y31" s="283"/>
+      <c r="Z31" s="283"/>
+      <c r="AA31" s="283"/>
+      <c r="AB31" s="283"/>
+      <c r="AC31" s="283"/>
+      <c r="AD31" s="283"/>
+      <c r="AE31" s="283"/>
+      <c r="AF31" s="283"/>
+      <c r="AG31" s="283"/>
+      <c r="AH31" s="283"/>
+      <c r="AI31" s="283"/>
+      <c r="AJ31" s="283"/>
+      <c r="AK31" s="283"/>
+      <c r="AL31" s="283"/>
+      <c r="AM31" s="283"/>
+      <c r="AN31" s="283"/>
+      <c r="AO31" s="283"/>
+      <c r="AP31" s="283"/>
+      <c r="AQ31" s="283"/>
+      <c r="AR31" s="283"/>
+      <c r="AS31" s="283"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -27158,45 +28168,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
-      <c r="Q35" s="231"/>
-      <c r="R35" s="231"/>
-      <c r="S35" s="231"/>
-      <c r="T35" s="231"/>
-      <c r="U35" s="231"/>
-      <c r="V35" s="231"/>
-      <c r="W35" s="231"/>
-      <c r="X35" s="231"/>
-      <c r="Y35" s="231"/>
-      <c r="Z35" s="231"/>
-      <c r="AA35" s="231"/>
-      <c r="AB35" s="231"/>
-      <c r="AC35" s="231"/>
-      <c r="AD35" s="231"/>
-      <c r="AE35" s="231"/>
-      <c r="AF35" s="231"/>
-      <c r="AG35" s="231"/>
-      <c r="AH35" s="231"/>
-      <c r="AI35" s="231"/>
-      <c r="AJ35" s="231"/>
-      <c r="AK35" s="231"/>
-      <c r="AL35" s="231"/>
-      <c r="AM35" s="231"/>
-      <c r="AN35" s="231"/>
-      <c r="AO35" s="231"/>
-      <c r="AP35" s="231"/>
-      <c r="AQ35" s="231"/>
-      <c r="AR35" s="231"/>
-      <c r="AS35" s="231"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="283"/>
+      <c r="I35" s="283"/>
+      <c r="J35" s="283"/>
+      <c r="K35" s="283"/>
+      <c r="L35" s="283"/>
+      <c r="M35" s="283"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="283"/>
+      <c r="P35" s="283"/>
+      <c r="Q35" s="283"/>
+      <c r="R35" s="283"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="283"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
+      <c r="W35" s="283"/>
+      <c r="X35" s="283"/>
+      <c r="Y35" s="283"/>
+      <c r="Z35" s="283"/>
+      <c r="AA35" s="283"/>
+      <c r="AB35" s="283"/>
+      <c r="AC35" s="283"/>
+      <c r="AD35" s="283"/>
+      <c r="AE35" s="283"/>
+      <c r="AF35" s="283"/>
+      <c r="AG35" s="283"/>
+      <c r="AH35" s="283"/>
+      <c r="AI35" s="283"/>
+      <c r="AJ35" s="283"/>
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="283"/>
+      <c r="AO35" s="283"/>
+      <c r="AP35" s="283"/>
+      <c r="AQ35" s="283"/>
+      <c r="AR35" s="283"/>
+      <c r="AS35" s="283"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -29354,17 +30364,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -29381,318 +30403,466 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:CU10 G13:CU13 BC11:CU12 AE23:CU23 AW14:CU15 G16:G17 AK16:CU17 AE20:CU20 AB21:CU21 AQ18:CU19 Y22:CU22">
-    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="О">
+  <conditionalFormatting sqref="G10:CU10 BC11:CU12 AW14:CU15 G16:G17 G13:CU13 AK16:CU17 AQ18:CU19 AE20:CU20 AB21:CU21 Y22:CU22 AE23:CU23">
+    <cfRule type="containsText" dxfId="192" priority="111" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="72" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="191" priority="112" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AD11">
-    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="190" priority="109" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="70" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="189" priority="110" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:BB11">
-    <cfRule type="containsText" dxfId="76" priority="67" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="188" priority="107" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="68" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="187" priority="108" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:AD12">
-    <cfRule type="containsText" dxfId="74" priority="65" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="186" priority="105" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="66" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="185" priority="106" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:BB12">
-    <cfRule type="containsText" dxfId="72" priority="63" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="184" priority="103" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="64" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="183" priority="104" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:X14">
-    <cfRule type="containsText" dxfId="70" priority="61" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="182" priority="101" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="62" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="181" priority="102" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AV14">
-    <cfRule type="containsText" dxfId="68" priority="59" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="180" priority="99" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="60" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="179" priority="100" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:X15">
-    <cfRule type="containsText" dxfId="66" priority="57" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="178" priority="97" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="58" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="177" priority="98" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AV15">
-    <cfRule type="containsText" dxfId="64" priority="55" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="176" priority="95" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="56" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="175" priority="96" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:L16">
-    <cfRule type="containsText" dxfId="62" priority="53" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="174" priority="93" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="54" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="173" priority="94" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:AJ16">
-    <cfRule type="containsText" dxfId="60" priority="51" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="172" priority="91" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",M16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="171" priority="92" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",M16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:L17">
-    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="170" priority="89" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",H17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="50" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="169" priority="90" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",H17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:AJ17">
-    <cfRule type="containsText" dxfId="56" priority="47" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="168" priority="87" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="48" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="167" priority="88" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",M17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:R18">
-    <cfRule type="containsText" dxfId="54" priority="45" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="166" priority="85" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="46" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="165" priority="86" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:AP18">
-    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="164" priority="83" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",S18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="44" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="163" priority="84" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",S18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:R19">
-    <cfRule type="containsText" dxfId="50" priority="41" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="162" priority="81" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="42" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="161" priority="82" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:AP19">
-    <cfRule type="containsText" dxfId="48" priority="39" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="160" priority="79" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",S19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="159" priority="80" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",S19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:AD20">
-    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="158" priority="77" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="38" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="157" priority="78" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:AA21">
-    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="156" priority="75" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="36" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="155" priority="76" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:AJ22">
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="154" priority="73" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="153" priority="74" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:AD23">
-    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="152" priority="71" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="151" priority="72" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="а">
+    <cfRule type="containsText" dxfId="150" priority="70" operator="containsText" text="а">
       <formula>NOT(ISERROR(SEARCH("а",AF10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="а">
+    <cfRule type="containsText" dxfId="149" priority="69" operator="containsText" text="а">
       <formula>NOT(ISERROR(SEARCH("а",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:BE16">
-    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="148" priority="67" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="147" priority="68" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK17:BE17">
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="146" priority="65" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="145" priority="66" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20:AP20">
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="144" priority="63" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="143" priority="64" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20:BB20">
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="142" priority="61" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="141" priority="62" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:AM21">
-    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="140" priority="59" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AB21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="139" priority="60" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AB21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21:AY21">
-    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="138" priority="57" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AN21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="137" priority="58" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AN21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AV22">
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="136" priority="55" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="135" priority="56" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23:AP23">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="134" priority="53" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="133" priority="54" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ23:BB23">
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="132" priority="51" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="131" priority="52" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18:BK18">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="130" priority="49" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="129" priority="50" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:BK19">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="128" priority="47" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="127" priority="48" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:X22">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="126" priority="45" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="125" priority="46" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22:AJ22">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="124" priority="43" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="123" priority="44" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AV22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="122" priority="41" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="42" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW14:BT14">
+    <cfRule type="containsText" dxfId="117" priority="39" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AW14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="40" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AW14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW15:BT15">
+    <cfRule type="containsText" dxfId="112" priority="37" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AW15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="38" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AW15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF16:BH16">
+    <cfRule type="containsText" dxfId="105" priority="35" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BF16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="36" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BF16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI16:CC16">
+    <cfRule type="containsText" dxfId="100" priority="33" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BI16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="34" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BI16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF17:BH17">
+    <cfRule type="containsText" dxfId="94" priority="31" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BF17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="32" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BF17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI17:CC17">
+    <cfRule type="containsText" dxfId="89" priority="29" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BI17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="30" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BI17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL18:BN18">
+    <cfRule type="containsText" dxfId="83" priority="27" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BL18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="28" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BL18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO18:CI18">
+    <cfRule type="containsText" dxfId="78" priority="25" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BO18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="26" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BO18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL19:BN19">
+    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BL19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="24" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BL19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO19:CI19">
+    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BO19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="22" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BO19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC20:BN20">
+    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BC20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="20" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BC20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO20:BZ20">
+    <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BO20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="18" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BO20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ21:BK21">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AZ21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AZ21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL21:BW21">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BL21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BL21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ22:BH22">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AZ22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AZ22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ22:BH22">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",AZ22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",AZ22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL22:BT22">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BL22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BL22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL22:BT22">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BL22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BL22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC23:BN23">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BC23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BC23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO23:BZ23">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BO23)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="в">
-      <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("в",BO23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="83">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1810,6 +1810,78 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1861,24 +1933,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1918,60 +1972,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2006,7 +2006,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="195">
+  <dxfs count="114">
     <dxf>
       <fill>
         <patternFill>
@@ -2018,76 +2018,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2164,7 +2094,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2241,13 +2178,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2256,237 +2186,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2563,13 +2262,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2578,265 +2270,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3845,21 +3278,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="238" t="s">
+      <c r="CU1" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="238"/>
-      <c r="CW1" s="238"/>
-      <c r="CX1" s="238"/>
-      <c r="CY1" s="238"/>
-      <c r="CZ1" s="238"/>
-      <c r="DA1" s="238"/>
-      <c r="DB1" s="238"/>
-      <c r="DC1" s="238"/>
-      <c r="DD1" s="238"/>
-      <c r="DE1" s="238"/>
-      <c r="DF1" s="238"/>
-      <c r="DG1" s="238"/>
+      <c r="CV1" s="262"/>
+      <c r="CW1" s="262"/>
+      <c r="CX1" s="262"/>
+      <c r="CY1" s="262"/>
+      <c r="CZ1" s="262"/>
+      <c r="DA1" s="262"/>
+      <c r="DB1" s="262"/>
+      <c r="DC1" s="262"/>
+      <c r="DD1" s="262"/>
+      <c r="DE1" s="262"/>
+      <c r="DF1" s="262"/>
+      <c r="DG1" s="262"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -3960,241 +3393,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="239" t="s">
+      <c r="CU2" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="239"/>
-      <c r="CW2" s="239"/>
-      <c r="CX2" s="239"/>
-      <c r="CY2" s="239"/>
-      <c r="CZ2" s="239"/>
-      <c r="DA2" s="239"/>
-      <c r="DB2" s="239"/>
-      <c r="DC2" s="239"/>
-      <c r="DD2" s="239"/>
-      <c r="DE2" s="239"/>
-      <c r="DF2" s="239"/>
-      <c r="DG2" s="239"/>
+      <c r="CV2" s="263"/>
+      <c r="CW2" s="263"/>
+      <c r="CX2" s="263"/>
+      <c r="CY2" s="263"/>
+      <c r="CZ2" s="263"/>
+      <c r="DA2" s="263"/>
+      <c r="DB2" s="263"/>
+      <c r="DC2" s="263"/>
+      <c r="DD2" s="263"/>
+      <c r="DE2" s="263"/>
+      <c r="DF2" s="263"/>
+      <c r="DG2" s="263"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240"/>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240"/>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
-      <c r="AX3" s="240"/>
-      <c r="AY3" s="240"/>
-      <c r="AZ3" s="240"/>
-      <c r="BA3" s="240"/>
-      <c r="BB3" s="240"/>
-      <c r="BC3" s="240"/>
-      <c r="BD3" s="240"/>
-      <c r="BE3" s="240"/>
-      <c r="BF3" s="240"/>
-      <c r="BG3" s="240"/>
-      <c r="BH3" s="240"/>
-      <c r="BI3" s="240"/>
-      <c r="BJ3" s="240"/>
-      <c r="BK3" s="240"/>
-      <c r="BL3" s="240"/>
-      <c r="BM3" s="240"/>
-      <c r="BN3" s="240"/>
-      <c r="BO3" s="240"/>
-      <c r="BP3" s="240"/>
-      <c r="BQ3" s="240"/>
-      <c r="BR3" s="240"/>
-      <c r="BS3" s="240"/>
-      <c r="BT3" s="240"/>
-      <c r="BU3" s="240"/>
-      <c r="BV3" s="240"/>
-      <c r="BW3" s="240"/>
-      <c r="BX3" s="240"/>
-      <c r="BY3" s="240"/>
-      <c r="BZ3" s="240"/>
-      <c r="CA3" s="240"/>
-      <c r="CB3" s="240"/>
-      <c r="CC3" s="240"/>
-      <c r="CD3" s="240"/>
-      <c r="CE3" s="240"/>
-      <c r="CF3" s="240"/>
-      <c r="CG3" s="240"/>
-      <c r="CH3" s="240"/>
-      <c r="CI3" s="240"/>
-      <c r="CJ3" s="240"/>
-      <c r="CK3" s="240"/>
-      <c r="CL3" s="240"/>
-      <c r="CM3" s="240"/>
-      <c r="CN3" s="240"/>
-      <c r="CO3" s="240"/>
-      <c r="CP3" s="240"/>
-      <c r="CQ3" s="240"/>
-      <c r="CR3" s="240"/>
-      <c r="CS3" s="240"/>
-      <c r="CT3" s="240"/>
-      <c r="CU3" s="240"/>
-      <c r="CV3" s="241" t="s">
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="264"/>
+      <c r="AJ3" s="264"/>
+      <c r="AK3" s="264"/>
+      <c r="AL3" s="264"/>
+      <c r="AM3" s="264"/>
+      <c r="AN3" s="264"/>
+      <c r="AO3" s="264"/>
+      <c r="AP3" s="264"/>
+      <c r="AQ3" s="264"/>
+      <c r="AR3" s="264"/>
+      <c r="AS3" s="264"/>
+      <c r="AT3" s="264"/>
+      <c r="AU3" s="264"/>
+      <c r="AV3" s="264"/>
+      <c r="AW3" s="264"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="264"/>
+      <c r="AZ3" s="264"/>
+      <c r="BA3" s="264"/>
+      <c r="BB3" s="264"/>
+      <c r="BC3" s="264"/>
+      <c r="BD3" s="264"/>
+      <c r="BE3" s="264"/>
+      <c r="BF3" s="264"/>
+      <c r="BG3" s="264"/>
+      <c r="BH3" s="264"/>
+      <c r="BI3" s="264"/>
+      <c r="BJ3" s="264"/>
+      <c r="BK3" s="264"/>
+      <c r="BL3" s="264"/>
+      <c r="BM3" s="264"/>
+      <c r="BN3" s="264"/>
+      <c r="BO3" s="264"/>
+      <c r="BP3" s="264"/>
+      <c r="BQ3" s="264"/>
+      <c r="BR3" s="264"/>
+      <c r="BS3" s="264"/>
+      <c r="BT3" s="264"/>
+      <c r="BU3" s="264"/>
+      <c r="BV3" s="264"/>
+      <c r="BW3" s="264"/>
+      <c r="BX3" s="264"/>
+      <c r="BY3" s="264"/>
+      <c r="BZ3" s="264"/>
+      <c r="CA3" s="264"/>
+      <c r="CB3" s="264"/>
+      <c r="CC3" s="264"/>
+      <c r="CD3" s="264"/>
+      <c r="CE3" s="264"/>
+      <c r="CF3" s="264"/>
+      <c r="CG3" s="264"/>
+      <c r="CH3" s="264"/>
+      <c r="CI3" s="264"/>
+      <c r="CJ3" s="264"/>
+      <c r="CK3" s="264"/>
+      <c r="CL3" s="264"/>
+      <c r="CM3" s="264"/>
+      <c r="CN3" s="264"/>
+      <c r="CO3" s="264"/>
+      <c r="CP3" s="264"/>
+      <c r="CQ3" s="264"/>
+      <c r="CR3" s="264"/>
+      <c r="CS3" s="264"/>
+      <c r="CT3" s="264"/>
+      <c r="CU3" s="264"/>
+      <c r="CV3" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="241"/>
-      <c r="CX3" s="241"/>
-      <c r="CY3" s="241"/>
-      <c r="CZ3" s="241"/>
-      <c r="DA3" s="241"/>
-      <c r="DB3" s="241"/>
-      <c r="DC3" s="241"/>
-      <c r="DD3" s="241"/>
-      <c r="DE3" s="241"/>
-      <c r="DF3" s="241"/>
-      <c r="DG3" s="241"/>
+      <c r="CW3" s="265"/>
+      <c r="CX3" s="265"/>
+      <c r="CY3" s="265"/>
+      <c r="CZ3" s="265"/>
+      <c r="DA3" s="265"/>
+      <c r="DB3" s="265"/>
+      <c r="DC3" s="265"/>
+      <c r="DD3" s="265"/>
+      <c r="DE3" s="265"/>
+      <c r="DF3" s="265"/>
+      <c r="DG3" s="265"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="254"/>
-      <c r="Z4" s="254"/>
-      <c r="AA4" s="254"/>
-      <c r="AB4" s="254"/>
-      <c r="AC4" s="254"/>
-      <c r="AD4" s="254"/>
-      <c r="AE4" s="254"/>
-      <c r="AF4" s="254"/>
-      <c r="AG4" s="254"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="254"/>
-      <c r="AK4" s="254"/>
-      <c r="AL4" s="254"/>
-      <c r="AM4" s="254"/>
-      <c r="AN4" s="254"/>
-      <c r="AO4" s="254"/>
-      <c r="AP4" s="254"/>
-      <c r="AQ4" s="254"/>
-      <c r="AR4" s="254"/>
-      <c r="AS4" s="254"/>
-      <c r="AT4" s="254"/>
-      <c r="AU4" s="254"/>
-      <c r="AV4" s="254"/>
-      <c r="AW4" s="254"/>
-      <c r="AX4" s="254"/>
-      <c r="AY4" s="254"/>
-      <c r="AZ4" s="254"/>
-      <c r="BA4" s="254"/>
-      <c r="BB4" s="254"/>
-      <c r="BC4" s="254"/>
-      <c r="BD4" s="254"/>
-      <c r="BE4" s="254"/>
-      <c r="BF4" s="254"/>
-      <c r="BG4" s="254"/>
-      <c r="BH4" s="254"/>
-      <c r="BI4" s="254"/>
-      <c r="BJ4" s="254"/>
-      <c r="BK4" s="254"/>
-      <c r="BL4" s="254"/>
-      <c r="BM4" s="254"/>
-      <c r="BN4" s="254"/>
-      <c r="BO4" s="254"/>
-      <c r="BP4" s="254"/>
-      <c r="BQ4" s="254"/>
-      <c r="BR4" s="254"/>
-      <c r="BS4" s="254"/>
-      <c r="BT4" s="254"/>
-      <c r="BU4" s="254"/>
-      <c r="BV4" s="254"/>
-      <c r="BW4" s="254"/>
-      <c r="BX4" s="254"/>
-      <c r="BY4" s="254"/>
-      <c r="BZ4" s="254"/>
-      <c r="CA4" s="254"/>
-      <c r="CB4" s="254"/>
-      <c r="CC4" s="254"/>
-      <c r="CD4" s="254"/>
-      <c r="CE4" s="254"/>
-      <c r="CF4" s="254"/>
-      <c r="CG4" s="254"/>
-      <c r="CH4" s="254"/>
-      <c r="CI4" s="254"/>
-      <c r="CJ4" s="254"/>
-      <c r="CK4" s="254"/>
-      <c r="CL4" s="254"/>
-      <c r="CM4" s="254"/>
-      <c r="CN4" s="254"/>
-      <c r="CO4" s="254"/>
-      <c r="CP4" s="254"/>
-      <c r="CQ4" s="254"/>
-      <c r="CR4" s="254"/>
-      <c r="CS4" s="254"/>
-      <c r="CT4" s="254"/>
-      <c r="CU4" s="254"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="272"/>
+      <c r="AJ4" s="272"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="272"/>
+      <c r="AP4" s="272"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="272"/>
+      <c r="AV4" s="272"/>
+      <c r="AW4" s="272"/>
+      <c r="AX4" s="272"/>
+      <c r="AY4" s="272"/>
+      <c r="AZ4" s="272"/>
+      <c r="BA4" s="272"/>
+      <c r="BB4" s="272"/>
+      <c r="BC4" s="272"/>
+      <c r="BD4" s="272"/>
+      <c r="BE4" s="272"/>
+      <c r="BF4" s="272"/>
+      <c r="BG4" s="272"/>
+      <c r="BH4" s="272"/>
+      <c r="BI4" s="272"/>
+      <c r="BJ4" s="272"/>
+      <c r="BK4" s="272"/>
+      <c r="BL4" s="272"/>
+      <c r="BM4" s="272"/>
+      <c r="BN4" s="272"/>
+      <c r="BO4" s="272"/>
+      <c r="BP4" s="272"/>
+      <c r="BQ4" s="272"/>
+      <c r="BR4" s="272"/>
+      <c r="BS4" s="272"/>
+      <c r="BT4" s="272"/>
+      <c r="BU4" s="272"/>
+      <c r="BV4" s="272"/>
+      <c r="BW4" s="272"/>
+      <c r="BX4" s="272"/>
+      <c r="BY4" s="272"/>
+      <c r="BZ4" s="272"/>
+      <c r="CA4" s="272"/>
+      <c r="CB4" s="272"/>
+      <c r="CC4" s="272"/>
+      <c r="CD4" s="272"/>
+      <c r="CE4" s="272"/>
+      <c r="CF4" s="272"/>
+      <c r="CG4" s="272"/>
+      <c r="CH4" s="272"/>
+      <c r="CI4" s="272"/>
+      <c r="CJ4" s="272"/>
+      <c r="CK4" s="272"/>
+      <c r="CL4" s="272"/>
+      <c r="CM4" s="272"/>
+      <c r="CN4" s="272"/>
+      <c r="CO4" s="272"/>
+      <c r="CP4" s="272"/>
+      <c r="CQ4" s="272"/>
+      <c r="CR4" s="272"/>
+      <c r="CS4" s="272"/>
+      <c r="CT4" s="272"/>
+      <c r="CU4" s="272"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -4324,433 +3757,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="258" t="s">
+      <c r="A6" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="235" t="s">
+      <c r="D6" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="280" t="s">
+      <c r="G6" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="280"/>
-      <c r="AF6" s="280"/>
-      <c r="AG6" s="280"/>
-      <c r="AH6" s="280"/>
-      <c r="AI6" s="280"/>
-      <c r="AJ6" s="280"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="280"/>
-      <c r="AM6" s="280"/>
-      <c r="AN6" s="280"/>
-      <c r="AO6" s="280"/>
-      <c r="AP6" s="280"/>
-      <c r="AQ6" s="280"/>
-      <c r="AR6" s="280"/>
-      <c r="AS6" s="280"/>
-      <c r="AT6" s="280"/>
-      <c r="AU6" s="280"/>
-      <c r="AV6" s="280"/>
-      <c r="AW6" s="280"/>
-      <c r="AX6" s="280"/>
-      <c r="AY6" s="280"/>
-      <c r="AZ6" s="280"/>
-      <c r="BA6" s="280"/>
-      <c r="BB6" s="280"/>
-      <c r="BC6" s="280"/>
-      <c r="BD6" s="280"/>
-      <c r="BE6" s="280"/>
-      <c r="BF6" s="280"/>
-      <c r="BG6" s="280"/>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="280"/>
-      <c r="BM6" s="280"/>
-      <c r="BN6" s="280"/>
-      <c r="BO6" s="280"/>
-      <c r="BP6" s="280"/>
-      <c r="BQ6" s="280"/>
-      <c r="BR6" s="280"/>
-      <c r="BS6" s="280"/>
-      <c r="BT6" s="280"/>
-      <c r="BU6" s="280"/>
-      <c r="BV6" s="280"/>
-      <c r="BW6" s="280"/>
-      <c r="BX6" s="280"/>
-      <c r="BY6" s="280"/>
-      <c r="BZ6" s="280"/>
-      <c r="CA6" s="280"/>
-      <c r="CB6" s="280"/>
-      <c r="CC6" s="280"/>
-      <c r="CD6" s="280"/>
-      <c r="CE6" s="280"/>
-      <c r="CF6" s="280"/>
-      <c r="CG6" s="280"/>
-      <c r="CH6" s="280"/>
-      <c r="CI6" s="280"/>
-      <c r="CJ6" s="280"/>
-      <c r="CK6" s="280"/>
-      <c r="CL6" s="280"/>
-      <c r="CM6" s="280"/>
-      <c r="CN6" s="280"/>
-      <c r="CO6" s="280"/>
-      <c r="CP6" s="280"/>
-      <c r="CQ6" s="280"/>
-      <c r="CR6" s="280"/>
-      <c r="CS6" s="280"/>
-      <c r="CT6" s="280"/>
-      <c r="CU6" s="280"/>
-      <c r="CV6" s="242" t="s">
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="252"/>
+      <c r="X6" s="252"/>
+      <c r="Y6" s="252"/>
+      <c r="Z6" s="252"/>
+      <c r="AA6" s="252"/>
+      <c r="AB6" s="252"/>
+      <c r="AC6" s="252"/>
+      <c r="AD6" s="252"/>
+      <c r="AE6" s="252"/>
+      <c r="AF6" s="252"/>
+      <c r="AG6" s="252"/>
+      <c r="AH6" s="252"/>
+      <c r="AI6" s="252"/>
+      <c r="AJ6" s="252"/>
+      <c r="AK6" s="252"/>
+      <c r="AL6" s="252"/>
+      <c r="AM6" s="252"/>
+      <c r="AN6" s="252"/>
+      <c r="AO6" s="252"/>
+      <c r="AP6" s="252"/>
+      <c r="AQ6" s="252"/>
+      <c r="AR6" s="252"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="252"/>
+      <c r="AU6" s="252"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
+      <c r="AX6" s="252"/>
+      <c r="AY6" s="252"/>
+      <c r="AZ6" s="252"/>
+      <c r="BA6" s="252"/>
+      <c r="BB6" s="252"/>
+      <c r="BC6" s="252"/>
+      <c r="BD6" s="252"/>
+      <c r="BE6" s="252"/>
+      <c r="BF6" s="252"/>
+      <c r="BG6" s="252"/>
+      <c r="BH6" s="252"/>
+      <c r="BI6" s="252"/>
+      <c r="BJ6" s="252"/>
+      <c r="BK6" s="252"/>
+      <c r="BL6" s="252"/>
+      <c r="BM6" s="252"/>
+      <c r="BN6" s="252"/>
+      <c r="BO6" s="252"/>
+      <c r="BP6" s="252"/>
+      <c r="BQ6" s="252"/>
+      <c r="BR6" s="252"/>
+      <c r="BS6" s="252"/>
+      <c r="BT6" s="252"/>
+      <c r="BU6" s="252"/>
+      <c r="BV6" s="252"/>
+      <c r="BW6" s="252"/>
+      <c r="BX6" s="252"/>
+      <c r="BY6" s="252"/>
+      <c r="BZ6" s="252"/>
+      <c r="CA6" s="252"/>
+      <c r="CB6" s="252"/>
+      <c r="CC6" s="252"/>
+      <c r="CD6" s="252"/>
+      <c r="CE6" s="252"/>
+      <c r="CF6" s="252"/>
+      <c r="CG6" s="252"/>
+      <c r="CH6" s="252"/>
+      <c r="CI6" s="252"/>
+      <c r="CJ6" s="252"/>
+      <c r="CK6" s="252"/>
+      <c r="CL6" s="252"/>
+      <c r="CM6" s="252"/>
+      <c r="CN6" s="252"/>
+      <c r="CO6" s="252"/>
+      <c r="CP6" s="252"/>
+      <c r="CQ6" s="252"/>
+      <c r="CR6" s="252"/>
+      <c r="CS6" s="252"/>
+      <c r="CT6" s="252"/>
+      <c r="CU6" s="252"/>
+      <c r="CV6" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="243"/>
-      <c r="CX6" s="242" t="s">
+      <c r="CW6" s="267"/>
+      <c r="CX6" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="246"/>
-      <c r="CZ6" s="246"/>
-      <c r="DA6" s="246"/>
-      <c r="DB6" s="246"/>
-      <c r="DC6" s="246"/>
-      <c r="DD6" s="246"/>
-      <c r="DE6" s="246"/>
-      <c r="DF6" s="246"/>
-      <c r="DG6" s="246"/>
-      <c r="DH6" s="270" t="s">
+      <c r="CY6" s="270"/>
+      <c r="CZ6" s="270"/>
+      <c r="DA6" s="270"/>
+      <c r="DB6" s="270"/>
+      <c r="DC6" s="270"/>
+      <c r="DD6" s="270"/>
+      <c r="DE6" s="270"/>
+      <c r="DF6" s="270"/>
+      <c r="DG6" s="270"/>
+      <c r="DH6" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="273" t="s">
+      <c r="DI6" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="231" t="s">
+      <c r="DJ6" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="231"/>
-      <c r="DL6" s="231"/>
-      <c r="DM6" s="231"/>
-      <c r="DN6" s="231"/>
-      <c r="DO6" s="232"/>
+      <c r="DK6" s="255"/>
+      <c r="DL6" s="255"/>
+      <c r="DM6" s="255"/>
+      <c r="DN6" s="255"/>
+      <c r="DO6" s="256"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="281"/>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-      <c r="AM7" s="281"/>
-      <c r="AN7" s="281"/>
-      <c r="AO7" s="281"/>
-      <c r="AP7" s="281"/>
-      <c r="AQ7" s="281"/>
-      <c r="AR7" s="281"/>
-      <c r="AS7" s="281"/>
-      <c r="AT7" s="281"/>
-      <c r="AU7" s="281"/>
-      <c r="AV7" s="281"/>
-      <c r="AW7" s="281"/>
-      <c r="AX7" s="281"/>
-      <c r="AY7" s="281"/>
-      <c r="AZ7" s="281"/>
-      <c r="BA7" s="281"/>
-      <c r="BB7" s="281"/>
-      <c r="BC7" s="281"/>
-      <c r="BD7" s="281"/>
-      <c r="BE7" s="281"/>
-      <c r="BF7" s="281"/>
-      <c r="BG7" s="281"/>
-      <c r="BH7" s="281"/>
-      <c r="BI7" s="281"/>
-      <c r="BJ7" s="281"/>
-      <c r="BK7" s="281"/>
-      <c r="BL7" s="281"/>
-      <c r="BM7" s="281"/>
-      <c r="BN7" s="281"/>
-      <c r="BO7" s="282"/>
-      <c r="BP7" s="282"/>
-      <c r="BQ7" s="282"/>
-      <c r="BR7" s="281"/>
-      <c r="BS7" s="281"/>
-      <c r="BT7" s="281"/>
-      <c r="BU7" s="281"/>
-      <c r="BV7" s="281"/>
-      <c r="BW7" s="281"/>
-      <c r="BX7" s="281"/>
-      <c r="BY7" s="281"/>
-      <c r="BZ7" s="281"/>
-      <c r="CA7" s="281"/>
-      <c r="CB7" s="281"/>
-      <c r="CC7" s="281"/>
-      <c r="CD7" s="281"/>
-      <c r="CE7" s="281"/>
-      <c r="CF7" s="281"/>
-      <c r="CG7" s="281"/>
-      <c r="CH7" s="281"/>
-      <c r="CI7" s="281"/>
-      <c r="CJ7" s="281"/>
-      <c r="CK7" s="281"/>
-      <c r="CL7" s="281"/>
-      <c r="CM7" s="281"/>
-      <c r="CN7" s="281"/>
-      <c r="CO7" s="281"/>
-      <c r="CP7" s="281"/>
-      <c r="CQ7" s="281"/>
-      <c r="CR7" s="281"/>
-      <c r="CS7" s="281"/>
-      <c r="CT7" s="281"/>
-      <c r="CU7" s="281"/>
-      <c r="CV7" s="244"/>
-      <c r="CW7" s="245"/>
-      <c r="CX7" s="244"/>
-      <c r="CY7" s="247"/>
-      <c r="CZ7" s="247"/>
-      <c r="DA7" s="247"/>
-      <c r="DB7" s="247"/>
-      <c r="DC7" s="247"/>
-      <c r="DD7" s="247"/>
-      <c r="DE7" s="247"/>
-      <c r="DF7" s="247"/>
-      <c r="DG7" s="247"/>
-      <c r="DH7" s="271"/>
-      <c r="DI7" s="274"/>
-      <c r="DJ7" s="233"/>
-      <c r="DK7" s="233"/>
-      <c r="DL7" s="233"/>
-      <c r="DM7" s="233"/>
-      <c r="DN7" s="233"/>
-      <c r="DO7" s="234"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="253"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="253"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="253"/>
+      <c r="AP7" s="253"/>
+      <c r="AQ7" s="253"/>
+      <c r="AR7" s="253"/>
+      <c r="AS7" s="253"/>
+      <c r="AT7" s="253"/>
+      <c r="AU7" s="253"/>
+      <c r="AV7" s="253"/>
+      <c r="AW7" s="253"/>
+      <c r="AX7" s="253"/>
+      <c r="AY7" s="253"/>
+      <c r="AZ7" s="253"/>
+      <c r="BA7" s="253"/>
+      <c r="BB7" s="253"/>
+      <c r="BC7" s="253"/>
+      <c r="BD7" s="253"/>
+      <c r="BE7" s="253"/>
+      <c r="BF7" s="253"/>
+      <c r="BG7" s="253"/>
+      <c r="BH7" s="253"/>
+      <c r="BI7" s="253"/>
+      <c r="BJ7" s="253"/>
+      <c r="BK7" s="253"/>
+      <c r="BL7" s="253"/>
+      <c r="BM7" s="253"/>
+      <c r="BN7" s="253"/>
+      <c r="BO7" s="254"/>
+      <c r="BP7" s="254"/>
+      <c r="BQ7" s="254"/>
+      <c r="BR7" s="253"/>
+      <c r="BS7" s="253"/>
+      <c r="BT7" s="253"/>
+      <c r="BU7" s="253"/>
+      <c r="BV7" s="253"/>
+      <c r="BW7" s="253"/>
+      <c r="BX7" s="253"/>
+      <c r="BY7" s="253"/>
+      <c r="BZ7" s="253"/>
+      <c r="CA7" s="253"/>
+      <c r="CB7" s="253"/>
+      <c r="CC7" s="253"/>
+      <c r="CD7" s="253"/>
+      <c r="CE7" s="253"/>
+      <c r="CF7" s="253"/>
+      <c r="CG7" s="253"/>
+      <c r="CH7" s="253"/>
+      <c r="CI7" s="253"/>
+      <c r="CJ7" s="253"/>
+      <c r="CK7" s="253"/>
+      <c r="CL7" s="253"/>
+      <c r="CM7" s="253"/>
+      <c r="CN7" s="253"/>
+      <c r="CO7" s="253"/>
+      <c r="CP7" s="253"/>
+      <c r="CQ7" s="253"/>
+      <c r="CR7" s="253"/>
+      <c r="CS7" s="253"/>
+      <c r="CT7" s="253"/>
+      <c r="CU7" s="253"/>
+      <c r="CV7" s="268"/>
+      <c r="CW7" s="269"/>
+      <c r="CX7" s="268"/>
+      <c r="CY7" s="271"/>
+      <c r="CZ7" s="271"/>
+      <c r="DA7" s="271"/>
+      <c r="DB7" s="271"/>
+      <c r="DC7" s="271"/>
+      <c r="DD7" s="271"/>
+      <c r="DE7" s="271"/>
+      <c r="DF7" s="271"/>
+      <c r="DG7" s="271"/>
+      <c r="DH7" s="243"/>
+      <c r="DI7" s="246"/>
+      <c r="DJ7" s="257"/>
+      <c r="DK7" s="257"/>
+      <c r="DL7" s="257"/>
+      <c r="DM7" s="257"/>
+      <c r="DN7" s="257"/>
+      <c r="DO7" s="258"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="257"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="284">
+      <c r="A8" s="275"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="281"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="241">
         <v>1</v>
       </c>
-      <c r="H8" s="252"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="267">
+      <c r="H8" s="233"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="232">
         <v>2</v>
       </c>
-      <c r="K8" s="252"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="248">
+      <c r="K8" s="233"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="237">
         <v>3</v>
       </c>
-      <c r="N8" s="249"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="248">
+      <c r="N8" s="238"/>
+      <c r="O8" s="239"/>
+      <c r="P8" s="237">
         <v>4</v>
       </c>
-      <c r="Q8" s="249"/>
-      <c r="R8" s="250"/>
-      <c r="S8" s="267">
+      <c r="Q8" s="238"/>
+      <c r="R8" s="240"/>
+      <c r="S8" s="232">
         <v>5</v>
       </c>
-      <c r="T8" s="252"/>
-      <c r="U8" s="253"/>
-      <c r="V8" s="267">
+      <c r="T8" s="233"/>
+      <c r="U8" s="236"/>
+      <c r="V8" s="232">
         <v>6</v>
       </c>
-      <c r="W8" s="252"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="267">
+      <c r="W8" s="233"/>
+      <c r="X8" s="234"/>
+      <c r="Y8" s="232">
         <v>7</v>
       </c>
-      <c r="Z8" s="252"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="267">
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="234"/>
+      <c r="AB8" s="232">
         <v>8</v>
       </c>
-      <c r="AC8" s="252"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="267">
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="234"/>
+      <c r="AE8" s="232">
         <v>9</v>
       </c>
-      <c r="AF8" s="252"/>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="248">
+      <c r="AF8" s="233"/>
+      <c r="AG8" s="236"/>
+      <c r="AH8" s="237">
         <v>10</v>
       </c>
-      <c r="AI8" s="249"/>
-      <c r="AJ8" s="250"/>
-      <c r="AK8" s="248">
+      <c r="AI8" s="238"/>
+      <c r="AJ8" s="240"/>
+      <c r="AK8" s="237">
         <v>11</v>
       </c>
-      <c r="AL8" s="249"/>
-      <c r="AM8" s="250"/>
-      <c r="AN8" s="251">
+      <c r="AL8" s="238"/>
+      <c r="AM8" s="240"/>
+      <c r="AN8" s="235">
         <v>12</v>
       </c>
-      <c r="AO8" s="252"/>
-      <c r="AP8" s="253"/>
-      <c r="AQ8" s="267">
+      <c r="AO8" s="233"/>
+      <c r="AP8" s="236"/>
+      <c r="AQ8" s="232">
         <v>13</v>
       </c>
-      <c r="AR8" s="252"/>
-      <c r="AS8" s="268"/>
-      <c r="AT8" s="251">
+      <c r="AR8" s="233"/>
+      <c r="AS8" s="234"/>
+      <c r="AT8" s="235">
         <v>14</v>
       </c>
-      <c r="AU8" s="252"/>
-      <c r="AV8" s="268"/>
-      <c r="AW8" s="267">
+      <c r="AU8" s="233"/>
+      <c r="AV8" s="234"/>
+      <c r="AW8" s="232">
         <v>15</v>
       </c>
-      <c r="AX8" s="252"/>
-      <c r="AY8" s="268"/>
-      <c r="AZ8" s="267">
+      <c r="AX8" s="233"/>
+      <c r="AY8" s="234"/>
+      <c r="AZ8" s="232">
         <v>16</v>
       </c>
-      <c r="BA8" s="252"/>
-      <c r="BB8" s="268"/>
-      <c r="BC8" s="248">
+      <c r="BA8" s="233"/>
+      <c r="BB8" s="234"/>
+      <c r="BC8" s="237">
         <v>17</v>
       </c>
-      <c r="BD8" s="249"/>
-      <c r="BE8" s="269"/>
-      <c r="BF8" s="248">
+      <c r="BD8" s="238"/>
+      <c r="BE8" s="239"/>
+      <c r="BF8" s="237">
         <v>18</v>
       </c>
-      <c r="BG8" s="249"/>
-      <c r="BH8" s="250"/>
-      <c r="BI8" s="251">
+      <c r="BG8" s="238"/>
+      <c r="BH8" s="240"/>
+      <c r="BI8" s="235">
         <v>19</v>
       </c>
-      <c r="BJ8" s="252"/>
-      <c r="BK8" s="253"/>
-      <c r="BL8" s="267">
+      <c r="BJ8" s="233"/>
+      <c r="BK8" s="236"/>
+      <c r="BL8" s="232">
         <v>20</v>
       </c>
-      <c r="BM8" s="252"/>
-      <c r="BN8" s="268"/>
-      <c r="BO8" s="267">
+      <c r="BM8" s="233"/>
+      <c r="BN8" s="234"/>
+      <c r="BO8" s="232">
         <v>21</v>
       </c>
-      <c r="BP8" s="252"/>
-      <c r="BQ8" s="268"/>
-      <c r="BR8" s="267">
+      <c r="BP8" s="233"/>
+      <c r="BQ8" s="234"/>
+      <c r="BR8" s="232">
         <v>22</v>
       </c>
-      <c r="BS8" s="252"/>
-      <c r="BT8" s="268"/>
-      <c r="BU8" s="251">
+      <c r="BS8" s="233"/>
+      <c r="BT8" s="234"/>
+      <c r="BU8" s="235">
         <v>23</v>
       </c>
-      <c r="BV8" s="252"/>
-      <c r="BW8" s="253"/>
-      <c r="BX8" s="248">
+      <c r="BV8" s="233"/>
+      <c r="BW8" s="236"/>
+      <c r="BX8" s="237">
         <v>24</v>
       </c>
-      <c r="BY8" s="249"/>
-      <c r="BZ8" s="250"/>
-      <c r="CA8" s="279">
+      <c r="BY8" s="238"/>
+      <c r="BZ8" s="240"/>
+      <c r="CA8" s="251">
         <v>25</v>
       </c>
-      <c r="CB8" s="249"/>
-      <c r="CC8" s="269"/>
-      <c r="CD8" s="267">
+      <c r="CB8" s="238"/>
+      <c r="CC8" s="239"/>
+      <c r="CD8" s="232">
         <v>26</v>
       </c>
-      <c r="CE8" s="252"/>
-      <c r="CF8" s="268"/>
-      <c r="CG8" s="251">
+      <c r="CE8" s="233"/>
+      <c r="CF8" s="234"/>
+      <c r="CG8" s="235">
         <v>27</v>
       </c>
-      <c r="CH8" s="252"/>
-      <c r="CI8" s="253"/>
-      <c r="CJ8" s="267">
+      <c r="CH8" s="233"/>
+      <c r="CI8" s="236"/>
+      <c r="CJ8" s="232">
         <v>28</v>
       </c>
-      <c r="CK8" s="252"/>
-      <c r="CL8" s="268"/>
-      <c r="CM8" s="267">
+      <c r="CK8" s="233"/>
+      <c r="CL8" s="234"/>
+      <c r="CM8" s="232">
         <v>29</v>
       </c>
-      <c r="CN8" s="252"/>
-      <c r="CO8" s="268"/>
-      <c r="CP8" s="267">
+      <c r="CN8" s="233"/>
+      <c r="CO8" s="234"/>
+      <c r="CP8" s="232">
         <v>30</v>
       </c>
-      <c r="CQ8" s="252"/>
-      <c r="CR8" s="268"/>
-      <c r="CS8" s="276">
+      <c r="CQ8" s="233"/>
+      <c r="CR8" s="234"/>
+      <c r="CS8" s="248">
         <v>31</v>
       </c>
-      <c r="CT8" s="277"/>
-      <c r="CU8" s="278"/>
+      <c r="CT8" s="249"/>
+      <c r="CU8" s="250"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -4787,8 +4220,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="272"/>
-      <c r="DI8" s="275"/>
+      <c r="DH8" s="244"/>
+      <c r="DI8" s="247"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -10557,45 +9990,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="283"/>
-      <c r="H33" s="283"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="283"/>
-      <c r="K33" s="283"/>
-      <c r="L33" s="283"/>
-      <c r="M33" s="283"/>
-      <c r="N33" s="283"/>
-      <c r="O33" s="283"/>
-      <c r="P33" s="283"/>
-      <c r="Q33" s="283"/>
-      <c r="R33" s="283"/>
-      <c r="S33" s="283"/>
-      <c r="T33" s="283"/>
-      <c r="U33" s="283"/>
-      <c r="V33" s="283"/>
-      <c r="W33" s="283"/>
-      <c r="X33" s="283"/>
-      <c r="Y33" s="283"/>
-      <c r="Z33" s="283"/>
-      <c r="AA33" s="283"/>
-      <c r="AB33" s="283"/>
-      <c r="AC33" s="283"/>
-      <c r="AD33" s="283"/>
-      <c r="AE33" s="283"/>
-      <c r="AF33" s="283"/>
-      <c r="AG33" s="283"/>
-      <c r="AH33" s="283"/>
-      <c r="AI33" s="283"/>
-      <c r="AJ33" s="283"/>
-      <c r="AK33" s="283"/>
-      <c r="AL33" s="283"/>
-      <c r="AM33" s="283"/>
-      <c r="AN33" s="283"/>
-      <c r="AO33" s="283"/>
-      <c r="AP33" s="283"/>
-      <c r="AQ33" s="283"/>
-      <c r="AR33" s="283"/>
-      <c r="AS33" s="283"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="231"/>
+      <c r="M33" s="231"/>
+      <c r="N33" s="231"/>
+      <c r="O33" s="231"/>
+      <c r="P33" s="231"/>
+      <c r="Q33" s="231"/>
+      <c r="R33" s="231"/>
+      <c r="S33" s="231"/>
+      <c r="T33" s="231"/>
+      <c r="U33" s="231"/>
+      <c r="V33" s="231"/>
+      <c r="W33" s="231"/>
+      <c r="X33" s="231"/>
+      <c r="Y33" s="231"/>
+      <c r="Z33" s="231"/>
+      <c r="AA33" s="231"/>
+      <c r="AB33" s="231"/>
+      <c r="AC33" s="231"/>
+      <c r="AD33" s="231"/>
+      <c r="AE33" s="231"/>
+      <c r="AF33" s="231"/>
+      <c r="AG33" s="231"/>
+      <c r="AH33" s="231"/>
+      <c r="AI33" s="231"/>
+      <c r="AJ33" s="231"/>
+      <c r="AK33" s="231"/>
+      <c r="AL33" s="231"/>
+      <c r="AM33" s="231"/>
+      <c r="AN33" s="231"/>
+      <c r="AO33" s="231"/>
+      <c r="AP33" s="231"/>
+      <c r="AQ33" s="231"/>
+      <c r="AR33" s="231"/>
+      <c r="AS33" s="231"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -10900,45 +10333,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="283"/>
-      <c r="H37" s="283"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="283"/>
-      <c r="K37" s="283"/>
-      <c r="L37" s="283"/>
-      <c r="M37" s="283"/>
-      <c r="N37" s="283"/>
-      <c r="O37" s="283"/>
-      <c r="P37" s="283"/>
-      <c r="Q37" s="283"/>
-      <c r="R37" s="283"/>
-      <c r="S37" s="283"/>
-      <c r="T37" s="283"/>
-      <c r="U37" s="283"/>
-      <c r="V37" s="283"/>
-      <c r="W37" s="283"/>
-      <c r="X37" s="283"/>
-      <c r="Y37" s="283"/>
-      <c r="Z37" s="283"/>
-      <c r="AA37" s="283"/>
-      <c r="AB37" s="283"/>
-      <c r="AC37" s="283"/>
-      <c r="AD37" s="283"/>
-      <c r="AE37" s="283"/>
-      <c r="AF37" s="283"/>
-      <c r="AG37" s="283"/>
-      <c r="AH37" s="283"/>
-      <c r="AI37" s="283"/>
-      <c r="AJ37" s="283"/>
-      <c r="AK37" s="283"/>
-      <c r="AL37" s="283"/>
-      <c r="AM37" s="283"/>
-      <c r="AN37" s="283"/>
-      <c r="AO37" s="283"/>
-      <c r="AP37" s="283"/>
-      <c r="AQ37" s="283"/>
-      <c r="AR37" s="283"/>
-      <c r="AS37" s="283"/>
+      <c r="G37" s="231"/>
+      <c r="H37" s="231"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="231"/>
+      <c r="K37" s="231"/>
+      <c r="L37" s="231"/>
+      <c r="M37" s="231"/>
+      <c r="N37" s="231"/>
+      <c r="O37" s="231"/>
+      <c r="P37" s="231"/>
+      <c r="Q37" s="231"/>
+      <c r="R37" s="231"/>
+      <c r="S37" s="231"/>
+      <c r="T37" s="231"/>
+      <c r="U37" s="231"/>
+      <c r="V37" s="231"/>
+      <c r="W37" s="231"/>
+      <c r="X37" s="231"/>
+      <c r="Y37" s="231"/>
+      <c r="Z37" s="231"/>
+      <c r="AA37" s="231"/>
+      <c r="AB37" s="231"/>
+      <c r="AC37" s="231"/>
+      <c r="AD37" s="231"/>
+      <c r="AE37" s="231"/>
+      <c r="AF37" s="231"/>
+      <c r="AG37" s="231"/>
+      <c r="AH37" s="231"/>
+      <c r="AI37" s="231"/>
+      <c r="AJ37" s="231"/>
+      <c r="AK37" s="231"/>
+      <c r="AL37" s="231"/>
+      <c r="AM37" s="231"/>
+      <c r="AN37" s="231"/>
+      <c r="AO37" s="231"/>
+      <c r="AP37" s="231"/>
+      <c r="AQ37" s="231"/>
+      <c r="AR37" s="231"/>
+      <c r="AS37" s="231"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -12439,19 +11872,27 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DJ6:DO7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DH6:DH8"/>
     <mergeCell ref="DI6:DI8"/>
     <mergeCell ref="BU8:BW8"/>
@@ -12468,27 +11909,19 @@
     <mergeCell ref="AW8:AY8"/>
     <mergeCell ref="BF8:BH8"/>
     <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DJ6:DO7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -12684,21 +12117,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="238" t="s">
+      <c r="CU1" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="238"/>
-      <c r="CW1" s="238"/>
-      <c r="CX1" s="238"/>
-      <c r="CY1" s="238"/>
-      <c r="CZ1" s="238"/>
-      <c r="DA1" s="238"/>
-      <c r="DB1" s="238"/>
-      <c r="DC1" s="238"/>
-      <c r="DD1" s="238"/>
-      <c r="DE1" s="238"/>
-      <c r="DF1" s="238"/>
-      <c r="DG1" s="238"/>
+      <c r="CV1" s="262"/>
+      <c r="CW1" s="262"/>
+      <c r="CX1" s="262"/>
+      <c r="CY1" s="262"/>
+      <c r="CZ1" s="262"/>
+      <c r="DA1" s="262"/>
+      <c r="DB1" s="262"/>
+      <c r="DC1" s="262"/>
+      <c r="DD1" s="262"/>
+      <c r="DE1" s="262"/>
+      <c r="DF1" s="262"/>
+      <c r="DG1" s="262"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -12799,241 +12232,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="239" t="s">
+      <c r="CU2" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="239"/>
-      <c r="CW2" s="239"/>
-      <c r="CX2" s="239"/>
-      <c r="CY2" s="239"/>
-      <c r="CZ2" s="239"/>
-      <c r="DA2" s="239"/>
-      <c r="DB2" s="239"/>
-      <c r="DC2" s="239"/>
-      <c r="DD2" s="239"/>
-      <c r="DE2" s="239"/>
-      <c r="DF2" s="239"/>
-      <c r="DG2" s="239"/>
+      <c r="CV2" s="263"/>
+      <c r="CW2" s="263"/>
+      <c r="CX2" s="263"/>
+      <c r="CY2" s="263"/>
+      <c r="CZ2" s="263"/>
+      <c r="DA2" s="263"/>
+      <c r="DB2" s="263"/>
+      <c r="DC2" s="263"/>
+      <c r="DD2" s="263"/>
+      <c r="DE2" s="263"/>
+      <c r="DF2" s="263"/>
+      <c r="DG2" s="263"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240"/>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240"/>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
-      <c r="AX3" s="240"/>
-      <c r="AY3" s="240"/>
-      <c r="AZ3" s="240"/>
-      <c r="BA3" s="240"/>
-      <c r="BB3" s="240"/>
-      <c r="BC3" s="240"/>
-      <c r="BD3" s="240"/>
-      <c r="BE3" s="240"/>
-      <c r="BF3" s="240"/>
-      <c r="BG3" s="240"/>
-      <c r="BH3" s="240"/>
-      <c r="BI3" s="240"/>
-      <c r="BJ3" s="240"/>
-      <c r="BK3" s="240"/>
-      <c r="BL3" s="240"/>
-      <c r="BM3" s="240"/>
-      <c r="BN3" s="240"/>
-      <c r="BO3" s="240"/>
-      <c r="BP3" s="240"/>
-      <c r="BQ3" s="240"/>
-      <c r="BR3" s="240"/>
-      <c r="BS3" s="240"/>
-      <c r="BT3" s="240"/>
-      <c r="BU3" s="240"/>
-      <c r="BV3" s="240"/>
-      <c r="BW3" s="240"/>
-      <c r="BX3" s="240"/>
-      <c r="BY3" s="240"/>
-      <c r="BZ3" s="240"/>
-      <c r="CA3" s="240"/>
-      <c r="CB3" s="240"/>
-      <c r="CC3" s="240"/>
-      <c r="CD3" s="240"/>
-      <c r="CE3" s="240"/>
-      <c r="CF3" s="240"/>
-      <c r="CG3" s="240"/>
-      <c r="CH3" s="240"/>
-      <c r="CI3" s="240"/>
-      <c r="CJ3" s="240"/>
-      <c r="CK3" s="240"/>
-      <c r="CL3" s="240"/>
-      <c r="CM3" s="240"/>
-      <c r="CN3" s="240"/>
-      <c r="CO3" s="240"/>
-      <c r="CP3" s="240"/>
-      <c r="CQ3" s="240"/>
-      <c r="CR3" s="240"/>
-      <c r="CS3" s="240"/>
-      <c r="CT3" s="240"/>
-      <c r="CU3" s="240"/>
-      <c r="CV3" s="241" t="s">
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="264"/>
+      <c r="AJ3" s="264"/>
+      <c r="AK3" s="264"/>
+      <c r="AL3" s="264"/>
+      <c r="AM3" s="264"/>
+      <c r="AN3" s="264"/>
+      <c r="AO3" s="264"/>
+      <c r="AP3" s="264"/>
+      <c r="AQ3" s="264"/>
+      <c r="AR3" s="264"/>
+      <c r="AS3" s="264"/>
+      <c r="AT3" s="264"/>
+      <c r="AU3" s="264"/>
+      <c r="AV3" s="264"/>
+      <c r="AW3" s="264"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="264"/>
+      <c r="AZ3" s="264"/>
+      <c r="BA3" s="264"/>
+      <c r="BB3" s="264"/>
+      <c r="BC3" s="264"/>
+      <c r="BD3" s="264"/>
+      <c r="BE3" s="264"/>
+      <c r="BF3" s="264"/>
+      <c r="BG3" s="264"/>
+      <c r="BH3" s="264"/>
+      <c r="BI3" s="264"/>
+      <c r="BJ3" s="264"/>
+      <c r="BK3" s="264"/>
+      <c r="BL3" s="264"/>
+      <c r="BM3" s="264"/>
+      <c r="BN3" s="264"/>
+      <c r="BO3" s="264"/>
+      <c r="BP3" s="264"/>
+      <c r="BQ3" s="264"/>
+      <c r="BR3" s="264"/>
+      <c r="BS3" s="264"/>
+      <c r="BT3" s="264"/>
+      <c r="BU3" s="264"/>
+      <c r="BV3" s="264"/>
+      <c r="BW3" s="264"/>
+      <c r="BX3" s="264"/>
+      <c r="BY3" s="264"/>
+      <c r="BZ3" s="264"/>
+      <c r="CA3" s="264"/>
+      <c r="CB3" s="264"/>
+      <c r="CC3" s="264"/>
+      <c r="CD3" s="264"/>
+      <c r="CE3" s="264"/>
+      <c r="CF3" s="264"/>
+      <c r="CG3" s="264"/>
+      <c r="CH3" s="264"/>
+      <c r="CI3" s="264"/>
+      <c r="CJ3" s="264"/>
+      <c r="CK3" s="264"/>
+      <c r="CL3" s="264"/>
+      <c r="CM3" s="264"/>
+      <c r="CN3" s="264"/>
+      <c r="CO3" s="264"/>
+      <c r="CP3" s="264"/>
+      <c r="CQ3" s="264"/>
+      <c r="CR3" s="264"/>
+      <c r="CS3" s="264"/>
+      <c r="CT3" s="264"/>
+      <c r="CU3" s="264"/>
+      <c r="CV3" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="241"/>
-      <c r="CX3" s="241"/>
-      <c r="CY3" s="241"/>
-      <c r="CZ3" s="241"/>
-      <c r="DA3" s="241"/>
-      <c r="DB3" s="241"/>
-      <c r="DC3" s="241"/>
-      <c r="DD3" s="241"/>
-      <c r="DE3" s="241"/>
-      <c r="DF3" s="241"/>
-      <c r="DG3" s="241"/>
+      <c r="CW3" s="265"/>
+      <c r="CX3" s="265"/>
+      <c r="CY3" s="265"/>
+      <c r="CZ3" s="265"/>
+      <c r="DA3" s="265"/>
+      <c r="DB3" s="265"/>
+      <c r="DC3" s="265"/>
+      <c r="DD3" s="265"/>
+      <c r="DE3" s="265"/>
+      <c r="DF3" s="265"/>
+      <c r="DG3" s="265"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="254"/>
-      <c r="Z4" s="254"/>
-      <c r="AA4" s="254"/>
-      <c r="AB4" s="254"/>
-      <c r="AC4" s="254"/>
-      <c r="AD4" s="254"/>
-      <c r="AE4" s="254"/>
-      <c r="AF4" s="254"/>
-      <c r="AG4" s="254"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="254"/>
-      <c r="AK4" s="254"/>
-      <c r="AL4" s="254"/>
-      <c r="AM4" s="254"/>
-      <c r="AN4" s="254"/>
-      <c r="AO4" s="254"/>
-      <c r="AP4" s="254"/>
-      <c r="AQ4" s="254"/>
-      <c r="AR4" s="254"/>
-      <c r="AS4" s="254"/>
-      <c r="AT4" s="254"/>
-      <c r="AU4" s="254"/>
-      <c r="AV4" s="254"/>
-      <c r="AW4" s="254"/>
-      <c r="AX4" s="254"/>
-      <c r="AY4" s="254"/>
-      <c r="AZ4" s="254"/>
-      <c r="BA4" s="254"/>
-      <c r="BB4" s="254"/>
-      <c r="BC4" s="254"/>
-      <c r="BD4" s="254"/>
-      <c r="BE4" s="254"/>
-      <c r="BF4" s="254"/>
-      <c r="BG4" s="254"/>
-      <c r="BH4" s="254"/>
-      <c r="BI4" s="254"/>
-      <c r="BJ4" s="254"/>
-      <c r="BK4" s="254"/>
-      <c r="BL4" s="254"/>
-      <c r="BM4" s="254"/>
-      <c r="BN4" s="254"/>
-      <c r="BO4" s="254"/>
-      <c r="BP4" s="254"/>
-      <c r="BQ4" s="254"/>
-      <c r="BR4" s="254"/>
-      <c r="BS4" s="254"/>
-      <c r="BT4" s="254"/>
-      <c r="BU4" s="254"/>
-      <c r="BV4" s="254"/>
-      <c r="BW4" s="254"/>
-      <c r="BX4" s="254"/>
-      <c r="BY4" s="254"/>
-      <c r="BZ4" s="254"/>
-      <c r="CA4" s="254"/>
-      <c r="CB4" s="254"/>
-      <c r="CC4" s="254"/>
-      <c r="CD4" s="254"/>
-      <c r="CE4" s="254"/>
-      <c r="CF4" s="254"/>
-      <c r="CG4" s="254"/>
-      <c r="CH4" s="254"/>
-      <c r="CI4" s="254"/>
-      <c r="CJ4" s="254"/>
-      <c r="CK4" s="254"/>
-      <c r="CL4" s="254"/>
-      <c r="CM4" s="254"/>
-      <c r="CN4" s="254"/>
-      <c r="CO4" s="254"/>
-      <c r="CP4" s="254"/>
-      <c r="CQ4" s="254"/>
-      <c r="CR4" s="254"/>
-      <c r="CS4" s="254"/>
-      <c r="CT4" s="254"/>
-      <c r="CU4" s="254"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="272"/>
+      <c r="AJ4" s="272"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="272"/>
+      <c r="AP4" s="272"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="272"/>
+      <c r="AV4" s="272"/>
+      <c r="AW4" s="272"/>
+      <c r="AX4" s="272"/>
+      <c r="AY4" s="272"/>
+      <c r="AZ4" s="272"/>
+      <c r="BA4" s="272"/>
+      <c r="BB4" s="272"/>
+      <c r="BC4" s="272"/>
+      <c r="BD4" s="272"/>
+      <c r="BE4" s="272"/>
+      <c r="BF4" s="272"/>
+      <c r="BG4" s="272"/>
+      <c r="BH4" s="272"/>
+      <c r="BI4" s="272"/>
+      <c r="BJ4" s="272"/>
+      <c r="BK4" s="272"/>
+      <c r="BL4" s="272"/>
+      <c r="BM4" s="272"/>
+      <c r="BN4" s="272"/>
+      <c r="BO4" s="272"/>
+      <c r="BP4" s="272"/>
+      <c r="BQ4" s="272"/>
+      <c r="BR4" s="272"/>
+      <c r="BS4" s="272"/>
+      <c r="BT4" s="272"/>
+      <c r="BU4" s="272"/>
+      <c r="BV4" s="272"/>
+      <c r="BW4" s="272"/>
+      <c r="BX4" s="272"/>
+      <c r="BY4" s="272"/>
+      <c r="BZ4" s="272"/>
+      <c r="CA4" s="272"/>
+      <c r="CB4" s="272"/>
+      <c r="CC4" s="272"/>
+      <c r="CD4" s="272"/>
+      <c r="CE4" s="272"/>
+      <c r="CF4" s="272"/>
+      <c r="CG4" s="272"/>
+      <c r="CH4" s="272"/>
+      <c r="CI4" s="272"/>
+      <c r="CJ4" s="272"/>
+      <c r="CK4" s="272"/>
+      <c r="CL4" s="272"/>
+      <c r="CM4" s="272"/>
+      <c r="CN4" s="272"/>
+      <c r="CO4" s="272"/>
+      <c r="CP4" s="272"/>
+      <c r="CQ4" s="272"/>
+      <c r="CR4" s="272"/>
+      <c r="CS4" s="272"/>
+      <c r="CT4" s="272"/>
+      <c r="CU4" s="272"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -13163,288 +12596,288 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="258" t="s">
+      <c r="A6" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="235" t="s">
+      <c r="D6" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="280" t="s">
+      <c r="G6" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="280"/>
-      <c r="AF6" s="280"/>
-      <c r="AG6" s="280"/>
-      <c r="AH6" s="280"/>
-      <c r="AI6" s="280"/>
-      <c r="AJ6" s="280"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="280"/>
-      <c r="AM6" s="280"/>
-      <c r="AN6" s="280"/>
-      <c r="AO6" s="280"/>
-      <c r="AP6" s="280"/>
-      <c r="AQ6" s="280"/>
-      <c r="AR6" s="280"/>
-      <c r="AS6" s="280"/>
-      <c r="AT6" s="280"/>
-      <c r="AU6" s="280"/>
-      <c r="AV6" s="280"/>
-      <c r="AW6" s="280"/>
-      <c r="AX6" s="280"/>
-      <c r="AY6" s="280"/>
-      <c r="AZ6" s="280"/>
-      <c r="BA6" s="280"/>
-      <c r="BB6" s="280"/>
-      <c r="BC6" s="280"/>
-      <c r="BD6" s="280"/>
-      <c r="BE6" s="280"/>
-      <c r="BF6" s="280"/>
-      <c r="BG6" s="280"/>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="280"/>
-      <c r="BM6" s="280"/>
-      <c r="BN6" s="280"/>
-      <c r="BO6" s="280"/>
-      <c r="BP6" s="280"/>
-      <c r="BQ6" s="280"/>
-      <c r="BR6" s="280"/>
-      <c r="BS6" s="280"/>
-      <c r="BT6" s="280"/>
-      <c r="BU6" s="280"/>
-      <c r="BV6" s="280"/>
-      <c r="BW6" s="280"/>
-      <c r="BX6" s="280"/>
-      <c r="BY6" s="280"/>
-      <c r="BZ6" s="280"/>
-      <c r="CA6" s="280"/>
-      <c r="CB6" s="280"/>
-      <c r="CC6" s="280"/>
-      <c r="CD6" s="280"/>
-      <c r="CE6" s="280"/>
-      <c r="CF6" s="280"/>
-      <c r="CG6" s="280"/>
-      <c r="CH6" s="280"/>
-      <c r="CI6" s="280"/>
-      <c r="CJ6" s="280"/>
-      <c r="CK6" s="280"/>
-      <c r="CL6" s="280"/>
-      <c r="CM6" s="280"/>
-      <c r="CN6" s="280"/>
-      <c r="CO6" s="280"/>
-      <c r="CP6" s="280"/>
-      <c r="CQ6" s="280"/>
-      <c r="CR6" s="280"/>
-      <c r="CS6" s="280"/>
-      <c r="CT6" s="280"/>
-      <c r="CU6" s="280"/>
-      <c r="CV6" s="242" t="s">
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="252"/>
+      <c r="X6" s="252"/>
+      <c r="Y6" s="252"/>
+      <c r="Z6" s="252"/>
+      <c r="AA6" s="252"/>
+      <c r="AB6" s="252"/>
+      <c r="AC6" s="252"/>
+      <c r="AD6" s="252"/>
+      <c r="AE6" s="252"/>
+      <c r="AF6" s="252"/>
+      <c r="AG6" s="252"/>
+      <c r="AH6" s="252"/>
+      <c r="AI6" s="252"/>
+      <c r="AJ6" s="252"/>
+      <c r="AK6" s="252"/>
+      <c r="AL6" s="252"/>
+      <c r="AM6" s="252"/>
+      <c r="AN6" s="252"/>
+      <c r="AO6" s="252"/>
+      <c r="AP6" s="252"/>
+      <c r="AQ6" s="252"/>
+      <c r="AR6" s="252"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="252"/>
+      <c r="AU6" s="252"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
+      <c r="AX6" s="252"/>
+      <c r="AY6" s="252"/>
+      <c r="AZ6" s="252"/>
+      <c r="BA6" s="252"/>
+      <c r="BB6" s="252"/>
+      <c r="BC6" s="252"/>
+      <c r="BD6" s="252"/>
+      <c r="BE6" s="252"/>
+      <c r="BF6" s="252"/>
+      <c r="BG6" s="252"/>
+      <c r="BH6" s="252"/>
+      <c r="BI6" s="252"/>
+      <c r="BJ6" s="252"/>
+      <c r="BK6" s="252"/>
+      <c r="BL6" s="252"/>
+      <c r="BM6" s="252"/>
+      <c r="BN6" s="252"/>
+      <c r="BO6" s="252"/>
+      <c r="BP6" s="252"/>
+      <c r="BQ6" s="252"/>
+      <c r="BR6" s="252"/>
+      <c r="BS6" s="252"/>
+      <c r="BT6" s="252"/>
+      <c r="BU6" s="252"/>
+      <c r="BV6" s="252"/>
+      <c r="BW6" s="252"/>
+      <c r="BX6" s="252"/>
+      <c r="BY6" s="252"/>
+      <c r="BZ6" s="252"/>
+      <c r="CA6" s="252"/>
+      <c r="CB6" s="252"/>
+      <c r="CC6" s="252"/>
+      <c r="CD6" s="252"/>
+      <c r="CE6" s="252"/>
+      <c r="CF6" s="252"/>
+      <c r="CG6" s="252"/>
+      <c r="CH6" s="252"/>
+      <c r="CI6" s="252"/>
+      <c r="CJ6" s="252"/>
+      <c r="CK6" s="252"/>
+      <c r="CL6" s="252"/>
+      <c r="CM6" s="252"/>
+      <c r="CN6" s="252"/>
+      <c r="CO6" s="252"/>
+      <c r="CP6" s="252"/>
+      <c r="CQ6" s="252"/>
+      <c r="CR6" s="252"/>
+      <c r="CS6" s="252"/>
+      <c r="CT6" s="252"/>
+      <c r="CU6" s="252"/>
+      <c r="CV6" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="243"/>
-      <c r="CX6" s="242" t="s">
+      <c r="CW6" s="267"/>
+      <c r="CX6" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="246"/>
-      <c r="CZ6" s="246"/>
-      <c r="DA6" s="246"/>
-      <c r="DB6" s="246"/>
-      <c r="DC6" s="246"/>
-      <c r="DD6" s="246"/>
-      <c r="DE6" s="246"/>
-      <c r="DF6" s="246"/>
-      <c r="DG6" s="246"/>
-      <c r="DH6" s="270" t="s">
+      <c r="CY6" s="270"/>
+      <c r="CZ6" s="270"/>
+      <c r="DA6" s="270"/>
+      <c r="DB6" s="270"/>
+      <c r="DC6" s="270"/>
+      <c r="DD6" s="270"/>
+      <c r="DE6" s="270"/>
+      <c r="DF6" s="270"/>
+      <c r="DG6" s="270"/>
+      <c r="DH6" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="273" t="s">
+      <c r="DI6" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="231" t="s">
+      <c r="DJ6" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="231"/>
-      <c r="DL6" s="231"/>
-      <c r="DM6" s="231"/>
-      <c r="DN6" s="231"/>
-      <c r="DO6" s="232"/>
+      <c r="DK6" s="255"/>
+      <c r="DL6" s="255"/>
+      <c r="DM6" s="255"/>
+      <c r="DN6" s="255"/>
+      <c r="DO6" s="256"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="281"/>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-      <c r="AM7" s="281"/>
-      <c r="AN7" s="281"/>
-      <c r="AO7" s="281"/>
-      <c r="AP7" s="281"/>
-      <c r="AQ7" s="281"/>
-      <c r="AR7" s="281"/>
-      <c r="AS7" s="281"/>
-      <c r="AT7" s="281"/>
-      <c r="AU7" s="281"/>
-      <c r="AV7" s="281"/>
-      <c r="AW7" s="281"/>
-      <c r="AX7" s="281"/>
-      <c r="AY7" s="281"/>
-      <c r="AZ7" s="281"/>
-      <c r="BA7" s="281"/>
-      <c r="BB7" s="281"/>
-      <c r="BC7" s="281"/>
-      <c r="BD7" s="281"/>
-      <c r="BE7" s="281"/>
-      <c r="BF7" s="281"/>
-      <c r="BG7" s="281"/>
-      <c r="BH7" s="281"/>
-      <c r="BI7" s="281"/>
-      <c r="BJ7" s="281"/>
-      <c r="BK7" s="281"/>
-      <c r="BL7" s="281"/>
-      <c r="BM7" s="281"/>
-      <c r="BN7" s="281"/>
-      <c r="BO7" s="282"/>
-      <c r="BP7" s="282"/>
-      <c r="BQ7" s="282"/>
-      <c r="BR7" s="281"/>
-      <c r="BS7" s="281"/>
-      <c r="BT7" s="281"/>
-      <c r="BU7" s="281"/>
-      <c r="BV7" s="281"/>
-      <c r="BW7" s="281"/>
-      <c r="BX7" s="281"/>
-      <c r="BY7" s="281"/>
-      <c r="BZ7" s="281"/>
-      <c r="CA7" s="281"/>
-      <c r="CB7" s="281"/>
-      <c r="CC7" s="281"/>
-      <c r="CD7" s="281"/>
-      <c r="CE7" s="281"/>
-      <c r="CF7" s="281"/>
-      <c r="CG7" s="281"/>
-      <c r="CH7" s="281"/>
-      <c r="CI7" s="281"/>
-      <c r="CJ7" s="281"/>
-      <c r="CK7" s="281"/>
-      <c r="CL7" s="281"/>
-      <c r="CM7" s="281"/>
-      <c r="CN7" s="281"/>
-      <c r="CO7" s="281"/>
-      <c r="CP7" s="281"/>
-      <c r="CQ7" s="281"/>
-      <c r="CR7" s="281"/>
-      <c r="CS7" s="281"/>
-      <c r="CT7" s="281"/>
-      <c r="CU7" s="281"/>
-      <c r="CV7" s="244"/>
-      <c r="CW7" s="245"/>
-      <c r="CX7" s="244"/>
-      <c r="CY7" s="247"/>
-      <c r="CZ7" s="247"/>
-      <c r="DA7" s="247"/>
-      <c r="DB7" s="247"/>
-      <c r="DC7" s="247"/>
-      <c r="DD7" s="247"/>
-      <c r="DE7" s="247"/>
-      <c r="DF7" s="247"/>
-      <c r="DG7" s="247"/>
-      <c r="DH7" s="271"/>
-      <c r="DI7" s="274"/>
-      <c r="DJ7" s="233"/>
-      <c r="DK7" s="233"/>
-      <c r="DL7" s="233"/>
-      <c r="DM7" s="233"/>
-      <c r="DN7" s="233"/>
-      <c r="DO7" s="234"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="253"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="253"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="253"/>
+      <c r="AP7" s="253"/>
+      <c r="AQ7" s="253"/>
+      <c r="AR7" s="253"/>
+      <c r="AS7" s="253"/>
+      <c r="AT7" s="253"/>
+      <c r="AU7" s="253"/>
+      <c r="AV7" s="253"/>
+      <c r="AW7" s="253"/>
+      <c r="AX7" s="253"/>
+      <c r="AY7" s="253"/>
+      <c r="AZ7" s="253"/>
+      <c r="BA7" s="253"/>
+      <c r="BB7" s="253"/>
+      <c r="BC7" s="253"/>
+      <c r="BD7" s="253"/>
+      <c r="BE7" s="253"/>
+      <c r="BF7" s="253"/>
+      <c r="BG7" s="253"/>
+      <c r="BH7" s="253"/>
+      <c r="BI7" s="253"/>
+      <c r="BJ7" s="253"/>
+      <c r="BK7" s="253"/>
+      <c r="BL7" s="253"/>
+      <c r="BM7" s="253"/>
+      <c r="BN7" s="253"/>
+      <c r="BO7" s="254"/>
+      <c r="BP7" s="254"/>
+      <c r="BQ7" s="254"/>
+      <c r="BR7" s="253"/>
+      <c r="BS7" s="253"/>
+      <c r="BT7" s="253"/>
+      <c r="BU7" s="253"/>
+      <c r="BV7" s="253"/>
+      <c r="BW7" s="253"/>
+      <c r="BX7" s="253"/>
+      <c r="BY7" s="253"/>
+      <c r="BZ7" s="253"/>
+      <c r="CA7" s="253"/>
+      <c r="CB7" s="253"/>
+      <c r="CC7" s="253"/>
+      <c r="CD7" s="253"/>
+      <c r="CE7" s="253"/>
+      <c r="CF7" s="253"/>
+      <c r="CG7" s="253"/>
+      <c r="CH7" s="253"/>
+      <c r="CI7" s="253"/>
+      <c r="CJ7" s="253"/>
+      <c r="CK7" s="253"/>
+      <c r="CL7" s="253"/>
+      <c r="CM7" s="253"/>
+      <c r="CN7" s="253"/>
+      <c r="CO7" s="253"/>
+      <c r="CP7" s="253"/>
+      <c r="CQ7" s="253"/>
+      <c r="CR7" s="253"/>
+      <c r="CS7" s="253"/>
+      <c r="CT7" s="253"/>
+      <c r="CU7" s="253"/>
+      <c r="CV7" s="268"/>
+      <c r="CW7" s="269"/>
+      <c r="CX7" s="268"/>
+      <c r="CY7" s="271"/>
+      <c r="CZ7" s="271"/>
+      <c r="DA7" s="271"/>
+      <c r="DB7" s="271"/>
+      <c r="DC7" s="271"/>
+      <c r="DD7" s="271"/>
+      <c r="DE7" s="271"/>
+      <c r="DF7" s="271"/>
+      <c r="DG7" s="271"/>
+      <c r="DH7" s="243"/>
+      <c r="DI7" s="246"/>
+      <c r="DJ7" s="257"/>
+      <c r="DK7" s="257"/>
+      <c r="DL7" s="257"/>
+      <c r="DM7" s="257"/>
+      <c r="DN7" s="257"/>
+      <c r="DO7" s="258"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="257"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="266"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="281"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="284"/>
       <c r="G8" s="290">
         <v>1</v>
       </c>
-      <c r="H8" s="249"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="267">
+      <c r="H8" s="238"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="232">
         <v>2</v>
       </c>
-      <c r="K8" s="252"/>
-      <c r="L8" s="268"/>
+      <c r="K8" s="233"/>
+      <c r="L8" s="234"/>
       <c r="M8" s="285">
         <v>3</v>
       </c>
@@ -13465,16 +12898,16 @@
       </c>
       <c r="W8" s="286"/>
       <c r="X8" s="287"/>
-      <c r="Y8" s="248">
+      <c r="Y8" s="237">
         <v>7</v>
       </c>
-      <c r="Z8" s="249"/>
-      <c r="AA8" s="250"/>
-      <c r="AB8" s="248">
+      <c r="Z8" s="238"/>
+      <c r="AA8" s="240"/>
+      <c r="AB8" s="237">
         <v>8</v>
       </c>
-      <c r="AC8" s="249"/>
-      <c r="AD8" s="250"/>
+      <c r="AC8" s="238"/>
+      <c r="AD8" s="240"/>
       <c r="AE8" s="285">
         <v>9</v>
       </c>
@@ -13500,16 +12933,16 @@
       </c>
       <c r="AR8" s="286"/>
       <c r="AS8" s="287"/>
-      <c r="AT8" s="279">
+      <c r="AT8" s="251">
         <v>14</v>
       </c>
-      <c r="AU8" s="249"/>
-      <c r="AV8" s="250"/>
-      <c r="AW8" s="248">
+      <c r="AU8" s="238"/>
+      <c r="AV8" s="240"/>
+      <c r="AW8" s="237">
         <v>15</v>
       </c>
-      <c r="AX8" s="249"/>
-      <c r="AY8" s="250"/>
+      <c r="AX8" s="238"/>
+      <c r="AY8" s="240"/>
       <c r="AZ8" s="285">
         <v>16</v>
       </c>
@@ -13535,16 +12968,16 @@
       </c>
       <c r="BM8" s="286"/>
       <c r="BN8" s="287"/>
-      <c r="BO8" s="248">
+      <c r="BO8" s="237">
         <v>21</v>
       </c>
-      <c r="BP8" s="249"/>
-      <c r="BQ8" s="250"/>
-      <c r="BR8" s="248">
+      <c r="BP8" s="238"/>
+      <c r="BQ8" s="240"/>
+      <c r="BR8" s="237">
         <v>22</v>
       </c>
-      <c r="BS8" s="249"/>
-      <c r="BT8" s="250"/>
+      <c r="BS8" s="238"/>
+      <c r="BT8" s="240"/>
       <c r="BU8" s="288">
         <v>23</v>
       </c>
@@ -13570,16 +13003,16 @@
       </c>
       <c r="CH8" s="286"/>
       <c r="CI8" s="289"/>
-      <c r="CJ8" s="248">
+      <c r="CJ8" s="237">
         <v>28</v>
       </c>
-      <c r="CK8" s="249"/>
-      <c r="CL8" s="250"/>
-      <c r="CM8" s="248">
+      <c r="CK8" s="238"/>
+      <c r="CL8" s="240"/>
+      <c r="CM8" s="237">
         <v>29</v>
       </c>
-      <c r="CN8" s="249"/>
-      <c r="CO8" s="250"/>
+      <c r="CN8" s="238"/>
+      <c r="CO8" s="240"/>
       <c r="CP8" s="285">
         <v>30</v>
       </c>
@@ -13624,8 +13057,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="272"/>
-      <c r="DI8" s="275"/>
+      <c r="DH8" s="244"/>
+      <c r="DI8" s="247"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -18950,45 +18383,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="283"/>
-      <c r="H31" s="283"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="283"/>
-      <c r="K31" s="283"/>
-      <c r="L31" s="283"/>
-      <c r="M31" s="283"/>
-      <c r="N31" s="283"/>
-      <c r="O31" s="283"/>
-      <c r="P31" s="283"/>
-      <c r="Q31" s="283"/>
-      <c r="R31" s="283"/>
-      <c r="S31" s="283"/>
-      <c r="T31" s="283"/>
-      <c r="U31" s="283"/>
-      <c r="V31" s="283"/>
-      <c r="W31" s="283"/>
-      <c r="X31" s="283"/>
-      <c r="Y31" s="283"/>
-      <c r="Z31" s="283"/>
-      <c r="AA31" s="283"/>
-      <c r="AB31" s="283"/>
-      <c r="AC31" s="283"/>
-      <c r="AD31" s="283"/>
-      <c r="AE31" s="283"/>
-      <c r="AF31" s="283"/>
-      <c r="AG31" s="283"/>
-      <c r="AH31" s="283"/>
-      <c r="AI31" s="283"/>
-      <c r="AJ31" s="283"/>
-      <c r="AK31" s="283"/>
-      <c r="AL31" s="283"/>
-      <c r="AM31" s="283"/>
-      <c r="AN31" s="283"/>
-      <c r="AO31" s="283"/>
-      <c r="AP31" s="283"/>
-      <c r="AQ31" s="283"/>
-      <c r="AR31" s="283"/>
-      <c r="AS31" s="283"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="231"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="231"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231"/>
+      <c r="W31" s="231"/>
+      <c r="X31" s="231"/>
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231"/>
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231"/>
+      <c r="AC31" s="231"/>
+      <c r="AD31" s="231"/>
+      <c r="AE31" s="231"/>
+      <c r="AF31" s="231"/>
+      <c r="AG31" s="231"/>
+      <c r="AH31" s="231"/>
+      <c r="AI31" s="231"/>
+      <c r="AJ31" s="231"/>
+      <c r="AK31" s="231"/>
+      <c r="AL31" s="231"/>
+      <c r="AM31" s="231"/>
+      <c r="AN31" s="231"/>
+      <c r="AO31" s="231"/>
+      <c r="AP31" s="231"/>
+      <c r="AQ31" s="231"/>
+      <c r="AR31" s="231"/>
+      <c r="AS31" s="231"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -19293,45 +18726,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="283"/>
-      <c r="H35" s="283"/>
-      <c r="I35" s="283"/>
-      <c r="J35" s="283"/>
-      <c r="K35" s="283"/>
-      <c r="L35" s="283"/>
-      <c r="M35" s="283"/>
-      <c r="N35" s="283"/>
-      <c r="O35" s="283"/>
-      <c r="P35" s="283"/>
-      <c r="Q35" s="283"/>
-      <c r="R35" s="283"/>
-      <c r="S35" s="283"/>
-      <c r="T35" s="283"/>
-      <c r="U35" s="283"/>
-      <c r="V35" s="283"/>
-      <c r="W35" s="283"/>
-      <c r="X35" s="283"/>
-      <c r="Y35" s="283"/>
-      <c r="Z35" s="283"/>
-      <c r="AA35" s="283"/>
-      <c r="AB35" s="283"/>
-      <c r="AC35" s="283"/>
-      <c r="AD35" s="283"/>
-      <c r="AE35" s="283"/>
-      <c r="AF35" s="283"/>
-      <c r="AG35" s="283"/>
-      <c r="AH35" s="283"/>
-      <c r="AI35" s="283"/>
-      <c r="AJ35" s="283"/>
-      <c r="AK35" s="283"/>
-      <c r="AL35" s="283"/>
-      <c r="AM35" s="283"/>
-      <c r="AN35" s="283"/>
-      <c r="AO35" s="283"/>
-      <c r="AP35" s="283"/>
-      <c r="AQ35" s="283"/>
-      <c r="AR35" s="283"/>
-      <c r="AS35" s="283"/>
+      <c r="G35" s="231"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="231"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="231"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="231"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="231"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="231"/>
+      <c r="T35" s="231"/>
+      <c r="U35" s="231"/>
+      <c r="V35" s="231"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="231"/>
+      <c r="Y35" s="231"/>
+      <c r="Z35" s="231"/>
+      <c r="AA35" s="231"/>
+      <c r="AB35" s="231"/>
+      <c r="AC35" s="231"/>
+      <c r="AD35" s="231"/>
+      <c r="AE35" s="231"/>
+      <c r="AF35" s="231"/>
+      <c r="AG35" s="231"/>
+      <c r="AH35" s="231"/>
+      <c r="AI35" s="231"/>
+      <c r="AJ35" s="231"/>
+      <c r="AK35" s="231"/>
+      <c r="AL35" s="231"/>
+      <c r="AM35" s="231"/>
+      <c r="AN35" s="231"/>
+      <c r="AO35" s="231"/>
+      <c r="AP35" s="231"/>
+      <c r="AQ35" s="231"/>
+      <c r="AR35" s="231"/>
+      <c r="AS35" s="231"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -21489,29 +20922,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -21528,23 +20949,35 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="194" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="113" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="112" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21570,11 +21003,11 @@
   <dimension ref="A1:EF87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Z16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CY16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="BK18" sqref="BK18"/>
+      <selection pane="bottomRight" activeCell="DJ21" sqref="DJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21741,21 +21174,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="238" t="s">
+      <c r="CU1" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="238"/>
-      <c r="CW1" s="238"/>
-      <c r="CX1" s="238"/>
-      <c r="CY1" s="238"/>
-      <c r="CZ1" s="238"/>
-      <c r="DA1" s="238"/>
-      <c r="DB1" s="238"/>
-      <c r="DC1" s="238"/>
-      <c r="DD1" s="238"/>
-      <c r="DE1" s="238"/>
-      <c r="DF1" s="238"/>
-      <c r="DG1" s="238"/>
+      <c r="CV1" s="262"/>
+      <c r="CW1" s="262"/>
+      <c r="CX1" s="262"/>
+      <c r="CY1" s="262"/>
+      <c r="CZ1" s="262"/>
+      <c r="DA1" s="262"/>
+      <c r="DB1" s="262"/>
+      <c r="DC1" s="262"/>
+      <c r="DD1" s="262"/>
+      <c r="DE1" s="262"/>
+      <c r="DF1" s="262"/>
+      <c r="DG1" s="262"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -21856,241 +21289,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="239" t="s">
+      <c r="CU2" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="239"/>
-      <c r="CW2" s="239"/>
-      <c r="CX2" s="239"/>
-      <c r="CY2" s="239"/>
-      <c r="CZ2" s="239"/>
-      <c r="DA2" s="239"/>
-      <c r="DB2" s="239"/>
-      <c r="DC2" s="239"/>
-      <c r="DD2" s="239"/>
-      <c r="DE2" s="239"/>
-      <c r="DF2" s="239"/>
-      <c r="DG2" s="239"/>
+      <c r="CV2" s="263"/>
+      <c r="CW2" s="263"/>
+      <c r="CX2" s="263"/>
+      <c r="CY2" s="263"/>
+      <c r="CZ2" s="263"/>
+      <c r="DA2" s="263"/>
+      <c r="DB2" s="263"/>
+      <c r="DC2" s="263"/>
+      <c r="DD2" s="263"/>
+      <c r="DE2" s="263"/>
+      <c r="DF2" s="263"/>
+      <c r="DG2" s="263"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240"/>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240"/>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
-      <c r="AX3" s="240"/>
-      <c r="AY3" s="240"/>
-      <c r="AZ3" s="240"/>
-      <c r="BA3" s="240"/>
-      <c r="BB3" s="240"/>
-      <c r="BC3" s="240"/>
-      <c r="BD3" s="240"/>
-      <c r="BE3" s="240"/>
-      <c r="BF3" s="240"/>
-      <c r="BG3" s="240"/>
-      <c r="BH3" s="240"/>
-      <c r="BI3" s="240"/>
-      <c r="BJ3" s="240"/>
-      <c r="BK3" s="240"/>
-      <c r="BL3" s="240"/>
-      <c r="BM3" s="240"/>
-      <c r="BN3" s="240"/>
-      <c r="BO3" s="240"/>
-      <c r="BP3" s="240"/>
-      <c r="BQ3" s="240"/>
-      <c r="BR3" s="240"/>
-      <c r="BS3" s="240"/>
-      <c r="BT3" s="240"/>
-      <c r="BU3" s="240"/>
-      <c r="BV3" s="240"/>
-      <c r="BW3" s="240"/>
-      <c r="BX3" s="240"/>
-      <c r="BY3" s="240"/>
-      <c r="BZ3" s="240"/>
-      <c r="CA3" s="240"/>
-      <c r="CB3" s="240"/>
-      <c r="CC3" s="240"/>
-      <c r="CD3" s="240"/>
-      <c r="CE3" s="240"/>
-      <c r="CF3" s="240"/>
-      <c r="CG3" s="240"/>
-      <c r="CH3" s="240"/>
-      <c r="CI3" s="240"/>
-      <c r="CJ3" s="240"/>
-      <c r="CK3" s="240"/>
-      <c r="CL3" s="240"/>
-      <c r="CM3" s="240"/>
-      <c r="CN3" s="240"/>
-      <c r="CO3" s="240"/>
-      <c r="CP3" s="240"/>
-      <c r="CQ3" s="240"/>
-      <c r="CR3" s="240"/>
-      <c r="CS3" s="240"/>
-      <c r="CT3" s="240"/>
-      <c r="CU3" s="240"/>
-      <c r="CV3" s="241" t="s">
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="264"/>
+      <c r="AJ3" s="264"/>
+      <c r="AK3" s="264"/>
+      <c r="AL3" s="264"/>
+      <c r="AM3" s="264"/>
+      <c r="AN3" s="264"/>
+      <c r="AO3" s="264"/>
+      <c r="AP3" s="264"/>
+      <c r="AQ3" s="264"/>
+      <c r="AR3" s="264"/>
+      <c r="AS3" s="264"/>
+      <c r="AT3" s="264"/>
+      <c r="AU3" s="264"/>
+      <c r="AV3" s="264"/>
+      <c r="AW3" s="264"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="264"/>
+      <c r="AZ3" s="264"/>
+      <c r="BA3" s="264"/>
+      <c r="BB3" s="264"/>
+      <c r="BC3" s="264"/>
+      <c r="BD3" s="264"/>
+      <c r="BE3" s="264"/>
+      <c r="BF3" s="264"/>
+      <c r="BG3" s="264"/>
+      <c r="BH3" s="264"/>
+      <c r="BI3" s="264"/>
+      <c r="BJ3" s="264"/>
+      <c r="BK3" s="264"/>
+      <c r="BL3" s="264"/>
+      <c r="BM3" s="264"/>
+      <c r="BN3" s="264"/>
+      <c r="BO3" s="264"/>
+      <c r="BP3" s="264"/>
+      <c r="BQ3" s="264"/>
+      <c r="BR3" s="264"/>
+      <c r="BS3" s="264"/>
+      <c r="BT3" s="264"/>
+      <c r="BU3" s="264"/>
+      <c r="BV3" s="264"/>
+      <c r="BW3" s="264"/>
+      <c r="BX3" s="264"/>
+      <c r="BY3" s="264"/>
+      <c r="BZ3" s="264"/>
+      <c r="CA3" s="264"/>
+      <c r="CB3" s="264"/>
+      <c r="CC3" s="264"/>
+      <c r="CD3" s="264"/>
+      <c r="CE3" s="264"/>
+      <c r="CF3" s="264"/>
+      <c r="CG3" s="264"/>
+      <c r="CH3" s="264"/>
+      <c r="CI3" s="264"/>
+      <c r="CJ3" s="264"/>
+      <c r="CK3" s="264"/>
+      <c r="CL3" s="264"/>
+      <c r="CM3" s="264"/>
+      <c r="CN3" s="264"/>
+      <c r="CO3" s="264"/>
+      <c r="CP3" s="264"/>
+      <c r="CQ3" s="264"/>
+      <c r="CR3" s="264"/>
+      <c r="CS3" s="264"/>
+      <c r="CT3" s="264"/>
+      <c r="CU3" s="264"/>
+      <c r="CV3" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="241"/>
-      <c r="CX3" s="241"/>
-      <c r="CY3" s="241"/>
-      <c r="CZ3" s="241"/>
-      <c r="DA3" s="241"/>
-      <c r="DB3" s="241"/>
-      <c r="DC3" s="241"/>
-      <c r="DD3" s="241"/>
-      <c r="DE3" s="241"/>
-      <c r="DF3" s="241"/>
-      <c r="DG3" s="241"/>
+      <c r="CW3" s="265"/>
+      <c r="CX3" s="265"/>
+      <c r="CY3" s="265"/>
+      <c r="CZ3" s="265"/>
+      <c r="DA3" s="265"/>
+      <c r="DB3" s="265"/>
+      <c r="DC3" s="265"/>
+      <c r="DD3" s="265"/>
+      <c r="DE3" s="265"/>
+      <c r="DF3" s="265"/>
+      <c r="DG3" s="265"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="254"/>
-      <c r="Z4" s="254"/>
-      <c r="AA4" s="254"/>
-      <c r="AB4" s="254"/>
-      <c r="AC4" s="254"/>
-      <c r="AD4" s="254"/>
-      <c r="AE4" s="254"/>
-      <c r="AF4" s="254"/>
-      <c r="AG4" s="254"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="254"/>
-      <c r="AK4" s="254"/>
-      <c r="AL4" s="254"/>
-      <c r="AM4" s="254"/>
-      <c r="AN4" s="254"/>
-      <c r="AO4" s="254"/>
-      <c r="AP4" s="254"/>
-      <c r="AQ4" s="254"/>
-      <c r="AR4" s="254"/>
-      <c r="AS4" s="254"/>
-      <c r="AT4" s="254"/>
-      <c r="AU4" s="254"/>
-      <c r="AV4" s="254"/>
-      <c r="AW4" s="254"/>
-      <c r="AX4" s="254"/>
-      <c r="AY4" s="254"/>
-      <c r="AZ4" s="254"/>
-      <c r="BA4" s="254"/>
-      <c r="BB4" s="254"/>
-      <c r="BC4" s="254"/>
-      <c r="BD4" s="254"/>
-      <c r="BE4" s="254"/>
-      <c r="BF4" s="254"/>
-      <c r="BG4" s="254"/>
-      <c r="BH4" s="254"/>
-      <c r="BI4" s="254"/>
-      <c r="BJ4" s="254"/>
-      <c r="BK4" s="254"/>
-      <c r="BL4" s="254"/>
-      <c r="BM4" s="254"/>
-      <c r="BN4" s="254"/>
-      <c r="BO4" s="254"/>
-      <c r="BP4" s="254"/>
-      <c r="BQ4" s="254"/>
-      <c r="BR4" s="254"/>
-      <c r="BS4" s="254"/>
-      <c r="BT4" s="254"/>
-      <c r="BU4" s="254"/>
-      <c r="BV4" s="254"/>
-      <c r="BW4" s="254"/>
-      <c r="BX4" s="254"/>
-      <c r="BY4" s="254"/>
-      <c r="BZ4" s="254"/>
-      <c r="CA4" s="254"/>
-      <c r="CB4" s="254"/>
-      <c r="CC4" s="254"/>
-      <c r="CD4" s="254"/>
-      <c r="CE4" s="254"/>
-      <c r="CF4" s="254"/>
-      <c r="CG4" s="254"/>
-      <c r="CH4" s="254"/>
-      <c r="CI4" s="254"/>
-      <c r="CJ4" s="254"/>
-      <c r="CK4" s="254"/>
-      <c r="CL4" s="254"/>
-      <c r="CM4" s="254"/>
-      <c r="CN4" s="254"/>
-      <c r="CO4" s="254"/>
-      <c r="CP4" s="254"/>
-      <c r="CQ4" s="254"/>
-      <c r="CR4" s="254"/>
-      <c r="CS4" s="254"/>
-      <c r="CT4" s="254"/>
-      <c r="CU4" s="254"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="272"/>
+      <c r="AJ4" s="272"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="272"/>
+      <c r="AP4" s="272"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="272"/>
+      <c r="AV4" s="272"/>
+      <c r="AW4" s="272"/>
+      <c r="AX4" s="272"/>
+      <c r="AY4" s="272"/>
+      <c r="AZ4" s="272"/>
+      <c r="BA4" s="272"/>
+      <c r="BB4" s="272"/>
+      <c r="BC4" s="272"/>
+      <c r="BD4" s="272"/>
+      <c r="BE4" s="272"/>
+      <c r="BF4" s="272"/>
+      <c r="BG4" s="272"/>
+      <c r="BH4" s="272"/>
+      <c r="BI4" s="272"/>
+      <c r="BJ4" s="272"/>
+      <c r="BK4" s="272"/>
+      <c r="BL4" s="272"/>
+      <c r="BM4" s="272"/>
+      <c r="BN4" s="272"/>
+      <c r="BO4" s="272"/>
+      <c r="BP4" s="272"/>
+      <c r="BQ4" s="272"/>
+      <c r="BR4" s="272"/>
+      <c r="BS4" s="272"/>
+      <c r="BT4" s="272"/>
+      <c r="BU4" s="272"/>
+      <c r="BV4" s="272"/>
+      <c r="BW4" s="272"/>
+      <c r="BX4" s="272"/>
+      <c r="BY4" s="272"/>
+      <c r="BZ4" s="272"/>
+      <c r="CA4" s="272"/>
+      <c r="CB4" s="272"/>
+      <c r="CC4" s="272"/>
+      <c r="CD4" s="272"/>
+      <c r="CE4" s="272"/>
+      <c r="CF4" s="272"/>
+      <c r="CG4" s="272"/>
+      <c r="CH4" s="272"/>
+      <c r="CI4" s="272"/>
+      <c r="CJ4" s="272"/>
+      <c r="CK4" s="272"/>
+      <c r="CL4" s="272"/>
+      <c r="CM4" s="272"/>
+      <c r="CN4" s="272"/>
+      <c r="CO4" s="272"/>
+      <c r="CP4" s="272"/>
+      <c r="CQ4" s="272"/>
+      <c r="CR4" s="272"/>
+      <c r="CS4" s="272"/>
+      <c r="CT4" s="272"/>
+      <c r="CU4" s="272"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -22220,278 +21653,278 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="258" t="s">
+      <c r="A6" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="235" t="s">
+      <c r="D6" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="280" t="s">
+      <c r="G6" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="280"/>
-      <c r="AF6" s="280"/>
-      <c r="AG6" s="280"/>
-      <c r="AH6" s="280"/>
-      <c r="AI6" s="280"/>
-      <c r="AJ6" s="280"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="280"/>
-      <c r="AM6" s="280"/>
-      <c r="AN6" s="280"/>
-      <c r="AO6" s="280"/>
-      <c r="AP6" s="280"/>
-      <c r="AQ6" s="280"/>
-      <c r="AR6" s="280"/>
-      <c r="AS6" s="280"/>
-      <c r="AT6" s="280"/>
-      <c r="AU6" s="280"/>
-      <c r="AV6" s="280"/>
-      <c r="AW6" s="280"/>
-      <c r="AX6" s="280"/>
-      <c r="AY6" s="280"/>
-      <c r="AZ6" s="280"/>
-      <c r="BA6" s="280"/>
-      <c r="BB6" s="280"/>
-      <c r="BC6" s="280"/>
-      <c r="BD6" s="280"/>
-      <c r="BE6" s="280"/>
-      <c r="BF6" s="280"/>
-      <c r="BG6" s="280"/>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="280"/>
-      <c r="BM6" s="280"/>
-      <c r="BN6" s="280"/>
-      <c r="BO6" s="280"/>
-      <c r="BP6" s="280"/>
-      <c r="BQ6" s="280"/>
-      <c r="BR6" s="280"/>
-      <c r="BS6" s="280"/>
-      <c r="BT6" s="280"/>
-      <c r="BU6" s="280"/>
-      <c r="BV6" s="280"/>
-      <c r="BW6" s="280"/>
-      <c r="BX6" s="280"/>
-      <c r="BY6" s="280"/>
-      <c r="BZ6" s="280"/>
-      <c r="CA6" s="280"/>
-      <c r="CB6" s="280"/>
-      <c r="CC6" s="280"/>
-      <c r="CD6" s="280"/>
-      <c r="CE6" s="280"/>
-      <c r="CF6" s="280"/>
-      <c r="CG6" s="280"/>
-      <c r="CH6" s="280"/>
-      <c r="CI6" s="280"/>
-      <c r="CJ6" s="280"/>
-      <c r="CK6" s="280"/>
-      <c r="CL6" s="280"/>
-      <c r="CM6" s="280"/>
-      <c r="CN6" s="280"/>
-      <c r="CO6" s="280"/>
-      <c r="CP6" s="280"/>
-      <c r="CQ6" s="280"/>
-      <c r="CR6" s="280"/>
-      <c r="CS6" s="280"/>
-      <c r="CT6" s="280"/>
-      <c r="CU6" s="280"/>
-      <c r="CV6" s="242" t="s">
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="252"/>
+      <c r="X6" s="252"/>
+      <c r="Y6" s="252"/>
+      <c r="Z6" s="252"/>
+      <c r="AA6" s="252"/>
+      <c r="AB6" s="252"/>
+      <c r="AC6" s="252"/>
+      <c r="AD6" s="252"/>
+      <c r="AE6" s="252"/>
+      <c r="AF6" s="252"/>
+      <c r="AG6" s="252"/>
+      <c r="AH6" s="252"/>
+      <c r="AI6" s="252"/>
+      <c r="AJ6" s="252"/>
+      <c r="AK6" s="252"/>
+      <c r="AL6" s="252"/>
+      <c r="AM6" s="252"/>
+      <c r="AN6" s="252"/>
+      <c r="AO6" s="252"/>
+      <c r="AP6" s="252"/>
+      <c r="AQ6" s="252"/>
+      <c r="AR6" s="252"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="252"/>
+      <c r="AU6" s="252"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
+      <c r="AX6" s="252"/>
+      <c r="AY6" s="252"/>
+      <c r="AZ6" s="252"/>
+      <c r="BA6" s="252"/>
+      <c r="BB6" s="252"/>
+      <c r="BC6" s="252"/>
+      <c r="BD6" s="252"/>
+      <c r="BE6" s="252"/>
+      <c r="BF6" s="252"/>
+      <c r="BG6" s="252"/>
+      <c r="BH6" s="252"/>
+      <c r="BI6" s="252"/>
+      <c r="BJ6" s="252"/>
+      <c r="BK6" s="252"/>
+      <c r="BL6" s="252"/>
+      <c r="BM6" s="252"/>
+      <c r="BN6" s="252"/>
+      <c r="BO6" s="252"/>
+      <c r="BP6" s="252"/>
+      <c r="BQ6" s="252"/>
+      <c r="BR6" s="252"/>
+      <c r="BS6" s="252"/>
+      <c r="BT6" s="252"/>
+      <c r="BU6" s="252"/>
+      <c r="BV6" s="252"/>
+      <c r="BW6" s="252"/>
+      <c r="BX6" s="252"/>
+      <c r="BY6" s="252"/>
+      <c r="BZ6" s="252"/>
+      <c r="CA6" s="252"/>
+      <c r="CB6" s="252"/>
+      <c r="CC6" s="252"/>
+      <c r="CD6" s="252"/>
+      <c r="CE6" s="252"/>
+      <c r="CF6" s="252"/>
+      <c r="CG6" s="252"/>
+      <c r="CH6" s="252"/>
+      <c r="CI6" s="252"/>
+      <c r="CJ6" s="252"/>
+      <c r="CK6" s="252"/>
+      <c r="CL6" s="252"/>
+      <c r="CM6" s="252"/>
+      <c r="CN6" s="252"/>
+      <c r="CO6" s="252"/>
+      <c r="CP6" s="252"/>
+      <c r="CQ6" s="252"/>
+      <c r="CR6" s="252"/>
+      <c r="CS6" s="252"/>
+      <c r="CT6" s="252"/>
+      <c r="CU6" s="252"/>
+      <c r="CV6" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="243"/>
-      <c r="CX6" s="242" t="s">
+      <c r="CW6" s="267"/>
+      <c r="CX6" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="246"/>
-      <c r="CZ6" s="246"/>
-      <c r="DA6" s="246"/>
-      <c r="DB6" s="246"/>
-      <c r="DC6" s="246"/>
-      <c r="DD6" s="246"/>
-      <c r="DE6" s="246"/>
-      <c r="DF6" s="246"/>
-      <c r="DG6" s="246"/>
-      <c r="DH6" s="270" t="s">
+      <c r="CY6" s="270"/>
+      <c r="CZ6" s="270"/>
+      <c r="DA6" s="270"/>
+      <c r="DB6" s="270"/>
+      <c r="DC6" s="270"/>
+      <c r="DD6" s="270"/>
+      <c r="DE6" s="270"/>
+      <c r="DF6" s="270"/>
+      <c r="DG6" s="270"/>
+      <c r="DH6" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="273" t="s">
+      <c r="DI6" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="231" t="s">
+      <c r="DJ6" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="231"/>
-      <c r="DL6" s="231"/>
-      <c r="DM6" s="231"/>
-      <c r="DN6" s="231"/>
-      <c r="DO6" s="232"/>
+      <c r="DK6" s="255"/>
+      <c r="DL6" s="255"/>
+      <c r="DM6" s="255"/>
+      <c r="DN6" s="255"/>
+      <c r="DO6" s="256"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="281"/>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-      <c r="AM7" s="281"/>
-      <c r="AN7" s="281"/>
-      <c r="AO7" s="281"/>
-      <c r="AP7" s="281"/>
-      <c r="AQ7" s="281"/>
-      <c r="AR7" s="281"/>
-      <c r="AS7" s="281"/>
-      <c r="AT7" s="281"/>
-      <c r="AU7" s="281"/>
-      <c r="AV7" s="281"/>
-      <c r="AW7" s="281"/>
-      <c r="AX7" s="281"/>
-      <c r="AY7" s="281"/>
-      <c r="AZ7" s="281"/>
-      <c r="BA7" s="281"/>
-      <c r="BB7" s="281"/>
-      <c r="BC7" s="281"/>
-      <c r="BD7" s="281"/>
-      <c r="BE7" s="281"/>
-      <c r="BF7" s="281"/>
-      <c r="BG7" s="281"/>
-      <c r="BH7" s="281"/>
-      <c r="BI7" s="281"/>
-      <c r="BJ7" s="281"/>
-      <c r="BK7" s="281"/>
-      <c r="BL7" s="281"/>
-      <c r="BM7" s="281"/>
-      <c r="BN7" s="281"/>
-      <c r="BO7" s="282"/>
-      <c r="BP7" s="282"/>
-      <c r="BQ7" s="282"/>
-      <c r="BR7" s="281"/>
-      <c r="BS7" s="281"/>
-      <c r="BT7" s="281"/>
-      <c r="BU7" s="281"/>
-      <c r="BV7" s="281"/>
-      <c r="BW7" s="281"/>
-      <c r="BX7" s="281"/>
-      <c r="BY7" s="281"/>
-      <c r="BZ7" s="281"/>
-      <c r="CA7" s="281"/>
-      <c r="CB7" s="281"/>
-      <c r="CC7" s="281"/>
-      <c r="CD7" s="281"/>
-      <c r="CE7" s="281"/>
-      <c r="CF7" s="281"/>
-      <c r="CG7" s="281"/>
-      <c r="CH7" s="281"/>
-      <c r="CI7" s="281"/>
-      <c r="CJ7" s="281"/>
-      <c r="CK7" s="281"/>
-      <c r="CL7" s="281"/>
-      <c r="CM7" s="281"/>
-      <c r="CN7" s="281"/>
-      <c r="CO7" s="281"/>
-      <c r="CP7" s="281"/>
-      <c r="CQ7" s="281"/>
-      <c r="CR7" s="281"/>
-      <c r="CS7" s="281"/>
-      <c r="CT7" s="281"/>
-      <c r="CU7" s="281"/>
-      <c r="CV7" s="244"/>
-      <c r="CW7" s="245"/>
-      <c r="CX7" s="244"/>
-      <c r="CY7" s="247"/>
-      <c r="CZ7" s="247"/>
-      <c r="DA7" s="247"/>
-      <c r="DB7" s="247"/>
-      <c r="DC7" s="247"/>
-      <c r="DD7" s="247"/>
-      <c r="DE7" s="247"/>
-      <c r="DF7" s="247"/>
-      <c r="DG7" s="247"/>
-      <c r="DH7" s="271"/>
-      <c r="DI7" s="274"/>
-      <c r="DJ7" s="233"/>
-      <c r="DK7" s="233"/>
-      <c r="DL7" s="233"/>
-      <c r="DM7" s="233"/>
-      <c r="DN7" s="233"/>
-      <c r="DO7" s="234"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="253"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="253"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="253"/>
+      <c r="AP7" s="253"/>
+      <c r="AQ7" s="253"/>
+      <c r="AR7" s="253"/>
+      <c r="AS7" s="253"/>
+      <c r="AT7" s="253"/>
+      <c r="AU7" s="253"/>
+      <c r="AV7" s="253"/>
+      <c r="AW7" s="253"/>
+      <c r="AX7" s="253"/>
+      <c r="AY7" s="253"/>
+      <c r="AZ7" s="253"/>
+      <c r="BA7" s="253"/>
+      <c r="BB7" s="253"/>
+      <c r="BC7" s="253"/>
+      <c r="BD7" s="253"/>
+      <c r="BE7" s="253"/>
+      <c r="BF7" s="253"/>
+      <c r="BG7" s="253"/>
+      <c r="BH7" s="253"/>
+      <c r="BI7" s="253"/>
+      <c r="BJ7" s="253"/>
+      <c r="BK7" s="253"/>
+      <c r="BL7" s="253"/>
+      <c r="BM7" s="253"/>
+      <c r="BN7" s="253"/>
+      <c r="BO7" s="254"/>
+      <c r="BP7" s="254"/>
+      <c r="BQ7" s="254"/>
+      <c r="BR7" s="253"/>
+      <c r="BS7" s="253"/>
+      <c r="BT7" s="253"/>
+      <c r="BU7" s="253"/>
+      <c r="BV7" s="253"/>
+      <c r="BW7" s="253"/>
+      <c r="BX7" s="253"/>
+      <c r="BY7" s="253"/>
+      <c r="BZ7" s="253"/>
+      <c r="CA7" s="253"/>
+      <c r="CB7" s="253"/>
+      <c r="CC7" s="253"/>
+      <c r="CD7" s="253"/>
+      <c r="CE7" s="253"/>
+      <c r="CF7" s="253"/>
+      <c r="CG7" s="253"/>
+      <c r="CH7" s="253"/>
+      <c r="CI7" s="253"/>
+      <c r="CJ7" s="253"/>
+      <c r="CK7" s="253"/>
+      <c r="CL7" s="253"/>
+      <c r="CM7" s="253"/>
+      <c r="CN7" s="253"/>
+      <c r="CO7" s="253"/>
+      <c r="CP7" s="253"/>
+      <c r="CQ7" s="253"/>
+      <c r="CR7" s="253"/>
+      <c r="CS7" s="253"/>
+      <c r="CT7" s="253"/>
+      <c r="CU7" s="253"/>
+      <c r="CV7" s="268"/>
+      <c r="CW7" s="269"/>
+      <c r="CX7" s="268"/>
+      <c r="CY7" s="271"/>
+      <c r="CZ7" s="271"/>
+      <c r="DA7" s="271"/>
+      <c r="DB7" s="271"/>
+      <c r="DC7" s="271"/>
+      <c r="DD7" s="271"/>
+      <c r="DE7" s="271"/>
+      <c r="DF7" s="271"/>
+      <c r="DG7" s="271"/>
+      <c r="DH7" s="243"/>
+      <c r="DI7" s="246"/>
+      <c r="DJ7" s="257"/>
+      <c r="DK7" s="257"/>
+      <c r="DL7" s="257"/>
+      <c r="DM7" s="257"/>
+      <c r="DN7" s="257"/>
+      <c r="DO7" s="258"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="257"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="266"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="281"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="284"/>
       <c r="G8" s="294">
         <v>1</v>
       </c>
@@ -22512,16 +21945,16 @@
       </c>
       <c r="Q8" s="286"/>
       <c r="R8" s="287"/>
-      <c r="S8" s="248">
+      <c r="S8" s="237">
         <v>5</v>
       </c>
-      <c r="T8" s="249"/>
-      <c r="U8" s="269"/>
-      <c r="V8" s="248">
+      <c r="T8" s="238"/>
+      <c r="U8" s="239"/>
+      <c r="V8" s="237">
         <v>6</v>
       </c>
-      <c r="W8" s="249"/>
-      <c r="X8" s="250"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="240"/>
       <c r="Y8" s="285">
         <v>7</v>
       </c>
@@ -22547,16 +21980,16 @@
       </c>
       <c r="AL8" s="286"/>
       <c r="AM8" s="287"/>
-      <c r="AN8" s="279">
+      <c r="AN8" s="251">
         <v>12</v>
       </c>
-      <c r="AO8" s="249"/>
-      <c r="AP8" s="269"/>
-      <c r="AQ8" s="248">
+      <c r="AO8" s="238"/>
+      <c r="AP8" s="239"/>
+      <c r="AQ8" s="237">
         <v>13</v>
       </c>
-      <c r="AR8" s="249"/>
-      <c r="AS8" s="250"/>
+      <c r="AR8" s="238"/>
+      <c r="AS8" s="240"/>
       <c r="AT8" s="288">
         <v>14</v>
       </c>
@@ -22582,16 +22015,16 @@
       </c>
       <c r="BG8" s="286"/>
       <c r="BH8" s="287"/>
-      <c r="BI8" s="279">
+      <c r="BI8" s="251">
         <v>19</v>
       </c>
-      <c r="BJ8" s="249"/>
-      <c r="BK8" s="269"/>
-      <c r="BL8" s="248">
+      <c r="BJ8" s="238"/>
+      <c r="BK8" s="239"/>
+      <c r="BL8" s="237">
         <v>20</v>
       </c>
-      <c r="BM8" s="249"/>
-      <c r="BN8" s="250"/>
+      <c r="BM8" s="238"/>
+      <c r="BN8" s="240"/>
       <c r="BO8" s="285">
         <v>21</v>
       </c>
@@ -22617,16 +22050,16 @@
       </c>
       <c r="CB8" s="286"/>
       <c r="CC8" s="289"/>
-      <c r="CD8" s="248">
+      <c r="CD8" s="237">
         <v>26</v>
       </c>
-      <c r="CE8" s="249"/>
-      <c r="CF8" s="250"/>
-      <c r="CG8" s="279">
+      <c r="CE8" s="238"/>
+      <c r="CF8" s="240"/>
+      <c r="CG8" s="251">
         <v>27</v>
       </c>
-      <c r="CH8" s="249"/>
-      <c r="CI8" s="269"/>
+      <c r="CH8" s="238"/>
+      <c r="CI8" s="239"/>
       <c r="CJ8" s="285">
         <v>28</v>
       </c>
@@ -22683,8 +22116,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="272"/>
-      <c r="DI8" s="275"/>
+      <c r="DH8" s="244"/>
+      <c r="DI8" s="247"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -26439,13 +25872,13 @@
       </c>
       <c r="BN21" s="183"/>
       <c r="BO21" s="187"/>
-      <c r="BP21" s="182" t="s">
-        <v>79</v>
+      <c r="BP21" s="182">
+        <v>10.25</v>
       </c>
       <c r="BQ21" s="183"/>
       <c r="BR21" s="187"/>
-      <c r="BS21" s="182" t="s">
-        <v>79</v>
+      <c r="BS21" s="182">
+        <v>10.25</v>
       </c>
       <c r="BT21" s="183"/>
       <c r="BU21" s="187"/>
@@ -26479,7 +25912,7 @@
       <c r="CU21" s="183"/>
       <c r="CV21" s="168">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CW21" s="79">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
@@ -26527,7 +25960,7 @@
       </c>
       <c r="DH21" s="80">
         <f>IF(CQ21="В",1,0)+IF(CT21="В",1,0)+IF(H21="В",1,0)+IF(K21="В",1,0)+IF(N21="В",1,0)+IF(Q21="В",1,0)+IF(T21="В",1,0)+IF(W21="В",1,0)+IF(Z21="В",1,0)+IF(AC21="В",1,0)+IF(AF21="В",1,0)+IF(AI21="В",1,0)+IF(AL21="В",1,0)+IF(AO21="В",1,0)+IF(AR21="В",1,0)+IF(AU21="В",1,0)+IF(AX21="В",1,0)+IF(BA21="В",1,0)+IF(BD21="В",1,0)+IF(BG21="В",1,0)+IF(BJ21="В",1,0)+IF(BM21="В",1,0)+IF(BP21="В",1,0)+IF(BS21="В",1,0)+IF(BV21="В",1,0)+IF(BY21="В",1,0)+IF(CB21="В",1,0)+IF(CE21="В",1,0)+IF(CH21="В",1,0)+IF(CK21="В",1,0)+IF(CN21="В",1,0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DI21" s="80">
         <f>SUM(CV21:DH21)</f>
@@ -26535,7 +25968,7 @@
       </c>
       <c r="DJ21" s="70">
         <f t="shared" si="24"/>
-        <v>123.75</v>
+        <v>144.25</v>
       </c>
       <c r="DK21" s="69">
         <v>0</v>
@@ -27294,7 +26727,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -27342,7 +26775,7 @@
       </c>
       <c r="DH24" s="81">
         <f t="shared" si="28"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
@@ -27350,7 +26783,7 @@
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>1659.75</v>
+        <v>1680.25</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -27825,45 +27258,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="283"/>
-      <c r="H31" s="283"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="283"/>
-      <c r="K31" s="283"/>
-      <c r="L31" s="283"/>
-      <c r="M31" s="283"/>
-      <c r="N31" s="283"/>
-      <c r="O31" s="283"/>
-      <c r="P31" s="283"/>
-      <c r="Q31" s="283"/>
-      <c r="R31" s="283"/>
-      <c r="S31" s="283"/>
-      <c r="T31" s="283"/>
-      <c r="U31" s="283"/>
-      <c r="V31" s="283"/>
-      <c r="W31" s="283"/>
-      <c r="X31" s="283"/>
-      <c r="Y31" s="283"/>
-      <c r="Z31" s="283"/>
-      <c r="AA31" s="283"/>
-      <c r="AB31" s="283"/>
-      <c r="AC31" s="283"/>
-      <c r="AD31" s="283"/>
-      <c r="AE31" s="283"/>
-      <c r="AF31" s="283"/>
-      <c r="AG31" s="283"/>
-      <c r="AH31" s="283"/>
-      <c r="AI31" s="283"/>
-      <c r="AJ31" s="283"/>
-      <c r="AK31" s="283"/>
-      <c r="AL31" s="283"/>
-      <c r="AM31" s="283"/>
-      <c r="AN31" s="283"/>
-      <c r="AO31" s="283"/>
-      <c r="AP31" s="283"/>
-      <c r="AQ31" s="283"/>
-      <c r="AR31" s="283"/>
-      <c r="AS31" s="283"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="231"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="231"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231"/>
+      <c r="W31" s="231"/>
+      <c r="X31" s="231"/>
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231"/>
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231"/>
+      <c r="AC31" s="231"/>
+      <c r="AD31" s="231"/>
+      <c r="AE31" s="231"/>
+      <c r="AF31" s="231"/>
+      <c r="AG31" s="231"/>
+      <c r="AH31" s="231"/>
+      <c r="AI31" s="231"/>
+      <c r="AJ31" s="231"/>
+      <c r="AK31" s="231"/>
+      <c r="AL31" s="231"/>
+      <c r="AM31" s="231"/>
+      <c r="AN31" s="231"/>
+      <c r="AO31" s="231"/>
+      <c r="AP31" s="231"/>
+      <c r="AQ31" s="231"/>
+      <c r="AR31" s="231"/>
+      <c r="AS31" s="231"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -28168,45 +27601,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="283"/>
-      <c r="H35" s="283"/>
-      <c r="I35" s="283"/>
-      <c r="J35" s="283"/>
-      <c r="K35" s="283"/>
-      <c r="L35" s="283"/>
-      <c r="M35" s="283"/>
-      <c r="N35" s="283"/>
-      <c r="O35" s="283"/>
-      <c r="P35" s="283"/>
-      <c r="Q35" s="283"/>
-      <c r="R35" s="283"/>
-      <c r="S35" s="283"/>
-      <c r="T35" s="283"/>
-      <c r="U35" s="283"/>
-      <c r="V35" s="283"/>
-      <c r="W35" s="283"/>
-      <c r="X35" s="283"/>
-      <c r="Y35" s="283"/>
-      <c r="Z35" s="283"/>
-      <c r="AA35" s="283"/>
-      <c r="AB35" s="283"/>
-      <c r="AC35" s="283"/>
-      <c r="AD35" s="283"/>
-      <c r="AE35" s="283"/>
-      <c r="AF35" s="283"/>
-      <c r="AG35" s="283"/>
-      <c r="AH35" s="283"/>
-      <c r="AI35" s="283"/>
-      <c r="AJ35" s="283"/>
-      <c r="AK35" s="283"/>
-      <c r="AL35" s="283"/>
-      <c r="AM35" s="283"/>
-      <c r="AN35" s="283"/>
-      <c r="AO35" s="283"/>
-      <c r="AP35" s="283"/>
-      <c r="AQ35" s="283"/>
-      <c r="AR35" s="283"/>
-      <c r="AS35" s="283"/>
+      <c r="G35" s="231"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="231"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="231"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="231"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="231"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="231"/>
+      <c r="T35" s="231"/>
+      <c r="U35" s="231"/>
+      <c r="V35" s="231"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="231"/>
+      <c r="Y35" s="231"/>
+      <c r="Z35" s="231"/>
+      <c r="AA35" s="231"/>
+      <c r="AB35" s="231"/>
+      <c r="AC35" s="231"/>
+      <c r="AD35" s="231"/>
+      <c r="AE35" s="231"/>
+      <c r="AF35" s="231"/>
+      <c r="AG35" s="231"/>
+      <c r="AH35" s="231"/>
+      <c r="AI35" s="231"/>
+      <c r="AJ35" s="231"/>
+      <c r="AK35" s="231"/>
+      <c r="AL35" s="231"/>
+      <c r="AM35" s="231"/>
+      <c r="AN35" s="231"/>
+      <c r="AO35" s="231"/>
+      <c r="AP35" s="231"/>
+      <c r="AQ35" s="231"/>
+      <c r="AR35" s="231"/>
+      <c r="AS35" s="231"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -30364,29 +29797,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -30403,465 +29824,477 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU10 BC11:CU12 AW14:CU15 G16:G17 G13:CU13 AK16:CU17 AQ18:CU19 AE20:CU20 AB21:CU21 Y22:CU22 AE23:CU23">
-    <cfRule type="containsText" dxfId="192" priority="111" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="112" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AD11">
-    <cfRule type="containsText" dxfId="190" priority="109" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="110" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:BB11">
-    <cfRule type="containsText" dxfId="188" priority="107" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="108" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:AD12">
-    <cfRule type="containsText" dxfId="186" priority="105" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="106" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:BB12">
-    <cfRule type="containsText" dxfId="184" priority="103" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="104" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:X14">
-    <cfRule type="containsText" dxfId="182" priority="101" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="102" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AV14">
-    <cfRule type="containsText" dxfId="180" priority="99" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="100" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:X15">
-    <cfRule type="containsText" dxfId="178" priority="97" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="98" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AV15">
-    <cfRule type="containsText" dxfId="176" priority="95" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="96" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:L16">
-    <cfRule type="containsText" dxfId="174" priority="93" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="94" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:AJ16">
-    <cfRule type="containsText" dxfId="172" priority="91" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",M16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="92" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",M16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:L17">
-    <cfRule type="containsText" dxfId="170" priority="89" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",H17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="90" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",H17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:AJ17">
-    <cfRule type="containsText" dxfId="168" priority="87" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="88" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",M17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:R18">
-    <cfRule type="containsText" dxfId="166" priority="85" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="86" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:AP18">
-    <cfRule type="containsText" dxfId="164" priority="83" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",S18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="84" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",S18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:R19">
-    <cfRule type="containsText" dxfId="162" priority="81" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="82" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:AP19">
-    <cfRule type="containsText" dxfId="160" priority="79" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",S19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="80" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",S19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:AD20">
-    <cfRule type="containsText" dxfId="158" priority="77" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="78" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:AA21">
-    <cfRule type="containsText" dxfId="156" priority="75" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="76" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:AJ22">
-    <cfRule type="containsText" dxfId="154" priority="73" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="74" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:AD23">
-    <cfRule type="containsText" dxfId="152" priority="71" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="72" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="containsText" dxfId="150" priority="70" operator="containsText" text="а">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="а">
       <formula>NOT(ISERROR(SEARCH("а",AF10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="149" priority="69" operator="containsText" text="а">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="а">
       <formula>NOT(ISERROR(SEARCH("а",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:BE16">
-    <cfRule type="containsText" dxfId="148" priority="67" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="68" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK17:BE17">
-    <cfRule type="containsText" dxfId="146" priority="65" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="66" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20:AP20">
-    <cfRule type="containsText" dxfId="144" priority="63" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="64" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20:BB20">
-    <cfRule type="containsText" dxfId="142" priority="61" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="62" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:AM21">
-    <cfRule type="containsText" dxfId="140" priority="59" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AB21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="60" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AB21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21:AY21">
-    <cfRule type="containsText" dxfId="138" priority="57" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AN21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="58" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AN21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AV22">
-    <cfRule type="containsText" dxfId="136" priority="55" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="56" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23:AP23">
-    <cfRule type="containsText" dxfId="134" priority="53" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="54" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ23:BB23">
-    <cfRule type="containsText" dxfId="132" priority="51" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="52" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18:BK18">
-    <cfRule type="containsText" dxfId="130" priority="49" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="50" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:BK19">
-    <cfRule type="containsText" dxfId="128" priority="47" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="48" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:X22">
-    <cfRule type="containsText" dxfId="126" priority="45" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="46" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22:AJ22">
-    <cfRule type="containsText" dxfId="124" priority="43" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="44" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AV22">
-    <cfRule type="containsText" dxfId="122" priority="41" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="42" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW14:BT14">
-    <cfRule type="containsText" dxfId="117" priority="39" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AW14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="40" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AW14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW15:BT15">
-    <cfRule type="containsText" dxfId="112" priority="37" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AW15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="38" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AW15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF16:BH16">
-    <cfRule type="containsText" dxfId="105" priority="35" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BF16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="36" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BF16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI16:CC16">
-    <cfRule type="containsText" dxfId="100" priority="33" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BI16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="34" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BI16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF17:BH17">
-    <cfRule type="containsText" dxfId="94" priority="31" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BF17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="32" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BF17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI17:CC17">
-    <cfRule type="containsText" dxfId="89" priority="29" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BI17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="30" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BI17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL18:BN18">
-    <cfRule type="containsText" dxfId="83" priority="27" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="28" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO18:CI18">
-    <cfRule type="containsText" dxfId="78" priority="25" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BO18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="26" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BO18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL19:BN19">
-    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="24" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO19:CI19">
-    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BO19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="22" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BO19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC20:BN20">
-    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BC20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="20" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BC20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO20:BZ20">
-    <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BO20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="18" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BO20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ21:BK21">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AZ21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AZ21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL21:BW21">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22:BH22">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AZ22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AZ22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22:BH22">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AZ22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AZ22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL22:BT22">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL22:BT22">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC23:BN23">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BC23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BC23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO23:BZ23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BO23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BO23)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="83">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1160,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1810,78 +1810,6 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1933,6 +1861,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1972,6 +1918,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2002,11 +2002,868 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="236">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3278,21 +4135,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="262" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="262"/>
-      <c r="CW1" s="262"/>
-      <c r="CX1" s="262"/>
-      <c r="CY1" s="262"/>
-      <c r="CZ1" s="262"/>
-      <c r="DA1" s="262"/>
-      <c r="DB1" s="262"/>
-      <c r="DC1" s="262"/>
-      <c r="DD1" s="262"/>
-      <c r="DE1" s="262"/>
-      <c r="DF1" s="262"/>
-      <c r="DG1" s="262"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -3393,241 +4250,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="263" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="263"/>
-      <c r="CW2" s="263"/>
-      <c r="CX2" s="263"/>
-      <c r="CY2" s="263"/>
-      <c r="CZ2" s="263"/>
-      <c r="DA2" s="263"/>
-      <c r="DB2" s="263"/>
-      <c r="DC2" s="263"/>
-      <c r="DD2" s="263"/>
-      <c r="DE2" s="263"/>
-      <c r="DF2" s="263"/>
-      <c r="DG2" s="263"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="264"/>
-      <c r="AK3" s="264"/>
-      <c r="AL3" s="264"/>
-      <c r="AM3" s="264"/>
-      <c r="AN3" s="264"/>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="264"/>
-      <c r="AQ3" s="264"/>
-      <c r="AR3" s="264"/>
-      <c r="AS3" s="264"/>
-      <c r="AT3" s="264"/>
-      <c r="AU3" s="264"/>
-      <c r="AV3" s="264"/>
-      <c r="AW3" s="264"/>
-      <c r="AX3" s="264"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="264"/>
-      <c r="BC3" s="264"/>
-      <c r="BD3" s="264"/>
-      <c r="BE3" s="264"/>
-      <c r="BF3" s="264"/>
-      <c r="BG3" s="264"/>
-      <c r="BH3" s="264"/>
-      <c r="BI3" s="264"/>
-      <c r="BJ3" s="264"/>
-      <c r="BK3" s="264"/>
-      <c r="BL3" s="264"/>
-      <c r="BM3" s="264"/>
-      <c r="BN3" s="264"/>
-      <c r="BO3" s="264"/>
-      <c r="BP3" s="264"/>
-      <c r="BQ3" s="264"/>
-      <c r="BR3" s="264"/>
-      <c r="BS3" s="264"/>
-      <c r="BT3" s="264"/>
-      <c r="BU3" s="264"/>
-      <c r="BV3" s="264"/>
-      <c r="BW3" s="264"/>
-      <c r="BX3" s="264"/>
-      <c r="BY3" s="264"/>
-      <c r="BZ3" s="264"/>
-      <c r="CA3" s="264"/>
-      <c r="CB3" s="264"/>
-      <c r="CC3" s="264"/>
-      <c r="CD3" s="264"/>
-      <c r="CE3" s="264"/>
-      <c r="CF3" s="264"/>
-      <c r="CG3" s="264"/>
-      <c r="CH3" s="264"/>
-      <c r="CI3" s="264"/>
-      <c r="CJ3" s="264"/>
-      <c r="CK3" s="264"/>
-      <c r="CL3" s="264"/>
-      <c r="CM3" s="264"/>
-      <c r="CN3" s="264"/>
-      <c r="CO3" s="264"/>
-      <c r="CP3" s="264"/>
-      <c r="CQ3" s="264"/>
-      <c r="CR3" s="264"/>
-      <c r="CS3" s="264"/>
-      <c r="CT3" s="264"/>
-      <c r="CU3" s="264"/>
-      <c r="CV3" s="265" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="265"/>
-      <c r="CX3" s="265"/>
-      <c r="CY3" s="265"/>
-      <c r="CZ3" s="265"/>
-      <c r="DA3" s="265"/>
-      <c r="DB3" s="265"/>
-      <c r="DC3" s="265"/>
-      <c r="DD3" s="265"/>
-      <c r="DE3" s="265"/>
-      <c r="DF3" s="265"/>
-      <c r="DG3" s="265"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="254" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
-      <c r="U4" s="272"/>
-      <c r="V4" s="272"/>
-      <c r="W4" s="272"/>
-      <c r="X4" s="272"/>
-      <c r="Y4" s="272"/>
-      <c r="Z4" s="272"/>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="272"/>
-      <c r="AC4" s="272"/>
-      <c r="AD4" s="272"/>
-      <c r="AE4" s="272"/>
-      <c r="AF4" s="272"/>
-      <c r="AG4" s="272"/>
-      <c r="AH4" s="272"/>
-      <c r="AI4" s="272"/>
-      <c r="AJ4" s="272"/>
-      <c r="AK4" s="272"/>
-      <c r="AL4" s="272"/>
-      <c r="AM4" s="272"/>
-      <c r="AN4" s="272"/>
-      <c r="AO4" s="272"/>
-      <c r="AP4" s="272"/>
-      <c r="AQ4" s="272"/>
-      <c r="AR4" s="272"/>
-      <c r="AS4" s="272"/>
-      <c r="AT4" s="272"/>
-      <c r="AU4" s="272"/>
-      <c r="AV4" s="272"/>
-      <c r="AW4" s="272"/>
-      <c r="AX4" s="272"/>
-      <c r="AY4" s="272"/>
-      <c r="AZ4" s="272"/>
-      <c r="BA4" s="272"/>
-      <c r="BB4" s="272"/>
-      <c r="BC4" s="272"/>
-      <c r="BD4" s="272"/>
-      <c r="BE4" s="272"/>
-      <c r="BF4" s="272"/>
-      <c r="BG4" s="272"/>
-      <c r="BH4" s="272"/>
-      <c r="BI4" s="272"/>
-      <c r="BJ4" s="272"/>
-      <c r="BK4" s="272"/>
-      <c r="BL4" s="272"/>
-      <c r="BM4" s="272"/>
-      <c r="BN4" s="272"/>
-      <c r="BO4" s="272"/>
-      <c r="BP4" s="272"/>
-      <c r="BQ4" s="272"/>
-      <c r="BR4" s="272"/>
-      <c r="BS4" s="272"/>
-      <c r="BT4" s="272"/>
-      <c r="BU4" s="272"/>
-      <c r="BV4" s="272"/>
-      <c r="BW4" s="272"/>
-      <c r="BX4" s="272"/>
-      <c r="BY4" s="272"/>
-      <c r="BZ4" s="272"/>
-      <c r="CA4" s="272"/>
-      <c r="CB4" s="272"/>
-      <c r="CC4" s="272"/>
-      <c r="CD4" s="272"/>
-      <c r="CE4" s="272"/>
-      <c r="CF4" s="272"/>
-      <c r="CG4" s="272"/>
-      <c r="CH4" s="272"/>
-      <c r="CI4" s="272"/>
-      <c r="CJ4" s="272"/>
-      <c r="CK4" s="272"/>
-      <c r="CL4" s="272"/>
-      <c r="CM4" s="272"/>
-      <c r="CN4" s="272"/>
-      <c r="CO4" s="272"/>
-      <c r="CP4" s="272"/>
-      <c r="CQ4" s="272"/>
-      <c r="CR4" s="272"/>
-      <c r="CS4" s="272"/>
-      <c r="CT4" s="272"/>
-      <c r="CU4" s="272"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -3757,433 +4614,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="276" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="279" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="282" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
-      <c r="Y6" s="252"/>
-      <c r="Z6" s="252"/>
-      <c r="AA6" s="252"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="252"/>
-      <c r="AD6" s="252"/>
-      <c r="AE6" s="252"/>
-      <c r="AF6" s="252"/>
-      <c r="AG6" s="252"/>
-      <c r="AH6" s="252"/>
-      <c r="AI6" s="252"/>
-      <c r="AJ6" s="252"/>
-      <c r="AK6" s="252"/>
-      <c r="AL6" s="252"/>
-      <c r="AM6" s="252"/>
-      <c r="AN6" s="252"/>
-      <c r="AO6" s="252"/>
-      <c r="AP6" s="252"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="252"/>
-      <c r="AT6" s="252"/>
-      <c r="AU6" s="252"/>
-      <c r="AV6" s="252"/>
-      <c r="AW6" s="252"/>
-      <c r="AX6" s="252"/>
-      <c r="AY6" s="252"/>
-      <c r="AZ6" s="252"/>
-      <c r="BA6" s="252"/>
-      <c r="BB6" s="252"/>
-      <c r="BC6" s="252"/>
-      <c r="BD6" s="252"/>
-      <c r="BE6" s="252"/>
-      <c r="BF6" s="252"/>
-      <c r="BG6" s="252"/>
-      <c r="BH6" s="252"/>
-      <c r="BI6" s="252"/>
-      <c r="BJ6" s="252"/>
-      <c r="BK6" s="252"/>
-      <c r="BL6" s="252"/>
-      <c r="BM6" s="252"/>
-      <c r="BN6" s="252"/>
-      <c r="BO6" s="252"/>
-      <c r="BP6" s="252"/>
-      <c r="BQ6" s="252"/>
-      <c r="BR6" s="252"/>
-      <c r="BS6" s="252"/>
-      <c r="BT6" s="252"/>
-      <c r="BU6" s="252"/>
-      <c r="BV6" s="252"/>
-      <c r="BW6" s="252"/>
-      <c r="BX6" s="252"/>
-      <c r="BY6" s="252"/>
-      <c r="BZ6" s="252"/>
-      <c r="CA6" s="252"/>
-      <c r="CB6" s="252"/>
-      <c r="CC6" s="252"/>
-      <c r="CD6" s="252"/>
-      <c r="CE6" s="252"/>
-      <c r="CF6" s="252"/>
-      <c r="CG6" s="252"/>
-      <c r="CH6" s="252"/>
-      <c r="CI6" s="252"/>
-      <c r="CJ6" s="252"/>
-      <c r="CK6" s="252"/>
-      <c r="CL6" s="252"/>
-      <c r="CM6" s="252"/>
-      <c r="CN6" s="252"/>
-      <c r="CO6" s="252"/>
-      <c r="CP6" s="252"/>
-      <c r="CQ6" s="252"/>
-      <c r="CR6" s="252"/>
-      <c r="CS6" s="252"/>
-      <c r="CT6" s="252"/>
-      <c r="CU6" s="252"/>
-      <c r="CV6" s="266" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="267"/>
-      <c r="CX6" s="266" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="270"/>
-      <c r="CZ6" s="270"/>
-      <c r="DA6" s="270"/>
-      <c r="DB6" s="270"/>
-      <c r="DC6" s="270"/>
-      <c r="DD6" s="270"/>
-      <c r="DE6" s="270"/>
-      <c r="DF6" s="270"/>
-      <c r="DG6" s="270"/>
-      <c r="DH6" s="242" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="245" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="255" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="255"/>
-      <c r="DL6" s="255"/>
-      <c r="DM6" s="255"/>
-      <c r="DN6" s="255"/>
-      <c r="DO6" s="256"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="274"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="253"/>
-      <c r="AB7" s="253"/>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="253"/>
-      <c r="AG7" s="253"/>
-      <c r="AH7" s="253"/>
-      <c r="AI7" s="253"/>
-      <c r="AJ7" s="253"/>
-      <c r="AK7" s="253"/>
-      <c r="AL7" s="253"/>
-      <c r="AM7" s="253"/>
-      <c r="AN7" s="253"/>
-      <c r="AO7" s="253"/>
-      <c r="AP7" s="253"/>
-      <c r="AQ7" s="253"/>
-      <c r="AR7" s="253"/>
-      <c r="AS7" s="253"/>
-      <c r="AT7" s="253"/>
-      <c r="AU7" s="253"/>
-      <c r="AV7" s="253"/>
-      <c r="AW7" s="253"/>
-      <c r="AX7" s="253"/>
-      <c r="AY7" s="253"/>
-      <c r="AZ7" s="253"/>
-      <c r="BA7" s="253"/>
-      <c r="BB7" s="253"/>
-      <c r="BC7" s="253"/>
-      <c r="BD7" s="253"/>
-      <c r="BE7" s="253"/>
-      <c r="BF7" s="253"/>
-      <c r="BG7" s="253"/>
-      <c r="BH7" s="253"/>
-      <c r="BI7" s="253"/>
-      <c r="BJ7" s="253"/>
-      <c r="BK7" s="253"/>
-      <c r="BL7" s="253"/>
-      <c r="BM7" s="253"/>
-      <c r="BN7" s="253"/>
-      <c r="BO7" s="254"/>
-      <c r="BP7" s="254"/>
-      <c r="BQ7" s="254"/>
-      <c r="BR7" s="253"/>
-      <c r="BS7" s="253"/>
-      <c r="BT7" s="253"/>
-      <c r="BU7" s="253"/>
-      <c r="BV7" s="253"/>
-      <c r="BW7" s="253"/>
-      <c r="BX7" s="253"/>
-      <c r="BY7" s="253"/>
-      <c r="BZ7" s="253"/>
-      <c r="CA7" s="253"/>
-      <c r="CB7" s="253"/>
-      <c r="CC7" s="253"/>
-      <c r="CD7" s="253"/>
-      <c r="CE7" s="253"/>
-      <c r="CF7" s="253"/>
-      <c r="CG7" s="253"/>
-      <c r="CH7" s="253"/>
-      <c r="CI7" s="253"/>
-      <c r="CJ7" s="253"/>
-      <c r="CK7" s="253"/>
-      <c r="CL7" s="253"/>
-      <c r="CM7" s="253"/>
-      <c r="CN7" s="253"/>
-      <c r="CO7" s="253"/>
-      <c r="CP7" s="253"/>
-      <c r="CQ7" s="253"/>
-      <c r="CR7" s="253"/>
-      <c r="CS7" s="253"/>
-      <c r="CT7" s="253"/>
-      <c r="CU7" s="253"/>
-      <c r="CV7" s="268"/>
-      <c r="CW7" s="269"/>
-      <c r="CX7" s="268"/>
-      <c r="CY7" s="271"/>
-      <c r="CZ7" s="271"/>
-      <c r="DA7" s="271"/>
-      <c r="DB7" s="271"/>
-      <c r="DC7" s="271"/>
-      <c r="DD7" s="271"/>
-      <c r="DE7" s="271"/>
-      <c r="DF7" s="271"/>
-      <c r="DG7" s="271"/>
-      <c r="DH7" s="243"/>
-      <c r="DI7" s="246"/>
-      <c r="DJ7" s="257"/>
-      <c r="DK7" s="257"/>
-      <c r="DL7" s="257"/>
-      <c r="DM7" s="257"/>
-      <c r="DN7" s="257"/>
-      <c r="DO7" s="258"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="275"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="241">
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="284">
         <v>1</v>
       </c>
-      <c r="H8" s="233"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="232">
+      <c r="H8" s="252"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="267">
         <v>2</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="237">
+      <c r="K8" s="252"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="248">
         <v>3</v>
       </c>
-      <c r="N8" s="238"/>
-      <c r="O8" s="239"/>
-      <c r="P8" s="237">
+      <c r="N8" s="249"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="248">
         <v>4</v>
       </c>
-      <c r="Q8" s="238"/>
-      <c r="R8" s="240"/>
-      <c r="S8" s="232">
+      <c r="Q8" s="249"/>
+      <c r="R8" s="250"/>
+      <c r="S8" s="267">
         <v>5</v>
       </c>
-      <c r="T8" s="233"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="232">
+      <c r="T8" s="252"/>
+      <c r="U8" s="253"/>
+      <c r="V8" s="267">
         <v>6</v>
       </c>
-      <c r="W8" s="233"/>
-      <c r="X8" s="234"/>
-      <c r="Y8" s="232">
+      <c r="W8" s="252"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="267">
         <v>7</v>
       </c>
-      <c r="Z8" s="233"/>
-      <c r="AA8" s="234"/>
-      <c r="AB8" s="232">
+      <c r="Z8" s="252"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="267">
         <v>8</v>
       </c>
-      <c r="AC8" s="233"/>
-      <c r="AD8" s="234"/>
-      <c r="AE8" s="232">
+      <c r="AC8" s="252"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="267">
         <v>9</v>
       </c>
-      <c r="AF8" s="233"/>
-      <c r="AG8" s="236"/>
-      <c r="AH8" s="237">
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="253"/>
+      <c r="AH8" s="248">
         <v>10</v>
       </c>
-      <c r="AI8" s="238"/>
-      <c r="AJ8" s="240"/>
-      <c r="AK8" s="237">
+      <c r="AI8" s="249"/>
+      <c r="AJ8" s="250"/>
+      <c r="AK8" s="248">
         <v>11</v>
       </c>
-      <c r="AL8" s="238"/>
-      <c r="AM8" s="240"/>
-      <c r="AN8" s="235">
+      <c r="AL8" s="249"/>
+      <c r="AM8" s="250"/>
+      <c r="AN8" s="251">
         <v>12</v>
       </c>
-      <c r="AO8" s="233"/>
-      <c r="AP8" s="236"/>
-      <c r="AQ8" s="232">
+      <c r="AO8" s="252"/>
+      <c r="AP8" s="253"/>
+      <c r="AQ8" s="267">
         <v>13</v>
       </c>
-      <c r="AR8" s="233"/>
-      <c r="AS8" s="234"/>
-      <c r="AT8" s="235">
+      <c r="AR8" s="252"/>
+      <c r="AS8" s="268"/>
+      <c r="AT8" s="251">
         <v>14</v>
       </c>
-      <c r="AU8" s="233"/>
-      <c r="AV8" s="234"/>
-      <c r="AW8" s="232">
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="268"/>
+      <c r="AW8" s="267">
         <v>15</v>
       </c>
-      <c r="AX8" s="233"/>
-      <c r="AY8" s="234"/>
-      <c r="AZ8" s="232">
+      <c r="AX8" s="252"/>
+      <c r="AY8" s="268"/>
+      <c r="AZ8" s="267">
         <v>16</v>
       </c>
-      <c r="BA8" s="233"/>
-      <c r="BB8" s="234"/>
-      <c r="BC8" s="237">
+      <c r="BA8" s="252"/>
+      <c r="BB8" s="268"/>
+      <c r="BC8" s="248">
         <v>17</v>
       </c>
-      <c r="BD8" s="238"/>
-      <c r="BE8" s="239"/>
-      <c r="BF8" s="237">
+      <c r="BD8" s="249"/>
+      <c r="BE8" s="269"/>
+      <c r="BF8" s="248">
         <v>18</v>
       </c>
-      <c r="BG8" s="238"/>
-      <c r="BH8" s="240"/>
-      <c r="BI8" s="235">
+      <c r="BG8" s="249"/>
+      <c r="BH8" s="250"/>
+      <c r="BI8" s="251">
         <v>19</v>
       </c>
-      <c r="BJ8" s="233"/>
-      <c r="BK8" s="236"/>
-      <c r="BL8" s="232">
+      <c r="BJ8" s="252"/>
+      <c r="BK8" s="253"/>
+      <c r="BL8" s="267">
         <v>20</v>
       </c>
-      <c r="BM8" s="233"/>
-      <c r="BN8" s="234"/>
-      <c r="BO8" s="232">
+      <c r="BM8" s="252"/>
+      <c r="BN8" s="268"/>
+      <c r="BO8" s="267">
         <v>21</v>
       </c>
-      <c r="BP8" s="233"/>
-      <c r="BQ8" s="234"/>
-      <c r="BR8" s="232">
+      <c r="BP8" s="252"/>
+      <c r="BQ8" s="268"/>
+      <c r="BR8" s="267">
         <v>22</v>
       </c>
-      <c r="BS8" s="233"/>
-      <c r="BT8" s="234"/>
-      <c r="BU8" s="235">
+      <c r="BS8" s="252"/>
+      <c r="BT8" s="268"/>
+      <c r="BU8" s="251">
         <v>23</v>
       </c>
-      <c r="BV8" s="233"/>
-      <c r="BW8" s="236"/>
-      <c r="BX8" s="237">
+      <c r="BV8" s="252"/>
+      <c r="BW8" s="253"/>
+      <c r="BX8" s="248">
         <v>24</v>
       </c>
-      <c r="BY8" s="238"/>
-      <c r="BZ8" s="240"/>
-      <c r="CA8" s="251">
+      <c r="BY8" s="249"/>
+      <c r="BZ8" s="250"/>
+      <c r="CA8" s="279">
         <v>25</v>
       </c>
-      <c r="CB8" s="238"/>
-      <c r="CC8" s="239"/>
-      <c r="CD8" s="232">
+      <c r="CB8" s="249"/>
+      <c r="CC8" s="269"/>
+      <c r="CD8" s="267">
         <v>26</v>
       </c>
-      <c r="CE8" s="233"/>
-      <c r="CF8" s="234"/>
-      <c r="CG8" s="235">
+      <c r="CE8" s="252"/>
+      <c r="CF8" s="268"/>
+      <c r="CG8" s="251">
         <v>27</v>
       </c>
-      <c r="CH8" s="233"/>
-      <c r="CI8" s="236"/>
-      <c r="CJ8" s="232">
+      <c r="CH8" s="252"/>
+      <c r="CI8" s="253"/>
+      <c r="CJ8" s="267">
         <v>28</v>
       </c>
-      <c r="CK8" s="233"/>
-      <c r="CL8" s="234"/>
-      <c r="CM8" s="232">
+      <c r="CK8" s="252"/>
+      <c r="CL8" s="268"/>
+      <c r="CM8" s="267">
         <v>29</v>
       </c>
-      <c r="CN8" s="233"/>
-      <c r="CO8" s="234"/>
-      <c r="CP8" s="232">
+      <c r="CN8" s="252"/>
+      <c r="CO8" s="268"/>
+      <c r="CP8" s="267">
         <v>30</v>
       </c>
-      <c r="CQ8" s="233"/>
-      <c r="CR8" s="234"/>
-      <c r="CS8" s="248">
+      <c r="CQ8" s="252"/>
+      <c r="CR8" s="268"/>
+      <c r="CS8" s="276">
         <v>31</v>
       </c>
-      <c r="CT8" s="249"/>
-      <c r="CU8" s="250"/>
+      <c r="CT8" s="277"/>
+      <c r="CU8" s="278"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -4220,8 +5077,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="244"/>
-      <c r="DI8" s="247"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -9990,45 +10847,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="231"/>
-      <c r="L33" s="231"/>
-      <c r="M33" s="231"/>
-      <c r="N33" s="231"/>
-      <c r="O33" s="231"/>
-      <c r="P33" s="231"/>
-      <c r="Q33" s="231"/>
-      <c r="R33" s="231"/>
-      <c r="S33" s="231"/>
-      <c r="T33" s="231"/>
-      <c r="U33" s="231"/>
-      <c r="V33" s="231"/>
-      <c r="W33" s="231"/>
-      <c r="X33" s="231"/>
-      <c r="Y33" s="231"/>
-      <c r="Z33" s="231"/>
-      <c r="AA33" s="231"/>
-      <c r="AB33" s="231"/>
-      <c r="AC33" s="231"/>
-      <c r="AD33" s="231"/>
-      <c r="AE33" s="231"/>
-      <c r="AF33" s="231"/>
-      <c r="AG33" s="231"/>
-      <c r="AH33" s="231"/>
-      <c r="AI33" s="231"/>
-      <c r="AJ33" s="231"/>
-      <c r="AK33" s="231"/>
-      <c r="AL33" s="231"/>
-      <c r="AM33" s="231"/>
-      <c r="AN33" s="231"/>
-      <c r="AO33" s="231"/>
-      <c r="AP33" s="231"/>
-      <c r="AQ33" s="231"/>
-      <c r="AR33" s="231"/>
-      <c r="AS33" s="231"/>
+      <c r="G33" s="283"/>
+      <c r="H33" s="283"/>
+      <c r="I33" s="283"/>
+      <c r="J33" s="283"/>
+      <c r="K33" s="283"/>
+      <c r="L33" s="283"/>
+      <c r="M33" s="283"/>
+      <c r="N33" s="283"/>
+      <c r="O33" s="283"/>
+      <c r="P33" s="283"/>
+      <c r="Q33" s="283"/>
+      <c r="R33" s="283"/>
+      <c r="S33" s="283"/>
+      <c r="T33" s="283"/>
+      <c r="U33" s="283"/>
+      <c r="V33" s="283"/>
+      <c r="W33" s="283"/>
+      <c r="X33" s="283"/>
+      <c r="Y33" s="283"/>
+      <c r="Z33" s="283"/>
+      <c r="AA33" s="283"/>
+      <c r="AB33" s="283"/>
+      <c r="AC33" s="283"/>
+      <c r="AD33" s="283"/>
+      <c r="AE33" s="283"/>
+      <c r="AF33" s="283"/>
+      <c r="AG33" s="283"/>
+      <c r="AH33" s="283"/>
+      <c r="AI33" s="283"/>
+      <c r="AJ33" s="283"/>
+      <c r="AK33" s="283"/>
+      <c r="AL33" s="283"/>
+      <c r="AM33" s="283"/>
+      <c r="AN33" s="283"/>
+      <c r="AO33" s="283"/>
+      <c r="AP33" s="283"/>
+      <c r="AQ33" s="283"/>
+      <c r="AR33" s="283"/>
+      <c r="AS33" s="283"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -10333,45 +11190,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="231"/>
-      <c r="H37" s="231"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="231"/>
-      <c r="K37" s="231"/>
-      <c r="L37" s="231"/>
-      <c r="M37" s="231"/>
-      <c r="N37" s="231"/>
-      <c r="O37" s="231"/>
-      <c r="P37" s="231"/>
-      <c r="Q37" s="231"/>
-      <c r="R37" s="231"/>
-      <c r="S37" s="231"/>
-      <c r="T37" s="231"/>
-      <c r="U37" s="231"/>
-      <c r="V37" s="231"/>
-      <c r="W37" s="231"/>
-      <c r="X37" s="231"/>
-      <c r="Y37" s="231"/>
-      <c r="Z37" s="231"/>
-      <c r="AA37" s="231"/>
-      <c r="AB37" s="231"/>
-      <c r="AC37" s="231"/>
-      <c r="AD37" s="231"/>
-      <c r="AE37" s="231"/>
-      <c r="AF37" s="231"/>
-      <c r="AG37" s="231"/>
-      <c r="AH37" s="231"/>
-      <c r="AI37" s="231"/>
-      <c r="AJ37" s="231"/>
-      <c r="AK37" s="231"/>
-      <c r="AL37" s="231"/>
-      <c r="AM37" s="231"/>
-      <c r="AN37" s="231"/>
-      <c r="AO37" s="231"/>
-      <c r="AP37" s="231"/>
-      <c r="AQ37" s="231"/>
-      <c r="AR37" s="231"/>
-      <c r="AS37" s="231"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="283"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="283"/>
+      <c r="M37" s="283"/>
+      <c r="N37" s="283"/>
+      <c r="O37" s="283"/>
+      <c r="P37" s="283"/>
+      <c r="Q37" s="283"/>
+      <c r="R37" s="283"/>
+      <c r="S37" s="283"/>
+      <c r="T37" s="283"/>
+      <c r="U37" s="283"/>
+      <c r="V37" s="283"/>
+      <c r="W37" s="283"/>
+      <c r="X37" s="283"/>
+      <c r="Y37" s="283"/>
+      <c r="Z37" s="283"/>
+      <c r="AA37" s="283"/>
+      <c r="AB37" s="283"/>
+      <c r="AC37" s="283"/>
+      <c r="AD37" s="283"/>
+      <c r="AE37" s="283"/>
+      <c r="AF37" s="283"/>
+      <c r="AG37" s="283"/>
+      <c r="AH37" s="283"/>
+      <c r="AI37" s="283"/>
+      <c r="AJ37" s="283"/>
+      <c r="AK37" s="283"/>
+      <c r="AL37" s="283"/>
+      <c r="AM37" s="283"/>
+      <c r="AN37" s="283"/>
+      <c r="AO37" s="283"/>
+      <c r="AP37" s="283"/>
+      <c r="AQ37" s="283"/>
+      <c r="AR37" s="283"/>
+      <c r="AS37" s="283"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -11872,6 +12729,40 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="DI6:DI8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="CU1:DG1"/>
@@ -11888,40 +12779,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="DI6:DI8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -12117,21 +12974,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="262" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="262"/>
-      <c r="CW1" s="262"/>
-      <c r="CX1" s="262"/>
-      <c r="CY1" s="262"/>
-      <c r="CZ1" s="262"/>
-      <c r="DA1" s="262"/>
-      <c r="DB1" s="262"/>
-      <c r="DC1" s="262"/>
-      <c r="DD1" s="262"/>
-      <c r="DE1" s="262"/>
-      <c r="DF1" s="262"/>
-      <c r="DG1" s="262"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -12232,241 +13089,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="263" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="263"/>
-      <c r="CW2" s="263"/>
-      <c r="CX2" s="263"/>
-      <c r="CY2" s="263"/>
-      <c r="CZ2" s="263"/>
-      <c r="DA2" s="263"/>
-      <c r="DB2" s="263"/>
-      <c r="DC2" s="263"/>
-      <c r="DD2" s="263"/>
-      <c r="DE2" s="263"/>
-      <c r="DF2" s="263"/>
-      <c r="DG2" s="263"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="264"/>
-      <c r="AK3" s="264"/>
-      <c r="AL3" s="264"/>
-      <c r="AM3" s="264"/>
-      <c r="AN3" s="264"/>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="264"/>
-      <c r="AQ3" s="264"/>
-      <c r="AR3" s="264"/>
-      <c r="AS3" s="264"/>
-      <c r="AT3" s="264"/>
-      <c r="AU3" s="264"/>
-      <c r="AV3" s="264"/>
-      <c r="AW3" s="264"/>
-      <c r="AX3" s="264"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="264"/>
-      <c r="BC3" s="264"/>
-      <c r="BD3" s="264"/>
-      <c r="BE3" s="264"/>
-      <c r="BF3" s="264"/>
-      <c r="BG3" s="264"/>
-      <c r="BH3" s="264"/>
-      <c r="BI3" s="264"/>
-      <c r="BJ3" s="264"/>
-      <c r="BK3" s="264"/>
-      <c r="BL3" s="264"/>
-      <c r="BM3" s="264"/>
-      <c r="BN3" s="264"/>
-      <c r="BO3" s="264"/>
-      <c r="BP3" s="264"/>
-      <c r="BQ3" s="264"/>
-      <c r="BR3" s="264"/>
-      <c r="BS3" s="264"/>
-      <c r="BT3" s="264"/>
-      <c r="BU3" s="264"/>
-      <c r="BV3" s="264"/>
-      <c r="BW3" s="264"/>
-      <c r="BX3" s="264"/>
-      <c r="BY3" s="264"/>
-      <c r="BZ3" s="264"/>
-      <c r="CA3" s="264"/>
-      <c r="CB3" s="264"/>
-      <c r="CC3" s="264"/>
-      <c r="CD3" s="264"/>
-      <c r="CE3" s="264"/>
-      <c r="CF3" s="264"/>
-      <c r="CG3" s="264"/>
-      <c r="CH3" s="264"/>
-      <c r="CI3" s="264"/>
-      <c r="CJ3" s="264"/>
-      <c r="CK3" s="264"/>
-      <c r="CL3" s="264"/>
-      <c r="CM3" s="264"/>
-      <c r="CN3" s="264"/>
-      <c r="CO3" s="264"/>
-      <c r="CP3" s="264"/>
-      <c r="CQ3" s="264"/>
-      <c r="CR3" s="264"/>
-      <c r="CS3" s="264"/>
-      <c r="CT3" s="264"/>
-      <c r="CU3" s="264"/>
-      <c r="CV3" s="265" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="265"/>
-      <c r="CX3" s="265"/>
-      <c r="CY3" s="265"/>
-      <c r="CZ3" s="265"/>
-      <c r="DA3" s="265"/>
-      <c r="DB3" s="265"/>
-      <c r="DC3" s="265"/>
-      <c r="DD3" s="265"/>
-      <c r="DE3" s="265"/>
-      <c r="DF3" s="265"/>
-      <c r="DG3" s="265"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
-      <c r="U4" s="272"/>
-      <c r="V4" s="272"/>
-      <c r="W4" s="272"/>
-      <c r="X4" s="272"/>
-      <c r="Y4" s="272"/>
-      <c r="Z4" s="272"/>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="272"/>
-      <c r="AC4" s="272"/>
-      <c r="AD4" s="272"/>
-      <c r="AE4" s="272"/>
-      <c r="AF4" s="272"/>
-      <c r="AG4" s="272"/>
-      <c r="AH4" s="272"/>
-      <c r="AI4" s="272"/>
-      <c r="AJ4" s="272"/>
-      <c r="AK4" s="272"/>
-      <c r="AL4" s="272"/>
-      <c r="AM4" s="272"/>
-      <c r="AN4" s="272"/>
-      <c r="AO4" s="272"/>
-      <c r="AP4" s="272"/>
-      <c r="AQ4" s="272"/>
-      <c r="AR4" s="272"/>
-      <c r="AS4" s="272"/>
-      <c r="AT4" s="272"/>
-      <c r="AU4" s="272"/>
-      <c r="AV4" s="272"/>
-      <c r="AW4" s="272"/>
-      <c r="AX4" s="272"/>
-      <c r="AY4" s="272"/>
-      <c r="AZ4" s="272"/>
-      <c r="BA4" s="272"/>
-      <c r="BB4" s="272"/>
-      <c r="BC4" s="272"/>
-      <c r="BD4" s="272"/>
-      <c r="BE4" s="272"/>
-      <c r="BF4" s="272"/>
-      <c r="BG4" s="272"/>
-      <c r="BH4" s="272"/>
-      <c r="BI4" s="272"/>
-      <c r="BJ4" s="272"/>
-      <c r="BK4" s="272"/>
-      <c r="BL4" s="272"/>
-      <c r="BM4" s="272"/>
-      <c r="BN4" s="272"/>
-      <c r="BO4" s="272"/>
-      <c r="BP4" s="272"/>
-      <c r="BQ4" s="272"/>
-      <c r="BR4" s="272"/>
-      <c r="BS4" s="272"/>
-      <c r="BT4" s="272"/>
-      <c r="BU4" s="272"/>
-      <c r="BV4" s="272"/>
-      <c r="BW4" s="272"/>
-      <c r="BX4" s="272"/>
-      <c r="BY4" s="272"/>
-      <c r="BZ4" s="272"/>
-      <c r="CA4" s="272"/>
-      <c r="CB4" s="272"/>
-      <c r="CC4" s="272"/>
-      <c r="CD4" s="272"/>
-      <c r="CE4" s="272"/>
-      <c r="CF4" s="272"/>
-      <c r="CG4" s="272"/>
-      <c r="CH4" s="272"/>
-      <c r="CI4" s="272"/>
-      <c r="CJ4" s="272"/>
-      <c r="CK4" s="272"/>
-      <c r="CL4" s="272"/>
-      <c r="CM4" s="272"/>
-      <c r="CN4" s="272"/>
-      <c r="CO4" s="272"/>
-      <c r="CP4" s="272"/>
-      <c r="CQ4" s="272"/>
-      <c r="CR4" s="272"/>
-      <c r="CS4" s="272"/>
-      <c r="CT4" s="272"/>
-      <c r="CU4" s="272"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -12596,288 +13453,288 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="276" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="279" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="282" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
-      <c r="Y6" s="252"/>
-      <c r="Z6" s="252"/>
-      <c r="AA6" s="252"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="252"/>
-      <c r="AD6" s="252"/>
-      <c r="AE6" s="252"/>
-      <c r="AF6" s="252"/>
-      <c r="AG6" s="252"/>
-      <c r="AH6" s="252"/>
-      <c r="AI6" s="252"/>
-      <c r="AJ6" s="252"/>
-      <c r="AK6" s="252"/>
-      <c r="AL6" s="252"/>
-      <c r="AM6" s="252"/>
-      <c r="AN6" s="252"/>
-      <c r="AO6" s="252"/>
-      <c r="AP6" s="252"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="252"/>
-      <c r="AT6" s="252"/>
-      <c r="AU6" s="252"/>
-      <c r="AV6" s="252"/>
-      <c r="AW6" s="252"/>
-      <c r="AX6" s="252"/>
-      <c r="AY6" s="252"/>
-      <c r="AZ6" s="252"/>
-      <c r="BA6" s="252"/>
-      <c r="BB6" s="252"/>
-      <c r="BC6" s="252"/>
-      <c r="BD6" s="252"/>
-      <c r="BE6" s="252"/>
-      <c r="BF6" s="252"/>
-      <c r="BG6" s="252"/>
-      <c r="BH6" s="252"/>
-      <c r="BI6" s="252"/>
-      <c r="BJ6" s="252"/>
-      <c r="BK6" s="252"/>
-      <c r="BL6" s="252"/>
-      <c r="BM6" s="252"/>
-      <c r="BN6" s="252"/>
-      <c r="BO6" s="252"/>
-      <c r="BP6" s="252"/>
-      <c r="BQ6" s="252"/>
-      <c r="BR6" s="252"/>
-      <c r="BS6" s="252"/>
-      <c r="BT6" s="252"/>
-      <c r="BU6" s="252"/>
-      <c r="BV6" s="252"/>
-      <c r="BW6" s="252"/>
-      <c r="BX6" s="252"/>
-      <c r="BY6" s="252"/>
-      <c r="BZ6" s="252"/>
-      <c r="CA6" s="252"/>
-      <c r="CB6" s="252"/>
-      <c r="CC6" s="252"/>
-      <c r="CD6" s="252"/>
-      <c r="CE6" s="252"/>
-      <c r="CF6" s="252"/>
-      <c r="CG6" s="252"/>
-      <c r="CH6" s="252"/>
-      <c r="CI6" s="252"/>
-      <c r="CJ6" s="252"/>
-      <c r="CK6" s="252"/>
-      <c r="CL6" s="252"/>
-      <c r="CM6" s="252"/>
-      <c r="CN6" s="252"/>
-      <c r="CO6" s="252"/>
-      <c r="CP6" s="252"/>
-      <c r="CQ6" s="252"/>
-      <c r="CR6" s="252"/>
-      <c r="CS6" s="252"/>
-      <c r="CT6" s="252"/>
-      <c r="CU6" s="252"/>
-      <c r="CV6" s="266" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="267"/>
-      <c r="CX6" s="266" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="270"/>
-      <c r="CZ6" s="270"/>
-      <c r="DA6" s="270"/>
-      <c r="DB6" s="270"/>
-      <c r="DC6" s="270"/>
-      <c r="DD6" s="270"/>
-      <c r="DE6" s="270"/>
-      <c r="DF6" s="270"/>
-      <c r="DG6" s="270"/>
-      <c r="DH6" s="242" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="245" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="255" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="255"/>
-      <c r="DL6" s="255"/>
-      <c r="DM6" s="255"/>
-      <c r="DN6" s="255"/>
-      <c r="DO6" s="256"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="274"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="253"/>
-      <c r="AB7" s="253"/>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="253"/>
-      <c r="AG7" s="253"/>
-      <c r="AH7" s="253"/>
-      <c r="AI7" s="253"/>
-      <c r="AJ7" s="253"/>
-      <c r="AK7" s="253"/>
-      <c r="AL7" s="253"/>
-      <c r="AM7" s="253"/>
-      <c r="AN7" s="253"/>
-      <c r="AO7" s="253"/>
-      <c r="AP7" s="253"/>
-      <c r="AQ7" s="253"/>
-      <c r="AR7" s="253"/>
-      <c r="AS7" s="253"/>
-      <c r="AT7" s="253"/>
-      <c r="AU7" s="253"/>
-      <c r="AV7" s="253"/>
-      <c r="AW7" s="253"/>
-      <c r="AX7" s="253"/>
-      <c r="AY7" s="253"/>
-      <c r="AZ7" s="253"/>
-      <c r="BA7" s="253"/>
-      <c r="BB7" s="253"/>
-      <c r="BC7" s="253"/>
-      <c r="BD7" s="253"/>
-      <c r="BE7" s="253"/>
-      <c r="BF7" s="253"/>
-      <c r="BG7" s="253"/>
-      <c r="BH7" s="253"/>
-      <c r="BI7" s="253"/>
-      <c r="BJ7" s="253"/>
-      <c r="BK7" s="253"/>
-      <c r="BL7" s="253"/>
-      <c r="BM7" s="253"/>
-      <c r="BN7" s="253"/>
-      <c r="BO7" s="254"/>
-      <c r="BP7" s="254"/>
-      <c r="BQ7" s="254"/>
-      <c r="BR7" s="253"/>
-      <c r="BS7" s="253"/>
-      <c r="BT7" s="253"/>
-      <c r="BU7" s="253"/>
-      <c r="BV7" s="253"/>
-      <c r="BW7" s="253"/>
-      <c r="BX7" s="253"/>
-      <c r="BY7" s="253"/>
-      <c r="BZ7" s="253"/>
-      <c r="CA7" s="253"/>
-      <c r="CB7" s="253"/>
-      <c r="CC7" s="253"/>
-      <c r="CD7" s="253"/>
-      <c r="CE7" s="253"/>
-      <c r="CF7" s="253"/>
-      <c r="CG7" s="253"/>
-      <c r="CH7" s="253"/>
-      <c r="CI7" s="253"/>
-      <c r="CJ7" s="253"/>
-      <c r="CK7" s="253"/>
-      <c r="CL7" s="253"/>
-      <c r="CM7" s="253"/>
-      <c r="CN7" s="253"/>
-      <c r="CO7" s="253"/>
-      <c r="CP7" s="253"/>
-      <c r="CQ7" s="253"/>
-      <c r="CR7" s="253"/>
-      <c r="CS7" s="253"/>
-      <c r="CT7" s="253"/>
-      <c r="CU7" s="253"/>
-      <c r="CV7" s="268"/>
-      <c r="CW7" s="269"/>
-      <c r="CX7" s="268"/>
-      <c r="CY7" s="271"/>
-      <c r="CZ7" s="271"/>
-      <c r="DA7" s="271"/>
-      <c r="DB7" s="271"/>
-      <c r="DC7" s="271"/>
-      <c r="DD7" s="271"/>
-      <c r="DE7" s="271"/>
-      <c r="DF7" s="271"/>
-      <c r="DG7" s="271"/>
-      <c r="DH7" s="243"/>
-      <c r="DI7" s="246"/>
-      <c r="DJ7" s="257"/>
-      <c r="DK7" s="257"/>
-      <c r="DL7" s="257"/>
-      <c r="DM7" s="257"/>
-      <c r="DN7" s="257"/>
-      <c r="DO7" s="258"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="275"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="284"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
       <c r="G8" s="290">
         <v>1</v>
       </c>
-      <c r="H8" s="238"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="232">
+      <c r="H8" s="249"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="267">
         <v>2</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="234"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="268"/>
       <c r="M8" s="285">
         <v>3</v>
       </c>
@@ -12898,16 +13755,16 @@
       </c>
       <c r="W8" s="286"/>
       <c r="X8" s="287"/>
-      <c r="Y8" s="237">
+      <c r="Y8" s="248">
         <v>7</v>
       </c>
-      <c r="Z8" s="238"/>
-      <c r="AA8" s="240"/>
-      <c r="AB8" s="237">
+      <c r="Z8" s="249"/>
+      <c r="AA8" s="250"/>
+      <c r="AB8" s="248">
         <v>8</v>
       </c>
-      <c r="AC8" s="238"/>
-      <c r="AD8" s="240"/>
+      <c r="AC8" s="249"/>
+      <c r="AD8" s="250"/>
       <c r="AE8" s="285">
         <v>9</v>
       </c>
@@ -12933,16 +13790,16 @@
       </c>
       <c r="AR8" s="286"/>
       <c r="AS8" s="287"/>
-      <c r="AT8" s="251">
+      <c r="AT8" s="279">
         <v>14</v>
       </c>
-      <c r="AU8" s="238"/>
-      <c r="AV8" s="240"/>
-      <c r="AW8" s="237">
+      <c r="AU8" s="249"/>
+      <c r="AV8" s="250"/>
+      <c r="AW8" s="248">
         <v>15</v>
       </c>
-      <c r="AX8" s="238"/>
-      <c r="AY8" s="240"/>
+      <c r="AX8" s="249"/>
+      <c r="AY8" s="250"/>
       <c r="AZ8" s="285">
         <v>16</v>
       </c>
@@ -12968,16 +13825,16 @@
       </c>
       <c r="BM8" s="286"/>
       <c r="BN8" s="287"/>
-      <c r="BO8" s="237">
+      <c r="BO8" s="248">
         <v>21</v>
       </c>
-      <c r="BP8" s="238"/>
-      <c r="BQ8" s="240"/>
-      <c r="BR8" s="237">
+      <c r="BP8" s="249"/>
+      <c r="BQ8" s="250"/>
+      <c r="BR8" s="248">
         <v>22</v>
       </c>
-      <c r="BS8" s="238"/>
-      <c r="BT8" s="240"/>
+      <c r="BS8" s="249"/>
+      <c r="BT8" s="250"/>
       <c r="BU8" s="288">
         <v>23</v>
       </c>
@@ -13003,16 +13860,16 @@
       </c>
       <c r="CH8" s="286"/>
       <c r="CI8" s="289"/>
-      <c r="CJ8" s="237">
+      <c r="CJ8" s="248">
         <v>28</v>
       </c>
-      <c r="CK8" s="238"/>
-      <c r="CL8" s="240"/>
-      <c r="CM8" s="237">
+      <c r="CK8" s="249"/>
+      <c r="CL8" s="250"/>
+      <c r="CM8" s="248">
         <v>29</v>
       </c>
-      <c r="CN8" s="238"/>
-      <c r="CO8" s="240"/>
+      <c r="CN8" s="249"/>
+      <c r="CO8" s="250"/>
       <c r="CP8" s="285">
         <v>30</v>
       </c>
@@ -13057,8 +13914,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="244"/>
-      <c r="DI8" s="247"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -18383,45 +19240,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="231"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
-      <c r="O31" s="231"/>
-      <c r="P31" s="231"/>
-      <c r="Q31" s="231"/>
-      <c r="R31" s="231"/>
-      <c r="S31" s="231"/>
-      <c r="T31" s="231"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="231"/>
-      <c r="W31" s="231"/>
-      <c r="X31" s="231"/>
-      <c r="Y31" s="231"/>
-      <c r="Z31" s="231"/>
-      <c r="AA31" s="231"/>
-      <c r="AB31" s="231"/>
-      <c r="AC31" s="231"/>
-      <c r="AD31" s="231"/>
-      <c r="AE31" s="231"/>
-      <c r="AF31" s="231"/>
-      <c r="AG31" s="231"/>
-      <c r="AH31" s="231"/>
-      <c r="AI31" s="231"/>
-      <c r="AJ31" s="231"/>
-      <c r="AK31" s="231"/>
-      <c r="AL31" s="231"/>
-      <c r="AM31" s="231"/>
-      <c r="AN31" s="231"/>
-      <c r="AO31" s="231"/>
-      <c r="AP31" s="231"/>
-      <c r="AQ31" s="231"/>
-      <c r="AR31" s="231"/>
-      <c r="AS31" s="231"/>
+      <c r="G31" s="283"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="283"/>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="283"/>
+      <c r="Q31" s="283"/>
+      <c r="R31" s="283"/>
+      <c r="S31" s="283"/>
+      <c r="T31" s="283"/>
+      <c r="U31" s="283"/>
+      <c r="V31" s="283"/>
+      <c r="W31" s="283"/>
+      <c r="X31" s="283"/>
+      <c r="Y31" s="283"/>
+      <c r="Z31" s="283"/>
+      <c r="AA31" s="283"/>
+      <c r="AB31" s="283"/>
+      <c r="AC31" s="283"/>
+      <c r="AD31" s="283"/>
+      <c r="AE31" s="283"/>
+      <c r="AF31" s="283"/>
+      <c r="AG31" s="283"/>
+      <c r="AH31" s="283"/>
+      <c r="AI31" s="283"/>
+      <c r="AJ31" s="283"/>
+      <c r="AK31" s="283"/>
+      <c r="AL31" s="283"/>
+      <c r="AM31" s="283"/>
+      <c r="AN31" s="283"/>
+      <c r="AO31" s="283"/>
+      <c r="AP31" s="283"/>
+      <c r="AQ31" s="283"/>
+      <c r="AR31" s="283"/>
+      <c r="AS31" s="283"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -18726,45 +19583,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
-      <c r="Q35" s="231"/>
-      <c r="R35" s="231"/>
-      <c r="S35" s="231"/>
-      <c r="T35" s="231"/>
-      <c r="U35" s="231"/>
-      <c r="V35" s="231"/>
-      <c r="W35" s="231"/>
-      <c r="X35" s="231"/>
-      <c r="Y35" s="231"/>
-      <c r="Z35" s="231"/>
-      <c r="AA35" s="231"/>
-      <c r="AB35" s="231"/>
-      <c r="AC35" s="231"/>
-      <c r="AD35" s="231"/>
-      <c r="AE35" s="231"/>
-      <c r="AF35" s="231"/>
-      <c r="AG35" s="231"/>
-      <c r="AH35" s="231"/>
-      <c r="AI35" s="231"/>
-      <c r="AJ35" s="231"/>
-      <c r="AK35" s="231"/>
-      <c r="AL35" s="231"/>
-      <c r="AM35" s="231"/>
-      <c r="AN35" s="231"/>
-      <c r="AO35" s="231"/>
-      <c r="AP35" s="231"/>
-      <c r="AQ35" s="231"/>
-      <c r="AR35" s="231"/>
-      <c r="AS35" s="231"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="283"/>
+      <c r="I35" s="283"/>
+      <c r="J35" s="283"/>
+      <c r="K35" s="283"/>
+      <c r="L35" s="283"/>
+      <c r="M35" s="283"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="283"/>
+      <c r="P35" s="283"/>
+      <c r="Q35" s="283"/>
+      <c r="R35" s="283"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="283"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
+      <c r="W35" s="283"/>
+      <c r="X35" s="283"/>
+      <c r="Y35" s="283"/>
+      <c r="Z35" s="283"/>
+      <c r="AA35" s="283"/>
+      <c r="AB35" s="283"/>
+      <c r="AC35" s="283"/>
+      <c r="AD35" s="283"/>
+      <c r="AE35" s="283"/>
+      <c r="AF35" s="283"/>
+      <c r="AG35" s="283"/>
+      <c r="AH35" s="283"/>
+      <c r="AI35" s="283"/>
+      <c r="AJ35" s="283"/>
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="283"/>
+      <c r="AO35" s="283"/>
+      <c r="AP35" s="283"/>
+      <c r="AQ35" s="283"/>
+      <c r="AR35" s="283"/>
+      <c r="AS35" s="283"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -20922,17 +21779,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -20949,35 +21818,23 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="113" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="235" priority="2" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="234" priority="1" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21003,11 +21860,11 @@
   <dimension ref="A1:EF87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CY16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AR16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="DJ21" sqref="DJ21"/>
+      <selection pane="bottomRight" activeCell="CM23" sqref="CM23:CU23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21174,21 +22031,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="262" t="s">
+      <c r="CU1" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="262"/>
-      <c r="CW1" s="262"/>
-      <c r="CX1" s="262"/>
-      <c r="CY1" s="262"/>
-      <c r="CZ1" s="262"/>
-      <c r="DA1" s="262"/>
-      <c r="DB1" s="262"/>
-      <c r="DC1" s="262"/>
-      <c r="DD1" s="262"/>
-      <c r="DE1" s="262"/>
-      <c r="DF1" s="262"/>
-      <c r="DG1" s="262"/>
+      <c r="CV1" s="238"/>
+      <c r="CW1" s="238"/>
+      <c r="CX1" s="238"/>
+      <c r="CY1" s="238"/>
+      <c r="CZ1" s="238"/>
+      <c r="DA1" s="238"/>
+      <c r="DB1" s="238"/>
+      <c r="DC1" s="238"/>
+      <c r="DD1" s="238"/>
+      <c r="DE1" s="238"/>
+      <c r="DF1" s="238"/>
+      <c r="DG1" s="238"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -21289,241 +22146,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="263" t="s">
+      <c r="CU2" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="263"/>
-      <c r="CW2" s="263"/>
-      <c r="CX2" s="263"/>
-      <c r="CY2" s="263"/>
-      <c r="CZ2" s="263"/>
-      <c r="DA2" s="263"/>
-      <c r="DB2" s="263"/>
-      <c r="DC2" s="263"/>
-      <c r="DD2" s="263"/>
-      <c r="DE2" s="263"/>
-      <c r="DF2" s="263"/>
-      <c r="DG2" s="263"/>
+      <c r="CV2" s="239"/>
+      <c r="CW2" s="239"/>
+      <c r="CX2" s="239"/>
+      <c r="CY2" s="239"/>
+      <c r="CZ2" s="239"/>
+      <c r="DA2" s="239"/>
+      <c r="DB2" s="239"/>
+      <c r="DC2" s="239"/>
+      <c r="DD2" s="239"/>
+      <c r="DE2" s="239"/>
+      <c r="DF2" s="239"/>
+      <c r="DG2" s="239"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="264"/>
-      <c r="AK3" s="264"/>
-      <c r="AL3" s="264"/>
-      <c r="AM3" s="264"/>
-      <c r="AN3" s="264"/>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="264"/>
-      <c r="AQ3" s="264"/>
-      <c r="AR3" s="264"/>
-      <c r="AS3" s="264"/>
-      <c r="AT3" s="264"/>
-      <c r="AU3" s="264"/>
-      <c r="AV3" s="264"/>
-      <c r="AW3" s="264"/>
-      <c r="AX3" s="264"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="264"/>
-      <c r="BC3" s="264"/>
-      <c r="BD3" s="264"/>
-      <c r="BE3" s="264"/>
-      <c r="BF3" s="264"/>
-      <c r="BG3" s="264"/>
-      <c r="BH3" s="264"/>
-      <c r="BI3" s="264"/>
-      <c r="BJ3" s="264"/>
-      <c r="BK3" s="264"/>
-      <c r="BL3" s="264"/>
-      <c r="BM3" s="264"/>
-      <c r="BN3" s="264"/>
-      <c r="BO3" s="264"/>
-      <c r="BP3" s="264"/>
-      <c r="BQ3" s="264"/>
-      <c r="BR3" s="264"/>
-      <c r="BS3" s="264"/>
-      <c r="BT3" s="264"/>
-      <c r="BU3" s="264"/>
-      <c r="BV3" s="264"/>
-      <c r="BW3" s="264"/>
-      <c r="BX3" s="264"/>
-      <c r="BY3" s="264"/>
-      <c r="BZ3" s="264"/>
-      <c r="CA3" s="264"/>
-      <c r="CB3" s="264"/>
-      <c r="CC3" s="264"/>
-      <c r="CD3" s="264"/>
-      <c r="CE3" s="264"/>
-      <c r="CF3" s="264"/>
-      <c r="CG3" s="264"/>
-      <c r="CH3" s="264"/>
-      <c r="CI3" s="264"/>
-      <c r="CJ3" s="264"/>
-      <c r="CK3" s="264"/>
-      <c r="CL3" s="264"/>
-      <c r="CM3" s="264"/>
-      <c r="CN3" s="264"/>
-      <c r="CO3" s="264"/>
-      <c r="CP3" s="264"/>
-      <c r="CQ3" s="264"/>
-      <c r="CR3" s="264"/>
-      <c r="CS3" s="264"/>
-      <c r="CT3" s="264"/>
-      <c r="CU3" s="264"/>
-      <c r="CV3" s="265" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240"/>
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
+      <c r="AX3" s="240"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="240"/>
+      <c r="BA3" s="240"/>
+      <c r="BB3" s="240"/>
+      <c r="BC3" s="240"/>
+      <c r="BD3" s="240"/>
+      <c r="BE3" s="240"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="240"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="240"/>
+      <c r="BK3" s="240"/>
+      <c r="BL3" s="240"/>
+      <c r="BM3" s="240"/>
+      <c r="BN3" s="240"/>
+      <c r="BO3" s="240"/>
+      <c r="BP3" s="240"/>
+      <c r="BQ3" s="240"/>
+      <c r="BR3" s="240"/>
+      <c r="BS3" s="240"/>
+      <c r="BT3" s="240"/>
+      <c r="BU3" s="240"/>
+      <c r="BV3" s="240"/>
+      <c r="BW3" s="240"/>
+      <c r="BX3" s="240"/>
+      <c r="BY3" s="240"/>
+      <c r="BZ3" s="240"/>
+      <c r="CA3" s="240"/>
+      <c r="CB3" s="240"/>
+      <c r="CC3" s="240"/>
+      <c r="CD3" s="240"/>
+      <c r="CE3" s="240"/>
+      <c r="CF3" s="240"/>
+      <c r="CG3" s="240"/>
+      <c r="CH3" s="240"/>
+      <c r="CI3" s="240"/>
+      <c r="CJ3" s="240"/>
+      <c r="CK3" s="240"/>
+      <c r="CL3" s="240"/>
+      <c r="CM3" s="240"/>
+      <c r="CN3" s="240"/>
+      <c r="CO3" s="240"/>
+      <c r="CP3" s="240"/>
+      <c r="CQ3" s="240"/>
+      <c r="CR3" s="240"/>
+      <c r="CS3" s="240"/>
+      <c r="CT3" s="240"/>
+      <c r="CU3" s="240"/>
+      <c r="CV3" s="241" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="265"/>
-      <c r="CX3" s="265"/>
-      <c r="CY3" s="265"/>
-      <c r="CZ3" s="265"/>
-      <c r="DA3" s="265"/>
-      <c r="DB3" s="265"/>
-      <c r="DC3" s="265"/>
-      <c r="DD3" s="265"/>
-      <c r="DE3" s="265"/>
-      <c r="DF3" s="265"/>
-      <c r="DG3" s="265"/>
+      <c r="CW3" s="241"/>
+      <c r="CX3" s="241"/>
+      <c r="CY3" s="241"/>
+      <c r="CZ3" s="241"/>
+      <c r="DA3" s="241"/>
+      <c r="DB3" s="241"/>
+      <c r="DC3" s="241"/>
+      <c r="DD3" s="241"/>
+      <c r="DE3" s="241"/>
+      <c r="DF3" s="241"/>
+      <c r="DG3" s="241"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
-      <c r="U4" s="272"/>
-      <c r="V4" s="272"/>
-      <c r="W4" s="272"/>
-      <c r="X4" s="272"/>
-      <c r="Y4" s="272"/>
-      <c r="Z4" s="272"/>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="272"/>
-      <c r="AC4" s="272"/>
-      <c r="AD4" s="272"/>
-      <c r="AE4" s="272"/>
-      <c r="AF4" s="272"/>
-      <c r="AG4" s="272"/>
-      <c r="AH4" s="272"/>
-      <c r="AI4" s="272"/>
-      <c r="AJ4" s="272"/>
-      <c r="AK4" s="272"/>
-      <c r="AL4" s="272"/>
-      <c r="AM4" s="272"/>
-      <c r="AN4" s="272"/>
-      <c r="AO4" s="272"/>
-      <c r="AP4" s="272"/>
-      <c r="AQ4" s="272"/>
-      <c r="AR4" s="272"/>
-      <c r="AS4" s="272"/>
-      <c r="AT4" s="272"/>
-      <c r="AU4" s="272"/>
-      <c r="AV4" s="272"/>
-      <c r="AW4" s="272"/>
-      <c r="AX4" s="272"/>
-      <c r="AY4" s="272"/>
-      <c r="AZ4" s="272"/>
-      <c r="BA4" s="272"/>
-      <c r="BB4" s="272"/>
-      <c r="BC4" s="272"/>
-      <c r="BD4" s="272"/>
-      <c r="BE4" s="272"/>
-      <c r="BF4" s="272"/>
-      <c r="BG4" s="272"/>
-      <c r="BH4" s="272"/>
-      <c r="BI4" s="272"/>
-      <c r="BJ4" s="272"/>
-      <c r="BK4" s="272"/>
-      <c r="BL4" s="272"/>
-      <c r="BM4" s="272"/>
-      <c r="BN4" s="272"/>
-      <c r="BO4" s="272"/>
-      <c r="BP4" s="272"/>
-      <c r="BQ4" s="272"/>
-      <c r="BR4" s="272"/>
-      <c r="BS4" s="272"/>
-      <c r="BT4" s="272"/>
-      <c r="BU4" s="272"/>
-      <c r="BV4" s="272"/>
-      <c r="BW4" s="272"/>
-      <c r="BX4" s="272"/>
-      <c r="BY4" s="272"/>
-      <c r="BZ4" s="272"/>
-      <c r="CA4" s="272"/>
-      <c r="CB4" s="272"/>
-      <c r="CC4" s="272"/>
-      <c r="CD4" s="272"/>
-      <c r="CE4" s="272"/>
-      <c r="CF4" s="272"/>
-      <c r="CG4" s="272"/>
-      <c r="CH4" s="272"/>
-      <c r="CI4" s="272"/>
-      <c r="CJ4" s="272"/>
-      <c r="CK4" s="272"/>
-      <c r="CL4" s="272"/>
-      <c r="CM4" s="272"/>
-      <c r="CN4" s="272"/>
-      <c r="CO4" s="272"/>
-      <c r="CP4" s="272"/>
-      <c r="CQ4" s="272"/>
-      <c r="CR4" s="272"/>
-      <c r="CS4" s="272"/>
-      <c r="CT4" s="272"/>
-      <c r="CU4" s="272"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="254"/>
+      <c r="AK4" s="254"/>
+      <c r="AL4" s="254"/>
+      <c r="AM4" s="254"/>
+      <c r="AN4" s="254"/>
+      <c r="AO4" s="254"/>
+      <c r="AP4" s="254"/>
+      <c r="AQ4" s="254"/>
+      <c r="AR4" s="254"/>
+      <c r="AS4" s="254"/>
+      <c r="AT4" s="254"/>
+      <c r="AU4" s="254"/>
+      <c r="AV4" s="254"/>
+      <c r="AW4" s="254"/>
+      <c r="AX4" s="254"/>
+      <c r="AY4" s="254"/>
+      <c r="AZ4" s="254"/>
+      <c r="BA4" s="254"/>
+      <c r="BB4" s="254"/>
+      <c r="BC4" s="254"/>
+      <c r="BD4" s="254"/>
+      <c r="BE4" s="254"/>
+      <c r="BF4" s="254"/>
+      <c r="BG4" s="254"/>
+      <c r="BH4" s="254"/>
+      <c r="BI4" s="254"/>
+      <c r="BJ4" s="254"/>
+      <c r="BK4" s="254"/>
+      <c r="BL4" s="254"/>
+      <c r="BM4" s="254"/>
+      <c r="BN4" s="254"/>
+      <c r="BO4" s="254"/>
+      <c r="BP4" s="254"/>
+      <c r="BQ4" s="254"/>
+      <c r="BR4" s="254"/>
+      <c r="BS4" s="254"/>
+      <c r="BT4" s="254"/>
+      <c r="BU4" s="254"/>
+      <c r="BV4" s="254"/>
+      <c r="BW4" s="254"/>
+      <c r="BX4" s="254"/>
+      <c r="BY4" s="254"/>
+      <c r="BZ4" s="254"/>
+      <c r="CA4" s="254"/>
+      <c r="CB4" s="254"/>
+      <c r="CC4" s="254"/>
+      <c r="CD4" s="254"/>
+      <c r="CE4" s="254"/>
+      <c r="CF4" s="254"/>
+      <c r="CG4" s="254"/>
+      <c r="CH4" s="254"/>
+      <c r="CI4" s="254"/>
+      <c r="CJ4" s="254"/>
+      <c r="CK4" s="254"/>
+      <c r="CL4" s="254"/>
+      <c r="CM4" s="254"/>
+      <c r="CN4" s="254"/>
+      <c r="CO4" s="254"/>
+      <c r="CP4" s="254"/>
+      <c r="CQ4" s="254"/>
+      <c r="CR4" s="254"/>
+      <c r="CS4" s="254"/>
+      <c r="CT4" s="254"/>
+      <c r="CU4" s="254"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -21653,278 +22510,278 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="276" t="s">
+      <c r="A6" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="279" t="s">
+      <c r="C6" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="282" t="s">
+      <c r="F6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
-      <c r="Y6" s="252"/>
-      <c r="Z6" s="252"/>
-      <c r="AA6" s="252"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="252"/>
-      <c r="AD6" s="252"/>
-      <c r="AE6" s="252"/>
-      <c r="AF6" s="252"/>
-      <c r="AG6" s="252"/>
-      <c r="AH6" s="252"/>
-      <c r="AI6" s="252"/>
-      <c r="AJ6" s="252"/>
-      <c r="AK6" s="252"/>
-      <c r="AL6" s="252"/>
-      <c r="AM6" s="252"/>
-      <c r="AN6" s="252"/>
-      <c r="AO6" s="252"/>
-      <c r="AP6" s="252"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="252"/>
-      <c r="AT6" s="252"/>
-      <c r="AU6" s="252"/>
-      <c r="AV6" s="252"/>
-      <c r="AW6" s="252"/>
-      <c r="AX6" s="252"/>
-      <c r="AY6" s="252"/>
-      <c r="AZ6" s="252"/>
-      <c r="BA6" s="252"/>
-      <c r="BB6" s="252"/>
-      <c r="BC6" s="252"/>
-      <c r="BD6" s="252"/>
-      <c r="BE6" s="252"/>
-      <c r="BF6" s="252"/>
-      <c r="BG6" s="252"/>
-      <c r="BH6" s="252"/>
-      <c r="BI6" s="252"/>
-      <c r="BJ6" s="252"/>
-      <c r="BK6" s="252"/>
-      <c r="BL6" s="252"/>
-      <c r="BM6" s="252"/>
-      <c r="BN6" s="252"/>
-      <c r="BO6" s="252"/>
-      <c r="BP6" s="252"/>
-      <c r="BQ6" s="252"/>
-      <c r="BR6" s="252"/>
-      <c r="BS6" s="252"/>
-      <c r="BT6" s="252"/>
-      <c r="BU6" s="252"/>
-      <c r="BV6" s="252"/>
-      <c r="BW6" s="252"/>
-      <c r="BX6" s="252"/>
-      <c r="BY6" s="252"/>
-      <c r="BZ6" s="252"/>
-      <c r="CA6" s="252"/>
-      <c r="CB6" s="252"/>
-      <c r="CC6" s="252"/>
-      <c r="CD6" s="252"/>
-      <c r="CE6" s="252"/>
-      <c r="CF6" s="252"/>
-      <c r="CG6" s="252"/>
-      <c r="CH6" s="252"/>
-      <c r="CI6" s="252"/>
-      <c r="CJ6" s="252"/>
-      <c r="CK6" s="252"/>
-      <c r="CL6" s="252"/>
-      <c r="CM6" s="252"/>
-      <c r="CN6" s="252"/>
-      <c r="CO6" s="252"/>
-      <c r="CP6" s="252"/>
-      <c r="CQ6" s="252"/>
-      <c r="CR6" s="252"/>
-      <c r="CS6" s="252"/>
-      <c r="CT6" s="252"/>
-      <c r="CU6" s="252"/>
-      <c r="CV6" s="266" t="s">
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="280"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="280"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
+      <c r="AJ6" s="280"/>
+      <c r="AK6" s="280"/>
+      <c r="AL6" s="280"/>
+      <c r="AM6" s="280"/>
+      <c r="AN6" s="280"/>
+      <c r="AO6" s="280"/>
+      <c r="AP6" s="280"/>
+      <c r="AQ6" s="280"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="280"/>
+      <c r="AT6" s="280"/>
+      <c r="AU6" s="280"/>
+      <c r="AV6" s="280"/>
+      <c r="AW6" s="280"/>
+      <c r="AX6" s="280"/>
+      <c r="AY6" s="280"/>
+      <c r="AZ6" s="280"/>
+      <c r="BA6" s="280"/>
+      <c r="BB6" s="280"/>
+      <c r="BC6" s="280"/>
+      <c r="BD6" s="280"/>
+      <c r="BE6" s="280"/>
+      <c r="BF6" s="280"/>
+      <c r="BG6" s="280"/>
+      <c r="BH6" s="280"/>
+      <c r="BI6" s="280"/>
+      <c r="BJ6" s="280"/>
+      <c r="BK6" s="280"/>
+      <c r="BL6" s="280"/>
+      <c r="BM6" s="280"/>
+      <c r="BN6" s="280"/>
+      <c r="BO6" s="280"/>
+      <c r="BP6" s="280"/>
+      <c r="BQ6" s="280"/>
+      <c r="BR6" s="280"/>
+      <c r="BS6" s="280"/>
+      <c r="BT6" s="280"/>
+      <c r="BU6" s="280"/>
+      <c r="BV6" s="280"/>
+      <c r="BW6" s="280"/>
+      <c r="BX6" s="280"/>
+      <c r="BY6" s="280"/>
+      <c r="BZ6" s="280"/>
+      <c r="CA6" s="280"/>
+      <c r="CB6" s="280"/>
+      <c r="CC6" s="280"/>
+      <c r="CD6" s="280"/>
+      <c r="CE6" s="280"/>
+      <c r="CF6" s="280"/>
+      <c r="CG6" s="280"/>
+      <c r="CH6" s="280"/>
+      <c r="CI6" s="280"/>
+      <c r="CJ6" s="280"/>
+      <c r="CK6" s="280"/>
+      <c r="CL6" s="280"/>
+      <c r="CM6" s="280"/>
+      <c r="CN6" s="280"/>
+      <c r="CO6" s="280"/>
+      <c r="CP6" s="280"/>
+      <c r="CQ6" s="280"/>
+      <c r="CR6" s="280"/>
+      <c r="CS6" s="280"/>
+      <c r="CT6" s="280"/>
+      <c r="CU6" s="280"/>
+      <c r="CV6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="267"/>
-      <c r="CX6" s="266" t="s">
+      <c r="CW6" s="243"/>
+      <c r="CX6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="270"/>
-      <c r="CZ6" s="270"/>
-      <c r="DA6" s="270"/>
-      <c r="DB6" s="270"/>
-      <c r="DC6" s="270"/>
-      <c r="DD6" s="270"/>
-      <c r="DE6" s="270"/>
-      <c r="DF6" s="270"/>
-      <c r="DG6" s="270"/>
-      <c r="DH6" s="242" t="s">
+      <c r="CY6" s="246"/>
+      <c r="CZ6" s="246"/>
+      <c r="DA6" s="246"/>
+      <c r="DB6" s="246"/>
+      <c r="DC6" s="246"/>
+      <c r="DD6" s="246"/>
+      <c r="DE6" s="246"/>
+      <c r="DF6" s="246"/>
+      <c r="DG6" s="246"/>
+      <c r="DH6" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="245" t="s">
+      <c r="DI6" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="255" t="s">
+      <c r="DJ6" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="255"/>
-      <c r="DL6" s="255"/>
-      <c r="DM6" s="255"/>
-      <c r="DN6" s="255"/>
-      <c r="DO6" s="256"/>
+      <c r="DK6" s="231"/>
+      <c r="DL6" s="231"/>
+      <c r="DM6" s="231"/>
+      <c r="DN6" s="231"/>
+      <c r="DO6" s="232"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="274"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="253"/>
-      <c r="AB7" s="253"/>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="253"/>
-      <c r="AG7" s="253"/>
-      <c r="AH7" s="253"/>
-      <c r="AI7" s="253"/>
-      <c r="AJ7" s="253"/>
-      <c r="AK7" s="253"/>
-      <c r="AL7" s="253"/>
-      <c r="AM7" s="253"/>
-      <c r="AN7" s="253"/>
-      <c r="AO7" s="253"/>
-      <c r="AP7" s="253"/>
-      <c r="AQ7" s="253"/>
-      <c r="AR7" s="253"/>
-      <c r="AS7" s="253"/>
-      <c r="AT7" s="253"/>
-      <c r="AU7" s="253"/>
-      <c r="AV7" s="253"/>
-      <c r="AW7" s="253"/>
-      <c r="AX7" s="253"/>
-      <c r="AY7" s="253"/>
-      <c r="AZ7" s="253"/>
-      <c r="BA7" s="253"/>
-      <c r="BB7" s="253"/>
-      <c r="BC7" s="253"/>
-      <c r="BD7" s="253"/>
-      <c r="BE7" s="253"/>
-      <c r="BF7" s="253"/>
-      <c r="BG7" s="253"/>
-      <c r="BH7" s="253"/>
-      <c r="BI7" s="253"/>
-      <c r="BJ7" s="253"/>
-      <c r="BK7" s="253"/>
-      <c r="BL7" s="253"/>
-      <c r="BM7" s="253"/>
-      <c r="BN7" s="253"/>
-      <c r="BO7" s="254"/>
-      <c r="BP7" s="254"/>
-      <c r="BQ7" s="254"/>
-      <c r="BR7" s="253"/>
-      <c r="BS7" s="253"/>
-      <c r="BT7" s="253"/>
-      <c r="BU7" s="253"/>
-      <c r="BV7" s="253"/>
-      <c r="BW7" s="253"/>
-      <c r="BX7" s="253"/>
-      <c r="BY7" s="253"/>
-      <c r="BZ7" s="253"/>
-      <c r="CA7" s="253"/>
-      <c r="CB7" s="253"/>
-      <c r="CC7" s="253"/>
-      <c r="CD7" s="253"/>
-      <c r="CE7" s="253"/>
-      <c r="CF7" s="253"/>
-      <c r="CG7" s="253"/>
-      <c r="CH7" s="253"/>
-      <c r="CI7" s="253"/>
-      <c r="CJ7" s="253"/>
-      <c r="CK7" s="253"/>
-      <c r="CL7" s="253"/>
-      <c r="CM7" s="253"/>
-      <c r="CN7" s="253"/>
-      <c r="CO7" s="253"/>
-      <c r="CP7" s="253"/>
-      <c r="CQ7" s="253"/>
-      <c r="CR7" s="253"/>
-      <c r="CS7" s="253"/>
-      <c r="CT7" s="253"/>
-      <c r="CU7" s="253"/>
-      <c r="CV7" s="268"/>
-      <c r="CW7" s="269"/>
-      <c r="CX7" s="268"/>
-      <c r="CY7" s="271"/>
-      <c r="CZ7" s="271"/>
-      <c r="DA7" s="271"/>
-      <c r="DB7" s="271"/>
-      <c r="DC7" s="271"/>
-      <c r="DD7" s="271"/>
-      <c r="DE7" s="271"/>
-      <c r="DF7" s="271"/>
-      <c r="DG7" s="271"/>
-      <c r="DH7" s="243"/>
-      <c r="DI7" s="246"/>
-      <c r="DJ7" s="257"/>
-      <c r="DK7" s="257"/>
-      <c r="DL7" s="257"/>
-      <c r="DM7" s="257"/>
-      <c r="DN7" s="257"/>
-      <c r="DO7" s="258"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="281"/>
+      <c r="BL7" s="281"/>
+      <c r="BM7" s="281"/>
+      <c r="BN7" s="281"/>
+      <c r="BO7" s="282"/>
+      <c r="BP7" s="282"/>
+      <c r="BQ7" s="282"/>
+      <c r="BR7" s="281"/>
+      <c r="BS7" s="281"/>
+      <c r="BT7" s="281"/>
+      <c r="BU7" s="281"/>
+      <c r="BV7" s="281"/>
+      <c r="BW7" s="281"/>
+      <c r="BX7" s="281"/>
+      <c r="BY7" s="281"/>
+      <c r="BZ7" s="281"/>
+      <c r="CA7" s="281"/>
+      <c r="CB7" s="281"/>
+      <c r="CC7" s="281"/>
+      <c r="CD7" s="281"/>
+      <c r="CE7" s="281"/>
+      <c r="CF7" s="281"/>
+      <c r="CG7" s="281"/>
+      <c r="CH7" s="281"/>
+      <c r="CI7" s="281"/>
+      <c r="CJ7" s="281"/>
+      <c r="CK7" s="281"/>
+      <c r="CL7" s="281"/>
+      <c r="CM7" s="281"/>
+      <c r="CN7" s="281"/>
+      <c r="CO7" s="281"/>
+      <c r="CP7" s="281"/>
+      <c r="CQ7" s="281"/>
+      <c r="CR7" s="281"/>
+      <c r="CS7" s="281"/>
+      <c r="CT7" s="281"/>
+      <c r="CU7" s="281"/>
+      <c r="CV7" s="244"/>
+      <c r="CW7" s="245"/>
+      <c r="CX7" s="244"/>
+      <c r="CY7" s="247"/>
+      <c r="CZ7" s="247"/>
+      <c r="DA7" s="247"/>
+      <c r="DB7" s="247"/>
+      <c r="DC7" s="247"/>
+      <c r="DD7" s="247"/>
+      <c r="DE7" s="247"/>
+      <c r="DF7" s="247"/>
+      <c r="DG7" s="247"/>
+      <c r="DH7" s="271"/>
+      <c r="DI7" s="274"/>
+      <c r="DJ7" s="233"/>
+      <c r="DK7" s="233"/>
+      <c r="DL7" s="233"/>
+      <c r="DM7" s="233"/>
+      <c r="DN7" s="233"/>
+      <c r="DO7" s="234"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="275"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="284"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="266"/>
       <c r="G8" s="294">
         <v>1</v>
       </c>
@@ -21945,16 +22802,16 @@
       </c>
       <c r="Q8" s="286"/>
       <c r="R8" s="287"/>
-      <c r="S8" s="237">
+      <c r="S8" s="248">
         <v>5</v>
       </c>
-      <c r="T8" s="238"/>
-      <c r="U8" s="239"/>
-      <c r="V8" s="237">
+      <c r="T8" s="249"/>
+      <c r="U8" s="269"/>
+      <c r="V8" s="248">
         <v>6</v>
       </c>
-      <c r="W8" s="238"/>
-      <c r="X8" s="240"/>
+      <c r="W8" s="249"/>
+      <c r="X8" s="250"/>
       <c r="Y8" s="285">
         <v>7</v>
       </c>
@@ -21980,16 +22837,16 @@
       </c>
       <c r="AL8" s="286"/>
       <c r="AM8" s="287"/>
-      <c r="AN8" s="251">
+      <c r="AN8" s="279">
         <v>12</v>
       </c>
-      <c r="AO8" s="238"/>
-      <c r="AP8" s="239"/>
-      <c r="AQ8" s="237">
+      <c r="AO8" s="249"/>
+      <c r="AP8" s="269"/>
+      <c r="AQ8" s="248">
         <v>13</v>
       </c>
-      <c r="AR8" s="238"/>
-      <c r="AS8" s="240"/>
+      <c r="AR8" s="249"/>
+      <c r="AS8" s="250"/>
       <c r="AT8" s="288">
         <v>14</v>
       </c>
@@ -22015,16 +22872,16 @@
       </c>
       <c r="BG8" s="286"/>
       <c r="BH8" s="287"/>
-      <c r="BI8" s="251">
+      <c r="BI8" s="279">
         <v>19</v>
       </c>
-      <c r="BJ8" s="238"/>
-      <c r="BK8" s="239"/>
-      <c r="BL8" s="237">
+      <c r="BJ8" s="249"/>
+      <c r="BK8" s="269"/>
+      <c r="BL8" s="248">
         <v>20</v>
       </c>
-      <c r="BM8" s="238"/>
-      <c r="BN8" s="240"/>
+      <c r="BM8" s="249"/>
+      <c r="BN8" s="250"/>
       <c r="BO8" s="285">
         <v>21</v>
       </c>
@@ -22050,16 +22907,16 @@
       </c>
       <c r="CB8" s="286"/>
       <c r="CC8" s="289"/>
-      <c r="CD8" s="237">
+      <c r="CD8" s="248">
         <v>26</v>
       </c>
-      <c r="CE8" s="238"/>
-      <c r="CF8" s="240"/>
-      <c r="CG8" s="251">
+      <c r="CE8" s="249"/>
+      <c r="CF8" s="250"/>
+      <c r="CG8" s="279">
         <v>27</v>
       </c>
-      <c r="CH8" s="238"/>
-      <c r="CI8" s="239"/>
+      <c r="CH8" s="249"/>
+      <c r="CI8" s="269"/>
       <c r="CJ8" s="285">
         <v>28</v>
       </c>
@@ -22116,8 +22973,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="244"/>
-      <c r="DI8" s="247"/>
+      <c r="DH8" s="272"/>
+      <c r="DI8" s="275"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -22632,41 +23489,63 @@
       </c>
       <c r="BN10" s="174"/>
       <c r="BO10" s="175"/>
-      <c r="BP10" s="173"/>
+      <c r="BP10" s="173">
+        <v>8</v>
+      </c>
       <c r="BQ10" s="174"/>
       <c r="BR10" s="175"/>
-      <c r="BS10" s="173"/>
+      <c r="BS10" s="173">
+        <v>8</v>
+      </c>
       <c r="BT10" s="174"/>
       <c r="BU10" s="175"/>
-      <c r="BV10" s="173"/>
+      <c r="BV10" s="173">
+        <v>8</v>
+      </c>
       <c r="BW10" s="174"/>
       <c r="BX10" s="175"/>
-      <c r="BY10" s="173"/>
+      <c r="BY10" s="173">
+        <v>8</v>
+      </c>
       <c r="BZ10" s="174"/>
       <c r="CA10" s="175"/>
-      <c r="CB10" s="173"/>
+      <c r="CB10" s="173">
+        <v>8</v>
+      </c>
       <c r="CC10" s="174"/>
       <c r="CD10" s="175"/>
-      <c r="CE10" s="173"/>
+      <c r="CE10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="CF10" s="174"/>
       <c r="CG10" s="175"/>
-      <c r="CH10" s="173"/>
+      <c r="CH10" s="173" t="s">
+        <v>79</v>
+      </c>
       <c r="CI10" s="174"/>
       <c r="CJ10" s="175"/>
-      <c r="CK10" s="173"/>
+      <c r="CK10" s="173">
+        <v>8</v>
+      </c>
       <c r="CL10" s="174"/>
       <c r="CM10" s="175"/>
-      <c r="CN10" s="173"/>
+      <c r="CN10" s="173">
+        <v>8</v>
+      </c>
       <c r="CO10" s="174"/>
       <c r="CP10" s="175"/>
-      <c r="CQ10" s="173"/>
+      <c r="CQ10" s="173">
+        <v>8</v>
+      </c>
       <c r="CR10" s="174"/>
       <c r="CS10" s="175"/>
-      <c r="CT10" s="173"/>
+      <c r="CT10" s="173">
+        <v>8</v>
+      </c>
       <c r="CU10" s="174"/>
       <c r="CV10" s="177">
         <f t="shared" ref="CV10:CV23" si="0">IF(SUM(G10:I10)&gt;=1,1,0)+IF(SUM(J10:L10)&gt;=1,1,0)+IF(SUM(M10:O10)&gt;=1,1,0)+IF(SUM(P10:R10)&gt;=1,1,0)+IF(SUM(S10:U10)&gt;=1,1,0)+IF(SUM(V10:X10)&gt;=1,1,0)+IF(SUM(Y10:AA10)&gt;=1,1,0)+IF(SUM(AB10:AD10)&gt;=1,1,0)+IF(SUM(AE10:AG10)&gt;=1,1,0)+IF(SUM(AH10:AJ10)&gt;=1,1,0)+IF(SUM(AK10:AM10)&gt;=1,1,0)+IF(SUM(AN10:AP10)&gt;=1,1,0)+IF(SUM(AQ10:AS10)&gt;=1,1,0)+IF(SUM(AT10:AV10)&gt;=1,1,0)+IF(SUM(AW10:AY10)&gt;=1,1,0)+IF(SUM(AZ10:BB10)&gt;=1,1,0)+IF(SUM(BC10:BE10)&gt;=1,1,0)+IF(SUM(BF10:BH10)&gt;=1,1,0)+IF(SUM(BI10:BK10)&gt;=1,1,0)+IF(SUM(BL10:BN10)&gt;=1,1,0)+IF(SUM(BO10:BQ10)&gt;=1,1,0)+IF(SUM(BR10:BT10)&gt;=1,1,0)+IF(SUM(BU10:BW10)&gt;=1,1,0)+IF(SUM(BX10:BZ10)&gt;=1,1,0)+IF(SUM(CA10:CC10)&gt;=1,1,0)+IF(SUM(CD10:CF10)&gt;=1,1,0)+IF(SUM(CG10:CI10)&gt;=1,1,0)+IF(SUM(CJ10:CL10)&gt;=1,1,0)+IF(SUM(CM10:CO10)&gt;=1,1,0)+IF(SUM(CP10:CR10)&gt;=1,1,0)+IF(SUM(CS10:CU10)&gt;=1,1,0)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="CW10" s="178">
         <f t="shared" ref="CW10:CW23" si="1">IF(CK10="К",1,0)+IF(CN10="К",1,0)+IF(CQ10="К",1,0)+IF(CT10="К",1,0)+IF(CH10="К",1,0)+IF(H10="К",1,0)+IF(K10="К",1,0)+IF(N10="К",1,0)+IF(Q10="К",1,0)+IF(T10="К",1,0)+IF(W10="К",1,0)+IF(Z10="К",1,0)+IF(AC10="К",1,0)+IF(AF10="К",1,0)+IF(AI10="К",1,0)+IF(AL10="К",1,0)+IF(AO10="К",1,0)+IF(AR10="К",1,0)+IF(AU10="К",1,0)+IF(AX10="К",1,0)+IF(BA10="К",1,0)+IF(BD10="К",1,0)+IF(BG10="К",1,0)+IF(BJ10="К",1,0)+IF(BM10="К",1,0)+IF(BP10="К",1,0)+IF(BS10="К",1,0)+IF(BV10="К",1,0)+IF(BY10="К",1,0)+IF(CB10="К",1,0)+IF(CE10="К",1,0)</f>
@@ -22714,15 +23593,15 @@
       </c>
       <c r="DH10" s="178">
         <f t="shared" ref="DH10:DH22" si="12">IF(CQ10="В",1,0)+IF(CT10="В",1,0)+IF(H10="В",1,0)+IF(K10="В",1,0)+IF(N10="В",1,0)+IF(Q10="В",1,0)+IF(T10="В",1,0)+IF(W10="В",1,0)+IF(Z10="В",1,0)+IF(AC10="В",1,0)+IF(AF10="В",1,0)+IF(AI10="В",1,0)+IF(AL10="В",1,0)+IF(AO10="В",1,0)+IF(AR10="В",1,0)+IF(AU10="В",1,0)+IF(AX10="В",1,0)+IF(BA10="В",1,0)+IF(BD10="В",1,0)+IF(BG10="В",1,0)+IF(BJ10="В",1,0)+IF(BM10="В",1,0)+IF(BP10="В",1,0)+IF(BS10="В",1,0)+IF(BV10="В",1,0)+IF(BY10="В",1,0)+IF(CB10="В",1,0)+IF(CE10="В",1,0)+IF(CH10="В",1,0)+IF(CK10="В",1,0)+IF(CN10="В",1,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DI10" s="178">
         <f t="shared" ref="DI10:DI22" si="13">SUM(CV10:DH10)</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="DJ10" s="170">
         <f>SUM(G10:CU10)</f>
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="DK10" s="170">
         <v>0</v>
@@ -22746,7 +23625,7 @@
       </c>
       <c r="DS10" s="32">
         <f t="shared" si="16"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="DT10" s="32">
         <f t="shared" si="16"/>
@@ -22911,42 +23790,64 @@
         <v>79</v>
       </c>
       <c r="BN11" s="183"/>
-      <c r="BO11" s="187"/>
-      <c r="BP11" s="182"/>
-      <c r="BQ11" s="183"/>
-      <c r="BR11" s="187"/>
-      <c r="BS11" s="182"/>
-      <c r="BT11" s="183"/>
-      <c r="BU11" s="187"/>
-      <c r="BV11" s="182"/>
-      <c r="BW11" s="183"/>
-      <c r="BX11" s="187"/>
-      <c r="BY11" s="182"/>
-      <c r="BZ11" s="183"/>
-      <c r="CA11" s="187"/>
-      <c r="CB11" s="182"/>
-      <c r="CC11" s="183"/>
-      <c r="CD11" s="187"/>
-      <c r="CE11" s="182"/>
-      <c r="CF11" s="183"/>
-      <c r="CG11" s="187"/>
-      <c r="CH11" s="182"/>
-      <c r="CI11" s="183"/>
-      <c r="CJ11" s="187"/>
-      <c r="CK11" s="182"/>
-      <c r="CL11" s="183"/>
-      <c r="CM11" s="187"/>
-      <c r="CN11" s="182"/>
-      <c r="CO11" s="183"/>
-      <c r="CP11" s="187"/>
-      <c r="CQ11" s="182"/>
-      <c r="CR11" s="183"/>
-      <c r="CS11" s="187"/>
-      <c r="CT11" s="182"/>
-      <c r="CU11" s="183"/>
+      <c r="BO11" s="175"/>
+      <c r="BP11" s="173">
+        <v>8</v>
+      </c>
+      <c r="BQ11" s="174"/>
+      <c r="BR11" s="175"/>
+      <c r="BS11" s="173">
+        <v>8</v>
+      </c>
+      <c r="BT11" s="174"/>
+      <c r="BU11" s="175"/>
+      <c r="BV11" s="173">
+        <v>8</v>
+      </c>
+      <c r="BW11" s="174"/>
+      <c r="BX11" s="175"/>
+      <c r="BY11" s="173">
+        <v>8</v>
+      </c>
+      <c r="BZ11" s="174"/>
+      <c r="CA11" s="175"/>
+      <c r="CB11" s="173">
+        <v>8</v>
+      </c>
+      <c r="CC11" s="174"/>
+      <c r="CD11" s="175"/>
+      <c r="CE11" s="173" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF11" s="174"/>
+      <c r="CG11" s="175"/>
+      <c r="CH11" s="173" t="s">
+        <v>79</v>
+      </c>
+      <c r="CI11" s="174"/>
+      <c r="CJ11" s="175"/>
+      <c r="CK11" s="173">
+        <v>8</v>
+      </c>
+      <c r="CL11" s="174"/>
+      <c r="CM11" s="175"/>
+      <c r="CN11" s="173">
+        <v>8</v>
+      </c>
+      <c r="CO11" s="174"/>
+      <c r="CP11" s="175"/>
+      <c r="CQ11" s="173">
+        <v>8</v>
+      </c>
+      <c r="CR11" s="174"/>
+      <c r="CS11" s="175"/>
+      <c r="CT11" s="173">
+        <v>8</v>
+      </c>
+      <c r="CU11" s="174"/>
       <c r="CV11" s="188">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="CW11" s="189">
         <f t="shared" si="1"/>
@@ -22994,15 +23895,15 @@
       </c>
       <c r="DH11" s="189">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="DI11" s="189">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="DJ11" s="190">
         <f t="shared" ref="DJ11:DJ23" si="24">SUM(G11:CU11)</f>
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="DK11" s="190">
         <v>0</v>
@@ -23026,7 +23927,7 @@
       </c>
       <c r="DS11" s="32">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="DT11" s="32">
         <f t="shared" si="16"/>
@@ -23216,33 +24117,51 @@
         <v>79</v>
       </c>
       <c r="BW12" s="205"/>
-      <c r="BX12" s="206"/>
-      <c r="BY12" s="204"/>
-      <c r="BZ12" s="205"/>
+      <c r="BX12" s="187"/>
+      <c r="BY12" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="BZ12" s="183"/>
       <c r="CA12" s="206"/>
-      <c r="CB12" s="204"/>
+      <c r="CB12" s="204">
+        <v>11.25</v>
+      </c>
       <c r="CC12" s="205"/>
       <c r="CD12" s="206"/>
       <c r="CE12" s="204"/>
-      <c r="CF12" s="205"/>
-      <c r="CG12" s="206"/>
+      <c r="CF12" s="205">
+        <v>4</v>
+      </c>
+      <c r="CG12" s="206">
+        <v>7.25</v>
+      </c>
       <c r="CH12" s="204"/>
-      <c r="CI12" s="205"/>
-      <c r="CJ12" s="206"/>
+      <c r="CI12" s="205">
+        <v>4</v>
+      </c>
+      <c r="CJ12" s="206">
+        <v>7.25</v>
+      </c>
       <c r="CK12" s="204"/>
       <c r="CL12" s="205"/>
       <c r="CM12" s="206"/>
-      <c r="CN12" s="204"/>
+      <c r="CN12" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="CO12" s="205"/>
       <c r="CP12" s="206"/>
-      <c r="CQ12" s="204"/>
+      <c r="CQ12" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="CR12" s="205"/>
       <c r="CS12" s="206"/>
-      <c r="CT12" s="204"/>
+      <c r="CT12" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="CU12" s="205"/>
       <c r="CV12" s="209">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="CW12" s="210">
         <f t="shared" si="1"/>
@@ -23290,15 +24209,15 @@
       </c>
       <c r="DH12" s="210">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DI12" s="210">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="DJ12" s="212">
         <f t="shared" si="24"/>
-        <v>123.75</v>
+        <v>168.75</v>
       </c>
       <c r="DK12" s="213">
         <v>0</v>
@@ -23307,14 +24226,14 @@
       <c r="DM12" s="213"/>
       <c r="DN12" s="214">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="DO12" s="215">
         <v>0</v>
       </c>
       <c r="DQ12" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DR12" s="32">
         <f t="shared" si="16"/>
@@ -23358,19 +24277,19 @@
       </c>
       <c r="EB12" s="32">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EC12" s="32">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EE12" s="152">
         <f t="shared" ref="EE12:EE23" si="26">COUNTIF(G12:CU12, "4")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EF12" s="152">
         <f t="shared" ref="EF12:EF23" si="27">COUNTIF(G12:CU12, "7,25")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:136" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23508,33 +24427,51 @@
         <v>79</v>
       </c>
       <c r="BW13" s="205"/>
-      <c r="BX13" s="206"/>
-      <c r="BY13" s="204"/>
-      <c r="BZ13" s="205"/>
+      <c r="BX13" s="187"/>
+      <c r="BY13" s="182">
+        <v>11.25</v>
+      </c>
+      <c r="BZ13" s="183"/>
       <c r="CA13" s="206"/>
-      <c r="CB13" s="204"/>
+      <c r="CB13" s="204">
+        <v>11.25</v>
+      </c>
       <c r="CC13" s="205"/>
       <c r="CD13" s="206"/>
       <c r="CE13" s="204"/>
-      <c r="CF13" s="205"/>
-      <c r="CG13" s="206"/>
+      <c r="CF13" s="205">
+        <v>4</v>
+      </c>
+      <c r="CG13" s="206">
+        <v>7.25</v>
+      </c>
       <c r="CH13" s="204"/>
-      <c r="CI13" s="205"/>
-      <c r="CJ13" s="206"/>
+      <c r="CI13" s="205">
+        <v>4</v>
+      </c>
+      <c r="CJ13" s="206">
+        <v>7.25</v>
+      </c>
       <c r="CK13" s="204"/>
       <c r="CL13" s="205"/>
       <c r="CM13" s="206"/>
-      <c r="CN13" s="204"/>
+      <c r="CN13" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="CO13" s="205"/>
       <c r="CP13" s="206"/>
-      <c r="CQ13" s="204"/>
+      <c r="CQ13" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="CR13" s="205"/>
       <c r="CS13" s="206"/>
-      <c r="CT13" s="204"/>
+      <c r="CT13" s="204" t="s">
+        <v>79</v>
+      </c>
       <c r="CU13" s="205"/>
       <c r="CV13" s="216">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CW13" s="210">
         <f>IF(CK13="К",1,0)+IF(CN13="К",1,0)+IF(CQ13="К",1,0)+IF(CT13="К",1,0)+IF(CH13="К",1,0)+IF(H13="К",1,0)+IF(K13="К",1,0)+IF(N13="К",1,0)+IF(Q13="К",1,0)+IF(T13="К",1,0)+IF(W13="К",1,0)+IF(Z13="К",1,0)+IF(AC13="К",1,0)+IF(AF13="К",1,0)+IF(AI13="К",1,0)+IF(AL13="К",1,0)+IF(AO13="К",1,0)+IF(AR13="К",1,0)+IF(AU13="К",1,0)+IF(AX13="К",1,0)+IF(BA13="К",1,0)+IF(BD13="К",1,0)+IF(BG13="К",1,0)+IF(BJ13="К",1,0)+IF(BM13="К",1,0)+IF(BP13="К",1,0)+IF(BS13="К",1,0)+IF(BV13="К",1,0)+IF(BY13="К",1,0)+IF(CB13="К",1,0)+IF(CE13="К",1,0)</f>
@@ -23582,15 +24519,15 @@
       </c>
       <c r="DH13" s="210">
         <f>IF(CQ13="В",1,0)+IF(CT13="В",1,0)+IF(H13="В",1,0)+IF(K13="В",1,0)+IF(N13="В",1,0)+IF(Q13="В",1,0)+IF(T13="В",1,0)+IF(W13="В",1,0)+IF(Z13="В",1,0)+IF(AC13="В",1,0)+IF(AF13="В",1,0)+IF(AI13="В",1,0)+IF(AL13="В",1,0)+IF(AO13="В",1,0)+IF(AR13="В",1,0)+IF(AU13="В",1,0)+IF(AX13="В",1,0)+IF(BA13="В",1,0)+IF(BD13="В",1,0)+IF(BG13="В",1,0)+IF(BJ13="В",1,0)+IF(BM13="В",1,0)+IF(BP13="В",1,0)+IF(BS13="В",1,0)+IF(BV13="В",1,0)+IF(BY13="В",1,0)+IF(CB13="В",1,0)+IF(CE13="В",1,0)+IF(CH13="В",1,0)+IF(CK13="В",1,0)+IF(CN13="В",1,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DI13" s="210">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="DJ13" s="212">
         <f t="shared" si="24"/>
-        <v>33.75</v>
+        <v>78.75</v>
       </c>
       <c r="DK13" s="217">
         <v>0</v>
@@ -23599,14 +24536,14 @@
       <c r="DM13" s="217"/>
       <c r="DN13" s="218">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="DO13" s="215">
         <v>0</v>
       </c>
       <c r="DQ13" s="32">
         <f>IF(I13=4,1,0)+IF(U13=4,1,0)+IF(X13=4,1,0)+IF(AA13=4,1,0)+IF(AD13=4,1,0)+IF(AG13=4,1,0)+IF(AJ13=4,1,0)+IF(AM13=4,1,0)+IF(AP13=4,1,0)+IF(AS13=4,1,0)+IF(AV13=4,1,0)+IF(AY13=4,1,0)+IF(BB13=4,1,0)+IF(BE13=4,1,0)+IF(BH13=4,1,0)+IF(BK13=4,1,0)+IF(BN13=4,1,0)+IF(BQ13=4,1,0)+IF(BT13=4,1,0)+IF(BW13=4,1,0)+IF(BZ13=4,1,0)+IF(CC13=4,1,0)+IF(CF13=4,1,0)+IF(CI13=4,1,0)+IF(CL13=4,1,0)+IF(CO13=4,1,0)+IF(CR13=4,1,0)+IF(CU13=4,1,0)+IF(L13=4,1,0)+IF(O13=4,1,0)+IF(R13=4,1,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DR13" s="32">
         <f t="shared" si="16"/>
@@ -23650,19 +24587,19 @@
       </c>
       <c r="EB13" s="32">
         <f>IF(Q13=11.25,1,0)+IF(T13=11.25,1,0)+IF(W13=11.25,1,0)+IF(Z13=11.25,1,0)+IF(AC13=11.25,1,0)+IF(AF13=11.25,1,0)+IF(AI13=11.25,1,0)+IF(AL13=11.25,1,0)+IF(AO13=11.25,1,0)+IF(AR13=11.25,1,0)+IF(AU13=11.25,1,0)+IF(AX13=11.25,1,0)+IF(BA13=11.25,1,0)+IF(BD13=11.25,1,0)+IF(BG13=11.25,1,0)+IF(BJ13=11.25,1,0)+IF(BM13=11.25,1,0)+IF(BP13=11.25,1,0)+IF(BS13=11.25,1,0)+IF(BV13=11.25,1,0)+IF(BY13=11.25,1,0)+IF(CB13=11.25,1,0)+IF(CE13=11.25,1,0)+IF(CH13=11.25,1,0)+IF(CK13=11.25,1,0)+IF(CN13=11.25,1,0)+IF(CQ13=11.25,1,0)+IF(CT13=11.25,1,0)+IF(H13=11.25,1,0)+IF(K13=11.25,1,0)+IF(N13=11.25,1,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EC13" s="32">
         <f>IF(S13=7.25,1,0)+IF(V13=7.25,1,0)+IF(Y13=7.25,1,0)+IF(AB13=7.25,1,0)+IF(AE13=7.25,1,0)+IF(AH13=7.25,1,0)+IF(AK13=7.25,1,0)+IF(AN13=7.25,1,0)+IF(AQ13=7.25,1,0)+IF(AT13=7.25,1,0)+IF(AW13=7.25,1,0)+IF(AZ13=7.25,1,0)+IF(BC13=7.25,1,0)+IF(BF13=7.25,1,0)+IF(BI13=7.25,1,0)+IF(BL13=7.25,1,0)+IF(BO13=7.25,1,0)+IF(BR13=7.25,1,0)+IF(BU13=7.25,1,0)+IF(BX13=7.25,1,0)+IF(CA13=7.25,1,0)+IF(CD13=7.25,1,0)+IF(CG13=7.25,1,0)+IF(CJ13=7.25,1,0)+IF(CM13=7.25,1,0)+IF(CP13=7.25,1,0)+IF(CS13=7.25,1,0)+IF(G13=7.25,1,0)+IF(J13=7.25,1,0)+IF(M13=7.25,1,0)+IF(P13=7.25,1,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EE13" s="152">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EF13" s="152">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23800,35 +24737,55 @@
       </c>
       <c r="BT14" s="183"/>
       <c r="BU14" s="187"/>
-      <c r="BV14" s="182"/>
+      <c r="BV14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BW14" s="183"/>
       <c r="BX14" s="187"/>
       <c r="BY14" s="182"/>
-      <c r="BZ14" s="183"/>
-      <c r="CA14" s="187"/>
+      <c r="BZ14" s="183">
+        <v>4</v>
+      </c>
+      <c r="CA14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CB14" s="182"/>
-      <c r="CC14" s="183"/>
-      <c r="CD14" s="187"/>
+      <c r="CC14" s="183">
+        <v>4</v>
+      </c>
+      <c r="CD14" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CE14" s="182"/>
       <c r="CF14" s="183"/>
       <c r="CG14" s="187"/>
-      <c r="CH14" s="182"/>
+      <c r="CH14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CI14" s="183"/>
       <c r="CJ14" s="187"/>
-      <c r="CK14" s="182"/>
+      <c r="CK14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CL14" s="183"/>
       <c r="CM14" s="187"/>
-      <c r="CN14" s="182"/>
+      <c r="CN14" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CO14" s="183"/>
       <c r="CP14" s="187"/>
-      <c r="CQ14" s="182"/>
+      <c r="CQ14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CR14" s="183"/>
       <c r="CS14" s="187"/>
-      <c r="CT14" s="182"/>
+      <c r="CT14" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CU14" s="183"/>
       <c r="CV14" s="168">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="CW14" s="79">
         <f t="shared" si="1"/>
@@ -23876,15 +24833,15 @@
       </c>
       <c r="DH14" s="80">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DI14" s="80">
         <f t="shared" si="13"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="DJ14" s="70">
         <f t="shared" si="24"/>
-        <v>119.75</v>
+        <v>176</v>
       </c>
       <c r="DK14" s="69">
         <v>0</v>
@@ -23893,14 +24850,14 @@
       <c r="DM14" s="75"/>
       <c r="DN14" s="71">
         <f t="shared" si="14"/>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="DO14" s="72">
         <v>0</v>
       </c>
       <c r="DQ14" s="32">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DR14" s="32">
         <f t="shared" si="16"/>
@@ -23944,19 +24901,19 @@
       </c>
       <c r="EB14" s="32">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="EC14" s="32">
         <f>IF(S14=7.25,1,0)+IF(V14=7.25,1,0)+IF(Y14=7.25,1,0)+IF(AB14=7.25,1,0)+IF(AE14=7.25,1,0)+IF(AH14=7.25,1,0)+IF(AK14=7.25,1,0)+IF(AN14=7.25,1,0)+IF(AQ14=7.25,1,0)+IF(AT14=7.25,1,0)+IF(AW14=7.25,1,0)+IF(AZ14=7.25,1,0)+IF(BC14=7.25,1,0)+IF(BF14=7.25,1,0)+IF(BI14=7.25,1,0)+IF(BL14=7.25,1,0)+IF(BO14=7.25,1,0)+IF(BR14=7.25,1,0)+IF(BU14=7.25,1,0)+IF(BX14=7.25,1,0)+IF(CA14=7.25,1,0)+IF(CD14=7.25,1,0)+IF(CG14=7.25,1,0)+IF(CJ14=7.25,1,0)+IF(CM14=7.25,1,0)+IF(CP14=7.25,1,0)+IF(CS14=7.25,1,0)+IF(G14=7.25,1,0)+IF(J14=7.25,1,0)+IF(M14=7.25,1,0)+IF(P14=7.25,1,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EE14" s="152">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EF14" s="152">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24094,35 +25051,55 @@
       </c>
       <c r="BT15" s="183"/>
       <c r="BU15" s="187"/>
-      <c r="BV15" s="182"/>
+      <c r="BV15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BW15" s="183"/>
       <c r="BX15" s="187"/>
       <c r="BY15" s="182"/>
-      <c r="BZ15" s="183"/>
-      <c r="CA15" s="187"/>
+      <c r="BZ15" s="183">
+        <v>4</v>
+      </c>
+      <c r="CA15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CB15" s="182"/>
-      <c r="CC15" s="183"/>
-      <c r="CD15" s="187"/>
+      <c r="CC15" s="183">
+        <v>4</v>
+      </c>
+      <c r="CD15" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CE15" s="182"/>
       <c r="CF15" s="183"/>
       <c r="CG15" s="187"/>
-      <c r="CH15" s="182"/>
+      <c r="CH15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CI15" s="183"/>
       <c r="CJ15" s="187"/>
-      <c r="CK15" s="182"/>
+      <c r="CK15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CL15" s="183"/>
       <c r="CM15" s="187"/>
-      <c r="CN15" s="182"/>
+      <c r="CN15" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CO15" s="183"/>
       <c r="CP15" s="187"/>
-      <c r="CQ15" s="182"/>
+      <c r="CQ15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CR15" s="183"/>
       <c r="CS15" s="187"/>
-      <c r="CT15" s="182"/>
+      <c r="CT15" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CU15" s="183"/>
       <c r="CV15" s="168">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="CW15" s="79">
         <f>IF(CK15="К",1,0)+IF(CN15="К",1,0)+IF(CQ15="К",1,0)+IF(CT15="К",1,0)+IF(CH15="К",1,0)+IF(H15="К",1,0)+IF(K15="К",1,0)+IF(N15="К",1,0)+IF(Q15="К",1,0)+IF(T15="К",1,0)+IF(W15="К",1,0)+IF(Z15="К",1,0)+IF(AC15="К",1,0)+IF(AF15="К",1,0)+IF(AI15="К",1,0)+IF(AL15="К",1,0)+IF(AO15="К",1,0)+IF(AR15="К",1,0)+IF(AU15="К",1,0)+IF(AX15="К",1,0)+IF(BA15="К",1,0)+IF(BD15="К",1,0)+IF(BG15="К",1,0)+IF(BJ15="К",1,0)+IF(BM15="К",1,0)+IF(BP15="К",1,0)+IF(BS15="К",1,0)+IF(BV15="К",1,0)+IF(BY15="К",1,0)+IF(CB15="К",1,0)+IF(CE15="К",1,0)</f>
@@ -24170,15 +25147,15 @@
       </c>
       <c r="DH15" s="80">
         <f>IF(CQ15="В",1,0)+IF(CT15="В",1,0)+IF(H15="В",1,0)+IF(K15="В",1,0)+IF(N15="В",1,0)+IF(Q15="В",1,0)+IF(T15="В",1,0)+IF(W15="В",1,0)+IF(Z15="В",1,0)+IF(AC15="В",1,0)+IF(AF15="В",1,0)+IF(AI15="В",1,0)+IF(AL15="В",1,0)+IF(AO15="В",1,0)+IF(AR15="В",1,0)+IF(AU15="В",1,0)+IF(AX15="В",1,0)+IF(BA15="В",1,0)+IF(BD15="В",1,0)+IF(BG15="В",1,0)+IF(BJ15="В",1,0)+IF(BM15="В",1,0)+IF(BP15="В",1,0)+IF(BS15="В",1,0)+IF(BV15="В",1,0)+IF(BY15="В",1,0)+IF(CB15="В",1,0)+IF(CE15="В",1,0)+IF(CH15="В",1,0)+IF(CK15="В",1,0)+IF(CN15="В",1,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DI15" s="80">
         <f t="shared" si="13"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="DJ15" s="70">
         <f t="shared" si="24"/>
-        <v>119.75</v>
+        <v>176</v>
       </c>
       <c r="DK15" s="69">
         <v>0</v>
@@ -24187,14 +25164,14 @@
       <c r="DM15" s="75"/>
       <c r="DN15" s="71">
         <f t="shared" si="14"/>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="DO15" s="72">
         <v>0</v>
       </c>
       <c r="DQ15" s="32">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DR15" s="32">
         <f t="shared" si="16"/>
@@ -24238,19 +25215,19 @@
       </c>
       <c r="EB15" s="32">
         <f>IF(Q15=11.25,1,0)+IF(T15=11.25,1,0)+IF(W15=11.25,1,0)+IF(Z15=11.25,1,0)+IF(AC15=11.25,1,0)+IF(AF15=11.25,1,0)+IF(AI15=11.25,1,0)+IF(AL15=11.25,1,0)+IF(AO15=11.25,1,0)+IF(AR15=11.25,1,0)+IF(AU15=11.25,1,0)+IF(AX15=11.25,1,0)+IF(BA15=11.25,1,0)+IF(BD15=11.25,1,0)+IF(BG15=11.25,1,0)+IF(BJ15=11.25,1,0)+IF(BM15=11.25,1,0)+IF(BP15=11.25,1,0)+IF(BS15=11.25,1,0)+IF(BV15=11.25,1,0)+IF(BY15=11.25,1,0)+IF(CB15=11.25,1,0)+IF(CE15=11.25,1,0)+IF(CH15=11.25,1,0)+IF(CK15=11.25,1,0)+IF(CN15=11.25,1,0)+IF(CQ15=11.25,1,0)+IF(CT15=11.25,1,0)+IF(H15=11.25,1,0)+IF(K15=11.25,1,0)+IF(N15=11.25,1,0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="EC15" s="32">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EE15" s="152">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EF15" s="152">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24403,26 +25380,40 @@
       </c>
       <c r="CC16" s="183"/>
       <c r="CD16" s="187"/>
-      <c r="CE16" s="182"/>
+      <c r="CE16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CF16" s="183"/>
       <c r="CG16" s="187"/>
-      <c r="CH16" s="182"/>
+      <c r="CH16" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CI16" s="183"/>
       <c r="CJ16" s="187"/>
       <c r="CK16" s="182"/>
-      <c r="CL16" s="183"/>
-      <c r="CM16" s="187"/>
+      <c r="CL16" s="183">
+        <v>4</v>
+      </c>
+      <c r="CM16" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CN16" s="182"/>
-      <c r="CO16" s="183"/>
-      <c r="CP16" s="187"/>
+      <c r="CO16" s="183">
+        <v>4</v>
+      </c>
+      <c r="CP16" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CQ16" s="182"/>
       <c r="CR16" s="183"/>
       <c r="CS16" s="187"/>
-      <c r="CT16" s="182"/>
+      <c r="CT16" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CU16" s="183"/>
       <c r="CV16" s="168">
         <f>IF(SUM(G16:I16)&gt;=1,1,0)+IF(SUM(J16:L16)&gt;=1,1,0)+IF(SUM(M16:O16)&gt;=1,1,0)+IF(SUM(P16:R16)&gt;=1,1,0)+IF(SUM(S16:U16)&gt;=1,1,0)+IF(SUM(V16:X16)&gt;=1,1,0)+IF(SUM(Y16:AA16)&gt;=1,1,0)+IF(SUM(AB16:AD16)&gt;=1,1,0)+IF(SUM(AE16:AG16)&gt;=1,1,0)+IF(SUM(AH16:AJ16)&gt;=1,1,0)+IF(SUM(AK16:AM16)&gt;=1,1,0)+IF(SUM(AN16:AP16)&gt;=1,1,0)+IF(SUM(AQ16:AS16)&gt;=1,1,0)+IF(SUM(AT16:AV16)&gt;=1,1,0)+IF(SUM(AW16:AY16)&gt;=1,1,0)+IF(SUM(AZ16:BB16)&gt;=1,1,0)+IF(SUM(BC16:BE16)&gt;=1,1,0)+IF(SUM(BF16:BH16)&gt;=1,1,0)+IF(SUM(BI16:BK16)&gt;=1,1,0)+IF(SUM(BL16:BN16)&gt;=1,1,0)+IF(SUM(BO16:BQ16)&gt;=1,1,0)+IF(SUM(BR16:BT16)&gt;=1,1,0)+IF(SUM(BU16:BW16)&gt;=1,1,0)+IF(SUM(BX16:BZ16)&gt;=1,1,0)+IF(SUM(CA16:CC16)&gt;=1,1,0)+IF(SUM(CD16:CF16)&gt;=1,1,0)+IF(SUM(CG16:CI16)&gt;=1,1,0)+IF(SUM(CJ16:CL16)&gt;=1,1,0)+IF(SUM(CM16:CO16)&gt;=1,1,0)+IF(SUM(CP16:CR16)&gt;=1,1,0)+IF(SUM(CS16:CU16)&gt;=1,1,0)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="CW16" s="79">
         <f t="shared" si="1"/>
@@ -24470,15 +25461,15 @@
       </c>
       <c r="DH16" s="80">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DI16" s="80">
         <f t="shared" si="13"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="DJ16" s="70">
         <f t="shared" si="24"/>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="DK16" s="69">
         <v>0</v>
@@ -24487,14 +25478,14 @@
       <c r="DM16" s="75"/>
       <c r="DN16" s="71">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="DO16" s="72">
         <v>0</v>
       </c>
       <c r="DQ16" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DR16" s="32">
         <f t="shared" si="16"/>
@@ -24538,19 +25529,19 @@
       </c>
       <c r="EB16" s="32">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EC16" s="32">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EE16" s="152">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EF16" s="152">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24703,26 +25694,40 @@
       </c>
       <c r="CC17" s="183"/>
       <c r="CD17" s="187"/>
-      <c r="CE17" s="182"/>
+      <c r="CE17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CF17" s="183"/>
       <c r="CG17" s="187"/>
-      <c r="CH17" s="182"/>
+      <c r="CH17" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CI17" s="183"/>
       <c r="CJ17" s="187"/>
       <c r="CK17" s="182"/>
-      <c r="CL17" s="183"/>
-      <c r="CM17" s="187"/>
+      <c r="CL17" s="183">
+        <v>4</v>
+      </c>
+      <c r="CM17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CN17" s="182"/>
-      <c r="CO17" s="183"/>
-      <c r="CP17" s="187"/>
+      <c r="CO17" s="183">
+        <v>4</v>
+      </c>
+      <c r="CP17" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CQ17" s="182"/>
       <c r="CR17" s="183"/>
       <c r="CS17" s="187"/>
-      <c r="CT17" s="182"/>
+      <c r="CT17" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CU17" s="183"/>
       <c r="CV17" s="168">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="CW17" s="79">
         <f t="shared" si="1"/>
@@ -24770,15 +25775,15 @@
       </c>
       <c r="DH17" s="80">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DI17" s="80">
         <f t="shared" si="13"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="DJ17" s="70">
         <f t="shared" si="24"/>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="DK17" s="69">
         <v>0</v>
@@ -24787,14 +25792,14 @@
       <c r="DM17" s="75"/>
       <c r="DN17" s="71">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="DO17" s="72">
         <v>0</v>
       </c>
       <c r="DQ17" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DR17" s="32">
         <f t="shared" si="16"/>
@@ -24838,19 +25843,19 @@
       </c>
       <c r="EB17" s="32">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EC17" s="32">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EE17" s="152">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EF17" s="152">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25013,20 +26018,30 @@
       </c>
       <c r="CI18" s="183"/>
       <c r="CJ18" s="187"/>
-      <c r="CK18" s="182"/>
+      <c r="CK18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CL18" s="183"/>
       <c r="CM18" s="187"/>
-      <c r="CN18" s="182"/>
+      <c r="CN18" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CO18" s="183"/>
       <c r="CP18" s="187"/>
       <c r="CQ18" s="182"/>
-      <c r="CR18" s="183"/>
-      <c r="CS18" s="187"/>
+      <c r="CR18" s="183">
+        <v>4</v>
+      </c>
+      <c r="CS18" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CT18" s="182"/>
-      <c r="CU18" s="183"/>
+      <c r="CU18" s="183">
+        <v>4</v>
+      </c>
       <c r="CV18" s="168">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CW18" s="79">
         <f>IF(CK18="К",1,0)+IF(CN18="К",1,0)+IF(CQ18="К",1,0)+IF(CT18="К",1,0)+IF(CH18="К",1,0)+IF(H18="К",1,0)+IF(K18="К",1,0)+IF(N18="К",1,0)+IF(Q18="К",1,0)+IF(T18="К",1,0)+IF(W18="К",1,0)+IF(Z18="К",1,0)+IF(AC18="К",1,0)+IF(AF18="К",1,0)+IF(AI18="К",1,0)+IF(AL18="К",1,0)+IF(AO18="К",1,0)+IF(AR18="К",1,0)+IF(AU18="К",1,0)+IF(AX18="К",1,0)+IF(BA18="К",1,0)+IF(BD18="К",1,0)+IF(BG18="К",1,0)+IF(BJ18="К",1,0)+IF(BM18="К",1,0)+IF(BP18="К",1,0)+IF(BS18="К",1,0)+IF(BV18="К",1,0)+IF(BY18="К",1,0)+IF(CB18="К",1,0)+IF(CE18="К",1,0)</f>
@@ -25078,11 +26093,11 @@
       </c>
       <c r="DI18" s="80">
         <f>SUM(CV18:DH18)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="DJ18" s="70">
         <f t="shared" si="24"/>
-        <v>135</v>
+        <v>172.75</v>
       </c>
       <c r="DK18" s="69">
         <v>0</v>
@@ -25091,14 +26106,14 @@
       <c r="DM18" s="75"/>
       <c r="DN18" s="71">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="DO18" s="72">
         <v>0</v>
       </c>
       <c r="DQ18" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DR18" s="32">
         <f t="shared" si="16"/>
@@ -25142,19 +26157,19 @@
       </c>
       <c r="EB18" s="32">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EC18" s="32">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EE18" s="152">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EF18" s="152">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25317,20 +26332,30 @@
       </c>
       <c r="CI19" s="183"/>
       <c r="CJ19" s="187"/>
-      <c r="CK19" s="182"/>
+      <c r="CK19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CL19" s="183"/>
       <c r="CM19" s="187"/>
-      <c r="CN19" s="182"/>
+      <c r="CN19" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CO19" s="183"/>
       <c r="CP19" s="187"/>
       <c r="CQ19" s="182"/>
-      <c r="CR19" s="183"/>
-      <c r="CS19" s="187"/>
+      <c r="CR19" s="183">
+        <v>4</v>
+      </c>
+      <c r="CS19" s="187">
+        <v>7.25</v>
+      </c>
       <c r="CT19" s="182"/>
-      <c r="CU19" s="183"/>
+      <c r="CU19" s="183">
+        <v>4</v>
+      </c>
       <c r="CV19" s="168">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CW19" s="79">
         <f>IF(CK19="К",1,0)+IF(CN19="К",1,0)+IF(CQ19="К",1,0)+IF(CT19="К",1,0)+IF(CH19="К",1,0)+IF(H19="К",1,0)+IF(K19="К",1,0)+IF(N19="К",1,0)+IF(Q19="К",1,0)+IF(T19="К",1,0)+IF(W19="К",1,0)+IF(Z19="К",1,0)+IF(AC19="К",1,0)+IF(AF19="К",1,0)+IF(AI19="К",1,0)+IF(AL19="К",1,0)+IF(AO19="К",1,0)+IF(AR19="К",1,0)+IF(AU19="К",1,0)+IF(AX19="К",1,0)+IF(BA19="К",1,0)+IF(BD19="К",1,0)+IF(BG19="К",1,0)+IF(BJ19="К",1,0)+IF(BM19="К",1,0)+IF(BP19="К",1,0)+IF(BS19="К",1,0)+IF(BV19="К",1,0)+IF(BY19="К",1,0)+IF(CB19="К",1,0)+IF(CE19="К",1,0)</f>
@@ -25382,11 +26407,11 @@
       </c>
       <c r="DI19" s="80">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="DJ19" s="70">
         <f t="shared" si="24"/>
-        <v>135</v>
+        <v>172.75</v>
       </c>
       <c r="DK19" s="69">
         <v>0</v>
@@ -25395,14 +26420,14 @@
       <c r="DM19" s="69"/>
       <c r="DN19" s="71">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="DO19" s="72">
         <v>0</v>
       </c>
       <c r="DQ19" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DR19" s="32">
         <f t="shared" si="16"/>
@@ -25446,19 +26471,19 @@
       </c>
       <c r="EB19" s="32">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EC19" s="32">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EE19" s="152">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EF19" s="152">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:136" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25600,29 +26625,43 @@
       </c>
       <c r="BZ20" s="183"/>
       <c r="CA20" s="187"/>
-      <c r="CB20" s="182"/>
+      <c r="CB20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CC20" s="183"/>
       <c r="CD20" s="187"/>
-      <c r="CE20" s="182"/>
+      <c r="CE20" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CF20" s="183"/>
       <c r="CG20" s="187"/>
-      <c r="CH20" s="182"/>
+      <c r="CH20" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CI20" s="183"/>
       <c r="CJ20" s="187"/>
-      <c r="CK20" s="182"/>
+      <c r="CK20" s="182">
+        <v>8</v>
+      </c>
       <c r="CL20" s="183"/>
       <c r="CM20" s="187"/>
-      <c r="CN20" s="182"/>
+      <c r="CN20" s="182">
+        <v>8</v>
+      </c>
       <c r="CO20" s="183"/>
       <c r="CP20" s="187"/>
-      <c r="CQ20" s="182"/>
+      <c r="CQ20" s="182">
+        <v>8</v>
+      </c>
       <c r="CR20" s="183"/>
       <c r="CS20" s="187"/>
-      <c r="CT20" s="182"/>
+      <c r="CT20" s="182">
+        <v>8</v>
+      </c>
       <c r="CU20" s="183"/>
       <c r="CV20" s="168">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="CW20" s="79">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
@@ -25670,15 +26709,15 @@
       </c>
       <c r="DH20" s="80">
         <f>IF(CQ20="В",1,0)+IF(CT20="В",1,0)+IF(H20="В",1,0)+IF(K20="В",1,0)+IF(N20="В",1,0)+IF(Q20="В",1,0)+IF(T20="В",1,0)+IF(W20="В",1,0)+IF(Z20="В",1,0)+IF(AC20="В",1,0)+IF(AF20="В",1,0)+IF(AI20="В",1,0)+IF(AL20="В",1,0)+IF(AO20="В",1,0)+IF(AR20="В",1,0)+IF(AU20="В",1,0)+IF(AX20="В",1,0)+IF(BA20="В",1,0)+IF(BD20="В",1,0)+IF(BG20="В",1,0)+IF(BJ20="В",1,0)+IF(BM20="В",1,0)+IF(BP20="В",1,0)+IF(BS20="В",1,0)+IF(BV20="В",1,0)+IF(BY20="В",1,0)+IF(CB20="В",1,0)+IF(CE20="В",1,0)+IF(CH20="В",1,0)+IF(CK20="В",1,0)+IF(CN20="В",1,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DI20" s="80">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="DJ20" s="70">
         <f t="shared" si="24"/>
-        <v>135</v>
+        <v>189.5</v>
       </c>
       <c r="DK20" s="69">
         <v>0</v>
@@ -25702,7 +26741,7 @@
       </c>
       <c r="DS20" s="32">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DT20" s="32">
         <f t="shared" si="16"/>
@@ -25738,7 +26777,7 @@
       </c>
       <c r="EB20" s="32">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="EC20" s="32">
         <f t="shared" si="23"/>
@@ -25872,12 +26911,12 @@
       </c>
       <c r="BN21" s="183"/>
       <c r="BO21" s="187"/>
-      <c r="BP21" s="182">
+      <c r="BP21" s="295">
         <v>10.25</v>
       </c>
       <c r="BQ21" s="183"/>
       <c r="BR21" s="187"/>
-      <c r="BS21" s="182">
+      <c r="BS21" s="295">
         <v>10.25</v>
       </c>
       <c r="BT21" s="183"/>
@@ -25887,32 +26926,48 @@
       </c>
       <c r="BW21" s="183"/>
       <c r="BX21" s="187"/>
-      <c r="BY21" s="182"/>
+      <c r="BY21" s="182">
+        <v>11.25</v>
+      </c>
       <c r="BZ21" s="183"/>
       <c r="CA21" s="187"/>
-      <c r="CB21" s="182"/>
+      <c r="CB21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC21" s="183"/>
       <c r="CD21" s="187"/>
-      <c r="CE21" s="182"/>
+      <c r="CE21" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CF21" s="183"/>
       <c r="CG21" s="187"/>
-      <c r="CH21" s="182"/>
+      <c r="CH21" s="182" t="s">
+        <v>80</v>
+      </c>
       <c r="CI21" s="183"/>
       <c r="CJ21" s="187"/>
-      <c r="CK21" s="182"/>
+      <c r="CK21" s="182" t="s">
+        <v>80</v>
+      </c>
       <c r="CL21" s="183"/>
       <c r="CM21" s="187"/>
-      <c r="CN21" s="182"/>
+      <c r="CN21" s="182" t="s">
+        <v>80</v>
+      </c>
       <c r="CO21" s="183"/>
       <c r="CP21" s="187"/>
-      <c r="CQ21" s="182"/>
+      <c r="CQ21" s="182" t="s">
+        <v>80</v>
+      </c>
       <c r="CR21" s="183"/>
       <c r="CS21" s="187"/>
-      <c r="CT21" s="182"/>
+      <c r="CT21" s="182" t="s">
+        <v>80</v>
+      </c>
       <c r="CU21" s="183"/>
       <c r="CV21" s="168">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CW21" s="79">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
@@ -25920,7 +26975,7 @@
       </c>
       <c r="CX21" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CY21" s="79">
         <f>IF(CN21="Р",1,0)+IF(CQ21="Р",1,0)+IF(CT21="Р",1,0)+IF(H21="Р",1,0)+IF(K21="Р",1,0)+IF(N21="Р",1,0)+IF(Q21="Р",1,0)+IF(T21="Р",1,0)+IF(W21="Р",1,0)+IF(Z21="Р",1,0)+IF(AC21="Р",1,0)+IF(AF21="Р",1,0)+IF(AI21="Р",1,0)+IF(AL21="Р",1,0)+IF(AO21="Р",1,0)+IF(AR21="Р",1,0)+IF(AU21="Р",1,0)+IF(AX21="Р",1,0)+IF(BA21="Р",1,0)+IF(BD21="Р",1,0)+IF(BG21="Р",1,0)+IF(BJ21="Р",1,0)+IF(BM21="Р",1,0)+IF(BP21="Р",1,0)+IF(BS21="Р",1,0)+IF(BV21="Р",1,0)+IF(BY21="Р",1,0)+IF(CB21="Р",1,0)+IF(CE21="Р",1,0)+IF(CH21="Р",1,0)+IF(CK21="Р",1,0)</f>
@@ -25960,15 +27015,15 @@
       </c>
       <c r="DH21" s="80">
         <f>IF(CQ21="В",1,0)+IF(CT21="В",1,0)+IF(H21="В",1,0)+IF(K21="В",1,0)+IF(N21="В",1,0)+IF(Q21="В",1,0)+IF(T21="В",1,0)+IF(W21="В",1,0)+IF(Z21="В",1,0)+IF(AC21="В",1,0)+IF(AF21="В",1,0)+IF(AI21="В",1,0)+IF(AL21="В",1,0)+IF(AO21="В",1,0)+IF(AR21="В",1,0)+IF(AU21="В",1,0)+IF(AX21="В",1,0)+IF(BA21="В",1,0)+IF(BD21="В",1,0)+IF(BG21="В",1,0)+IF(BJ21="В",1,0)+IF(BM21="В",1,0)+IF(BP21="В",1,0)+IF(BS21="В",1,0)+IF(BV21="В",1,0)+IF(BY21="В",1,0)+IF(CB21="В",1,0)+IF(CE21="В",1,0)+IF(CH21="В",1,0)+IF(CK21="В",1,0)+IF(CN21="В",1,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DI21" s="80">
         <f>SUM(CV21:DH21)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="DJ21" s="70">
         <f t="shared" si="24"/>
-        <v>144.25</v>
+        <v>155.5</v>
       </c>
       <c r="DK21" s="69">
         <v>0</v>
@@ -26028,7 +27083,7 @@
       </c>
       <c r="EB21" s="32">
         <f>IF(Q21=11.25,1,0)+IF(T21=11.25,1,0)+IF(W21=11.25,1,0)+IF(Z21=11.25,1,0)+IF(AC21=11.25,1,0)+IF(AF21=11.25,1,0)+IF(AI21=11.25,1,0)+IF(AL21=11.25,1,0)+IF(AO21=11.25,1,0)+IF(AR21=11.25,1,0)+IF(AU21=11.25,1,0)+IF(AX21=11.25,1,0)+IF(BA21=11.25,1,0)+IF(BD21=11.25,1,0)+IF(BG21=11.25,1,0)+IF(BJ21=11.25,1,0)+IF(BM21=11.25,1,0)+IF(BP21=11.25,1,0)+IF(BS21=11.25,1,0)+IF(BV21=11.25,1,0)+IF(BY21=11.25,1,0)+IF(CB21=11.25,1,0)+IF(CE21=11.25,1,0)+IF(CH21=11.25,1,0)+IF(CK21=11.25,1,0)+IF(CN21=11.25,1,0)+IF(CQ21=11.25,1,0)+IF(CT21=11.25,1,0)+IF(H21=11.25,1,0)+IF(K21=11.25,1,0)+IF(N21=11.25,1,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EC21" s="32">
         <f t="shared" si="23"/>
@@ -26177,32 +27232,48 @@
       </c>
       <c r="BW22" s="183"/>
       <c r="BX22" s="187"/>
-      <c r="BY22" s="182"/>
+      <c r="BY22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="BZ22" s="183"/>
       <c r="CA22" s="187"/>
-      <c r="CB22" s="182"/>
+      <c r="CB22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CC22" s="183"/>
       <c r="CD22" s="187"/>
-      <c r="CE22" s="182"/>
+      <c r="CE22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CF22" s="183"/>
       <c r="CG22" s="187"/>
-      <c r="CH22" s="182"/>
+      <c r="CH22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CI22" s="183"/>
       <c r="CJ22" s="187"/>
-      <c r="CK22" s="182"/>
+      <c r="CK22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CL22" s="183"/>
       <c r="CM22" s="187"/>
-      <c r="CN22" s="182"/>
+      <c r="CN22" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CO22" s="183"/>
       <c r="CP22" s="187"/>
-      <c r="CQ22" s="182"/>
+      <c r="CQ22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CR22" s="183"/>
       <c r="CS22" s="187"/>
-      <c r="CT22" s="182"/>
+      <c r="CT22" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CU22" s="183"/>
       <c r="CV22" s="168">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="CW22" s="79">
         <f t="shared" si="1"/>
@@ -26250,15 +27321,15 @@
       </c>
       <c r="DH22" s="80">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="DI22" s="80">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="DJ22" s="70">
         <f t="shared" si="24"/>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="DK22" s="69">
         <v>0</v>
@@ -26318,7 +27389,7 @@
       </c>
       <c r="EB22" s="32">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="EC22" s="32">
         <f t="shared" si="23"/>
@@ -26472,29 +27543,43 @@
       </c>
       <c r="BZ23" s="183"/>
       <c r="CA23" s="187"/>
-      <c r="CB23" s="182"/>
+      <c r="CB23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CC23" s="183"/>
       <c r="CD23" s="187"/>
-      <c r="CE23" s="182"/>
+      <c r="CE23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CF23" s="183"/>
       <c r="CG23" s="187"/>
-      <c r="CH23" s="182"/>
+      <c r="CH23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CI23" s="183"/>
       <c r="CJ23" s="187"/>
-      <c r="CK23" s="182"/>
+      <c r="CK23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CL23" s="183"/>
       <c r="CM23" s="187"/>
-      <c r="CN23" s="182"/>
+      <c r="CN23" s="182">
+        <v>11.25</v>
+      </c>
       <c r="CO23" s="183"/>
       <c r="CP23" s="187"/>
-      <c r="CQ23" s="182"/>
+      <c r="CQ23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CR23" s="183"/>
       <c r="CS23" s="187"/>
-      <c r="CT23" s="182"/>
+      <c r="CT23" s="182" t="s">
+        <v>79</v>
+      </c>
       <c r="CU23" s="183"/>
       <c r="CV23" s="168">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CW23" s="79">
         <f t="shared" si="1"/>
@@ -26542,15 +27627,15 @@
       </c>
       <c r="DH23" s="80">
         <f>IF(CQ23="В",1,0)+IF(CT23="В",1,0)+IF(H23="В",1,0)+IF(K23="В",1,0)+IF(N23="В",1,0)+IF(Q23="В",1,0)+IF(T23="В",1,0)+IF(W23="В",1,0)+IF(Z23="В",1,0)+IF(AC23="В",1,0)+IF(AF23="В",1,0)+IF(AI23="В",1,0)+IF(AL23="В",1,0)+IF(AO23="В",1,0)+IF(AR23="В",1,0)+IF(AU23="В",1,0)+IF(AX23="В",1,0)+IF(BA23="В",1,0)+IF(BD23="В",1,0)+IF(BG23="В",1,0)+IF(BJ23="В",1,0)+IF(BM23="В",1,0)+IF(BP23="В",1,0)+IF(BS23="В",1,0)+IF(BV23="В",1,0)+IF(BY23="В",1,0)+IF(CB23="В",1,0)+IF(CE23="В",1,0)+IF(CH23="В",1,0)+IF(CK23="В",1,0)+IF(CN23="В",1,0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="DI23" s="80">
         <f>SUM(CV23:DH23)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="DJ23" s="70">
         <f t="shared" si="24"/>
-        <v>135</v>
+        <v>168.75</v>
       </c>
       <c r="DK23" s="70">
         <v>8</v>
@@ -26610,7 +27695,7 @@
       </c>
       <c r="EB23" s="32">
         <f>IF(Q23=11.25,1,0)+IF(T23=11.25,1,0)+IF(W23=11.25,1,0)+IF(Z23=11.25,1,0)+IF(AC23=11.25,1,0)+IF(AF23=11.25,1,0)+IF(AI23=11.25,1,0)+IF(AL23=11.25,1,0)+IF(AO23=11.25,1,0)+IF(AR23=11.25,1,0)+IF(AU23=11.25,1,0)+IF(AX23=11.25,1,0)+IF(BA23=11.25,1,0)+IF(BD23=11.25,1,0)+IF(BG23=11.25,1,0)+IF(BJ23=11.25,1,0)+IF(BM23=11.25,1,0)+IF(BP23=11.25,1,0)+IF(BS23=11.25,1,0)+IF(BV23=11.25,1,0)+IF(BY23=11.25,1,0)+IF(CB23=11.25,1,0)+IF(CE23=11.25,1,0)+IF(CH23=11.25,1,0)+IF(CK23=11.25,1,0)+IF(CN23=11.25,1,0)+IF(CQ23=11.25,1,0)+IF(CT23=11.25,1,0)+IF(H23=11.25,1,0)+IF(K23=11.25,1,0)+IF(N23=11.25,1,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="EC23" s="32">
         <f t="shared" si="23"/>
@@ -26727,7 +27812,7 @@
       <c r="CU24" s="122"/>
       <c r="CV24" s="97">
         <f t="shared" ref="CV24:DO24" si="28">SUM(CV10:CV23)</f>
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="CW24" s="81">
         <f t="shared" si="28"/>
@@ -26735,7 +27820,7 @@
       </c>
       <c r="CX24" s="97">
         <f t="shared" si="28"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="CY24" s="81">
         <f t="shared" si="28"/>
@@ -26775,15 +27860,15 @@
       </c>
       <c r="DH24" s="81">
         <f t="shared" si="28"/>
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="DI24" s="97">
         <f t="shared" si="28"/>
-        <v>328</v>
+        <v>434</v>
       </c>
       <c r="DJ24" s="77">
         <f t="shared" si="28"/>
-        <v>1680.25</v>
+        <v>2336.75</v>
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
@@ -26799,7 +27884,7 @@
       </c>
       <c r="DN24" s="77">
         <f t="shared" si="28"/>
-        <v>380</v>
+        <v>496</v>
       </c>
       <c r="DO24" s="77">
         <f t="shared" si="28"/>
@@ -27258,45 +28343,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="231"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
-      <c r="O31" s="231"/>
-      <c r="P31" s="231"/>
-      <c r="Q31" s="231"/>
-      <c r="R31" s="231"/>
-      <c r="S31" s="231"/>
-      <c r="T31" s="231"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="231"/>
-      <c r="W31" s="231"/>
-      <c r="X31" s="231"/>
-      <c r="Y31" s="231"/>
-      <c r="Z31" s="231"/>
-      <c r="AA31" s="231"/>
-      <c r="AB31" s="231"/>
-      <c r="AC31" s="231"/>
-      <c r="AD31" s="231"/>
-      <c r="AE31" s="231"/>
-      <c r="AF31" s="231"/>
-      <c r="AG31" s="231"/>
-      <c r="AH31" s="231"/>
-      <c r="AI31" s="231"/>
-      <c r="AJ31" s="231"/>
-      <c r="AK31" s="231"/>
-      <c r="AL31" s="231"/>
-      <c r="AM31" s="231"/>
-      <c r="AN31" s="231"/>
-      <c r="AO31" s="231"/>
-      <c r="AP31" s="231"/>
-      <c r="AQ31" s="231"/>
-      <c r="AR31" s="231"/>
-      <c r="AS31" s="231"/>
+      <c r="G31" s="283"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="283"/>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="283"/>
+      <c r="Q31" s="283"/>
+      <c r="R31" s="283"/>
+      <c r="S31" s="283"/>
+      <c r="T31" s="283"/>
+      <c r="U31" s="283"/>
+      <c r="V31" s="283"/>
+      <c r="W31" s="283"/>
+      <c r="X31" s="283"/>
+      <c r="Y31" s="283"/>
+      <c r="Z31" s="283"/>
+      <c r="AA31" s="283"/>
+      <c r="AB31" s="283"/>
+      <c r="AC31" s="283"/>
+      <c r="AD31" s="283"/>
+      <c r="AE31" s="283"/>
+      <c r="AF31" s="283"/>
+      <c r="AG31" s="283"/>
+      <c r="AH31" s="283"/>
+      <c r="AI31" s="283"/>
+      <c r="AJ31" s="283"/>
+      <c r="AK31" s="283"/>
+      <c r="AL31" s="283"/>
+      <c r="AM31" s="283"/>
+      <c r="AN31" s="283"/>
+      <c r="AO31" s="283"/>
+      <c r="AP31" s="283"/>
+      <c r="AQ31" s="283"/>
+      <c r="AR31" s="283"/>
+      <c r="AS31" s="283"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -27601,45 +28686,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
-      <c r="Q35" s="231"/>
-      <c r="R35" s="231"/>
-      <c r="S35" s="231"/>
-      <c r="T35" s="231"/>
-      <c r="U35" s="231"/>
-      <c r="V35" s="231"/>
-      <c r="W35" s="231"/>
-      <c r="X35" s="231"/>
-      <c r="Y35" s="231"/>
-      <c r="Z35" s="231"/>
-      <c r="AA35" s="231"/>
-      <c r="AB35" s="231"/>
-      <c r="AC35" s="231"/>
-      <c r="AD35" s="231"/>
-      <c r="AE35" s="231"/>
-      <c r="AF35" s="231"/>
-      <c r="AG35" s="231"/>
-      <c r="AH35" s="231"/>
-      <c r="AI35" s="231"/>
-      <c r="AJ35" s="231"/>
-      <c r="AK35" s="231"/>
-      <c r="AL35" s="231"/>
-      <c r="AM35" s="231"/>
-      <c r="AN35" s="231"/>
-      <c r="AO35" s="231"/>
-      <c r="AP35" s="231"/>
-      <c r="AQ35" s="231"/>
-      <c r="AR35" s="231"/>
-      <c r="AS35" s="231"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="283"/>
+      <c r="I35" s="283"/>
+      <c r="J35" s="283"/>
+      <c r="K35" s="283"/>
+      <c r="L35" s="283"/>
+      <c r="M35" s="283"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="283"/>
+      <c r="P35" s="283"/>
+      <c r="Q35" s="283"/>
+      <c r="R35" s="283"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="283"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
+      <c r="W35" s="283"/>
+      <c r="X35" s="283"/>
+      <c r="Y35" s="283"/>
+      <c r="Z35" s="283"/>
+      <c r="AA35" s="283"/>
+      <c r="AB35" s="283"/>
+      <c r="AC35" s="283"/>
+      <c r="AD35" s="283"/>
+      <c r="AE35" s="283"/>
+      <c r="AF35" s="283"/>
+      <c r="AG35" s="283"/>
+      <c r="AH35" s="283"/>
+      <c r="AI35" s="283"/>
+      <c r="AJ35" s="283"/>
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="283"/>
+      <c r="AO35" s="283"/>
+      <c r="AP35" s="283"/>
+      <c r="AQ35" s="283"/>
+      <c r="AR35" s="283"/>
+      <c r="AS35" s="283"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -29797,17 +30882,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -29824,478 +30921,626 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:CU10 BC11:CU12 AW14:CU15 G16:G17 G13:CU13 AK16:CU17 AQ18:CU19 AE20:CU20 AB21:CU21 Y22:CU22 AE23:CU23">
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="О">
+  <conditionalFormatting sqref="G10:CU10 G16:G17 AB21:CU21 BC11:CU12 G13:CU13 AW14:CU15 AK16:CU17 AQ18:CU19 AE20:CU20 Y22:CU22 AE23:CU23">
+    <cfRule type="containsText" dxfId="233" priority="151" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="232" priority="152" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AD11">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="231" priority="149" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="230" priority="150" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:BB11">
-    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="229" priority="147" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="228" priority="148" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:AD12">
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="227" priority="145" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="226" priority="146" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:BB12">
-    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="225" priority="143" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="224" priority="144" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:X14">
-    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="223" priority="141" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="222" priority="142" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AV14">
-    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="221" priority="139" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="220" priority="140" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:X15">
-    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="219" priority="137" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="218" priority="138" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AV15">
-    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="217" priority="135" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="216" priority="136" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:L16">
-    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="215" priority="133" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",H16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="214" priority="134" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:AJ16">
-    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="213" priority="131" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",M16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="212" priority="132" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",M16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:L17">
-    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="211" priority="129" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",H17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="210" priority="130" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",H17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:AJ17">
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="209" priority="127" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="208" priority="128" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",M17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:R18">
-    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="207" priority="125" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="206" priority="126" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:AP18">
-    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="205" priority="123" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",S18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="204" priority="124" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",S18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:R19">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="203" priority="121" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="202" priority="122" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:AP19">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="201" priority="119" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",S19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="200" priority="120" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",S19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:AD20">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="199" priority="117" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="198" priority="118" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:AA21">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="197" priority="115" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="196" priority="116" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:AJ22">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="195" priority="113" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="194" priority="114" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:AD23">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="193" priority="111" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="192" priority="112" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="а">
+    <cfRule type="containsText" dxfId="191" priority="110" operator="containsText" text="а">
       <formula>NOT(ISERROR(SEARCH("а",AF10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:CU23">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="а">
+    <cfRule type="containsText" dxfId="190" priority="109" operator="containsText" text="а">
       <formula>NOT(ISERROR(SEARCH("а",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:BE16">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="189" priority="107" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="188" priority="108" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK17:BE17">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="187" priority="105" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="186" priority="106" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20:AP20">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="185" priority="103" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="184" priority="104" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20:BB20">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="183" priority="101" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="182" priority="102" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:AM21">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="181" priority="99" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AB21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="180" priority="100" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AB21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21:AY21">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="179" priority="97" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AN21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="178" priority="98" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AN21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AV22">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="177" priority="95" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="176" priority="96" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23:AP23">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="175" priority="93" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AE23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="174" priority="94" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AE23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ23:BB23">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="173" priority="91" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="172" priority="92" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18:BK18">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="171" priority="89" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="170" priority="90" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:BK19">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="169" priority="87" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AQ19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="168" priority="88" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AQ19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:X22">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="167" priority="85" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="166" priority="86" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22:AJ22">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="165" priority="83" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",Y22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="164" priority="84" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",Y22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22:AV22">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="163" priority="81" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AK22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="162" priority="82" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AK22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW14:BT14">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="161" priority="79" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AW14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="160" priority="80" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AW14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW15:BT15">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="159" priority="77" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AW15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="158" priority="78" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AW15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF16:BH16">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="157" priority="75" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BF16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="156" priority="76" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BF16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI16:CC16">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="155" priority="73" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BI16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="154" priority="74" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BI16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF17:BH17">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="153" priority="71" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BF17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="152" priority="72" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BF17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI17:CC17">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="151" priority="69" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BI17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="150" priority="70" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BI17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL18:BN18">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="149" priority="67" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="148" priority="68" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO18:CI18">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="147" priority="65" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BO18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="146" priority="66" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BO18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL19:BN19">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="145" priority="63" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="144" priority="64" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO19:CI19">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="143" priority="61" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BO19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="142" priority="62" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BO19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC20:BN20">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="141" priority="59" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BC20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="140" priority="60" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BC20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO20:BZ20">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="139" priority="57" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BO20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="138" priority="58" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BO20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ21:BK21">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="137" priority="55" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AZ21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="136" priority="56" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AZ21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL21:BW21">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="135" priority="53" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="134" priority="54" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22:BH22">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="133" priority="51" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AZ22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="132" priority="52" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AZ22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22:BH22">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="131" priority="49" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",AZ22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="130" priority="50" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",AZ22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL22:BT22">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="129" priority="47" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="128" priority="48" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL22:BT22">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="127" priority="45" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BL22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="126" priority="46" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BL22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC23:BN23">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="125" priority="43" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BC23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="124" priority="44" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BC23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO23:BZ23">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="О">
+    <cfRule type="containsText" dxfId="123" priority="41" operator="containsText" text="О">
       <formula>NOT(ISERROR(SEARCH("О",BO23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="в">
+    <cfRule type="containsText" dxfId="122" priority="42" operator="containsText" text="в">
       <formula>NOT(ISERROR(SEARCH("в",BO23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX12:BZ12">
+    <cfRule type="containsText" dxfId="116" priority="39" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BX12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="40" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BX12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX13:BZ13">
+    <cfRule type="containsText" dxfId="108" priority="37" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BX13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="38" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BX13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU14:CR14">
+    <cfRule type="containsText" dxfId="101" priority="35" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BU14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="36" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BU14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU15:CR15">
+    <cfRule type="containsText" dxfId="94" priority="33" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BU15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="34" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BU15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD16:CF16">
+    <cfRule type="containsText" dxfId="87" priority="31" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CD16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="32" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CD16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG16:CR16">
+    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CG16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="30" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CG16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD17:CF17">
+    <cfRule type="containsText" dxfId="76" priority="27" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CD17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="28" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CD17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG17:CR17">
+    <cfRule type="containsText" dxfId="72" priority="25" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CG17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="26" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CG17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ18:CL18">
+    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CJ18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="24" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CJ18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM18:CU18">
+    <cfRule type="containsText" dxfId="61" priority="21" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CM18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="22" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CM18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ19:CL19">
+    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CJ19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CJ19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM19:CU19">
+    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CM19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="18" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CM19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA20:CI20">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CA20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CA20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ20:CU20">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CJ20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CJ20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX22:CF22">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BX22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BX22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX22:CF22">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",BX22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",BX22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ22:CR22">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CJ22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CJ22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ22:CR22">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CJ22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CJ22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA23:CL23">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CA23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CA23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM23:CU23">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="О">
+      <formula>NOT(ISERROR(SEARCH("О",CM23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="в">
+      <formula>NOT(ISERROR(SEARCH("в",CM23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -1830,76 +1830,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1953,6 +1896,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1992,6 +1953,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,21 +2035,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3894,21 +3894,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="264" t="s">
+      <c r="CU1" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="264"/>
-      <c r="CW1" s="264"/>
-      <c r="CX1" s="264"/>
-      <c r="CY1" s="264"/>
-      <c r="CZ1" s="264"/>
-      <c r="DA1" s="264"/>
-      <c r="DB1" s="264"/>
-      <c r="DC1" s="264"/>
-      <c r="DD1" s="264"/>
-      <c r="DE1" s="264"/>
-      <c r="DF1" s="264"/>
-      <c r="DG1" s="264"/>
+      <c r="CV1" s="247"/>
+      <c r="CW1" s="247"/>
+      <c r="CX1" s="247"/>
+      <c r="CY1" s="247"/>
+      <c r="CZ1" s="247"/>
+      <c r="DA1" s="247"/>
+      <c r="DB1" s="247"/>
+      <c r="DC1" s="247"/>
+      <c r="DD1" s="247"/>
+      <c r="DE1" s="247"/>
+      <c r="DF1" s="247"/>
+      <c r="DG1" s="247"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -4009,241 +4009,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="265" t="s">
+      <c r="CU2" s="248" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="265"/>
-      <c r="CW2" s="265"/>
-      <c r="CX2" s="265"/>
-      <c r="CY2" s="265"/>
-      <c r="CZ2" s="265"/>
-      <c r="DA2" s="265"/>
-      <c r="DB2" s="265"/>
-      <c r="DC2" s="265"/>
-      <c r="DD2" s="265"/>
-      <c r="DE2" s="265"/>
-      <c r="DF2" s="265"/>
-      <c r="DG2" s="265"/>
+      <c r="CV2" s="248"/>
+      <c r="CW2" s="248"/>
+      <c r="CX2" s="248"/>
+      <c r="CY2" s="248"/>
+      <c r="CZ2" s="248"/>
+      <c r="DA2" s="248"/>
+      <c r="DB2" s="248"/>
+      <c r="DC2" s="248"/>
+      <c r="DD2" s="248"/>
+      <c r="DE2" s="248"/>
+      <c r="DF2" s="248"/>
+      <c r="DG2" s="248"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="249" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="266"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="266"/>
-      <c r="AC3" s="266"/>
-      <c r="AD3" s="266"/>
-      <c r="AE3" s="266"/>
-      <c r="AF3" s="266"/>
-      <c r="AG3" s="266"/>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="266"/>
-      <c r="AJ3" s="266"/>
-      <c r="AK3" s="266"/>
-      <c r="AL3" s="266"/>
-      <c r="AM3" s="266"/>
-      <c r="AN3" s="266"/>
-      <c r="AO3" s="266"/>
-      <c r="AP3" s="266"/>
-      <c r="AQ3" s="266"/>
-      <c r="AR3" s="266"/>
-      <c r="AS3" s="266"/>
-      <c r="AT3" s="266"/>
-      <c r="AU3" s="266"/>
-      <c r="AV3" s="266"/>
-      <c r="AW3" s="266"/>
-      <c r="AX3" s="266"/>
-      <c r="AY3" s="266"/>
-      <c r="AZ3" s="266"/>
-      <c r="BA3" s="266"/>
-      <c r="BB3" s="266"/>
-      <c r="BC3" s="266"/>
-      <c r="BD3" s="266"/>
-      <c r="BE3" s="266"/>
-      <c r="BF3" s="266"/>
-      <c r="BG3" s="266"/>
-      <c r="BH3" s="266"/>
-      <c r="BI3" s="266"/>
-      <c r="BJ3" s="266"/>
-      <c r="BK3" s="266"/>
-      <c r="BL3" s="266"/>
-      <c r="BM3" s="266"/>
-      <c r="BN3" s="266"/>
-      <c r="BO3" s="266"/>
-      <c r="BP3" s="266"/>
-      <c r="BQ3" s="266"/>
-      <c r="BR3" s="266"/>
-      <c r="BS3" s="266"/>
-      <c r="BT3" s="266"/>
-      <c r="BU3" s="266"/>
-      <c r="BV3" s="266"/>
-      <c r="BW3" s="266"/>
-      <c r="BX3" s="266"/>
-      <c r="BY3" s="266"/>
-      <c r="BZ3" s="266"/>
-      <c r="CA3" s="266"/>
-      <c r="CB3" s="266"/>
-      <c r="CC3" s="266"/>
-      <c r="CD3" s="266"/>
-      <c r="CE3" s="266"/>
-      <c r="CF3" s="266"/>
-      <c r="CG3" s="266"/>
-      <c r="CH3" s="266"/>
-      <c r="CI3" s="266"/>
-      <c r="CJ3" s="266"/>
-      <c r="CK3" s="266"/>
-      <c r="CL3" s="266"/>
-      <c r="CM3" s="266"/>
-      <c r="CN3" s="266"/>
-      <c r="CO3" s="266"/>
-      <c r="CP3" s="266"/>
-      <c r="CQ3" s="266"/>
-      <c r="CR3" s="266"/>
-      <c r="CS3" s="266"/>
-      <c r="CT3" s="266"/>
-      <c r="CU3" s="266"/>
-      <c r="CV3" s="267" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="249"/>
+      <c r="AE3" s="249"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="249"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="249"/>
+      <c r="AJ3" s="249"/>
+      <c r="AK3" s="249"/>
+      <c r="AL3" s="249"/>
+      <c r="AM3" s="249"/>
+      <c r="AN3" s="249"/>
+      <c r="AO3" s="249"/>
+      <c r="AP3" s="249"/>
+      <c r="AQ3" s="249"/>
+      <c r="AR3" s="249"/>
+      <c r="AS3" s="249"/>
+      <c r="AT3" s="249"/>
+      <c r="AU3" s="249"/>
+      <c r="AV3" s="249"/>
+      <c r="AW3" s="249"/>
+      <c r="AX3" s="249"/>
+      <c r="AY3" s="249"/>
+      <c r="AZ3" s="249"/>
+      <c r="BA3" s="249"/>
+      <c r="BB3" s="249"/>
+      <c r="BC3" s="249"/>
+      <c r="BD3" s="249"/>
+      <c r="BE3" s="249"/>
+      <c r="BF3" s="249"/>
+      <c r="BG3" s="249"/>
+      <c r="BH3" s="249"/>
+      <c r="BI3" s="249"/>
+      <c r="BJ3" s="249"/>
+      <c r="BK3" s="249"/>
+      <c r="BL3" s="249"/>
+      <c r="BM3" s="249"/>
+      <c r="BN3" s="249"/>
+      <c r="BO3" s="249"/>
+      <c r="BP3" s="249"/>
+      <c r="BQ3" s="249"/>
+      <c r="BR3" s="249"/>
+      <c r="BS3" s="249"/>
+      <c r="BT3" s="249"/>
+      <c r="BU3" s="249"/>
+      <c r="BV3" s="249"/>
+      <c r="BW3" s="249"/>
+      <c r="BX3" s="249"/>
+      <c r="BY3" s="249"/>
+      <c r="BZ3" s="249"/>
+      <c r="CA3" s="249"/>
+      <c r="CB3" s="249"/>
+      <c r="CC3" s="249"/>
+      <c r="CD3" s="249"/>
+      <c r="CE3" s="249"/>
+      <c r="CF3" s="249"/>
+      <c r="CG3" s="249"/>
+      <c r="CH3" s="249"/>
+      <c r="CI3" s="249"/>
+      <c r="CJ3" s="249"/>
+      <c r="CK3" s="249"/>
+      <c r="CL3" s="249"/>
+      <c r="CM3" s="249"/>
+      <c r="CN3" s="249"/>
+      <c r="CO3" s="249"/>
+      <c r="CP3" s="249"/>
+      <c r="CQ3" s="249"/>
+      <c r="CR3" s="249"/>
+      <c r="CS3" s="249"/>
+      <c r="CT3" s="249"/>
+      <c r="CU3" s="249"/>
+      <c r="CV3" s="250" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="267"/>
-      <c r="CX3" s="267"/>
-      <c r="CY3" s="267"/>
-      <c r="CZ3" s="267"/>
-      <c r="DA3" s="267"/>
-      <c r="DB3" s="267"/>
-      <c r="DC3" s="267"/>
-      <c r="DD3" s="267"/>
-      <c r="DE3" s="267"/>
-      <c r="DF3" s="267"/>
-      <c r="DG3" s="267"/>
+      <c r="CW3" s="250"/>
+      <c r="CX3" s="250"/>
+      <c r="CY3" s="250"/>
+      <c r="CZ3" s="250"/>
+      <c r="DA3" s="250"/>
+      <c r="DB3" s="250"/>
+      <c r="DC3" s="250"/>
+      <c r="DD3" s="250"/>
+      <c r="DE3" s="250"/>
+      <c r="DF3" s="250"/>
+      <c r="DG3" s="250"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
-      <c r="M4" s="274"/>
-      <c r="N4" s="274"/>
-      <c r="O4" s="274"/>
-      <c r="P4" s="274"/>
-      <c r="Q4" s="274"/>
-      <c r="R4" s="274"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
-      <c r="X4" s="274"/>
-      <c r="Y4" s="274"/>
-      <c r="Z4" s="274"/>
-      <c r="AA4" s="274"/>
-      <c r="AB4" s="274"/>
-      <c r="AC4" s="274"/>
-      <c r="AD4" s="274"/>
-      <c r="AE4" s="274"/>
-      <c r="AF4" s="274"/>
-      <c r="AG4" s="274"/>
-      <c r="AH4" s="274"/>
-      <c r="AI4" s="274"/>
-      <c r="AJ4" s="274"/>
-      <c r="AK4" s="274"/>
-      <c r="AL4" s="274"/>
-      <c r="AM4" s="274"/>
-      <c r="AN4" s="274"/>
-      <c r="AO4" s="274"/>
-      <c r="AP4" s="274"/>
-      <c r="AQ4" s="274"/>
-      <c r="AR4" s="274"/>
-      <c r="AS4" s="274"/>
-      <c r="AT4" s="274"/>
-      <c r="AU4" s="274"/>
-      <c r="AV4" s="274"/>
-      <c r="AW4" s="274"/>
-      <c r="AX4" s="274"/>
-      <c r="AY4" s="274"/>
-      <c r="AZ4" s="274"/>
-      <c r="BA4" s="274"/>
-      <c r="BB4" s="274"/>
-      <c r="BC4" s="274"/>
-      <c r="BD4" s="274"/>
-      <c r="BE4" s="274"/>
-      <c r="BF4" s="274"/>
-      <c r="BG4" s="274"/>
-      <c r="BH4" s="274"/>
-      <c r="BI4" s="274"/>
-      <c r="BJ4" s="274"/>
-      <c r="BK4" s="274"/>
-      <c r="BL4" s="274"/>
-      <c r="BM4" s="274"/>
-      <c r="BN4" s="274"/>
-      <c r="BO4" s="274"/>
-      <c r="BP4" s="274"/>
-      <c r="BQ4" s="274"/>
-      <c r="BR4" s="274"/>
-      <c r="BS4" s="274"/>
-      <c r="BT4" s="274"/>
-      <c r="BU4" s="274"/>
-      <c r="BV4" s="274"/>
-      <c r="BW4" s="274"/>
-      <c r="BX4" s="274"/>
-      <c r="BY4" s="274"/>
-      <c r="BZ4" s="274"/>
-      <c r="CA4" s="274"/>
-      <c r="CB4" s="274"/>
-      <c r="CC4" s="274"/>
-      <c r="CD4" s="274"/>
-      <c r="CE4" s="274"/>
-      <c r="CF4" s="274"/>
-      <c r="CG4" s="274"/>
-      <c r="CH4" s="274"/>
-      <c r="CI4" s="274"/>
-      <c r="CJ4" s="274"/>
-      <c r="CK4" s="274"/>
-      <c r="CL4" s="274"/>
-      <c r="CM4" s="274"/>
-      <c r="CN4" s="274"/>
-      <c r="CO4" s="274"/>
-      <c r="CP4" s="274"/>
-      <c r="CQ4" s="274"/>
-      <c r="CR4" s="274"/>
-      <c r="CS4" s="274"/>
-      <c r="CT4" s="274"/>
-      <c r="CU4" s="274"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
+      <c r="X4" s="263"/>
+      <c r="Y4" s="263"/>
+      <c r="Z4" s="263"/>
+      <c r="AA4" s="263"/>
+      <c r="AB4" s="263"/>
+      <c r="AC4" s="263"/>
+      <c r="AD4" s="263"/>
+      <c r="AE4" s="263"/>
+      <c r="AF4" s="263"/>
+      <c r="AG4" s="263"/>
+      <c r="AH4" s="263"/>
+      <c r="AI4" s="263"/>
+      <c r="AJ4" s="263"/>
+      <c r="AK4" s="263"/>
+      <c r="AL4" s="263"/>
+      <c r="AM4" s="263"/>
+      <c r="AN4" s="263"/>
+      <c r="AO4" s="263"/>
+      <c r="AP4" s="263"/>
+      <c r="AQ4" s="263"/>
+      <c r="AR4" s="263"/>
+      <c r="AS4" s="263"/>
+      <c r="AT4" s="263"/>
+      <c r="AU4" s="263"/>
+      <c r="AV4" s="263"/>
+      <c r="AW4" s="263"/>
+      <c r="AX4" s="263"/>
+      <c r="AY4" s="263"/>
+      <c r="AZ4" s="263"/>
+      <c r="BA4" s="263"/>
+      <c r="BB4" s="263"/>
+      <c r="BC4" s="263"/>
+      <c r="BD4" s="263"/>
+      <c r="BE4" s="263"/>
+      <c r="BF4" s="263"/>
+      <c r="BG4" s="263"/>
+      <c r="BH4" s="263"/>
+      <c r="BI4" s="263"/>
+      <c r="BJ4" s="263"/>
+      <c r="BK4" s="263"/>
+      <c r="BL4" s="263"/>
+      <c r="BM4" s="263"/>
+      <c r="BN4" s="263"/>
+      <c r="BO4" s="263"/>
+      <c r="BP4" s="263"/>
+      <c r="BQ4" s="263"/>
+      <c r="BR4" s="263"/>
+      <c r="BS4" s="263"/>
+      <c r="BT4" s="263"/>
+      <c r="BU4" s="263"/>
+      <c r="BV4" s="263"/>
+      <c r="BW4" s="263"/>
+      <c r="BX4" s="263"/>
+      <c r="BY4" s="263"/>
+      <c r="BZ4" s="263"/>
+      <c r="CA4" s="263"/>
+      <c r="CB4" s="263"/>
+      <c r="CC4" s="263"/>
+      <c r="CD4" s="263"/>
+      <c r="CE4" s="263"/>
+      <c r="CF4" s="263"/>
+      <c r="CG4" s="263"/>
+      <c r="CH4" s="263"/>
+      <c r="CI4" s="263"/>
+      <c r="CJ4" s="263"/>
+      <c r="CK4" s="263"/>
+      <c r="CL4" s="263"/>
+      <c r="CM4" s="263"/>
+      <c r="CN4" s="263"/>
+      <c r="CO4" s="263"/>
+      <c r="CP4" s="263"/>
+      <c r="CQ4" s="263"/>
+      <c r="CR4" s="263"/>
+      <c r="CS4" s="263"/>
+      <c r="CT4" s="263"/>
+      <c r="CU4" s="263"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -4373,433 +4373,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="278" t="s">
+      <c r="A6" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="281" t="s">
+      <c r="C6" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="261" t="s">
+      <c r="D6" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="261" t="s">
+      <c r="E6" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="284" t="s">
+      <c r="F6" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="254" t="s">
+      <c r="G6" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="254"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
-      <c r="AA6" s="254"/>
-      <c r="AB6" s="254"/>
-      <c r="AC6" s="254"/>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="254"/>
-      <c r="AF6" s="254"/>
-      <c r="AG6" s="254"/>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="254"/>
-      <c r="AJ6" s="254"/>
-      <c r="AK6" s="254"/>
-      <c r="AL6" s="254"/>
-      <c r="AM6" s="254"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
-      <c r="AX6" s="254"/>
-      <c r="AY6" s="254"/>
-      <c r="AZ6" s="254"/>
-      <c r="BA6" s="254"/>
-      <c r="BB6" s="254"/>
-      <c r="BC6" s="254"/>
-      <c r="BD6" s="254"/>
-      <c r="BE6" s="254"/>
-      <c r="BF6" s="254"/>
-      <c r="BG6" s="254"/>
-      <c r="BH6" s="254"/>
-      <c r="BI6" s="254"/>
-      <c r="BJ6" s="254"/>
-      <c r="BK6" s="254"/>
-      <c r="BL6" s="254"/>
-      <c r="BM6" s="254"/>
-      <c r="BN6" s="254"/>
-      <c r="BO6" s="254"/>
-      <c r="BP6" s="254"/>
-      <c r="BQ6" s="254"/>
-      <c r="BR6" s="254"/>
-      <c r="BS6" s="254"/>
-      <c r="BT6" s="254"/>
-      <c r="BU6" s="254"/>
-      <c r="BV6" s="254"/>
-      <c r="BW6" s="254"/>
-      <c r="BX6" s="254"/>
-      <c r="BY6" s="254"/>
-      <c r="BZ6" s="254"/>
-      <c r="CA6" s="254"/>
-      <c r="CB6" s="254"/>
-      <c r="CC6" s="254"/>
-      <c r="CD6" s="254"/>
-      <c r="CE6" s="254"/>
-      <c r="CF6" s="254"/>
-      <c r="CG6" s="254"/>
-      <c r="CH6" s="254"/>
-      <c r="CI6" s="254"/>
-      <c r="CJ6" s="254"/>
-      <c r="CK6" s="254"/>
-      <c r="CL6" s="254"/>
-      <c r="CM6" s="254"/>
-      <c r="CN6" s="254"/>
-      <c r="CO6" s="254"/>
-      <c r="CP6" s="254"/>
-      <c r="CQ6" s="254"/>
-      <c r="CR6" s="254"/>
-      <c r="CS6" s="254"/>
-      <c r="CT6" s="254"/>
-      <c r="CU6" s="254"/>
-      <c r="CV6" s="268" t="s">
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="289"/>
+      <c r="M6" s="289"/>
+      <c r="N6" s="289"/>
+      <c r="O6" s="289"/>
+      <c r="P6" s="289"/>
+      <c r="Q6" s="289"/>
+      <c r="R6" s="289"/>
+      <c r="S6" s="289"/>
+      <c r="T6" s="289"/>
+      <c r="U6" s="289"/>
+      <c r="V6" s="289"/>
+      <c r="W6" s="289"/>
+      <c r="X6" s="289"/>
+      <c r="Y6" s="289"/>
+      <c r="Z6" s="289"/>
+      <c r="AA6" s="289"/>
+      <c r="AB6" s="289"/>
+      <c r="AC6" s="289"/>
+      <c r="AD6" s="289"/>
+      <c r="AE6" s="289"/>
+      <c r="AF6" s="289"/>
+      <c r="AG6" s="289"/>
+      <c r="AH6" s="289"/>
+      <c r="AI6" s="289"/>
+      <c r="AJ6" s="289"/>
+      <c r="AK6" s="289"/>
+      <c r="AL6" s="289"/>
+      <c r="AM6" s="289"/>
+      <c r="AN6" s="289"/>
+      <c r="AO6" s="289"/>
+      <c r="AP6" s="289"/>
+      <c r="AQ6" s="289"/>
+      <c r="AR6" s="289"/>
+      <c r="AS6" s="289"/>
+      <c r="AT6" s="289"/>
+      <c r="AU6" s="289"/>
+      <c r="AV6" s="289"/>
+      <c r="AW6" s="289"/>
+      <c r="AX6" s="289"/>
+      <c r="AY6" s="289"/>
+      <c r="AZ6" s="289"/>
+      <c r="BA6" s="289"/>
+      <c r="BB6" s="289"/>
+      <c r="BC6" s="289"/>
+      <c r="BD6" s="289"/>
+      <c r="BE6" s="289"/>
+      <c r="BF6" s="289"/>
+      <c r="BG6" s="289"/>
+      <c r="BH6" s="289"/>
+      <c r="BI6" s="289"/>
+      <c r="BJ6" s="289"/>
+      <c r="BK6" s="289"/>
+      <c r="BL6" s="289"/>
+      <c r="BM6" s="289"/>
+      <c r="BN6" s="289"/>
+      <c r="BO6" s="289"/>
+      <c r="BP6" s="289"/>
+      <c r="BQ6" s="289"/>
+      <c r="BR6" s="289"/>
+      <c r="BS6" s="289"/>
+      <c r="BT6" s="289"/>
+      <c r="BU6" s="289"/>
+      <c r="BV6" s="289"/>
+      <c r="BW6" s="289"/>
+      <c r="BX6" s="289"/>
+      <c r="BY6" s="289"/>
+      <c r="BZ6" s="289"/>
+      <c r="CA6" s="289"/>
+      <c r="CB6" s="289"/>
+      <c r="CC6" s="289"/>
+      <c r="CD6" s="289"/>
+      <c r="CE6" s="289"/>
+      <c r="CF6" s="289"/>
+      <c r="CG6" s="289"/>
+      <c r="CH6" s="289"/>
+      <c r="CI6" s="289"/>
+      <c r="CJ6" s="289"/>
+      <c r="CK6" s="289"/>
+      <c r="CL6" s="289"/>
+      <c r="CM6" s="289"/>
+      <c r="CN6" s="289"/>
+      <c r="CO6" s="289"/>
+      <c r="CP6" s="289"/>
+      <c r="CQ6" s="289"/>
+      <c r="CR6" s="289"/>
+      <c r="CS6" s="289"/>
+      <c r="CT6" s="289"/>
+      <c r="CU6" s="289"/>
+      <c r="CV6" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="269"/>
-      <c r="CX6" s="268" t="s">
+      <c r="CW6" s="252"/>
+      <c r="CX6" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="272"/>
-      <c r="CZ6" s="272"/>
-      <c r="DA6" s="272"/>
-      <c r="DB6" s="272"/>
-      <c r="DC6" s="272"/>
-      <c r="DD6" s="272"/>
-      <c r="DE6" s="272"/>
-      <c r="DF6" s="272"/>
-      <c r="DG6" s="272"/>
-      <c r="DH6" s="244" t="s">
+      <c r="CY6" s="255"/>
+      <c r="CZ6" s="255"/>
+      <c r="DA6" s="255"/>
+      <c r="DB6" s="255"/>
+      <c r="DC6" s="255"/>
+      <c r="DD6" s="255"/>
+      <c r="DE6" s="255"/>
+      <c r="DF6" s="255"/>
+      <c r="DG6" s="255"/>
+      <c r="DH6" s="279" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="247" t="s">
+      <c r="DI6" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="257" t="s">
+      <c r="DJ6" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="257"/>
-      <c r="DL6" s="257"/>
-      <c r="DM6" s="257"/>
-      <c r="DN6" s="257"/>
-      <c r="DO6" s="258"/>
+      <c r="DK6" s="240"/>
+      <c r="DL6" s="240"/>
+      <c r="DM6" s="240"/>
+      <c r="DN6" s="240"/>
+      <c r="DO6" s="241"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="276"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="255"/>
-      <c r="Z7" s="255"/>
-      <c r="AA7" s="255"/>
-      <c r="AB7" s="255"/>
-      <c r="AC7" s="255"/>
-      <c r="AD7" s="255"/>
-      <c r="AE7" s="255"/>
-      <c r="AF7" s="255"/>
-      <c r="AG7" s="255"/>
-      <c r="AH7" s="255"/>
-      <c r="AI7" s="255"/>
-      <c r="AJ7" s="255"/>
-      <c r="AK7" s="255"/>
-      <c r="AL7" s="255"/>
-      <c r="AM7" s="255"/>
-      <c r="AN7" s="255"/>
-      <c r="AO7" s="255"/>
-      <c r="AP7" s="255"/>
-      <c r="AQ7" s="255"/>
-      <c r="AR7" s="255"/>
-      <c r="AS7" s="255"/>
-      <c r="AT7" s="255"/>
-      <c r="AU7" s="255"/>
-      <c r="AV7" s="255"/>
-      <c r="AW7" s="255"/>
-      <c r="AX7" s="255"/>
-      <c r="AY7" s="255"/>
-      <c r="AZ7" s="255"/>
-      <c r="BA7" s="255"/>
-      <c r="BB7" s="255"/>
-      <c r="BC7" s="255"/>
-      <c r="BD7" s="255"/>
-      <c r="BE7" s="255"/>
-      <c r="BF7" s="255"/>
-      <c r="BG7" s="255"/>
-      <c r="BH7" s="255"/>
-      <c r="BI7" s="255"/>
-      <c r="BJ7" s="255"/>
-      <c r="BK7" s="255"/>
-      <c r="BL7" s="255"/>
-      <c r="BM7" s="255"/>
-      <c r="BN7" s="255"/>
-      <c r="BO7" s="256"/>
-      <c r="BP7" s="256"/>
-      <c r="BQ7" s="256"/>
-      <c r="BR7" s="255"/>
-      <c r="BS7" s="255"/>
-      <c r="BT7" s="255"/>
-      <c r="BU7" s="255"/>
-      <c r="BV7" s="255"/>
-      <c r="BW7" s="255"/>
-      <c r="BX7" s="255"/>
-      <c r="BY7" s="255"/>
-      <c r="BZ7" s="255"/>
-      <c r="CA7" s="255"/>
-      <c r="CB7" s="255"/>
-      <c r="CC7" s="255"/>
-      <c r="CD7" s="255"/>
-      <c r="CE7" s="255"/>
-      <c r="CF7" s="255"/>
-      <c r="CG7" s="255"/>
-      <c r="CH7" s="255"/>
-      <c r="CI7" s="255"/>
-      <c r="CJ7" s="255"/>
-      <c r="CK7" s="255"/>
-      <c r="CL7" s="255"/>
-      <c r="CM7" s="255"/>
-      <c r="CN7" s="255"/>
-      <c r="CO7" s="255"/>
-      <c r="CP7" s="255"/>
-      <c r="CQ7" s="255"/>
-      <c r="CR7" s="255"/>
-      <c r="CS7" s="255"/>
-      <c r="CT7" s="255"/>
-      <c r="CU7" s="255"/>
-      <c r="CV7" s="270"/>
-      <c r="CW7" s="271"/>
-      <c r="CX7" s="270"/>
-      <c r="CY7" s="273"/>
-      <c r="CZ7" s="273"/>
-      <c r="DA7" s="273"/>
-      <c r="DB7" s="273"/>
-      <c r="DC7" s="273"/>
-      <c r="DD7" s="273"/>
-      <c r="DE7" s="273"/>
-      <c r="DF7" s="273"/>
-      <c r="DG7" s="273"/>
-      <c r="DH7" s="245"/>
-      <c r="DI7" s="248"/>
-      <c r="DJ7" s="259"/>
-      <c r="DK7" s="259"/>
-      <c r="DL7" s="259"/>
-      <c r="DM7" s="259"/>
-      <c r="DN7" s="259"/>
-      <c r="DO7" s="260"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="290"/>
+      <c r="K7" s="290"/>
+      <c r="L7" s="290"/>
+      <c r="M7" s="290"/>
+      <c r="N7" s="290"/>
+      <c r="O7" s="290"/>
+      <c r="P7" s="290"/>
+      <c r="Q7" s="290"/>
+      <c r="R7" s="290"/>
+      <c r="S7" s="290"/>
+      <c r="T7" s="290"/>
+      <c r="U7" s="290"/>
+      <c r="V7" s="290"/>
+      <c r="W7" s="290"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="290"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="290"/>
+      <c r="AD7" s="290"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="290"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="290"/>
+      <c r="AJ7" s="290"/>
+      <c r="AK7" s="290"/>
+      <c r="AL7" s="290"/>
+      <c r="AM7" s="290"/>
+      <c r="AN7" s="290"/>
+      <c r="AO7" s="290"/>
+      <c r="AP7" s="290"/>
+      <c r="AQ7" s="290"/>
+      <c r="AR7" s="290"/>
+      <c r="AS7" s="290"/>
+      <c r="AT7" s="290"/>
+      <c r="AU7" s="290"/>
+      <c r="AV7" s="290"/>
+      <c r="AW7" s="290"/>
+      <c r="AX7" s="290"/>
+      <c r="AY7" s="290"/>
+      <c r="AZ7" s="290"/>
+      <c r="BA7" s="290"/>
+      <c r="BB7" s="290"/>
+      <c r="BC7" s="290"/>
+      <c r="BD7" s="290"/>
+      <c r="BE7" s="290"/>
+      <c r="BF7" s="290"/>
+      <c r="BG7" s="290"/>
+      <c r="BH7" s="290"/>
+      <c r="BI7" s="290"/>
+      <c r="BJ7" s="290"/>
+      <c r="BK7" s="290"/>
+      <c r="BL7" s="290"/>
+      <c r="BM7" s="290"/>
+      <c r="BN7" s="290"/>
+      <c r="BO7" s="291"/>
+      <c r="BP7" s="291"/>
+      <c r="BQ7" s="291"/>
+      <c r="BR7" s="290"/>
+      <c r="BS7" s="290"/>
+      <c r="BT7" s="290"/>
+      <c r="BU7" s="290"/>
+      <c r="BV7" s="290"/>
+      <c r="BW7" s="290"/>
+      <c r="BX7" s="290"/>
+      <c r="BY7" s="290"/>
+      <c r="BZ7" s="290"/>
+      <c r="CA7" s="290"/>
+      <c r="CB7" s="290"/>
+      <c r="CC7" s="290"/>
+      <c r="CD7" s="290"/>
+      <c r="CE7" s="290"/>
+      <c r="CF7" s="290"/>
+      <c r="CG7" s="290"/>
+      <c r="CH7" s="290"/>
+      <c r="CI7" s="290"/>
+      <c r="CJ7" s="290"/>
+      <c r="CK7" s="290"/>
+      <c r="CL7" s="290"/>
+      <c r="CM7" s="290"/>
+      <c r="CN7" s="290"/>
+      <c r="CO7" s="290"/>
+      <c r="CP7" s="290"/>
+      <c r="CQ7" s="290"/>
+      <c r="CR7" s="290"/>
+      <c r="CS7" s="290"/>
+      <c r="CT7" s="290"/>
+      <c r="CU7" s="290"/>
+      <c r="CV7" s="253"/>
+      <c r="CW7" s="254"/>
+      <c r="CX7" s="253"/>
+      <c r="CY7" s="256"/>
+      <c r="CZ7" s="256"/>
+      <c r="DA7" s="256"/>
+      <c r="DB7" s="256"/>
+      <c r="DC7" s="256"/>
+      <c r="DD7" s="256"/>
+      <c r="DE7" s="256"/>
+      <c r="DF7" s="256"/>
+      <c r="DG7" s="256"/>
+      <c r="DH7" s="280"/>
+      <c r="DI7" s="283"/>
+      <c r="DJ7" s="242"/>
+      <c r="DK7" s="242"/>
+      <c r="DL7" s="242"/>
+      <c r="DM7" s="242"/>
+      <c r="DN7" s="242"/>
+      <c r="DO7" s="243"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="277"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="243">
+      <c r="A8" s="266"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="272"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="293">
         <v>1</v>
       </c>
-      <c r="H8" s="235"/>
-      <c r="I8" s="236"/>
-      <c r="J8" s="234">
+      <c r="H8" s="261"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="276">
         <v>2</v>
       </c>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="239">
+      <c r="K8" s="261"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="257">
         <v>3</v>
       </c>
-      <c r="N8" s="240"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="239">
+      <c r="N8" s="258"/>
+      <c r="O8" s="278"/>
+      <c r="P8" s="257">
         <v>4</v>
       </c>
-      <c r="Q8" s="240"/>
-      <c r="R8" s="242"/>
-      <c r="S8" s="234">
+      <c r="Q8" s="258"/>
+      <c r="R8" s="259"/>
+      <c r="S8" s="276">
         <v>5</v>
       </c>
-      <c r="T8" s="235"/>
-      <c r="U8" s="238"/>
-      <c r="V8" s="234">
+      <c r="T8" s="261"/>
+      <c r="U8" s="262"/>
+      <c r="V8" s="276">
         <v>6</v>
       </c>
-      <c r="W8" s="235"/>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="234">
+      <c r="W8" s="261"/>
+      <c r="X8" s="277"/>
+      <c r="Y8" s="276">
         <v>7</v>
       </c>
-      <c r="Z8" s="235"/>
-      <c r="AA8" s="236"/>
-      <c r="AB8" s="234">
+      <c r="Z8" s="261"/>
+      <c r="AA8" s="277"/>
+      <c r="AB8" s="276">
         <v>8</v>
       </c>
-      <c r="AC8" s="235"/>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="234">
+      <c r="AC8" s="261"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="276">
         <v>9</v>
       </c>
-      <c r="AF8" s="235"/>
-      <c r="AG8" s="238"/>
-      <c r="AH8" s="239">
+      <c r="AF8" s="261"/>
+      <c r="AG8" s="262"/>
+      <c r="AH8" s="257">
         <v>10</v>
       </c>
-      <c r="AI8" s="240"/>
-      <c r="AJ8" s="242"/>
-      <c r="AK8" s="239">
+      <c r="AI8" s="258"/>
+      <c r="AJ8" s="259"/>
+      <c r="AK8" s="257">
         <v>11</v>
       </c>
-      <c r="AL8" s="240"/>
-      <c r="AM8" s="242"/>
-      <c r="AN8" s="237">
+      <c r="AL8" s="258"/>
+      <c r="AM8" s="259"/>
+      <c r="AN8" s="260">
         <v>12</v>
       </c>
-      <c r="AO8" s="235"/>
-      <c r="AP8" s="238"/>
-      <c r="AQ8" s="234">
+      <c r="AO8" s="261"/>
+      <c r="AP8" s="262"/>
+      <c r="AQ8" s="276">
         <v>13</v>
       </c>
-      <c r="AR8" s="235"/>
-      <c r="AS8" s="236"/>
-      <c r="AT8" s="237">
+      <c r="AR8" s="261"/>
+      <c r="AS8" s="277"/>
+      <c r="AT8" s="260">
         <v>14</v>
       </c>
-      <c r="AU8" s="235"/>
-      <c r="AV8" s="236"/>
-      <c r="AW8" s="234">
+      <c r="AU8" s="261"/>
+      <c r="AV8" s="277"/>
+      <c r="AW8" s="276">
         <v>15</v>
       </c>
-      <c r="AX8" s="235"/>
-      <c r="AY8" s="236"/>
-      <c r="AZ8" s="234">
+      <c r="AX8" s="261"/>
+      <c r="AY8" s="277"/>
+      <c r="AZ8" s="276">
         <v>16</v>
       </c>
-      <c r="BA8" s="235"/>
-      <c r="BB8" s="236"/>
-      <c r="BC8" s="239">
+      <c r="BA8" s="261"/>
+      <c r="BB8" s="277"/>
+      <c r="BC8" s="257">
         <v>17</v>
       </c>
-      <c r="BD8" s="240"/>
-      <c r="BE8" s="241"/>
-      <c r="BF8" s="239">
+      <c r="BD8" s="258"/>
+      <c r="BE8" s="278"/>
+      <c r="BF8" s="257">
         <v>18</v>
       </c>
-      <c r="BG8" s="240"/>
-      <c r="BH8" s="242"/>
-      <c r="BI8" s="237">
+      <c r="BG8" s="258"/>
+      <c r="BH8" s="259"/>
+      <c r="BI8" s="260">
         <v>19</v>
       </c>
-      <c r="BJ8" s="235"/>
-      <c r="BK8" s="238"/>
-      <c r="BL8" s="234">
+      <c r="BJ8" s="261"/>
+      <c r="BK8" s="262"/>
+      <c r="BL8" s="276">
         <v>20</v>
       </c>
-      <c r="BM8" s="235"/>
-      <c r="BN8" s="236"/>
-      <c r="BO8" s="234">
+      <c r="BM8" s="261"/>
+      <c r="BN8" s="277"/>
+      <c r="BO8" s="276">
         <v>21</v>
       </c>
-      <c r="BP8" s="235"/>
-      <c r="BQ8" s="236"/>
-      <c r="BR8" s="234">
+      <c r="BP8" s="261"/>
+      <c r="BQ8" s="277"/>
+      <c r="BR8" s="276">
         <v>22</v>
       </c>
-      <c r="BS8" s="235"/>
-      <c r="BT8" s="236"/>
-      <c r="BU8" s="237">
+      <c r="BS8" s="261"/>
+      <c r="BT8" s="277"/>
+      <c r="BU8" s="260">
         <v>23</v>
       </c>
-      <c r="BV8" s="235"/>
-      <c r="BW8" s="238"/>
-      <c r="BX8" s="239">
+      <c r="BV8" s="261"/>
+      <c r="BW8" s="262"/>
+      <c r="BX8" s="257">
         <v>24</v>
       </c>
-      <c r="BY8" s="240"/>
-      <c r="BZ8" s="242"/>
-      <c r="CA8" s="253">
+      <c r="BY8" s="258"/>
+      <c r="BZ8" s="259"/>
+      <c r="CA8" s="288">
         <v>25</v>
       </c>
-      <c r="CB8" s="240"/>
-      <c r="CC8" s="241"/>
-      <c r="CD8" s="234">
+      <c r="CB8" s="258"/>
+      <c r="CC8" s="278"/>
+      <c r="CD8" s="276">
         <v>26</v>
       </c>
-      <c r="CE8" s="235"/>
-      <c r="CF8" s="236"/>
-      <c r="CG8" s="237">
+      <c r="CE8" s="261"/>
+      <c r="CF8" s="277"/>
+      <c r="CG8" s="260">
         <v>27</v>
       </c>
-      <c r="CH8" s="235"/>
-      <c r="CI8" s="238"/>
-      <c r="CJ8" s="234">
+      <c r="CH8" s="261"/>
+      <c r="CI8" s="262"/>
+      <c r="CJ8" s="276">
         <v>28</v>
       </c>
-      <c r="CK8" s="235"/>
-      <c r="CL8" s="236"/>
-      <c r="CM8" s="234">
+      <c r="CK8" s="261"/>
+      <c r="CL8" s="277"/>
+      <c r="CM8" s="276">
         <v>29</v>
       </c>
-      <c r="CN8" s="235"/>
-      <c r="CO8" s="236"/>
-      <c r="CP8" s="234">
+      <c r="CN8" s="261"/>
+      <c r="CO8" s="277"/>
+      <c r="CP8" s="276">
         <v>30</v>
       </c>
-      <c r="CQ8" s="235"/>
-      <c r="CR8" s="236"/>
-      <c r="CS8" s="250">
+      <c r="CQ8" s="261"/>
+      <c r="CR8" s="277"/>
+      <c r="CS8" s="285">
         <v>31</v>
       </c>
-      <c r="CT8" s="251"/>
-      <c r="CU8" s="252"/>
+      <c r="CT8" s="286"/>
+      <c r="CU8" s="287"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -4836,8 +4836,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="246"/>
-      <c r="DI8" s="249"/>
+      <c r="DH8" s="281"/>
+      <c r="DI8" s="284"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -10606,45 +10606,45 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="233"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="233"/>
-      <c r="O33" s="233"/>
-      <c r="P33" s="233"/>
-      <c r="Q33" s="233"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="233"/>
-      <c r="T33" s="233"/>
-      <c r="U33" s="233"/>
-      <c r="V33" s="233"/>
-      <c r="W33" s="233"/>
-      <c r="X33" s="233"/>
-      <c r="Y33" s="233"/>
-      <c r="Z33" s="233"/>
-      <c r="AA33" s="233"/>
-      <c r="AB33" s="233"/>
-      <c r="AC33" s="233"/>
-      <c r="AD33" s="233"/>
-      <c r="AE33" s="233"/>
-      <c r="AF33" s="233"/>
-      <c r="AG33" s="233"/>
-      <c r="AH33" s="233"/>
-      <c r="AI33" s="233"/>
-      <c r="AJ33" s="233"/>
-      <c r="AK33" s="233"/>
-      <c r="AL33" s="233"/>
-      <c r="AM33" s="233"/>
-      <c r="AN33" s="233"/>
-      <c r="AO33" s="233"/>
-      <c r="AP33" s="233"/>
-      <c r="AQ33" s="233"/>
-      <c r="AR33" s="233"/>
-      <c r="AS33" s="233"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="292"/>
+      <c r="I33" s="292"/>
+      <c r="J33" s="292"/>
+      <c r="K33" s="292"/>
+      <c r="L33" s="292"/>
+      <c r="M33" s="292"/>
+      <c r="N33" s="292"/>
+      <c r="O33" s="292"/>
+      <c r="P33" s="292"/>
+      <c r="Q33" s="292"/>
+      <c r="R33" s="292"/>
+      <c r="S33" s="292"/>
+      <c r="T33" s="292"/>
+      <c r="U33" s="292"/>
+      <c r="V33" s="292"/>
+      <c r="W33" s="292"/>
+      <c r="X33" s="292"/>
+      <c r="Y33" s="292"/>
+      <c r="Z33" s="292"/>
+      <c r="AA33" s="292"/>
+      <c r="AB33" s="292"/>
+      <c r="AC33" s="292"/>
+      <c r="AD33" s="292"/>
+      <c r="AE33" s="292"/>
+      <c r="AF33" s="292"/>
+      <c r="AG33" s="292"/>
+      <c r="AH33" s="292"/>
+      <c r="AI33" s="292"/>
+      <c r="AJ33" s="292"/>
+      <c r="AK33" s="292"/>
+      <c r="AL33" s="292"/>
+      <c r="AM33" s="292"/>
+      <c r="AN33" s="292"/>
+      <c r="AO33" s="292"/>
+      <c r="AP33" s="292"/>
+      <c r="AQ33" s="292"/>
+      <c r="AR33" s="292"/>
+      <c r="AS33" s="292"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -10949,45 +10949,45 @@
       <c r="BZ36" s="123"/>
     </row>
     <row r="37" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G37" s="233"/>
-      <c r="H37" s="233"/>
-      <c r="I37" s="233"/>
-      <c r="J37" s="233"/>
-      <c r="K37" s="233"/>
-      <c r="L37" s="233"/>
-      <c r="M37" s="233"/>
-      <c r="N37" s="233"/>
-      <c r="O37" s="233"/>
-      <c r="P37" s="233"/>
-      <c r="Q37" s="233"/>
-      <c r="R37" s="233"/>
-      <c r="S37" s="233"/>
-      <c r="T37" s="233"/>
-      <c r="U37" s="233"/>
-      <c r="V37" s="233"/>
-      <c r="W37" s="233"/>
-      <c r="X37" s="233"/>
-      <c r="Y37" s="233"/>
-      <c r="Z37" s="233"/>
-      <c r="AA37" s="233"/>
-      <c r="AB37" s="233"/>
-      <c r="AC37" s="233"/>
-      <c r="AD37" s="233"/>
-      <c r="AE37" s="233"/>
-      <c r="AF37" s="233"/>
-      <c r="AG37" s="233"/>
-      <c r="AH37" s="233"/>
-      <c r="AI37" s="233"/>
-      <c r="AJ37" s="233"/>
-      <c r="AK37" s="233"/>
-      <c r="AL37" s="233"/>
-      <c r="AM37" s="233"/>
-      <c r="AN37" s="233"/>
-      <c r="AO37" s="233"/>
-      <c r="AP37" s="233"/>
-      <c r="AQ37" s="233"/>
-      <c r="AR37" s="233"/>
-      <c r="AS37" s="233"/>
+      <c r="G37" s="292"/>
+      <c r="H37" s="292"/>
+      <c r="I37" s="292"/>
+      <c r="J37" s="292"/>
+      <c r="K37" s="292"/>
+      <c r="L37" s="292"/>
+      <c r="M37" s="292"/>
+      <c r="N37" s="292"/>
+      <c r="O37" s="292"/>
+      <c r="P37" s="292"/>
+      <c r="Q37" s="292"/>
+      <c r="R37" s="292"/>
+      <c r="S37" s="292"/>
+      <c r="T37" s="292"/>
+      <c r="U37" s="292"/>
+      <c r="V37" s="292"/>
+      <c r="W37" s="292"/>
+      <c r="X37" s="292"/>
+      <c r="Y37" s="292"/>
+      <c r="Z37" s="292"/>
+      <c r="AA37" s="292"/>
+      <c r="AB37" s="292"/>
+      <c r="AC37" s="292"/>
+      <c r="AD37" s="292"/>
+      <c r="AE37" s="292"/>
+      <c r="AF37" s="292"/>
+      <c r="AG37" s="292"/>
+      <c r="AH37" s="292"/>
+      <c r="AI37" s="292"/>
+      <c r="AJ37" s="292"/>
+      <c r="AK37" s="292"/>
+      <c r="AL37" s="292"/>
+      <c r="AM37" s="292"/>
+      <c r="AN37" s="292"/>
+      <c r="AO37" s="292"/>
+      <c r="AP37" s="292"/>
+      <c r="AQ37" s="292"/>
+      <c r="AR37" s="292"/>
+      <c r="AS37" s="292"/>
       <c r="AZ37" s="123"/>
       <c r="BA37" s="123"/>
       <c r="BB37" s="123"/>
@@ -12488,6 +12488,40 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
+    <mergeCell ref="G37:AS37"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G33:AS33"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="DI6:DI8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CS8:CU8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="CU1:DG1"/>
@@ -12504,40 +12538,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BL8:BN8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="DI6:DI8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CS8:CU8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="G37:AS37"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G33:AS33"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -12733,21 +12733,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="264" t="s">
+      <c r="CU1" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="264"/>
-      <c r="CW1" s="264"/>
-      <c r="CX1" s="264"/>
-      <c r="CY1" s="264"/>
-      <c r="CZ1" s="264"/>
-      <c r="DA1" s="264"/>
-      <c r="DB1" s="264"/>
-      <c r="DC1" s="264"/>
-      <c r="DD1" s="264"/>
-      <c r="DE1" s="264"/>
-      <c r="DF1" s="264"/>
-      <c r="DG1" s="264"/>
+      <c r="CV1" s="247"/>
+      <c r="CW1" s="247"/>
+      <c r="CX1" s="247"/>
+      <c r="CY1" s="247"/>
+      <c r="CZ1" s="247"/>
+      <c r="DA1" s="247"/>
+      <c r="DB1" s="247"/>
+      <c r="DC1" s="247"/>
+      <c r="DD1" s="247"/>
+      <c r="DE1" s="247"/>
+      <c r="DF1" s="247"/>
+      <c r="DG1" s="247"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -12848,241 +12848,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="265" t="s">
+      <c r="CU2" s="248" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="265"/>
-      <c r="CW2" s="265"/>
-      <c r="CX2" s="265"/>
-      <c r="CY2" s="265"/>
-      <c r="CZ2" s="265"/>
-      <c r="DA2" s="265"/>
-      <c r="DB2" s="265"/>
-      <c r="DC2" s="265"/>
-      <c r="DD2" s="265"/>
-      <c r="DE2" s="265"/>
-      <c r="DF2" s="265"/>
-      <c r="DG2" s="265"/>
+      <c r="CV2" s="248"/>
+      <c r="CW2" s="248"/>
+      <c r="CX2" s="248"/>
+      <c r="CY2" s="248"/>
+      <c r="CZ2" s="248"/>
+      <c r="DA2" s="248"/>
+      <c r="DB2" s="248"/>
+      <c r="DC2" s="248"/>
+      <c r="DD2" s="248"/>
+      <c r="DE2" s="248"/>
+      <c r="DF2" s="248"/>
+      <c r="DG2" s="248"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="249" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="266"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="266"/>
-      <c r="AC3" s="266"/>
-      <c r="AD3" s="266"/>
-      <c r="AE3" s="266"/>
-      <c r="AF3" s="266"/>
-      <c r="AG3" s="266"/>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="266"/>
-      <c r="AJ3" s="266"/>
-      <c r="AK3" s="266"/>
-      <c r="AL3" s="266"/>
-      <c r="AM3" s="266"/>
-      <c r="AN3" s="266"/>
-      <c r="AO3" s="266"/>
-      <c r="AP3" s="266"/>
-      <c r="AQ3" s="266"/>
-      <c r="AR3" s="266"/>
-      <c r="AS3" s="266"/>
-      <c r="AT3" s="266"/>
-      <c r="AU3" s="266"/>
-      <c r="AV3" s="266"/>
-      <c r="AW3" s="266"/>
-      <c r="AX3" s="266"/>
-      <c r="AY3" s="266"/>
-      <c r="AZ3" s="266"/>
-      <c r="BA3" s="266"/>
-      <c r="BB3" s="266"/>
-      <c r="BC3" s="266"/>
-      <c r="BD3" s="266"/>
-      <c r="BE3" s="266"/>
-      <c r="BF3" s="266"/>
-      <c r="BG3" s="266"/>
-      <c r="BH3" s="266"/>
-      <c r="BI3" s="266"/>
-      <c r="BJ3" s="266"/>
-      <c r="BK3" s="266"/>
-      <c r="BL3" s="266"/>
-      <c r="BM3" s="266"/>
-      <c r="BN3" s="266"/>
-      <c r="BO3" s="266"/>
-      <c r="BP3" s="266"/>
-      <c r="BQ3" s="266"/>
-      <c r="BR3" s="266"/>
-      <c r="BS3" s="266"/>
-      <c r="BT3" s="266"/>
-      <c r="BU3" s="266"/>
-      <c r="BV3" s="266"/>
-      <c r="BW3" s="266"/>
-      <c r="BX3" s="266"/>
-      <c r="BY3" s="266"/>
-      <c r="BZ3" s="266"/>
-      <c r="CA3" s="266"/>
-      <c r="CB3" s="266"/>
-      <c r="CC3" s="266"/>
-      <c r="CD3" s="266"/>
-      <c r="CE3" s="266"/>
-      <c r="CF3" s="266"/>
-      <c r="CG3" s="266"/>
-      <c r="CH3" s="266"/>
-      <c r="CI3" s="266"/>
-      <c r="CJ3" s="266"/>
-      <c r="CK3" s="266"/>
-      <c r="CL3" s="266"/>
-      <c r="CM3" s="266"/>
-      <c r="CN3" s="266"/>
-      <c r="CO3" s="266"/>
-      <c r="CP3" s="266"/>
-      <c r="CQ3" s="266"/>
-      <c r="CR3" s="266"/>
-      <c r="CS3" s="266"/>
-      <c r="CT3" s="266"/>
-      <c r="CU3" s="266"/>
-      <c r="CV3" s="267" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="249"/>
+      <c r="AE3" s="249"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="249"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="249"/>
+      <c r="AJ3" s="249"/>
+      <c r="AK3" s="249"/>
+      <c r="AL3" s="249"/>
+      <c r="AM3" s="249"/>
+      <c r="AN3" s="249"/>
+      <c r="AO3" s="249"/>
+      <c r="AP3" s="249"/>
+      <c r="AQ3" s="249"/>
+      <c r="AR3" s="249"/>
+      <c r="AS3" s="249"/>
+      <c r="AT3" s="249"/>
+      <c r="AU3" s="249"/>
+      <c r="AV3" s="249"/>
+      <c r="AW3" s="249"/>
+      <c r="AX3" s="249"/>
+      <c r="AY3" s="249"/>
+      <c r="AZ3" s="249"/>
+      <c r="BA3" s="249"/>
+      <c r="BB3" s="249"/>
+      <c r="BC3" s="249"/>
+      <c r="BD3" s="249"/>
+      <c r="BE3" s="249"/>
+      <c r="BF3" s="249"/>
+      <c r="BG3" s="249"/>
+      <c r="BH3" s="249"/>
+      <c r="BI3" s="249"/>
+      <c r="BJ3" s="249"/>
+      <c r="BK3" s="249"/>
+      <c r="BL3" s="249"/>
+      <c r="BM3" s="249"/>
+      <c r="BN3" s="249"/>
+      <c r="BO3" s="249"/>
+      <c r="BP3" s="249"/>
+      <c r="BQ3" s="249"/>
+      <c r="BR3" s="249"/>
+      <c r="BS3" s="249"/>
+      <c r="BT3" s="249"/>
+      <c r="BU3" s="249"/>
+      <c r="BV3" s="249"/>
+      <c r="BW3" s="249"/>
+      <c r="BX3" s="249"/>
+      <c r="BY3" s="249"/>
+      <c r="BZ3" s="249"/>
+      <c r="CA3" s="249"/>
+      <c r="CB3" s="249"/>
+      <c r="CC3" s="249"/>
+      <c r="CD3" s="249"/>
+      <c r="CE3" s="249"/>
+      <c r="CF3" s="249"/>
+      <c r="CG3" s="249"/>
+      <c r="CH3" s="249"/>
+      <c r="CI3" s="249"/>
+      <c r="CJ3" s="249"/>
+      <c r="CK3" s="249"/>
+      <c r="CL3" s="249"/>
+      <c r="CM3" s="249"/>
+      <c r="CN3" s="249"/>
+      <c r="CO3" s="249"/>
+      <c r="CP3" s="249"/>
+      <c r="CQ3" s="249"/>
+      <c r="CR3" s="249"/>
+      <c r="CS3" s="249"/>
+      <c r="CT3" s="249"/>
+      <c r="CU3" s="249"/>
+      <c r="CV3" s="250" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="267"/>
-      <c r="CX3" s="267"/>
-      <c r="CY3" s="267"/>
-      <c r="CZ3" s="267"/>
-      <c r="DA3" s="267"/>
-      <c r="DB3" s="267"/>
-      <c r="DC3" s="267"/>
-      <c r="DD3" s="267"/>
-      <c r="DE3" s="267"/>
-      <c r="DF3" s="267"/>
-      <c r="DG3" s="267"/>
+      <c r="CW3" s="250"/>
+      <c r="CX3" s="250"/>
+      <c r="CY3" s="250"/>
+      <c r="CZ3" s="250"/>
+      <c r="DA3" s="250"/>
+      <c r="DB3" s="250"/>
+      <c r="DC3" s="250"/>
+      <c r="DD3" s="250"/>
+      <c r="DE3" s="250"/>
+      <c r="DF3" s="250"/>
+      <c r="DG3" s="250"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="263" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
-      <c r="M4" s="274"/>
-      <c r="N4" s="274"/>
-      <c r="O4" s="274"/>
-      <c r="P4" s="274"/>
-      <c r="Q4" s="274"/>
-      <c r="R4" s="274"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
-      <c r="X4" s="274"/>
-      <c r="Y4" s="274"/>
-      <c r="Z4" s="274"/>
-      <c r="AA4" s="274"/>
-      <c r="AB4" s="274"/>
-      <c r="AC4" s="274"/>
-      <c r="AD4" s="274"/>
-      <c r="AE4" s="274"/>
-      <c r="AF4" s="274"/>
-      <c r="AG4" s="274"/>
-      <c r="AH4" s="274"/>
-      <c r="AI4" s="274"/>
-      <c r="AJ4" s="274"/>
-      <c r="AK4" s="274"/>
-      <c r="AL4" s="274"/>
-      <c r="AM4" s="274"/>
-      <c r="AN4" s="274"/>
-      <c r="AO4" s="274"/>
-      <c r="AP4" s="274"/>
-      <c r="AQ4" s="274"/>
-      <c r="AR4" s="274"/>
-      <c r="AS4" s="274"/>
-      <c r="AT4" s="274"/>
-      <c r="AU4" s="274"/>
-      <c r="AV4" s="274"/>
-      <c r="AW4" s="274"/>
-      <c r="AX4" s="274"/>
-      <c r="AY4" s="274"/>
-      <c r="AZ4" s="274"/>
-      <c r="BA4" s="274"/>
-      <c r="BB4" s="274"/>
-      <c r="BC4" s="274"/>
-      <c r="BD4" s="274"/>
-      <c r="BE4" s="274"/>
-      <c r="BF4" s="274"/>
-      <c r="BG4" s="274"/>
-      <c r="BH4" s="274"/>
-      <c r="BI4" s="274"/>
-      <c r="BJ4" s="274"/>
-      <c r="BK4" s="274"/>
-      <c r="BL4" s="274"/>
-      <c r="BM4" s="274"/>
-      <c r="BN4" s="274"/>
-      <c r="BO4" s="274"/>
-      <c r="BP4" s="274"/>
-      <c r="BQ4" s="274"/>
-      <c r="BR4" s="274"/>
-      <c r="BS4" s="274"/>
-      <c r="BT4" s="274"/>
-      <c r="BU4" s="274"/>
-      <c r="BV4" s="274"/>
-      <c r="BW4" s="274"/>
-      <c r="BX4" s="274"/>
-      <c r="BY4" s="274"/>
-      <c r="BZ4" s="274"/>
-      <c r="CA4" s="274"/>
-      <c r="CB4" s="274"/>
-      <c r="CC4" s="274"/>
-      <c r="CD4" s="274"/>
-      <c r="CE4" s="274"/>
-      <c r="CF4" s="274"/>
-      <c r="CG4" s="274"/>
-      <c r="CH4" s="274"/>
-      <c r="CI4" s="274"/>
-      <c r="CJ4" s="274"/>
-      <c r="CK4" s="274"/>
-      <c r="CL4" s="274"/>
-      <c r="CM4" s="274"/>
-      <c r="CN4" s="274"/>
-      <c r="CO4" s="274"/>
-      <c r="CP4" s="274"/>
-      <c r="CQ4" s="274"/>
-      <c r="CR4" s="274"/>
-      <c r="CS4" s="274"/>
-      <c r="CT4" s="274"/>
-      <c r="CU4" s="274"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
+      <c r="X4" s="263"/>
+      <c r="Y4" s="263"/>
+      <c r="Z4" s="263"/>
+      <c r="AA4" s="263"/>
+      <c r="AB4" s="263"/>
+      <c r="AC4" s="263"/>
+      <c r="AD4" s="263"/>
+      <c r="AE4" s="263"/>
+      <c r="AF4" s="263"/>
+      <c r="AG4" s="263"/>
+      <c r="AH4" s="263"/>
+      <c r="AI4" s="263"/>
+      <c r="AJ4" s="263"/>
+      <c r="AK4" s="263"/>
+      <c r="AL4" s="263"/>
+      <c r="AM4" s="263"/>
+      <c r="AN4" s="263"/>
+      <c r="AO4" s="263"/>
+      <c r="AP4" s="263"/>
+      <c r="AQ4" s="263"/>
+      <c r="AR4" s="263"/>
+      <c r="AS4" s="263"/>
+      <c r="AT4" s="263"/>
+      <c r="AU4" s="263"/>
+      <c r="AV4" s="263"/>
+      <c r="AW4" s="263"/>
+      <c r="AX4" s="263"/>
+      <c r="AY4" s="263"/>
+      <c r="AZ4" s="263"/>
+      <c r="BA4" s="263"/>
+      <c r="BB4" s="263"/>
+      <c r="BC4" s="263"/>
+      <c r="BD4" s="263"/>
+      <c r="BE4" s="263"/>
+      <c r="BF4" s="263"/>
+      <c r="BG4" s="263"/>
+      <c r="BH4" s="263"/>
+      <c r="BI4" s="263"/>
+      <c r="BJ4" s="263"/>
+      <c r="BK4" s="263"/>
+      <c r="BL4" s="263"/>
+      <c r="BM4" s="263"/>
+      <c r="BN4" s="263"/>
+      <c r="BO4" s="263"/>
+      <c r="BP4" s="263"/>
+      <c r="BQ4" s="263"/>
+      <c r="BR4" s="263"/>
+      <c r="BS4" s="263"/>
+      <c r="BT4" s="263"/>
+      <c r="BU4" s="263"/>
+      <c r="BV4" s="263"/>
+      <c r="BW4" s="263"/>
+      <c r="BX4" s="263"/>
+      <c r="BY4" s="263"/>
+      <c r="BZ4" s="263"/>
+      <c r="CA4" s="263"/>
+      <c r="CB4" s="263"/>
+      <c r="CC4" s="263"/>
+      <c r="CD4" s="263"/>
+      <c r="CE4" s="263"/>
+      <c r="CF4" s="263"/>
+      <c r="CG4" s="263"/>
+      <c r="CH4" s="263"/>
+      <c r="CI4" s="263"/>
+      <c r="CJ4" s="263"/>
+      <c r="CK4" s="263"/>
+      <c r="CL4" s="263"/>
+      <c r="CM4" s="263"/>
+      <c r="CN4" s="263"/>
+      <c r="CO4" s="263"/>
+      <c r="CP4" s="263"/>
+      <c r="CQ4" s="263"/>
+      <c r="CR4" s="263"/>
+      <c r="CS4" s="263"/>
+      <c r="CT4" s="263"/>
+      <c r="CU4" s="263"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -13212,431 +13212,431 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="278" t="s">
+      <c r="A6" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="281" t="s">
+      <c r="C6" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="261" t="s">
+      <c r="D6" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="261" t="s">
+      <c r="E6" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="284" t="s">
+      <c r="F6" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="254" t="s">
+      <c r="G6" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="254"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
-      <c r="AA6" s="254"/>
-      <c r="AB6" s="254"/>
-      <c r="AC6" s="254"/>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="254"/>
-      <c r="AF6" s="254"/>
-      <c r="AG6" s="254"/>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="254"/>
-      <c r="AJ6" s="254"/>
-      <c r="AK6" s="254"/>
-      <c r="AL6" s="254"/>
-      <c r="AM6" s="254"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
-      <c r="AX6" s="254"/>
-      <c r="AY6" s="254"/>
-      <c r="AZ6" s="254"/>
-      <c r="BA6" s="254"/>
-      <c r="BB6" s="254"/>
-      <c r="BC6" s="254"/>
-      <c r="BD6" s="254"/>
-      <c r="BE6" s="254"/>
-      <c r="BF6" s="254"/>
-      <c r="BG6" s="254"/>
-      <c r="BH6" s="254"/>
-      <c r="BI6" s="254"/>
-      <c r="BJ6" s="254"/>
-      <c r="BK6" s="254"/>
-      <c r="BL6" s="254"/>
-      <c r="BM6" s="254"/>
-      <c r="BN6" s="254"/>
-      <c r="BO6" s="254"/>
-      <c r="BP6" s="254"/>
-      <c r="BQ6" s="254"/>
-      <c r="BR6" s="254"/>
-      <c r="BS6" s="254"/>
-      <c r="BT6" s="254"/>
-      <c r="BU6" s="254"/>
-      <c r="BV6" s="254"/>
-      <c r="BW6" s="254"/>
-      <c r="BX6" s="254"/>
-      <c r="BY6" s="254"/>
-      <c r="BZ6" s="254"/>
-      <c r="CA6" s="254"/>
-      <c r="CB6" s="254"/>
-      <c r="CC6" s="254"/>
-      <c r="CD6" s="254"/>
-      <c r="CE6" s="254"/>
-      <c r="CF6" s="254"/>
-      <c r="CG6" s="254"/>
-      <c r="CH6" s="254"/>
-      <c r="CI6" s="254"/>
-      <c r="CJ6" s="254"/>
-      <c r="CK6" s="254"/>
-      <c r="CL6" s="254"/>
-      <c r="CM6" s="254"/>
-      <c r="CN6" s="254"/>
-      <c r="CO6" s="254"/>
-      <c r="CP6" s="254"/>
-      <c r="CQ6" s="254"/>
-      <c r="CR6" s="254"/>
-      <c r="CS6" s="254"/>
-      <c r="CT6" s="254"/>
-      <c r="CU6" s="254"/>
-      <c r="CV6" s="268" t="s">
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="289"/>
+      <c r="M6" s="289"/>
+      <c r="N6" s="289"/>
+      <c r="O6" s="289"/>
+      <c r="P6" s="289"/>
+      <c r="Q6" s="289"/>
+      <c r="R6" s="289"/>
+      <c r="S6" s="289"/>
+      <c r="T6" s="289"/>
+      <c r="U6" s="289"/>
+      <c r="V6" s="289"/>
+      <c r="W6" s="289"/>
+      <c r="X6" s="289"/>
+      <c r="Y6" s="289"/>
+      <c r="Z6" s="289"/>
+      <c r="AA6" s="289"/>
+      <c r="AB6" s="289"/>
+      <c r="AC6" s="289"/>
+      <c r="AD6" s="289"/>
+      <c r="AE6" s="289"/>
+      <c r="AF6" s="289"/>
+      <c r="AG6" s="289"/>
+      <c r="AH6" s="289"/>
+      <c r="AI6" s="289"/>
+      <c r="AJ6" s="289"/>
+      <c r="AK6" s="289"/>
+      <c r="AL6" s="289"/>
+      <c r="AM6" s="289"/>
+      <c r="AN6" s="289"/>
+      <c r="AO6" s="289"/>
+      <c r="AP6" s="289"/>
+      <c r="AQ6" s="289"/>
+      <c r="AR6" s="289"/>
+      <c r="AS6" s="289"/>
+      <c r="AT6" s="289"/>
+      <c r="AU6" s="289"/>
+      <c r="AV6" s="289"/>
+      <c r="AW6" s="289"/>
+      <c r="AX6" s="289"/>
+      <c r="AY6" s="289"/>
+      <c r="AZ6" s="289"/>
+      <c r="BA6" s="289"/>
+      <c r="BB6" s="289"/>
+      <c r="BC6" s="289"/>
+      <c r="BD6" s="289"/>
+      <c r="BE6" s="289"/>
+      <c r="BF6" s="289"/>
+      <c r="BG6" s="289"/>
+      <c r="BH6" s="289"/>
+      <c r="BI6" s="289"/>
+      <c r="BJ6" s="289"/>
+      <c r="BK6" s="289"/>
+      <c r="BL6" s="289"/>
+      <c r="BM6" s="289"/>
+      <c r="BN6" s="289"/>
+      <c r="BO6" s="289"/>
+      <c r="BP6" s="289"/>
+      <c r="BQ6" s="289"/>
+      <c r="BR6" s="289"/>
+      <c r="BS6" s="289"/>
+      <c r="BT6" s="289"/>
+      <c r="BU6" s="289"/>
+      <c r="BV6" s="289"/>
+      <c r="BW6" s="289"/>
+      <c r="BX6" s="289"/>
+      <c r="BY6" s="289"/>
+      <c r="BZ6" s="289"/>
+      <c r="CA6" s="289"/>
+      <c r="CB6" s="289"/>
+      <c r="CC6" s="289"/>
+      <c r="CD6" s="289"/>
+      <c r="CE6" s="289"/>
+      <c r="CF6" s="289"/>
+      <c r="CG6" s="289"/>
+      <c r="CH6" s="289"/>
+      <c r="CI6" s="289"/>
+      <c r="CJ6" s="289"/>
+      <c r="CK6" s="289"/>
+      <c r="CL6" s="289"/>
+      <c r="CM6" s="289"/>
+      <c r="CN6" s="289"/>
+      <c r="CO6" s="289"/>
+      <c r="CP6" s="289"/>
+      <c r="CQ6" s="289"/>
+      <c r="CR6" s="289"/>
+      <c r="CS6" s="289"/>
+      <c r="CT6" s="289"/>
+      <c r="CU6" s="289"/>
+      <c r="CV6" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="269"/>
-      <c r="CX6" s="268" t="s">
+      <c r="CW6" s="252"/>
+      <c r="CX6" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="272"/>
-      <c r="CZ6" s="272"/>
-      <c r="DA6" s="272"/>
-      <c r="DB6" s="272"/>
-      <c r="DC6" s="272"/>
-      <c r="DD6" s="272"/>
-      <c r="DE6" s="272"/>
-      <c r="DF6" s="272"/>
-      <c r="DG6" s="272"/>
-      <c r="DH6" s="244" t="s">
+      <c r="CY6" s="255"/>
+      <c r="CZ6" s="255"/>
+      <c r="DA6" s="255"/>
+      <c r="DB6" s="255"/>
+      <c r="DC6" s="255"/>
+      <c r="DD6" s="255"/>
+      <c r="DE6" s="255"/>
+      <c r="DF6" s="255"/>
+      <c r="DG6" s="255"/>
+      <c r="DH6" s="279" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="247" t="s">
+      <c r="DI6" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="257" t="s">
+      <c r="DJ6" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="257"/>
-      <c r="DL6" s="257"/>
-      <c r="DM6" s="257"/>
-      <c r="DN6" s="257"/>
-      <c r="DO6" s="258"/>
+      <c r="DK6" s="240"/>
+      <c r="DL6" s="240"/>
+      <c r="DM6" s="240"/>
+      <c r="DN6" s="240"/>
+      <c r="DO6" s="241"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="276"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="255"/>
-      <c r="Z7" s="255"/>
-      <c r="AA7" s="255"/>
-      <c r="AB7" s="255"/>
-      <c r="AC7" s="255"/>
-      <c r="AD7" s="255"/>
-      <c r="AE7" s="255"/>
-      <c r="AF7" s="255"/>
-      <c r="AG7" s="255"/>
-      <c r="AH7" s="255"/>
-      <c r="AI7" s="255"/>
-      <c r="AJ7" s="255"/>
-      <c r="AK7" s="255"/>
-      <c r="AL7" s="255"/>
-      <c r="AM7" s="255"/>
-      <c r="AN7" s="255"/>
-      <c r="AO7" s="255"/>
-      <c r="AP7" s="255"/>
-      <c r="AQ7" s="255"/>
-      <c r="AR7" s="255"/>
-      <c r="AS7" s="255"/>
-      <c r="AT7" s="255"/>
-      <c r="AU7" s="255"/>
-      <c r="AV7" s="255"/>
-      <c r="AW7" s="255"/>
-      <c r="AX7" s="255"/>
-      <c r="AY7" s="255"/>
-      <c r="AZ7" s="255"/>
-      <c r="BA7" s="255"/>
-      <c r="BB7" s="255"/>
-      <c r="BC7" s="255"/>
-      <c r="BD7" s="255"/>
-      <c r="BE7" s="255"/>
-      <c r="BF7" s="255"/>
-      <c r="BG7" s="255"/>
-      <c r="BH7" s="255"/>
-      <c r="BI7" s="255"/>
-      <c r="BJ7" s="255"/>
-      <c r="BK7" s="255"/>
-      <c r="BL7" s="255"/>
-      <c r="BM7" s="255"/>
-      <c r="BN7" s="255"/>
-      <c r="BO7" s="256"/>
-      <c r="BP7" s="256"/>
-      <c r="BQ7" s="256"/>
-      <c r="BR7" s="255"/>
-      <c r="BS7" s="255"/>
-      <c r="BT7" s="255"/>
-      <c r="BU7" s="255"/>
-      <c r="BV7" s="255"/>
-      <c r="BW7" s="255"/>
-      <c r="BX7" s="255"/>
-      <c r="BY7" s="255"/>
-      <c r="BZ7" s="255"/>
-      <c r="CA7" s="255"/>
-      <c r="CB7" s="255"/>
-      <c r="CC7" s="255"/>
-      <c r="CD7" s="255"/>
-      <c r="CE7" s="255"/>
-      <c r="CF7" s="255"/>
-      <c r="CG7" s="255"/>
-      <c r="CH7" s="255"/>
-      <c r="CI7" s="255"/>
-      <c r="CJ7" s="255"/>
-      <c r="CK7" s="255"/>
-      <c r="CL7" s="255"/>
-      <c r="CM7" s="255"/>
-      <c r="CN7" s="255"/>
-      <c r="CO7" s="255"/>
-      <c r="CP7" s="255"/>
-      <c r="CQ7" s="255"/>
-      <c r="CR7" s="255"/>
-      <c r="CS7" s="255"/>
-      <c r="CT7" s="255"/>
-      <c r="CU7" s="255"/>
-      <c r="CV7" s="270"/>
-      <c r="CW7" s="271"/>
-      <c r="CX7" s="270"/>
-      <c r="CY7" s="273"/>
-      <c r="CZ7" s="273"/>
-      <c r="DA7" s="273"/>
-      <c r="DB7" s="273"/>
-      <c r="DC7" s="273"/>
-      <c r="DD7" s="273"/>
-      <c r="DE7" s="273"/>
-      <c r="DF7" s="273"/>
-      <c r="DG7" s="273"/>
-      <c r="DH7" s="245"/>
-      <c r="DI7" s="248"/>
-      <c r="DJ7" s="259"/>
-      <c r="DK7" s="259"/>
-      <c r="DL7" s="259"/>
-      <c r="DM7" s="259"/>
-      <c r="DN7" s="259"/>
-      <c r="DO7" s="260"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="290"/>
+      <c r="K7" s="290"/>
+      <c r="L7" s="290"/>
+      <c r="M7" s="290"/>
+      <c r="N7" s="290"/>
+      <c r="O7" s="290"/>
+      <c r="P7" s="290"/>
+      <c r="Q7" s="290"/>
+      <c r="R7" s="290"/>
+      <c r="S7" s="290"/>
+      <c r="T7" s="290"/>
+      <c r="U7" s="290"/>
+      <c r="V7" s="290"/>
+      <c r="W7" s="290"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="290"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="290"/>
+      <c r="AD7" s="290"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="290"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="290"/>
+      <c r="AJ7" s="290"/>
+      <c r="AK7" s="290"/>
+      <c r="AL7" s="290"/>
+      <c r="AM7" s="290"/>
+      <c r="AN7" s="290"/>
+      <c r="AO7" s="290"/>
+      <c r="AP7" s="290"/>
+      <c r="AQ7" s="290"/>
+      <c r="AR7" s="290"/>
+      <c r="AS7" s="290"/>
+      <c r="AT7" s="290"/>
+      <c r="AU7" s="290"/>
+      <c r="AV7" s="290"/>
+      <c r="AW7" s="290"/>
+      <c r="AX7" s="290"/>
+      <c r="AY7" s="290"/>
+      <c r="AZ7" s="290"/>
+      <c r="BA7" s="290"/>
+      <c r="BB7" s="290"/>
+      <c r="BC7" s="290"/>
+      <c r="BD7" s="290"/>
+      <c r="BE7" s="290"/>
+      <c r="BF7" s="290"/>
+      <c r="BG7" s="290"/>
+      <c r="BH7" s="290"/>
+      <c r="BI7" s="290"/>
+      <c r="BJ7" s="290"/>
+      <c r="BK7" s="290"/>
+      <c r="BL7" s="290"/>
+      <c r="BM7" s="290"/>
+      <c r="BN7" s="290"/>
+      <c r="BO7" s="291"/>
+      <c r="BP7" s="291"/>
+      <c r="BQ7" s="291"/>
+      <c r="BR7" s="290"/>
+      <c r="BS7" s="290"/>
+      <c r="BT7" s="290"/>
+      <c r="BU7" s="290"/>
+      <c r="BV7" s="290"/>
+      <c r="BW7" s="290"/>
+      <c r="BX7" s="290"/>
+      <c r="BY7" s="290"/>
+      <c r="BZ7" s="290"/>
+      <c r="CA7" s="290"/>
+      <c r="CB7" s="290"/>
+      <c r="CC7" s="290"/>
+      <c r="CD7" s="290"/>
+      <c r="CE7" s="290"/>
+      <c r="CF7" s="290"/>
+      <c r="CG7" s="290"/>
+      <c r="CH7" s="290"/>
+      <c r="CI7" s="290"/>
+      <c r="CJ7" s="290"/>
+      <c r="CK7" s="290"/>
+      <c r="CL7" s="290"/>
+      <c r="CM7" s="290"/>
+      <c r="CN7" s="290"/>
+      <c r="CO7" s="290"/>
+      <c r="CP7" s="290"/>
+      <c r="CQ7" s="290"/>
+      <c r="CR7" s="290"/>
+      <c r="CS7" s="290"/>
+      <c r="CT7" s="290"/>
+      <c r="CU7" s="290"/>
+      <c r="CV7" s="253"/>
+      <c r="CW7" s="254"/>
+      <c r="CX7" s="253"/>
+      <c r="CY7" s="256"/>
+      <c r="CZ7" s="256"/>
+      <c r="DA7" s="256"/>
+      <c r="DB7" s="256"/>
+      <c r="DC7" s="256"/>
+      <c r="DD7" s="256"/>
+      <c r="DE7" s="256"/>
+      <c r="DF7" s="256"/>
+      <c r="DG7" s="256"/>
+      <c r="DH7" s="280"/>
+      <c r="DI7" s="283"/>
+      <c r="DJ7" s="242"/>
+      <c r="DK7" s="242"/>
+      <c r="DL7" s="242"/>
+      <c r="DM7" s="242"/>
+      <c r="DN7" s="242"/>
+      <c r="DO7" s="243"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="277"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="292">
+      <c r="A8" s="266"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="272"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="299">
         <v>1</v>
       </c>
-      <c r="H8" s="240"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="234">
+      <c r="H8" s="258"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="276">
         <v>2</v>
       </c>
-      <c r="K8" s="235"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="287">
+      <c r="K8" s="261"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="294">
         <v>3</v>
       </c>
-      <c r="N8" s="288"/>
-      <c r="O8" s="291"/>
-      <c r="P8" s="287">
+      <c r="N8" s="295"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="294">
         <v>4</v>
       </c>
-      <c r="Q8" s="288"/>
-      <c r="R8" s="289"/>
-      <c r="S8" s="287">
+      <c r="Q8" s="295"/>
+      <c r="R8" s="296"/>
+      <c r="S8" s="294">
         <v>5</v>
       </c>
-      <c r="T8" s="288"/>
-      <c r="U8" s="291"/>
-      <c r="V8" s="287">
+      <c r="T8" s="295"/>
+      <c r="U8" s="298"/>
+      <c r="V8" s="294">
         <v>6</v>
       </c>
-      <c r="W8" s="288"/>
-      <c r="X8" s="289"/>
-      <c r="Y8" s="239">
+      <c r="W8" s="295"/>
+      <c r="X8" s="296"/>
+      <c r="Y8" s="257">
         <v>7</v>
       </c>
-      <c r="Z8" s="240"/>
-      <c r="AA8" s="242"/>
-      <c r="AB8" s="239">
+      <c r="Z8" s="258"/>
+      <c r="AA8" s="259"/>
+      <c r="AB8" s="257">
         <v>8</v>
       </c>
-      <c r="AC8" s="240"/>
-      <c r="AD8" s="242"/>
-      <c r="AE8" s="287">
+      <c r="AC8" s="258"/>
+      <c r="AD8" s="259"/>
+      <c r="AE8" s="294">
         <v>9</v>
       </c>
-      <c r="AF8" s="288"/>
-      <c r="AG8" s="291"/>
-      <c r="AH8" s="287">
+      <c r="AF8" s="295"/>
+      <c r="AG8" s="298"/>
+      <c r="AH8" s="294">
         <v>10</v>
       </c>
-      <c r="AI8" s="288"/>
-      <c r="AJ8" s="289"/>
-      <c r="AK8" s="287">
+      <c r="AI8" s="295"/>
+      <c r="AJ8" s="296"/>
+      <c r="AK8" s="294">
         <v>11</v>
       </c>
-      <c r="AL8" s="288"/>
-      <c r="AM8" s="289"/>
-      <c r="AN8" s="290">
+      <c r="AL8" s="295"/>
+      <c r="AM8" s="296"/>
+      <c r="AN8" s="297">
         <v>12</v>
       </c>
-      <c r="AO8" s="288"/>
-      <c r="AP8" s="291"/>
-      <c r="AQ8" s="287">
+      <c r="AO8" s="295"/>
+      <c r="AP8" s="298"/>
+      <c r="AQ8" s="294">
         <v>13</v>
       </c>
-      <c r="AR8" s="288"/>
-      <c r="AS8" s="289"/>
-      <c r="AT8" s="253">
+      <c r="AR8" s="295"/>
+      <c r="AS8" s="296"/>
+      <c r="AT8" s="288">
         <v>14</v>
       </c>
-      <c r="AU8" s="240"/>
-      <c r="AV8" s="242"/>
-      <c r="AW8" s="239">
+      <c r="AU8" s="258"/>
+      <c r="AV8" s="259"/>
+      <c r="AW8" s="257">
         <v>15</v>
       </c>
-      <c r="AX8" s="240"/>
-      <c r="AY8" s="242"/>
-      <c r="AZ8" s="287">
+      <c r="AX8" s="258"/>
+      <c r="AY8" s="259"/>
+      <c r="AZ8" s="294">
         <v>16</v>
       </c>
-      <c r="BA8" s="288"/>
-      <c r="BB8" s="289"/>
-      <c r="BC8" s="287">
+      <c r="BA8" s="295"/>
+      <c r="BB8" s="296"/>
+      <c r="BC8" s="294">
         <v>17</v>
       </c>
-      <c r="BD8" s="288"/>
-      <c r="BE8" s="291"/>
-      <c r="BF8" s="287">
+      <c r="BD8" s="295"/>
+      <c r="BE8" s="298"/>
+      <c r="BF8" s="294">
         <v>18</v>
       </c>
-      <c r="BG8" s="288"/>
-      <c r="BH8" s="289"/>
-      <c r="BI8" s="290">
+      <c r="BG8" s="295"/>
+      <c r="BH8" s="296"/>
+      <c r="BI8" s="297">
         <v>19</v>
       </c>
-      <c r="BJ8" s="288"/>
-      <c r="BK8" s="291"/>
-      <c r="BL8" s="287">
+      <c r="BJ8" s="295"/>
+      <c r="BK8" s="298"/>
+      <c r="BL8" s="294">
         <v>20</v>
       </c>
-      <c r="BM8" s="288"/>
-      <c r="BN8" s="289"/>
-      <c r="BO8" s="239">
+      <c r="BM8" s="295"/>
+      <c r="BN8" s="296"/>
+      <c r="BO8" s="257">
         <v>21</v>
       </c>
-      <c r="BP8" s="240"/>
-      <c r="BQ8" s="242"/>
-      <c r="BR8" s="239">
+      <c r="BP8" s="258"/>
+      <c r="BQ8" s="259"/>
+      <c r="BR8" s="257">
         <v>22</v>
       </c>
-      <c r="BS8" s="240"/>
-      <c r="BT8" s="242"/>
-      <c r="BU8" s="290">
+      <c r="BS8" s="258"/>
+      <c r="BT8" s="259"/>
+      <c r="BU8" s="297">
         <v>23</v>
       </c>
-      <c r="BV8" s="288"/>
-      <c r="BW8" s="291"/>
-      <c r="BX8" s="287">
+      <c r="BV8" s="295"/>
+      <c r="BW8" s="298"/>
+      <c r="BX8" s="294">
         <v>24</v>
       </c>
-      <c r="BY8" s="288"/>
-      <c r="BZ8" s="289"/>
-      <c r="CA8" s="290">
+      <c r="BY8" s="295"/>
+      <c r="BZ8" s="296"/>
+      <c r="CA8" s="297">
         <v>25</v>
       </c>
-      <c r="CB8" s="288"/>
-      <c r="CC8" s="291"/>
-      <c r="CD8" s="287">
+      <c r="CB8" s="295"/>
+      <c r="CC8" s="298"/>
+      <c r="CD8" s="294">
         <v>26</v>
       </c>
-      <c r="CE8" s="288"/>
-      <c r="CF8" s="289"/>
-      <c r="CG8" s="290">
+      <c r="CE8" s="295"/>
+      <c r="CF8" s="296"/>
+      <c r="CG8" s="297">
         <v>27</v>
       </c>
-      <c r="CH8" s="288"/>
-      <c r="CI8" s="291"/>
-      <c r="CJ8" s="239">
+      <c r="CH8" s="295"/>
+      <c r="CI8" s="298"/>
+      <c r="CJ8" s="257">
         <v>28</v>
       </c>
-      <c r="CK8" s="240"/>
-      <c r="CL8" s="242"/>
-      <c r="CM8" s="239">
+      <c r="CK8" s="258"/>
+      <c r="CL8" s="259"/>
+      <c r="CM8" s="257">
         <v>29</v>
       </c>
-      <c r="CN8" s="240"/>
-      <c r="CO8" s="242"/>
-      <c r="CP8" s="287">
+      <c r="CN8" s="258"/>
+      <c r="CO8" s="259"/>
+      <c r="CP8" s="294">
         <v>30</v>
       </c>
-      <c r="CQ8" s="288"/>
-      <c r="CR8" s="289"/>
-      <c r="CS8" s="293"/>
-      <c r="CT8" s="294"/>
-      <c r="CU8" s="295"/>
+      <c r="CQ8" s="295"/>
+      <c r="CR8" s="296"/>
+      <c r="CS8" s="300"/>
+      <c r="CT8" s="301"/>
+      <c r="CU8" s="302"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -13673,8 +13673,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="246"/>
-      <c r="DI8" s="249"/>
+      <c r="DH8" s="281"/>
+      <c r="DI8" s="284"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -18999,45 +18999,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="233"/>
-      <c r="I31" s="233"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="233"/>
-      <c r="O31" s="233"/>
-      <c r="P31" s="233"/>
-      <c r="Q31" s="233"/>
-      <c r="R31" s="233"/>
-      <c r="S31" s="233"/>
-      <c r="T31" s="233"/>
-      <c r="U31" s="233"/>
-      <c r="V31" s="233"/>
-      <c r="W31" s="233"/>
-      <c r="X31" s="233"/>
-      <c r="Y31" s="233"/>
-      <c r="Z31" s="233"/>
-      <c r="AA31" s="233"/>
-      <c r="AB31" s="233"/>
-      <c r="AC31" s="233"/>
-      <c r="AD31" s="233"/>
-      <c r="AE31" s="233"/>
-      <c r="AF31" s="233"/>
-      <c r="AG31" s="233"/>
-      <c r="AH31" s="233"/>
-      <c r="AI31" s="233"/>
-      <c r="AJ31" s="233"/>
-      <c r="AK31" s="233"/>
-      <c r="AL31" s="233"/>
-      <c r="AM31" s="233"/>
-      <c r="AN31" s="233"/>
-      <c r="AO31" s="233"/>
-      <c r="AP31" s="233"/>
-      <c r="AQ31" s="233"/>
-      <c r="AR31" s="233"/>
-      <c r="AS31" s="233"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="292"/>
+      <c r="I31" s="292"/>
+      <c r="J31" s="292"/>
+      <c r="K31" s="292"/>
+      <c r="L31" s="292"/>
+      <c r="M31" s="292"/>
+      <c r="N31" s="292"/>
+      <c r="O31" s="292"/>
+      <c r="P31" s="292"/>
+      <c r="Q31" s="292"/>
+      <c r="R31" s="292"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="292"/>
+      <c r="V31" s="292"/>
+      <c r="W31" s="292"/>
+      <c r="X31" s="292"/>
+      <c r="Y31" s="292"/>
+      <c r="Z31" s="292"/>
+      <c r="AA31" s="292"/>
+      <c r="AB31" s="292"/>
+      <c r="AC31" s="292"/>
+      <c r="AD31" s="292"/>
+      <c r="AE31" s="292"/>
+      <c r="AF31" s="292"/>
+      <c r="AG31" s="292"/>
+      <c r="AH31" s="292"/>
+      <c r="AI31" s="292"/>
+      <c r="AJ31" s="292"/>
+      <c r="AK31" s="292"/>
+      <c r="AL31" s="292"/>
+      <c r="AM31" s="292"/>
+      <c r="AN31" s="292"/>
+      <c r="AO31" s="292"/>
+      <c r="AP31" s="292"/>
+      <c r="AQ31" s="292"/>
+      <c r="AR31" s="292"/>
+      <c r="AS31" s="292"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -19342,45 +19342,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="233"/>
-      <c r="L35" s="233"/>
-      <c r="M35" s="233"/>
-      <c r="N35" s="233"/>
-      <c r="O35" s="233"/>
-      <c r="P35" s="233"/>
-      <c r="Q35" s="233"/>
-      <c r="R35" s="233"/>
-      <c r="S35" s="233"/>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="233"/>
-      <c r="Y35" s="233"/>
-      <c r="Z35" s="233"/>
-      <c r="AA35" s="233"/>
-      <c r="AB35" s="233"/>
-      <c r="AC35" s="233"/>
-      <c r="AD35" s="233"/>
-      <c r="AE35" s="233"/>
-      <c r="AF35" s="233"/>
-      <c r="AG35" s="233"/>
-      <c r="AH35" s="233"/>
-      <c r="AI35" s="233"/>
-      <c r="AJ35" s="233"/>
-      <c r="AK35" s="233"/>
-      <c r="AL35" s="233"/>
-      <c r="AM35" s="233"/>
-      <c r="AN35" s="233"/>
-      <c r="AO35" s="233"/>
-      <c r="AP35" s="233"/>
-      <c r="AQ35" s="233"/>
-      <c r="AR35" s="233"/>
-      <c r="AS35" s="233"/>
+      <c r="G35" s="292"/>
+      <c r="H35" s="292"/>
+      <c r="I35" s="292"/>
+      <c r="J35" s="292"/>
+      <c r="K35" s="292"/>
+      <c r="L35" s="292"/>
+      <c r="M35" s="292"/>
+      <c r="N35" s="292"/>
+      <c r="O35" s="292"/>
+      <c r="P35" s="292"/>
+      <c r="Q35" s="292"/>
+      <c r="R35" s="292"/>
+      <c r="S35" s="292"/>
+      <c r="T35" s="292"/>
+      <c r="U35" s="292"/>
+      <c r="V35" s="292"/>
+      <c r="W35" s="292"/>
+      <c r="X35" s="292"/>
+      <c r="Y35" s="292"/>
+      <c r="Z35" s="292"/>
+      <c r="AA35" s="292"/>
+      <c r="AB35" s="292"/>
+      <c r="AC35" s="292"/>
+      <c r="AD35" s="292"/>
+      <c r="AE35" s="292"/>
+      <c r="AF35" s="292"/>
+      <c r="AG35" s="292"/>
+      <c r="AH35" s="292"/>
+      <c r="AI35" s="292"/>
+      <c r="AJ35" s="292"/>
+      <c r="AK35" s="292"/>
+      <c r="AL35" s="292"/>
+      <c r="AM35" s="292"/>
+      <c r="AN35" s="292"/>
+      <c r="AO35" s="292"/>
+      <c r="AP35" s="292"/>
+      <c r="AQ35" s="292"/>
+      <c r="AR35" s="292"/>
+      <c r="AS35" s="292"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -21538,17 +21538,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -21565,29 +21577,17 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU23">
     <cfRule type="containsText" dxfId="196" priority="1" operator="containsText" text="О">
@@ -21615,8 +21615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="BR10" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="DK10" sqref="DK10:DK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21783,21 +21783,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="264" t="s">
+      <c r="CU1" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="264"/>
-      <c r="CW1" s="264"/>
-      <c r="CX1" s="264"/>
-      <c r="CY1" s="264"/>
-      <c r="CZ1" s="264"/>
-      <c r="DA1" s="264"/>
-      <c r="DB1" s="264"/>
-      <c r="DC1" s="264"/>
-      <c r="DD1" s="264"/>
-      <c r="DE1" s="264"/>
-      <c r="DF1" s="264"/>
-      <c r="DG1" s="264"/>
+      <c r="CV1" s="247"/>
+      <c r="CW1" s="247"/>
+      <c r="CX1" s="247"/>
+      <c r="CY1" s="247"/>
+      <c r="CZ1" s="247"/>
+      <c r="DA1" s="247"/>
+      <c r="DB1" s="247"/>
+      <c r="DC1" s="247"/>
+      <c r="DD1" s="247"/>
+      <c r="DE1" s="247"/>
+      <c r="DF1" s="247"/>
+      <c r="DG1" s="247"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -21898,241 +21898,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="265" t="s">
+      <c r="CU2" s="248" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="265"/>
-      <c r="CW2" s="265"/>
-      <c r="CX2" s="265"/>
-      <c r="CY2" s="265"/>
-      <c r="CZ2" s="265"/>
-      <c r="DA2" s="265"/>
-      <c r="DB2" s="265"/>
-      <c r="DC2" s="265"/>
-      <c r="DD2" s="265"/>
-      <c r="DE2" s="265"/>
-      <c r="DF2" s="265"/>
-      <c r="DG2" s="265"/>
+      <c r="CV2" s="248"/>
+      <c r="CW2" s="248"/>
+      <c r="CX2" s="248"/>
+      <c r="CY2" s="248"/>
+      <c r="CZ2" s="248"/>
+      <c r="DA2" s="248"/>
+      <c r="DB2" s="248"/>
+      <c r="DC2" s="248"/>
+      <c r="DD2" s="248"/>
+      <c r="DE2" s="248"/>
+      <c r="DF2" s="248"/>
+      <c r="DG2" s="248"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="249" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="266"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="266"/>
-      <c r="AC3" s="266"/>
-      <c r="AD3" s="266"/>
-      <c r="AE3" s="266"/>
-      <c r="AF3" s="266"/>
-      <c r="AG3" s="266"/>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="266"/>
-      <c r="AJ3" s="266"/>
-      <c r="AK3" s="266"/>
-      <c r="AL3" s="266"/>
-      <c r="AM3" s="266"/>
-      <c r="AN3" s="266"/>
-      <c r="AO3" s="266"/>
-      <c r="AP3" s="266"/>
-      <c r="AQ3" s="266"/>
-      <c r="AR3" s="266"/>
-      <c r="AS3" s="266"/>
-      <c r="AT3" s="266"/>
-      <c r="AU3" s="266"/>
-      <c r="AV3" s="266"/>
-      <c r="AW3" s="266"/>
-      <c r="AX3" s="266"/>
-      <c r="AY3" s="266"/>
-      <c r="AZ3" s="266"/>
-      <c r="BA3" s="266"/>
-      <c r="BB3" s="266"/>
-      <c r="BC3" s="266"/>
-      <c r="BD3" s="266"/>
-      <c r="BE3" s="266"/>
-      <c r="BF3" s="266"/>
-      <c r="BG3" s="266"/>
-      <c r="BH3" s="266"/>
-      <c r="BI3" s="266"/>
-      <c r="BJ3" s="266"/>
-      <c r="BK3" s="266"/>
-      <c r="BL3" s="266"/>
-      <c r="BM3" s="266"/>
-      <c r="BN3" s="266"/>
-      <c r="BO3" s="266"/>
-      <c r="BP3" s="266"/>
-      <c r="BQ3" s="266"/>
-      <c r="BR3" s="266"/>
-      <c r="BS3" s="266"/>
-      <c r="BT3" s="266"/>
-      <c r="BU3" s="266"/>
-      <c r="BV3" s="266"/>
-      <c r="BW3" s="266"/>
-      <c r="BX3" s="266"/>
-      <c r="BY3" s="266"/>
-      <c r="BZ3" s="266"/>
-      <c r="CA3" s="266"/>
-      <c r="CB3" s="266"/>
-      <c r="CC3" s="266"/>
-      <c r="CD3" s="266"/>
-      <c r="CE3" s="266"/>
-      <c r="CF3" s="266"/>
-      <c r="CG3" s="266"/>
-      <c r="CH3" s="266"/>
-      <c r="CI3" s="266"/>
-      <c r="CJ3" s="266"/>
-      <c r="CK3" s="266"/>
-      <c r="CL3" s="266"/>
-      <c r="CM3" s="266"/>
-      <c r="CN3" s="266"/>
-      <c r="CO3" s="266"/>
-      <c r="CP3" s="266"/>
-      <c r="CQ3" s="266"/>
-      <c r="CR3" s="266"/>
-      <c r="CS3" s="266"/>
-      <c r="CT3" s="266"/>
-      <c r="CU3" s="266"/>
-      <c r="CV3" s="267" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="249"/>
+      <c r="AE3" s="249"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="249"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="249"/>
+      <c r="AJ3" s="249"/>
+      <c r="AK3" s="249"/>
+      <c r="AL3" s="249"/>
+      <c r="AM3" s="249"/>
+      <c r="AN3" s="249"/>
+      <c r="AO3" s="249"/>
+      <c r="AP3" s="249"/>
+      <c r="AQ3" s="249"/>
+      <c r="AR3" s="249"/>
+      <c r="AS3" s="249"/>
+      <c r="AT3" s="249"/>
+      <c r="AU3" s="249"/>
+      <c r="AV3" s="249"/>
+      <c r="AW3" s="249"/>
+      <c r="AX3" s="249"/>
+      <c r="AY3" s="249"/>
+      <c r="AZ3" s="249"/>
+      <c r="BA3" s="249"/>
+      <c r="BB3" s="249"/>
+      <c r="BC3" s="249"/>
+      <c r="BD3" s="249"/>
+      <c r="BE3" s="249"/>
+      <c r="BF3" s="249"/>
+      <c r="BG3" s="249"/>
+      <c r="BH3" s="249"/>
+      <c r="BI3" s="249"/>
+      <c r="BJ3" s="249"/>
+      <c r="BK3" s="249"/>
+      <c r="BL3" s="249"/>
+      <c r="BM3" s="249"/>
+      <c r="BN3" s="249"/>
+      <c r="BO3" s="249"/>
+      <c r="BP3" s="249"/>
+      <c r="BQ3" s="249"/>
+      <c r="BR3" s="249"/>
+      <c r="BS3" s="249"/>
+      <c r="BT3" s="249"/>
+      <c r="BU3" s="249"/>
+      <c r="BV3" s="249"/>
+      <c r="BW3" s="249"/>
+      <c r="BX3" s="249"/>
+      <c r="BY3" s="249"/>
+      <c r="BZ3" s="249"/>
+      <c r="CA3" s="249"/>
+      <c r="CB3" s="249"/>
+      <c r="CC3" s="249"/>
+      <c r="CD3" s="249"/>
+      <c r="CE3" s="249"/>
+      <c r="CF3" s="249"/>
+      <c r="CG3" s="249"/>
+      <c r="CH3" s="249"/>
+      <c r="CI3" s="249"/>
+      <c r="CJ3" s="249"/>
+      <c r="CK3" s="249"/>
+      <c r="CL3" s="249"/>
+      <c r="CM3" s="249"/>
+      <c r="CN3" s="249"/>
+      <c r="CO3" s="249"/>
+      <c r="CP3" s="249"/>
+      <c r="CQ3" s="249"/>
+      <c r="CR3" s="249"/>
+      <c r="CS3" s="249"/>
+      <c r="CT3" s="249"/>
+      <c r="CU3" s="249"/>
+      <c r="CV3" s="250" t="s">
         <v>72</v>
       </c>
-      <c r="CW3" s="267"/>
-      <c r="CX3" s="267"/>
-      <c r="CY3" s="267"/>
-      <c r="CZ3" s="267"/>
-      <c r="DA3" s="267"/>
-      <c r="DB3" s="267"/>
-      <c r="DC3" s="267"/>
-      <c r="DD3" s="267"/>
-      <c r="DE3" s="267"/>
-      <c r="DF3" s="267"/>
-      <c r="DG3" s="267"/>
+      <c r="CW3" s="250"/>
+      <c r="CX3" s="250"/>
+      <c r="CY3" s="250"/>
+      <c r="CZ3" s="250"/>
+      <c r="DA3" s="250"/>
+      <c r="DB3" s="250"/>
+      <c r="DC3" s="250"/>
+      <c r="DD3" s="250"/>
+      <c r="DE3" s="250"/>
+      <c r="DF3" s="250"/>
+      <c r="DG3" s="250"/>
     </row>
     <row r="4" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="263" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
-      <c r="M4" s="274"/>
-      <c r="N4" s="274"/>
-      <c r="O4" s="274"/>
-      <c r="P4" s="274"/>
-      <c r="Q4" s="274"/>
-      <c r="R4" s="274"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
-      <c r="X4" s="274"/>
-      <c r="Y4" s="274"/>
-      <c r="Z4" s="274"/>
-      <c r="AA4" s="274"/>
-      <c r="AB4" s="274"/>
-      <c r="AC4" s="274"/>
-      <c r="AD4" s="274"/>
-      <c r="AE4" s="274"/>
-      <c r="AF4" s="274"/>
-      <c r="AG4" s="274"/>
-      <c r="AH4" s="274"/>
-      <c r="AI4" s="274"/>
-      <c r="AJ4" s="274"/>
-      <c r="AK4" s="274"/>
-      <c r="AL4" s="274"/>
-      <c r="AM4" s="274"/>
-      <c r="AN4" s="274"/>
-      <c r="AO4" s="274"/>
-      <c r="AP4" s="274"/>
-      <c r="AQ4" s="274"/>
-      <c r="AR4" s="274"/>
-      <c r="AS4" s="274"/>
-      <c r="AT4" s="274"/>
-      <c r="AU4" s="274"/>
-      <c r="AV4" s="274"/>
-      <c r="AW4" s="274"/>
-      <c r="AX4" s="274"/>
-      <c r="AY4" s="274"/>
-      <c r="AZ4" s="274"/>
-      <c r="BA4" s="274"/>
-      <c r="BB4" s="274"/>
-      <c r="BC4" s="274"/>
-      <c r="BD4" s="274"/>
-      <c r="BE4" s="274"/>
-      <c r="BF4" s="274"/>
-      <c r="BG4" s="274"/>
-      <c r="BH4" s="274"/>
-      <c r="BI4" s="274"/>
-      <c r="BJ4" s="274"/>
-      <c r="BK4" s="274"/>
-      <c r="BL4" s="274"/>
-      <c r="BM4" s="274"/>
-      <c r="BN4" s="274"/>
-      <c r="BO4" s="274"/>
-      <c r="BP4" s="274"/>
-      <c r="BQ4" s="274"/>
-      <c r="BR4" s="274"/>
-      <c r="BS4" s="274"/>
-      <c r="BT4" s="274"/>
-      <c r="BU4" s="274"/>
-      <c r="BV4" s="274"/>
-      <c r="BW4" s="274"/>
-      <c r="BX4" s="274"/>
-      <c r="BY4" s="274"/>
-      <c r="BZ4" s="274"/>
-      <c r="CA4" s="274"/>
-      <c r="CB4" s="274"/>
-      <c r="CC4" s="274"/>
-      <c r="CD4" s="274"/>
-      <c r="CE4" s="274"/>
-      <c r="CF4" s="274"/>
-      <c r="CG4" s="274"/>
-      <c r="CH4" s="274"/>
-      <c r="CI4" s="274"/>
-      <c r="CJ4" s="274"/>
-      <c r="CK4" s="274"/>
-      <c r="CL4" s="274"/>
-      <c r="CM4" s="274"/>
-      <c r="CN4" s="274"/>
-      <c r="CO4" s="274"/>
-      <c r="CP4" s="274"/>
-      <c r="CQ4" s="274"/>
-      <c r="CR4" s="274"/>
-      <c r="CS4" s="274"/>
-      <c r="CT4" s="274"/>
-      <c r="CU4" s="274"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
+      <c r="X4" s="263"/>
+      <c r="Y4" s="263"/>
+      <c r="Z4" s="263"/>
+      <c r="AA4" s="263"/>
+      <c r="AB4" s="263"/>
+      <c r="AC4" s="263"/>
+      <c r="AD4" s="263"/>
+      <c r="AE4" s="263"/>
+      <c r="AF4" s="263"/>
+      <c r="AG4" s="263"/>
+      <c r="AH4" s="263"/>
+      <c r="AI4" s="263"/>
+      <c r="AJ4" s="263"/>
+      <c r="AK4" s="263"/>
+      <c r="AL4" s="263"/>
+      <c r="AM4" s="263"/>
+      <c r="AN4" s="263"/>
+      <c r="AO4" s="263"/>
+      <c r="AP4" s="263"/>
+      <c r="AQ4" s="263"/>
+      <c r="AR4" s="263"/>
+      <c r="AS4" s="263"/>
+      <c r="AT4" s="263"/>
+      <c r="AU4" s="263"/>
+      <c r="AV4" s="263"/>
+      <c r="AW4" s="263"/>
+      <c r="AX4" s="263"/>
+      <c r="AY4" s="263"/>
+      <c r="AZ4" s="263"/>
+      <c r="BA4" s="263"/>
+      <c r="BB4" s="263"/>
+      <c r="BC4" s="263"/>
+      <c r="BD4" s="263"/>
+      <c r="BE4" s="263"/>
+      <c r="BF4" s="263"/>
+      <c r="BG4" s="263"/>
+      <c r="BH4" s="263"/>
+      <c r="BI4" s="263"/>
+      <c r="BJ4" s="263"/>
+      <c r="BK4" s="263"/>
+      <c r="BL4" s="263"/>
+      <c r="BM4" s="263"/>
+      <c r="BN4" s="263"/>
+      <c r="BO4" s="263"/>
+      <c r="BP4" s="263"/>
+      <c r="BQ4" s="263"/>
+      <c r="BR4" s="263"/>
+      <c r="BS4" s="263"/>
+      <c r="BT4" s="263"/>
+      <c r="BU4" s="263"/>
+      <c r="BV4" s="263"/>
+      <c r="BW4" s="263"/>
+      <c r="BX4" s="263"/>
+      <c r="BY4" s="263"/>
+      <c r="BZ4" s="263"/>
+      <c r="CA4" s="263"/>
+      <c r="CB4" s="263"/>
+      <c r="CC4" s="263"/>
+      <c r="CD4" s="263"/>
+      <c r="CE4" s="263"/>
+      <c r="CF4" s="263"/>
+      <c r="CG4" s="263"/>
+      <c r="CH4" s="263"/>
+      <c r="CI4" s="263"/>
+      <c r="CJ4" s="263"/>
+      <c r="CK4" s="263"/>
+      <c r="CL4" s="263"/>
+      <c r="CM4" s="263"/>
+      <c r="CN4" s="263"/>
+      <c r="CO4" s="263"/>
+      <c r="CP4" s="263"/>
+      <c r="CQ4" s="263"/>
+      <c r="CR4" s="263"/>
+      <c r="CS4" s="263"/>
+      <c r="CT4" s="263"/>
+      <c r="CU4" s="263"/>
       <c r="CV4" s="6"/>
       <c r="CW4" s="6"/>
       <c r="CX4" s="6"/>
@@ -22262,433 +22262,433 @@
       <c r="DG5" s="7"/>
     </row>
     <row r="6" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="278" t="s">
+      <c r="A6" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="281" t="s">
+      <c r="C6" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="261" t="s">
+      <c r="D6" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="261" t="s">
+      <c r="E6" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="284" t="s">
+      <c r="F6" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="254" t="s">
+      <c r="G6" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="254"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
-      <c r="AA6" s="254"/>
-      <c r="AB6" s="254"/>
-      <c r="AC6" s="254"/>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="254"/>
-      <c r="AF6" s="254"/>
-      <c r="AG6" s="254"/>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="254"/>
-      <c r="AJ6" s="254"/>
-      <c r="AK6" s="254"/>
-      <c r="AL6" s="254"/>
-      <c r="AM6" s="254"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
-      <c r="AX6" s="254"/>
-      <c r="AY6" s="254"/>
-      <c r="AZ6" s="254"/>
-      <c r="BA6" s="254"/>
-      <c r="BB6" s="254"/>
-      <c r="BC6" s="254"/>
-      <c r="BD6" s="254"/>
-      <c r="BE6" s="254"/>
-      <c r="BF6" s="254"/>
-      <c r="BG6" s="254"/>
-      <c r="BH6" s="254"/>
-      <c r="BI6" s="254"/>
-      <c r="BJ6" s="254"/>
-      <c r="BK6" s="254"/>
-      <c r="BL6" s="254"/>
-      <c r="BM6" s="254"/>
-      <c r="BN6" s="254"/>
-      <c r="BO6" s="254"/>
-      <c r="BP6" s="254"/>
-      <c r="BQ6" s="254"/>
-      <c r="BR6" s="254"/>
-      <c r="BS6" s="254"/>
-      <c r="BT6" s="254"/>
-      <c r="BU6" s="254"/>
-      <c r="BV6" s="254"/>
-      <c r="BW6" s="254"/>
-      <c r="BX6" s="254"/>
-      <c r="BY6" s="254"/>
-      <c r="BZ6" s="254"/>
-      <c r="CA6" s="254"/>
-      <c r="CB6" s="254"/>
-      <c r="CC6" s="254"/>
-      <c r="CD6" s="254"/>
-      <c r="CE6" s="254"/>
-      <c r="CF6" s="254"/>
-      <c r="CG6" s="254"/>
-      <c r="CH6" s="254"/>
-      <c r="CI6" s="254"/>
-      <c r="CJ6" s="254"/>
-      <c r="CK6" s="254"/>
-      <c r="CL6" s="254"/>
-      <c r="CM6" s="254"/>
-      <c r="CN6" s="254"/>
-      <c r="CO6" s="254"/>
-      <c r="CP6" s="254"/>
-      <c r="CQ6" s="254"/>
-      <c r="CR6" s="254"/>
-      <c r="CS6" s="254"/>
-      <c r="CT6" s="254"/>
-      <c r="CU6" s="254"/>
-      <c r="CV6" s="268" t="s">
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="289"/>
+      <c r="M6" s="289"/>
+      <c r="N6" s="289"/>
+      <c r="O6" s="289"/>
+      <c r="P6" s="289"/>
+      <c r="Q6" s="289"/>
+      <c r="R6" s="289"/>
+      <c r="S6" s="289"/>
+      <c r="T6" s="289"/>
+      <c r="U6" s="289"/>
+      <c r="V6" s="289"/>
+      <c r="W6" s="289"/>
+      <c r="X6" s="289"/>
+      <c r="Y6" s="289"/>
+      <c r="Z6" s="289"/>
+      <c r="AA6" s="289"/>
+      <c r="AB6" s="289"/>
+      <c r="AC6" s="289"/>
+      <c r="AD6" s="289"/>
+      <c r="AE6" s="289"/>
+      <c r="AF6" s="289"/>
+      <c r="AG6" s="289"/>
+      <c r="AH6" s="289"/>
+      <c r="AI6" s="289"/>
+      <c r="AJ6" s="289"/>
+      <c r="AK6" s="289"/>
+      <c r="AL6" s="289"/>
+      <c r="AM6" s="289"/>
+      <c r="AN6" s="289"/>
+      <c r="AO6" s="289"/>
+      <c r="AP6" s="289"/>
+      <c r="AQ6" s="289"/>
+      <c r="AR6" s="289"/>
+      <c r="AS6" s="289"/>
+      <c r="AT6" s="289"/>
+      <c r="AU6" s="289"/>
+      <c r="AV6" s="289"/>
+      <c r="AW6" s="289"/>
+      <c r="AX6" s="289"/>
+      <c r="AY6" s="289"/>
+      <c r="AZ6" s="289"/>
+      <c r="BA6" s="289"/>
+      <c r="BB6" s="289"/>
+      <c r="BC6" s="289"/>
+      <c r="BD6" s="289"/>
+      <c r="BE6" s="289"/>
+      <c r="BF6" s="289"/>
+      <c r="BG6" s="289"/>
+      <c r="BH6" s="289"/>
+      <c r="BI6" s="289"/>
+      <c r="BJ6" s="289"/>
+      <c r="BK6" s="289"/>
+      <c r="BL6" s="289"/>
+      <c r="BM6" s="289"/>
+      <c r="BN6" s="289"/>
+      <c r="BO6" s="289"/>
+      <c r="BP6" s="289"/>
+      <c r="BQ6" s="289"/>
+      <c r="BR6" s="289"/>
+      <c r="BS6" s="289"/>
+      <c r="BT6" s="289"/>
+      <c r="BU6" s="289"/>
+      <c r="BV6" s="289"/>
+      <c r="BW6" s="289"/>
+      <c r="BX6" s="289"/>
+      <c r="BY6" s="289"/>
+      <c r="BZ6" s="289"/>
+      <c r="CA6" s="289"/>
+      <c r="CB6" s="289"/>
+      <c r="CC6" s="289"/>
+      <c r="CD6" s="289"/>
+      <c r="CE6" s="289"/>
+      <c r="CF6" s="289"/>
+      <c r="CG6" s="289"/>
+      <c r="CH6" s="289"/>
+      <c r="CI6" s="289"/>
+      <c r="CJ6" s="289"/>
+      <c r="CK6" s="289"/>
+      <c r="CL6" s="289"/>
+      <c r="CM6" s="289"/>
+      <c r="CN6" s="289"/>
+      <c r="CO6" s="289"/>
+      <c r="CP6" s="289"/>
+      <c r="CQ6" s="289"/>
+      <c r="CR6" s="289"/>
+      <c r="CS6" s="289"/>
+      <c r="CT6" s="289"/>
+      <c r="CU6" s="289"/>
+      <c r="CV6" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="CW6" s="269"/>
-      <c r="CX6" s="268" t="s">
+      <c r="CW6" s="252"/>
+      <c r="CX6" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="CY6" s="272"/>
-      <c r="CZ6" s="272"/>
-      <c r="DA6" s="272"/>
-      <c r="DB6" s="272"/>
-      <c r="DC6" s="272"/>
-      <c r="DD6" s="272"/>
-      <c r="DE6" s="272"/>
-      <c r="DF6" s="272"/>
-      <c r="DG6" s="272"/>
-      <c r="DH6" s="244" t="s">
+      <c r="CY6" s="255"/>
+      <c r="CZ6" s="255"/>
+      <c r="DA6" s="255"/>
+      <c r="DB6" s="255"/>
+      <c r="DC6" s="255"/>
+      <c r="DD6" s="255"/>
+      <c r="DE6" s="255"/>
+      <c r="DF6" s="255"/>
+      <c r="DG6" s="255"/>
+      <c r="DH6" s="279" t="s">
         <v>37</v>
       </c>
-      <c r="DI6" s="247" t="s">
+      <c r="DI6" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="DJ6" s="257" t="s">
+      <c r="DJ6" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="DK6" s="257"/>
-      <c r="DL6" s="257"/>
-      <c r="DM6" s="257"/>
-      <c r="DN6" s="257"/>
-      <c r="DO6" s="258"/>
+      <c r="DK6" s="240"/>
+      <c r="DL6" s="240"/>
+      <c r="DM6" s="240"/>
+      <c r="DN6" s="240"/>
+      <c r="DO6" s="241"/>
     </row>
     <row r="7" spans="1:136" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="276"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="255"/>
-      <c r="Z7" s="255"/>
-      <c r="AA7" s="255"/>
-      <c r="AB7" s="255"/>
-      <c r="AC7" s="255"/>
-      <c r="AD7" s="255"/>
-      <c r="AE7" s="255"/>
-      <c r="AF7" s="255"/>
-      <c r="AG7" s="255"/>
-      <c r="AH7" s="255"/>
-      <c r="AI7" s="255"/>
-      <c r="AJ7" s="255"/>
-      <c r="AK7" s="255"/>
-      <c r="AL7" s="255"/>
-      <c r="AM7" s="255"/>
-      <c r="AN7" s="255"/>
-      <c r="AO7" s="255"/>
-      <c r="AP7" s="255"/>
-      <c r="AQ7" s="255"/>
-      <c r="AR7" s="255"/>
-      <c r="AS7" s="255"/>
-      <c r="AT7" s="255"/>
-      <c r="AU7" s="255"/>
-      <c r="AV7" s="255"/>
-      <c r="AW7" s="255"/>
-      <c r="AX7" s="255"/>
-      <c r="AY7" s="255"/>
-      <c r="AZ7" s="255"/>
-      <c r="BA7" s="255"/>
-      <c r="BB7" s="255"/>
-      <c r="BC7" s="255"/>
-      <c r="BD7" s="255"/>
-      <c r="BE7" s="255"/>
-      <c r="BF7" s="255"/>
-      <c r="BG7" s="255"/>
-      <c r="BH7" s="255"/>
-      <c r="BI7" s="255"/>
-      <c r="BJ7" s="255"/>
-      <c r="BK7" s="255"/>
-      <c r="BL7" s="255"/>
-      <c r="BM7" s="255"/>
-      <c r="BN7" s="255"/>
-      <c r="BO7" s="256"/>
-      <c r="BP7" s="256"/>
-      <c r="BQ7" s="256"/>
-      <c r="BR7" s="255"/>
-      <c r="BS7" s="255"/>
-      <c r="BT7" s="255"/>
-      <c r="BU7" s="255"/>
-      <c r="BV7" s="255"/>
-      <c r="BW7" s="255"/>
-      <c r="BX7" s="255"/>
-      <c r="BY7" s="255"/>
-      <c r="BZ7" s="255"/>
-      <c r="CA7" s="255"/>
-      <c r="CB7" s="255"/>
-      <c r="CC7" s="255"/>
-      <c r="CD7" s="255"/>
-      <c r="CE7" s="255"/>
-      <c r="CF7" s="255"/>
-      <c r="CG7" s="255"/>
-      <c r="CH7" s="255"/>
-      <c r="CI7" s="255"/>
-      <c r="CJ7" s="255"/>
-      <c r="CK7" s="255"/>
-      <c r="CL7" s="255"/>
-      <c r="CM7" s="255"/>
-      <c r="CN7" s="255"/>
-      <c r="CO7" s="255"/>
-      <c r="CP7" s="255"/>
-      <c r="CQ7" s="255"/>
-      <c r="CR7" s="255"/>
-      <c r="CS7" s="255"/>
-      <c r="CT7" s="255"/>
-      <c r="CU7" s="255"/>
-      <c r="CV7" s="270"/>
-      <c r="CW7" s="271"/>
-      <c r="CX7" s="270"/>
-      <c r="CY7" s="273"/>
-      <c r="CZ7" s="273"/>
-      <c r="DA7" s="273"/>
-      <c r="DB7" s="273"/>
-      <c r="DC7" s="273"/>
-      <c r="DD7" s="273"/>
-      <c r="DE7" s="273"/>
-      <c r="DF7" s="273"/>
-      <c r="DG7" s="273"/>
-      <c r="DH7" s="245"/>
-      <c r="DI7" s="248"/>
-      <c r="DJ7" s="259"/>
-      <c r="DK7" s="259"/>
-      <c r="DL7" s="259"/>
-      <c r="DM7" s="259"/>
-      <c r="DN7" s="259"/>
-      <c r="DO7" s="260"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="290"/>
+      <c r="K7" s="290"/>
+      <c r="L7" s="290"/>
+      <c r="M7" s="290"/>
+      <c r="N7" s="290"/>
+      <c r="O7" s="290"/>
+      <c r="P7" s="290"/>
+      <c r="Q7" s="290"/>
+      <c r="R7" s="290"/>
+      <c r="S7" s="290"/>
+      <c r="T7" s="290"/>
+      <c r="U7" s="290"/>
+      <c r="V7" s="290"/>
+      <c r="W7" s="290"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="290"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="290"/>
+      <c r="AD7" s="290"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="290"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="290"/>
+      <c r="AJ7" s="290"/>
+      <c r="AK7" s="290"/>
+      <c r="AL7" s="290"/>
+      <c r="AM7" s="290"/>
+      <c r="AN7" s="290"/>
+      <c r="AO7" s="290"/>
+      <c r="AP7" s="290"/>
+      <c r="AQ7" s="290"/>
+      <c r="AR7" s="290"/>
+      <c r="AS7" s="290"/>
+      <c r="AT7" s="290"/>
+      <c r="AU7" s="290"/>
+      <c r="AV7" s="290"/>
+      <c r="AW7" s="290"/>
+      <c r="AX7" s="290"/>
+      <c r="AY7" s="290"/>
+      <c r="AZ7" s="290"/>
+      <c r="BA7" s="290"/>
+      <c r="BB7" s="290"/>
+      <c r="BC7" s="290"/>
+      <c r="BD7" s="290"/>
+      <c r="BE7" s="290"/>
+      <c r="BF7" s="290"/>
+      <c r="BG7" s="290"/>
+      <c r="BH7" s="290"/>
+      <c r="BI7" s="290"/>
+      <c r="BJ7" s="290"/>
+      <c r="BK7" s="290"/>
+      <c r="BL7" s="290"/>
+      <c r="BM7" s="290"/>
+      <c r="BN7" s="290"/>
+      <c r="BO7" s="291"/>
+      <c r="BP7" s="291"/>
+      <c r="BQ7" s="291"/>
+      <c r="BR7" s="290"/>
+      <c r="BS7" s="290"/>
+      <c r="BT7" s="290"/>
+      <c r="BU7" s="290"/>
+      <c r="BV7" s="290"/>
+      <c r="BW7" s="290"/>
+      <c r="BX7" s="290"/>
+      <c r="BY7" s="290"/>
+      <c r="BZ7" s="290"/>
+      <c r="CA7" s="290"/>
+      <c r="CB7" s="290"/>
+      <c r="CC7" s="290"/>
+      <c r="CD7" s="290"/>
+      <c r="CE7" s="290"/>
+      <c r="CF7" s="290"/>
+      <c r="CG7" s="290"/>
+      <c r="CH7" s="290"/>
+      <c r="CI7" s="290"/>
+      <c r="CJ7" s="290"/>
+      <c r="CK7" s="290"/>
+      <c r="CL7" s="290"/>
+      <c r="CM7" s="290"/>
+      <c r="CN7" s="290"/>
+      <c r="CO7" s="290"/>
+      <c r="CP7" s="290"/>
+      <c r="CQ7" s="290"/>
+      <c r="CR7" s="290"/>
+      <c r="CS7" s="290"/>
+      <c r="CT7" s="290"/>
+      <c r="CU7" s="290"/>
+      <c r="CV7" s="253"/>
+      <c r="CW7" s="254"/>
+      <c r="CX7" s="253"/>
+      <c r="CY7" s="256"/>
+      <c r="CZ7" s="256"/>
+      <c r="DA7" s="256"/>
+      <c r="DB7" s="256"/>
+      <c r="DC7" s="256"/>
+      <c r="DD7" s="256"/>
+      <c r="DE7" s="256"/>
+      <c r="DF7" s="256"/>
+      <c r="DG7" s="256"/>
+      <c r="DH7" s="280"/>
+      <c r="DI7" s="283"/>
+      <c r="DJ7" s="242"/>
+      <c r="DK7" s="242"/>
+      <c r="DL7" s="242"/>
+      <c r="DM7" s="242"/>
+      <c r="DN7" s="242"/>
+      <c r="DO7" s="243"/>
     </row>
     <row r="8" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="277"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="296">
+      <c r="A8" s="266"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="272"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="303">
         <v>1</v>
       </c>
-      <c r="H8" s="288"/>
-      <c r="I8" s="289"/>
-      <c r="J8" s="287">
+      <c r="H8" s="295"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="294">
         <v>2</v>
       </c>
-      <c r="K8" s="288"/>
-      <c r="L8" s="289"/>
-      <c r="M8" s="287">
+      <c r="K8" s="295"/>
+      <c r="L8" s="296"/>
+      <c r="M8" s="294">
         <v>3</v>
       </c>
-      <c r="N8" s="288"/>
-      <c r="O8" s="291"/>
-      <c r="P8" s="287">
+      <c r="N8" s="295"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="294">
         <v>4</v>
       </c>
-      <c r="Q8" s="288"/>
-      <c r="R8" s="289"/>
-      <c r="S8" s="239">
+      <c r="Q8" s="295"/>
+      <c r="R8" s="296"/>
+      <c r="S8" s="257">
         <v>5</v>
       </c>
-      <c r="T8" s="240"/>
-      <c r="U8" s="241"/>
-      <c r="V8" s="239">
+      <c r="T8" s="258"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="257">
         <v>6</v>
       </c>
-      <c r="W8" s="240"/>
-      <c r="X8" s="242"/>
-      <c r="Y8" s="287">
+      <c r="W8" s="258"/>
+      <c r="X8" s="259"/>
+      <c r="Y8" s="294">
         <v>7</v>
       </c>
-      <c r="Z8" s="288"/>
-      <c r="AA8" s="289"/>
-      <c r="AB8" s="287">
+      <c r="Z8" s="295"/>
+      <c r="AA8" s="296"/>
+      <c r="AB8" s="294">
         <v>8</v>
       </c>
-      <c r="AC8" s="288"/>
-      <c r="AD8" s="289"/>
-      <c r="AE8" s="287">
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="296"/>
+      <c r="AE8" s="294">
         <v>9</v>
       </c>
-      <c r="AF8" s="288"/>
-      <c r="AG8" s="291"/>
-      <c r="AH8" s="287">
+      <c r="AF8" s="295"/>
+      <c r="AG8" s="298"/>
+      <c r="AH8" s="294">
         <v>10</v>
       </c>
-      <c r="AI8" s="288"/>
-      <c r="AJ8" s="289"/>
-      <c r="AK8" s="287">
+      <c r="AI8" s="295"/>
+      <c r="AJ8" s="296"/>
+      <c r="AK8" s="294">
         <v>11</v>
       </c>
-      <c r="AL8" s="288"/>
-      <c r="AM8" s="289"/>
-      <c r="AN8" s="253">
+      <c r="AL8" s="295"/>
+      <c r="AM8" s="296"/>
+      <c r="AN8" s="288">
         <v>12</v>
       </c>
-      <c r="AO8" s="240"/>
-      <c r="AP8" s="241"/>
-      <c r="AQ8" s="239">
+      <c r="AO8" s="258"/>
+      <c r="AP8" s="278"/>
+      <c r="AQ8" s="257">
         <v>13</v>
       </c>
-      <c r="AR8" s="240"/>
-      <c r="AS8" s="242"/>
-      <c r="AT8" s="290">
+      <c r="AR8" s="258"/>
+      <c r="AS8" s="259"/>
+      <c r="AT8" s="297">
         <v>14</v>
       </c>
-      <c r="AU8" s="288"/>
-      <c r="AV8" s="289"/>
-      <c r="AW8" s="287">
+      <c r="AU8" s="295"/>
+      <c r="AV8" s="296"/>
+      <c r="AW8" s="294">
         <v>15</v>
       </c>
-      <c r="AX8" s="288"/>
-      <c r="AY8" s="289"/>
-      <c r="AZ8" s="287">
+      <c r="AX8" s="295"/>
+      <c r="AY8" s="296"/>
+      <c r="AZ8" s="294">
         <v>16</v>
       </c>
-      <c r="BA8" s="288"/>
-      <c r="BB8" s="289"/>
-      <c r="BC8" s="287">
+      <c r="BA8" s="295"/>
+      <c r="BB8" s="296"/>
+      <c r="BC8" s="294">
         <v>17</v>
       </c>
-      <c r="BD8" s="288"/>
-      <c r="BE8" s="291"/>
-      <c r="BF8" s="287">
+      <c r="BD8" s="295"/>
+      <c r="BE8" s="298"/>
+      <c r="BF8" s="294">
         <v>18</v>
       </c>
-      <c r="BG8" s="288"/>
-      <c r="BH8" s="289"/>
-      <c r="BI8" s="253">
+      <c r="BG8" s="295"/>
+      <c r="BH8" s="296"/>
+      <c r="BI8" s="288">
         <v>19</v>
       </c>
-      <c r="BJ8" s="240"/>
-      <c r="BK8" s="241"/>
-      <c r="BL8" s="239">
+      <c r="BJ8" s="258"/>
+      <c r="BK8" s="278"/>
+      <c r="BL8" s="257">
         <v>20</v>
       </c>
-      <c r="BM8" s="240"/>
-      <c r="BN8" s="242"/>
-      <c r="BO8" s="287">
+      <c r="BM8" s="258"/>
+      <c r="BN8" s="259"/>
+      <c r="BO8" s="294">
         <v>21</v>
       </c>
-      <c r="BP8" s="288"/>
-      <c r="BQ8" s="289"/>
-      <c r="BR8" s="287">
+      <c r="BP8" s="295"/>
+      <c r="BQ8" s="296"/>
+      <c r="BR8" s="294">
         <v>22</v>
       </c>
-      <c r="BS8" s="288"/>
-      <c r="BT8" s="289"/>
-      <c r="BU8" s="290">
+      <c r="BS8" s="295"/>
+      <c r="BT8" s="296"/>
+      <c r="BU8" s="297">
         <v>23</v>
       </c>
-      <c r="BV8" s="288"/>
-      <c r="BW8" s="291"/>
-      <c r="BX8" s="287">
+      <c r="BV8" s="295"/>
+      <c r="BW8" s="298"/>
+      <c r="BX8" s="294">
         <v>24</v>
       </c>
-      <c r="BY8" s="288"/>
-      <c r="BZ8" s="289"/>
-      <c r="CA8" s="290">
+      <c r="BY8" s="295"/>
+      <c r="BZ8" s="296"/>
+      <c r="CA8" s="297">
         <v>25</v>
       </c>
-      <c r="CB8" s="288"/>
-      <c r="CC8" s="291"/>
-      <c r="CD8" s="239">
+      <c r="CB8" s="295"/>
+      <c r="CC8" s="298"/>
+      <c r="CD8" s="257">
         <v>26</v>
       </c>
-      <c r="CE8" s="240"/>
-      <c r="CF8" s="242"/>
-      <c r="CG8" s="253">
+      <c r="CE8" s="258"/>
+      <c r="CF8" s="259"/>
+      <c r="CG8" s="288">
         <v>27</v>
       </c>
-      <c r="CH8" s="240"/>
-      <c r="CI8" s="241"/>
-      <c r="CJ8" s="287">
+      <c r="CH8" s="258"/>
+      <c r="CI8" s="278"/>
+      <c r="CJ8" s="294">
         <v>28</v>
       </c>
-      <c r="CK8" s="288"/>
-      <c r="CL8" s="289"/>
-      <c r="CM8" s="287">
+      <c r="CK8" s="295"/>
+      <c r="CL8" s="296"/>
+      <c r="CM8" s="294">
         <v>29</v>
       </c>
-      <c r="CN8" s="288"/>
-      <c r="CO8" s="289"/>
-      <c r="CP8" s="287">
+      <c r="CN8" s="295"/>
+      <c r="CO8" s="296"/>
+      <c r="CP8" s="294">
         <v>30</v>
       </c>
-      <c r="CQ8" s="288"/>
-      <c r="CR8" s="289"/>
-      <c r="CS8" s="293">
+      <c r="CQ8" s="295"/>
+      <c r="CR8" s="296"/>
+      <c r="CS8" s="300">
         <v>31</v>
       </c>
-      <c r="CT8" s="294"/>
-      <c r="CU8" s="295"/>
+      <c r="CT8" s="301"/>
+      <c r="CU8" s="302"/>
       <c r="CV8" s="8" t="s">
         <v>2</v>
       </c>
@@ -22725,8 +22725,8 @@
       <c r="DG8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH8" s="246"/>
-      <c r="DI8" s="249"/>
+      <c r="DH8" s="281"/>
+      <c r="DI8" s="284"/>
       <c r="DJ8" s="13" t="s">
         <v>5</v>
       </c>
@@ -23355,9 +23355,7 @@
         <f>SUM(G10:CU10)</f>
         <v>160</v>
       </c>
-      <c r="DK10" s="170">
-        <v>0</v>
-      </c>
+      <c r="DK10" s="170"/>
       <c r="DL10" s="170"/>
       <c r="DM10" s="170"/>
       <c r="DN10" s="179">
@@ -23657,9 +23655,7 @@
         <f t="shared" ref="DJ11:DJ23" si="24">SUM(G11:CU11)</f>
         <v>178</v>
       </c>
-      <c r="DK11" s="190">
-        <v>0</v>
-      </c>
+      <c r="DK11" s="190"/>
       <c r="DL11" s="190"/>
       <c r="DM11" s="190"/>
       <c r="DN11" s="191">
@@ -23730,7 +23726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:136" s="299" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:136" s="235" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="197">
         <f t="shared" ref="A12:A23" si="25">A11+1</f>
         <v>3</v>
@@ -23971,9 +23967,7 @@
         <f t="shared" si="24"/>
         <v>168.75</v>
       </c>
-      <c r="DK12" s="213">
-        <v>0</v>
-      </c>
+      <c r="DK12" s="213"/>
       <c r="DL12" s="213"/>
       <c r="DM12" s="213"/>
       <c r="DN12" s="214">
@@ -23983,68 +23977,68 @@
       <c r="DO12" s="215">
         <v>0</v>
       </c>
-      <c r="DQ12" s="300">
+      <c r="DQ12" s="236">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="DR12" s="300">
+      <c r="DR12" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DS12" s="300">
+      <c r="DS12" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DT12" s="300">
+      <c r="DT12" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DU12" s="300">
+      <c r="DU12" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DV12" s="300">
+      <c r="DV12" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DW12" s="300">
+      <c r="DW12" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DX12" s="300">
+      <c r="DX12" s="236">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="DY12" s="300">
+      <c r="DY12" s="236">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DZ12" s="300">
+      <c r="DZ12" s="236">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="EA12" s="300">
+      <c r="EA12" s="236">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="EB12" s="300">
+      <c r="EB12" s="236">
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="EC12" s="300">
+      <c r="EC12" s="236">
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="EE12" s="301">
+      <c r="EE12" s="237">
         <f t="shared" ref="EE12:EE23" si="26">COUNTIF(G12:CU12, "4")</f>
         <v>8</v>
       </c>
-      <c r="EF12" s="301">
+      <c r="EF12" s="237">
         <f t="shared" ref="EF12:EF23" si="27">COUNTIF(G12:CU12, "7,25")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:136" s="299" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:136" s="235" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="197">
         <f t="shared" si="25"/>
         <v>4</v>
@@ -24281,9 +24275,7 @@
         <f t="shared" si="24"/>
         <v>78.75</v>
       </c>
-      <c r="DK13" s="217">
-        <v>0</v>
-      </c>
+      <c r="DK13" s="217"/>
       <c r="DL13" s="217"/>
       <c r="DM13" s="217"/>
       <c r="DN13" s="218">
@@ -24293,63 +24285,63 @@
       <c r="DO13" s="215">
         <v>0</v>
       </c>
-      <c r="DQ13" s="300">
+      <c r="DQ13" s="236">
         <f>IF(I13=4,1,0)+IF(U13=4,1,0)+IF(X13=4,1,0)+IF(AA13=4,1,0)+IF(AD13=4,1,0)+IF(AG13=4,1,0)+IF(AJ13=4,1,0)+IF(AM13=4,1,0)+IF(AP13=4,1,0)+IF(AS13=4,1,0)+IF(AV13=4,1,0)+IF(AY13=4,1,0)+IF(BB13=4,1,0)+IF(BE13=4,1,0)+IF(BH13=4,1,0)+IF(BK13=4,1,0)+IF(BN13=4,1,0)+IF(BQ13=4,1,0)+IF(BT13=4,1,0)+IF(BW13=4,1,0)+IF(BZ13=4,1,0)+IF(CC13=4,1,0)+IF(CF13=4,1,0)+IF(CI13=4,1,0)+IF(CL13=4,1,0)+IF(CO13=4,1,0)+IF(CR13=4,1,0)+IF(CU13=4,1,0)+IF(L13=4,1,0)+IF(O13=4,1,0)+IF(R13=4,1,0)</f>
         <v>4</v>
       </c>
-      <c r="DR13" s="300">
+      <c r="DR13" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DS13" s="300">
+      <c r="DS13" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DT13" s="300">
+      <c r="DT13" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DU13" s="300">
+      <c r="DU13" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DV13" s="300">
+      <c r="DV13" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DW13" s="300">
+      <c r="DW13" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DX13" s="300">
+      <c r="DX13" s="236">
         <f>IF(N13=7,1,0)+IF(Q13=7,1,0)+IF(T13=7,1,0)+IF(W13=7,1,0)+IF(Z13=7,1,0)+IF(AC13=7,1,0)+IF(AF13=7,1,0)+IF(AI13=7,1,0)+IF(AL13=7,1,0)+IF(AO13=7,1,0)+IF(AR13=7,1,0)+IF(AU13=7,1,0)+IF(AX13=7,1,0)+IF(BA13=7,1,0)+IF(BD13=7,1,0)+IF(BG13=7,1,0)+IF(BJ13=7,1,0)+IF(BM13=7,1,0)+IF(BP13=7,1,0)+IF(BS13=7,1,0)+IF(BV13=7,1,0)+IF(BY13=7,1,0)+IF(CB13=7,1,0)+IF(CE13=7,1,0)+IF(CH13=7,1,0)+IF(CK13=7,1,0)+IF(CN13=7,1,0)+IF(CQ13=7,1,0)+IF(CT13=7,1,0)+IF(H13=7,1,0)+IF(K13=7,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DY13" s="300">
+      <c r="DY13" s="236">
         <f>IF(Q13=11.5,1,0)+IF(T13=11.5,1,0)+IF(W13=11.5,1,0)+IF(Z13=11.5,1,0)+IF(AC13=11.5,1,0)+IF(AF13=11.5,1,0)+IF(AI13=11.5,1,0)+IF(AL13=11.5,1,0)+IF(AO13=11.5,1,0)+IF(AR13=11.5,1,0)+IF(AU13=11.5,1,0)+IF(AX13=11.5,1,0)+IF(BA13=11.5,1,0)+IF(BD13=11.5,1,0)+IF(BG13=11.5,1,0)+IF(BJ13=11.5,1,0)+IF(BM13=11.5,1,0)+IF(BP13=11.5,1,0)+IF(BS13=11.5,1,0)+IF(BV13=11.5,1,0)+IF(BY13=11.5,1,0)+IF(CB13=11.5,1,0)+IF(CE13=11.5,1,0)+IF(CH13=11.5,1,0)+IF(CK13=11.5,1,0)+IF(CN13=11.5,1,0)+IF(CQ13=11.5,1,0)+IF(CT13=11.5,1,0)+IF(H13=11.5,1,0)+IF(K13=11.5,1,0)+IF(N13=11.5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DZ13" s="300">
+      <c r="DZ13" s="236">
         <f>IF(S13=11.5,1,0)+IF(V13=11.5,1,0)+IF(Y13=11.5,1,0)+IF(AB13=11.5,1,0)+IF(AE13=11.5,1,0)+IF(AH13=11.5,1,0)+IF(AK13=11.5,1,0)+IF(AN13=11.5,1,0)+IF(AQ13=11.5,1,0)+IF(AT13=11.5,1,0)+IF(AW13=11.5,1,0)+IF(AZ13=11.5,1,0)+IF(BC13=11.5,1,0)+IF(BF13=11.5,1,0)+IF(BI13=11.5,1,0)+IF(BL13=11.5,1,0)+IF(BO13=11.5,1,0)+IF(BR13=11.5,1,0)+IF(BU13=11.5,1,0)+IF(BX13=11.5,1,0)+IF(CA13=11.5,1,0)+IF(CD13=11.5,1,0)+IF(CG13=11.5,1,0)+IF(CJ13=11.5,1,0)+IF(CM13=11.5,1,0)+IF(CP13=11.5,1,0)+IF(CS13=11.5,1,0)+IF(G13=11.5,1,0)+IF(J13=11.5,1,0)+IF(M13=11.5,1,0)+IF(P13=11.5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="EA13" s="300">
+      <c r="EA13" s="236">
         <f>IF(Q13=9,1,0)+IF(T13=9,1,0)+IF(W13=9,1,0)+IF(Z13=9,1,0)+IF(AC13=9,1,0)+IF(AF13=9,1,0)+IF(AI13=9,1,0)+IF(AL13=9,1,0)+IF(AO13=9,1,0)+IF(AR13=9,1,0)+IF(AU13=9,1,0)+IF(AX13=9,1,0)+IF(BA13=9,1,0)+IF(BD13=9,1,0)+IF(BG13=9,1,0)+IF(BJ13=9,1,0)+IF(BM13=9,1,0)+IF(BP13=9,1,0)+IF(BS13=9,1,0)+IF(BV13=9,1,0)+IF(BY13=9,1,0)+IF(CB13=9,1,0)+IF(CE13=9,1,0)+IF(CH13=9,1,0)+IF(CK13=9,1,0)+IF(CN13=9,1,0)+IF(CQ13=9,1,0)+IF(CT13=9,1,0)+IF(H13=9,1,0)+IF(K13=9,1,0)+IF(N13=9,1,0)</f>
         <v>0</v>
       </c>
-      <c r="EB13" s="300">
+      <c r="EB13" s="236">
         <f>IF(Q13=11.25,1,0)+IF(T13=11.25,1,0)+IF(W13=11.25,1,0)+IF(Z13=11.25,1,0)+IF(AC13=11.25,1,0)+IF(AF13=11.25,1,0)+IF(AI13=11.25,1,0)+IF(AL13=11.25,1,0)+IF(AO13=11.25,1,0)+IF(AR13=11.25,1,0)+IF(AU13=11.25,1,0)+IF(AX13=11.25,1,0)+IF(BA13=11.25,1,0)+IF(BD13=11.25,1,0)+IF(BG13=11.25,1,0)+IF(BJ13=11.25,1,0)+IF(BM13=11.25,1,0)+IF(BP13=11.25,1,0)+IF(BS13=11.25,1,0)+IF(BV13=11.25,1,0)+IF(BY13=11.25,1,0)+IF(CB13=11.25,1,0)+IF(CE13=11.25,1,0)+IF(CH13=11.25,1,0)+IF(CK13=11.25,1,0)+IF(CN13=11.25,1,0)+IF(CQ13=11.25,1,0)+IF(CT13=11.25,1,0)+IF(H13=11.25,1,0)+IF(K13=11.25,1,0)+IF(N13=11.25,1,0)</f>
         <v>3</v>
       </c>
-      <c r="EC13" s="300">
+      <c r="EC13" s="236">
         <f>IF(S13=7.25,1,0)+IF(V13=7.25,1,0)+IF(Y13=7.25,1,0)+IF(AB13=7.25,1,0)+IF(AE13=7.25,1,0)+IF(AH13=7.25,1,0)+IF(AK13=7.25,1,0)+IF(AN13=7.25,1,0)+IF(AQ13=7.25,1,0)+IF(AT13=7.25,1,0)+IF(AW13=7.25,1,0)+IF(AZ13=7.25,1,0)+IF(BC13=7.25,1,0)+IF(BF13=7.25,1,0)+IF(BI13=7.25,1,0)+IF(BL13=7.25,1,0)+IF(BO13=7.25,1,0)+IF(BR13=7.25,1,0)+IF(BU13=7.25,1,0)+IF(BX13=7.25,1,0)+IF(CA13=7.25,1,0)+IF(CD13=7.25,1,0)+IF(CG13=7.25,1,0)+IF(CJ13=7.25,1,0)+IF(CM13=7.25,1,0)+IF(CP13=7.25,1,0)+IF(CS13=7.25,1,0)+IF(G13=7.25,1,0)+IF(J13=7.25,1,0)+IF(M13=7.25,1,0)+IF(P13=7.25,1,0)</f>
         <v>4</v>
       </c>
-      <c r="EE13" s="301">
+      <c r="EE13" s="237">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="EF13" s="301">
+      <c r="EF13" s="237">
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
@@ -24595,9 +24587,7 @@
         <f t="shared" si="24"/>
         <v>176</v>
       </c>
-      <c r="DK14" s="69">
-        <v>0</v>
-      </c>
+      <c r="DK14" s="69"/>
       <c r="DL14" s="69"/>
       <c r="DM14" s="75"/>
       <c r="DN14" s="71">
@@ -24909,9 +24899,7 @@
         <f t="shared" si="24"/>
         <v>176</v>
       </c>
-      <c r="DK15" s="69">
-        <v>0</v>
-      </c>
+      <c r="DK15" s="69"/>
       <c r="DL15" s="69"/>
       <c r="DM15" s="75"/>
       <c r="DN15" s="71">
@@ -24982,7 +24970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:136" s="299" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:136" s="235" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="197">
         <f t="shared" si="25"/>
         <v>7</v>
@@ -25167,47 +25155,47 @@
         <f>IF(SUM(G16:I16)&gt;=1,1,0)+IF(SUM(J16:L16)&gt;=1,1,0)+IF(SUM(M16:O16)&gt;=1,1,0)+IF(SUM(P16:R16)&gt;=1,1,0)+IF(SUM(S16:U16)&gt;=1,1,0)+IF(SUM(V16:X16)&gt;=1,1,0)+IF(SUM(Y16:AA16)&gt;=1,1,0)+IF(SUM(AB16:AD16)&gt;=1,1,0)+IF(SUM(AE16:AG16)&gt;=1,1,0)+IF(SUM(AH16:AJ16)&gt;=1,1,0)+IF(SUM(AK16:AM16)&gt;=1,1,0)+IF(SUM(AN16:AP16)&gt;=1,1,0)+IF(SUM(AQ16:AS16)&gt;=1,1,0)+IF(SUM(AT16:AV16)&gt;=1,1,0)+IF(SUM(AW16:AY16)&gt;=1,1,0)+IF(SUM(AZ16:BB16)&gt;=1,1,0)+IF(SUM(BC16:BE16)&gt;=1,1,0)+IF(SUM(BF16:BH16)&gt;=1,1,0)+IF(SUM(BI16:BK16)&gt;=1,1,0)+IF(SUM(BL16:BN16)&gt;=1,1,0)+IF(SUM(BO16:BQ16)&gt;=1,1,0)+IF(SUM(BR16:BT16)&gt;=1,1,0)+IF(SUM(BU16:BW16)&gt;=1,1,0)+IF(SUM(BX16:BZ16)&gt;=1,1,0)+IF(SUM(CA16:CC16)&gt;=1,1,0)+IF(SUM(CD16:CF16)&gt;=1,1,0)+IF(SUM(CG16:CI16)&gt;=1,1,0)+IF(SUM(CJ16:CL16)&gt;=1,1,0)+IF(SUM(CM16:CO16)&gt;=1,1,0)+IF(SUM(CP16:CR16)&gt;=1,1,0)+IF(SUM(CS16:CU16)&gt;=1,1,0)</f>
         <v>20</v>
       </c>
-      <c r="CW16" s="302">
+      <c r="CW16" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX16" s="303">
+      <c r="CX16" s="239">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY16" s="302">
+      <c r="CY16" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ16" s="302">
+      <c r="CZ16" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA16" s="302">
+      <c r="DA16" s="238">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB16" s="302">
+      <c r="DB16" s="238">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC16" s="302">
+      <c r="DC16" s="238">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD16" s="302">
+      <c r="DD16" s="238">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE16" s="302">
+      <c r="DE16" s="238">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF16" s="302">
+      <c r="DF16" s="238">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG16" s="302">
+      <c r="DG16" s="238">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -25223,9 +25211,7 @@
         <f t="shared" si="24"/>
         <v>180</v>
       </c>
-      <c r="DK16" s="217">
-        <v>0</v>
-      </c>
+      <c r="DK16" s="217"/>
       <c r="DL16" s="217"/>
       <c r="DM16" s="217"/>
       <c r="DN16" s="218">
@@ -25235,68 +25221,68 @@
       <c r="DO16" s="215">
         <v>0</v>
       </c>
-      <c r="DQ16" s="300">
+      <c r="DQ16" s="236">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="DR16" s="300">
+      <c r="DR16" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DS16" s="300">
+      <c r="DS16" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DT16" s="300">
+      <c r="DT16" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DU16" s="300">
+      <c r="DU16" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DV16" s="300">
+      <c r="DV16" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DW16" s="300">
+      <c r="DW16" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DX16" s="300">
+      <c r="DX16" s="236">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="DY16" s="300">
+      <c r="DY16" s="236">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DZ16" s="300">
+      <c r="DZ16" s="236">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="EA16" s="300">
+      <c r="EA16" s="236">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="EB16" s="300">
+      <c r="EB16" s="236">
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="EC16" s="300">
+      <c r="EC16" s="236">
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="EE16" s="301">
+      <c r="EE16" s="237">
         <f t="shared" si="26"/>
         <v>8</v>
       </c>
-      <c r="EF16" s="301">
+      <c r="EF16" s="237">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:136" s="299" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:136" s="235" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="197">
         <f t="shared" si="25"/>
         <v>8</v>
@@ -25481,47 +25467,47 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="CW17" s="302">
+      <c r="CW17" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX17" s="303">
+      <c r="CX17" s="239">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY17" s="302">
+      <c r="CY17" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CZ17" s="302">
+      <c r="CZ17" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DA17" s="302">
+      <c r="DA17" s="238">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DB17" s="302">
+      <c r="DB17" s="238">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="DC17" s="302">
+      <c r="DC17" s="238">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="DD17" s="302">
+      <c r="DD17" s="238">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="DE17" s="302">
+      <c r="DE17" s="238">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF17" s="302">
+      <c r="DF17" s="238">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="DG17" s="302">
+      <c r="DG17" s="238">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -25537,9 +25523,7 @@
         <f t="shared" si="24"/>
         <v>180</v>
       </c>
-      <c r="DK17" s="217">
-        <v>0</v>
-      </c>
+      <c r="DK17" s="217"/>
       <c r="DL17" s="217"/>
       <c r="DM17" s="217"/>
       <c r="DN17" s="218">
@@ -25549,63 +25533,63 @@
       <c r="DO17" s="215">
         <v>0</v>
       </c>
-      <c r="DQ17" s="300">
+      <c r="DQ17" s="236">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="DR17" s="300">
+      <c r="DR17" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DS17" s="300">
+      <c r="DS17" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DT17" s="300">
+      <c r="DT17" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DU17" s="300">
+      <c r="DU17" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DV17" s="300">
+      <c r="DV17" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DW17" s="300">
+      <c r="DW17" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DX17" s="300">
+      <c r="DX17" s="236">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="DY17" s="300">
+      <c r="DY17" s="236">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DZ17" s="300">
+      <c r="DZ17" s="236">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="EA17" s="300">
+      <c r="EA17" s="236">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="EB17" s="300">
+      <c r="EB17" s="236">
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="EC17" s="300">
+      <c r="EC17" s="236">
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="EE17" s="301">
+      <c r="EE17" s="237">
         <f t="shared" si="26"/>
         <v>8</v>
       </c>
-      <c r="EF17" s="301">
+      <c r="EF17" s="237">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
@@ -25851,9 +25835,7 @@
         <f t="shared" si="24"/>
         <v>172.75</v>
       </c>
-      <c r="DK18" s="69">
-        <v>0</v>
-      </c>
+      <c r="DK18" s="69"/>
       <c r="DL18" s="69"/>
       <c r="DM18" s="75"/>
       <c r="DN18" s="71">
@@ -26165,9 +26147,7 @@
         <f t="shared" si="24"/>
         <v>172.75</v>
       </c>
-      <c r="DK19" s="69">
-        <v>0</v>
-      </c>
+      <c r="DK19" s="69"/>
       <c r="DL19" s="69"/>
       <c r="DM19" s="69"/>
       <c r="DN19" s="71">
@@ -26238,7 +26218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:136" s="299" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:136" s="235" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="197">
         <f t="shared" si="25"/>
         <v>11</v>
@@ -26415,7 +26395,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="CW20" s="302">
+      <c r="CW20" s="238">
         <f>IF(CK20="К",1,0)+IF(CN20="К",1,0)+IF(CQ20="К",1,0)+IF(CT20="К",1,0)+IF(CH20="К",1,0)+IF(H20="К",1,0)+IF(K20="К",1,0)+IF(N20="К",1,0)+IF(Q20="К",1,0)+IF(T20="К",1,0)+IF(W20="К",1,0)+IF(Z20="К",1,0)+IF(AC20="К",1,0)+IF(AF20="К",1,0)+IF(AI20="К",1,0)+IF(AL20="К",1,0)+IF(AO20="К",1,0)+IF(AR20="К",1,0)+IF(AU20="К",1,0)+IF(AX20="К",1,0)+IF(BA20="К",1,0)+IF(BD20="К",1,0)+IF(BG20="К",1,0)+IF(BJ20="К",1,0)+IF(BM20="К",1,0)+IF(BP20="К",1,0)+IF(BS20="К",1,0)+IF(BV20="К",1,0)+IF(BY20="К",1,0)+IF(CB20="К",1,0)+IF(CE20="К",1,0)</f>
         <v>0</v>
       </c>
@@ -26423,39 +26403,39 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CY20" s="302">
+      <c r="CY20" s="238">
         <f>IF(CN20="Р",1,0)+IF(CQ20="Р",1,0)+IF(CT20="Р",1,0)+IF(H20="Р",1,0)+IF(K20="Р",1,0)+IF(N20="Р",1,0)+IF(Q20="Р",1,0)+IF(T20="Р",1,0)+IF(W20="Р",1,0)+IF(Z20="Р",1,0)+IF(AC20="Р",1,0)+IF(AF20="Р",1,0)+IF(AI20="Р",1,0)+IF(AL20="Р",1,0)+IF(AO20="Р",1,0)+IF(AR20="Р",1,0)+IF(AU20="Р",1,0)+IF(AX20="Р",1,0)+IF(BA20="Р",1,0)+IF(BD20="Р",1,0)+IF(BG20="Р",1,0)+IF(BJ20="Р",1,0)+IF(BM20="Р",1,0)+IF(BP20="Р",1,0)+IF(BS20="Р",1,0)+IF(BV20="Р",1,0)+IF(BY20="Р",1,0)+IF(CB20="Р",1,0)+IF(CE20="Р",1,0)+IF(CH20="Р",1,0)+IF(CK20="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ20" s="302">
+      <c r="CZ20" s="238">
         <f>IF(CN20="Б",1,0)+IF(CQ20="Б",1,0)+IF(CT20="Б",1,0)+IF(H20="Б",1,0)+IF(K20="Б",1,0)+IF(N20="Б",1,0)+IF(Q20="Б",1,0)+IF(T20="Б",1,0)+IF(W20="Б",1,0)+IF(Z20="Б",1,0)+IF(AC20="Б",1,0)+IF(AF20="Б",1,0)+IF(AI20="Б",1,0)+IF(AL20="Б",1,0)+IF(AO20="Б",1,0)+IF(AR20="Б",1,0)+IF(AU20="Б",1,0)+IF(AX20="Б",1,0)+IF(BA20="Б",1,0)+IF(BD20="Б",1,0)+IF(BG20="Б",1,0)+IF(BJ20="Б",1,0)+IF(BM20="Б",1,0)+IF(BP20="Б",1,0)+IF(BS20="Б",1,0)+IF(BV20="Б",1,0)+IF(BY20="Б",1,0)+IF(CB20="Б",1,0)+IF(CE20="Б",1,0)+IF(CH20="Б",1,0)+IF(CK20="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA20" s="302">
+      <c r="DA20" s="238">
         <f>IF(CN20="А",1,0)+IF(CQ20="А",1,0)+IF(CT20="А",1,0)+IF(H20="А",1,0)+IF(K20="А",1,0)+IF(N20="А",1,0)+IF(Q20="А",1,0)+IF(T20="А",1,0)+IF(W20="А",1,0)+IF(Z20="А",1,0)+IF(AC20="А",1,0)+IF(AF20="А",1,0)+IF(AI20="А",1,0)+IF(AL20="А",1,0)+IF(AO20="А",1,0)+IF(AR20="А",1,0)+IF(AU20="А",1,0)+IF(AX20="А",1,0)+IF(BA20="А",1,0)+IF(BD20="А",1,0)+IF(BG20="А",1,0)+IF(BJ20="А",1,0)+IF(BM20="А",1,0)+IF(BP20="А",1,0)+IF(BS20="А",1,0)+IF(BV20="А",1,0)+IF(BY20="А",1,0)+IF(CB20="А",1,0)+IF(CE20="А",1,0)+IF(CH20="А",1,0)+IF(CK20="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB20" s="302">
+      <c r="DB20" s="238">
         <f>IF(CN20="П",1,0)+IF(CQ20="П",1,0)+IF(CT20="П",1,0)+IF(H20="П",1,0)+IF(K20="П",1,0)+IF(N20="П",1,0)+IF(Q20="П",1,0)+IF(T20="П",1,0)+IF(W20="П",1,0)+IF(Z20="П",1,0)+IF(AC20="П",1,0)+IF(AF20="П",1,0)+IF(AI20="П",1,0)+IF(AL20="П",1,0)+IF(AO20="П",1,0)+IF(AR20="П",1,0)+IF(AU20="П",1,0)+IF(AX20="П",1,0)+IF(BA20="П",1,0)+IF(BD20="П",1,0)+IF(BG20="П",1,0)+IF(BJ20="П",1,0)+IF(BM20="П",1,0)+IF(BP20="П",1,0)+IF(BS20="П",1,0)+IF(BV20="П",1,0)+IF(BY20="П",1,0)+IF(CB20="П",1,0)+IF(CE20="П",1,0)+IF(CH20="П",1,0)+IF(CK20="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC20" s="302">
+      <c r="DC20" s="238">
         <f>IF(CN20="У",1,0)+IF(CQ20="У",1,0)+IF(CT20="У",1,0)+IF(H20="У",1,0)+IF(K20="У",1,0)+IF(N20="У",1,0)+IF(Q20="У",1,0)+IF(T20="У",1,0)+IF(W20="У",1,0)+IF(Z20="У",1,0)+IF(AC20="У",1,0)+IF(AF20="У",1,0)+IF(AI20="У",1,0)+IF(AL20="У",1,0)+IF(AO20="У",1,0)+IF(AR20="У",1,0)+IF(AU20="У",1,0)+IF(AX20="У",1,0)+IF(BA20="У",1,0)+IF(BD20="У",1,0)+IF(BG20="У",1,0)+IF(BJ20="У",1,0)+IF(BM20="У",1,0)+IF(BP20="У",1,0)+IF(BS20="У",1,0)+IF(BV20="У",1,0)+IF(BY20="У",1,0)+IF(CB20="У",1,0)+IF(CE20="У",1,0)+IF(CH20="У",1,0)+IF(CK20="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD20" s="302">
+      <c r="DD20" s="238">
         <f>IF(CN20="Г",1,0)+IF(CQ20="Г",1,0)+IF(CT20="Г",1,0)+IF(H20="Г",1,0)+IF(K20="Г",1,0)+IF(N20="Г",1,0)+IF(Q20="Г",1,0)+IF(T20="Г",1,0)+IF(W20="Г",1,0)+IF(Z20="Г",1,0)+IF(AC20="Г",1,0)+IF(AF20="Г",1,0)+IF(AI20="Г",1,0)+IF(AL20="Г",1,0)+IF(AO20="Г",1,0)+IF(AR20="Г",1,0)+IF(AU20="Г",1,0)+IF(AX20="Г",1,0)+IF(BA20="Г",1,0)+IF(BD20="Г",1,0)+IF(BG20="Г",1,0)+IF(BJ20="Г",1,0)+IF(BM20="Г",1,0)+IF(BP20="Г",1,0)+IF(BS20="Г",1,0)+IF(BV20="Г",1,0)+IF(BY20="Г",1,0)+IF(CB20="Г",1,0)+IF(CE20="Г",1,0)+IF(CH20="Г",1,0)+IF(CK20="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE20" s="302">
+      <c r="DE20" s="238">
         <f>IF(CQ20="ОЧ",1,0)+IF(CT20="ОЧ",1,0)+IF(H20="ОЧ",1,0)+IF(K20="ОЧ",1,0)+IF(N20="ОЧ",1,0)+IF(Q20="ОЧ",1,0)+IF(T20="ОЧ",1,0)+IF(W20="ОЧ",1,0)+IF(Z20="ОЧ",1,0)+IF(AC20="ОЧ",1,0)+IF(AF20="ОЧ",1,0)+IF(AI20="ОЧ",1,0)+IF(AL20="ОЧ",1,0)+IF(AO20="ОЧ",1,0)+IF(AR20="ОЧ",1,0)+IF(AU20="ОЧ",1,0)+IF(AX20="ОЧ",1,0)+IF(BA20="ОЧ",1,0)+IF(BD20="ОЧ",1,0)+IF(BG20="ОЧ",1,0)+IF(BJ20="ОЧ",1,0)+IF(BM20="ОЧ",1,0)+IF(BP20="ОЧ",1,0)+IF(BS20="ОЧ",1,0)+IF(BV20="ОЧ",1,0)+IF(BY20="ОЧ",1,0)+IF(CB20="ОЧ",1,0)+IF(CE20="ОЧ",1,0)+IF(CH20="ОЧ",1,0)+IF(CK20="ОЧ",1,0)+IF(CN20="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF20" s="302">
+      <c r="DF20" s="238">
         <f>IF(CQ20="Т",1,0)+IF(CT20="Т",1,0)+IF(K20="Т",1,0)+IF(H20="Т",1,0)+IF(N20="Т",1,0)+IF(Q20="Т",1,0)+IF(T20="Т",1,0)+IF(W20="Т",1,0)+IF(Z20="Т",1,0)+IF(AC20="Т",1,0)+IF(AF20="Т",1,0)+IF(AI20="Т",1,0)+IF(AL20="Т",1,0)+IF(AO20="Т",1,0)+IF(AR20="Т",1,0)+IF(AU20="Т",1,0)+IF(AX20="Т",1,0)+IF(BA20="Т",1,0)+IF(BD20="Т",1,0)+IF(BG20="Т",1,0)+IF(BJ20="Т",1,0)+IF(BM20="Т",1,0)+IF(BP20="Т",1,0)+IF(BS20="Т",1,0)+IF(BV20="Т",1,0)+IF(BY20="Т",1,0)+IF(CB20="Т",1,0)+IF(CE20="Т",1,0)+IF(CH20="Т",1,0)+IF(CK20="Т",1,0)+IF(CN20="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG20" s="302">
+      <c r="DG20" s="238">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -26471,9 +26451,7 @@
         <f t="shared" si="24"/>
         <v>189.5</v>
       </c>
-      <c r="DK20" s="217">
-        <v>0</v>
-      </c>
+      <c r="DK20" s="217"/>
       <c r="DL20" s="217"/>
       <c r="DM20" s="217"/>
       <c r="DN20" s="218">
@@ -26483,68 +26461,68 @@
       <c r="DO20" s="215">
         <v>0</v>
       </c>
-      <c r="DQ20" s="300">
+      <c r="DQ20" s="236">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="DR20" s="300">
+      <c r="DR20" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DS20" s="300">
+      <c r="DS20" s="236">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="DT20" s="300">
+      <c r="DT20" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DU20" s="300">
+      <c r="DU20" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DV20" s="300">
+      <c r="DV20" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DW20" s="300">
+      <c r="DW20" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DX20" s="300">
+      <c r="DX20" s="236">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="DY20" s="300">
+      <c r="DY20" s="236">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DZ20" s="300">
+      <c r="DZ20" s="236">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="EA20" s="300">
+      <c r="EA20" s="236">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="EB20" s="300">
+      <c r="EB20" s="236">
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="EC20" s="300">
+      <c r="EC20" s="236">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="EE20" s="301">
+      <c r="EE20" s="237">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="EF20" s="301">
+      <c r="EF20" s="237">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:136" s="299" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:136" s="235" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="197">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -26721,47 +26699,47 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="CW21" s="302">
+      <c r="CW21" s="238">
         <f>IF(CK21="К",1,0)+IF(CN21="К",1,0)+IF(CQ21="К",1,0)+IF(CT21="К",1,0)+IF(CH21="К",1,0)+IF(H21="К",1,0)+IF(K21="К",1,0)+IF(N21="К",1,0)+IF(Q21="К",1,0)+IF(T21="К",1,0)+IF(W21="К",1,0)+IF(Z21="К",1,0)+IF(AC21="К",1,0)+IF(AF21="К",1,0)+IF(AI21="К",1,0)+IF(AL21="К",1,0)+IF(AO21="К",1,0)+IF(AR21="К",1,0)+IF(AU21="К",1,0)+IF(AX21="К",1,0)+IF(BA21="К",1,0)+IF(BD21="К",1,0)+IF(BG21="К",1,0)+IF(BJ21="К",1,0)+IF(BM21="К",1,0)+IF(BP21="К",1,0)+IF(BS21="К",1,0)+IF(BV21="К",1,0)+IF(BY21="К",1,0)+IF(CB21="К",1,0)+IF(CE21="К",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CX21" s="302">
+      <c r="CX21" s="238">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="CY21" s="302">
+      <c r="CY21" s="238">
         <f>IF(CN21="Р",1,0)+IF(CQ21="Р",1,0)+IF(CT21="Р",1,0)+IF(H21="Р",1,0)+IF(K21="Р",1,0)+IF(N21="Р",1,0)+IF(Q21="Р",1,0)+IF(T21="Р",1,0)+IF(W21="Р",1,0)+IF(Z21="Р",1,0)+IF(AC21="Р",1,0)+IF(AF21="Р",1,0)+IF(AI21="Р",1,0)+IF(AL21="Р",1,0)+IF(AO21="Р",1,0)+IF(AR21="Р",1,0)+IF(AU21="Р",1,0)+IF(AX21="Р",1,0)+IF(BA21="Р",1,0)+IF(BD21="Р",1,0)+IF(BG21="Р",1,0)+IF(BJ21="Р",1,0)+IF(BM21="Р",1,0)+IF(BP21="Р",1,0)+IF(BS21="Р",1,0)+IF(BV21="Р",1,0)+IF(BY21="Р",1,0)+IF(CB21="Р",1,0)+IF(CE21="Р",1,0)+IF(CH21="Р",1,0)+IF(CK21="Р",1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ21" s="302">
+      <c r="CZ21" s="238">
         <f>IF(CN21="Б",1,0)+IF(CQ21="Б",1,0)+IF(CT21="Б",1,0)+IF(H21="Б",1,0)+IF(K21="Б",1,0)+IF(N21="Б",1,0)+IF(Q21="Б",1,0)+IF(T21="Б",1,0)+IF(W21="Б",1,0)+IF(Z21="Б",1,0)+IF(AC21="Б",1,0)+IF(AF21="Б",1,0)+IF(AI21="Б",1,0)+IF(AL21="Б",1,0)+IF(AO21="Б",1,0)+IF(AR21="Б",1,0)+IF(AU21="Б",1,0)+IF(AX21="Б",1,0)+IF(BA21="Б",1,0)+IF(BD21="Б",1,0)+IF(BG21="Б",1,0)+IF(BJ21="Б",1,0)+IF(BM21="Б",1,0)+IF(BP21="Б",1,0)+IF(BS21="Б",1,0)+IF(BV21="Б",1,0)+IF(BY21="Б",1,0)+IF(CB21="Б",1,0)+IF(CE21="Б",1,0)+IF(CH21="Б",1,0)+IF(CK21="Б",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DA21" s="302">
+      <c r="DA21" s="238">
         <f>IF(CN21="А",1,0)+IF(CQ21="А",1,0)+IF(CT21="А",1,0)+IF(H21="А",1,0)+IF(K21="А",1,0)+IF(N21="А",1,0)+IF(Q21="А",1,0)+IF(T21="А",1,0)+IF(W21="А",1,0)+IF(Z21="А",1,0)+IF(AC21="А",1,0)+IF(AF21="А",1,0)+IF(AI21="А",1,0)+IF(AL21="А",1,0)+IF(AO21="А",1,0)+IF(AR21="А",1,0)+IF(AU21="А",1,0)+IF(AX21="А",1,0)+IF(BA21="А",1,0)+IF(BD21="А",1,0)+IF(BG21="А",1,0)+IF(BJ21="А",1,0)+IF(BM21="А",1,0)+IF(BP21="А",1,0)+IF(BS21="А",1,0)+IF(BV21="А",1,0)+IF(BY21="А",1,0)+IF(CB21="А",1,0)+IF(CE21="А",1,0)+IF(CH21="А",1,0)+IF(CK21="А",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DB21" s="302">
+      <c r="DB21" s="238">
         <f>IF(CN21="П",1,0)+IF(CQ21="П",1,0)+IF(CT21="П",1,0)+IF(H21="П",1,0)+IF(K21="П",1,0)+IF(N21="П",1,0)+IF(Q21="П",1,0)+IF(T21="П",1,0)+IF(W21="П",1,0)+IF(Z21="П",1,0)+IF(AC21="П",1,0)+IF(AF21="П",1,0)+IF(AI21="П",1,0)+IF(AL21="П",1,0)+IF(AO21="П",1,0)+IF(AR21="П",1,0)+IF(AU21="П",1,0)+IF(AX21="П",1,0)+IF(BA21="П",1,0)+IF(BD21="П",1,0)+IF(BG21="П",1,0)+IF(BJ21="П",1,0)+IF(BM21="П",1,0)+IF(BP21="П",1,0)+IF(BS21="П",1,0)+IF(BV21="П",1,0)+IF(BY21="П",1,0)+IF(CB21="П",1,0)+IF(CE21="П",1,0)+IF(CH21="П",1,0)+IF(CK21="П",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DC21" s="302">
+      <c r="DC21" s="238">
         <f>IF(CN21="У",1,0)+IF(CQ21="У",1,0)+IF(CT21="У",1,0)+IF(H21="У",1,0)+IF(K21="У",1,0)+IF(N21="У",1,0)+IF(Q21="У",1,0)+IF(T21="У",1,0)+IF(W21="У",1,0)+IF(Z21="У",1,0)+IF(AC21="У",1,0)+IF(AF21="У",1,0)+IF(AI21="У",1,0)+IF(AL21="У",1,0)+IF(AO21="У",1,0)+IF(AR21="У",1,0)+IF(AU21="У",1,0)+IF(AX21="У",1,0)+IF(BA21="У",1,0)+IF(BD21="У",1,0)+IF(BG21="У",1,0)+IF(BJ21="У",1,0)+IF(BM21="У",1,0)+IF(BP21="У",1,0)+IF(BS21="У",1,0)+IF(BV21="У",1,0)+IF(BY21="У",1,0)+IF(CB21="У",1,0)+IF(CE21="У",1,0)+IF(CH21="У",1,0)+IF(CK21="У",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD21" s="302">
+      <c r="DD21" s="238">
         <f>IF(CN21="Г",1,0)+IF(CQ21="Г",1,0)+IF(CT21="Г",1,0)+IF(H21="Г",1,0)+IF(K21="Г",1,0)+IF(N21="Г",1,0)+IF(Q21="Г",1,0)+IF(T21="Г",1,0)+IF(W21="Г",1,0)+IF(Z21="Г",1,0)+IF(AC21="Г",1,0)+IF(AF21="Г",1,0)+IF(AI21="Г",1,0)+IF(AL21="Г",1,0)+IF(AO21="Г",1,0)+IF(AR21="Г",1,0)+IF(AU21="Г",1,0)+IF(AX21="Г",1,0)+IF(BA21="Г",1,0)+IF(BD21="Г",1,0)+IF(BG21="Г",1,0)+IF(BJ21="Г",1,0)+IF(BM21="Г",1,0)+IF(BP21="Г",1,0)+IF(BS21="Г",1,0)+IF(BV21="Г",1,0)+IF(BY21="Г",1,0)+IF(CB21="Г",1,0)+IF(CE21="Г",1,0)+IF(CH21="Г",1,0)+IF(CK21="Г",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE21" s="302">
+      <c r="DE21" s="238">
         <f>IF(CQ21="ОЧ",1,0)+IF(CT21="ОЧ",1,0)+IF(H21="ОЧ",1,0)+IF(K21="ОЧ",1,0)+IF(N21="ОЧ",1,0)+IF(Q21="ОЧ",1,0)+IF(T21="ОЧ",1,0)+IF(W21="ОЧ",1,0)+IF(Z21="ОЧ",1,0)+IF(AC21="ОЧ",1,0)+IF(AF21="ОЧ",1,0)+IF(AI21="ОЧ",1,0)+IF(AL21="ОЧ",1,0)+IF(AO21="ОЧ",1,0)+IF(AR21="ОЧ",1,0)+IF(AU21="ОЧ",1,0)+IF(AX21="ОЧ",1,0)+IF(BA21="ОЧ",1,0)+IF(BD21="ОЧ",1,0)+IF(BG21="ОЧ",1,0)+IF(BJ21="ОЧ",1,0)+IF(BM21="ОЧ",1,0)+IF(BP21="ОЧ",1,0)+IF(BS21="ОЧ",1,0)+IF(BV21="ОЧ",1,0)+IF(BY21="ОЧ",1,0)+IF(CB21="ОЧ",1,0)+IF(CE21="ОЧ",1,0)+IF(CH21="ОЧ",1,0)+IF(CK21="ОЧ",1,0)+IF(CN21="ОЧ",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF21" s="302">
+      <c r="DF21" s="238">
         <f>IF(CQ21="Т",1,0)+IF(CT21="Т",1,0)+IF(K21="Т",1,0)+IF(H21="Т",1,0)+IF(N21="Т",1,0)+IF(Q21="Т",1,0)+IF(T21="Т",1,0)+IF(W21="Т",1,0)+IF(Z21="Т",1,0)+IF(AC21="Т",1,0)+IF(AF21="Т",1,0)+IF(AI21="Т",1,0)+IF(AL21="Т",1,0)+IF(AO21="Т",1,0)+IF(AR21="Т",1,0)+IF(AU21="Т",1,0)+IF(AX21="Т",1,0)+IF(BA21="Т",1,0)+IF(BD21="Т",1,0)+IF(BG21="Т",1,0)+IF(BJ21="Т",1,0)+IF(BM21="Т",1,0)+IF(BP21="Т",1,0)+IF(BS21="Т",1,0)+IF(BV21="Т",1,0)+IF(BY21="Т",1,0)+IF(CB21="Т",1,0)+IF(CE21="Т",1,0)+IF(CH21="Т",1,0)+IF(CK21="Т",1,0)+IF(CN21="Т",1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG21" s="302">
+      <c r="DG21" s="238">
         <f>IF(CT21="Пр",1,0)+IF(H21="Пр",1,0)+IF(K21="Пр",1,0)+IF(N21="Пр",1,0)+IF(Q21="Пр",1,0)+IF(T21="Пр",1,0)+IF(W21="Пр",1,0)+IF(Z21="Пр",1,0)+IF(AC21="Пр",1,0)+IF(AF21="Пр",1,0)+IF(AI21="Пр",1,0)+IF(AL21="Пр",1,0)+IF(AO21="Пр",1,0)+IF(AR21="Пр",1,0)+IF(AU21="Пр",1,0)+IF(AX21="Пр",1,0)+IF(BA21="Пр",1,0)+IF(BD21="Пр",1,0)+IF(BG21="Пр",1,0)+IF(BJ21="Пр",1,0)+IF(BM21="Пр",1,0)+IF(BP21="Пр",1,0)+IF(BS21="Пр",1,0)+IF(BV21="Пр",1,0)+IF(BY21="Пр",1,0)+IF(CB21="Пр",1,0)+IF(CE21="Пр",1,0)+IF(CH21="Пр",1,0)+IF(CK21="Пр",1,0)+IF(CN21="Пр",1,0)+IF(CQ21="Пр",1,0)</f>
         <v>0</v>
       </c>
@@ -26778,7 +26756,7 @@
         <v>155.5</v>
       </c>
       <c r="DK21" s="217">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="DL21" s="217"/>
       <c r="DM21" s="217"/>
@@ -26789,63 +26767,63 @@
       <c r="DO21" s="215">
         <v>0</v>
       </c>
-      <c r="DQ21" s="300">
+      <c r="DQ21" s="236">
         <f>IF(I21=4,1,0)+IF(U21=4,1,0)+IF(X21=4,1,0)+IF(AA21=4,1,0)+IF(AD21=4,1,0)+IF(AG21=4,1,0)+IF(AJ21=4,1,0)+IF(AM21=4,1,0)+IF(AP21=4,1,0)+IF(AS21=4,1,0)+IF(AV21=4,1,0)+IF(AY21=4,1,0)+IF(BB21=4,1,0)+IF(BE21=4,1,0)+IF(BH21=4,1,0)+IF(BK21=4,1,0)+IF(BN21=4,1,0)+IF(BQ21=4,1,0)+IF(BT21=4,1,0)+IF(BW21=4,1,0)+IF(BZ21=4,1,0)+IF(CC21=4,1,0)+IF(CF21=4,1,0)+IF(CI21=4,1,0)+IF(CL21=4,1,0)+IF(CO21=4,1,0)+IF(CR21=4,1,0)+IF(CU21=4,1,0)+IF(L21=4,1,0)+IF(O21=4,1,0)+IF(R21=4,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DR21" s="300">
+      <c r="DR21" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DS21" s="300">
+      <c r="DS21" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DT21" s="300">
+      <c r="DT21" s="236">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DU21" s="300">
+      <c r="DU21" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DV21" s="300">
+      <c r="DV21" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DW21" s="300">
+      <c r="DW21" s="236">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DX21" s="300">
+      <c r="DX21" s="236">
         <f>IF(N21=7,1,0)+IF(Q21=7,1,0)+IF(T21=7,1,0)+IF(W21=7,1,0)+IF(Z21=7,1,0)+IF(AC21=7,1,0)+IF(AF21=7,1,0)+IF(AI21=7,1,0)+IF(AL21=7,1,0)+IF(AO21=7,1,0)+IF(AR21=7,1,0)+IF(AU21=7,1,0)+IF(AX21=7,1,0)+IF(BA21=7,1,0)+IF(BD21=7,1,0)+IF(BG21=7,1,0)+IF(BJ21=7,1,0)+IF(BM21=7,1,0)+IF(BP21=7,1,0)+IF(BS21=7,1,0)+IF(BV21=7,1,0)+IF(BY21=7,1,0)+IF(CB21=7,1,0)+IF(CE21=7,1,0)+IF(CH21=7,1,0)+IF(CK21=7,1,0)+IF(CN21=7,1,0)+IF(CQ21=7,1,0)+IF(CT21=7,1,0)+IF(H21=7,1,0)+IF(K21=7,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DY21" s="300">
+      <c r="DY21" s="236">
         <f>IF(Q21=11.5,1,0)+IF(T21=11.5,1,0)+IF(W21=11.5,1,0)+IF(Z21=11.5,1,0)+IF(AC21=11.5,1,0)+IF(AF21=11.5,1,0)+IF(AI21=11.5,1,0)+IF(AL21=11.5,1,0)+IF(AO21=11.5,1,0)+IF(AR21=11.5,1,0)+IF(AU21=11.5,1,0)+IF(AX21=11.5,1,0)+IF(BA21=11.5,1,0)+IF(BD21=11.5,1,0)+IF(BG21=11.5,1,0)+IF(BJ21=11.5,1,0)+IF(BM21=11.5,1,0)+IF(BP21=11.5,1,0)+IF(BS21=11.5,1,0)+IF(BV21=11.5,1,0)+IF(BY21=11.5,1,0)+IF(CB21=11.5,1,0)+IF(CE21=11.5,1,0)+IF(CH21=11.5,1,0)+IF(CK21=11.5,1,0)+IF(CN21=11.5,1,0)+IF(CQ21=11.5,1,0)+IF(CT21=11.5,1,0)+IF(H21=11.5,1,0)+IF(K21=11.5,1,0)+IF(N21=11.5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DZ21" s="300">
+      <c r="DZ21" s="236">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="EA21" s="300">
+      <c r="EA21" s="236">
         <f>IF(Q21=9,1,0)+IF(T21=9,1,0)+IF(W21=9,1,0)+IF(Z21=9,1,0)+IF(AC21=9,1,0)+IF(AF21=9,1,0)+IF(AI21=9,1,0)+IF(AL21=9,1,0)+IF(AO21=9,1,0)+IF(AR21=9,1,0)+IF(AU21=9,1,0)+IF(AX21=9,1,0)+IF(BA21=9,1,0)+IF(BD21=9,1,0)+IF(BG21=9,1,0)+IF(BJ21=9,1,0)+IF(BM21=9,1,0)+IF(BP21=9,1,0)+IF(BS21=9,1,0)+IF(BV21=9,1,0)+IF(BY21=9,1,0)+IF(CB21=9,1,0)+IF(CE21=9,1,0)+IF(CH21=9,1,0)+IF(CK21=9,1,0)+IF(CN21=9,1,0)+IF(CQ21=9,1,0)+IF(CT21=9,1,0)+IF(H21=9,1,0)+IF(K21=9,1,0)+IF(N21=9,1,0)</f>
         <v>0</v>
       </c>
-      <c r="EB21" s="300">
+      <c r="EB21" s="236">
         <f>IF(Q21=11.25,1,0)+IF(T21=11.25,1,0)+IF(W21=11.25,1,0)+IF(Z21=11.25,1,0)+IF(AC21=11.25,1,0)+IF(AF21=11.25,1,0)+IF(AI21=11.25,1,0)+IF(AL21=11.25,1,0)+IF(AO21=11.25,1,0)+IF(AR21=11.25,1,0)+IF(AU21=11.25,1,0)+IF(AX21=11.25,1,0)+IF(BA21=11.25,1,0)+IF(BD21=11.25,1,0)+IF(BG21=11.25,1,0)+IF(BJ21=11.25,1,0)+IF(BM21=11.25,1,0)+IF(BP21=11.25,1,0)+IF(BS21=11.25,1,0)+IF(BV21=11.25,1,0)+IF(BY21=11.25,1,0)+IF(CB21=11.25,1,0)+IF(CE21=11.25,1,0)+IF(CH21=11.25,1,0)+IF(CK21=11.25,1,0)+IF(CN21=11.25,1,0)+IF(CQ21=11.25,1,0)+IF(CT21=11.25,1,0)+IF(H21=11.25,1,0)+IF(K21=11.25,1,0)+IF(N21=11.25,1,0)</f>
         <v>12</v>
       </c>
-      <c r="EC21" s="300">
+      <c r="EC21" s="236">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="EE21" s="301">
+      <c r="EE21" s="237">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="EF21" s="301">
+      <c r="EF21" s="237">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -27083,9 +27061,7 @@
         <f t="shared" si="24"/>
         <v>180</v>
       </c>
-      <c r="DK22" s="69">
-        <v>0</v>
-      </c>
+      <c r="DK22" s="69"/>
       <c r="DL22" s="69"/>
       <c r="DM22" s="69"/>
       <c r="DN22" s="71">
@@ -27389,9 +27365,7 @@
         <f t="shared" si="24"/>
         <v>168.75</v>
       </c>
-      <c r="DK23" s="70">
-        <v>8</v>
-      </c>
+      <c r="DK23" s="70"/>
       <c r="DL23" s="70"/>
       <c r="DM23" s="69"/>
       <c r="DN23" s="71">
@@ -27624,7 +27598,7 @@
       </c>
       <c r="DK24" s="77">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>20.5</v>
       </c>
       <c r="DL24" s="77">
         <f t="shared" si="28"/>
@@ -28095,45 +28069,45 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="233"/>
-      <c r="I31" s="233"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="233"/>
-      <c r="O31" s="233"/>
-      <c r="P31" s="233"/>
-      <c r="Q31" s="233"/>
-      <c r="R31" s="233"/>
-      <c r="S31" s="233"/>
-      <c r="T31" s="233"/>
-      <c r="U31" s="233"/>
-      <c r="V31" s="233"/>
-      <c r="W31" s="233"/>
-      <c r="X31" s="233"/>
-      <c r="Y31" s="233"/>
-      <c r="Z31" s="233"/>
-      <c r="AA31" s="233"/>
-      <c r="AB31" s="233"/>
-      <c r="AC31" s="233"/>
-      <c r="AD31" s="233"/>
-      <c r="AE31" s="233"/>
-      <c r="AF31" s="233"/>
-      <c r="AG31" s="233"/>
-      <c r="AH31" s="233"/>
-      <c r="AI31" s="233"/>
-      <c r="AJ31" s="233"/>
-      <c r="AK31" s="233"/>
-      <c r="AL31" s="233"/>
-      <c r="AM31" s="233"/>
-      <c r="AN31" s="233"/>
-      <c r="AO31" s="233"/>
-      <c r="AP31" s="233"/>
-      <c r="AQ31" s="233"/>
-      <c r="AR31" s="233"/>
-      <c r="AS31" s="233"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="292"/>
+      <c r="I31" s="292"/>
+      <c r="J31" s="292"/>
+      <c r="K31" s="292"/>
+      <c r="L31" s="292"/>
+      <c r="M31" s="292"/>
+      <c r="N31" s="292"/>
+      <c r="O31" s="292"/>
+      <c r="P31" s="292"/>
+      <c r="Q31" s="292"/>
+      <c r="R31" s="292"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="292"/>
+      <c r="V31" s="292"/>
+      <c r="W31" s="292"/>
+      <c r="X31" s="292"/>
+      <c r="Y31" s="292"/>
+      <c r="Z31" s="292"/>
+      <c r="AA31" s="292"/>
+      <c r="AB31" s="292"/>
+      <c r="AC31" s="292"/>
+      <c r="AD31" s="292"/>
+      <c r="AE31" s="292"/>
+      <c r="AF31" s="292"/>
+      <c r="AG31" s="292"/>
+      <c r="AH31" s="292"/>
+      <c r="AI31" s="292"/>
+      <c r="AJ31" s="292"/>
+      <c r="AK31" s="292"/>
+      <c r="AL31" s="292"/>
+      <c r="AM31" s="292"/>
+      <c r="AN31" s="292"/>
+      <c r="AO31" s="292"/>
+      <c r="AP31" s="292"/>
+      <c r="AQ31" s="292"/>
+      <c r="AR31" s="292"/>
+      <c r="AS31" s="292"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -28438,45 +28412,45 @@
       <c r="BZ34" s="123"/>
     </row>
     <row r="35" spans="7:78" x14ac:dyDescent="0.25">
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="233"/>
-      <c r="L35" s="233"/>
-      <c r="M35" s="233"/>
-      <c r="N35" s="233"/>
-      <c r="O35" s="233"/>
-      <c r="P35" s="233"/>
-      <c r="Q35" s="233"/>
-      <c r="R35" s="233"/>
-      <c r="S35" s="233"/>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="233"/>
-      <c r="Y35" s="233"/>
-      <c r="Z35" s="233"/>
-      <c r="AA35" s="233"/>
-      <c r="AB35" s="233"/>
-      <c r="AC35" s="233"/>
-      <c r="AD35" s="233"/>
-      <c r="AE35" s="233"/>
-      <c r="AF35" s="233"/>
-      <c r="AG35" s="233"/>
-      <c r="AH35" s="233"/>
-      <c r="AI35" s="233"/>
-      <c r="AJ35" s="233"/>
-      <c r="AK35" s="233"/>
-      <c r="AL35" s="233"/>
-      <c r="AM35" s="233"/>
-      <c r="AN35" s="233"/>
-      <c r="AO35" s="233"/>
-      <c r="AP35" s="233"/>
-      <c r="AQ35" s="233"/>
-      <c r="AR35" s="233"/>
-      <c r="AS35" s="233"/>
+      <c r="G35" s="292"/>
+      <c r="H35" s="292"/>
+      <c r="I35" s="292"/>
+      <c r="J35" s="292"/>
+      <c r="K35" s="292"/>
+      <c r="L35" s="292"/>
+      <c r="M35" s="292"/>
+      <c r="N35" s="292"/>
+      <c r="O35" s="292"/>
+      <c r="P35" s="292"/>
+      <c r="Q35" s="292"/>
+      <c r="R35" s="292"/>
+      <c r="S35" s="292"/>
+      <c r="T35" s="292"/>
+      <c r="U35" s="292"/>
+      <c r="V35" s="292"/>
+      <c r="W35" s="292"/>
+      <c r="X35" s="292"/>
+      <c r="Y35" s="292"/>
+      <c r="Z35" s="292"/>
+      <c r="AA35" s="292"/>
+      <c r="AB35" s="292"/>
+      <c r="AC35" s="292"/>
+      <c r="AD35" s="292"/>
+      <c r="AE35" s="292"/>
+      <c r="AF35" s="292"/>
+      <c r="AG35" s="292"/>
+      <c r="AH35" s="292"/>
+      <c r="AI35" s="292"/>
+      <c r="AJ35" s="292"/>
+      <c r="AK35" s="292"/>
+      <c r="AL35" s="292"/>
+      <c r="AM35" s="292"/>
+      <c r="AN35" s="292"/>
+      <c r="AO35" s="292"/>
+      <c r="AP35" s="292"/>
+      <c r="AQ35" s="292"/>
+      <c r="AR35" s="292"/>
+      <c r="AS35" s="292"/>
       <c r="AZ35" s="123"/>
       <c r="BA35" s="123"/>
       <c r="BB35" s="123"/>
@@ -30634,17 +30608,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="G31:AS31"/>
-    <mergeCell ref="G35:AS35"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="CU1:DG1"/>
+    <mergeCell ref="CU2:DG2"/>
+    <mergeCell ref="A3:CU3"/>
+    <mergeCell ref="CV3:DG3"/>
+    <mergeCell ref="A4:CU4"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:CU7"/>
+    <mergeCell ref="CV6:CW7"/>
+    <mergeCell ref="CX6:DG7"/>
+    <mergeCell ref="DH6:DH8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AP8"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="BR8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
     <mergeCell ref="DJ6:DO7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -30661,29 +30647,17 @@
     <mergeCell ref="CS8:CU8"/>
     <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:CU7"/>
-    <mergeCell ref="CV6:CW7"/>
-    <mergeCell ref="CX6:DG7"/>
-    <mergeCell ref="DH6:DH8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="BR8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CU1:DG1"/>
-    <mergeCell ref="CU2:DG2"/>
-    <mergeCell ref="A3:CU3"/>
-    <mergeCell ref="CV3:DG3"/>
-    <mergeCell ref="A4:CU4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G31:AS31"/>
+    <mergeCell ref="G35:AS35"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:CU10 G16:G17 AB21:CU21 BC11:CU12 G13:CU13 AW14:CU15 AK16:CU17 AQ18:CU19 AE20:CU20 Y22:CU22 AE23:CU23">
     <cfRule type="containsText" dxfId="194" priority="151" operator="containsText" text="О">
@@ -31468,21 +31442,21 @@
       <c r="CC1" s="4"/>
       <c r="CD1" s="118"/>
       <c r="CE1" s="118"/>
-      <c r="CF1" s="264" t="s">
+      <c r="CF1" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="CG1" s="264"/>
-      <c r="CH1" s="264"/>
-      <c r="CI1" s="264"/>
-      <c r="CJ1" s="264"/>
-      <c r="CK1" s="264"/>
-      <c r="CL1" s="264"/>
-      <c r="CM1" s="264"/>
-      <c r="CN1" s="264"/>
-      <c r="CO1" s="264"/>
-      <c r="CP1" s="264"/>
-      <c r="CQ1" s="264"/>
-      <c r="CR1" s="264"/>
+      <c r="CG1" s="247"/>
+      <c r="CH1" s="247"/>
+      <c r="CI1" s="247"/>
+      <c r="CJ1" s="247"/>
+      <c r="CK1" s="247"/>
+      <c r="CL1" s="247"/>
+      <c r="CM1" s="247"/>
+      <c r="CN1" s="247"/>
+      <c r="CO1" s="247"/>
+      <c r="CP1" s="247"/>
+      <c r="CQ1" s="247"/>
+      <c r="CR1" s="247"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
     </row>
@@ -31570,232 +31544,232 @@
       <c r="CC2" s="4"/>
       <c r="CD2" s="118"/>
       <c r="CE2" s="118"/>
-      <c r="CF2" s="265" t="s">
+      <c r="CF2" s="248" t="s">
         <v>71</v>
       </c>
-      <c r="CG2" s="265"/>
-      <c r="CH2" s="265"/>
-      <c r="CI2" s="265"/>
-      <c r="CJ2" s="265"/>
-      <c r="CK2" s="265"/>
-      <c r="CL2" s="265"/>
-      <c r="CM2" s="265"/>
-      <c r="CN2" s="265"/>
-      <c r="CO2" s="265"/>
-      <c r="CP2" s="265"/>
-      <c r="CQ2" s="265"/>
-      <c r="CR2" s="265"/>
+      <c r="CG2" s="248"/>
+      <c r="CH2" s="248"/>
+      <c r="CI2" s="248"/>
+      <c r="CJ2" s="248"/>
+      <c r="CK2" s="248"/>
+      <c r="CL2" s="248"/>
+      <c r="CM2" s="248"/>
+      <c r="CN2" s="248"/>
+      <c r="CO2" s="248"/>
+      <c r="CP2" s="248"/>
+      <c r="CQ2" s="248"/>
+      <c r="CR2" s="248"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="249" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="266"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="266"/>
-      <c r="AC3" s="266"/>
-      <c r="AD3" s="266"/>
-      <c r="AE3" s="266"/>
-      <c r="AF3" s="266"/>
-      <c r="AG3" s="266"/>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="266"/>
-      <c r="AJ3" s="266"/>
-      <c r="AK3" s="266"/>
-      <c r="AL3" s="266"/>
-      <c r="AM3" s="266"/>
-      <c r="AN3" s="266"/>
-      <c r="AO3" s="266"/>
-      <c r="AP3" s="266"/>
-      <c r="AQ3" s="266"/>
-      <c r="AR3" s="266"/>
-      <c r="AS3" s="266"/>
-      <c r="AT3" s="266"/>
-      <c r="AU3" s="266"/>
-      <c r="AV3" s="266"/>
-      <c r="AW3" s="266"/>
-      <c r="AX3" s="266"/>
-      <c r="AY3" s="266"/>
-      <c r="AZ3" s="266"/>
-      <c r="BA3" s="266"/>
-      <c r="BB3" s="266"/>
-      <c r="BC3" s="266"/>
-      <c r="BD3" s="266"/>
-      <c r="BE3" s="266"/>
-      <c r="BF3" s="266"/>
-      <c r="BG3" s="266"/>
-      <c r="BH3" s="266"/>
-      <c r="BI3" s="266"/>
-      <c r="BJ3" s="266"/>
-      <c r="BK3" s="266"/>
-      <c r="BL3" s="266"/>
-      <c r="BM3" s="266"/>
-      <c r="BN3" s="266"/>
-      <c r="BO3" s="266"/>
-      <c r="BP3" s="266"/>
-      <c r="BQ3" s="266"/>
-      <c r="BR3" s="266"/>
-      <c r="BS3" s="266"/>
-      <c r="BT3" s="266"/>
-      <c r="BU3" s="266"/>
-      <c r="BV3" s="266"/>
-      <c r="BW3" s="266"/>
-      <c r="BX3" s="266"/>
-      <c r="BY3" s="266"/>
-      <c r="BZ3" s="266"/>
-      <c r="CA3" s="266"/>
-      <c r="CB3" s="266"/>
-      <c r="CC3" s="266"/>
-      <c r="CD3" s="266"/>
-      <c r="CE3" s="266"/>
-      <c r="CF3" s="267" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="249"/>
+      <c r="AE3" s="249"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="249"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="249"/>
+      <c r="AJ3" s="249"/>
+      <c r="AK3" s="249"/>
+      <c r="AL3" s="249"/>
+      <c r="AM3" s="249"/>
+      <c r="AN3" s="249"/>
+      <c r="AO3" s="249"/>
+      <c r="AP3" s="249"/>
+      <c r="AQ3" s="249"/>
+      <c r="AR3" s="249"/>
+      <c r="AS3" s="249"/>
+      <c r="AT3" s="249"/>
+      <c r="AU3" s="249"/>
+      <c r="AV3" s="249"/>
+      <c r="AW3" s="249"/>
+      <c r="AX3" s="249"/>
+      <c r="AY3" s="249"/>
+      <c r="AZ3" s="249"/>
+      <c r="BA3" s="249"/>
+      <c r="BB3" s="249"/>
+      <c r="BC3" s="249"/>
+      <c r="BD3" s="249"/>
+      <c r="BE3" s="249"/>
+      <c r="BF3" s="249"/>
+      <c r="BG3" s="249"/>
+      <c r="BH3" s="249"/>
+      <c r="BI3" s="249"/>
+      <c r="BJ3" s="249"/>
+      <c r="BK3" s="249"/>
+      <c r="BL3" s="249"/>
+      <c r="BM3" s="249"/>
+      <c r="BN3" s="249"/>
+      <c r="BO3" s="249"/>
+      <c r="BP3" s="249"/>
+      <c r="BQ3" s="249"/>
+      <c r="BR3" s="249"/>
+      <c r="BS3" s="249"/>
+      <c r="BT3" s="249"/>
+      <c r="BU3" s="249"/>
+      <c r="BV3" s="249"/>
+      <c r="BW3" s="249"/>
+      <c r="BX3" s="249"/>
+      <c r="BY3" s="249"/>
+      <c r="BZ3" s="249"/>
+      <c r="CA3" s="249"/>
+      <c r="CB3" s="249"/>
+      <c r="CC3" s="249"/>
+      <c r="CD3" s="249"/>
+      <c r="CE3" s="249"/>
+      <c r="CF3" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="CG3" s="267"/>
-      <c r="CH3" s="267"/>
-      <c r="CI3" s="267"/>
-      <c r="CJ3" s="267"/>
-      <c r="CK3" s="267"/>
-      <c r="CL3" s="267"/>
-      <c r="CM3" s="267"/>
-      <c r="CN3" s="267"/>
-      <c r="CO3" s="267"/>
-      <c r="CP3" s="267"/>
-      <c r="CQ3" s="267"/>
-      <c r="CR3" s="267"/>
-      <c r="CS3" s="267"/>
-      <c r="CT3" s="267"/>
-      <c r="CU3" s="267"/>
-      <c r="CV3" s="267"/>
+      <c r="CG3" s="250"/>
+      <c r="CH3" s="250"/>
+      <c r="CI3" s="250"/>
+      <c r="CJ3" s="250"/>
+      <c r="CK3" s="250"/>
+      <c r="CL3" s="250"/>
+      <c r="CM3" s="250"/>
+      <c r="CN3" s="250"/>
+      <c r="CO3" s="250"/>
+      <c r="CP3" s="250"/>
+      <c r="CQ3" s="250"/>
+      <c r="CR3" s="250"/>
+      <c r="CS3" s="250"/>
+      <c r="CT3" s="250"/>
+      <c r="CU3" s="250"/>
+      <c r="CV3" s="250"/>
     </row>
     <row r="4" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="266"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="266"/>
-      <c r="M4" s="266"/>
-      <c r="N4" s="266"/>
-      <c r="O4" s="266"/>
-      <c r="P4" s="266"/>
-      <c r="Q4" s="266"/>
-      <c r="R4" s="266"/>
-      <c r="S4" s="266"/>
-      <c r="T4" s="266"/>
-      <c r="U4" s="266"/>
-      <c r="V4" s="266"/>
-      <c r="W4" s="266"/>
-      <c r="X4" s="266"/>
-      <c r="Y4" s="266"/>
-      <c r="Z4" s="266"/>
-      <c r="AA4" s="266"/>
-      <c r="AB4" s="266"/>
-      <c r="AC4" s="266"/>
-      <c r="AD4" s="266"/>
-      <c r="AE4" s="266"/>
-      <c r="AF4" s="266"/>
-      <c r="AG4" s="266"/>
-      <c r="AH4" s="266"/>
-      <c r="AI4" s="266"/>
-      <c r="AJ4" s="266"/>
-      <c r="AK4" s="266"/>
-      <c r="AL4" s="266"/>
-      <c r="AM4" s="266"/>
-      <c r="AN4" s="266"/>
-      <c r="AO4" s="266"/>
-      <c r="AP4" s="266"/>
-      <c r="AQ4" s="266"/>
-      <c r="AR4" s="266"/>
-      <c r="AS4" s="266"/>
-      <c r="AT4" s="266"/>
-      <c r="AU4" s="266"/>
-      <c r="AV4" s="266"/>
-      <c r="AW4" s="266"/>
-      <c r="AX4" s="266"/>
-      <c r="AY4" s="266"/>
-      <c r="AZ4" s="266"/>
-      <c r="BA4" s="266"/>
-      <c r="BB4" s="266"/>
-      <c r="BC4" s="266"/>
-      <c r="BD4" s="266"/>
-      <c r="BE4" s="266"/>
-      <c r="BF4" s="266"/>
-      <c r="BG4" s="266"/>
-      <c r="BH4" s="266"/>
-      <c r="BI4" s="266"/>
-      <c r="BJ4" s="266"/>
-      <c r="BK4" s="266"/>
-      <c r="BL4" s="266"/>
-      <c r="BM4" s="266"/>
-      <c r="BN4" s="266"/>
-      <c r="BO4" s="266"/>
-      <c r="BP4" s="266"/>
-      <c r="BQ4" s="266"/>
-      <c r="BR4" s="266"/>
-      <c r="BS4" s="266"/>
-      <c r="BT4" s="266"/>
-      <c r="BU4" s="266"/>
-      <c r="BV4" s="266"/>
-      <c r="BW4" s="266"/>
-      <c r="BX4" s="266"/>
-      <c r="BY4" s="266"/>
-      <c r="BZ4" s="266"/>
-      <c r="CA4" s="266"/>
-      <c r="CB4" s="266"/>
-      <c r="CC4" s="266"/>
-      <c r="CD4" s="266"/>
-      <c r="CE4" s="266"/>
-      <c r="CF4" s="297"/>
-      <c r="CG4" s="297"/>
-      <c r="CH4" s="297"/>
-      <c r="CI4" s="297"/>
-      <c r="CJ4" s="297"/>
-      <c r="CK4" s="297"/>
-      <c r="CL4" s="297"/>
-      <c r="CM4" s="297"/>
-      <c r="CN4" s="297"/>
-      <c r="CO4" s="297"/>
-      <c r="CP4" s="297"/>
-      <c r="CQ4" s="297"/>
-      <c r="CR4" s="297"/>
-      <c r="CS4" s="297"/>
-      <c r="CT4" s="297"/>
-      <c r="CU4" s="297"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249"/>
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="249"/>
+      <c r="U4" s="249"/>
+      <c r="V4" s="249"/>
+      <c r="W4" s="249"/>
+      <c r="X4" s="249"/>
+      <c r="Y4" s="249"/>
+      <c r="Z4" s="249"/>
+      <c r="AA4" s="249"/>
+      <c r="AB4" s="249"/>
+      <c r="AC4" s="249"/>
+      <c r="AD4" s="249"/>
+      <c r="AE4" s="249"/>
+      <c r="AF4" s="249"/>
+      <c r="AG4" s="249"/>
+      <c r="AH4" s="249"/>
+      <c r="AI4" s="249"/>
+      <c r="AJ4" s="249"/>
+      <c r="AK4" s="249"/>
+      <c r="AL4" s="249"/>
+      <c r="AM4" s="249"/>
+      <c r="AN4" s="249"/>
+      <c r="AO4" s="249"/>
+      <c r="AP4" s="249"/>
+      <c r="AQ4" s="249"/>
+      <c r="AR4" s="249"/>
+      <c r="AS4" s="249"/>
+      <c r="AT4" s="249"/>
+      <c r="AU4" s="249"/>
+      <c r="AV4" s="249"/>
+      <c r="AW4" s="249"/>
+      <c r="AX4" s="249"/>
+      <c r="AY4" s="249"/>
+      <c r="AZ4" s="249"/>
+      <c r="BA4" s="249"/>
+      <c r="BB4" s="249"/>
+      <c r="BC4" s="249"/>
+      <c r="BD4" s="249"/>
+      <c r="BE4" s="249"/>
+      <c r="BF4" s="249"/>
+      <c r="BG4" s="249"/>
+      <c r="BH4" s="249"/>
+      <c r="BI4" s="249"/>
+      <c r="BJ4" s="249"/>
+      <c r="BK4" s="249"/>
+      <c r="BL4" s="249"/>
+      <c r="BM4" s="249"/>
+      <c r="BN4" s="249"/>
+      <c r="BO4" s="249"/>
+      <c r="BP4" s="249"/>
+      <c r="BQ4" s="249"/>
+      <c r="BR4" s="249"/>
+      <c r="BS4" s="249"/>
+      <c r="BT4" s="249"/>
+      <c r="BU4" s="249"/>
+      <c r="BV4" s="249"/>
+      <c r="BW4" s="249"/>
+      <c r="BX4" s="249"/>
+      <c r="BY4" s="249"/>
+      <c r="BZ4" s="249"/>
+      <c r="CA4" s="249"/>
+      <c r="CB4" s="249"/>
+      <c r="CC4" s="249"/>
+      <c r="CD4" s="249"/>
+      <c r="CE4" s="249"/>
+      <c r="CF4" s="233"/>
+      <c r="CG4" s="233"/>
+      <c r="CH4" s="233"/>
+      <c r="CI4" s="233"/>
+      <c r="CJ4" s="233"/>
+      <c r="CK4" s="233"/>
+      <c r="CL4" s="233"/>
+      <c r="CM4" s="233"/>
+      <c r="CN4" s="233"/>
+      <c r="CO4" s="233"/>
+      <c r="CP4" s="233"/>
+      <c r="CQ4" s="233"/>
+      <c r="CR4" s="233"/>
+      <c r="CS4" s="233"/>
+      <c r="CT4" s="233"/>
+      <c r="CU4" s="233"/>
       <c r="CV4" s="231"/>
       <c r="CW4" s="231"/>
       <c r="CX4" s="231"/>
@@ -31810,107 +31784,107 @@
       <c r="DG4" s="231"/>
     </row>
     <row r="5" spans="1:136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="274" t="s">
+      <c r="A5" s="263" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="274"/>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="274"/>
-      <c r="S5" s="274"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="274"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="274"/>
-      <c r="Y5" s="274"/>
-      <c r="Z5" s="274"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="274"/>
-      <c r="AG5" s="274"/>
-      <c r="AH5" s="274"/>
-      <c r="AI5" s="274"/>
-      <c r="AJ5" s="274"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="274"/>
-      <c r="AN5" s="274"/>
-      <c r="AO5" s="274"/>
-      <c r="AP5" s="274"/>
-      <c r="AQ5" s="274"/>
-      <c r="AR5" s="274"/>
-      <c r="AS5" s="274"/>
-      <c r="AT5" s="274"/>
-      <c r="AU5" s="274"/>
-      <c r="AV5" s="274"/>
-      <c r="AW5" s="274"/>
-      <c r="AX5" s="274"/>
-      <c r="AY5" s="274"/>
-      <c r="AZ5" s="274"/>
-      <c r="BA5" s="274"/>
-      <c r="BB5" s="274"/>
-      <c r="BC5" s="274"/>
-      <c r="BD5" s="274"/>
-      <c r="BE5" s="274"/>
-      <c r="BF5" s="274"/>
-      <c r="BG5" s="274"/>
-      <c r="BH5" s="274"/>
-      <c r="BI5" s="274"/>
-      <c r="BJ5" s="274"/>
-      <c r="BK5" s="274"/>
-      <c r="BL5" s="274"/>
-      <c r="BM5" s="274"/>
-      <c r="BN5" s="274"/>
-      <c r="BO5" s="274"/>
-      <c r="BP5" s="274"/>
-      <c r="BQ5" s="274"/>
-      <c r="BR5" s="274"/>
-      <c r="BS5" s="274"/>
-      <c r="BT5" s="274"/>
-      <c r="BU5" s="274"/>
-      <c r="BV5" s="274"/>
-      <c r="BW5" s="274"/>
-      <c r="BX5" s="274"/>
-      <c r="BY5" s="274"/>
-      <c r="BZ5" s="274"/>
-      <c r="CA5" s="274"/>
-      <c r="CB5" s="274"/>
-      <c r="CC5" s="274"/>
-      <c r="CD5" s="274"/>
-      <c r="CE5" s="274"/>
-      <c r="CF5" s="298"/>
-      <c r="CG5" s="298"/>
-      <c r="CH5" s="298"/>
-      <c r="CI5" s="298"/>
-      <c r="CJ5" s="298"/>
-      <c r="CK5" s="298"/>
-      <c r="CL5" s="298"/>
-      <c r="CM5" s="298"/>
-      <c r="CN5" s="298"/>
-      <c r="CO5" s="298"/>
-      <c r="CP5" s="298"/>
-      <c r="CQ5" s="298"/>
-      <c r="CR5" s="298"/>
-      <c r="CS5" s="298"/>
-      <c r="CT5" s="298"/>
-      <c r="CU5" s="298"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="263"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="263"/>
+      <c r="AF5" s="263"/>
+      <c r="AG5" s="263"/>
+      <c r="AH5" s="263"/>
+      <c r="AI5" s="263"/>
+      <c r="AJ5" s="263"/>
+      <c r="AK5" s="263"/>
+      <c r="AL5" s="263"/>
+      <c r="AM5" s="263"/>
+      <c r="AN5" s="263"/>
+      <c r="AO5" s="263"/>
+      <c r="AP5" s="263"/>
+      <c r="AQ5" s="263"/>
+      <c r="AR5" s="263"/>
+      <c r="AS5" s="263"/>
+      <c r="AT5" s="263"/>
+      <c r="AU5" s="263"/>
+      <c r="AV5" s="263"/>
+      <c r="AW5" s="263"/>
+      <c r="AX5" s="263"/>
+      <c r="AY5" s="263"/>
+      <c r="AZ5" s="263"/>
+      <c r="BA5" s="263"/>
+      <c r="BB5" s="263"/>
+      <c r="BC5" s="263"/>
+      <c r="BD5" s="263"/>
+      <c r="BE5" s="263"/>
+      <c r="BF5" s="263"/>
+      <c r="BG5" s="263"/>
+      <c r="BH5" s="263"/>
+      <c r="BI5" s="263"/>
+      <c r="BJ5" s="263"/>
+      <c r="BK5" s="263"/>
+      <c r="BL5" s="263"/>
+      <c r="BM5" s="263"/>
+      <c r="BN5" s="263"/>
+      <c r="BO5" s="263"/>
+      <c r="BP5" s="263"/>
+      <c r="BQ5" s="263"/>
+      <c r="BR5" s="263"/>
+      <c r="BS5" s="263"/>
+      <c r="BT5" s="263"/>
+      <c r="BU5" s="263"/>
+      <c r="BV5" s="263"/>
+      <c r="BW5" s="263"/>
+      <c r="BX5" s="263"/>
+      <c r="BY5" s="263"/>
+      <c r="BZ5" s="263"/>
+      <c r="CA5" s="263"/>
+      <c r="CB5" s="263"/>
+      <c r="CC5" s="263"/>
+      <c r="CD5" s="263"/>
+      <c r="CE5" s="263"/>
+      <c r="CF5" s="234"/>
+      <c r="CG5" s="234"/>
+      <c r="CH5" s="234"/>
+      <c r="CI5" s="234"/>
+      <c r="CJ5" s="234"/>
+      <c r="CK5" s="234"/>
+      <c r="CL5" s="234"/>
+      <c r="CM5" s="234"/>
+      <c r="CN5" s="234"/>
+      <c r="CO5" s="234"/>
+      <c r="CP5" s="234"/>
+      <c r="CQ5" s="234"/>
+      <c r="CR5" s="234"/>
+      <c r="CS5" s="234"/>
+      <c r="CT5" s="234"/>
+      <c r="CU5" s="234"/>
       <c r="CV5" s="6"/>
       <c r="CW5" s="6"/>
       <c r="CX5" s="6"/>
@@ -32040,433 +32014,433 @@
       <c r="DG6" s="7"/>
     </row>
     <row r="7" spans="1:136" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="278" t="s">
+      <c r="A7" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="281" t="s">
+      <c r="C7" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="261" t="s">
+      <c r="D7" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="261" t="s">
+      <c r="E7" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="284" t="s">
+      <c r="F7" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="254" t="s">
+      <c r="G7" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="254"/>
-      <c r="K7" s="254"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="254"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="254"/>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="254"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="254"/>
-      <c r="W7" s="254"/>
-      <c r="X7" s="254"/>
-      <c r="Y7" s="254"/>
-      <c r="Z7" s="254"/>
-      <c r="AA7" s="254"/>
-      <c r="AB7" s="254"/>
-      <c r="AC7" s="254"/>
-      <c r="AD7" s="254"/>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="254"/>
-      <c r="AG7" s="254"/>
-      <c r="AH7" s="254"/>
-      <c r="AI7" s="254"/>
-      <c r="AJ7" s="254"/>
-      <c r="AK7" s="254"/>
-      <c r="AL7" s="254"/>
-      <c r="AM7" s="254"/>
-      <c r="AN7" s="254"/>
-      <c r="AO7" s="254"/>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="254"/>
-      <c r="AR7" s="254"/>
-      <c r="AS7" s="254"/>
-      <c r="AT7" s="254"/>
-      <c r="AU7" s="254"/>
-      <c r="AV7" s="254"/>
-      <c r="AW7" s="254"/>
-      <c r="AX7" s="254"/>
-      <c r="AY7" s="254"/>
-      <c r="AZ7" s="254"/>
-      <c r="BA7" s="254"/>
-      <c r="BB7" s="254"/>
-      <c r="BC7" s="254"/>
-      <c r="BD7" s="254"/>
-      <c r="BE7" s="254"/>
-      <c r="BF7" s="254"/>
-      <c r="BG7" s="254"/>
-      <c r="BH7" s="254"/>
-      <c r="BI7" s="254"/>
-      <c r="BJ7" s="254"/>
-      <c r="BK7" s="254"/>
-      <c r="BL7" s="254"/>
-      <c r="BM7" s="254"/>
-      <c r="BN7" s="254"/>
-      <c r="BO7" s="254"/>
-      <c r="BP7" s="254"/>
-      <c r="BQ7" s="254"/>
-      <c r="BR7" s="254"/>
-      <c r="BS7" s="254"/>
-      <c r="BT7" s="254"/>
-      <c r="BU7" s="254"/>
-      <c r="BV7" s="254"/>
-      <c r="BW7" s="254"/>
-      <c r="BX7" s="254"/>
-      <c r="BY7" s="254"/>
-      <c r="BZ7" s="254"/>
-      <c r="CA7" s="254"/>
-      <c r="CB7" s="254"/>
-      <c r="CC7" s="254"/>
-      <c r="CD7" s="254"/>
-      <c r="CE7" s="254"/>
-      <c r="CF7" s="254"/>
-      <c r="CG7" s="254"/>
-      <c r="CH7" s="254"/>
-      <c r="CI7" s="254"/>
-      <c r="CJ7" s="254"/>
-      <c r="CK7" s="254"/>
-      <c r="CL7" s="254"/>
-      <c r="CM7" s="254"/>
-      <c r="CN7" s="254"/>
-      <c r="CO7" s="254"/>
-      <c r="CP7" s="254"/>
-      <c r="CQ7" s="254"/>
-      <c r="CR7" s="254"/>
-      <c r="CS7" s="254"/>
-      <c r="CT7" s="254"/>
-      <c r="CU7" s="254"/>
-      <c r="CV7" s="268" t="s">
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="289"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="289"/>
+      <c r="M7" s="289"/>
+      <c r="N7" s="289"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="289"/>
+      <c r="T7" s="289"/>
+      <c r="U7" s="289"/>
+      <c r="V7" s="289"/>
+      <c r="W7" s="289"/>
+      <c r="X7" s="289"/>
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="289"/>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="289"/>
+      <c r="AC7" s="289"/>
+      <c r="AD7" s="289"/>
+      <c r="AE7" s="289"/>
+      <c r="AF7" s="289"/>
+      <c r="AG7" s="289"/>
+      <c r="AH7" s="289"/>
+      <c r="AI7" s="289"/>
+      <c r="AJ7" s="289"/>
+      <c r="AK7" s="289"/>
+      <c r="AL7" s="289"/>
+      <c r="AM7" s="289"/>
+      <c r="AN7" s="289"/>
+      <c r="AO7" s="289"/>
+      <c r="AP7" s="289"/>
+      <c r="AQ7" s="289"/>
+      <c r="AR7" s="289"/>
+      <c r="AS7" s="289"/>
+      <c r="AT7" s="289"/>
+      <c r="AU7" s="289"/>
+      <c r="AV7" s="289"/>
+      <c r="AW7" s="289"/>
+      <c r="AX7" s="289"/>
+      <c r="AY7" s="289"/>
+      <c r="AZ7" s="289"/>
+      <c r="BA7" s="289"/>
+      <c r="BB7" s="289"/>
+      <c r="BC7" s="289"/>
+      <c r="BD7" s="289"/>
+      <c r="BE7" s="289"/>
+      <c r="BF7" s="289"/>
+      <c r="BG7" s="289"/>
+      <c r="BH7" s="289"/>
+      <c r="BI7" s="289"/>
+      <c r="BJ7" s="289"/>
+      <c r="BK7" s="289"/>
+      <c r="BL7" s="289"/>
+      <c r="BM7" s="289"/>
+      <c r="BN7" s="289"/>
+      <c r="BO7" s="289"/>
+      <c r="BP7" s="289"/>
+      <c r="BQ7" s="289"/>
+      <c r="BR7" s="289"/>
+      <c r="BS7" s="289"/>
+      <c r="BT7" s="289"/>
+      <c r="BU7" s="289"/>
+      <c r="BV7" s="289"/>
+      <c r="BW7" s="289"/>
+      <c r="BX7" s="289"/>
+      <c r="BY7" s="289"/>
+      <c r="BZ7" s="289"/>
+      <c r="CA7" s="289"/>
+      <c r="CB7" s="289"/>
+      <c r="CC7" s="289"/>
+      <c r="CD7" s="289"/>
+      <c r="CE7" s="289"/>
+      <c r="CF7" s="289"/>
+      <c r="CG7" s="289"/>
+      <c r="CH7" s="289"/>
+      <c r="CI7" s="289"/>
+      <c r="CJ7" s="289"/>
+      <c r="CK7" s="289"/>
+      <c r="CL7" s="289"/>
+      <c r="CM7" s="289"/>
+      <c r="CN7" s="289"/>
+      <c r="CO7" s="289"/>
+      <c r="CP7" s="289"/>
+      <c r="CQ7" s="289"/>
+      <c r="CR7" s="289"/>
+      <c r="CS7" s="289"/>
+      <c r="CT7" s="289"/>
+      <c r="CU7" s="289"/>
+      <c r="CV7" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="CW7" s="269"/>
-      <c r="CX7" s="268" t="s">
+      <c r="CW7" s="252"/>
+      <c r="CX7" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="CY7" s="272"/>
-      <c r="CZ7" s="272"/>
-      <c r="DA7" s="272"/>
-      <c r="DB7" s="272"/>
-      <c r="DC7" s="272"/>
-      <c r="DD7" s="272"/>
-      <c r="DE7" s="272"/>
-      <c r="DF7" s="272"/>
-      <c r="DG7" s="272"/>
-      <c r="DH7" s="244" t="s">
+      <c r="CY7" s="255"/>
+      <c r="CZ7" s="255"/>
+      <c r="DA7" s="255"/>
+      <c r="DB7" s="255"/>
+      <c r="DC7" s="255"/>
+      <c r="DD7" s="255"/>
+      <c r="DE7" s="255"/>
+      <c r="DF7" s="255"/>
+      <c r="DG7" s="255"/>
+      <c r="DH7" s="279" t="s">
         <v>37</v>
       </c>
-      <c r="DI7" s="247" t="s">
+      <c r="DI7" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="DJ7" s="257" t="s">
+      <c r="DJ7" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="DK7" s="257"/>
-      <c r="DL7" s="257"/>
-      <c r="DM7" s="257"/>
-      <c r="DN7" s="257"/>
-      <c r="DO7" s="258"/>
+      <c r="DK7" s="240"/>
+      <c r="DL7" s="240"/>
+      <c r="DM7" s="240"/>
+      <c r="DN7" s="240"/>
+      <c r="DO7" s="241"/>
     </row>
     <row r="8" spans="1:136" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="276"/>
-      <c r="B8" s="279"/>
-      <c r="C8" s="282"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="255"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="255"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="255"/>
-      <c r="W8" s="255"/>
-      <c r="X8" s="255"/>
-      <c r="Y8" s="255"/>
-      <c r="Z8" s="255"/>
-      <c r="AA8" s="255"/>
-      <c r="AB8" s="255"/>
-      <c r="AC8" s="255"/>
-      <c r="AD8" s="255"/>
-      <c r="AE8" s="255"/>
-      <c r="AF8" s="255"/>
-      <c r="AG8" s="255"/>
-      <c r="AH8" s="255"/>
-      <c r="AI8" s="255"/>
-      <c r="AJ8" s="255"/>
-      <c r="AK8" s="255"/>
-      <c r="AL8" s="255"/>
-      <c r="AM8" s="255"/>
-      <c r="AN8" s="255"/>
-      <c r="AO8" s="255"/>
-      <c r="AP8" s="255"/>
-      <c r="AQ8" s="255"/>
-      <c r="AR8" s="255"/>
-      <c r="AS8" s="255"/>
-      <c r="AT8" s="255"/>
-      <c r="AU8" s="255"/>
-      <c r="AV8" s="255"/>
-      <c r="AW8" s="255"/>
-      <c r="AX8" s="255"/>
-      <c r="AY8" s="255"/>
-      <c r="AZ8" s="255"/>
-      <c r="BA8" s="255"/>
-      <c r="BB8" s="255"/>
-      <c r="BC8" s="255"/>
-      <c r="BD8" s="255"/>
-      <c r="BE8" s="255"/>
-      <c r="BF8" s="255"/>
-      <c r="BG8" s="255"/>
-      <c r="BH8" s="255"/>
-      <c r="BI8" s="255"/>
-      <c r="BJ8" s="255"/>
-      <c r="BK8" s="255"/>
-      <c r="BL8" s="255"/>
-      <c r="BM8" s="255"/>
-      <c r="BN8" s="255"/>
-      <c r="BO8" s="256"/>
-      <c r="BP8" s="256"/>
-      <c r="BQ8" s="256"/>
-      <c r="BR8" s="255"/>
-      <c r="BS8" s="255"/>
-      <c r="BT8" s="255"/>
-      <c r="BU8" s="255"/>
-      <c r="BV8" s="255"/>
-      <c r="BW8" s="255"/>
-      <c r="BX8" s="255"/>
-      <c r="BY8" s="255"/>
-      <c r="BZ8" s="255"/>
-      <c r="CA8" s="255"/>
-      <c r="CB8" s="255"/>
-      <c r="CC8" s="255"/>
-      <c r="CD8" s="255"/>
-      <c r="CE8" s="255"/>
-      <c r="CF8" s="255"/>
-      <c r="CG8" s="255"/>
-      <c r="CH8" s="255"/>
-      <c r="CI8" s="255"/>
-      <c r="CJ8" s="255"/>
-      <c r="CK8" s="255"/>
-      <c r="CL8" s="255"/>
-      <c r="CM8" s="255"/>
-      <c r="CN8" s="255"/>
-      <c r="CO8" s="255"/>
-      <c r="CP8" s="255"/>
-      <c r="CQ8" s="255"/>
-      <c r="CR8" s="255"/>
-      <c r="CS8" s="255"/>
-      <c r="CT8" s="255"/>
-      <c r="CU8" s="255"/>
-      <c r="CV8" s="270"/>
-      <c r="CW8" s="271"/>
-      <c r="CX8" s="270"/>
-      <c r="CY8" s="273"/>
-      <c r="CZ8" s="273"/>
-      <c r="DA8" s="273"/>
-      <c r="DB8" s="273"/>
-      <c r="DC8" s="273"/>
-      <c r="DD8" s="273"/>
-      <c r="DE8" s="273"/>
-      <c r="DF8" s="273"/>
-      <c r="DG8" s="273"/>
-      <c r="DH8" s="245"/>
-      <c r="DI8" s="248"/>
-      <c r="DJ8" s="259"/>
-      <c r="DK8" s="259"/>
-      <c r="DL8" s="259"/>
-      <c r="DM8" s="259"/>
-      <c r="DN8" s="259"/>
-      <c r="DO8" s="260"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="268"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="274"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="290"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="290"/>
+      <c r="AG8" s="290"/>
+      <c r="AH8" s="290"/>
+      <c r="AI8" s="290"/>
+      <c r="AJ8" s="290"/>
+      <c r="AK8" s="290"/>
+      <c r="AL8" s="290"/>
+      <c r="AM8" s="290"/>
+      <c r="AN8" s="290"/>
+      <c r="AO8" s="290"/>
+      <c r="AP8" s="290"/>
+      <c r="AQ8" s="290"/>
+      <c r="AR8" s="290"/>
+      <c r="AS8" s="290"/>
+      <c r="AT8" s="290"/>
+      <c r="AU8" s="290"/>
+      <c r="AV8" s="290"/>
+      <c r="AW8" s="290"/>
+      <c r="AX8" s="290"/>
+      <c r="AY8" s="290"/>
+      <c r="AZ8" s="290"/>
+      <c r="BA8" s="290"/>
+      <c r="BB8" s="290"/>
+      <c r="BC8" s="290"/>
+      <c r="BD8" s="290"/>
+      <c r="BE8" s="290"/>
+      <c r="BF8" s="290"/>
+      <c r="BG8" s="290"/>
+      <c r="BH8" s="290"/>
+      <c r="BI8" s="290"/>
+      <c r="BJ8" s="290"/>
+      <c r="BK8" s="290"/>
+      <c r="BL8" s="290"/>
+      <c r="BM8" s="290"/>
+      <c r="BN8" s="290"/>
+      <c r="BO8" s="291"/>
+      <c r="BP8" s="291"/>
+      <c r="BQ8" s="291"/>
+      <c r="BR8" s="290"/>
+      <c r="BS8" s="290"/>
+      <c r="BT8" s="290"/>
+      <c r="BU8" s="290"/>
+      <c r="BV8" s="290"/>
+      <c r="BW8" s="290"/>
+      <c r="BX8" s="290"/>
+      <c r="BY8" s="290"/>
+      <c r="BZ8" s="290"/>
+      <c r="CA8" s="290"/>
+      <c r="CB8" s="290"/>
+      <c r="CC8" s="290"/>
+      <c r="CD8" s="290"/>
+      <c r="CE8" s="290"/>
+      <c r="CF8" s="290"/>
+      <c r="CG8" s="290"/>
+      <c r="CH8" s="290"/>
+      <c r="CI8" s="290"/>
+      <c r="CJ8" s="290"/>
+      <c r="CK8" s="290"/>
+      <c r="CL8" s="290"/>
+      <c r="CM8" s="290"/>
+      <c r="CN8" s="290"/>
+      <c r="CO8" s="290"/>
+      <c r="CP8" s="290"/>
+      <c r="CQ8" s="290"/>
+      <c r="CR8" s="290"/>
+      <c r="CS8" s="290"/>
+      <c r="CT8" s="290"/>
+      <c r="CU8" s="290"/>
+      <c r="CV8" s="253"/>
+      <c r="CW8" s="254"/>
+      <c r="CX8" s="253"/>
+      <c r="CY8" s="256"/>
+      <c r="CZ8" s="256"/>
+      <c r="DA8" s="256"/>
+      <c r="DB8" s="256"/>
+      <c r="DC8" s="256"/>
+      <c r="DD8" s="256"/>
+      <c r="DE8" s="256"/>
+      <c r="DF8" s="256"/>
+      <c r="DG8" s="256"/>
+      <c r="DH8" s="280"/>
+      <c r="DI8" s="283"/>
+      <c r="DJ8" s="242"/>
+      <c r="DK8" s="242"/>
+      <c r="DL8" s="242"/>
+      <c r="DM8" s="242"/>
+      <c r="DN8" s="242"/>
+      <c r="DO8" s="243"/>
     </row>
     <row r="9" spans="1:136" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="277"/>
-      <c r="B9" s="280"/>
-      <c r="C9" s="283"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="296">
+      <c r="A9" s="266"/>
+      <c r="B9" s="269"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="303">
         <v>1</v>
       </c>
-      <c r="H9" s="288"/>
-      <c r="I9" s="289"/>
-      <c r="J9" s="287">
+      <c r="H9" s="295"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="294">
         <v>2</v>
       </c>
-      <c r="K9" s="288"/>
-      <c r="L9" s="289"/>
-      <c r="M9" s="287">
+      <c r="K9" s="295"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="294">
         <v>3</v>
       </c>
-      <c r="N9" s="288"/>
-      <c r="O9" s="291"/>
-      <c r="P9" s="287">
+      <c r="N9" s="295"/>
+      <c r="O9" s="298"/>
+      <c r="P9" s="294">
         <v>4</v>
       </c>
-      <c r="Q9" s="288"/>
-      <c r="R9" s="289"/>
-      <c r="S9" s="239">
+      <c r="Q9" s="295"/>
+      <c r="R9" s="296"/>
+      <c r="S9" s="257">
         <v>5</v>
       </c>
-      <c r="T9" s="240"/>
-      <c r="U9" s="241"/>
-      <c r="V9" s="239">
+      <c r="T9" s="258"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="257">
         <v>6</v>
       </c>
-      <c r="W9" s="240"/>
-      <c r="X9" s="242"/>
-      <c r="Y9" s="287">
+      <c r="W9" s="258"/>
+      <c r="X9" s="259"/>
+      <c r="Y9" s="294">
         <v>7</v>
       </c>
-      <c r="Z9" s="288"/>
-      <c r="AA9" s="289"/>
-      <c r="AB9" s="287">
+      <c r="Z9" s="295"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="294">
         <v>8</v>
       </c>
-      <c r="AC9" s="288"/>
-      <c r="AD9" s="289"/>
-      <c r="AE9" s="287">
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="296"/>
+      <c r="AE9" s="294">
         <v>9</v>
       </c>
-      <c r="AF9" s="288"/>
-      <c r="AG9" s="291"/>
-      <c r="AH9" s="287">
+      <c r="AF9" s="295"/>
+      <c r="AG9" s="298"/>
+      <c r="AH9" s="294">
         <v>10</v>
       </c>
-      <c r="AI9" s="288"/>
-      <c r="AJ9" s="289"/>
-      <c r="AK9" s="287">
+      <c r="AI9" s="295"/>
+      <c r="AJ9" s="296"/>
+      <c r="AK9" s="294">
         <v>11</v>
       </c>
-      <c r="AL9" s="288"/>
-      <c r="AM9" s="289"/>
-      <c r="AN9" s="253">
+      <c r="AL9" s="295"/>
+      <c r="AM9" s="296"/>
+      <c r="AN9" s="288">
         <v>12</v>
       </c>
-      <c r="AO9" s="240"/>
-      <c r="AP9" s="241"/>
-      <c r="AQ9" s="239">
+      <c r="AO9" s="258"/>
+      <c r="AP9" s="278"/>
+      <c r="AQ9" s="257">
         <v>13</v>
       </c>
-      <c r="AR9" s="240"/>
-      <c r="AS9" s="242"/>
-      <c r="AT9" s="290">
+      <c r="AR9" s="258"/>
+      <c r="AS9" s="259"/>
+      <c r="AT9" s="297">
         <v>14</v>
       </c>
-      <c r="AU9" s="288"/>
-      <c r="AV9" s="289"/>
-      <c r="AW9" s="287">
+      <c r="AU9" s="295"/>
+      <c r="AV9" s="296"/>
+      <c r="AW9" s="294">
         <v>15</v>
       </c>
-      <c r="AX9" s="288"/>
-      <c r="AY9" s="289"/>
-      <c r="AZ9" s="287">
+      <c r="AX9" s="295"/>
+      <c r="AY9" s="296"/>
+      <c r="AZ9" s="294">
         <v>16</v>
       </c>
-      <c r="BA9" s="288"/>
-      <c r="BB9" s="289"/>
-      <c r="BC9" s="287">
+      <c r="BA9" s="295"/>
+      <c r="BB9" s="296"/>
+      <c r="BC9" s="294">
         <v>17</v>
       </c>
-      <c r="BD9" s="288"/>
-      <c r="BE9" s="291"/>
-      <c r="BF9" s="287">
+      <c r="BD9" s="295"/>
+      <c r="BE9" s="298"/>
+      <c r="BF9" s="294">
         <v>18</v>
       </c>
-      <c r="BG9" s="288"/>
-      <c r="BH9" s="289"/>
-      <c r="BI9" s="253">
+      <c r="BG9" s="295"/>
+      <c r="BH9" s="296"/>
+      <c r="BI9" s="288">
         <v>19</v>
       </c>
-      <c r="BJ9" s="240"/>
-      <c r="BK9" s="241"/>
-      <c r="BL9" s="239">
+      <c r="BJ9" s="258"/>
+      <c r="BK9" s="278"/>
+      <c r="BL9" s="257">
         <v>20</v>
       </c>
-      <c r="BM9" s="240"/>
-      <c r="BN9" s="242"/>
-      <c r="BO9" s="287">
+      <c r="BM9" s="258"/>
+      <c r="BN9" s="259"/>
+      <c r="BO9" s="294">
         <v>21</v>
       </c>
-      <c r="BP9" s="288"/>
-      <c r="BQ9" s="289"/>
-      <c r="BR9" s="287">
+      <c r="BP9" s="295"/>
+      <c r="BQ9" s="296"/>
+      <c r="BR9" s="294">
         <v>22</v>
       </c>
-      <c r="BS9" s="288"/>
-      <c r="BT9" s="289"/>
-      <c r="BU9" s="290">
+      <c r="BS9" s="295"/>
+      <c r="BT9" s="296"/>
+      <c r="BU9" s="297">
         <v>23</v>
       </c>
-      <c r="BV9" s="288"/>
-      <c r="BW9" s="291"/>
-      <c r="BX9" s="287">
+      <c r="BV9" s="295"/>
+      <c r="BW9" s="298"/>
+      <c r="BX9" s="294">
         <v>24</v>
       </c>
-      <c r="BY9" s="288"/>
-      <c r="BZ9" s="289"/>
-      <c r="CA9" s="290">
+      <c r="BY9" s="295"/>
+      <c r="BZ9" s="296"/>
+      <c r="CA9" s="297">
         <v>25</v>
       </c>
-      <c r="CB9" s="288"/>
-      <c r="CC9" s="291"/>
-      <c r="CD9" s="239">
+      <c r="CB9" s="295"/>
+      <c r="CC9" s="298"/>
+      <c r="CD9" s="257">
         <v>26</v>
       </c>
-      <c r="CE9" s="240"/>
-      <c r="CF9" s="242"/>
-      <c r="CG9" s="253">
+      <c r="CE9" s="258"/>
+      <c r="CF9" s="259"/>
+      <c r="CG9" s="288">
         <v>27</v>
       </c>
-      <c r="CH9" s="240"/>
-      <c r="CI9" s="241"/>
-      <c r="CJ9" s="287">
+      <c r="CH9" s="258"/>
+      <c r="CI9" s="278"/>
+      <c r="CJ9" s="294">
         <v>28</v>
       </c>
-      <c r="CK9" s="288"/>
-      <c r="CL9" s="289"/>
-      <c r="CM9" s="287">
+      <c r="CK9" s="295"/>
+      <c r="CL9" s="296"/>
+      <c r="CM9" s="294">
         <v>29</v>
       </c>
-      <c r="CN9" s="288"/>
-      <c r="CO9" s="289"/>
-      <c r="CP9" s="287">
+      <c r="CN9" s="295"/>
+      <c r="CO9" s="296"/>
+      <c r="CP9" s="294">
         <v>30</v>
       </c>
-      <c r="CQ9" s="288"/>
-      <c r="CR9" s="289"/>
-      <c r="CS9" s="293">
+      <c r="CQ9" s="295"/>
+      <c r="CR9" s="296"/>
+      <c r="CS9" s="300">
         <v>31</v>
       </c>
-      <c r="CT9" s="294"/>
-      <c r="CU9" s="295"/>
+      <c r="CT9" s="301"/>
+      <c r="CU9" s="302"/>
       <c r="CV9" s="8" t="s">
         <v>2</v>
       </c>
@@ -32503,8 +32477,8 @@
       <c r="DG9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="DH9" s="246"/>
-      <c r="DI9" s="249"/>
+      <c r="DH9" s="281"/>
+      <c r="DI9" s="284"/>
       <c r="DJ9" s="13" t="s">
         <v>5</v>
       </c>
@@ -33590,83 +33564,83 @@
       <c r="CT13" s="122"/>
       <c r="CU13" s="122"/>
       <c r="CV13" s="97">
-        <f>SUM(CV11:CV12)</f>
+        <f t="shared" ref="CV13:DO13" si="28">SUM(CV11:CV12)</f>
         <v>24</v>
       </c>
       <c r="CW13" s="81">
-        <f>SUM(CW11:CW12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CX13" s="97">
-        <f>SUM(CX11:CX12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CY13" s="81">
-        <f>SUM(CY11:CY12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CZ13" s="81">
-        <f>SUM(CZ11:CZ12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DA13" s="81">
-        <f>SUM(DA11:DA12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DB13" s="81">
-        <f>SUM(DB11:DB12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DC13" s="81">
-        <f>SUM(DC11:DC12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DD13" s="81">
-        <f>SUM(DD11:DD12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DE13" s="81">
-        <f>SUM(DE11:DE12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DF13" s="81">
-        <f>SUM(DF11:DF12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DG13" s="81">
-        <f>SUM(DG11:DG12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DH13" s="81">
-        <f>SUM(DH11:DH12)</f>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="DI13" s="97">
-        <f>SUM(DI11:DI12)</f>
+        <f t="shared" si="28"/>
         <v>48</v>
       </c>
       <c r="DJ13" s="77">
-        <f>SUM(DJ11:DJ12)</f>
+        <f t="shared" si="28"/>
         <v>270</v>
       </c>
       <c r="DK13" s="77">
-        <f>SUM(DK11:DK12)</f>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="DL13" s="77">
-        <f>SUM(DL11:DL12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DM13" s="77">
-        <f>SUM(DM11:DM12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DN13" s="77">
-        <f>SUM(DN11:DN12)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="DO13" s="77">
-        <f>SUM(DO11:DO12)</f>
+        <f t="shared" si="28"/>
         <v>270</v>
       </c>
       <c r="DQ13" s="32"/>
@@ -34122,45 +34096,45 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="233"/>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="233"/>
-      <c r="M20" s="233"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="233"/>
-      <c r="P20" s="233"/>
-      <c r="Q20" s="233"/>
-      <c r="R20" s="233"/>
-      <c r="S20" s="233"/>
-      <c r="T20" s="233"/>
-      <c r="U20" s="233"/>
-      <c r="V20" s="233"/>
-      <c r="W20" s="233"/>
-      <c r="X20" s="233"/>
-      <c r="Y20" s="233"/>
-      <c r="Z20" s="233"/>
-      <c r="AA20" s="233"/>
-      <c r="AB20" s="233"/>
-      <c r="AC20" s="233"/>
-      <c r="AD20" s="233"/>
-      <c r="AE20" s="233"/>
-      <c r="AF20" s="233"/>
-      <c r="AG20" s="233"/>
-      <c r="AH20" s="233"/>
-      <c r="AI20" s="233"/>
-      <c r="AJ20" s="233"/>
-      <c r="AK20" s="233"/>
-      <c r="AL20" s="233"/>
-      <c r="AM20" s="233"/>
-      <c r="AN20" s="233"/>
-      <c r="AO20" s="233"/>
-      <c r="AP20" s="233"/>
-      <c r="AQ20" s="233"/>
-      <c r="AR20" s="233"/>
-      <c r="AS20" s="233"/>
+      <c r="G20" s="292"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="292"/>
+      <c r="J20" s="292"/>
+      <c r="K20" s="292"/>
+      <c r="L20" s="292"/>
+      <c r="M20" s="292"/>
+      <c r="N20" s="292"/>
+      <c r="O20" s="292"/>
+      <c r="P20" s="292"/>
+      <c r="Q20" s="292"/>
+      <c r="R20" s="292"/>
+      <c r="S20" s="292"/>
+      <c r="T20" s="292"/>
+      <c r="U20" s="292"/>
+      <c r="V20" s="292"/>
+      <c r="W20" s="292"/>
+      <c r="X20" s="292"/>
+      <c r="Y20" s="292"/>
+      <c r="Z20" s="292"/>
+      <c r="AA20" s="292"/>
+      <c r="AB20" s="292"/>
+      <c r="AC20" s="292"/>
+      <c r="AD20" s="292"/>
+      <c r="AE20" s="292"/>
+      <c r="AF20" s="292"/>
+      <c r="AG20" s="292"/>
+      <c r="AH20" s="292"/>
+      <c r="AI20" s="292"/>
+      <c r="AJ20" s="292"/>
+      <c r="AK20" s="292"/>
+      <c r="AL20" s="292"/>
+      <c r="AM20" s="292"/>
+      <c r="AN20" s="292"/>
+      <c r="AO20" s="292"/>
+      <c r="AP20" s="292"/>
+      <c r="AQ20" s="292"/>
+      <c r="AR20" s="292"/>
+      <c r="AS20" s="292"/>
       <c r="AT20" s="6"/>
       <c r="AU20" s="6"/>
       <c r="AV20" s="6"/>
@@ -34465,45 +34439,45 @@
       <c r="BZ23" s="123"/>
     </row>
     <row r="24" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="G24" s="233"/>
-      <c r="H24" s="233"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="233"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="233"/>
-      <c r="N24" s="233"/>
-      <c r="O24" s="233"/>
-      <c r="P24" s="233"/>
-      <c r="Q24" s="233"/>
-      <c r="R24" s="233"/>
-      <c r="S24" s="233"/>
-      <c r="T24" s="233"/>
-      <c r="U24" s="233"/>
-      <c r="V24" s="233"/>
-      <c r="W24" s="233"/>
-      <c r="X24" s="233"/>
-      <c r="Y24" s="233"/>
-      <c r="Z24" s="233"/>
-      <c r="AA24" s="233"/>
-      <c r="AB24" s="233"/>
-      <c r="AC24" s="233"/>
-      <c r="AD24" s="233"/>
-      <c r="AE24" s="233"/>
-      <c r="AF24" s="233"/>
-      <c r="AG24" s="233"/>
-      <c r="AH24" s="233"/>
-      <c r="AI24" s="233"/>
-      <c r="AJ24" s="233"/>
-      <c r="AK24" s="233"/>
-      <c r="AL24" s="233"/>
-      <c r="AM24" s="233"/>
-      <c r="AN24" s="233"/>
-      <c r="AO24" s="233"/>
-      <c r="AP24" s="233"/>
-      <c r="AQ24" s="233"/>
-      <c r="AR24" s="233"/>
-      <c r="AS24" s="233"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="292"/>
+      <c r="I24" s="292"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="292"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="292"/>
+      <c r="O24" s="292"/>
+      <c r="P24" s="292"/>
+      <c r="Q24" s="292"/>
+      <c r="R24" s="292"/>
+      <c r="S24" s="292"/>
+      <c r="T24" s="292"/>
+      <c r="U24" s="292"/>
+      <c r="V24" s="292"/>
+      <c r="W24" s="292"/>
+      <c r="X24" s="292"/>
+      <c r="Y24" s="292"/>
+      <c r="Z24" s="292"/>
+      <c r="AA24" s="292"/>
+      <c r="AB24" s="292"/>
+      <c r="AC24" s="292"/>
+      <c r="AD24" s="292"/>
+      <c r="AE24" s="292"/>
+      <c r="AF24" s="292"/>
+      <c r="AG24" s="292"/>
+      <c r="AH24" s="292"/>
+      <c r="AI24" s="292"/>
+      <c r="AJ24" s="292"/>
+      <c r="AK24" s="292"/>
+      <c r="AL24" s="292"/>
+      <c r="AM24" s="292"/>
+      <c r="AN24" s="292"/>
+      <c r="AO24" s="292"/>
+      <c r="AP24" s="292"/>
+      <c r="AQ24" s="292"/>
+      <c r="AR24" s="292"/>
+      <c r="AS24" s="292"/>
       <c r="AZ24" s="123"/>
       <c r="BA24" s="123"/>
       <c r="BB24" s="123"/>
@@ -36661,6 +36635,41 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="51">
+    <mergeCell ref="CF1:CR1"/>
+    <mergeCell ref="CF2:CR2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:CU8"/>
+    <mergeCell ref="CV7:CW8"/>
+    <mergeCell ref="CX7:DG8"/>
+    <mergeCell ref="DH7:DH9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="AQ9:AS9"/>
+    <mergeCell ref="DJ7:DO8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="DI7:DI9"/>
+    <mergeCell ref="BX9:BZ9"/>
+    <mergeCell ref="CA9:CC9"/>
+    <mergeCell ref="AT9:AV9"/>
+    <mergeCell ref="AW9:AY9"/>
+    <mergeCell ref="AZ9:BB9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BK9"/>
     <mergeCell ref="CF3:CV3"/>
     <mergeCell ref="G20:AS20"/>
     <mergeCell ref="G24:AS24"/>
@@ -36677,41 +36686,6 @@
     <mergeCell ref="BO9:BQ9"/>
     <mergeCell ref="BR9:BT9"/>
     <mergeCell ref="BU9:BW9"/>
-    <mergeCell ref="BX9:BZ9"/>
-    <mergeCell ref="CA9:CC9"/>
-    <mergeCell ref="AT9:AV9"/>
-    <mergeCell ref="AW9:AY9"/>
-    <mergeCell ref="AZ9:BB9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BK9"/>
-    <mergeCell ref="DJ7:DO8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:CU8"/>
-    <mergeCell ref="CV7:CW8"/>
-    <mergeCell ref="CX7:DG8"/>
-    <mergeCell ref="DH7:DH9"/>
-    <mergeCell ref="DI7:DI9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="AQ9:AS9"/>
-    <mergeCell ref="CF1:CR1"/>
-    <mergeCell ref="CF2:CR2"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y11:CU11 AE12:CU12">
     <cfRule type="containsText" dxfId="42" priority="151" operator="containsText" text="О">

--- a/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ТАБЕЛЬ Участок ремонта форм 2019 год Гавриленко.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="87">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1176,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1861,6 +1861,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6152,21 +6167,21 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="118"/>
       <c r="CT1" s="118"/>
-      <c r="CU1" s="253" t="s">
+      <c r="CU1" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="CV1" s="253"/>
-      <c r="CW1" s="253"/>
-      <c r="CX1" s="253"/>
-      <c r="CY1" s="253"/>
-      <c r="CZ1" s="253"/>
-      <c r="DA1" s="253"/>
-      <c r="DB1" s="253"/>
-      <c r="DC1" s="253"/>
-      <c r="DD1" s="253"/>
-      <c r="DE1" s="253"/>
-      <c r="DF1" s="253"/>
-      <c r="DG1" s="253"/>
+      <c r="CV1" s="258"/>
+      <c r="CW1" s="258"/>
+      <c r="CX1" s="258"/>
+      <c r="CY1" s="258"/>
+      <c r="CZ1" s="258"/>
+      <c r="DA1" s="258"/>
+      <c r="DB1" s="258"/>
+      <c r="DC1" s="258"/>
+      <c r="DD1" s="258"/>
+      <c r="DE1" s="258"/>
+      <c r="DF1" s="258"/>
+      <c r="DG1" s="258"/>
     </row>
     <row r="2" spans="1:136" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -6267,241 +6282,241 @@
       <c r="CR2" s="4"/>
       <c r="CS2" s="118"/>
       <c r="CT2" s="118"/>
-      <c r="CU2" s="254" t="s">
+      <c r="CU2" s="259" t="s">
         <v>71</v>
       </c>
-      <c r="CV2" s="254"/>
-      <c r="CW2" s="254"/>
-      <c r="CX2" s="254"/>
-      <c r="CY2" s="254"/>
-      <c r="CZ2" s="254"/>
-      <c r="DA2" s="254"/>
-      <c r="DB2" s="254"/>
-      <c r="DC2" s="254"/>
-      <c r="DD2" s="254"/>
-      <c r="DE2" s="254"/>
-      <c r="DF2" s="254"/>
-      <c r="DG2" s="254"/>
+      <c r="CV2" s="259"/>
+      <c r="CW2" s="259"/>
+      <c r="CX2" s="259"/>
+      <c r="CY2" s="259"/>
+      <c r="CZ2" s="259"/>
+      <c r="DA2" s="259"/>
+      <c r="DB2" s="259"/>
+      <c r="DC2" s="259"/>
+      <c r="DD2" s="259"/>
+      <c r="DE2" s="259"/>
+      <c r="DF2" s="259"/>
+      <c r="DG2" s="259"/>
     </row>
     <row r="3" spans="1:136" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="255"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="255"/>
-      <c r="AC3" s="255"/>
-      <c r="AD3" s="255"/>
-      <c r="AE3" s="255"/>
-      <c r="AF3" s="255"/>
-      <c r="AG3" s="255"/>
-      <c r="AH3" s="255"/>
-      <c r="AI3" s="255"/>
-      <c r="AJ3" s="255"/>
-      <c r="AK3" s="255"/>
-      <c r="AL3" s="255"/>
-      <c r="AM3" s="255"/>
-      <c r="AN3" s="255"/>
-      <c r="AO3" s="255"/>
-      <c r="AP3" s="255"/>
-      <c r="AQ3" s="255"/>
-      <c r="AR3" s="255"/>
-      <c r="AS3" s="255"/>
-      <c r="AT3" s="255"/>
-      <c r="AU3" s="255"/>
-      <c r="AV3" s="255"/>
-      <c r="AW3" s="255"/>
-      <c r="AX3" s="255"/>
-      <c r="AY3" s="255"/>
-      <c r="AZ3" s="255"/>
-      <c r="BA3" s="255"/>
-      <c r="BB3" s="255"/>
-      <c r="BC3" s="255"/>
-      <c r="BD3" s="255"/>
-      <c r="BE3" s="255"/>
-      <c r="BF3" s="255"/>
-      <c r="BG3" s="255"/>
-      <c r="BH3" s="255"/>
-      <c r="BI3" s="255"/>
-      <c r="BJ3" s="255"/>
-      <c r="BK3" s="255"/>
-      <c r="BL3" s="255"/>
-      <c r="BM3" s="255"/>
-      <c r="BN3" s="255"/>
-      <c r="BO3" s="255"/>
-      <c r="BP3" s="255"/>
-      <c r="BQ3" s="255"/>
-      <c r="BR3" s="255"/>
-      <c r="BS3" s="255"/>
-      <c r="BT3" s="255"/>
-      <c r="BU3" s="255"/>
-      <c r="BV3" s="255"/>
-      <c r="BW3" s="255"/>
-      <c r="BX3" s="255"/>
-      <c r="BY3" s="255"/>
-      <c r="BZ3" s="255"/>
-      <c r="CA3" s="255"/>
-      <c r="CB3" s="255"/>
-      <c r="CC3" s="255"/>
-      <c r="CD3" s="255"/>
-      <c r="CE3" s="255"/>
-      <c r="CF3" s="255"/>
-      <c r="CG3" s="255"/>
-      <c r="CH3" s="255"/>
-      <c r="CI3" s="255"/>
-      <c r="CJ3" s="255"/>
-      <c r="CK3" s="255"/>
-      <c r="CL3" s="255"/>
-      <c r="CM3" s="255"/>
-      <c r="CN3" s="255"/>
-      <c r="CO3" s="255"/>
-      <c r="CP3" s="255"/>
-      <c r="CQ3" s="255"/>
-      <c r="CR3" s="255"/>
-      <c r="CS3" s="255"/>
-      <c r="CT3" s="255"/>
-      <c r="CU3" s="255"/>
-      <c r="CV3" s="256" t="s">
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+   